--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -42,9 +42,9 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CI$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CJ$174</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -215,13 +215,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -351,9 +351,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,6 +370,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,11 +715,11 @@
   <dimension ref="A1:EV174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BZ31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CE31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="CM38" sqref="CM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -728,8 +728,8 @@
     <col min="2" max="73" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="80" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="11.36328125" style="2" customWidth="1"/>
-    <col min="82" max="87" width="11.36328125" style="26" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="11.6328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -764,136 +764,137 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="37">
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36">
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38">
         <v>2021</v>
       </c>
-      <c r="CI9" s="36"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1137,23 +1138,26 @@
       <c r="CC10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD10" s="28" t="s">
+      <c r="CD10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="28" t="s">
+      <c r="CE10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="28" t="s">
+      <c r="CF10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="28" t="s">
+      <c r="CG10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="28" t="s">
+      <c r="CH10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="28" t="s">
+      <c r="CI10" s="27" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,25 +1407,27 @@
       <c r="CC12" s="10">
         <v>65109.475496706458</v>
       </c>
-      <c r="CD12" s="29">
+      <c r="CD12" s="28">
         <v>56191.339198972157</v>
       </c>
-      <c r="CE12" s="29">
+      <c r="CE12" s="28">
         <v>33489.5223749508</v>
       </c>
-      <c r="CF12" s="29">
+      <c r="CF12" s="28">
         <v>45947.464699794124</v>
       </c>
-      <c r="CG12" s="29">
+      <c r="CG12" s="28">
         <v>51630.405225630595</v>
       </c>
-      <c r="CH12" s="29">
+      <c r="CH12" s="28">
         <v>46217.547957519266</v>
       </c>
-      <c r="CI12" s="29">
-        <v>53009.652922560002</v>
-      </c>
-      <c r="CJ12" s="11"/>
+      <c r="CI12" s="28">
+        <v>51133.717876952724</v>
+      </c>
+      <c r="CJ12" s="28">
+        <v>63295.490854101503</v>
+      </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
@@ -1731,25 +1737,27 @@
       <c r="CC13" s="10">
         <v>10960.327119215286</v>
       </c>
-      <c r="CD13" s="29">
+      <c r="CD13" s="28">
         <v>14932.408214534336</v>
       </c>
-      <c r="CE13" s="29">
+      <c r="CE13" s="28">
         <v>17031.757305659645</v>
       </c>
-      <c r="CF13" s="29">
+      <c r="CF13" s="28">
         <v>16097.826168477439</v>
       </c>
-      <c r="CG13" s="29">
+      <c r="CG13" s="28">
         <v>8294.396237569923</v>
       </c>
-      <c r="CH13" s="29">
+      <c r="CH13" s="28">
         <v>17957.118328936351</v>
       </c>
-      <c r="CI13" s="29">
-        <v>27577.844134527317</v>
-      </c>
-      <c r="CJ13" s="11"/>
+      <c r="CI13" s="28">
+        <v>27026.031128002116</v>
+      </c>
+      <c r="CJ13" s="28">
+        <v>19015.26178982457</v>
+      </c>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
@@ -2059,25 +2067,27 @@
       <c r="CC14" s="10">
         <v>240825.69504674777</v>
       </c>
-      <c r="CD14" s="29">
+      <c r="CD14" s="28">
         <v>163195.08531113193</v>
       </c>
-      <c r="CE14" s="29">
+      <c r="CE14" s="28">
         <v>91645.706522132052</v>
       </c>
-      <c r="CF14" s="29">
+      <c r="CF14" s="28">
         <v>104610.371337144</v>
       </c>
-      <c r="CG14" s="29">
+      <c r="CG14" s="28">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="29">
+      <c r="CH14" s="28">
         <v>52138.343197657821</v>
       </c>
-      <c r="CI14" s="29">
-        <v>43276.161913191463</v>
-      </c>
-      <c r="CJ14" s="11"/>
+      <c r="CI14" s="28">
+        <v>43239.536426352897</v>
+      </c>
+      <c r="CJ14" s="28">
+        <v>62997.561718120749</v>
+      </c>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
@@ -2387,25 +2397,27 @@
       <c r="CC15" s="10">
         <v>7109.70388121215</v>
       </c>
-      <c r="CD15" s="29">
+      <c r="CD15" s="28">
         <v>6851.0465202010328</v>
       </c>
-      <c r="CE15" s="29">
+      <c r="CE15" s="28">
         <v>7291.0047942151559</v>
       </c>
-      <c r="CF15" s="29">
+      <c r="CF15" s="28">
         <v>7530.7887349822013</v>
       </c>
-      <c r="CG15" s="29">
+      <c r="CG15" s="28">
         <v>7538.501696508205</v>
       </c>
-      <c r="CH15" s="29">
+      <c r="CH15" s="28">
         <v>5679.6560119769047</v>
       </c>
-      <c r="CI15" s="29">
+      <c r="CI15" s="28">
         <v>5290.2241479063814</v>
       </c>
-      <c r="CJ15" s="11"/>
+      <c r="CJ15" s="28">
+        <v>5484.9400799416435</v>
+      </c>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
@@ -2715,25 +2727,27 @@
       <c r="CC16" s="10">
         <v>16139.580988612473</v>
       </c>
-      <c r="CD16" s="29">
+      <c r="CD16" s="28">
         <v>19054.03115940719</v>
       </c>
-      <c r="CE16" s="29">
+      <c r="CE16" s="28">
         <v>20081.28589423871</v>
       </c>
-      <c r="CF16" s="29">
+      <c r="CF16" s="28">
         <v>17590.484290162494</v>
       </c>
-      <c r="CG16" s="29">
+      <c r="CG16" s="28">
         <v>18025.187912665155</v>
       </c>
-      <c r="CH16" s="29">
+      <c r="CH16" s="28">
         <v>24805.398331600456</v>
       </c>
-      <c r="CI16" s="29">
-        <v>31736.12593453495</v>
-      </c>
-      <c r="CJ16" s="11"/>
+      <c r="CI16" s="28">
+        <v>32831.581999304013</v>
+      </c>
+      <c r="CJ16" s="28">
+        <v>29972.092206437759</v>
+      </c>
       <c r="CK16" s="11"/>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
@@ -3043,25 +3057,27 @@
       <c r="CC17" s="10">
         <v>87733.866658546089</v>
       </c>
-      <c r="CD17" s="29">
+      <c r="CD17" s="28">
         <v>81898.849586222917</v>
       </c>
-      <c r="CE17" s="29">
+      <c r="CE17" s="28">
         <v>53216.97179014374</v>
       </c>
-      <c r="CF17" s="29">
+      <c r="CF17" s="28">
         <v>52825.849856136163</v>
       </c>
-      <c r="CG17" s="29">
+      <c r="CG17" s="28">
         <v>65350.852418259514</v>
       </c>
-      <c r="CH17" s="29">
+      <c r="CH17" s="28">
         <v>67876.094158562657</v>
       </c>
-      <c r="CI17" s="29">
-        <v>52616.386639893441</v>
-      </c>
-      <c r="CJ17" s="11"/>
+      <c r="CI17" s="28">
+        <v>58101.346674429522</v>
+      </c>
+      <c r="CJ17" s="28">
+        <v>62679.247188430585</v>
+      </c>
       <c r="CK17" s="11"/>
       <c r="CL17" s="11"/>
       <c r="CM17" s="11"/>
@@ -3371,25 +3387,27 @@
       <c r="CC18" s="10">
         <v>14180.6903439617</v>
       </c>
-      <c r="CD18" s="29">
+      <c r="CD18" s="28">
         <v>14001.188911952295</v>
       </c>
-      <c r="CE18" s="29">
+      <c r="CE18" s="28">
         <v>6523.9901905191382</v>
       </c>
-      <c r="CF18" s="29">
+      <c r="CF18" s="28">
         <v>5318.4618487945554</v>
       </c>
-      <c r="CG18" s="29">
+      <c r="CG18" s="28">
         <v>10056.579313594519</v>
       </c>
-      <c r="CH18" s="29">
+      <c r="CH18" s="28">
         <v>10566.058236994071</v>
       </c>
-      <c r="CI18" s="29">
-        <v>5001.9750812342627</v>
-      </c>
-      <c r="CJ18" s="11"/>
+      <c r="CI18" s="28">
+        <v>7254.4044780071463</v>
+      </c>
+      <c r="CJ18" s="28">
+        <v>8370.2630877699376</v>
+      </c>
       <c r="CK18" s="11"/>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
@@ -3699,25 +3717,27 @@
       <c r="CC19" s="10">
         <v>28611.604796469379</v>
       </c>
-      <c r="CD19" s="29">
+      <c r="CD19" s="28">
         <v>10726.08490475074</v>
       </c>
-      <c r="CE19" s="29">
+      <c r="CE19" s="28">
         <v>8192.3623023235959</v>
       </c>
-      <c r="CF19" s="29">
+      <c r="CF19" s="28">
         <v>7387.0656726230427</v>
       </c>
-      <c r="CG19" s="29">
+      <c r="CG19" s="28">
         <v>14614.091541127404</v>
       </c>
-      <c r="CH19" s="29">
+      <c r="CH19" s="28">
         <v>9143.2142543682112</v>
       </c>
-      <c r="CI19" s="29">
-        <v>5850.2597732811701</v>
-      </c>
-      <c r="CJ19" s="11"/>
+      <c r="CI19" s="28">
+        <v>6303.9115186210283</v>
+      </c>
+      <c r="CJ19" s="28">
+        <v>6161.639758123094</v>
+      </c>
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
@@ -3864,13 +3884,13 @@
       <c r="CA20" s="12"/>
       <c r="CB20" s="12"/>
       <c r="CC20" s="12"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="30"/>
-      <c r="CF20" s="30"/>
-      <c r="CG20" s="30"/>
-      <c r="CH20" s="30"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="11"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
+      <c r="CF20" s="29"/>
+      <c r="CG20" s="29"/>
+      <c r="CH20" s="29"/>
+      <c r="CI20" s="29"/>
+      <c r="CJ20" s="29"/>
       <c r="CK20" s="11"/>
       <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
@@ -4180,25 +4200,27 @@
       <c r="CC21" s="15">
         <v>470670.94433147134</v>
       </c>
-      <c r="CD21" s="31">
+      <c r="CD21" s="30">
         <v>366850.03380717261</v>
       </c>
-      <c r="CE21" s="31">
+      <c r="CE21" s="30">
         <v>237472.60117418281</v>
       </c>
-      <c r="CF21" s="31">
+      <c r="CF21" s="30">
         <v>257308.31260811404</v>
       </c>
-      <c r="CG21" s="31">
+      <c r="CG21" s="30">
         <v>265706.40651342284</v>
       </c>
-      <c r="CH21" s="31">
+      <c r="CH21" s="30">
         <v>234383.43047761574</v>
       </c>
-      <c r="CI21" s="31">
-        <v>224358.63054712897</v>
-      </c>
-      <c r="CJ21" s="11"/>
+      <c r="CI21" s="30">
+        <v>231180.75424957581</v>
+      </c>
+      <c r="CJ21" s="30">
+        <v>257976.49668274986</v>
+      </c>
       <c r="CK21" s="11"/>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
@@ -4346,12 +4368,13 @@
       <c r="CA22" s="17"/>
       <c r="CB22" s="17"/>
       <c r="CC22" s="17"/>
-      <c r="CD22" s="32"/>
-      <c r="CE22" s="32"/>
-      <c r="CF22" s="32"/>
-      <c r="CG22" s="32"/>
-      <c r="CH22" s="32"/>
-      <c r="CI22" s="32"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="31"/>
+      <c r="CF22" s="31"/>
+      <c r="CG22" s="31"/>
+      <c r="CH22" s="31"/>
+      <c r="CI22" s="31"/>
+      <c r="CJ22" s="31"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -4439,13 +4462,13 @@
       <c r="CA24" s="12"/>
       <c r="CB24" s="12"/>
       <c r="CC24" s="12"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="11"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
+      <c r="CF24" s="29"/>
+      <c r="CG24" s="29"/>
+      <c r="CH24" s="29"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
       <c r="CK24" s="11"/>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
@@ -4592,13 +4615,13 @@
       <c r="CA25" s="12"/>
       <c r="CB25" s="12"/>
       <c r="CC25" s="12"/>
-      <c r="CD25" s="30"/>
-      <c r="CE25" s="30"/>
-      <c r="CF25" s="30"/>
-      <c r="CG25" s="30"/>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="11"/>
+      <c r="CD25" s="29"/>
+      <c r="CE25" s="29"/>
+      <c r="CF25" s="29"/>
+      <c r="CG25" s="29"/>
+      <c r="CH25" s="29"/>
+      <c r="CI25" s="29"/>
+      <c r="CJ25" s="29"/>
       <c r="CK25" s="11"/>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
@@ -4696,114 +4719,114 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>2000</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
         <v>2001</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37">
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
         <v>2002</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
         <v>2003</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37">
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36">
         <v>2004</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37">
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>2005</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37">
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36">
         <v>2006</v>
       </c>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37">
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36">
         <v>2007</v>
       </c>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37">
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36">
         <v>2008</v>
       </c>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37">
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36">
         <v>2009</v>
       </c>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37">
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37">
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36">
         <v>2011</v>
       </c>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37">
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36">
         <v>2012</v>
       </c>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37">
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36">
         <v>2013</v>
       </c>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37">
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+      <c r="BF34" s="36">
         <v>2014</v>
       </c>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37">
+      <c r="BG34" s="36"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="36">
         <v>2015</v>
       </c>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BN34" s="37">
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="36"/>
+      <c r="BM34" s="36"/>
+      <c r="BN34" s="36">
         <v>2016</v>
       </c>
-      <c r="BO34" s="37"/>
-      <c r="BP34" s="37"/>
-      <c r="BQ34" s="37"/>
-      <c r="BR34" s="37">
+      <c r="BO34" s="36"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="36"/>
+      <c r="BR34" s="36">
         <v>2017</v>
       </c>
-      <c r="BS34" s="37"/>
-      <c r="BT34" s="37"/>
-      <c r="BU34" s="37"/>
+      <c r="BS34" s="36"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="36"/>
       <c r="BV34" s="39">
         <v>2018</v>
       </c>
@@ -4816,18 +4839,19 @@
       <c r="CA34" s="39"/>
       <c r="CB34" s="39"/>
       <c r="CC34" s="39"/>
-      <c r="CD34" s="36">
+      <c r="CD34" s="38">
         <v>2020</v>
       </c>
-      <c r="CE34" s="36"/>
-      <c r="CF34" s="36"/>
-      <c r="CG34" s="36"/>
-      <c r="CH34" s="36">
+      <c r="CE34" s="38"/>
+      <c r="CF34" s="38"/>
+      <c r="CG34" s="38"/>
+      <c r="CH34" s="38">
         <v>2021</v>
       </c>
-      <c r="CI34" s="36">
+      <c r="CI34" s="38">
         <v>0</v>
       </c>
+      <c r="CJ34" s="38"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -5071,23 +5095,26 @@
       <c r="CC35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD35" s="33" t="s">
+      <c r="CD35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CE35" s="33" t="s">
+      <c r="CE35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CF35" s="33" t="s">
+      <c r="CF35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CG35" s="33" t="s">
+      <c r="CG35" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="33" t="s">
+      <c r="CH35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="33" t="s">
+      <c r="CI35" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ35" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5337,25 +5364,27 @@
       <c r="CC37" s="10">
         <v>64801.680409936183</v>
       </c>
-      <c r="CD37" s="29">
+      <c r="CD37" s="28">
         <v>57606.834592339255</v>
       </c>
-      <c r="CE37" s="29">
+      <c r="CE37" s="28">
         <v>32883.874546926447</v>
       </c>
-      <c r="CF37" s="29">
+      <c r="CF37" s="28">
         <v>46674.374274787173</v>
       </c>
-      <c r="CG37" s="29">
+      <c r="CG37" s="28">
         <v>54449.872401599896</v>
       </c>
-      <c r="CH37" s="29">
+      <c r="CH37" s="28">
         <v>48247.151630036642</v>
       </c>
-      <c r="CI37" s="29">
-        <v>50100.714622337218</v>
-      </c>
-      <c r="CJ37" s="11"/>
+      <c r="CI37" s="28">
+        <v>48229.201580595203</v>
+      </c>
+      <c r="CJ37" s="28">
+        <v>60868.113316166215</v>
+      </c>
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
@@ -5665,25 +5694,27 @@
       <c r="CC38" s="10">
         <v>10150.061184550439</v>
       </c>
-      <c r="CD38" s="29">
+      <c r="CD38" s="28">
         <v>18692.306391291848</v>
       </c>
-      <c r="CE38" s="29">
+      <c r="CE38" s="28">
         <v>14167.708639779135</v>
       </c>
-      <c r="CF38" s="29">
+      <c r="CF38" s="28">
         <v>14886.769037049362</v>
       </c>
-      <c r="CG38" s="29">
+      <c r="CG38" s="28">
         <v>8006.445935404673</v>
       </c>
-      <c r="CH38" s="29">
+      <c r="CH38" s="28">
         <v>22710.157389983782</v>
       </c>
-      <c r="CI38" s="29">
-        <v>23538.3134078929</v>
-      </c>
-      <c r="CJ38" s="11"/>
+      <c r="CI38" s="28">
+        <v>23057.651197409374</v>
+      </c>
+      <c r="CJ38" s="28">
+        <v>17688.094057932791</v>
+      </c>
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
@@ -5993,25 +6024,27 @@
       <c r="CC39" s="10">
         <v>257514.51923617074</v>
       </c>
-      <c r="CD39" s="29">
+      <c r="CD39" s="28">
         <v>142649.00275906862</v>
       </c>
-      <c r="CE39" s="29">
+      <c r="CE39" s="28">
         <v>82937.72756409891</v>
       </c>
-      <c r="CF39" s="29">
+      <c r="CF39" s="28">
         <v>112043.57526183961</v>
       </c>
-      <c r="CG39" s="29">
+      <c r="CG39" s="28">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="29">
+      <c r="CH39" s="28">
         <v>46518.069333722618</v>
       </c>
-      <c r="CI39" s="29">
-        <v>40285.076179503398</v>
-      </c>
-      <c r="CJ39" s="11"/>
+      <c r="CI39" s="28">
+        <v>40240.940665961825</v>
+      </c>
+      <c r="CJ39" s="28">
+        <v>68166.541945012606</v>
+      </c>
       <c r="CK39" s="11"/>
       <c r="CL39" s="11"/>
       <c r="CM39" s="11"/>
@@ -6321,25 +6354,27 @@
       <c r="CC40" s="10">
         <v>6714.8157218354836</v>
       </c>
-      <c r="CD40" s="29">
+      <c r="CD40" s="28">
         <v>7628.4951003588722</v>
       </c>
-      <c r="CE40" s="29">
+      <c r="CE40" s="28">
         <v>6510.4277297689905</v>
       </c>
-      <c r="CF40" s="29">
+      <c r="CF40" s="28">
         <v>7111.0175291896367</v>
       </c>
-      <c r="CG40" s="29">
+      <c r="CG40" s="28">
         <v>7421.257068574334</v>
       </c>
-      <c r="CH40" s="29">
+      <c r="CH40" s="28">
         <v>6389.3172253519906</v>
       </c>
-      <c r="CI40" s="29">
-        <v>4846.9783902530407</v>
-      </c>
-      <c r="CJ40" s="11"/>
+      <c r="CI40" s="28">
+        <v>4844.9449587357185</v>
+      </c>
+      <c r="CJ40" s="28">
+        <v>5209.6516593894885</v>
+      </c>
       <c r="CK40" s="11"/>
       <c r="CL40" s="11"/>
       <c r="CM40" s="11"/>
@@ -6649,25 +6684,27 @@
       <c r="CC41" s="10">
         <v>14832.158078880675</v>
       </c>
-      <c r="CD41" s="29">
+      <c r="CD41" s="28">
         <v>22101.455802011395</v>
       </c>
-      <c r="CE41" s="29">
+      <c r="CE41" s="28">
         <v>17308.529233080255</v>
       </c>
-      <c r="CF41" s="29">
+      <c r="CF41" s="28">
         <v>16169.216949148713</v>
       </c>
-      <c r="CG41" s="29">
+      <c r="CG41" s="28">
         <v>17266.397854508756</v>
       </c>
-      <c r="CH41" s="29">
+      <c r="CH41" s="28">
         <v>29069.039231010869</v>
       </c>
-      <c r="CI41" s="29">
-        <v>28067.09269565222</v>
-      </c>
-      <c r="CJ41" s="11"/>
+      <c r="CI41" s="28">
+        <v>29023.721099722236</v>
+      </c>
+      <c r="CJ41" s="28">
+        <v>27712.376124820556</v>
+      </c>
       <c r="CK41" s="11"/>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
@@ -6977,25 +7014,27 @@
       <c r="CC42" s="10">
         <v>81660.924186886157</v>
       </c>
-      <c r="CD42" s="29">
+      <c r="CD42" s="28">
         <v>96858.360665721935</v>
       </c>
-      <c r="CE42" s="29">
+      <c r="CE42" s="28">
         <v>46578.124615613073</v>
       </c>
-      <c r="CF42" s="29">
+      <c r="CF42" s="28">
         <v>49229.685451038822</v>
       </c>
-      <c r="CG42" s="29">
+      <c r="CG42" s="28">
         <v>63402.755091498555</v>
       </c>
-      <c r="CH42" s="29">
+      <c r="CH42" s="28">
         <v>81101.07649664575</v>
       </c>
-      <c r="CI42" s="29">
-        <v>47252.819995549326</v>
-      </c>
-      <c r="CJ42" s="11"/>
+      <c r="CI42" s="28">
+        <v>52156.768329429666</v>
+      </c>
+      <c r="CJ42" s="28">
+        <v>58755.679466276582</v>
+      </c>
       <c r="CK42" s="11"/>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
@@ -7305,25 +7344,27 @@
       <c r="CC43" s="10">
         <v>12922.6844675268</v>
       </c>
-      <c r="CD43" s="29">
+      <c r="CD43" s="28">
         <v>16334.917639578629</v>
       </c>
-      <c r="CE43" s="29">
+      <c r="CE43" s="28">
         <v>5608.4532343837782</v>
       </c>
-      <c r="CF43" s="29">
+      <c r="CF43" s="28">
         <v>4857.0300615963642</v>
       </c>
-      <c r="CG43" s="29">
+      <c r="CG43" s="28">
         <v>9552.4660445059944</v>
       </c>
-      <c r="CH43" s="29">
+      <c r="CH43" s="28">
         <v>12454.190265535761</v>
       </c>
-      <c r="CI43" s="29">
-        <v>4412.1086520075496</v>
-      </c>
-      <c r="CJ43" s="11"/>
+      <c r="CI43" s="28">
+        <v>6396.2319672709154</v>
+      </c>
+      <c r="CJ43" s="28">
+        <v>7688.9912170414482</v>
+      </c>
       <c r="CK43" s="11"/>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
@@ -7633,25 +7674,27 @@
       <c r="CC44" s="10">
         <v>26251.877647424528</v>
       </c>
-      <c r="CD44" s="29">
+      <c r="CD44" s="28">
         <v>12602.487838025032</v>
       </c>
-      <c r="CE44" s="29">
+      <c r="CE44" s="28">
         <v>7085.1956066171797</v>
       </c>
-      <c r="CF44" s="29">
+      <c r="CF44" s="28">
         <v>6789.2341875526108</v>
       </c>
-      <c r="CG44" s="29">
+      <c r="CG44" s="28">
         <v>13976.545094400573</v>
       </c>
-      <c r="CH44" s="29">
+      <c r="CH44" s="28">
         <v>10853.36518037476</v>
       </c>
-      <c r="CI44" s="29">
-        <v>5191.4983031209731</v>
-      </c>
-      <c r="CJ44" s="11"/>
+      <c r="CI44" s="28">
+        <v>5591.7202845621923</v>
+      </c>
+      <c r="CJ44" s="28">
+        <v>5696.2710438836748</v>
+      </c>
       <c r="CK44" s="11"/>
       <c r="CL44" s="11"/>
       <c r="CM44" s="11"/>
@@ -7798,13 +7841,13 @@
       <c r="CA45" s="12"/>
       <c r="CB45" s="12"/>
       <c r="CC45" s="12"/>
-      <c r="CD45" s="30"/>
-      <c r="CE45" s="30"/>
-      <c r="CF45" s="30"/>
-      <c r="CG45" s="30"/>
-      <c r="CH45" s="30"/>
-      <c r="CI45" s="30"/>
-      <c r="CJ45" s="11"/>
+      <c r="CD45" s="29"/>
+      <c r="CE45" s="29"/>
+      <c r="CF45" s="29"/>
+      <c r="CG45" s="29"/>
+      <c r="CH45" s="29"/>
+      <c r="CI45" s="29"/>
+      <c r="CJ45" s="29"/>
       <c r="CK45" s="11"/>
       <c r="CL45" s="11"/>
       <c r="CM45" s="11"/>
@@ -8114,25 +8157,27 @@
       <c r="CC46" s="15">
         <v>474848.72093321104</v>
       </c>
-      <c r="CD46" s="31">
+      <c r="CD46" s="30">
         <v>374473.86078839563</v>
       </c>
-      <c r="CE46" s="31">
+      <c r="CE46" s="30">
         <v>213080.04117026777</v>
       </c>
-      <c r="CF46" s="31">
+      <c r="CF46" s="30">
         <v>257760.9027522023</v>
       </c>
-      <c r="CG46" s="31">
+      <c r="CG46" s="30">
         <v>273465.83528613992</v>
       </c>
-      <c r="CH46" s="31">
+      <c r="CH46" s="30">
         <v>257342.36675266214</v>
       </c>
-      <c r="CI46" s="31">
-        <v>203694.60224631667</v>
-      </c>
-      <c r="CJ46" s="11"/>
+      <c r="CI46" s="30">
+        <v>209541.18008368713</v>
+      </c>
+      <c r="CJ46" s="30">
+        <v>251785.71883052334</v>
+      </c>
       <c r="CK46" s="11"/>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
@@ -8280,12 +8325,13 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
       <c r="CC47" s="17"/>
-      <c r="CD47" s="32"/>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
-      <c r="CH47" s="32"/>
-      <c r="CI47" s="32"/>
+      <c r="CD47" s="31"/>
+      <c r="CE47" s="31"/>
+      <c r="CF47" s="31"/>
+      <c r="CG47" s="31"/>
+      <c r="CH47" s="31"/>
+      <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
@@ -8373,13 +8419,13 @@
       <c r="CA49" s="12"/>
       <c r="CB49" s="12"/>
       <c r="CC49" s="12"/>
-      <c r="CD49" s="30"/>
-      <c r="CE49" s="30"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
-      <c r="CH49" s="30"/>
-      <c r="CI49" s="30"/>
-      <c r="CJ49" s="11"/>
+      <c r="CD49" s="29"/>
+      <c r="CE49" s="29"/>
+      <c r="CF49" s="29"/>
+      <c r="CG49" s="29"/>
+      <c r="CH49" s="29"/>
+      <c r="CI49" s="29"/>
+      <c r="CJ49" s="29"/>
       <c r="CK49" s="11"/>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
@@ -8526,13 +8572,13 @@
       <c r="CA50" s="12"/>
       <c r="CB50" s="12"/>
       <c r="CC50" s="12"/>
-      <c r="CD50" s="30"/>
-      <c r="CE50" s="30"/>
-      <c r="CF50" s="30"/>
-      <c r="CG50" s="30"/>
-      <c r="CH50" s="30"/>
-      <c r="CI50" s="30"/>
-      <c r="CJ50" s="11"/>
+      <c r="CD50" s="29"/>
+      <c r="CE50" s="29"/>
+      <c r="CF50" s="29"/>
+      <c r="CG50" s="29"/>
+      <c r="CH50" s="29"/>
+      <c r="CI50" s="29"/>
+      <c r="CJ50" s="29"/>
       <c r="CK50" s="11"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
@@ -8630,136 +8676,137 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38" t="s">
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38" t="s">
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38" t="s">
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38" t="s">
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38" t="s">
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38" t="s">
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38" t="s">
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38" t="s">
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38" t="s">
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="38"/>
-      <c r="AP59" s="38" t="s">
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="38"/>
-      <c r="AS59" s="38"/>
-      <c r="AT59" s="38" t="s">
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="38"/>
-      <c r="AV59" s="38"/>
-      <c r="AW59" s="38"/>
-      <c r="AX59" s="38" t="s">
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="38"/>
-      <c r="AZ59" s="38"/>
-      <c r="BA59" s="38"/>
-      <c r="BB59" s="38" t="s">
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="38"/>
-      <c r="BD59" s="38"/>
-      <c r="BE59" s="38"/>
-      <c r="BF59" s="38" t="s">
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="38"/>
-      <c r="BH59" s="38"/>
-      <c r="BI59" s="38"/>
-      <c r="BJ59" s="38" t="s">
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
+      <c r="BI59" s="37"/>
+      <c r="BJ59" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="38"/>
-      <c r="BL59" s="38"/>
-      <c r="BM59" s="38"/>
-      <c r="BN59" s="38" t="s">
+      <c r="BK59" s="37"/>
+      <c r="BL59" s="37"/>
+      <c r="BM59" s="37"/>
+      <c r="BN59" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="38"/>
-      <c r="BP59" s="38"/>
-      <c r="BQ59" s="38"/>
-      <c r="BR59" s="38" t="s">
+      <c r="BO59" s="37"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="38"/>
-      <c r="BT59" s="38"/>
-      <c r="BU59" s="38"/>
-      <c r="BV59" s="37" t="s">
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="37"/>
-      <c r="BX59" s="37"/>
-      <c r="BY59" s="37"/>
-      <c r="BZ59" s="37" t="s">
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
+      <c r="BY59" s="36"/>
+      <c r="BZ59" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="37"/>
-      <c r="CB59" s="37"/>
-      <c r="CC59" s="37"/>
-      <c r="CD59" s="36" t="s">
+      <c r="CA59" s="36"/>
+      <c r="CB59" s="36"/>
+      <c r="CC59" s="36"/>
+      <c r="CD59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="36" t="s">
+      <c r="CE59" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="CF59" s="27"/>
-      <c r="CG59" s="27"/>
-      <c r="CH59" s="27"/>
-      <c r="CI59" s="27"/>
+      <c r="CF59" s="35"/>
+      <c r="CG59" s="35"/>
+      <c r="CH59" s="35"/>
+      <c r="CI59" s="35"/>
+      <c r="CJ59" s="35"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -9003,16 +9050,19 @@
       <c r="CC60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="28" t="s">
+      <c r="CD60" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="28" t="s">
+      <c r="CE60" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="28"/>
-      <c r="CG60" s="28"/>
-      <c r="CH60" s="28"/>
-      <c r="CI60" s="28"/>
+      <c r="CF60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG60" s="27"/>
+      <c r="CH60" s="27"/>
+      <c r="CI60" s="27"/>
+      <c r="CJ60" s="27"/>
     </row>
     <row r="61" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -9261,17 +9311,19 @@
       <c r="CC62" s="21">
         <v>-20.702163806799064</v>
       </c>
-      <c r="CD62" s="34">
+      <c r="CD62" s="33">
         <v>-17.749694852681728</v>
       </c>
-      <c r="CE62" s="34">
-        <v>58.287276626583662</v>
-      </c>
-      <c r="CF62" s="30"/>
-      <c r="CG62" s="30"/>
-      <c r="CH62" s="30"/>
-      <c r="CI62" s="30"/>
-      <c r="CJ62" s="11"/>
+      <c r="CE62" s="33">
+        <v>52.685718549391055</v>
+      </c>
+      <c r="CF62" s="33">
+        <v>37.756220648198479</v>
+      </c>
+      <c r="CG62" s="29"/>
+      <c r="CH62" s="29"/>
+      <c r="CI62" s="29"/>
+      <c r="CJ62" s="29"/>
       <c r="CK62" s="11"/>
       <c r="CL62" s="11"/>
       <c r="CM62" s="11"/>
@@ -9577,17 +9629,19 @@
       <c r="CC63" s="21">
         <v>-24.323460902654446</v>
       </c>
-      <c r="CD63" s="34">
+      <c r="CD63" s="33">
         <v>20.256010088566541</v>
       </c>
-      <c r="CE63" s="34">
-        <v>61.920133310983772</v>
-      </c>
-      <c r="CF63" s="30"/>
-      <c r="CG63" s="30"/>
-      <c r="CH63" s="30"/>
-      <c r="CI63" s="30"/>
-      <c r="CJ63" s="11"/>
+      <c r="CE63" s="33">
+        <v>58.680226843188848</v>
+      </c>
+      <c r="CF63" s="33">
+        <v>18.123165145490375</v>
+      </c>
+      <c r="CG63" s="29"/>
+      <c r="CH63" s="29"/>
+      <c r="CI63" s="29"/>
+      <c r="CJ63" s="29"/>
       <c r="CK63" s="11"/>
       <c r="CL63" s="11"/>
       <c r="CM63" s="11"/>
@@ -9893,17 +9947,19 @@
       <c r="CC64" s="21">
         <v>-62.547023003272514</v>
       </c>
-      <c r="CD64" s="34">
+      <c r="CD64" s="33">
         <v>-68.051523672875376</v>
       </c>
-      <c r="CE64" s="34">
-        <v>-52.778844142861779</v>
-      </c>
-      <c r="CF64" s="30"/>
-      <c r="CG64" s="30"/>
-      <c r="CH64" s="30"/>
-      <c r="CI64" s="30"/>
-      <c r="CJ64" s="11"/>
+      <c r="CE64" s="33">
+        <v>-52.818808357475284</v>
+      </c>
+      <c r="CF64" s="33">
+        <v>-39.778856615383972</v>
+      </c>
+      <c r="CG64" s="29"/>
+      <c r="CH64" s="29"/>
+      <c r="CI64" s="29"/>
+      <c r="CJ64" s="29"/>
       <c r="CK64" s="11"/>
       <c r="CL64" s="11"/>
       <c r="CM64" s="11"/>
@@ -10209,17 +10265,19 @@
       <c r="CC65" s="21">
         <v>6.0311627946865798</v>
       </c>
-      <c r="CD65" s="34">
+      <c r="CD65" s="33">
         <v>-17.097979188583238</v>
       </c>
-      <c r="CE65" s="34">
+      <c r="CE65" s="33">
         <v>-27.441768354016688</v>
       </c>
-      <c r="CF65" s="30"/>
-      <c r="CG65" s="30"/>
-      <c r="CH65" s="30"/>
-      <c r="CI65" s="30"/>
-      <c r="CJ65" s="11"/>
+      <c r="CF65" s="33">
+        <v>-27.166459278523277</v>
+      </c>
+      <c r="CG65" s="29"/>
+      <c r="CH65" s="29"/>
+      <c r="CI65" s="29"/>
+      <c r="CJ65" s="29"/>
       <c r="CK65" s="11"/>
       <c r="CL65" s="11"/>
       <c r="CM65" s="11"/>
@@ -10525,17 +10583,19 @@
       <c r="CC66" s="21">
         <v>11.683121918611761</v>
       </c>
-      <c r="CD66" s="34">
+      <c r="CD66" s="33">
         <v>30.184516463088443</v>
       </c>
-      <c r="CE66" s="34">
-        <v>58.038315383179707</v>
-      </c>
-      <c r="CF66" s="30"/>
-      <c r="CG66" s="30"/>
-      <c r="CH66" s="30"/>
-      <c r="CI66" s="30"/>
-      <c r="CJ66" s="11"/>
+      <c r="CE66" s="33">
+        <v>63.49342453574323</v>
+      </c>
+      <c r="CF66" s="33">
+        <v>70.388101385018132</v>
+      </c>
+      <c r="CG66" s="29"/>
+      <c r="CH66" s="29"/>
+      <c r="CI66" s="29"/>
+      <c r="CJ66" s="29"/>
       <c r="CK66" s="11"/>
       <c r="CL66" s="11"/>
       <c r="CM66" s="11"/>
@@ -10841,17 +10901,19 @@
       <c r="CC67" s="21">
         <v>-25.512399137039822</v>
       </c>
-      <c r="CD67" s="34">
+      <c r="CD67" s="33">
         <v>-17.122042004872284</v>
       </c>
-      <c r="CE67" s="34">
-        <v>-1.1285594238970447</v>
-      </c>
-      <c r="CF67" s="30"/>
-      <c r="CG67" s="30"/>
-      <c r="CH67" s="30"/>
-      <c r="CI67" s="30"/>
-      <c r="CJ67" s="11"/>
+      <c r="CE67" s="33">
+        <v>9.1782277720477339</v>
+      </c>
+      <c r="CF67" s="33">
+        <v>18.652605417856563</v>
+      </c>
+      <c r="CG67" s="29"/>
+      <c r="CH67" s="29"/>
+      <c r="CI67" s="29"/>
+      <c r="CJ67" s="29"/>
       <c r="CK67" s="11"/>
       <c r="CL67" s="11"/>
       <c r="CM67" s="11"/>
@@ -11157,17 +11219,19 @@
       <c r="CC68" s="21">
         <v>-29.082582937319927</v>
       </c>
-      <c r="CD68" s="34">
+      <c r="CD68" s="33">
         <v>-24.534564147090251</v>
       </c>
-      <c r="CE68" s="34">
-        <v>-23.329512535084959</v>
-      </c>
-      <c r="CF68" s="30"/>
-      <c r="CG68" s="30"/>
-      <c r="CH68" s="30"/>
-      <c r="CI68" s="30"/>
-      <c r="CJ68" s="11"/>
+      <c r="CE68" s="33">
+        <v>11.195821363273481</v>
+      </c>
+      <c r="CF68" s="33">
+        <v>57.381275371319646</v>
+      </c>
+      <c r="CG68" s="29"/>
+      <c r="CH68" s="29"/>
+      <c r="CI68" s="29"/>
+      <c r="CJ68" s="29"/>
       <c r="CK68" s="11"/>
       <c r="CL68" s="11"/>
       <c r="CM68" s="11"/>
@@ -11473,17 +11537,19 @@
       <c r="CC69" s="21">
         <v>-48.922503141345096</v>
       </c>
-      <c r="CD69" s="34">
+      <c r="CD69" s="33">
         <v>-14.757207913592524</v>
       </c>
-      <c r="CE69" s="34">
-        <v>-28.588854381820212</v>
-      </c>
-      <c r="CF69" s="30"/>
-      <c r="CG69" s="30"/>
-      <c r="CH69" s="30"/>
-      <c r="CI69" s="30"/>
-      <c r="CJ69" s="11"/>
+      <c r="CE69" s="33">
+        <v>-23.05135825312496</v>
+      </c>
+      <c r="CF69" s="33">
+        <v>-16.58880493023716</v>
+      </c>
+      <c r="CG69" s="29"/>
+      <c r="CH69" s="29"/>
+      <c r="CI69" s="29"/>
+      <c r="CJ69" s="29"/>
       <c r="CK69" s="11"/>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
@@ -11626,13 +11692,13 @@
       <c r="CA70" s="12"/>
       <c r="CB70" s="12"/>
       <c r="CC70" s="12"/>
-      <c r="CD70" s="30"/>
-      <c r="CE70" s="30"/>
-      <c r="CF70" s="30"/>
-      <c r="CG70" s="30"/>
-      <c r="CH70" s="30"/>
-      <c r="CI70" s="30"/>
-      <c r="CJ70" s="11"/>
+      <c r="CD70" s="29"/>
+      <c r="CE70" s="29"/>
+      <c r="CF70" s="29"/>
+      <c r="CG70" s="29"/>
+      <c r="CH70" s="29"/>
+      <c r="CI70" s="29"/>
+      <c r="CJ70" s="29"/>
       <c r="CK70" s="11"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
@@ -11938,17 +12004,19 @@
       <c r="CC71" s="21">
         <v>-43.547310554547771</v>
       </c>
-      <c r="CD71" s="34">
+      <c r="CD71" s="33">
         <v>-36.109197525434958</v>
       </c>
-      <c r="CE71" s="34">
-        <v>-5.5223089157283169</v>
-      </c>
-      <c r="CF71" s="30"/>
-      <c r="CG71" s="30"/>
-      <c r="CH71" s="30"/>
-      <c r="CI71" s="30"/>
-      <c r="CJ71" s="11"/>
+      <c r="CE71" s="33">
+        <v>-2.6495043611334523</v>
+      </c>
+      <c r="CF71" s="33">
+        <v>0.25968227293668633</v>
+      </c>
+      <c r="CG71" s="29"/>
+      <c r="CH71" s="29"/>
+      <c r="CI71" s="29"/>
+      <c r="CJ71" s="29"/>
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
@@ -12092,12 +12160,13 @@
       <c r="CA72" s="17"/>
       <c r="CB72" s="17"/>
       <c r="CC72" s="17"/>
-      <c r="CD72" s="32"/>
-      <c r="CE72" s="32"/>
-      <c r="CF72" s="32"/>
-      <c r="CG72" s="32"/>
-      <c r="CH72" s="32"/>
-      <c r="CI72" s="32"/>
+      <c r="CD72" s="31"/>
+      <c r="CE72" s="31"/>
+      <c r="CF72" s="31"/>
+      <c r="CG72" s="31"/>
+      <c r="CH72" s="31"/>
+      <c r="CI72" s="31"/>
+      <c r="CJ72" s="31"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
@@ -12185,13 +12254,13 @@
       <c r="CA74" s="12"/>
       <c r="CB74" s="12"/>
       <c r="CC74" s="12"/>
-      <c r="CD74" s="30"/>
-      <c r="CE74" s="30"/>
-      <c r="CF74" s="30"/>
-      <c r="CG74" s="30"/>
-      <c r="CH74" s="30"/>
-      <c r="CI74" s="30"/>
-      <c r="CJ74" s="11"/>
+      <c r="CD74" s="29"/>
+      <c r="CE74" s="29"/>
+      <c r="CF74" s="29"/>
+      <c r="CG74" s="29"/>
+      <c r="CH74" s="29"/>
+      <c r="CI74" s="29"/>
+      <c r="CJ74" s="29"/>
       <c r="CK74" s="11"/>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
@@ -12334,13 +12403,13 @@
       <c r="CA75" s="12"/>
       <c r="CB75" s="12"/>
       <c r="CC75" s="12"/>
-      <c r="CD75" s="30"/>
-      <c r="CE75" s="30"/>
-      <c r="CF75" s="30"/>
-      <c r="CG75" s="30"/>
-      <c r="CH75" s="30"/>
-      <c r="CI75" s="30"/>
-      <c r="CJ75" s="11"/>
+      <c r="CD75" s="29"/>
+      <c r="CE75" s="29"/>
+      <c r="CF75" s="29"/>
+      <c r="CG75" s="29"/>
+      <c r="CH75" s="29"/>
+      <c r="CI75" s="29"/>
+      <c r="CJ75" s="29"/>
       <c r="CK75" s="11"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
@@ -12434,136 +12503,137 @@
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38" t="s">
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38" t="s">
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38" t="s">
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38" t="s">
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38" t="s">
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="38" t="s">
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="38" t="s">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38" t="s">
+      <c r="AI84" s="37"/>
+      <c r="AJ84" s="37"/>
+      <c r="AK84" s="37"/>
+      <c r="AL84" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="38"/>
-      <c r="AN84" s="38"/>
-      <c r="AO84" s="38"/>
-      <c r="AP84" s="38" t="s">
+      <c r="AM84" s="37"/>
+      <c r="AN84" s="37"/>
+      <c r="AO84" s="37"/>
+      <c r="AP84" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="38" t="s">
+      <c r="AQ84" s="37"/>
+      <c r="AR84" s="37"/>
+      <c r="AS84" s="37"/>
+      <c r="AT84" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
-      <c r="AW84" s="38"/>
-      <c r="AX84" s="38" t="s">
+      <c r="AU84" s="37"/>
+      <c r="AV84" s="37"/>
+      <c r="AW84" s="37"/>
+      <c r="AX84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="38"/>
-      <c r="AZ84" s="38"/>
-      <c r="BA84" s="38"/>
-      <c r="BB84" s="38" t="s">
+      <c r="AY84" s="37"/>
+      <c r="AZ84" s="37"/>
+      <c r="BA84" s="37"/>
+      <c r="BB84" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="38"/>
-      <c r="BD84" s="38"/>
-      <c r="BE84" s="38"/>
-      <c r="BF84" s="38" t="s">
+      <c r="BC84" s="37"/>
+      <c r="BD84" s="37"/>
+      <c r="BE84" s="37"/>
+      <c r="BF84" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="38" t="s">
+      <c r="BG84" s="37"/>
+      <c r="BH84" s="37"/>
+      <c r="BI84" s="37"/>
+      <c r="BJ84" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="38"/>
-      <c r="BL84" s="38"/>
-      <c r="BM84" s="38"/>
-      <c r="BN84" s="38" t="s">
+      <c r="BK84" s="37"/>
+      <c r="BL84" s="37"/>
+      <c r="BM84" s="37"/>
+      <c r="BN84" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="38"/>
-      <c r="BP84" s="38"/>
-      <c r="BQ84" s="38"/>
-      <c r="BR84" s="38" t="s">
+      <c r="BO84" s="37"/>
+      <c r="BP84" s="37"/>
+      <c r="BQ84" s="37"/>
+      <c r="BR84" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="38"/>
-      <c r="BT84" s="38"/>
-      <c r="BU84" s="38"/>
-      <c r="BV84" s="37" t="s">
+      <c r="BS84" s="37"/>
+      <c r="BT84" s="37"/>
+      <c r="BU84" s="37"/>
+      <c r="BV84" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="37"/>
-      <c r="BX84" s="37"/>
-      <c r="BY84" s="37"/>
-      <c r="BZ84" s="37" t="s">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="37"/>
-      <c r="CB84" s="37"/>
-      <c r="CC84" s="37"/>
-      <c r="CD84" s="36" t="s">
+      <c r="CA84" s="36"/>
+      <c r="CB84" s="36"/>
+      <c r="CC84" s="36"/>
+      <c r="CD84" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="36" t="s">
+      <c r="CE84" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="CF84" s="27"/>
-      <c r="CG84" s="27"/>
-      <c r="CH84" s="27"/>
-      <c r="CI84" s="27"/>
+      <c r="CF84" s="38"/>
+      <c r="CG84" s="35"/>
+      <c r="CH84" s="35"/>
+      <c r="CI84" s="35"/>
+      <c r="CJ84" s="35"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -12807,16 +12877,19 @@
       <c r="CC85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD85" s="28" t="s">
+      <c r="CD85" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="28" t="s">
+      <c r="CE85" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="28"/>
-      <c r="CG85" s="28"/>
-      <c r="CH85" s="28"/>
-      <c r="CI85" s="28"/>
+      <c r="CF85" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG85" s="27"/>
+      <c r="CH85" s="27"/>
+      <c r="CI85" s="27"/>
+      <c r="CJ85" s="27"/>
     </row>
     <row r="86" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -13065,17 +13138,19 @@
       <c r="CC87" s="21">
         <v>-15.97459810123847</v>
       </c>
-      <c r="CD87" s="34">
+      <c r="CD87" s="33">
         <v>-16.247521719492795</v>
       </c>
-      <c r="CE87" s="34">
-        <v>52.356482660952054</v>
-      </c>
-      <c r="CF87" s="30"/>
-      <c r="CG87" s="30"/>
-      <c r="CH87" s="30"/>
-      <c r="CI87" s="30"/>
-      <c r="CJ87" s="11"/>
+      <c r="CE87" s="33">
+        <v>46.665203675346817</v>
+      </c>
+      <c r="CF87" s="33">
+        <v>30.410132459014648</v>
+      </c>
+      <c r="CG87" s="29"/>
+      <c r="CH87" s="29"/>
+      <c r="CI87" s="29"/>
+      <c r="CJ87" s="29"/>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -13381,17 +13456,19 @@
       <c r="CC88" s="21">
         <v>-21.119234753073172</v>
       </c>
-      <c r="CD88" s="34">
+      <c r="CD88" s="33">
         <v>21.494677620754828</v>
       </c>
-      <c r="CE88" s="34">
-        <v>66.140580713268008</v>
-      </c>
-      <c r="CF88" s="30"/>
-      <c r="CG88" s="30"/>
-      <c r="CH88" s="30"/>
-      <c r="CI88" s="30"/>
-      <c r="CJ88" s="11"/>
+      <c r="CE88" s="33">
+        <v>62.747920525903936</v>
+      </c>
+      <c r="CF88" s="33">
+        <v>18.817548750246928</v>
+      </c>
+      <c r="CG88" s="29"/>
+      <c r="CH88" s="29"/>
+      <c r="CI88" s="29"/>
+      <c r="CJ88" s="29"/>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
@@ -13697,17 +13774,19 @@
       <c r="CC89" s="21">
         <v>-61.40408079107381</v>
       </c>
-      <c r="CD89" s="34">
+      <c r="CD89" s="33">
         <v>-67.389839091766575</v>
       </c>
-      <c r="CE89" s="34">
-        <v>-51.427321000121637</v>
-      </c>
-      <c r="CF89" s="30"/>
-      <c r="CG89" s="30"/>
-      <c r="CH89" s="30"/>
-      <c r="CI89" s="30"/>
-      <c r="CJ89" s="11"/>
+      <c r="CE89" s="33">
+        <v>-51.480536243458829</v>
+      </c>
+      <c r="CF89" s="33">
+        <v>-39.160686558143844</v>
+      </c>
+      <c r="CG89" s="29"/>
+      <c r="CH89" s="29"/>
+      <c r="CI89" s="29"/>
+      <c r="CJ89" s="29"/>
       <c r="CK89" s="11"/>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
@@ -14013,17 +14092,19 @@
       <c r="CC90" s="21">
         <v>10.520636395748269</v>
       </c>
-      <c r="CD90" s="34">
+      <c r="CD90" s="33">
         <v>-16.244067259721859</v>
       </c>
-      <c r="CE90" s="34">
-        <v>-25.550538437126207</v>
-      </c>
-      <c r="CF90" s="30"/>
-      <c r="CG90" s="30"/>
-      <c r="CH90" s="30"/>
-      <c r="CI90" s="30"/>
-      <c r="CJ90" s="11"/>
+      <c r="CE90" s="33">
+        <v>-25.581771892157519</v>
+      </c>
+      <c r="CF90" s="33">
+        <v>-26.738309419085709</v>
+      </c>
+      <c r="CG90" s="29"/>
+      <c r="CH90" s="29"/>
+      <c r="CI90" s="29"/>
+      <c r="CJ90" s="29"/>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
@@ -14329,17 +14410,19 @@
       <c r="CC91" s="21">
         <v>16.411905554689071</v>
       </c>
-      <c r="CD91" s="34">
+      <c r="CD91" s="33">
         <v>31.525450139648143</v>
       </c>
-      <c r="CE91" s="34">
-        <v>62.157583222091915</v>
-      </c>
-      <c r="CF91" s="30"/>
-      <c r="CG91" s="30"/>
-      <c r="CH91" s="30"/>
-      <c r="CI91" s="30"/>
-      <c r="CJ91" s="11"/>
+      <c r="CE91" s="33">
+        <v>67.684502298738209</v>
+      </c>
+      <c r="CF91" s="33">
+        <v>71.389722903554542</v>
+      </c>
+      <c r="CG91" s="29"/>
+      <c r="CH91" s="29"/>
+      <c r="CI91" s="29"/>
+      <c r="CJ91" s="29"/>
       <c r="CK91" s="11"/>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
@@ -14645,17 +14728,19 @@
       <c r="CC92" s="21">
         <v>-22.358513912483573</v>
       </c>
-      <c r="CD92" s="34">
+      <c r="CD92" s="33">
         <v>-16.268377929147292</v>
       </c>
-      <c r="CE92" s="34">
-        <v>1.4485241419747865</v>
-      </c>
-      <c r="CF92" s="30"/>
-      <c r="CG92" s="30"/>
-      <c r="CH92" s="30"/>
-      <c r="CI92" s="30"/>
-      <c r="CJ92" s="11"/>
+      <c r="CE92" s="33">
+        <v>11.976960772582544</v>
+      </c>
+      <c r="CF92" s="33">
+        <v>19.350101321918459</v>
+      </c>
+      <c r="CG92" s="29"/>
+      <c r="CH92" s="29"/>
+      <c r="CI92" s="29"/>
+      <c r="CJ92" s="29"/>
       <c r="CK92" s="11"/>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
@@ -14961,17 +15046,19 @@
       <c r="CC93" s="21">
         <v>-26.079863139038736</v>
       </c>
-      <c r="CD93" s="34">
+      <c r="CD93" s="33">
         <v>-23.757250937342192</v>
       </c>
-      <c r="CE93" s="34">
-        <v>-21.331096692431899</v>
-      </c>
-      <c r="CF93" s="30"/>
-      <c r="CG93" s="30"/>
-      <c r="CH93" s="30"/>
-      <c r="CI93" s="30"/>
-      <c r="CJ93" s="11"/>
+      <c r="CE93" s="33">
+        <v>14.046274435480683</v>
+      </c>
+      <c r="CF93" s="33">
+        <v>58.306436639889796</v>
+      </c>
+      <c r="CG93" s="29"/>
+      <c r="CH93" s="29"/>
+      <c r="CI93" s="29"/>
+      <c r="CJ93" s="29"/>
       <c r="CK93" s="11"/>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
@@ -15277,17 +15364,19 @@
       <c r="CC94" s="21">
         <v>-46.759826927001704</v>
       </c>
-      <c r="CD94" s="34">
+      <c r="CD94" s="33">
         <v>-13.87918544442239</v>
       </c>
-      <c r="CE94" s="34">
-        <v>-26.727523256063648</v>
-      </c>
-      <c r="CF94" s="30"/>
-      <c r="CG94" s="30"/>
-      <c r="CH94" s="30"/>
-      <c r="CI94" s="30"/>
-      <c r="CJ94" s="11"/>
+      <c r="CE94" s="33">
+        <v>-21.078815673912572</v>
+      </c>
+      <c r="CF94" s="33">
+        <v>-16.098474636105138</v>
+      </c>
+      <c r="CG94" s="29"/>
+      <c r="CH94" s="29"/>
+      <c r="CI94" s="29"/>
+      <c r="CJ94" s="29"/>
       <c r="CK94" s="11"/>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
@@ -15430,13 +15519,13 @@
       <c r="CA95" s="12"/>
       <c r="CB95" s="12"/>
       <c r="CC95" s="12"/>
-      <c r="CD95" s="30"/>
-      <c r="CE95" s="30"/>
-      <c r="CF95" s="30"/>
-      <c r="CG95" s="30"/>
-      <c r="CH95" s="30"/>
-      <c r="CI95" s="30"/>
-      <c r="CJ95" s="11"/>
+      <c r="CD95" s="29"/>
+      <c r="CE95" s="29"/>
+      <c r="CF95" s="29"/>
+      <c r="CG95" s="29"/>
+      <c r="CH95" s="29"/>
+      <c r="CI95" s="29"/>
+      <c r="CJ95" s="29"/>
       <c r="CK95" s="11"/>
       <c r="CL95" s="11"/>
       <c r="CM95" s="11"/>
@@ -15742,17 +15831,19 @@
       <c r="CC96" s="21">
         <v>-42.409903779733725</v>
       </c>
-      <c r="CD96" s="34">
+      <c r="CD96" s="33">
         <v>-31.278950629326062</v>
       </c>
-      <c r="CE96" s="34">
-        <v>-4.4046541723968318</v>
-      </c>
-      <c r="CF96" s="30"/>
-      <c r="CG96" s="30"/>
-      <c r="CH96" s="30"/>
-      <c r="CI96" s="30"/>
-      <c r="CJ96" s="11"/>
+      <c r="CE96" s="33">
+        <v>-1.6608130292939194</v>
+      </c>
+      <c r="CF96" s="33">
+        <v>-2.3181110315334337</v>
+      </c>
+      <c r="CG96" s="29"/>
+      <c r="CH96" s="29"/>
+      <c r="CI96" s="29"/>
+      <c r="CJ96" s="29"/>
       <c r="CK96" s="11"/>
       <c r="CL96" s="11"/>
       <c r="CM96" s="11"/>
@@ -15896,12 +15987,13 @@
       <c r="CA97" s="17"/>
       <c r="CB97" s="17"/>
       <c r="CC97" s="17"/>
-      <c r="CD97" s="32"/>
-      <c r="CE97" s="32"/>
-      <c r="CF97" s="32"/>
-      <c r="CG97" s="32"/>
-      <c r="CH97" s="32"/>
-      <c r="CI97" s="32"/>
+      <c r="CD97" s="31"/>
+      <c r="CE97" s="31"/>
+      <c r="CF97" s="31"/>
+      <c r="CG97" s="31"/>
+      <c r="CH97" s="31"/>
+      <c r="CI97" s="31"/>
+      <c r="CJ97" s="31"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
@@ -15989,13 +16081,13 @@
       <c r="CA99" s="12"/>
       <c r="CB99" s="12"/>
       <c r="CC99" s="12"/>
-      <c r="CD99" s="30"/>
-      <c r="CE99" s="30"/>
-      <c r="CF99" s="30"/>
-      <c r="CG99" s="30"/>
-      <c r="CH99" s="30"/>
-      <c r="CI99" s="30"/>
-      <c r="CJ99" s="11"/>
+      <c r="CD99" s="29"/>
+      <c r="CE99" s="29"/>
+      <c r="CF99" s="29"/>
+      <c r="CG99" s="29"/>
+      <c r="CH99" s="29"/>
+      <c r="CI99" s="29"/>
+      <c r="CJ99" s="29"/>
       <c r="CK99" s="11"/>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
@@ -16138,13 +16230,13 @@
       <c r="CA100" s="12"/>
       <c r="CB100" s="12"/>
       <c r="CC100" s="12"/>
-      <c r="CD100" s="30"/>
-      <c r="CE100" s="30"/>
-      <c r="CF100" s="30"/>
-      <c r="CG100" s="30"/>
-      <c r="CH100" s="30"/>
-      <c r="CI100" s="30"/>
-      <c r="CJ100" s="11"/>
+      <c r="CD100" s="29"/>
+      <c r="CE100" s="29"/>
+      <c r="CF100" s="29"/>
+      <c r="CG100" s="29"/>
+      <c r="CH100" s="29"/>
+      <c r="CI100" s="29"/>
+      <c r="CJ100" s="29"/>
       <c r="CK100" s="11"/>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
@@ -16233,114 +16325,114 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="37">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37">
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37">
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="37">
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="37">
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="37">
+      <c r="S108" s="36"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="37">
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="37">
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="37"/>
-      <c r="AF108" s="37"/>
-      <c r="AG108" s="37"/>
-      <c r="AH108" s="37">
+      <c r="AE108" s="36"/>
+      <c r="AF108" s="36"/>
+      <c r="AG108" s="36"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="37"/>
-      <c r="AJ108" s="37"/>
-      <c r="AK108" s="37"/>
-      <c r="AL108" s="37">
+      <c r="AI108" s="36"/>
+      <c r="AJ108" s="36"/>
+      <c r="AK108" s="36"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="37"/>
-      <c r="AN108" s="37"/>
-      <c r="AO108" s="37"/>
-      <c r="AP108" s="37">
+      <c r="AM108" s="36"/>
+      <c r="AN108" s="36"/>
+      <c r="AO108" s="36"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="37"/>
-      <c r="AR108" s="37"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="37">
+      <c r="AQ108" s="36"/>
+      <c r="AR108" s="36"/>
+      <c r="AS108" s="36"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="37">
+      <c r="AU108" s="36"/>
+      <c r="AV108" s="36"/>
+      <c r="AW108" s="36"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="37">
+      <c r="AY108" s="36"/>
+      <c r="AZ108" s="36"/>
+      <c r="BA108" s="36"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="37">
+      <c r="BC108" s="36"/>
+      <c r="BD108" s="36"/>
+      <c r="BE108" s="36"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="37"/>
-      <c r="BH108" s="37"/>
-      <c r="BI108" s="37"/>
-      <c r="BJ108" s="37">
+      <c r="BG108" s="36"/>
+      <c r="BH108" s="36"/>
+      <c r="BI108" s="36"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="37"/>
-      <c r="BL108" s="37"/>
-      <c r="BM108" s="37"/>
-      <c r="BN108" s="37">
+      <c r="BK108" s="36"/>
+      <c r="BL108" s="36"/>
+      <c r="BM108" s="36"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="37"/>
-      <c r="BP108" s="37"/>
-      <c r="BQ108" s="37"/>
-      <c r="BR108" s="37">
+      <c r="BO108" s="36"/>
+      <c r="BP108" s="36"/>
+      <c r="BQ108" s="36"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="37"/>
-      <c r="BT108" s="37"/>
-      <c r="BU108" s="37"/>
+      <c r="BS108" s="36"/>
+      <c r="BT108" s="36"/>
+      <c r="BU108" s="36"/>
       <c r="BV108" s="39">
         <v>2018</v>
       </c>
@@ -16353,18 +16445,19 @@
       <c r="CA108" s="39"/>
       <c r="CB108" s="39"/>
       <c r="CC108" s="39"/>
-      <c r="CD108" s="36">
+      <c r="CD108" s="38">
         <v>2020</v>
       </c>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
-      <c r="CH108" s="36">
+      <c r="CE108" s="38"/>
+      <c r="CF108" s="38"/>
+      <c r="CG108" s="38"/>
+      <c r="CH108" s="38">
         <v>2021</v>
       </c>
-      <c r="CI108" s="36">
+      <c r="CI108" s="38">
         <v>0</v>
       </c>
+      <c r="CJ108" s="38"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -16608,23 +16701,26 @@
       <c r="CC109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD109" s="33" t="s">
+      <c r="CD109" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="33" t="s">
+      <c r="CE109" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="33" t="s">
+      <c r="CF109" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CG109" s="33" t="s">
+      <c r="CG109" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="33" t="s">
+      <c r="CH109" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="33" t="s">
+      <c r="CI109" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ109" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16874,25 +16970,27 @@
       <c r="CC111" s="21">
         <v>100.47498010055165</v>
       </c>
-      <c r="CD111" s="34">
+      <c r="CD111" s="33">
         <v>97.542834277592235</v>
       </c>
-      <c r="CE111" s="34">
+      <c r="CE111" s="33">
         <v>101.84177757751773</v>
       </c>
-      <c r="CF111" s="34">
+      <c r="CF111" s="33">
         <v>98.442593850935211</v>
       </c>
-      <c r="CG111" s="34">
+      <c r="CG111" s="33">
         <v>94.821903061270618</v>
       </c>
-      <c r="CH111" s="34">
+      <c r="CH111" s="33">
         <v>95.793319182693821</v>
       </c>
-      <c r="CI111" s="34">
-        <v>105.80618125340241</v>
-      </c>
-      <c r="CJ111" s="11"/>
+      <c r="CI111" s="33">
+        <v>106.02231884660959</v>
+      </c>
+      <c r="CJ111" s="33">
+        <v>103.98792964934991</v>
+      </c>
       <c r="CK111" s="11"/>
       <c r="CL111" s="11"/>
       <c r="CM111" s="11"/>
@@ -17202,25 +17300,27 @@
       <c r="CC112" s="21">
         <v>107.98286749146069</v>
       </c>
-      <c r="CD112" s="34">
+      <c r="CD112" s="33">
         <v>79.88531699593193</v>
       </c>
-      <c r="CE112" s="34">
+      <c r="CE112" s="33">
         <v>120.21532725368891</v>
       </c>
-      <c r="CF112" s="34">
+      <c r="CF112" s="33">
         <v>108.13512407167778</v>
       </c>
-      <c r="CG112" s="34">
+      <c r="CG112" s="33">
         <v>103.59648094158642</v>
       </c>
-      <c r="CH112" s="34">
+      <c r="CH112" s="33">
         <v>79.070866927836718</v>
       </c>
-      <c r="CI112" s="34">
-        <v>117.16151304740414</v>
-      </c>
-      <c r="CJ112" s="11"/>
+      <c r="CI112" s="33">
+        <v>117.2106859307448</v>
+      </c>
+      <c r="CJ112" s="33">
+        <v>107.50316980192996</v>
+      </c>
       <c r="CK112" s="11"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
@@ -17530,25 +17630,27 @@
       <c r="CC113" s="21">
         <v>93.519268645929287</v>
       </c>
-      <c r="CD113" s="34">
+      <c r="CD113" s="33">
         <v>114.40324303336718</v>
       </c>
-      <c r="CE113" s="34">
+      <c r="CE113" s="33">
         <v>110.49941831514872</v>
       </c>
-      <c r="CF113" s="34">
+      <c r="CF113" s="33">
         <v>93.365791918613255</v>
       </c>
-      <c r="CG113" s="34">
+      <c r="CG113" s="33">
         <v>90.749879498574458</v>
       </c>
-      <c r="CH113" s="34">
+      <c r="CH113" s="33">
         <v>112.08191557481699</v>
       </c>
-      <c r="CI113" s="34">
-        <v>107.42479850443947</v>
-      </c>
-      <c r="CJ113" s="11"/>
+      <c r="CI113" s="33">
+        <v>107.45160453698703</v>
+      </c>
+      <c r="CJ113" s="33">
+        <v>92.417130047375025</v>
+      </c>
       <c r="CK113" s="11"/>
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
@@ -17858,25 +17960,27 @@
       <c r="CC114" s="21">
         <v>105.8808487936989</v>
       </c>
-      <c r="CD114" s="34">
+      <c r="CD114" s="33">
         <v>89.80862450680128</v>
       </c>
-      <c r="CE114" s="34">
+      <c r="CE114" s="33">
         <v>111.9896433359819</v>
       </c>
-      <c r="CF114" s="34">
+      <c r="CF114" s="33">
         <v>105.90311026613939</v>
       </c>
-      <c r="CG114" s="34">
+      <c r="CG114" s="33">
         <v>101.57984862740234</v>
       </c>
-      <c r="CH114" s="34">
+      <c r="CH114" s="33">
         <v>88.893003926002592</v>
       </c>
-      <c r="CI114" s="34">
-        <v>109.14478510043864</v>
-      </c>
-      <c r="CJ114" s="11"/>
+      <c r="CI114" s="33">
+        <v>109.19059334962719</v>
+      </c>
+      <c r="CJ114" s="33">
+        <v>105.2842001452438</v>
+      </c>
       <c r="CK114" s="11"/>
       <c r="CL114" s="11"/>
       <c r="CM114" s="11"/>
@@ -18186,25 +18290,27 @@
       <c r="CC115" s="21">
         <v>108.81478543296691</v>
       </c>
-      <c r="CD115" s="34">
+      <c r="CD115" s="33">
         <v>86.211656508496304</v>
       </c>
-      <c r="CE115" s="34">
+      <c r="CE115" s="33">
         <v>116.01959718136612</v>
       </c>
-      <c r="CF115" s="34">
+      <c r="CF115" s="33">
         <v>108.7899577665609</v>
       </c>
-      <c r="CG115" s="34">
+      <c r="CG115" s="33">
         <v>104.39460543276115</v>
       </c>
-      <c r="CH115" s="34">
+      <c r="CH115" s="33">
         <v>85.33270788371307</v>
       </c>
-      <c r="CI115" s="34">
-        <v>113.07236655633766</v>
-      </c>
-      <c r="CJ115" s="11"/>
+      <c r="CI115" s="33">
+        <v>113.11982321804427</v>
+      </c>
+      <c r="CJ115" s="33">
+        <v>108.15417657237009</v>
+      </c>
       <c r="CK115" s="11"/>
       <c r="CL115" s="11"/>
       <c r="CM115" s="11"/>
@@ -18514,25 +18620,27 @@
       <c r="CC116" s="21">
         <v>107.43677901288702</v>
       </c>
-      <c r="CD116" s="34">
+      <c r="CD116" s="33">
         <v>84.55527124692172</v>
       </c>
-      <c r="CE116" s="34">
+      <c r="CE116" s="33">
         <v>114.25314400121923</v>
       </c>
-      <c r="CF116" s="34">
+      <c r="CF116" s="33">
         <v>107.30486975927134</v>
       </c>
-      <c r="CG116" s="34">
+      <c r="CG116" s="33">
         <v>103.07257519637687</v>
       </c>
-      <c r="CH116" s="34">
+      <c r="CH116" s="33">
         <v>83.693209869254858</v>
       </c>
-      <c r="CI116" s="34">
-        <v>111.35078635486582</v>
-      </c>
-      <c r="CJ116" s="11"/>
+      <c r="CI116" s="33">
+        <v>111.39752046647722</v>
+      </c>
+      <c r="CJ116" s="33">
+        <v>106.67776759250307</v>
+      </c>
       <c r="CK116" s="11"/>
       <c r="CL116" s="11"/>
       <c r="CM116" s="11"/>
@@ -18842,25 +18950,27 @@
       <c r="CC117" s="21">
         <v>109.73486491600195</v>
       </c>
-      <c r="CD117" s="34">
+      <c r="CD117" s="33">
         <v>85.713250723885906</v>
       </c>
-      <c r="CE117" s="34">
+      <c r="CE117" s="33">
         <v>116.32423268723133</v>
       </c>
-      <c r="CF117" s="34">
+      <c r="CF117" s="33">
         <v>109.50028682850137</v>
       </c>
-      <c r="CG117" s="34">
+      <c r="CG117" s="33">
         <v>105.2773102436565</v>
       </c>
-      <c r="CH117" s="34">
+      <c r="CH117" s="33">
         <v>84.839383466248464</v>
       </c>
-      <c r="CI117" s="34">
-        <v>113.36926344636409</v>
-      </c>
-      <c r="CJ117" s="11"/>
+      <c r="CI117" s="33">
+        <v>113.41684471619293</v>
+      </c>
+      <c r="CJ117" s="33">
+        <v>108.8603543884737</v>
+      </c>
       <c r="CK117" s="11"/>
       <c r="CL117" s="11"/>
       <c r="CM117" s="11"/>
@@ -19170,25 +19280,27 @@
       <c r="CC118" s="21">
         <v>108.98879379500823</v>
       </c>
-      <c r="CD118" s="34">
+      <c r="CD118" s="33">
         <v>85.110853052262513</v>
       </c>
-      <c r="CE118" s="34">
+      <c r="CE118" s="33">
         <v>115.62648030030932</v>
       </c>
-      <c r="CF118" s="34">
+      <c r="CF118" s="33">
         <v>108.80558054937177</v>
       </c>
-      <c r="CG118" s="34">
+      <c r="CG118" s="33">
         <v>104.56154537777903</v>
       </c>
-      <c r="CH118" s="34">
+      <c r="CH118" s="33">
         <v>84.243127384132691</v>
       </c>
-      <c r="CI118" s="34">
-        <v>112.68923597189986</v>
-      </c>
-      <c r="CJ118" s="11"/>
+      <c r="CI118" s="33">
+        <v>112.73653183305821</v>
+      </c>
+      <c r="CJ118" s="33">
+        <v>108.16970805381716</v>
+      </c>
       <c r="CK118" s="11"/>
       <c r="CL118" s="11"/>
       <c r="CM118" s="11"/>
@@ -19335,13 +19447,13 @@
       <c r="CA119" s="12"/>
       <c r="CB119" s="12"/>
       <c r="CC119" s="12"/>
-      <c r="CD119" s="30"/>
-      <c r="CE119" s="30"/>
-      <c r="CF119" s="30"/>
-      <c r="CG119" s="30"/>
-      <c r="CH119" s="30"/>
-      <c r="CI119" s="30"/>
-      <c r="CJ119" s="11"/>
+      <c r="CD119" s="29"/>
+      <c r="CE119" s="29"/>
+      <c r="CF119" s="29"/>
+      <c r="CG119" s="29"/>
+      <c r="CH119" s="29"/>
+      <c r="CI119" s="29"/>
+      <c r="CJ119" s="29"/>
       <c r="CK119" s="11"/>
       <c r="CL119" s="11"/>
       <c r="CM119" s="11"/>
@@ -19651,25 +19763,27 @@
       <c r="CC120" s="21">
         <v>99.12018787930414</v>
       </c>
-      <c r="CD120" s="34">
+      <c r="CD120" s="33">
         <v>97.964123059171001</v>
       </c>
-      <c r="CE120" s="34">
+      <c r="CE120" s="33">
         <v>111.44760432274529</v>
       </c>
-      <c r="CF120" s="34">
+      <c r="CF120" s="33">
         <v>99.824414742788463</v>
       </c>
-      <c r="CG120" s="34">
+      <c r="CG120" s="33">
         <v>97.162560081921015</v>
       </c>
-      <c r="CH120" s="34">
+      <c r="CH120" s="33">
         <v>91.07844675373147</v>
       </c>
-      <c r="CI120" s="34">
-        <v>110.14461260776287</v>
-      </c>
-      <c r="CJ120" s="11"/>
+      <c r="CI120" s="33">
+        <v>110.32712240966009</v>
+      </c>
+      <c r="CJ120" s="33">
+        <v>102.45874860614852</v>
+      </c>
       <c r="CK120" s="11"/>
       <c r="CL120" s="11"/>
       <c r="CM120" s="11"/>
@@ -19817,12 +19931,13 @@
       <c r="CA121" s="17"/>
       <c r="CB121" s="17"/>
       <c r="CC121" s="17"/>
-      <c r="CD121" s="32"/>
-      <c r="CE121" s="32"/>
-      <c r="CF121" s="32"/>
-      <c r="CG121" s="32"/>
-      <c r="CH121" s="32"/>
-      <c r="CI121" s="32"/>
+      <c r="CD121" s="31"/>
+      <c r="CE121" s="31"/>
+      <c r="CF121" s="31"/>
+      <c r="CG121" s="31"/>
+      <c r="CH121" s="31"/>
+      <c r="CI121" s="31"/>
+      <c r="CJ121" s="31"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
@@ -19861,114 +19976,114 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="37">
+      <c r="B133" s="36">
         <v>2000</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37">
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36">
         <v>2001</v>
       </c>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37">
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36">
         <v>2002</v>
       </c>
-      <c r="K133" s="37"/>
-      <c r="L133" s="37"/>
-      <c r="M133" s="37"/>
-      <c r="N133" s="37">
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36">
         <v>2003</v>
       </c>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="37"/>
-      <c r="R133" s="37">
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+      <c r="R133" s="36">
         <v>2004</v>
       </c>
-      <c r="S133" s="37"/>
-      <c r="T133" s="37"/>
-      <c r="U133" s="37"/>
-      <c r="V133" s="37">
+      <c r="S133" s="36"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="36">
         <v>2005</v>
       </c>
-      <c r="W133" s="37"/>
-      <c r="X133" s="37"/>
-      <c r="Y133" s="37"/>
-      <c r="Z133" s="37">
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36">
         <v>2006</v>
       </c>
-      <c r="AA133" s="37"/>
-      <c r="AB133" s="37"/>
-      <c r="AC133" s="37"/>
-      <c r="AD133" s="37">
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36">
         <v>2007</v>
       </c>
-      <c r="AE133" s="37"/>
-      <c r="AF133" s="37"/>
-      <c r="AG133" s="37"/>
-      <c r="AH133" s="37">
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36">
         <v>2008</v>
       </c>
-      <c r="AI133" s="37"/>
-      <c r="AJ133" s="37"/>
-      <c r="AK133" s="37"/>
-      <c r="AL133" s="37">
+      <c r="AI133" s="36"/>
+      <c r="AJ133" s="36"/>
+      <c r="AK133" s="36"/>
+      <c r="AL133" s="36">
         <v>2009</v>
       </c>
-      <c r="AM133" s="37"/>
-      <c r="AN133" s="37"/>
-      <c r="AO133" s="37"/>
-      <c r="AP133" s="37">
+      <c r="AM133" s="36"/>
+      <c r="AN133" s="36"/>
+      <c r="AO133" s="36"/>
+      <c r="AP133" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="37"/>
-      <c r="AR133" s="37"/>
-      <c r="AS133" s="37"/>
-      <c r="AT133" s="37">
+      <c r="AQ133" s="36"/>
+      <c r="AR133" s="36"/>
+      <c r="AS133" s="36"/>
+      <c r="AT133" s="36">
         <v>2011</v>
       </c>
-      <c r="AU133" s="37"/>
-      <c r="AV133" s="37"/>
-      <c r="AW133" s="37"/>
-      <c r="AX133" s="37">
+      <c r="AU133" s="36"/>
+      <c r="AV133" s="36"/>
+      <c r="AW133" s="36"/>
+      <c r="AX133" s="36">
         <v>2012</v>
       </c>
-      <c r="AY133" s="37"/>
-      <c r="AZ133" s="37"/>
-      <c r="BA133" s="37"/>
-      <c r="BB133" s="37">
+      <c r="AY133" s="36"/>
+      <c r="AZ133" s="36"/>
+      <c r="BA133" s="36"/>
+      <c r="BB133" s="36">
         <v>2013</v>
       </c>
-      <c r="BC133" s="37"/>
-      <c r="BD133" s="37"/>
-      <c r="BE133" s="37"/>
-      <c r="BF133" s="37">
+      <c r="BC133" s="36"/>
+      <c r="BD133" s="36"/>
+      <c r="BE133" s="36"/>
+      <c r="BF133" s="36">
         <v>2014</v>
       </c>
-      <c r="BG133" s="37"/>
-      <c r="BH133" s="37"/>
-      <c r="BI133" s="37"/>
-      <c r="BJ133" s="37">
+      <c r="BG133" s="36"/>
+      <c r="BH133" s="36"/>
+      <c r="BI133" s="36"/>
+      <c r="BJ133" s="36">
         <v>2015</v>
       </c>
-      <c r="BK133" s="37"/>
-      <c r="BL133" s="37"/>
-      <c r="BM133" s="37"/>
-      <c r="BN133" s="37">
+      <c r="BK133" s="36"/>
+      <c r="BL133" s="36"/>
+      <c r="BM133" s="36"/>
+      <c r="BN133" s="36">
         <v>2016</v>
       </c>
-      <c r="BO133" s="37"/>
-      <c r="BP133" s="37"/>
-      <c r="BQ133" s="37"/>
-      <c r="BR133" s="37">
+      <c r="BO133" s="36"/>
+      <c r="BP133" s="36"/>
+      <c r="BQ133" s="36"/>
+      <c r="BR133" s="36">
         <v>2017</v>
       </c>
-      <c r="BS133" s="37"/>
-      <c r="BT133" s="37"/>
-      <c r="BU133" s="37"/>
+      <c r="BS133" s="36"/>
+      <c r="BT133" s="36"/>
+      <c r="BU133" s="36"/>
       <c r="BV133" s="39">
         <v>2018</v>
       </c>
@@ -19981,18 +20096,19 @@
       <c r="CA133" s="39"/>
       <c r="CB133" s="39"/>
       <c r="CC133" s="39"/>
-      <c r="CD133" s="36">
+      <c r="CD133" s="38">
         <v>2020</v>
       </c>
-      <c r="CE133" s="36"/>
-      <c r="CF133" s="36"/>
-      <c r="CG133" s="36"/>
-      <c r="CH133" s="36">
+      <c r="CE133" s="38"/>
+      <c r="CF133" s="38"/>
+      <c r="CG133" s="38"/>
+      <c r="CH133" s="38">
         <v>2021</v>
       </c>
-      <c r="CI133" s="36">
+      <c r="CI133" s="38">
         <v>0</v>
       </c>
+      <c r="CJ133" s="38"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -20236,23 +20352,26 @@
       <c r="CC134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD134" s="33" t="s">
+      <c r="CD134" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CE134" s="33" t="s">
+      <c r="CE134" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CF134" s="33" t="s">
+      <c r="CF134" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CG134" s="33" t="s">
+      <c r="CG134" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="33" t="s">
+      <c r="CH134" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="33" t="s">
+      <c r="CI134" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ134" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20502,25 +20621,27 @@
       <c r="CC136" s="23">
         <v>13.833332242164692</v>
       </c>
-      <c r="CD136" s="35">
+      <c r="CD136" s="34">
         <v>15.317250653030609</v>
       </c>
-      <c r="CE136" s="35">
+      <c r="CE136" s="34">
         <v>14.102478437243674</v>
       </c>
-      <c r="CF136" s="35">
+      <c r="CF136" s="34">
         <v>17.856968643594922</v>
       </c>
-      <c r="CG136" s="35">
+      <c r="CG136" s="34">
         <v>19.431373862271684</v>
       </c>
-      <c r="CH136" s="35">
+      <c r="CH136" s="34">
         <v>19.718777843356623</v>
       </c>
-      <c r="CI136" s="35">
-        <v>23.627195795093225</v>
-      </c>
-      <c r="CJ136" s="11"/>
+      <c r="CI136" s="34">
+        <v>22.118501188792859</v>
+      </c>
+      <c r="CJ136" s="34">
+        <v>24.535371116361816</v>
+      </c>
       <c r="CK136" s="11"/>
       <c r="CL136" s="11"/>
       <c r="CM136" s="11"/>
@@ -20830,25 +20951,27 @@
       <c r="CC137" s="23">
         <v>2.3286602351846994</v>
       </c>
-      <c r="CD137" s="35">
+      <c r="CD137" s="34">
         <v>4.0704393726138397</v>
       </c>
-      <c r="CE137" s="35">
+      <c r="CE137" s="34">
         <v>7.1720936316215651</v>
       </c>
-      <c r="CF137" s="35">
+      <c r="CF137" s="34">
         <v>6.2562402299822963</v>
       </c>
-      <c r="CG137" s="35">
+      <c r="CG137" s="34">
         <v>3.121639536813694</v>
       </c>
-      <c r="CH137" s="35">
+      <c r="CH137" s="34">
         <v>7.6614282384826291</v>
       </c>
-      <c r="CI137" s="35">
-        <v>12.291857936231382</v>
-      </c>
-      <c r="CJ137" s="11"/>
+      <c r="CI137" s="34">
+        <v>11.690432975586551</v>
+      </c>
+      <c r="CJ137" s="34">
+        <v>7.3709279854314982</v>
+      </c>
       <c r="CK137" s="11"/>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
@@ -21158,25 +21281,27 @@
       <c r="CC138" s="23">
         <v>51.166467347758271</v>
       </c>
-      <c r="CD138" s="35">
+      <c r="CD138" s="34">
         <v>44.485503685931825</v>
       </c>
-      <c r="CE138" s="35">
+      <c r="CE138" s="34">
         <v>38.592118024980579</v>
       </c>
-      <c r="CF138" s="35">
+      <c r="CF138" s="34">
         <v>40.655651687579869</v>
       </c>
-      <c r="CG138" s="35">
+      <c r="CG138" s="34">
         <v>33.945885367092579</v>
       </c>
-      <c r="CH138" s="35">
+      <c r="CH138" s="34">
         <v>22.244892948026536</v>
       </c>
-      <c r="CI138" s="35">
-        <v>19.288833154158887</v>
-      </c>
-      <c r="CJ138" s="11"/>
+      <c r="CI138" s="34">
+        <v>18.703778593815294</v>
+      </c>
+      <c r="CJ138" s="34">
+        <v>24.419884186423722</v>
+      </c>
       <c r="CK138" s="11"/>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
@@ -21486,25 +21611,27 @@
       <c r="CC139" s="23">
         <v>1.5105465860678073</v>
       </c>
-      <c r="CD139" s="35">
+      <c r="CD139" s="34">
         <v>1.8675332939459801</v>
       </c>
-      <c r="CE139" s="35">
+      <c r="CE139" s="34">
         <v>3.0702509502842843</v>
       </c>
-      <c r="CF139" s="35">
+      <c r="CF139" s="34">
         <v>2.9267568772454511</v>
       </c>
-      <c r="CG139" s="35">
+      <c r="CG139" s="34">
         <v>2.8371546608257558</v>
       </c>
-      <c r="CH139" s="35">
+      <c r="CH139" s="34">
         <v>2.4232327346703495</v>
       </c>
-      <c r="CI139" s="35">
-        <v>2.3579320906913415</v>
-      </c>
-      <c r="CJ139" s="11"/>
+      <c r="CI139" s="34">
+        <v>2.2883497223108868</v>
+      </c>
+      <c r="CJ139" s="34">
+        <v>2.1261394547452994</v>
+      </c>
       <c r="CK139" s="11"/>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
@@ -21814,25 +21941,27 @@
       <c r="CC140" s="23">
         <v>3.4290582800977258</v>
       </c>
-      <c r="CD140" s="35">
+      <c r="CD140" s="34">
         <v>5.1939564954279271</v>
       </c>
-      <c r="CE140" s="35">
+      <c r="CE140" s="34">
         <v>8.4562538141018511</v>
       </c>
-      <c r="CF140" s="35">
+      <c r="CF140" s="34">
         <v>6.8363451269268447</v>
       </c>
-      <c r="CG140" s="35">
+      <c r="CG140" s="34">
         <v>6.7838740319400488</v>
       </c>
-      <c r="CH140" s="35">
+      <c r="CH140" s="34">
         <v>10.583255941366316</v>
       </c>
-      <c r="CI140" s="35">
-        <v>14.145266378717903</v>
-      </c>
-      <c r="CJ140" s="11"/>
+      <c r="CI140" s="34">
+        <v>14.201693435025314</v>
+      </c>
+      <c r="CJ140" s="34">
+        <v>11.618148394074966</v>
+      </c>
       <c r="CK140" s="11"/>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
@@ -22142,25 +22271,27 @@
       <c r="CC141" s="23">
         <v>18.640170529999672</v>
       </c>
-      <c r="CD141" s="35">
+      <c r="CD141" s="34">
         <v>22.324885386073433</v>
       </c>
-      <c r="CE141" s="35">
+      <c r="CE141" s="34">
         <v>22.409731281424687</v>
       </c>
-      <c r="CF141" s="35">
+      <c r="CF141" s="34">
         <v>20.530176161308493</v>
       </c>
-      <c r="CG141" s="35">
+      <c r="CG141" s="34">
         <v>24.595136141347858</v>
       </c>
-      <c r="CH141" s="35">
+      <c r="CH141" s="34">
         <v>28.959425169367943</v>
       </c>
-      <c r="CI141" s="35">
-        <v>23.451911126209517</v>
-      </c>
-      <c r="CJ141" s="11"/>
+      <c r="CI141" s="34">
+        <v>25.132432352783596</v>
+      </c>
+      <c r="CJ141" s="34">
+        <v>24.296495221233759</v>
+      </c>
       <c r="CK141" s="11"/>
       <c r="CL141" s="11"/>
       <c r="CM141" s="11"/>
@@ -22470,25 +22601,27 @@
       <c r="CC142" s="23">
         <v>3.0128671664879549</v>
       </c>
-      <c r="CD142" s="35">
+      <c r="CD142" s="34">
         <v>3.8165974162923861</v>
       </c>
-      <c r="CE142" s="35">
+      <c r="CE142" s="34">
         <v>2.7472601715992839</v>
       </c>
-      <c r="CF142" s="35">
+      <c r="CF142" s="34">
         <v>2.0669607580438667</v>
       </c>
-      <c r="CG142" s="35">
+      <c r="CG142" s="34">
         <v>3.7848463819732872</v>
       </c>
-      <c r="CH142" s="35">
+      <c r="CH142" s="34">
         <v>4.5080226940373072</v>
       </c>
-      <c r="CI142" s="35">
-        <v>2.2294551669513529</v>
-      </c>
-      <c r="CJ142" s="11"/>
+      <c r="CI142" s="34">
+        <v>3.1379794142273232</v>
+      </c>
+      <c r="CJ142" s="34">
+        <v>3.2445835940098777</v>
+      </c>
       <c r="CK142" s="11"/>
       <c r="CL142" s="11"/>
       <c r="CM142" s="11"/>
@@ -22798,25 +22931,27 @@
       <c r="CC143" s="23">
         <v>6.0788976122391727</v>
       </c>
-      <c r="CD143" s="35">
+      <c r="CD143" s="34">
         <v>2.9238336966839951</v>
       </c>
-      <c r="CE143" s="35">
+      <c r="CE143" s="34">
         <v>3.4498136887440807</v>
       </c>
-      <c r="CF143" s="35">
+      <c r="CF143" s="34">
         <v>2.870900515318251</v>
       </c>
-      <c r="CG143" s="35">
+      <c r="CG143" s="34">
         <v>5.5000900177350962</v>
       </c>
-      <c r="CH143" s="35">
+      <c r="CH143" s="34">
         <v>3.9009644306923024</v>
       </c>
-      <c r="CI143" s="35">
-        <v>2.6075483519463982</v>
-      </c>
-      <c r="CJ143" s="11"/>
+      <c r="CI143" s="34">
+        <v>2.7268323174581885</v>
+      </c>
+      <c r="CJ143" s="34">
+        <v>2.3884500477190587</v>
+      </c>
       <c r="CK143" s="11"/>
       <c r="CL143" s="11"/>
       <c r="CM143" s="11"/>
@@ -22963,13 +23098,13 @@
       <c r="CA144" s="12"/>
       <c r="CB144" s="12"/>
       <c r="CC144" s="12"/>
-      <c r="CD144" s="30"/>
-      <c r="CE144" s="30"/>
-      <c r="CF144" s="30"/>
-      <c r="CG144" s="30"/>
-      <c r="CH144" s="30"/>
-      <c r="CI144" s="30"/>
-      <c r="CJ144" s="11"/>
+      <c r="CD144" s="29"/>
+      <c r="CE144" s="29"/>
+      <c r="CF144" s="29"/>
+      <c r="CG144" s="29"/>
+      <c r="CH144" s="29"/>
+      <c r="CI144" s="29"/>
+      <c r="CJ144" s="29"/>
       <c r="CK144" s="11"/>
       <c r="CL144" s="11"/>
       <c r="CM144" s="11"/>
@@ -23279,25 +23414,27 @@
       <c r="CC145" s="21">
         <v>100</v>
       </c>
-      <c r="CD145" s="34">
+      <c r="CD145" s="33">
         <v>100</v>
       </c>
-      <c r="CE145" s="34">
+      <c r="CE145" s="33">
         <v>100</v>
       </c>
-      <c r="CF145" s="34">
+      <c r="CF145" s="33">
         <v>100</v>
       </c>
-      <c r="CG145" s="34">
+      <c r="CG145" s="33">
         <v>100</v>
       </c>
-      <c r="CH145" s="34">
+      <c r="CH145" s="33">
         <v>100</v>
       </c>
-      <c r="CI145" s="34">
+      <c r="CI145" s="33">
         <v>100</v>
       </c>
-      <c r="CJ145" s="11"/>
+      <c r="CJ145" s="33">
+        <v>100</v>
+      </c>
       <c r="CK145" s="11"/>
       <c r="CL145" s="11"/>
       <c r="CM145" s="11"/>
@@ -23445,12 +23582,13 @@
       <c r="CA146" s="17"/>
       <c r="CB146" s="17"/>
       <c r="CC146" s="17"/>
-      <c r="CD146" s="32"/>
-      <c r="CE146" s="32"/>
-      <c r="CF146" s="32"/>
-      <c r="CG146" s="32"/>
-      <c r="CH146" s="32"/>
-      <c r="CI146" s="32"/>
+      <c r="CD146" s="31"/>
+      <c r="CE146" s="31"/>
+      <c r="CF146" s="31"/>
+      <c r="CG146" s="31"/>
+      <c r="CH146" s="31"/>
+      <c r="CI146" s="31"/>
+      <c r="CJ146" s="31"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
@@ -23538,13 +23676,13 @@
       <c r="CA148" s="12"/>
       <c r="CB148" s="12"/>
       <c r="CC148" s="12"/>
-      <c r="CD148" s="30"/>
-      <c r="CE148" s="30"/>
-      <c r="CF148" s="30"/>
-      <c r="CG148" s="30"/>
-      <c r="CH148" s="30"/>
-      <c r="CI148" s="30"/>
-      <c r="CJ148" s="11"/>
+      <c r="CD148" s="29"/>
+      <c r="CE148" s="29"/>
+      <c r="CF148" s="29"/>
+      <c r="CG148" s="29"/>
+      <c r="CH148" s="29"/>
+      <c r="CI148" s="29"/>
+      <c r="CJ148" s="29"/>
       <c r="CK148" s="11"/>
       <c r="CL148" s="11"/>
       <c r="CM148" s="11"/>
@@ -23691,13 +23829,13 @@
       <c r="CA149" s="12"/>
       <c r="CB149" s="12"/>
       <c r="CC149" s="12"/>
-      <c r="CD149" s="30"/>
-      <c r="CE149" s="30"/>
-      <c r="CF149" s="30"/>
-      <c r="CG149" s="30"/>
-      <c r="CH149" s="30"/>
-      <c r="CI149" s="30"/>
-      <c r="CJ149" s="11"/>
+      <c r="CD149" s="29"/>
+      <c r="CE149" s="29"/>
+      <c r="CF149" s="29"/>
+      <c r="CG149" s="29"/>
+      <c r="CH149" s="29"/>
+      <c r="CI149" s="29"/>
+      <c r="CJ149" s="29"/>
       <c r="CK149" s="11"/>
       <c r="CL149" s="11"/>
       <c r="CM149" s="11"/>
@@ -23795,114 +23933,114 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="37">
+      <c r="B158" s="36">
         <v>2000</v>
       </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37">
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36">
         <v>2001</v>
       </c>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37">
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36">
         <v>2002</v>
       </c>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
-      <c r="M158" s="37"/>
-      <c r="N158" s="37">
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36">
         <v>2003</v>
       </c>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37">
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36">
         <v>2004</v>
       </c>
-      <c r="S158" s="37"/>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="37">
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36">
         <v>2005</v>
       </c>
-      <c r="W158" s="37"/>
-      <c r="X158" s="37"/>
-      <c r="Y158" s="37"/>
-      <c r="Z158" s="37">
+      <c r="W158" s="36"/>
+      <c r="X158" s="36"/>
+      <c r="Y158" s="36"/>
+      <c r="Z158" s="36">
         <v>2006</v>
       </c>
-      <c r="AA158" s="37"/>
-      <c r="AB158" s="37"/>
-      <c r="AC158" s="37"/>
-      <c r="AD158" s="37">
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36">
         <v>2007</v>
       </c>
-      <c r="AE158" s="37"/>
-      <c r="AF158" s="37"/>
-      <c r="AG158" s="37"/>
-      <c r="AH158" s="37">
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="36"/>
+      <c r="AG158" s="36"/>
+      <c r="AH158" s="36">
         <v>2008</v>
       </c>
-      <c r="AI158" s="37"/>
-      <c r="AJ158" s="37"/>
-      <c r="AK158" s="37"/>
-      <c r="AL158" s="37">
+      <c r="AI158" s="36"/>
+      <c r="AJ158" s="36"/>
+      <c r="AK158" s="36"/>
+      <c r="AL158" s="36">
         <v>2009</v>
       </c>
-      <c r="AM158" s="37"/>
-      <c r="AN158" s="37"/>
-      <c r="AO158" s="37"/>
-      <c r="AP158" s="37">
+      <c r="AM158" s="36"/>
+      <c r="AN158" s="36"/>
+      <c r="AO158" s="36"/>
+      <c r="AP158" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="37"/>
-      <c r="AR158" s="37"/>
-      <c r="AS158" s="37"/>
-      <c r="AT158" s="37">
+      <c r="AQ158" s="36"/>
+      <c r="AR158" s="36"/>
+      <c r="AS158" s="36"/>
+      <c r="AT158" s="36">
         <v>2011</v>
       </c>
-      <c r="AU158" s="37"/>
-      <c r="AV158" s="37"/>
-      <c r="AW158" s="37"/>
-      <c r="AX158" s="37">
+      <c r="AU158" s="36"/>
+      <c r="AV158" s="36"/>
+      <c r="AW158" s="36"/>
+      <c r="AX158" s="36">
         <v>2012</v>
       </c>
-      <c r="AY158" s="37"/>
-      <c r="AZ158" s="37"/>
-      <c r="BA158" s="37"/>
-      <c r="BB158" s="37">
+      <c r="AY158" s="36"/>
+      <c r="AZ158" s="36"/>
+      <c r="BA158" s="36"/>
+      <c r="BB158" s="36">
         <v>2013</v>
       </c>
-      <c r="BC158" s="37"/>
-      <c r="BD158" s="37"/>
-      <c r="BE158" s="37"/>
-      <c r="BF158" s="37">
+      <c r="BC158" s="36"/>
+      <c r="BD158" s="36"/>
+      <c r="BE158" s="36"/>
+      <c r="BF158" s="36">
         <v>2014</v>
       </c>
-      <c r="BG158" s="37"/>
-      <c r="BH158" s="37"/>
-      <c r="BI158" s="37"/>
-      <c r="BJ158" s="37">
+      <c r="BG158" s="36"/>
+      <c r="BH158" s="36"/>
+      <c r="BI158" s="36"/>
+      <c r="BJ158" s="36">
         <v>2015</v>
       </c>
-      <c r="BK158" s="37"/>
-      <c r="BL158" s="37"/>
-      <c r="BM158" s="37"/>
-      <c r="BN158" s="37">
+      <c r="BK158" s="36"/>
+      <c r="BL158" s="36"/>
+      <c r="BM158" s="36"/>
+      <c r="BN158" s="36">
         <v>2016</v>
       </c>
-      <c r="BO158" s="37"/>
-      <c r="BP158" s="37"/>
-      <c r="BQ158" s="37"/>
-      <c r="BR158" s="37">
+      <c r="BO158" s="36"/>
+      <c r="BP158" s="36"/>
+      <c r="BQ158" s="36"/>
+      <c r="BR158" s="36">
         <v>2017</v>
       </c>
-      <c r="BS158" s="37"/>
-      <c r="BT158" s="37"/>
-      <c r="BU158" s="37"/>
+      <c r="BS158" s="36"/>
+      <c r="BT158" s="36"/>
+      <c r="BU158" s="36"/>
       <c r="BV158" s="39">
         <v>2018</v>
       </c>
@@ -23915,18 +24053,19 @@
       <c r="CA158" s="39"/>
       <c r="CB158" s="39"/>
       <c r="CC158" s="39"/>
-      <c r="CD158" s="36">
+      <c r="CD158" s="38">
         <v>2020</v>
       </c>
-      <c r="CE158" s="36"/>
-      <c r="CF158" s="36"/>
-      <c r="CG158" s="36"/>
-      <c r="CH158" s="36">
+      <c r="CE158" s="38"/>
+      <c r="CF158" s="38"/>
+      <c r="CG158" s="38"/>
+      <c r="CH158" s="38">
         <v>2021</v>
       </c>
-      <c r="CI158" s="36">
+      <c r="CI158" s="38">
         <v>0</v>
       </c>
+      <c r="CJ158" s="38"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -24170,23 +24309,26 @@
       <c r="CC159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD159" s="33" t="s">
+      <c r="CD159" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CE159" s="33" t="s">
+      <c r="CE159" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CF159" s="33" t="s">
+      <c r="CF159" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CG159" s="33" t="s">
+      <c r="CG159" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="33" t="s">
+      <c r="CH159" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="33" t="s">
+      <c r="CI159" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ159" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24436,25 +24578,27 @@
       <c r="CC161" s="23">
         <v>13.646805298871332</v>
       </c>
-      <c r="CD161" s="35">
+      <c r="CD161" s="34">
         <v>15.383406059653176</v>
       </c>
-      <c r="CE161" s="35">
+      <c r="CE161" s="34">
         <v>15.432639474970644</v>
       </c>
-      <c r="CF161" s="35">
+      <c r="CF161" s="34">
         <v>18.107623683975628</v>
       </c>
-      <c r="CG161" s="35">
+      <c r="CG161" s="34">
         <v>19.91103288812165</v>
       </c>
-      <c r="CH161" s="35">
+      <c r="CH161" s="34">
         <v>18.748234983168601</v>
       </c>
-      <c r="CI161" s="35">
-        <v>24.595995215304324</v>
-      </c>
-      <c r="CJ161" s="11"/>
+      <c r="CI161" s="34">
+        <v>23.016574384726333</v>
+      </c>
+      <c r="CJ161" s="34">
+        <v>24.174569391338856</v>
+      </c>
       <c r="CK161" s="11"/>
       <c r="CL161" s="11"/>
       <c r="CM161" s="11"/>
@@ -24764,25 +24908,27 @@
       <c r="CC162" s="23">
         <v>2.1375357534085211</v>
       </c>
-      <c r="CD162" s="35">
+      <c r="CD162" s="34">
         <v>4.9916184675582285</v>
       </c>
-      <c r="CE162" s="35">
+      <c r="CE162" s="34">
         <v>6.6490078385417704</v>
       </c>
-      <c r="CF162" s="35">
+      <c r="CF162" s="34">
         <v>5.7754177914874525</v>
       </c>
-      <c r="CG162" s="35">
+      <c r="CG162" s="34">
         <v>2.9277682629082933</v>
       </c>
-      <c r="CH162" s="35">
+      <c r="CH162" s="34">
         <v>8.8248809073132737</v>
       </c>
-      <c r="CI162" s="35">
-        <v>11.555688343390322</v>
-      </c>
-      <c r="CJ162" s="11"/>
+      <c r="CI162" s="34">
+        <v>11.003875795774629</v>
+      </c>
+      <c r="CJ162" s="34">
+        <v>7.0250585061333943</v>
+      </c>
       <c r="CK162" s="11"/>
       <c r="CL162" s="11"/>
       <c r="CM162" s="11"/>
@@ -25092,25 +25238,27 @@
       <c r="CC163" s="23">
         <v>54.230854561444843</v>
       </c>
-      <c r="CD163" s="35">
+      <c r="CD163" s="34">
         <v>38.093180244608703</v>
       </c>
-      <c r="CE163" s="35">
+      <c r="CE163" s="34">
         <v>38.923273671523802</v>
       </c>
-      <c r="CF163" s="35">
+      <c r="CF163" s="34">
         <v>43.46802562588492</v>
       </c>
-      <c r="CG163" s="35">
+      <c r="CG163" s="34">
         <v>36.344611637373539</v>
       </c>
-      <c r="CH163" s="35">
+      <c r="CH163" s="34">
         <v>18.076335397362783</v>
       </c>
-      <c r="CI163" s="35">
-        <v>19.77719376716172</v>
-      </c>
-      <c r="CJ163" s="11"/>
+      <c r="CI163" s="34">
+        <v>19.204311367288422</v>
+      </c>
+      <c r="CJ163" s="34">
+        <v>27.073236028487948</v>
+      </c>
       <c r="CK163" s="11"/>
       <c r="CL163" s="11"/>
       <c r="CM163" s="11"/>
@@ -25420,25 +25568,27 @@
       <c r="CC164" s="23">
         <v>1.4140957795229996</v>
       </c>
-      <c r="CD164" s="35">
+      <c r="CD164" s="34">
         <v>2.0371235215986183</v>
       </c>
-      <c r="CE164" s="35">
+      <c r="CE164" s="34">
         <v>3.0553906851212993</v>
       </c>
-      <c r="CF164" s="35">
+      <c r="CF164" s="34">
         <v>2.7587649846283293</v>
       </c>
-      <c r="CG164" s="35">
+      <c r="CG164" s="34">
         <v>2.7137785094101901</v>
       </c>
-      <c r="CH164" s="35">
+      <c r="CH164" s="34">
         <v>2.4828081384255376</v>
       </c>
-      <c r="CI164" s="35">
-        <v>2.3795320724266698</v>
-      </c>
-      <c r="CJ164" s="11"/>
+      <c r="CI164" s="34">
+        <v>2.3121684037480037</v>
+      </c>
+      <c r="CJ164" s="34">
+        <v>2.0690814727645845</v>
+      </c>
       <c r="CK164" s="11"/>
       <c r="CL164" s="11"/>
       <c r="CM164" s="11"/>
@@ -25748,25 +25898,27 @@
       <c r="CC165" s="23">
         <v>3.123554392171747</v>
       </c>
-      <c r="CD165" s="35">
+      <c r="CD165" s="34">
         <v>5.9020022800737726</v>
       </c>
-      <c r="CE165" s="35">
+      <c r="CE165" s="34">
         <v>8.1230175937733051</v>
       </c>
-      <c r="CF165" s="35">
+      <c r="CF165" s="34">
         <v>6.2729517069906233</v>
       </c>
-      <c r="CG165" s="35">
+      <c r="CG165" s="34">
         <v>6.3139140713654882</v>
       </c>
-      <c r="CH165" s="35">
+      <c r="CH165" s="34">
         <v>11.295862239018659</v>
       </c>
-      <c r="CI165" s="35">
-        <v>13.77900660406908</v>
-      </c>
-      <c r="CJ165" s="11"/>
+      <c r="CI165" s="34">
+        <v>13.851082201661107</v>
+      </c>
+      <c r="CJ165" s="34">
+        <v>11.006333581402892</v>
+      </c>
       <c r="CK165" s="11"/>
       <c r="CL165" s="11"/>
       <c r="CM165" s="11"/>
@@ -26076,25 +26228,27 @@
       <c r="CC166" s="23">
         <v>17.197250532000911</v>
       </c>
-      <c r="CD166" s="35">
+      <c r="CD166" s="34">
         <v>25.86518601373189</v>
       </c>
-      <c r="CE166" s="35">
+      <c r="CE166" s="34">
         <v>21.859449791636504</v>
       </c>
-      <c r="CF166" s="35">
+      <c r="CF166" s="34">
         <v>19.098973089167693</v>
       </c>
-      <c r="CG166" s="35">
+      <c r="CG166" s="34">
         <v>23.184890728729361</v>
       </c>
-      <c r="CH166" s="35">
+      <c r="CH166" s="34">
         <v>31.514856072880498</v>
       </c>
-      <c r="CI166" s="35">
-        <v>23.197875385234358</v>
-      </c>
-      <c r="CJ166" s="11"/>
+      <c r="CI166" s="34">
+        <v>24.89093948435298</v>
+      </c>
+      <c r="CJ166" s="34">
+        <v>23.335588586668397</v>
+      </c>
       <c r="CK166" s="11"/>
       <c r="CL166" s="11"/>
       <c r="CM166" s="11"/>
@@ -26404,25 +26558,27 @@
       <c r="CC167" s="23">
         <v>2.7214318787950185</v>
       </c>
-      <c r="CD167" s="35">
+      <c r="CD167" s="34">
         <v>4.3620982263456352</v>
       </c>
-      <c r="CE167" s="35">
+      <c r="CE167" s="34">
         <v>2.6320875496275042</v>
       </c>
-      <c r="CF167" s="35">
+      <c r="CF167" s="34">
         <v>1.8843160501597314</v>
       </c>
-      <c r="CG167" s="35">
+      <c r="CG167" s="34">
         <v>3.4931113184617044</v>
       </c>
-      <c r="CH167" s="35">
+      <c r="CH167" s="34">
         <v>4.8395413560122336</v>
       </c>
-      <c r="CI167" s="35">
-        <v>2.1660410258059906</v>
-      </c>
-      <c r="CJ167" s="11"/>
+      <c r="CI167" s="34">
+        <v>3.0524940084409047</v>
+      </c>
+      <c r="CJ167" s="34">
+        <v>3.0537836906535984</v>
+      </c>
       <c r="CK167" s="11"/>
       <c r="CL167" s="11"/>
       <c r="CM167" s="11"/>
@@ -26732,25 +26888,27 @@
       <c r="CC168" s="23">
         <v>5.5284718037846288</v>
       </c>
-      <c r="CD168" s="35">
+      <c r="CD168" s="34">
         <v>3.3653851864299638</v>
       </c>
-      <c r="CE168" s="35">
+      <c r="CE168" s="34">
         <v>3.3251333948051709</v>
       </c>
-      <c r="CF168" s="35">
+      <c r="CF168" s="34">
         <v>2.6339270677056175</v>
       </c>
-      <c r="CG168" s="35">
+      <c r="CG168" s="34">
         <v>5.110892583629786</v>
       </c>
-      <c r="CH168" s="35">
+      <c r="CH168" s="34">
         <v>4.2174809058184293</v>
       </c>
-      <c r="CI168" s="35">
-        <v>2.5486675866075137</v>
-      </c>
-      <c r="CJ168" s="11"/>
+      <c r="CI168" s="34">
+        <v>2.6685543540076258</v>
+      </c>
+      <c r="CJ168" s="34">
+        <v>2.2623487425503379</v>
+      </c>
       <c r="CK168" s="11"/>
       <c r="CL168" s="11"/>
       <c r="CM168" s="11"/>
@@ -26897,13 +27055,13 @@
       <c r="CA169" s="12"/>
       <c r="CB169" s="12"/>
       <c r="CC169" s="12"/>
-      <c r="CD169" s="30"/>
-      <c r="CE169" s="30"/>
-      <c r="CF169" s="30"/>
-      <c r="CG169" s="30"/>
-      <c r="CH169" s="30"/>
-      <c r="CI169" s="30"/>
-      <c r="CJ169" s="11"/>
+      <c r="CD169" s="29"/>
+      <c r="CE169" s="29"/>
+      <c r="CF169" s="29"/>
+      <c r="CG169" s="29"/>
+      <c r="CH169" s="29"/>
+      <c r="CI169" s="29"/>
+      <c r="CJ169" s="29"/>
       <c r="CK169" s="11"/>
       <c r="CL169" s="11"/>
       <c r="CM169" s="11"/>
@@ -27213,25 +27371,27 @@
       <c r="CC170" s="21">
         <v>100</v>
       </c>
-      <c r="CD170" s="34">
+      <c r="CD170" s="33">
         <v>100</v>
       </c>
-      <c r="CE170" s="34">
+      <c r="CE170" s="33">
         <v>100</v>
       </c>
-      <c r="CF170" s="34">
+      <c r="CF170" s="33">
         <v>100</v>
       </c>
-      <c r="CG170" s="34">
+      <c r="CG170" s="33">
         <v>100</v>
       </c>
-      <c r="CH170" s="34">
+      <c r="CH170" s="33">
         <v>100</v>
       </c>
-      <c r="CI170" s="34">
+      <c r="CI170" s="33">
         <v>100</v>
       </c>
-      <c r="CJ170" s="11"/>
+      <c r="CJ170" s="33">
+        <v>100</v>
+      </c>
       <c r="CK170" s="11"/>
       <c r="CL170" s="11"/>
       <c r="CM170" s="11"/>
@@ -27379,12 +27539,13 @@
       <c r="CA171" s="17"/>
       <c r="CB171" s="17"/>
       <c r="CC171" s="17"/>
-      <c r="CD171" s="32"/>
-      <c r="CE171" s="32"/>
-      <c r="CF171" s="32"/>
-      <c r="CG171" s="32"/>
-      <c r="CH171" s="32"/>
-      <c r="CI171" s="32"/>
+      <c r="CD171" s="31"/>
+      <c r="CE171" s="31"/>
+      <c r="CF171" s="31"/>
+      <c r="CG171" s="31"/>
+      <c r="CH171" s="31"/>
+      <c r="CI171" s="31"/>
+      <c r="CJ171" s="31"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
@@ -27479,7 +27640,7 @@
       <c r="CG173" s="26"/>
       <c r="CH173" s="26"/>
       <c r="CI173" s="26"/>
-      <c r="CJ173" s="24"/>
+      <c r="CJ173" s="26"/>
       <c r="CK173" s="24"/>
       <c r="CL173" s="24"/>
       <c r="CM173" s="24"/>
@@ -27633,7 +27794,7 @@
       <c r="CG174" s="26"/>
       <c r="CH174" s="26"/>
       <c r="CI174" s="26"/>
-      <c r="CJ174" s="24"/>
+      <c r="CJ174" s="26"/>
       <c r="CK174" s="24"/>
       <c r="CL174" s="24"/>
       <c r="CM174" s="24"/>
@@ -27701,18 +27862,6 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV158:BY158"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="F158:I158"/>
     <mergeCell ref="J158:M158"/>
@@ -27746,6 +27895,7 @@
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AP34:AS34"/>
     <mergeCell ref="B133:E133"/>
     <mergeCell ref="F133:I133"/>
     <mergeCell ref="J133:M133"/>
@@ -27755,7 +27905,6 @@
     <mergeCell ref="Z133:AC133"/>
     <mergeCell ref="AD133:AG133"/>
     <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="BF34:BI34"/>
     <mergeCell ref="V34:Y34"/>
     <mergeCell ref="Z34:AC34"/>
     <mergeCell ref="AD34:AG34"/>
@@ -27770,15 +27919,12 @@
     <mergeCell ref="Z108:AC108"/>
     <mergeCell ref="AD108:AG108"/>
     <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="BF59:BI59"/>
     <mergeCell ref="F59:I59"/>
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="N59:Q59"/>
     <mergeCell ref="R59:U59"/>
     <mergeCell ref="V59:Y59"/>
     <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="AP34:AS34"/>
     <mergeCell ref="AT34:AW34"/>
     <mergeCell ref="AX34:BA34"/>
     <mergeCell ref="BB34:BE34"/>
@@ -27827,16 +27973,30 @@
     <mergeCell ref="AL59:AO59"/>
     <mergeCell ref="AP59:AS59"/>
     <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH34:CJ34"/>
+    <mergeCell ref="CD84:CF84"/>
+    <mergeCell ref="CH108:CJ108"/>
+    <mergeCell ref="CH133:CJ133"/>
+    <mergeCell ref="CH158:CJ158"/>
     <mergeCell ref="AX59:BA59"/>
     <mergeCell ref="BR59:BU59"/>
     <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH34:CI34"/>
     <mergeCell ref="CD59:CE59"/>
-    <mergeCell ref="CD84:CE84"/>
-    <mergeCell ref="CH108:CI108"/>
-    <mergeCell ref="CH133:CI133"/>
-    <mergeCell ref="CH158:CI158"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
     <mergeCell ref="BR133:BU133"/>
     <mergeCell ref="BJ84:BM84"/>
     <mergeCell ref="BV9:BY9"/>
@@ -27853,14 +28013,15 @@
     <mergeCell ref="BN59:BQ59"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="86" man="1"/>
-    <brk id="100" max="86" man="1"/>
-    <brk id="124" max="86" man="1"/>
+    <brk id="50" max="87" man="1"/>
+    <brk id="100" max="87" man="1"/>
+    <brk id="124" max="87" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CJ$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CK$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -212,16 +212,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -366,13 +363,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,11 +712,11 @@
   <dimension ref="A1:EV174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CE31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CM38" sqref="CM38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -728,8 +725,8 @@
     <col min="2" max="73" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="80" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="11.36328125" style="2" customWidth="1"/>
-    <col min="82" max="88" width="11.6328125" style="26" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="10.453125" style="26" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -744,7 +741,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.25">
@@ -754,7 +751,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.25">
@@ -764,137 +761,138 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="37">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38">
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="36">
         <v>2021</v>
       </c>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
+      <c r="CI9" s="36"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="36"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1158,6 +1156,9 @@
       </c>
       <c r="CJ10" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK10" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,9 +1427,11 @@
         <v>51133.717876952724</v>
       </c>
       <c r="CJ12" s="28">
-        <v>63295.490854101503</v>
-      </c>
-      <c r="CK12" s="11"/>
+        <v>63479.232344403397</v>
+      </c>
+      <c r="CK12" s="28">
+        <v>70640.722217975417</v>
+      </c>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
@@ -1756,9 +1759,11 @@
         <v>27026.031128002116</v>
       </c>
       <c r="CJ13" s="28">
-        <v>19015.26178982457</v>
-      </c>
-      <c r="CK13" s="11"/>
+        <v>19177.595946268197</v>
+      </c>
+      <c r="CK13" s="28">
+        <v>11925.49305505007</v>
+      </c>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
@@ -2088,7 +2093,9 @@
       <c r="CJ14" s="28">
         <v>62997.561718120749</v>
       </c>
-      <c r="CK14" s="11"/>
+      <c r="CK14" s="28">
+        <v>95102.697117519579</v>
+      </c>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
@@ -2418,7 +2425,9 @@
       <c r="CJ15" s="28">
         <v>5484.9400799416435</v>
       </c>
-      <c r="CK15" s="11"/>
+      <c r="CK15" s="28">
+        <v>5736.6438239375202</v>
+      </c>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
@@ -2746,9 +2755,11 @@
         <v>32831.581999304013</v>
       </c>
       <c r="CJ16" s="28">
-        <v>29972.092206437759</v>
-      </c>
-      <c r="CK16" s="11"/>
+        <v>29056.340318796607</v>
+      </c>
+      <c r="CK16" s="28">
+        <v>24814.584754854015</v>
+      </c>
       <c r="CL16" s="11"/>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
@@ -3076,9 +3087,11 @@
         <v>58101.346674429522</v>
       </c>
       <c r="CJ17" s="28">
-        <v>62679.247188430585</v>
-      </c>
-      <c r="CK17" s="11"/>
+        <v>58979.964580534201</v>
+      </c>
+      <c r="CK17" s="28">
+        <v>69284.882545123342</v>
+      </c>
       <c r="CL17" s="11"/>
       <c r="CM17" s="11"/>
       <c r="CN17" s="11"/>
@@ -3406,9 +3419,11 @@
         <v>7254.4044780071463</v>
       </c>
       <c r="CJ18" s="28">
-        <v>8370.2630877699376</v>
-      </c>
-      <c r="CK18" s="11"/>
+        <v>8025.8615971543513</v>
+      </c>
+      <c r="CK18" s="28">
+        <v>12485.372517542424</v>
+      </c>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
@@ -3736,9 +3751,11 @@
         <v>6303.9115186210283</v>
       </c>
       <c r="CJ19" s="28">
-        <v>6161.639758123094</v>
-      </c>
-      <c r="CK19" s="11"/>
+        <v>6276.1378431926587</v>
+      </c>
+      <c r="CK19" s="28">
+        <v>14313.591258303011</v>
+      </c>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
@@ -3891,7 +3908,7 @@
       <c r="CH20" s="29"/>
       <c r="CI20" s="29"/>
       <c r="CJ20" s="29"/>
-      <c r="CK20" s="11"/>
+      <c r="CK20" s="29"/>
       <c r="CL20" s="11"/>
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
@@ -4219,9 +4236,11 @@
         <v>231180.75424957581</v>
       </c>
       <c r="CJ21" s="30">
-        <v>257976.49668274986</v>
-      </c>
-      <c r="CK21" s="11"/>
+        <v>253477.63442841181</v>
+      </c>
+      <c r="CK21" s="30">
+        <v>304303.98729030543</v>
+      </c>
       <c r="CL21" s="11"/>
       <c r="CM21" s="11"/>
       <c r="CN21" s="11"/>
@@ -4375,6 +4394,7 @@
       <c r="CH22" s="31"/>
       <c r="CI22" s="31"/>
       <c r="CJ22" s="31"/>
+      <c r="CK22" s="31"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -4469,7 +4489,7 @@
       <c r="CH24" s="29"/>
       <c r="CI24" s="29"/>
       <c r="CJ24" s="29"/>
-      <c r="CK24" s="11"/>
+      <c r="CK24" s="29"/>
       <c r="CL24" s="11"/>
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
@@ -4622,7 +4642,7 @@
       <c r="CH25" s="29"/>
       <c r="CI25" s="29"/>
       <c r="CJ25" s="29"/>
-      <c r="CK25" s="11"/>
+      <c r="CK25" s="29"/>
       <c r="CL25" s="11"/>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
@@ -4699,7 +4719,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.25">
@@ -4709,7 +4729,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.25">
@@ -4719,114 +4739,114 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="36">
+      <c r="B34" s="37">
         <v>2000</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37">
         <v>2001</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36">
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37">
         <v>2002</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36">
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37">
         <v>2003</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36">
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37">
         <v>2004</v>
       </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37">
         <v>2005</v>
       </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36">
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37">
         <v>2006</v>
       </c>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36">
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37">
         <v>2007</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36">
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37">
         <v>2008</v>
       </c>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36">
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37">
         <v>2009</v>
       </c>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36">
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36">
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37">
         <v>2011</v>
       </c>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36">
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37">
         <v>2012</v>
       </c>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36">
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37">
         <v>2013</v>
       </c>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36">
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37">
         <v>2014</v>
       </c>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36">
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37">
         <v>2015</v>
       </c>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36">
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37">
         <v>2016</v>
       </c>
-      <c r="BO34" s="36"/>
-      <c r="BP34" s="36"/>
-      <c r="BQ34" s="36"/>
-      <c r="BR34" s="36">
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37">
         <v>2017</v>
       </c>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="37"/>
       <c r="BV34" s="39">
         <v>2018</v>
       </c>
@@ -4839,19 +4859,18 @@
       <c r="CA34" s="39"/>
       <c r="CB34" s="39"/>
       <c r="CC34" s="39"/>
-      <c r="CD34" s="38">
+      <c r="CD34" s="36">
         <v>2020</v>
       </c>
-      <c r="CE34" s="38"/>
-      <c r="CF34" s="38"/>
-      <c r="CG34" s="38"/>
-      <c r="CH34" s="38">
+      <c r="CE34" s="36"/>
+      <c r="CF34" s="36"/>
+      <c r="CG34" s="36"/>
+      <c r="CH34" s="36">
         <v>2021</v>
       </c>
-      <c r="CI34" s="38">
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="38"/>
+      <c r="CI34" s="36"/>
+      <c r="CJ34" s="36"/>
+      <c r="CK34" s="36"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -5115,6 +5134,9 @@
       </c>
       <c r="CJ35" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CK35" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,9 +5405,11 @@
         <v>48229.201580595203</v>
       </c>
       <c r="CJ37" s="28">
-        <v>60868.113316166215</v>
-      </c>
-      <c r="CK37" s="11"/>
+        <v>61044.808333483576</v>
+      </c>
+      <c r="CK37" s="28">
+        <v>69091.378603203106</v>
+      </c>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
@@ -5713,9 +5737,11 @@
         <v>23057.651197409374</v>
       </c>
       <c r="CJ38" s="28">
-        <v>17688.094057932791</v>
-      </c>
-      <c r="CK38" s="11"/>
+        <v>17839.655565979185</v>
+      </c>
+      <c r="CK38" s="28">
+        <v>11137.892222904929</v>
+      </c>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
@@ -6043,9 +6069,11 @@
         <v>40240.940665961825</v>
       </c>
       <c r="CJ39" s="28">
-        <v>68166.541945012606</v>
-      </c>
-      <c r="CK39" s="11"/>
+        <v>68168.002215334855</v>
+      </c>
+      <c r="CK39" s="28">
+        <v>101783.03393508635</v>
+      </c>
       <c r="CL39" s="11"/>
       <c r="CM39" s="11"/>
       <c r="CN39" s="11"/>
@@ -6373,9 +6401,11 @@
         <v>4844.9449587357185</v>
       </c>
       <c r="CJ40" s="28">
-        <v>5209.6516593894885</v>
-      </c>
-      <c r="CK40" s="11"/>
+        <v>5209.8144525914395</v>
+      </c>
+      <c r="CK40" s="28">
+        <v>5464.1422300634022</v>
+      </c>
       <c r="CL40" s="11"/>
       <c r="CM40" s="11"/>
       <c r="CN40" s="11"/>
@@ -6703,9 +6733,11 @@
         <v>29023.721099722236</v>
       </c>
       <c r="CJ41" s="28">
-        <v>27712.376124820556</v>
-      </c>
-      <c r="CK41" s="11"/>
+        <v>26866.505948634229</v>
+      </c>
+      <c r="CK41" s="28">
+        <v>22998.55898403882</v>
+      </c>
       <c r="CL41" s="11"/>
       <c r="CM41" s="11"/>
       <c r="CN41" s="11"/>
@@ -7033,9 +7065,11 @@
         <v>52156.768329429666</v>
       </c>
       <c r="CJ42" s="28">
-        <v>58755.679466276582</v>
-      </c>
-      <c r="CK42" s="11"/>
+        <v>55289.690570290048</v>
+      </c>
+      <c r="CK42" s="28">
+        <v>65037.97769403299</v>
+      </c>
       <c r="CL42" s="11"/>
       <c r="CM42" s="11"/>
       <c r="CN42" s="11"/>
@@ -7363,9 +7397,11 @@
         <v>6396.2319672709154</v>
       </c>
       <c r="CJ43" s="28">
-        <v>7688.9912170414482</v>
-      </c>
-      <c r="CK43" s="11"/>
+        <v>7372.8516110904147</v>
+      </c>
+      <c r="CK43" s="28">
+        <v>11474.622177412415</v>
+      </c>
       <c r="CL43" s="11"/>
       <c r="CM43" s="11"/>
       <c r="CN43" s="11"/>
@@ -7693,9 +7729,11 @@
         <v>5591.7202845621923</v>
       </c>
       <c r="CJ44" s="28">
-        <v>5696.2710438836748</v>
-      </c>
-      <c r="CK44" s="11"/>
+        <v>5802.3027659861</v>
+      </c>
+      <c r="CK44" s="28">
+        <v>13244.88794284729</v>
+      </c>
       <c r="CL44" s="11"/>
       <c r="CM44" s="11"/>
       <c r="CN44" s="11"/>
@@ -7848,7 +7886,7 @@
       <c r="CH45" s="29"/>
       <c r="CI45" s="29"/>
       <c r="CJ45" s="29"/>
-      <c r="CK45" s="11"/>
+      <c r="CK45" s="29"/>
       <c r="CL45" s="11"/>
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
@@ -8176,9 +8214,11 @@
         <v>209541.18008368713</v>
       </c>
       <c r="CJ46" s="30">
-        <v>251785.71883052334</v>
-      </c>
-      <c r="CK46" s="11"/>
+        <v>247593.63146338987</v>
+      </c>
+      <c r="CK46" s="30">
+        <v>300232.49378958932</v>
+      </c>
       <c r="CL46" s="11"/>
       <c r="CM46" s="11"/>
       <c r="CN46" s="11"/>
@@ -8332,6 +8372,7 @@
       <c r="CH47" s="31"/>
       <c r="CI47" s="31"/>
       <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
@@ -8426,7 +8467,7 @@
       <c r="CH49" s="29"/>
       <c r="CI49" s="29"/>
       <c r="CJ49" s="29"/>
-      <c r="CK49" s="11"/>
+      <c r="CK49" s="29"/>
       <c r="CL49" s="11"/>
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
@@ -8579,7 +8620,7 @@
       <c r="CH50" s="29"/>
       <c r="CI50" s="29"/>
       <c r="CJ50" s="29"/>
-      <c r="CK50" s="11"/>
+      <c r="CK50" s="29"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
@@ -8656,7 +8697,7 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.25">
@@ -8666,7 +8707,7 @@
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.25">
@@ -8676,137 +8717,136 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37" t="s">
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37" t="s">
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37" t="s">
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37" t="s">
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37" t="s">
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37" t="s">
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37" t="s">
+      <c r="AE59" s="38"/>
+      <c r="AF59" s="38"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="37" t="s">
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="37"/>
-      <c r="AO59" s="37"/>
-      <c r="AP59" s="37" t="s">
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="37"/>
-      <c r="AR59" s="37"/>
-      <c r="AS59" s="37"/>
-      <c r="AT59" s="37" t="s">
+      <c r="AQ59" s="38"/>
+      <c r="AR59" s="38"/>
+      <c r="AS59" s="38"/>
+      <c r="AT59" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="37"/>
-      <c r="AV59" s="37"/>
-      <c r="AW59" s="37"/>
-      <c r="AX59" s="37" t="s">
+      <c r="AU59" s="38"/>
+      <c r="AV59" s="38"/>
+      <c r="AW59" s="38"/>
+      <c r="AX59" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
-      <c r="BB59" s="37" t="s">
+      <c r="AY59" s="38"/>
+      <c r="AZ59" s="38"/>
+      <c r="BA59" s="38"/>
+      <c r="BB59" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="37"/>
-      <c r="BD59" s="37"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="37" t="s">
+      <c r="BC59" s="38"/>
+      <c r="BD59" s="38"/>
+      <c r="BE59" s="38"/>
+      <c r="BF59" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="37"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="37"/>
-      <c r="BJ59" s="37" t="s">
+      <c r="BG59" s="38"/>
+      <c r="BH59" s="38"/>
+      <c r="BI59" s="38"/>
+      <c r="BJ59" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="37"/>
-      <c r="BM59" s="37"/>
-      <c r="BN59" s="37" t="s">
+      <c r="BK59" s="38"/>
+      <c r="BL59" s="38"/>
+      <c r="BM59" s="38"/>
+      <c r="BN59" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="37"/>
-      <c r="BP59" s="37"/>
-      <c r="BQ59" s="37"/>
-      <c r="BR59" s="37" t="s">
+      <c r="BO59" s="38"/>
+      <c r="BP59" s="38"/>
+      <c r="BQ59" s="38"/>
+      <c r="BR59" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="37"/>
-      <c r="BU59" s="37"/>
-      <c r="BV59" s="36" t="s">
+      <c r="BS59" s="38"/>
+      <c r="BT59" s="38"/>
+      <c r="BU59" s="38"/>
+      <c r="BV59" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="36"/>
-      <c r="BX59" s="36"/>
-      <c r="BY59" s="36"/>
-      <c r="BZ59" s="36" t="s">
+      <c r="BW59" s="37"/>
+      <c r="BX59" s="37"/>
+      <c r="BY59" s="37"/>
+      <c r="BZ59" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="36"/>
-      <c r="CB59" s="36"/>
-      <c r="CC59" s="36"/>
-      <c r="CD59" s="38" t="s">
+      <c r="CA59" s="37"/>
+      <c r="CB59" s="37"/>
+      <c r="CC59" s="37"/>
+      <c r="CD59" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF59" s="35"/>
-      <c r="CG59" s="35"/>
+      <c r="CE59" s="36"/>
+      <c r="CF59" s="36"/>
+      <c r="CG59" s="36"/>
       <c r="CH59" s="35"/>
       <c r="CI59" s="35"/>
       <c r="CJ59" s="35"/>
+      <c r="CK59" s="35"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -9050,19 +9090,22 @@
       <c r="CC60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="27" t="s">
+      <c r="CD60" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="27" t="s">
+      <c r="CE60" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="27" t="s">
+      <c r="CF60" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CG60" s="27"/>
+      <c r="CG60" s="32" t="s">
+        <v>10</v>
+      </c>
       <c r="CH60" s="27"/>
       <c r="CI60" s="27"/>
       <c r="CJ60" s="27"/>
+      <c r="CK60" s="27"/>
     </row>
     <row r="61" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -9318,13 +9361,15 @@
         <v>52.685718549391055</v>
       </c>
       <c r="CF62" s="33">
-        <v>37.756220648198479</v>
-      </c>
-      <c r="CG62" s="29"/>
+        <v>38.156115379066449</v>
+      </c>
+      <c r="CG62" s="33">
+        <v>36.820003463594048</v>
+      </c>
       <c r="CH62" s="29"/>
       <c r="CI62" s="29"/>
       <c r="CJ62" s="29"/>
-      <c r="CK62" s="11"/>
+      <c r="CK62" s="29"/>
       <c r="CL62" s="11"/>
       <c r="CM62" s="11"/>
       <c r="CN62" s="11"/>
@@ -9636,13 +9681,15 @@
         <v>58.680226843188848</v>
       </c>
       <c r="CF63" s="33">
-        <v>18.123165145490375</v>
-      </c>
-      <c r="CG63" s="29"/>
+        <v>19.131587989324444</v>
+      </c>
+      <c r="CG63" s="33">
+        <v>43.777711041014612</v>
+      </c>
       <c r="CH63" s="29"/>
       <c r="CI63" s="29"/>
       <c r="CJ63" s="29"/>
-      <c r="CK63" s="11"/>
+      <c r="CK63" s="29"/>
       <c r="CL63" s="11"/>
       <c r="CM63" s="11"/>
       <c r="CN63" s="11"/>
@@ -9956,11 +10003,13 @@
       <c r="CF64" s="33">
         <v>-39.778856615383972</v>
       </c>
-      <c r="CG64" s="29"/>
+      <c r="CG64" s="33">
+        <v>5.4395800447426694</v>
+      </c>
       <c r="CH64" s="29"/>
       <c r="CI64" s="29"/>
       <c r="CJ64" s="29"/>
-      <c r="CK64" s="11"/>
+      <c r="CK64" s="29"/>
       <c r="CL64" s="11"/>
       <c r="CM64" s="11"/>
       <c r="CN64" s="11"/>
@@ -10274,11 +10323,13 @@
       <c r="CF65" s="33">
         <v>-27.166459278523277</v>
       </c>
-      <c r="CG65" s="29"/>
+      <c r="CG65" s="33">
+        <v>-23.902068940374406</v>
+      </c>
       <c r="CH65" s="29"/>
       <c r="CI65" s="29"/>
       <c r="CJ65" s="29"/>
-      <c r="CK65" s="11"/>
+      <c r="CK65" s="29"/>
       <c r="CL65" s="11"/>
       <c r="CM65" s="11"/>
       <c r="CN65" s="11"/>
@@ -10590,13 +10641,15 @@
         <v>63.49342453574323</v>
       </c>
       <c r="CF66" s="33">
-        <v>70.388101385018132</v>
-      </c>
-      <c r="CG66" s="29"/>
+        <v>65.182150982883456</v>
+      </c>
+      <c r="CG66" s="33">
+        <v>37.666164009410323</v>
+      </c>
       <c r="CH66" s="29"/>
       <c r="CI66" s="29"/>
       <c r="CJ66" s="29"/>
-      <c r="CK66" s="11"/>
+      <c r="CK66" s="29"/>
       <c r="CL66" s="11"/>
       <c r="CM66" s="11"/>
       <c r="CN66" s="11"/>
@@ -10908,13 +10961,15 @@
         <v>9.1782277720477339</v>
       </c>
       <c r="CF67" s="33">
-        <v>18.652605417856563</v>
-      </c>
-      <c r="CG67" s="29"/>
+        <v>11.649816786966809</v>
+      </c>
+      <c r="CG67" s="33">
+        <v>6.0198604628524066</v>
+      </c>
       <c r="CH67" s="29"/>
       <c r="CI67" s="29"/>
       <c r="CJ67" s="29"/>
-      <c r="CK67" s="11"/>
+      <c r="CK67" s="29"/>
       <c r="CL67" s="11"/>
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
@@ -11226,13 +11281,15 @@
         <v>11.195821363273481</v>
       </c>
       <c r="CF68" s="33">
-        <v>57.381275371319646</v>
-      </c>
-      <c r="CG68" s="29"/>
+        <v>50.905690880784192</v>
+      </c>
+      <c r="CG68" s="33">
+        <v>24.15128572261797</v>
+      </c>
       <c r="CH68" s="29"/>
       <c r="CI68" s="29"/>
       <c r="CJ68" s="29"/>
-      <c r="CK68" s="11"/>
+      <c r="CK68" s="29"/>
       <c r="CL68" s="11"/>
       <c r="CM68" s="11"/>
       <c r="CN68" s="11"/>
@@ -11544,13 +11601,15 @@
         <v>-23.05135825312496</v>
       </c>
       <c r="CF69" s="33">
-        <v>-16.58880493023716</v>
-      </c>
-      <c r="CG69" s="29"/>
+        <v>-15.038824327060695</v>
+      </c>
+      <c r="CG69" s="33">
+        <v>-2.056236489135955</v>
+      </c>
       <c r="CH69" s="29"/>
       <c r="CI69" s="29"/>
       <c r="CJ69" s="29"/>
-      <c r="CK69" s="11"/>
+      <c r="CK69" s="29"/>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
@@ -11699,7 +11758,7 @@
       <c r="CH70" s="29"/>
       <c r="CI70" s="29"/>
       <c r="CJ70" s="29"/>
-      <c r="CK70" s="11"/>
+      <c r="CK70" s="29"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
@@ -12011,13 +12070,15 @@
         <v>-2.6495043611334523</v>
       </c>
       <c r="CF71" s="33">
-        <v>0.25968227293668633</v>
-      </c>
-      <c r="CG71" s="29"/>
+        <v>-1.4887502626222755</v>
+      </c>
+      <c r="CG71" s="33">
+        <v>14.526402010157312</v>
+      </c>
       <c r="CH71" s="29"/>
       <c r="CI71" s="29"/>
       <c r="CJ71" s="29"/>
-      <c r="CK71" s="11"/>
+      <c r="CK71" s="29"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
@@ -12167,6 +12228,7 @@
       <c r="CH72" s="31"/>
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
+      <c r="CK72" s="31"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
@@ -12261,7 +12323,7 @@
       <c r="CH74" s="29"/>
       <c r="CI74" s="29"/>
       <c r="CJ74" s="29"/>
-      <c r="CK74" s="11"/>
+      <c r="CK74" s="29"/>
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
@@ -12410,7 +12472,7 @@
       <c r="CH75" s="29"/>
       <c r="CI75" s="29"/>
       <c r="CJ75" s="29"/>
-      <c r="CK75" s="11"/>
+      <c r="CK75" s="29"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
@@ -12483,7 +12545,7 @@
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.25">
@@ -12493,7 +12555,7 @@
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.25">
@@ -12503,137 +12565,136 @@
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37" t="s">
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37" t="s">
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37" t="s">
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37" t="s">
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37" t="s">
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37" t="s">
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="37"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="37" t="s">
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="38"/>
+      <c r="AC84" s="38"/>
+      <c r="AD84" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="37"/>
-      <c r="AH84" s="37" t="s">
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="37"/>
-      <c r="AJ84" s="37"/>
-      <c r="AK84" s="37"/>
-      <c r="AL84" s="37" t="s">
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="38"/>
+      <c r="AL84" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="37"/>
-      <c r="AN84" s="37"/>
-      <c r="AO84" s="37"/>
-      <c r="AP84" s="37" t="s">
+      <c r="AM84" s="38"/>
+      <c r="AN84" s="38"/>
+      <c r="AO84" s="38"/>
+      <c r="AP84" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="37"/>
-      <c r="AR84" s="37"/>
-      <c r="AS84" s="37"/>
-      <c r="AT84" s="37" t="s">
+      <c r="AQ84" s="38"/>
+      <c r="AR84" s="38"/>
+      <c r="AS84" s="38"/>
+      <c r="AT84" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="37"/>
-      <c r="AV84" s="37"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37" t="s">
+      <c r="AU84" s="38"/>
+      <c r="AV84" s="38"/>
+      <c r="AW84" s="38"/>
+      <c r="AX84" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="37" t="s">
+      <c r="AY84" s="38"/>
+      <c r="AZ84" s="38"/>
+      <c r="BA84" s="38"/>
+      <c r="BB84" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="37"/>
-      <c r="BD84" s="37"/>
-      <c r="BE84" s="37"/>
-      <c r="BF84" s="37" t="s">
+      <c r="BC84" s="38"/>
+      <c r="BD84" s="38"/>
+      <c r="BE84" s="38"/>
+      <c r="BF84" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="37"/>
-      <c r="BH84" s="37"/>
-      <c r="BI84" s="37"/>
-      <c r="BJ84" s="37" t="s">
+      <c r="BG84" s="38"/>
+      <c r="BH84" s="38"/>
+      <c r="BI84" s="38"/>
+      <c r="BJ84" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="37"/>
-      <c r="BL84" s="37"/>
-      <c r="BM84" s="37"/>
-      <c r="BN84" s="37" t="s">
+      <c r="BK84" s="38"/>
+      <c r="BL84" s="38"/>
+      <c r="BM84" s="38"/>
+      <c r="BN84" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="37"/>
-      <c r="BP84" s="37"/>
-      <c r="BQ84" s="37"/>
-      <c r="BR84" s="37" t="s">
+      <c r="BO84" s="38"/>
+      <c r="BP84" s="38"/>
+      <c r="BQ84" s="38"/>
+      <c r="BR84" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="37"/>
-      <c r="BT84" s="37"/>
-      <c r="BU84" s="37"/>
-      <c r="BV84" s="36" t="s">
+      <c r="BS84" s="38"/>
+      <c r="BT84" s="38"/>
+      <c r="BU84" s="38"/>
+      <c r="BV84" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="36"/>
-      <c r="BX84" s="36"/>
-      <c r="BY84" s="36"/>
-      <c r="BZ84" s="36" t="s">
+      <c r="BW84" s="37"/>
+      <c r="BX84" s="37"/>
+      <c r="BY84" s="37"/>
+      <c r="BZ84" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="36"/>
-      <c r="CB84" s="36"/>
-      <c r="CC84" s="36"/>
-      <c r="CD84" s="38" t="s">
+      <c r="CA84" s="37"/>
+      <c r="CB84" s="37"/>
+      <c r="CC84" s="37"/>
+      <c r="CD84" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="CF84" s="38"/>
-      <c r="CG84" s="35"/>
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
       <c r="CH84" s="35"/>
       <c r="CI84" s="35"/>
       <c r="CJ84" s="35"/>
+      <c r="CK84" s="35"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -12886,10 +12947,13 @@
       <c r="CF85" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CG85" s="27"/>
+      <c r="CG85" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="CH85" s="27"/>
       <c r="CI85" s="27"/>
       <c r="CJ85" s="27"/>
+      <c r="CK85" s="27"/>
     </row>
     <row r="86" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -13145,13 +13209,15 @@
         <v>46.665203675346817</v>
       </c>
       <c r="CF87" s="33">
-        <v>30.410132459014648</v>
-      </c>
-      <c r="CG87" s="29"/>
+        <v>30.78870211326884</v>
+      </c>
+      <c r="CG87" s="33">
+        <v>26.889881565953871</v>
+      </c>
       <c r="CH87" s="29"/>
       <c r="CI87" s="29"/>
       <c r="CJ87" s="29"/>
-      <c r="CK87" s="11"/>
+      <c r="CK87" s="29"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
@@ -13463,13 +13529,15 @@
         <v>62.747920525903936</v>
       </c>
       <c r="CF88" s="33">
-        <v>18.817548750246928</v>
-      </c>
-      <c r="CG88" s="29"/>
+        <v>19.835644131919054</v>
+      </c>
+      <c r="CG88" s="33">
+        <v>39.111564766245834</v>
+      </c>
       <c r="CH88" s="29"/>
       <c r="CI88" s="29"/>
       <c r="CJ88" s="29"/>
-      <c r="CK88" s="11"/>
+      <c r="CK88" s="29"/>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
@@ -13781,13 +13849,15 @@
         <v>-51.480536243458829</v>
       </c>
       <c r="CF89" s="33">
-        <v>-39.160686558143844</v>
-      </c>
-      <c r="CG89" s="29"/>
+        <v>-39.159383252426551</v>
+      </c>
+      <c r="CG89" s="33">
+        <v>2.4076223292502306</v>
+      </c>
       <c r="CH89" s="29"/>
       <c r="CI89" s="29"/>
       <c r="CJ89" s="29"/>
-      <c r="CK89" s="11"/>
+      <c r="CK89" s="29"/>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
@@ -14099,13 +14169,15 @@
         <v>-25.581771892157519</v>
       </c>
       <c r="CF90" s="33">
-        <v>-26.738309419085709</v>
-      </c>
-      <c r="CG90" s="29"/>
+        <v>-26.736020109556051</v>
+      </c>
+      <c r="CG90" s="33">
+        <v>-26.371742959807008</v>
+      </c>
       <c r="CH90" s="29"/>
       <c r="CI90" s="29"/>
       <c r="CJ90" s="29"/>
-      <c r="CK90" s="11"/>
+      <c r="CK90" s="29"/>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
@@ -14417,13 +14489,15 @@
         <v>67.684502298738209</v>
       </c>
       <c r="CF91" s="33">
-        <v>71.389722903554542</v>
-      </c>
-      <c r="CG91" s="29"/>
+        <v>66.158361491022703</v>
+      </c>
+      <c r="CG91" s="33">
+        <v>33.198361220625003</v>
+      </c>
       <c r="CH91" s="29"/>
       <c r="CI91" s="29"/>
       <c r="CJ91" s="29"/>
-      <c r="CK91" s="11"/>
+      <c r="CK91" s="29"/>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
@@ -14735,13 +14809,15 @@
         <v>11.976960772582544</v>
       </c>
       <c r="CF92" s="33">
-        <v>19.350101321918459</v>
-      </c>
-      <c r="CG92" s="29"/>
+        <v>12.309656386649422</v>
+      </c>
+      <c r="CG92" s="33">
+        <v>2.579103384663</v>
+      </c>
       <c r="CH92" s="29"/>
       <c r="CI92" s="29"/>
       <c r="CJ92" s="29"/>
-      <c r="CK92" s="11"/>
+      <c r="CK92" s="29"/>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
@@ -15053,13 +15129,15 @@
         <v>14.046274435480683</v>
       </c>
       <c r="CF93" s="33">
-        <v>58.306436639889796</v>
-      </c>
-      <c r="CG93" s="29"/>
+        <v>51.797528892937777</v>
+      </c>
+      <c r="CG93" s="33">
+        <v>20.122093331197235</v>
+      </c>
       <c r="CH93" s="29"/>
       <c r="CI93" s="29"/>
       <c r="CJ93" s="29"/>
-      <c r="CK93" s="11"/>
+      <c r="CK93" s="29"/>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
@@ -15371,13 +15449,15 @@
         <v>-21.078815673912572</v>
       </c>
       <c r="CF94" s="33">
-        <v>-16.098474636105138</v>
-      </c>
-      <c r="CG94" s="29"/>
+        <v>-14.536712010552705</v>
+      </c>
+      <c r="CG94" s="33">
+        <v>-5.2348927908257252</v>
+      </c>
       <c r="CH94" s="29"/>
       <c r="CI94" s="29"/>
       <c r="CJ94" s="29"/>
-      <c r="CK94" s="11"/>
+      <c r="CK94" s="29"/>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
@@ -15526,7 +15606,7 @@
       <c r="CH95" s="29"/>
       <c r="CI95" s="29"/>
       <c r="CJ95" s="29"/>
-      <c r="CK95" s="11"/>
+      <c r="CK95" s="29"/>
       <c r="CL95" s="11"/>
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
@@ -15838,13 +15918,15 @@
         <v>-1.6608130292939194</v>
       </c>
       <c r="CF96" s="33">
-        <v>-2.3181110315334337</v>
-      </c>
-      <c r="CG96" s="29"/>
+        <v>-3.9444582868281941</v>
+      </c>
+      <c r="CG96" s="33">
+        <v>9.787935109130629</v>
+      </c>
       <c r="CH96" s="29"/>
       <c r="CI96" s="29"/>
       <c r="CJ96" s="29"/>
-      <c r="CK96" s="11"/>
+      <c r="CK96" s="29"/>
       <c r="CL96" s="11"/>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
@@ -15994,6 +16076,7 @@
       <c r="CH97" s="31"/>
       <c r="CI97" s="31"/>
       <c r="CJ97" s="31"/>
+      <c r="CK97" s="31"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
@@ -16088,7 +16171,7 @@
       <c r="CH99" s="29"/>
       <c r="CI99" s="29"/>
       <c r="CJ99" s="29"/>
-      <c r="CK99" s="11"/>
+      <c r="CK99" s="29"/>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
@@ -16237,7 +16320,7 @@
       <c r="CH100" s="29"/>
       <c r="CI100" s="29"/>
       <c r="CJ100" s="29"/>
-      <c r="CK100" s="11"/>
+      <c r="CK100" s="29"/>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
@@ -16305,7 +16388,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.25">
@@ -16315,7 +16398,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.25">
@@ -16325,114 +16408,114 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="36">
+      <c r="B108" s="37">
         <v>2000</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36">
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37">
         <v>2001</v>
       </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36">
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37">
         <v>2002</v>
       </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36">
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37">
         <v>2003</v>
       </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36">
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37">
         <v>2004</v>
       </c>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36">
+      <c r="S108" s="37"/>
+      <c r="T108" s="37"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="37">
         <v>2005</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="37"/>
+      <c r="X108" s="37"/>
+      <c r="Y108" s="37"/>
+      <c r="Z108" s="37">
         <v>2006</v>
       </c>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="37"/>
+      <c r="AB108" s="37"/>
+      <c r="AC108" s="37"/>
+      <c r="AD108" s="37">
         <v>2007</v>
       </c>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="37"/>
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="37"/>
+      <c r="AH108" s="37">
         <v>2008</v>
       </c>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="37"/>
+      <c r="AJ108" s="37"/>
+      <c r="AK108" s="37"/>
+      <c r="AL108" s="37">
         <v>2009</v>
       </c>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="37"/>
+      <c r="AN108" s="37"/>
+      <c r="AO108" s="37"/>
+      <c r="AP108" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="36"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="37"/>
+      <c r="AR108" s="37"/>
+      <c r="AS108" s="37"/>
+      <c r="AT108" s="37">
         <v>2011</v>
       </c>
-      <c r="AU108" s="36"/>
-      <c r="AV108" s="36"/>
-      <c r="AW108" s="36"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="37"/>
+      <c r="AV108" s="37"/>
+      <c r="AW108" s="37"/>
+      <c r="AX108" s="37">
         <v>2012</v>
       </c>
-      <c r="AY108" s="36"/>
-      <c r="AZ108" s="36"/>
-      <c r="BA108" s="36"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="37"/>
+      <c r="AZ108" s="37"/>
+      <c r="BA108" s="37"/>
+      <c r="BB108" s="37">
         <v>2013</v>
       </c>
-      <c r="BC108" s="36"/>
-      <c r="BD108" s="36"/>
-      <c r="BE108" s="36"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="37"/>
+      <c r="BD108" s="37"/>
+      <c r="BE108" s="37"/>
+      <c r="BF108" s="37">
         <v>2014</v>
       </c>
-      <c r="BG108" s="36"/>
-      <c r="BH108" s="36"/>
-      <c r="BI108" s="36"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="37"/>
+      <c r="BH108" s="37"/>
+      <c r="BI108" s="37"/>
+      <c r="BJ108" s="37">
         <v>2015</v>
       </c>
-      <c r="BK108" s="36"/>
-      <c r="BL108" s="36"/>
-      <c r="BM108" s="36"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="37"/>
+      <c r="BL108" s="37"/>
+      <c r="BM108" s="37"/>
+      <c r="BN108" s="37">
         <v>2016</v>
       </c>
-      <c r="BO108" s="36"/>
-      <c r="BP108" s="36"/>
-      <c r="BQ108" s="36"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="37"/>
+      <c r="BP108" s="37"/>
+      <c r="BQ108" s="37"/>
+      <c r="BR108" s="37">
         <v>2017</v>
       </c>
-      <c r="BS108" s="36"/>
-      <c r="BT108" s="36"/>
-      <c r="BU108" s="36"/>
+      <c r="BS108" s="37"/>
+      <c r="BT108" s="37"/>
+      <c r="BU108" s="37"/>
       <c r="BV108" s="39">
         <v>2018</v>
       </c>
@@ -16445,19 +16528,18 @@
       <c r="CA108" s="39"/>
       <c r="CB108" s="39"/>
       <c r="CC108" s="39"/>
-      <c r="CD108" s="38">
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="38"/>
-      <c r="CF108" s="38"/>
-      <c r="CG108" s="38"/>
-      <c r="CH108" s="38">
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
+      <c r="CH108" s="36">
         <v>2021</v>
       </c>
-      <c r="CI108" s="38">
-        <v>0</v>
-      </c>
-      <c r="CJ108" s="38"/>
+      <c r="CI108" s="36"/>
+      <c r="CJ108" s="36"/>
+      <c r="CK108" s="36"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -16721,6 +16803,9 @@
       </c>
       <c r="CJ109" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CK109" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16991,7 +17076,9 @@
       <c r="CJ111" s="33">
         <v>103.98792964934991</v>
       </c>
-      <c r="CK111" s="11"/>
+      <c r="CK111" s="33">
+        <v>102.24245578260974</v>
+      </c>
       <c r="CL111" s="11"/>
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
@@ -17319,9 +17406,11 @@
         <v>117.2106859307448</v>
       </c>
       <c r="CJ112" s="33">
-        <v>107.50316980192996</v>
-      </c>
-      <c r="CK112" s="11"/>
+        <v>107.4998106064363</v>
+      </c>
+      <c r="CK112" s="33">
+        <v>107.07136338171284</v>
+      </c>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
@@ -17649,9 +17738,11 @@
         <v>107.45160453698703</v>
       </c>
       <c r="CJ113" s="33">
-        <v>92.417130047375025</v>
-      </c>
-      <c r="CK113" s="11"/>
+        <v>92.415150320994769</v>
+      </c>
+      <c r="CK113" s="33">
+        <v>93.436689240539579</v>
+      </c>
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
@@ -17979,9 +18070,11 @@
         <v>109.19059334962719</v>
       </c>
       <c r="CJ114" s="33">
-        <v>105.2842001452438</v>
-      </c>
-      <c r="CK114" s="11"/>
+        <v>105.28091028680211</v>
+      </c>
+      <c r="CK114" s="33">
+        <v>104.98708822722126</v>
+      </c>
       <c r="CL114" s="11"/>
       <c r="CM114" s="11"/>
       <c r="CN114" s="11"/>
@@ -18309,9 +18402,11 @@
         <v>113.11982321804427</v>
       </c>
       <c r="CJ115" s="33">
-        <v>108.15417657237009</v>
-      </c>
-      <c r="CK115" s="11"/>
+        <v>108.15079703460174</v>
+      </c>
+      <c r="CK115" s="33">
+        <v>107.89625894420398</v>
+      </c>
       <c r="CL115" s="11"/>
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
@@ -18639,9 +18734,11 @@
         <v>111.39752046647722</v>
       </c>
       <c r="CJ116" s="33">
-        <v>106.67776759250307</v>
-      </c>
-      <c r="CK116" s="11"/>
+        <v>106.67443418868964</v>
+      </c>
+      <c r="CK116" s="33">
+        <v>106.52988454079807</v>
+      </c>
       <c r="CL116" s="11"/>
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
@@ -18969,9 +19066,11 @@
         <v>113.41684471619293</v>
       </c>
       <c r="CJ117" s="33">
-        <v>108.8603543884737</v>
-      </c>
-      <c r="CK117" s="11"/>
+        <v>108.85695278447844</v>
+      </c>
+      <c r="CK117" s="33">
+        <v>108.80857185973105</v>
+      </c>
       <c r="CL117" s="11"/>
       <c r="CM117" s="11"/>
       <c r="CN117" s="11"/>
@@ -19299,9 +19398,11 @@
         <v>112.73653183305821</v>
       </c>
       <c r="CJ118" s="33">
-        <v>108.16970805381716</v>
-      </c>
-      <c r="CK118" s="11"/>
+        <v>108.16632803073023</v>
+      </c>
+      <c r="CK118" s="33">
+        <v>108.06879846826382</v>
+      </c>
       <c r="CL118" s="11"/>
       <c r="CM118" s="11"/>
       <c r="CN118" s="11"/>
@@ -19454,7 +19555,7 @@
       <c r="CH119" s="29"/>
       <c r="CI119" s="29"/>
       <c r="CJ119" s="29"/>
-      <c r="CK119" s="11"/>
+      <c r="CK119" s="29"/>
       <c r="CL119" s="11"/>
       <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
@@ -19782,9 +19883,11 @@
         <v>110.32712240966009</v>
       </c>
       <c r="CJ120" s="33">
-        <v>102.45874860614852</v>
-      </c>
-      <c r="CK120" s="11"/>
+        <v>102.37647589327916</v>
+      </c>
+      <c r="CK120" s="33">
+        <v>101.35611354031838</v>
+      </c>
       <c r="CL120" s="11"/>
       <c r="CM120" s="11"/>
       <c r="CN120" s="11"/>
@@ -19938,6 +20041,7 @@
       <c r="CH121" s="31"/>
       <c r="CI121" s="31"/>
       <c r="CJ121" s="31"/>
+      <c r="CK121" s="31"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
@@ -19956,7 +20060,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.25">
@@ -19966,7 +20070,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.25">
@@ -19976,114 +20080,114 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="36">
+      <c r="B133" s="37">
         <v>2000</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36">
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37">
         <v>2001</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36">
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37">
         <v>2002</v>
       </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36">
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37">
         <v>2003</v>
       </c>
-      <c r="O133" s="36"/>
-      <c r="P133" s="36"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="36">
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="37"/>
+      <c r="R133" s="37">
         <v>2004</v>
       </c>
-      <c r="S133" s="36"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="36">
+      <c r="S133" s="37"/>
+      <c r="T133" s="37"/>
+      <c r="U133" s="37"/>
+      <c r="V133" s="37">
         <v>2005</v>
       </c>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36">
+      <c r="W133" s="37"/>
+      <c r="X133" s="37"/>
+      <c r="Y133" s="37"/>
+      <c r="Z133" s="37">
         <v>2006</v>
       </c>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36">
+      <c r="AA133" s="37"/>
+      <c r="AB133" s="37"/>
+      <c r="AC133" s="37"/>
+      <c r="AD133" s="37">
         <v>2007</v>
       </c>
-      <c r="AE133" s="36"/>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36">
+      <c r="AE133" s="37"/>
+      <c r="AF133" s="37"/>
+      <c r="AG133" s="37"/>
+      <c r="AH133" s="37">
         <v>2008</v>
       </c>
-      <c r="AI133" s="36"/>
-      <c r="AJ133" s="36"/>
-      <c r="AK133" s="36"/>
-      <c r="AL133" s="36">
+      <c r="AI133" s="37"/>
+      <c r="AJ133" s="37"/>
+      <c r="AK133" s="37"/>
+      <c r="AL133" s="37">
         <v>2009</v>
       </c>
-      <c r="AM133" s="36"/>
-      <c r="AN133" s="36"/>
-      <c r="AO133" s="36"/>
-      <c r="AP133" s="36">
+      <c r="AM133" s="37"/>
+      <c r="AN133" s="37"/>
+      <c r="AO133" s="37"/>
+      <c r="AP133" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="36"/>
-      <c r="AR133" s="36"/>
-      <c r="AS133" s="36"/>
-      <c r="AT133" s="36">
+      <c r="AQ133" s="37"/>
+      <c r="AR133" s="37"/>
+      <c r="AS133" s="37"/>
+      <c r="AT133" s="37">
         <v>2011</v>
       </c>
-      <c r="AU133" s="36"/>
-      <c r="AV133" s="36"/>
-      <c r="AW133" s="36"/>
-      <c r="AX133" s="36">
+      <c r="AU133" s="37"/>
+      <c r="AV133" s="37"/>
+      <c r="AW133" s="37"/>
+      <c r="AX133" s="37">
         <v>2012</v>
       </c>
-      <c r="AY133" s="36"/>
-      <c r="AZ133" s="36"/>
-      <c r="BA133" s="36"/>
-      <c r="BB133" s="36">
+      <c r="AY133" s="37"/>
+      <c r="AZ133" s="37"/>
+      <c r="BA133" s="37"/>
+      <c r="BB133" s="37">
         <v>2013</v>
       </c>
-      <c r="BC133" s="36"/>
-      <c r="BD133" s="36"/>
-      <c r="BE133" s="36"/>
-      <c r="BF133" s="36">
+      <c r="BC133" s="37"/>
+      <c r="BD133" s="37"/>
+      <c r="BE133" s="37"/>
+      <c r="BF133" s="37">
         <v>2014</v>
       </c>
-      <c r="BG133" s="36"/>
-      <c r="BH133" s="36"/>
-      <c r="BI133" s="36"/>
-      <c r="BJ133" s="36">
+      <c r="BG133" s="37"/>
+      <c r="BH133" s="37"/>
+      <c r="BI133" s="37"/>
+      <c r="BJ133" s="37">
         <v>2015</v>
       </c>
-      <c r="BK133" s="36"/>
-      <c r="BL133" s="36"/>
-      <c r="BM133" s="36"/>
-      <c r="BN133" s="36">
+      <c r="BK133" s="37"/>
+      <c r="BL133" s="37"/>
+      <c r="BM133" s="37"/>
+      <c r="BN133" s="37">
         <v>2016</v>
       </c>
-      <c r="BO133" s="36"/>
-      <c r="BP133" s="36"/>
-      <c r="BQ133" s="36"/>
-      <c r="BR133" s="36">
+      <c r="BO133" s="37"/>
+      <c r="BP133" s="37"/>
+      <c r="BQ133" s="37"/>
+      <c r="BR133" s="37">
         <v>2017</v>
       </c>
-      <c r="BS133" s="36"/>
-      <c r="BT133" s="36"/>
-      <c r="BU133" s="36"/>
+      <c r="BS133" s="37"/>
+      <c r="BT133" s="37"/>
+      <c r="BU133" s="37"/>
       <c r="BV133" s="39">
         <v>2018</v>
       </c>
@@ -20096,19 +20200,18 @@
       <c r="CA133" s="39"/>
       <c r="CB133" s="39"/>
       <c r="CC133" s="39"/>
-      <c r="CD133" s="38">
+      <c r="CD133" s="36">
         <v>2020</v>
       </c>
-      <c r="CE133" s="38"/>
-      <c r="CF133" s="38"/>
-      <c r="CG133" s="38"/>
-      <c r="CH133" s="38">
+      <c r="CE133" s="36"/>
+      <c r="CF133" s="36"/>
+      <c r="CG133" s="36"/>
+      <c r="CH133" s="36">
         <v>2021</v>
       </c>
-      <c r="CI133" s="38">
-        <v>0</v>
-      </c>
-      <c r="CJ133" s="38"/>
+      <c r="CI133" s="36"/>
+      <c r="CJ133" s="36"/>
+      <c r="CK133" s="36"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -20372,6 +20475,9 @@
       </c>
       <c r="CJ134" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CK134" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20640,9 +20746,11 @@
         <v>22.118501188792859</v>
       </c>
       <c r="CJ136" s="34">
-        <v>24.535371116361816</v>
-      </c>
-      <c r="CK136" s="11"/>
+        <v>25.043326795891911</v>
+      </c>
+      <c r="CK136" s="34">
+        <v>23.213866780715005</v>
+      </c>
       <c r="CL136" s="11"/>
       <c r="CM136" s="11"/>
       <c r="CN136" s="11"/>
@@ -20970,9 +21078,11 @@
         <v>11.690432975586551</v>
       </c>
       <c r="CJ137" s="34">
-        <v>7.3709279854314982</v>
-      </c>
-      <c r="CK137" s="11"/>
+        <v>7.5657941141487228</v>
+      </c>
+      <c r="CK137" s="34">
+        <v>3.9189407806454977</v>
+      </c>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
       <c r="CN137" s="11"/>
@@ -21300,9 +21410,11 @@
         <v>18.703778593815294</v>
       </c>
       <c r="CJ138" s="34">
-        <v>24.419884186423722</v>
-      </c>
-      <c r="CK138" s="11"/>
+        <v>24.853301893943932</v>
+      </c>
+      <c r="CK138" s="34">
+        <v>31.252530722442291</v>
+      </c>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
@@ -21630,9 +21742,11 @@
         <v>2.2883497223108868</v>
       </c>
       <c r="CJ139" s="34">
-        <v>2.1261394547452994</v>
-      </c>
-      <c r="CK139" s="11"/>
+        <v>2.1638753621439224</v>
+      </c>
+      <c r="CK139" s="34">
+        <v>1.8851687994691877</v>
+      </c>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
@@ -21960,9 +22074,11 @@
         <v>14.201693435025314</v>
       </c>
       <c r="CJ140" s="34">
-        <v>11.618148394074966</v>
-      </c>
-      <c r="CK140" s="11"/>
+        <v>11.463078541157373</v>
+      </c>
+      <c r="CK140" s="34">
+        <v>8.1545381563406689</v>
+      </c>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
       <c r="CN140" s="11"/>
@@ -22290,9 +22406,11 @@
         <v>25.132432352783596</v>
       </c>
       <c r="CJ141" s="34">
-        <v>24.296495221233759</v>
-      </c>
-      <c r="CK141" s="11"/>
+        <v>23.268311112944193</v>
+      </c>
+      <c r="CK141" s="34">
+        <v>22.76831242405828</v>
+      </c>
       <c r="CL141" s="11"/>
       <c r="CM141" s="11"/>
       <c r="CN141" s="11"/>
@@ -22620,9 +22738,11 @@
         <v>3.1379794142273232</v>
       </c>
       <c r="CJ142" s="34">
-        <v>3.2445835940098777</v>
-      </c>
-      <c r="CK142" s="11"/>
+        <v>3.1662997073696646</v>
+      </c>
+      <c r="CK142" s="34">
+        <v>4.1029276772608974</v>
+      </c>
       <c r="CL142" s="11"/>
       <c r="CM142" s="11"/>
       <c r="CN142" s="11"/>
@@ -22950,9 +23070,11 @@
         <v>2.7268323174581885</v>
       </c>
       <c r="CJ143" s="34">
-        <v>2.3884500477190587</v>
-      </c>
-      <c r="CK143" s="11"/>
+        <v>2.4760124724002788</v>
+      </c>
+      <c r="CK143" s="34">
+        <v>4.7037146590681616</v>
+      </c>
       <c r="CL143" s="11"/>
       <c r="CM143" s="11"/>
       <c r="CN143" s="11"/>
@@ -23105,7 +23227,7 @@
       <c r="CH144" s="29"/>
       <c r="CI144" s="29"/>
       <c r="CJ144" s="29"/>
-      <c r="CK144" s="11"/>
+      <c r="CK144" s="29"/>
       <c r="CL144" s="11"/>
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
@@ -23435,7 +23557,9 @@
       <c r="CJ145" s="33">
         <v>100</v>
       </c>
-      <c r="CK145" s="11"/>
+      <c r="CK145" s="33">
+        <v>100</v>
+      </c>
       <c r="CL145" s="11"/>
       <c r="CM145" s="11"/>
       <c r="CN145" s="11"/>
@@ -23589,6 +23713,7 @@
       <c r="CH146" s="31"/>
       <c r="CI146" s="31"/>
       <c r="CJ146" s="31"/>
+      <c r="CK146" s="31"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
@@ -23683,7 +23808,7 @@
       <c r="CH148" s="29"/>
       <c r="CI148" s="29"/>
       <c r="CJ148" s="29"/>
-      <c r="CK148" s="11"/>
+      <c r="CK148" s="29"/>
       <c r="CL148" s="11"/>
       <c r="CM148" s="11"/>
       <c r="CN148" s="11"/>
@@ -23836,7 +23961,7 @@
       <c r="CH149" s="29"/>
       <c r="CI149" s="29"/>
       <c r="CJ149" s="29"/>
-      <c r="CK149" s="11"/>
+      <c r="CK149" s="29"/>
       <c r="CL149" s="11"/>
       <c r="CM149" s="11"/>
       <c r="CN149" s="11"/>
@@ -23913,7 +24038,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.25">
@@ -23923,7 +24048,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.25">
@@ -23933,114 +24058,114 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="36">
+      <c r="B158" s="37">
         <v>2000</v>
       </c>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36">
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37">
         <v>2001</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36">
+      <c r="G158" s="37"/>
+      <c r="H158" s="37"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="37">
         <v>2002</v>
       </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36">
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37">
         <v>2003</v>
       </c>
-      <c r="O158" s="36"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="36"/>
-      <c r="R158" s="36">
+      <c r="O158" s="37"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="37"/>
+      <c r="R158" s="37">
         <v>2004</v>
       </c>
-      <c r="S158" s="36"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="36">
+      <c r="S158" s="37"/>
+      <c r="T158" s="37"/>
+      <c r="U158" s="37"/>
+      <c r="V158" s="37">
         <v>2005</v>
       </c>
-      <c r="W158" s="36"/>
-      <c r="X158" s="36"/>
-      <c r="Y158" s="36"/>
-      <c r="Z158" s="36">
+      <c r="W158" s="37"/>
+      <c r="X158" s="37"/>
+      <c r="Y158" s="37"/>
+      <c r="Z158" s="37">
         <v>2006</v>
       </c>
-      <c r="AA158" s="36"/>
-      <c r="AB158" s="36"/>
-      <c r="AC158" s="36"/>
-      <c r="AD158" s="36">
+      <c r="AA158" s="37"/>
+      <c r="AB158" s="37"/>
+      <c r="AC158" s="37"/>
+      <c r="AD158" s="37">
         <v>2007</v>
       </c>
-      <c r="AE158" s="36"/>
-      <c r="AF158" s="36"/>
-      <c r="AG158" s="36"/>
-      <c r="AH158" s="36">
+      <c r="AE158" s="37"/>
+      <c r="AF158" s="37"/>
+      <c r="AG158" s="37"/>
+      <c r="AH158" s="37">
         <v>2008</v>
       </c>
-      <c r="AI158" s="36"/>
-      <c r="AJ158" s="36"/>
-      <c r="AK158" s="36"/>
-      <c r="AL158" s="36">
+      <c r="AI158" s="37"/>
+      <c r="AJ158" s="37"/>
+      <c r="AK158" s="37"/>
+      <c r="AL158" s="37">
         <v>2009</v>
       </c>
-      <c r="AM158" s="36"/>
-      <c r="AN158" s="36"/>
-      <c r="AO158" s="36"/>
-      <c r="AP158" s="36">
+      <c r="AM158" s="37"/>
+      <c r="AN158" s="37"/>
+      <c r="AO158" s="37"/>
+      <c r="AP158" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="36"/>
-      <c r="AR158" s="36"/>
-      <c r="AS158" s="36"/>
-      <c r="AT158" s="36">
+      <c r="AQ158" s="37"/>
+      <c r="AR158" s="37"/>
+      <c r="AS158" s="37"/>
+      <c r="AT158" s="37">
         <v>2011</v>
       </c>
-      <c r="AU158" s="36"/>
-      <c r="AV158" s="36"/>
-      <c r="AW158" s="36"/>
-      <c r="AX158" s="36">
+      <c r="AU158" s="37"/>
+      <c r="AV158" s="37"/>
+      <c r="AW158" s="37"/>
+      <c r="AX158" s="37">
         <v>2012</v>
       </c>
-      <c r="AY158" s="36"/>
-      <c r="AZ158" s="36"/>
-      <c r="BA158" s="36"/>
-      <c r="BB158" s="36">
+      <c r="AY158" s="37"/>
+      <c r="AZ158" s="37"/>
+      <c r="BA158" s="37"/>
+      <c r="BB158" s="37">
         <v>2013</v>
       </c>
-      <c r="BC158" s="36"/>
-      <c r="BD158" s="36"/>
-      <c r="BE158" s="36"/>
-      <c r="BF158" s="36">
+      <c r="BC158" s="37"/>
+      <c r="BD158" s="37"/>
+      <c r="BE158" s="37"/>
+      <c r="BF158" s="37">
         <v>2014</v>
       </c>
-      <c r="BG158" s="36"/>
-      <c r="BH158" s="36"/>
-      <c r="BI158" s="36"/>
-      <c r="BJ158" s="36">
+      <c r="BG158" s="37"/>
+      <c r="BH158" s="37"/>
+      <c r="BI158" s="37"/>
+      <c r="BJ158" s="37">
         <v>2015</v>
       </c>
-      <c r="BK158" s="36"/>
-      <c r="BL158" s="36"/>
-      <c r="BM158" s="36"/>
-      <c r="BN158" s="36">
+      <c r="BK158" s="37"/>
+      <c r="BL158" s="37"/>
+      <c r="BM158" s="37"/>
+      <c r="BN158" s="37">
         <v>2016</v>
       </c>
-      <c r="BO158" s="36"/>
-      <c r="BP158" s="36"/>
-      <c r="BQ158" s="36"/>
-      <c r="BR158" s="36">
+      <c r="BO158" s="37"/>
+      <c r="BP158" s="37"/>
+      <c r="BQ158" s="37"/>
+      <c r="BR158" s="37">
         <v>2017</v>
       </c>
-      <c r="BS158" s="36"/>
-      <c r="BT158" s="36"/>
-      <c r="BU158" s="36"/>
+      <c r="BS158" s="37"/>
+      <c r="BT158" s="37"/>
+      <c r="BU158" s="37"/>
       <c r="BV158" s="39">
         <v>2018</v>
       </c>
@@ -24053,19 +24178,18 @@
       <c r="CA158" s="39"/>
       <c r="CB158" s="39"/>
       <c r="CC158" s="39"/>
-      <c r="CD158" s="38">
+      <c r="CD158" s="36">
         <v>2020</v>
       </c>
-      <c r="CE158" s="38"/>
-      <c r="CF158" s="38"/>
-      <c r="CG158" s="38"/>
-      <c r="CH158" s="38">
+      <c r="CE158" s="36"/>
+      <c r="CF158" s="36"/>
+      <c r="CG158" s="36"/>
+      <c r="CH158" s="36">
         <v>2021</v>
       </c>
-      <c r="CI158" s="38">
-        <v>0</v>
-      </c>
-      <c r="CJ158" s="38"/>
+      <c r="CI158" s="36"/>
+      <c r="CJ158" s="36"/>
+      <c r="CK158" s="36"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -24329,6 +24453,9 @@
       </c>
       <c r="CJ159" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CK159" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24597,9 +24724,11 @@
         <v>23.016574384726333</v>
       </c>
       <c r="CJ161" s="34">
-        <v>24.174569391338856</v>
-      </c>
-      <c r="CK161" s="11"/>
+        <v>24.655241725193523</v>
+      </c>
+      <c r="CK161" s="34">
+        <v>23.012625226243539</v>
+      </c>
       <c r="CL161" s="11"/>
       <c r="CM161" s="11"/>
       <c r="CN161" s="11"/>
@@ -24927,9 +25056,11 @@
         <v>11.003875795774629</v>
       </c>
       <c r="CJ162" s="34">
-        <v>7.0250585061333943</v>
-      </c>
-      <c r="CK162" s="11"/>
+        <v>7.2052158452294544</v>
+      </c>
+      <c r="CK162" s="34">
+        <v>3.7097557570536157</v>
+      </c>
       <c r="CL162" s="11"/>
       <c r="CM162" s="11"/>
       <c r="CN162" s="11"/>
@@ -25257,9 +25388,11 @@
         <v>19.204311367288422</v>
       </c>
       <c r="CJ163" s="34">
-        <v>27.073236028487948</v>
-      </c>
-      <c r="CK163" s="11"/>
+        <v>27.532211475889451</v>
+      </c>
+      <c r="CK163" s="34">
+        <v>33.901405091221918</v>
+      </c>
       <c r="CL163" s="11"/>
       <c r="CM163" s="11"/>
       <c r="CN163" s="11"/>
@@ -25587,9 +25720,11 @@
         <v>2.3121684037480037</v>
       </c>
       <c r="CJ164" s="34">
-        <v>2.0690814727645845</v>
-      </c>
-      <c r="CK164" s="11"/>
+        <v>2.104179506475627</v>
+      </c>
+      <c r="CK164" s="34">
+        <v>1.8199703040447095</v>
+      </c>
       <c r="CL164" s="11"/>
       <c r="CM164" s="11"/>
       <c r="CN164" s="11"/>
@@ -25917,9 +26052,11 @@
         <v>13.851082201661107</v>
       </c>
       <c r="CJ165" s="34">
-        <v>11.006333581402892</v>
-      </c>
-      <c r="CK165" s="11"/>
+        <v>10.851048869811827</v>
+      </c>
+      <c r="CK165" s="34">
+        <v>7.6602497930010216</v>
+      </c>
       <c r="CL165" s="11"/>
       <c r="CM165" s="11"/>
       <c r="CN165" s="11"/>
@@ -26247,9 +26384,11 @@
         <v>24.89093948435298</v>
       </c>
       <c r="CJ166" s="34">
-        <v>23.335588586668397</v>
-      </c>
-      <c r="CK166" s="11"/>
+        <v>22.330820968012414</v>
+      </c>
+      <c r="CK166" s="34">
+        <v>21.662537879598496</v>
+      </c>
       <c r="CL166" s="11"/>
       <c r="CM166" s="11"/>
       <c r="CN166" s="11"/>
@@ -26577,9 +26716,11 @@
         <v>3.0524940084409047</v>
       </c>
       <c r="CJ167" s="34">
-        <v>3.0537836906535984</v>
-      </c>
-      <c r="CK167" s="11"/>
+        <v>2.977803414212854</v>
+      </c>
+      <c r="CK167" s="34">
+        <v>3.8219121563351255</v>
+      </c>
       <c r="CL167" s="11"/>
       <c r="CM167" s="11"/>
       <c r="CN167" s="11"/>
@@ -26907,9 +27048,11 @@
         <v>2.6685543540076258</v>
       </c>
       <c r="CJ168" s="34">
-        <v>2.2623487425503379</v>
-      </c>
-      <c r="CK168" s="11"/>
+        <v>2.3434781951748427</v>
+      </c>
+      <c r="CK168" s="34">
+        <v>4.4115437925015701</v>
+      </c>
       <c r="CL168" s="11"/>
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
@@ -27062,7 +27205,7 @@
       <c r="CH169" s="29"/>
       <c r="CI169" s="29"/>
       <c r="CJ169" s="29"/>
-      <c r="CK169" s="11"/>
+      <c r="CK169" s="29"/>
       <c r="CL169" s="11"/>
       <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
@@ -27392,7 +27535,9 @@
       <c r="CJ170" s="33">
         <v>100</v>
       </c>
-      <c r="CK170" s="11"/>
+      <c r="CK170" s="33">
+        <v>100</v>
+      </c>
       <c r="CL170" s="11"/>
       <c r="CM170" s="11"/>
       <c r="CN170" s="11"/>
@@ -27546,6 +27691,7 @@
       <c r="CH171" s="31"/>
       <c r="CI171" s="31"/>
       <c r="CJ171" s="31"/>
+      <c r="CK171" s="31"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
@@ -27641,7 +27787,7 @@
       <c r="CH173" s="26"/>
       <c r="CI173" s="26"/>
       <c r="CJ173" s="26"/>
-      <c r="CK173" s="24"/>
+      <c r="CK173" s="26"/>
       <c r="CL173" s="24"/>
       <c r="CM173" s="24"/>
       <c r="CN173" s="24"/>
@@ -27795,7 +27941,7 @@
       <c r="CH174" s="26"/>
       <c r="CI174" s="26"/>
       <c r="CJ174" s="26"/>
-      <c r="CK174" s="24"/>
+      <c r="CK174" s="26"/>
       <c r="CL174" s="24"/>
       <c r="CM174" s="24"/>
       <c r="CN174" s="24"/>
@@ -27895,7 +28041,15 @@
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="B133:E133"/>
     <mergeCell ref="F133:I133"/>
     <mergeCell ref="J133:M133"/>
@@ -27905,20 +28059,6 @@
     <mergeCell ref="Z133:AC133"/>
     <mergeCell ref="AD133:AG133"/>
     <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="F59:I59"/>
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="N59:Q59"/>
@@ -27928,6 +28068,12 @@
     <mergeCell ref="AT34:AW34"/>
     <mergeCell ref="AX34:BA34"/>
     <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="BR84:BU84"/>
@@ -27952,6 +28098,9 @@
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="B59:E59"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BR108:BU108"/>
@@ -27973,16 +28122,9 @@
     <mergeCell ref="AL59:AO59"/>
     <mergeCell ref="AP59:AS59"/>
     <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH34:CJ34"/>
-    <mergeCell ref="CD84:CF84"/>
-    <mergeCell ref="CH108:CJ108"/>
-    <mergeCell ref="CH133:CJ133"/>
-    <mergeCell ref="CH158:CJ158"/>
     <mergeCell ref="AX59:BA59"/>
     <mergeCell ref="BR59:BU59"/>
     <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CD59:CE59"/>
     <mergeCell ref="BF34:BI34"/>
     <mergeCell ref="BF59:BI59"/>
     <mergeCell ref="BB59:BE59"/>
@@ -27994,9 +28136,13 @@
     <mergeCell ref="BJ133:BM133"/>
     <mergeCell ref="BN133:BQ133"/>
     <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
     <mergeCell ref="BR133:BU133"/>
     <mergeCell ref="BJ84:BM84"/>
     <mergeCell ref="BV9:BY9"/>
@@ -28019,9 +28165,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="87" man="1"/>
-    <brk id="100" max="87" man="1"/>
-    <brk id="124" max="87" man="1"/>
+    <brk id="50" max="88" man="1"/>
+    <brk id="100" max="88" man="1"/>
+    <brk id="124" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C7991-7C45-43AC-AF10-392A442FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CK$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CL$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -212,25 +213,28 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -303,12 +307,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -326,43 +330,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,16 +373,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,196 +713,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:EV174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BZ186" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CB58" sqref="CB58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
-    <col min="2" max="73" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="80" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.36328125" style="2" customWidth="1"/>
-    <col min="82" max="89" width="10.453125" style="26" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
+    <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="90" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="37">
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="40">
         <v>2019</v>
       </c>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="40"/>
+      <c r="CB9" s="40"/>
+      <c r="CC9" s="40"/>
+      <c r="CD9" s="40">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36">
+      <c r="CE9" s="40"/>
+      <c r="CF9" s="40"/>
+      <c r="CG9" s="40"/>
+      <c r="CH9" s="40">
         <v>2021</v>
       </c>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
+      <c r="CI9" s="40"/>
+      <c r="CJ9" s="40"/>
+      <c r="CK9" s="40"/>
+      <c r="CL9" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -1124,16 +1134,16 @@
       <c r="BY10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ10" s="7" t="s">
+      <c r="BZ10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="7" t="s">
+      <c r="CA10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="7" t="s">
+      <c r="CB10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="7" t="s">
+      <c r="CC10" s="27" t="s">
         <v>10</v>
       </c>
       <c r="CD10" s="27" t="s">
@@ -1160,11 +1170,14 @@
       <c r="CK10" s="27" t="s">
         <v>10</v>
       </c>
+      <c r="CL10" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,43 +1409,45 @@
       <c r="BY12" s="10">
         <v>84983.731647112305</v>
       </c>
-      <c r="BZ12" s="10">
+      <c r="BZ12" s="28">
         <v>61352.297443061012</v>
       </c>
-      <c r="CA12" s="10">
+      <c r="CA12" s="28">
         <v>63346.498531145437</v>
       </c>
-      <c r="CB12" s="10">
+      <c r="CB12" s="28">
         <v>67105.670838844453</v>
       </c>
-      <c r="CC12" s="10">
+      <c r="CC12" s="28">
         <v>65109.475496706458</v>
       </c>
       <c r="CD12" s="28">
-        <v>56191.339198972157</v>
+        <v>59820.030513076053</v>
       </c>
       <c r="CE12" s="28">
-        <v>33489.5223749508</v>
+        <v>34539.00214474411</v>
       </c>
       <c r="CF12" s="28">
-        <v>45947.464699794124</v>
+        <v>51688.289326632083</v>
       </c>
       <c r="CG12" s="28">
-        <v>51630.405225630595</v>
+        <v>52884.47277971021</v>
       </c>
       <c r="CH12" s="28">
-        <v>46217.547957519266</v>
+        <v>46430.300796230811</v>
       </c>
       <c r="CI12" s="28">
-        <v>51133.717876952724</v>
+        <v>52849.253157415507</v>
       </c>
       <c r="CJ12" s="28">
-        <v>63479.232344403397</v>
+        <v>67877.636577602956</v>
       </c>
       <c r="CK12" s="28">
-        <v>70640.722217975417</v>
-      </c>
-      <c r="CL12" s="11"/>
+        <v>73947.01885015193</v>
+      </c>
+      <c r="CL12" s="28">
+        <v>62533.344290611523</v>
+      </c>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -1496,7 +1511,7 @@
       <c r="EU12" s="11"/>
       <c r="EV12" s="11"/>
     </row>
-    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1728,43 +1743,45 @@
       <c r="BY13" s="10">
         <v>10771.2533590396</v>
       </c>
-      <c r="BZ13" s="10">
+      <c r="BZ13" s="28">
         <v>18899.936916742143</v>
       </c>
-      <c r="CA13" s="10">
+      <c r="CA13" s="28">
         <v>28610.51466329534</v>
       </c>
-      <c r="CB13" s="10">
+      <c r="CB13" s="28">
         <v>19330.869519370506</v>
       </c>
-      <c r="CC13" s="10">
+      <c r="CC13" s="28">
         <v>10960.327119215286</v>
       </c>
       <c r="CD13" s="28">
-        <v>14932.408214534336</v>
+        <v>16314.752198365353</v>
       </c>
       <c r="CE13" s="28">
-        <v>17031.757305659645</v>
+        <v>17733.733957640055</v>
       </c>
       <c r="CF13" s="28">
-        <v>16097.826168477439</v>
+        <v>17050.649874945389</v>
       </c>
       <c r="CG13" s="28">
-        <v>8294.396237569923</v>
+        <v>8862.0147975722048</v>
       </c>
       <c r="CH13" s="28">
-        <v>17957.118328936351</v>
+        <v>18218.746193832638</v>
       </c>
       <c r="CI13" s="28">
-        <v>27026.031128002116</v>
+        <v>28636.764893774238</v>
       </c>
       <c r="CJ13" s="28">
-        <v>19177.595946268197</v>
+        <v>20345.032295457306</v>
       </c>
       <c r="CK13" s="28">
-        <v>11925.49305505007</v>
-      </c>
-      <c r="CL13" s="11"/>
+        <v>12743.548438235644</v>
+      </c>
+      <c r="CL13" s="28">
+        <v>24319.250945609449</v>
+      </c>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -1828,7 +1845,7 @@
       <c r="EU13" s="11"/>
       <c r="EV13" s="11"/>
     </row>
-    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2060,16 +2077,16 @@
       <c r="BY14" s="10">
         <v>209184.56512626098</v>
       </c>
-      <c r="BZ14" s="10">
+      <c r="BZ14" s="28">
         <v>177646.290218326</v>
       </c>
-      <c r="CA14" s="10">
+      <c r="CA14" s="28">
         <v>129138.223001855</v>
       </c>
-      <c r="CB14" s="10">
+      <c r="CB14" s="28">
         <v>172858.644631048</v>
       </c>
-      <c r="CC14" s="10">
+      <c r="CC14" s="28">
         <v>240825.69504674777</v>
       </c>
       <c r="CD14" s="28">
@@ -2094,9 +2111,11 @@
         <v>62997.561718120749</v>
       </c>
       <c r="CK14" s="28">
-        <v>95102.697117519579</v>
-      </c>
-      <c r="CL14" s="11"/>
+        <v>94971.210049289264</v>
+      </c>
+      <c r="CL14" s="28">
+        <v>91756.045839331928</v>
+      </c>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
@@ -2160,7 +2179,7 @@
       <c r="EU14" s="11"/>
       <c r="EV14" s="11"/>
     </row>
-    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2392,43 +2411,45 @@
       <c r="BY15" s="10">
         <v>6722.8670345222899</v>
       </c>
-      <c r="BZ15" s="10">
+      <c r="BZ15" s="28">
         <v>7045.4061699491604</v>
       </c>
-      <c r="CA15" s="10">
+      <c r="CA15" s="28">
         <v>6869.52211342172</v>
       </c>
-      <c r="CB15" s="10">
+      <c r="CB15" s="28">
         <v>7105.2442599974001</v>
       </c>
-      <c r="CC15" s="10">
+      <c r="CC15" s="28">
         <v>7109.70388121215</v>
       </c>
       <c r="CD15" s="28">
-        <v>6851.0465202010328</v>
+        <v>5054.3449397533286</v>
       </c>
       <c r="CE15" s="28">
-        <v>7291.0047942151559</v>
+        <v>4926.6227747895446</v>
       </c>
       <c r="CF15" s="28">
-        <v>7530.7887349822013</v>
+        <v>5084.5216930122861</v>
       </c>
       <c r="CG15" s="28">
-        <v>7538.501696508205</v>
+        <v>5088.6362974759177</v>
       </c>
       <c r="CH15" s="28">
-        <v>5679.6560119769047</v>
+        <v>5048.3525692498251</v>
       </c>
       <c r="CI15" s="28">
-        <v>5290.2241479063814</v>
+        <v>4921.2515890704108</v>
       </c>
       <c r="CJ15" s="28">
-        <v>5484.9400799416435</v>
+        <v>5111.1493409064724</v>
       </c>
       <c r="CK15" s="28">
-        <v>5736.6438239375202</v>
-      </c>
-      <c r="CL15" s="11"/>
+        <v>5122.3836248512935</v>
+      </c>
+      <c r="CL15" s="28">
+        <v>5084.7278444706244</v>
+      </c>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
@@ -2492,7 +2513,7 @@
       <c r="EU15" s="11"/>
       <c r="EV15" s="11"/>
     </row>
-    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2724,43 +2745,45 @@
       <c r="BY16" s="10">
         <v>12461.2993513691</v>
       </c>
-      <c r="BZ16" s="10">
+      <c r="BZ16" s="28">
         <v>15758.7027699434</v>
       </c>
-      <c r="CA16" s="10">
+      <c r="CA16" s="28">
         <v>13729.138048081501</v>
       </c>
-      <c r="CB16" s="10">
+      <c r="CB16" s="28">
         <v>13290.090332403001</v>
       </c>
-      <c r="CC16" s="10">
+      <c r="CC16" s="28">
         <v>16139.580988612473</v>
       </c>
       <c r="CD16" s="28">
-        <v>19054.03115940719</v>
+        <v>18101.550829003507</v>
       </c>
       <c r="CE16" s="28">
-        <v>20081.28589423871</v>
+        <v>20074.125553017115</v>
       </c>
       <c r="CF16" s="28">
-        <v>17590.484290162494</v>
+        <v>15234.065248296503</v>
       </c>
       <c r="CG16" s="28">
-        <v>18025.187912665155</v>
+        <v>19783.117813536392</v>
       </c>
       <c r="CH16" s="28">
-        <v>24805.398331600456</v>
+        <v>26331.735968171131</v>
       </c>
       <c r="CI16" s="28">
-        <v>32831.581999304013</v>
+        <v>33210.08641208458</v>
       </c>
       <c r="CJ16" s="28">
-        <v>29056.340318796607</v>
+        <v>21519.870290264276</v>
       </c>
       <c r="CK16" s="28">
-        <v>24814.584754854015</v>
-      </c>
-      <c r="CL16" s="11"/>
+        <v>24325.582484735562</v>
+      </c>
+      <c r="CL16" s="28">
+        <v>27960.636081394627</v>
+      </c>
       <c r="CM16" s="11"/>
       <c r="CN16" s="11"/>
       <c r="CO16" s="11"/>
@@ -2824,7 +2847,7 @@
       <c r="EU16" s="11"/>
       <c r="EV16" s="11"/>
     </row>
-    <row r="17" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3056,43 +3079,45 @@
       <c r="BY17" s="10">
         <v>69363.509776584731</v>
       </c>
-      <c r="BZ17" s="10">
+      <c r="BZ17" s="28">
         <v>65500.177351500301</v>
       </c>
-      <c r="CA17" s="10">
+      <c r="CA17" s="28">
         <v>74563.873812860402</v>
       </c>
-      <c r="CB17" s="10">
+      <c r="CB17" s="28">
         <v>61233.704473338301</v>
       </c>
-      <c r="CC17" s="10">
+      <c r="CC17" s="28">
         <v>87733.866658546089</v>
       </c>
       <c r="CD17" s="28">
-        <v>81898.849586222917</v>
+        <v>82785.126496413955</v>
       </c>
       <c r="CE17" s="28">
-        <v>53216.97179014374</v>
+        <v>53035.700093530795</v>
       </c>
       <c r="CF17" s="28">
-        <v>52825.849856136163</v>
+        <v>53927.210487834433</v>
       </c>
       <c r="CG17" s="28">
-        <v>65350.852418259514</v>
+        <v>60084.718131966809</v>
       </c>
       <c r="CH17" s="28">
-        <v>67876.094158562657</v>
+        <v>66420.824866344847</v>
       </c>
       <c r="CI17" s="28">
-        <v>58101.346674429522</v>
+        <v>61686.723992187755</v>
       </c>
       <c r="CJ17" s="28">
-        <v>58979.964580534201</v>
+        <v>58515.768249921377</v>
       </c>
       <c r="CK17" s="28">
-        <v>69284.882545123342</v>
-      </c>
-      <c r="CL17" s="11"/>
+        <v>68082.114901429057</v>
+      </c>
+      <c r="CL17" s="28">
+        <v>89464.065609822166</v>
+      </c>
       <c r="CM17" s="11"/>
       <c r="CN17" s="11"/>
       <c r="CO17" s="11"/>
@@ -3156,7 +3181,7 @@
       <c r="EU17" s="11"/>
       <c r="EV17" s="11"/>
     </row>
-    <row r="18" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3388,43 +3413,45 @@
       <c r="BY18" s="10">
         <v>11591.93216859146</v>
       </c>
-      <c r="BZ18" s="10">
+      <c r="BZ18" s="28">
         <v>14283.0635043691</v>
       </c>
-      <c r="CA18" s="10">
+      <c r="CA18" s="28">
         <v>11150.3152342632</v>
       </c>
-      <c r="CB18" s="10">
+      <c r="CB18" s="28">
         <v>10713.8865403648</v>
       </c>
-      <c r="CC18" s="10">
+      <c r="CC18" s="28">
         <v>14180.6903439617</v>
       </c>
       <c r="CD18" s="28">
-        <v>14001.188911952295</v>
+        <v>12788.146097403231</v>
       </c>
       <c r="CE18" s="28">
         <v>6523.9901905191382</v>
       </c>
       <c r="CF18" s="28">
-        <v>5318.4618487945554</v>
+        <v>5317.4995537317754</v>
       </c>
       <c r="CG18" s="28">
-        <v>10056.579313594519</v>
+        <v>7949.8504290503433</v>
       </c>
       <c r="CH18" s="28">
-        <v>10566.058236994071</v>
+        <v>6340.8829821031732</v>
       </c>
       <c r="CI18" s="28">
-        <v>7254.4044780071463</v>
+        <v>8380.1096069851701</v>
       </c>
       <c r="CJ18" s="28">
-        <v>8025.8615971543513</v>
+        <v>7680.0595135464391</v>
       </c>
       <c r="CK18" s="28">
-        <v>12485.372517542424</v>
-      </c>
-      <c r="CL18" s="11"/>
+        <v>9865.3523688019704</v>
+      </c>
+      <c r="CL18" s="28">
+        <v>8574.3324415252009</v>
+      </c>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
@@ -3488,7 +3515,7 @@
       <c r="EU18" s="11"/>
       <c r="EV18" s="11"/>
     </row>
-    <row r="19" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3720,43 +3747,45 @@
       <c r="BY19" s="10">
         <v>15697.750259126202</v>
       </c>
-      <c r="BZ19" s="10">
+      <c r="BZ19" s="28">
         <v>14588.50313686066</v>
       </c>
-      <c r="CA19" s="10">
+      <c r="CA19" s="28">
         <v>15834.424648811641</v>
       </c>
-      <c r="CB19" s="10">
+      <c r="CB19" s="28">
         <v>11292.370375040124</v>
       </c>
-      <c r="CC19" s="10">
+      <c r="CC19" s="28">
         <v>28611.604796469379</v>
       </c>
       <c r="CD19" s="28">
-        <v>10726.08490475074</v>
+        <v>11579.054253904776</v>
       </c>
       <c r="CE19" s="28">
-        <v>8192.3623023235959</v>
+        <v>10920.554424688349</v>
       </c>
       <c r="CF19" s="28">
-        <v>7387.0656726230427</v>
+        <v>6912.8630974083126</v>
       </c>
       <c r="CG19" s="28">
-        <v>14614.091541127404</v>
+        <v>14312.987210784406</v>
       </c>
       <c r="CH19" s="28">
-        <v>9143.2142543682112</v>
+        <v>7633.9947160214942</v>
       </c>
       <c r="CI19" s="28">
-        <v>6303.9115186210283</v>
+        <v>6584.5713011930566</v>
       </c>
       <c r="CJ19" s="28">
-        <v>6276.1378431926587</v>
+        <v>6454.0482820084544</v>
       </c>
       <c r="CK19" s="28">
-        <v>14313.591258303011</v>
-      </c>
-      <c r="CL19" s="11"/>
+        <v>14666.738397941102</v>
+      </c>
+      <c r="CL19" s="28">
+        <v>9407.4084740381495</v>
+      </c>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
@@ -3820,7 +3849,7 @@
       <c r="EU19" s="11"/>
       <c r="EV19" s="11"/>
     </row>
-    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3897,10 +3926,10 @@
       <c r="BW20" s="12"/>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
-      <c r="BZ20" s="12"/>
-      <c r="CA20" s="12"/>
-      <c r="CB20" s="12"/>
-      <c r="CC20" s="12"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
       <c r="CD20" s="29"/>
       <c r="CE20" s="29"/>
       <c r="CF20" s="29"/>
@@ -3909,7 +3938,7 @@
       <c r="CI20" s="29"/>
       <c r="CJ20" s="29"/>
       <c r="CK20" s="29"/>
-      <c r="CL20" s="11"/>
+      <c r="CL20" s="29"/>
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
@@ -3973,7 +4002,7 @@
       <c r="EU20" s="11"/>
       <c r="EV20" s="11"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
@@ -4205,43 +4234,45 @@
       <c r="BY21" s="15">
         <v>420776.90872260666</v>
       </c>
-      <c r="BZ21" s="15">
+      <c r="BZ21" s="30">
         <v>375074.37751075183</v>
       </c>
-      <c r="CA21" s="15">
+      <c r="CA21" s="30">
         <v>343242.51005373424</v>
       </c>
-      <c r="CB21" s="15">
+      <c r="CB21" s="30">
         <v>362930.48097040661</v>
       </c>
-      <c r="CC21" s="15">
+      <c r="CC21" s="30">
         <v>470670.94433147134</v>
       </c>
       <c r="CD21" s="30">
-        <v>366850.03380717261</v>
+        <v>369638.09063905216</v>
       </c>
       <c r="CE21" s="30">
-        <v>237472.60117418281</v>
+        <v>239399.43566106111</v>
       </c>
       <c r="CF21" s="30">
-        <v>257308.31260811404</v>
+        <v>259825.47061900483</v>
       </c>
       <c r="CG21" s="30">
-        <v>265706.40651342284</v>
+        <v>259162.18962816379</v>
       </c>
       <c r="CH21" s="30">
-        <v>234383.43047761574</v>
+        <v>228563.18128961173</v>
       </c>
       <c r="CI21" s="30">
-        <v>231180.75424957581</v>
+        <v>239508.29737906365</v>
       </c>
       <c r="CJ21" s="30">
-        <v>253477.63442841181</v>
+        <v>250501.12626782805</v>
       </c>
       <c r="CK21" s="30">
-        <v>304303.98729030543</v>
-      </c>
-      <c r="CL21" s="11"/>
+        <v>303723.94911543583</v>
+      </c>
+      <c r="CL21" s="30">
+        <v>319099.81152680365</v>
+      </c>
       <c r="CM21" s="11"/>
       <c r="CN21" s="11"/>
       <c r="CO21" s="11"/>
@@ -4305,7 +4336,7 @@
       <c r="EU21" s="11"/>
       <c r="EV21" s="11"/>
     </row>
-    <row r="22" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -4383,10 +4414,10 @@
       <c r="BW22" s="17"/>
       <c r="BX22" s="17"/>
       <c r="BY22" s="17"/>
-      <c r="BZ22" s="17"/>
-      <c r="CA22" s="17"/>
-      <c r="CB22" s="17"/>
-      <c r="CC22" s="17"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="31"/>
       <c r="CD22" s="31"/>
       <c r="CE22" s="31"/>
       <c r="CF22" s="31"/>
@@ -4395,13 +4426,14 @@
       <c r="CI22" s="31"/>
       <c r="CJ22" s="31"/>
       <c r="CK22" s="31"/>
+      <c r="CL22" s="31"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4478,10 +4510,10 @@
       <c r="BW24" s="12"/>
       <c r="BX24" s="12"/>
       <c r="BY24" s="12"/>
-      <c r="BZ24" s="12"/>
-      <c r="CA24" s="12"/>
-      <c r="CB24" s="12"/>
-      <c r="CC24" s="12"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
       <c r="CD24" s="29"/>
       <c r="CE24" s="29"/>
       <c r="CF24" s="29"/>
@@ -4490,7 +4522,7 @@
       <c r="CI24" s="29"/>
       <c r="CJ24" s="29"/>
       <c r="CK24" s="29"/>
-      <c r="CL24" s="11"/>
+      <c r="CL24" s="29"/>
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
@@ -4554,7 +4586,7 @@
       <c r="EU24" s="11"/>
       <c r="EV24" s="11"/>
     </row>
-    <row r="25" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4631,10 +4663,10 @@
       <c r="BW25" s="12"/>
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
-      <c r="BZ25" s="12"/>
-      <c r="CA25" s="12"/>
-      <c r="CB25" s="12"/>
-      <c r="CC25" s="12"/>
+      <c r="BZ25" s="29"/>
+      <c r="CA25" s="29"/>
+      <c r="CB25" s="29"/>
+      <c r="CC25" s="29"/>
       <c r="CD25" s="29"/>
       <c r="CE25" s="29"/>
       <c r="CF25" s="29"/>
@@ -4643,7 +4675,7 @@
       <c r="CI25" s="29"/>
       <c r="CJ25" s="29"/>
       <c r="CK25" s="29"/>
-      <c r="CL25" s="11"/>
+      <c r="CL25" s="29"/>
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
@@ -4707,172 +4739,175 @@
       <c r="EU25" s="11"/>
       <c r="EV25" s="11"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>2000</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
         <v>2001</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37">
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
         <v>2002</v>
       </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
         <v>2003</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37">
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36">
         <v>2004</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37">
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>2005</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37">
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36">
         <v>2006</v>
       </c>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37">
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36">
         <v>2007</v>
       </c>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37">
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36">
         <v>2008</v>
       </c>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37">
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36">
         <v>2009</v>
       </c>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37">
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37">
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36">
         <v>2011</v>
       </c>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37">
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36">
         <v>2012</v>
       </c>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37">
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36">
         <v>2013</v>
       </c>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37">
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+      <c r="BF34" s="36">
         <v>2014</v>
       </c>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37">
+      <c r="BG34" s="36"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="36">
         <v>2015</v>
       </c>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BN34" s="37">
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="36"/>
+      <c r="BM34" s="36"/>
+      <c r="BN34" s="36">
         <v>2016</v>
       </c>
-      <c r="BO34" s="37"/>
-      <c r="BP34" s="37"/>
-      <c r="BQ34" s="37"/>
-      <c r="BR34" s="37">
+      <c r="BO34" s="36"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="36"/>
+      <c r="BR34" s="36">
         <v>2017</v>
       </c>
-      <c r="BS34" s="37"/>
-      <c r="BT34" s="37"/>
-      <c r="BU34" s="37"/>
+      <c r="BS34" s="36"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="36"/>
       <c r="BV34" s="39">
         <v>2018</v>
       </c>
       <c r="BW34" s="39"/>
       <c r="BX34" s="39"/>
       <c r="BY34" s="39"/>
-      <c r="BZ34" s="39">
+      <c r="BZ34" s="38">
         <v>2019</v>
       </c>
-      <c r="CA34" s="39"/>
-      <c r="CB34" s="39"/>
-      <c r="CC34" s="39"/>
-      <c r="CD34" s="36">
+      <c r="CA34" s="38"/>
+      <c r="CB34" s="38"/>
+      <c r="CC34" s="38"/>
+      <c r="CD34" s="40">
         <v>2020</v>
       </c>
-      <c r="CE34" s="36"/>
-      <c r="CF34" s="36"/>
-      <c r="CG34" s="36"/>
-      <c r="CH34" s="36">
+      <c r="CE34" s="40"/>
+      <c r="CF34" s="40"/>
+      <c r="CG34" s="40"/>
+      <c r="CH34" s="40">
         <v>2021</v>
       </c>
-      <c r="CI34" s="36"/>
-      <c r="CJ34" s="36"/>
-      <c r="CK34" s="36"/>
+      <c r="CI34" s="40"/>
+      <c r="CJ34" s="40"/>
+      <c r="CK34" s="40"/>
+      <c r="CL34" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="35" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="7" t="s">
         <v>7</v>
@@ -5102,16 +5137,16 @@
       <c r="BY35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ35" s="19" t="s">
+      <c r="BZ35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA35" s="19" t="s">
+      <c r="CA35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB35" s="19" t="s">
+      <c r="CB35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC35" s="19" t="s">
+      <c r="CC35" s="32" t="s">
         <v>10</v>
       </c>
       <c r="CD35" s="32" t="s">
@@ -5138,11 +5173,14 @@
       <c r="CK35" s="32" t="s">
         <v>10</v>
       </c>
+      <c r="CL35" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5374,43 +5412,45 @@
       <c r="BY37" s="10">
         <v>85918.561593304097</v>
       </c>
-      <c r="BZ37" s="10">
+      <c r="BZ37" s="28">
         <v>64511.44560551786</v>
       </c>
-      <c r="CA37" s="10">
+      <c r="CA37" s="28">
         <v>59186.169474790877</v>
       </c>
-      <c r="CB37" s="10">
+      <c r="CB37" s="28">
         <v>65629.912004317957</v>
       </c>
-      <c r="CC37" s="10">
+      <c r="CC37" s="28">
         <v>64801.680409936183</v>
       </c>
       <c r="CD37" s="28">
-        <v>57606.834592339255</v>
+        <v>61326.934936950114</v>
       </c>
       <c r="CE37" s="28">
-        <v>32883.874546926447</v>
+        <v>33914.374794228679</v>
       </c>
       <c r="CF37" s="28">
-        <v>46674.374274787173</v>
+        <v>52506.021331477779</v>
       </c>
       <c r="CG37" s="28">
-        <v>54449.872401599896</v>
+        <v>55772.422902689606</v>
       </c>
       <c r="CH37" s="28">
-        <v>48247.151630036642</v>
+        <v>48469.24732577696</v>
       </c>
       <c r="CI37" s="28">
-        <v>48229.201580595203</v>
+        <v>49847.290393522198</v>
       </c>
       <c r="CJ37" s="28">
-        <v>61044.808333483576</v>
+        <v>65274.534079568817</v>
       </c>
       <c r="CK37" s="28">
-        <v>69091.378603203106</v>
-      </c>
-      <c r="CL37" s="11"/>
+        <v>71475.490688452279</v>
+      </c>
+      <c r="CL37" s="28">
+        <v>61710.99850239732</v>
+      </c>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
@@ -5474,7 +5514,7 @@
       <c r="EU37" s="11"/>
       <c r="EV37" s="11"/>
     </row>
-    <row r="38" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5706,43 +5746,45 @@
       <c r="BY38" s="10">
         <v>10328.504826029401</v>
       </c>
-      <c r="BZ38" s="10">
+      <c r="BZ38" s="28">
         <v>23940.372659882691</v>
       </c>
-      <c r="CA38" s="10">
+      <c r="CA38" s="28">
         <v>23752.04642195734</v>
       </c>
-      <c r="CB38" s="10">
+      <c r="CB38" s="28">
         <v>17577.999185725646</v>
       </c>
-      <c r="CC38" s="10">
+      <c r="CC38" s="28">
         <v>10150.061184550439</v>
       </c>
       <c r="CD38" s="28">
-        <v>18692.306391291848</v>
+        <v>20422.7169796374</v>
       </c>
       <c r="CE38" s="28">
-        <v>14167.708639779135</v>
+        <v>14751.641377822627</v>
       </c>
       <c r="CF38" s="28">
-        <v>14886.769037049362</v>
+        <v>15767.910770272294</v>
       </c>
       <c r="CG38" s="28">
-        <v>8006.445935404673</v>
+        <v>8554.3589097095992</v>
       </c>
       <c r="CH38" s="28">
-        <v>22710.157389983782</v>
+        <v>23041.035088763867</v>
       </c>
       <c r="CI38" s="28">
-        <v>23057.651197409374</v>
+        <v>24431.872116757837</v>
       </c>
       <c r="CJ38" s="28">
-        <v>17839.655565979185</v>
+        <v>18925.644780846895</v>
       </c>
       <c r="CK38" s="28">
-        <v>11137.892222904929</v>
-      </c>
-      <c r="CL38" s="11"/>
+        <v>11892.117955521602</v>
+      </c>
+      <c r="CL38" s="28">
+        <v>29695.683005125149</v>
+      </c>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
@@ -5806,7 +5848,7 @@
       <c r="EU38" s="11"/>
       <c r="EV38" s="11"/>
     </row>
-    <row r="39" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6038,16 +6080,16 @@
       <c r="BY39" s="10">
         <v>224710.77398999242</v>
       </c>
-      <c r="BZ39" s="10">
+      <c r="BZ39" s="28">
         <v>158690.36168188028</v>
       </c>
-      <c r="CA39" s="10">
+      <c r="CA39" s="28">
         <v>117688.77355479365</v>
       </c>
-      <c r="CB39" s="10">
+      <c r="CB39" s="28">
         <v>183560.34912586916</v>
       </c>
-      <c r="CC39" s="10">
+      <c r="CC39" s="28">
         <v>257514.51923617074</v>
       </c>
       <c r="CD39" s="28">
@@ -6072,9 +6114,11 @@
         <v>68168.002215334855</v>
       </c>
       <c r="CK39" s="28">
-        <v>101783.03393508635</v>
-      </c>
-      <c r="CL39" s="11"/>
+        <v>101474.95724944078</v>
+      </c>
+      <c r="CL39" s="28">
+        <v>78178.349974198951</v>
+      </c>
       <c r="CM39" s="11"/>
       <c r="CN39" s="11"/>
       <c r="CO39" s="11"/>
@@ -6138,7 +6182,7 @@
       <c r="EU39" s="11"/>
       <c r="EV39" s="11"/>
     </row>
-    <row r="40" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6370,43 +6414,45 @@
       <c r="BY40" s="10">
         <v>6550.1758276218698</v>
       </c>
-      <c r="BZ40" s="10">
+      <c r="BZ40" s="28">
         <v>7938.2634008963396</v>
       </c>
-      <c r="CA40" s="10">
+      <c r="CA40" s="28">
         <v>6121.8667240180503</v>
       </c>
-      <c r="CB40" s="10">
+      <c r="CB40" s="28">
         <v>6597.1313470714504</v>
       </c>
-      <c r="CC40" s="10">
+      <c r="CC40" s="28">
         <v>6714.8157218354836</v>
       </c>
       <c r="CD40" s="28">
-        <v>7628.4951003588722</v>
+        <v>5627.9059695102651</v>
       </c>
       <c r="CE40" s="28">
-        <v>6510.4277297689905</v>
+        <v>4399.1771274858929</v>
       </c>
       <c r="CF40" s="28">
-        <v>7111.0175291896367</v>
+        <v>4801.1070498634544</v>
       </c>
       <c r="CG40" s="28">
-        <v>7421.257068574334</v>
+        <v>5009.4938772169016</v>
       </c>
       <c r="CH40" s="28">
-        <v>6389.3172253519906</v>
+        <v>5679.1337296377524</v>
       </c>
       <c r="CI40" s="28">
-        <v>4844.9449587357185</v>
+        <v>4507.0288915022302</v>
       </c>
       <c r="CJ40" s="28">
-        <v>5209.8144525914395</v>
+        <v>4854.7731274196631</v>
       </c>
       <c r="CK40" s="28">
-        <v>5464.1422300634022</v>
-      </c>
-      <c r="CL40" s="11"/>
+        <v>4875.0421669535563</v>
+      </c>
+      <c r="CL40" s="28">
+        <v>5522.8055813720812</v>
+      </c>
       <c r="CM40" s="11"/>
       <c r="CN40" s="11"/>
       <c r="CO40" s="11"/>
@@ -6470,7 +6516,7 @@
       <c r="EU40" s="11"/>
       <c r="EV40" s="11"/>
     </row>
-    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6702,43 +6748,45 @@
       <c r="BY41" s="10">
         <v>11730.225515228074</v>
       </c>
-      <c r="BZ41" s="10">
+      <c r="BZ41" s="28">
         <v>18496.603587586502</v>
       </c>
-      <c r="CA41" s="10">
+      <c r="CA41" s="28">
         <v>11809.924598727201</v>
       </c>
-      <c r="CB41" s="10">
+      <c r="CB41" s="28">
         <v>12012.238824907299</v>
       </c>
-      <c r="CC41" s="10">
+      <c r="CC41" s="28">
         <v>14832.158078880675</v>
       </c>
       <c r="CD41" s="28">
-        <v>22101.455802011395</v>
+        <v>20996.639621719332</v>
       </c>
       <c r="CE41" s="28">
-        <v>17308.529233080255</v>
+        <v>17302.357567779261</v>
       </c>
       <c r="CF41" s="28">
-        <v>16169.216949148713</v>
+        <v>14003.190699812041</v>
       </c>
       <c r="CG41" s="28">
-        <v>17266.397854508756</v>
+        <v>18950.325767817922</v>
       </c>
       <c r="CH41" s="28">
-        <v>29069.039231010869</v>
+        <v>30857.729259048752</v>
       </c>
       <c r="CI41" s="28">
-        <v>29023.721099722236</v>
+        <v>29358.325947937912</v>
       </c>
       <c r="CJ41" s="28">
-        <v>26866.505948634229</v>
+        <v>19898.02283507834</v>
       </c>
       <c r="CK41" s="28">
-        <v>22998.55898403882</v>
-      </c>
-      <c r="CL41" s="11"/>
+        <v>22526.775377773323</v>
+      </c>
+      <c r="CL41" s="28">
+        <v>31636.697680010442</v>
+      </c>
       <c r="CM41" s="11"/>
       <c r="CN41" s="11"/>
       <c r="CO41" s="11"/>
@@ -6802,7 +6850,7 @@
       <c r="EU41" s="11"/>
       <c r="EV41" s="11"/>
     </row>
-    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7034,43 +7082,45 @@
       <c r="BY42" s="10">
         <v>66500.394174755624</v>
       </c>
-      <c r="BZ42" s="10">
+      <c r="BZ42" s="28">
         <v>78386.144458014402</v>
       </c>
-      <c r="CA42" s="10">
+      <c r="CA42" s="28">
         <v>65132.164223976302</v>
       </c>
-      <c r="CB42" s="10">
+      <c r="CB42" s="28">
         <v>56112.024167546297</v>
       </c>
-      <c r="CC42" s="10">
+      <c r="CC42" s="28">
         <v>81660.924186886157</v>
       </c>
       <c r="CD42" s="28">
-        <v>96858.360665721935</v>
+        <v>97906.523479371841</v>
       </c>
       <c r="CE42" s="28">
-        <v>46578.124615613073</v>
+        <v>46419.466665149135</v>
       </c>
       <c r="CF42" s="28">
-        <v>49229.685451038822</v>
+        <v>50256.070026286041</v>
       </c>
       <c r="CG42" s="28">
-        <v>63402.755091498555</v>
+        <v>58293.603334826606</v>
       </c>
       <c r="CH42" s="28">
-        <v>81101.07649664575</v>
+        <v>79362.262446508073</v>
       </c>
       <c r="CI42" s="28">
-        <v>52156.768329429666</v>
+        <v>55375.311527468963</v>
       </c>
       <c r="CJ42" s="28">
-        <v>55289.690570290048</v>
+        <v>54854.538198362068</v>
       </c>
       <c r="CK42" s="28">
-        <v>65037.97769403299</v>
-      </c>
-      <c r="CL42" s="11"/>
+        <v>63856.299711898791</v>
+      </c>
+      <c r="CL42" s="28">
+        <v>103209.10942523077</v>
+      </c>
       <c r="CM42" s="11"/>
       <c r="CN42" s="11"/>
       <c r="CO42" s="11"/>
@@ -7134,7 +7184,7 @@
       <c r="EU42" s="11"/>
       <c r="EV42" s="11"/>
     </row>
-    <row r="43" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -7366,43 +7416,45 @@
       <c r="BY43" s="10">
         <v>11010.87698258986</v>
       </c>
-      <c r="BZ43" s="10">
+      <c r="BZ43" s="28">
         <v>16862.071074223801</v>
       </c>
-      <c r="CA43" s="10">
+      <c r="CA43" s="28">
         <v>9566.4797238713509</v>
       </c>
-      <c r="CB43" s="10">
+      <c r="CB43" s="28">
         <v>9620.9203586558906</v>
       </c>
-      <c r="CC43" s="10">
+      <c r="CC43" s="28">
         <v>12922.6844675268</v>
       </c>
       <c r="CD43" s="28">
-        <v>16334.917639578629</v>
+        <v>14919.683933816232</v>
       </c>
       <c r="CE43" s="28">
         <v>5608.4532343837782</v>
       </c>
       <c r="CF43" s="28">
-        <v>4857.0300615963642</v>
+        <v>4856.1512556218304</v>
       </c>
       <c r="CG43" s="28">
-        <v>9552.4660445059944</v>
+        <v>7551.3426498558965</v>
       </c>
       <c r="CH43" s="28">
-        <v>12454.190265535761</v>
+        <v>7473.9852212926062</v>
       </c>
       <c r="CI43" s="28">
-        <v>6396.2319672709154</v>
+        <v>7388.7698321664839</v>
       </c>
       <c r="CJ43" s="28">
-        <v>7372.8516110904147</v>
+        <v>7055.18510035081</v>
       </c>
       <c r="CK43" s="28">
-        <v>11474.622177412415</v>
-      </c>
-      <c r="CL43" s="11"/>
+        <v>9059.2377780854313</v>
+      </c>
+      <c r="CL43" s="28">
+        <v>9758.0365131327617</v>
+      </c>
       <c r="CM43" s="11"/>
       <c r="CN43" s="11"/>
       <c r="CO43" s="11"/>
@@ -7466,7 +7518,7 @@
       <c r="EU43" s="11"/>
       <c r="EV43" s="11"/>
     </row>
-    <row r="44" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -7698,43 +7750,45 @@
       <c r="BY44" s="10">
         <v>15027.395813085703</v>
       </c>
-      <c r="BZ44" s="10">
+      <c r="BZ44" s="28">
         <v>17344.56069232466</v>
       </c>
-      <c r="CA44" s="10">
+      <c r="CA44" s="28">
         <v>13667.220088163795</v>
       </c>
-      <c r="CB44" s="10">
+      <c r="CB44" s="28">
         <v>10205.135534125404</v>
       </c>
-      <c r="CC44" s="10">
+      <c r="CC44" s="28">
         <v>26251.877647424528</v>
       </c>
       <c r="CD44" s="28">
-        <v>12602.487838025032</v>
+        <v>13604.674185082638</v>
       </c>
       <c r="CE44" s="28">
-        <v>7085.1956066171797</v>
+        <v>9444.6829102858501</v>
       </c>
       <c r="CF44" s="28">
-        <v>6789.2341875526108</v>
+        <v>6353.408586677705</v>
       </c>
       <c r="CG44" s="28">
-        <v>13976.545094400573</v>
+        <v>13688.576578580429</v>
       </c>
       <c r="CH44" s="28">
-        <v>10853.36518037476</v>
+        <v>9061.8605375509469</v>
       </c>
       <c r="CI44" s="28">
-        <v>5591.7202845621923</v>
+        <v>5840.6722241052976</v>
       </c>
       <c r="CJ44" s="28">
-        <v>5802.3027659861</v>
+        <v>5966.7813445371357</v>
       </c>
       <c r="CK44" s="28">
-        <v>13244.88794284729</v>
-      </c>
-      <c r="CL44" s="11"/>
+        <v>13560.490219946529</v>
+      </c>
+      <c r="CL44" s="28">
+        <v>10781.896178532712</v>
+      </c>
       <c r="CM44" s="11"/>
       <c r="CN44" s="11"/>
       <c r="CO44" s="11"/>
@@ -7798,7 +7852,7 @@
       <c r="EU44" s="11"/>
       <c r="EV44" s="11"/>
     </row>
-    <row r="45" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -7875,10 +7929,10 @@
       <c r="BW45" s="12"/>
       <c r="BX45" s="12"/>
       <c r="BY45" s="12"/>
-      <c r="BZ45" s="12"/>
-      <c r="CA45" s="12"/>
-      <c r="CB45" s="12"/>
-      <c r="CC45" s="12"/>
+      <c r="BZ45" s="29"/>
+      <c r="CA45" s="29"/>
+      <c r="CB45" s="29"/>
+      <c r="CC45" s="29"/>
       <c r="CD45" s="29"/>
       <c r="CE45" s="29"/>
       <c r="CF45" s="29"/>
@@ -7887,7 +7941,7 @@
       <c r="CI45" s="29"/>
       <c r="CJ45" s="29"/>
       <c r="CK45" s="29"/>
-      <c r="CL45" s="11"/>
+      <c r="CL45" s="29"/>
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
@@ -7951,7 +8005,7 @@
       <c r="EU45" s="11"/>
       <c r="EV45" s="11"/>
     </row>
-    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>17</v>
       </c>
@@ -8183,43 +8237,45 @@
       <c r="BY46" s="15">
         <v>431776.90872260701</v>
       </c>
-      <c r="BZ46" s="15">
+      <c r="BZ46" s="30">
         <v>386169.82316032652</v>
       </c>
-      <c r="CA46" s="15">
+      <c r="CA46" s="30">
         <v>306924.64481029852</v>
       </c>
-      <c r="CB46" s="15">
+      <c r="CB46" s="30">
         <v>361315.7105482191</v>
       </c>
-      <c r="CC46" s="15">
+      <c r="CC46" s="30">
         <v>474848.72093321104</v>
       </c>
       <c r="CD46" s="30">
-        <v>374473.86078839563</v>
+        <v>377454.08186515648</v>
       </c>
       <c r="CE46" s="30">
-        <v>213080.04117026777</v>
+        <v>214777.88124123414</v>
       </c>
       <c r="CF46" s="30">
-        <v>257760.9027522023</v>
+        <v>260587.43498185079</v>
       </c>
       <c r="CG46" s="30">
-        <v>273465.83528613992</v>
+        <v>267210.21981634409</v>
       </c>
       <c r="CH46" s="30">
-        <v>257342.36675266214</v>
+        <v>250463.32294230157</v>
       </c>
       <c r="CI46" s="30">
-        <v>209541.18008368713</v>
+        <v>216990.21159942276</v>
       </c>
       <c r="CJ46" s="30">
-        <v>247593.63146338987</v>
+        <v>244997.48168149858</v>
       </c>
       <c r="CK46" s="30">
-        <v>300232.49378958932</v>
-      </c>
-      <c r="CL46" s="11"/>
+        <v>298720.41114807234</v>
+      </c>
+      <c r="CL46" s="30">
+        <v>330493.57686000015</v>
+      </c>
       <c r="CM46" s="11"/>
       <c r="CN46" s="11"/>
       <c r="CO46" s="11"/>
@@ -8283,7 +8339,7 @@
       <c r="EU46" s="11"/>
       <c r="EV46" s="11"/>
     </row>
-    <row r="47" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -8361,10 +8417,10 @@
       <c r="BW47" s="17"/>
       <c r="BX47" s="17"/>
       <c r="BY47" s="17"/>
-      <c r="BZ47" s="17"/>
-      <c r="CA47" s="17"/>
-      <c r="CB47" s="17"/>
-      <c r="CC47" s="17"/>
+      <c r="BZ47" s="31"/>
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
       <c r="CD47" s="31"/>
       <c r="CE47" s="31"/>
       <c r="CF47" s="31"/>
@@ -8373,13 +8429,14 @@
       <c r="CI47" s="31"/>
       <c r="CJ47" s="31"/>
       <c r="CK47" s="31"/>
+      <c r="CL47" s="31"/>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -8456,10 +8513,10 @@
       <c r="BW49" s="12"/>
       <c r="BX49" s="12"/>
       <c r="BY49" s="12"/>
-      <c r="BZ49" s="12"/>
-      <c r="CA49" s="12"/>
-      <c r="CB49" s="12"/>
-      <c r="CC49" s="12"/>
+      <c r="BZ49" s="29"/>
+      <c r="CA49" s="29"/>
+      <c r="CB49" s="29"/>
+      <c r="CC49" s="29"/>
       <c r="CD49" s="29"/>
       <c r="CE49" s="29"/>
       <c r="CF49" s="29"/>
@@ -8468,7 +8525,7 @@
       <c r="CI49" s="29"/>
       <c r="CJ49" s="29"/>
       <c r="CK49" s="29"/>
-      <c r="CL49" s="11"/>
+      <c r="CL49" s="29"/>
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
@@ -8532,7 +8589,7 @@
       <c r="EU49" s="11"/>
       <c r="EV49" s="11"/>
     </row>
-    <row r="50" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -8609,10 +8666,10 @@
       <c r="BW50" s="12"/>
       <c r="BX50" s="12"/>
       <c r="BY50" s="12"/>
-      <c r="BZ50" s="12"/>
-      <c r="CA50" s="12"/>
-      <c r="CB50" s="12"/>
-      <c r="CC50" s="12"/>
+      <c r="BZ50" s="29"/>
+      <c r="CA50" s="29"/>
+      <c r="CB50" s="29"/>
+      <c r="CC50" s="29"/>
       <c r="CD50" s="29"/>
       <c r="CE50" s="29"/>
       <c r="CF50" s="29"/>
@@ -8621,7 +8678,7 @@
       <c r="CI50" s="29"/>
       <c r="CJ50" s="29"/>
       <c r="CK50" s="29"/>
-      <c r="CL50" s="11"/>
+      <c r="CL50" s="29"/>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
@@ -8685,170 +8742,173 @@
       <c r="EU50" s="11"/>
       <c r="EV50" s="11"/>
     </row>
-    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38" t="s">
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38" t="s">
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38" t="s">
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38" t="s">
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38" t="s">
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38" t="s">
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38" t="s">
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="38"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="38" t="s">
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38" t="s">
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="38"/>
-      <c r="AP59" s="38" t="s">
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="38"/>
-      <c r="AS59" s="38"/>
-      <c r="AT59" s="38" t="s">
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="38"/>
-      <c r="AV59" s="38"/>
-      <c r="AW59" s="38"/>
-      <c r="AX59" s="38" t="s">
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="38"/>
-      <c r="AZ59" s="38"/>
-      <c r="BA59" s="38"/>
-      <c r="BB59" s="38" t="s">
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="38"/>
-      <c r="BD59" s="38"/>
-      <c r="BE59" s="38"/>
-      <c r="BF59" s="38" t="s">
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="38"/>
-      <c r="BH59" s="38"/>
-      <c r="BI59" s="38"/>
-      <c r="BJ59" s="38" t="s">
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
+      <c r="BI59" s="37"/>
+      <c r="BJ59" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="38"/>
-      <c r="BL59" s="38"/>
-      <c r="BM59" s="38"/>
-      <c r="BN59" s="38" t="s">
+      <c r="BK59" s="37"/>
+      <c r="BL59" s="37"/>
+      <c r="BM59" s="37"/>
+      <c r="BN59" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="38"/>
-      <c r="BP59" s="38"/>
-      <c r="BQ59" s="38"/>
-      <c r="BR59" s="38" t="s">
+      <c r="BO59" s="37"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="38"/>
-      <c r="BT59" s="38"/>
-      <c r="BU59" s="38"/>
-      <c r="BV59" s="37" t="s">
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="37"/>
-      <c r="BX59" s="37"/>
-      <c r="BY59" s="37"/>
-      <c r="BZ59" s="37" t="s">
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
+      <c r="BY59" s="36"/>
+      <c r="BZ59" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="37"/>
-      <c r="CB59" s="37"/>
-      <c r="CC59" s="37"/>
-      <c r="CD59" s="36" t="s">
+      <c r="CA59" s="40"/>
+      <c r="CB59" s="40"/>
+      <c r="CC59" s="40"/>
+      <c r="CD59" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="36"/>
-      <c r="CF59" s="36"/>
-      <c r="CG59" s="36"/>
-      <c r="CH59" s="35"/>
+      <c r="CE59" s="40"/>
+      <c r="CF59" s="40"/>
+      <c r="CG59" s="40"/>
+      <c r="CH59" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="CI59" s="35"/>
       <c r="CJ59" s="35"/>
       <c r="CK59" s="35"/>
+      <c r="CL59" s="35"/>
     </row>
-    <row r="60" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -9078,16 +9138,16 @@
       <c r="BY60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ60" s="7" t="s">
+      <c r="BZ60" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA60" s="7" t="s">
+      <c r="CA60" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB60" s="7" t="s">
+      <c r="CB60" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC60" s="7" t="s">
+      <c r="CC60" s="32" t="s">
         <v>10</v>
       </c>
       <c r="CD60" s="32" t="s">
@@ -9102,15 +9162,18 @@
       <c r="CG60" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="27"/>
+      <c r="CH60" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="CI60" s="27"/>
       <c r="CJ60" s="27"/>
       <c r="CK60" s="27"/>
+      <c r="CL60" s="27"/>
     </row>
-    <row r="61" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9342,35 +9405,37 @@
       <c r="BY62" s="21">
         <v>-23.385953717509139</v>
       </c>
-      <c r="BZ62" s="21">
-        <v>-8.4120048623746584</v>
-      </c>
-      <c r="CA62" s="21">
-        <v>-47.132796363661555</v>
-      </c>
-      <c r="CB62" s="21">
-        <v>-31.529684264482142</v>
-      </c>
-      <c r="CC62" s="21">
-        <v>-20.702163806799064</v>
+      <c r="BZ62" s="33">
+        <v>-2.4974890816550186</v>
+      </c>
+      <c r="CA62" s="33">
+        <v>-45.476067429737419</v>
+      </c>
+      <c r="CB62" s="33">
+        <v>-22.974781891738331</v>
+      </c>
+      <c r="CC62" s="33">
+        <v>-18.776073104159224</v>
       </c>
       <c r="CD62" s="33">
-        <v>-17.749694852681728</v>
+        <v>-22.383354876287441</v>
       </c>
       <c r="CE62" s="33">
-        <v>52.685718549391055</v>
+        <v>53.013260012370438</v>
       </c>
       <c r="CF62" s="33">
-        <v>38.156115379066449</v>
+        <v>31.321112503194058</v>
       </c>
       <c r="CG62" s="33">
-        <v>36.820003463594048</v>
-      </c>
-      <c r="CH62" s="29"/>
+        <v>39.827467238214808</v>
+      </c>
+      <c r="CH62" s="33">
+        <v>34.682186456323677</v>
+      </c>
       <c r="CI62" s="29"/>
       <c r="CJ62" s="29"/>
       <c r="CK62" s="29"/>
-      <c r="CL62" s="11"/>
+      <c r="CL62" s="29"/>
       <c r="CM62" s="11"/>
       <c r="CN62" s="11"/>
       <c r="CO62" s="11"/>
@@ -9430,7 +9495,7 @@
       <c r="EQ62" s="11"/>
       <c r="ER62" s="11"/>
     </row>
-    <row r="63" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9662,35 +9727,37 @@
       <c r="BY63" s="21">
         <v>1.7553552392954259</v>
       </c>
-      <c r="BZ63" s="21">
-        <v>-20.992285422356346</v>
-      </c>
-      <c r="CA63" s="21">
-        <v>-40.470286864465862</v>
-      </c>
-      <c r="CB63" s="21">
-        <v>-16.724769403949452</v>
-      </c>
-      <c r="CC63" s="21">
-        <v>-24.323460902654446</v>
+      <c r="BZ63" s="33">
+        <v>-13.67827167765175</v>
+      </c>
+      <c r="CA63" s="33">
+        <v>-38.016725087470007</v>
+      </c>
+      <c r="CB63" s="33">
+        <v>-11.795742773703083</v>
+      </c>
+      <c r="CC63" s="33">
+        <v>-19.14461401397763</v>
       </c>
       <c r="CD63" s="33">
-        <v>20.256010088566541</v>
+        <v>11.670382561238384</v>
       </c>
       <c r="CE63" s="33">
-        <v>58.680226843188848</v>
+        <v>61.48186818510905</v>
       </c>
       <c r="CF63" s="33">
-        <v>19.131587989324444</v>
+        <v>19.321154587502008</v>
       </c>
       <c r="CG63" s="33">
-        <v>43.777711041014612</v>
-      </c>
-      <c r="CH63" s="29"/>
+        <v>43.799674558507917</v>
+      </c>
+      <c r="CH63" s="33">
+        <v>33.484767211049558</v>
+      </c>
       <c r="CI63" s="29"/>
       <c r="CJ63" s="29"/>
       <c r="CK63" s="29"/>
-      <c r="CL63" s="11"/>
+      <c r="CL63" s="29"/>
       <c r="CM63" s="11"/>
       <c r="CN63" s="11"/>
       <c r="CO63" s="11"/>
@@ -9750,7 +9817,7 @@
       <c r="EQ63" s="11"/>
       <c r="ER63" s="11"/>
     </row>
-    <row r="64" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -9982,16 +10049,16 @@
       <c r="BY64" s="21">
         <v>15.125939096600476</v>
       </c>
-      <c r="BZ64" s="21">
+      <c r="BZ64" s="33">
         <v>-8.1348194152738245</v>
       </c>
-      <c r="CA64" s="21">
+      <c r="CA64" s="33">
         <v>-29.032857668472317</v>
       </c>
-      <c r="CB64" s="21">
+      <c r="CB64" s="33">
         <v>-39.482129134804978</v>
       </c>
-      <c r="CC64" s="21">
+      <c r="CC64" s="33">
         <v>-62.547023003272514</v>
       </c>
       <c r="CD64" s="33">
@@ -10004,13 +10071,15 @@
         <v>-39.778856615383972</v>
       </c>
       <c r="CG64" s="33">
-        <v>5.4395800447426694</v>
-      </c>
-      <c r="CH64" s="29"/>
+        <v>5.2938014109528524</v>
+      </c>
+      <c r="CH64" s="33">
+        <v>75.98573374585834</v>
+      </c>
       <c r="CI64" s="29"/>
       <c r="CJ64" s="29"/>
       <c r="CK64" s="29"/>
-      <c r="CL64" s="11"/>
+      <c r="CL64" s="29"/>
       <c r="CM64" s="11"/>
       <c r="CN64" s="11"/>
       <c r="CO64" s="11"/>
@@ -10070,7 +10139,7 @@
       <c r="EQ64" s="11"/>
       <c r="ER64" s="11"/>
     </row>
-    <row r="65" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10302,35 +10371,37 @@
       <c r="BY65" s="21">
         <v>5.7540457769495106</v>
       </c>
-      <c r="BZ65" s="21">
-        <v>-2.7586720347952678</v>
-      </c>
-      <c r="CA65" s="21">
-        <v>6.1355458769095463</v>
-      </c>
-      <c r="CB65" s="21">
-        <v>5.9891603921433187</v>
-      </c>
-      <c r="CC65" s="21">
-        <v>6.0311627946865798</v>
+      <c r="BZ65" s="33">
+        <v>-28.260417954160317</v>
+      </c>
+      <c r="CA65" s="33">
+        <v>-28.282889356104192</v>
+      </c>
+      <c r="CB65" s="33">
+        <v>-28.43987473255217</v>
+      </c>
+      <c r="CC65" s="33">
+        <v>-28.426888341679515</v>
       </c>
       <c r="CD65" s="33">
-        <v>-17.097979188583238</v>
+        <v>-0.11855879594548924</v>
       </c>
       <c r="CE65" s="33">
-        <v>-27.441768354016688</v>
+        <v>-0.10902368548732966</v>
       </c>
       <c r="CF65" s="33">
-        <v>-27.166459278523277</v>
+        <v>0.52370015316840579</v>
       </c>
       <c r="CG65" s="33">
-        <v>-23.902068940374406</v>
-      </c>
-      <c r="CH65" s="29"/>
+        <v>0.66319000617347967</v>
+      </c>
+      <c r="CH65" s="33">
+        <v>0.72053753619280769</v>
+      </c>
       <c r="CI65" s="29"/>
       <c r="CJ65" s="29"/>
       <c r="CK65" s="29"/>
-      <c r="CL65" s="11"/>
+      <c r="CL65" s="29"/>
       <c r="CM65" s="11"/>
       <c r="CN65" s="11"/>
       <c r="CO65" s="11"/>
@@ -10390,7 +10461,7 @@
       <c r="EQ65" s="11"/>
       <c r="ER65" s="11"/>
     </row>
-    <row r="66" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10622,35 +10693,37 @@
       <c r="BY66" s="21">
         <v>29.517641246931845</v>
       </c>
-      <c r="BZ66" s="21">
-        <v>20.911165326050664</v>
-      </c>
-      <c r="CA66" s="21">
-        <v>46.267637661672836</v>
-      </c>
-      <c r="CB66" s="21">
-        <v>32.357898631242278</v>
-      </c>
-      <c r="CC66" s="21">
-        <v>11.683121918611761</v>
+      <c r="BZ66" s="33">
+        <v>14.867010903515634</v>
+      </c>
+      <c r="CA66" s="33">
+        <v>46.215483322510977</v>
+      </c>
+      <c r="CB66" s="33">
+        <v>14.627251337440754</v>
+      </c>
+      <c r="CC66" s="33">
+        <v>22.575163676768753</v>
       </c>
       <c r="CD66" s="33">
-        <v>30.184516463088443</v>
+        <v>45.466740484912918</v>
       </c>
       <c r="CE66" s="33">
-        <v>63.49342453574323</v>
+        <v>65.437275583309997</v>
       </c>
       <c r="CF66" s="33">
-        <v>65.182150982883456</v>
+        <v>41.261507939718598</v>
       </c>
       <c r="CG66" s="33">
-        <v>37.666164009410323</v>
-      </c>
-      <c r="CH66" s="29"/>
+        <v>22.961318402961922</v>
+      </c>
+      <c r="CH66" s="33">
+        <v>6.186071876128679</v>
+      </c>
       <c r="CI66" s="29"/>
       <c r="CJ66" s="29"/>
       <c r="CK66" s="29"/>
-      <c r="CL66" s="11"/>
+      <c r="CL66" s="29"/>
       <c r="CM66" s="11"/>
       <c r="CN66" s="11"/>
       <c r="CO66" s="11"/>
@@ -10710,7 +10783,7 @@
       <c r="EQ66" s="11"/>
       <c r="ER66" s="11"/>
     </row>
-    <row r="67" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -10942,35 +11015,37 @@
       <c r="BY67" s="21">
         <v>26.484180141880159</v>
       </c>
-      <c r="BZ67" s="21">
-        <v>25.036073027284715</v>
-      </c>
-      <c r="CA67" s="21">
-        <v>-28.629014201022983</v>
-      </c>
-      <c r="CB67" s="21">
-        <v>-13.730762640471951</v>
-      </c>
-      <c r="CC67" s="21">
-        <v>-25.512399137039822</v>
+      <c r="BZ67" s="33">
+        <v>26.389163882955089</v>
+      </c>
+      <c r="CA67" s="33">
+        <v>-28.872123480816967</v>
+      </c>
+      <c r="CB67" s="33">
+        <v>-11.932144312263816</v>
+      </c>
+      <c r="CC67" s="33">
+        <v>-31.514795346006792</v>
       </c>
       <c r="CD67" s="33">
-        <v>-17.122042004872284</v>
+        <v>-19.767200127160493</v>
       </c>
       <c r="CE67" s="33">
-        <v>9.1782277720477339</v>
+        <v>16.311699258047867</v>
       </c>
       <c r="CF67" s="33">
-        <v>11.649816786966809</v>
+        <v>8.5087986576314592</v>
       </c>
       <c r="CG67" s="33">
-        <v>6.0198604628524066</v>
-      </c>
-      <c r="CH67" s="29"/>
+        <v>13.310201026319547</v>
+      </c>
+      <c r="CH67" s="33">
+        <v>34.692795203682039</v>
+      </c>
       <c r="CI67" s="29"/>
       <c r="CJ67" s="29"/>
       <c r="CK67" s="29"/>
-      <c r="CL67" s="11"/>
+      <c r="CL67" s="29"/>
       <c r="CM67" s="11"/>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
@@ -11030,7 +11105,7 @@
       <c r="EQ67" s="11"/>
       <c r="ER67" s="11"/>
     </row>
-    <row r="68" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -11262,35 +11337,37 @@
       <c r="BY68" s="21">
         <v>22.332413075919504</v>
       </c>
-      <c r="BZ68" s="21">
-        <v>-1.9734883369424239</v>
-      </c>
-      <c r="CA68" s="21">
+      <c r="BZ68" s="33">
+        <v>-10.466363931719442</v>
+      </c>
+      <c r="CA68" s="33">
         <v>-41.490531402449307</v>
       </c>
-      <c r="CB68" s="21">
-        <v>-50.359173314397765</v>
-      </c>
-      <c r="CC68" s="21">
-        <v>-29.082582937319927</v>
+      <c r="CB68" s="33">
+        <v>-50.368155069610076</v>
+      </c>
+      <c r="CC68" s="33">
+        <v>-43.938903986888903</v>
       </c>
       <c r="CD68" s="33">
-        <v>-24.534564147090251</v>
+        <v>-50.415932584702347</v>
       </c>
       <c r="CE68" s="33">
-        <v>11.195821363273481</v>
+        <v>28.450677610818644</v>
       </c>
       <c r="CF68" s="33">
-        <v>50.905690880784192</v>
+        <v>44.42990424242987</v>
       </c>
       <c r="CG68" s="33">
-        <v>24.15128572261797</v>
-      </c>
-      <c r="CH68" s="29"/>
+        <v>24.094817340864665</v>
+      </c>
+      <c r="CH68" s="33">
+        <v>35.223003889613267</v>
+      </c>
       <c r="CI68" s="29"/>
       <c r="CJ68" s="29"/>
       <c r="CK68" s="29"/>
-      <c r="CL68" s="11"/>
+      <c r="CL68" s="29"/>
       <c r="CM68" s="11"/>
       <c r="CN68" s="11"/>
       <c r="CO68" s="11"/>
@@ -11350,7 +11427,7 @@
       <c r="EQ68" s="11"/>
       <c r="ER68" s="11"/>
     </row>
-    <row r="69" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -11582,35 +11659,37 @@
       <c r="BY69" s="21">
         <v>82.265638860163733</v>
       </c>
-      <c r="BZ69" s="21">
-        <v>-26.475767910353852</v>
-      </c>
-      <c r="CA69" s="21">
-        <v>-48.262330434984101</v>
-      </c>
-      <c r="CB69" s="21">
-        <v>-34.583569017972493</v>
-      </c>
-      <c r="CC69" s="21">
-        <v>-48.922503141345096</v>
+      <c r="BZ69" s="33">
+        <v>-20.62890794705271</v>
+      </c>
+      <c r="CA69" s="33">
+        <v>-31.032830892861469</v>
+      </c>
+      <c r="CB69" s="33">
+        <v>-38.782887314004256</v>
+      </c>
+      <c r="CC69" s="33">
+        <v>-49.974888467106872</v>
       </c>
       <c r="CD69" s="33">
-        <v>-14.757207913592524</v>
+        <v>-34.070654229406514</v>
       </c>
       <c r="CE69" s="33">
-        <v>-23.05135825312496</v>
+        <v>-39.704789288837162</v>
       </c>
       <c r="CF69" s="33">
-        <v>-15.038824327060695</v>
+        <v>-6.6371170517158191</v>
       </c>
       <c r="CG69" s="33">
-        <v>-2.056236489135955</v>
-      </c>
-      <c r="CH69" s="29"/>
+        <v>2.4715398815570637</v>
+      </c>
+      <c r="CH69" s="33">
+        <v>23.230481864164588</v>
+      </c>
       <c r="CI69" s="29"/>
       <c r="CJ69" s="29"/>
       <c r="CK69" s="29"/>
-      <c r="CL69" s="11"/>
+      <c r="CL69" s="29"/>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
@@ -11670,7 +11749,7 @@
       <c r="EQ69" s="11"/>
       <c r="ER69" s="11"/>
     </row>
-    <row r="70" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -11747,10 +11826,10 @@
       <c r="BW70" s="12"/>
       <c r="BX70" s="12"/>
       <c r="BY70" s="12"/>
-      <c r="BZ70" s="12"/>
-      <c r="CA70" s="12"/>
-      <c r="CB70" s="12"/>
-      <c r="CC70" s="12"/>
+      <c r="BZ70" s="29"/>
+      <c r="CA70" s="29"/>
+      <c r="CB70" s="29"/>
+      <c r="CC70" s="29"/>
       <c r="CD70" s="29"/>
       <c r="CE70" s="29"/>
       <c r="CF70" s="29"/>
@@ -11759,7 +11838,7 @@
       <c r="CI70" s="29"/>
       <c r="CJ70" s="29"/>
       <c r="CK70" s="29"/>
-      <c r="CL70" s="11"/>
+      <c r="CL70" s="29"/>
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
@@ -11819,7 +11898,7 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
     </row>
-    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>17</v>
       </c>
@@ -12051,35 +12130,37 @@
       <c r="BY71" s="21">
         <v>11.857598307933031</v>
       </c>
-      <c r="BZ71" s="21">
-        <v>-2.1927234161292404</v>
-      </c>
-      <c r="CA71" s="21">
-        <v>-30.814921165502867</v>
-      </c>
-      <c r="CB71" s="21">
-        <v>-29.102589586820898</v>
-      </c>
-      <c r="CC71" s="21">
-        <v>-43.547310554547771</v>
+      <c r="BZ71" s="33">
+        <v>-1.4493890272586896</v>
+      </c>
+      <c r="CA71" s="33">
+        <v>-30.253558737936217</v>
+      </c>
+      <c r="CB71" s="33">
+        <v>-28.409024801586995</v>
+      </c>
+      <c r="CC71" s="33">
+        <v>-44.937712270242017</v>
       </c>
       <c r="CD71" s="33">
-        <v>-36.109197525434958</v>
+        <v>-38.165685009773156</v>
       </c>
       <c r="CE71" s="33">
-        <v>-2.6495043611334523</v>
+        <v>4.5472838188587161E-2</v>
       </c>
       <c r="CF71" s="33">
-        <v>-1.4887502626222755</v>
+        <v>-3.5886952610775893</v>
       </c>
       <c r="CG71" s="33">
-        <v>14.526402010157312</v>
-      </c>
-      <c r="CH71" s="29"/>
+        <v>17.194545065083602</v>
+      </c>
+      <c r="CH71" s="33">
+        <v>39.611204974642533</v>
+      </c>
       <c r="CI71" s="29"/>
       <c r="CJ71" s="29"/>
       <c r="CK71" s="29"/>
-      <c r="CL71" s="11"/>
+      <c r="CL71" s="29"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
@@ -12139,7 +12220,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
     </row>
-    <row r="72" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -12217,10 +12298,10 @@
       <c r="BW72" s="17"/>
       <c r="BX72" s="17"/>
       <c r="BY72" s="17"/>
-      <c r="BZ72" s="17"/>
-      <c r="CA72" s="17"/>
-      <c r="CB72" s="17"/>
-      <c r="CC72" s="17"/>
+      <c r="BZ72" s="31"/>
+      <c r="CA72" s="31"/>
+      <c r="CB72" s="31"/>
+      <c r="CC72" s="31"/>
       <c r="CD72" s="31"/>
       <c r="CE72" s="31"/>
       <c r="CF72" s="31"/>
@@ -12229,13 +12310,14 @@
       <c r="CI72" s="31"/>
       <c r="CJ72" s="31"/>
       <c r="CK72" s="31"/>
+      <c r="CL72" s="31"/>
     </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -12312,10 +12394,10 @@
       <c r="BW74" s="12"/>
       <c r="BX74" s="12"/>
       <c r="BY74" s="12"/>
-      <c r="BZ74" s="12"/>
-      <c r="CA74" s="12"/>
-      <c r="CB74" s="12"/>
-      <c r="CC74" s="12"/>
+      <c r="BZ74" s="29"/>
+      <c r="CA74" s="29"/>
+      <c r="CB74" s="29"/>
+      <c r="CC74" s="29"/>
       <c r="CD74" s="29"/>
       <c r="CE74" s="29"/>
       <c r="CF74" s="29"/>
@@ -12324,7 +12406,7 @@
       <c r="CI74" s="29"/>
       <c r="CJ74" s="29"/>
       <c r="CK74" s="29"/>
-      <c r="CL74" s="11"/>
+      <c r="CL74" s="29"/>
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
@@ -12384,7 +12466,7 @@
       <c r="EQ74" s="11"/>
       <c r="ER74" s="11"/>
     </row>
-    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -12461,10 +12543,10 @@
       <c r="BW75" s="12"/>
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
-      <c r="BZ75" s="12"/>
-      <c r="CA75" s="12"/>
-      <c r="CB75" s="12"/>
-      <c r="CC75" s="12"/>
+      <c r="BZ75" s="29"/>
+      <c r="CA75" s="29"/>
+      <c r="CB75" s="29"/>
+      <c r="CC75" s="29"/>
       <c r="CD75" s="29"/>
       <c r="CE75" s="29"/>
       <c r="CF75" s="29"/>
@@ -12473,7 +12555,7 @@
       <c r="CI75" s="29"/>
       <c r="CJ75" s="29"/>
       <c r="CK75" s="29"/>
-      <c r="CL75" s="11"/>
+      <c r="CL75" s="29"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
@@ -12533,170 +12615,173 @@
       <c r="EQ75" s="11"/>
       <c r="ER75" s="11"/>
     </row>
-    <row r="76" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38" t="s">
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38" t="s">
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38" t="s">
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38" t="s">
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38" t="s">
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="38" t="s">
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="38" t="s">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38" t="s">
+      <c r="AI84" s="37"/>
+      <c r="AJ84" s="37"/>
+      <c r="AK84" s="37"/>
+      <c r="AL84" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="38"/>
-      <c r="AN84" s="38"/>
-      <c r="AO84" s="38"/>
-      <c r="AP84" s="38" t="s">
+      <c r="AM84" s="37"/>
+      <c r="AN84" s="37"/>
+      <c r="AO84" s="37"/>
+      <c r="AP84" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="38" t="s">
+      <c r="AQ84" s="37"/>
+      <c r="AR84" s="37"/>
+      <c r="AS84" s="37"/>
+      <c r="AT84" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
-      <c r="AW84" s="38"/>
-      <c r="AX84" s="38" t="s">
+      <c r="AU84" s="37"/>
+      <c r="AV84" s="37"/>
+      <c r="AW84" s="37"/>
+      <c r="AX84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="38"/>
-      <c r="AZ84" s="38"/>
-      <c r="BA84" s="38"/>
-      <c r="BB84" s="38" t="s">
+      <c r="AY84" s="37"/>
+      <c r="AZ84" s="37"/>
+      <c r="BA84" s="37"/>
+      <c r="BB84" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="38"/>
-      <c r="BD84" s="38"/>
-      <c r="BE84" s="38"/>
-      <c r="BF84" s="38" t="s">
+      <c r="BC84" s="37"/>
+      <c r="BD84" s="37"/>
+      <c r="BE84" s="37"/>
+      <c r="BF84" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="38" t="s">
+      <c r="BG84" s="37"/>
+      <c r="BH84" s="37"/>
+      <c r="BI84" s="37"/>
+      <c r="BJ84" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="38"/>
-      <c r="BL84" s="38"/>
-      <c r="BM84" s="38"/>
-      <c r="BN84" s="38" t="s">
+      <c r="BK84" s="37"/>
+      <c r="BL84" s="37"/>
+      <c r="BM84" s="37"/>
+      <c r="BN84" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="38"/>
-      <c r="BP84" s="38"/>
-      <c r="BQ84" s="38"/>
-      <c r="BR84" s="38" t="s">
+      <c r="BO84" s="37"/>
+      <c r="BP84" s="37"/>
+      <c r="BQ84" s="37"/>
+      <c r="BR84" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="38"/>
-      <c r="BT84" s="38"/>
-      <c r="BU84" s="38"/>
-      <c r="BV84" s="37" t="s">
+      <c r="BS84" s="37"/>
+      <c r="BT84" s="37"/>
+      <c r="BU84" s="37"/>
+      <c r="BV84" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="37"/>
-      <c r="BX84" s="37"/>
-      <c r="BY84" s="37"/>
-      <c r="BZ84" s="37" t="s">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="37"/>
-      <c r="CB84" s="37"/>
-      <c r="CC84" s="37"/>
-      <c r="CD84" s="36" t="s">
+      <c r="CA84" s="40"/>
+      <c r="CB84" s="40"/>
+      <c r="CC84" s="40"/>
+      <c r="CD84" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="36"/>
-      <c r="CF84" s="36"/>
-      <c r="CG84" s="36"/>
-      <c r="CH84" s="35"/>
+      <c r="CE84" s="40"/>
+      <c r="CF84" s="40"/>
+      <c r="CG84" s="40"/>
+      <c r="CH84" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="CI84" s="35"/>
       <c r="CJ84" s="35"/>
       <c r="CK84" s="35"/>
+      <c r="CL84" s="35"/>
     </row>
-    <row r="85" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
         <v>7</v>
@@ -12926,16 +13011,16 @@
       <c r="BY85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ85" s="7" t="s">
+      <c r="BZ85" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="7" t="s">
+      <c r="CA85" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="7" t="s">
+      <c r="CB85" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC85" s="7" t="s">
+      <c r="CC85" s="27" t="s">
         <v>10</v>
       </c>
       <c r="CD85" s="27" t="s">
@@ -12950,15 +13035,18 @@
       <c r="CG85" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="27"/>
+      <c r="CH85" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="CI85" s="27"/>
       <c r="CJ85" s="27"/>
       <c r="CK85" s="27"/>
+      <c r="CL85" s="27"/>
     </row>
-    <row r="86" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13190,35 +13278,37 @@
       <c r="BY87" s="21">
         <v>-24.577787141415115</v>
       </c>
-      <c r="BZ87" s="21">
-        <v>-10.702924029016074</v>
-      </c>
-      <c r="CA87" s="21">
-        <v>-44.439934466560381</v>
-      </c>
-      <c r="CB87" s="21">
-        <v>-28.882467080381971</v>
-      </c>
-      <c r="CC87" s="21">
-        <v>-15.97459810123847</v>
+      <c r="BZ87" s="33">
+        <v>-4.936349881292017</v>
+      </c>
+      <c r="CA87" s="33">
+        <v>-42.698817823184513</v>
+      </c>
+      <c r="CB87" s="33">
+        <v>-19.996812843474061</v>
+      </c>
+      <c r="CC87" s="33">
+        <v>-13.933678031383437</v>
       </c>
       <c r="CD87" s="33">
-        <v>-16.247521719492795</v>
+        <v>-20.965808293520737</v>
       </c>
       <c r="CE87" s="33">
-        <v>46.665203675346817</v>
+        <v>46.979829927470377</v>
       </c>
       <c r="CF87" s="33">
-        <v>30.78870211326884</v>
+        <v>24.318187560778298</v>
       </c>
       <c r="CG87" s="33">
-        <v>26.889881565953871</v>
-      </c>
-      <c r="CH87" s="29"/>
+        <v>28.155613416976735</v>
+      </c>
+      <c r="CH87" s="33">
+        <v>27.319902633557348</v>
+      </c>
       <c r="CI87" s="29"/>
       <c r="CJ87" s="29"/>
       <c r="CK87" s="29"/>
-      <c r="CL87" s="11"/>
+      <c r="CL87" s="29"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
@@ -13278,7 +13368,7 @@
       <c r="EQ87" s="11"/>
       <c r="ER87" s="11"/>
     </row>
-    <row r="88" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13510,35 +13600,37 @@
       <c r="BY88" s="21">
         <v>-1.7276812518812648</v>
       </c>
-      <c r="BZ88" s="21">
-        <v>-21.921405916062113</v>
-      </c>
-      <c r="CA88" s="21">
-        <v>-40.351629547667358</v>
-      </c>
-      <c r="CB88" s="21">
-        <v>-15.310218872132609</v>
-      </c>
-      <c r="CC88" s="21">
-        <v>-21.119234753073172</v>
+      <c r="BZ88" s="33">
+        <v>-14.693404025994511</v>
+      </c>
+      <c r="CA88" s="33">
+        <v>-37.893177220361018</v>
+      </c>
+      <c r="CB88" s="33">
+        <v>-10.297465578012137</v>
+      </c>
+      <c r="CC88" s="33">
+        <v>-15.721109910841548</v>
       </c>
       <c r="CD88" s="33">
-        <v>21.494677620754828</v>
+        <v>12.820615943202256</v>
       </c>
       <c r="CE88" s="33">
-        <v>62.747920525903936</v>
+        <v>65.621380638281437</v>
       </c>
       <c r="CF88" s="33">
-        <v>19.835644131919054</v>
+        <v>20.026331050325126</v>
       </c>
       <c r="CG88" s="33">
-        <v>39.111564766245834</v>
-      </c>
-      <c r="CH88" s="29"/>
+        <v>39.018225457240163</v>
+      </c>
+      <c r="CH88" s="33">
+        <v>28.881722937900776</v>
+      </c>
       <c r="CI88" s="29"/>
       <c r="CJ88" s="29"/>
       <c r="CK88" s="29"/>
-      <c r="CL88" s="11"/>
+      <c r="CL88" s="29"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
@@ -13598,7 +13690,7 @@
       <c r="EQ88" s="11"/>
       <c r="ER88" s="11"/>
     </row>
-    <row r="89" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -13830,16 +13922,16 @@
       <c r="BY89" s="21">
         <v>14.598207582000171</v>
       </c>
-      <c r="BZ89" s="21">
+      <c r="BZ89" s="33">
         <v>-10.108590561390912</v>
       </c>
-      <c r="CA89" s="21">
+      <c r="CA89" s="33">
         <v>-29.527919223761231</v>
       </c>
-      <c r="CB89" s="21">
+      <c r="CB89" s="33">
         <v>-38.960905339632902</v>
       </c>
-      <c r="CC89" s="21">
+      <c r="CC89" s="33">
         <v>-61.40408079107381</v>
       </c>
       <c r="CD89" s="33">
@@ -13852,13 +13944,15 @@
         <v>-39.159383252426551</v>
       </c>
       <c r="CG89" s="33">
-        <v>2.4076223292502306</v>
-      </c>
-      <c r="CH89" s="29"/>
+        <v>2.097655140689497</v>
+      </c>
+      <c r="CH89" s="33">
+        <v>68.060177677074535</v>
+      </c>
       <c r="CI89" s="29"/>
       <c r="CJ89" s="29"/>
       <c r="CK89" s="29"/>
-      <c r="CL89" s="11"/>
+      <c r="CL89" s="29"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
@@ -13918,7 +14012,7 @@
       <c r="EQ89" s="11"/>
       <c r="ER89" s="11"/>
     </row>
-    <row r="90" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14150,35 +14244,37 @@
       <c r="BY90" s="21">
         <v>2.5135186985261129</v>
       </c>
-      <c r="BZ90" s="21">
-        <v>-3.9022174610947076</v>
-      </c>
-      <c r="CA90" s="21">
-        <v>6.3471000475474426</v>
-      </c>
-      <c r="CB90" s="21">
-        <v>7.7895399543061501</v>
-      </c>
-      <c r="CC90" s="21">
-        <v>10.520636395748269</v>
+      <c r="BZ90" s="33">
+        <v>-29.104066150352267</v>
+      </c>
+      <c r="CA90" s="33">
+        <v>-28.139939567346232</v>
+      </c>
+      <c r="CB90" s="33">
+        <v>-27.224322250386507</v>
+      </c>
+      <c r="CC90" s="33">
+        <v>-25.396405728204186</v>
       </c>
       <c r="CD90" s="33">
-        <v>-16.244067259721859</v>
+        <v>0.91024548748714551</v>
       </c>
       <c r="CE90" s="33">
-        <v>-25.581771892157519</v>
+        <v>2.4516349510567181</v>
       </c>
       <c r="CF90" s="33">
-        <v>-26.736020109556051</v>
+        <v>1.1177854815325361</v>
       </c>
       <c r="CG90" s="33">
-        <v>-26.371742959807008</v>
-      </c>
-      <c r="CH90" s="29"/>
+        <v>-2.6839380096825636</v>
+      </c>
+      <c r="CH90" s="33">
+        <v>-2.7526759486194265</v>
+      </c>
       <c r="CI90" s="29"/>
       <c r="CJ90" s="29"/>
       <c r="CK90" s="29"/>
-      <c r="CL90" s="11"/>
+      <c r="CL90" s="29"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
@@ -14238,7 +14334,7 @@
       <c r="EQ90" s="11"/>
       <c r="ER90" s="11"/>
     </row>
-    <row r="91" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14470,35 +14566,37 @@
       <c r="BY91" s="21">
         <v>26.443929484780156</v>
       </c>
-      <c r="BZ91" s="21">
-        <v>19.489265677100803</v>
-      </c>
-      <c r="CA91" s="21">
-        <v>46.55918493286282</v>
-      </c>
-      <c r="CB91" s="21">
-        <v>34.606189444235383</v>
-      </c>
-      <c r="CC91" s="21">
-        <v>16.411905554689071</v>
+      <c r="BZ91" s="33">
+        <v>13.516189727992355</v>
+      </c>
+      <c r="CA91" s="33">
+        <v>46.506926637313171</v>
+      </c>
+      <c r="CB91" s="33">
+        <v>16.57436139861386</v>
+      </c>
+      <c r="CC91" s="33">
+        <v>27.765128088818415</v>
       </c>
       <c r="CD91" s="33">
-        <v>31.525450139648143</v>
+        <v>46.965084961161665</v>
       </c>
       <c r="CE91" s="33">
-        <v>67.684502298738209</v>
+        <v>69.678183062228896</v>
       </c>
       <c r="CF91" s="33">
-        <v>66.158361491022703</v>
+        <v>42.096349765096193</v>
       </c>
       <c r="CG91" s="33">
-        <v>33.198361220625003</v>
-      </c>
-      <c r="CH91" s="29"/>
+        <v>18.872760572955684</v>
+      </c>
+      <c r="CH91" s="33">
+        <v>2.5243867247077674</v>
+      </c>
       <c r="CI91" s="29"/>
       <c r="CJ91" s="29"/>
       <c r="CK91" s="29"/>
-      <c r="CL91" s="11"/>
+      <c r="CL91" s="29"/>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
       <c r="CO91" s="11"/>
@@ -14558,7 +14656,7 @@
       <c r="EQ91" s="11"/>
       <c r="ER91" s="11"/>
     </row>
-    <row r="92" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -14790,35 +14888,37 @@
       <c r="BY92" s="21">
         <v>22.797654360198763</v>
       </c>
-      <c r="BZ92" s="21">
-        <v>23.5656649978514</v>
-      </c>
-      <c r="CA92" s="21">
-        <v>-28.486754323961421</v>
-      </c>
-      <c r="CB92" s="21">
-        <v>-12.265354562789128</v>
-      </c>
-      <c r="CC92" s="21">
-        <v>-22.358513912483573</v>
+      <c r="BZ92" s="33">
+        <v>24.902843680254037</v>
+      </c>
+      <c r="CA92" s="33">
+        <v>-28.730348180167937</v>
+      </c>
+      <c r="CB92" s="33">
+        <v>-10.436184094472907</v>
+      </c>
+      <c r="CC92" s="33">
+        <v>-28.615058039977555</v>
       </c>
       <c r="CD92" s="33">
-        <v>-16.268377929147292</v>
+        <v>-18.940781853796395</v>
       </c>
       <c r="CE92" s="33">
-        <v>11.976960772582544</v>
+        <v>19.293295476493938</v>
       </c>
       <c r="CF92" s="33">
-        <v>12.309656386649422</v>
+        <v>9.1500751444966397</v>
       </c>
       <c r="CG92" s="33">
-        <v>2.579103384663</v>
-      </c>
-      <c r="CH92" s="29"/>
+        <v>9.542550226516596</v>
+      </c>
+      <c r="CH92" s="33">
+        <v>30.048093695408454</v>
+      </c>
       <c r="CI92" s="29"/>
       <c r="CJ92" s="29"/>
       <c r="CK92" s="29"/>
-      <c r="CL92" s="11"/>
+      <c r="CL92" s="29"/>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
       <c r="CO92" s="11"/>
@@ -14878,7 +14978,7 @@
       <c r="EQ92" s="11"/>
       <c r="ER92" s="11"/>
     </row>
-    <row r="93" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -15110,35 +15210,37 @@
       <c r="BY93" s="21">
         <v>17.362899321823733</v>
       </c>
-      <c r="BZ93" s="21">
-        <v>-3.1262674218649522</v>
-      </c>
-      <c r="CA93" s="21">
+      <c r="BZ93" s="33">
+        <v>-11.51926789928433</v>
+      </c>
+      <c r="CA93" s="33">
         <v>-41.37390768321039</v>
       </c>
-      <c r="CB93" s="21">
-        <v>-49.515951899274171</v>
-      </c>
-      <c r="CC93" s="21">
-        <v>-26.079863139038736</v>
+      <c r="CB93" s="33">
+        <v>-49.52508622262134</v>
+      </c>
+      <c r="CC93" s="33">
+        <v>-41.565216818289265</v>
       </c>
       <c r="CD93" s="33">
-        <v>-23.757250937342192</v>
+        <v>-49.905204061646145</v>
       </c>
       <c r="CE93" s="33">
-        <v>14.046274435480683</v>
+        <v>31.743450883536099</v>
       </c>
       <c r="CF93" s="33">
-        <v>51.797528892937777</v>
+        <v>45.283470982976894</v>
       </c>
       <c r="CG93" s="33">
-        <v>20.122093331197235</v>
-      </c>
-      <c r="CH93" s="29"/>
+        <v>19.968569804712928</v>
+      </c>
+      <c r="CH93" s="33">
+        <v>30.560018841529569</v>
+      </c>
       <c r="CI93" s="29"/>
       <c r="CJ93" s="29"/>
       <c r="CK93" s="29"/>
-      <c r="CL93" s="11"/>
+      <c r="CL93" s="29"/>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
       <c r="CO93" s="11"/>
@@ -15198,7 +15300,7 @@
       <c r="EQ93" s="11"/>
       <c r="ER93" s="11"/>
     </row>
-    <row r="94" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -15430,35 +15532,37 @@
       <c r="BY94" s="21">
         <v>74.693459691563191</v>
       </c>
-      <c r="BZ94" s="21">
-        <v>-27.340403359988798</v>
-      </c>
-      <c r="CA94" s="21">
-        <v>-48.159204571870738</v>
-      </c>
-      <c r="CB94" s="21">
-        <v>-33.472376090941765</v>
-      </c>
-      <c r="CC94" s="21">
-        <v>-46.759826927001704</v>
+      <c r="BZ94" s="33">
+        <v>-21.562301712818837</v>
+      </c>
+      <c r="CA94" s="33">
+        <v>-30.89536241195664</v>
+      </c>
+      <c r="CB94" s="33">
+        <v>-37.743025896792247</v>
+      </c>
+      <c r="CC94" s="33">
+        <v>-47.856771380604989</v>
       </c>
       <c r="CD94" s="33">
-        <v>-13.87918544442239</v>
+        <v>-33.391565176274725</v>
       </c>
       <c r="CE94" s="33">
-        <v>-21.078815673912572</v>
+        <v>-38.159149655046221</v>
       </c>
       <c r="CF94" s="33">
-        <v>-14.536712010552705</v>
+        <v>-6.0853514592352411</v>
       </c>
       <c r="CG94" s="33">
-        <v>-5.2348927908257252</v>
-      </c>
-      <c r="CH94" s="29"/>
+        <v>-0.9357171499798369</v>
+      </c>
+      <c r="CH94" s="33">
+        <v>18.981042953091176</v>
+      </c>
       <c r="CI94" s="29"/>
       <c r="CJ94" s="29"/>
       <c r="CK94" s="29"/>
-      <c r="CL94" s="11"/>
+      <c r="CL94" s="29"/>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
       <c r="CO94" s="11"/>
@@ -15518,7 +15622,7 @@
       <c r="EQ94" s="11"/>
       <c r="ER94" s="11"/>
     </row>
-    <row r="95" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -15595,10 +15699,10 @@
       <c r="BW95" s="12"/>
       <c r="BX95" s="12"/>
       <c r="BY95" s="12"/>
-      <c r="BZ95" s="12"/>
-      <c r="CA95" s="12"/>
-      <c r="CB95" s="12"/>
-      <c r="CC95" s="12"/>
+      <c r="BZ95" s="29"/>
+      <c r="CA95" s="29"/>
+      <c r="CB95" s="29"/>
+      <c r="CC95" s="29"/>
       <c r="CD95" s="29"/>
       <c r="CE95" s="29"/>
       <c r="CF95" s="29"/>
@@ -15607,7 +15711,7 @@
       <c r="CI95" s="29"/>
       <c r="CJ95" s="29"/>
       <c r="CK95" s="29"/>
-      <c r="CL95" s="11"/>
+      <c r="CL95" s="29"/>
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
@@ -15667,7 +15771,7 @@
       <c r="EQ95" s="11"/>
       <c r="ER95" s="11"/>
     </row>
-    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>17</v>
       </c>
@@ -15899,35 +16003,37 @@
       <c r="BY96" s="21">
         <v>9.9754783872139114</v>
       </c>
-      <c r="BZ96" s="21">
-        <v>-3.0287095651891605</v>
-      </c>
-      <c r="CA96" s="21">
-        <v>-30.575779829616963</v>
-      </c>
-      <c r="CB96" s="21">
-        <v>-28.660477464125378</v>
-      </c>
-      <c r="CC96" s="21">
-        <v>-42.409903779733725</v>
+      <c r="BZ96" s="33">
+        <v>-2.256971097286268</v>
+      </c>
+      <c r="CA96" s="33">
+        <v>-30.022601679971871</v>
+      </c>
+      <c r="CB96" s="33">
+        <v>-27.8781886936316</v>
+      </c>
+      <c r="CC96" s="33">
+        <v>-43.72729502330742</v>
       </c>
       <c r="CD96" s="33">
-        <v>-31.278950629326062</v>
+        <v>-33.644028512114943</v>
       </c>
       <c r="CE96" s="33">
-        <v>-1.6608130292939194</v>
+        <v>1.0300550249416887</v>
       </c>
       <c r="CF96" s="33">
-        <v>-3.9444582868281941</v>
+        <v>-5.982618962974172</v>
       </c>
       <c r="CG96" s="33">
-        <v>9.787935109130629</v>
-      </c>
-      <c r="CH96" s="29"/>
+        <v>11.79228524769205</v>
+      </c>
+      <c r="CH96" s="33">
+        <v>31.95288355099197</v>
+      </c>
       <c r="CI96" s="29"/>
       <c r="CJ96" s="29"/>
       <c r="CK96" s="29"/>
-      <c r="CL96" s="11"/>
+      <c r="CL96" s="29"/>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
       <c r="CO96" s="11"/>
@@ -15987,7 +16093,7 @@
       <c r="EQ96" s="11"/>
       <c r="ER96" s="11"/>
     </row>
-    <row r="97" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -16065,10 +16171,10 @@
       <c r="BW97" s="17"/>
       <c r="BX97" s="17"/>
       <c r="BY97" s="17"/>
-      <c r="BZ97" s="17"/>
-      <c r="CA97" s="17"/>
-      <c r="CB97" s="17"/>
-      <c r="CC97" s="17"/>
+      <c r="BZ97" s="31"/>
+      <c r="CA97" s="31"/>
+      <c r="CB97" s="31"/>
+      <c r="CC97" s="31"/>
       <c r="CD97" s="31"/>
       <c r="CE97" s="31"/>
       <c r="CF97" s="31"/>
@@ -16077,13 +16183,14 @@
       <c r="CI97" s="31"/>
       <c r="CJ97" s="31"/>
       <c r="CK97" s="31"/>
+      <c r="CL97" s="31"/>
     </row>
-    <row r="98" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -16160,10 +16267,10 @@
       <c r="BW99" s="12"/>
       <c r="BX99" s="12"/>
       <c r="BY99" s="12"/>
-      <c r="BZ99" s="12"/>
-      <c r="CA99" s="12"/>
-      <c r="CB99" s="12"/>
-      <c r="CC99" s="12"/>
+      <c r="BZ99" s="29"/>
+      <c r="CA99" s="29"/>
+      <c r="CB99" s="29"/>
+      <c r="CC99" s="29"/>
       <c r="CD99" s="29"/>
       <c r="CE99" s="29"/>
       <c r="CF99" s="29"/>
@@ -16172,7 +16279,7 @@
       <c r="CI99" s="29"/>
       <c r="CJ99" s="29"/>
       <c r="CK99" s="29"/>
-      <c r="CL99" s="11"/>
+      <c r="CL99" s="29"/>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
@@ -16232,7 +16339,7 @@
       <c r="EQ99" s="11"/>
       <c r="ER99" s="11"/>
     </row>
-    <row r="100" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -16309,10 +16416,10 @@
       <c r="BW100" s="12"/>
       <c r="BX100" s="12"/>
       <c r="BY100" s="12"/>
-      <c r="BZ100" s="12"/>
-      <c r="CA100" s="12"/>
-      <c r="CB100" s="12"/>
-      <c r="CC100" s="12"/>
+      <c r="BZ100" s="29"/>
+      <c r="CA100" s="29"/>
+      <c r="CB100" s="29"/>
+      <c r="CC100" s="29"/>
       <c r="CD100" s="29"/>
       <c r="CE100" s="29"/>
       <c r="CF100" s="29"/>
@@ -16321,7 +16428,7 @@
       <c r="CI100" s="29"/>
       <c r="CJ100" s="29"/>
       <c r="CK100" s="29"/>
-      <c r="CL100" s="11"/>
+      <c r="CL100" s="29"/>
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
@@ -16381,167 +16488,170 @@
       <c r="EQ100" s="11"/>
       <c r="ER100" s="11"/>
     </row>
-    <row r="101" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="37">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37">
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37">
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="37">
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="37"/>
-      <c r="R108" s="37">
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="37"/>
-      <c r="T108" s="37"/>
-      <c r="U108" s="37"/>
-      <c r="V108" s="37">
+      <c r="S108" s="36"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="37"/>
-      <c r="X108" s="37"/>
-      <c r="Y108" s="37"/>
-      <c r="Z108" s="37">
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="37"/>
-      <c r="AB108" s="37"/>
-      <c r="AC108" s="37"/>
-      <c r="AD108" s="37">
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="37"/>
-      <c r="AF108" s="37"/>
-      <c r="AG108" s="37"/>
-      <c r="AH108" s="37">
+      <c r="AE108" s="36"/>
+      <c r="AF108" s="36"/>
+      <c r="AG108" s="36"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="37"/>
-      <c r="AJ108" s="37"/>
-      <c r="AK108" s="37"/>
-      <c r="AL108" s="37">
+      <c r="AI108" s="36"/>
+      <c r="AJ108" s="36"/>
+      <c r="AK108" s="36"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="37"/>
-      <c r="AN108" s="37"/>
-      <c r="AO108" s="37"/>
-      <c r="AP108" s="37">
+      <c r="AM108" s="36"/>
+      <c r="AN108" s="36"/>
+      <c r="AO108" s="36"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="37"/>
-      <c r="AR108" s="37"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="37">
+      <c r="AQ108" s="36"/>
+      <c r="AR108" s="36"/>
+      <c r="AS108" s="36"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="37">
+      <c r="AU108" s="36"/>
+      <c r="AV108" s="36"/>
+      <c r="AW108" s="36"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="37">
+      <c r="AY108" s="36"/>
+      <c r="AZ108" s="36"/>
+      <c r="BA108" s="36"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="37">
+      <c r="BC108" s="36"/>
+      <c r="BD108" s="36"/>
+      <c r="BE108" s="36"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="37"/>
-      <c r="BH108" s="37"/>
-      <c r="BI108" s="37"/>
-      <c r="BJ108" s="37">
+      <c r="BG108" s="36"/>
+      <c r="BH108" s="36"/>
+      <c r="BI108" s="36"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="37"/>
-      <c r="BL108" s="37"/>
-      <c r="BM108" s="37"/>
-      <c r="BN108" s="37">
+      <c r="BK108" s="36"/>
+      <c r="BL108" s="36"/>
+      <c r="BM108" s="36"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="37"/>
-      <c r="BP108" s="37"/>
-      <c r="BQ108" s="37"/>
-      <c r="BR108" s="37">
+      <c r="BO108" s="36"/>
+      <c r="BP108" s="36"/>
+      <c r="BQ108" s="36"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="37"/>
-      <c r="BT108" s="37"/>
-      <c r="BU108" s="37"/>
+      <c r="BS108" s="36"/>
+      <c r="BT108" s="36"/>
+      <c r="BU108" s="36"/>
       <c r="BV108" s="39">
         <v>2018</v>
       </c>
       <c r="BW108" s="39"/>
       <c r="BX108" s="39"/>
       <c r="BY108" s="39"/>
-      <c r="BZ108" s="39">
+      <c r="BZ108" s="38">
         <v>2019</v>
       </c>
-      <c r="CA108" s="39"/>
-      <c r="CB108" s="39"/>
-      <c r="CC108" s="39"/>
-      <c r="CD108" s="36">
+      <c r="CA108" s="38"/>
+      <c r="CB108" s="38"/>
+      <c r="CC108" s="38"/>
+      <c r="CD108" s="40">
         <v>2020</v>
       </c>
-      <c r="CE108" s="36"/>
-      <c r="CF108" s="36"/>
-      <c r="CG108" s="36"/>
-      <c r="CH108" s="36">
+      <c r="CE108" s="40"/>
+      <c r="CF108" s="40"/>
+      <c r="CG108" s="40"/>
+      <c r="CH108" s="40">
         <v>2021</v>
       </c>
-      <c r="CI108" s="36"/>
-      <c r="CJ108" s="36"/>
-      <c r="CK108" s="36"/>
+      <c r="CI108" s="40"/>
+      <c r="CJ108" s="40"/>
+      <c r="CK108" s="40"/>
+      <c r="CL108" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="7" t="s">
         <v>7</v>
@@ -16771,16 +16881,16 @@
       <c r="BY109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ109" s="19" t="s">
+      <c r="BZ109" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="19" t="s">
+      <c r="CA109" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="19" t="s">
+      <c r="CB109" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC109" s="19" t="s">
+      <c r="CC109" s="32" t="s">
         <v>10</v>
       </c>
       <c r="CD109" s="32" t="s">
@@ -16807,11 +16917,14 @@
       <c r="CK109" s="32" t="s">
         <v>10</v>
       </c>
+      <c r="CL109" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -17043,43 +17156,45 @@
       <c r="BY111" s="21">
         <v>98.911958104446839</v>
       </c>
-      <c r="BZ111" s="21">
+      <c r="BZ111" s="33">
         <v>95.102964857159179</v>
       </c>
-      <c r="CA111" s="21">
+      <c r="CA111" s="33">
         <v>107.02922505928782</v>
       </c>
-      <c r="CB111" s="21">
+      <c r="CB111" s="33">
         <v>102.24860705958191</v>
       </c>
-      <c r="CC111" s="21">
+      <c r="CC111" s="33">
         <v>100.47498010055165</v>
       </c>
       <c r="CD111" s="33">
-        <v>97.542834277592235</v>
+        <v>97.54283427759222</v>
       </c>
       <c r="CE111" s="33">
         <v>101.84177757751773</v>
       </c>
       <c r="CF111" s="33">
-        <v>98.442593850935211</v>
+        <v>98.442593850935225</v>
       </c>
       <c r="CG111" s="33">
-        <v>94.821903061270618</v>
+        <v>94.821903061270575</v>
       </c>
       <c r="CH111" s="33">
         <v>95.793319182693821</v>
       </c>
       <c r="CI111" s="33">
-        <v>106.02231884660959</v>
+        <v>106.02231884660962</v>
       </c>
       <c r="CJ111" s="33">
         <v>103.98792964934991</v>
       </c>
       <c r="CK111" s="33">
-        <v>102.24245578260974</v>
-      </c>
-      <c r="CL111" s="11"/>
+        <v>103.45786805783897</v>
+      </c>
+      <c r="CL111" s="33">
+        <v>101.33257572907731</v>
+      </c>
       <c r="CM111" s="11"/>
       <c r="CN111" s="11"/>
       <c r="CO111" s="11"/>
@@ -17143,7 +17258,7 @@
       <c r="EU111" s="11"/>
       <c r="EV111" s="11"/>
     </row>
-    <row r="112" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17375,16 +17490,16 @@
       <c r="BY112" s="21">
         <v>104.2866662742356</v>
       </c>
-      <c r="BZ112" s="21">
+      <c r="BZ112" s="33">
         <v>78.945876011416914</v>
       </c>
-      <c r="CA112" s="21">
+      <c r="CA112" s="33">
         <v>120.45494588140681</v>
       </c>
-      <c r="CB112" s="21">
+      <c r="CB112" s="33">
         <v>109.97195593835443</v>
       </c>
-      <c r="CC112" s="21">
+      <c r="CC112" s="33">
         <v>107.98286749146069</v>
       </c>
       <c r="CD112" s="33">
@@ -17400,7 +17515,7 @@
         <v>103.59648094158642</v>
       </c>
       <c r="CH112" s="33">
-        <v>79.070866927836718</v>
+        <v>79.070866927836704</v>
       </c>
       <c r="CI112" s="33">
         <v>117.2106859307448</v>
@@ -17409,9 +17524,11 @@
         <v>107.4998106064363</v>
       </c>
       <c r="CK112" s="33">
-        <v>107.07136338171284</v>
-      </c>
-      <c r="CL112" s="11"/>
+        <v>107.15962022827664</v>
+      </c>
+      <c r="CL112" s="33">
+        <v>81.894903516488284</v>
+      </c>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
@@ -17475,7 +17592,7 @@
       <c r="EU112" s="11"/>
       <c r="EV112" s="11"/>
     </row>
-    <row r="113" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17707,16 +17824,16 @@
       <c r="BY113" s="21">
         <v>93.090581021974984</v>
       </c>
-      <c r="BZ113" s="21">
+      <c r="BZ113" s="33">
         <v>111.94522990277498</v>
       </c>
-      <c r="CA113" s="21">
+      <c r="CA113" s="33">
         <v>109.72858251575772</v>
       </c>
-      <c r="CB113" s="21">
+      <c r="CB113" s="33">
         <v>94.169925833229428</v>
       </c>
-      <c r="CC113" s="21">
+      <c r="CC113" s="33">
         <v>93.519268645929287</v>
       </c>
       <c r="CD113" s="33">
@@ -17741,9 +17858,11 @@
         <v>92.415150320994769</v>
       </c>
       <c r="CK113" s="33">
-        <v>93.436689240539579</v>
-      </c>
-      <c r="CL113" s="11"/>
+        <v>93.590785966862427</v>
+      </c>
+      <c r="CL113" s="33">
+        <v>117.36759073274634</v>
+      </c>
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
@@ -17807,7 +17926,7 @@
       <c r="EU113" s="11"/>
       <c r="EV113" s="11"/>
     </row>
-    <row r="114" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -18039,20 +18158,20 @@
       <c r="BY114" s="21">
         <v>102.6364362033182</v>
       </c>
-      <c r="BZ114" s="21">
+      <c r="BZ114" s="33">
         <v>88.752486710804234</v>
       </c>
-      <c r="CA114" s="21">
+      <c r="CA114" s="33">
         <v>112.21286615846073</v>
       </c>
-      <c r="CB114" s="21">
+      <c r="CB114" s="33">
         <v>107.70202814214859</v>
       </c>
-      <c r="CC114" s="21">
+      <c r="CC114" s="33">
         <v>105.8808487936989</v>
       </c>
       <c r="CD114" s="33">
-        <v>89.80862450680128</v>
+        <v>89.808624506801294</v>
       </c>
       <c r="CE114" s="33">
         <v>111.9896433359819</v>
@@ -18064,7 +18183,7 @@
         <v>101.57984862740234</v>
       </c>
       <c r="CH114" s="33">
-        <v>88.893003926002592</v>
+        <v>88.893003926002606</v>
       </c>
       <c r="CI114" s="33">
         <v>109.19059334962719</v>
@@ -18073,9 +18192,11 @@
         <v>105.28091028680211</v>
       </c>
       <c r="CK114" s="33">
-        <v>104.98708822722126</v>
-      </c>
-      <c r="CL114" s="11"/>
+        <v>105.07362704623134</v>
+      </c>
+      <c r="CL114" s="33">
+        <v>92.067840693522641</v>
+      </c>
       <c r="CM114" s="11"/>
       <c r="CN114" s="11"/>
       <c r="CO114" s="11"/>
@@ -18139,7 +18260,7 @@
       <c r="EU114" s="11"/>
       <c r="EV114" s="11"/>
     </row>
-    <row r="115" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18371,20 +18492,20 @@
       <c r="BY115" s="21">
         <v>106.23239370114371</v>
       </c>
-      <c r="BZ115" s="21">
+      <c r="BZ115" s="33">
         <v>85.197818590432632</v>
       </c>
-      <c r="CA115" s="21">
+      <c r="CA115" s="33">
         <v>116.2508526901276</v>
       </c>
-      <c r="CB115" s="21">
+      <c r="CB115" s="33">
         <v>110.63791293298368</v>
       </c>
-      <c r="CC115" s="21">
+      <c r="CC115" s="33">
         <v>108.81478543296691</v>
       </c>
       <c r="CD115" s="33">
-        <v>86.211656508496304</v>
+        <v>86.21165650849629</v>
       </c>
       <c r="CE115" s="33">
         <v>116.01959718136612</v>
@@ -18393,21 +18514,23 @@
         <v>108.7899577665609</v>
       </c>
       <c r="CG115" s="33">
-        <v>104.39460543276115</v>
+        <v>104.3946054327612</v>
       </c>
       <c r="CH115" s="33">
-        <v>85.33270788371307</v>
+        <v>85.332707883713084</v>
       </c>
       <c r="CI115" s="33">
-        <v>113.11982321804427</v>
+        <v>113.11982321804426</v>
       </c>
       <c r="CJ115" s="33">
-        <v>108.15079703460174</v>
+        <v>108.15079703460171</v>
       </c>
       <c r="CK115" s="33">
-        <v>107.89625894420398</v>
-      </c>
-      <c r="CL115" s="11"/>
+        <v>107.98519573616862</v>
+      </c>
+      <c r="CL115" s="33">
+        <v>88.380387751599869</v>
+      </c>
       <c r="CM115" s="11"/>
       <c r="CN115" s="11"/>
       <c r="CO115" s="11"/>
@@ -18471,7 +18594,7 @@
       <c r="EU115" s="11"/>
       <c r="EV115" s="11"/>
     </row>
-    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18703,16 +18826,16 @@
       <c r="BY116" s="21">
         <v>104.30541147516384</v>
       </c>
-      <c r="BZ116" s="21">
+      <c r="BZ116" s="33">
         <v>83.560912205069414</v>
       </c>
-      <c r="CA116" s="21">
+      <c r="CA116" s="33">
         <v>114.48087853560396</v>
       </c>
-      <c r="CB116" s="21">
+      <c r="CB116" s="33">
         <v>109.12759855267215</v>
       </c>
-      <c r="CC116" s="21">
+      <c r="CC116" s="33">
         <v>107.43677901288702</v>
       </c>
       <c r="CD116" s="33">
@@ -18728,18 +18851,20 @@
         <v>103.07257519637687</v>
       </c>
       <c r="CH116" s="33">
-        <v>83.693209869254858</v>
+        <v>83.693209869254872</v>
       </c>
       <c r="CI116" s="33">
         <v>111.39752046647722</v>
       </c>
       <c r="CJ116" s="33">
-        <v>106.67443418868964</v>
+        <v>106.67443418868967</v>
       </c>
       <c r="CK116" s="33">
-        <v>106.52988454079807</v>
-      </c>
-      <c r="CL116" s="11"/>
+        <v>106.6176950568635</v>
+      </c>
+      <c r="CL116" s="33">
+        <v>86.682334638914682</v>
+      </c>
       <c r="CM116" s="11"/>
       <c r="CN116" s="11"/>
       <c r="CO116" s="11"/>
@@ -18803,7 +18928,7 @@
       <c r="EU116" s="11"/>
       <c r="EV116" s="11"/>
     </row>
-    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -19035,16 +19160,16 @@
       <c r="BY117" s="21">
         <v>105.27710178689991</v>
       </c>
-      <c r="BZ117" s="21">
+      <c r="BZ117" s="33">
         <v>84.705273993316879</v>
       </c>
-      <c r="CA117" s="21">
+      <c r="CA117" s="33">
         <v>116.55609540926204</v>
       </c>
-      <c r="CB117" s="21">
+      <c r="CB117" s="33">
         <v>111.36030796394208</v>
       </c>
-      <c r="CC117" s="21">
+      <c r="CC117" s="33">
         <v>109.73486491600195</v>
       </c>
       <c r="CD117" s="33">
@@ -19069,9 +19194,11 @@
         <v>108.85695278447844</v>
       </c>
       <c r="CK117" s="33">
-        <v>108.80857185973105</v>
-      </c>
-      <c r="CL117" s="11"/>
+        <v>108.89826065352379</v>
+      </c>
+      <c r="CL117" s="33">
+        <v>87.869444124189499</v>
+      </c>
       <c r="CM117" s="11"/>
       <c r="CN117" s="11"/>
       <c r="CO117" s="11"/>
@@ -19135,7 +19262,7 @@
       <c r="EU117" s="11"/>
       <c r="EV117" s="11"/>
     </row>
-    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -19367,23 +19494,23 @@
       <c r="BY118" s="21">
         <v>104.46088234035042</v>
       </c>
-      <c r="BZ118" s="21">
+      <c r="BZ118" s="33">
         <v>84.109960440314794</v>
       </c>
-      <c r="CA118" s="21">
+      <c r="CA118" s="33">
         <v>115.85695223072253</v>
       </c>
-      <c r="CB118" s="21">
+      <c r="CB118" s="33">
         <v>110.65380109141194</v>
       </c>
-      <c r="CC118" s="21">
+      <c r="CC118" s="33">
         <v>108.98879379500823</v>
       </c>
       <c r="CD118" s="33">
         <v>85.110853052262513</v>
       </c>
       <c r="CE118" s="33">
-        <v>115.62648030030932</v>
+        <v>115.62648030030931</v>
       </c>
       <c r="CF118" s="33">
         <v>108.80558054937177</v>
@@ -19392,18 +19519,20 @@
         <v>104.56154537777903</v>
       </c>
       <c r="CH118" s="33">
-        <v>84.243127384132691</v>
+        <v>84.243127384132677</v>
       </c>
       <c r="CI118" s="33">
-        <v>112.73653183305821</v>
+        <v>112.73653183305818</v>
       </c>
       <c r="CJ118" s="33">
         <v>108.16632803073023</v>
       </c>
       <c r="CK118" s="33">
-        <v>108.06879846826382</v>
-      </c>
-      <c r="CL118" s="11"/>
+        <v>108.15787748120904</v>
+      </c>
+      <c r="CL118" s="33">
+        <v>87.251892600939385</v>
+      </c>
       <c r="CM118" s="11"/>
       <c r="CN118" s="11"/>
       <c r="CO118" s="11"/>
@@ -19467,7 +19596,7 @@
       <c r="EU118" s="11"/>
       <c r="EV118" s="11"/>
     </row>
-    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -19544,10 +19673,10 @@
       <c r="BW119" s="12"/>
       <c r="BX119" s="12"/>
       <c r="BY119" s="12"/>
-      <c r="BZ119" s="12"/>
-      <c r="CA119" s="12"/>
-      <c r="CB119" s="12"/>
-      <c r="CC119" s="12"/>
+      <c r="BZ119" s="29"/>
+      <c r="CA119" s="29"/>
+      <c r="CB119" s="29"/>
+      <c r="CC119" s="29"/>
       <c r="CD119" s="29"/>
       <c r="CE119" s="29"/>
       <c r="CF119" s="29"/>
@@ -19556,7 +19685,7 @@
       <c r="CI119" s="29"/>
       <c r="CJ119" s="29"/>
       <c r="CK119" s="29"/>
-      <c r="CL119" s="11"/>
+      <c r="CL119" s="29"/>
       <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
@@ -19620,7 +19749,7 @@
       <c r="EU119" s="11"/>
       <c r="EV119" s="11"/>
     </row>
-    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>17</v>
       </c>
@@ -19852,43 +19981,45 @@
       <c r="BY120" s="21">
         <v>97.452388078708665</v>
       </c>
-      <c r="BZ120" s="21">
+      <c r="BZ120" s="33">
         <v>97.126796299417677</v>
       </c>
-      <c r="CA120" s="21">
+      <c r="CA120" s="33">
         <v>111.83282797830809</v>
       </c>
-      <c r="CB120" s="21">
+      <c r="CB120" s="33">
         <v>100.44691397994774</v>
       </c>
-      <c r="CC120" s="21">
+      <c r="CC120" s="33">
         <v>99.12018787930414</v>
       </c>
       <c r="CD120" s="33">
-        <v>97.964123059171001</v>
+        <v>97.929286871801125</v>
       </c>
       <c r="CE120" s="33">
-        <v>111.44760432274529</v>
+        <v>111.46372907560837</v>
       </c>
       <c r="CF120" s="33">
-        <v>99.824414742788463</v>
+        <v>99.707597427750486</v>
       </c>
       <c r="CG120" s="33">
-        <v>97.162560081921015</v>
+        <v>96.988127851654866</v>
       </c>
       <c r="CH120" s="33">
-        <v>91.07844675373147</v>
+        <v>91.256148247408291</v>
       </c>
       <c r="CI120" s="33">
-        <v>110.32712240966009</v>
+        <v>110.3774661601836</v>
       </c>
       <c r="CJ120" s="33">
-        <v>102.37647589327916</v>
+        <v>102.2464086359403</v>
       </c>
       <c r="CK120" s="33">
-        <v>101.35611354031838</v>
-      </c>
-      <c r="CL120" s="11"/>
+        <v>101.6749903189184</v>
+      </c>
+      <c r="CL120" s="33">
+        <v>96.552500220594908</v>
+      </c>
       <c r="CM120" s="11"/>
       <c r="CN120" s="11"/>
       <c r="CO120" s="11"/>
@@ -19952,7 +20083,7 @@
       <c r="EU120" s="11"/>
       <c r="EV120" s="11"/>
     </row>
-    <row r="121" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -20030,10 +20161,10 @@
       <c r="BW121" s="17"/>
       <c r="BX121" s="17"/>
       <c r="BY121" s="17"/>
-      <c r="BZ121" s="17"/>
-      <c r="CA121" s="17"/>
-      <c r="CB121" s="17"/>
-      <c r="CC121" s="17"/>
+      <c r="BZ121" s="31"/>
+      <c r="CA121" s="31"/>
+      <c r="CB121" s="31"/>
+      <c r="CC121" s="31"/>
       <c r="CD121" s="31"/>
       <c r="CE121" s="31"/>
       <c r="CF121" s="31"/>
@@ -20042,178 +20173,182 @@
       <c r="CI121" s="31"/>
       <c r="CJ121" s="31"/>
       <c r="CK121" s="31"/>
+      <c r="CL121" s="31"/>
     </row>
-    <row r="122" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="37">
+      <c r="B133" s="36">
         <v>2000</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37">
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36">
         <v>2001</v>
       </c>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37">
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36">
         <v>2002</v>
       </c>
-      <c r="K133" s="37"/>
-      <c r="L133" s="37"/>
-      <c r="M133" s="37"/>
-      <c r="N133" s="37">
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36">
         <v>2003</v>
       </c>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="37"/>
-      <c r="R133" s="37">
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+      <c r="R133" s="36">
         <v>2004</v>
       </c>
-      <c r="S133" s="37"/>
-      <c r="T133" s="37"/>
-      <c r="U133" s="37"/>
-      <c r="V133" s="37">
+      <c r="S133" s="36"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="36">
         <v>2005</v>
       </c>
-      <c r="W133" s="37"/>
-      <c r="X133" s="37"/>
-      <c r="Y133" s="37"/>
-      <c r="Z133" s="37">
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36">
         <v>2006</v>
       </c>
-      <c r="AA133" s="37"/>
-      <c r="AB133" s="37"/>
-      <c r="AC133" s="37"/>
-      <c r="AD133" s="37">
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36">
         <v>2007</v>
       </c>
-      <c r="AE133" s="37"/>
-      <c r="AF133" s="37"/>
-      <c r="AG133" s="37"/>
-      <c r="AH133" s="37">
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36">
         <v>2008</v>
       </c>
-      <c r="AI133" s="37"/>
-      <c r="AJ133" s="37"/>
-      <c r="AK133" s="37"/>
-      <c r="AL133" s="37">
+      <c r="AI133" s="36"/>
+      <c r="AJ133" s="36"/>
+      <c r="AK133" s="36"/>
+      <c r="AL133" s="36">
         <v>2009</v>
       </c>
-      <c r="AM133" s="37"/>
-      <c r="AN133" s="37"/>
-      <c r="AO133" s="37"/>
-      <c r="AP133" s="37">
+      <c r="AM133" s="36"/>
+      <c r="AN133" s="36"/>
+      <c r="AO133" s="36"/>
+      <c r="AP133" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="37"/>
-      <c r="AR133" s="37"/>
-      <c r="AS133" s="37"/>
-      <c r="AT133" s="37">
+      <c r="AQ133" s="36"/>
+      <c r="AR133" s="36"/>
+      <c r="AS133" s="36"/>
+      <c r="AT133" s="36">
         <v>2011</v>
       </c>
-      <c r="AU133" s="37"/>
-      <c r="AV133" s="37"/>
-      <c r="AW133" s="37"/>
-      <c r="AX133" s="37">
+      <c r="AU133" s="36"/>
+      <c r="AV133" s="36"/>
+      <c r="AW133" s="36"/>
+      <c r="AX133" s="36">
         <v>2012</v>
       </c>
-      <c r="AY133" s="37"/>
-      <c r="AZ133" s="37"/>
-      <c r="BA133" s="37"/>
-      <c r="BB133" s="37">
+      <c r="AY133" s="36"/>
+      <c r="AZ133" s="36"/>
+      <c r="BA133" s="36"/>
+      <c r="BB133" s="36">
         <v>2013</v>
       </c>
-      <c r="BC133" s="37"/>
-      <c r="BD133" s="37"/>
-      <c r="BE133" s="37"/>
-      <c r="BF133" s="37">
+      <c r="BC133" s="36"/>
+      <c r="BD133" s="36"/>
+      <c r="BE133" s="36"/>
+      <c r="BF133" s="36">
         <v>2014</v>
       </c>
-      <c r="BG133" s="37"/>
-      <c r="BH133" s="37"/>
-      <c r="BI133" s="37"/>
-      <c r="BJ133" s="37">
+      <c r="BG133" s="36"/>
+      <c r="BH133" s="36"/>
+      <c r="BI133" s="36"/>
+      <c r="BJ133" s="36">
         <v>2015</v>
       </c>
-      <c r="BK133" s="37"/>
-      <c r="BL133" s="37"/>
-      <c r="BM133" s="37"/>
-      <c r="BN133" s="37">
+      <c r="BK133" s="36"/>
+      <c r="BL133" s="36"/>
+      <c r="BM133" s="36"/>
+      <c r="BN133" s="36">
         <v>2016</v>
       </c>
-      <c r="BO133" s="37"/>
-      <c r="BP133" s="37"/>
-      <c r="BQ133" s="37"/>
-      <c r="BR133" s="37">
+      <c r="BO133" s="36"/>
+      <c r="BP133" s="36"/>
+      <c r="BQ133" s="36"/>
+      <c r="BR133" s="36">
         <v>2017</v>
       </c>
-      <c r="BS133" s="37"/>
-      <c r="BT133" s="37"/>
-      <c r="BU133" s="37"/>
+      <c r="BS133" s="36"/>
+      <c r="BT133" s="36"/>
+      <c r="BU133" s="36"/>
       <c r="BV133" s="39">
         <v>2018</v>
       </c>
       <c r="BW133" s="39"/>
       <c r="BX133" s="39"/>
       <c r="BY133" s="39"/>
-      <c r="BZ133" s="39">
+      <c r="BZ133" s="38">
         <v>2019</v>
       </c>
-      <c r="CA133" s="39"/>
-      <c r="CB133" s="39"/>
-      <c r="CC133" s="39"/>
-      <c r="CD133" s="36">
+      <c r="CA133" s="38"/>
+      <c r="CB133" s="38"/>
+      <c r="CC133" s="38"/>
+      <c r="CD133" s="40">
         <v>2020</v>
       </c>
-      <c r="CE133" s="36"/>
-      <c r="CF133" s="36"/>
-      <c r="CG133" s="36"/>
-      <c r="CH133" s="36">
+      <c r="CE133" s="40"/>
+      <c r="CF133" s="40"/>
+      <c r="CG133" s="40"/>
+      <c r="CH133" s="40">
         <v>2021</v>
       </c>
-      <c r="CI133" s="36"/>
-      <c r="CJ133" s="36"/>
-      <c r="CK133" s="36"/>
+      <c r="CI133" s="40"/>
+      <c r="CJ133" s="40"/>
+      <c r="CK133" s="40"/>
+      <c r="CL133" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="7" t="s">
         <v>7</v>
@@ -20443,16 +20578,16 @@
       <c r="BY134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ134" s="19" t="s">
+      <c r="BZ134" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA134" s="19" t="s">
+      <c r="CA134" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB134" s="19" t="s">
+      <c r="CB134" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC134" s="19" t="s">
+      <c r="CC134" s="32" t="s">
         <v>10</v>
       </c>
       <c r="CD134" s="32" t="s">
@@ -20479,11 +20614,14 @@
       <c r="CK134" s="32" t="s">
         <v>10</v>
       </c>
+      <c r="CL134" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="135" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
     </row>
-    <row r="136" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -20715,43 +20853,45 @@
       <c r="BY136" s="23">
         <v>20.196862015338645</v>
       </c>
-      <c r="BZ136" s="23">
+      <c r="BZ136" s="34">
         <v>16.357368330579259</v>
       </c>
-      <c r="CA136" s="23">
+      <c r="CA136" s="34">
         <v>18.455318521365147</v>
       </c>
-      <c r="CB136" s="23">
+      <c r="CB136" s="34">
         <v>18.489951755889102</v>
       </c>
-      <c r="CC136" s="23">
+      <c r="CC136" s="34">
         <v>13.833332242164692</v>
       </c>
       <c r="CD136" s="34">
-        <v>15.317250653030609</v>
+        <v>16.183405343766292</v>
       </c>
       <c r="CE136" s="34">
-        <v>14.102478437243674</v>
+        <v>14.427353201301617</v>
       </c>
       <c r="CF136" s="34">
-        <v>17.856968643594922</v>
+        <v>19.893465103128872</v>
       </c>
       <c r="CG136" s="34">
-        <v>19.431373862271684</v>
+        <v>20.405936859688858</v>
       </c>
       <c r="CH136" s="34">
-        <v>19.718777843356623</v>
+        <v>20.313989564836827</v>
       </c>
       <c r="CI136" s="34">
-        <v>22.118501188792859</v>
+        <v>22.065729553315787</v>
       </c>
       <c r="CJ136" s="34">
-        <v>25.043326795891911</v>
+        <v>27.09673908013902</v>
       </c>
       <c r="CK136" s="34">
-        <v>23.213866780715005</v>
-      </c>
-      <c r="CL136" s="11"/>
+        <v>24.346785647136116</v>
+      </c>
+      <c r="CL136" s="34">
+        <v>19.596797626237038</v>
+      </c>
       <c r="CM136" s="11"/>
       <c r="CN136" s="11"/>
       <c r="CO136" s="11"/>
@@ -20815,7 +20955,7 @@
       <c r="EU136" s="11"/>
       <c r="EV136" s="11"/>
     </row>
-    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -21047,43 +21187,45 @@
       <c r="BY137" s="23">
         <v>2.5598489688369401</v>
       </c>
-      <c r="BZ137" s="23">
+      <c r="BZ137" s="34">
         <v>5.0389837456173234</v>
       </c>
-      <c r="CA137" s="23">
+      <c r="CA137" s="34">
         <v>8.3353645965403267</v>
       </c>
-      <c r="CB137" s="23">
+      <c r="CB137" s="34">
         <v>5.326328465904397</v>
       </c>
-      <c r="CC137" s="23">
+      <c r="CC137" s="34">
         <v>2.3286602351846994</v>
       </c>
       <c r="CD137" s="34">
-        <v>4.0704393726138397</v>
+        <v>4.4137096829386406</v>
       </c>
       <c r="CE137" s="34">
-        <v>7.1720936316215651</v>
+        <v>7.4075922145227056</v>
       </c>
       <c r="CF137" s="34">
-        <v>6.2562402299822963</v>
+        <v>6.5623473458256978</v>
       </c>
       <c r="CG137" s="34">
-        <v>3.121639536813694</v>
+        <v>3.4194860022934259</v>
       </c>
       <c r="CH137" s="34">
-        <v>7.6614282384826291</v>
+        <v>7.9709890678970368</v>
       </c>
       <c r="CI137" s="34">
-        <v>11.690432975586551</v>
+        <v>11.956481344131291</v>
       </c>
       <c r="CJ137" s="34">
-        <v>7.5657941141487228</v>
+        <v>8.1217328634702532</v>
       </c>
       <c r="CK137" s="34">
-        <v>3.9189407806454977</v>
-      </c>
-      <c r="CL137" s="11"/>
+        <v>4.1957667399458929</v>
+      </c>
+      <c r="CL137" s="34">
+        <v>7.6212050484293972</v>
+      </c>
       <c r="CM137" s="11"/>
       <c r="CN137" s="11"/>
       <c r="CO137" s="11"/>
@@ -21147,7 +21289,7 @@
       <c r="EU137" s="11"/>
       <c r="EV137" s="11"/>
     </row>
-    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21379,43 +21521,45 @@
       <c r="BY138" s="23">
         <v>49.71388894920657</v>
       </c>
-      <c r="BZ138" s="23">
+      <c r="BZ138" s="34">
         <v>47.362950089341574</v>
       </c>
-      <c r="CA138" s="23">
+      <c r="CA138" s="34">
         <v>37.623027223999308</v>
       </c>
-      <c r="CB138" s="23">
+      <c r="CB138" s="34">
         <v>47.628582798793055</v>
       </c>
-      <c r="CC138" s="23">
+      <c r="CC138" s="34">
         <v>51.166467347758271</v>
       </c>
       <c r="CD138" s="34">
-        <v>44.485503685931825</v>
+        <v>44.149964368929254</v>
       </c>
       <c r="CE138" s="34">
-        <v>38.592118024980579</v>
+        <v>38.28150482855898</v>
       </c>
       <c r="CF138" s="34">
-        <v>40.655651687579869</v>
+        <v>40.261784607922237</v>
       </c>
       <c r="CG138" s="34">
-        <v>33.945885367092579</v>
+        <v>34.803067645584385</v>
       </c>
       <c r="CH138" s="34">
-        <v>22.244892948026536</v>
+        <v>22.811348224801563</v>
       </c>
       <c r="CI138" s="34">
-        <v>18.703778593815294</v>
+        <v>18.053460735816927</v>
       </c>
       <c r="CJ138" s="34">
-        <v>24.853301893943932</v>
+        <v>25.148614162622852</v>
       </c>
       <c r="CK138" s="34">
-        <v>31.252530722442291</v>
-      </c>
-      <c r="CL138" s="11"/>
+        <v>31.268923746672911</v>
+      </c>
+      <c r="CL138" s="34">
+        <v>28.754653724270419</v>
+      </c>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
@@ -21479,7 +21623,7 @@
       <c r="EU138" s="11"/>
       <c r="EV138" s="11"/>
     </row>
-    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -21711,43 +21855,45 @@
       <c r="BY139" s="23">
         <v>1.5977271792151213</v>
       </c>
-      <c r="BZ139" s="23">
+      <c r="BZ139" s="34">
         <v>1.8784024162640109</v>
       </c>
-      <c r="CA139" s="23">
+      <c r="CA139" s="34">
         <v>2.0013611112289977</v>
       </c>
-      <c r="CB139" s="23">
+      <c r="CB139" s="34">
         <v>1.9577424968548627</v>
       </c>
-      <c r="CC139" s="23">
+      <c r="CC139" s="34">
         <v>1.5105465860678073</v>
       </c>
       <c r="CD139" s="34">
-        <v>1.8675332939459801</v>
+        <v>1.3673766496886397</v>
       </c>
       <c r="CE139" s="34">
-        <v>3.0702509502842843</v>
+        <v>2.0579091012414077</v>
       </c>
       <c r="CF139" s="34">
-        <v>2.9267568772454511</v>
+        <v>1.9568988678819621</v>
       </c>
       <c r="CG139" s="34">
-        <v>2.8371546608257558</v>
+        <v>1.9634948696709589</v>
       </c>
       <c r="CH139" s="34">
-        <v>2.4232327346703495</v>
+        <v>2.2087339442712222</v>
       </c>
       <c r="CI139" s="34">
-        <v>2.2883497223108868</v>
+        <v>2.0547311483249668</v>
       </c>
       <c r="CJ139" s="34">
-        <v>2.1638753621439224</v>
+        <v>2.0403698047416321</v>
       </c>
       <c r="CK139" s="34">
-        <v>1.8851687994691877</v>
-      </c>
-      <c r="CL139" s="11"/>
+        <v>1.6865260838895644</v>
+      </c>
+      <c r="CL139" s="34">
+        <v>1.5934599961503013</v>
+      </c>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
@@ -21811,7 +21957,7 @@
       <c r="EU139" s="11"/>
       <c r="EV139" s="11"/>
     </row>
-    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -22043,43 +22189,45 @@
       <c r="BY140" s="23">
         <v>2.961497908523326</v>
       </c>
-      <c r="BZ140" s="23">
+      <c r="BZ140" s="34">
         <v>4.2014874155171169</v>
       </c>
-      <c r="CA140" s="23">
+      <c r="CA140" s="34">
         <v>3.9998361642129407</v>
       </c>
-      <c r="CB140" s="23">
+      <c r="CB140" s="34">
         <v>3.6618832060806366</v>
       </c>
-      <c r="CC140" s="23">
+      <c r="CC140" s="34">
         <v>3.4290582800977258</v>
       </c>
       <c r="CD140" s="34">
-        <v>5.1939564954279271</v>
+        <v>4.8971010530079511</v>
       </c>
       <c r="CE140" s="34">
-        <v>8.4562538141018511</v>
+        <v>8.3852017017441192</v>
       </c>
       <c r="CF140" s="34">
-        <v>6.8363451269268447</v>
+        <v>5.863191630906341</v>
       </c>
       <c r="CG140" s="34">
-        <v>6.7838740319400488</v>
+        <v>7.633489222297615</v>
       </c>
       <c r="CH140" s="34">
-        <v>10.583255941366316</v>
+        <v>11.520550168929555</v>
       </c>
       <c r="CI140" s="34">
-        <v>14.201693435025314</v>
+        <v>13.865944009248174</v>
       </c>
       <c r="CJ140" s="34">
-        <v>11.463078541157373</v>
+        <v>8.5907279583469407</v>
       </c>
       <c r="CK140" s="34">
-        <v>8.1545381563406689</v>
-      </c>
-      <c r="CL140" s="11"/>
+        <v>8.0091091122650262</v>
+      </c>
+      <c r="CL140" s="34">
+        <v>8.7623480401353984</v>
+      </c>
       <c r="CM140" s="11"/>
       <c r="CN140" s="11"/>
       <c r="CO140" s="11"/>
@@ -22143,7 +22291,7 @@
       <c r="EU140" s="11"/>
       <c r="EV140" s="11"/>
     </row>
-    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22375,43 +22523,45 @@
       <c r="BY141" s="23">
         <v>16.484628395402751</v>
       </c>
-      <c r="BZ141" s="23">
+      <c r="BZ141" s="34">
         <v>17.463250298835113</v>
       </c>
-      <c r="CA141" s="23">
+      <c r="CA141" s="34">
         <v>21.723379718085475</v>
       </c>
-      <c r="CB141" s="23">
+      <c r="CB141" s="34">
         <v>16.87202031353528</v>
       </c>
-      <c r="CC141" s="23">
+      <c r="CC141" s="34">
         <v>18.640170529999672</v>
       </c>
       <c r="CD141" s="34">
-        <v>22.324885386073433</v>
+        <v>22.396265047601059</v>
       </c>
       <c r="CE141" s="34">
-        <v>22.409731281424687</v>
+        <v>22.153644576095875</v>
       </c>
       <c r="CF141" s="34">
-        <v>20.530176161308493</v>
+        <v>20.755167058625528</v>
       </c>
       <c r="CG141" s="34">
-        <v>24.595136141347858</v>
+        <v>23.184214571644929</v>
       </c>
       <c r="CH141" s="34">
-        <v>28.959425169367943</v>
+        <v>29.060159423570159</v>
       </c>
       <c r="CI141" s="34">
-        <v>25.132432352783596</v>
+        <v>25.755568665981439</v>
       </c>
       <c r="CJ141" s="34">
-        <v>23.268311112944193</v>
+        <v>23.359483097636108</v>
       </c>
       <c r="CK141" s="34">
-        <v>22.76831242405828</v>
-      </c>
-      <c r="CL141" s="11"/>
+        <v>22.415787460854201</v>
+      </c>
+      <c r="CL141" s="34">
+        <v>28.036389360984437</v>
+      </c>
       <c r="CM141" s="11"/>
       <c r="CN141" s="11"/>
       <c r="CO141" s="11"/>
@@ -22475,7 +22625,7 @@
       <c r="EU141" s="11"/>
       <c r="EV141" s="11"/>
     </row>
-    <row r="142" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -22707,43 +22857,45 @@
       <c r="BY142" s="23">
         <v>2.7548879057508682</v>
       </c>
-      <c r="BZ142" s="23">
+      <c r="BZ142" s="34">
         <v>3.8080616434428829</v>
       </c>
-      <c r="CA142" s="23">
+      <c r="CA142" s="34">
         <v>3.2485239758087161</v>
       </c>
-      <c r="CB142" s="23">
+      <c r="CB142" s="34">
         <v>2.9520492496849311</v>
       </c>
-      <c r="CC142" s="23">
+      <c r="CC142" s="34">
         <v>3.0128671664879549</v>
       </c>
       <c r="CD142" s="34">
-        <v>3.8165974162923861</v>
+        <v>3.4596396911623279</v>
       </c>
       <c r="CE142" s="34">
-        <v>2.7472601715992839</v>
+        <v>2.7251485253105301</v>
       </c>
       <c r="CF142" s="34">
-        <v>2.0669607580438667</v>
+        <v>2.0465659279143935</v>
       </c>
       <c r="CG142" s="34">
-        <v>3.7848463819732872</v>
+        <v>3.0675193941124248</v>
       </c>
       <c r="CH142" s="34">
-        <v>4.5080226940373072</v>
+        <v>2.7742364042739931</v>
       </c>
       <c r="CI142" s="34">
-        <v>3.1379794142273232</v>
+        <v>3.4988807063006195</v>
       </c>
       <c r="CJ142" s="34">
-        <v>3.1662997073696646</v>
+        <v>3.0658782369445947</v>
       </c>
       <c r="CK142" s="34">
-        <v>4.1029276772608974</v>
-      </c>
-      <c r="CL142" s="11"/>
+        <v>3.2481312051729128</v>
+      </c>
+      <c r="CL142" s="34">
+        <v>2.6870377642968233</v>
+      </c>
       <c r="CM142" s="11"/>
       <c r="CN142" s="11"/>
       <c r="CO142" s="11"/>
@@ -22807,7 +22959,7 @@
       <c r="EU142" s="11"/>
       <c r="EV142" s="11"/>
     </row>
-    <row r="143" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -23039,43 +23191,45 @@
       <c r="BY143" s="23">
         <v>3.7306586777257782</v>
       </c>
-      <c r="BZ143" s="23">
+      <c r="BZ143" s="34">
         <v>3.8894960604027045</v>
       </c>
-      <c r="CA143" s="23">
+      <c r="CA143" s="34">
         <v>4.6131886887590872</v>
       </c>
-      <c r="CB143" s="23">
+      <c r="CB143" s="34">
         <v>3.1114417132577254</v>
       </c>
-      <c r="CC143" s="23">
+      <c r="CC143" s="34">
         <v>6.0788976122391727</v>
       </c>
       <c r="CD143" s="34">
-        <v>2.9238336966839951</v>
+        <v>3.1325381629058366</v>
       </c>
       <c r="CE143" s="34">
-        <v>3.4498136887440807</v>
+        <v>4.5616458512247871</v>
       </c>
       <c r="CF143" s="34">
-        <v>2.870900515318251</v>
+        <v>2.6605794577949564</v>
       </c>
       <c r="CG143" s="34">
-        <v>5.5000900177350962</v>
+        <v>5.5227914347074103</v>
       </c>
       <c r="CH143" s="34">
-        <v>3.9009644306923024</v>
+        <v>3.339993201419647</v>
       </c>
       <c r="CI143" s="34">
-        <v>2.7268323174581885</v>
+        <v>2.7492038368807843</v>
       </c>
       <c r="CJ143" s="34">
-        <v>2.4760124724002788</v>
+        <v>2.5764547960985955</v>
       </c>
       <c r="CK143" s="34">
-        <v>4.7037146590681616</v>
-      </c>
-      <c r="CL143" s="11"/>
+        <v>4.8289700040633745</v>
+      </c>
+      <c r="CL143" s="34">
+        <v>2.9481084394961945</v>
+      </c>
       <c r="CM143" s="11"/>
       <c r="CN143" s="11"/>
       <c r="CO143" s="11"/>
@@ -23139,7 +23293,7 @@
       <c r="EU143" s="11"/>
       <c r="EV143" s="11"/>
     </row>
-    <row r="144" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -23216,10 +23370,10 @@
       <c r="BW144" s="12"/>
       <c r="BX144" s="12"/>
       <c r="BY144" s="12"/>
-      <c r="BZ144" s="12"/>
-      <c r="CA144" s="12"/>
-      <c r="CB144" s="12"/>
-      <c r="CC144" s="12"/>
+      <c r="BZ144" s="29"/>
+      <c r="CA144" s="29"/>
+      <c r="CB144" s="29"/>
+      <c r="CC144" s="29"/>
       <c r="CD144" s="29"/>
       <c r="CE144" s="29"/>
       <c r="CF144" s="29"/>
@@ -23228,7 +23382,7 @@
       <c r="CI144" s="29"/>
       <c r="CJ144" s="29"/>
       <c r="CK144" s="29"/>
-      <c r="CL144" s="11"/>
+      <c r="CL144" s="29"/>
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
@@ -23292,7 +23446,7 @@
       <c r="EU144" s="11"/>
       <c r="EV144" s="11"/>
     </row>
-    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>17</v>
       </c>
@@ -23524,16 +23678,16 @@
       <c r="BY145" s="21">
         <v>100</v>
       </c>
-      <c r="BZ145" s="21">
+      <c r="BZ145" s="33">
         <v>100</v>
       </c>
-      <c r="CA145" s="21">
+      <c r="CA145" s="33">
         <v>100</v>
       </c>
-      <c r="CB145" s="21">
+      <c r="CB145" s="33">
         <v>100</v>
       </c>
-      <c r="CC145" s="21">
+      <c r="CC145" s="33">
         <v>100</v>
       </c>
       <c r="CD145" s="33">
@@ -23560,7 +23714,9 @@
       <c r="CK145" s="33">
         <v>100</v>
       </c>
-      <c r="CL145" s="11"/>
+      <c r="CL145" s="33">
+        <v>100</v>
+      </c>
       <c r="CM145" s="11"/>
       <c r="CN145" s="11"/>
       <c r="CO145" s="11"/>
@@ -23624,7 +23780,7 @@
       <c r="EU145" s="11"/>
       <c r="EV145" s="11"/>
     </row>
-    <row r="146" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -23702,10 +23858,10 @@
       <c r="BW146" s="17"/>
       <c r="BX146" s="17"/>
       <c r="BY146" s="17"/>
-      <c r="BZ146" s="17"/>
-      <c r="CA146" s="17"/>
-      <c r="CB146" s="17"/>
-      <c r="CC146" s="17"/>
+      <c r="BZ146" s="31"/>
+      <c r="CA146" s="31"/>
+      <c r="CB146" s="31"/>
+      <c r="CC146" s="31"/>
       <c r="CD146" s="31"/>
       <c r="CE146" s="31"/>
       <c r="CF146" s="31"/>
@@ -23714,13 +23870,14 @@
       <c r="CI146" s="31"/>
       <c r="CJ146" s="31"/>
       <c r="CK146" s="31"/>
+      <c r="CL146" s="31"/>
     </row>
-    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -23797,10 +23954,10 @@
       <c r="BW148" s="12"/>
       <c r="BX148" s="12"/>
       <c r="BY148" s="12"/>
-      <c r="BZ148" s="12"/>
-      <c r="CA148" s="12"/>
-      <c r="CB148" s="12"/>
-      <c r="CC148" s="12"/>
+      <c r="BZ148" s="29"/>
+      <c r="CA148" s="29"/>
+      <c r="CB148" s="29"/>
+      <c r="CC148" s="29"/>
       <c r="CD148" s="29"/>
       <c r="CE148" s="29"/>
       <c r="CF148" s="29"/>
@@ -23809,7 +23966,7 @@
       <c r="CI148" s="29"/>
       <c r="CJ148" s="29"/>
       <c r="CK148" s="29"/>
-      <c r="CL148" s="11"/>
+      <c r="CL148" s="29"/>
       <c r="CM148" s="11"/>
       <c r="CN148" s="11"/>
       <c r="CO148" s="11"/>
@@ -23873,7 +24030,7 @@
       <c r="EU148" s="11"/>
       <c r="EV148" s="11"/>
     </row>
-    <row r="149" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -23950,10 +24107,10 @@
       <c r="BW149" s="12"/>
       <c r="BX149" s="12"/>
       <c r="BY149" s="12"/>
-      <c r="BZ149" s="12"/>
-      <c r="CA149" s="12"/>
-      <c r="CB149" s="12"/>
-      <c r="CC149" s="12"/>
+      <c r="BZ149" s="29"/>
+      <c r="CA149" s="29"/>
+      <c r="CB149" s="29"/>
+      <c r="CC149" s="29"/>
       <c r="CD149" s="29"/>
       <c r="CE149" s="29"/>
       <c r="CF149" s="29"/>
@@ -23962,7 +24119,7 @@
       <c r="CI149" s="29"/>
       <c r="CJ149" s="29"/>
       <c r="CK149" s="29"/>
-      <c r="CL149" s="11"/>
+      <c r="CL149" s="29"/>
       <c r="CM149" s="11"/>
       <c r="CN149" s="11"/>
       <c r="CO149" s="11"/>
@@ -24026,172 +24183,175 @@
       <c r="EU149" s="11"/>
       <c r="EV149" s="11"/>
     </row>
-    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="37">
+      <c r="B158" s="36">
         <v>2000</v>
       </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37">
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36">
         <v>2001</v>
       </c>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37">
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36">
         <v>2002</v>
       </c>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
-      <c r="M158" s="37"/>
-      <c r="N158" s="37">
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36">
         <v>2003</v>
       </c>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37">
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36">
         <v>2004</v>
       </c>
-      <c r="S158" s="37"/>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="37">
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36">
         <v>2005</v>
       </c>
-      <c r="W158" s="37"/>
-      <c r="X158" s="37"/>
-      <c r="Y158" s="37"/>
-      <c r="Z158" s="37">
+      <c r="W158" s="36"/>
+      <c r="X158" s="36"/>
+      <c r="Y158" s="36"/>
+      <c r="Z158" s="36">
         <v>2006</v>
       </c>
-      <c r="AA158" s="37"/>
-      <c r="AB158" s="37"/>
-      <c r="AC158" s="37"/>
-      <c r="AD158" s="37">
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36">
         <v>2007</v>
       </c>
-      <c r="AE158" s="37"/>
-      <c r="AF158" s="37"/>
-      <c r="AG158" s="37"/>
-      <c r="AH158" s="37">
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="36"/>
+      <c r="AG158" s="36"/>
+      <c r="AH158" s="36">
         <v>2008</v>
       </c>
-      <c r="AI158" s="37"/>
-      <c r="AJ158" s="37"/>
-      <c r="AK158" s="37"/>
-      <c r="AL158" s="37">
+      <c r="AI158" s="36"/>
+      <c r="AJ158" s="36"/>
+      <c r="AK158" s="36"/>
+      <c r="AL158" s="36">
         <v>2009</v>
       </c>
-      <c r="AM158" s="37"/>
-      <c r="AN158" s="37"/>
-      <c r="AO158" s="37"/>
-      <c r="AP158" s="37">
+      <c r="AM158" s="36"/>
+      <c r="AN158" s="36"/>
+      <c r="AO158" s="36"/>
+      <c r="AP158" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="37"/>
-      <c r="AR158" s="37"/>
-      <c r="AS158" s="37"/>
-      <c r="AT158" s="37">
+      <c r="AQ158" s="36"/>
+      <c r="AR158" s="36"/>
+      <c r="AS158" s="36"/>
+      <c r="AT158" s="36">
         <v>2011</v>
       </c>
-      <c r="AU158" s="37"/>
-      <c r="AV158" s="37"/>
-      <c r="AW158" s="37"/>
-      <c r="AX158" s="37">
+      <c r="AU158" s="36"/>
+      <c r="AV158" s="36"/>
+      <c r="AW158" s="36"/>
+      <c r="AX158" s="36">
         <v>2012</v>
       </c>
-      <c r="AY158" s="37"/>
-      <c r="AZ158" s="37"/>
-      <c r="BA158" s="37"/>
-      <c r="BB158" s="37">
+      <c r="AY158" s="36"/>
+      <c r="AZ158" s="36"/>
+      <c r="BA158" s="36"/>
+      <c r="BB158" s="36">
         <v>2013</v>
       </c>
-      <c r="BC158" s="37"/>
-      <c r="BD158" s="37"/>
-      <c r="BE158" s="37"/>
-      <c r="BF158" s="37">
+      <c r="BC158" s="36"/>
+      <c r="BD158" s="36"/>
+      <c r="BE158" s="36"/>
+      <c r="BF158" s="36">
         <v>2014</v>
       </c>
-      <c r="BG158" s="37"/>
-      <c r="BH158" s="37"/>
-      <c r="BI158" s="37"/>
-      <c r="BJ158" s="37">
+      <c r="BG158" s="36"/>
+      <c r="BH158" s="36"/>
+      <c r="BI158" s="36"/>
+      <c r="BJ158" s="36">
         <v>2015</v>
       </c>
-      <c r="BK158" s="37"/>
-      <c r="BL158" s="37"/>
-      <c r="BM158" s="37"/>
-      <c r="BN158" s="37">
+      <c r="BK158" s="36"/>
+      <c r="BL158" s="36"/>
+      <c r="BM158" s="36"/>
+      <c r="BN158" s="36">
         <v>2016</v>
       </c>
-      <c r="BO158" s="37"/>
-      <c r="BP158" s="37"/>
-      <c r="BQ158" s="37"/>
-      <c r="BR158" s="37">
+      <c r="BO158" s="36"/>
+      <c r="BP158" s="36"/>
+      <c r="BQ158" s="36"/>
+      <c r="BR158" s="36">
         <v>2017</v>
       </c>
-      <c r="BS158" s="37"/>
-      <c r="BT158" s="37"/>
-      <c r="BU158" s="37"/>
+      <c r="BS158" s="36"/>
+      <c r="BT158" s="36"/>
+      <c r="BU158" s="36"/>
       <c r="BV158" s="39">
         <v>2018</v>
       </c>
       <c r="BW158" s="39"/>
       <c r="BX158" s="39"/>
       <c r="BY158" s="39"/>
-      <c r="BZ158" s="39">
+      <c r="BZ158" s="38">
         <v>2019</v>
       </c>
-      <c r="CA158" s="39"/>
-      <c r="CB158" s="39"/>
-      <c r="CC158" s="39"/>
-      <c r="CD158" s="36">
+      <c r="CA158" s="38"/>
+      <c r="CB158" s="38"/>
+      <c r="CC158" s="38"/>
+      <c r="CD158" s="40">
         <v>2020</v>
       </c>
-      <c r="CE158" s="36"/>
-      <c r="CF158" s="36"/>
-      <c r="CG158" s="36"/>
-      <c r="CH158" s="36">
+      <c r="CE158" s="40"/>
+      <c r="CF158" s="40"/>
+      <c r="CG158" s="40"/>
+      <c r="CH158" s="40">
         <v>2021</v>
       </c>
-      <c r="CI158" s="36"/>
-      <c r="CJ158" s="36"/>
-      <c r="CK158" s="36"/>
+      <c r="CI158" s="40"/>
+      <c r="CJ158" s="40"/>
+      <c r="CK158" s="40"/>
+      <c r="CL158" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="7" t="s">
         <v>7</v>
@@ -24421,16 +24581,16 @@
       <c r="BY159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ159" s="19" t="s">
+      <c r="BZ159" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CA159" s="19" t="s">
+      <c r="CA159" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CB159" s="19" t="s">
+      <c r="CB159" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CC159" s="19" t="s">
+      <c r="CC159" s="32" t="s">
         <v>10</v>
       </c>
       <c r="CD159" s="32" t="s">
@@ -24457,11 +24617,14 @@
       <c r="CK159" s="32" t="s">
         <v>10</v>
       </c>
+      <c r="CL159" s="32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="160" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
     </row>
-    <row r="161" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24693,43 +24856,45 @@
       <c r="BY161" s="23">
         <v>19.898831979572595</v>
       </c>
-      <c r="BZ161" s="23">
+      <c r="BZ161" s="34">
         <v>16.705460068725923</v>
       </c>
-      <c r="CA161" s="23">
+      <c r="CA161" s="34">
         <v>19.283615856710426</v>
       </c>
-      <c r="CB161" s="23">
+      <c r="CB161" s="34">
         <v>18.164145673250314</v>
       </c>
-      <c r="CC161" s="23">
+      <c r="CC161" s="34">
         <v>13.646805298871332</v>
       </c>
       <c r="CD161" s="34">
-        <v>15.383406059653176</v>
+        <v>16.247521985696487</v>
       </c>
       <c r="CE161" s="34">
-        <v>15.432639474970644</v>
+        <v>15.790441081843406</v>
       </c>
       <c r="CF161" s="34">
-        <v>18.107623683975628</v>
+        <v>20.149099412692205</v>
       </c>
       <c r="CG161" s="34">
-        <v>19.91103288812165</v>
+        <v>20.872114450196733</v>
       </c>
       <c r="CH161" s="34">
-        <v>18.748234983168601</v>
+        <v>19.351834335018651</v>
       </c>
       <c r="CI161" s="34">
-        <v>23.016574384726333</v>
+        <v>22.972137787276484</v>
       </c>
       <c r="CJ161" s="34">
-        <v>24.655241725193523</v>
+        <v>26.64294083007227</v>
       </c>
       <c r="CK161" s="34">
-        <v>23.012625226243539</v>
-      </c>
-      <c r="CL161" s="11"/>
+        <v>23.927220243755855</v>
+      </c>
+      <c r="CL161" s="34">
+        <v>18.672374540137771</v>
+      </c>
       <c r="CM161" s="11"/>
       <c r="CN161" s="11"/>
       <c r="CO161" s="11"/>
@@ -24793,7 +24958,7 @@
       <c r="EU161" s="11"/>
       <c r="EV161" s="11"/>
     </row>
-    <row r="162" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -25025,43 +25190,45 @@
       <c r="BY162" s="23">
         <v>2.3920929112642519</v>
       </c>
-      <c r="BZ162" s="23">
+      <c r="BZ162" s="34">
         <v>6.1994415990250333</v>
       </c>
-      <c r="CA162" s="23">
+      <c r="CA162" s="34">
         <v>7.7387224595919344</v>
       </c>
-      <c r="CB162" s="23">
+      <c r="CB162" s="34">
         <v>4.8649971956809743</v>
       </c>
-      <c r="CC162" s="23">
+      <c r="CC162" s="34">
         <v>2.1375357534085211</v>
       </c>
       <c r="CD162" s="34">
-        <v>4.9916184675582285</v>
+        <v>5.4106493904424937</v>
       </c>
       <c r="CE162" s="34">
-        <v>6.6490078385417704</v>
+        <v>6.8683242858019842</v>
       </c>
       <c r="CF162" s="34">
-        <v>5.7754177914874525</v>
+        <v>6.0509098496519931</v>
       </c>
       <c r="CG162" s="34">
-        <v>2.9277682629082933</v>
+        <v>3.2013591828894432</v>
       </c>
       <c r="CH162" s="34">
-        <v>8.8248809073132737</v>
+        <v>9.1993649282021845</v>
       </c>
       <c r="CI162" s="34">
-        <v>11.003875795774629</v>
+        <v>11.259435131507486</v>
       </c>
       <c r="CJ162" s="34">
-        <v>7.2052158452294544</v>
+        <v>7.7248323741754197</v>
       </c>
       <c r="CK162" s="34">
-        <v>3.7097557570536157</v>
-      </c>
-      <c r="CL162" s="11"/>
+        <v>3.9810195459415101</v>
+      </c>
+      <c r="CL162" s="34">
+        <v>8.9852526900105207</v>
+      </c>
       <c r="CM162" s="11"/>
       <c r="CN162" s="11"/>
       <c r="CO162" s="11"/>
@@ -25125,7 +25292,7 @@
       <c r="EU162" s="11"/>
       <c r="EV162" s="11"/>
     </row>
-    <row r="163" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25357,43 +25524,45 @@
       <c r="BY163" s="23">
         <v>52.043258787226343</v>
       </c>
-      <c r="BZ163" s="23">
+      <c r="BZ163" s="34">
         <v>41.093413354568789</v>
       </c>
-      <c r="CA163" s="23">
+      <c r="CA163" s="34">
         <v>38.344517308974574</v>
       </c>
-      <c r="CB163" s="23">
+      <c r="CB163" s="34">
         <v>50.803312384993085</v>
       </c>
-      <c r="CC163" s="23">
+      <c r="CC163" s="34">
         <v>54.230854561444843</v>
       </c>
       <c r="CD163" s="34">
-        <v>38.093180244608703</v>
+        <v>37.792412272820314</v>
       </c>
       <c r="CE163" s="34">
-        <v>38.923273671523802</v>
+        <v>38.615581401953094</v>
       </c>
       <c r="CF163" s="34">
-        <v>43.46802562588492</v>
+        <v>42.99653790661209</v>
       </c>
       <c r="CG163" s="34">
-        <v>36.344611637373539</v>
+        <v>37.195469493628963</v>
       </c>
       <c r="CH163" s="34">
-        <v>18.076335397362783</v>
+        <v>18.572806903324061</v>
       </c>
       <c r="CI163" s="34">
-        <v>19.204311367288422</v>
+        <v>18.545048815496372</v>
       </c>
       <c r="CJ163" s="34">
-        <v>27.532211475889451</v>
+        <v>27.823960371949685</v>
       </c>
       <c r="CK163" s="34">
-        <v>33.901405091221918</v>
-      </c>
-      <c r="CL163" s="11"/>
+        <v>33.969877337622165</v>
+      </c>
+      <c r="CL163" s="34">
+        <v>23.65502855364598</v>
+      </c>
       <c r="CM163" s="11"/>
       <c r="CN163" s="11"/>
       <c r="CO163" s="11"/>
@@ -25457,7 +25626,7 @@
       <c r="EU163" s="11"/>
       <c r="EV163" s="11"/>
     </row>
-    <row r="164" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -25689,43 +25858,45 @@
       <c r="BY164" s="23">
         <v>1.5170278204548449</v>
       </c>
-      <c r="BZ164" s="23">
+      <c r="BZ164" s="34">
         <v>2.0556405303582208</v>
       </c>
-      <c r="CA164" s="23">
+      <c r="CA164" s="34">
         <v>1.9945829790898035</v>
       </c>
-      <c r="CB164" s="23">
+      <c r="CB164" s="34">
         <v>1.8258634082259302</v>
       </c>
-      <c r="CC164" s="23">
+      <c r="CC164" s="34">
         <v>1.4140957795229996</v>
       </c>
       <c r="CD164" s="34">
-        <v>2.0371235215986183</v>
+        <v>1.4910173819555634</v>
       </c>
       <c r="CE164" s="34">
-        <v>3.0553906851212993</v>
+        <v>2.0482449598917625</v>
       </c>
       <c r="CF164" s="34">
-        <v>2.7587649846283293</v>
+        <v>1.8424169416295297</v>
       </c>
       <c r="CG164" s="34">
-        <v>2.7137785094101901</v>
+        <v>1.8747388781237373</v>
       </c>
       <c r="CH164" s="34">
-        <v>2.4828081384255376</v>
+        <v>2.2674512431291332</v>
       </c>
       <c r="CI164" s="34">
-        <v>2.3121684037480037</v>
+        <v>2.0770655313348798</v>
       </c>
       <c r="CJ164" s="34">
-        <v>2.104179506475627</v>
+        <v>1.981560420172384</v>
       </c>
       <c r="CK164" s="34">
-        <v>1.8199703040447095</v>
-      </c>
-      <c r="CL164" s="11"/>
+        <v>1.6319749119979126</v>
+      </c>
+      <c r="CL164" s="34">
+        <v>1.6710780384429642</v>
+      </c>
       <c r="CM164" s="11"/>
       <c r="CN164" s="11"/>
       <c r="CO164" s="11"/>
@@ -25789,7 +25960,7 @@
       <c r="EU164" s="11"/>
       <c r="EV164" s="11"/>
     </row>
-    <row r="165" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -26021,43 +26192,45 @@
       <c r="BY165" s="23">
         <v>2.7167329420027184</v>
       </c>
-      <c r="BZ165" s="23">
+      <c r="BZ165" s="34">
         <v>4.789758929430187</v>
       </c>
-      <c r="CA165" s="23">
+      <c r="CA165" s="34">
         <v>3.8478254511059489</v>
       </c>
-      <c r="CB165" s="23">
+      <c r="CB165" s="34">
         <v>3.3245824840224363</v>
       </c>
-      <c r="CC165" s="23">
+      <c r="CC165" s="34">
         <v>3.123554392171747</v>
       </c>
       <c r="CD165" s="34">
-        <v>5.9020022800737726</v>
+        <v>5.5627003735040477</v>
       </c>
       <c r="CE165" s="34">
-        <v>8.1230175937733051</v>
+        <v>8.0559308378434036</v>
       </c>
       <c r="CF165" s="34">
-        <v>6.2729517069906233</v>
+        <v>5.3737014222452153</v>
       </c>
       <c r="CG165" s="34">
-        <v>6.3139140713654882</v>
+        <v>7.0919165370406283</v>
       </c>
       <c r="CH165" s="34">
-        <v>11.295862239018659</v>
+        <v>12.320258669632578</v>
       </c>
       <c r="CI165" s="34">
-        <v>13.851082201661107</v>
+        <v>13.529792764170939</v>
       </c>
       <c r="CJ165" s="34">
-        <v>10.851048869811827</v>
+        <v>8.1217254555073968</v>
       </c>
       <c r="CK165" s="34">
-        <v>7.6602497930010216</v>
-      </c>
-      <c r="CL165" s="11"/>
+        <v>7.5410901087060482</v>
+      </c>
+      <c r="CL165" s="34">
+        <v>9.5725605261647839</v>
+      </c>
       <c r="CM165" s="11"/>
       <c r="CN165" s="11"/>
       <c r="CO165" s="11"/>
@@ -26121,7 +26294,7 @@
       <c r="EU165" s="11"/>
       <c r="EV165" s="11"/>
     </row>
-    <row r="166" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26353,43 +26526,45 @@
       <c r="BY166" s="23">
         <v>15.401563360925</v>
       </c>
-      <c r="BZ166" s="23">
+      <c r="BZ166" s="34">
         <v>20.298360917101167</v>
       </c>
-      <c r="CA166" s="23">
+      <c r="CA166" s="34">
         <v>21.220897482583275</v>
       </c>
-      <c r="CB166" s="23">
+      <c r="CB166" s="34">
         <v>15.529915397923974</v>
       </c>
-      <c r="CC166" s="23">
+      <c r="CC166" s="34">
         <v>17.197250532000911</v>
       </c>
       <c r="CD166" s="34">
-        <v>25.86518601373189</v>
+        <v>25.938658020486965</v>
       </c>
       <c r="CE166" s="34">
-        <v>21.859449791636504</v>
+        <v>21.612777999710193</v>
       </c>
       <c r="CF166" s="34">
-        <v>19.098973089167693</v>
+        <v>19.285684296246377</v>
       </c>
       <c r="CG166" s="34">
-        <v>23.184890728729361</v>
+        <v>21.8156339135877</v>
       </c>
       <c r="CH166" s="34">
-        <v>31.514856072880498</v>
+        <v>31.686181239714088</v>
       </c>
       <c r="CI166" s="34">
-        <v>24.89093948435298</v>
+        <v>25.519727880488535</v>
       </c>
       <c r="CJ166" s="34">
-        <v>22.330820968012414</v>
+        <v>22.389837569707765</v>
       </c>
       <c r="CK166" s="34">
-        <v>21.662537879598496</v>
-      </c>
-      <c r="CL166" s="11"/>
+        <v>21.37661081359651</v>
+      </c>
+      <c r="CL166" s="34">
+        <v>31.228779211328217</v>
+      </c>
       <c r="CM166" s="11"/>
       <c r="CN166" s="11"/>
       <c r="CO166" s="11"/>
@@ -26453,7 +26628,7 @@
       <c r="EU166" s="11"/>
       <c r="EV166" s="11"/>
     </row>
-    <row r="167" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>18</v>
       </c>
@@ -26685,43 +26860,45 @@
       <c r="BY167" s="23">
         <v>2.5501310422470382</v>
       </c>
-      <c r="BZ167" s="23">
+      <c r="BZ167" s="34">
         <v>4.3664911297906253</v>
       </c>
-      <c r="CA167" s="23">
+      <c r="CA167" s="34">
         <v>3.1168822333521384</v>
       </c>
-      <c r="CB167" s="23">
+      <c r="CB167" s="34">
         <v>2.6627462016689525</v>
       </c>
-      <c r="CC167" s="23">
+      <c r="CC167" s="34">
         <v>2.7214318787950185</v>
       </c>
       <c r="CD167" s="34">
-        <v>4.3620982263456352</v>
+        <v>3.9527149527942349</v>
       </c>
       <c r="CE167" s="34">
-        <v>2.6320875496275042</v>
+        <v>2.6112806411776068</v>
       </c>
       <c r="CF167" s="34">
-        <v>1.8843160501597314</v>
+        <v>1.8635400651455234</v>
       </c>
       <c r="CG167" s="34">
-        <v>3.4931113184617044</v>
+        <v>2.8259932030466497</v>
       </c>
       <c r="CH167" s="34">
-        <v>4.8395413560122336</v>
+        <v>2.9840637477345791</v>
       </c>
       <c r="CI167" s="34">
-        <v>3.0524940084409047</v>
+        <v>3.40511665374409</v>
       </c>
       <c r="CJ167" s="34">
-        <v>2.977803414212854</v>
+        <v>2.8796969878746288</v>
       </c>
       <c r="CK167" s="34">
-        <v>3.8219121563351255</v>
-      </c>
-      <c r="CL167" s="11"/>
+        <v>3.0326812095859323</v>
+      </c>
+      <c r="CL167" s="34">
+        <v>2.9525646476531517</v>
+      </c>
       <c r="CM167" s="11"/>
       <c r="CN167" s="11"/>
       <c r="CO167" s="11"/>
@@ -26785,7 +26962,7 @@
       <c r="EU167" s="11"/>
       <c r="EV167" s="11"/>
     </row>
-    <row r="168" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -27017,43 +27194,45 @@
       <c r="BY168" s="23">
         <v>3.4803611563072221</v>
       </c>
-      <c r="BZ168" s="23">
+      <c r="BZ168" s="34">
         <v>4.4914334710000636</v>
       </c>
-      <c r="CA168" s="23">
+      <c r="CA168" s="34">
         <v>4.4529562285919129</v>
       </c>
-      <c r="CB168" s="23">
+      <c r="CB168" s="34">
         <v>2.8244372542343368</v>
       </c>
-      <c r="CC168" s="23">
+      <c r="CC168" s="34">
         <v>5.5284718037846288</v>
       </c>
       <c r="CD168" s="34">
-        <v>3.3653851864299638</v>
+        <v>3.6043256222998901</v>
       </c>
       <c r="CE168" s="34">
-        <v>3.3251333948051709</v>
+        <v>4.3974187917785512</v>
       </c>
       <c r="CF168" s="34">
-        <v>2.6339270677056175</v>
+        <v>2.4381101057770507</v>
       </c>
       <c r="CG168" s="34">
-        <v>5.110892583629786</v>
+        <v>5.1227743414861555</v>
       </c>
       <c r="CH168" s="34">
-        <v>4.2174809058184293</v>
+        <v>3.6180389332447285</v>
       </c>
       <c r="CI168" s="34">
-        <v>2.6685543540076258</v>
+        <v>2.6916754359812027</v>
       </c>
       <c r="CJ168" s="34">
-        <v>2.3434781951748427</v>
+        <v>2.435445990540452</v>
       </c>
       <c r="CK168" s="34">
-        <v>4.4115437925015701</v>
-      </c>
-      <c r="CL168" s="11"/>
+        <v>4.5395258287940514</v>
+      </c>
+      <c r="CL168" s="34">
+        <v>3.2623617926166277</v>
+      </c>
       <c r="CM168" s="11"/>
       <c r="CN168" s="11"/>
       <c r="CO168" s="11"/>
@@ -27117,7 +27296,7 @@
       <c r="EU168" s="11"/>
       <c r="EV168" s="11"/>
     </row>
-    <row r="169" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -27194,10 +27373,10 @@
       <c r="BW169" s="12"/>
       <c r="BX169" s="12"/>
       <c r="BY169" s="12"/>
-      <c r="BZ169" s="12"/>
-      <c r="CA169" s="12"/>
-      <c r="CB169" s="12"/>
-      <c r="CC169" s="12"/>
+      <c r="BZ169" s="29"/>
+      <c r="CA169" s="29"/>
+      <c r="CB169" s="29"/>
+      <c r="CC169" s="29"/>
       <c r="CD169" s="29"/>
       <c r="CE169" s="29"/>
       <c r="CF169" s="29"/>
@@ -27206,7 +27385,7 @@
       <c r="CI169" s="29"/>
       <c r="CJ169" s="29"/>
       <c r="CK169" s="29"/>
-      <c r="CL169" s="11"/>
+      <c r="CL169" s="29"/>
       <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
       <c r="CO169" s="11"/>
@@ -27270,7 +27449,7 @@
       <c r="EU169" s="11"/>
       <c r="EV169" s="11"/>
     </row>
-    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>17</v>
       </c>
@@ -27502,16 +27681,16 @@
       <c r="BY170" s="21">
         <v>100</v>
       </c>
-      <c r="BZ170" s="21">
+      <c r="BZ170" s="33">
         <v>100</v>
       </c>
-      <c r="CA170" s="21">
+      <c r="CA170" s="33">
         <v>100</v>
       </c>
-      <c r="CB170" s="21">
+      <c r="CB170" s="33">
         <v>100</v>
       </c>
-      <c r="CC170" s="21">
+      <c r="CC170" s="33">
         <v>100</v>
       </c>
       <c r="CD170" s="33">
@@ -27538,7 +27717,9 @@
       <c r="CK170" s="33">
         <v>100</v>
       </c>
-      <c r="CL170" s="11"/>
+      <c r="CL170" s="33">
+        <v>100</v>
+      </c>
       <c r="CM170" s="11"/>
       <c r="CN170" s="11"/>
       <c r="CO170" s="11"/>
@@ -27602,7 +27783,7 @@
       <c r="EU170" s="11"/>
       <c r="EV170" s="11"/>
     </row>
-    <row r="171" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -27680,10 +27861,10 @@
       <c r="BW171" s="17"/>
       <c r="BX171" s="17"/>
       <c r="BY171" s="17"/>
-      <c r="BZ171" s="17"/>
-      <c r="CA171" s="17"/>
-      <c r="CB171" s="17"/>
-      <c r="CC171" s="17"/>
+      <c r="BZ171" s="31"/>
+      <c r="CA171" s="31"/>
+      <c r="CB171" s="31"/>
+      <c r="CC171" s="31"/>
       <c r="CD171" s="31"/>
       <c r="CE171" s="31"/>
       <c r="CF171" s="31"/>
@@ -27692,13 +27873,14 @@
       <c r="CI171" s="31"/>
       <c r="CJ171" s="31"/>
       <c r="CK171" s="31"/>
+      <c r="CL171" s="31"/>
     </row>
-    <row r="172" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -27776,19 +27958,19 @@
       <c r="BW173" s="2"/>
       <c r="BX173" s="2"/>
       <c r="BY173" s="2"/>
-      <c r="BZ173" s="2"/>
-      <c r="CA173" s="2"/>
-      <c r="CB173" s="2"/>
-      <c r="CC173" s="2"/>
+      <c r="BZ173" s="26"/>
+      <c r="CA173" s="26"/>
+      <c r="CB173" s="26"/>
+      <c r="CC173" s="26"/>
       <c r="CD173" s="26"/>
       <c r="CE173" s="26"/>
       <c r="CF173" s="26"/>
       <c r="CG173" s="26"/>
-      <c r="CH173" s="26"/>
-      <c r="CI173" s="26"/>
-      <c r="CJ173" s="26"/>
-      <c r="CK173" s="26"/>
-      <c r="CL173" s="24"/>
+      <c r="CH173" s="41"/>
+      <c r="CI173" s="41"/>
+      <c r="CJ173" s="41"/>
+      <c r="CK173" s="41"/>
+      <c r="CL173" s="41"/>
       <c r="CM173" s="24"/>
       <c r="CN173" s="24"/>
       <c r="CO173" s="24"/>
@@ -27852,7 +28034,7 @@
       <c r="EU173" s="24"/>
       <c r="EV173" s="24"/>
     </row>
-    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -27930,19 +28112,19 @@
       <c r="BW174" s="2"/>
       <c r="BX174" s="2"/>
       <c r="BY174" s="2"/>
-      <c r="BZ174" s="2"/>
-      <c r="CA174" s="2"/>
-      <c r="CB174" s="2"/>
-      <c r="CC174" s="2"/>
+      <c r="BZ174" s="26"/>
+      <c r="CA174" s="26"/>
+      <c r="CB174" s="26"/>
+      <c r="CC174" s="26"/>
       <c r="CD174" s="26"/>
       <c r="CE174" s="26"/>
       <c r="CF174" s="26"/>
       <c r="CG174" s="26"/>
-      <c r="CH174" s="26"/>
-      <c r="CI174" s="26"/>
-      <c r="CJ174" s="26"/>
-      <c r="CK174" s="26"/>
-      <c r="CL174" s="24"/>
+      <c r="CH174" s="41"/>
+      <c r="CI174" s="41"/>
+      <c r="CJ174" s="41"/>
+      <c r="CK174" s="41"/>
+      <c r="CL174" s="41"/>
       <c r="CM174" s="24"/>
       <c r="CN174" s="24"/>
       <c r="CO174" s="24"/>
@@ -28008,15 +28190,125 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="AL158:AO158"/>
     <mergeCell ref="AP158:AS158"/>
     <mergeCell ref="AT158:AW158"/>
@@ -28041,133 +28333,23 @@
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="88" man="1"/>
-    <brk id="100" max="88" man="1"/>
-    <brk id="124" max="88" man="1"/>
+    <brk id="50" max="89" man="1"/>
+    <brk id="100" max="89" man="1"/>
+    <brk id="124" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Time Series\2022\As of May 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C7991-7C45-43AC-AF10-392A442FD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62460A71-C583-4C72-87C9-3149E680BEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CL$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CM$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -230,13 +230,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -269,6 +269,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,85 +323,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -720,191 +754,192 @@
   <dimension ref="A1:EV174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BZ186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CB58" sqref="CB58"/>
+      <selection pane="bottomRight" activeCell="CN18" sqref="CN18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="90" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
+    <col min="2" max="73" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="85" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="91" width="11.6328125" style="26" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="39">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37">
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="40">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="40"/>
-      <c r="CC9" s="40"/>
-      <c r="CD9" s="40">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="40"/>
-      <c r="CF9" s="40"/>
-      <c r="CG9" s="40"/>
-      <c r="CH9" s="40">
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="37">
         <v>2021</v>
       </c>
-      <c r="CI9" s="40"/>
-      <c r="CJ9" s="40"/>
-      <c r="CK9" s="40"/>
-      <c r="CL9" s="35">
+      <c r="CI9" s="37"/>
+      <c r="CJ9" s="37"/>
+      <c r="CK9" s="37"/>
+      <c r="CL9" s="37">
         <v>2022</v>
       </c>
+      <c r="CM9" s="37"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -1134,50 +1169,53 @@
       <c r="BY10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ10" s="27" t="s">
+      <c r="BZ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="27" t="s">
+      <c r="CA10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="27" t="s">
+      <c r="CB10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="27" t="s">
+      <c r="CC10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD10" s="27" t="s">
+      <c r="CD10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="27" t="s">
+      <c r="CE10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="27" t="s">
+      <c r="CF10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="27" t="s">
+      <c r="CG10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="27" t="s">
+      <c r="CH10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="27" t="s">
+      <c r="CI10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="27" t="s">
+      <c r="CJ10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="27" t="s">
+      <c r="CK10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="27" t="s">
+      <c r="CL10" s="28" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1409,46 +1447,48 @@
       <c r="BY12" s="10">
         <v>84983.731647112305</v>
       </c>
-      <c r="BZ12" s="28">
+      <c r="BZ12" s="10">
         <v>61352.297443061012</v>
       </c>
-      <c r="CA12" s="28">
+      <c r="CA12" s="10">
         <v>63346.498531145437</v>
       </c>
-      <c r="CB12" s="28">
+      <c r="CB12" s="10">
         <v>67105.670838844453</v>
       </c>
-      <c r="CC12" s="28">
+      <c r="CC12" s="10">
         <v>65109.475496706458</v>
       </c>
-      <c r="CD12" s="28">
+      <c r="CD12" s="10">
         <v>59820.030513076053</v>
       </c>
-      <c r="CE12" s="28">
+      <c r="CE12" s="10">
         <v>34539.00214474411</v>
       </c>
-      <c r="CF12" s="28">
+      <c r="CF12" s="10">
         <v>51688.289326632083</v>
       </c>
-      <c r="CG12" s="28">
+      <c r="CG12" s="10">
         <v>52884.47277971021</v>
       </c>
-      <c r="CH12" s="28">
+      <c r="CH12" s="29">
         <v>46430.300796230811</v>
       </c>
-      <c r="CI12" s="28">
+      <c r="CI12" s="29">
         <v>52849.253157415507</v>
       </c>
-      <c r="CJ12" s="28">
+      <c r="CJ12" s="29">
         <v>67877.636577602956</v>
       </c>
-      <c r="CK12" s="28">
+      <c r="CK12" s="29">
         <v>73947.01885015193</v>
       </c>
-      <c r="CL12" s="28">
-        <v>62533.344290611523</v>
-      </c>
-      <c r="CM12" s="11"/>
+      <c r="CL12" s="29">
+        <v>64371.44848578058</v>
+      </c>
+      <c r="CM12" s="29">
+        <v>74703.658577120412</v>
+      </c>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
@@ -1511,7 +1551,7 @@
       <c r="EU12" s="11"/>
       <c r="EV12" s="11"/>
     </row>
-    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1743,46 +1783,48 @@
       <c r="BY13" s="10">
         <v>10771.2533590396</v>
       </c>
-      <c r="BZ13" s="28">
+      <c r="BZ13" s="10">
         <v>18899.936916742143</v>
       </c>
-      <c r="CA13" s="28">
+      <c r="CA13" s="10">
         <v>28610.51466329534</v>
       </c>
-      <c r="CB13" s="28">
+      <c r="CB13" s="10">
         <v>19330.869519370506</v>
       </c>
-      <c r="CC13" s="28">
+      <c r="CC13" s="10">
         <v>10960.327119215286</v>
       </c>
-      <c r="CD13" s="28">
+      <c r="CD13" s="10">
         <v>16314.752198365353</v>
       </c>
-      <c r="CE13" s="28">
+      <c r="CE13" s="10">
         <v>17733.733957640055</v>
       </c>
-      <c r="CF13" s="28">
+      <c r="CF13" s="10">
         <v>17050.649874945389</v>
       </c>
-      <c r="CG13" s="28">
+      <c r="CG13" s="10">
         <v>8862.0147975722048</v>
       </c>
-      <c r="CH13" s="28">
+      <c r="CH13" s="29">
         <v>18218.746193832638</v>
       </c>
-      <c r="CI13" s="28">
+      <c r="CI13" s="29">
         <v>28636.764893774238</v>
       </c>
-      <c r="CJ13" s="28">
+      <c r="CJ13" s="29">
         <v>20345.032295457306</v>
       </c>
-      <c r="CK13" s="28">
+      <c r="CK13" s="29">
         <v>12743.548438235644</v>
       </c>
-      <c r="CL13" s="28">
-        <v>24319.250945609449</v>
-      </c>
-      <c r="CM13" s="11"/>
+      <c r="CL13" s="29">
+        <v>24349.345679012895</v>
+      </c>
+      <c r="CM13" s="29">
+        <v>36071.753513033771</v>
+      </c>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
@@ -1845,7 +1887,7 @@
       <c r="EU13" s="11"/>
       <c r="EV13" s="11"/>
     </row>
-    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2077,46 +2119,48 @@
       <c r="BY14" s="10">
         <v>209184.56512626098</v>
       </c>
-      <c r="BZ14" s="28">
+      <c r="BZ14" s="10">
         <v>177646.290218326</v>
       </c>
-      <c r="CA14" s="28">
+      <c r="CA14" s="10">
         <v>129138.223001855</v>
       </c>
-      <c r="CB14" s="28">
+      <c r="CB14" s="10">
         <v>172858.644631048</v>
       </c>
-      <c r="CC14" s="28">
+      <c r="CC14" s="10">
         <v>240825.69504674777</v>
       </c>
-      <c r="CD14" s="28">
+      <c r="CD14" s="10">
         <v>163195.08531113193</v>
       </c>
-      <c r="CE14" s="28">
+      <c r="CE14" s="10">
         <v>91645.706522132052</v>
       </c>
-      <c r="CF14" s="28">
+      <c r="CF14" s="10">
         <v>104610.371337144</v>
       </c>
-      <c r="CG14" s="28">
+      <c r="CG14" s="10">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="28">
+      <c r="CH14" s="29">
         <v>52138.343197657821</v>
       </c>
-      <c r="CI14" s="28">
+      <c r="CI14" s="29">
         <v>43239.536426352897</v>
       </c>
-      <c r="CJ14" s="28">
+      <c r="CJ14" s="29">
         <v>62997.561718120749</v>
       </c>
-      <c r="CK14" s="28">
+      <c r="CK14" s="29">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="28">
-        <v>91756.045839331928</v>
-      </c>
-      <c r="CM14" s="11"/>
+      <c r="CL14" s="29">
+        <v>91066.412891540836</v>
+      </c>
+      <c r="CM14" s="29">
+        <v>88202.402369774427</v>
+      </c>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
@@ -2179,7 +2223,7 @@
       <c r="EU14" s="11"/>
       <c r="EV14" s="11"/>
     </row>
-    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2411,46 +2455,48 @@
       <c r="BY15" s="10">
         <v>6722.8670345222899</v>
       </c>
-      <c r="BZ15" s="28">
+      <c r="BZ15" s="10">
         <v>7045.4061699491604</v>
       </c>
-      <c r="CA15" s="28">
+      <c r="CA15" s="10">
         <v>6869.52211342172</v>
       </c>
-      <c r="CB15" s="28">
+      <c r="CB15" s="10">
         <v>7105.2442599974001</v>
       </c>
-      <c r="CC15" s="28">
+      <c r="CC15" s="10">
         <v>7109.70388121215</v>
       </c>
-      <c r="CD15" s="28">
+      <c r="CD15" s="10">
         <v>5054.3449397533286</v>
       </c>
-      <c r="CE15" s="28">
+      <c r="CE15" s="10">
         <v>4926.6227747895446</v>
       </c>
-      <c r="CF15" s="28">
+      <c r="CF15" s="10">
         <v>5084.5216930122861</v>
       </c>
-      <c r="CG15" s="28">
+      <c r="CG15" s="10">
         <v>5088.6362974759177</v>
       </c>
-      <c r="CH15" s="28">
+      <c r="CH15" s="29">
         <v>5048.3525692498251</v>
       </c>
-      <c r="CI15" s="28">
+      <c r="CI15" s="29">
         <v>4921.2515890704108</v>
       </c>
-      <c r="CJ15" s="28">
+      <c r="CJ15" s="29">
         <v>5111.1493409064724</v>
       </c>
-      <c r="CK15" s="28">
+      <c r="CK15" s="29">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="28">
-        <v>5084.7278444706244</v>
-      </c>
-      <c r="CM15" s="11"/>
+      <c r="CL15" s="29">
+        <v>5063.9724781323348</v>
+      </c>
+      <c r="CM15" s="29">
+        <v>5020.8645741435548</v>
+      </c>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
@@ -2513,7 +2559,7 @@
       <c r="EU15" s="11"/>
       <c r="EV15" s="11"/>
     </row>
-    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2745,46 +2791,48 @@
       <c r="BY16" s="10">
         <v>12461.2993513691</v>
       </c>
-      <c r="BZ16" s="28">
+      <c r="BZ16" s="10">
         <v>15758.7027699434</v>
       </c>
-      <c r="CA16" s="28">
+      <c r="CA16" s="10">
         <v>13729.138048081501</v>
       </c>
-      <c r="CB16" s="28">
+      <c r="CB16" s="10">
         <v>13290.090332403001</v>
       </c>
-      <c r="CC16" s="28">
+      <c r="CC16" s="10">
         <v>16139.580988612473</v>
       </c>
-      <c r="CD16" s="28">
+      <c r="CD16" s="10">
         <v>18101.550829003507</v>
       </c>
-      <c r="CE16" s="28">
+      <c r="CE16" s="10">
         <v>20074.125553017115</v>
       </c>
-      <c r="CF16" s="28">
+      <c r="CF16" s="10">
         <v>15234.065248296503</v>
       </c>
-      <c r="CG16" s="28">
+      <c r="CG16" s="10">
         <v>19783.117813536392</v>
       </c>
-      <c r="CH16" s="28">
+      <c r="CH16" s="29">
         <v>26331.735968171131</v>
       </c>
-      <c r="CI16" s="28">
+      <c r="CI16" s="29">
         <v>33210.08641208458</v>
       </c>
-      <c r="CJ16" s="28">
+      <c r="CJ16" s="29">
         <v>21519.870290264276</v>
       </c>
-      <c r="CK16" s="28">
+      <c r="CK16" s="29">
         <v>24325.582484735562</v>
       </c>
-      <c r="CL16" s="28">
-        <v>27960.636081394627</v>
-      </c>
-      <c r="CM16" s="11"/>
+      <c r="CL16" s="29">
+        <v>24311.726665800888</v>
+      </c>
+      <c r="CM16" s="29">
+        <v>25780.521905531816</v>
+      </c>
       <c r="CN16" s="11"/>
       <c r="CO16" s="11"/>
       <c r="CP16" s="11"/>
@@ -2847,7 +2895,7 @@
       <c r="EU16" s="11"/>
       <c r="EV16" s="11"/>
     </row>
-    <row r="17" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3079,46 +3127,48 @@
       <c r="BY17" s="10">
         <v>69363.509776584731</v>
       </c>
-      <c r="BZ17" s="28">
+      <c r="BZ17" s="10">
         <v>65500.177351500301</v>
       </c>
-      <c r="CA17" s="28">
+      <c r="CA17" s="10">
         <v>74563.873812860402</v>
       </c>
-      <c r="CB17" s="28">
+      <c r="CB17" s="10">
         <v>61233.704473338301</v>
       </c>
-      <c r="CC17" s="28">
+      <c r="CC17" s="10">
         <v>87733.866658546089</v>
       </c>
-      <c r="CD17" s="28">
+      <c r="CD17" s="10">
         <v>82785.126496413955</v>
       </c>
-      <c r="CE17" s="28">
+      <c r="CE17" s="10">
         <v>53035.700093530795</v>
       </c>
-      <c r="CF17" s="28">
+      <c r="CF17" s="10">
         <v>53927.210487834433</v>
       </c>
-      <c r="CG17" s="28">
+      <c r="CG17" s="10">
         <v>60084.718131966809</v>
       </c>
-      <c r="CH17" s="28">
+      <c r="CH17" s="29">
         <v>66420.824866344847</v>
       </c>
-      <c r="CI17" s="28">
+      <c r="CI17" s="29">
         <v>61686.723992187755</v>
       </c>
-      <c r="CJ17" s="28">
+      <c r="CJ17" s="29">
         <v>58515.768249921377</v>
       </c>
-      <c r="CK17" s="28">
+      <c r="CK17" s="29">
         <v>68082.114901429057</v>
       </c>
-      <c r="CL17" s="28">
-        <v>89464.065609822166</v>
-      </c>
-      <c r="CM17" s="11"/>
+      <c r="CL17" s="29">
+        <v>90733.813918259533</v>
+      </c>
+      <c r="CM17" s="29">
+        <v>81395.306092909683</v>
+      </c>
       <c r="CN17" s="11"/>
       <c r="CO17" s="11"/>
       <c r="CP17" s="11"/>
@@ -3181,7 +3231,7 @@
       <c r="EU17" s="11"/>
       <c r="EV17" s="11"/>
     </row>
-    <row r="18" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3413,46 +3463,48 @@
       <c r="BY18" s="10">
         <v>11591.93216859146</v>
       </c>
-      <c r="BZ18" s="28">
+      <c r="BZ18" s="10">
         <v>14283.0635043691</v>
       </c>
-      <c r="CA18" s="28">
+      <c r="CA18" s="10">
         <v>11150.3152342632</v>
       </c>
-      <c r="CB18" s="28">
+      <c r="CB18" s="10">
         <v>10713.8865403648</v>
       </c>
-      <c r="CC18" s="28">
+      <c r="CC18" s="10">
         <v>14180.6903439617</v>
       </c>
-      <c r="CD18" s="28">
+      <c r="CD18" s="10">
         <v>12788.146097403231</v>
       </c>
-      <c r="CE18" s="28">
+      <c r="CE18" s="10">
         <v>6523.9901905191382</v>
       </c>
-      <c r="CF18" s="28">
+      <c r="CF18" s="10">
         <v>5317.4995537317754</v>
       </c>
-      <c r="CG18" s="28">
+      <c r="CG18" s="10">
         <v>7949.8504290503433</v>
       </c>
-      <c r="CH18" s="28">
+      <c r="CH18" s="29">
         <v>6340.8829821031732</v>
       </c>
-      <c r="CI18" s="28">
+      <c r="CI18" s="29">
         <v>8380.1096069851701</v>
       </c>
-      <c r="CJ18" s="28">
+      <c r="CJ18" s="29">
         <v>7680.0595135464391</v>
       </c>
-      <c r="CK18" s="28">
+      <c r="CK18" s="29">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="28">
-        <v>8574.3324415252009</v>
-      </c>
-      <c r="CM18" s="11"/>
+      <c r="CL18" s="29">
+        <v>7499.1802883047249</v>
+      </c>
+      <c r="CM18" s="29">
+        <v>7166.6664350963065</v>
+      </c>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
@@ -3515,7 +3567,7 @@
       <c r="EU18" s="11"/>
       <c r="EV18" s="11"/>
     </row>
-    <row r="19" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3747,46 +3799,48 @@
       <c r="BY19" s="10">
         <v>15697.750259126202</v>
       </c>
-      <c r="BZ19" s="28">
+      <c r="BZ19" s="10">
         <v>14588.50313686066</v>
       </c>
-      <c r="CA19" s="28">
+      <c r="CA19" s="10">
         <v>15834.424648811641</v>
       </c>
-      <c r="CB19" s="28">
+      <c r="CB19" s="10">
         <v>11292.370375040124</v>
       </c>
-      <c r="CC19" s="28">
+      <c r="CC19" s="10">
         <v>28611.604796469379</v>
       </c>
-      <c r="CD19" s="28">
+      <c r="CD19" s="10">
         <v>11579.054253904776</v>
       </c>
-      <c r="CE19" s="28">
+      <c r="CE19" s="10">
         <v>10920.554424688349</v>
       </c>
-      <c r="CF19" s="28">
+      <c r="CF19" s="10">
         <v>6912.8630974083126</v>
       </c>
-      <c r="CG19" s="28">
+      <c r="CG19" s="10">
         <v>14312.987210784406</v>
       </c>
-      <c r="CH19" s="28">
+      <c r="CH19" s="29">
         <v>7633.9947160214942</v>
       </c>
-      <c r="CI19" s="28">
+      <c r="CI19" s="29">
         <v>6584.5713011930566</v>
       </c>
-      <c r="CJ19" s="28">
+      <c r="CJ19" s="29">
         <v>6454.0482820084544</v>
       </c>
-      <c r="CK19" s="28">
+      <c r="CK19" s="29">
         <v>14666.738397941102</v>
       </c>
-      <c r="CL19" s="28">
-        <v>9407.4084740381495</v>
-      </c>
-      <c r="CM19" s="11"/>
+      <c r="CL19" s="29">
+        <v>12921.730329943504</v>
+      </c>
+      <c r="CM19" s="29">
+        <v>11039.893125612885</v>
+      </c>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
@@ -3849,7 +3903,7 @@
       <c r="EU19" s="11"/>
       <c r="EV19" s="11"/>
     </row>
-    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3926,20 +3980,20 @@
       <c r="BW20" s="12"/>
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
-      <c r="BZ20" s="29"/>
-      <c r="CA20" s="29"/>
-      <c r="CB20" s="29"/>
-      <c r="CC20" s="29"/>
-      <c r="CD20" s="29"/>
-      <c r="CE20" s="29"/>
-      <c r="CF20" s="29"/>
-      <c r="CG20" s="29"/>
-      <c r="CH20" s="29"/>
-      <c r="CI20" s="29"/>
-      <c r="CJ20" s="29"/>
-      <c r="CK20" s="29"/>
-      <c r="CL20" s="29"/>
-      <c r="CM20" s="11"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="30"/>
+      <c r="CI20" s="30"/>
+      <c r="CJ20" s="30"/>
+      <c r="CK20" s="30"/>
+      <c r="CL20" s="30"/>
+      <c r="CM20" s="30"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
       <c r="CP20" s="11"/>
@@ -4002,7 +4056,7 @@
       <c r="EU20" s="11"/>
       <c r="EV20" s="11"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
@@ -4234,46 +4288,48 @@
       <c r="BY21" s="15">
         <v>420776.90872260666</v>
       </c>
-      <c r="BZ21" s="30">
+      <c r="BZ21" s="15">
         <v>375074.37751075183</v>
       </c>
-      <c r="CA21" s="30">
+      <c r="CA21" s="15">
         <v>343242.51005373424</v>
       </c>
-      <c r="CB21" s="30">
+      <c r="CB21" s="15">
         <v>362930.48097040661</v>
       </c>
-      <c r="CC21" s="30">
+      <c r="CC21" s="15">
         <v>470670.94433147134</v>
       </c>
-      <c r="CD21" s="30">
+      <c r="CD21" s="15">
         <v>369638.09063905216</v>
       </c>
-      <c r="CE21" s="30">
+      <c r="CE21" s="15">
         <v>239399.43566106111</v>
       </c>
-      <c r="CF21" s="30">
+      <c r="CF21" s="15">
         <v>259825.47061900483</v>
       </c>
-      <c r="CG21" s="30">
+      <c r="CG21" s="15">
         <v>259162.18962816379</v>
       </c>
-      <c r="CH21" s="30">
+      <c r="CH21" s="31">
         <v>228563.18128961173</v>
       </c>
-      <c r="CI21" s="30">
+      <c r="CI21" s="31">
         <v>239508.29737906365</v>
       </c>
-      <c r="CJ21" s="30">
+      <c r="CJ21" s="31">
         <v>250501.12626782805</v>
       </c>
-      <c r="CK21" s="30">
+      <c r="CK21" s="31">
         <v>303723.94911543583</v>
       </c>
-      <c r="CL21" s="30">
-        <v>319099.81152680365</v>
-      </c>
-      <c r="CM21" s="11"/>
+      <c r="CL21" s="31">
+        <v>320317.63073677535</v>
+      </c>
+      <c r="CM21" s="31">
+        <v>329381.06659322279</v>
+      </c>
       <c r="CN21" s="11"/>
       <c r="CO21" s="11"/>
       <c r="CP21" s="11"/>
@@ -4336,7 +4392,7 @@
       <c r="EU21" s="11"/>
       <c r="EV21" s="11"/>
     </row>
-    <row r="22" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -4414,26 +4470,27 @@
       <c r="BW22" s="17"/>
       <c r="BX22" s="17"/>
       <c r="BY22" s="17"/>
-      <c r="BZ22" s="31"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="31"/>
-      <c r="CD22" s="31"/>
-      <c r="CE22" s="31"/>
-      <c r="CF22" s="31"/>
-      <c r="CG22" s="31"/>
-      <c r="CH22" s="31"/>
-      <c r="CI22" s="31"/>
-      <c r="CJ22" s="31"/>
-      <c r="CK22" s="31"/>
-      <c r="CL22" s="31"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="32"/>
+      <c r="CI22" s="32"/>
+      <c r="CJ22" s="32"/>
+      <c r="CK22" s="32"/>
+      <c r="CL22" s="32"/>
+      <c r="CM22" s="32"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4510,20 +4567,20 @@
       <c r="BW24" s="12"/>
       <c r="BX24" s="12"/>
       <c r="BY24" s="12"/>
-      <c r="BZ24" s="29"/>
-      <c r="CA24" s="29"/>
-      <c r="CB24" s="29"/>
-      <c r="CC24" s="29"/>
-      <c r="CD24" s="29"/>
-      <c r="CE24" s="29"/>
-      <c r="CF24" s="29"/>
-      <c r="CG24" s="29"/>
-      <c r="CH24" s="29"/>
-      <c r="CI24" s="29"/>
-      <c r="CJ24" s="29"/>
-      <c r="CK24" s="29"/>
-      <c r="CL24" s="29"/>
-      <c r="CM24" s="11"/>
+      <c r="BZ24" s="12"/>
+      <c r="CA24" s="12"/>
+      <c r="CB24" s="12"/>
+      <c r="CC24" s="12"/>
+      <c r="CD24" s="12"/>
+      <c r="CE24" s="12"/>
+      <c r="CF24" s="12"/>
+      <c r="CG24" s="12"/>
+      <c r="CH24" s="30"/>
+      <c r="CI24" s="30"/>
+      <c r="CJ24" s="30"/>
+      <c r="CK24" s="30"/>
+      <c r="CL24" s="30"/>
+      <c r="CM24" s="30"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
       <c r="CP24" s="11"/>
@@ -4586,7 +4643,7 @@
       <c r="EU24" s="11"/>
       <c r="EV24" s="11"/>
     </row>
-    <row r="25" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4663,20 +4720,20 @@
       <c r="BW25" s="12"/>
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
-      <c r="BZ25" s="29"/>
-      <c r="CA25" s="29"/>
-      <c r="CB25" s="29"/>
-      <c r="CC25" s="29"/>
-      <c r="CD25" s="29"/>
-      <c r="CE25" s="29"/>
-      <c r="CF25" s="29"/>
-      <c r="CG25" s="29"/>
-      <c r="CH25" s="29"/>
-      <c r="CI25" s="29"/>
-      <c r="CJ25" s="29"/>
-      <c r="CK25" s="29"/>
-      <c r="CL25" s="29"/>
-      <c r="CM25" s="11"/>
+      <c r="BZ25" s="12"/>
+      <c r="CA25" s="12"/>
+      <c r="CB25" s="12"/>
+      <c r="CC25" s="12"/>
+      <c r="CD25" s="12"/>
+      <c r="CE25" s="12"/>
+      <c r="CF25" s="12"/>
+      <c r="CG25" s="12"/>
+      <c r="CH25" s="30"/>
+      <c r="CI25" s="30"/>
+      <c r="CJ25" s="30"/>
+      <c r="CK25" s="30"/>
+      <c r="CL25" s="30"/>
+      <c r="CM25" s="30"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
       <c r="CP25" s="11"/>
@@ -4739,175 +4796,176 @@
       <c r="EU25" s="11"/>
       <c r="EV25" s="11"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="36">
+      <c r="B34" s="38">
         <v>2000</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38">
         <v>2001</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36">
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38">
         <v>2002</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36">
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38">
         <v>2003</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36">
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38">
         <v>2004</v>
       </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38">
         <v>2005</v>
       </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36">
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38">
         <v>2006</v>
       </c>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36">
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38">
         <v>2007</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36">
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38">
         <v>2008</v>
       </c>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36">
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38">
         <v>2009</v>
       </c>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36">
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36">
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38">
         <v>2011</v>
       </c>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36">
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38">
         <v>2012</v>
       </c>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36">
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38">
         <v>2013</v>
       </c>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36">
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38">
         <v>2014</v>
       </c>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36">
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38">
         <v>2015</v>
       </c>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36">
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38">
         <v>2016</v>
       </c>
-      <c r="BO34" s="36"/>
-      <c r="BP34" s="36"/>
-      <c r="BQ34" s="36"/>
-      <c r="BR34" s="36">
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38">
         <v>2017</v>
       </c>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
-      <c r="BV34" s="39">
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="40">
         <v>2018</v>
       </c>
-      <c r="BW34" s="39"/>
-      <c r="BX34" s="39"/>
-      <c r="BY34" s="39"/>
-      <c r="BZ34" s="38">
+      <c r="BW34" s="40"/>
+      <c r="BX34" s="40"/>
+      <c r="BY34" s="40"/>
+      <c r="BZ34" s="40">
         <v>2019</v>
       </c>
-      <c r="CA34" s="38"/>
-      <c r="CB34" s="38"/>
-      <c r="CC34" s="38"/>
+      <c r="CA34" s="40"/>
+      <c r="CB34" s="40"/>
+      <c r="CC34" s="40"/>
       <c r="CD34" s="40">
         <v>2020</v>
       </c>
       <c r="CE34" s="40"/>
       <c r="CF34" s="40"/>
       <c r="CG34" s="40"/>
-      <c r="CH34" s="40">
+      <c r="CH34" s="37">
         <v>2021</v>
       </c>
-      <c r="CI34" s="40"/>
-      <c r="CJ34" s="40"/>
-      <c r="CK34" s="40"/>
-      <c r="CL34" s="35">
+      <c r="CI34" s="37"/>
+      <c r="CJ34" s="37"/>
+      <c r="CK34" s="37"/>
+      <c r="CL34" s="37">
         <v>2022</v>
       </c>
+      <c r="CM34" s="37"/>
     </row>
-    <row r="35" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="7" t="s">
         <v>7</v>
@@ -5137,50 +5195,53 @@
       <c r="BY35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ35" s="32" t="s">
+      <c r="BZ35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA35" s="32" t="s">
+      <c r="CA35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB35" s="32" t="s">
+      <c r="CB35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC35" s="32" t="s">
+      <c r="CC35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD35" s="32" t="s">
+      <c r="CD35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE35" s="32" t="s">
+      <c r="CE35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF35" s="32" t="s">
+      <c r="CF35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG35" s="32" t="s">
+      <c r="CG35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="32" t="s">
+      <c r="CH35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="32" t="s">
+      <c r="CI35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CJ35" s="32" t="s">
+      <c r="CJ35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CK35" s="32" t="s">
+      <c r="CK35" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="32" t="s">
+      <c r="CL35" s="33" t="s">
         <v>7</v>
       </c>
+      <c r="CM35" s="33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5412,46 +5473,48 @@
       <c r="BY37" s="10">
         <v>85918.561593304097</v>
       </c>
-      <c r="BZ37" s="28">
+      <c r="BZ37" s="10">
         <v>64511.44560551786</v>
       </c>
-      <c r="CA37" s="28">
+      <c r="CA37" s="10">
         <v>59186.169474790877</v>
       </c>
-      <c r="CB37" s="28">
+      <c r="CB37" s="10">
         <v>65629.912004317957</v>
       </c>
-      <c r="CC37" s="28">
+      <c r="CC37" s="10">
         <v>64801.680409936183</v>
       </c>
-      <c r="CD37" s="28">
+      <c r="CD37" s="10">
         <v>61326.934936950114</v>
       </c>
-      <c r="CE37" s="28">
+      <c r="CE37" s="10">
         <v>33914.374794228679</v>
       </c>
-      <c r="CF37" s="28">
+      <c r="CF37" s="10">
         <v>52506.021331477779</v>
       </c>
-      <c r="CG37" s="28">
+      <c r="CG37" s="10">
         <v>55772.422902689606</v>
       </c>
-      <c r="CH37" s="28">
+      <c r="CH37" s="29">
         <v>48469.24732577696</v>
       </c>
-      <c r="CI37" s="28">
+      <c r="CI37" s="29">
         <v>49847.290393522198</v>
       </c>
-      <c r="CJ37" s="28">
+      <c r="CJ37" s="29">
         <v>65274.534079568817</v>
       </c>
-      <c r="CK37" s="28">
+      <c r="CK37" s="29">
         <v>71475.490688452279</v>
       </c>
-      <c r="CL37" s="28">
-        <v>61710.99850239732</v>
-      </c>
-      <c r="CM37" s="11"/>
+      <c r="CL37" s="29">
+        <v>63524.930677656928</v>
+      </c>
+      <c r="CM37" s="29">
+        <v>65271.032162625634</v>
+      </c>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
@@ -5514,7 +5577,7 @@
       <c r="EU37" s="11"/>
       <c r="EV37" s="11"/>
     </row>
-    <row r="38" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5746,46 +5809,48 @@
       <c r="BY38" s="10">
         <v>10328.504826029401</v>
       </c>
-      <c r="BZ38" s="28">
+      <c r="BZ38" s="10">
         <v>23940.372659882691</v>
       </c>
-      <c r="CA38" s="28">
+      <c r="CA38" s="10">
         <v>23752.04642195734</v>
       </c>
-      <c r="CB38" s="28">
+      <c r="CB38" s="10">
         <v>17577.999185725646</v>
       </c>
-      <c r="CC38" s="28">
+      <c r="CC38" s="10">
         <v>10150.061184550439</v>
       </c>
-      <c r="CD38" s="28">
+      <c r="CD38" s="10">
         <v>20422.7169796374</v>
       </c>
-      <c r="CE38" s="28">
+      <c r="CE38" s="10">
         <v>14751.641377822627</v>
       </c>
-      <c r="CF38" s="28">
+      <c r="CF38" s="10">
         <v>15767.910770272294</v>
       </c>
-      <c r="CG38" s="28">
+      <c r="CG38" s="10">
         <v>8554.3589097095992</v>
       </c>
-      <c r="CH38" s="28">
+      <c r="CH38" s="29">
         <v>23041.035088763867</v>
       </c>
-      <c r="CI38" s="28">
+      <c r="CI38" s="29">
         <v>24431.872116757837</v>
       </c>
-      <c r="CJ38" s="28">
+      <c r="CJ38" s="29">
         <v>18925.644780846895</v>
       </c>
-      <c r="CK38" s="28">
+      <c r="CK38" s="29">
         <v>11892.117955521602</v>
       </c>
-      <c r="CL38" s="28">
-        <v>29695.683005125149</v>
-      </c>
-      <c r="CM38" s="11"/>
+      <c r="CL38" s="29">
+        <v>29732.430998115196</v>
+      </c>
+      <c r="CM38" s="29">
+        <v>29081.275786844126</v>
+      </c>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
@@ -5848,7 +5913,7 @@
       <c r="EU38" s="11"/>
       <c r="EV38" s="11"/>
     </row>
-    <row r="39" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6080,46 +6145,48 @@
       <c r="BY39" s="10">
         <v>224710.77398999242</v>
       </c>
-      <c r="BZ39" s="28">
+      <c r="BZ39" s="10">
         <v>158690.36168188028</v>
       </c>
-      <c r="CA39" s="28">
+      <c r="CA39" s="10">
         <v>117688.77355479365</v>
       </c>
-      <c r="CB39" s="28">
+      <c r="CB39" s="10">
         <v>183560.34912586916</v>
       </c>
-      <c r="CC39" s="28">
+      <c r="CC39" s="10">
         <v>257514.51923617074</v>
       </c>
-      <c r="CD39" s="28">
+      <c r="CD39" s="10">
         <v>142649.00275906862</v>
       </c>
-      <c r="CE39" s="28">
+      <c r="CE39" s="10">
         <v>82937.72756409891</v>
       </c>
-      <c r="CF39" s="28">
+      <c r="CF39" s="10">
         <v>112043.57526183961</v>
       </c>
-      <c r="CG39" s="28">
+      <c r="CG39" s="10">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="28">
+      <c r="CH39" s="29">
         <v>46518.069333722618</v>
       </c>
-      <c r="CI39" s="28">
+      <c r="CI39" s="29">
         <v>40240.940665961825</v>
       </c>
-      <c r="CJ39" s="28">
+      <c r="CJ39" s="29">
         <v>68168.002215334855</v>
       </c>
-      <c r="CK39" s="28">
+      <c r="CK39" s="29">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="28">
-        <v>78178.349974198951</v>
-      </c>
-      <c r="CM39" s="11"/>
+      <c r="CL39" s="29">
+        <v>77590.766175736702</v>
+      </c>
+      <c r="CM39" s="29">
+        <v>77378.022511191404</v>
+      </c>
       <c r="CN39" s="11"/>
       <c r="CO39" s="11"/>
       <c r="CP39" s="11"/>
@@ -6182,7 +6249,7 @@
       <c r="EU39" s="11"/>
       <c r="EV39" s="11"/>
     </row>
-    <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6414,46 +6481,48 @@
       <c r="BY40" s="10">
         <v>6550.1758276218698</v>
       </c>
-      <c r="BZ40" s="28">
+      <c r="BZ40" s="10">
         <v>7938.2634008963396</v>
       </c>
-      <c r="CA40" s="28">
+      <c r="CA40" s="10">
         <v>6121.8667240180503</v>
       </c>
-      <c r="CB40" s="28">
+      <c r="CB40" s="10">
         <v>6597.1313470714504</v>
       </c>
-      <c r="CC40" s="28">
+      <c r="CC40" s="10">
         <v>6714.8157218354836</v>
       </c>
-      <c r="CD40" s="28">
+      <c r="CD40" s="10">
         <v>5627.9059695102651</v>
       </c>
-      <c r="CE40" s="28">
+      <c r="CE40" s="10">
         <v>4399.1771274858929</v>
       </c>
-      <c r="CF40" s="28">
+      <c r="CF40" s="10">
         <v>4801.1070498634544</v>
       </c>
-      <c r="CG40" s="28">
+      <c r="CG40" s="10">
         <v>5009.4938772169016</v>
       </c>
-      <c r="CH40" s="28">
+      <c r="CH40" s="29">
         <v>5679.1337296377524</v>
       </c>
-      <c r="CI40" s="28">
+      <c r="CI40" s="29">
         <v>4507.0288915022302</v>
       </c>
-      <c r="CJ40" s="28">
+      <c r="CJ40" s="29">
         <v>4854.7731274196631</v>
       </c>
-      <c r="CK40" s="28">
+      <c r="CK40" s="29">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="28">
-        <v>5522.8055813720812</v>
-      </c>
-      <c r="CM40" s="11"/>
+      <c r="CL40" s="29">
+        <v>5500.2620241625873</v>
+      </c>
+      <c r="CM40" s="29">
+        <v>4345.1691683279378</v>
+      </c>
       <c r="CN40" s="11"/>
       <c r="CO40" s="11"/>
       <c r="CP40" s="11"/>
@@ -6516,7 +6585,7 @@
       <c r="EU40" s="11"/>
       <c r="EV40" s="11"/>
     </row>
-    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6748,46 +6817,48 @@
       <c r="BY41" s="10">
         <v>11730.225515228074</v>
       </c>
-      <c r="BZ41" s="28">
+      <c r="BZ41" s="10">
         <v>18496.603587586502</v>
       </c>
-      <c r="CA41" s="28">
+      <c r="CA41" s="10">
         <v>11809.924598727201</v>
       </c>
-      <c r="CB41" s="28">
+      <c r="CB41" s="10">
         <v>12012.238824907299</v>
       </c>
-      <c r="CC41" s="28">
+      <c r="CC41" s="10">
         <v>14832.158078880675</v>
       </c>
-      <c r="CD41" s="28">
+      <c r="CD41" s="10">
         <v>20996.639621719332</v>
       </c>
-      <c r="CE41" s="28">
+      <c r="CE41" s="10">
         <v>17302.357567779261</v>
       </c>
-      <c r="CF41" s="28">
+      <c r="CF41" s="10">
         <v>14003.190699812041</v>
       </c>
-      <c r="CG41" s="28">
+      <c r="CG41" s="10">
         <v>18950.325767817922</v>
       </c>
-      <c r="CH41" s="28">
+      <c r="CH41" s="29">
         <v>30857.729259048752</v>
       </c>
-      <c r="CI41" s="28">
+      <c r="CI41" s="29">
         <v>29358.325947937912</v>
       </c>
-      <c r="CJ41" s="28">
+      <c r="CJ41" s="29">
         <v>19898.02283507834</v>
       </c>
-      <c r="CK41" s="28">
+      <c r="CK41" s="29">
         <v>22526.775377773323</v>
       </c>
-      <c r="CL41" s="28">
-        <v>31636.697680010442</v>
-      </c>
-      <c r="CM41" s="11"/>
+      <c r="CL41" s="29">
+        <v>27508.056124545346</v>
+      </c>
+      <c r="CM41" s="29">
+        <v>21536.067071076046</v>
+      </c>
       <c r="CN41" s="11"/>
       <c r="CO41" s="11"/>
       <c r="CP41" s="11"/>
@@ -6850,7 +6921,7 @@
       <c r="EU41" s="11"/>
       <c r="EV41" s="11"/>
     </row>
-    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7082,46 +7153,48 @@
       <c r="BY42" s="10">
         <v>66500.394174755624</v>
       </c>
-      <c r="BZ42" s="28">
+      <c r="BZ42" s="10">
         <v>78386.144458014402</v>
       </c>
-      <c r="CA42" s="28">
+      <c r="CA42" s="10">
         <v>65132.164223976302</v>
       </c>
-      <c r="CB42" s="28">
+      <c r="CB42" s="10">
         <v>56112.024167546297</v>
       </c>
-      <c r="CC42" s="28">
+      <c r="CC42" s="10">
         <v>81660.924186886157</v>
       </c>
-      <c r="CD42" s="28">
+      <c r="CD42" s="10">
         <v>97906.523479371841</v>
       </c>
-      <c r="CE42" s="28">
+      <c r="CE42" s="10">
         <v>46419.466665149135</v>
       </c>
-      <c r="CF42" s="28">
+      <c r="CF42" s="10">
         <v>50256.070026286041</v>
       </c>
-      <c r="CG42" s="28">
+      <c r="CG42" s="10">
         <v>58293.603334826606</v>
       </c>
-      <c r="CH42" s="28">
+      <c r="CH42" s="29">
         <v>79362.262446508073</v>
       </c>
-      <c r="CI42" s="28">
+      <c r="CI42" s="29">
         <v>55375.311527468963</v>
       </c>
-      <c r="CJ42" s="28">
+      <c r="CJ42" s="29">
         <v>54854.538198362068</v>
       </c>
-      <c r="CK42" s="28">
+      <c r="CK42" s="29">
         <v>63856.299711898791</v>
       </c>
-      <c r="CL42" s="28">
-        <v>103209.10942523077</v>
-      </c>
-      <c r="CM42" s="11"/>
+      <c r="CL42" s="29">
+        <v>104673.93880912616</v>
+      </c>
+      <c r="CM42" s="29">
+        <v>69045.79655493141</v>
+      </c>
       <c r="CN42" s="11"/>
       <c r="CO42" s="11"/>
       <c r="CP42" s="11"/>
@@ -7184,7 +7257,7 @@
       <c r="EU42" s="11"/>
       <c r="EV42" s="11"/>
     </row>
-    <row r="43" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -7416,46 +7489,48 @@
       <c r="BY43" s="10">
         <v>11010.87698258986</v>
       </c>
-      <c r="BZ43" s="28">
+      <c r="BZ43" s="10">
         <v>16862.071074223801</v>
       </c>
-      <c r="CA43" s="28">
+      <c r="CA43" s="10">
         <v>9566.4797238713509</v>
       </c>
-      <c r="CB43" s="28">
+      <c r="CB43" s="10">
         <v>9620.9203586558906</v>
       </c>
-      <c r="CC43" s="28">
+      <c r="CC43" s="10">
         <v>12922.6844675268</v>
       </c>
-      <c r="CD43" s="28">
+      <c r="CD43" s="10">
         <v>14919.683933816232</v>
       </c>
-      <c r="CE43" s="28">
+      <c r="CE43" s="10">
         <v>5608.4532343837782</v>
       </c>
-      <c r="CF43" s="28">
+      <c r="CF43" s="10">
         <v>4856.1512556218304</v>
       </c>
-      <c r="CG43" s="28">
+      <c r="CG43" s="10">
         <v>7551.3426498558965</v>
       </c>
-      <c r="CH43" s="28">
+      <c r="CH43" s="29">
         <v>7473.9852212926062</v>
       </c>
-      <c r="CI43" s="28">
+      <c r="CI43" s="29">
         <v>7388.7698321664839</v>
       </c>
-      <c r="CJ43" s="28">
+      <c r="CJ43" s="29">
         <v>7055.18510035081</v>
       </c>
-      <c r="CK43" s="28">
+      <c r="CK43" s="29">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="28">
-        <v>9758.0365131327617</v>
-      </c>
-      <c r="CM43" s="11"/>
+      <c r="CL43" s="29">
+        <v>8534.4574135530274</v>
+      </c>
+      <c r="CM43" s="29">
+        <v>5971.0820370363454</v>
+      </c>
       <c r="CN43" s="11"/>
       <c r="CO43" s="11"/>
       <c r="CP43" s="11"/>
@@ -7518,7 +7593,7 @@
       <c r="EU43" s="11"/>
       <c r="EV43" s="11"/>
     </row>
-    <row r="44" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -7750,46 +7825,48 @@
       <c r="BY44" s="10">
         <v>15027.395813085703</v>
       </c>
-      <c r="BZ44" s="28">
+      <c r="BZ44" s="10">
         <v>17344.56069232466</v>
       </c>
-      <c r="CA44" s="28">
+      <c r="CA44" s="10">
         <v>13667.220088163795</v>
       </c>
-      <c r="CB44" s="28">
+      <c r="CB44" s="10">
         <v>10205.135534125404</v>
       </c>
-      <c r="CC44" s="28">
+      <c r="CC44" s="10">
         <v>26251.877647424528</v>
       </c>
-      <c r="CD44" s="28">
+      <c r="CD44" s="10">
         <v>13604.674185082638</v>
       </c>
-      <c r="CE44" s="28">
+      <c r="CE44" s="10">
         <v>9444.6829102858501</v>
       </c>
-      <c r="CF44" s="28">
+      <c r="CF44" s="10">
         <v>6353.408586677705</v>
       </c>
-      <c r="CG44" s="28">
+      <c r="CG44" s="10">
         <v>13688.576578580429</v>
       </c>
-      <c r="CH44" s="28">
+      <c r="CH44" s="29">
         <v>9061.8605375509469</v>
       </c>
-      <c r="CI44" s="28">
+      <c r="CI44" s="29">
         <v>5840.6722241052976</v>
       </c>
-      <c r="CJ44" s="28">
+      <c r="CJ44" s="29">
         <v>5966.7813445371357</v>
       </c>
-      <c r="CK44" s="28">
+      <c r="CK44" s="29">
         <v>13560.490219946529</v>
       </c>
-      <c r="CL44" s="28">
-        <v>10781.896178532712</v>
-      </c>
-      <c r="CM44" s="11"/>
+      <c r="CL44" s="29">
+        <v>14809.684861557245</v>
+      </c>
+      <c r="CM44" s="29">
+        <v>9253.6614514337125</v>
+      </c>
       <c r="CN44" s="11"/>
       <c r="CO44" s="11"/>
       <c r="CP44" s="11"/>
@@ -7852,7 +7929,7 @@
       <c r="EU44" s="11"/>
       <c r="EV44" s="11"/>
     </row>
-    <row r="45" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -7929,20 +8006,20 @@
       <c r="BW45" s="12"/>
       <c r="BX45" s="12"/>
       <c r="BY45" s="12"/>
-      <c r="BZ45" s="29"/>
-      <c r="CA45" s="29"/>
-      <c r="CB45" s="29"/>
-      <c r="CC45" s="29"/>
-      <c r="CD45" s="29"/>
-      <c r="CE45" s="29"/>
-      <c r="CF45" s="29"/>
-      <c r="CG45" s="29"/>
-      <c r="CH45" s="29"/>
-      <c r="CI45" s="29"/>
-      <c r="CJ45" s="29"/>
-      <c r="CK45" s="29"/>
-      <c r="CL45" s="29"/>
-      <c r="CM45" s="11"/>
+      <c r="BZ45" s="12"/>
+      <c r="CA45" s="12"/>
+      <c r="CB45" s="12"/>
+      <c r="CC45" s="12"/>
+      <c r="CD45" s="12"/>
+      <c r="CE45" s="12"/>
+      <c r="CF45" s="12"/>
+      <c r="CG45" s="12"/>
+      <c r="CH45" s="30"/>
+      <c r="CI45" s="30"/>
+      <c r="CJ45" s="30"/>
+      <c r="CK45" s="30"/>
+      <c r="CL45" s="30"/>
+      <c r="CM45" s="30"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
       <c r="CP45" s="11"/>
@@ -8005,7 +8082,7 @@
       <c r="EU45" s="11"/>
       <c r="EV45" s="11"/>
     </row>
-    <row r="46" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>17</v>
       </c>
@@ -8237,46 +8314,48 @@
       <c r="BY46" s="15">
         <v>431776.90872260701</v>
       </c>
-      <c r="BZ46" s="30">
+      <c r="BZ46" s="15">
         <v>386169.82316032652</v>
       </c>
-      <c r="CA46" s="30">
+      <c r="CA46" s="15">
         <v>306924.64481029852</v>
       </c>
-      <c r="CB46" s="30">
+      <c r="CB46" s="15">
         <v>361315.7105482191</v>
       </c>
-      <c r="CC46" s="30">
+      <c r="CC46" s="15">
         <v>474848.72093321104</v>
       </c>
-      <c r="CD46" s="30">
+      <c r="CD46" s="15">
         <v>377454.08186515648</v>
       </c>
-      <c r="CE46" s="30">
+      <c r="CE46" s="15">
         <v>214777.88124123414</v>
       </c>
-      <c r="CF46" s="30">
+      <c r="CF46" s="15">
         <v>260587.43498185079</v>
       </c>
-      <c r="CG46" s="30">
+      <c r="CG46" s="15">
         <v>267210.21981634409</v>
       </c>
-      <c r="CH46" s="30">
+      <c r="CH46" s="31">
         <v>250463.32294230157</v>
       </c>
-      <c r="CI46" s="30">
+      <c r="CI46" s="31">
         <v>216990.21159942276</v>
       </c>
-      <c r="CJ46" s="30">
+      <c r="CJ46" s="31">
         <v>244997.48168149858</v>
       </c>
-      <c r="CK46" s="30">
+      <c r="CK46" s="31">
         <v>298720.41114807234</v>
       </c>
-      <c r="CL46" s="30">
-        <v>330493.57686000015</v>
-      </c>
-      <c r="CM46" s="11"/>
+      <c r="CL46" s="31">
+        <v>331874.52708445321</v>
+      </c>
+      <c r="CM46" s="31">
+        <v>281882.10674346663</v>
+      </c>
       <c r="CN46" s="11"/>
       <c r="CO46" s="11"/>
       <c r="CP46" s="11"/>
@@ -8339,7 +8418,7 @@
       <c r="EU46" s="11"/>
       <c r="EV46" s="11"/>
     </row>
-    <row r="47" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -8417,26 +8496,27 @@
       <c r="BW47" s="17"/>
       <c r="BX47" s="17"/>
       <c r="BY47" s="17"/>
-      <c r="BZ47" s="31"/>
-      <c r="CA47" s="31"/>
-      <c r="CB47" s="31"/>
-      <c r="CC47" s="31"/>
-      <c r="CD47" s="31"/>
-      <c r="CE47" s="31"/>
-      <c r="CF47" s="31"/>
-      <c r="CG47" s="31"/>
-      <c r="CH47" s="31"/>
-      <c r="CI47" s="31"/>
-      <c r="CJ47" s="31"/>
-      <c r="CK47" s="31"/>
-      <c r="CL47" s="31"/>
+      <c r="BZ47" s="17"/>
+      <c r="CA47" s="17"/>
+      <c r="CB47" s="17"/>
+      <c r="CC47" s="17"/>
+      <c r="CD47" s="17"/>
+      <c r="CE47" s="17"/>
+      <c r="CF47" s="17"/>
+      <c r="CG47" s="17"/>
+      <c r="CH47" s="32"/>
+      <c r="CI47" s="32"/>
+      <c r="CJ47" s="32"/>
+      <c r="CK47" s="32"/>
+      <c r="CL47" s="32"/>
+      <c r="CM47" s="32"/>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -8513,20 +8593,20 @@
       <c r="BW49" s="12"/>
       <c r="BX49" s="12"/>
       <c r="BY49" s="12"/>
-      <c r="BZ49" s="29"/>
-      <c r="CA49" s="29"/>
-      <c r="CB49" s="29"/>
-      <c r="CC49" s="29"/>
-      <c r="CD49" s="29"/>
-      <c r="CE49" s="29"/>
-      <c r="CF49" s="29"/>
-      <c r="CG49" s="29"/>
-      <c r="CH49" s="29"/>
-      <c r="CI49" s="29"/>
-      <c r="CJ49" s="29"/>
-      <c r="CK49" s="29"/>
-      <c r="CL49" s="29"/>
-      <c r="CM49" s="11"/>
+      <c r="BZ49" s="12"/>
+      <c r="CA49" s="12"/>
+      <c r="CB49" s="12"/>
+      <c r="CC49" s="12"/>
+      <c r="CD49" s="12"/>
+      <c r="CE49" s="12"/>
+      <c r="CF49" s="12"/>
+      <c r="CG49" s="12"/>
+      <c r="CH49" s="30"/>
+      <c r="CI49" s="30"/>
+      <c r="CJ49" s="30"/>
+      <c r="CK49" s="30"/>
+      <c r="CL49" s="30"/>
+      <c r="CM49" s="30"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
       <c r="CP49" s="11"/>
@@ -8589,7 +8669,7 @@
       <c r="EU49" s="11"/>
       <c r="EV49" s="11"/>
     </row>
-    <row r="50" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -8666,20 +8746,20 @@
       <c r="BW50" s="12"/>
       <c r="BX50" s="12"/>
       <c r="BY50" s="12"/>
-      <c r="BZ50" s="29"/>
-      <c r="CA50" s="29"/>
-      <c r="CB50" s="29"/>
-      <c r="CC50" s="29"/>
-      <c r="CD50" s="29"/>
-      <c r="CE50" s="29"/>
-      <c r="CF50" s="29"/>
-      <c r="CG50" s="29"/>
-      <c r="CH50" s="29"/>
-      <c r="CI50" s="29"/>
-      <c r="CJ50" s="29"/>
-      <c r="CK50" s="29"/>
-      <c r="CL50" s="29"/>
-      <c r="CM50" s="11"/>
+      <c r="BZ50" s="12"/>
+      <c r="CA50" s="12"/>
+      <c r="CB50" s="12"/>
+      <c r="CC50" s="12"/>
+      <c r="CD50" s="12"/>
+      <c r="CE50" s="12"/>
+      <c r="CF50" s="12"/>
+      <c r="CG50" s="12"/>
+      <c r="CH50" s="30"/>
+      <c r="CI50" s="30"/>
+      <c r="CJ50" s="30"/>
+      <c r="CK50" s="30"/>
+      <c r="CL50" s="30"/>
+      <c r="CM50" s="30"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
@@ -8742,173 +8822,174 @@
       <c r="EU50" s="11"/>
       <c r="EV50" s="11"/>
     </row>
-    <row r="51" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37" t="s">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37" t="s">
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37" t="s">
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37" t="s">
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37" t="s">
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37" t="s">
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37" t="s">
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="37" t="s">
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="37"/>
-      <c r="AO59" s="37"/>
-      <c r="AP59" s="37" t="s">
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="39"/>
+      <c r="AP59" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="37"/>
-      <c r="AR59" s="37"/>
-      <c r="AS59" s="37"/>
-      <c r="AT59" s="37" t="s">
+      <c r="AQ59" s="39"/>
+      <c r="AR59" s="39"/>
+      <c r="AS59" s="39"/>
+      <c r="AT59" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="37"/>
-      <c r="AV59" s="37"/>
-      <c r="AW59" s="37"/>
-      <c r="AX59" s="37" t="s">
+      <c r="AU59" s="39"/>
+      <c r="AV59" s="39"/>
+      <c r="AW59" s="39"/>
+      <c r="AX59" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
-      <c r="BB59" s="37" t="s">
+      <c r="AY59" s="39"/>
+      <c r="AZ59" s="39"/>
+      <c r="BA59" s="39"/>
+      <c r="BB59" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="37"/>
-      <c r="BD59" s="37"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="37" t="s">
+      <c r="BC59" s="39"/>
+      <c r="BD59" s="39"/>
+      <c r="BE59" s="39"/>
+      <c r="BF59" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="37"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="37"/>
-      <c r="BJ59" s="37" t="s">
+      <c r="BG59" s="39"/>
+      <c r="BH59" s="39"/>
+      <c r="BI59" s="39"/>
+      <c r="BJ59" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="37"/>
-      <c r="BM59" s="37"/>
-      <c r="BN59" s="37" t="s">
+      <c r="BK59" s="39"/>
+      <c r="BL59" s="39"/>
+      <c r="BM59" s="39"/>
+      <c r="BN59" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="37"/>
-      <c r="BP59" s="37"/>
-      <c r="BQ59" s="37"/>
-      <c r="BR59" s="37" t="s">
+      <c r="BO59" s="39"/>
+      <c r="BP59" s="39"/>
+      <c r="BQ59" s="39"/>
+      <c r="BR59" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="37"/>
-      <c r="BU59" s="37"/>
-      <c r="BV59" s="36" t="s">
+      <c r="BS59" s="39"/>
+      <c r="BT59" s="39"/>
+      <c r="BU59" s="39"/>
+      <c r="BV59" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="36"/>
-      <c r="BX59" s="36"/>
-      <c r="BY59" s="36"/>
-      <c r="BZ59" s="40" t="s">
+      <c r="BW59" s="38"/>
+      <c r="BX59" s="38"/>
+      <c r="BY59" s="38"/>
+      <c r="BZ59" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="40"/>
-      <c r="CB59" s="40"/>
-      <c r="CC59" s="40"/>
-      <c r="CD59" s="40" t="s">
+      <c r="CA59" s="38"/>
+      <c r="CB59" s="38"/>
+      <c r="CC59" s="38"/>
+      <c r="CD59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="40"/>
-      <c r="CF59" s="40"/>
-      <c r="CG59" s="40"/>
-      <c r="CH59" s="35" t="s">
+      <c r="CE59" s="38"/>
+      <c r="CF59" s="38"/>
+      <c r="CG59" s="38"/>
+      <c r="CH59" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="35"/>
-      <c r="CJ59" s="35"/>
-      <c r="CK59" s="35"/>
-      <c r="CL59" s="35"/>
+      <c r="CI59" s="37"/>
+      <c r="CJ59" s="34"/>
+      <c r="CK59" s="34"/>
+      <c r="CL59" s="27"/>
+      <c r="CM59" s="27"/>
     </row>
-    <row r="60" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -9138,42 +9219,45 @@
       <c r="BY60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ60" s="32" t="s">
+      <c r="BZ60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA60" s="32" t="s">
+      <c r="CA60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB60" s="32" t="s">
+      <c r="CB60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC60" s="32" t="s">
+      <c r="CC60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD60" s="32" t="s">
+      <c r="CD60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE60" s="32" t="s">
+      <c r="CE60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF60" s="32" t="s">
+      <c r="CF60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG60" s="32" t="s">
+      <c r="CG60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="32" t="s">
+      <c r="CH60" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CI60" s="27"/>
-      <c r="CJ60" s="27"/>
-      <c r="CK60" s="27"/>
-      <c r="CL60" s="27"/>
+      <c r="CI60" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ60" s="33"/>
+      <c r="CK60" s="33"/>
+      <c r="CL60" s="33"/>
+      <c r="CM60" s="28"/>
     </row>
-    <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9405,38 +9489,40 @@
       <c r="BY62" s="21">
         <v>-23.385953717509139</v>
       </c>
-      <c r="BZ62" s="33">
+      <c r="BZ62" s="21">
         <v>-2.4974890816550186</v>
       </c>
-      <c r="CA62" s="33">
+      <c r="CA62" s="21">
         <v>-45.476067429737419</v>
       </c>
-      <c r="CB62" s="33">
+      <c r="CB62" s="21">
         <v>-22.974781891738331</v>
       </c>
-      <c r="CC62" s="33">
+      <c r="CC62" s="21">
         <v>-18.776073104159224</v>
       </c>
-      <c r="CD62" s="33">
+      <c r="CD62" s="21">
         <v>-22.383354876287441</v>
       </c>
-      <c r="CE62" s="33">
+      <c r="CE62" s="21">
         <v>53.013260012370438</v>
       </c>
-      <c r="CF62" s="33">
+      <c r="CF62" s="21">
         <v>31.321112503194058</v>
       </c>
-      <c r="CG62" s="33">
+      <c r="CG62" s="21">
         <v>39.827467238214808</v>
       </c>
-      <c r="CH62" s="33">
-        <v>34.682186456323677</v>
-      </c>
-      <c r="CI62" s="29"/>
-      <c r="CJ62" s="29"/>
-      <c r="CK62" s="29"/>
-      <c r="CL62" s="29"/>
-      <c r="CM62" s="11"/>
+      <c r="CH62" s="35">
+        <v>38.641032648675463</v>
+      </c>
+      <c r="CI62" s="35">
+        <v>41.352344856435138</v>
+      </c>
+      <c r="CJ62" s="35"/>
+      <c r="CK62" s="35"/>
+      <c r="CL62" s="35"/>
+      <c r="CM62" s="30"/>
       <c r="CN62" s="11"/>
       <c r="CO62" s="11"/>
       <c r="CP62" s="11"/>
@@ -9495,7 +9581,7 @@
       <c r="EQ62" s="11"/>
       <c r="ER62" s="11"/>
     </row>
-    <row r="63" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9727,38 +9813,40 @@
       <c r="BY63" s="21">
         <v>1.7553552392954259</v>
       </c>
-      <c r="BZ63" s="33">
+      <c r="BZ63" s="21">
         <v>-13.67827167765175</v>
       </c>
-      <c r="CA63" s="33">
+      <c r="CA63" s="21">
         <v>-38.016725087470007</v>
       </c>
-      <c r="CB63" s="33">
+      <c r="CB63" s="21">
         <v>-11.795742773703083</v>
       </c>
-      <c r="CC63" s="33">
+      <c r="CC63" s="21">
         <v>-19.14461401397763</v>
       </c>
-      <c r="CD63" s="33">
+      <c r="CD63" s="21">
         <v>11.670382561238384</v>
       </c>
-      <c r="CE63" s="33">
+      <c r="CE63" s="21">
         <v>61.48186818510905</v>
       </c>
-      <c r="CF63" s="33">
+      <c r="CF63" s="21">
         <v>19.321154587502008</v>
       </c>
-      <c r="CG63" s="33">
+      <c r="CG63" s="21">
         <v>43.799674558507917</v>
       </c>
-      <c r="CH63" s="33">
-        <v>33.484767211049558</v>
-      </c>
-      <c r="CI63" s="29"/>
-      <c r="CJ63" s="29"/>
-      <c r="CK63" s="29"/>
-      <c r="CL63" s="29"/>
-      <c r="CM63" s="11"/>
+      <c r="CH63" s="35">
+        <v>33.649952746229985</v>
+      </c>
+      <c r="CI63" s="35">
+        <v>25.963088522181252</v>
+      </c>
+      <c r="CJ63" s="35"/>
+      <c r="CK63" s="35"/>
+      <c r="CL63" s="35"/>
+      <c r="CM63" s="30"/>
       <c r="CN63" s="11"/>
       <c r="CO63" s="11"/>
       <c r="CP63" s="11"/>
@@ -9817,7 +9905,7 @@
       <c r="EQ63" s="11"/>
       <c r="ER63" s="11"/>
     </row>
-    <row r="64" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10049,38 +10137,40 @@
       <c r="BY64" s="21">
         <v>15.125939096600476</v>
       </c>
-      <c r="BZ64" s="33">
+      <c r="BZ64" s="21">
         <v>-8.1348194152738245</v>
       </c>
-      <c r="CA64" s="33">
+      <c r="CA64" s="21">
         <v>-29.032857668472317</v>
       </c>
-      <c r="CB64" s="33">
+      <c r="CB64" s="21">
         <v>-39.482129134804978</v>
       </c>
-      <c r="CC64" s="33">
+      <c r="CC64" s="21">
         <v>-62.547023003272514</v>
       </c>
-      <c r="CD64" s="33">
+      <c r="CD64" s="21">
         <v>-68.051523672875376</v>
       </c>
-      <c r="CE64" s="33">
+      <c r="CE64" s="21">
         <v>-52.818808357475284</v>
       </c>
-      <c r="CF64" s="33">
+      <c r="CF64" s="21">
         <v>-39.778856615383972</v>
       </c>
-      <c r="CG64" s="33">
+      <c r="CG64" s="21">
         <v>5.2938014109528524</v>
       </c>
-      <c r="CH64" s="33">
-        <v>75.98573374585834</v>
-      </c>
-      <c r="CI64" s="29"/>
-      <c r="CJ64" s="29"/>
-      <c r="CK64" s="29"/>
-      <c r="CL64" s="29"/>
-      <c r="CM64" s="11"/>
+      <c r="CH64" s="35">
+        <v>74.663035505953246</v>
+      </c>
+      <c r="CI64" s="35">
+        <v>103.98554114936886</v>
+      </c>
+      <c r="CJ64" s="35"/>
+      <c r="CK64" s="35"/>
+      <c r="CL64" s="35"/>
+      <c r="CM64" s="30"/>
       <c r="CN64" s="11"/>
       <c r="CO64" s="11"/>
       <c r="CP64" s="11"/>
@@ -10139,7 +10229,7 @@
       <c r="EQ64" s="11"/>
       <c r="ER64" s="11"/>
     </row>
-    <row r="65" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10371,38 +10461,40 @@
       <c r="BY65" s="21">
         <v>5.7540457769495106</v>
       </c>
-      <c r="BZ65" s="33">
+      <c r="BZ65" s="21">
         <v>-28.260417954160317</v>
       </c>
-      <c r="CA65" s="33">
+      <c r="CA65" s="21">
         <v>-28.282889356104192</v>
       </c>
-      <c r="CB65" s="33">
+      <c r="CB65" s="21">
         <v>-28.43987473255217</v>
       </c>
-      <c r="CC65" s="33">
+      <c r="CC65" s="21">
         <v>-28.426888341679515</v>
       </c>
-      <c r="CD65" s="33">
+      <c r="CD65" s="21">
         <v>-0.11855879594548924</v>
       </c>
-      <c r="CE65" s="33">
+      <c r="CE65" s="21">
         <v>-0.10902368548732966</v>
       </c>
-      <c r="CF65" s="33">
+      <c r="CF65" s="21">
         <v>0.52370015316840579</v>
       </c>
-      <c r="CG65" s="33">
+      <c r="CG65" s="21">
         <v>0.66319000617347967</v>
       </c>
-      <c r="CH65" s="33">
-        <v>0.72053753619280769</v>
-      </c>
-      <c r="CI65" s="29"/>
-      <c r="CJ65" s="29"/>
-      <c r="CK65" s="29"/>
-      <c r="CL65" s="29"/>
-      <c r="CM65" s="11"/>
+      <c r="CH65" s="35">
+        <v>0.3094060620419441</v>
+      </c>
+      <c r="CI65" s="35">
+        <v>2.0241392513720342</v>
+      </c>
+      <c r="CJ65" s="35"/>
+      <c r="CK65" s="35"/>
+      <c r="CL65" s="35"/>
+      <c r="CM65" s="30"/>
       <c r="CN65" s="11"/>
       <c r="CO65" s="11"/>
       <c r="CP65" s="11"/>
@@ -10461,7 +10553,7 @@
       <c r="EQ65" s="11"/>
       <c r="ER65" s="11"/>
     </row>
-    <row r="66" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10693,38 +10785,40 @@
       <c r="BY66" s="21">
         <v>29.517641246931845</v>
       </c>
-      <c r="BZ66" s="33">
+      <c r="BZ66" s="21">
         <v>14.867010903515634</v>
       </c>
-      <c r="CA66" s="33">
+      <c r="CA66" s="21">
         <v>46.215483322510977</v>
       </c>
-      <c r="CB66" s="33">
+      <c r="CB66" s="21">
         <v>14.627251337440754</v>
       </c>
-      <c r="CC66" s="33">
+      <c r="CC66" s="21">
         <v>22.575163676768753</v>
       </c>
-      <c r="CD66" s="33">
+      <c r="CD66" s="21">
         <v>45.466740484912918</v>
       </c>
-      <c r="CE66" s="33">
+      <c r="CE66" s="21">
         <v>65.437275583309997</v>
       </c>
-      <c r="CF66" s="33">
+      <c r="CF66" s="21">
         <v>41.261507939718598</v>
       </c>
-      <c r="CG66" s="33">
+      <c r="CG66" s="21">
         <v>22.961318402961922</v>
       </c>
-      <c r="CH66" s="33">
-        <v>6.186071876128679</v>
-      </c>
-      <c r="CI66" s="29"/>
-      <c r="CJ66" s="29"/>
-      <c r="CK66" s="29"/>
-      <c r="CL66" s="29"/>
-      <c r="CM66" s="11"/>
+      <c r="CH66" s="35">
+        <v>-7.6713867434033176</v>
+      </c>
+      <c r="CI66" s="35">
+        <v>-22.371409740895089</v>
+      </c>
+      <c r="CJ66" s="35"/>
+      <c r="CK66" s="35"/>
+      <c r="CL66" s="35"/>
+      <c r="CM66" s="30"/>
       <c r="CN66" s="11"/>
       <c r="CO66" s="11"/>
       <c r="CP66" s="11"/>
@@ -10783,7 +10877,7 @@
       <c r="EQ66" s="11"/>
       <c r="ER66" s="11"/>
     </row>
-    <row r="67" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -11015,38 +11109,40 @@
       <c r="BY67" s="21">
         <v>26.484180141880159</v>
       </c>
-      <c r="BZ67" s="33">
+      <c r="BZ67" s="21">
         <v>26.389163882955089</v>
       </c>
-      <c r="CA67" s="33">
+      <c r="CA67" s="21">
         <v>-28.872123480816967</v>
       </c>
-      <c r="CB67" s="33">
+      <c r="CB67" s="21">
         <v>-11.932144312263816</v>
       </c>
-      <c r="CC67" s="33">
+      <c r="CC67" s="21">
         <v>-31.514795346006792</v>
       </c>
-      <c r="CD67" s="33">
+      <c r="CD67" s="21">
         <v>-19.767200127160493</v>
       </c>
-      <c r="CE67" s="33">
+      <c r="CE67" s="21">
         <v>16.311699258047867</v>
       </c>
-      <c r="CF67" s="33">
+      <c r="CF67" s="21">
         <v>8.5087986576314592</v>
       </c>
-      <c r="CG67" s="33">
+      <c r="CG67" s="21">
         <v>13.310201026319547</v>
       </c>
-      <c r="CH67" s="33">
-        <v>34.692795203682039</v>
-      </c>
-      <c r="CI67" s="29"/>
-      <c r="CJ67" s="29"/>
-      <c r="CK67" s="29"/>
-      <c r="CL67" s="29"/>
-      <c r="CM67" s="11"/>
+      <c r="CH67" s="35">
+        <v>36.604467199614646</v>
+      </c>
+      <c r="CI67" s="35">
+        <v>31.949471175058505</v>
+      </c>
+      <c r="CJ67" s="35"/>
+      <c r="CK67" s="35"/>
+      <c r="CL67" s="35"/>
+      <c r="CM67" s="30"/>
       <c r="CN67" s="11"/>
       <c r="CO67" s="11"/>
       <c r="CP67" s="11"/>
@@ -11105,7 +11201,7 @@
       <c r="EQ67" s="11"/>
       <c r="ER67" s="11"/>
     </row>
-    <row r="68" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -11337,38 +11433,40 @@
       <c r="BY68" s="21">
         <v>22.332413075919504</v>
       </c>
-      <c r="BZ68" s="33">
+      <c r="BZ68" s="21">
         <v>-10.466363931719442</v>
       </c>
-      <c r="CA68" s="33">
+      <c r="CA68" s="21">
         <v>-41.490531402449307</v>
       </c>
-      <c r="CB68" s="33">
+      <c r="CB68" s="21">
         <v>-50.368155069610076</v>
       </c>
-      <c r="CC68" s="33">
+      <c r="CC68" s="21">
         <v>-43.938903986888903</v>
       </c>
-      <c r="CD68" s="33">
+      <c r="CD68" s="21">
         <v>-50.415932584702347</v>
       </c>
-      <c r="CE68" s="33">
+      <c r="CE68" s="21">
         <v>28.450677610818644</v>
       </c>
-      <c r="CF68" s="33">
+      <c r="CF68" s="21">
         <v>44.42990424242987</v>
       </c>
-      <c r="CG68" s="33">
+      <c r="CG68" s="21">
         <v>24.094817340864665</v>
       </c>
-      <c r="CH68" s="33">
-        <v>35.223003889613267</v>
-      </c>
-      <c r="CI68" s="29"/>
-      <c r="CJ68" s="29"/>
-      <c r="CK68" s="29"/>
-      <c r="CL68" s="29"/>
-      <c r="CM68" s="11"/>
+      <c r="CH68" s="35">
+        <v>18.267129506581156</v>
+      </c>
+      <c r="CI68" s="35">
+        <v>-14.48003938847539</v>
+      </c>
+      <c r="CJ68" s="35"/>
+      <c r="CK68" s="35"/>
+      <c r="CL68" s="35"/>
+      <c r="CM68" s="30"/>
       <c r="CN68" s="11"/>
       <c r="CO68" s="11"/>
       <c r="CP68" s="11"/>
@@ -11427,7 +11525,7 @@
       <c r="EQ68" s="11"/>
       <c r="ER68" s="11"/>
     </row>
-    <row r="69" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -11659,38 +11757,40 @@
       <c r="BY69" s="21">
         <v>82.265638860163733</v>
       </c>
-      <c r="BZ69" s="33">
+      <c r="BZ69" s="21">
         <v>-20.62890794705271</v>
       </c>
-      <c r="CA69" s="33">
+      <c r="CA69" s="21">
         <v>-31.032830892861469</v>
       </c>
-      <c r="CB69" s="33">
+      <c r="CB69" s="21">
         <v>-38.782887314004256</v>
       </c>
-      <c r="CC69" s="33">
+      <c r="CC69" s="21">
         <v>-49.974888467106872</v>
       </c>
-      <c r="CD69" s="33">
+      <c r="CD69" s="21">
         <v>-34.070654229406514</v>
       </c>
-      <c r="CE69" s="33">
+      <c r="CE69" s="21">
         <v>-39.704789288837162</v>
       </c>
-      <c r="CF69" s="33">
+      <c r="CF69" s="21">
         <v>-6.6371170517158191</v>
       </c>
-      <c r="CG69" s="33">
+      <c r="CG69" s="21">
         <v>2.4715398815570637</v>
       </c>
-      <c r="CH69" s="33">
-        <v>23.230481864164588</v>
-      </c>
-      <c r="CI69" s="29"/>
-      <c r="CJ69" s="29"/>
-      <c r="CK69" s="29"/>
-      <c r="CL69" s="29"/>
-      <c r="CM69" s="11"/>
+      <c r="CH69" s="35">
+        <v>69.265644143355502</v>
+      </c>
+      <c r="CI69" s="35">
+        <v>67.663050798957414</v>
+      </c>
+      <c r="CJ69" s="35"/>
+      <c r="CK69" s="35"/>
+      <c r="CL69" s="35"/>
+      <c r="CM69" s="30"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
@@ -11749,7 +11849,7 @@
       <c r="EQ69" s="11"/>
       <c r="ER69" s="11"/>
     </row>
-    <row r="70" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -11826,20 +11926,20 @@
       <c r="BW70" s="12"/>
       <c r="BX70" s="12"/>
       <c r="BY70" s="12"/>
-      <c r="BZ70" s="29"/>
-      <c r="CA70" s="29"/>
-      <c r="CB70" s="29"/>
-      <c r="CC70" s="29"/>
-      <c r="CD70" s="29"/>
-      <c r="CE70" s="29"/>
-      <c r="CF70" s="29"/>
-      <c r="CG70" s="29"/>
-      <c r="CH70" s="29"/>
-      <c r="CI70" s="29"/>
-      <c r="CJ70" s="29"/>
-      <c r="CK70" s="29"/>
-      <c r="CL70" s="29"/>
-      <c r="CM70" s="11"/>
+      <c r="BZ70" s="12"/>
+      <c r="CA70" s="12"/>
+      <c r="CB70" s="12"/>
+      <c r="CC70" s="12"/>
+      <c r="CD70" s="12"/>
+      <c r="CE70" s="12"/>
+      <c r="CF70" s="12"/>
+      <c r="CG70" s="12"/>
+      <c r="CH70" s="30"/>
+      <c r="CI70" s="30"/>
+      <c r="CJ70" s="30"/>
+      <c r="CK70" s="30"/>
+      <c r="CL70" s="30"/>
+      <c r="CM70" s="30"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
@@ -11898,7 +11998,7 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
     </row>
-    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>17</v>
       </c>
@@ -12130,38 +12230,40 @@
       <c r="BY71" s="21">
         <v>11.857598307933031</v>
       </c>
-      <c r="BZ71" s="33">
+      <c r="BZ71" s="21">
         <v>-1.4493890272586896</v>
       </c>
-      <c r="CA71" s="33">
+      <c r="CA71" s="21">
         <v>-30.253558737936217</v>
       </c>
-      <c r="CB71" s="33">
+      <c r="CB71" s="21">
         <v>-28.409024801586995</v>
       </c>
-      <c r="CC71" s="33">
+      <c r="CC71" s="21">
         <v>-44.937712270242017</v>
       </c>
-      <c r="CD71" s="33">
+      <c r="CD71" s="21">
         <v>-38.165685009773156</v>
       </c>
-      <c r="CE71" s="33">
+      <c r="CE71" s="21">
         <v>4.5472838188587161E-2</v>
       </c>
-      <c r="CF71" s="33">
+      <c r="CF71" s="21">
         <v>-3.5886952610775893</v>
       </c>
-      <c r="CG71" s="33">
+      <c r="CG71" s="21">
         <v>17.194545065083602</v>
       </c>
-      <c r="CH71" s="33">
-        <v>39.611204974642533</v>
-      </c>
-      <c r="CI71" s="29"/>
-      <c r="CJ71" s="29"/>
-      <c r="CK71" s="29"/>
-      <c r="CL71" s="29"/>
-      <c r="CM71" s="11"/>
+      <c r="CH71" s="35">
+        <v>40.144020103964948</v>
+      </c>
+      <c r="CI71" s="35">
+        <v>37.523864599947359</v>
+      </c>
+      <c r="CJ71" s="35"/>
+      <c r="CK71" s="35"/>
+      <c r="CL71" s="35"/>
+      <c r="CM71" s="30"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
@@ -12220,7 +12322,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
     </row>
-    <row r="72" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -12298,26 +12400,27 @@
       <c r="BW72" s="17"/>
       <c r="BX72" s="17"/>
       <c r="BY72" s="17"/>
-      <c r="BZ72" s="31"/>
-      <c r="CA72" s="31"/>
-      <c r="CB72" s="31"/>
-      <c r="CC72" s="31"/>
-      <c r="CD72" s="31"/>
-      <c r="CE72" s="31"/>
-      <c r="CF72" s="31"/>
-      <c r="CG72" s="31"/>
-      <c r="CH72" s="31"/>
-      <c r="CI72" s="31"/>
-      <c r="CJ72" s="31"/>
-      <c r="CK72" s="31"/>
-      <c r="CL72" s="31"/>
+      <c r="BZ72" s="17"/>
+      <c r="CA72" s="17"/>
+      <c r="CB72" s="17"/>
+      <c r="CC72" s="17"/>
+      <c r="CD72" s="17"/>
+      <c r="CE72" s="17"/>
+      <c r="CF72" s="17"/>
+      <c r="CG72" s="17"/>
+      <c r="CH72" s="32"/>
+      <c r="CI72" s="32"/>
+      <c r="CJ72" s="32"/>
+      <c r="CK72" s="32"/>
+      <c r="CL72" s="32"/>
+      <c r="CM72" s="32"/>
     </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -12394,20 +12497,20 @@
       <c r="BW74" s="12"/>
       <c r="BX74" s="12"/>
       <c r="BY74" s="12"/>
-      <c r="BZ74" s="29"/>
-      <c r="CA74" s="29"/>
-      <c r="CB74" s="29"/>
-      <c r="CC74" s="29"/>
-      <c r="CD74" s="29"/>
-      <c r="CE74" s="29"/>
-      <c r="CF74" s="29"/>
-      <c r="CG74" s="29"/>
-      <c r="CH74" s="29"/>
-      <c r="CI74" s="29"/>
-      <c r="CJ74" s="29"/>
-      <c r="CK74" s="29"/>
-      <c r="CL74" s="29"/>
-      <c r="CM74" s="11"/>
+      <c r="BZ74" s="12"/>
+      <c r="CA74" s="12"/>
+      <c r="CB74" s="12"/>
+      <c r="CC74" s="12"/>
+      <c r="CD74" s="12"/>
+      <c r="CE74" s="12"/>
+      <c r="CF74" s="12"/>
+      <c r="CG74" s="12"/>
+      <c r="CH74" s="30"/>
+      <c r="CI74" s="30"/>
+      <c r="CJ74" s="30"/>
+      <c r="CK74" s="30"/>
+      <c r="CL74" s="30"/>
+      <c r="CM74" s="30"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
       <c r="CP74" s="11"/>
@@ -12466,7 +12569,7 @@
       <c r="EQ74" s="11"/>
       <c r="ER74" s="11"/>
     </row>
-    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -12543,20 +12646,20 @@
       <c r="BW75" s="12"/>
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
-      <c r="BZ75" s="29"/>
-      <c r="CA75" s="29"/>
-      <c r="CB75" s="29"/>
-      <c r="CC75" s="29"/>
-      <c r="CD75" s="29"/>
-      <c r="CE75" s="29"/>
-      <c r="CF75" s="29"/>
-      <c r="CG75" s="29"/>
-      <c r="CH75" s="29"/>
-      <c r="CI75" s="29"/>
-      <c r="CJ75" s="29"/>
-      <c r="CK75" s="29"/>
-      <c r="CL75" s="29"/>
-      <c r="CM75" s="11"/>
+      <c r="BZ75" s="12"/>
+      <c r="CA75" s="12"/>
+      <c r="CB75" s="12"/>
+      <c r="CC75" s="12"/>
+      <c r="CD75" s="12"/>
+      <c r="CE75" s="12"/>
+      <c r="CF75" s="12"/>
+      <c r="CG75" s="12"/>
+      <c r="CH75" s="30"/>
+      <c r="CI75" s="30"/>
+      <c r="CJ75" s="30"/>
+      <c r="CK75" s="30"/>
+      <c r="CL75" s="30"/>
+      <c r="CM75" s="30"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
@@ -12615,173 +12718,174 @@
       <c r="EQ75" s="11"/>
       <c r="ER75" s="11"/>
     </row>
-    <row r="76" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37" t="s">
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37" t="s">
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37" t="s">
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37" t="s">
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37" t="s">
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37" t="s">
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="37"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="37" t="s">
+      <c r="AA84" s="39"/>
+      <c r="AB84" s="39"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="37"/>
-      <c r="AH84" s="37" t="s">
+      <c r="AE84" s="39"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="39"/>
+      <c r="AH84" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="37"/>
-      <c r="AJ84" s="37"/>
-      <c r="AK84" s="37"/>
-      <c r="AL84" s="37" t="s">
+      <c r="AI84" s="39"/>
+      <c r="AJ84" s="39"/>
+      <c r="AK84" s="39"/>
+      <c r="AL84" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="37"/>
-      <c r="AN84" s="37"/>
-      <c r="AO84" s="37"/>
-      <c r="AP84" s="37" t="s">
+      <c r="AM84" s="39"/>
+      <c r="AN84" s="39"/>
+      <c r="AO84" s="39"/>
+      <c r="AP84" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="37"/>
-      <c r="AR84" s="37"/>
-      <c r="AS84" s="37"/>
-      <c r="AT84" s="37" t="s">
+      <c r="AQ84" s="39"/>
+      <c r="AR84" s="39"/>
+      <c r="AS84" s="39"/>
+      <c r="AT84" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="37"/>
-      <c r="AV84" s="37"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37" t="s">
+      <c r="AU84" s="39"/>
+      <c r="AV84" s="39"/>
+      <c r="AW84" s="39"/>
+      <c r="AX84" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="37" t="s">
+      <c r="AY84" s="39"/>
+      <c r="AZ84" s="39"/>
+      <c r="BA84" s="39"/>
+      <c r="BB84" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="37"/>
-      <c r="BD84" s="37"/>
-      <c r="BE84" s="37"/>
-      <c r="BF84" s="37" t="s">
+      <c r="BC84" s="39"/>
+      <c r="BD84" s="39"/>
+      <c r="BE84" s="39"/>
+      <c r="BF84" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="37"/>
-      <c r="BH84" s="37"/>
-      <c r="BI84" s="37"/>
-      <c r="BJ84" s="37" t="s">
+      <c r="BG84" s="39"/>
+      <c r="BH84" s="39"/>
+      <c r="BI84" s="39"/>
+      <c r="BJ84" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="37"/>
-      <c r="BL84" s="37"/>
-      <c r="BM84" s="37"/>
-      <c r="BN84" s="37" t="s">
+      <c r="BK84" s="39"/>
+      <c r="BL84" s="39"/>
+      <c r="BM84" s="39"/>
+      <c r="BN84" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="37"/>
-      <c r="BP84" s="37"/>
-      <c r="BQ84" s="37"/>
-      <c r="BR84" s="37" t="s">
+      <c r="BO84" s="39"/>
+      <c r="BP84" s="39"/>
+      <c r="BQ84" s="39"/>
+      <c r="BR84" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="37"/>
-      <c r="BT84" s="37"/>
-      <c r="BU84" s="37"/>
-      <c r="BV84" s="36" t="s">
+      <c r="BS84" s="39"/>
+      <c r="BT84" s="39"/>
+      <c r="BU84" s="39"/>
+      <c r="BV84" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="36"/>
-      <c r="BX84" s="36"/>
-      <c r="BY84" s="36"/>
-      <c r="BZ84" s="40" t="s">
+      <c r="BW84" s="38"/>
+      <c r="BX84" s="38"/>
+      <c r="BY84" s="38"/>
+      <c r="BZ84" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="40"/>
-      <c r="CB84" s="40"/>
-      <c r="CC84" s="40"/>
-      <c r="CD84" s="40" t="s">
+      <c r="CA84" s="38"/>
+      <c r="CB84" s="38"/>
+      <c r="CC84" s="38"/>
+      <c r="CD84" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="40"/>
-      <c r="CF84" s="40"/>
-      <c r="CG84" s="40"/>
-      <c r="CH84" s="35" t="s">
+      <c r="CE84" s="38"/>
+      <c r="CF84" s="38"/>
+      <c r="CG84" s="38"/>
+      <c r="CH84" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="35"/>
-      <c r="CJ84" s="35"/>
-      <c r="CK84" s="35"/>
-      <c r="CL84" s="35"/>
+      <c r="CI84" s="37"/>
+      <c r="CJ84" s="34"/>
+      <c r="CK84" s="34"/>
+      <c r="CL84" s="27"/>
+      <c r="CM84" s="27"/>
     </row>
-    <row r="85" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
         <v>7</v>
@@ -13011,42 +13115,45 @@
       <c r="BY85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BZ85" s="27" t="s">
+      <c r="BZ85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="27" t="s">
+      <c r="CA85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="27" t="s">
+      <c r="CB85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CC85" s="27" t="s">
+      <c r="CC85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD85" s="27" t="s">
+      <c r="CD85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="27" t="s">
+      <c r="CE85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="27" t="s">
+      <c r="CF85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG85" s="27" t="s">
+      <c r="CG85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="27" t="s">
+      <c r="CH85" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="27"/>
-      <c r="CJ85" s="27"/>
-      <c r="CK85" s="27"/>
-      <c r="CL85" s="27"/>
+      <c r="CI85" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ85" s="28"/>
+      <c r="CK85" s="28"/>
+      <c r="CL85" s="28"/>
+      <c r="CM85" s="28"/>
     </row>
-    <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13278,38 +13385,40 @@
       <c r="BY87" s="21">
         <v>-24.577787141415115</v>
       </c>
-      <c r="BZ87" s="33">
+      <c r="BZ87" s="21">
         <v>-4.936349881292017</v>
       </c>
-      <c r="CA87" s="33">
+      <c r="CA87" s="21">
         <v>-42.698817823184513</v>
       </c>
-      <c r="CB87" s="33">
+      <c r="CB87" s="21">
         <v>-19.996812843474061</v>
       </c>
-      <c r="CC87" s="33">
+      <c r="CC87" s="21">
         <v>-13.933678031383437</v>
       </c>
-      <c r="CD87" s="33">
+      <c r="CD87" s="21">
         <v>-20.965808293520737</v>
       </c>
-      <c r="CE87" s="33">
+      <c r="CE87" s="21">
         <v>46.979829927470377</v>
       </c>
-      <c r="CF87" s="33">
+      <c r="CF87" s="21">
         <v>24.318187560778298</v>
       </c>
-      <c r="CG87" s="33">
+      <c r="CG87" s="21">
         <v>28.155613416976735</v>
       </c>
-      <c r="CH87" s="33">
-        <v>27.319902633557348</v>
-      </c>
-      <c r="CI87" s="29"/>
-      <c r="CJ87" s="29"/>
-      <c r="CK87" s="29"/>
-      <c r="CL87" s="29"/>
-      <c r="CM87" s="11"/>
+      <c r="CH87" s="35">
+        <v>31.062341964351162</v>
+      </c>
+      <c r="CI87" s="35">
+        <v>30.941986309265445</v>
+      </c>
+      <c r="CJ87" s="35"/>
+      <c r="CK87" s="35"/>
+      <c r="CL87" s="35"/>
+      <c r="CM87" s="30"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
@@ -13368,7 +13477,7 @@
       <c r="EQ87" s="11"/>
       <c r="ER87" s="11"/>
     </row>
-    <row r="88" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13600,38 +13709,40 @@
       <c r="BY88" s="21">
         <v>-1.7276812518812648</v>
       </c>
-      <c r="BZ88" s="33">
+      <c r="BZ88" s="21">
         <v>-14.693404025994511</v>
       </c>
-      <c r="CA88" s="33">
+      <c r="CA88" s="21">
         <v>-37.893177220361018</v>
       </c>
-      <c r="CB88" s="33">
+      <c r="CB88" s="21">
         <v>-10.297465578012137</v>
       </c>
-      <c r="CC88" s="33">
+      <c r="CC88" s="21">
         <v>-15.721109910841548</v>
       </c>
-      <c r="CD88" s="33">
+      <c r="CD88" s="21">
         <v>12.820615943202256</v>
       </c>
-      <c r="CE88" s="33">
+      <c r="CE88" s="21">
         <v>65.621380638281437</v>
       </c>
-      <c r="CF88" s="33">
+      <c r="CF88" s="21">
         <v>20.026331050325126</v>
       </c>
-      <c r="CG88" s="33">
+      <c r="CG88" s="21">
         <v>39.018225457240163</v>
       </c>
-      <c r="CH88" s="33">
-        <v>28.881722937900776</v>
-      </c>
-      <c r="CI88" s="29"/>
-      <c r="CJ88" s="29"/>
-      <c r="CK88" s="29"/>
-      <c r="CL88" s="29"/>
-      <c r="CM88" s="11"/>
+      <c r="CH88" s="35">
+        <v>29.041212270079114</v>
+      </c>
+      <c r="CI88" s="35">
+        <v>19.030075337113701</v>
+      </c>
+      <c r="CJ88" s="35"/>
+      <c r="CK88" s="35"/>
+      <c r="CL88" s="35"/>
+      <c r="CM88" s="30"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
@@ -13690,7 +13801,7 @@
       <c r="EQ88" s="11"/>
       <c r="ER88" s="11"/>
     </row>
-    <row r="89" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -13922,38 +14033,40 @@
       <c r="BY89" s="21">
         <v>14.598207582000171</v>
       </c>
-      <c r="BZ89" s="33">
+      <c r="BZ89" s="21">
         <v>-10.108590561390912</v>
       </c>
-      <c r="CA89" s="33">
+      <c r="CA89" s="21">
         <v>-29.527919223761231</v>
       </c>
-      <c r="CB89" s="33">
+      <c r="CB89" s="21">
         <v>-38.960905339632902</v>
       </c>
-      <c r="CC89" s="33">
+      <c r="CC89" s="21">
         <v>-61.40408079107381</v>
       </c>
-      <c r="CD89" s="33">
+      <c r="CD89" s="21">
         <v>-67.389839091766575</v>
       </c>
-      <c r="CE89" s="33">
+      <c r="CE89" s="21">
         <v>-51.480536243458829</v>
       </c>
-      <c r="CF89" s="33">
+      <c r="CF89" s="21">
         <v>-39.159383252426551</v>
       </c>
-      <c r="CG89" s="33">
+      <c r="CG89" s="21">
         <v>2.097655140689497</v>
       </c>
-      <c r="CH89" s="33">
-        <v>68.060177677074535</v>
-      </c>
-      <c r="CI89" s="29"/>
-      <c r="CJ89" s="29"/>
-      <c r="CK89" s="29"/>
-      <c r="CL89" s="29"/>
-      <c r="CM89" s="11"/>
+      <c r="CH89" s="35">
+        <v>66.797047442139586</v>
+      </c>
+      <c r="CI89" s="35">
+        <v>92.286813455735938</v>
+      </c>
+      <c r="CJ89" s="35"/>
+      <c r="CK89" s="35"/>
+      <c r="CL89" s="35"/>
+      <c r="CM89" s="30"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
@@ -14012,7 +14125,7 @@
       <c r="EQ89" s="11"/>
       <c r="ER89" s="11"/>
     </row>
-    <row r="90" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14244,38 +14357,40 @@
       <c r="BY90" s="21">
         <v>2.5135186985261129</v>
       </c>
-      <c r="BZ90" s="33">
+      <c r="BZ90" s="21">
         <v>-29.104066150352267</v>
       </c>
-      <c r="CA90" s="33">
+      <c r="CA90" s="21">
         <v>-28.139939567346232</v>
       </c>
-      <c r="CB90" s="33">
+      <c r="CB90" s="21">
         <v>-27.224322250386507</v>
       </c>
-      <c r="CC90" s="33">
+      <c r="CC90" s="21">
         <v>-25.396405728204186</v>
       </c>
-      <c r="CD90" s="33">
+      <c r="CD90" s="21">
         <v>0.91024548748714551</v>
       </c>
-      <c r="CE90" s="33">
+      <c r="CE90" s="21">
         <v>2.4516349510567181</v>
       </c>
-      <c r="CF90" s="33">
+      <c r="CF90" s="21">
         <v>1.1177854815325361</v>
       </c>
-      <c r="CG90" s="33">
+      <c r="CG90" s="21">
         <v>-2.6839380096825636</v>
       </c>
-      <c r="CH90" s="33">
-        <v>-2.7526759486194265</v>
-      </c>
-      <c r="CI90" s="29"/>
-      <c r="CJ90" s="29"/>
-      <c r="CK90" s="29"/>
-      <c r="CL90" s="29"/>
-      <c r="CM90" s="11"/>
+      <c r="CH90" s="35">
+        <v>-3.1496301018883486</v>
+      </c>
+      <c r="CI90" s="35">
+        <v>-3.5912732549700337</v>
+      </c>
+      <c r="CJ90" s="35"/>
+      <c r="CK90" s="35"/>
+      <c r="CL90" s="35"/>
+      <c r="CM90" s="30"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
@@ -14334,7 +14449,7 @@
       <c r="EQ90" s="11"/>
       <c r="ER90" s="11"/>
     </row>
-    <row r="91" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14566,38 +14681,40 @@
       <c r="BY91" s="21">
         <v>26.443929484780156</v>
       </c>
-      <c r="BZ91" s="33">
+      <c r="BZ91" s="21">
         <v>13.516189727992355</v>
       </c>
-      <c r="CA91" s="33">
+      <c r="CA91" s="21">
         <v>46.506926637313171</v>
       </c>
-      <c r="CB91" s="33">
+      <c r="CB91" s="21">
         <v>16.57436139861386</v>
       </c>
-      <c r="CC91" s="33">
+      <c r="CC91" s="21">
         <v>27.765128088818415</v>
       </c>
-      <c r="CD91" s="33">
+      <c r="CD91" s="21">
         <v>46.965084961161665</v>
       </c>
-      <c r="CE91" s="33">
+      <c r="CE91" s="21">
         <v>69.678183062228896</v>
       </c>
-      <c r="CF91" s="33">
+      <c r="CF91" s="21">
         <v>42.096349765096193</v>
       </c>
-      <c r="CG91" s="33">
+      <c r="CG91" s="21">
         <v>18.872760572955684</v>
       </c>
-      <c r="CH91" s="33">
-        <v>2.5243867247077674</v>
-      </c>
-      <c r="CI91" s="29"/>
-      <c r="CJ91" s="29"/>
-      <c r="CK91" s="29"/>
-      <c r="CL91" s="29"/>
-      <c r="CM91" s="11"/>
+      <c r="CH91" s="35">
+        <v>-10.855215905172756</v>
+      </c>
+      <c r="CI91" s="35">
+        <v>-26.644090302469351</v>
+      </c>
+      <c r="CJ91" s="35"/>
+      <c r="CK91" s="35"/>
+      <c r="CL91" s="35"/>
+      <c r="CM91" s="30"/>
       <c r="CN91" s="11"/>
       <c r="CO91" s="11"/>
       <c r="CP91" s="11"/>
@@ -14656,7 +14773,7 @@
       <c r="EQ91" s="11"/>
       <c r="ER91" s="11"/>
     </row>
-    <row r="92" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -14888,38 +15005,40 @@
       <c r="BY92" s="21">
         <v>22.797654360198763</v>
       </c>
-      <c r="BZ92" s="33">
+      <c r="BZ92" s="21">
         <v>24.902843680254037</v>
       </c>
-      <c r="CA92" s="33">
+      <c r="CA92" s="21">
         <v>-28.730348180167937</v>
       </c>
-      <c r="CB92" s="33">
+      <c r="CB92" s="21">
         <v>-10.436184094472907</v>
       </c>
-      <c r="CC92" s="33">
+      <c r="CC92" s="21">
         <v>-28.615058039977555</v>
       </c>
-      <c r="CD92" s="33">
+      <c r="CD92" s="21">
         <v>-18.940781853796395</v>
       </c>
-      <c r="CE92" s="33">
+      <c r="CE92" s="21">
         <v>19.293295476493938</v>
       </c>
-      <c r="CF92" s="33">
+      <c r="CF92" s="21">
         <v>9.1500751444966397</v>
       </c>
-      <c r="CG92" s="33">
+      <c r="CG92" s="21">
         <v>9.542550226516596</v>
       </c>
-      <c r="CH92" s="33">
-        <v>30.048093695408454</v>
-      </c>
-      <c r="CI92" s="29"/>
-      <c r="CJ92" s="29"/>
-      <c r="CK92" s="29"/>
-      <c r="CL92" s="29"/>
-      <c r="CM92" s="11"/>
+      <c r="CH92" s="35">
+        <v>31.893844230661557</v>
+      </c>
+      <c r="CI92" s="35">
+        <v>24.686967260998969</v>
+      </c>
+      <c r="CJ92" s="35"/>
+      <c r="CK92" s="35"/>
+      <c r="CL92" s="35"/>
+      <c r="CM92" s="30"/>
       <c r="CN92" s="11"/>
       <c r="CO92" s="11"/>
       <c r="CP92" s="11"/>
@@ -14978,7 +15097,7 @@
       <c r="EQ92" s="11"/>
       <c r="ER92" s="11"/>
     </row>
-    <row r="93" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -15210,38 +15329,40 @@
       <c r="BY93" s="21">
         <v>17.362899321823733</v>
       </c>
-      <c r="BZ93" s="33">
+      <c r="BZ93" s="21">
         <v>-11.51926789928433</v>
       </c>
-      <c r="CA93" s="33">
+      <c r="CA93" s="21">
         <v>-41.37390768321039</v>
       </c>
-      <c r="CB93" s="33">
+      <c r="CB93" s="21">
         <v>-49.52508622262134</v>
       </c>
-      <c r="CC93" s="33">
+      <c r="CC93" s="21">
         <v>-41.565216818289265</v>
       </c>
-      <c r="CD93" s="33">
+      <c r="CD93" s="21">
         <v>-49.905204061646145</v>
       </c>
-      <c r="CE93" s="33">
+      <c r="CE93" s="21">
         <v>31.743450883536099</v>
       </c>
-      <c r="CF93" s="33">
+      <c r="CF93" s="21">
         <v>45.283470982976894</v>
       </c>
-      <c r="CG93" s="33">
+      <c r="CG93" s="21">
         <v>19.968569804712928</v>
       </c>
-      <c r="CH93" s="33">
-        <v>30.560018841529569</v>
-      </c>
-      <c r="CI93" s="29"/>
-      <c r="CJ93" s="29"/>
-      <c r="CK93" s="29"/>
-      <c r="CL93" s="29"/>
-      <c r="CM93" s="11"/>
+      <c r="CH93" s="35">
+        <v>14.188845185821975</v>
+      </c>
+      <c r="CI93" s="35">
+        <v>-19.187061274507911</v>
+      </c>
+      <c r="CJ93" s="35"/>
+      <c r="CK93" s="35"/>
+      <c r="CL93" s="35"/>
+      <c r="CM93" s="30"/>
       <c r="CN93" s="11"/>
       <c r="CO93" s="11"/>
       <c r="CP93" s="11"/>
@@ -15300,7 +15421,7 @@
       <c r="EQ93" s="11"/>
       <c r="ER93" s="11"/>
     </row>
-    <row r="94" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -15532,38 +15653,40 @@
       <c r="BY94" s="21">
         <v>74.693459691563191</v>
       </c>
-      <c r="BZ94" s="33">
+      <c r="BZ94" s="21">
         <v>-21.562301712818837</v>
       </c>
-      <c r="CA94" s="33">
+      <c r="CA94" s="21">
         <v>-30.89536241195664</v>
       </c>
-      <c r="CB94" s="33">
+      <c r="CB94" s="21">
         <v>-37.743025896792247</v>
       </c>
-      <c r="CC94" s="33">
+      <c r="CC94" s="21">
         <v>-47.856771380604989</v>
       </c>
-      <c r="CD94" s="33">
+      <c r="CD94" s="21">
         <v>-33.391565176274725</v>
       </c>
-      <c r="CE94" s="33">
+      <c r="CE94" s="21">
         <v>-38.159149655046221</v>
       </c>
-      <c r="CF94" s="33">
+      <c r="CF94" s="21">
         <v>-6.0853514592352411</v>
       </c>
-      <c r="CG94" s="33">
+      <c r="CG94" s="21">
         <v>-0.9357171499798369</v>
       </c>
-      <c r="CH94" s="33">
-        <v>18.981042953091176</v>
-      </c>
-      <c r="CI94" s="29"/>
-      <c r="CJ94" s="29"/>
-      <c r="CK94" s="29"/>
-      <c r="CL94" s="29"/>
-      <c r="CM94" s="11"/>
+      <c r="CH94" s="35">
+        <v>63.428744022137664</v>
+      </c>
+      <c r="CI94" s="35">
+        <v>58.434870103521916</v>
+      </c>
+      <c r="CJ94" s="35"/>
+      <c r="CK94" s="35"/>
+      <c r="CL94" s="35"/>
+      <c r="CM94" s="30"/>
       <c r="CN94" s="11"/>
       <c r="CO94" s="11"/>
       <c r="CP94" s="11"/>
@@ -15622,7 +15745,7 @@
       <c r="EQ94" s="11"/>
       <c r="ER94" s="11"/>
     </row>
-    <row r="95" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -15699,20 +15822,20 @@
       <c r="BW95" s="12"/>
       <c r="BX95" s="12"/>
       <c r="BY95" s="12"/>
-      <c r="BZ95" s="29"/>
-      <c r="CA95" s="29"/>
-      <c r="CB95" s="29"/>
-      <c r="CC95" s="29"/>
-      <c r="CD95" s="29"/>
-      <c r="CE95" s="29"/>
-      <c r="CF95" s="29"/>
-      <c r="CG95" s="29"/>
-      <c r="CH95" s="29"/>
-      <c r="CI95" s="29"/>
-      <c r="CJ95" s="29"/>
-      <c r="CK95" s="29"/>
-      <c r="CL95" s="29"/>
-      <c r="CM95" s="11"/>
+      <c r="BZ95" s="12"/>
+      <c r="CA95" s="12"/>
+      <c r="CB95" s="12"/>
+      <c r="CC95" s="12"/>
+      <c r="CD95" s="12"/>
+      <c r="CE95" s="12"/>
+      <c r="CF95" s="12"/>
+      <c r="CG95" s="12"/>
+      <c r="CH95" s="30"/>
+      <c r="CI95" s="30"/>
+      <c r="CJ95" s="30"/>
+      <c r="CK95" s="30"/>
+      <c r="CL95" s="30"/>
+      <c r="CM95" s="30"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
       <c r="CP95" s="11"/>
@@ -15771,7 +15894,7 @@
       <c r="EQ95" s="11"/>
       <c r="ER95" s="11"/>
     </row>
-    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>17</v>
       </c>
@@ -16003,38 +16126,40 @@
       <c r="BY96" s="21">
         <v>9.9754783872139114</v>
       </c>
-      <c r="BZ96" s="33">
+      <c r="BZ96" s="21">
         <v>-2.256971097286268</v>
       </c>
-      <c r="CA96" s="33">
+      <c r="CA96" s="21">
         <v>-30.022601679971871</v>
       </c>
-      <c r="CB96" s="33">
+      <c r="CB96" s="21">
         <v>-27.8781886936316</v>
       </c>
-      <c r="CC96" s="33">
+      <c r="CC96" s="21">
         <v>-43.72729502330742</v>
       </c>
-      <c r="CD96" s="33">
+      <c r="CD96" s="21">
         <v>-33.644028512114943</v>
       </c>
-      <c r="CE96" s="33">
+      <c r="CE96" s="21">
         <v>1.0300550249416887</v>
       </c>
-      <c r="CF96" s="33">
+      <c r="CF96" s="21">
         <v>-5.982618962974172</v>
       </c>
-      <c r="CG96" s="33">
+      <c r="CG96" s="21">
         <v>11.79228524769205</v>
       </c>
-      <c r="CH96" s="33">
-        <v>31.95288355099197</v>
-      </c>
-      <c r="CI96" s="29"/>
-      <c r="CJ96" s="29"/>
-      <c r="CK96" s="29"/>
-      <c r="CL96" s="29"/>
-      <c r="CM96" s="11"/>
+      <c r="CH96" s="35">
+        <v>32.504241813044246</v>
+      </c>
+      <c r="CI96" s="35">
+        <v>29.905448114792534</v>
+      </c>
+      <c r="CJ96" s="35"/>
+      <c r="CK96" s="35"/>
+      <c r="CL96" s="35"/>
+      <c r="CM96" s="30"/>
       <c r="CN96" s="11"/>
       <c r="CO96" s="11"/>
       <c r="CP96" s="11"/>
@@ -16093,7 +16218,7 @@
       <c r="EQ96" s="11"/>
       <c r="ER96" s="11"/>
     </row>
-    <row r="97" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -16171,26 +16296,27 @@
       <c r="BW97" s="17"/>
       <c r="BX97" s="17"/>
       <c r="BY97" s="17"/>
-      <c r="BZ97" s="31"/>
-      <c r="CA97" s="31"/>
-      <c r="CB97" s="31"/>
-      <c r="CC97" s="31"/>
-      <c r="CD97" s="31"/>
-      <c r="CE97" s="31"/>
-      <c r="CF97" s="31"/>
-      <c r="CG97" s="31"/>
-      <c r="CH97" s="31"/>
-      <c r="CI97" s="31"/>
-      <c r="CJ97" s="31"/>
-      <c r="CK97" s="31"/>
-      <c r="CL97" s="31"/>
+      <c r="BZ97" s="17"/>
+      <c r="CA97" s="17"/>
+      <c r="CB97" s="17"/>
+      <c r="CC97" s="17"/>
+      <c r="CD97" s="17"/>
+      <c r="CE97" s="17"/>
+      <c r="CF97" s="17"/>
+      <c r="CG97" s="17"/>
+      <c r="CH97" s="32"/>
+      <c r="CI97" s="32"/>
+      <c r="CJ97" s="32"/>
+      <c r="CK97" s="32"/>
+      <c r="CL97" s="32"/>
+      <c r="CM97" s="32"/>
     </row>
-    <row r="98" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -16267,20 +16393,20 @@
       <c r="BW99" s="12"/>
       <c r="BX99" s="12"/>
       <c r="BY99" s="12"/>
-      <c r="BZ99" s="29"/>
-      <c r="CA99" s="29"/>
-      <c r="CB99" s="29"/>
-      <c r="CC99" s="29"/>
-      <c r="CD99" s="29"/>
-      <c r="CE99" s="29"/>
-      <c r="CF99" s="29"/>
-      <c r="CG99" s="29"/>
-      <c r="CH99" s="29"/>
-      <c r="CI99" s="29"/>
-      <c r="CJ99" s="29"/>
-      <c r="CK99" s="29"/>
-      <c r="CL99" s="29"/>
-      <c r="CM99" s="11"/>
+      <c r="BZ99" s="12"/>
+      <c r="CA99" s="12"/>
+      <c r="CB99" s="12"/>
+      <c r="CC99" s="12"/>
+      <c r="CD99" s="12"/>
+      <c r="CE99" s="12"/>
+      <c r="CF99" s="12"/>
+      <c r="CG99" s="12"/>
+      <c r="CH99" s="30"/>
+      <c r="CI99" s="30"/>
+      <c r="CJ99" s="30"/>
+      <c r="CK99" s="30"/>
+      <c r="CL99" s="30"/>
+      <c r="CM99" s="30"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
       <c r="CP99" s="11"/>
@@ -16339,7 +16465,7 @@
       <c r="EQ99" s="11"/>
       <c r="ER99" s="11"/>
     </row>
-    <row r="100" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -16416,20 +16542,20 @@
       <c r="BW100" s="12"/>
       <c r="BX100" s="12"/>
       <c r="BY100" s="12"/>
-      <c r="BZ100" s="29"/>
-      <c r="CA100" s="29"/>
-      <c r="CB100" s="29"/>
-      <c r="CC100" s="29"/>
-      <c r="CD100" s="29"/>
-      <c r="CE100" s="29"/>
-      <c r="CF100" s="29"/>
-      <c r="CG100" s="29"/>
-      <c r="CH100" s="29"/>
-      <c r="CI100" s="29"/>
-      <c r="CJ100" s="29"/>
-      <c r="CK100" s="29"/>
-      <c r="CL100" s="29"/>
-      <c r="CM100" s="11"/>
+      <c r="BZ100" s="12"/>
+      <c r="CA100" s="12"/>
+      <c r="CB100" s="12"/>
+      <c r="CC100" s="12"/>
+      <c r="CD100" s="12"/>
+      <c r="CE100" s="12"/>
+      <c r="CF100" s="12"/>
+      <c r="CG100" s="12"/>
+      <c r="CH100" s="30"/>
+      <c r="CI100" s="30"/>
+      <c r="CJ100" s="30"/>
+      <c r="CK100" s="30"/>
+      <c r="CL100" s="30"/>
+      <c r="CM100" s="30"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
       <c r="CP100" s="11"/>
@@ -16488,170 +16614,171 @@
       <c r="EQ100" s="11"/>
       <c r="ER100" s="11"/>
     </row>
-    <row r="101" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="36">
+      <c r="B108" s="38">
         <v>2000</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36">
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38">
         <v>2001</v>
       </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36">
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38">
         <v>2002</v>
       </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36">
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38">
         <v>2003</v>
       </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36">
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="38">
         <v>2004</v>
       </c>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36">
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="38">
         <v>2005</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38">
         <v>2006</v>
       </c>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="38"/>
+      <c r="AD108" s="38">
         <v>2007</v>
       </c>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="38"/>
+      <c r="AF108" s="38"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="38">
         <v>2008</v>
       </c>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="38"/>
+      <c r="AL108" s="38">
         <v>2009</v>
       </c>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="38"/>
+      <c r="AN108" s="38"/>
+      <c r="AO108" s="38"/>
+      <c r="AP108" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="36"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="38"/>
+      <c r="AR108" s="38"/>
+      <c r="AS108" s="38"/>
+      <c r="AT108" s="38">
         <v>2011</v>
       </c>
-      <c r="AU108" s="36"/>
-      <c r="AV108" s="36"/>
-      <c r="AW108" s="36"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="38"/>
+      <c r="AV108" s="38"/>
+      <c r="AW108" s="38"/>
+      <c r="AX108" s="38">
         <v>2012</v>
       </c>
-      <c r="AY108" s="36"/>
-      <c r="AZ108" s="36"/>
-      <c r="BA108" s="36"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="38"/>
+      <c r="AZ108" s="38"/>
+      <c r="BA108" s="38"/>
+      <c r="BB108" s="38">
         <v>2013</v>
       </c>
-      <c r="BC108" s="36"/>
-      <c r="BD108" s="36"/>
-      <c r="BE108" s="36"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="38"/>
+      <c r="BD108" s="38"/>
+      <c r="BE108" s="38"/>
+      <c r="BF108" s="38">
         <v>2014</v>
       </c>
-      <c r="BG108" s="36"/>
-      <c r="BH108" s="36"/>
-      <c r="BI108" s="36"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="38"/>
+      <c r="BH108" s="38"/>
+      <c r="BI108" s="38"/>
+      <c r="BJ108" s="38">
         <v>2015</v>
       </c>
-      <c r="BK108" s="36"/>
-      <c r="BL108" s="36"/>
-      <c r="BM108" s="36"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="38"/>
+      <c r="BL108" s="38"/>
+      <c r="BM108" s="38"/>
+      <c r="BN108" s="38">
         <v>2016</v>
       </c>
-      <c r="BO108" s="36"/>
-      <c r="BP108" s="36"/>
-      <c r="BQ108" s="36"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="38"/>
+      <c r="BP108" s="38"/>
+      <c r="BQ108" s="38"/>
+      <c r="BR108" s="38">
         <v>2017</v>
       </c>
-      <c r="BS108" s="36"/>
-      <c r="BT108" s="36"/>
-      <c r="BU108" s="36"/>
-      <c r="BV108" s="39">
+      <c r="BS108" s="38"/>
+      <c r="BT108" s="38"/>
+      <c r="BU108" s="38"/>
+      <c r="BV108" s="40">
         <v>2018</v>
       </c>
-      <c r="BW108" s="39"/>
-      <c r="BX108" s="39"/>
-      <c r="BY108" s="39"/>
-      <c r="BZ108" s="38">
+      <c r="BW108" s="40"/>
+      <c r="BX108" s="40"/>
+      <c r="BY108" s="40"/>
+      <c r="BZ108" s="40">
         <v>2019</v>
       </c>
-      <c r="CA108" s="38"/>
-      <c r="CB108" s="38"/>
-      <c r="CC108" s="38"/>
+      <c r="CA108" s="40"/>
+      <c r="CB108" s="40"/>
+      <c r="CC108" s="40"/>
       <c r="CD108" s="40">
         <v>2020</v>
       </c>
       <c r="CE108" s="40"/>
       <c r="CF108" s="40"/>
       <c r="CG108" s="40"/>
-      <c r="CH108" s="40">
+      <c r="CH108" s="37">
         <v>2021</v>
       </c>
-      <c r="CI108" s="40"/>
-      <c r="CJ108" s="40"/>
-      <c r="CK108" s="40"/>
-      <c r="CL108" s="35">
+      <c r="CI108" s="37"/>
+      <c r="CJ108" s="37"/>
+      <c r="CK108" s="37"/>
+      <c r="CL108" s="37">
         <v>2022</v>
       </c>
+      <c r="CM108" s="37"/>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="7" t="s">
         <v>7</v>
@@ -16881,50 +17008,53 @@
       <c r="BY109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ109" s="32" t="s">
+      <c r="BZ109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA109" s="32" t="s">
+      <c r="CA109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB109" s="32" t="s">
+      <c r="CB109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC109" s="32" t="s">
+      <c r="CC109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD109" s="32" t="s">
+      <c r="CD109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="32" t="s">
+      <c r="CE109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="32" t="s">
+      <c r="CF109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG109" s="32" t="s">
+      <c r="CG109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="32" t="s">
+      <c r="CH109" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="32" t="s">
+      <c r="CI109" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="32" t="s">
+      <c r="CJ109" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CK109" s="32" t="s">
+      <c r="CK109" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="32" t="s">
+      <c r="CL109" s="33" t="s">
         <v>7</v>
       </c>
+      <c r="CM109" s="33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -17156,46 +17286,48 @@
       <c r="BY111" s="21">
         <v>98.911958104446839</v>
       </c>
-      <c r="BZ111" s="33">
+      <c r="BZ111" s="21">
         <v>95.102964857159179</v>
       </c>
-      <c r="CA111" s="33">
+      <c r="CA111" s="21">
         <v>107.02922505928782</v>
       </c>
-      <c r="CB111" s="33">
+      <c r="CB111" s="21">
         <v>102.24860705958191</v>
       </c>
-      <c r="CC111" s="33">
+      <c r="CC111" s="21">
         <v>100.47498010055165</v>
       </c>
-      <c r="CD111" s="33">
+      <c r="CD111" s="21">
         <v>97.54283427759222</v>
       </c>
-      <c r="CE111" s="33">
+      <c r="CE111" s="21">
         <v>101.84177757751773</v>
       </c>
-      <c r="CF111" s="33">
+      <c r="CF111" s="21">
         <v>98.442593850935225</v>
       </c>
-      <c r="CG111" s="33">
+      <c r="CG111" s="21">
         <v>94.821903061270575</v>
       </c>
-      <c r="CH111" s="33">
+      <c r="CH111" s="35">
         <v>95.793319182693821</v>
       </c>
-      <c r="CI111" s="33">
+      <c r="CI111" s="35">
         <v>106.02231884660962</v>
       </c>
-      <c r="CJ111" s="33">
+      <c r="CJ111" s="35">
         <v>103.98792964934991</v>
       </c>
-      <c r="CK111" s="33">
+      <c r="CK111" s="35">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="33">
-        <v>101.33257572907731</v>
-      </c>
-      <c r="CM111" s="11"/>
+      <c r="CL111" s="35">
+        <v>101.33257572907732</v>
+      </c>
+      <c r="CM111" s="35">
+        <v>114.45147426348794</v>
+      </c>
       <c r="CN111" s="11"/>
       <c r="CO111" s="11"/>
       <c r="CP111" s="11"/>
@@ -17258,7 +17390,7 @@
       <c r="EU111" s="11"/>
       <c r="EV111" s="11"/>
     </row>
-    <row r="112" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17490,46 +17622,48 @@
       <c r="BY112" s="21">
         <v>104.2866662742356</v>
       </c>
-      <c r="BZ112" s="33">
+      <c r="BZ112" s="21">
         <v>78.945876011416914</v>
       </c>
-      <c r="CA112" s="33">
+      <c r="CA112" s="21">
         <v>120.45494588140681</v>
       </c>
-      <c r="CB112" s="33">
+      <c r="CB112" s="21">
         <v>109.97195593835443</v>
       </c>
-      <c r="CC112" s="33">
+      <c r="CC112" s="21">
         <v>107.98286749146069</v>
       </c>
-      <c r="CD112" s="33">
+      <c r="CD112" s="21">
         <v>79.88531699593193</v>
       </c>
-      <c r="CE112" s="33">
+      <c r="CE112" s="21">
         <v>120.21532725368891</v>
       </c>
-      <c r="CF112" s="33">
+      <c r="CF112" s="21">
         <v>108.13512407167778</v>
       </c>
-      <c r="CG112" s="33">
+      <c r="CG112" s="21">
         <v>103.59648094158642</v>
       </c>
-      <c r="CH112" s="33">
+      <c r="CH112" s="35">
         <v>79.070866927836704</v>
       </c>
-      <c r="CI112" s="33">
+      <c r="CI112" s="35">
         <v>117.2106859307448</v>
       </c>
-      <c r="CJ112" s="33">
+      <c r="CJ112" s="35">
         <v>107.4998106064363</v>
       </c>
-      <c r="CK112" s="33">
+      <c r="CK112" s="35">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="33">
+      <c r="CL112" s="35">
         <v>81.894903516488284</v>
       </c>
-      <c r="CM112" s="11"/>
+      <c r="CM112" s="35">
+        <v>124.03772715278198</v>
+      </c>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
@@ -17592,7 +17726,7 @@
       <c r="EU112" s="11"/>
       <c r="EV112" s="11"/>
     </row>
-    <row r="113" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17824,46 +17958,48 @@
       <c r="BY113" s="21">
         <v>93.090581021974984</v>
       </c>
-      <c r="BZ113" s="33">
+      <c r="BZ113" s="21">
         <v>111.94522990277498</v>
       </c>
-      <c r="CA113" s="33">
+      <c r="CA113" s="21">
         <v>109.72858251575772</v>
       </c>
-      <c r="CB113" s="33">
+      <c r="CB113" s="21">
         <v>94.169925833229428</v>
       </c>
-      <c r="CC113" s="33">
+      <c r="CC113" s="21">
         <v>93.519268645929287</v>
       </c>
-      <c r="CD113" s="33">
+      <c r="CD113" s="21">
         <v>114.40324303336718</v>
       </c>
-      <c r="CE113" s="33">
+      <c r="CE113" s="21">
         <v>110.49941831514872</v>
       </c>
-      <c r="CF113" s="33">
+      <c r="CF113" s="21">
         <v>93.365791918613255</v>
       </c>
-      <c r="CG113" s="33">
+      <c r="CG113" s="21">
         <v>90.749879498574458</v>
       </c>
-      <c r="CH113" s="33">
+      <c r="CH113" s="35">
         <v>112.08191557481699</v>
       </c>
-      <c r="CI113" s="33">
+      <c r="CI113" s="35">
         <v>107.45160453698703</v>
       </c>
-      <c r="CJ113" s="33">
+      <c r="CJ113" s="35">
         <v>92.415150320994769</v>
       </c>
-      <c r="CK113" s="33">
+      <c r="CK113" s="35">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="33">
+      <c r="CL113" s="35">
         <v>117.36759073274634</v>
       </c>
-      <c r="CM113" s="11"/>
+      <c r="CM113" s="35">
+        <v>113.98895901871551</v>
+      </c>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
       <c r="CP113" s="11"/>
@@ -17926,7 +18062,7 @@
       <c r="EU113" s="11"/>
       <c r="EV113" s="11"/>
     </row>
-    <row r="114" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -18158,46 +18294,48 @@
       <c r="BY114" s="21">
         <v>102.6364362033182</v>
       </c>
-      <c r="BZ114" s="33">
+      <c r="BZ114" s="21">
         <v>88.752486710804234</v>
       </c>
-      <c r="CA114" s="33">
+      <c r="CA114" s="21">
         <v>112.21286615846073</v>
       </c>
-      <c r="CB114" s="33">
+      <c r="CB114" s="21">
         <v>107.70202814214859</v>
       </c>
-      <c r="CC114" s="33">
+      <c r="CC114" s="21">
         <v>105.8808487936989</v>
       </c>
-      <c r="CD114" s="33">
+      <c r="CD114" s="21">
         <v>89.808624506801294</v>
       </c>
-      <c r="CE114" s="33">
+      <c r="CE114" s="21">
         <v>111.9896433359819</v>
       </c>
-      <c r="CF114" s="33">
+      <c r="CF114" s="21">
         <v>105.90311026613939</v>
       </c>
-      <c r="CG114" s="33">
+      <c r="CG114" s="21">
         <v>101.57984862740234</v>
       </c>
-      <c r="CH114" s="33">
+      <c r="CH114" s="35">
         <v>88.893003926002606</v>
       </c>
-      <c r="CI114" s="33">
+      <c r="CI114" s="35">
         <v>109.19059334962719</v>
       </c>
-      <c r="CJ114" s="33">
+      <c r="CJ114" s="35">
         <v>105.28091028680211</v>
       </c>
-      <c r="CK114" s="33">
+      <c r="CK114" s="35">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="33">
+      <c r="CL114" s="35">
         <v>92.067840693522641</v>
       </c>
-      <c r="CM114" s="11"/>
+      <c r="CM114" s="35">
+        <v>115.55049710701209</v>
+      </c>
       <c r="CN114" s="11"/>
       <c r="CO114" s="11"/>
       <c r="CP114" s="11"/>
@@ -18260,7 +18398,7 @@
       <c r="EU114" s="11"/>
       <c r="EV114" s="11"/>
     </row>
-    <row r="115" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18492,46 +18630,48 @@
       <c r="BY115" s="21">
         <v>106.23239370114371</v>
       </c>
-      <c r="BZ115" s="33">
+      <c r="BZ115" s="21">
         <v>85.197818590432632</v>
       </c>
-      <c r="CA115" s="33">
+      <c r="CA115" s="21">
         <v>116.2508526901276</v>
       </c>
-      <c r="CB115" s="33">
+      <c r="CB115" s="21">
         <v>110.63791293298368</v>
       </c>
-      <c r="CC115" s="33">
+      <c r="CC115" s="21">
         <v>108.81478543296691</v>
       </c>
-      <c r="CD115" s="33">
+      <c r="CD115" s="21">
         <v>86.21165650849629</v>
       </c>
-      <c r="CE115" s="33">
+      <c r="CE115" s="21">
         <v>116.01959718136612</v>
       </c>
-      <c r="CF115" s="33">
+      <c r="CF115" s="21">
         <v>108.7899577665609</v>
       </c>
-      <c r="CG115" s="33">
+      <c r="CG115" s="21">
         <v>104.3946054327612</v>
       </c>
-      <c r="CH115" s="33">
+      <c r="CH115" s="35">
         <v>85.332707883713084</v>
       </c>
-      <c r="CI115" s="33">
+      <c r="CI115" s="35">
         <v>113.11982321804426</v>
       </c>
-      <c r="CJ115" s="33">
+      <c r="CJ115" s="35">
         <v>108.15079703460171</v>
       </c>
-      <c r="CK115" s="33">
+      <c r="CK115" s="35">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="33">
-        <v>88.380387751599869</v>
-      </c>
-      <c r="CM115" s="11"/>
+      <c r="CL115" s="35">
+        <v>88.380387751599855</v>
+      </c>
+      <c r="CM115" s="35">
+        <v>119.70858848297456</v>
+      </c>
       <c r="CN115" s="11"/>
       <c r="CO115" s="11"/>
       <c r="CP115" s="11"/>
@@ -18594,7 +18734,7 @@
       <c r="EU115" s="11"/>
       <c r="EV115" s="11"/>
     </row>
-    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18826,46 +18966,48 @@
       <c r="BY116" s="21">
         <v>104.30541147516384</v>
       </c>
-      <c r="BZ116" s="33">
+      <c r="BZ116" s="21">
         <v>83.560912205069414</v>
       </c>
-      <c r="CA116" s="33">
+      <c r="CA116" s="21">
         <v>114.48087853560396</v>
       </c>
-      <c r="CB116" s="33">
+      <c r="CB116" s="21">
         <v>109.12759855267215</v>
       </c>
-      <c r="CC116" s="33">
+      <c r="CC116" s="21">
         <v>107.43677901288702</v>
       </c>
-      <c r="CD116" s="33">
+      <c r="CD116" s="21">
         <v>84.55527124692172</v>
       </c>
-      <c r="CE116" s="33">
+      <c r="CE116" s="21">
         <v>114.25314400121923</v>
       </c>
-      <c r="CF116" s="33">
+      <c r="CF116" s="21">
         <v>107.30486975927134</v>
       </c>
-      <c r="CG116" s="33">
+      <c r="CG116" s="21">
         <v>103.07257519637687</v>
       </c>
-      <c r="CH116" s="33">
+      <c r="CH116" s="35">
         <v>83.693209869254872</v>
       </c>
-      <c r="CI116" s="33">
+      <c r="CI116" s="35">
         <v>111.39752046647722</v>
       </c>
-      <c r="CJ116" s="33">
+      <c r="CJ116" s="35">
         <v>106.67443418868967</v>
       </c>
-      <c r="CK116" s="33">
+      <c r="CK116" s="35">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="33">
+      <c r="CL116" s="35">
         <v>86.682334638914682</v>
       </c>
-      <c r="CM116" s="11"/>
+      <c r="CM116" s="35">
+        <v>117.88596866740941</v>
+      </c>
       <c r="CN116" s="11"/>
       <c r="CO116" s="11"/>
       <c r="CP116" s="11"/>
@@ -18928,7 +19070,7 @@
       <c r="EU116" s="11"/>
       <c r="EV116" s="11"/>
     </row>
-    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -19160,46 +19302,48 @@
       <c r="BY117" s="21">
         <v>105.27710178689991</v>
       </c>
-      <c r="BZ117" s="33">
+      <c r="BZ117" s="21">
         <v>84.705273993316879</v>
       </c>
-      <c r="CA117" s="33">
+      <c r="CA117" s="21">
         <v>116.55609540926204</v>
       </c>
-      <c r="CB117" s="33">
+      <c r="CB117" s="21">
         <v>111.36030796394208</v>
       </c>
-      <c r="CC117" s="33">
+      <c r="CC117" s="21">
         <v>109.73486491600195</v>
       </c>
-      <c r="CD117" s="33">
+      <c r="CD117" s="21">
         <v>85.713250723885906</v>
       </c>
-      <c r="CE117" s="33">
+      <c r="CE117" s="21">
         <v>116.32423268723133</v>
       </c>
-      <c r="CF117" s="33">
+      <c r="CF117" s="21">
         <v>109.50028682850137</v>
       </c>
-      <c r="CG117" s="33">
+      <c r="CG117" s="21">
         <v>105.2773102436565</v>
       </c>
-      <c r="CH117" s="33">
+      <c r="CH117" s="35">
         <v>84.839383466248464</v>
       </c>
-      <c r="CI117" s="33">
+      <c r="CI117" s="35">
         <v>113.41684471619293</v>
       </c>
-      <c r="CJ117" s="33">
+      <c r="CJ117" s="35">
         <v>108.85695278447844</v>
       </c>
-      <c r="CK117" s="33">
+      <c r="CK117" s="35">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="33">
-        <v>87.869444124189499</v>
-      </c>
-      <c r="CM117" s="11"/>
+      <c r="CL117" s="35">
+        <v>87.869444124189485</v>
+      </c>
+      <c r="CM117" s="35">
+        <v>120.02291026390539</v>
+      </c>
       <c r="CN117" s="11"/>
       <c r="CO117" s="11"/>
       <c r="CP117" s="11"/>
@@ -19262,7 +19406,7 @@
       <c r="EU117" s="11"/>
       <c r="EV117" s="11"/>
     </row>
-    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -19494,46 +19638,48 @@
       <c r="BY118" s="21">
         <v>104.46088234035042</v>
       </c>
-      <c r="BZ118" s="33">
+      <c r="BZ118" s="21">
         <v>84.109960440314794</v>
       </c>
-      <c r="CA118" s="33">
+      <c r="CA118" s="21">
         <v>115.85695223072253</v>
       </c>
-      <c r="CB118" s="33">
+      <c r="CB118" s="21">
         <v>110.65380109141194</v>
       </c>
-      <c r="CC118" s="33">
+      <c r="CC118" s="21">
         <v>108.98879379500823</v>
       </c>
-      <c r="CD118" s="33">
+      <c r="CD118" s="21">
         <v>85.110853052262513</v>
       </c>
-      <c r="CE118" s="33">
+      <c r="CE118" s="21">
         <v>115.62648030030931</v>
       </c>
-      <c r="CF118" s="33">
+      <c r="CF118" s="21">
         <v>108.80558054937177</v>
       </c>
-      <c r="CG118" s="33">
+      <c r="CG118" s="21">
         <v>104.56154537777903</v>
       </c>
-      <c r="CH118" s="33">
+      <c r="CH118" s="35">
         <v>84.243127384132677</v>
       </c>
-      <c r="CI118" s="33">
+      <c r="CI118" s="35">
         <v>112.73653183305818</v>
       </c>
-      <c r="CJ118" s="33">
+      <c r="CJ118" s="35">
         <v>108.16632803073023</v>
       </c>
-      <c r="CK118" s="33">
+      <c r="CK118" s="35">
         <v>108.15787748120904</v>
       </c>
-      <c r="CL118" s="33">
-        <v>87.251892600939385</v>
-      </c>
-      <c r="CM118" s="11"/>
+      <c r="CL118" s="35">
+        <v>87.251892600939371</v>
+      </c>
+      <c r="CM118" s="35">
+        <v>119.30297194849746</v>
+      </c>
       <c r="CN118" s="11"/>
       <c r="CO118" s="11"/>
       <c r="CP118" s="11"/>
@@ -19596,7 +19742,7 @@
       <c r="EU118" s="11"/>
       <c r="EV118" s="11"/>
     </row>
-    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -19673,20 +19819,20 @@
       <c r="BW119" s="12"/>
       <c r="BX119" s="12"/>
       <c r="BY119" s="12"/>
-      <c r="BZ119" s="29"/>
-      <c r="CA119" s="29"/>
-      <c r="CB119" s="29"/>
-      <c r="CC119" s="29"/>
-      <c r="CD119" s="29"/>
-      <c r="CE119" s="29"/>
-      <c r="CF119" s="29"/>
-      <c r="CG119" s="29"/>
-      <c r="CH119" s="29"/>
-      <c r="CI119" s="29"/>
-      <c r="CJ119" s="29"/>
-      <c r="CK119" s="29"/>
-      <c r="CL119" s="29"/>
-      <c r="CM119" s="11"/>
+      <c r="BZ119" s="12"/>
+      <c r="CA119" s="12"/>
+      <c r="CB119" s="12"/>
+      <c r="CC119" s="12"/>
+      <c r="CD119" s="12"/>
+      <c r="CE119" s="12"/>
+      <c r="CF119" s="12"/>
+      <c r="CG119" s="12"/>
+      <c r="CH119" s="30"/>
+      <c r="CI119" s="30"/>
+      <c r="CJ119" s="30"/>
+      <c r="CK119" s="30"/>
+      <c r="CL119" s="30"/>
+      <c r="CM119" s="30"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
       <c r="CP119" s="11"/>
@@ -19749,7 +19895,7 @@
       <c r="EU119" s="11"/>
       <c r="EV119" s="11"/>
     </row>
-    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>17</v>
       </c>
@@ -19981,46 +20127,48 @@
       <c r="BY120" s="21">
         <v>97.452388078708665</v>
       </c>
-      <c r="BZ120" s="33">
+      <c r="BZ120" s="21">
         <v>97.126796299417677</v>
       </c>
-      <c r="CA120" s="33">
+      <c r="CA120" s="21">
         <v>111.83282797830809</v>
       </c>
-      <c r="CB120" s="33">
+      <c r="CB120" s="21">
         <v>100.44691397994774</v>
       </c>
-      <c r="CC120" s="33">
+      <c r="CC120" s="21">
         <v>99.12018787930414</v>
       </c>
-      <c r="CD120" s="33">
+      <c r="CD120" s="21">
         <v>97.929286871801125</v>
       </c>
-      <c r="CE120" s="33">
+      <c r="CE120" s="21">
         <v>111.46372907560837</v>
       </c>
-      <c r="CF120" s="33">
+      <c r="CF120" s="21">
         <v>99.707597427750486</v>
       </c>
-      <c r="CG120" s="33">
+      <c r="CG120" s="21">
         <v>96.988127851654866</v>
       </c>
-      <c r="CH120" s="33">
+      <c r="CH120" s="35">
         <v>91.256148247408291</v>
       </c>
-      <c r="CI120" s="33">
+      <c r="CI120" s="35">
         <v>110.3774661601836</v>
       </c>
-      <c r="CJ120" s="33">
+      <c r="CJ120" s="35">
         <v>102.2464086359403</v>
       </c>
-      <c r="CK120" s="33">
+      <c r="CK120" s="35">
         <v>101.6749903189184</v>
       </c>
-      <c r="CL120" s="33">
-        <v>96.552500220594908</v>
-      </c>
-      <c r="CM120" s="11"/>
+      <c r="CL120" s="35">
+        <v>96.517691053541768</v>
+      </c>
+      <c r="CM120" s="35">
+        <v>116.85064738535664</v>
+      </c>
       <c r="CN120" s="11"/>
       <c r="CO120" s="11"/>
       <c r="CP120" s="11"/>
@@ -20083,7 +20231,7 @@
       <c r="EU120" s="11"/>
       <c r="EV120" s="11"/>
     </row>
-    <row r="121" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -20161,194 +20309,196 @@
       <c r="BW121" s="17"/>
       <c r="BX121" s="17"/>
       <c r="BY121" s="17"/>
-      <c r="BZ121" s="31"/>
-      <c r="CA121" s="31"/>
-      <c r="CB121" s="31"/>
-      <c r="CC121" s="31"/>
-      <c r="CD121" s="31"/>
-      <c r="CE121" s="31"/>
-      <c r="CF121" s="31"/>
-      <c r="CG121" s="31"/>
-      <c r="CH121" s="31"/>
-      <c r="CI121" s="31"/>
-      <c r="CJ121" s="31"/>
-      <c r="CK121" s="31"/>
-      <c r="CL121" s="31"/>
+      <c r="BZ121" s="17"/>
+      <c r="CA121" s="17"/>
+      <c r="CB121" s="17"/>
+      <c r="CC121" s="17"/>
+      <c r="CD121" s="17"/>
+      <c r="CE121" s="17"/>
+      <c r="CF121" s="17"/>
+      <c r="CG121" s="17"/>
+      <c r="CH121" s="32"/>
+      <c r="CI121" s="32"/>
+      <c r="CJ121" s="32"/>
+      <c r="CK121" s="32"/>
+      <c r="CL121" s="32"/>
+      <c r="CM121" s="32"/>
     </row>
-    <row r="122" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="36">
+      <c r="B133" s="38">
         <v>2000</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36">
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38">
         <v>2001</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36">
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38">
         <v>2002</v>
       </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36">
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38">
         <v>2003</v>
       </c>
-      <c r="O133" s="36"/>
-      <c r="P133" s="36"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="36">
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38">
         <v>2004</v>
       </c>
-      <c r="S133" s="36"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="36">
+      <c r="S133" s="38"/>
+      <c r="T133" s="38"/>
+      <c r="U133" s="38"/>
+      <c r="V133" s="38">
         <v>2005</v>
       </c>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36">
+      <c r="W133" s="38"/>
+      <c r="X133" s="38"/>
+      <c r="Y133" s="38"/>
+      <c r="Z133" s="38">
         <v>2006</v>
       </c>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36">
+      <c r="AA133" s="38"/>
+      <c r="AB133" s="38"/>
+      <c r="AC133" s="38"/>
+      <c r="AD133" s="38">
         <v>2007</v>
       </c>
-      <c r="AE133" s="36"/>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36">
+      <c r="AE133" s="38"/>
+      <c r="AF133" s="38"/>
+      <c r="AG133" s="38"/>
+      <c r="AH133" s="38">
         <v>2008</v>
       </c>
-      <c r="AI133" s="36"/>
-      <c r="AJ133" s="36"/>
-      <c r="AK133" s="36"/>
-      <c r="AL133" s="36">
+      <c r="AI133" s="38"/>
+      <c r="AJ133" s="38"/>
+      <c r="AK133" s="38"/>
+      <c r="AL133" s="38">
         <v>2009</v>
       </c>
-      <c r="AM133" s="36"/>
-      <c r="AN133" s="36"/>
-      <c r="AO133" s="36"/>
-      <c r="AP133" s="36">
+      <c r="AM133" s="38"/>
+      <c r="AN133" s="38"/>
+      <c r="AO133" s="38"/>
+      <c r="AP133" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="36"/>
-      <c r="AR133" s="36"/>
-      <c r="AS133" s="36"/>
-      <c r="AT133" s="36">
+      <c r="AQ133" s="38"/>
+      <c r="AR133" s="38"/>
+      <c r="AS133" s="38"/>
+      <c r="AT133" s="38">
         <v>2011</v>
       </c>
-      <c r="AU133" s="36"/>
-      <c r="AV133" s="36"/>
-      <c r="AW133" s="36"/>
-      <c r="AX133" s="36">
+      <c r="AU133" s="38"/>
+      <c r="AV133" s="38"/>
+      <c r="AW133" s="38"/>
+      <c r="AX133" s="38">
         <v>2012</v>
       </c>
-      <c r="AY133" s="36"/>
-      <c r="AZ133" s="36"/>
-      <c r="BA133" s="36"/>
-      <c r="BB133" s="36">
+      <c r="AY133" s="38"/>
+      <c r="AZ133" s="38"/>
+      <c r="BA133" s="38"/>
+      <c r="BB133" s="38">
         <v>2013</v>
       </c>
-      <c r="BC133" s="36"/>
-      <c r="BD133" s="36"/>
-      <c r="BE133" s="36"/>
-      <c r="BF133" s="36">
+      <c r="BC133" s="38"/>
+      <c r="BD133" s="38"/>
+      <c r="BE133" s="38"/>
+      <c r="BF133" s="38">
         <v>2014</v>
       </c>
-      <c r="BG133" s="36"/>
-      <c r="BH133" s="36"/>
-      <c r="BI133" s="36"/>
-      <c r="BJ133" s="36">
+      <c r="BG133" s="38"/>
+      <c r="BH133" s="38"/>
+      <c r="BI133" s="38"/>
+      <c r="BJ133" s="38">
         <v>2015</v>
       </c>
-      <c r="BK133" s="36"/>
-      <c r="BL133" s="36"/>
-      <c r="BM133" s="36"/>
-      <c r="BN133" s="36">
+      <c r="BK133" s="38"/>
+      <c r="BL133" s="38"/>
+      <c r="BM133" s="38"/>
+      <c r="BN133" s="38">
         <v>2016</v>
       </c>
-      <c r="BO133" s="36"/>
-      <c r="BP133" s="36"/>
-      <c r="BQ133" s="36"/>
-      <c r="BR133" s="36">
+      <c r="BO133" s="38"/>
+      <c r="BP133" s="38"/>
+      <c r="BQ133" s="38"/>
+      <c r="BR133" s="38">
         <v>2017</v>
       </c>
-      <c r="BS133" s="36"/>
-      <c r="BT133" s="36"/>
-      <c r="BU133" s="36"/>
-      <c r="BV133" s="39">
+      <c r="BS133" s="38"/>
+      <c r="BT133" s="38"/>
+      <c r="BU133" s="38"/>
+      <c r="BV133" s="40">
         <v>2018</v>
       </c>
-      <c r="BW133" s="39"/>
-      <c r="BX133" s="39"/>
-      <c r="BY133" s="39"/>
-      <c r="BZ133" s="38">
+      <c r="BW133" s="40"/>
+      <c r="BX133" s="40"/>
+      <c r="BY133" s="40"/>
+      <c r="BZ133" s="40">
         <v>2019</v>
       </c>
-      <c r="CA133" s="38"/>
-      <c r="CB133" s="38"/>
-      <c r="CC133" s="38"/>
+      <c r="CA133" s="40"/>
+      <c r="CB133" s="40"/>
+      <c r="CC133" s="40"/>
       <c r="CD133" s="40">
         <v>2020</v>
       </c>
       <c r="CE133" s="40"/>
       <c r="CF133" s="40"/>
       <c r="CG133" s="40"/>
-      <c r="CH133" s="40">
+      <c r="CH133" s="37">
         <v>2021</v>
       </c>
-      <c r="CI133" s="40"/>
-      <c r="CJ133" s="40"/>
-      <c r="CK133" s="40"/>
-      <c r="CL133" s="35">
+      <c r="CI133" s="37"/>
+      <c r="CJ133" s="37"/>
+      <c r="CK133" s="37"/>
+      <c r="CL133" s="37">
         <v>2022</v>
       </c>
+      <c r="CM133" s="37"/>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="7" t="s">
         <v>7</v>
@@ -20578,50 +20728,53 @@
       <c r="BY134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ134" s="32" t="s">
+      <c r="BZ134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA134" s="32" t="s">
+      <c r="CA134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB134" s="32" t="s">
+      <c r="CB134" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC134" s="32" t="s">
+      <c r="CC134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD134" s="32" t="s">
+      <c r="CD134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE134" s="32" t="s">
+      <c r="CE134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF134" s="32" t="s">
+      <c r="CF134" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG134" s="32" t="s">
+      <c r="CG134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="32" t="s">
+      <c r="CH134" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="32" t="s">
+      <c r="CI134" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CJ134" s="32" t="s">
+      <c r="CJ134" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CK134" s="32" t="s">
+      <c r="CK134" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="32" t="s">
+      <c r="CL134" s="33" t="s">
         <v>7</v>
       </c>
+      <c r="CM134" s="33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
     </row>
-    <row r="136" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -20853,46 +21006,48 @@
       <c r="BY136" s="23">
         <v>20.196862015338645</v>
       </c>
-      <c r="BZ136" s="34">
+      <c r="BZ136" s="23">
         <v>16.357368330579259</v>
       </c>
-      <c r="CA136" s="34">
+      <c r="CA136" s="23">
         <v>18.455318521365147</v>
       </c>
-      <c r="CB136" s="34">
+      <c r="CB136" s="23">
         <v>18.489951755889102</v>
       </c>
-      <c r="CC136" s="34">
+      <c r="CC136" s="23">
         <v>13.833332242164692</v>
       </c>
-      <c r="CD136" s="34">
+      <c r="CD136" s="23">
         <v>16.183405343766292</v>
       </c>
-      <c r="CE136" s="34">
+      <c r="CE136" s="23">
         <v>14.427353201301617</v>
       </c>
-      <c r="CF136" s="34">
+      <c r="CF136" s="23">
         <v>19.893465103128872</v>
       </c>
-      <c r="CG136" s="34">
+      <c r="CG136" s="23">
         <v>20.405936859688858</v>
       </c>
-      <c r="CH136" s="34">
+      <c r="CH136" s="36">
         <v>20.313989564836827</v>
       </c>
-      <c r="CI136" s="34">
+      <c r="CI136" s="36">
         <v>22.065729553315787</v>
       </c>
-      <c r="CJ136" s="34">
+      <c r="CJ136" s="36">
         <v>27.09673908013902</v>
       </c>
-      <c r="CK136" s="34">
+      <c r="CK136" s="36">
         <v>24.346785647136116</v>
       </c>
-      <c r="CL136" s="34">
-        <v>19.596797626237038</v>
-      </c>
-      <c r="CM136" s="11"/>
+      <c r="CL136" s="36">
+        <v>20.096130312189576</v>
+      </c>
+      <c r="CM136" s="36">
+        <v>22.680009919749736</v>
+      </c>
       <c r="CN136" s="11"/>
       <c r="CO136" s="11"/>
       <c r="CP136" s="11"/>
@@ -20955,7 +21110,7 @@
       <c r="EU136" s="11"/>
       <c r="EV136" s="11"/>
     </row>
-    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -21187,46 +21342,48 @@
       <c r="BY137" s="23">
         <v>2.5598489688369401</v>
       </c>
-      <c r="BZ137" s="34">
+      <c r="BZ137" s="23">
         <v>5.0389837456173234</v>
       </c>
-      <c r="CA137" s="34">
+      <c r="CA137" s="23">
         <v>8.3353645965403267</v>
       </c>
-      <c r="CB137" s="34">
+      <c r="CB137" s="23">
         <v>5.326328465904397</v>
       </c>
-      <c r="CC137" s="34">
+      <c r="CC137" s="23">
         <v>2.3286602351846994</v>
       </c>
-      <c r="CD137" s="34">
+      <c r="CD137" s="23">
         <v>4.4137096829386406</v>
       </c>
-      <c r="CE137" s="34">
+      <c r="CE137" s="23">
         <v>7.4075922145227056</v>
       </c>
-      <c r="CF137" s="34">
+      <c r="CF137" s="23">
         <v>6.5623473458256978</v>
       </c>
-      <c r="CG137" s="34">
+      <c r="CG137" s="23">
         <v>3.4194860022934259</v>
       </c>
-      <c r="CH137" s="34">
+      <c r="CH137" s="36">
         <v>7.9709890678970368</v>
       </c>
-      <c r="CI137" s="34">
+      <c r="CI137" s="36">
         <v>11.956481344131291</v>
       </c>
-      <c r="CJ137" s="34">
+      <c r="CJ137" s="36">
         <v>8.1217328634702532</v>
       </c>
-      <c r="CK137" s="34">
+      <c r="CK137" s="36">
         <v>4.1957667399458929</v>
       </c>
-      <c r="CL137" s="34">
-        <v>7.6212050484293972</v>
-      </c>
-      <c r="CM137" s="11"/>
+      <c r="CL137" s="36">
+        <v>7.6016251815443301</v>
+      </c>
+      <c r="CM137" s="36">
+        <v>10.951374311256775</v>
+      </c>
       <c r="CN137" s="11"/>
       <c r="CO137" s="11"/>
       <c r="CP137" s="11"/>
@@ -21289,7 +21446,7 @@
       <c r="EU137" s="11"/>
       <c r="EV137" s="11"/>
     </row>
-    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21521,46 +21678,48 @@
       <c r="BY138" s="23">
         <v>49.71388894920657</v>
       </c>
-      <c r="BZ138" s="34">
+      <c r="BZ138" s="23">
         <v>47.362950089341574</v>
       </c>
-      <c r="CA138" s="34">
+      <c r="CA138" s="23">
         <v>37.623027223999308</v>
       </c>
-      <c r="CB138" s="34">
+      <c r="CB138" s="23">
         <v>47.628582798793055</v>
       </c>
-      <c r="CC138" s="34">
+      <c r="CC138" s="23">
         <v>51.166467347758271</v>
       </c>
-      <c r="CD138" s="34">
+      <c r="CD138" s="23">
         <v>44.149964368929254</v>
       </c>
-      <c r="CE138" s="34">
+      <c r="CE138" s="23">
         <v>38.28150482855898</v>
       </c>
-      <c r="CF138" s="34">
+      <c r="CF138" s="23">
         <v>40.261784607922237</v>
       </c>
-      <c r="CG138" s="34">
+      <c r="CG138" s="23">
         <v>34.803067645584385</v>
       </c>
-      <c r="CH138" s="34">
+      <c r="CH138" s="36">
         <v>22.811348224801563</v>
       </c>
-      <c r="CI138" s="34">
+      <c r="CI138" s="36">
         <v>18.053460735816927</v>
       </c>
-      <c r="CJ138" s="34">
+      <c r="CJ138" s="36">
         <v>25.148614162622852</v>
       </c>
-      <c r="CK138" s="34">
+      <c r="CK138" s="36">
         <v>31.268923746672911</v>
       </c>
-      <c r="CL138" s="34">
-        <v>28.754653724270419</v>
-      </c>
-      <c r="CM138" s="11"/>
+      <c r="CL138" s="36">
+        <v>28.430034488602875</v>
+      </c>
+      <c r="CM138" s="36">
+        <v>26.778224772312775</v>
+      </c>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
       <c r="CP138" s="11"/>
@@ -21623,7 +21782,7 @@
       <c r="EU138" s="11"/>
       <c r="EV138" s="11"/>
     </row>
-    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -21855,46 +22014,48 @@
       <c r="BY139" s="23">
         <v>1.5977271792151213</v>
       </c>
-      <c r="BZ139" s="34">
+      <c r="BZ139" s="23">
         <v>1.8784024162640109</v>
       </c>
-      <c r="CA139" s="34">
+      <c r="CA139" s="23">
         <v>2.0013611112289977</v>
       </c>
-      <c r="CB139" s="34">
+      <c r="CB139" s="23">
         <v>1.9577424968548627</v>
       </c>
-      <c r="CC139" s="34">
+      <c r="CC139" s="23">
         <v>1.5105465860678073</v>
       </c>
-      <c r="CD139" s="34">
+      <c r="CD139" s="23">
         <v>1.3673766496886397</v>
       </c>
-      <c r="CE139" s="34">
+      <c r="CE139" s="23">
         <v>2.0579091012414077</v>
       </c>
-      <c r="CF139" s="34">
+      <c r="CF139" s="23">
         <v>1.9568988678819621</v>
       </c>
-      <c r="CG139" s="34">
+      <c r="CG139" s="23">
         <v>1.9634948696709589</v>
       </c>
-      <c r="CH139" s="34">
+      <c r="CH139" s="36">
         <v>2.2087339442712222</v>
       </c>
-      <c r="CI139" s="34">
+      <c r="CI139" s="36">
         <v>2.0547311483249668</v>
       </c>
-      <c r="CJ139" s="34">
+      <c r="CJ139" s="36">
         <v>2.0403698047416321</v>
       </c>
-      <c r="CK139" s="34">
+      <c r="CK139" s="36">
         <v>1.6865260838895644</v>
       </c>
-      <c r="CL139" s="34">
-        <v>1.5934599961503013</v>
-      </c>
-      <c r="CM139" s="11"/>
+      <c r="CL139" s="36">
+        <v>1.5809221822990167</v>
+      </c>
+      <c r="CM139" s="36">
+        <v>1.5243330851023669</v>
+      </c>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
       <c r="CP139" s="11"/>
@@ -21957,7 +22118,7 @@
       <c r="EU139" s="11"/>
       <c r="EV139" s="11"/>
     </row>
-    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -22189,46 +22350,48 @@
       <c r="BY140" s="23">
         <v>2.961497908523326</v>
       </c>
-      <c r="BZ140" s="34">
+      <c r="BZ140" s="23">
         <v>4.2014874155171169</v>
       </c>
-      <c r="CA140" s="34">
+      <c r="CA140" s="23">
         <v>3.9998361642129407</v>
       </c>
-      <c r="CB140" s="34">
+      <c r="CB140" s="23">
         <v>3.6618832060806366</v>
       </c>
-      <c r="CC140" s="34">
+      <c r="CC140" s="23">
         <v>3.4290582800977258</v>
       </c>
-      <c r="CD140" s="34">
+      <c r="CD140" s="23">
         <v>4.8971010530079511</v>
       </c>
-      <c r="CE140" s="34">
+      <c r="CE140" s="23">
         <v>8.3852017017441192</v>
       </c>
-      <c r="CF140" s="34">
+      <c r="CF140" s="23">
         <v>5.863191630906341</v>
       </c>
-      <c r="CG140" s="34">
+      <c r="CG140" s="23">
         <v>7.633489222297615</v>
       </c>
-      <c r="CH140" s="34">
+      <c r="CH140" s="36">
         <v>11.520550168929555</v>
       </c>
-      <c r="CI140" s="34">
+      <c r="CI140" s="36">
         <v>13.865944009248174</v>
       </c>
-      <c r="CJ140" s="34">
+      <c r="CJ140" s="36">
         <v>8.5907279583469407</v>
       </c>
-      <c r="CK140" s="34">
+      <c r="CK140" s="36">
         <v>8.0091091122650262</v>
       </c>
-      <c r="CL140" s="34">
-        <v>8.7623480401353984</v>
-      </c>
-      <c r="CM140" s="11"/>
+      <c r="CL140" s="36">
+        <v>7.5898808972458109</v>
+      </c>
+      <c r="CM140" s="36">
+        <v>7.8269592639852918</v>
+      </c>
       <c r="CN140" s="11"/>
       <c r="CO140" s="11"/>
       <c r="CP140" s="11"/>
@@ -22291,7 +22454,7 @@
       <c r="EU140" s="11"/>
       <c r="EV140" s="11"/>
     </row>
-    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22523,46 +22686,48 @@
       <c r="BY141" s="23">
         <v>16.484628395402751</v>
       </c>
-      <c r="BZ141" s="34">
+      <c r="BZ141" s="23">
         <v>17.463250298835113</v>
       </c>
-      <c r="CA141" s="34">
+      <c r="CA141" s="23">
         <v>21.723379718085475</v>
       </c>
-      <c r="CB141" s="34">
+      <c r="CB141" s="23">
         <v>16.87202031353528</v>
       </c>
-      <c r="CC141" s="34">
+      <c r="CC141" s="23">
         <v>18.640170529999672</v>
       </c>
-      <c r="CD141" s="34">
+      <c r="CD141" s="23">
         <v>22.396265047601059</v>
       </c>
-      <c r="CE141" s="34">
+      <c r="CE141" s="23">
         <v>22.153644576095875</v>
       </c>
-      <c r="CF141" s="34">
+      <c r="CF141" s="23">
         <v>20.755167058625528</v>
       </c>
-      <c r="CG141" s="34">
+      <c r="CG141" s="23">
         <v>23.184214571644929</v>
       </c>
-      <c r="CH141" s="34">
+      <c r="CH141" s="36">
         <v>29.060159423570159</v>
       </c>
-      <c r="CI141" s="34">
+      <c r="CI141" s="36">
         <v>25.755568665981439</v>
       </c>
-      <c r="CJ141" s="34">
+      <c r="CJ141" s="36">
         <v>23.359483097636108</v>
       </c>
-      <c r="CK141" s="34">
+      <c r="CK141" s="36">
         <v>22.415787460854201</v>
       </c>
-      <c r="CL141" s="34">
-        <v>28.036389360984437</v>
-      </c>
-      <c r="CM141" s="11"/>
+      <c r="CL141" s="36">
+        <v>28.326200374783951</v>
+      </c>
+      <c r="CM141" s="36">
+        <v>24.711592240191148</v>
+      </c>
       <c r="CN141" s="11"/>
       <c r="CO141" s="11"/>
       <c r="CP141" s="11"/>
@@ -22625,7 +22790,7 @@
       <c r="EU141" s="11"/>
       <c r="EV141" s="11"/>
     </row>
-    <row r="142" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -22857,46 +23022,48 @@
       <c r="BY142" s="23">
         <v>2.7548879057508682</v>
       </c>
-      <c r="BZ142" s="34">
+      <c r="BZ142" s="23">
         <v>3.8080616434428829</v>
       </c>
-      <c r="CA142" s="34">
+      <c r="CA142" s="23">
         <v>3.2485239758087161</v>
       </c>
-      <c r="CB142" s="34">
+      <c r="CB142" s="23">
         <v>2.9520492496849311</v>
       </c>
-      <c r="CC142" s="34">
+      <c r="CC142" s="23">
         <v>3.0128671664879549</v>
       </c>
-      <c r="CD142" s="34">
+      <c r="CD142" s="23">
         <v>3.4596396911623279</v>
       </c>
-      <c r="CE142" s="34">
+      <c r="CE142" s="23">
         <v>2.7251485253105301</v>
       </c>
-      <c r="CF142" s="34">
+      <c r="CF142" s="23">
         <v>2.0465659279143935</v>
       </c>
-      <c r="CG142" s="34">
+      <c r="CG142" s="23">
         <v>3.0675193941124248</v>
       </c>
-      <c r="CH142" s="34">
+      <c r="CH142" s="36">
         <v>2.7742364042739931</v>
       </c>
-      <c r="CI142" s="34">
+      <c r="CI142" s="36">
         <v>3.4988807063006195</v>
       </c>
-      <c r="CJ142" s="34">
+      <c r="CJ142" s="36">
         <v>3.0658782369445947</v>
       </c>
-      <c r="CK142" s="34">
+      <c r="CK142" s="36">
         <v>3.2481312051729128</v>
       </c>
-      <c r="CL142" s="34">
-        <v>2.6870377642968233</v>
-      </c>
-      <c r="CM142" s="11"/>
+      <c r="CL142" s="36">
+        <v>2.3411700039912136</v>
+      </c>
+      <c r="CM142" s="36">
+        <v>2.1757979319275678</v>
+      </c>
       <c r="CN142" s="11"/>
       <c r="CO142" s="11"/>
       <c r="CP142" s="11"/>
@@ -22959,7 +23126,7 @@
       <c r="EU142" s="11"/>
       <c r="EV142" s="11"/>
     </row>
-    <row r="143" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -23191,46 +23358,48 @@
       <c r="BY143" s="23">
         <v>3.7306586777257782</v>
       </c>
-      <c r="BZ143" s="34">
+      <c r="BZ143" s="23">
         <v>3.8894960604027045</v>
       </c>
-      <c r="CA143" s="34">
+      <c r="CA143" s="23">
         <v>4.6131886887590872</v>
       </c>
-      <c r="CB143" s="34">
+      <c r="CB143" s="23">
         <v>3.1114417132577254</v>
       </c>
-      <c r="CC143" s="34">
+      <c r="CC143" s="23">
         <v>6.0788976122391727</v>
       </c>
-      <c r="CD143" s="34">
+      <c r="CD143" s="23">
         <v>3.1325381629058366</v>
       </c>
-      <c r="CE143" s="34">
+      <c r="CE143" s="23">
         <v>4.5616458512247871</v>
       </c>
-      <c r="CF143" s="34">
+      <c r="CF143" s="23">
         <v>2.6605794577949564</v>
       </c>
-      <c r="CG143" s="34">
+      <c r="CG143" s="23">
         <v>5.5227914347074103</v>
       </c>
-      <c r="CH143" s="34">
+      <c r="CH143" s="36">
         <v>3.339993201419647</v>
       </c>
-      <c r="CI143" s="34">
+      <c r="CI143" s="36">
         <v>2.7492038368807843</v>
       </c>
-      <c r="CJ143" s="34">
+      <c r="CJ143" s="36">
         <v>2.5764547960985955</v>
       </c>
-      <c r="CK143" s="34">
+      <c r="CK143" s="36">
         <v>4.8289700040633745</v>
       </c>
-      <c r="CL143" s="34">
-        <v>2.9481084394961945</v>
-      </c>
-      <c r="CM143" s="11"/>
+      <c r="CL143" s="36">
+        <v>4.0340365593432113</v>
+      </c>
+      <c r="CM143" s="36">
+        <v>3.3517084754743576</v>
+      </c>
       <c r="CN143" s="11"/>
       <c r="CO143" s="11"/>
       <c r="CP143" s="11"/>
@@ -23293,7 +23462,7 @@
       <c r="EU143" s="11"/>
       <c r="EV143" s="11"/>
     </row>
-    <row r="144" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -23370,20 +23539,20 @@
       <c r="BW144" s="12"/>
       <c r="BX144" s="12"/>
       <c r="BY144" s="12"/>
-      <c r="BZ144" s="29"/>
-      <c r="CA144" s="29"/>
-      <c r="CB144" s="29"/>
-      <c r="CC144" s="29"/>
-      <c r="CD144" s="29"/>
-      <c r="CE144" s="29"/>
-      <c r="CF144" s="29"/>
-      <c r="CG144" s="29"/>
-      <c r="CH144" s="29"/>
-      <c r="CI144" s="29"/>
-      <c r="CJ144" s="29"/>
-      <c r="CK144" s="29"/>
-      <c r="CL144" s="29"/>
-      <c r="CM144" s="11"/>
+      <c r="BZ144" s="12"/>
+      <c r="CA144" s="12"/>
+      <c r="CB144" s="12"/>
+      <c r="CC144" s="12"/>
+      <c r="CD144" s="12"/>
+      <c r="CE144" s="12"/>
+      <c r="CF144" s="12"/>
+      <c r="CG144" s="12"/>
+      <c r="CH144" s="30"/>
+      <c r="CI144" s="30"/>
+      <c r="CJ144" s="30"/>
+      <c r="CK144" s="30"/>
+      <c r="CL144" s="30"/>
+      <c r="CM144" s="30"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
       <c r="CP144" s="11"/>
@@ -23446,7 +23615,7 @@
       <c r="EU144" s="11"/>
       <c r="EV144" s="11"/>
     </row>
-    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>17</v>
       </c>
@@ -23678,46 +23847,48 @@
       <c r="BY145" s="21">
         <v>100</v>
       </c>
-      <c r="BZ145" s="33">
+      <c r="BZ145" s="21">
         <v>100</v>
       </c>
-      <c r="CA145" s="33">
+      <c r="CA145" s="21">
         <v>100</v>
       </c>
-      <c r="CB145" s="33">
+      <c r="CB145" s="21">
         <v>100</v>
       </c>
-      <c r="CC145" s="33">
+      <c r="CC145" s="21">
         <v>100</v>
       </c>
-      <c r="CD145" s="33">
+      <c r="CD145" s="21">
         <v>100</v>
       </c>
-      <c r="CE145" s="33">
+      <c r="CE145" s="21">
         <v>100</v>
       </c>
-      <c r="CF145" s="33">
+      <c r="CF145" s="21">
         <v>100</v>
       </c>
-      <c r="CG145" s="33">
+      <c r="CG145" s="21">
         <v>100</v>
       </c>
-      <c r="CH145" s="33">
+      <c r="CH145" s="35">
         <v>100</v>
       </c>
-      <c r="CI145" s="33">
+      <c r="CI145" s="35">
         <v>100</v>
       </c>
-      <c r="CJ145" s="33">
+      <c r="CJ145" s="35">
         <v>100</v>
       </c>
-      <c r="CK145" s="33">
+      <c r="CK145" s="35">
         <v>100</v>
       </c>
-      <c r="CL145" s="33">
+      <c r="CL145" s="35">
         <v>100</v>
       </c>
-      <c r="CM145" s="11"/>
+      <c r="CM145" s="35">
+        <v>100</v>
+      </c>
       <c r="CN145" s="11"/>
       <c r="CO145" s="11"/>
       <c r="CP145" s="11"/>
@@ -23780,7 +23951,7 @@
       <c r="EU145" s="11"/>
       <c r="EV145" s="11"/>
     </row>
-    <row r="146" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -23858,26 +24029,27 @@
       <c r="BW146" s="17"/>
       <c r="BX146" s="17"/>
       <c r="BY146" s="17"/>
-      <c r="BZ146" s="31"/>
-      <c r="CA146" s="31"/>
-      <c r="CB146" s="31"/>
-      <c r="CC146" s="31"/>
-      <c r="CD146" s="31"/>
-      <c r="CE146" s="31"/>
-      <c r="CF146" s="31"/>
-      <c r="CG146" s="31"/>
-      <c r="CH146" s="31"/>
-      <c r="CI146" s="31"/>
-      <c r="CJ146" s="31"/>
-      <c r="CK146" s="31"/>
-      <c r="CL146" s="31"/>
+      <c r="BZ146" s="17"/>
+      <c r="CA146" s="17"/>
+      <c r="CB146" s="17"/>
+      <c r="CC146" s="17"/>
+      <c r="CD146" s="17"/>
+      <c r="CE146" s="17"/>
+      <c r="CF146" s="17"/>
+      <c r="CG146" s="17"/>
+      <c r="CH146" s="32"/>
+      <c r="CI146" s="32"/>
+      <c r="CJ146" s="32"/>
+      <c r="CK146" s="32"/>
+      <c r="CL146" s="32"/>
+      <c r="CM146" s="32"/>
     </row>
-    <row r="147" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -23954,20 +24126,20 @@
       <c r="BW148" s="12"/>
       <c r="BX148" s="12"/>
       <c r="BY148" s="12"/>
-      <c r="BZ148" s="29"/>
-      <c r="CA148" s="29"/>
-      <c r="CB148" s="29"/>
-      <c r="CC148" s="29"/>
-      <c r="CD148" s="29"/>
-      <c r="CE148" s="29"/>
-      <c r="CF148" s="29"/>
-      <c r="CG148" s="29"/>
-      <c r="CH148" s="29"/>
-      <c r="CI148" s="29"/>
-      <c r="CJ148" s="29"/>
-      <c r="CK148" s="29"/>
-      <c r="CL148" s="29"/>
-      <c r="CM148" s="11"/>
+      <c r="BZ148" s="12"/>
+      <c r="CA148" s="12"/>
+      <c r="CB148" s="12"/>
+      <c r="CC148" s="12"/>
+      <c r="CD148" s="12"/>
+      <c r="CE148" s="12"/>
+      <c r="CF148" s="12"/>
+      <c r="CG148" s="12"/>
+      <c r="CH148" s="30"/>
+      <c r="CI148" s="30"/>
+      <c r="CJ148" s="30"/>
+      <c r="CK148" s="30"/>
+      <c r="CL148" s="30"/>
+      <c r="CM148" s="30"/>
       <c r="CN148" s="11"/>
       <c r="CO148" s="11"/>
       <c r="CP148" s="11"/>
@@ -24030,7 +24202,7 @@
       <c r="EU148" s="11"/>
       <c r="EV148" s="11"/>
     </row>
-    <row r="149" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -24107,20 +24279,20 @@
       <c r="BW149" s="12"/>
       <c r="BX149" s="12"/>
       <c r="BY149" s="12"/>
-      <c r="BZ149" s="29"/>
-      <c r="CA149" s="29"/>
-      <c r="CB149" s="29"/>
-      <c r="CC149" s="29"/>
-      <c r="CD149" s="29"/>
-      <c r="CE149" s="29"/>
-      <c r="CF149" s="29"/>
-      <c r="CG149" s="29"/>
-      <c r="CH149" s="29"/>
-      <c r="CI149" s="29"/>
-      <c r="CJ149" s="29"/>
-      <c r="CK149" s="29"/>
-      <c r="CL149" s="29"/>
-      <c r="CM149" s="11"/>
+      <c r="BZ149" s="12"/>
+      <c r="CA149" s="12"/>
+      <c r="CB149" s="12"/>
+      <c r="CC149" s="12"/>
+      <c r="CD149" s="12"/>
+      <c r="CE149" s="12"/>
+      <c r="CF149" s="12"/>
+      <c r="CG149" s="12"/>
+      <c r="CH149" s="30"/>
+      <c r="CI149" s="30"/>
+      <c r="CJ149" s="30"/>
+      <c r="CK149" s="30"/>
+      <c r="CL149" s="30"/>
+      <c r="CM149" s="30"/>
       <c r="CN149" s="11"/>
       <c r="CO149" s="11"/>
       <c r="CP149" s="11"/>
@@ -24183,175 +24355,176 @@
       <c r="EU149" s="11"/>
       <c r="EV149" s="11"/>
     </row>
-    <row r="150" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="36">
+      <c r="B158" s="38">
         <v>2000</v>
       </c>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36">
+      <c r="C158" s="38"/>
+      <c r="D158" s="38"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="38">
         <v>2001</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36">
+      <c r="G158" s="38"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="38"/>
+      <c r="J158" s="38">
         <v>2002</v>
       </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36">
+      <c r="K158" s="38"/>
+      <c r="L158" s="38"/>
+      <c r="M158" s="38"/>
+      <c r="N158" s="38">
         <v>2003</v>
       </c>
-      <c r="O158" s="36"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="36"/>
-      <c r="R158" s="36">
+      <c r="O158" s="38"/>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="38"/>
+      <c r="R158" s="38">
         <v>2004</v>
       </c>
-      <c r="S158" s="36"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="36">
+      <c r="S158" s="38"/>
+      <c r="T158" s="38"/>
+      <c r="U158" s="38"/>
+      <c r="V158" s="38">
         <v>2005</v>
       </c>
-      <c r="W158" s="36"/>
-      <c r="X158" s="36"/>
-      <c r="Y158" s="36"/>
-      <c r="Z158" s="36">
+      <c r="W158" s="38"/>
+      <c r="X158" s="38"/>
+      <c r="Y158" s="38"/>
+      <c r="Z158" s="38">
         <v>2006</v>
       </c>
-      <c r="AA158" s="36"/>
-      <c r="AB158" s="36"/>
-      <c r="AC158" s="36"/>
-      <c r="AD158" s="36">
+      <c r="AA158" s="38"/>
+      <c r="AB158" s="38"/>
+      <c r="AC158" s="38"/>
+      <c r="AD158" s="38">
         <v>2007</v>
       </c>
-      <c r="AE158" s="36"/>
-      <c r="AF158" s="36"/>
-      <c r="AG158" s="36"/>
-      <c r="AH158" s="36">
+      <c r="AE158" s="38"/>
+      <c r="AF158" s="38"/>
+      <c r="AG158" s="38"/>
+      <c r="AH158" s="38">
         <v>2008</v>
       </c>
-      <c r="AI158" s="36"/>
-      <c r="AJ158" s="36"/>
-      <c r="AK158" s="36"/>
-      <c r="AL158" s="36">
+      <c r="AI158" s="38"/>
+      <c r="AJ158" s="38"/>
+      <c r="AK158" s="38"/>
+      <c r="AL158" s="38">
         <v>2009</v>
       </c>
-      <c r="AM158" s="36"/>
-      <c r="AN158" s="36"/>
-      <c r="AO158" s="36"/>
-      <c r="AP158" s="36">
+      <c r="AM158" s="38"/>
+      <c r="AN158" s="38"/>
+      <c r="AO158" s="38"/>
+      <c r="AP158" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="36"/>
-      <c r="AR158" s="36"/>
-      <c r="AS158" s="36"/>
-      <c r="AT158" s="36">
+      <c r="AQ158" s="38"/>
+      <c r="AR158" s="38"/>
+      <c r="AS158" s="38"/>
+      <c r="AT158" s="38">
         <v>2011</v>
       </c>
-      <c r="AU158" s="36"/>
-      <c r="AV158" s="36"/>
-      <c r="AW158" s="36"/>
-      <c r="AX158" s="36">
+      <c r="AU158" s="38"/>
+      <c r="AV158" s="38"/>
+      <c r="AW158" s="38"/>
+      <c r="AX158" s="38">
         <v>2012</v>
       </c>
-      <c r="AY158" s="36"/>
-      <c r="AZ158" s="36"/>
-      <c r="BA158" s="36"/>
-      <c r="BB158" s="36">
+      <c r="AY158" s="38"/>
+      <c r="AZ158" s="38"/>
+      <c r="BA158" s="38"/>
+      <c r="BB158" s="38">
         <v>2013</v>
       </c>
-      <c r="BC158" s="36"/>
-      <c r="BD158" s="36"/>
-      <c r="BE158" s="36"/>
-      <c r="BF158" s="36">
+      <c r="BC158" s="38"/>
+      <c r="BD158" s="38"/>
+      <c r="BE158" s="38"/>
+      <c r="BF158" s="38">
         <v>2014</v>
       </c>
-      <c r="BG158" s="36"/>
-      <c r="BH158" s="36"/>
-      <c r="BI158" s="36"/>
-      <c r="BJ158" s="36">
+      <c r="BG158" s="38"/>
+      <c r="BH158" s="38"/>
+      <c r="BI158" s="38"/>
+      <c r="BJ158" s="38">
         <v>2015</v>
       </c>
-      <c r="BK158" s="36"/>
-      <c r="BL158" s="36"/>
-      <c r="BM158" s="36"/>
-      <c r="BN158" s="36">
+      <c r="BK158" s="38"/>
+      <c r="BL158" s="38"/>
+      <c r="BM158" s="38"/>
+      <c r="BN158" s="38">
         <v>2016</v>
       </c>
-      <c r="BO158" s="36"/>
-      <c r="BP158" s="36"/>
-      <c r="BQ158" s="36"/>
-      <c r="BR158" s="36">
+      <c r="BO158" s="38"/>
+      <c r="BP158" s="38"/>
+      <c r="BQ158" s="38"/>
+      <c r="BR158" s="38">
         <v>2017</v>
       </c>
-      <c r="BS158" s="36"/>
-      <c r="BT158" s="36"/>
-      <c r="BU158" s="36"/>
-      <c r="BV158" s="39">
+      <c r="BS158" s="38"/>
+      <c r="BT158" s="38"/>
+      <c r="BU158" s="38"/>
+      <c r="BV158" s="40">
         <v>2018</v>
       </c>
-      <c r="BW158" s="39"/>
-      <c r="BX158" s="39"/>
-      <c r="BY158" s="39"/>
-      <c r="BZ158" s="38">
+      <c r="BW158" s="40"/>
+      <c r="BX158" s="40"/>
+      <c r="BY158" s="40"/>
+      <c r="BZ158" s="40">
         <v>2019</v>
       </c>
-      <c r="CA158" s="38"/>
-      <c r="CB158" s="38"/>
-      <c r="CC158" s="38"/>
+      <c r="CA158" s="40"/>
+      <c r="CB158" s="40"/>
+      <c r="CC158" s="40"/>
       <c r="CD158" s="40">
         <v>2020</v>
       </c>
       <c r="CE158" s="40"/>
       <c r="CF158" s="40"/>
       <c r="CG158" s="40"/>
-      <c r="CH158" s="40">
+      <c r="CH158" s="37">
         <v>2021</v>
       </c>
-      <c r="CI158" s="40"/>
-      <c r="CJ158" s="40"/>
-      <c r="CK158" s="40"/>
-      <c r="CL158" s="35">
+      <c r="CI158" s="37"/>
+      <c r="CJ158" s="37"/>
+      <c r="CK158" s="37"/>
+      <c r="CL158" s="37">
         <v>2022</v>
       </c>
+      <c r="CM158" s="37"/>
     </row>
-    <row r="159" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="7" t="s">
         <v>7</v>
@@ -24581,50 +24754,53 @@
       <c r="BY159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BZ159" s="32" t="s">
+      <c r="BZ159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA159" s="32" t="s">
+      <c r="CA159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB159" s="32" t="s">
+      <c r="CB159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CC159" s="32" t="s">
+      <c r="CC159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD159" s="32" t="s">
+      <c r="CD159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CE159" s="32" t="s">
+      <c r="CE159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CF159" s="32" t="s">
+      <c r="CF159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CG159" s="32" t="s">
+      <c r="CG159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="32" t="s">
+      <c r="CH159" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="32" t="s">
+      <c r="CI159" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CJ159" s="32" t="s">
+      <c r="CJ159" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CK159" s="32" t="s">
+      <c r="CK159" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="32" t="s">
+      <c r="CL159" s="33" t="s">
         <v>7</v>
       </c>
+      <c r="CM159" s="33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
     </row>
-    <row r="161" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -24856,46 +25032,48 @@
       <c r="BY161" s="23">
         <v>19.898831979572595</v>
       </c>
-      <c r="BZ161" s="34">
+      <c r="BZ161" s="23">
         <v>16.705460068725923</v>
       </c>
-      <c r="CA161" s="34">
+      <c r="CA161" s="23">
         <v>19.283615856710426</v>
       </c>
-      <c r="CB161" s="34">
+      <c r="CB161" s="23">
         <v>18.164145673250314</v>
       </c>
-      <c r="CC161" s="34">
+      <c r="CC161" s="23">
         <v>13.646805298871332</v>
       </c>
-      <c r="CD161" s="34">
+      <c r="CD161" s="23">
         <v>16.247521985696487</v>
       </c>
-      <c r="CE161" s="34">
+      <c r="CE161" s="23">
         <v>15.790441081843406</v>
       </c>
-      <c r="CF161" s="34">
+      <c r="CF161" s="23">
         <v>20.149099412692205</v>
       </c>
-      <c r="CG161" s="34">
+      <c r="CG161" s="23">
         <v>20.872114450196733</v>
       </c>
-      <c r="CH161" s="34">
+      <c r="CH161" s="36">
         <v>19.351834335018651</v>
       </c>
-      <c r="CI161" s="34">
+      <c r="CI161" s="36">
         <v>22.972137787276484</v>
       </c>
-      <c r="CJ161" s="34">
+      <c r="CJ161" s="36">
         <v>26.64294083007227</v>
       </c>
-      <c r="CK161" s="34">
+      <c r="CK161" s="36">
         <v>23.927220243755855</v>
       </c>
-      <c r="CL161" s="34">
-        <v>18.672374540137771</v>
-      </c>
-      <c r="CM161" s="11"/>
+      <c r="CL161" s="36">
+        <v>19.1412493256801</v>
+      </c>
+      <c r="CM161" s="36">
+        <v>23.155436475443633</v>
+      </c>
       <c r="CN161" s="11"/>
       <c r="CO161" s="11"/>
       <c r="CP161" s="11"/>
@@ -24958,7 +25136,7 @@
       <c r="EU161" s="11"/>
       <c r="EV161" s="11"/>
     </row>
-    <row r="162" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -25190,46 +25368,48 @@
       <c r="BY162" s="23">
         <v>2.3920929112642519</v>
       </c>
-      <c r="BZ162" s="34">
+      <c r="BZ162" s="23">
         <v>6.1994415990250333</v>
       </c>
-      <c r="CA162" s="34">
+      <c r="CA162" s="23">
         <v>7.7387224595919344</v>
       </c>
-      <c r="CB162" s="34">
+      <c r="CB162" s="23">
         <v>4.8649971956809743</v>
       </c>
-      <c r="CC162" s="34">
+      <c r="CC162" s="23">
         <v>2.1375357534085211</v>
       </c>
-      <c r="CD162" s="34">
+      <c r="CD162" s="23">
         <v>5.4106493904424937</v>
       </c>
-      <c r="CE162" s="34">
+      <c r="CE162" s="23">
         <v>6.8683242858019842</v>
       </c>
-      <c r="CF162" s="34">
+      <c r="CF162" s="23">
         <v>6.0509098496519931</v>
       </c>
-      <c r="CG162" s="34">
+      <c r="CG162" s="23">
         <v>3.2013591828894432</v>
       </c>
-      <c r="CH162" s="34">
+      <c r="CH162" s="36">
         <v>9.1993649282021845</v>
       </c>
-      <c r="CI162" s="34">
+      <c r="CI162" s="36">
         <v>11.259435131507486</v>
       </c>
-      <c r="CJ162" s="34">
+      <c r="CJ162" s="36">
         <v>7.7248323741754197</v>
       </c>
-      <c r="CK162" s="34">
+      <c r="CK162" s="36">
         <v>3.9810195459415101</v>
       </c>
-      <c r="CL162" s="34">
-        <v>8.9852526900105207</v>
-      </c>
-      <c r="CM162" s="11"/>
+      <c r="CL162" s="36">
+        <v>8.9589373608505625</v>
+      </c>
+      <c r="CM162" s="36">
+        <v>10.316822207274837</v>
+      </c>
       <c r="CN162" s="11"/>
       <c r="CO162" s="11"/>
       <c r="CP162" s="11"/>
@@ -25292,7 +25472,7 @@
       <c r="EU162" s="11"/>
       <c r="EV162" s="11"/>
     </row>
-    <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25524,46 +25704,48 @@
       <c r="BY163" s="23">
         <v>52.043258787226343</v>
       </c>
-      <c r="BZ163" s="34">
+      <c r="BZ163" s="23">
         <v>41.093413354568789</v>
       </c>
-      <c r="CA163" s="34">
+      <c r="CA163" s="23">
         <v>38.344517308974574</v>
       </c>
-      <c r="CB163" s="34">
+      <c r="CB163" s="23">
         <v>50.803312384993085</v>
       </c>
-      <c r="CC163" s="34">
+      <c r="CC163" s="23">
         <v>54.230854561444843</v>
       </c>
-      <c r="CD163" s="34">
+      <c r="CD163" s="23">
         <v>37.792412272820314</v>
       </c>
-      <c r="CE163" s="34">
+      <c r="CE163" s="23">
         <v>38.615581401953094</v>
       </c>
-      <c r="CF163" s="34">
+      <c r="CF163" s="23">
         <v>42.99653790661209</v>
       </c>
-      <c r="CG163" s="34">
+      <c r="CG163" s="23">
         <v>37.195469493628963</v>
       </c>
-      <c r="CH163" s="34">
+      <c r="CH163" s="36">
         <v>18.572806903324061</v>
       </c>
-      <c r="CI163" s="34">
+      <c r="CI163" s="36">
         <v>18.545048815496372</v>
       </c>
-      <c r="CJ163" s="34">
+      <c r="CJ163" s="36">
         <v>27.823960371949685</v>
       </c>
-      <c r="CK163" s="34">
+      <c r="CK163" s="36">
         <v>33.969877337622165</v>
       </c>
-      <c r="CL163" s="34">
-        <v>23.65502855364598</v>
-      </c>
-      <c r="CM163" s="11"/>
+      <c r="CL163" s="36">
+        <v>23.379548547271277</v>
+      </c>
+      <c r="CM163" s="36">
+        <v>27.450491059941974</v>
+      </c>
       <c r="CN163" s="11"/>
       <c r="CO163" s="11"/>
       <c r="CP163" s="11"/>
@@ -25626,7 +25808,7 @@
       <c r="EU163" s="11"/>
       <c r="EV163" s="11"/>
     </row>
-    <row r="164" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -25858,46 +26040,48 @@
       <c r="BY164" s="23">
         <v>1.5170278204548449</v>
       </c>
-      <c r="BZ164" s="34">
+      <c r="BZ164" s="23">
         <v>2.0556405303582208</v>
       </c>
-      <c r="CA164" s="34">
+      <c r="CA164" s="23">
         <v>1.9945829790898035</v>
       </c>
-      <c r="CB164" s="34">
+      <c r="CB164" s="23">
         <v>1.8258634082259302</v>
       </c>
-      <c r="CC164" s="34">
+      <c r="CC164" s="23">
         <v>1.4140957795229996</v>
       </c>
-      <c r="CD164" s="34">
+      <c r="CD164" s="23">
         <v>1.4910173819555634</v>
       </c>
-      <c r="CE164" s="34">
+      <c r="CE164" s="23">
         <v>2.0482449598917625</v>
       </c>
-      <c r="CF164" s="34">
+      <c r="CF164" s="23">
         <v>1.8424169416295297</v>
       </c>
-      <c r="CG164" s="34">
+      <c r="CG164" s="23">
         <v>1.8747388781237373</v>
       </c>
-      <c r="CH164" s="34">
+      <c r="CH164" s="36">
         <v>2.2674512431291332</v>
       </c>
-      <c r="CI164" s="34">
+      <c r="CI164" s="36">
         <v>2.0770655313348798</v>
       </c>
-      <c r="CJ164" s="34">
+      <c r="CJ164" s="36">
         <v>1.981560420172384</v>
       </c>
-      <c r="CK164" s="34">
+      <c r="CK164" s="36">
         <v>1.6319749119979126</v>
       </c>
-      <c r="CL164" s="34">
-        <v>1.6710780384429642</v>
-      </c>
-      <c r="CM164" s="11"/>
+      <c r="CL164" s="36">
+        <v>1.6573317851426776</v>
+      </c>
+      <c r="CM164" s="36">
+        <v>1.5414845654897706</v>
+      </c>
       <c r="CN164" s="11"/>
       <c r="CO164" s="11"/>
       <c r="CP164" s="11"/>
@@ -25960,7 +26144,7 @@
       <c r="EU164" s="11"/>
       <c r="EV164" s="11"/>
     </row>
-    <row r="165" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -26192,46 +26376,48 @@
       <c r="BY165" s="23">
         <v>2.7167329420027184</v>
       </c>
-      <c r="BZ165" s="34">
+      <c r="BZ165" s="23">
         <v>4.789758929430187</v>
       </c>
-      <c r="CA165" s="34">
+      <c r="CA165" s="23">
         <v>3.8478254511059489</v>
       </c>
-      <c r="CB165" s="34">
+      <c r="CB165" s="23">
         <v>3.3245824840224363</v>
       </c>
-      <c r="CC165" s="34">
+      <c r="CC165" s="23">
         <v>3.123554392171747</v>
       </c>
-      <c r="CD165" s="34">
+      <c r="CD165" s="23">
         <v>5.5627003735040477</v>
       </c>
-      <c r="CE165" s="34">
+      <c r="CE165" s="23">
         <v>8.0559308378434036</v>
       </c>
-      <c r="CF165" s="34">
+      <c r="CF165" s="23">
         <v>5.3737014222452153</v>
       </c>
-      <c r="CG165" s="34">
+      <c r="CG165" s="23">
         <v>7.0919165370406283</v>
       </c>
-      <c r="CH165" s="34">
+      <c r="CH165" s="36">
         <v>12.320258669632578</v>
       </c>
-      <c r="CI165" s="34">
+      <c r="CI165" s="36">
         <v>13.529792764170939</v>
       </c>
-      <c r="CJ165" s="34">
+      <c r="CJ165" s="36">
         <v>8.1217254555073968</v>
       </c>
-      <c r="CK165" s="34">
+      <c r="CK165" s="36">
         <v>7.5410901087060482</v>
       </c>
-      <c r="CL165" s="34">
-        <v>9.5725605261647839</v>
-      </c>
-      <c r="CM165" s="11"/>
+      <c r="CL165" s="36">
+        <v>8.288691622766601</v>
+      </c>
+      <c r="CM165" s="36">
+        <v>7.640097244865367</v>
+      </c>
       <c r="CN165" s="11"/>
       <c r="CO165" s="11"/>
       <c r="CP165" s="11"/>
@@ -26294,7 +26480,7 @@
       <c r="EU165" s="11"/>
       <c r="EV165" s="11"/>
     </row>
-    <row r="166" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26526,46 +26712,48 @@
       <c r="BY166" s="23">
         <v>15.401563360925</v>
       </c>
-      <c r="BZ166" s="34">
+      <c r="BZ166" s="23">
         <v>20.298360917101167</v>
       </c>
-      <c r="CA166" s="34">
+      <c r="CA166" s="23">
         <v>21.220897482583275</v>
       </c>
-      <c r="CB166" s="34">
+      <c r="CB166" s="23">
         <v>15.529915397923974</v>
       </c>
-      <c r="CC166" s="34">
+      <c r="CC166" s="23">
         <v>17.197250532000911</v>
       </c>
-      <c r="CD166" s="34">
+      <c r="CD166" s="23">
         <v>25.938658020486965</v>
       </c>
-      <c r="CE166" s="34">
+      <c r="CE166" s="23">
         <v>21.612777999710193</v>
       </c>
-      <c r="CF166" s="34">
+      <c r="CF166" s="23">
         <v>19.285684296246377</v>
       </c>
-      <c r="CG166" s="34">
+      <c r="CG166" s="23">
         <v>21.8156339135877</v>
       </c>
-      <c r="CH166" s="34">
+      <c r="CH166" s="36">
         <v>31.686181239714088</v>
       </c>
-      <c r="CI166" s="34">
+      <c r="CI166" s="36">
         <v>25.519727880488535</v>
       </c>
-      <c r="CJ166" s="34">
+      <c r="CJ166" s="36">
         <v>22.389837569707765</v>
       </c>
-      <c r="CK166" s="34">
+      <c r="CK166" s="36">
         <v>21.37661081359651</v>
       </c>
-      <c r="CL166" s="34">
-        <v>31.228779211328217</v>
-      </c>
-      <c r="CM166" s="11"/>
+      <c r="CL166" s="36">
+        <v>31.540214830193776</v>
+      </c>
+      <c r="CM166" s="36">
+        <v>24.494565246657586</v>
+      </c>
       <c r="CN166" s="11"/>
       <c r="CO166" s="11"/>
       <c r="CP166" s="11"/>
@@ -26628,7 +26816,7 @@
       <c r="EU166" s="11"/>
       <c r="EV166" s="11"/>
     </row>
-    <row r="167" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>18</v>
       </c>
@@ -26860,46 +27048,48 @@
       <c r="BY167" s="23">
         <v>2.5501310422470382</v>
       </c>
-      <c r="BZ167" s="34">
+      <c r="BZ167" s="23">
         <v>4.3664911297906253</v>
       </c>
-      <c r="CA167" s="34">
+      <c r="CA167" s="23">
         <v>3.1168822333521384</v>
       </c>
-      <c r="CB167" s="34">
+      <c r="CB167" s="23">
         <v>2.6627462016689525</v>
       </c>
-      <c r="CC167" s="34">
+      <c r="CC167" s="23">
         <v>2.7214318787950185</v>
       </c>
-      <c r="CD167" s="34">
+      <c r="CD167" s="23">
         <v>3.9527149527942349</v>
       </c>
-      <c r="CE167" s="34">
+      <c r="CE167" s="23">
         <v>2.6112806411776068</v>
       </c>
-      <c r="CF167" s="34">
+      <c r="CF167" s="23">
         <v>1.8635400651455234</v>
       </c>
-      <c r="CG167" s="34">
+      <c r="CG167" s="23">
         <v>2.8259932030466497</v>
       </c>
-      <c r="CH167" s="34">
+      <c r="CH167" s="36">
         <v>2.9840637477345791</v>
       </c>
-      <c r="CI167" s="34">
+      <c r="CI167" s="36">
         <v>3.40511665374409</v>
       </c>
-      <c r="CJ167" s="34">
+      <c r="CJ167" s="36">
         <v>2.8796969878746288</v>
       </c>
-      <c r="CK167" s="34">
+      <c r="CK167" s="36">
         <v>3.0326812095859323</v>
       </c>
-      <c r="CL167" s="34">
-        <v>2.9525646476531517</v>
-      </c>
-      <c r="CM167" s="11"/>
+      <c r="CL167" s="36">
+        <v>2.5715915856902258</v>
+      </c>
+      <c r="CM167" s="36">
+        <v>2.118290552748872</v>
+      </c>
       <c r="CN167" s="11"/>
       <c r="CO167" s="11"/>
       <c r="CP167" s="11"/>
@@ -26962,7 +27152,7 @@
       <c r="EU167" s="11"/>
       <c r="EV167" s="11"/>
     </row>
-    <row r="168" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -27194,46 +27384,48 @@
       <c r="BY168" s="23">
         <v>3.4803611563072221</v>
       </c>
-      <c r="BZ168" s="34">
+      <c r="BZ168" s="23">
         <v>4.4914334710000636</v>
       </c>
-      <c r="CA168" s="34">
+      <c r="CA168" s="23">
         <v>4.4529562285919129</v>
       </c>
-      <c r="CB168" s="34">
+      <c r="CB168" s="23">
         <v>2.8244372542343368</v>
       </c>
-      <c r="CC168" s="34">
+      <c r="CC168" s="23">
         <v>5.5284718037846288</v>
       </c>
-      <c r="CD168" s="34">
+      <c r="CD168" s="23">
         <v>3.6043256222998901</v>
       </c>
-      <c r="CE168" s="34">
+      <c r="CE168" s="23">
         <v>4.3974187917785512</v>
       </c>
-      <c r="CF168" s="34">
+      <c r="CF168" s="23">
         <v>2.4381101057770507</v>
       </c>
-      <c r="CG168" s="34">
+      <c r="CG168" s="23">
         <v>5.1227743414861555</v>
       </c>
-      <c r="CH168" s="34">
+      <c r="CH168" s="36">
         <v>3.6180389332447285</v>
       </c>
-      <c r="CI168" s="34">
+      <c r="CI168" s="36">
         <v>2.6916754359812027</v>
       </c>
-      <c r="CJ168" s="34">
+      <c r="CJ168" s="36">
         <v>2.435445990540452</v>
       </c>
-      <c r="CK168" s="34">
+      <c r="CK168" s="36">
         <v>4.5395258287940514</v>
       </c>
-      <c r="CL168" s="34">
-        <v>3.2623617926166277</v>
-      </c>
-      <c r="CM168" s="11"/>
+      <c r="CL168" s="36">
+        <v>4.4624349424047773</v>
+      </c>
+      <c r="CM168" s="36">
+        <v>3.2828126475779547</v>
+      </c>
       <c r="CN168" s="11"/>
       <c r="CO168" s="11"/>
       <c r="CP168" s="11"/>
@@ -27296,7 +27488,7 @@
       <c r="EU168" s="11"/>
       <c r="EV168" s="11"/>
     </row>
-    <row r="169" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -27373,20 +27565,20 @@
       <c r="BW169" s="12"/>
       <c r="BX169" s="12"/>
       <c r="BY169" s="12"/>
-      <c r="BZ169" s="29"/>
-      <c r="CA169" s="29"/>
-      <c r="CB169" s="29"/>
-      <c r="CC169" s="29"/>
-      <c r="CD169" s="29"/>
-      <c r="CE169" s="29"/>
-      <c r="CF169" s="29"/>
-      <c r="CG169" s="29"/>
-      <c r="CH169" s="29"/>
-      <c r="CI169" s="29"/>
-      <c r="CJ169" s="29"/>
-      <c r="CK169" s="29"/>
-      <c r="CL169" s="29"/>
-      <c r="CM169" s="11"/>
+      <c r="BZ169" s="12"/>
+      <c r="CA169" s="12"/>
+      <c r="CB169" s="12"/>
+      <c r="CC169" s="12"/>
+      <c r="CD169" s="12"/>
+      <c r="CE169" s="12"/>
+      <c r="CF169" s="12"/>
+      <c r="CG169" s="12"/>
+      <c r="CH169" s="30"/>
+      <c r="CI169" s="30"/>
+      <c r="CJ169" s="30"/>
+      <c r="CK169" s="30"/>
+      <c r="CL169" s="30"/>
+      <c r="CM169" s="30"/>
       <c r="CN169" s="11"/>
       <c r="CO169" s="11"/>
       <c r="CP169" s="11"/>
@@ -27449,7 +27641,7 @@
       <c r="EU169" s="11"/>
       <c r="EV169" s="11"/>
     </row>
-    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>17</v>
       </c>
@@ -27681,46 +27873,48 @@
       <c r="BY170" s="21">
         <v>100</v>
       </c>
-      <c r="BZ170" s="33">
+      <c r="BZ170" s="21">
         <v>100</v>
       </c>
-      <c r="CA170" s="33">
+      <c r="CA170" s="21">
         <v>100</v>
       </c>
-      <c r="CB170" s="33">
+      <c r="CB170" s="21">
         <v>100</v>
       </c>
-      <c r="CC170" s="33">
+      <c r="CC170" s="21">
         <v>100</v>
       </c>
-      <c r="CD170" s="33">
+      <c r="CD170" s="21">
         <v>100</v>
       </c>
-      <c r="CE170" s="33">
+      <c r="CE170" s="21">
         <v>100</v>
       </c>
-      <c r="CF170" s="33">
+      <c r="CF170" s="21">
         <v>100</v>
       </c>
-      <c r="CG170" s="33">
+      <c r="CG170" s="21">
         <v>100</v>
       </c>
-      <c r="CH170" s="33">
+      <c r="CH170" s="35">
         <v>100</v>
       </c>
-      <c r="CI170" s="33">
+      <c r="CI170" s="35">
         <v>100</v>
       </c>
-      <c r="CJ170" s="33">
+      <c r="CJ170" s="35">
         <v>100</v>
       </c>
-      <c r="CK170" s="33">
+      <c r="CK170" s="35">
         <v>100</v>
       </c>
-      <c r="CL170" s="33">
+      <c r="CL170" s="35">
         <v>100</v>
       </c>
-      <c r="CM170" s="11"/>
+      <c r="CM170" s="35">
+        <v>100</v>
+      </c>
       <c r="CN170" s="11"/>
       <c r="CO170" s="11"/>
       <c r="CP170" s="11"/>
@@ -27783,7 +27977,7 @@
       <c r="EU170" s="11"/>
       <c r="EV170" s="11"/>
     </row>
-    <row r="171" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -27861,26 +28055,27 @@
       <c r="BW171" s="17"/>
       <c r="BX171" s="17"/>
       <c r="BY171" s="17"/>
-      <c r="BZ171" s="31"/>
-      <c r="CA171" s="31"/>
-      <c r="CB171" s="31"/>
-      <c r="CC171" s="31"/>
-      <c r="CD171" s="31"/>
-      <c r="CE171" s="31"/>
-      <c r="CF171" s="31"/>
-      <c r="CG171" s="31"/>
-      <c r="CH171" s="31"/>
-      <c r="CI171" s="31"/>
-      <c r="CJ171" s="31"/>
-      <c r="CK171" s="31"/>
-      <c r="CL171" s="31"/>
+      <c r="BZ171" s="17"/>
+      <c r="CA171" s="17"/>
+      <c r="CB171" s="17"/>
+      <c r="CC171" s="17"/>
+      <c r="CD171" s="17"/>
+      <c r="CE171" s="17"/>
+      <c r="CF171" s="17"/>
+      <c r="CG171" s="17"/>
+      <c r="CH171" s="32"/>
+      <c r="CI171" s="32"/>
+      <c r="CJ171" s="32"/>
+      <c r="CK171" s="32"/>
+      <c r="CL171" s="32"/>
+      <c r="CM171" s="32"/>
     </row>
-    <row r="172" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -27958,20 +28153,20 @@
       <c r="BW173" s="2"/>
       <c r="BX173" s="2"/>
       <c r="BY173" s="2"/>
-      <c r="BZ173" s="26"/>
-      <c r="CA173" s="26"/>
-      <c r="CB173" s="26"/>
-      <c r="CC173" s="26"/>
-      <c r="CD173" s="26"/>
-      <c r="CE173" s="26"/>
-      <c r="CF173" s="26"/>
-      <c r="CG173" s="26"/>
-      <c r="CH173" s="41"/>
-      <c r="CI173" s="41"/>
-      <c r="CJ173" s="41"/>
-      <c r="CK173" s="41"/>
-      <c r="CL173" s="41"/>
-      <c r="CM173" s="24"/>
+      <c r="BZ173" s="2"/>
+      <c r="CA173" s="2"/>
+      <c r="CB173" s="2"/>
+      <c r="CC173" s="2"/>
+      <c r="CD173" s="2"/>
+      <c r="CE173" s="2"/>
+      <c r="CF173" s="2"/>
+      <c r="CG173" s="2"/>
+      <c r="CH173" s="26"/>
+      <c r="CI173" s="26"/>
+      <c r="CJ173" s="26"/>
+      <c r="CK173" s="26"/>
+      <c r="CL173" s="26"/>
+      <c r="CM173" s="26"/>
       <c r="CN173" s="24"/>
       <c r="CO173" s="24"/>
       <c r="CP173" s="24"/>
@@ -28034,7 +28229,7 @@
       <c r="EU173" s="24"/>
       <c r="EV173" s="24"/>
     </row>
-    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -28112,20 +28307,20 @@
       <c r="BW174" s="2"/>
       <c r="BX174" s="2"/>
       <c r="BY174" s="2"/>
-      <c r="BZ174" s="26"/>
-      <c r="CA174" s="26"/>
-      <c r="CB174" s="26"/>
-      <c r="CC174" s="26"/>
-      <c r="CD174" s="26"/>
-      <c r="CE174" s="26"/>
-      <c r="CF174" s="26"/>
-      <c r="CG174" s="26"/>
-      <c r="CH174" s="41"/>
-      <c r="CI174" s="41"/>
-      <c r="CJ174" s="41"/>
-      <c r="CK174" s="41"/>
-      <c r="CL174" s="41"/>
-      <c r="CM174" s="24"/>
+      <c r="BZ174" s="2"/>
+      <c r="CA174" s="2"/>
+      <c r="CB174" s="2"/>
+      <c r="CC174" s="2"/>
+      <c r="CD174" s="2"/>
+      <c r="CE174" s="2"/>
+      <c r="CF174" s="2"/>
+      <c r="CG174" s="2"/>
+      <c r="CH174" s="26"/>
+      <c r="CI174" s="26"/>
+      <c r="CJ174" s="26"/>
+      <c r="CK174" s="26"/>
+      <c r="CL174" s="26"/>
+      <c r="CM174" s="26"/>
       <c r="CN174" s="24"/>
       <c r="CO174" s="24"/>
       <c r="CP174" s="24"/>
@@ -28189,9 +28384,133 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
+  <mergeCells count="159">
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
     <mergeCell ref="CD59:CG59"/>
     <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="CH108:CK108"/>
@@ -28216,140 +28535,23 @@
     <mergeCell ref="BV158:BY158"/>
     <mergeCell ref="BR59:BU59"/>
     <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL34:CM34"/>
+    <mergeCell ref="CH59:CI59"/>
+    <mergeCell ref="CH84:CI84"/>
+    <mergeCell ref="CL108:CM108"/>
+    <mergeCell ref="CL133:CM133"/>
+    <mergeCell ref="CL158:CM158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="89" man="1"/>
-    <brk id="100" max="89" man="1"/>
-    <brk id="124" max="89" man="1"/>
+    <brk id="50" max="90" man="1"/>
+    <brk id="100" max="90" man="1"/>
+    <brk id="124" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62460A71-C583-4C72-87C9-3149E680BEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB647B-A2D5-4FEC-A999-05072B4615C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CM$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CN$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -230,13 +230,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -269,25 +269,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -323,33 +304,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -367,47 +330,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,188 +703,189 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CN18" sqref="CN18"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" style="1" customWidth="1"/>
-    <col min="2" max="73" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="85" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="91" width="11.6328125" style="26" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
+    <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="85" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="92" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="39">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
-      <c r="BF9" s="39">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="39"/>
-      <c r="BM9" s="39"/>
-      <c r="BN9" s="39">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="39"/>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="39"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="39"/>
-      <c r="BV9" s="38">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="28">
         <v>2018</v>
       </c>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38">
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="37">
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
-      <c r="CL9" s="37">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
-      <c r="CM9" s="37"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -1193,29 +1139,32 @@
       <c r="CG10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="28" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="28" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="28" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="28" t="s">
+      <c r="CK10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="28" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="28" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1471,25 +1420,27 @@
       <c r="CG12" s="10">
         <v>52884.47277971021</v>
       </c>
-      <c r="CH12" s="29">
+      <c r="CH12" s="26">
         <v>46430.300796230811</v>
       </c>
-      <c r="CI12" s="29">
+      <c r="CI12" s="26">
         <v>52849.253157415507</v>
       </c>
-      <c r="CJ12" s="29">
+      <c r="CJ12" s="26">
         <v>67877.636577602956</v>
       </c>
-      <c r="CK12" s="29">
+      <c r="CK12" s="26">
         <v>73947.01885015193</v>
       </c>
-      <c r="CL12" s="29">
+      <c r="CL12" s="26">
         <v>64371.44848578058</v>
       </c>
-      <c r="CM12" s="29">
-        <v>74703.658577120412</v>
-      </c>
-      <c r="CN12" s="11"/>
+      <c r="CM12" s="26">
+        <v>73560.463025433302</v>
+      </c>
+      <c r="CN12" s="26">
+        <v>106429.71477728267</v>
+      </c>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -1551,7 +1502,7 @@
       <c r="EU12" s="11"/>
       <c r="EV12" s="11"/>
     </row>
-    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1807,25 +1758,27 @@
       <c r="CG13" s="10">
         <v>8862.0147975722048</v>
       </c>
-      <c r="CH13" s="29">
+      <c r="CH13" s="26">
         <v>18218.746193832638</v>
       </c>
-      <c r="CI13" s="29">
+      <c r="CI13" s="26">
         <v>28636.764893774238</v>
       </c>
-      <c r="CJ13" s="29">
+      <c r="CJ13" s="26">
         <v>20345.032295457306</v>
       </c>
-      <c r="CK13" s="29">
+      <c r="CK13" s="26">
         <v>12743.548438235644</v>
       </c>
-      <c r="CL13" s="29">
+      <c r="CL13" s="26">
         <v>24349.345679012895</v>
       </c>
-      <c r="CM13" s="29">
-        <v>36071.753513033771</v>
-      </c>
-      <c r="CN13" s="11"/>
+      <c r="CM13" s="26">
+        <v>35621.486531043323</v>
+      </c>
+      <c r="CN13" s="26">
+        <v>26122.418121267372</v>
+      </c>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -1887,7 +1840,7 @@
       <c r="EU13" s="11"/>
       <c r="EV13" s="11"/>
     </row>
-    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2143,25 +2096,27 @@
       <c r="CG14" s="10">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="29">
+      <c r="CH14" s="26">
         <v>52138.343197657821</v>
       </c>
-      <c r="CI14" s="29">
+      <c r="CI14" s="26">
         <v>43239.536426352897</v>
       </c>
-      <c r="CJ14" s="29">
+      <c r="CJ14" s="26">
         <v>62997.561718120749</v>
       </c>
-      <c r="CK14" s="29">
+      <c r="CK14" s="26">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="29">
+      <c r="CL14" s="26">
         <v>91066.412891540836</v>
       </c>
-      <c r="CM14" s="29">
-        <v>88202.402369774427</v>
-      </c>
-      <c r="CN14" s="11"/>
+      <c r="CM14" s="26">
+        <v>88289.001910687817</v>
+      </c>
+      <c r="CN14" s="26">
+        <v>117824.77195304068</v>
+      </c>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
@@ -2223,7 +2178,7 @@
       <c r="EU14" s="11"/>
       <c r="EV14" s="11"/>
     </row>
-    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2479,25 +2434,27 @@
       <c r="CG15" s="10">
         <v>5088.6362974759177</v>
       </c>
-      <c r="CH15" s="29">
+      <c r="CH15" s="26">
         <v>5048.3525692498251</v>
       </c>
-      <c r="CI15" s="29">
+      <c r="CI15" s="26">
         <v>4921.2515890704108</v>
       </c>
-      <c r="CJ15" s="29">
+      <c r="CJ15" s="26">
         <v>5111.1493409064724</v>
       </c>
-      <c r="CK15" s="29">
+      <c r="CK15" s="26">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="29">
+      <c r="CL15" s="26">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="29">
-        <v>5020.8645741435548</v>
-      </c>
-      <c r="CN15" s="11"/>
+      <c r="CM15" s="26">
+        <v>4959.4587433015095</v>
+      </c>
+      <c r="CN15" s="26">
+        <v>5140.9467749801606</v>
+      </c>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -2559,7 +2516,7 @@
       <c r="EU15" s="11"/>
       <c r="EV15" s="11"/>
     </row>
-    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2815,25 +2772,27 @@
       <c r="CG16" s="10">
         <v>19783.117813536392</v>
       </c>
-      <c r="CH16" s="29">
+      <c r="CH16" s="26">
         <v>26331.735968171131</v>
       </c>
-      <c r="CI16" s="29">
+      <c r="CI16" s="26">
         <v>33210.08641208458</v>
       </c>
-      <c r="CJ16" s="29">
+      <c r="CJ16" s="26">
         <v>21519.870290264276</v>
       </c>
-      <c r="CK16" s="29">
+      <c r="CK16" s="26">
         <v>24325.582484735562</v>
       </c>
-      <c r="CL16" s="29">
+      <c r="CL16" s="26">
         <v>24311.726665800888</v>
       </c>
-      <c r="CM16" s="29">
-        <v>25780.521905531816</v>
-      </c>
-      <c r="CN16" s="11"/>
+      <c r="CM16" s="26">
+        <v>22955.136807267823</v>
+      </c>
+      <c r="CN16" s="26">
+        <v>24249.639317679917</v>
+      </c>
       <c r="CO16" s="11"/>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
@@ -2895,7 +2854,7 @@
       <c r="EU16" s="11"/>
       <c r="EV16" s="11"/>
     </row>
-    <row r="17" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3151,25 +3110,27 @@
       <c r="CG17" s="10">
         <v>60084.718131966809</v>
       </c>
-      <c r="CH17" s="29">
+      <c r="CH17" s="26">
         <v>66420.824866344847</v>
       </c>
-      <c r="CI17" s="29">
+      <c r="CI17" s="26">
         <v>61686.723992187755</v>
       </c>
-      <c r="CJ17" s="29">
+      <c r="CJ17" s="26">
         <v>58515.768249921377</v>
       </c>
-      <c r="CK17" s="29">
+      <c r="CK17" s="26">
         <v>68082.114901429057</v>
       </c>
-      <c r="CL17" s="29">
+      <c r="CL17" s="26">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="29">
-        <v>81395.306092909683</v>
-      </c>
-      <c r="CN17" s="11"/>
+      <c r="CM17" s="26">
+        <v>86946.134129761122</v>
+      </c>
+      <c r="CN17" s="26">
+        <v>97778.120030840029</v>
+      </c>
       <c r="CO17" s="11"/>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
@@ -3231,7 +3192,7 @@
       <c r="EU17" s="11"/>
       <c r="EV17" s="11"/>
     </row>
-    <row r="18" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3487,25 +3448,27 @@
       <c r="CG18" s="10">
         <v>7949.8504290503433</v>
       </c>
-      <c r="CH18" s="29">
+      <c r="CH18" s="26">
         <v>6340.8829821031732</v>
       </c>
-      <c r="CI18" s="29">
+      <c r="CI18" s="26">
         <v>8380.1096069851701</v>
       </c>
-      <c r="CJ18" s="29">
+      <c r="CJ18" s="26">
         <v>7680.0595135464391</v>
       </c>
-      <c r="CK18" s="29">
+      <c r="CK18" s="26">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="29">
+      <c r="CL18" s="26">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="29">
-        <v>7166.6664350963065</v>
-      </c>
-      <c r="CN18" s="11"/>
+      <c r="CM18" s="26">
+        <v>7193.15854990965</v>
+      </c>
+      <c r="CN18" s="26">
+        <v>8944.1661881249383</v>
+      </c>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
@@ -3567,7 +3530,7 @@
       <c r="EU18" s="11"/>
       <c r="EV18" s="11"/>
     </row>
-    <row r="19" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3823,25 +3786,27 @@
       <c r="CG19" s="10">
         <v>14312.987210784406</v>
       </c>
-      <c r="CH19" s="29">
+      <c r="CH19" s="26">
         <v>7633.9947160214942</v>
       </c>
-      <c r="CI19" s="29">
+      <c r="CI19" s="26">
         <v>6584.5713011930566</v>
       </c>
-      <c r="CJ19" s="29">
+      <c r="CJ19" s="26">
         <v>6454.0482820084544</v>
       </c>
-      <c r="CK19" s="29">
+      <c r="CK19" s="26">
         <v>14666.738397941102</v>
       </c>
-      <c r="CL19" s="29">
+      <c r="CL19" s="26">
         <v>12921.730329943504</v>
       </c>
-      <c r="CM19" s="29">
-        <v>11039.893125612885</v>
-      </c>
-      <c r="CN19" s="11"/>
+      <c r="CM19" s="26">
+        <v>13450.103221377174</v>
+      </c>
+      <c r="CN19" s="26">
+        <v>13083.426909628357</v>
+      </c>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
@@ -3903,7 +3868,7 @@
       <c r="EU19" s="11"/>
       <c r="EV19" s="11"/>
     </row>
-    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -3988,12 +3953,12 @@
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
       <c r="CG20" s="12"/>
-      <c r="CH20" s="30"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="30"/>
-      <c r="CK20" s="30"/>
-      <c r="CL20" s="30"/>
-      <c r="CM20" s="30"/>
+      <c r="CH20" s="11"/>
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="11"/>
+      <c r="CK20" s="11"/>
+      <c r="CL20" s="11"/>
+      <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
       <c r="CP20" s="11"/>
@@ -4056,7 +4021,7 @@
       <c r="EU20" s="11"/>
       <c r="EV20" s="11"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
@@ -4312,25 +4277,27 @@
       <c r="CG21" s="15">
         <v>259162.18962816379</v>
       </c>
-      <c r="CH21" s="31">
+      <c r="CH21" s="14">
         <v>228563.18128961173</v>
       </c>
-      <c r="CI21" s="31">
+      <c r="CI21" s="14">
         <v>239508.29737906365</v>
       </c>
-      <c r="CJ21" s="31">
+      <c r="CJ21" s="14">
         <v>250501.12626782805</v>
       </c>
-      <c r="CK21" s="31">
+      <c r="CK21" s="14">
         <v>303723.94911543583</v>
       </c>
-      <c r="CL21" s="31">
+      <c r="CL21" s="14">
         <v>320317.63073677535</v>
       </c>
-      <c r="CM21" s="31">
-        <v>329381.06659322279</v>
-      </c>
-      <c r="CN21" s="11"/>
+      <c r="CM21" s="14">
+        <v>332974.94291878171</v>
+      </c>
+      <c r="CN21" s="14">
+        <v>399573.20407284418</v>
+      </c>
       <c r="CO21" s="11"/>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
@@ -4392,7 +4359,7 @@
       <c r="EU21" s="11"/>
       <c r="EV21" s="11"/>
     </row>
-    <row r="22" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -4478,19 +4445,20 @@
       <c r="CE22" s="17"/>
       <c r="CF22" s="17"/>
       <c r="CG22" s="17"/>
-      <c r="CH22" s="32"/>
-      <c r="CI22" s="32"/>
-      <c r="CJ22" s="32"/>
-      <c r="CK22" s="32"/>
-      <c r="CL22" s="32"/>
-      <c r="CM22" s="32"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4575,12 +4543,12 @@
       <c r="CE24" s="12"/>
       <c r="CF24" s="12"/>
       <c r="CG24" s="12"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
+      <c r="CH24" s="11"/>
+      <c r="CI24" s="11"/>
+      <c r="CJ24" s="11"/>
+      <c r="CK24" s="11"/>
+      <c r="CL24" s="11"/>
+      <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
       <c r="CP24" s="11"/>
@@ -4643,7 +4611,7 @@
       <c r="EU24" s="11"/>
       <c r="EV24" s="11"/>
     </row>
-    <row r="25" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -4728,12 +4696,12 @@
       <c r="CE25" s="12"/>
       <c r="CF25" s="12"/>
       <c r="CG25" s="12"/>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="30"/>
-      <c r="CK25" s="30"/>
-      <c r="CL25" s="30"/>
-      <c r="CM25" s="30"/>
+      <c r="CH25" s="11"/>
+      <c r="CI25" s="11"/>
+      <c r="CJ25" s="11"/>
+      <c r="CK25" s="11"/>
+      <c r="CL25" s="11"/>
+      <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
       <c r="CP25" s="11"/>
@@ -4796,176 +4764,177 @@
       <c r="EU25" s="11"/>
       <c r="EV25" s="11"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="38">
+      <c r="B34" s="28">
         <v>2000</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28">
         <v>2001</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38">
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28">
         <v>2002</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28">
         <v>2003</v>
       </c>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38">
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28">
         <v>2004</v>
       </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38">
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28">
         <v>2005</v>
       </c>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38">
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28">
         <v>2006</v>
       </c>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38">
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28">
         <v>2007</v>
       </c>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38">
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28">
         <v>2008</v>
       </c>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38">
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28">
         <v>2009</v>
       </c>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38">
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38">
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="28">
         <v>2011</v>
       </c>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38">
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28">
         <v>2012</v>
       </c>
-      <c r="AY34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="38"/>
-      <c r="BB34" s="38">
+      <c r="AY34" s="28"/>
+      <c r="AZ34" s="28"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="28">
         <v>2013</v>
       </c>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38">
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BE34" s="28"/>
+      <c r="BF34" s="28">
         <v>2014</v>
       </c>
-      <c r="BG34" s="38"/>
-      <c r="BH34" s="38"/>
-      <c r="BI34" s="38"/>
-      <c r="BJ34" s="38">
+      <c r="BG34" s="28"/>
+      <c r="BH34" s="28"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28">
         <v>2015</v>
       </c>
-      <c r="BK34" s="38"/>
-      <c r="BL34" s="38"/>
-      <c r="BM34" s="38"/>
-      <c r="BN34" s="38">
+      <c r="BK34" s="28"/>
+      <c r="BL34" s="28"/>
+      <c r="BM34" s="28"/>
+      <c r="BN34" s="28">
         <v>2016</v>
       </c>
-      <c r="BO34" s="38"/>
-      <c r="BP34" s="38"/>
-      <c r="BQ34" s="38"/>
-      <c r="BR34" s="38">
+      <c r="BO34" s="28"/>
+      <c r="BP34" s="28"/>
+      <c r="BQ34" s="28"/>
+      <c r="BR34" s="28">
         <v>2017</v>
       </c>
-      <c r="BS34" s="38"/>
-      <c r="BT34" s="38"/>
-      <c r="BU34" s="38"/>
-      <c r="BV34" s="40">
+      <c r="BS34" s="28"/>
+      <c r="BT34" s="28"/>
+      <c r="BU34" s="28"/>
+      <c r="BV34" s="30">
         <v>2018</v>
       </c>
-      <c r="BW34" s="40"/>
-      <c r="BX34" s="40"/>
-      <c r="BY34" s="40"/>
-      <c r="BZ34" s="40">
+      <c r="BW34" s="30"/>
+      <c r="BX34" s="30"/>
+      <c r="BY34" s="30"/>
+      <c r="BZ34" s="30">
         <v>2019</v>
       </c>
-      <c r="CA34" s="40"/>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
-      <c r="CD34" s="40">
+      <c r="CA34" s="30"/>
+      <c r="CB34" s="30"/>
+      <c r="CC34" s="30"/>
+      <c r="CD34" s="30">
         <v>2020</v>
       </c>
-      <c r="CE34" s="40"/>
-      <c r="CF34" s="40"/>
-      <c r="CG34" s="40"/>
-      <c r="CH34" s="37">
+      <c r="CE34" s="30"/>
+      <c r="CF34" s="30"/>
+      <c r="CG34" s="30"/>
+      <c r="CH34" s="29">
         <v>2021</v>
       </c>
-      <c r="CI34" s="37"/>
-      <c r="CJ34" s="37"/>
-      <c r="CK34" s="37"/>
-      <c r="CL34" s="37">
+      <c r="CI34" s="29"/>
+      <c r="CJ34" s="29"/>
+      <c r="CK34" s="29"/>
+      <c r="CL34" s="29">
         <v>2022</v>
       </c>
-      <c r="CM34" s="37"/>
+      <c r="CM34" s="29"/>
+      <c r="CN34" s="29"/>
     </row>
-    <row r="35" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="7" t="s">
         <v>7</v>
@@ -5219,29 +5188,32 @@
       <c r="CG35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="33" t="s">
+      <c r="CH35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="33" t="s">
+      <c r="CI35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ35" s="33" t="s">
+      <c r="CJ35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK35" s="33" t="s">
+      <c r="CK35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="33" t="s">
+      <c r="CL35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="33" t="s">
+      <c r="CM35" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN35" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="36" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5497,25 +5469,27 @@
       <c r="CG37" s="10">
         <v>55772.422902689606</v>
       </c>
-      <c r="CH37" s="29">
+      <c r="CH37" s="26">
         <v>48469.24732577696</v>
       </c>
-      <c r="CI37" s="29">
+      <c r="CI37" s="26">
         <v>49847.290393522198</v>
       </c>
-      <c r="CJ37" s="29">
+      <c r="CJ37" s="26">
         <v>65274.534079568817</v>
       </c>
-      <c r="CK37" s="29">
+      <c r="CK37" s="26">
         <v>71475.490688452279</v>
       </c>
-      <c r="CL37" s="29">
+      <c r="CL37" s="26">
         <v>63524.930677656928</v>
       </c>
-      <c r="CM37" s="29">
-        <v>65271.032162625634</v>
-      </c>
-      <c r="CN37" s="11"/>
+      <c r="CM37" s="26">
+        <v>64007.189112314896</v>
+      </c>
+      <c r="CN37" s="26">
+        <v>97100.878921600204</v>
+      </c>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="11"/>
@@ -5577,7 +5551,7 @@
       <c r="EU37" s="11"/>
       <c r="EV37" s="11"/>
     </row>
-    <row r="38" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5833,25 +5807,27 @@
       <c r="CG38" s="10">
         <v>8554.3589097095992</v>
       </c>
-      <c r="CH38" s="29">
+      <c r="CH38" s="26">
         <v>23041.035088763867</v>
       </c>
-      <c r="CI38" s="29">
+      <c r="CI38" s="26">
         <v>24431.872116757837</v>
       </c>
-      <c r="CJ38" s="29">
+      <c r="CJ38" s="26">
         <v>18925.644780846895</v>
       </c>
-      <c r="CK38" s="29">
+      <c r="CK38" s="26">
         <v>11892.117955521602</v>
       </c>
-      <c r="CL38" s="29">
+      <c r="CL38" s="26">
         <v>29732.430998115196</v>
       </c>
-      <c r="CM38" s="29">
-        <v>29081.275786844126</v>
-      </c>
-      <c r="CN38" s="11"/>
+      <c r="CM38" s="26">
+        <v>28704.906341587925</v>
+      </c>
+      <c r="CN38" s="26">
+        <v>24092.243165828222</v>
+      </c>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
       <c r="CQ38" s="11"/>
@@ -5913,7 +5889,7 @@
       <c r="EU38" s="11"/>
       <c r="EV38" s="11"/>
     </row>
-    <row r="39" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -6169,25 +6145,27 @@
       <c r="CG39" s="10">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="29">
+      <c r="CH39" s="26">
         <v>46518.069333722618</v>
       </c>
-      <c r="CI39" s="29">
+      <c r="CI39" s="26">
         <v>40240.940665961825</v>
       </c>
-      <c r="CJ39" s="29">
+      <c r="CJ39" s="26">
         <v>68168.002215334855</v>
       </c>
-      <c r="CK39" s="29">
+      <c r="CK39" s="26">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="29">
+      <c r="CL39" s="26">
         <v>77590.766175736702</v>
       </c>
-      <c r="CM39" s="29">
-        <v>77378.022511191404</v>
-      </c>
-      <c r="CN39" s="11"/>
+      <c r="CM39" s="26">
+        <v>77256.728313702624</v>
+      </c>
+      <c r="CN39" s="26">
+        <v>121051.83917505835</v>
+      </c>
       <c r="CO39" s="11"/>
       <c r="CP39" s="11"/>
       <c r="CQ39" s="11"/>
@@ -6249,7 +6227,7 @@
       <c r="EU39" s="11"/>
       <c r="EV39" s="11"/>
     </row>
-    <row r="40" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -6505,25 +6483,27 @@
       <c r="CG40" s="10">
         <v>5009.4938772169016</v>
       </c>
-      <c r="CH40" s="29">
+      <c r="CH40" s="26">
         <v>5679.1337296377524</v>
       </c>
-      <c r="CI40" s="29">
+      <c r="CI40" s="26">
         <v>4507.0288915022302</v>
       </c>
-      <c r="CJ40" s="29">
+      <c r="CJ40" s="26">
         <v>4854.7731274196631</v>
       </c>
-      <c r="CK40" s="29">
+      <c r="CK40" s="26">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="29">
+      <c r="CL40" s="26">
         <v>5500.2620241625873</v>
       </c>
-      <c r="CM40" s="29">
-        <v>4345.1691683279378</v>
-      </c>
-      <c r="CN40" s="11"/>
+      <c r="CM40" s="26">
+        <v>4290.0302877335871</v>
+      </c>
+      <c r="CN40" s="26">
+        <v>4841.3339037140422</v>
+      </c>
       <c r="CO40" s="11"/>
       <c r="CP40" s="11"/>
       <c r="CQ40" s="11"/>
@@ -6585,7 +6565,7 @@
       <c r="EU40" s="11"/>
       <c r="EV40" s="11"/>
     </row>
-    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -6841,25 +6821,27 @@
       <c r="CG41" s="10">
         <v>18950.325767817922</v>
       </c>
-      <c r="CH41" s="29">
+      <c r="CH41" s="26">
         <v>30857.729259048752</v>
       </c>
-      <c r="CI41" s="29">
+      <c r="CI41" s="26">
         <v>29358.325947937912</v>
       </c>
-      <c r="CJ41" s="29">
+      <c r="CJ41" s="26">
         <v>19898.02283507834</v>
       </c>
-      <c r="CK41" s="29">
+      <c r="CK41" s="26">
         <v>22526.775377773323</v>
       </c>
-      <c r="CL41" s="29">
+      <c r="CL41" s="26">
         <v>27508.056124545346</v>
       </c>
-      <c r="CM41" s="29">
-        <v>21536.067071076046</v>
-      </c>
-      <c r="CN41" s="11"/>
+      <c r="CM41" s="26">
+        <v>19166.926178276852</v>
+      </c>
+      <c r="CN41" s="26">
+        <v>22230.391925483378</v>
+      </c>
       <c r="CO41" s="11"/>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
@@ -6921,7 +6903,7 @@
       <c r="EU41" s="11"/>
       <c r="EV41" s="11"/>
     </row>
-    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7177,25 +7159,27 @@
       <c r="CG42" s="10">
         <v>58293.603334826606</v>
       </c>
-      <c r="CH42" s="29">
+      <c r="CH42" s="26">
         <v>79362.262446508073</v>
       </c>
-      <c r="CI42" s="29">
+      <c r="CI42" s="26">
         <v>55375.311527468963</v>
       </c>
-      <c r="CJ42" s="29">
+      <c r="CJ42" s="26">
         <v>54854.538198362068</v>
       </c>
-      <c r="CK42" s="29">
+      <c r="CK42" s="26">
         <v>63856.299711898791</v>
       </c>
-      <c r="CL42" s="29">
+      <c r="CL42" s="26">
         <v>104673.93880912616</v>
       </c>
-      <c r="CM42" s="29">
-        <v>69045.79655493141</v>
-      </c>
-      <c r="CN42" s="11"/>
+      <c r="CM42" s="26">
+        <v>73720.123666276195</v>
+      </c>
+      <c r="CN42" s="26">
+        <v>90876.772643771081</v>
+      </c>
       <c r="CO42" s="11"/>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
@@ -7257,7 +7241,7 @@
       <c r="EU42" s="11"/>
       <c r="EV42" s="11"/>
     </row>
-    <row r="43" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -7513,25 +7497,27 @@
       <c r="CG43" s="10">
         <v>7551.3426498558965</v>
       </c>
-      <c r="CH43" s="29">
+      <c r="CH43" s="26">
         <v>7473.9852212926062</v>
       </c>
-      <c r="CI43" s="29">
+      <c r="CI43" s="26">
         <v>7388.7698321664839</v>
       </c>
-      <c r="CJ43" s="29">
+      <c r="CJ43" s="26">
         <v>7055.18510035081</v>
       </c>
-      <c r="CK43" s="29">
+      <c r="CK43" s="26">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="29">
+      <c r="CL43" s="26">
         <v>8534.4574135530274</v>
       </c>
-      <c r="CM43" s="29">
-        <v>5971.0820370363454</v>
-      </c>
-      <c r="CN43" s="11"/>
+      <c r="CM43" s="26">
+        <v>5990.3662319533241</v>
+      </c>
+      <c r="CN43" s="26">
+        <v>8146.2033595134199</v>
+      </c>
       <c r="CO43" s="11"/>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
@@ -7593,7 +7579,7 @@
       <c r="EU43" s="11"/>
       <c r="EV43" s="11"/>
     </row>
-    <row r="44" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -7849,25 +7835,27 @@
       <c r="CG44" s="10">
         <v>13688.576578580429</v>
       </c>
-      <c r="CH44" s="29">
+      <c r="CH44" s="26">
         <v>9061.8605375509469</v>
       </c>
-      <c r="CI44" s="29">
+      <c r="CI44" s="26">
         <v>5840.6722241052976</v>
       </c>
-      <c r="CJ44" s="29">
+      <c r="CJ44" s="26">
         <v>5966.7813445371357</v>
       </c>
-      <c r="CK44" s="29">
+      <c r="CK44" s="26">
         <v>13560.490219946529</v>
       </c>
-      <c r="CL44" s="29">
+      <c r="CL44" s="26">
         <v>14809.684861557245</v>
       </c>
-      <c r="CM44" s="29">
-        <v>9253.6614514337125</v>
-      </c>
-      <c r="CN44" s="11"/>
+      <c r="CM44" s="26">
+        <v>11268.659326397717</v>
+      </c>
+      <c r="CN44" s="26">
+        <v>11992.258632886425</v>
+      </c>
       <c r="CO44" s="11"/>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
@@ -7929,7 +7917,7 @@
       <c r="EU44" s="11"/>
       <c r="EV44" s="11"/>
     </row>
-    <row r="45" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -8014,12 +8002,12 @@
       <c r="CE45" s="12"/>
       <c r="CF45" s="12"/>
       <c r="CG45" s="12"/>
-      <c r="CH45" s="30"/>
-      <c r="CI45" s="30"/>
-      <c r="CJ45" s="30"/>
-      <c r="CK45" s="30"/>
-      <c r="CL45" s="30"/>
-      <c r="CM45" s="30"/>
+      <c r="CH45" s="11"/>
+      <c r="CI45" s="11"/>
+      <c r="CJ45" s="11"/>
+      <c r="CK45" s="11"/>
+      <c r="CL45" s="11"/>
+      <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
       <c r="CP45" s="11"/>
@@ -8082,7 +8070,7 @@
       <c r="EU45" s="11"/>
       <c r="EV45" s="11"/>
     </row>
-    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>17</v>
       </c>
@@ -8338,25 +8326,27 @@
       <c r="CG46" s="15">
         <v>267210.21981634409</v>
       </c>
-      <c r="CH46" s="31">
+      <c r="CH46" s="14">
         <v>250463.32294230157</v>
       </c>
-      <c r="CI46" s="31">
+      <c r="CI46" s="14">
         <v>216990.21159942276</v>
       </c>
-      <c r="CJ46" s="31">
+      <c r="CJ46" s="14">
         <v>244997.48168149858</v>
       </c>
-      <c r="CK46" s="31">
+      <c r="CK46" s="14">
         <v>298720.41114807234</v>
       </c>
-      <c r="CL46" s="31">
+      <c r="CL46" s="14">
         <v>331874.52708445321</v>
       </c>
-      <c r="CM46" s="31">
-        <v>281882.10674346663</v>
-      </c>
-      <c r="CN46" s="11"/>
+      <c r="CM46" s="14">
+        <v>284404.92945824313</v>
+      </c>
+      <c r="CN46" s="14">
+        <v>380331.92172785511</v>
+      </c>
       <c r="CO46" s="11"/>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
@@ -8418,7 +8408,7 @@
       <c r="EU46" s="11"/>
       <c r="EV46" s="11"/>
     </row>
-    <row r="47" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -8504,19 +8494,20 @@
       <c r="CE47" s="17"/>
       <c r="CF47" s="17"/>
       <c r="CG47" s="17"/>
-      <c r="CH47" s="32"/>
-      <c r="CI47" s="32"/>
-      <c r="CJ47" s="32"/>
-      <c r="CK47" s="32"/>
-      <c r="CL47" s="32"/>
-      <c r="CM47" s="32"/>
+      <c r="CH47" s="16"/>
+      <c r="CI47" s="16"/>
+      <c r="CJ47" s="16"/>
+      <c r="CK47" s="16"/>
+      <c r="CL47" s="16"/>
+      <c r="CM47" s="16"/>
+      <c r="CN47" s="16"/>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -8601,12 +8592,12 @@
       <c r="CE49" s="12"/>
       <c r="CF49" s="12"/>
       <c r="CG49" s="12"/>
-      <c r="CH49" s="30"/>
-      <c r="CI49" s="30"/>
-      <c r="CJ49" s="30"/>
-      <c r="CK49" s="30"/>
-      <c r="CL49" s="30"/>
-      <c r="CM49" s="30"/>
+      <c r="CH49" s="11"/>
+      <c r="CI49" s="11"/>
+      <c r="CJ49" s="11"/>
+      <c r="CK49" s="11"/>
+      <c r="CL49" s="11"/>
+      <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
       <c r="CP49" s="11"/>
@@ -8669,7 +8660,7 @@
       <c r="EU49" s="11"/>
       <c r="EV49" s="11"/>
     </row>
-    <row r="50" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -8754,12 +8745,12 @@
       <c r="CE50" s="12"/>
       <c r="CF50" s="12"/>
       <c r="CG50" s="12"/>
-      <c r="CH50" s="30"/>
-      <c r="CI50" s="30"/>
-      <c r="CJ50" s="30"/>
-      <c r="CK50" s="30"/>
-      <c r="CL50" s="30"/>
-      <c r="CM50" s="30"/>
+      <c r="CH50" s="11"/>
+      <c r="CI50" s="11"/>
+      <c r="CJ50" s="11"/>
+      <c r="CK50" s="11"/>
+      <c r="CL50" s="11"/>
+      <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
@@ -8822,174 +8813,175 @@
       <c r="EU50" s="11"/>
       <c r="EV50" s="11"/>
     </row>
-    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39" t="s">
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39" t="s">
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39" t="s">
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39" t="s">
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39" t="s">
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39" t="s">
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39" t="s">
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39" t="s">
+      <c r="AM59" s="29"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39" t="s">
+      <c r="AQ59" s="29"/>
+      <c r="AR59" s="29"/>
+      <c r="AS59" s="29"/>
+      <c r="AT59" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="39"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="39" t="s">
+      <c r="AU59" s="29"/>
+      <c r="AV59" s="29"/>
+      <c r="AW59" s="29"/>
+      <c r="AX59" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="39"/>
-      <c r="AZ59" s="39"/>
-      <c r="BA59" s="39"/>
-      <c r="BB59" s="39" t="s">
+      <c r="AY59" s="29"/>
+      <c r="AZ59" s="29"/>
+      <c r="BA59" s="29"/>
+      <c r="BB59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="39"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="39"/>
-      <c r="BF59" s="39" t="s">
+      <c r="BC59" s="29"/>
+      <c r="BD59" s="29"/>
+      <c r="BE59" s="29"/>
+      <c r="BF59" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="39"/>
-      <c r="BH59" s="39"/>
-      <c r="BI59" s="39"/>
-      <c r="BJ59" s="39" t="s">
+      <c r="BG59" s="29"/>
+      <c r="BH59" s="29"/>
+      <c r="BI59" s="29"/>
+      <c r="BJ59" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="39"/>
-      <c r="BL59" s="39"/>
-      <c r="BM59" s="39"/>
-      <c r="BN59" s="39" t="s">
+      <c r="BK59" s="29"/>
+      <c r="BL59" s="29"/>
+      <c r="BM59" s="29"/>
+      <c r="BN59" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="39"/>
-      <c r="BP59" s="39"/>
-      <c r="BQ59" s="39"/>
-      <c r="BR59" s="39" t="s">
+      <c r="BO59" s="29"/>
+      <c r="BP59" s="29"/>
+      <c r="BQ59" s="29"/>
+      <c r="BR59" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="39"/>
-      <c r="BT59" s="39"/>
-      <c r="BU59" s="39"/>
-      <c r="BV59" s="38" t="s">
+      <c r="BS59" s="29"/>
+      <c r="BT59" s="29"/>
+      <c r="BU59" s="29"/>
+      <c r="BV59" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="38"/>
-      <c r="BX59" s="38"/>
-      <c r="BY59" s="38"/>
-      <c r="BZ59" s="38" t="s">
+      <c r="BW59" s="28"/>
+      <c r="BX59" s="28"/>
+      <c r="BY59" s="28"/>
+      <c r="BZ59" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="38"/>
-      <c r="CB59" s="38"/>
-      <c r="CC59" s="38"/>
-      <c r="CD59" s="38" t="s">
+      <c r="CA59" s="28"/>
+      <c r="CB59" s="28"/>
+      <c r="CC59" s="28"/>
+      <c r="CD59" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="38"/>
-      <c r="CF59" s="38"/>
-      <c r="CG59" s="38"/>
-      <c r="CH59" s="37" t="s">
+      <c r="CE59" s="28"/>
+      <c r="CF59" s="28"/>
+      <c r="CG59" s="28"/>
+      <c r="CH59" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="37"/>
-      <c r="CJ59" s="34"/>
-      <c r="CK59" s="34"/>
-      <c r="CL59" s="27"/>
-      <c r="CM59" s="27"/>
+      <c r="CI59" s="29"/>
+      <c r="CJ59" s="29"/>
+      <c r="CK59" s="4"/>
+      <c r="CL59" s="29"/>
+      <c r="CM59" s="29"/>
+      <c r="CN59" s="4"/>
     </row>
-    <row r="60" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -9243,21 +9235,24 @@
       <c r="CG60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH60" s="33" t="s">
+      <c r="CH60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI60" s="33" t="s">
+      <c r="CI60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ60" s="33"/>
-      <c r="CK60" s="33"/>
-      <c r="CL60" s="33"/>
-      <c r="CM60" s="28"/>
+      <c r="CJ60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK60" s="7"/>
+      <c r="CL60" s="7"/>
+      <c r="CM60" s="7"/>
+      <c r="CN60" s="7"/>
     </row>
-    <row r="61" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -9513,17 +9508,19 @@
       <c r="CG62" s="21">
         <v>39.827467238214808</v>
       </c>
-      <c r="CH62" s="35">
+      <c r="CH62" s="20">
         <v>38.641032648675463</v>
       </c>
-      <c r="CI62" s="35">
-        <v>41.352344856435138</v>
-      </c>
-      <c r="CJ62" s="35"/>
-      <c r="CK62" s="35"/>
-      <c r="CL62" s="35"/>
-      <c r="CM62" s="30"/>
-      <c r="CN62" s="11"/>
+      <c r="CI62" s="20">
+        <v>39.189219583345647</v>
+      </c>
+      <c r="CJ62" s="20">
+        <v>56.79643567967193</v>
+      </c>
+      <c r="CK62" s="20"/>
+      <c r="CL62" s="20"/>
+      <c r="CM62" s="20"/>
+      <c r="CN62" s="20"/>
       <c r="CO62" s="11"/>
       <c r="CP62" s="11"/>
       <c r="CQ62" s="11"/>
@@ -9581,7 +9578,7 @@
       <c r="EQ62" s="11"/>
       <c r="ER62" s="11"/>
     </row>
-    <row r="63" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9837,17 +9834,19 @@
       <c r="CG63" s="21">
         <v>43.799674558507917</v>
       </c>
-      <c r="CH63" s="35">
+      <c r="CH63" s="20">
         <v>33.649952746229985</v>
       </c>
-      <c r="CI63" s="35">
-        <v>25.963088522181252</v>
-      </c>
-      <c r="CJ63" s="35"/>
-      <c r="CK63" s="35"/>
-      <c r="CL63" s="35"/>
-      <c r="CM63" s="30"/>
-      <c r="CN63" s="11"/>
+      <c r="CI63" s="20">
+        <v>24.390749664560033</v>
+      </c>
+      <c r="CJ63" s="20">
+        <v>28.397034430365863</v>
+      </c>
+      <c r="CK63" s="20"/>
+      <c r="CL63" s="20"/>
+      <c r="CM63" s="20"/>
+      <c r="CN63" s="20"/>
       <c r="CO63" s="11"/>
       <c r="CP63" s="11"/>
       <c r="CQ63" s="11"/>
@@ -9905,7 +9904,7 @@
       <c r="EQ63" s="11"/>
       <c r="ER63" s="11"/>
     </row>
-    <row r="64" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -10161,17 +10160,19 @@
       <c r="CG64" s="21">
         <v>5.2938014109528524</v>
       </c>
-      <c r="CH64" s="35">
+      <c r="CH64" s="20">
         <v>74.663035505953246</v>
       </c>
-      <c r="CI64" s="35">
-        <v>103.98554114936886</v>
-      </c>
-      <c r="CJ64" s="35"/>
-      <c r="CK64" s="35"/>
-      <c r="CL64" s="35"/>
-      <c r="CM64" s="30"/>
-      <c r="CN64" s="11"/>
+      <c r="CI64" s="20">
+        <v>104.18581975564135</v>
+      </c>
+      <c r="CJ64" s="20">
+        <v>87.03068617201626</v>
+      </c>
+      <c r="CK64" s="20"/>
+      <c r="CL64" s="20"/>
+      <c r="CM64" s="20"/>
+      <c r="CN64" s="20"/>
       <c r="CO64" s="11"/>
       <c r="CP64" s="11"/>
       <c r="CQ64" s="11"/>
@@ -10229,7 +10230,7 @@
       <c r="EQ64" s="11"/>
       <c r="ER64" s="11"/>
     </row>
-    <row r="65" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -10485,17 +10486,19 @@
       <c r="CG65" s="21">
         <v>0.66319000617347967</v>
       </c>
-      <c r="CH65" s="35">
+      <c r="CH65" s="20">
         <v>0.3094060620419441</v>
       </c>
-      <c r="CI65" s="35">
-        <v>2.0241392513720342</v>
-      </c>
-      <c r="CJ65" s="35"/>
-      <c r="CK65" s="35"/>
-      <c r="CL65" s="35"/>
-      <c r="CM65" s="30"/>
-      <c r="CN65" s="11"/>
+      <c r="CI65" s="20">
+        <v>0.77637067602786658</v>
+      </c>
+      <c r="CJ65" s="20">
+        <v>0.58298891474777292</v>
+      </c>
+      <c r="CK65" s="20"/>
+      <c r="CL65" s="20"/>
+      <c r="CM65" s="20"/>
+      <c r="CN65" s="20"/>
       <c r="CO65" s="11"/>
       <c r="CP65" s="11"/>
       <c r="CQ65" s="11"/>
@@ -10553,7 +10556,7 @@
       <c r="EQ65" s="11"/>
       <c r="ER65" s="11"/>
     </row>
-    <row r="66" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -10809,17 +10812,19 @@
       <c r="CG66" s="21">
         <v>22.961318402961922</v>
       </c>
-      <c r="CH66" s="35">
+      <c r="CH66" s="20">
         <v>-7.6713867434033176</v>
       </c>
-      <c r="CI66" s="35">
-        <v>-22.371409740895089</v>
-      </c>
-      <c r="CJ66" s="35"/>
-      <c r="CK66" s="35"/>
-      <c r="CL66" s="35"/>
-      <c r="CM66" s="30"/>
-      <c r="CN66" s="11"/>
+      <c r="CI66" s="20">
+        <v>-30.879021143061991</v>
+      </c>
+      <c r="CJ66" s="20">
+        <v>12.684876770147667</v>
+      </c>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="20"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="20"/>
       <c r="CO66" s="11"/>
       <c r="CP66" s="11"/>
       <c r="CQ66" s="11"/>
@@ -10877,7 +10882,7 @@
       <c r="EQ66" s="11"/>
       <c r="ER66" s="11"/>
     </row>
-    <row r="67" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -11133,17 +11138,19 @@
       <c r="CG67" s="21">
         <v>13.310201026319547</v>
       </c>
-      <c r="CH67" s="35">
+      <c r="CH67" s="20">
         <v>36.604467199614646</v>
       </c>
-      <c r="CI67" s="35">
-        <v>31.949471175058505</v>
-      </c>
-      <c r="CJ67" s="35"/>
-      <c r="CK67" s="35"/>
-      <c r="CL67" s="35"/>
-      <c r="CM67" s="30"/>
-      <c r="CN67" s="11"/>
+      <c r="CI67" s="20">
+        <v>40.947887167378695</v>
+      </c>
+      <c r="CJ67" s="20">
+        <v>67.097045728304892</v>
+      </c>
+      <c r="CK67" s="20"/>
+      <c r="CL67" s="20"/>
+      <c r="CM67" s="20"/>
+      <c r="CN67" s="20"/>
       <c r="CO67" s="11"/>
       <c r="CP67" s="11"/>
       <c r="CQ67" s="11"/>
@@ -11201,7 +11208,7 @@
       <c r="EQ67" s="11"/>
       <c r="ER67" s="11"/>
     </row>
-    <row r="68" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -11457,17 +11464,19 @@
       <c r="CG68" s="21">
         <v>24.094817340864665</v>
       </c>
-      <c r="CH68" s="35">
+      <c r="CH68" s="20">
         <v>18.267129506581156</v>
       </c>
-      <c r="CI68" s="35">
-        <v>-14.48003938847539</v>
-      </c>
-      <c r="CJ68" s="35"/>
-      <c r="CK68" s="35"/>
-      <c r="CL68" s="35"/>
-      <c r="CM68" s="30"/>
-      <c r="CN68" s="11"/>
+      <c r="CI68" s="20">
+        <v>-14.163908501699623</v>
+      </c>
+      <c r="CJ68" s="20">
+        <v>16.459594777212459</v>
+      </c>
+      <c r="CK68" s="20"/>
+      <c r="CL68" s="20"/>
+      <c r="CM68" s="20"/>
+      <c r="CN68" s="20"/>
       <c r="CO68" s="11"/>
       <c r="CP68" s="11"/>
       <c r="CQ68" s="11"/>
@@ -11525,7 +11534,7 @@
       <c r="EQ68" s="11"/>
       <c r="ER68" s="11"/>
     </row>
-    <row r="69" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -11781,17 +11790,19 @@
       <c r="CG69" s="21">
         <v>2.4715398815570637</v>
       </c>
-      <c r="CH69" s="35">
+      <c r="CH69" s="20">
         <v>69.265644143355502</v>
       </c>
-      <c r="CI69" s="35">
-        <v>67.663050798957414</v>
-      </c>
-      <c r="CJ69" s="35"/>
-      <c r="CK69" s="35"/>
-      <c r="CL69" s="35"/>
-      <c r="CM69" s="30"/>
-      <c r="CN69" s="11"/>
+      <c r="CI69" s="20">
+        <v>104.26695385529737</v>
+      </c>
+      <c r="CJ69" s="20">
+        <v>102.71659488665753</v>
+      </c>
+      <c r="CK69" s="20"/>
+      <c r="CL69" s="20"/>
+      <c r="CM69" s="20"/>
+      <c r="CN69" s="20"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
@@ -11849,7 +11860,7 @@
       <c r="EQ69" s="11"/>
       <c r="ER69" s="11"/>
     </row>
-    <row r="70" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -11934,12 +11945,12 @@
       <c r="CE70" s="12"/>
       <c r="CF70" s="12"/>
       <c r="CG70" s="12"/>
-      <c r="CH70" s="30"/>
-      <c r="CI70" s="30"/>
-      <c r="CJ70" s="30"/>
-      <c r="CK70" s="30"/>
-      <c r="CL70" s="30"/>
-      <c r="CM70" s="30"/>
+      <c r="CH70" s="11"/>
+      <c r="CI70" s="11"/>
+      <c r="CJ70" s="11"/>
+      <c r="CK70" s="11"/>
+      <c r="CL70" s="11"/>
+      <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
@@ -11998,7 +12009,7 @@
       <c r="EQ70" s="11"/>
       <c r="ER70" s="11"/>
     </row>
-    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>17</v>
       </c>
@@ -12254,17 +12265,19 @@
       <c r="CG71" s="21">
         <v>17.194545065083602</v>
       </c>
-      <c r="CH71" s="35">
+      <c r="CH71" s="20">
         <v>40.144020103964948</v>
       </c>
-      <c r="CI71" s="35">
-        <v>37.523864599947359</v>
-      </c>
-      <c r="CJ71" s="35"/>
-      <c r="CK71" s="35"/>
-      <c r="CL71" s="35"/>
-      <c r="CM71" s="30"/>
-      <c r="CN71" s="11"/>
+      <c r="CI71" s="20">
+        <v>39.02438728115996</v>
+      </c>
+      <c r="CJ71" s="20">
+        <v>59.509543939388465</v>
+      </c>
+      <c r="CK71" s="20"/>
+      <c r="CL71" s="20"/>
+      <c r="CM71" s="20"/>
+      <c r="CN71" s="20"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
@@ -12322,7 +12335,7 @@
       <c r="EQ71" s="11"/>
       <c r="ER71" s="11"/>
     </row>
-    <row r="72" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -12408,19 +12421,20 @@
       <c r="CE72" s="17"/>
       <c r="CF72" s="17"/>
       <c r="CG72" s="17"/>
-      <c r="CH72" s="32"/>
-      <c r="CI72" s="32"/>
-      <c r="CJ72" s="32"/>
-      <c r="CK72" s="32"/>
-      <c r="CL72" s="32"/>
-      <c r="CM72" s="32"/>
+      <c r="CH72" s="16"/>
+      <c r="CI72" s="16"/>
+      <c r="CJ72" s="16"/>
+      <c r="CK72" s="16"/>
+      <c r="CL72" s="16"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="16"/>
     </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -12505,12 +12519,12 @@
       <c r="CE74" s="12"/>
       <c r="CF74" s="12"/>
       <c r="CG74" s="12"/>
-      <c r="CH74" s="30"/>
-      <c r="CI74" s="30"/>
-      <c r="CJ74" s="30"/>
-      <c r="CK74" s="30"/>
-      <c r="CL74" s="30"/>
-      <c r="CM74" s="30"/>
+      <c r="CH74" s="11"/>
+      <c r="CI74" s="11"/>
+      <c r="CJ74" s="11"/>
+      <c r="CK74" s="11"/>
+      <c r="CL74" s="11"/>
+      <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
       <c r="CP74" s="11"/>
@@ -12569,7 +12583,7 @@
       <c r="EQ74" s="11"/>
       <c r="ER74" s="11"/>
     </row>
-    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -12654,12 +12668,12 @@
       <c r="CE75" s="12"/>
       <c r="CF75" s="12"/>
       <c r="CG75" s="12"/>
-      <c r="CH75" s="30"/>
-      <c r="CI75" s="30"/>
-      <c r="CJ75" s="30"/>
-      <c r="CK75" s="30"/>
-      <c r="CL75" s="30"/>
-      <c r="CM75" s="30"/>
+      <c r="CH75" s="11"/>
+      <c r="CI75" s="11"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
@@ -12718,174 +12732,175 @@
       <c r="EQ75" s="11"/>
       <c r="ER75" s="11"/>
     </row>
-    <row r="76" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39" t="s">
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39" t="s">
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39" t="s">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39" t="s">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="39"/>
-      <c r="AB84" s="39"/>
-      <c r="AC84" s="39"/>
-      <c r="AD84" s="39" t="s">
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="39"/>
-      <c r="AF84" s="39"/>
-      <c r="AG84" s="39"/>
-      <c r="AH84" s="39" t="s">
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="39"/>
-      <c r="AJ84" s="39"/>
-      <c r="AK84" s="39"/>
-      <c r="AL84" s="39" t="s">
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="39"/>
-      <c r="AN84" s="39"/>
-      <c r="AO84" s="39"/>
-      <c r="AP84" s="39" t="s">
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="29"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="39"/>
-      <c r="AR84" s="39"/>
-      <c r="AS84" s="39"/>
-      <c r="AT84" s="39" t="s">
+      <c r="AQ84" s="29"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="39"/>
-      <c r="AV84" s="39"/>
-      <c r="AW84" s="39"/>
-      <c r="AX84" s="39" t="s">
+      <c r="AU84" s="29"/>
+      <c r="AV84" s="29"/>
+      <c r="AW84" s="29"/>
+      <c r="AX84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="39"/>
-      <c r="AZ84" s="39"/>
-      <c r="BA84" s="39"/>
-      <c r="BB84" s="39" t="s">
+      <c r="AY84" s="29"/>
+      <c r="AZ84" s="29"/>
+      <c r="BA84" s="29"/>
+      <c r="BB84" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="39"/>
-      <c r="BD84" s="39"/>
-      <c r="BE84" s="39"/>
-      <c r="BF84" s="39" t="s">
+      <c r="BC84" s="29"/>
+      <c r="BD84" s="29"/>
+      <c r="BE84" s="29"/>
+      <c r="BF84" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="39"/>
-      <c r="BH84" s="39"/>
-      <c r="BI84" s="39"/>
-      <c r="BJ84" s="39" t="s">
+      <c r="BG84" s="29"/>
+      <c r="BH84" s="29"/>
+      <c r="BI84" s="29"/>
+      <c r="BJ84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="39"/>
-      <c r="BL84" s="39"/>
-      <c r="BM84" s="39"/>
-      <c r="BN84" s="39" t="s">
+      <c r="BK84" s="29"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="39"/>
-      <c r="BP84" s="39"/>
-      <c r="BQ84" s="39"/>
-      <c r="BR84" s="39" t="s">
+      <c r="BO84" s="29"/>
+      <c r="BP84" s="29"/>
+      <c r="BQ84" s="29"/>
+      <c r="BR84" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="39"/>
-      <c r="BT84" s="39"/>
-      <c r="BU84" s="39"/>
-      <c r="BV84" s="38" t="s">
+      <c r="BS84" s="29"/>
+      <c r="BT84" s="29"/>
+      <c r="BU84" s="29"/>
+      <c r="BV84" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="38"/>
-      <c r="BX84" s="38"/>
-      <c r="BY84" s="38"/>
-      <c r="BZ84" s="38" t="s">
+      <c r="BW84" s="28"/>
+      <c r="BX84" s="28"/>
+      <c r="BY84" s="28"/>
+      <c r="BZ84" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="38"/>
-      <c r="CB84" s="38"/>
-      <c r="CC84" s="38"/>
-      <c r="CD84" s="38" t="s">
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
+      <c r="CD84" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="38"/>
-      <c r="CF84" s="38"/>
-      <c r="CG84" s="38"/>
-      <c r="CH84" s="37" t="s">
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
+      <c r="CH84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="37"/>
-      <c r="CJ84" s="34"/>
-      <c r="CK84" s="34"/>
-      <c r="CL84" s="27"/>
-      <c r="CM84" s="27"/>
+      <c r="CI84" s="29"/>
+      <c r="CJ84" s="29"/>
+      <c r="CK84" s="4"/>
+      <c r="CL84" s="29"/>
+      <c r="CM84" s="29"/>
+      <c r="CN84" s="4"/>
     </row>
-    <row r="85" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
         <v>7</v>
@@ -13139,21 +13154,24 @@
       <c r="CG85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="28" t="s">
+      <c r="CH85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="28" t="s">
+      <c r="CI85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="28"/>
-      <c r="CK85" s="28"/>
-      <c r="CL85" s="28"/>
-      <c r="CM85" s="28"/>
+      <c r="CJ85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK85" s="6"/>
+      <c r="CL85" s="6"/>
+      <c r="CM85" s="6"/>
+      <c r="CN85" s="6"/>
     </row>
-    <row r="86" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -13409,17 +13427,19 @@
       <c r="CG87" s="21">
         <v>28.155613416976735</v>
       </c>
-      <c r="CH87" s="35">
+      <c r="CH87" s="20">
         <v>31.062341964351162</v>
       </c>
-      <c r="CI87" s="35">
-        <v>30.941986309265445</v>
-      </c>
-      <c r="CJ87" s="35"/>
-      <c r="CK87" s="35"/>
-      <c r="CL87" s="35"/>
-      <c r="CM87" s="30"/>
-      <c r="CN87" s="11"/>
+      <c r="CI87" s="20">
+        <v>28.406556518933314</v>
+      </c>
+      <c r="CJ87" s="20">
+        <v>48.757674475677589</v>
+      </c>
+      <c r="CK87" s="20"/>
+      <c r="CL87" s="20"/>
+      <c r="CM87" s="20"/>
+      <c r="CN87" s="20"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
@@ -13477,7 +13497,7 @@
       <c r="EQ87" s="11"/>
       <c r="ER87" s="11"/>
     </row>
-    <row r="88" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -13733,17 +13753,19 @@
       <c r="CG88" s="21">
         <v>39.018225457240163</v>
       </c>
-      <c r="CH88" s="35">
+      <c r="CH88" s="20">
         <v>29.041212270079114</v>
       </c>
-      <c r="CI88" s="35">
-        <v>19.030075337113701</v>
-      </c>
-      <c r="CJ88" s="35"/>
-      <c r="CK88" s="35"/>
-      <c r="CL88" s="35"/>
-      <c r="CM88" s="30"/>
-      <c r="CN88" s="11"/>
+      <c r="CI88" s="20">
+        <v>17.48958984563123</v>
+      </c>
+      <c r="CJ88" s="20">
+        <v>27.29945766608715</v>
+      </c>
+      <c r="CK88" s="20"/>
+      <c r="CL88" s="20"/>
+      <c r="CM88" s="20"/>
+      <c r="CN88" s="20"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
@@ -13801,7 +13823,7 @@
       <c r="EQ88" s="11"/>
       <c r="ER88" s="11"/>
     </row>
-    <row r="89" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -14057,17 +14079,19 @@
       <c r="CG89" s="21">
         <v>2.097655140689497</v>
       </c>
-      <c r="CH89" s="35">
+      <c r="CH89" s="20">
         <v>66.797047442139586</v>
       </c>
-      <c r="CI89" s="35">
-        <v>92.286813455735938</v>
-      </c>
-      <c r="CJ89" s="35"/>
-      <c r="CK89" s="35"/>
-      <c r="CL89" s="35"/>
-      <c r="CM89" s="30"/>
-      <c r="CN89" s="11"/>
+      <c r="CI89" s="20">
+        <v>91.985393569715797</v>
+      </c>
+      <c r="CJ89" s="20">
+        <v>77.57868096628323</v>
+      </c>
+      <c r="CK89" s="20"/>
+      <c r="CL89" s="20"/>
+      <c r="CM89" s="20"/>
+      <c r="CN89" s="20"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
       <c r="CQ89" s="11"/>
@@ -14125,7 +14149,7 @@
       <c r="EQ89" s="11"/>
       <c r="ER89" s="11"/>
     </row>
-    <row r="90" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14381,17 +14405,19 @@
       <c r="CG90" s="21">
         <v>-2.6839380096825636</v>
       </c>
-      <c r="CH90" s="35">
+      <c r="CH90" s="20">
         <v>-3.1496301018883486</v>
       </c>
-      <c r="CI90" s="35">
-        <v>-3.5912732549700337</v>
-      </c>
-      <c r="CJ90" s="35"/>
-      <c r="CK90" s="35"/>
-      <c r="CL90" s="35"/>
-      <c r="CM90" s="30"/>
-      <c r="CN90" s="11"/>
+      <c r="CI90" s="20">
+        <v>-4.8146707951613621</v>
+      </c>
+      <c r="CJ90" s="20">
+        <v>-0.27682495871364665</v>
+      </c>
+      <c r="CK90" s="20"/>
+      <c r="CL90" s="20"/>
+      <c r="CM90" s="20"/>
+      <c r="CN90" s="20"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
@@ -14449,7 +14475,7 @@
       <c r="EQ90" s="11"/>
       <c r="ER90" s="11"/>
     </row>
-    <row r="91" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -14705,17 +14731,19 @@
       <c r="CG91" s="21">
         <v>18.872760572955684</v>
       </c>
-      <c r="CH91" s="35">
+      <c r="CH91" s="20">
         <v>-10.855215905172756</v>
       </c>
-      <c r="CI91" s="35">
-        <v>-26.644090302469351</v>
-      </c>
-      <c r="CJ91" s="35"/>
-      <c r="CK91" s="35"/>
-      <c r="CL91" s="35"/>
-      <c r="CM91" s="30"/>
-      <c r="CN91" s="11"/>
+      <c r="CI91" s="20">
+        <v>-34.713831393975951</v>
+      </c>
+      <c r="CJ91" s="20">
+        <v>11.721612291515157</v>
+      </c>
+      <c r="CK91" s="20"/>
+      <c r="CL91" s="20"/>
+      <c r="CM91" s="20"/>
+      <c r="CN91" s="20"/>
       <c r="CO91" s="11"/>
       <c r="CP91" s="11"/>
       <c r="CQ91" s="11"/>
@@ -14773,7 +14801,7 @@
       <c r="EQ91" s="11"/>
       <c r="ER91" s="11"/>
     </row>
-    <row r="92" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -15029,17 +15057,19 @@
       <c r="CG92" s="21">
         <v>9.542550226516596</v>
       </c>
-      <c r="CH92" s="35">
+      <c r="CH92" s="20">
         <v>31.893844230661557</v>
       </c>
-      <c r="CI92" s="35">
-        <v>24.686967260998969</v>
-      </c>
-      <c r="CJ92" s="35"/>
-      <c r="CK92" s="35"/>
-      <c r="CL92" s="35"/>
-      <c r="CM92" s="30"/>
-      <c r="CN92" s="11"/>
+      <c r="CI92" s="20">
+        <v>33.128142547256431</v>
+      </c>
+      <c r="CJ92" s="20">
+        <v>65.66864953843438</v>
+      </c>
+      <c r="CK92" s="20"/>
+      <c r="CL92" s="20"/>
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
       <c r="CO92" s="11"/>
       <c r="CP92" s="11"/>
       <c r="CQ92" s="11"/>
@@ -15097,7 +15127,7 @@
       <c r="EQ92" s="11"/>
       <c r="ER92" s="11"/>
     </row>
-    <row r="93" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -15353,17 +15383,19 @@
       <c r="CG93" s="21">
         <v>19.968569804712928</v>
       </c>
-      <c r="CH93" s="35">
+      <c r="CH93" s="20">
         <v>14.188845185821975</v>
       </c>
-      <c r="CI93" s="35">
-        <v>-19.187061274507911</v>
-      </c>
-      <c r="CJ93" s="35"/>
-      <c r="CK93" s="35"/>
-      <c r="CL93" s="35"/>
-      <c r="CM93" s="30"/>
-      <c r="CN93" s="11"/>
+      <c r="CI93" s="20">
+        <v>-18.926067964998836</v>
+      </c>
+      <c r="CJ93" s="20">
+        <v>15.464062865031863</v>
+      </c>
+      <c r="CK93" s="20"/>
+      <c r="CL93" s="20"/>
+      <c r="CM93" s="20"/>
+      <c r="CN93" s="20"/>
       <c r="CO93" s="11"/>
       <c r="CP93" s="11"/>
       <c r="CQ93" s="11"/>
@@ -15421,7 +15453,7 @@
       <c r="EQ93" s="11"/>
       <c r="ER93" s="11"/>
     </row>
-    <row r="94" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -15677,17 +15709,19 @@
       <c r="CG94" s="21">
         <v>-0.9357171499798369</v>
       </c>
-      <c r="CH94" s="35">
+      <c r="CH94" s="20">
         <v>63.428744022137664</v>
       </c>
-      <c r="CI94" s="35">
-        <v>58.434870103521916</v>
-      </c>
-      <c r="CJ94" s="35"/>
-      <c r="CK94" s="35"/>
-      <c r="CL94" s="35"/>
-      <c r="CM94" s="30"/>
-      <c r="CN94" s="11"/>
+      <c r="CI94" s="20">
+        <v>92.934287253620113</v>
+      </c>
+      <c r="CJ94" s="20">
+        <v>100.98371199517632</v>
+      </c>
+      <c r="CK94" s="20"/>
+      <c r="CL94" s="20"/>
+      <c r="CM94" s="20"/>
+      <c r="CN94" s="20"/>
       <c r="CO94" s="11"/>
       <c r="CP94" s="11"/>
       <c r="CQ94" s="11"/>
@@ -15745,7 +15779,7 @@
       <c r="EQ94" s="11"/>
       <c r="ER94" s="11"/>
     </row>
-    <row r="95" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -15830,12 +15864,12 @@
       <c r="CE95" s="12"/>
       <c r="CF95" s="12"/>
       <c r="CG95" s="12"/>
-      <c r="CH95" s="30"/>
-      <c r="CI95" s="30"/>
-      <c r="CJ95" s="30"/>
-      <c r="CK95" s="30"/>
-      <c r="CL95" s="30"/>
-      <c r="CM95" s="30"/>
+      <c r="CH95" s="11"/>
+      <c r="CI95" s="11"/>
+      <c r="CJ95" s="11"/>
+      <c r="CK95" s="11"/>
+      <c r="CL95" s="11"/>
+      <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
       <c r="CP95" s="11"/>
@@ -15894,7 +15928,7 @@
       <c r="EQ95" s="11"/>
       <c r="ER95" s="11"/>
     </row>
-    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:148" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>17</v>
       </c>
@@ -16150,17 +16184,19 @@
       <c r="CG96" s="21">
         <v>11.79228524769205</v>
       </c>
-      <c r="CH96" s="35">
+      <c r="CH96" s="20">
         <v>32.504241813044246</v>
       </c>
-      <c r="CI96" s="35">
-        <v>29.905448114792534</v>
-      </c>
-      <c r="CJ96" s="35"/>
-      <c r="CK96" s="35"/>
-      <c r="CL96" s="35"/>
-      <c r="CM96" s="30"/>
-      <c r="CN96" s="11"/>
+      <c r="CI96" s="20">
+        <v>31.068091671928556</v>
+      </c>
+      <c r="CJ96" s="20">
+        <v>55.239114752327907</v>
+      </c>
+      <c r="CK96" s="20"/>
+      <c r="CL96" s="20"/>
+      <c r="CM96" s="20"/>
+      <c r="CN96" s="20"/>
       <c r="CO96" s="11"/>
       <c r="CP96" s="11"/>
       <c r="CQ96" s="11"/>
@@ -16218,7 +16254,7 @@
       <c r="EQ96" s="11"/>
       <c r="ER96" s="11"/>
     </row>
-    <row r="97" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -16304,19 +16340,20 @@
       <c r="CE97" s="17"/>
       <c r="CF97" s="17"/>
       <c r="CG97" s="17"/>
-      <c r="CH97" s="32"/>
-      <c r="CI97" s="32"/>
-      <c r="CJ97" s="32"/>
-      <c r="CK97" s="32"/>
-      <c r="CL97" s="32"/>
-      <c r="CM97" s="32"/>
+      <c r="CH97" s="16"/>
+      <c r="CI97" s="16"/>
+      <c r="CJ97" s="16"/>
+      <c r="CK97" s="16"/>
+      <c r="CL97" s="16"/>
+      <c r="CM97" s="16"/>
+      <c r="CN97" s="16"/>
     </row>
-    <row r="98" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -16401,12 +16438,12 @@
       <c r="CE99" s="12"/>
       <c r="CF99" s="12"/>
       <c r="CG99" s="12"/>
-      <c r="CH99" s="30"/>
-      <c r="CI99" s="30"/>
-      <c r="CJ99" s="30"/>
-      <c r="CK99" s="30"/>
-      <c r="CL99" s="30"/>
-      <c r="CM99" s="30"/>
+      <c r="CH99" s="11"/>
+      <c r="CI99" s="11"/>
+      <c r="CJ99" s="11"/>
+      <c r="CK99" s="11"/>
+      <c r="CL99" s="11"/>
+      <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
       <c r="CP99" s="11"/>
@@ -16465,7 +16502,7 @@
       <c r="EQ99" s="11"/>
       <c r="ER99" s="11"/>
     </row>
-    <row r="100" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -16550,12 +16587,12 @@
       <c r="CE100" s="12"/>
       <c r="CF100" s="12"/>
       <c r="CG100" s="12"/>
-      <c r="CH100" s="30"/>
-      <c r="CI100" s="30"/>
-      <c r="CJ100" s="30"/>
-      <c r="CK100" s="30"/>
-      <c r="CL100" s="30"/>
-      <c r="CM100" s="30"/>
+      <c r="CH100" s="11"/>
+      <c r="CI100" s="11"/>
+      <c r="CJ100" s="11"/>
+      <c r="CK100" s="11"/>
+      <c r="CL100" s="11"/>
+      <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
       <c r="CP100" s="11"/>
@@ -16614,171 +16651,172 @@
       <c r="EQ100" s="11"/>
       <c r="ER100" s="11"/>
     </row>
-    <row r="101" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="38">
+      <c r="B108" s="28">
         <v>2000</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38">
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28">
         <v>2001</v>
       </c>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38">
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28">
         <v>2002</v>
       </c>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38">
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28">
         <v>2003</v>
       </c>
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
-      <c r="Q108" s="38"/>
-      <c r="R108" s="38">
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28">
         <v>2004</v>
       </c>
-      <c r="S108" s="38"/>
-      <c r="T108" s="38"/>
-      <c r="U108" s="38"/>
-      <c r="V108" s="38">
+      <c r="S108" s="28"/>
+      <c r="T108" s="28"/>
+      <c r="U108" s="28"/>
+      <c r="V108" s="28">
         <v>2005</v>
       </c>
-      <c r="W108" s="38"/>
-      <c r="X108" s="38"/>
-      <c r="Y108" s="38"/>
-      <c r="Z108" s="38">
+      <c r="W108" s="28"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28">
         <v>2006</v>
       </c>
-      <c r="AA108" s="38"/>
-      <c r="AB108" s="38"/>
-      <c r="AC108" s="38"/>
-      <c r="AD108" s="38">
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28">
         <v>2007</v>
       </c>
-      <c r="AE108" s="38"/>
-      <c r="AF108" s="38"/>
-      <c r="AG108" s="38"/>
-      <c r="AH108" s="38">
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="28"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="28">
         <v>2008</v>
       </c>
-      <c r="AI108" s="38"/>
-      <c r="AJ108" s="38"/>
-      <c r="AK108" s="38"/>
-      <c r="AL108" s="38">
+      <c r="AI108" s="28"/>
+      <c r="AJ108" s="28"/>
+      <c r="AK108" s="28"/>
+      <c r="AL108" s="28">
         <v>2009</v>
       </c>
-      <c r="AM108" s="38"/>
-      <c r="AN108" s="38"/>
-      <c r="AO108" s="38"/>
-      <c r="AP108" s="38">
+      <c r="AM108" s="28"/>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="38"/>
-      <c r="AR108" s="38"/>
-      <c r="AS108" s="38"/>
-      <c r="AT108" s="38">
+      <c r="AQ108" s="28"/>
+      <c r="AR108" s="28"/>
+      <c r="AS108" s="28"/>
+      <c r="AT108" s="28">
         <v>2011</v>
       </c>
-      <c r="AU108" s="38"/>
-      <c r="AV108" s="38"/>
-      <c r="AW108" s="38"/>
-      <c r="AX108" s="38">
+      <c r="AU108" s="28"/>
+      <c r="AV108" s="28"/>
+      <c r="AW108" s="28"/>
+      <c r="AX108" s="28">
         <v>2012</v>
       </c>
-      <c r="AY108" s="38"/>
-      <c r="AZ108" s="38"/>
-      <c r="BA108" s="38"/>
-      <c r="BB108" s="38">
+      <c r="AY108" s="28"/>
+      <c r="AZ108" s="28"/>
+      <c r="BA108" s="28"/>
+      <c r="BB108" s="28">
         <v>2013</v>
       </c>
-      <c r="BC108" s="38"/>
-      <c r="BD108" s="38"/>
-      <c r="BE108" s="38"/>
-      <c r="BF108" s="38">
+      <c r="BC108" s="28"/>
+      <c r="BD108" s="28"/>
+      <c r="BE108" s="28"/>
+      <c r="BF108" s="28">
         <v>2014</v>
       </c>
-      <c r="BG108" s="38"/>
-      <c r="BH108" s="38"/>
-      <c r="BI108" s="38"/>
-      <c r="BJ108" s="38">
+      <c r="BG108" s="28"/>
+      <c r="BH108" s="28"/>
+      <c r="BI108" s="28"/>
+      <c r="BJ108" s="28">
         <v>2015</v>
       </c>
-      <c r="BK108" s="38"/>
-      <c r="BL108" s="38"/>
-      <c r="BM108" s="38"/>
-      <c r="BN108" s="38">
+      <c r="BK108" s="28"/>
+      <c r="BL108" s="28"/>
+      <c r="BM108" s="28"/>
+      <c r="BN108" s="28">
         <v>2016</v>
       </c>
-      <c r="BO108" s="38"/>
-      <c r="BP108" s="38"/>
-      <c r="BQ108" s="38"/>
-      <c r="BR108" s="38">
+      <c r="BO108" s="28"/>
+      <c r="BP108" s="28"/>
+      <c r="BQ108" s="28"/>
+      <c r="BR108" s="28">
         <v>2017</v>
       </c>
-      <c r="BS108" s="38"/>
-      <c r="BT108" s="38"/>
-      <c r="BU108" s="38"/>
-      <c r="BV108" s="40">
+      <c r="BS108" s="28"/>
+      <c r="BT108" s="28"/>
+      <c r="BU108" s="28"/>
+      <c r="BV108" s="30">
         <v>2018</v>
       </c>
-      <c r="BW108" s="40"/>
-      <c r="BX108" s="40"/>
-      <c r="BY108" s="40"/>
-      <c r="BZ108" s="40">
+      <c r="BW108" s="30"/>
+      <c r="BX108" s="30"/>
+      <c r="BY108" s="30"/>
+      <c r="BZ108" s="30">
         <v>2019</v>
       </c>
-      <c r="CA108" s="40"/>
-      <c r="CB108" s="40"/>
-      <c r="CC108" s="40"/>
-      <c r="CD108" s="40">
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
+      <c r="CD108" s="30">
         <v>2020</v>
       </c>
-      <c r="CE108" s="40"/>
-      <c r="CF108" s="40"/>
-      <c r="CG108" s="40"/>
-      <c r="CH108" s="37">
+      <c r="CE108" s="30"/>
+      <c r="CF108" s="30"/>
+      <c r="CG108" s="30"/>
+      <c r="CH108" s="29">
         <v>2021</v>
       </c>
-      <c r="CI108" s="37"/>
-      <c r="CJ108" s="37"/>
-      <c r="CK108" s="37"/>
-      <c r="CL108" s="37">
+      <c r="CI108" s="29"/>
+      <c r="CJ108" s="29"/>
+      <c r="CK108" s="29"/>
+      <c r="CL108" s="29">
         <v>2022</v>
       </c>
-      <c r="CM108" s="37"/>
+      <c r="CM108" s="29"/>
+      <c r="CN108" s="29"/>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="7" t="s">
         <v>7</v>
@@ -17032,29 +17070,32 @@
       <c r="CG109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="33" t="s">
+      <c r="CH109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="33" t="s">
+      <c r="CI109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="33" t="s">
+      <c r="CJ109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK109" s="33" t="s">
+      <c r="CK109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="33" t="s">
+      <c r="CL109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="33" t="s">
+      <c r="CM109" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN109" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="110" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -17310,25 +17351,27 @@
       <c r="CG111" s="21">
         <v>94.821903061270575</v>
       </c>
-      <c r="CH111" s="35">
+      <c r="CH111" s="20">
         <v>95.793319182693821</v>
       </c>
-      <c r="CI111" s="35">
+      <c r="CI111" s="20">
         <v>106.02231884660962</v>
       </c>
-      <c r="CJ111" s="35">
+      <c r="CJ111" s="20">
         <v>103.98792964934991</v>
       </c>
-      <c r="CK111" s="35">
+      <c r="CK111" s="20">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="35">
+      <c r="CL111" s="20">
         <v>101.33257572907732</v>
       </c>
-      <c r="CM111" s="35">
-        <v>114.45147426348794</v>
-      </c>
-      <c r="CN111" s="11"/>
+      <c r="CM111" s="20">
+        <v>114.92531393052592</v>
+      </c>
+      <c r="CN111" s="20">
+        <v>109.60736499946064</v>
+      </c>
       <c r="CO111" s="11"/>
       <c r="CP111" s="11"/>
       <c r="CQ111" s="11"/>
@@ -17390,7 +17433,7 @@
       <c r="EU111" s="11"/>
       <c r="EV111" s="11"/>
     </row>
-    <row r="112" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -17646,25 +17689,27 @@
       <c r="CG112" s="21">
         <v>103.59648094158642</v>
       </c>
-      <c r="CH112" s="35">
+      <c r="CH112" s="20">
         <v>79.070866927836704</v>
       </c>
-      <c r="CI112" s="35">
+      <c r="CI112" s="20">
         <v>117.2106859307448</v>
       </c>
-      <c r="CJ112" s="35">
+      <c r="CJ112" s="20">
         <v>107.4998106064363</v>
       </c>
-      <c r="CK112" s="35">
+      <c r="CK112" s="20">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="35">
+      <c r="CL112" s="20">
         <v>81.894903516488284</v>
       </c>
-      <c r="CM112" s="35">
-        <v>124.03772715278198</v>
-      </c>
-      <c r="CN112" s="11"/>
+      <c r="CM112" s="20">
+        <v>124.09546335789501</v>
+      </c>
+      <c r="CN112" s="20">
+        <v>108.42667468307266</v>
+      </c>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
@@ -17726,7 +17771,7 @@
       <c r="EU112" s="11"/>
       <c r="EV112" s="11"/>
     </row>
-    <row r="113" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -17982,25 +18027,27 @@
       <c r="CG113" s="21">
         <v>90.749879498574458</v>
       </c>
-      <c r="CH113" s="35">
+      <c r="CH113" s="20">
         <v>112.08191557481699</v>
       </c>
-      <c r="CI113" s="35">
+      <c r="CI113" s="20">
         <v>107.45160453698703</v>
       </c>
-      <c r="CJ113" s="35">
+      <c r="CJ113" s="20">
         <v>92.415150320994769</v>
       </c>
-      <c r="CK113" s="35">
+      <c r="CK113" s="20">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="35">
+      <c r="CL113" s="20">
         <v>117.36759073274634</v>
       </c>
-      <c r="CM113" s="35">
-        <v>113.98895901871551</v>
-      </c>
-      <c r="CN113" s="11"/>
+      <c r="CM113" s="20">
+        <v>114.2800165600961</v>
+      </c>
+      <c r="CN113" s="20">
+        <v>97.334144409527823</v>
+      </c>
       <c r="CO113" s="11"/>
       <c r="CP113" s="11"/>
       <c r="CQ113" s="11"/>
@@ -18062,7 +18109,7 @@
       <c r="EU113" s="11"/>
       <c r="EV113" s="11"/>
     </row>
-    <row r="114" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -18318,25 +18365,27 @@
       <c r="CG114" s="21">
         <v>101.57984862740234</v>
       </c>
-      <c r="CH114" s="35">
+      <c r="CH114" s="20">
         <v>88.893003926002606</v>
       </c>
-      <c r="CI114" s="35">
+      <c r="CI114" s="20">
         <v>109.19059334962719</v>
       </c>
-      <c r="CJ114" s="35">
+      <c r="CJ114" s="20">
         <v>105.28091028680211</v>
       </c>
-      <c r="CK114" s="35">
+      <c r="CK114" s="20">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="35">
+      <c r="CL114" s="20">
         <v>92.067840693522641</v>
       </c>
-      <c r="CM114" s="35">
-        <v>115.55049710701209</v>
-      </c>
-      <c r="CN114" s="11"/>
+      <c r="CM114" s="20">
+        <v>115.6042827362317</v>
+      </c>
+      <c r="CN114" s="20">
+        <v>106.188642990236</v>
+      </c>
       <c r="CO114" s="11"/>
       <c r="CP114" s="11"/>
       <c r="CQ114" s="11"/>
@@ -18398,7 +18447,7 @@
       <c r="EU114" s="11"/>
       <c r="EV114" s="11"/>
     </row>
-    <row r="115" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -18654,25 +18703,27 @@
       <c r="CG115" s="21">
         <v>104.3946054327612</v>
       </c>
-      <c r="CH115" s="35">
+      <c r="CH115" s="20">
         <v>85.332707883713084</v>
       </c>
-      <c r="CI115" s="35">
+      <c r="CI115" s="20">
         <v>113.11982321804426</v>
       </c>
-      <c r="CJ115" s="35">
+      <c r="CJ115" s="20">
         <v>108.15079703460171</v>
       </c>
-      <c r="CK115" s="35">
+      <c r="CK115" s="20">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="35">
+      <c r="CL115" s="20">
         <v>88.380387751599855</v>
       </c>
-      <c r="CM115" s="35">
-        <v>119.70858848297456</v>
-      </c>
-      <c r="CN115" s="11"/>
+      <c r="CM115" s="20">
+        <v>119.76430959119779</v>
+      </c>
+      <c r="CN115" s="20">
+        <v>109.08327392051875</v>
+      </c>
       <c r="CO115" s="11"/>
       <c r="CP115" s="11"/>
       <c r="CQ115" s="11"/>
@@ -18734,7 +18785,7 @@
       <c r="EU115" s="11"/>
       <c r="EV115" s="11"/>
     </row>
-    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -18990,25 +19041,27 @@
       <c r="CG116" s="21">
         <v>103.07257519637687</v>
       </c>
-      <c r="CH116" s="35">
+      <c r="CH116" s="20">
         <v>83.693209869254872</v>
       </c>
-      <c r="CI116" s="35">
+      <c r="CI116" s="20">
         <v>111.39752046647722</v>
       </c>
-      <c r="CJ116" s="35">
+      <c r="CJ116" s="20">
         <v>106.67443418868967</v>
       </c>
-      <c r="CK116" s="35">
+      <c r="CK116" s="20">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="35">
+      <c r="CL116" s="20">
         <v>86.682334638914682</v>
       </c>
-      <c r="CM116" s="35">
-        <v>117.88596866740941</v>
-      </c>
-      <c r="CN116" s="11"/>
+      <c r="CM116" s="20">
+        <v>117.94084139543469</v>
+      </c>
+      <c r="CN116" s="20">
+        <v>107.59418186440404</v>
+      </c>
       <c r="CO116" s="11"/>
       <c r="CP116" s="11"/>
       <c r="CQ116" s="11"/>
@@ -19070,7 +19123,7 @@
       <c r="EU116" s="11"/>
       <c r="EV116" s="11"/>
     </row>
-    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -19326,25 +19379,27 @@
       <c r="CG117" s="21">
         <v>105.2773102436565</v>
       </c>
-      <c r="CH117" s="35">
+      <c r="CH117" s="20">
         <v>84.839383466248464</v>
       </c>
-      <c r="CI117" s="35">
+      <c r="CI117" s="20">
         <v>113.41684471619293</v>
       </c>
-      <c r="CJ117" s="35">
+      <c r="CJ117" s="20">
         <v>108.85695278447844</v>
       </c>
-      <c r="CK117" s="35">
+      <c r="CK117" s="20">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="35">
+      <c r="CL117" s="20">
         <v>87.869444124189485</v>
       </c>
-      <c r="CM117" s="35">
-        <v>120.02291026390539</v>
-      </c>
-      <c r="CN117" s="11"/>
+      <c r="CM117" s="20">
+        <v>120.07877768041106</v>
+      </c>
+      <c r="CN117" s="20">
+        <v>109.79551814993214</v>
+      </c>
       <c r="CO117" s="11"/>
       <c r="CP117" s="11"/>
       <c r="CQ117" s="11"/>
@@ -19406,7 +19461,7 @@
       <c r="EU117" s="11"/>
       <c r="EV117" s="11"/>
     </row>
-    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -19662,25 +19717,27 @@
       <c r="CG118" s="21">
         <v>104.56154537777903</v>
       </c>
-      <c r="CH118" s="35">
+      <c r="CH118" s="20">
         <v>84.243127384132677</v>
       </c>
-      <c r="CI118" s="35">
+      <c r="CI118" s="20">
         <v>112.73653183305818</v>
       </c>
-      <c r="CJ118" s="35">
+      <c r="CJ118" s="20">
         <v>108.16632803073023</v>
       </c>
-      <c r="CK118" s="35">
+      <c r="CK118" s="20">
         <v>108.15787748120904</v>
       </c>
-      <c r="CL118" s="35">
+      <c r="CL118" s="20">
         <v>87.251892600939371</v>
       </c>
-      <c r="CM118" s="35">
-        <v>119.30297194849746</v>
-      </c>
-      <c r="CN118" s="11"/>
+      <c r="CM118" s="20">
+        <v>119.3585042532012</v>
+      </c>
+      <c r="CN118" s="20">
+        <v>109.09893882499846</v>
+      </c>
       <c r="CO118" s="11"/>
       <c r="CP118" s="11"/>
       <c r="CQ118" s="11"/>
@@ -19742,7 +19799,7 @@
       <c r="EU118" s="11"/>
       <c r="EV118" s="11"/>
     </row>
-    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -19827,12 +19884,12 @@
       <c r="CE119" s="12"/>
       <c r="CF119" s="12"/>
       <c r="CG119" s="12"/>
-      <c r="CH119" s="30"/>
-      <c r="CI119" s="30"/>
-      <c r="CJ119" s="30"/>
-      <c r="CK119" s="30"/>
-      <c r="CL119" s="30"/>
-      <c r="CM119" s="30"/>
+      <c r="CH119" s="11"/>
+      <c r="CI119" s="11"/>
+      <c r="CJ119" s="11"/>
+      <c r="CK119" s="11"/>
+      <c r="CL119" s="11"/>
+      <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
       <c r="CP119" s="11"/>
@@ -19895,7 +19952,7 @@
       <c r="EU119" s="11"/>
       <c r="EV119" s="11"/>
     </row>
-    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>17</v>
       </c>
@@ -20151,25 +20208,27 @@
       <c r="CG120" s="21">
         <v>96.988127851654866</v>
       </c>
-      <c r="CH120" s="35">
+      <c r="CH120" s="20">
         <v>91.256148247408291</v>
       </c>
-      <c r="CI120" s="35">
+      <c r="CI120" s="20">
         <v>110.3774661601836</v>
       </c>
-      <c r="CJ120" s="35">
+      <c r="CJ120" s="20">
         <v>102.2464086359403</v>
       </c>
-      <c r="CK120" s="35">
+      <c r="CK120" s="20">
         <v>101.6749903189184</v>
       </c>
-      <c r="CL120" s="35">
+      <c r="CL120" s="20">
         <v>96.517691053541768</v>
       </c>
-      <c r="CM120" s="35">
-        <v>116.85064738535664</v>
-      </c>
-      <c r="CN120" s="11"/>
+      <c r="CM120" s="20">
+        <v>117.07776779856052</v>
+      </c>
+      <c r="CN120" s="20">
+        <v>105.05907636087331</v>
+      </c>
       <c r="CO120" s="11"/>
       <c r="CP120" s="11"/>
       <c r="CQ120" s="11"/>
@@ -20231,7 +20290,7 @@
       <c r="EU120" s="11"/>
       <c r="EV120" s="11"/>
     </row>
-    <row r="121" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -20317,188 +20376,190 @@
       <c r="CE121" s="17"/>
       <c r="CF121" s="17"/>
       <c r="CG121" s="17"/>
-      <c r="CH121" s="32"/>
-      <c r="CI121" s="32"/>
-      <c r="CJ121" s="32"/>
-      <c r="CK121" s="32"/>
-      <c r="CL121" s="32"/>
-      <c r="CM121" s="32"/>
+      <c r="CH121" s="16"/>
+      <c r="CI121" s="16"/>
+      <c r="CJ121" s="16"/>
+      <c r="CK121" s="16"/>
+      <c r="CL121" s="16"/>
+      <c r="CM121" s="16"/>
+      <c r="CN121" s="16"/>
     </row>
-    <row r="122" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="38">
+      <c r="B133" s="28">
         <v>2000</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38">
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28">
         <v>2001</v>
       </c>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38">
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28">
         <v>2002</v>
       </c>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38">
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28">
         <v>2003</v>
       </c>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
-      <c r="R133" s="38">
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28">
         <v>2004</v>
       </c>
-      <c r="S133" s="38"/>
-      <c r="T133" s="38"/>
-      <c r="U133" s="38"/>
-      <c r="V133" s="38">
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28">
         <v>2005</v>
       </c>
-      <c r="W133" s="38"/>
-      <c r="X133" s="38"/>
-      <c r="Y133" s="38"/>
-      <c r="Z133" s="38">
+      <c r="W133" s="28"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="28"/>
+      <c r="Z133" s="28">
         <v>2006</v>
       </c>
-      <c r="AA133" s="38"/>
-      <c r="AB133" s="38"/>
-      <c r="AC133" s="38"/>
-      <c r="AD133" s="38">
+      <c r="AA133" s="28"/>
+      <c r="AB133" s="28"/>
+      <c r="AC133" s="28"/>
+      <c r="AD133" s="28">
         <v>2007</v>
       </c>
-      <c r="AE133" s="38"/>
-      <c r="AF133" s="38"/>
-      <c r="AG133" s="38"/>
-      <c r="AH133" s="38">
+      <c r="AE133" s="28"/>
+      <c r="AF133" s="28"/>
+      <c r="AG133" s="28"/>
+      <c r="AH133" s="28">
         <v>2008</v>
       </c>
-      <c r="AI133" s="38"/>
-      <c r="AJ133" s="38"/>
-      <c r="AK133" s="38"/>
-      <c r="AL133" s="38">
+      <c r="AI133" s="28"/>
+      <c r="AJ133" s="28"/>
+      <c r="AK133" s="28"/>
+      <c r="AL133" s="28">
         <v>2009</v>
       </c>
-      <c r="AM133" s="38"/>
-      <c r="AN133" s="38"/>
-      <c r="AO133" s="38"/>
-      <c r="AP133" s="38">
+      <c r="AM133" s="28"/>
+      <c r="AN133" s="28"/>
+      <c r="AO133" s="28"/>
+      <c r="AP133" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="38"/>
-      <c r="AR133" s="38"/>
-      <c r="AS133" s="38"/>
-      <c r="AT133" s="38">
+      <c r="AQ133" s="28"/>
+      <c r="AR133" s="28"/>
+      <c r="AS133" s="28"/>
+      <c r="AT133" s="28">
         <v>2011</v>
       </c>
-      <c r="AU133" s="38"/>
-      <c r="AV133" s="38"/>
-      <c r="AW133" s="38"/>
-      <c r="AX133" s="38">
+      <c r="AU133" s="28"/>
+      <c r="AV133" s="28"/>
+      <c r="AW133" s="28"/>
+      <c r="AX133" s="28">
         <v>2012</v>
       </c>
-      <c r="AY133" s="38"/>
-      <c r="AZ133" s="38"/>
-      <c r="BA133" s="38"/>
-      <c r="BB133" s="38">
+      <c r="AY133" s="28"/>
+      <c r="AZ133" s="28"/>
+      <c r="BA133" s="28"/>
+      <c r="BB133" s="28">
         <v>2013</v>
       </c>
-      <c r="BC133" s="38"/>
-      <c r="BD133" s="38"/>
-      <c r="BE133" s="38"/>
-      <c r="BF133" s="38">
+      <c r="BC133" s="28"/>
+      <c r="BD133" s="28"/>
+      <c r="BE133" s="28"/>
+      <c r="BF133" s="28">
         <v>2014</v>
       </c>
-      <c r="BG133" s="38"/>
-      <c r="BH133" s="38"/>
-      <c r="BI133" s="38"/>
-      <c r="BJ133" s="38">
+      <c r="BG133" s="28"/>
+      <c r="BH133" s="28"/>
+      <c r="BI133" s="28"/>
+      <c r="BJ133" s="28">
         <v>2015</v>
       </c>
-      <c r="BK133" s="38"/>
-      <c r="BL133" s="38"/>
-      <c r="BM133" s="38"/>
-      <c r="BN133" s="38">
+      <c r="BK133" s="28"/>
+      <c r="BL133" s="28"/>
+      <c r="BM133" s="28"/>
+      <c r="BN133" s="28">
         <v>2016</v>
       </c>
-      <c r="BO133" s="38"/>
-      <c r="BP133" s="38"/>
-      <c r="BQ133" s="38"/>
-      <c r="BR133" s="38">
+      <c r="BO133" s="28"/>
+      <c r="BP133" s="28"/>
+      <c r="BQ133" s="28"/>
+      <c r="BR133" s="28">
         <v>2017</v>
       </c>
-      <c r="BS133" s="38"/>
-      <c r="BT133" s="38"/>
-      <c r="BU133" s="38"/>
-      <c r="BV133" s="40">
+      <c r="BS133" s="28"/>
+      <c r="BT133" s="28"/>
+      <c r="BU133" s="28"/>
+      <c r="BV133" s="30">
         <v>2018</v>
       </c>
-      <c r="BW133" s="40"/>
-      <c r="BX133" s="40"/>
-      <c r="BY133" s="40"/>
-      <c r="BZ133" s="40">
+      <c r="BW133" s="30"/>
+      <c r="BX133" s="30"/>
+      <c r="BY133" s="30"/>
+      <c r="BZ133" s="30">
         <v>2019</v>
       </c>
-      <c r="CA133" s="40"/>
-      <c r="CB133" s="40"/>
-      <c r="CC133" s="40"/>
-      <c r="CD133" s="40">
+      <c r="CA133" s="30"/>
+      <c r="CB133" s="30"/>
+      <c r="CC133" s="30"/>
+      <c r="CD133" s="30">
         <v>2020</v>
       </c>
-      <c r="CE133" s="40"/>
-      <c r="CF133" s="40"/>
-      <c r="CG133" s="40"/>
-      <c r="CH133" s="37">
+      <c r="CE133" s="30"/>
+      <c r="CF133" s="30"/>
+      <c r="CG133" s="30"/>
+      <c r="CH133" s="29">
         <v>2021</v>
       </c>
-      <c r="CI133" s="37"/>
-      <c r="CJ133" s="37"/>
-      <c r="CK133" s="37"/>
-      <c r="CL133" s="37">
+      <c r="CI133" s="29"/>
+      <c r="CJ133" s="29"/>
+      <c r="CK133" s="29"/>
+      <c r="CL133" s="29">
         <v>2022</v>
       </c>
-      <c r="CM133" s="37"/>
+      <c r="CM133" s="29"/>
+      <c r="CN133" s="29"/>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="7" t="s">
         <v>7</v>
@@ -20752,29 +20813,32 @@
       <c r="CG134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="33" t="s">
+      <c r="CH134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="33" t="s">
+      <c r="CI134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ134" s="33" t="s">
+      <c r="CJ134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK134" s="33" t="s">
+      <c r="CK134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="33" t="s">
+      <c r="CL134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="33" t="s">
+      <c r="CM134" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN134" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="135" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
     </row>
-    <row r="136" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -21030,25 +21094,27 @@
       <c r="CG136" s="23">
         <v>20.405936859688858</v>
       </c>
-      <c r="CH136" s="36">
+      <c r="CH136" s="27">
         <v>20.313989564836827</v>
       </c>
-      <c r="CI136" s="36">
+      <c r="CI136" s="27">
         <v>22.065729553315787</v>
       </c>
-      <c r="CJ136" s="36">
+      <c r="CJ136" s="27">
         <v>27.09673908013902</v>
       </c>
-      <c r="CK136" s="36">
+      <c r="CK136" s="27">
         <v>24.346785647136116</v>
       </c>
-      <c r="CL136" s="36">
+      <c r="CL136" s="27">
         <v>20.096130312189576</v>
       </c>
-      <c r="CM136" s="36">
-        <v>22.680009919749736</v>
-      </c>
-      <c r="CN136" s="11"/>
+      <c r="CM136" s="27">
+        <v>22.091891474060844</v>
+      </c>
+      <c r="CN136" s="27">
+        <v>26.635848873859924</v>
+      </c>
       <c r="CO136" s="11"/>
       <c r="CP136" s="11"/>
       <c r="CQ136" s="11"/>
@@ -21110,7 +21176,7 @@
       <c r="EU136" s="11"/>
       <c r="EV136" s="11"/>
     </row>
-    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -21366,25 +21432,27 @@
       <c r="CG137" s="23">
         <v>3.4194860022934259</v>
       </c>
-      <c r="CH137" s="36">
+      <c r="CH137" s="27">
         <v>7.9709890678970368</v>
       </c>
-      <c r="CI137" s="36">
+      <c r="CI137" s="27">
         <v>11.956481344131291</v>
       </c>
-      <c r="CJ137" s="36">
+      <c r="CJ137" s="27">
         <v>8.1217328634702532</v>
       </c>
-      <c r="CK137" s="36">
+      <c r="CK137" s="27">
         <v>4.1957667399458929</v>
       </c>
-      <c r="CL137" s="36">
+      <c r="CL137" s="27">
         <v>7.6016251815443301</v>
       </c>
-      <c r="CM137" s="36">
-        <v>10.951374311256775</v>
-      </c>
-      <c r="CN137" s="11"/>
+      <c r="CM137" s="27">
+        <v>10.697948085460597</v>
+      </c>
+      <c r="CN137" s="27">
+        <v>6.5375800616762891</v>
+      </c>
       <c r="CO137" s="11"/>
       <c r="CP137" s="11"/>
       <c r="CQ137" s="11"/>
@@ -21446,7 +21514,7 @@
       <c r="EU137" s="11"/>
       <c r="EV137" s="11"/>
     </row>
-    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -21702,25 +21770,27 @@
       <c r="CG138" s="23">
         <v>34.803067645584385</v>
       </c>
-      <c r="CH138" s="36">
+      <c r="CH138" s="27">
         <v>22.811348224801563</v>
       </c>
-      <c r="CI138" s="36">
+      <c r="CI138" s="27">
         <v>18.053460735816927</v>
       </c>
-      <c r="CJ138" s="36">
+      <c r="CJ138" s="27">
         <v>25.148614162622852</v>
       </c>
-      <c r="CK138" s="36">
+      <c r="CK138" s="27">
         <v>31.268923746672911</v>
       </c>
-      <c r="CL138" s="36">
+      <c r="CL138" s="27">
         <v>28.430034488602875</v>
       </c>
-      <c r="CM138" s="36">
-        <v>26.778224772312775</v>
-      </c>
-      <c r="CN138" s="11"/>
+      <c r="CM138" s="27">
+        <v>26.515208963403296</v>
+      </c>
+      <c r="CN138" s="27">
+        <v>29.487656016983721</v>
+      </c>
       <c r="CO138" s="11"/>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
@@ -21782,7 +21852,7 @@
       <c r="EU138" s="11"/>
       <c r="EV138" s="11"/>
     </row>
-    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -22038,25 +22108,27 @@
       <c r="CG139" s="23">
         <v>1.9634948696709589</v>
       </c>
-      <c r="CH139" s="36">
+      <c r="CH139" s="27">
         <v>2.2087339442712222</v>
       </c>
-      <c r="CI139" s="36">
+      <c r="CI139" s="27">
         <v>2.0547311483249668</v>
       </c>
-      <c r="CJ139" s="36">
+      <c r="CJ139" s="27">
         <v>2.0403698047416321</v>
       </c>
-      <c r="CK139" s="36">
+      <c r="CK139" s="27">
         <v>1.6865260838895644</v>
       </c>
-      <c r="CL139" s="36">
+      <c r="CL139" s="27">
         <v>1.5809221822990167</v>
       </c>
-      <c r="CM139" s="36">
-        <v>1.5243330851023669</v>
-      </c>
-      <c r="CN139" s="11"/>
+      <c r="CM139" s="27">
+        <v>1.4894390249993095</v>
+      </c>
+      <c r="CN139" s="27">
+        <v>1.2866094929736429</v>
+      </c>
       <c r="CO139" s="11"/>
       <c r="CP139" s="11"/>
       <c r="CQ139" s="11"/>
@@ -22118,7 +22190,7 @@
       <c r="EU139" s="11"/>
       <c r="EV139" s="11"/>
     </row>
-    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -22374,25 +22446,27 @@
       <c r="CG140" s="23">
         <v>7.633489222297615</v>
       </c>
-      <c r="CH140" s="36">
+      <c r="CH140" s="27">
         <v>11.520550168929555</v>
       </c>
-      <c r="CI140" s="36">
+      <c r="CI140" s="27">
         <v>13.865944009248174</v>
       </c>
-      <c r="CJ140" s="36">
+      <c r="CJ140" s="27">
         <v>8.5907279583469407</v>
       </c>
-      <c r="CK140" s="36">
+      <c r="CK140" s="27">
         <v>8.0091091122650262</v>
       </c>
-      <c r="CL140" s="36">
+      <c r="CL140" s="27">
         <v>7.5898808972458109</v>
       </c>
-      <c r="CM140" s="36">
-        <v>7.8269592639852918</v>
-      </c>
-      <c r="CN140" s="11"/>
+      <c r="CM140" s="27">
+        <v>6.8939532224402162</v>
+      </c>
+      <c r="CN140" s="27">
+        <v>6.0688852682070964</v>
+      </c>
       <c r="CO140" s="11"/>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
@@ -22454,7 +22528,7 @@
       <c r="EU140" s="11"/>
       <c r="EV140" s="11"/>
     </row>
-    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -22710,25 +22784,27 @@
       <c r="CG141" s="23">
         <v>23.184214571644929</v>
       </c>
-      <c r="CH141" s="36">
+      <c r="CH141" s="27">
         <v>29.060159423570159</v>
       </c>
-      <c r="CI141" s="36">
+      <c r="CI141" s="27">
         <v>25.755568665981439</v>
       </c>
-      <c r="CJ141" s="36">
+      <c r="CJ141" s="27">
         <v>23.359483097636108</v>
       </c>
-      <c r="CK141" s="36">
+      <c r="CK141" s="27">
         <v>22.415787460854201</v>
       </c>
-      <c r="CL141" s="36">
+      <c r="CL141" s="27">
         <v>28.326200374783951</v>
       </c>
-      <c r="CM141" s="36">
-        <v>24.711592240191148</v>
-      </c>
-      <c r="CN141" s="11"/>
+      <c r="CM141" s="27">
+        <v>26.111915019073606</v>
+      </c>
+      <c r="CN141" s="27">
+        <v>24.470639931354004</v>
+      </c>
       <c r="CO141" s="11"/>
       <c r="CP141" s="11"/>
       <c r="CQ141" s="11"/>
@@ -22790,7 +22866,7 @@
       <c r="EU141" s="11"/>
       <c r="EV141" s="11"/>
     </row>
-    <row r="142" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -23046,25 +23122,27 @@
       <c r="CG142" s="23">
         <v>3.0675193941124248</v>
       </c>
-      <c r="CH142" s="36">
+      <c r="CH142" s="27">
         <v>2.7742364042739931</v>
       </c>
-      <c r="CI142" s="36">
+      <c r="CI142" s="27">
         <v>3.4988807063006195</v>
       </c>
-      <c r="CJ142" s="36">
+      <c r="CJ142" s="27">
         <v>3.0658782369445947</v>
       </c>
-      <c r="CK142" s="36">
+      <c r="CK142" s="27">
         <v>3.2481312051729128</v>
       </c>
-      <c r="CL142" s="36">
+      <c r="CL142" s="27">
         <v>2.3411700039912136</v>
       </c>
-      <c r="CM142" s="36">
-        <v>2.1757979319275678</v>
-      </c>
-      <c r="CN142" s="11"/>
+      <c r="CM142" s="27">
+        <v>2.1602702253977664</v>
+      </c>
+      <c r="CN142" s="27">
+        <v>2.2384299289735088</v>
+      </c>
       <c r="CO142" s="11"/>
       <c r="CP142" s="11"/>
       <c r="CQ142" s="11"/>
@@ -23126,7 +23204,7 @@
       <c r="EU142" s="11"/>
       <c r="EV142" s="11"/>
     </row>
-    <row r="143" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
@@ -23382,25 +23460,27 @@
       <c r="CG143" s="23">
         <v>5.5227914347074103</v>
       </c>
-      <c r="CH143" s="36">
+      <c r="CH143" s="27">
         <v>3.339993201419647</v>
       </c>
-      <c r="CI143" s="36">
+      <c r="CI143" s="27">
         <v>2.7492038368807843</v>
       </c>
-      <c r="CJ143" s="36">
+      <c r="CJ143" s="27">
         <v>2.5764547960985955</v>
       </c>
-      <c r="CK143" s="36">
+      <c r="CK143" s="27">
         <v>4.8289700040633745</v>
       </c>
-      <c r="CL143" s="36">
+      <c r="CL143" s="27">
         <v>4.0340365593432113</v>
       </c>
-      <c r="CM143" s="36">
-        <v>3.3517084754743576</v>
-      </c>
-      <c r="CN143" s="11"/>
+      <c r="CM143" s="27">
+        <v>4.0393739851643682</v>
+      </c>
+      <c r="CN143" s="27">
+        <v>3.2743504259718033</v>
+      </c>
       <c r="CO143" s="11"/>
       <c r="CP143" s="11"/>
       <c r="CQ143" s="11"/>
@@ -23462,7 +23542,7 @@
       <c r="EU143" s="11"/>
       <c r="EV143" s="11"/>
     </row>
-    <row r="144" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -23547,12 +23627,12 @@
       <c r="CE144" s="12"/>
       <c r="CF144" s="12"/>
       <c r="CG144" s="12"/>
-      <c r="CH144" s="30"/>
-      <c r="CI144" s="30"/>
-      <c r="CJ144" s="30"/>
-      <c r="CK144" s="30"/>
-      <c r="CL144" s="30"/>
-      <c r="CM144" s="30"/>
+      <c r="CH144" s="11"/>
+      <c r="CI144" s="11"/>
+      <c r="CJ144" s="11"/>
+      <c r="CK144" s="11"/>
+      <c r="CL144" s="11"/>
+      <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
       <c r="CP144" s="11"/>
@@ -23615,7 +23695,7 @@
       <c r="EU144" s="11"/>
       <c r="EV144" s="11"/>
     </row>
-    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>17</v>
       </c>
@@ -23871,25 +23951,27 @@
       <c r="CG145" s="21">
         <v>100</v>
       </c>
-      <c r="CH145" s="35">
+      <c r="CH145" s="20">
         <v>100</v>
       </c>
-      <c r="CI145" s="35">
+      <c r="CI145" s="20">
         <v>100</v>
       </c>
-      <c r="CJ145" s="35">
+      <c r="CJ145" s="20">
         <v>100</v>
       </c>
-      <c r="CK145" s="35">
+      <c r="CK145" s="20">
         <v>100</v>
       </c>
-      <c r="CL145" s="35">
+      <c r="CL145" s="20">
         <v>100</v>
       </c>
-      <c r="CM145" s="35">
+      <c r="CM145" s="20">
         <v>100</v>
       </c>
-      <c r="CN145" s="11"/>
+      <c r="CN145" s="20">
+        <v>100</v>
+      </c>
       <c r="CO145" s="11"/>
       <c r="CP145" s="11"/>
       <c r="CQ145" s="11"/>
@@ -23951,7 +24033,7 @@
       <c r="EU145" s="11"/>
       <c r="EV145" s="11"/>
     </row>
-    <row r="146" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -24037,19 +24119,20 @@
       <c r="CE146" s="17"/>
       <c r="CF146" s="17"/>
       <c r="CG146" s="17"/>
-      <c r="CH146" s="32"/>
-      <c r="CI146" s="32"/>
-      <c r="CJ146" s="32"/>
-      <c r="CK146" s="32"/>
-      <c r="CL146" s="32"/>
-      <c r="CM146" s="32"/>
+      <c r="CH146" s="16"/>
+      <c r="CI146" s="16"/>
+      <c r="CJ146" s="16"/>
+      <c r="CK146" s="16"/>
+      <c r="CL146" s="16"/>
+      <c r="CM146" s="16"/>
+      <c r="CN146" s="16"/>
     </row>
-    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -24134,12 +24217,12 @@
       <c r="CE148" s="12"/>
       <c r="CF148" s="12"/>
       <c r="CG148" s="12"/>
-      <c r="CH148" s="30"/>
-      <c r="CI148" s="30"/>
-      <c r="CJ148" s="30"/>
-      <c r="CK148" s="30"/>
-      <c r="CL148" s="30"/>
-      <c r="CM148" s="30"/>
+      <c r="CH148" s="11"/>
+      <c r="CI148" s="11"/>
+      <c r="CJ148" s="11"/>
+      <c r="CK148" s="11"/>
+      <c r="CL148" s="11"/>
+      <c r="CM148" s="11"/>
       <c r="CN148" s="11"/>
       <c r="CO148" s="11"/>
       <c r="CP148" s="11"/>
@@ -24202,7 +24285,7 @@
       <c r="EU148" s="11"/>
       <c r="EV148" s="11"/>
     </row>
-    <row r="149" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -24287,12 +24370,12 @@
       <c r="CE149" s="12"/>
       <c r="CF149" s="12"/>
       <c r="CG149" s="12"/>
-      <c r="CH149" s="30"/>
-      <c r="CI149" s="30"/>
-      <c r="CJ149" s="30"/>
-      <c r="CK149" s="30"/>
-      <c r="CL149" s="30"/>
-      <c r="CM149" s="30"/>
+      <c r="CH149" s="11"/>
+      <c r="CI149" s="11"/>
+      <c r="CJ149" s="11"/>
+      <c r="CK149" s="11"/>
+      <c r="CL149" s="11"/>
+      <c r="CM149" s="11"/>
       <c r="CN149" s="11"/>
       <c r="CO149" s="11"/>
       <c r="CP149" s="11"/>
@@ -24355,176 +24438,177 @@
       <c r="EU149" s="11"/>
       <c r="EV149" s="11"/>
     </row>
-    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="38">
+      <c r="B158" s="28">
         <v>2000</v>
       </c>
-      <c r="C158" s="38"/>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38">
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28">
         <v>2001</v>
       </c>
-      <c r="G158" s="38"/>
-      <c r="H158" s="38"/>
-      <c r="I158" s="38"/>
-      <c r="J158" s="38">
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28">
         <v>2002</v>
       </c>
-      <c r="K158" s="38"/>
-      <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
-      <c r="N158" s="38">
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28">
         <v>2003</v>
       </c>
-      <c r="O158" s="38"/>
-      <c r="P158" s="38"/>
-      <c r="Q158" s="38"/>
-      <c r="R158" s="38">
+      <c r="O158" s="28"/>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="28"/>
+      <c r="R158" s="28">
         <v>2004</v>
       </c>
-      <c r="S158" s="38"/>
-      <c r="T158" s="38"/>
-      <c r="U158" s="38"/>
-      <c r="V158" s="38">
+      <c r="S158" s="28"/>
+      <c r="T158" s="28"/>
+      <c r="U158" s="28"/>
+      <c r="V158" s="28">
         <v>2005</v>
       </c>
-      <c r="W158" s="38"/>
-      <c r="X158" s="38"/>
-      <c r="Y158" s="38"/>
-      <c r="Z158" s="38">
+      <c r="W158" s="28"/>
+      <c r="X158" s="28"/>
+      <c r="Y158" s="28"/>
+      <c r="Z158" s="28">
         <v>2006</v>
       </c>
-      <c r="AA158" s="38"/>
-      <c r="AB158" s="38"/>
-      <c r="AC158" s="38"/>
-      <c r="AD158" s="38">
+      <c r="AA158" s="28"/>
+      <c r="AB158" s="28"/>
+      <c r="AC158" s="28"/>
+      <c r="AD158" s="28">
         <v>2007</v>
       </c>
-      <c r="AE158" s="38"/>
-      <c r="AF158" s="38"/>
-      <c r="AG158" s="38"/>
-      <c r="AH158" s="38">
+      <c r="AE158" s="28"/>
+      <c r="AF158" s="28"/>
+      <c r="AG158" s="28"/>
+      <c r="AH158" s="28">
         <v>2008</v>
       </c>
-      <c r="AI158" s="38"/>
-      <c r="AJ158" s="38"/>
-      <c r="AK158" s="38"/>
-      <c r="AL158" s="38">
+      <c r="AI158" s="28"/>
+      <c r="AJ158" s="28"/>
+      <c r="AK158" s="28"/>
+      <c r="AL158" s="28">
         <v>2009</v>
       </c>
-      <c r="AM158" s="38"/>
-      <c r="AN158" s="38"/>
-      <c r="AO158" s="38"/>
-      <c r="AP158" s="38">
+      <c r="AM158" s="28"/>
+      <c r="AN158" s="28"/>
+      <c r="AO158" s="28"/>
+      <c r="AP158" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="38"/>
-      <c r="AR158" s="38"/>
-      <c r="AS158" s="38"/>
-      <c r="AT158" s="38">
+      <c r="AQ158" s="28"/>
+      <c r="AR158" s="28"/>
+      <c r="AS158" s="28"/>
+      <c r="AT158" s="28">
         <v>2011</v>
       </c>
-      <c r="AU158" s="38"/>
-      <c r="AV158" s="38"/>
-      <c r="AW158" s="38"/>
-      <c r="AX158" s="38">
+      <c r="AU158" s="28"/>
+      <c r="AV158" s="28"/>
+      <c r="AW158" s="28"/>
+      <c r="AX158" s="28">
         <v>2012</v>
       </c>
-      <c r="AY158" s="38"/>
-      <c r="AZ158" s="38"/>
-      <c r="BA158" s="38"/>
-      <c r="BB158" s="38">
+      <c r="AY158" s="28"/>
+      <c r="AZ158" s="28"/>
+      <c r="BA158" s="28"/>
+      <c r="BB158" s="28">
         <v>2013</v>
       </c>
-      <c r="BC158" s="38"/>
-      <c r="BD158" s="38"/>
-      <c r="BE158" s="38"/>
-      <c r="BF158" s="38">
+      <c r="BC158" s="28"/>
+      <c r="BD158" s="28"/>
+      <c r="BE158" s="28"/>
+      <c r="BF158" s="28">
         <v>2014</v>
       </c>
-      <c r="BG158" s="38"/>
-      <c r="BH158" s="38"/>
-      <c r="BI158" s="38"/>
-      <c r="BJ158" s="38">
+      <c r="BG158" s="28"/>
+      <c r="BH158" s="28"/>
+      <c r="BI158" s="28"/>
+      <c r="BJ158" s="28">
         <v>2015</v>
       </c>
-      <c r="BK158" s="38"/>
-      <c r="BL158" s="38"/>
-      <c r="BM158" s="38"/>
-      <c r="BN158" s="38">
+      <c r="BK158" s="28"/>
+      <c r="BL158" s="28"/>
+      <c r="BM158" s="28"/>
+      <c r="BN158" s="28">
         <v>2016</v>
       </c>
-      <c r="BO158" s="38"/>
-      <c r="BP158" s="38"/>
-      <c r="BQ158" s="38"/>
-      <c r="BR158" s="38">
+      <c r="BO158" s="28"/>
+      <c r="BP158" s="28"/>
+      <c r="BQ158" s="28"/>
+      <c r="BR158" s="28">
         <v>2017</v>
       </c>
-      <c r="BS158" s="38"/>
-      <c r="BT158" s="38"/>
-      <c r="BU158" s="38"/>
-      <c r="BV158" s="40">
+      <c r="BS158" s="28"/>
+      <c r="BT158" s="28"/>
+      <c r="BU158" s="28"/>
+      <c r="BV158" s="30">
         <v>2018</v>
       </c>
-      <c r="BW158" s="40"/>
-      <c r="BX158" s="40"/>
-      <c r="BY158" s="40"/>
-      <c r="BZ158" s="40">
+      <c r="BW158" s="30"/>
+      <c r="BX158" s="30"/>
+      <c r="BY158" s="30"/>
+      <c r="BZ158" s="30">
         <v>2019</v>
       </c>
-      <c r="CA158" s="40"/>
-      <c r="CB158" s="40"/>
-      <c r="CC158" s="40"/>
-      <c r="CD158" s="40">
+      <c r="CA158" s="30"/>
+      <c r="CB158" s="30"/>
+      <c r="CC158" s="30"/>
+      <c r="CD158" s="30">
         <v>2020</v>
       </c>
-      <c r="CE158" s="40"/>
-      <c r="CF158" s="40"/>
-      <c r="CG158" s="40"/>
-      <c r="CH158" s="37">
+      <c r="CE158" s="30"/>
+      <c r="CF158" s="30"/>
+      <c r="CG158" s="30"/>
+      <c r="CH158" s="29">
         <v>2021</v>
       </c>
-      <c r="CI158" s="37"/>
-      <c r="CJ158" s="37"/>
-      <c r="CK158" s="37"/>
-      <c r="CL158" s="37">
+      <c r="CI158" s="29"/>
+      <c r="CJ158" s="29"/>
+      <c r="CK158" s="29"/>
+      <c r="CL158" s="29">
         <v>2022</v>
       </c>
-      <c r="CM158" s="37"/>
+      <c r="CM158" s="29"/>
+      <c r="CN158" s="29"/>
     </row>
-    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="7" t="s">
         <v>7</v>
@@ -24778,29 +24862,32 @@
       <c r="CG159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="33" t="s">
+      <c r="CH159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="33" t="s">
+      <c r="CI159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ159" s="33" t="s">
+      <c r="CJ159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK159" s="33" t="s">
+      <c r="CK159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="33" t="s">
+      <c r="CL159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="33" t="s">
+      <c r="CM159" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN159" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="160" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
     </row>
-    <row r="161" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -25056,25 +25143,27 @@
       <c r="CG161" s="23">
         <v>20.872114450196733</v>
       </c>
-      <c r="CH161" s="36">
+      <c r="CH161" s="27">
         <v>19.351834335018651</v>
       </c>
-      <c r="CI161" s="36">
+      <c r="CI161" s="27">
         <v>22.972137787276484</v>
       </c>
-      <c r="CJ161" s="36">
+      <c r="CJ161" s="27">
         <v>26.64294083007227</v>
       </c>
-      <c r="CK161" s="36">
+      <c r="CK161" s="27">
         <v>23.927220243755855</v>
       </c>
-      <c r="CL161" s="36">
+      <c r="CL161" s="27">
         <v>19.1412493256801</v>
       </c>
-      <c r="CM161" s="36">
-        <v>23.155436475443633</v>
-      </c>
-      <c r="CN161" s="11"/>
+      <c r="CM161" s="27">
+        <v>22.505653904888646</v>
+      </c>
+      <c r="CN161" s="27">
+        <v>25.530562483545712</v>
+      </c>
       <c r="CO161" s="11"/>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
@@ -25136,7 +25225,7 @@
       <c r="EU161" s="11"/>
       <c r="EV161" s="11"/>
     </row>
-    <row r="162" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -25392,25 +25481,27 @@
       <c r="CG162" s="23">
         <v>3.2013591828894432</v>
       </c>
-      <c r="CH162" s="36">
+      <c r="CH162" s="27">
         <v>9.1993649282021845</v>
       </c>
-      <c r="CI162" s="36">
+      <c r="CI162" s="27">
         <v>11.259435131507486</v>
       </c>
-      <c r="CJ162" s="36">
+      <c r="CJ162" s="27">
         <v>7.7248323741754197</v>
       </c>
-      <c r="CK162" s="36">
+      <c r="CK162" s="27">
         <v>3.9810195459415101</v>
       </c>
-      <c r="CL162" s="36">
+      <c r="CL162" s="27">
         <v>8.9589373608505625</v>
       </c>
-      <c r="CM162" s="36">
-        <v>10.316822207274837</v>
-      </c>
-      <c r="CN162" s="11"/>
+      <c r="CM162" s="27">
+        <v>10.092970749932952</v>
+      </c>
+      <c r="CN162" s="27">
+        <v>6.3345309161473242</v>
+      </c>
       <c r="CO162" s="11"/>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
@@ -25472,7 +25563,7 @@
       <c r="EU162" s="11"/>
       <c r="EV162" s="11"/>
     </row>
-    <row r="163" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -25728,25 +25819,27 @@
       <c r="CG163" s="23">
         <v>37.195469493628963</v>
       </c>
-      <c r="CH163" s="36">
+      <c r="CH163" s="27">
         <v>18.572806903324061</v>
       </c>
-      <c r="CI163" s="36">
+      <c r="CI163" s="27">
         <v>18.545048815496372</v>
       </c>
-      <c r="CJ163" s="36">
+      <c r="CJ163" s="27">
         <v>27.823960371949685</v>
       </c>
-      <c r="CK163" s="36">
+      <c r="CK163" s="27">
         <v>33.969877337622165</v>
       </c>
-      <c r="CL163" s="36">
+      <c r="CL163" s="27">
         <v>23.379548547271277</v>
       </c>
-      <c r="CM163" s="36">
-        <v>27.450491059941974</v>
-      </c>
-      <c r="CN163" s="11"/>
+      <c r="CM163" s="27">
+        <v>27.164342214766567</v>
+      </c>
+      <c r="CN163" s="27">
+        <v>31.827946133240033</v>
+      </c>
       <c r="CO163" s="11"/>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
@@ -25808,7 +25901,7 @@
       <c r="EU163" s="11"/>
       <c r="EV163" s="11"/>
     </row>
-    <row r="164" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -26064,25 +26157,27 @@
       <c r="CG164" s="23">
         <v>1.8747388781237373</v>
       </c>
-      <c r="CH164" s="36">
+      <c r="CH164" s="27">
         <v>2.2674512431291332</v>
       </c>
-      <c r="CI164" s="36">
+      <c r="CI164" s="27">
         <v>2.0770655313348798</v>
       </c>
-      <c r="CJ164" s="36">
+      <c r="CJ164" s="27">
         <v>1.981560420172384</v>
       </c>
-      <c r="CK164" s="36">
+      <c r="CK164" s="27">
         <v>1.6319749119979126</v>
       </c>
-      <c r="CL164" s="36">
+      <c r="CL164" s="27">
         <v>1.6573317851426776</v>
       </c>
-      <c r="CM164" s="36">
-        <v>1.5414845654897706</v>
-      </c>
-      <c r="CN164" s="11"/>
+      <c r="CM164" s="27">
+        <v>1.5084233230083508</v>
+      </c>
+      <c r="CN164" s="27">
+        <v>1.272923366968455</v>
+      </c>
       <c r="CO164" s="11"/>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
@@ -26144,7 +26239,7 @@
       <c r="EU164" s="11"/>
       <c r="EV164" s="11"/>
     </row>
-    <row r="165" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -26400,25 +26495,27 @@
       <c r="CG165" s="23">
         <v>7.0919165370406283</v>
       </c>
-      <c r="CH165" s="36">
+      <c r="CH165" s="27">
         <v>12.320258669632578</v>
       </c>
-      <c r="CI165" s="36">
+      <c r="CI165" s="27">
         <v>13.529792764170939</v>
       </c>
-      <c r="CJ165" s="36">
+      <c r="CJ165" s="27">
         <v>8.1217254555073968</v>
       </c>
-      <c r="CK165" s="36">
+      <c r="CK165" s="27">
         <v>7.5410901087060482</v>
       </c>
-      <c r="CL165" s="36">
+      <c r="CL165" s="27">
         <v>8.288691622766601</v>
       </c>
-      <c r="CM165" s="36">
-        <v>7.640097244865367</v>
-      </c>
-      <c r="CN165" s="11"/>
+      <c r="CM165" s="27">
+        <v>6.7393087084627963</v>
+      </c>
+      <c r="CN165" s="27">
+        <v>5.8449976600676292</v>
+      </c>
       <c r="CO165" s="11"/>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
@@ -26480,7 +26577,7 @@
       <c r="EU165" s="11"/>
       <c r="EV165" s="11"/>
     </row>
-    <row r="166" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -26736,25 +26833,27 @@
       <c r="CG166" s="23">
         <v>21.8156339135877</v>
       </c>
-      <c r="CH166" s="36">
+      <c r="CH166" s="27">
         <v>31.686181239714088</v>
       </c>
-      <c r="CI166" s="36">
+      <c r="CI166" s="27">
         <v>25.519727880488535</v>
       </c>
-      <c r="CJ166" s="36">
+      <c r="CJ166" s="27">
         <v>22.389837569707765</v>
       </c>
-      <c r="CK166" s="36">
+      <c r="CK166" s="27">
         <v>21.37661081359651</v>
       </c>
-      <c r="CL166" s="36">
+      <c r="CL166" s="27">
         <v>31.540214830193776</v>
       </c>
-      <c r="CM166" s="36">
-        <v>24.494565246657586</v>
-      </c>
-      <c r="CN166" s="11"/>
+      <c r="CM166" s="27">
+        <v>25.920831895109579</v>
+      </c>
+      <c r="CN166" s="27">
+        <v>23.894069220094959</v>
+      </c>
       <c r="CO166" s="11"/>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
@@ -26816,7 +26915,7 @@
       <c r="EU166" s="11"/>
       <c r="EV166" s="11"/>
     </row>
-    <row r="167" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>18</v>
       </c>
@@ -27072,25 +27171,27 @@
       <c r="CG167" s="23">
         <v>2.8259932030466497</v>
       </c>
-      <c r="CH167" s="36">
+      <c r="CH167" s="27">
         <v>2.9840637477345791</v>
       </c>
-      <c r="CI167" s="36">
+      <c r="CI167" s="27">
         <v>3.40511665374409</v>
       </c>
-      <c r="CJ167" s="36">
+      <c r="CJ167" s="27">
         <v>2.8796969878746288</v>
       </c>
-      <c r="CK167" s="36">
+      <c r="CK167" s="27">
         <v>3.0326812095859323</v>
       </c>
-      <c r="CL167" s="36">
+      <c r="CL167" s="27">
         <v>2.5715915856902258</v>
       </c>
-      <c r="CM167" s="36">
-        <v>2.118290552748872</v>
-      </c>
-      <c r="CN167" s="11"/>
+      <c r="CM167" s="27">
+        <v>2.1062807326737425</v>
+      </c>
+      <c r="CN167" s="27">
+        <v>2.1418668521182926</v>
+      </c>
       <c r="CO167" s="11"/>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
@@ -27152,7 +27253,7 @@
       <c r="EU167" s="11"/>
       <c r="EV167" s="11"/>
     </row>
-    <row r="168" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -27408,25 +27509,27 @@
       <c r="CG168" s="23">
         <v>5.1227743414861555</v>
       </c>
-      <c r="CH168" s="36">
+      <c r="CH168" s="27">
         <v>3.6180389332447285</v>
       </c>
-      <c r="CI168" s="36">
+      <c r="CI168" s="27">
         <v>2.6916754359812027</v>
       </c>
-      <c r="CJ168" s="36">
+      <c r="CJ168" s="27">
         <v>2.435445990540452</v>
       </c>
-      <c r="CK168" s="36">
+      <c r="CK168" s="27">
         <v>4.5395258287940514</v>
       </c>
-      <c r="CL168" s="36">
+      <c r="CL168" s="27">
         <v>4.4624349424047773</v>
       </c>
-      <c r="CM168" s="36">
-        <v>3.2828126475779547</v>
-      </c>
-      <c r="CN168" s="11"/>
+      <c r="CM168" s="27">
+        <v>3.9621884711573552</v>
+      </c>
+      <c r="CN168" s="27">
+        <v>3.1531033678176072</v>
+      </c>
       <c r="CO168" s="11"/>
       <c r="CP168" s="11"/>
       <c r="CQ168" s="11"/>
@@ -27488,7 +27591,7 @@
       <c r="EU168" s="11"/>
       <c r="EV168" s="11"/>
     </row>
-    <row r="169" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -27573,12 +27676,12 @@
       <c r="CE169" s="12"/>
       <c r="CF169" s="12"/>
       <c r="CG169" s="12"/>
-      <c r="CH169" s="30"/>
-      <c r="CI169" s="30"/>
-      <c r="CJ169" s="30"/>
-      <c r="CK169" s="30"/>
-      <c r="CL169" s="30"/>
-      <c r="CM169" s="30"/>
+      <c r="CH169" s="11"/>
+      <c r="CI169" s="11"/>
+      <c r="CJ169" s="11"/>
+      <c r="CK169" s="11"/>
+      <c r="CL169" s="11"/>
+      <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
       <c r="CO169" s="11"/>
       <c r="CP169" s="11"/>
@@ -27641,7 +27744,7 @@
       <c r="EU169" s="11"/>
       <c r="EV169" s="11"/>
     </row>
-    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>17</v>
       </c>
@@ -27897,25 +28000,27 @@
       <c r="CG170" s="21">
         <v>100</v>
       </c>
-      <c r="CH170" s="35">
+      <c r="CH170" s="20">
         <v>100</v>
       </c>
-      <c r="CI170" s="35">
+      <c r="CI170" s="20">
         <v>100</v>
       </c>
-      <c r="CJ170" s="35">
+      <c r="CJ170" s="20">
         <v>100</v>
       </c>
-      <c r="CK170" s="35">
+      <c r="CK170" s="20">
         <v>100</v>
       </c>
-      <c r="CL170" s="35">
+      <c r="CL170" s="20">
         <v>100</v>
       </c>
-      <c r="CM170" s="35">
+      <c r="CM170" s="20">
         <v>100</v>
       </c>
-      <c r="CN170" s="11"/>
+      <c r="CN170" s="20">
+        <v>100</v>
+      </c>
       <c r="CO170" s="11"/>
       <c r="CP170" s="11"/>
       <c r="CQ170" s="11"/>
@@ -27977,7 +28082,7 @@
       <c r="EU170" s="11"/>
       <c r="EV170" s="11"/>
     </row>
-    <row r="171" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -28063,19 +28168,20 @@
       <c r="CE171" s="17"/>
       <c r="CF171" s="17"/>
       <c r="CG171" s="17"/>
-      <c r="CH171" s="32"/>
-      <c r="CI171" s="32"/>
-      <c r="CJ171" s="32"/>
-      <c r="CK171" s="32"/>
-      <c r="CL171" s="32"/>
-      <c r="CM171" s="32"/>
+      <c r="CH171" s="16"/>
+      <c r="CI171" s="16"/>
+      <c r="CJ171" s="16"/>
+      <c r="CK171" s="16"/>
+      <c r="CL171" s="16"/>
+      <c r="CM171" s="16"/>
+      <c r="CN171" s="16"/>
     </row>
-    <row r="172" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
@@ -28161,13 +28267,13 @@
       <c r="CE173" s="2"/>
       <c r="CF173" s="2"/>
       <c r="CG173" s="2"/>
-      <c r="CH173" s="26"/>
-      <c r="CI173" s="26"/>
-      <c r="CJ173" s="26"/>
-      <c r="CK173" s="26"/>
-      <c r="CL173" s="26"/>
-      <c r="CM173" s="26"/>
-      <c r="CN173" s="24"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+      <c r="CM173" s="1"/>
+      <c r="CN173" s="1"/>
       <c r="CO173" s="24"/>
       <c r="CP173" s="24"/>
       <c r="CQ173" s="24"/>
@@ -28229,7 +28335,7 @@
       <c r="EU173" s="24"/>
       <c r="EV173" s="24"/>
     </row>
-    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:152" s="25" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="24"/>
       <c r="C174" s="24"/>
@@ -28315,13 +28421,13 @@
       <c r="CE174" s="2"/>
       <c r="CF174" s="2"/>
       <c r="CG174" s="2"/>
-      <c r="CH174" s="26"/>
-      <c r="CI174" s="26"/>
-      <c r="CJ174" s="26"/>
-      <c r="CK174" s="26"/>
-      <c r="CL174" s="26"/>
-      <c r="CM174" s="26"/>
-      <c r="CN174" s="24"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+      <c r="CM174" s="1"/>
+      <c r="CN174" s="1"/>
       <c r="CO174" s="24"/>
       <c r="CP174" s="24"/>
       <c r="CQ174" s="24"/>
@@ -28384,16 +28490,135 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
+  <mergeCells count="161">
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CL133:CN133"/>
+    <mergeCell ref="CL158:CN158"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL34:CN34"/>
+    <mergeCell ref="CH59:CJ59"/>
+    <mergeCell ref="CL59:CM59"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL108:CN108"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="AL158:AO158"/>
     <mergeCell ref="AP158:AS158"/>
     <mergeCell ref="AT158:AW158"/>
@@ -28418,140 +28643,23 @@
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL34:CM34"/>
-    <mergeCell ref="CH59:CI59"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CL108:CM108"/>
-    <mergeCell ref="CL133:CM133"/>
-    <mergeCell ref="CL158:CM158"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="90" man="1"/>
-    <brk id="100" max="90" man="1"/>
-    <brk id="124" max="90" man="1"/>
+    <brk id="50" max="91" man="1"/>
+    <brk id="100" max="91" man="1"/>
+    <brk id="124" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB647B-A2D5-4FEC-A999-05072B4615C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69F0B8-15F3-4739-8930-7A75E4666F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CN$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CO$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -351,15 +351,13 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +382,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -685,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,21 +696,20 @@
   </sheetPr>
   <dimension ref="A1:EV174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CG91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="85" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="92" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -727,7 +724,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -737,7 +734,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -747,143 +744,144 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="28">
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="26">
         <v>2018</v>
       </c>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="28">
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="28">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2020</v>
       </c>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="26">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="26"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="26"/>
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1139,26 +1137,29 @@
       <c r="CG10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="6" t="s">
+      <c r="CH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="6" t="s">
+      <c r="CI10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="6" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="6" t="s">
+      <c r="CK10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,28 +1421,30 @@
       <c r="CG12" s="10">
         <v>52884.47277971021</v>
       </c>
-      <c r="CH12" s="26">
+      <c r="CH12" s="10">
         <v>46430.300796230811</v>
       </c>
-      <c r="CI12" s="26">
+      <c r="CI12" s="10">
         <v>52849.253157415507</v>
       </c>
-      <c r="CJ12" s="26">
+      <c r="CJ12" s="10">
         <v>67877.636577602956</v>
       </c>
-      <c r="CK12" s="26">
+      <c r="CK12" s="10">
         <v>73947.01885015193</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="10">
         <v>64371.44848578058</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="10">
         <v>73560.463025433302</v>
       </c>
-      <c r="CN12" s="26">
-        <v>106429.71477728267</v>
-      </c>
-      <c r="CO12" s="11"/>
+      <c r="CN12" s="10">
+        <v>105583.55292625586</v>
+      </c>
+      <c r="CO12" s="10">
+        <v>105058.90655934474</v>
+      </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
@@ -1758,28 +1761,30 @@
       <c r="CG13" s="10">
         <v>8862.0147975722048</v>
       </c>
-      <c r="CH13" s="26">
+      <c r="CH13" s="10">
         <v>18218.746193832638</v>
       </c>
-      <c r="CI13" s="26">
+      <c r="CI13" s="10">
         <v>28636.764893774238</v>
       </c>
-      <c r="CJ13" s="26">
+      <c r="CJ13" s="10">
         <v>20345.032295457306</v>
       </c>
-      <c r="CK13" s="26">
+      <c r="CK13" s="10">
         <v>12743.548438235644</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="10">
         <v>24349.345679012895</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="10">
         <v>35621.486531043323</v>
       </c>
-      <c r="CN13" s="26">
-        <v>26122.418121267372</v>
-      </c>
-      <c r="CO13" s="11"/>
+      <c r="CN13" s="10">
+        <v>25928.631715927935</v>
+      </c>
+      <c r="CO13" s="10">
+        <v>13153.724133185091</v>
+      </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
@@ -2096,28 +2101,30 @@
       <c r="CG14" s="10">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="26">
+      <c r="CH14" s="10">
         <v>52138.343197657821</v>
       </c>
-      <c r="CI14" s="26">
+      <c r="CI14" s="10">
         <v>43239.536426352897</v>
       </c>
-      <c r="CJ14" s="26">
+      <c r="CJ14" s="10">
         <v>62997.561718120749</v>
       </c>
-      <c r="CK14" s="26">
+      <c r="CK14" s="10">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="10">
         <v>91066.412891540836</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="10">
         <v>88289.001910687817</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="10">
         <v>117824.77195304068</v>
       </c>
-      <c r="CO14" s="11"/>
+      <c r="CO14" s="10">
+        <v>184871.35006387878</v>
+      </c>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
@@ -2434,28 +2441,30 @@
       <c r="CG15" s="10">
         <v>5088.6362974759177</v>
       </c>
-      <c r="CH15" s="26">
+      <c r="CH15" s="10">
         <v>5048.3525692498251</v>
       </c>
-      <c r="CI15" s="26">
+      <c r="CI15" s="10">
         <v>4921.2515890704108</v>
       </c>
-      <c r="CJ15" s="26">
+      <c r="CJ15" s="10">
         <v>5111.1493409064724</v>
       </c>
-      <c r="CK15" s="26">
+      <c r="CK15" s="10">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="10">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="10">
         <v>4959.4587433015095</v>
       </c>
-      <c r="CN15" s="26">
-        <v>5140.9467749801606</v>
-      </c>
-      <c r="CO15" s="11"/>
+      <c r="CN15" s="10">
+        <v>5166.2083527966124</v>
+      </c>
+      <c r="CO15" s="10">
+        <v>5190.5412281268282</v>
+      </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
@@ -2772,28 +2781,30 @@
       <c r="CG16" s="10">
         <v>19783.117813536392</v>
       </c>
-      <c r="CH16" s="26">
+      <c r="CH16" s="10">
         <v>26331.735968171131</v>
       </c>
-      <c r="CI16" s="26">
+      <c r="CI16" s="10">
         <v>33210.08641208458</v>
       </c>
-      <c r="CJ16" s="26">
+      <c r="CJ16" s="10">
         <v>21519.870290264276</v>
       </c>
-      <c r="CK16" s="26">
+      <c r="CK16" s="10">
         <v>24325.582484735562</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="10">
         <v>24311.726665800888</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="10">
         <v>22955.136807267823</v>
       </c>
-      <c r="CN16" s="26">
-        <v>24249.639317679917</v>
-      </c>
-      <c r="CO16" s="11"/>
+      <c r="CN16" s="10">
+        <v>26267.216368393802</v>
+      </c>
+      <c r="CO16" s="10">
+        <v>29384.839177816735</v>
+      </c>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
@@ -3110,28 +3121,30 @@
       <c r="CG17" s="10">
         <v>60084.718131966809</v>
       </c>
-      <c r="CH17" s="26">
+      <c r="CH17" s="10">
         <v>66420.824866344847</v>
       </c>
-      <c r="CI17" s="26">
+      <c r="CI17" s="10">
         <v>61686.723992187755</v>
       </c>
-      <c r="CJ17" s="26">
+      <c r="CJ17" s="10">
         <v>58515.768249921377</v>
       </c>
-      <c r="CK17" s="26">
+      <c r="CK17" s="10">
         <v>68082.114901429057</v>
       </c>
-      <c r="CL17" s="26">
+      <c r="CL17" s="10">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="26">
+      <c r="CM17" s="10">
         <v>86946.134129761122</v>
       </c>
-      <c r="CN17" s="26">
-        <v>97778.120030840029</v>
-      </c>
-      <c r="CO17" s="11"/>
+      <c r="CN17" s="10">
+        <v>95172.222712710689</v>
+      </c>
+      <c r="CO17" s="10">
+        <v>94454.245181826438</v>
+      </c>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
       <c r="CR17" s="11"/>
@@ -3448,28 +3461,30 @@
       <c r="CG18" s="10">
         <v>7949.8504290503433</v>
       </c>
-      <c r="CH18" s="26">
+      <c r="CH18" s="10">
         <v>6340.8829821031732</v>
       </c>
-      <c r="CI18" s="26">
+      <c r="CI18" s="10">
         <v>8380.1096069851701</v>
       </c>
-      <c r="CJ18" s="26">
+      <c r="CJ18" s="10">
         <v>7680.0595135464391</v>
       </c>
-      <c r="CK18" s="26">
+      <c r="CK18" s="10">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="26">
+      <c r="CL18" s="10">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="26">
+      <c r="CM18" s="10">
         <v>7193.15854990965</v>
       </c>
-      <c r="CN18" s="26">
-        <v>8944.1661881249383</v>
-      </c>
-      <c r="CO18" s="11"/>
+      <c r="CN18" s="10">
+        <v>9578.5690716619501</v>
+      </c>
+      <c r="CO18" s="10">
+        <v>9190.7326090532115</v>
+      </c>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
@@ -3786,28 +3801,30 @@
       <c r="CG19" s="10">
         <v>14312.987210784406</v>
       </c>
-      <c r="CH19" s="26">
+      <c r="CH19" s="10">
         <v>7633.9947160214942</v>
       </c>
-      <c r="CI19" s="26">
+      <c r="CI19" s="10">
         <v>6584.5713011930566</v>
       </c>
-      <c r="CJ19" s="26">
+      <c r="CJ19" s="10">
         <v>6454.0482820084544</v>
       </c>
-      <c r="CK19" s="26">
+      <c r="CK19" s="10">
         <v>14666.738397941102</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="10">
         <v>12921.730329943504</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="10">
         <v>13450.103221377174</v>
       </c>
-      <c r="CN19" s="26">
-        <v>13083.426909628357</v>
-      </c>
-      <c r="CO19" s="11"/>
+      <c r="CN19" s="10">
+        <v>15597.827693666735</v>
+      </c>
+      <c r="CO19" s="10">
+        <v>31545.894643548243</v>
+      </c>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
@@ -3953,14 +3970,14 @@
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
       <c r="CG20" s="12"/>
-      <c r="CH20" s="11"/>
-      <c r="CI20" s="11"/>
-      <c r="CJ20" s="11"/>
-      <c r="CK20" s="11"/>
-      <c r="CL20" s="11"/>
-      <c r="CM20" s="11"/>
-      <c r="CN20" s="11"/>
-      <c r="CO20" s="11"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
       <c r="CP20" s="11"/>
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
@@ -4277,28 +4294,30 @@
       <c r="CG21" s="15">
         <v>259162.18962816379</v>
       </c>
-      <c r="CH21" s="14">
+      <c r="CH21" s="15">
         <v>228563.18128961173</v>
       </c>
-      <c r="CI21" s="14">
+      <c r="CI21" s="15">
         <v>239508.29737906365</v>
       </c>
-      <c r="CJ21" s="14">
+      <c r="CJ21" s="15">
         <v>250501.12626782805</v>
       </c>
-      <c r="CK21" s="14">
+      <c r="CK21" s="15">
         <v>303723.94911543583</v>
       </c>
-      <c r="CL21" s="14">
+      <c r="CL21" s="15">
         <v>320317.63073677535</v>
       </c>
-      <c r="CM21" s="14">
+      <c r="CM21" s="15">
         <v>332974.94291878171</v>
       </c>
-      <c r="CN21" s="14">
-        <v>399573.20407284418</v>
-      </c>
-      <c r="CO21" s="11"/>
+      <c r="CN21" s="15">
+        <v>401119.0007944543</v>
+      </c>
+      <c r="CO21" s="15">
+        <v>472850.2335967801</v>
+      </c>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
       <c r="CR21" s="11"/>
@@ -4445,13 +4464,14 @@
       <c r="CE22" s="17"/>
       <c r="CF22" s="17"/>
       <c r="CG22" s="17"/>
-      <c r="CH22" s="16"/>
-      <c r="CI22" s="16"/>
-      <c r="CJ22" s="16"/>
-      <c r="CK22" s="16"/>
-      <c r="CL22" s="16"/>
-      <c r="CM22" s="16"/>
-      <c r="CN22" s="16"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4543,14 +4563,14 @@
       <c r="CE24" s="12"/>
       <c r="CF24" s="12"/>
       <c r="CG24" s="12"/>
-      <c r="CH24" s="11"/>
-      <c r="CI24" s="11"/>
-      <c r="CJ24" s="11"/>
-      <c r="CK24" s="11"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
+      <c r="CH24" s="12"/>
+      <c r="CI24" s="12"/>
+      <c r="CJ24" s="12"/>
+      <c r="CK24" s="12"/>
+      <c r="CL24" s="12"/>
+      <c r="CM24" s="12"/>
+      <c r="CN24" s="12"/>
+      <c r="CO24" s="12"/>
       <c r="CP24" s="11"/>
       <c r="CQ24" s="11"/>
       <c r="CR24" s="11"/>
@@ -4696,14 +4716,14 @@
       <c r="CE25" s="12"/>
       <c r="CF25" s="12"/>
       <c r="CG25" s="12"/>
-      <c r="CH25" s="11"/>
-      <c r="CI25" s="11"/>
-      <c r="CJ25" s="11"/>
-      <c r="CK25" s="11"/>
-      <c r="CL25" s="11"/>
-      <c r="CM25" s="11"/>
-      <c r="CN25" s="11"/>
-      <c r="CO25" s="11"/>
+      <c r="CH25" s="12"/>
+      <c r="CI25" s="12"/>
+      <c r="CJ25" s="12"/>
+      <c r="CK25" s="12"/>
+      <c r="CL25" s="12"/>
+      <c r="CM25" s="12"/>
+      <c r="CN25" s="12"/>
+      <c r="CO25" s="12"/>
       <c r="CP25" s="11"/>
       <c r="CQ25" s="11"/>
       <c r="CR25" s="11"/>
@@ -4776,7 +4796,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4786,7 +4806,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -4796,143 +4816,144 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <v>2000</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26">
         <v>2001</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26">
         <v>2002</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28">
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26">
         <v>2003</v>
       </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28">
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26">
         <v>2004</v>
       </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28">
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26">
         <v>2005</v>
       </c>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28">
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26">
         <v>2006</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28">
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26">
         <v>2007</v>
       </c>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28">
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26">
         <v>2008</v>
       </c>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28">
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26">
         <v>2009</v>
       </c>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28">
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28">
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26">
         <v>2011</v>
       </c>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28">
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26">
         <v>2012</v>
       </c>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28">
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26">
         <v>2013</v>
       </c>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
-      <c r="BE34" s="28"/>
-      <c r="BF34" s="28">
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26">
         <v>2014</v>
       </c>
-      <c r="BG34" s="28"/>
-      <c r="BH34" s="28"/>
-      <c r="BI34" s="28"/>
-      <c r="BJ34" s="28">
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26">
         <v>2015</v>
       </c>
-      <c r="BK34" s="28"/>
-      <c r="BL34" s="28"/>
-      <c r="BM34" s="28"/>
-      <c r="BN34" s="28">
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26">
         <v>2016</v>
       </c>
-      <c r="BO34" s="28"/>
-      <c r="BP34" s="28"/>
-      <c r="BQ34" s="28"/>
-      <c r="BR34" s="28">
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
+      <c r="BR34" s="26">
         <v>2017</v>
       </c>
-      <c r="BS34" s="28"/>
-      <c r="BT34" s="28"/>
-      <c r="BU34" s="28"/>
-      <c r="BV34" s="30">
+      <c r="BS34" s="26"/>
+      <c r="BT34" s="26"/>
+      <c r="BU34" s="26"/>
+      <c r="BV34" s="27">
         <v>2018</v>
       </c>
-      <c r="BW34" s="30"/>
-      <c r="BX34" s="30"/>
-      <c r="BY34" s="30"/>
-      <c r="BZ34" s="30">
+      <c r="BW34" s="27"/>
+      <c r="BX34" s="27"/>
+      <c r="BY34" s="27"/>
+      <c r="BZ34" s="27">
         <v>2019</v>
       </c>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="30">
+      <c r="CA34" s="27"/>
+      <c r="CB34" s="27"/>
+      <c r="CC34" s="27"/>
+      <c r="CD34" s="27">
         <v>2020</v>
       </c>
-      <c r="CE34" s="30"/>
-      <c r="CF34" s="30"/>
-      <c r="CG34" s="30"/>
-      <c r="CH34" s="29">
+      <c r="CE34" s="27"/>
+      <c r="CF34" s="27"/>
+      <c r="CG34" s="27"/>
+      <c r="CH34" s="27">
         <v>2021</v>
       </c>
-      <c r="CI34" s="29"/>
-      <c r="CJ34" s="29"/>
-      <c r="CK34" s="29"/>
-      <c r="CL34" s="29">
+      <c r="CI34" s="27"/>
+      <c r="CJ34" s="27"/>
+      <c r="CK34" s="27"/>
+      <c r="CL34" s="27">
         <v>2022</v>
       </c>
-      <c r="CM34" s="29"/>
-      <c r="CN34" s="29"/>
+      <c r="CM34" s="27"/>
+      <c r="CN34" s="27"/>
+      <c r="CO34" s="27"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5188,26 +5209,29 @@
       <c r="CG35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="7" t="s">
+      <c r="CH35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="7" t="s">
+      <c r="CI35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CJ35" s="7" t="s">
+      <c r="CJ35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CK35" s="7" t="s">
+      <c r="CK35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="7" t="s">
+      <c r="CL35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="7" t="s">
+      <c r="CM35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="7" t="s">
+      <c r="CN35" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CO35" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5469,28 +5493,30 @@
       <c r="CG37" s="10">
         <v>55772.422902689606</v>
       </c>
-      <c r="CH37" s="26">
+      <c r="CH37" s="10">
         <v>48469.24732577696</v>
       </c>
-      <c r="CI37" s="26">
+      <c r="CI37" s="10">
         <v>49847.290393522198</v>
       </c>
-      <c r="CJ37" s="26">
+      <c r="CJ37" s="10">
         <v>65274.534079568817</v>
       </c>
-      <c r="CK37" s="26">
+      <c r="CK37" s="10">
         <v>71475.490688452279</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="10">
         <v>63524.930677656928</v>
       </c>
-      <c r="CM37" s="26">
+      <c r="CM37" s="10">
         <v>64007.189112314896</v>
       </c>
-      <c r="CN37" s="26">
-        <v>97100.878921600204</v>
-      </c>
-      <c r="CO37" s="11"/>
+      <c r="CN37" s="10">
+        <v>95713.920271853422</v>
+      </c>
+      <c r="CO37" s="10">
+        <v>93353.706819826039</v>
+      </c>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="11"/>
       <c r="CR37" s="11"/>
@@ -5807,28 +5833,30 @@
       <c r="CG38" s="10">
         <v>8554.3589097095992</v>
       </c>
-      <c r="CH38" s="26">
+      <c r="CH38" s="10">
         <v>23041.035088763867</v>
       </c>
-      <c r="CI38" s="26">
+      <c r="CI38" s="10">
         <v>24431.872116757837</v>
       </c>
-      <c r="CJ38" s="26">
+      <c r="CJ38" s="10">
         <v>18925.644780846895</v>
       </c>
-      <c r="CK38" s="26">
+      <c r="CK38" s="10">
         <v>11892.117955521602</v>
       </c>
-      <c r="CL38" s="26">
+      <c r="CL38" s="10">
         <v>29732.430998115196</v>
       </c>
-      <c r="CM38" s="26">
+      <c r="CM38" s="10">
         <v>28704.906341587925</v>
       </c>
-      <c r="CN38" s="26">
-        <v>24092.243165828222</v>
-      </c>
-      <c r="CO38" s="11"/>
+      <c r="CN38" s="10">
+        <v>23909.170176036183</v>
+      </c>
+      <c r="CO38" s="10">
+        <v>11905.285128873149</v>
+      </c>
       <c r="CP38" s="11"/>
       <c r="CQ38" s="11"/>
       <c r="CR38" s="11"/>
@@ -6145,28 +6173,30 @@
       <c r="CG39" s="10">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="26">
+      <c r="CH39" s="10">
         <v>46518.069333722618</v>
       </c>
-      <c r="CI39" s="26">
+      <c r="CI39" s="10">
         <v>40240.940665961825</v>
       </c>
-      <c r="CJ39" s="26">
+      <c r="CJ39" s="10">
         <v>68168.002215334855</v>
       </c>
-      <c r="CK39" s="26">
+      <c r="CK39" s="10">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="26">
+      <c r="CL39" s="10">
         <v>77590.766175736702</v>
       </c>
-      <c r="CM39" s="26">
+      <c r="CM39" s="10">
         <v>77256.728313702624</v>
       </c>
-      <c r="CN39" s="26">
-        <v>121051.83917505835</v>
-      </c>
-      <c r="CO39" s="11"/>
+      <c r="CN39" s="10">
+        <v>121232.2516912953</v>
+      </c>
+      <c r="CO39" s="10">
+        <v>181359.23075887191</v>
+      </c>
       <c r="CP39" s="11"/>
       <c r="CQ39" s="11"/>
       <c r="CR39" s="11"/>
@@ -6483,28 +6513,30 @@
       <c r="CG40" s="10">
         <v>5009.4938772169016</v>
       </c>
-      <c r="CH40" s="26">
+      <c r="CH40" s="10">
         <v>5679.1337296377524</v>
       </c>
-      <c r="CI40" s="26">
+      <c r="CI40" s="10">
         <v>4507.0288915022302</v>
       </c>
-      <c r="CJ40" s="26">
+      <c r="CJ40" s="10">
         <v>4854.7731274196631</v>
       </c>
-      <c r="CK40" s="26">
+      <c r="CK40" s="10">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="26">
+      <c r="CL40" s="10">
         <v>5500.2620241625873</v>
       </c>
-      <c r="CM40" s="26">
+      <c r="CM40" s="10">
         <v>4290.0302877335871</v>
       </c>
-      <c r="CN40" s="26">
-        <v>4841.3339037140422</v>
-      </c>
-      <c r="CO40" s="11"/>
+      <c r="CN40" s="10">
+        <v>4864.2388164691256</v>
+      </c>
+      <c r="CO40" s="10">
+        <v>4791.1653424327533</v>
+      </c>
       <c r="CP40" s="11"/>
       <c r="CQ40" s="11"/>
       <c r="CR40" s="11"/>
@@ -6821,28 +6853,30 @@
       <c r="CG41" s="10">
         <v>18950.325767817922</v>
       </c>
-      <c r="CH41" s="26">
+      <c r="CH41" s="10">
         <v>30857.729259048752</v>
       </c>
-      <c r="CI41" s="26">
+      <c r="CI41" s="10">
         <v>29358.325947937912</v>
       </c>
-      <c r="CJ41" s="26">
+      <c r="CJ41" s="10">
         <v>19898.02283507834</v>
       </c>
-      <c r="CK41" s="26">
+      <c r="CK41" s="10">
         <v>22526.775377773323</v>
       </c>
-      <c r="CL41" s="26">
+      <c r="CL41" s="10">
         <v>27508.056124545346</v>
       </c>
-      <c r="CM41" s="26">
+      <c r="CM41" s="10">
         <v>19166.926178276852</v>
       </c>
-      <c r="CN41" s="26">
-        <v>22230.391925483378</v>
-      </c>
-      <c r="CO41" s="11"/>
+      <c r="CN41" s="10">
+        <v>24075.589523195202</v>
+      </c>
+      <c r="CO41" s="10">
+        <v>26392.548962032939</v>
+      </c>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
       <c r="CR41" s="11"/>
@@ -7159,28 +7193,30 @@
       <c r="CG42" s="10">
         <v>58293.603334826606</v>
       </c>
-      <c r="CH42" s="26">
+      <c r="CH42" s="10">
         <v>79362.262446508073</v>
       </c>
-      <c r="CI42" s="26">
+      <c r="CI42" s="10">
         <v>55375.311527468963</v>
       </c>
-      <c r="CJ42" s="26">
+      <c r="CJ42" s="10">
         <v>54854.538198362068</v>
       </c>
-      <c r="CK42" s="26">
+      <c r="CK42" s="10">
         <v>63856.299711898791</v>
       </c>
-      <c r="CL42" s="26">
+      <c r="CL42" s="10">
         <v>104673.93880912616</v>
       </c>
-      <c r="CM42" s="26">
+      <c r="CM42" s="10">
         <v>73720.123666276195</v>
       </c>
-      <c r="CN42" s="26">
-        <v>90876.772643771081</v>
-      </c>
-      <c r="CO42" s="11"/>
+      <c r="CN42" s="10">
+        <v>88438.723883617175</v>
+      </c>
+      <c r="CO42" s="10">
+        <v>85923.98882392743</v>
+      </c>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
       <c r="CR42" s="11"/>
@@ -7497,28 +7533,30 @@
       <c r="CG43" s="10">
         <v>7551.3426498558965</v>
       </c>
-      <c r="CH43" s="26">
+      <c r="CH43" s="10">
         <v>7473.9852212926062</v>
       </c>
-      <c r="CI43" s="26">
+      <c r="CI43" s="10">
         <v>7388.7698321664839</v>
       </c>
-      <c r="CJ43" s="26">
+      <c r="CJ43" s="10">
         <v>7055.18510035081</v>
       </c>
-      <c r="CK43" s="26">
+      <c r="CK43" s="10">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="26">
+      <c r="CL43" s="10">
         <v>8534.4574135530274</v>
       </c>
-      <c r="CM43" s="26">
+      <c r="CM43" s="10">
         <v>5990.3662319533241</v>
       </c>
-      <c r="CN43" s="26">
-        <v>8146.2033595134199</v>
-      </c>
-      <c r="CO43" s="11"/>
+      <c r="CN43" s="10">
+        <v>8722.4214166068523</v>
+      </c>
+      <c r="CO43" s="10">
+        <v>8185.6170962299448</v>
+      </c>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
       <c r="CR43" s="11"/>
@@ -7835,28 +7873,30 @@
       <c r="CG44" s="10">
         <v>13688.576578580429</v>
       </c>
-      <c r="CH44" s="26">
+      <c r="CH44" s="10">
         <v>9061.8605375509469</v>
       </c>
-      <c r="CI44" s="26">
+      <c r="CI44" s="10">
         <v>5840.6722241052976</v>
       </c>
-      <c r="CJ44" s="26">
+      <c r="CJ44" s="10">
         <v>5966.7813445371357</v>
       </c>
-      <c r="CK44" s="26">
+      <c r="CK44" s="10">
         <v>13560.490219946529</v>
       </c>
-      <c r="CL44" s="26">
+      <c r="CL44" s="10">
         <v>14809.684861557245</v>
       </c>
-      <c r="CM44" s="26">
+      <c r="CM44" s="10">
         <v>11268.659326397717</v>
       </c>
-      <c r="CN44" s="26">
-        <v>11992.258632886425</v>
-      </c>
-      <c r="CO44" s="11"/>
+      <c r="CN44" s="10">
+        <v>14294.357344158865</v>
+      </c>
+      <c r="CO44" s="10">
+        <v>28288.305278259773</v>
+      </c>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
       <c r="CR44" s="11"/>
@@ -8002,14 +8042,14 @@
       <c r="CE45" s="12"/>
       <c r="CF45" s="12"/>
       <c r="CG45" s="12"/>
-      <c r="CH45" s="11"/>
-      <c r="CI45" s="11"/>
-      <c r="CJ45" s="11"/>
-      <c r="CK45" s="11"/>
-      <c r="CL45" s="11"/>
-      <c r="CM45" s="11"/>
-      <c r="CN45" s="11"/>
-      <c r="CO45" s="11"/>
+      <c r="CH45" s="12"/>
+      <c r="CI45" s="12"/>
+      <c r="CJ45" s="12"/>
+      <c r="CK45" s="12"/>
+      <c r="CL45" s="12"/>
+      <c r="CM45" s="12"/>
+      <c r="CN45" s="12"/>
+      <c r="CO45" s="12"/>
       <c r="CP45" s="11"/>
       <c r="CQ45" s="11"/>
       <c r="CR45" s="11"/>
@@ -8326,28 +8366,30 @@
       <c r="CG46" s="15">
         <v>267210.21981634409</v>
       </c>
-      <c r="CH46" s="14">
+      <c r="CH46" s="15">
         <v>250463.32294230157</v>
       </c>
-      <c r="CI46" s="14">
+      <c r="CI46" s="15">
         <v>216990.21159942276</v>
       </c>
-      <c r="CJ46" s="14">
+      <c r="CJ46" s="15">
         <v>244997.48168149858</v>
       </c>
-      <c r="CK46" s="14">
+      <c r="CK46" s="15">
         <v>298720.41114807234</v>
       </c>
-      <c r="CL46" s="14">
+      <c r="CL46" s="15">
         <v>331874.52708445321</v>
       </c>
-      <c r="CM46" s="14">
+      <c r="CM46" s="15">
         <v>284404.92945824313</v>
       </c>
-      <c r="CN46" s="14">
-        <v>380331.92172785511</v>
-      </c>
-      <c r="CO46" s="11"/>
+      <c r="CN46" s="15">
+        <v>381250.67312323215</v>
+      </c>
+      <c r="CO46" s="15">
+        <v>440199.84821045393</v>
+      </c>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
       <c r="CR46" s="11"/>
@@ -8494,13 +8536,14 @@
       <c r="CE47" s="17"/>
       <c r="CF47" s="17"/>
       <c r="CG47" s="17"/>
-      <c r="CH47" s="16"/>
-      <c r="CI47" s="16"/>
-      <c r="CJ47" s="16"/>
-      <c r="CK47" s="16"/>
-      <c r="CL47" s="16"/>
-      <c r="CM47" s="16"/>
-      <c r="CN47" s="16"/>
+      <c r="CH47" s="17"/>
+      <c r="CI47" s="17"/>
+      <c r="CJ47" s="17"/>
+      <c r="CK47" s="17"/>
+      <c r="CL47" s="17"/>
+      <c r="CM47" s="17"/>
+      <c r="CN47" s="17"/>
+      <c r="CO47" s="17"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8592,14 +8635,14 @@
       <c r="CE49" s="12"/>
       <c r="CF49" s="12"/>
       <c r="CG49" s="12"/>
-      <c r="CH49" s="11"/>
-      <c r="CI49" s="11"/>
-      <c r="CJ49" s="11"/>
-      <c r="CK49" s="11"/>
-      <c r="CL49" s="11"/>
-      <c r="CM49" s="11"/>
-      <c r="CN49" s="11"/>
-      <c r="CO49" s="11"/>
+      <c r="CH49" s="12"/>
+      <c r="CI49" s="12"/>
+      <c r="CJ49" s="12"/>
+      <c r="CK49" s="12"/>
+      <c r="CL49" s="12"/>
+      <c r="CM49" s="12"/>
+      <c r="CN49" s="12"/>
+      <c r="CO49" s="12"/>
       <c r="CP49" s="11"/>
       <c r="CQ49" s="11"/>
       <c r="CR49" s="11"/>
@@ -8745,14 +8788,14 @@
       <c r="CE50" s="12"/>
       <c r="CF50" s="12"/>
       <c r="CG50" s="12"/>
-      <c r="CH50" s="11"/>
-      <c r="CI50" s="11"/>
-      <c r="CJ50" s="11"/>
-      <c r="CK50" s="11"/>
-      <c r="CL50" s="11"/>
-      <c r="CM50" s="11"/>
-      <c r="CN50" s="11"/>
-      <c r="CO50" s="11"/>
+      <c r="CH50" s="12"/>
+      <c r="CI50" s="12"/>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
+      <c r="CO50" s="12"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
@@ -8825,7 +8868,7 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
@@ -8835,7 +8878,7 @@
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
@@ -8845,141 +8888,142 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29" t="s">
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29" t="s">
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29" t="s">
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29" t="s">
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29" t="s">
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29" t="s">
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29" t="s">
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29" t="s">
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="28"/>
+      <c r="AL59" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29" t="s">
+      <c r="AM59" s="28"/>
+      <c r="AN59" s="28"/>
+      <c r="AO59" s="28"/>
+      <c r="AP59" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29" t="s">
+      <c r="AQ59" s="28"/>
+      <c r="AR59" s="28"/>
+      <c r="AS59" s="28"/>
+      <c r="AT59" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="29"/>
-      <c r="AW59" s="29"/>
-      <c r="AX59" s="29" t="s">
+      <c r="AU59" s="28"/>
+      <c r="AV59" s="28"/>
+      <c r="AW59" s="28"/>
+      <c r="AX59" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="29"/>
-      <c r="AZ59" s="29"/>
-      <c r="BA59" s="29"/>
-      <c r="BB59" s="29" t="s">
+      <c r="AY59" s="28"/>
+      <c r="AZ59" s="28"/>
+      <c r="BA59" s="28"/>
+      <c r="BB59" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="29"/>
-      <c r="BD59" s="29"/>
-      <c r="BE59" s="29"/>
-      <c r="BF59" s="29" t="s">
+      <c r="BC59" s="28"/>
+      <c r="BD59" s="28"/>
+      <c r="BE59" s="28"/>
+      <c r="BF59" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="29"/>
-      <c r="BH59" s="29"/>
-      <c r="BI59" s="29"/>
-      <c r="BJ59" s="29" t="s">
+      <c r="BG59" s="28"/>
+      <c r="BH59" s="28"/>
+      <c r="BI59" s="28"/>
+      <c r="BJ59" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="29"/>
-      <c r="BL59" s="29"/>
-      <c r="BM59" s="29"/>
-      <c r="BN59" s="29" t="s">
+      <c r="BK59" s="28"/>
+      <c r="BL59" s="28"/>
+      <c r="BM59" s="28"/>
+      <c r="BN59" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="29"/>
-      <c r="BP59" s="29"/>
-      <c r="BQ59" s="29"/>
-      <c r="BR59" s="29" t="s">
+      <c r="BO59" s="28"/>
+      <c r="BP59" s="28"/>
+      <c r="BQ59" s="28"/>
+      <c r="BR59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="29"/>
-      <c r="BT59" s="29"/>
-      <c r="BU59" s="29"/>
-      <c r="BV59" s="28" t="s">
+      <c r="BS59" s="28"/>
+      <c r="BT59" s="28"/>
+      <c r="BU59" s="28"/>
+      <c r="BV59" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="28"/>
-      <c r="BX59" s="28"/>
-      <c r="BY59" s="28"/>
-      <c r="BZ59" s="28" t="s">
+      <c r="BW59" s="26"/>
+      <c r="BX59" s="26"/>
+      <c r="BY59" s="26"/>
+      <c r="BZ59" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="28"/>
-      <c r="CB59" s="28"/>
-      <c r="CC59" s="28"/>
-      <c r="CD59" s="28" t="s">
+      <c r="CA59" s="26"/>
+      <c r="CB59" s="26"/>
+      <c r="CC59" s="26"/>
+      <c r="CD59" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="28"/>
-      <c r="CF59" s="28"/>
-      <c r="CG59" s="28"/>
-      <c r="CH59" s="29" t="s">
+      <c r="CE59" s="26"/>
+      <c r="CF59" s="26"/>
+      <c r="CG59" s="26"/>
+      <c r="CH59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="29"/>
-      <c r="CJ59" s="29"/>
-      <c r="CK59" s="4"/>
-      <c r="CL59" s="29"/>
-      <c r="CM59" s="29"/>
-      <c r="CN59" s="4"/>
+      <c r="CI59" s="26"/>
+      <c r="CJ59" s="26"/>
+      <c r="CK59" s="26"/>
+      <c r="CL59" s="26"/>
+      <c r="CM59" s="26"/>
+      <c r="CN59" s="26"/>
+      <c r="CO59" s="26"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9244,10 +9288,13 @@
       <c r="CJ60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK60" s="7"/>
+      <c r="CK60" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="CL60" s="7"/>
       <c r="CM60" s="7"/>
       <c r="CN60" s="7"/>
+      <c r="CO60" s="7"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -9508,20 +9555,22 @@
       <c r="CG62" s="21">
         <v>39.827467238214808</v>
       </c>
-      <c r="CH62" s="20">
+      <c r="CH62" s="21">
         <v>38.641032648675463</v>
       </c>
-      <c r="CI62" s="20">
+      <c r="CI62" s="21">
         <v>39.189219583345647</v>
       </c>
-      <c r="CJ62" s="20">
-        <v>56.79643567967193</v>
-      </c>
-      <c r="CK62" s="20"/>
-      <c r="CL62" s="20"/>
-      <c r="CM62" s="20"/>
-      <c r="CN62" s="20"/>
-      <c r="CO62" s="11"/>
+      <c r="CJ62" s="21">
+        <v>55.54983680898286</v>
+      </c>
+      <c r="CK62" s="21">
+        <v>42.073214299874223</v>
+      </c>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CN62" s="21"/>
+      <c r="CO62" s="21"/>
       <c r="CP62" s="11"/>
       <c r="CQ62" s="11"/>
       <c r="CR62" s="11"/>
@@ -9834,20 +9883,22 @@
       <c r="CG63" s="21">
         <v>43.799674558507917</v>
       </c>
-      <c r="CH63" s="20">
+      <c r="CH63" s="21">
         <v>33.649952746229985</v>
       </c>
-      <c r="CI63" s="20">
+      <c r="CI63" s="21">
         <v>24.390749664560033</v>
       </c>
-      <c r="CJ63" s="20">
-        <v>28.397034430365863</v>
-      </c>
-      <c r="CK63" s="20"/>
-      <c r="CL63" s="20"/>
-      <c r="CM63" s="20"/>
-      <c r="CN63" s="20"/>
-      <c r="CO63" s="11"/>
+      <c r="CJ63" s="21">
+        <v>27.444534564427059</v>
+      </c>
+      <c r="CK63" s="21">
+        <v>3.2186929483373632</v>
+      </c>
+      <c r="CL63" s="21"/>
+      <c r="CM63" s="21"/>
+      <c r="CN63" s="21"/>
+      <c r="CO63" s="21"/>
       <c r="CP63" s="11"/>
       <c r="CQ63" s="11"/>
       <c r="CR63" s="11"/>
@@ -10160,20 +10211,22 @@
       <c r="CG64" s="21">
         <v>5.2938014109528524</v>
       </c>
-      <c r="CH64" s="20">
+      <c r="CH64" s="21">
         <v>74.663035505953246</v>
       </c>
-      <c r="CI64" s="20">
+      <c r="CI64" s="21">
         <v>104.18581975564135</v>
       </c>
-      <c r="CJ64" s="20">
+      <c r="CJ64" s="21">
         <v>87.03068617201626</v>
       </c>
-      <c r="CK64" s="20"/>
-      <c r="CL64" s="20"/>
-      <c r="CM64" s="20"/>
-      <c r="CN64" s="20"/>
-      <c r="CO64" s="11"/>
+      <c r="CK64" s="21">
+        <v>94.660413369411742</v>
+      </c>
+      <c r="CL64" s="21"/>
+      <c r="CM64" s="21"/>
+      <c r="CN64" s="21"/>
+      <c r="CO64" s="21"/>
       <c r="CP64" s="11"/>
       <c r="CQ64" s="11"/>
       <c r="CR64" s="11"/>
@@ -10486,20 +10539,22 @@
       <c r="CG65" s="21">
         <v>0.66319000617347967</v>
       </c>
-      <c r="CH65" s="20">
+      <c r="CH65" s="21">
         <v>0.3094060620419441</v>
       </c>
-      <c r="CI65" s="20">
+      <c r="CI65" s="21">
         <v>0.77637067602786658</v>
       </c>
-      <c r="CJ65" s="20">
-        <v>0.58298891474777292</v>
-      </c>
-      <c r="CK65" s="20"/>
-      <c r="CL65" s="20"/>
-      <c r="CM65" s="20"/>
-      <c r="CN65" s="20"/>
-      <c r="CO65" s="11"/>
+      <c r="CJ65" s="21">
+        <v>1.077233479551893</v>
+      </c>
+      <c r="CK65" s="21">
+        <v>1.3305837334179245</v>
+      </c>
+      <c r="CL65" s="21"/>
+      <c r="CM65" s="21"/>
+      <c r="CN65" s="21"/>
+      <c r="CO65" s="21"/>
       <c r="CP65" s="11"/>
       <c r="CQ65" s="11"/>
       <c r="CR65" s="11"/>
@@ -10812,20 +10867,22 @@
       <c r="CG66" s="21">
         <v>22.961318402961922</v>
       </c>
-      <c r="CH66" s="20">
+      <c r="CH66" s="21">
         <v>-7.6713867434033176</v>
       </c>
-      <c r="CI66" s="20">
+      <c r="CI66" s="21">
         <v>-30.879021143061991</v>
       </c>
-      <c r="CJ66" s="20">
-        <v>12.684876770147667</v>
-      </c>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="20"/>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="20"/>
-      <c r="CO66" s="11"/>
+      <c r="CJ66" s="21">
+        <v>22.060291321910313</v>
+      </c>
+      <c r="CK66" s="21">
+        <v>20.798090636702682</v>
+      </c>
+      <c r="CL66" s="21"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
       <c r="CP66" s="11"/>
       <c r="CQ66" s="11"/>
       <c r="CR66" s="11"/>
@@ -11138,20 +11195,22 @@
       <c r="CG67" s="21">
         <v>13.310201026319547</v>
       </c>
-      <c r="CH67" s="20">
+      <c r="CH67" s="21">
         <v>36.604467199614646</v>
       </c>
-      <c r="CI67" s="20">
+      <c r="CI67" s="21">
         <v>40.947887167378695</v>
       </c>
-      <c r="CJ67" s="20">
-        <v>67.097045728304892</v>
-      </c>
-      <c r="CK67" s="20"/>
-      <c r="CL67" s="20"/>
-      <c r="CM67" s="20"/>
-      <c r="CN67" s="20"/>
-      <c r="CO67" s="11"/>
+      <c r="CJ67" s="21">
+        <v>62.643720759555379</v>
+      </c>
+      <c r="CK67" s="21">
+        <v>38.735768297708717</v>
+      </c>
+      <c r="CL67" s="21"/>
+      <c r="CM67" s="21"/>
+      <c r="CN67" s="21"/>
+      <c r="CO67" s="21"/>
       <c r="CP67" s="11"/>
       <c r="CQ67" s="11"/>
       <c r="CR67" s="11"/>
@@ -11464,20 +11523,22 @@
       <c r="CG68" s="21">
         <v>24.094817340864665</v>
       </c>
-      <c r="CH68" s="20">
+      <c r="CH68" s="21">
         <v>18.267129506581156</v>
       </c>
-      <c r="CI68" s="20">
+      <c r="CI68" s="21">
         <v>-14.163908501699623</v>
       </c>
-      <c r="CJ68" s="20">
-        <v>16.459594777212459</v>
-      </c>
-      <c r="CK68" s="20"/>
-      <c r="CL68" s="20"/>
-      <c r="CM68" s="20"/>
-      <c r="CN68" s="20"/>
-      <c r="CO68" s="11"/>
+      <c r="CJ68" s="21">
+        <v>24.719984978851173</v>
+      </c>
+      <c r="CK68" s="21">
+        <v>-6.8382733279975412</v>
+      </c>
+      <c r="CL68" s="21"/>
+      <c r="CM68" s="21"/>
+      <c r="CN68" s="21"/>
+      <c r="CO68" s="21"/>
       <c r="CP68" s="11"/>
       <c r="CQ68" s="11"/>
       <c r="CR68" s="11"/>
@@ -11790,20 +11851,22 @@
       <c r="CG69" s="21">
         <v>2.4715398815570637</v>
       </c>
-      <c r="CH69" s="20">
+      <c r="CH69" s="21">
         <v>69.265644143355502</v>
       </c>
-      <c r="CI69" s="20">
+      <c r="CI69" s="21">
         <v>104.26695385529737</v>
       </c>
-      <c r="CJ69" s="20">
-        <v>102.71659488665753</v>
-      </c>
-      <c r="CK69" s="20"/>
-      <c r="CL69" s="20"/>
-      <c r="CM69" s="20"/>
-      <c r="CN69" s="20"/>
-      <c r="CO69" s="11"/>
+      <c r="CJ69" s="21">
+        <v>141.67510083783878</v>
+      </c>
+      <c r="CK69" s="21">
+        <v>115.08459336792026</v>
+      </c>
+      <c r="CL69" s="21"/>
+      <c r="CM69" s="21"/>
+      <c r="CN69" s="21"/>
+      <c r="CO69" s="21"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
@@ -11945,14 +12008,14 @@
       <c r="CE70" s="12"/>
       <c r="CF70" s="12"/>
       <c r="CG70" s="12"/>
-      <c r="CH70" s="11"/>
-      <c r="CI70" s="11"/>
-      <c r="CJ70" s="11"/>
-      <c r="CK70" s="11"/>
-      <c r="CL70" s="11"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="11"/>
-      <c r="CO70" s="11"/>
+      <c r="CH70" s="12"/>
+      <c r="CI70" s="12"/>
+      <c r="CJ70" s="12"/>
+      <c r="CK70" s="12"/>
+      <c r="CL70" s="12"/>
+      <c r="CM70" s="12"/>
+      <c r="CN70" s="12"/>
+      <c r="CO70" s="12"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
@@ -12265,20 +12328,22 @@
       <c r="CG71" s="21">
         <v>17.194545065083602</v>
       </c>
-      <c r="CH71" s="20">
+      <c r="CH71" s="21">
         <v>40.144020103964948</v>
       </c>
-      <c r="CI71" s="20">
+      <c r="CI71" s="21">
         <v>39.02438728115996</v>
       </c>
-      <c r="CJ71" s="20">
-        <v>59.509543939388465</v>
-      </c>
-      <c r="CK71" s="20"/>
-      <c r="CL71" s="20"/>
-      <c r="CM71" s="20"/>
-      <c r="CN71" s="20"/>
-      <c r="CO71" s="11"/>
+      <c r="CJ71" s="21">
+        <v>60.126625684544933</v>
+      </c>
+      <c r="CK71" s="21">
+        <v>55.68421093361485</v>
+      </c>
+      <c r="CL71" s="21"/>
+      <c r="CM71" s="21"/>
+      <c r="CN71" s="21"/>
+      <c r="CO71" s="21"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
@@ -12421,13 +12486,14 @@
       <c r="CE72" s="17"/>
       <c r="CF72" s="17"/>
       <c r="CG72" s="17"/>
-      <c r="CH72" s="16"/>
-      <c r="CI72" s="16"/>
-      <c r="CJ72" s="16"/>
-      <c r="CK72" s="16"/>
-      <c r="CL72" s="16"/>
-      <c r="CM72" s="16"/>
-      <c r="CN72" s="16"/>
+      <c r="CH72" s="17"/>
+      <c r="CI72" s="17"/>
+      <c r="CJ72" s="17"/>
+      <c r="CK72" s="17"/>
+      <c r="CL72" s="17"/>
+      <c r="CM72" s="17"/>
+      <c r="CN72" s="17"/>
+      <c r="CO72" s="17"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
@@ -12519,14 +12585,14 @@
       <c r="CE74" s="12"/>
       <c r="CF74" s="12"/>
       <c r="CG74" s="12"/>
-      <c r="CH74" s="11"/>
-      <c r="CI74" s="11"/>
-      <c r="CJ74" s="11"/>
-      <c r="CK74" s="11"/>
-      <c r="CL74" s="11"/>
-      <c r="CM74" s="11"/>
-      <c r="CN74" s="11"/>
-      <c r="CO74" s="11"/>
+      <c r="CH74" s="12"/>
+      <c r="CI74" s="12"/>
+      <c r="CJ74" s="12"/>
+      <c r="CK74" s="12"/>
+      <c r="CL74" s="12"/>
+      <c r="CM74" s="12"/>
+      <c r="CN74" s="12"/>
+      <c r="CO74" s="12"/>
       <c r="CP74" s="11"/>
       <c r="CQ74" s="11"/>
       <c r="CR74" s="11"/>
@@ -12668,14 +12734,14 @@
       <c r="CE75" s="12"/>
       <c r="CF75" s="12"/>
       <c r="CG75" s="12"/>
-      <c r="CH75" s="11"/>
-      <c r="CI75" s="11"/>
-      <c r="CJ75" s="11"/>
-      <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
+      <c r="CH75" s="12"/>
+      <c r="CI75" s="12"/>
+      <c r="CJ75" s="12"/>
+      <c r="CK75" s="12"/>
+      <c r="CL75" s="12"/>
+      <c r="CM75" s="12"/>
+      <c r="CN75" s="12"/>
+      <c r="CO75" s="12"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
@@ -12744,7 +12810,7 @@
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
@@ -12754,7 +12820,7 @@
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
@@ -12764,141 +12830,142 @@
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29" t="s">
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29" t="s">
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29" t="s">
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29" t="s">
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29" t="s">
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29" t="s">
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="29" t="s">
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="29"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="29"/>
-      <c r="AL84" s="29" t="s">
+      <c r="AI84" s="28"/>
+      <c r="AJ84" s="28"/>
+      <c r="AK84" s="28"/>
+      <c r="AL84" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="29"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="29" t="s">
+      <c r="AM84" s="28"/>
+      <c r="AN84" s="28"/>
+      <c r="AO84" s="28"/>
+      <c r="AP84" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="29"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="29" t="s">
+      <c r="AQ84" s="28"/>
+      <c r="AR84" s="28"/>
+      <c r="AS84" s="28"/>
+      <c r="AT84" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="29" t="s">
+      <c r="AU84" s="28"/>
+      <c r="AV84" s="28"/>
+      <c r="AW84" s="28"/>
+      <c r="AX84" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="29"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="29" t="s">
+      <c r="AY84" s="28"/>
+      <c r="AZ84" s="28"/>
+      <c r="BA84" s="28"/>
+      <c r="BB84" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="29"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="29" t="s">
+      <c r="BC84" s="28"/>
+      <c r="BD84" s="28"/>
+      <c r="BE84" s="28"/>
+      <c r="BF84" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="29" t="s">
+      <c r="BG84" s="28"/>
+      <c r="BH84" s="28"/>
+      <c r="BI84" s="28"/>
+      <c r="BJ84" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="29" t="s">
+      <c r="BK84" s="28"/>
+      <c r="BL84" s="28"/>
+      <c r="BM84" s="28"/>
+      <c r="BN84" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="29" t="s">
+      <c r="BO84" s="28"/>
+      <c r="BP84" s="28"/>
+      <c r="BQ84" s="28"/>
+      <c r="BR84" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="28" t="s">
+      <c r="BS84" s="28"/>
+      <c r="BT84" s="28"/>
+      <c r="BU84" s="28"/>
+      <c r="BV84" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="28"/>
-      <c r="BX84" s="28"/>
-      <c r="BY84" s="28"/>
-      <c r="BZ84" s="28" t="s">
+      <c r="BW84" s="26"/>
+      <c r="BX84" s="26"/>
+      <c r="BY84" s="26"/>
+      <c r="BZ84" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="28"/>
-      <c r="CB84" s="28"/>
-      <c r="CC84" s="28"/>
-      <c r="CD84" s="28" t="s">
+      <c r="CA84" s="26"/>
+      <c r="CB84" s="26"/>
+      <c r="CC84" s="26"/>
+      <c r="CD84" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="28"/>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="28"/>
-      <c r="CH84" s="29" t="s">
+      <c r="CE84" s="26"/>
+      <c r="CF84" s="26"/>
+      <c r="CG84" s="26"/>
+      <c r="CH84" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="4"/>
-      <c r="CL84" s="29"/>
-      <c r="CM84" s="29"/>
-      <c r="CN84" s="4"/>
+      <c r="CI84" s="26"/>
+      <c r="CJ84" s="26"/>
+      <c r="CK84" s="26"/>
+      <c r="CL84" s="26"/>
+      <c r="CM84" s="26"/>
+      <c r="CN84" s="26"/>
+      <c r="CO84" s="26"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13154,19 +13221,22 @@
       <c r="CG85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="6" t="s">
+      <c r="CH85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="6" t="s">
+      <c r="CI85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="6" t="s">
+      <c r="CJ85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK85" s="6"/>
-      <c r="CL85" s="6"/>
-      <c r="CM85" s="6"/>
-      <c r="CN85" s="6"/>
+      <c r="CK85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL85" s="7"/>
+      <c r="CM85" s="7"/>
+      <c r="CN85" s="7"/>
+      <c r="CO85" s="7"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
@@ -13427,20 +13497,22 @@
       <c r="CG87" s="21">
         <v>28.155613416976735</v>
       </c>
-      <c r="CH87" s="20">
+      <c r="CH87" s="21">
         <v>31.062341964351162</v>
       </c>
-      <c r="CI87" s="20">
+      <c r="CI87" s="21">
         <v>28.406556518933314</v>
       </c>
-      <c r="CJ87" s="20">
-        <v>48.757674475677589</v>
-      </c>
-      <c r="CK87" s="20"/>
-      <c r="CL87" s="20"/>
-      <c r="CM87" s="20"/>
-      <c r="CN87" s="20"/>
-      <c r="CO87" s="11"/>
+      <c r="CJ87" s="21">
+        <v>46.632866280101496</v>
+      </c>
+      <c r="CK87" s="21">
+        <v>30.60939620091122</v>
+      </c>
+      <c r="CL87" s="21"/>
+      <c r="CM87" s="21"/>
+      <c r="CN87" s="21"/>
+      <c r="CO87" s="21"/>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
@@ -13753,20 +13825,22 @@
       <c r="CG88" s="21">
         <v>39.018225457240163</v>
       </c>
-      <c r="CH88" s="20">
+      <c r="CH88" s="21">
         <v>29.041212270079114</v>
       </c>
-      <c r="CI88" s="20">
+      <c r="CI88" s="21">
         <v>17.48958984563123</v>
       </c>
-      <c r="CJ88" s="20">
-        <v>27.29945766608715</v>
-      </c>
-      <c r="CK88" s="20"/>
-      <c r="CL88" s="20"/>
-      <c r="CM88" s="20"/>
-      <c r="CN88" s="20"/>
-      <c r="CO88" s="11"/>
+      <c r="CJ88" s="21">
+        <v>26.332130043108009</v>
+      </c>
+      <c r="CK88" s="21">
+        <v>0.11072185291797609</v>
+      </c>
+      <c r="CL88" s="21"/>
+      <c r="CM88" s="21"/>
+      <c r="CN88" s="21"/>
+      <c r="CO88" s="21"/>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
@@ -14079,20 +14153,22 @@
       <c r="CG89" s="21">
         <v>2.097655140689497</v>
       </c>
-      <c r="CH89" s="20">
+      <c r="CH89" s="21">
         <v>66.797047442139586</v>
       </c>
-      <c r="CI89" s="20">
+      <c r="CI89" s="21">
         <v>91.985393569715797</v>
       </c>
-      <c r="CJ89" s="20">
-        <v>77.57868096628323</v>
-      </c>
-      <c r="CK89" s="20"/>
-      <c r="CL89" s="20"/>
-      <c r="CM89" s="20"/>
-      <c r="CN89" s="20"/>
-      <c r="CO89" s="11"/>
+      <c r="CJ89" s="21">
+        <v>77.843339618985169</v>
+      </c>
+      <c r="CK89" s="21">
+        <v>78.723140836673167</v>
+      </c>
+      <c r="CL89" s="21"/>
+      <c r="CM89" s="21"/>
+      <c r="CN89" s="21"/>
+      <c r="CO89" s="21"/>
       <c r="CP89" s="11"/>
       <c r="CQ89" s="11"/>
       <c r="CR89" s="11"/>
@@ -14405,20 +14481,22 @@
       <c r="CG90" s="21">
         <v>-2.6839380096825636</v>
       </c>
-      <c r="CH90" s="20">
+      <c r="CH90" s="21">
         <v>-3.1496301018883486</v>
       </c>
-      <c r="CI90" s="20">
+      <c r="CI90" s="21">
         <v>-4.8146707951613621</v>
       </c>
-      <c r="CJ90" s="20">
-        <v>-0.27682495871364665</v>
-      </c>
-      <c r="CK90" s="20"/>
-      <c r="CL90" s="20"/>
-      <c r="CM90" s="20"/>
-      <c r="CN90" s="20"/>
-      <c r="CO90" s="11"/>
+      <c r="CJ90" s="21">
+        <v>0.19497695980889773</v>
+      </c>
+      <c r="CK90" s="21">
+        <v>-1.7205353645836823</v>
+      </c>
+      <c r="CL90" s="21"/>
+      <c r="CM90" s="21"/>
+      <c r="CN90" s="21"/>
+      <c r="CO90" s="21"/>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
@@ -14731,20 +14809,22 @@
       <c r="CG91" s="21">
         <v>18.872760572955684</v>
       </c>
-      <c r="CH91" s="20">
+      <c r="CH91" s="21">
         <v>-10.855215905172756</v>
       </c>
-      <c r="CI91" s="20">
+      <c r="CI91" s="21">
         <v>-34.713831393975951</v>
       </c>
-      <c r="CJ91" s="20">
-        <v>11.721612291515157</v>
-      </c>
-      <c r="CK91" s="20"/>
-      <c r="CL91" s="20"/>
-      <c r="CM91" s="20"/>
-      <c r="CN91" s="20"/>
-      <c r="CO91" s="11"/>
+      <c r="CJ91" s="21">
+        <v>20.994883374805482</v>
+      </c>
+      <c r="CK91" s="21">
+        <v>17.160794296701212</v>
+      </c>
+      <c r="CL91" s="21"/>
+      <c r="CM91" s="21"/>
+      <c r="CN91" s="21"/>
+      <c r="CO91" s="21"/>
       <c r="CP91" s="11"/>
       <c r="CQ91" s="11"/>
       <c r="CR91" s="11"/>
@@ -15057,20 +15137,22 @@
       <c r="CG92" s="21">
         <v>9.542550226516596</v>
       </c>
-      <c r="CH92" s="20">
+      <c r="CH92" s="21">
         <v>31.893844230661557</v>
       </c>
-      <c r="CI92" s="20">
+      <c r="CI92" s="21">
         <v>33.128142547256431</v>
       </c>
-      <c r="CJ92" s="20">
-        <v>65.66864953843438</v>
-      </c>
-      <c r="CK92" s="20"/>
-      <c r="CL92" s="20"/>
-      <c r="CM92" s="20"/>
-      <c r="CN92" s="20"/>
-      <c r="CO92" s="11"/>
+      <c r="CJ92" s="21">
+        <v>61.224078787811067</v>
+      </c>
+      <c r="CK92" s="21">
+        <v>34.55835870789835</v>
+      </c>
+      <c r="CL92" s="21"/>
+      <c r="CM92" s="21"/>
+      <c r="CN92" s="21"/>
+      <c r="CO92" s="21"/>
       <c r="CP92" s="11"/>
       <c r="CQ92" s="11"/>
       <c r="CR92" s="11"/>
@@ -15383,20 +15465,22 @@
       <c r="CG93" s="21">
         <v>19.968569804712928</v>
       </c>
-      <c r="CH93" s="20">
+      <c r="CH93" s="21">
         <v>14.188845185821975</v>
       </c>
-      <c r="CI93" s="20">
+      <c r="CI93" s="21">
         <v>-18.926067964998836</v>
       </c>
-      <c r="CJ93" s="20">
-        <v>15.464062865031863</v>
-      </c>
-      <c r="CK93" s="20"/>
-      <c r="CL93" s="20"/>
-      <c r="CM93" s="20"/>
-      <c r="CN93" s="20"/>
-      <c r="CO93" s="11"/>
+      <c r="CJ93" s="21">
+        <v>23.631361793372946</v>
+      </c>
+      <c r="CK93" s="21">
+        <v>-9.6434236881252957</v>
+      </c>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CN93" s="21"/>
+      <c r="CO93" s="21"/>
       <c r="CP93" s="11"/>
       <c r="CQ93" s="11"/>
       <c r="CR93" s="11"/>
@@ -15709,20 +15793,22 @@
       <c r="CG94" s="21">
         <v>-0.9357171499798369</v>
       </c>
-      <c r="CH94" s="20">
+      <c r="CH94" s="21">
         <v>63.428744022137664</v>
       </c>
-      <c r="CI94" s="20">
+      <c r="CI94" s="21">
         <v>92.934287253620113</v>
       </c>
-      <c r="CJ94" s="20">
-        <v>100.98371199517632</v>
-      </c>
-      <c r="CK94" s="20"/>
-      <c r="CL94" s="20"/>
-      <c r="CM94" s="20"/>
-      <c r="CN94" s="20"/>
-      <c r="CO94" s="11"/>
+      <c r="CJ94" s="21">
+        <v>139.5656304256232</v>
+      </c>
+      <c r="CK94" s="21">
+        <v>108.60827904768269</v>
+      </c>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CN94" s="21"/>
+      <c r="CO94" s="21"/>
       <c r="CP94" s="11"/>
       <c r="CQ94" s="11"/>
       <c r="CR94" s="11"/>
@@ -15864,14 +15950,14 @@
       <c r="CE95" s="12"/>
       <c r="CF95" s="12"/>
       <c r="CG95" s="12"/>
-      <c r="CH95" s="11"/>
-      <c r="CI95" s="11"/>
-      <c r="CJ95" s="11"/>
-      <c r="CK95" s="11"/>
-      <c r="CL95" s="11"/>
-      <c r="CM95" s="11"/>
-      <c r="CN95" s="11"/>
-      <c r="CO95" s="11"/>
+      <c r="CH95" s="12"/>
+      <c r="CI95" s="12"/>
+      <c r="CJ95" s="12"/>
+      <c r="CK95" s="12"/>
+      <c r="CL95" s="12"/>
+      <c r="CM95" s="12"/>
+      <c r="CN95" s="12"/>
+      <c r="CO95" s="12"/>
       <c r="CP95" s="11"/>
       <c r="CQ95" s="11"/>
       <c r="CR95" s="11"/>
@@ -16184,20 +16270,22 @@
       <c r="CG96" s="21">
         <v>11.79228524769205</v>
       </c>
-      <c r="CH96" s="20">
+      <c r="CH96" s="21">
         <v>32.504241813044246</v>
       </c>
-      <c r="CI96" s="20">
+      <c r="CI96" s="21">
         <v>31.068091671928556</v>
       </c>
-      <c r="CJ96" s="20">
-        <v>55.239114752327907</v>
-      </c>
-      <c r="CK96" s="20"/>
-      <c r="CL96" s="20"/>
-      <c r="CM96" s="20"/>
-      <c r="CN96" s="20"/>
-      <c r="CO96" s="11"/>
+      <c r="CJ96" s="21">
+        <v>55.614119176484166</v>
+      </c>
+      <c r="CK96" s="21">
+        <v>47.361824563187213</v>
+      </c>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
       <c r="CP96" s="11"/>
       <c r="CQ96" s="11"/>
       <c r="CR96" s="11"/>
@@ -16340,13 +16428,14 @@
       <c r="CE97" s="17"/>
       <c r="CF97" s="17"/>
       <c r="CG97" s="17"/>
-      <c r="CH97" s="16"/>
-      <c r="CI97" s="16"/>
-      <c r="CJ97" s="16"/>
-      <c r="CK97" s="16"/>
-      <c r="CL97" s="16"/>
-      <c r="CM97" s="16"/>
-      <c r="CN97" s="16"/>
+      <c r="CH97" s="17"/>
+      <c r="CI97" s="17"/>
+      <c r="CJ97" s="17"/>
+      <c r="CK97" s="17"/>
+      <c r="CL97" s="17"/>
+      <c r="CM97" s="17"/>
+      <c r="CN97" s="17"/>
+      <c r="CO97" s="17"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
@@ -16438,14 +16527,14 @@
       <c r="CE99" s="12"/>
       <c r="CF99" s="12"/>
       <c r="CG99" s="12"/>
-      <c r="CH99" s="11"/>
-      <c r="CI99" s="11"/>
-      <c r="CJ99" s="11"/>
-      <c r="CK99" s="11"/>
-      <c r="CL99" s="11"/>
-      <c r="CM99" s="11"/>
-      <c r="CN99" s="11"/>
-      <c r="CO99" s="11"/>
+      <c r="CH99" s="12"/>
+      <c r="CI99" s="12"/>
+      <c r="CJ99" s="12"/>
+      <c r="CK99" s="12"/>
+      <c r="CL99" s="12"/>
+      <c r="CM99" s="12"/>
+      <c r="CN99" s="12"/>
+      <c r="CO99" s="12"/>
       <c r="CP99" s="11"/>
       <c r="CQ99" s="11"/>
       <c r="CR99" s="11"/>
@@ -16587,14 +16676,14 @@
       <c r="CE100" s="12"/>
       <c r="CF100" s="12"/>
       <c r="CG100" s="12"/>
-      <c r="CH100" s="11"/>
-      <c r="CI100" s="11"/>
-      <c r="CJ100" s="11"/>
-      <c r="CK100" s="11"/>
-      <c r="CL100" s="11"/>
-      <c r="CM100" s="11"/>
-      <c r="CN100" s="11"/>
-      <c r="CO100" s="11"/>
+      <c r="CH100" s="12"/>
+      <c r="CI100" s="12"/>
+      <c r="CJ100" s="12"/>
+      <c r="CK100" s="12"/>
+      <c r="CL100" s="12"/>
+      <c r="CM100" s="12"/>
+      <c r="CN100" s="12"/>
+      <c r="CO100" s="12"/>
       <c r="CP100" s="11"/>
       <c r="CQ100" s="11"/>
       <c r="CR100" s="11"/>
@@ -16658,7 +16747,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -16668,7 +16757,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -16678,143 +16767,144 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="28">
+      <c r="B108" s="26">
         <v>2000</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28">
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26">
         <v>2001</v>
       </c>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28">
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26">
         <v>2002</v>
       </c>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28">
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26">
         <v>2003</v>
       </c>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28">
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26">
         <v>2004</v>
       </c>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
-      <c r="U108" s="28"/>
-      <c r="V108" s="28">
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26"/>
+      <c r="V108" s="26">
         <v>2005</v>
       </c>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28">
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26">
         <v>2006</v>
       </c>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28">
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="26"/>
+      <c r="AD108" s="26">
         <v>2007</v>
       </c>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="28"/>
-      <c r="AG108" s="28"/>
-      <c r="AH108" s="28">
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="26">
         <v>2008</v>
       </c>
-      <c r="AI108" s="28"/>
-      <c r="AJ108" s="28"/>
-      <c r="AK108" s="28"/>
-      <c r="AL108" s="28">
+      <c r="AI108" s="26"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26">
         <v>2009</v>
       </c>
-      <c r="AM108" s="28"/>
-      <c r="AN108" s="28"/>
-      <c r="AO108" s="28"/>
-      <c r="AP108" s="28">
+      <c r="AM108" s="26"/>
+      <c r="AN108" s="26"/>
+      <c r="AO108" s="26"/>
+      <c r="AP108" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="28"/>
-      <c r="AR108" s="28"/>
-      <c r="AS108" s="28"/>
-      <c r="AT108" s="28">
+      <c r="AQ108" s="26"/>
+      <c r="AR108" s="26"/>
+      <c r="AS108" s="26"/>
+      <c r="AT108" s="26">
         <v>2011</v>
       </c>
-      <c r="AU108" s="28"/>
-      <c r="AV108" s="28"/>
-      <c r="AW108" s="28"/>
-      <c r="AX108" s="28">
+      <c r="AU108" s="26"/>
+      <c r="AV108" s="26"/>
+      <c r="AW108" s="26"/>
+      <c r="AX108" s="26">
         <v>2012</v>
       </c>
-      <c r="AY108" s="28"/>
-      <c r="AZ108" s="28"/>
-      <c r="BA108" s="28"/>
-      <c r="BB108" s="28">
+      <c r="AY108" s="26"/>
+      <c r="AZ108" s="26"/>
+      <c r="BA108" s="26"/>
+      <c r="BB108" s="26">
         <v>2013</v>
       </c>
-      <c r="BC108" s="28"/>
-      <c r="BD108" s="28"/>
-      <c r="BE108" s="28"/>
-      <c r="BF108" s="28">
+      <c r="BC108" s="26"/>
+      <c r="BD108" s="26"/>
+      <c r="BE108" s="26"/>
+      <c r="BF108" s="26">
         <v>2014</v>
       </c>
-      <c r="BG108" s="28"/>
-      <c r="BH108" s="28"/>
-      <c r="BI108" s="28"/>
-      <c r="BJ108" s="28">
+      <c r="BG108" s="26"/>
+      <c r="BH108" s="26"/>
+      <c r="BI108" s="26"/>
+      <c r="BJ108" s="26">
         <v>2015</v>
       </c>
-      <c r="BK108" s="28"/>
-      <c r="BL108" s="28"/>
-      <c r="BM108" s="28"/>
-      <c r="BN108" s="28">
+      <c r="BK108" s="26"/>
+      <c r="BL108" s="26"/>
+      <c r="BM108" s="26"/>
+      <c r="BN108" s="26">
         <v>2016</v>
       </c>
-      <c r="BO108" s="28"/>
-      <c r="BP108" s="28"/>
-      <c r="BQ108" s="28"/>
-      <c r="BR108" s="28">
+      <c r="BO108" s="26"/>
+      <c r="BP108" s="26"/>
+      <c r="BQ108" s="26"/>
+      <c r="BR108" s="26">
         <v>2017</v>
       </c>
-      <c r="BS108" s="28"/>
-      <c r="BT108" s="28"/>
-      <c r="BU108" s="28"/>
-      <c r="BV108" s="30">
+      <c r="BS108" s="26"/>
+      <c r="BT108" s="26"/>
+      <c r="BU108" s="26"/>
+      <c r="BV108" s="27">
         <v>2018</v>
       </c>
-      <c r="BW108" s="30"/>
-      <c r="BX108" s="30"/>
-      <c r="BY108" s="30"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="27"/>
+      <c r="BX108" s="27"/>
+      <c r="BY108" s="27"/>
+      <c r="BZ108" s="27">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="30">
+      <c r="CA108" s="27"/>
+      <c r="CB108" s="27"/>
+      <c r="CC108" s="27"/>
+      <c r="CD108" s="27">
         <v>2020</v>
       </c>
-      <c r="CE108" s="30"/>
-      <c r="CF108" s="30"/>
-      <c r="CG108" s="30"/>
-      <c r="CH108" s="29">
+      <c r="CE108" s="27"/>
+      <c r="CF108" s="27"/>
+      <c r="CG108" s="27"/>
+      <c r="CH108" s="27">
         <v>2021</v>
       </c>
-      <c r="CI108" s="29"/>
-      <c r="CJ108" s="29"/>
-      <c r="CK108" s="29"/>
-      <c r="CL108" s="29">
+      <c r="CI108" s="27"/>
+      <c r="CJ108" s="27"/>
+      <c r="CK108" s="27"/>
+      <c r="CL108" s="27">
         <v>2022</v>
       </c>
-      <c r="CM108" s="29"/>
-      <c r="CN108" s="29"/>
+      <c r="CM108" s="27"/>
+      <c r="CN108" s="27"/>
+      <c r="CO108" s="27"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17070,26 +17160,29 @@
       <c r="CG109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="7" t="s">
+      <c r="CH109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="7" t="s">
+      <c r="CI109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="7" t="s">
+      <c r="CJ109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CK109" s="7" t="s">
+      <c r="CK109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="7" t="s">
+      <c r="CL109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="7" t="s">
+      <c r="CM109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="7" t="s">
+      <c r="CN109" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CO109" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17351,28 +17444,30 @@
       <c r="CG111" s="21">
         <v>94.821903061270575</v>
       </c>
-      <c r="CH111" s="20">
+      <c r="CH111" s="21">
         <v>95.793319182693821</v>
       </c>
-      <c r="CI111" s="20">
+      <c r="CI111" s="21">
         <v>106.02231884660962</v>
       </c>
-      <c r="CJ111" s="20">
+      <c r="CJ111" s="21">
         <v>103.98792964934991</v>
       </c>
-      <c r="CK111" s="20">
+      <c r="CK111" s="21">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="20">
+      <c r="CL111" s="21">
         <v>101.33257572907732</v>
       </c>
-      <c r="CM111" s="20">
+      <c r="CM111" s="21">
         <v>114.92531393052592</v>
       </c>
-      <c r="CN111" s="20">
-        <v>109.60736499946064</v>
-      </c>
-      <c r="CO111" s="11"/>
+      <c r="CN111" s="21">
+        <v>110.31159587484245</v>
+      </c>
+      <c r="CO111" s="21">
+        <v>112.5385484286231</v>
+      </c>
       <c r="CP111" s="11"/>
       <c r="CQ111" s="11"/>
       <c r="CR111" s="11"/>
@@ -17689,28 +17784,30 @@
       <c r="CG112" s="21">
         <v>103.59648094158642</v>
       </c>
-      <c r="CH112" s="20">
+      <c r="CH112" s="21">
         <v>79.070866927836704</v>
       </c>
-      <c r="CI112" s="20">
+      <c r="CI112" s="21">
         <v>117.2106859307448</v>
       </c>
-      <c r="CJ112" s="20">
+      <c r="CJ112" s="21">
         <v>107.4998106064363</v>
       </c>
-      <c r="CK112" s="20">
+      <c r="CK112" s="21">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="20">
+      <c r="CL112" s="21">
         <v>81.894903516488284</v>
       </c>
-      <c r="CM112" s="20">
+      <c r="CM112" s="21">
         <v>124.09546335789501</v>
       </c>
-      <c r="CN112" s="20">
-        <v>108.42667468307266</v>
-      </c>
-      <c r="CO112" s="11"/>
+      <c r="CN112" s="21">
+        <v>108.44638908428462</v>
+      </c>
+      <c r="CO112" s="21">
+        <v>110.48642674910978</v>
+      </c>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
@@ -18027,28 +18124,30 @@
       <c r="CG113" s="21">
         <v>90.749879498574458</v>
       </c>
-      <c r="CH113" s="20">
+      <c r="CH113" s="21">
         <v>112.08191557481699</v>
       </c>
-      <c r="CI113" s="20">
+      <c r="CI113" s="21">
         <v>107.45160453698703</v>
       </c>
-      <c r="CJ113" s="20">
+      <c r="CJ113" s="21">
         <v>92.415150320994769</v>
       </c>
-      <c r="CK113" s="20">
+      <c r="CK113" s="21">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="20">
+      <c r="CL113" s="21">
         <v>117.36759073274634</v>
       </c>
-      <c r="CM113" s="20">
+      <c r="CM113" s="21">
         <v>114.2800165600961</v>
       </c>
-      <c r="CN113" s="20">
-        <v>97.334144409527823</v>
-      </c>
-      <c r="CO113" s="11"/>
+      <c r="CN113" s="21">
+        <v>97.189296007689933</v>
+      </c>
+      <c r="CO113" s="21">
+        <v>101.93655392687259</v>
+      </c>
       <c r="CP113" s="11"/>
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
@@ -18365,28 +18464,30 @@
       <c r="CG114" s="21">
         <v>101.57984862740234</v>
       </c>
-      <c r="CH114" s="20">
+      <c r="CH114" s="21">
         <v>88.893003926002606</v>
       </c>
-      <c r="CI114" s="20">
+      <c r="CI114" s="21">
         <v>109.19059334962719</v>
       </c>
-      <c r="CJ114" s="20">
+      <c r="CJ114" s="21">
         <v>105.28091028680211</v>
       </c>
-      <c r="CK114" s="20">
+      <c r="CK114" s="21">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="20">
+      <c r="CL114" s="21">
         <v>92.067840693522641</v>
       </c>
-      <c r="CM114" s="20">
+      <c r="CM114" s="21">
         <v>115.6042827362317</v>
       </c>
-      <c r="CN114" s="20">
-        <v>106.188642990236</v>
-      </c>
-      <c r="CO114" s="11"/>
+      <c r="CN114" s="21">
+        <v>106.20795046709245</v>
+      </c>
+      <c r="CO114" s="21">
+        <v>108.33567320578605</v>
+      </c>
       <c r="CP114" s="11"/>
       <c r="CQ114" s="11"/>
       <c r="CR114" s="11"/>
@@ -18703,28 +18804,30 @@
       <c r="CG115" s="21">
         <v>104.3946054327612</v>
       </c>
-      <c r="CH115" s="20">
+      <c r="CH115" s="21">
         <v>85.332707883713084</v>
       </c>
-      <c r="CI115" s="20">
+      <c r="CI115" s="21">
         <v>113.11982321804426</v>
       </c>
-      <c r="CJ115" s="20">
+      <c r="CJ115" s="21">
         <v>108.15079703460171</v>
       </c>
-      <c r="CK115" s="20">
+      <c r="CK115" s="21">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="20">
+      <c r="CL115" s="21">
         <v>88.380387751599855</v>
       </c>
-      <c r="CM115" s="20">
+      <c r="CM115" s="21">
         <v>119.76430959119779</v>
       </c>
-      <c r="CN115" s="20">
-        <v>109.08327392051875</v>
-      </c>
-      <c r="CO115" s="11"/>
+      <c r="CN115" s="21">
+        <v>109.10310770619809</v>
+      </c>
+      <c r="CO115" s="21">
+        <v>111.33763252684825</v>
+      </c>
       <c r="CP115" s="11"/>
       <c r="CQ115" s="11"/>
       <c r="CR115" s="11"/>
@@ -19041,28 +19144,30 @@
       <c r="CG116" s="21">
         <v>103.07257519637687</v>
       </c>
-      <c r="CH116" s="20">
+      <c r="CH116" s="21">
         <v>83.693209869254872</v>
       </c>
-      <c r="CI116" s="20">
+      <c r="CI116" s="21">
         <v>111.39752046647722</v>
       </c>
-      <c r="CJ116" s="20">
+      <c r="CJ116" s="21">
         <v>106.67443418868967</v>
       </c>
-      <c r="CK116" s="20">
+      <c r="CK116" s="21">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="20">
+      <c r="CL116" s="21">
         <v>86.682334638914682</v>
       </c>
-      <c r="CM116" s="20">
+      <c r="CM116" s="21">
         <v>117.94084139543469</v>
       </c>
-      <c r="CN116" s="20">
-        <v>107.59418186440404</v>
-      </c>
-      <c r="CO116" s="11"/>
+      <c r="CN116" s="21">
+        <v>107.61374489975071</v>
+      </c>
+      <c r="CO116" s="21">
+        <v>109.92767732813118</v>
+      </c>
       <c r="CP116" s="11"/>
       <c r="CQ116" s="11"/>
       <c r="CR116" s="11"/>
@@ -19379,28 +19484,30 @@
       <c r="CG117" s="21">
         <v>105.2773102436565</v>
       </c>
-      <c r="CH117" s="20">
+      <c r="CH117" s="21">
         <v>84.839383466248464</v>
       </c>
-      <c r="CI117" s="20">
+      <c r="CI117" s="21">
         <v>113.41684471619293</v>
       </c>
-      <c r="CJ117" s="20">
+      <c r="CJ117" s="21">
         <v>108.85695278447844</v>
       </c>
-      <c r="CK117" s="20">
+      <c r="CK117" s="21">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="20">
+      <c r="CL117" s="21">
         <v>87.869444124189485</v>
       </c>
-      <c r="CM117" s="20">
+      <c r="CM117" s="21">
         <v>120.07877768041106</v>
       </c>
-      <c r="CN117" s="20">
-        <v>109.79551814993214</v>
-      </c>
-      <c r="CO117" s="11"/>
+      <c r="CN117" s="21">
+        <v>109.8154814375863</v>
+      </c>
+      <c r="CO117" s="21">
+        <v>112.279043852249</v>
+      </c>
       <c r="CP117" s="11"/>
       <c r="CQ117" s="11"/>
       <c r="CR117" s="11"/>
@@ -19717,28 +19824,30 @@
       <c r="CG118" s="21">
         <v>104.56154537777903</v>
       </c>
-      <c r="CH118" s="20">
+      <c r="CH118" s="21">
         <v>84.243127384132677</v>
       </c>
-      <c r="CI118" s="20">
+      <c r="CI118" s="21">
         <v>112.73653183305818</v>
       </c>
-      <c r="CJ118" s="20">
+      <c r="CJ118" s="21">
         <v>108.16632803073023</v>
       </c>
-      <c r="CK118" s="20">
+      <c r="CK118" s="21">
         <v>108.15787748120904</v>
       </c>
-      <c r="CL118" s="20">
+      <c r="CL118" s="21">
         <v>87.251892600939371</v>
       </c>
-      <c r="CM118" s="20">
+      <c r="CM118" s="21">
         <v>119.3585042532012</v>
       </c>
-      <c r="CN118" s="20">
-        <v>109.09893882499846</v>
-      </c>
-      <c r="CO118" s="11"/>
+      <c r="CN118" s="21">
+        <v>109.11877545890869</v>
+      </c>
+      <c r="CO118" s="21">
+        <v>111.51567523485404</v>
+      </c>
       <c r="CP118" s="11"/>
       <c r="CQ118" s="11"/>
       <c r="CR118" s="11"/>
@@ -19884,14 +19993,14 @@
       <c r="CE119" s="12"/>
       <c r="CF119" s="12"/>
       <c r="CG119" s="12"/>
-      <c r="CH119" s="11"/>
-      <c r="CI119" s="11"/>
-      <c r="CJ119" s="11"/>
-      <c r="CK119" s="11"/>
-      <c r="CL119" s="11"/>
-      <c r="CM119" s="11"/>
-      <c r="CN119" s="11"/>
-      <c r="CO119" s="11"/>
+      <c r="CH119" s="12"/>
+      <c r="CI119" s="12"/>
+      <c r="CJ119" s="12"/>
+      <c r="CK119" s="12"/>
+      <c r="CL119" s="12"/>
+      <c r="CM119" s="12"/>
+      <c r="CN119" s="12"/>
+      <c r="CO119" s="12"/>
       <c r="CP119" s="11"/>
       <c r="CQ119" s="11"/>
       <c r="CR119" s="11"/>
@@ -20208,28 +20317,30 @@
       <c r="CG120" s="21">
         <v>96.988127851654866</v>
       </c>
-      <c r="CH120" s="20">
+      <c r="CH120" s="21">
         <v>91.256148247408291</v>
       </c>
-      <c r="CI120" s="20">
+      <c r="CI120" s="21">
         <v>110.3774661601836</v>
       </c>
-      <c r="CJ120" s="20">
+      <c r="CJ120" s="21">
         <v>102.2464086359403</v>
       </c>
-      <c r="CK120" s="20">
+      <c r="CK120" s="21">
         <v>101.6749903189184</v>
       </c>
-      <c r="CL120" s="20">
+      <c r="CL120" s="21">
         <v>96.517691053541768</v>
       </c>
-      <c r="CM120" s="20">
+      <c r="CM120" s="21">
         <v>117.07776779856052</v>
       </c>
-      <c r="CN120" s="20">
-        <v>105.05907636087331</v>
-      </c>
-      <c r="CO120" s="11"/>
+      <c r="CN120" s="21">
+        <v>105.21135543406636</v>
+      </c>
+      <c r="CO120" s="21">
+        <v>107.4171732496183</v>
+      </c>
       <c r="CP120" s="11"/>
       <c r="CQ120" s="11"/>
       <c r="CR120" s="11"/>
@@ -20376,13 +20487,14 @@
       <c r="CE121" s="17"/>
       <c r="CF121" s="17"/>
       <c r="CG121" s="17"/>
-      <c r="CH121" s="16"/>
-      <c r="CI121" s="16"/>
-      <c r="CJ121" s="16"/>
-      <c r="CK121" s="16"/>
-      <c r="CL121" s="16"/>
-      <c r="CM121" s="16"/>
-      <c r="CN121" s="16"/>
+      <c r="CH121" s="17"/>
+      <c r="CI121" s="17"/>
+      <c r="CJ121" s="17"/>
+      <c r="CK121" s="17"/>
+      <c r="CL121" s="17"/>
+      <c r="CM121" s="17"/>
+      <c r="CN121" s="17"/>
+      <c r="CO121" s="17"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -20401,7 +20513,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -20411,7 +20523,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -20421,143 +20533,144 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="28">
+      <c r="B133" s="26">
         <v>2000</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28">
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26">
         <v>2001</v>
       </c>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28">
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26">
         <v>2002</v>
       </c>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28">
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
+      <c r="M133" s="26"/>
+      <c r="N133" s="26">
         <v>2003</v>
       </c>
-      <c r="O133" s="28"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="28">
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26">
         <v>2004</v>
       </c>
-      <c r="S133" s="28"/>
-      <c r="T133" s="28"/>
-      <c r="U133" s="28"/>
-      <c r="V133" s="28">
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+      <c r="U133" s="26"/>
+      <c r="V133" s="26">
         <v>2005</v>
       </c>
-      <c r="W133" s="28"/>
-      <c r="X133" s="28"/>
-      <c r="Y133" s="28"/>
-      <c r="Z133" s="28">
+      <c r="W133" s="26"/>
+      <c r="X133" s="26"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26">
         <v>2006</v>
       </c>
-      <c r="AA133" s="28"/>
-      <c r="AB133" s="28"/>
-      <c r="AC133" s="28"/>
-      <c r="AD133" s="28">
+      <c r="AA133" s="26"/>
+      <c r="AB133" s="26"/>
+      <c r="AC133" s="26"/>
+      <c r="AD133" s="26">
         <v>2007</v>
       </c>
-      <c r="AE133" s="28"/>
-      <c r="AF133" s="28"/>
-      <c r="AG133" s="28"/>
-      <c r="AH133" s="28">
+      <c r="AE133" s="26"/>
+      <c r="AF133" s="26"/>
+      <c r="AG133" s="26"/>
+      <c r="AH133" s="26">
         <v>2008</v>
       </c>
-      <c r="AI133" s="28"/>
-      <c r="AJ133" s="28"/>
-      <c r="AK133" s="28"/>
-      <c r="AL133" s="28">
+      <c r="AI133" s="26"/>
+      <c r="AJ133" s="26"/>
+      <c r="AK133" s="26"/>
+      <c r="AL133" s="26">
         <v>2009</v>
       </c>
-      <c r="AM133" s="28"/>
-      <c r="AN133" s="28"/>
-      <c r="AO133" s="28"/>
-      <c r="AP133" s="28">
+      <c r="AM133" s="26"/>
+      <c r="AN133" s="26"/>
+      <c r="AO133" s="26"/>
+      <c r="AP133" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="28"/>
-      <c r="AR133" s="28"/>
-      <c r="AS133" s="28"/>
-      <c r="AT133" s="28">
+      <c r="AQ133" s="26"/>
+      <c r="AR133" s="26"/>
+      <c r="AS133" s="26"/>
+      <c r="AT133" s="26">
         <v>2011</v>
       </c>
-      <c r="AU133" s="28"/>
-      <c r="AV133" s="28"/>
-      <c r="AW133" s="28"/>
-      <c r="AX133" s="28">
+      <c r="AU133" s="26"/>
+      <c r="AV133" s="26"/>
+      <c r="AW133" s="26"/>
+      <c r="AX133" s="26">
         <v>2012</v>
       </c>
-      <c r="AY133" s="28"/>
-      <c r="AZ133" s="28"/>
-      <c r="BA133" s="28"/>
-      <c r="BB133" s="28">
+      <c r="AY133" s="26"/>
+      <c r="AZ133" s="26"/>
+      <c r="BA133" s="26"/>
+      <c r="BB133" s="26">
         <v>2013</v>
       </c>
-      <c r="BC133" s="28"/>
-      <c r="BD133" s="28"/>
-      <c r="BE133" s="28"/>
-      <c r="BF133" s="28">
+      <c r="BC133" s="26"/>
+      <c r="BD133" s="26"/>
+      <c r="BE133" s="26"/>
+      <c r="BF133" s="26">
         <v>2014</v>
       </c>
-      <c r="BG133" s="28"/>
-      <c r="BH133" s="28"/>
-      <c r="BI133" s="28"/>
-      <c r="BJ133" s="28">
+      <c r="BG133" s="26"/>
+      <c r="BH133" s="26"/>
+      <c r="BI133" s="26"/>
+      <c r="BJ133" s="26">
         <v>2015</v>
       </c>
-      <c r="BK133" s="28"/>
-      <c r="BL133" s="28"/>
-      <c r="BM133" s="28"/>
-      <c r="BN133" s="28">
+      <c r="BK133" s="26"/>
+      <c r="BL133" s="26"/>
+      <c r="BM133" s="26"/>
+      <c r="BN133" s="26">
         <v>2016</v>
       </c>
-      <c r="BO133" s="28"/>
-      <c r="BP133" s="28"/>
-      <c r="BQ133" s="28"/>
-      <c r="BR133" s="28">
+      <c r="BO133" s="26"/>
+      <c r="BP133" s="26"/>
+      <c r="BQ133" s="26"/>
+      <c r="BR133" s="26">
         <v>2017</v>
       </c>
-      <c r="BS133" s="28"/>
-      <c r="BT133" s="28"/>
-      <c r="BU133" s="28"/>
-      <c r="BV133" s="30">
+      <c r="BS133" s="26"/>
+      <c r="BT133" s="26"/>
+      <c r="BU133" s="26"/>
+      <c r="BV133" s="27">
         <v>2018</v>
       </c>
-      <c r="BW133" s="30"/>
-      <c r="BX133" s="30"/>
-      <c r="BY133" s="30"/>
-      <c r="BZ133" s="30">
+      <c r="BW133" s="27"/>
+      <c r="BX133" s="27"/>
+      <c r="BY133" s="27"/>
+      <c r="BZ133" s="27">
         <v>2019</v>
       </c>
-      <c r="CA133" s="30"/>
-      <c r="CB133" s="30"/>
-      <c r="CC133" s="30"/>
-      <c r="CD133" s="30">
+      <c r="CA133" s="27"/>
+      <c r="CB133" s="27"/>
+      <c r="CC133" s="27"/>
+      <c r="CD133" s="27">
         <v>2020</v>
       </c>
-      <c r="CE133" s="30"/>
-      <c r="CF133" s="30"/>
-      <c r="CG133" s="30"/>
-      <c r="CH133" s="29">
+      <c r="CE133" s="27"/>
+      <c r="CF133" s="27"/>
+      <c r="CG133" s="27"/>
+      <c r="CH133" s="27">
         <v>2021</v>
       </c>
-      <c r="CI133" s="29"/>
-      <c r="CJ133" s="29"/>
-      <c r="CK133" s="29"/>
-      <c r="CL133" s="29">
+      <c r="CI133" s="27"/>
+      <c r="CJ133" s="27"/>
+      <c r="CK133" s="27"/>
+      <c r="CL133" s="27">
         <v>2022</v>
       </c>
-      <c r="CM133" s="29"/>
-      <c r="CN133" s="29"/>
+      <c r="CM133" s="27"/>
+      <c r="CN133" s="27"/>
+      <c r="CO133" s="27"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -20813,26 +20926,29 @@
       <c r="CG134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="7" t="s">
+      <c r="CH134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="7" t="s">
+      <c r="CI134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CJ134" s="7" t="s">
+      <c r="CJ134" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CK134" s="7" t="s">
+      <c r="CK134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="7" t="s">
+      <c r="CL134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="7" t="s">
+      <c r="CM134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="7" t="s">
+      <c r="CN134" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CO134" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21094,28 +21210,30 @@
       <c r="CG136" s="23">
         <v>20.405936859688858</v>
       </c>
-      <c r="CH136" s="27">
+      <c r="CH136" s="23">
         <v>20.313989564836827</v>
       </c>
-      <c r="CI136" s="27">
+      <c r="CI136" s="23">
         <v>22.065729553315787</v>
       </c>
-      <c r="CJ136" s="27">
+      <c r="CJ136" s="23">
         <v>27.09673908013902</v>
       </c>
-      <c r="CK136" s="27">
+      <c r="CK136" s="23">
         <v>24.346785647136116</v>
       </c>
-      <c r="CL136" s="27">
+      <c r="CL136" s="23">
         <v>20.096130312189576</v>
       </c>
-      <c r="CM136" s="27">
+      <c r="CM136" s="23">
         <v>22.091891474060844</v>
       </c>
-      <c r="CN136" s="27">
-        <v>26.635848873859924</v>
-      </c>
-      <c r="CO136" s="11"/>
+      <c r="CN136" s="23">
+        <v>26.322251680209014</v>
+      </c>
+      <c r="CO136" s="23">
+        <v>22.218220293602105</v>
+      </c>
       <c r="CP136" s="11"/>
       <c r="CQ136" s="11"/>
       <c r="CR136" s="11"/>
@@ -21432,28 +21550,30 @@
       <c r="CG137" s="23">
         <v>3.4194860022934259</v>
       </c>
-      <c r="CH137" s="27">
+      <c r="CH137" s="23">
         <v>7.9709890678970368</v>
       </c>
-      <c r="CI137" s="27">
+      <c r="CI137" s="23">
         <v>11.956481344131291</v>
       </c>
-      <c r="CJ137" s="27">
+      <c r="CJ137" s="23">
         <v>8.1217328634702532</v>
       </c>
-      <c r="CK137" s="27">
+      <c r="CK137" s="23">
         <v>4.1957667399458929</v>
       </c>
-      <c r="CL137" s="27">
+      <c r="CL137" s="23">
         <v>7.6016251815443301</v>
       </c>
-      <c r="CM137" s="27">
+      <c r="CM137" s="23">
         <v>10.697948085460597</v>
       </c>
-      <c r="CN137" s="27">
-        <v>6.5375800616762891</v>
-      </c>
-      <c r="CO137" s="11"/>
+      <c r="CN137" s="23">
+        <v>6.464074667261789</v>
+      </c>
+      <c r="CO137" s="23">
+        <v>2.7817949952419485</v>
+      </c>
       <c r="CP137" s="11"/>
       <c r="CQ137" s="11"/>
       <c r="CR137" s="11"/>
@@ -21770,28 +21890,30 @@
       <c r="CG138" s="23">
         <v>34.803067645584385</v>
       </c>
-      <c r="CH138" s="27">
+      <c r="CH138" s="23">
         <v>22.811348224801563</v>
       </c>
-      <c r="CI138" s="27">
+      <c r="CI138" s="23">
         <v>18.053460735816927</v>
       </c>
-      <c r="CJ138" s="27">
+      <c r="CJ138" s="23">
         <v>25.148614162622852</v>
       </c>
-      <c r="CK138" s="27">
+      <c r="CK138" s="23">
         <v>31.268923746672911</v>
       </c>
-      <c r="CL138" s="27">
+      <c r="CL138" s="23">
         <v>28.430034488602875</v>
       </c>
-      <c r="CM138" s="27">
+      <c r="CM138" s="23">
         <v>26.515208963403296</v>
       </c>
-      <c r="CN138" s="27">
-        <v>29.487656016983721</v>
-      </c>
-      <c r="CO138" s="11"/>
+      <c r="CN138" s="23">
+        <v>29.374019111455084</v>
+      </c>
+      <c r="CO138" s="23">
+        <v>39.097231412499752</v>
+      </c>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
       <c r="CR138" s="11"/>
@@ -22108,28 +22230,30 @@
       <c r="CG139" s="23">
         <v>1.9634948696709589</v>
       </c>
-      <c r="CH139" s="27">
+      <c r="CH139" s="23">
         <v>2.2087339442712222</v>
       </c>
-      <c r="CI139" s="27">
+      <c r="CI139" s="23">
         <v>2.0547311483249668</v>
       </c>
-      <c r="CJ139" s="27">
+      <c r="CJ139" s="23">
         <v>2.0403698047416321</v>
       </c>
-      <c r="CK139" s="27">
+      <c r="CK139" s="23">
         <v>1.6865260838895644</v>
       </c>
-      <c r="CL139" s="27">
+      <c r="CL139" s="23">
         <v>1.5809221822990167</v>
       </c>
-      <c r="CM139" s="27">
+      <c r="CM139" s="23">
         <v>1.4894390249993095</v>
       </c>
-      <c r="CN139" s="27">
-        <v>1.2866094929736429</v>
-      </c>
-      <c r="CO139" s="11"/>
+      <c r="CN139" s="23">
+        <v>1.2879490481788312</v>
+      </c>
+      <c r="CO139" s="23">
+        <v>1.097713580184678</v>
+      </c>
       <c r="CP139" s="11"/>
       <c r="CQ139" s="11"/>
       <c r="CR139" s="11"/>
@@ -22446,28 +22570,30 @@
       <c r="CG140" s="23">
         <v>7.633489222297615</v>
       </c>
-      <c r="CH140" s="27">
+      <c r="CH140" s="23">
         <v>11.520550168929555</v>
       </c>
-      <c r="CI140" s="27">
+      <c r="CI140" s="23">
         <v>13.865944009248174</v>
       </c>
-      <c r="CJ140" s="27">
+      <c r="CJ140" s="23">
         <v>8.5907279583469407</v>
       </c>
-      <c r="CK140" s="27">
+      <c r="CK140" s="23">
         <v>8.0091091122650262</v>
       </c>
-      <c r="CL140" s="27">
+      <c r="CL140" s="23">
         <v>7.5898808972458109</v>
       </c>
-      <c r="CM140" s="27">
+      <c r="CM140" s="23">
         <v>6.8939532224402162</v>
       </c>
-      <c r="CN140" s="27">
-        <v>6.0688852682070964</v>
-      </c>
-      <c r="CO140" s="11"/>
+      <c r="CN140" s="23">
+        <v>6.5484846931631466</v>
+      </c>
+      <c r="CO140" s="23">
+        <v>6.2144072456723078</v>
+      </c>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
       <c r="CR140" s="11"/>
@@ -22784,28 +22910,30 @@
       <c r="CG141" s="23">
         <v>23.184214571644929</v>
       </c>
-      <c r="CH141" s="27">
+      <c r="CH141" s="23">
         <v>29.060159423570159</v>
       </c>
-      <c r="CI141" s="27">
+      <c r="CI141" s="23">
         <v>25.755568665981439</v>
       </c>
-      <c r="CJ141" s="27">
+      <c r="CJ141" s="23">
         <v>23.359483097636108</v>
       </c>
-      <c r="CK141" s="27">
+      <c r="CK141" s="23">
         <v>22.415787460854201</v>
       </c>
-      <c r="CL141" s="27">
+      <c r="CL141" s="23">
         <v>28.326200374783951</v>
       </c>
-      <c r="CM141" s="27">
+      <c r="CM141" s="23">
         <v>26.111915019073606</v>
       </c>
-      <c r="CN141" s="27">
-        <v>24.470639931354004</v>
-      </c>
-      <c r="CO141" s="11"/>
+      <c r="CN141" s="23">
+        <v>23.726680243073268</v>
+      </c>
+      <c r="CO141" s="23">
+        <v>19.975509891017982</v>
+      </c>
       <c r="CP141" s="11"/>
       <c r="CQ141" s="11"/>
       <c r="CR141" s="11"/>
@@ -23122,28 +23250,30 @@
       <c r="CG142" s="23">
         <v>3.0675193941124248</v>
       </c>
-      <c r="CH142" s="27">
+      <c r="CH142" s="23">
         <v>2.7742364042739931</v>
       </c>
-      <c r="CI142" s="27">
+      <c r="CI142" s="23">
         <v>3.4988807063006195</v>
       </c>
-      <c r="CJ142" s="27">
+      <c r="CJ142" s="23">
         <v>3.0658782369445947</v>
       </c>
-      <c r="CK142" s="27">
+      <c r="CK142" s="23">
         <v>3.2481312051729128</v>
       </c>
-      <c r="CL142" s="27">
+      <c r="CL142" s="23">
         <v>2.3411700039912136</v>
       </c>
-      <c r="CM142" s="27">
+      <c r="CM142" s="23">
         <v>2.1602702253977664</v>
       </c>
-      <c r="CN142" s="27">
-        <v>2.2384299289735088</v>
-      </c>
-      <c r="CO142" s="11"/>
+      <c r="CN142" s="23">
+        <v>2.3879619396465097</v>
+      </c>
+      <c r="CO142" s="23">
+        <v>1.943687864790302</v>
+      </c>
       <c r="CP142" s="11"/>
       <c r="CQ142" s="11"/>
       <c r="CR142" s="11"/>
@@ -23460,28 +23590,30 @@
       <c r="CG143" s="23">
         <v>5.5227914347074103</v>
       </c>
-      <c r="CH143" s="27">
+      <c r="CH143" s="23">
         <v>3.339993201419647</v>
       </c>
-      <c r="CI143" s="27">
+      <c r="CI143" s="23">
         <v>2.7492038368807843</v>
       </c>
-      <c r="CJ143" s="27">
+      <c r="CJ143" s="23">
         <v>2.5764547960985955</v>
       </c>
-      <c r="CK143" s="27">
+      <c r="CK143" s="23">
         <v>4.8289700040633745</v>
       </c>
-      <c r="CL143" s="27">
+      <c r="CL143" s="23">
         <v>4.0340365593432113</v>
       </c>
-      <c r="CM143" s="27">
+      <c r="CM143" s="23">
         <v>4.0393739851643682</v>
       </c>
-      <c r="CN143" s="27">
-        <v>3.2743504259718033</v>
-      </c>
-      <c r="CO143" s="11"/>
+      <c r="CN143" s="23">
+        <v>3.8885786170123469</v>
+      </c>
+      <c r="CO143" s="23">
+        <v>6.6714347169909178</v>
+      </c>
       <c r="CP143" s="11"/>
       <c r="CQ143" s="11"/>
       <c r="CR143" s="11"/>
@@ -23627,14 +23759,14 @@
       <c r="CE144" s="12"/>
       <c r="CF144" s="12"/>
       <c r="CG144" s="12"/>
-      <c r="CH144" s="11"/>
-      <c r="CI144" s="11"/>
-      <c r="CJ144" s="11"/>
-      <c r="CK144" s="11"/>
-      <c r="CL144" s="11"/>
-      <c r="CM144" s="11"/>
-      <c r="CN144" s="11"/>
-      <c r="CO144" s="11"/>
+      <c r="CH144" s="12"/>
+      <c r="CI144" s="12"/>
+      <c r="CJ144" s="12"/>
+      <c r="CK144" s="12"/>
+      <c r="CL144" s="12"/>
+      <c r="CM144" s="12"/>
+      <c r="CN144" s="12"/>
+      <c r="CO144" s="12"/>
       <c r="CP144" s="11"/>
       <c r="CQ144" s="11"/>
       <c r="CR144" s="11"/>
@@ -23951,28 +24083,30 @@
       <c r="CG145" s="21">
         <v>100</v>
       </c>
-      <c r="CH145" s="20">
+      <c r="CH145" s="21">
         <v>100</v>
       </c>
-      <c r="CI145" s="20">
+      <c r="CI145" s="21">
         <v>100</v>
       </c>
-      <c r="CJ145" s="20">
+      <c r="CJ145" s="21">
         <v>100</v>
       </c>
-      <c r="CK145" s="20">
+      <c r="CK145" s="21">
         <v>100</v>
       </c>
-      <c r="CL145" s="20">
+      <c r="CL145" s="21">
         <v>100</v>
       </c>
-      <c r="CM145" s="20">
+      <c r="CM145" s="21">
         <v>100</v>
       </c>
-      <c r="CN145" s="20">
+      <c r="CN145" s="21">
         <v>100</v>
       </c>
-      <c r="CO145" s="11"/>
+      <c r="CO145" s="21">
+        <v>100</v>
+      </c>
       <c r="CP145" s="11"/>
       <c r="CQ145" s="11"/>
       <c r="CR145" s="11"/>
@@ -24119,13 +24253,14 @@
       <c r="CE146" s="17"/>
       <c r="CF146" s="17"/>
       <c r="CG146" s="17"/>
-      <c r="CH146" s="16"/>
-      <c r="CI146" s="16"/>
-      <c r="CJ146" s="16"/>
-      <c r="CK146" s="16"/>
-      <c r="CL146" s="16"/>
-      <c r="CM146" s="16"/>
-      <c r="CN146" s="16"/>
+      <c r="CH146" s="17"/>
+      <c r="CI146" s="17"/>
+      <c r="CJ146" s="17"/>
+      <c r="CK146" s="17"/>
+      <c r="CL146" s="17"/>
+      <c r="CM146" s="17"/>
+      <c r="CN146" s="17"/>
+      <c r="CO146" s="17"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -24217,14 +24352,14 @@
       <c r="CE148" s="12"/>
       <c r="CF148" s="12"/>
       <c r="CG148" s="12"/>
-      <c r="CH148" s="11"/>
-      <c r="CI148" s="11"/>
-      <c r="CJ148" s="11"/>
-      <c r="CK148" s="11"/>
-      <c r="CL148" s="11"/>
-      <c r="CM148" s="11"/>
-      <c r="CN148" s="11"/>
-      <c r="CO148" s="11"/>
+      <c r="CH148" s="12"/>
+      <c r="CI148" s="12"/>
+      <c r="CJ148" s="12"/>
+      <c r="CK148" s="12"/>
+      <c r="CL148" s="12"/>
+      <c r="CM148" s="12"/>
+      <c r="CN148" s="12"/>
+      <c r="CO148" s="12"/>
       <c r="CP148" s="11"/>
       <c r="CQ148" s="11"/>
       <c r="CR148" s="11"/>
@@ -24370,14 +24505,14 @@
       <c r="CE149" s="12"/>
       <c r="CF149" s="12"/>
       <c r="CG149" s="12"/>
-      <c r="CH149" s="11"/>
-      <c r="CI149" s="11"/>
-      <c r="CJ149" s="11"/>
-      <c r="CK149" s="11"/>
-      <c r="CL149" s="11"/>
-      <c r="CM149" s="11"/>
-      <c r="CN149" s="11"/>
-      <c r="CO149" s="11"/>
+      <c r="CH149" s="12"/>
+      <c r="CI149" s="12"/>
+      <c r="CJ149" s="12"/>
+      <c r="CK149" s="12"/>
+      <c r="CL149" s="12"/>
+      <c r="CM149" s="12"/>
+      <c r="CN149" s="12"/>
+      <c r="CO149" s="12"/>
       <c r="CP149" s="11"/>
       <c r="CQ149" s="11"/>
       <c r="CR149" s="11"/>
@@ -24450,7 +24585,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -24460,7 +24595,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -24470,143 +24605,144 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="28">
+      <c r="B158" s="26">
         <v>2000</v>
       </c>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28">
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26">
         <v>2001</v>
       </c>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28">
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26">
         <v>2002</v>
       </c>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="28">
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26">
         <v>2003</v>
       </c>
-      <c r="O158" s="28"/>
-      <c r="P158" s="28"/>
-      <c r="Q158" s="28"/>
-      <c r="R158" s="28">
+      <c r="O158" s="26"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26">
         <v>2004</v>
       </c>
-      <c r="S158" s="28"/>
-      <c r="T158" s="28"/>
-      <c r="U158" s="28"/>
-      <c r="V158" s="28">
+      <c r="S158" s="26"/>
+      <c r="T158" s="26"/>
+      <c r="U158" s="26"/>
+      <c r="V158" s="26">
         <v>2005</v>
       </c>
-      <c r="W158" s="28"/>
-      <c r="X158" s="28"/>
-      <c r="Y158" s="28"/>
-      <c r="Z158" s="28">
+      <c r="W158" s="26"/>
+      <c r="X158" s="26"/>
+      <c r="Y158" s="26"/>
+      <c r="Z158" s="26">
         <v>2006</v>
       </c>
-      <c r="AA158" s="28"/>
-      <c r="AB158" s="28"/>
-      <c r="AC158" s="28"/>
-      <c r="AD158" s="28">
+      <c r="AA158" s="26"/>
+      <c r="AB158" s="26"/>
+      <c r="AC158" s="26"/>
+      <c r="AD158" s="26">
         <v>2007</v>
       </c>
-      <c r="AE158" s="28"/>
-      <c r="AF158" s="28"/>
-      <c r="AG158" s="28"/>
-      <c r="AH158" s="28">
+      <c r="AE158" s="26"/>
+      <c r="AF158" s="26"/>
+      <c r="AG158" s="26"/>
+      <c r="AH158" s="26">
         <v>2008</v>
       </c>
-      <c r="AI158" s="28"/>
-      <c r="AJ158" s="28"/>
-      <c r="AK158" s="28"/>
-      <c r="AL158" s="28">
+      <c r="AI158" s="26"/>
+      <c r="AJ158" s="26"/>
+      <c r="AK158" s="26"/>
+      <c r="AL158" s="26">
         <v>2009</v>
       </c>
-      <c r="AM158" s="28"/>
-      <c r="AN158" s="28"/>
-      <c r="AO158" s="28"/>
-      <c r="AP158" s="28">
+      <c r="AM158" s="26"/>
+      <c r="AN158" s="26"/>
+      <c r="AO158" s="26"/>
+      <c r="AP158" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="28"/>
-      <c r="AR158" s="28"/>
-      <c r="AS158" s="28"/>
-      <c r="AT158" s="28">
+      <c r="AQ158" s="26"/>
+      <c r="AR158" s="26"/>
+      <c r="AS158" s="26"/>
+      <c r="AT158" s="26">
         <v>2011</v>
       </c>
-      <c r="AU158" s="28"/>
-      <c r="AV158" s="28"/>
-      <c r="AW158" s="28"/>
-      <c r="AX158" s="28">
+      <c r="AU158" s="26"/>
+      <c r="AV158" s="26"/>
+      <c r="AW158" s="26"/>
+      <c r="AX158" s="26">
         <v>2012</v>
       </c>
-      <c r="AY158" s="28"/>
-      <c r="AZ158" s="28"/>
-      <c r="BA158" s="28"/>
-      <c r="BB158" s="28">
+      <c r="AY158" s="26"/>
+      <c r="AZ158" s="26"/>
+      <c r="BA158" s="26"/>
+      <c r="BB158" s="26">
         <v>2013</v>
       </c>
-      <c r="BC158" s="28"/>
-      <c r="BD158" s="28"/>
-      <c r="BE158" s="28"/>
-      <c r="BF158" s="28">
+      <c r="BC158" s="26"/>
+      <c r="BD158" s="26"/>
+      <c r="BE158" s="26"/>
+      <c r="BF158" s="26">
         <v>2014</v>
       </c>
-      <c r="BG158" s="28"/>
-      <c r="BH158" s="28"/>
-      <c r="BI158" s="28"/>
-      <c r="BJ158" s="28">
+      <c r="BG158" s="26"/>
+      <c r="BH158" s="26"/>
+      <c r="BI158" s="26"/>
+      <c r="BJ158" s="26">
         <v>2015</v>
       </c>
-      <c r="BK158" s="28"/>
-      <c r="BL158" s="28"/>
-      <c r="BM158" s="28"/>
-      <c r="BN158" s="28">
+      <c r="BK158" s="26"/>
+      <c r="BL158" s="26"/>
+      <c r="BM158" s="26"/>
+      <c r="BN158" s="26">
         <v>2016</v>
       </c>
-      <c r="BO158" s="28"/>
-      <c r="BP158" s="28"/>
-      <c r="BQ158" s="28"/>
-      <c r="BR158" s="28">
+      <c r="BO158" s="26"/>
+      <c r="BP158" s="26"/>
+      <c r="BQ158" s="26"/>
+      <c r="BR158" s="26">
         <v>2017</v>
       </c>
-      <c r="BS158" s="28"/>
-      <c r="BT158" s="28"/>
-      <c r="BU158" s="28"/>
-      <c r="BV158" s="30">
+      <c r="BS158" s="26"/>
+      <c r="BT158" s="26"/>
+      <c r="BU158" s="26"/>
+      <c r="BV158" s="27">
         <v>2018</v>
       </c>
-      <c r="BW158" s="30"/>
-      <c r="BX158" s="30"/>
-      <c r="BY158" s="30"/>
-      <c r="BZ158" s="30">
+      <c r="BW158" s="27"/>
+      <c r="BX158" s="27"/>
+      <c r="BY158" s="27"/>
+      <c r="BZ158" s="27">
         <v>2019</v>
       </c>
-      <c r="CA158" s="30"/>
-      <c r="CB158" s="30"/>
-      <c r="CC158" s="30"/>
-      <c r="CD158" s="30">
+      <c r="CA158" s="27"/>
+      <c r="CB158" s="27"/>
+      <c r="CC158" s="27"/>
+      <c r="CD158" s="27">
         <v>2020</v>
       </c>
-      <c r="CE158" s="30"/>
-      <c r="CF158" s="30"/>
-      <c r="CG158" s="30"/>
-      <c r="CH158" s="29">
+      <c r="CE158" s="27"/>
+      <c r="CF158" s="27"/>
+      <c r="CG158" s="27"/>
+      <c r="CH158" s="27">
         <v>2021</v>
       </c>
-      <c r="CI158" s="29"/>
-      <c r="CJ158" s="29"/>
-      <c r="CK158" s="29"/>
-      <c r="CL158" s="29">
+      <c r="CI158" s="27"/>
+      <c r="CJ158" s="27"/>
+      <c r="CK158" s="27"/>
+      <c r="CL158" s="27">
         <v>2022</v>
       </c>
-      <c r="CM158" s="29"/>
-      <c r="CN158" s="29"/>
+      <c r="CM158" s="27"/>
+      <c r="CN158" s="27"/>
+      <c r="CO158" s="27"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -24862,26 +24998,29 @@
       <c r="CG159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="7" t="s">
+      <c r="CH159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="7" t="s">
+      <c r="CI159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CJ159" s="7" t="s">
+      <c r="CJ159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CK159" s="7" t="s">
+      <c r="CK159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="7" t="s">
+      <c r="CL159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="7" t="s">
+      <c r="CM159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="7" t="s">
+      <c r="CN159" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CO159" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25143,28 +25282,30 @@
       <c r="CG161" s="23">
         <v>20.872114450196733</v>
       </c>
-      <c r="CH161" s="27">
+      <c r="CH161" s="23">
         <v>19.351834335018651</v>
       </c>
-      <c r="CI161" s="27">
+      <c r="CI161" s="23">
         <v>22.972137787276484</v>
       </c>
-      <c r="CJ161" s="27">
+      <c r="CJ161" s="23">
         <v>26.64294083007227</v>
       </c>
-      <c r="CK161" s="27">
+      <c r="CK161" s="23">
         <v>23.927220243755855</v>
       </c>
-      <c r="CL161" s="27">
+      <c r="CL161" s="23">
         <v>19.1412493256801</v>
       </c>
-      <c r="CM161" s="27">
+      <c r="CM161" s="23">
         <v>22.505653904888646</v>
       </c>
-      <c r="CN161" s="27">
-        <v>25.530562483545712</v>
-      </c>
-      <c r="CO161" s="11"/>
+      <c r="CN161" s="23">
+        <v>25.105246238061245</v>
+      </c>
+      <c r="CO161" s="23">
+        <v>21.207119266246277</v>
+      </c>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
       <c r="CR161" s="11"/>
@@ -25481,28 +25622,30 @@
       <c r="CG162" s="23">
         <v>3.2013591828894432</v>
       </c>
-      <c r="CH162" s="27">
+      <c r="CH162" s="23">
         <v>9.1993649282021845</v>
       </c>
-      <c r="CI162" s="27">
+      <c r="CI162" s="23">
         <v>11.259435131507486</v>
       </c>
-      <c r="CJ162" s="27">
+      <c r="CJ162" s="23">
         <v>7.7248323741754197</v>
       </c>
-      <c r="CK162" s="27">
+      <c r="CK162" s="23">
         <v>3.9810195459415101</v>
       </c>
-      <c r="CL162" s="27">
+      <c r="CL162" s="23">
         <v>8.9589373608505625</v>
       </c>
-      <c r="CM162" s="27">
+      <c r="CM162" s="23">
         <v>10.092970749932952</v>
       </c>
-      <c r="CN162" s="27">
-        <v>6.3345309161473242</v>
-      </c>
-      <c r="CO162" s="11"/>
+      <c r="CN162" s="23">
+        <v>6.2712466787718926</v>
+      </c>
+      <c r="CO162" s="23">
+        <v>2.7045182267262811</v>
+      </c>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
       <c r="CR162" s="11"/>
@@ -25819,28 +25962,30 @@
       <c r="CG163" s="23">
         <v>37.195469493628963</v>
       </c>
-      <c r="CH163" s="27">
+      <c r="CH163" s="23">
         <v>18.572806903324061</v>
       </c>
-      <c r="CI163" s="27">
+      <c r="CI163" s="23">
         <v>18.545048815496372</v>
       </c>
-      <c r="CJ163" s="27">
+      <c r="CJ163" s="23">
         <v>27.823960371949685</v>
       </c>
-      <c r="CK163" s="27">
+      <c r="CK163" s="23">
         <v>33.969877337622165</v>
       </c>
-      <c r="CL163" s="27">
+      <c r="CL163" s="23">
         <v>23.379548547271277</v>
       </c>
-      <c r="CM163" s="27">
+      <c r="CM163" s="23">
         <v>27.164342214766567</v>
       </c>
-      <c r="CN163" s="27">
-        <v>31.827946133240033</v>
-      </c>
-      <c r="CO163" s="11"/>
+      <c r="CN163" s="23">
+        <v>31.798567251869279</v>
+      </c>
+      <c r="CO163" s="23">
+        <v>41.199294251497875</v>
+      </c>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
       <c r="CR163" s="11"/>
@@ -26157,28 +26302,30 @@
       <c r="CG164" s="23">
         <v>1.8747388781237373</v>
       </c>
-      <c r="CH164" s="27">
+      <c r="CH164" s="23">
         <v>2.2674512431291332</v>
       </c>
-      <c r="CI164" s="27">
+      <c r="CI164" s="23">
         <v>2.0770655313348798</v>
       </c>
-      <c r="CJ164" s="27">
+      <c r="CJ164" s="23">
         <v>1.981560420172384</v>
       </c>
-      <c r="CK164" s="27">
+      <c r="CK164" s="23">
         <v>1.6319749119979126</v>
       </c>
-      <c r="CL164" s="27">
+      <c r="CL164" s="23">
         <v>1.6573317851426776</v>
       </c>
-      <c r="CM164" s="27">
+      <c r="CM164" s="23">
         <v>1.5084233230083508</v>
       </c>
-      <c r="CN164" s="27">
-        <v>1.272923366968455</v>
-      </c>
-      <c r="CO164" s="11"/>
+      <c r="CN164" s="23">
+        <v>1.2758636664483609</v>
+      </c>
+      <c r="CO164" s="23">
+        <v>1.0884068592731904</v>
+      </c>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
       <c r="CR164" s="11"/>
@@ -26495,28 +26642,30 @@
       <c r="CG165" s="23">
         <v>7.0919165370406283</v>
       </c>
-      <c r="CH165" s="27">
+      <c r="CH165" s="23">
         <v>12.320258669632578</v>
       </c>
-      <c r="CI165" s="27">
+      <c r="CI165" s="23">
         <v>13.529792764170939</v>
       </c>
-      <c r="CJ165" s="27">
+      <c r="CJ165" s="23">
         <v>8.1217254555073968</v>
       </c>
-      <c r="CK165" s="27">
+      <c r="CK165" s="23">
         <v>7.5410901087060482</v>
       </c>
-      <c r="CL165" s="27">
+      <c r="CL165" s="23">
         <v>8.288691622766601</v>
       </c>
-      <c r="CM165" s="27">
+      <c r="CM165" s="23">
         <v>6.7393087084627963</v>
       </c>
-      <c r="CN165" s="27">
-        <v>5.8449976600676292</v>
-      </c>
-      <c r="CO165" s="11"/>
+      <c r="CN165" s="23">
+        <v>6.3148975780072183</v>
+      </c>
+      <c r="CO165" s="23">
+        <v>5.9955833854388327</v>
+      </c>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
       <c r="CR165" s="11"/>
@@ -26833,28 +26982,30 @@
       <c r="CG166" s="23">
         <v>21.8156339135877</v>
       </c>
-      <c r="CH166" s="27">
+      <c r="CH166" s="23">
         <v>31.686181239714088</v>
       </c>
-      <c r="CI166" s="27">
+      <c r="CI166" s="23">
         <v>25.519727880488535</v>
       </c>
-      <c r="CJ166" s="27">
+      <c r="CJ166" s="23">
         <v>22.389837569707765</v>
       </c>
-      <c r="CK166" s="27">
+      <c r="CK166" s="23">
         <v>21.37661081359651</v>
       </c>
-      <c r="CL166" s="27">
+      <c r="CL166" s="23">
         <v>31.540214830193776</v>
       </c>
-      <c r="CM166" s="27">
+      <c r="CM166" s="23">
         <v>25.920831895109579</v>
       </c>
-      <c r="CN166" s="27">
-        <v>23.894069220094959</v>
-      </c>
-      <c r="CO166" s="11"/>
+      <c r="CN166" s="23">
+        <v>23.197001374219479</v>
+      </c>
+      <c r="CO166" s="23">
+        <v>19.51931359659358</v>
+      </c>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
       <c r="CR166" s="11"/>
@@ -27171,28 +27322,30 @@
       <c r="CG167" s="23">
         <v>2.8259932030466497</v>
       </c>
-      <c r="CH167" s="27">
+      <c r="CH167" s="23">
         <v>2.9840637477345791</v>
       </c>
-      <c r="CI167" s="27">
+      <c r="CI167" s="23">
         <v>3.40511665374409</v>
       </c>
-      <c r="CJ167" s="27">
+      <c r="CJ167" s="23">
         <v>2.8796969878746288</v>
       </c>
-      <c r="CK167" s="27">
+      <c r="CK167" s="23">
         <v>3.0326812095859323</v>
       </c>
-      <c r="CL167" s="27">
+      <c r="CL167" s="23">
         <v>2.5715915856902258</v>
       </c>
-      <c r="CM167" s="27">
+      <c r="CM167" s="23">
         <v>2.1062807326737425</v>
       </c>
-      <c r="CN167" s="27">
-        <v>2.1418668521182926</v>
-      </c>
-      <c r="CO167" s="11"/>
+      <c r="CN167" s="23">
+        <v>2.2878442010743658</v>
+      </c>
+      <c r="CO167" s="23">
+        <v>1.8595229256681853</v>
+      </c>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
       <c r="CR167" s="11"/>
@@ -27509,28 +27662,30 @@
       <c r="CG168" s="23">
         <v>5.1227743414861555</v>
       </c>
-      <c r="CH168" s="27">
+      <c r="CH168" s="23">
         <v>3.6180389332447285</v>
       </c>
-      <c r="CI168" s="27">
+      <c r="CI168" s="23">
         <v>2.6916754359812027</v>
       </c>
-      <c r="CJ168" s="27">
+      <c r="CJ168" s="23">
         <v>2.435445990540452</v>
       </c>
-      <c r="CK168" s="27">
+      <c r="CK168" s="23">
         <v>4.5395258287940514</v>
       </c>
-      <c r="CL168" s="27">
+      <c r="CL168" s="23">
         <v>4.4624349424047773</v>
       </c>
-      <c r="CM168" s="27">
+      <c r="CM168" s="23">
         <v>3.9621884711573552</v>
       </c>
-      <c r="CN168" s="27">
-        <v>3.1531033678176072</v>
-      </c>
-      <c r="CO168" s="11"/>
+      <c r="CN168" s="23">
+        <v>3.7493330115481478</v>
+      </c>
+      <c r="CO168" s="23">
+        <v>6.4262414885557835</v>
+      </c>
       <c r="CP168" s="11"/>
       <c r="CQ168" s="11"/>
       <c r="CR168" s="11"/>
@@ -27676,14 +27831,14 @@
       <c r="CE169" s="12"/>
       <c r="CF169" s="12"/>
       <c r="CG169" s="12"/>
-      <c r="CH169" s="11"/>
-      <c r="CI169" s="11"/>
-      <c r="CJ169" s="11"/>
-      <c r="CK169" s="11"/>
-      <c r="CL169" s="11"/>
-      <c r="CM169" s="11"/>
-      <c r="CN169" s="11"/>
-      <c r="CO169" s="11"/>
+      <c r="CH169" s="12"/>
+      <c r="CI169" s="12"/>
+      <c r="CJ169" s="12"/>
+      <c r="CK169" s="12"/>
+      <c r="CL169" s="12"/>
+      <c r="CM169" s="12"/>
+      <c r="CN169" s="12"/>
+      <c r="CO169" s="12"/>
       <c r="CP169" s="11"/>
       <c r="CQ169" s="11"/>
       <c r="CR169" s="11"/>
@@ -28000,28 +28155,30 @@
       <c r="CG170" s="21">
         <v>100</v>
       </c>
-      <c r="CH170" s="20">
+      <c r="CH170" s="21">
         <v>100</v>
       </c>
-      <c r="CI170" s="20">
+      <c r="CI170" s="21">
         <v>100</v>
       </c>
-      <c r="CJ170" s="20">
+      <c r="CJ170" s="21">
         <v>100</v>
       </c>
-      <c r="CK170" s="20">
+      <c r="CK170" s="21">
         <v>100</v>
       </c>
-      <c r="CL170" s="20">
+      <c r="CL170" s="21">
         <v>100</v>
       </c>
-      <c r="CM170" s="20">
+      <c r="CM170" s="21">
         <v>100</v>
       </c>
-      <c r="CN170" s="20">
+      <c r="CN170" s="21">
         <v>100</v>
       </c>
-      <c r="CO170" s="11"/>
+      <c r="CO170" s="21">
+        <v>100</v>
+      </c>
       <c r="CP170" s="11"/>
       <c r="CQ170" s="11"/>
       <c r="CR170" s="11"/>
@@ -28168,13 +28325,14 @@
       <c r="CE171" s="17"/>
       <c r="CF171" s="17"/>
       <c r="CG171" s="17"/>
-      <c r="CH171" s="16"/>
-      <c r="CI171" s="16"/>
-      <c r="CJ171" s="16"/>
-      <c r="CK171" s="16"/>
-      <c r="CL171" s="16"/>
-      <c r="CM171" s="16"/>
-      <c r="CN171" s="16"/>
+      <c r="CH171" s="17"/>
+      <c r="CI171" s="17"/>
+      <c r="CJ171" s="17"/>
+      <c r="CK171" s="17"/>
+      <c r="CL171" s="17"/>
+      <c r="CM171" s="17"/>
+      <c r="CN171" s="17"/>
+      <c r="CO171" s="17"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -28267,14 +28425,14 @@
       <c r="CE173" s="2"/>
       <c r="CF173" s="2"/>
       <c r="CG173" s="2"/>
-      <c r="CH173" s="1"/>
-      <c r="CI173" s="1"/>
-      <c r="CJ173" s="1"/>
-      <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
-      <c r="CM173" s="1"/>
-      <c r="CN173" s="1"/>
-      <c r="CO173" s="24"/>
+      <c r="CH173" s="2"/>
+      <c r="CI173" s="2"/>
+      <c r="CJ173" s="2"/>
+      <c r="CK173" s="2"/>
+      <c r="CL173" s="2"/>
+      <c r="CM173" s="2"/>
+      <c r="CN173" s="2"/>
+      <c r="CO173" s="2"/>
       <c r="CP173" s="24"/>
       <c r="CQ173" s="24"/>
       <c r="CR173" s="24"/>
@@ -28421,14 +28579,14 @@
       <c r="CE174" s="2"/>
       <c r="CF174" s="2"/>
       <c r="CG174" s="2"/>
-      <c r="CH174" s="1"/>
-      <c r="CI174" s="1"/>
-      <c r="CJ174" s="1"/>
-      <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-      <c r="CM174" s="1"/>
-      <c r="CN174" s="1"/>
-      <c r="CO174" s="24"/>
+      <c r="CH174" s="2"/>
+      <c r="CI174" s="2"/>
+      <c r="CJ174" s="2"/>
+      <c r="CK174" s="2"/>
+      <c r="CL174" s="2"/>
+      <c r="CM174" s="2"/>
+      <c r="CN174" s="2"/>
+      <c r="CO174" s="2"/>
       <c r="CP174" s="24"/>
       <c r="CQ174" s="24"/>
       <c r="CR174" s="24"/>
@@ -28491,79 +28649,72 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="CL133:CN133"/>
-    <mergeCell ref="CL158:CN158"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL34:CN34"/>
-    <mergeCell ref="CH59:CJ59"/>
-    <mergeCell ref="CL59:CM59"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL108:CN108"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
     <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="BR84:BU84"/>
@@ -28588,6 +28739,23 @@
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
     <mergeCell ref="R59:U59"/>
     <mergeCell ref="V59:Y59"/>
     <mergeCell ref="Z59:AC59"/>
@@ -28595,71 +28763,61 @@
     <mergeCell ref="AX34:BA34"/>
     <mergeCell ref="BB34:BE34"/>
     <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BN34:BQ34"/>
     <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CH59:CK59"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CL158:CO158"/>
+    <mergeCell ref="CL59:CO59"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="91" man="1"/>
-    <brk id="100" max="91" man="1"/>
-    <brk id="124" max="91" man="1"/>
+    <brk id="50" max="92" man="1"/>
+    <brk id="100" max="92" man="1"/>
+    <brk id="124" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69F0B8-15F3-4739-8930-7A75E4666F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB59621-D2E0-415C-8115-74C2B6F7C243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -305,12 +305,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -351,19 +352,20 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{710EF036-0666-44E8-8FC1-84DE49C27DCF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -683,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,11 +699,11 @@
   <dimension ref="A1:EV174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CG91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,7 +726,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -734,7 +736,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -852,36 +854,36 @@
       <c r="BS9" s="28"/>
       <c r="BT9" s="28"/>
       <c r="BU9" s="28"/>
-      <c r="BV9" s="26">
+      <c r="BV9" s="27">
         <v>2018</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27">
         <v>2020</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26">
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27">
         <v>2021</v>
       </c>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="26"/>
-      <c r="CL9" s="26">
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="27">
         <v>2022</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1422,28 +1424,28 @@
         <v>52884.47277971021</v>
       </c>
       <c r="CH12" s="10">
-        <v>46430.300796230811</v>
+        <v>46430.818762563402</v>
       </c>
       <c r="CI12" s="10">
-        <v>52849.253157415507</v>
+        <v>52819.492968022583</v>
       </c>
       <c r="CJ12" s="10">
-        <v>67877.636577602956</v>
+        <v>67552.130080674076</v>
       </c>
       <c r="CK12" s="10">
-        <v>73947.01885015193</v>
+        <v>73737.984486977453</v>
       </c>
       <c r="CL12" s="10">
-        <v>64371.44848578058</v>
+        <v>64278.199974307077</v>
       </c>
       <c r="CM12" s="10">
-        <v>73560.463025433302</v>
+        <v>78301.795476426603</v>
       </c>
       <c r="CN12" s="10">
-        <v>105583.55292625586</v>
+        <v>105008.92645285306</v>
       </c>
       <c r="CO12" s="10">
-        <v>105058.90655934474</v>
+        <v>101193.14807144552</v>
       </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -1762,28 +1764,28 @@
         <v>8862.0147975722048</v>
       </c>
       <c r="CH13" s="10">
-        <v>18218.746193832638</v>
+        <v>18543.055146150382</v>
       </c>
       <c r="CI13" s="10">
-        <v>28636.764893774238</v>
+        <v>28888.886231921544</v>
       </c>
       <c r="CJ13" s="10">
-        <v>20345.032295457306</v>
+        <v>20363.488123245195</v>
       </c>
       <c r="CK13" s="10">
-        <v>12743.548438235644</v>
+        <v>12780.961963022375</v>
       </c>
       <c r="CL13" s="10">
-        <v>24349.345679012895</v>
+        <v>24409.622158552458</v>
       </c>
       <c r="CM13" s="10">
-        <v>35621.486531043323</v>
+        <v>35919.397836294309</v>
       </c>
       <c r="CN13" s="10">
-        <v>25928.631715927935</v>
+        <v>26294.663427144449</v>
       </c>
       <c r="CO13" s="10">
-        <v>13153.724133185091</v>
+        <v>13255.056806212147</v>
       </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -2102,28 +2104,28 @@
         <v>90196.392168067527</v>
       </c>
       <c r="CH14" s="10">
-        <v>52138.343197657821</v>
+        <v>50399.250365964486</v>
       </c>
       <c r="CI14" s="10">
         <v>43239.536426352897</v>
       </c>
       <c r="CJ14" s="10">
-        <v>62997.561718120749</v>
+        <v>63140.936340124179</v>
       </c>
       <c r="CK14" s="10">
         <v>94971.210049289264</v>
       </c>
       <c r="CL14" s="10">
-        <v>91066.412891540836</v>
+        <v>84220.197269927652</v>
       </c>
       <c r="CM14" s="10">
-        <v>88289.001910687817</v>
+        <v>70004.28483725246</v>
       </c>
       <c r="CN14" s="10">
-        <v>117824.77195304068</v>
+        <v>108629.96941892747</v>
       </c>
       <c r="CO14" s="10">
-        <v>184871.35006387878</v>
+        <v>170420.64307232076</v>
       </c>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
@@ -2463,7 +2465,7 @@
         <v>5166.2083527966124</v>
       </c>
       <c r="CO15" s="10">
-        <v>5190.5412281268282</v>
+        <v>5182.2074286087072</v>
       </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -2782,28 +2784,28 @@
         <v>19783.117813536392</v>
       </c>
       <c r="CH16" s="10">
-        <v>26331.735968171131</v>
+        <v>26079.237909513547</v>
       </c>
       <c r="CI16" s="10">
-        <v>33210.08641208458</v>
+        <v>33600.297511936791</v>
       </c>
       <c r="CJ16" s="10">
         <v>21519.870290264276</v>
       </c>
       <c r="CK16" s="10">
-        <v>24325.582484735562</v>
+        <v>23229.524274839223</v>
       </c>
       <c r="CL16" s="10">
-        <v>24311.726665800888</v>
+        <v>27228.201327187286</v>
       </c>
       <c r="CM16" s="10">
-        <v>22955.136807267823</v>
+        <v>28485.623424981779</v>
       </c>
       <c r="CN16" s="10">
-        <v>26267.216368393802</v>
+        <v>28773.936324629412</v>
       </c>
       <c r="CO16" s="10">
-        <v>29384.839177816735</v>
+        <v>28567.586843018984</v>
       </c>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="11"/>
@@ -3131,19 +3133,19 @@
         <v>58515.768249921377</v>
       </c>
       <c r="CK17" s="10">
-        <v>68082.114901429057</v>
+        <v>72810.256070398711</v>
       </c>
       <c r="CL17" s="10">
         <v>90733.813918259533</v>
       </c>
       <c r="CM17" s="10">
-        <v>86946.134129761122</v>
+        <v>86991.615009958172</v>
       </c>
       <c r="CN17" s="10">
         <v>95172.222712710689</v>
       </c>
       <c r="CO17" s="10">
-        <v>94454.245181826438</v>
+        <v>95705.4510154577</v>
       </c>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="11"/>
@@ -3483,7 +3485,7 @@
         <v>9578.5690716619501</v>
       </c>
       <c r="CO18" s="10">
-        <v>9190.7326090532115</v>
+        <v>8588.9949643320688</v>
       </c>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
@@ -3802,28 +3804,28 @@
         <v>14312.987210784406</v>
       </c>
       <c r="CH19" s="10">
-        <v>7633.9947160214942</v>
+        <v>8511.993673556779</v>
       </c>
       <c r="CI19" s="10">
-        <v>6584.5713011930566</v>
+        <v>7058.3638867921072</v>
       </c>
       <c r="CJ19" s="10">
-        <v>6454.0482820084544</v>
+        <v>7235.5170074011821</v>
       </c>
       <c r="CK19" s="10">
-        <v>14666.738397941102</v>
+        <v>15309.74911073353</v>
       </c>
       <c r="CL19" s="10">
-        <v>12921.730329943504</v>
+        <v>13767.147484887126</v>
       </c>
       <c r="CM19" s="10">
-        <v>13450.103221377174</v>
+        <v>15704.429121634676</v>
       </c>
       <c r="CN19" s="10">
-        <v>15597.827693666735</v>
+        <v>17758.849756129912</v>
       </c>
       <c r="CO19" s="10">
-        <v>31545.894643548243</v>
+        <v>43483.899187625917</v>
       </c>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
@@ -4295,28 +4297,28 @@
         <v>259162.18962816379</v>
       </c>
       <c r="CH21" s="15">
-        <v>228563.18128961173</v>
+        <v>227774.41627544645</v>
       </c>
       <c r="CI21" s="15">
-        <v>239508.29737906365</v>
+        <v>240594.66221326927</v>
       </c>
       <c r="CJ21" s="15">
-        <v>250501.12626782805</v>
+        <v>251118.9189460832</v>
       </c>
       <c r="CK21" s="15">
-        <v>303723.94911543583</v>
+        <v>307827.42194891378</v>
       </c>
       <c r="CL21" s="15">
-        <v>320317.63073677535</v>
+        <v>317200.33489955822</v>
       </c>
       <c r="CM21" s="15">
-        <v>332974.94291878171</v>
+        <v>327559.76299975917</v>
       </c>
       <c r="CN21" s="15">
-        <v>401119.0007944543</v>
+        <v>396383.34551685356</v>
       </c>
       <c r="CO21" s="15">
-        <v>472850.2335967801</v>
+        <v>466396.98738902184</v>
       </c>
       <c r="CP21" s="11"/>
       <c r="CQ21" s="11"/>
@@ -4796,7 +4798,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4806,7 +4808,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -4816,144 +4818,144 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="26">
+      <c r="B34" s="27">
         <v>2000</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27">
         <v>2001</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27">
         <v>2002</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26">
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27">
         <v>2003</v>
       </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26">
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27">
         <v>2004</v>
       </c>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26">
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27">
         <v>2005</v>
       </c>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26">
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27">
         <v>2006</v>
       </c>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26">
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27">
         <v>2007</v>
       </c>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26">
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27">
         <v>2008</v>
       </c>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26">
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27">
         <v>2009</v>
       </c>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26">
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26">
+      <c r="AQ34" s="27"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="27"/>
+      <c r="AT34" s="27">
         <v>2011</v>
       </c>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26">
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="27"/>
+      <c r="AX34" s="27">
         <v>2012</v>
       </c>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26">
+      <c r="AY34" s="27"/>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="27">
         <v>2013</v>
       </c>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26">
+      <c r="BC34" s="27"/>
+      <c r="BD34" s="27"/>
+      <c r="BE34" s="27"/>
+      <c r="BF34" s="27">
         <v>2014</v>
       </c>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26">
+      <c r="BG34" s="27"/>
+      <c r="BH34" s="27"/>
+      <c r="BI34" s="27"/>
+      <c r="BJ34" s="27">
         <v>2015</v>
       </c>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26">
+      <c r="BK34" s="27"/>
+      <c r="BL34" s="27"/>
+      <c r="BM34" s="27"/>
+      <c r="BN34" s="27">
         <v>2016</v>
       </c>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-      <c r="BR34" s="26">
+      <c r="BO34" s="27"/>
+      <c r="BP34" s="27"/>
+      <c r="BQ34" s="27"/>
+      <c r="BR34" s="27">
         <v>2017</v>
       </c>
-      <c r="BS34" s="26"/>
-      <c r="BT34" s="26"/>
-      <c r="BU34" s="26"/>
-      <c r="BV34" s="27">
+      <c r="BS34" s="27"/>
+      <c r="BT34" s="27"/>
+      <c r="BU34" s="27"/>
+      <c r="BV34" s="26">
         <v>2018</v>
       </c>
-      <c r="BW34" s="27"/>
-      <c r="BX34" s="27"/>
-      <c r="BY34" s="27"/>
-      <c r="BZ34" s="27">
+      <c r="BW34" s="26"/>
+      <c r="BX34" s="26"/>
+      <c r="BY34" s="26"/>
+      <c r="BZ34" s="26">
         <v>2019</v>
       </c>
-      <c r="CA34" s="27"/>
-      <c r="CB34" s="27"/>
-      <c r="CC34" s="27"/>
-      <c r="CD34" s="27">
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="26"/>
+      <c r="CC34" s="26"/>
+      <c r="CD34" s="26">
         <v>2020</v>
       </c>
-      <c r="CE34" s="27"/>
-      <c r="CF34" s="27"/>
-      <c r="CG34" s="27"/>
-      <c r="CH34" s="27">
+      <c r="CE34" s="26"/>
+      <c r="CF34" s="26"/>
+      <c r="CG34" s="26"/>
+      <c r="CH34" s="26">
         <v>2021</v>
       </c>
-      <c r="CI34" s="27"/>
-      <c r="CJ34" s="27"/>
-      <c r="CK34" s="27"/>
-      <c r="CL34" s="27">
+      <c r="CI34" s="26"/>
+      <c r="CJ34" s="26"/>
+      <c r="CK34" s="26"/>
+      <c r="CL34" s="26">
         <v>2022</v>
       </c>
-      <c r="CM34" s="27"/>
-      <c r="CN34" s="27"/>
-      <c r="CO34" s="27"/>
+      <c r="CM34" s="26"/>
+      <c r="CN34" s="26"/>
+      <c r="CO34" s="26"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5494,28 +5496,28 @@
         <v>55772.422902689606</v>
       </c>
       <c r="CH37" s="10">
-        <v>48469.24732577696</v>
+        <v>48469.788038153369</v>
       </c>
       <c r="CI37" s="10">
-        <v>49847.290393522198</v>
+        <v>49819.220653380049</v>
       </c>
       <c r="CJ37" s="10">
-        <v>65274.534079568817</v>
+        <v>64961.510733468458</v>
       </c>
       <c r="CK37" s="10">
-        <v>71475.490688452279</v>
+        <v>71273.442872178304</v>
       </c>
       <c r="CL37" s="10">
-        <v>63524.930677656928</v>
+        <v>65463.132122746989</v>
       </c>
       <c r="CM37" s="10">
-        <v>64007.189112314896</v>
+        <v>73741.448231983406</v>
       </c>
       <c r="CN37" s="10">
-        <v>95713.920271853422</v>
+        <v>100951.57153183127</v>
       </c>
       <c r="CO37" s="10">
-        <v>93353.706819826039</v>
+        <v>97606.909602206899</v>
       </c>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="11"/>
@@ -5834,28 +5836,28 @@
         <v>8554.3589097095992</v>
       </c>
       <c r="CH38" s="10">
-        <v>23041.035088763867</v>
+        <v>23451.184825219545</v>
       </c>
       <c r="CI38" s="10">
-        <v>24431.872116757837</v>
+        <v>24646.973100209358</v>
       </c>
       <c r="CJ38" s="10">
-        <v>18925.644780846895</v>
+        <v>18942.813022989623</v>
       </c>
       <c r="CK38" s="10">
-        <v>11892.117955521602</v>
+        <v>11927.031782863498</v>
       </c>
       <c r="CL38" s="10">
-        <v>29732.430998115196</v>
+        <v>30655.88424405938</v>
       </c>
       <c r="CM38" s="10">
-        <v>28704.906341587925</v>
+        <v>29842.408740141524</v>
       </c>
       <c r="CN38" s="10">
-        <v>23909.170176036183</v>
+        <v>24246.693365427058</v>
       </c>
       <c r="CO38" s="10">
-        <v>11905.285128873149</v>
+        <v>12084.392593717253</v>
       </c>
       <c r="CP38" s="11"/>
       <c r="CQ38" s="11"/>
@@ -6174,28 +6176,28 @@
         <v>99390.095795647168</v>
       </c>
       <c r="CH39" s="10">
-        <v>46518.069333722618</v>
+        <v>44966.442719585699</v>
       </c>
       <c r="CI39" s="10">
         <v>40240.940665961825</v>
       </c>
       <c r="CJ39" s="10">
-        <v>68168.002215334855</v>
+        <v>68323.144117398988</v>
       </c>
       <c r="CK39" s="10">
         <v>101474.95724944078</v>
       </c>
       <c r="CL39" s="10">
-        <v>77590.766175736702</v>
+        <v>74248.938600978479</v>
       </c>
       <c r="CM39" s="10">
-        <v>77256.728313702624</v>
+        <v>63337.90549007689</v>
       </c>
       <c r="CN39" s="10">
-        <v>121232.2516912953</v>
+        <v>117275.04901732334</v>
       </c>
       <c r="CO39" s="10">
-        <v>181359.23075887191</v>
+        <v>178175.86815327118</v>
       </c>
       <c r="CP39" s="11"/>
       <c r="CQ39" s="11"/>
@@ -6526,16 +6528,16 @@
         <v>4875.0421669535563</v>
       </c>
       <c r="CL40" s="10">
-        <v>5500.2620241625873</v>
+        <v>5657.089442415454</v>
       </c>
       <c r="CM40" s="10">
-        <v>4290.0302877335871</v>
+        <v>4423.042275148362</v>
       </c>
       <c r="CN40" s="10">
         <v>4864.2388164691256</v>
       </c>
       <c r="CO40" s="10">
-        <v>4791.1653424327533</v>
+        <v>4818.3180875321104</v>
       </c>
       <c r="CP40" s="11"/>
       <c r="CQ40" s="11"/>
@@ -6854,28 +6856,28 @@
         <v>18950.325767817922</v>
       </c>
       <c r="CH41" s="10">
-        <v>30857.729259048752</v>
+        <v>30561.830927776209</v>
       </c>
       <c r="CI41" s="10">
-        <v>29358.325947937912</v>
+        <v>29703.279722397103</v>
       </c>
       <c r="CJ41" s="10">
         <v>19898.02283507834</v>
       </c>
       <c r="CK41" s="10">
-        <v>22526.775377773323</v>
+        <v>21511.767531166046</v>
       </c>
       <c r="CL41" s="10">
-        <v>27508.056124545346</v>
+        <v>31686.386603363273</v>
       </c>
       <c r="CM41" s="10">
-        <v>19166.926178276852</v>
+        <v>24522.178278769905</v>
       </c>
       <c r="CN41" s="10">
-        <v>24075.589523195202</v>
+        <v>26373.159234028655</v>
       </c>
       <c r="CO41" s="10">
-        <v>26392.548962032939</v>
+        <v>25845.428388102409</v>
       </c>
       <c r="CP41" s="11"/>
       <c r="CQ41" s="11"/>
@@ -7203,19 +7205,19 @@
         <v>54854.538198362068</v>
       </c>
       <c r="CK42" s="10">
-        <v>63856.299711898791</v>
+        <v>68290.96805325427</v>
       </c>
       <c r="CL42" s="10">
-        <v>104673.93880912616</v>
+        <v>107658.4772746901</v>
       </c>
       <c r="CM42" s="10">
-        <v>73720.123666276195</v>
+        <v>76045.567275541456</v>
       </c>
       <c r="CN42" s="10">
         <v>88438.723883617175</v>
       </c>
       <c r="CO42" s="10">
-        <v>85923.98882392743</v>
+        <v>87696.403588891451</v>
       </c>
       <c r="CP42" s="11"/>
       <c r="CQ42" s="11"/>
@@ -7546,16 +7548,16 @@
         <v>9059.2377780854313</v>
       </c>
       <c r="CL43" s="10">
-        <v>8534.4574135530274</v>
+        <v>8777.79798832507</v>
       </c>
       <c r="CM43" s="10">
-        <v>5990.3662319533241</v>
+        <v>6176.0969761237629</v>
       </c>
       <c r="CN43" s="10">
         <v>8722.4214166068523</v>
       </c>
       <c r="CO43" s="10">
-        <v>8185.6170962299448</v>
+        <v>7705.4109102236398</v>
       </c>
       <c r="CP43" s="11"/>
       <c r="CQ43" s="11"/>
@@ -7874,28 +7876,28 @@
         <v>13688.576578580429</v>
       </c>
       <c r="CH44" s="10">
-        <v>9061.8605375509469</v>
+        <v>10104.080816876256</v>
       </c>
       <c r="CI44" s="10">
-        <v>5840.6722241052976</v>
+        <v>6260.9375789954502</v>
       </c>
       <c r="CJ44" s="10">
-        <v>5966.7813445371357</v>
+        <v>6689.2508409322709</v>
       </c>
       <c r="CK44" s="10">
-        <v>13560.490219946529</v>
+        <v>14155.001436112121</v>
       </c>
       <c r="CL44" s="10">
-        <v>14809.684861557245</v>
+        <v>16228.514766005081</v>
       </c>
       <c r="CM44" s="10">
-        <v>11268.659326397717</v>
+        <v>13565.303601549647</v>
       </c>
       <c r="CN44" s="10">
-        <v>14294.357344158865</v>
+        <v>16274.78835007403</v>
       </c>
       <c r="CO44" s="10">
-        <v>28288.305278259773</v>
+        <v>39277.580084628244</v>
       </c>
       <c r="CP44" s="11"/>
       <c r="CQ44" s="11"/>
@@ -8367,28 +8369,28 @@
         <v>267210.21981634409</v>
       </c>
       <c r="CH46" s="15">
-        <v>250463.32294230157</v>
+        <v>250068.70872504951</v>
       </c>
       <c r="CI46" s="15">
-        <v>216990.21159942276</v>
+        <v>217942.46197208148</v>
       </c>
       <c r="CJ46" s="15">
-        <v>244997.48168149858</v>
+        <v>245579.23797600024</v>
       </c>
       <c r="CK46" s="15">
-        <v>298720.41114807234</v>
+        <v>302567.44887005404</v>
       </c>
       <c r="CL46" s="15">
-        <v>331874.52708445321</v>
+        <v>340376.22104258387</v>
       </c>
       <c r="CM46" s="15">
-        <v>284404.92945824313</v>
+        <v>291653.95086933492</v>
       </c>
       <c r="CN46" s="15">
-        <v>381250.67312323215</v>
+        <v>387146.64561537752</v>
       </c>
       <c r="CO46" s="15">
-        <v>440199.84821045393</v>
+        <v>453210.31140857324</v>
       </c>
       <c r="CP46" s="11"/>
       <c r="CQ46" s="11"/>
@@ -8868,7 +8870,7 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
@@ -8878,7 +8880,7 @@
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
@@ -8996,34 +8998,34 @@
       <c r="BS59" s="28"/>
       <c r="BT59" s="28"/>
       <c r="BU59" s="28"/>
-      <c r="BV59" s="26" t="s">
+      <c r="BV59" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="26"/>
-      <c r="BX59" s="26"/>
-      <c r="BY59" s="26"/>
-      <c r="BZ59" s="26" t="s">
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="26"/>
-      <c r="CB59" s="26"/>
-      <c r="CC59" s="26"/>
-      <c r="CD59" s="26" t="s">
+      <c r="CA59" s="27"/>
+      <c r="CB59" s="27"/>
+      <c r="CC59" s="27"/>
+      <c r="CD59" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="26"/>
-      <c r="CF59" s="26"/>
-      <c r="CG59" s="26"/>
-      <c r="CH59" s="26" t="s">
+      <c r="CE59" s="27"/>
+      <c r="CF59" s="27"/>
+      <c r="CG59" s="27"/>
+      <c r="CH59" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="26"/>
-      <c r="CJ59" s="26"/>
-      <c r="CK59" s="26"/>
-      <c r="CL59" s="26"/>
-      <c r="CM59" s="26"/>
-      <c r="CN59" s="26"/>
-      <c r="CO59" s="26"/>
+      <c r="CI59" s="27"/>
+      <c r="CJ59" s="27"/>
+      <c r="CK59" s="27"/>
+      <c r="CL59" s="27"/>
+      <c r="CM59" s="27"/>
+      <c r="CN59" s="27"/>
+      <c r="CO59" s="27"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9544,28 +9546,28 @@
         <v>-18.776073104159224</v>
       </c>
       <c r="CD62" s="21">
-        <v>-22.383354876287441</v>
+        <v>-22.382489001883584</v>
       </c>
       <c r="CE62" s="21">
-        <v>53.013260012370438</v>
+        <v>52.927096001991089</v>
       </c>
       <c r="CF62" s="21">
-        <v>31.321112503194058</v>
+        <v>30.691363480408796</v>
       </c>
       <c r="CG62" s="21">
-        <v>39.827467238214808</v>
+        <v>39.432201194729402</v>
       </c>
       <c r="CH62" s="21">
-        <v>38.641032648675463</v>
+        <v>38.43865279010285</v>
       </c>
       <c r="CI62" s="21">
-        <v>39.189219583345647</v>
+        <v>48.244125561430991</v>
       </c>
       <c r="CJ62" s="21">
-        <v>55.54983680898286</v>
+        <v>55.448727268031718</v>
       </c>
       <c r="CK62" s="21">
-        <v>42.073214299874223</v>
+        <v>37.23340660242323</v>
       </c>
       <c r="CL62" s="21"/>
       <c r="CM62" s="21"/>
@@ -9872,28 +9874,28 @@
         <v>-19.14461401397763</v>
       </c>
       <c r="CD63" s="21">
-        <v>11.670382561238384</v>
+        <v>13.658208967515264</v>
       </c>
       <c r="CE63" s="21">
-        <v>61.48186818510905</v>
+        <v>62.903572935781085</v>
       </c>
       <c r="CF63" s="21">
-        <v>19.321154587502008</v>
+        <v>19.429395786067744</v>
       </c>
       <c r="CG63" s="21">
-        <v>43.799674558507917</v>
+        <v>44.221853099633591</v>
       </c>
       <c r="CH63" s="21">
-        <v>33.649952746229985</v>
+        <v>31.637542822170815</v>
       </c>
       <c r="CI63" s="21">
-        <v>24.390749664560033</v>
+        <v>24.336388561093841</v>
       </c>
       <c r="CJ63" s="21">
-        <v>27.444534564427059</v>
+        <v>29.126519327151698</v>
       </c>
       <c r="CK63" s="21">
-        <v>3.2186929483373632</v>
+        <v>3.7093831009075302</v>
       </c>
       <c r="CL63" s="21"/>
       <c r="CM63" s="21"/>
@@ -10200,28 +10202,28 @@
         <v>-62.547023003272514</v>
       </c>
       <c r="CD64" s="21">
-        <v>-68.051523672875376</v>
+        <v>-69.117176372144939</v>
       </c>
       <c r="CE64" s="21">
         <v>-52.818808357475284</v>
       </c>
       <c r="CF64" s="21">
-        <v>-39.778856615383972</v>
+        <v>-39.641800776492673</v>
       </c>
       <c r="CG64" s="21">
         <v>5.2938014109528524</v>
       </c>
       <c r="CH64" s="21">
-        <v>74.663035505953246</v>
+        <v>67.106051495565623</v>
       </c>
       <c r="CI64" s="21">
-        <v>104.18581975564135</v>
+        <v>61.898786672901139</v>
       </c>
       <c r="CJ64" s="21">
-        <v>87.03068617201626</v>
+        <v>72.043646666507186</v>
       </c>
       <c r="CK64" s="21">
-        <v>94.660413369411742</v>
+        <v>79.444531646878943</v>
       </c>
       <c r="CL64" s="21"/>
       <c r="CM64" s="21"/>
@@ -10549,7 +10551,7 @@
         <v>1.077233479551893</v>
       </c>
       <c r="CK65" s="21">
-        <v>1.3305837334179245</v>
+        <v>1.1678899539499241</v>
       </c>
       <c r="CL65" s="21"/>
       <c r="CM65" s="21"/>
@@ -10856,28 +10858,28 @@
         <v>22.575163676768753</v>
       </c>
       <c r="CD66" s="21">
-        <v>45.466740484912918</v>
+        <v>44.071843102678599</v>
       </c>
       <c r="CE66" s="21">
-        <v>65.437275583309997</v>
+        <v>67.381126630876878</v>
       </c>
       <c r="CF66" s="21">
         <v>41.261507939718598</v>
       </c>
       <c r="CG66" s="21">
-        <v>22.961318402961922</v>
+        <v>17.420946959860203</v>
       </c>
       <c r="CH66" s="21">
-        <v>-7.6713867434033176</v>
+        <v>4.4056633160074199</v>
       </c>
       <c r="CI66" s="21">
-        <v>-30.879021143061991</v>
+        <v>-15.222109521911165</v>
       </c>
       <c r="CJ66" s="21">
-        <v>22.060291321910313</v>
+        <v>33.708688465687089</v>
       </c>
       <c r="CK66" s="21">
-        <v>20.798090636702682</v>
+        <v>22.979646526647215</v>
       </c>
       <c r="CL66" s="21"/>
       <c r="CM66" s="21"/>
@@ -11193,19 +11195,19 @@
         <v>8.5087986576314592</v>
       </c>
       <c r="CG67" s="21">
-        <v>13.310201026319547</v>
+        <v>21.179325349387895</v>
       </c>
       <c r="CH67" s="21">
         <v>36.604467199614646</v>
       </c>
       <c r="CI67" s="21">
-        <v>40.947887167378695</v>
+        <v>41.021615965495471</v>
       </c>
       <c r="CJ67" s="21">
         <v>62.643720759555379</v>
       </c>
       <c r="CK67" s="21">
-        <v>38.735768297708717</v>
+        <v>31.44501362956629</v>
       </c>
       <c r="CL67" s="21"/>
       <c r="CM67" s="21"/>
@@ -11533,7 +11535,7 @@
         <v>24.719984978851173</v>
       </c>
       <c r="CK68" s="21">
-        <v>-6.8382733279975412</v>
+        <v>-12.93777816295983</v>
       </c>
       <c r="CL68" s="21"/>
       <c r="CM68" s="21"/>
@@ -11840,28 +11842,28 @@
         <v>-49.974888467106872</v>
       </c>
       <c r="CD69" s="21">
-        <v>-34.070654229406514</v>
+        <v>-26.488005955354254</v>
       </c>
       <c r="CE69" s="21">
-        <v>-39.704789288837162</v>
+        <v>-35.366249621584217</v>
       </c>
       <c r="CF69" s="21">
-        <v>-6.6371170517158191</v>
+        <v>4.6674424973616908</v>
       </c>
       <c r="CG69" s="21">
-        <v>2.4715398815570637</v>
+        <v>6.9640382211624967</v>
       </c>
       <c r="CH69" s="21">
-        <v>69.265644143355502</v>
+        <v>61.738225060668469</v>
       </c>
       <c r="CI69" s="21">
-        <v>104.26695385529737</v>
+        <v>122.49390047772164</v>
       </c>
       <c r="CJ69" s="21">
-        <v>141.67510083783878</v>
+        <v>145.43995595566224</v>
       </c>
       <c r="CK69" s="21">
-        <v>115.08459336792026</v>
+        <v>184.02751000759213</v>
       </c>
       <c r="CL69" s="21"/>
       <c r="CM69" s="21"/>
@@ -12317,28 +12319,28 @@
         <v>-44.937712270242017</v>
       </c>
       <c r="CD71" s="21">
-        <v>-38.165685009773156</v>
+        <v>-38.379073465708956</v>
       </c>
       <c r="CE71" s="21">
-        <v>4.5472838188587161E-2</v>
+        <v>0.49926038835795339</v>
       </c>
       <c r="CF71" s="21">
-        <v>-3.5886952610775893</v>
+        <v>-3.350923083937559</v>
       </c>
       <c r="CG71" s="21">
-        <v>17.194545065083602</v>
+        <v>18.777905986429985</v>
       </c>
       <c r="CH71" s="21">
-        <v>40.144020103964948</v>
+        <v>39.260738798675902</v>
       </c>
       <c r="CI71" s="21">
-        <v>39.02438728115996</v>
+        <v>36.145897829354908</v>
       </c>
       <c r="CJ71" s="21">
-        <v>60.126625684544933</v>
+        <v>57.846866807339012</v>
       </c>
       <c r="CK71" s="21">
-        <v>55.68421093361485</v>
+        <v>51.512488535353384</v>
       </c>
       <c r="CL71" s="21"/>
       <c r="CM71" s="21"/>
@@ -12810,7 +12812,7 @@
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
@@ -12820,7 +12822,7 @@
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
@@ -12938,34 +12940,34 @@
       <c r="BS84" s="28"/>
       <c r="BT84" s="28"/>
       <c r="BU84" s="28"/>
-      <c r="BV84" s="26" t="s">
+      <c r="BV84" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="26"/>
-      <c r="BX84" s="26"/>
-      <c r="BY84" s="26"/>
-      <c r="BZ84" s="26" t="s">
+      <c r="BW84" s="27"/>
+      <c r="BX84" s="27"/>
+      <c r="BY84" s="27"/>
+      <c r="BZ84" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="26"/>
-      <c r="CB84" s="26"/>
-      <c r="CC84" s="26"/>
-      <c r="CD84" s="26" t="s">
+      <c r="CA84" s="27"/>
+      <c r="CB84" s="27"/>
+      <c r="CC84" s="27"/>
+      <c r="CD84" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="26"/>
-      <c r="CF84" s="26"/>
-      <c r="CG84" s="26"/>
-      <c r="CH84" s="26" t="s">
+      <c r="CE84" s="27"/>
+      <c r="CF84" s="27"/>
+      <c r="CG84" s="27"/>
+      <c r="CH84" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="26"/>
-      <c r="CJ84" s="26"/>
-      <c r="CK84" s="26"/>
-      <c r="CL84" s="26"/>
-      <c r="CM84" s="26"/>
-      <c r="CN84" s="26"/>
-      <c r="CO84" s="26"/>
+      <c r="CI84" s="27"/>
+      <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="27"/>
+      <c r="CM84" s="27"/>
+      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13486,28 +13488,28 @@
         <v>-13.933678031383437</v>
       </c>
       <c r="CD87" s="21">
-        <v>-20.965808293520737</v>
+        <v>-20.964926605275664</v>
       </c>
       <c r="CE87" s="21">
-        <v>46.979829927470377</v>
+        <v>46.897063430041328</v>
       </c>
       <c r="CF87" s="21">
-        <v>24.318187560778298</v>
+        <v>23.722020991378216</v>
       </c>
       <c r="CG87" s="21">
-        <v>28.155613416976735</v>
+        <v>27.793341516710683</v>
       </c>
       <c r="CH87" s="21">
-        <v>31.062341964351162</v>
+        <v>35.059662466890046</v>
       </c>
       <c r="CI87" s="21">
-        <v>28.406556518933314</v>
+        <v>48.018068658768385</v>
       </c>
       <c r="CJ87" s="21">
-        <v>46.632866280101496</v>
+        <v>55.402130264529973</v>
       </c>
       <c r="CK87" s="21">
-        <v>30.60939620091122</v>
+        <v>36.947095115434507</v>
       </c>
       <c r="CL87" s="21"/>
       <c r="CM87" s="21"/>
@@ -13814,28 +13816,28 @@
         <v>-15.721109910841548</v>
       </c>
       <c r="CD88" s="21">
-        <v>12.820615943202256</v>
+        <v>14.8289174677478</v>
       </c>
       <c r="CE88" s="21">
-        <v>65.621380638281437</v>
+        <v>67.079530127835199</v>
       </c>
       <c r="CF88" s="21">
-        <v>20.026331050325126</v>
+        <v>20.135211943887128</v>
       </c>
       <c r="CG88" s="21">
-        <v>39.018225457240163</v>
+        <v>39.426366239155072</v>
       </c>
       <c r="CH88" s="21">
-        <v>29.041212270079114</v>
+        <v>30.722112646060651</v>
       </c>
       <c r="CI88" s="21">
-        <v>17.48958984563123</v>
+        <v>21.079406460211672</v>
       </c>
       <c r="CJ88" s="21">
-        <v>26.332130043108009</v>
+        <v>27.999433537143986</v>
       </c>
       <c r="CK88" s="21">
-        <v>0.11072185291797609</v>
+        <v>1.3193627192295025</v>
       </c>
       <c r="CL88" s="21"/>
       <c r="CM88" s="21"/>
@@ -14142,28 +14144,28 @@
         <v>-61.40408079107381</v>
       </c>
       <c r="CD89" s="21">
-        <v>-67.389839091766575</v>
+        <v>-68.477562513680425</v>
       </c>
       <c r="CE89" s="21">
         <v>-51.480536243458829</v>
       </c>
       <c r="CF89" s="21">
-        <v>-39.159383252426551</v>
+        <v>-39.020917569140757</v>
       </c>
       <c r="CG89" s="21">
         <v>2.097655140689497</v>
       </c>
       <c r="CH89" s="21">
-        <v>66.797047442139586</v>
+        <v>65.12077476086057</v>
       </c>
       <c r="CI89" s="21">
-        <v>91.985393569715797</v>
+        <v>57.396682189519112</v>
       </c>
       <c r="CJ89" s="21">
-        <v>77.843339618985169</v>
+        <v>71.647617410303553</v>
       </c>
       <c r="CK89" s="21">
-        <v>78.723140836673167</v>
+        <v>75.586048994618437</v>
       </c>
       <c r="CL89" s="21"/>
       <c r="CM89" s="21"/>
@@ -14482,16 +14484,16 @@
         <v>-2.6839380096825636</v>
       </c>
       <c r="CH90" s="21">
-        <v>-3.1496301018883486</v>
+        <v>-0.38816284792265776</v>
       </c>
       <c r="CI90" s="21">
-        <v>-4.8146707951613621</v>
+        <v>-1.8634585749432517</v>
       </c>
       <c r="CJ90" s="21">
         <v>0.19497695980889773</v>
       </c>
       <c r="CK90" s="21">
-        <v>-1.7205353645836823</v>
+        <v>-1.1635607955549858</v>
       </c>
       <c r="CL90" s="21"/>
       <c r="CM90" s="21"/>
@@ -14798,28 +14800,28 @@
         <v>27.765128088818415</v>
       </c>
       <c r="CD91" s="21">
-        <v>46.965084961161665</v>
+        <v>45.555819780620766</v>
       </c>
       <c r="CE91" s="21">
-        <v>69.678183062228896</v>
+        <v>71.671863825719583</v>
       </c>
       <c r="CF91" s="21">
         <v>42.096349765096193</v>
       </c>
       <c r="CG91" s="21">
-        <v>18.872760572955684</v>
+        <v>13.516610715463528</v>
       </c>
       <c r="CH91" s="21">
-        <v>-10.855215905172756</v>
+        <v>3.6796083266235513</v>
       </c>
       <c r="CI91" s="21">
-        <v>-34.713831393975951</v>
+        <v>-17.442859819013535</v>
       </c>
       <c r="CJ91" s="21">
-        <v>20.994883374805482</v>
+        <v>32.541607036128539</v>
       </c>
       <c r="CK91" s="21">
-        <v>17.160794296701212</v>
+        <v>20.145535928917965</v>
       </c>
       <c r="CL91" s="21"/>
       <c r="CM91" s="21"/>
@@ -15135,19 +15137,19 @@
         <v>9.1500751444966397</v>
       </c>
       <c r="CG92" s="21">
-        <v>9.542550226516596</v>
+        <v>17.150020150589825</v>
       </c>
       <c r="CH92" s="21">
-        <v>31.893844230661557</v>
+        <v>35.654496174745901</v>
       </c>
       <c r="CI92" s="21">
-        <v>33.128142547256431</v>
+        <v>37.327565620680986</v>
       </c>
       <c r="CJ92" s="21">
         <v>61.224078787811067</v>
       </c>
       <c r="CK92" s="21">
-        <v>34.55835870789835</v>
+        <v>28.415815573890455</v>
       </c>
       <c r="CL92" s="21"/>
       <c r="CM92" s="21"/>
@@ -15466,16 +15468,16 @@
         <v>19.968569804712928</v>
       </c>
       <c r="CH93" s="21">
-        <v>14.188845185821975</v>
+        <v>17.444679490642258</v>
       </c>
       <c r="CI93" s="21">
-        <v>-18.926067964998836</v>
+        <v>-16.412378292844309</v>
       </c>
       <c r="CJ93" s="21">
         <v>23.631361793372946</v>
       </c>
       <c r="CK93" s="21">
-        <v>-9.6434236881252957</v>
+        <v>-14.944158670133817</v>
       </c>
       <c r="CL93" s="21"/>
       <c r="CM93" s="21"/>
@@ -15782,28 +15784,28 @@
         <v>-47.856771380604989</v>
       </c>
       <c r="CD94" s="21">
-        <v>-33.391565176274725</v>
+        <v>-25.730813693757852</v>
       </c>
       <c r="CE94" s="21">
-        <v>-38.159149655046221</v>
+        <v>-33.709393544838889</v>
       </c>
       <c r="CF94" s="21">
-        <v>-6.0853514592352411</v>
+        <v>5.2860169415010603</v>
       </c>
       <c r="CG94" s="21">
-        <v>-0.9357171499798369</v>
+        <v>3.4074021857140764</v>
       </c>
       <c r="CH94" s="21">
-        <v>63.428744022137664</v>
+        <v>60.613469548853374</v>
       </c>
       <c r="CI94" s="21">
-        <v>92.934287253620113</v>
+        <v>116.66568992892215</v>
       </c>
       <c r="CJ94" s="21">
-        <v>139.5656304256232</v>
+        <v>143.29762386075862</v>
       </c>
       <c r="CK94" s="21">
-        <v>108.60827904768269</v>
+        <v>177.48199293306754</v>
       </c>
       <c r="CL94" s="21"/>
       <c r="CM94" s="21"/>
@@ -16259,28 +16261,28 @@
         <v>-43.72729502330742</v>
       </c>
       <c r="CD96" s="21">
-        <v>-33.644028512114943</v>
+        <v>-33.748574796341643</v>
       </c>
       <c r="CE96" s="21">
-        <v>1.0300550249416887</v>
+        <v>1.4734202202567417</v>
       </c>
       <c r="CF96" s="21">
-        <v>-5.982618962974172</v>
+        <v>-5.7593709408497915</v>
       </c>
       <c r="CG96" s="21">
-        <v>11.79228524769205</v>
+        <v>13.23198980862756</v>
       </c>
       <c r="CH96" s="21">
-        <v>32.504241813044246</v>
+        <v>36.113079792333167</v>
       </c>
       <c r="CI96" s="21">
-        <v>31.068091671928556</v>
+        <v>33.821536303786417</v>
       </c>
       <c r="CJ96" s="21">
-        <v>55.614119176484166</v>
+        <v>57.646325807563699</v>
       </c>
       <c r="CK96" s="21">
-        <v>47.361824563187213</v>
+        <v>49.788192054729905</v>
       </c>
       <c r="CL96" s="21"/>
       <c r="CM96" s="21"/>
@@ -16747,7 +16749,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -16757,7 +16759,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -16767,144 +16769,144 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="26">
+      <c r="B108" s="27">
         <v>2000</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26">
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27">
         <v>2001</v>
       </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26">
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27">
         <v>2002</v>
       </c>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26">
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27">
         <v>2003</v>
       </c>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26">
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27">
         <v>2004</v>
       </c>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26">
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27">
         <v>2005</v>
       </c>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26">
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27">
         <v>2006</v>
       </c>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26">
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27">
         <v>2007</v>
       </c>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26">
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27">
         <v>2008</v>
       </c>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26">
+      <c r="AI108" s="27"/>
+      <c r="AJ108" s="27"/>
+      <c r="AK108" s="27"/>
+      <c r="AL108" s="27">
         <v>2009</v>
       </c>
-      <c r="AM108" s="26"/>
-      <c r="AN108" s="26"/>
-      <c r="AO108" s="26"/>
-      <c r="AP108" s="26">
+      <c r="AM108" s="27"/>
+      <c r="AN108" s="27"/>
+      <c r="AO108" s="27"/>
+      <c r="AP108" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="26"/>
-      <c r="AR108" s="26"/>
-      <c r="AS108" s="26"/>
-      <c r="AT108" s="26">
+      <c r="AQ108" s="27"/>
+      <c r="AR108" s="27"/>
+      <c r="AS108" s="27"/>
+      <c r="AT108" s="27">
         <v>2011</v>
       </c>
-      <c r="AU108" s="26"/>
-      <c r="AV108" s="26"/>
-      <c r="AW108" s="26"/>
-      <c r="AX108" s="26">
+      <c r="AU108" s="27"/>
+      <c r="AV108" s="27"/>
+      <c r="AW108" s="27"/>
+      <c r="AX108" s="27">
         <v>2012</v>
       </c>
-      <c r="AY108" s="26"/>
-      <c r="AZ108" s="26"/>
-      <c r="BA108" s="26"/>
-      <c r="BB108" s="26">
+      <c r="AY108" s="27"/>
+      <c r="AZ108" s="27"/>
+      <c r="BA108" s="27"/>
+      <c r="BB108" s="27">
         <v>2013</v>
       </c>
-      <c r="BC108" s="26"/>
-      <c r="BD108" s="26"/>
-      <c r="BE108" s="26"/>
-      <c r="BF108" s="26">
+      <c r="BC108" s="27"/>
+      <c r="BD108" s="27"/>
+      <c r="BE108" s="27"/>
+      <c r="BF108" s="27">
         <v>2014</v>
       </c>
-      <c r="BG108" s="26"/>
-      <c r="BH108" s="26"/>
-      <c r="BI108" s="26"/>
-      <c r="BJ108" s="26">
+      <c r="BG108" s="27"/>
+      <c r="BH108" s="27"/>
+      <c r="BI108" s="27"/>
+      <c r="BJ108" s="27">
         <v>2015</v>
       </c>
-      <c r="BK108" s="26"/>
-      <c r="BL108" s="26"/>
-      <c r="BM108" s="26"/>
-      <c r="BN108" s="26">
+      <c r="BK108" s="27"/>
+      <c r="BL108" s="27"/>
+      <c r="BM108" s="27"/>
+      <c r="BN108" s="27">
         <v>2016</v>
       </c>
-      <c r="BO108" s="26"/>
-      <c r="BP108" s="26"/>
-      <c r="BQ108" s="26"/>
-      <c r="BR108" s="26">
+      <c r="BO108" s="27"/>
+      <c r="BP108" s="27"/>
+      <c r="BQ108" s="27"/>
+      <c r="BR108" s="27">
         <v>2017</v>
       </c>
-      <c r="BS108" s="26"/>
-      <c r="BT108" s="26"/>
-      <c r="BU108" s="26"/>
-      <c r="BV108" s="27">
+      <c r="BS108" s="27"/>
+      <c r="BT108" s="27"/>
+      <c r="BU108" s="27"/>
+      <c r="BV108" s="26">
         <v>2018</v>
       </c>
-      <c r="BW108" s="27"/>
-      <c r="BX108" s="27"/>
-      <c r="BY108" s="27"/>
-      <c r="BZ108" s="27">
+      <c r="BW108" s="26"/>
+      <c r="BX108" s="26"/>
+      <c r="BY108" s="26"/>
+      <c r="BZ108" s="26">
         <v>2019</v>
       </c>
-      <c r="CA108" s="27"/>
-      <c r="CB108" s="27"/>
-      <c r="CC108" s="27"/>
-      <c r="CD108" s="27">
+      <c r="CA108" s="26"/>
+      <c r="CB108" s="26"/>
+      <c r="CC108" s="26"/>
+      <c r="CD108" s="26">
         <v>2020</v>
       </c>
-      <c r="CE108" s="27"/>
-      <c r="CF108" s="27"/>
-      <c r="CG108" s="27"/>
-      <c r="CH108" s="27">
+      <c r="CE108" s="26"/>
+      <c r="CF108" s="26"/>
+      <c r="CG108" s="26"/>
+      <c r="CH108" s="26">
         <v>2021</v>
       </c>
-      <c r="CI108" s="27"/>
-      <c r="CJ108" s="27"/>
-      <c r="CK108" s="27"/>
-      <c r="CL108" s="27">
+      <c r="CI108" s="26"/>
+      <c r="CJ108" s="26"/>
+      <c r="CK108" s="26"/>
+      <c r="CL108" s="26">
         <v>2022</v>
       </c>
-      <c r="CM108" s="27"/>
-      <c r="CN108" s="27"/>
-      <c r="CO108" s="27"/>
+      <c r="CM108" s="26"/>
+      <c r="CN108" s="26"/>
+      <c r="CO108" s="26"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17457,16 +17459,16 @@
         <v>103.45786805783897</v>
       </c>
       <c r="CL111" s="21">
-        <v>101.33257572907732</v>
+        <v>98.189924450577621</v>
       </c>
       <c r="CM111" s="21">
-        <v>114.92531393052592</v>
+        <v>106.184238788065</v>
       </c>
       <c r="CN111" s="21">
-        <v>110.31159587484245</v>
+        <v>104.0191102124076</v>
       </c>
       <c r="CO111" s="21">
-        <v>112.5385484286231</v>
+        <v>103.67416454824172</v>
       </c>
       <c r="CP111" s="11"/>
       <c r="CQ111" s="11"/>
@@ -17797,16 +17799,16 @@
         <v>107.15962022827664</v>
       </c>
       <c r="CL112" s="21">
-        <v>81.894903516488284</v>
+        <v>79.624590059843584</v>
       </c>
       <c r="CM112" s="21">
-        <v>124.09546335789501</v>
+        <v>120.36360117264438</v>
       </c>
       <c r="CN112" s="21">
         <v>108.44638908428462</v>
       </c>
       <c r="CO112" s="21">
-        <v>110.48642674910978</v>
+        <v>109.68740632527553</v>
       </c>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
@@ -18131,22 +18133,22 @@
         <v>107.45160453698703</v>
       </c>
       <c r="CJ113" s="21">
-        <v>92.415150320994769</v>
+        <v>92.415150320994783</v>
       </c>
       <c r="CK113" s="21">
         <v>93.590785966862427</v>
       </c>
       <c r="CL113" s="21">
-        <v>117.36759073274634</v>
+        <v>113.4294965784437</v>
       </c>
       <c r="CM113" s="21">
-        <v>114.2800165600961</v>
+        <v>110.52510229947529</v>
       </c>
       <c r="CN113" s="21">
-        <v>97.189296007689933</v>
+        <v>92.628372641209594</v>
       </c>
       <c r="CO113" s="21">
-        <v>101.93655392687259</v>
+        <v>95.647432415326193</v>
       </c>
       <c r="CP113" s="11"/>
       <c r="CQ113" s="11"/>
@@ -18477,16 +18479,16 @@
         <v>105.07362704623134</v>
       </c>
       <c r="CL114" s="21">
-        <v>92.067840693522641</v>
+        <v>89.515510222693749</v>
       </c>
       <c r="CM114" s="21">
-        <v>115.6042827362317</v>
+        <v>112.1277716735175</v>
       </c>
       <c r="CN114" s="21">
         <v>106.20795046709245</v>
       </c>
       <c r="CO114" s="21">
-        <v>108.33567320578605</v>
+        <v>107.55220669258424</v>
       </c>
       <c r="CP114" s="11"/>
       <c r="CQ114" s="11"/>
@@ -18805,7 +18807,7 @@
         <v>104.3946054327612</v>
       </c>
       <c r="CH115" s="21">
-        <v>85.332707883713084</v>
+        <v>85.33270788371307</v>
       </c>
       <c r="CI115" s="21">
         <v>113.11982321804426</v>
@@ -18817,16 +18819,16 @@
         <v>107.98519573616862</v>
       </c>
       <c r="CL115" s="21">
-        <v>88.380387751599855</v>
+        <v>85.930281884199488</v>
       </c>
       <c r="CM115" s="21">
-        <v>119.76430959119779</v>
+        <v>116.162696075182</v>
       </c>
       <c r="CN115" s="21">
         <v>109.10310770619809</v>
       </c>
       <c r="CO115" s="21">
-        <v>111.33763252684825</v>
+        <v>110.53245631699293</v>
       </c>
       <c r="CP115" s="11"/>
       <c r="CQ115" s="11"/>
@@ -19157,16 +19159,16 @@
         <v>106.6176950568635</v>
       </c>
       <c r="CL116" s="21">
-        <v>86.682334638914682</v>
+        <v>84.279302675582741</v>
       </c>
       <c r="CM116" s="21">
-        <v>117.94084139543469</v>
+        <v>114.39406414677018</v>
       </c>
       <c r="CN116" s="21">
         <v>107.61374489975071</v>
       </c>
       <c r="CO116" s="21">
-        <v>109.92767732813118</v>
+        <v>109.13269769204167</v>
       </c>
       <c r="CP116" s="11"/>
       <c r="CQ116" s="11"/>
@@ -19497,16 +19499,16 @@
         <v>108.89826065352379</v>
       </c>
       <c r="CL117" s="21">
-        <v>87.869444124189485</v>
+        <v>85.433502779159724</v>
       </c>
       <c r="CM117" s="21">
-        <v>120.07877768041106</v>
+        <v>116.46770731932735</v>
       </c>
       <c r="CN117" s="21">
         <v>109.8154814375863</v>
       </c>
       <c r="CO117" s="21">
-        <v>112.279043852249</v>
+        <v>111.46705950406977</v>
       </c>
       <c r="CP117" s="11"/>
       <c r="CQ117" s="11"/>
@@ -19825,28 +19827,28 @@
         <v>104.56154537777903</v>
       </c>
       <c r="CH118" s="21">
-        <v>84.243127384132677</v>
+        <v>84.243127384132691</v>
       </c>
       <c r="CI118" s="21">
-        <v>112.73653183305818</v>
+        <v>112.73653183305817</v>
       </c>
       <c r="CJ118" s="21">
-        <v>108.16632803073023</v>
+        <v>108.16632803073026</v>
       </c>
       <c r="CK118" s="21">
-        <v>108.15787748120904</v>
+        <v>108.15787748120907</v>
       </c>
       <c r="CL118" s="21">
-        <v>87.251892600939371</v>
+        <v>84.83307119223295</v>
       </c>
       <c r="CM118" s="21">
-        <v>119.3585042532012</v>
+        <v>115.76909432267084</v>
       </c>
       <c r="CN118" s="21">
         <v>109.11877545890869</v>
       </c>
       <c r="CO118" s="21">
-        <v>111.51567523485404</v>
+        <v>110.70921144819678</v>
       </c>
       <c r="CP118" s="11"/>
       <c r="CQ118" s="11"/>
@@ -20318,28 +20320,28 @@
         <v>96.988127851654866</v>
       </c>
       <c r="CH120" s="21">
-        <v>91.256148247408291</v>
+        <v>91.084733246607186</v>
       </c>
       <c r="CI120" s="21">
-        <v>110.3774661601836</v>
+        <v>110.39366080212932</v>
       </c>
       <c r="CJ120" s="21">
-        <v>102.2464086359403</v>
+        <v>102.25576112041863</v>
       </c>
       <c r="CK120" s="21">
-        <v>101.6749903189184</v>
+        <v>101.73844645169308</v>
       </c>
       <c r="CL120" s="21">
-        <v>96.517691053541768</v>
+        <v>93.191097171230965</v>
       </c>
       <c r="CM120" s="21">
-        <v>117.07776779856052</v>
+        <v>112.31110088630707</v>
       </c>
       <c r="CN120" s="21">
-        <v>105.21135543406636</v>
+        <v>102.38584009601688</v>
       </c>
       <c r="CO120" s="21">
-        <v>107.4171732496183</v>
+        <v>102.9096151716991</v>
       </c>
       <c r="CP120" s="11"/>
       <c r="CQ120" s="11"/>
@@ -20513,7 +20515,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -20523,7 +20525,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -20533,144 +20535,144 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="26">
+      <c r="B133" s="27">
         <v>2000</v>
       </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26">
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27">
         <v>2001</v>
       </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26">
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27">
         <v>2002</v>
       </c>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26">
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27">
         <v>2003</v>
       </c>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26"/>
-      <c r="R133" s="26">
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27">
         <v>2004</v>
       </c>
-      <c r="S133" s="26"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-      <c r="V133" s="26">
+      <c r="S133" s="27"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="27"/>
+      <c r="V133" s="27">
         <v>2005</v>
       </c>
-      <c r="W133" s="26"/>
-      <c r="X133" s="26"/>
-      <c r="Y133" s="26"/>
-      <c r="Z133" s="26">
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="27">
         <v>2006</v>
       </c>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26">
+      <c r="AA133" s="27"/>
+      <c r="AB133" s="27"/>
+      <c r="AC133" s="27"/>
+      <c r="AD133" s="27">
         <v>2007</v>
       </c>
-      <c r="AE133" s="26"/>
-      <c r="AF133" s="26"/>
-      <c r="AG133" s="26"/>
-      <c r="AH133" s="26">
+      <c r="AE133" s="27"/>
+      <c r="AF133" s="27"/>
+      <c r="AG133" s="27"/>
+      <c r="AH133" s="27">
         <v>2008</v>
       </c>
-      <c r="AI133" s="26"/>
-      <c r="AJ133" s="26"/>
-      <c r="AK133" s="26"/>
-      <c r="AL133" s="26">
+      <c r="AI133" s="27"/>
+      <c r="AJ133" s="27"/>
+      <c r="AK133" s="27"/>
+      <c r="AL133" s="27">
         <v>2009</v>
       </c>
-      <c r="AM133" s="26"/>
-      <c r="AN133" s="26"/>
-      <c r="AO133" s="26"/>
-      <c r="AP133" s="26">
+      <c r="AM133" s="27"/>
+      <c r="AN133" s="27"/>
+      <c r="AO133" s="27"/>
+      <c r="AP133" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="26"/>
-      <c r="AR133" s="26"/>
-      <c r="AS133" s="26"/>
-      <c r="AT133" s="26">
+      <c r="AQ133" s="27"/>
+      <c r="AR133" s="27"/>
+      <c r="AS133" s="27"/>
+      <c r="AT133" s="27">
         <v>2011</v>
       </c>
-      <c r="AU133" s="26"/>
-      <c r="AV133" s="26"/>
-      <c r="AW133" s="26"/>
-      <c r="AX133" s="26">
+      <c r="AU133" s="27"/>
+      <c r="AV133" s="27"/>
+      <c r="AW133" s="27"/>
+      <c r="AX133" s="27">
         <v>2012</v>
       </c>
-      <c r="AY133" s="26"/>
-      <c r="AZ133" s="26"/>
-      <c r="BA133" s="26"/>
-      <c r="BB133" s="26">
+      <c r="AY133" s="27"/>
+      <c r="AZ133" s="27"/>
+      <c r="BA133" s="27"/>
+      <c r="BB133" s="27">
         <v>2013</v>
       </c>
-      <c r="BC133" s="26"/>
-      <c r="BD133" s="26"/>
-      <c r="BE133" s="26"/>
-      <c r="BF133" s="26">
+      <c r="BC133" s="27"/>
+      <c r="BD133" s="27"/>
+      <c r="BE133" s="27"/>
+      <c r="BF133" s="27">
         <v>2014</v>
       </c>
-      <c r="BG133" s="26"/>
-      <c r="BH133" s="26"/>
-      <c r="BI133" s="26"/>
-      <c r="BJ133" s="26">
+      <c r="BG133" s="27"/>
+      <c r="BH133" s="27"/>
+      <c r="BI133" s="27"/>
+      <c r="BJ133" s="27">
         <v>2015</v>
       </c>
-      <c r="BK133" s="26"/>
-      <c r="BL133" s="26"/>
-      <c r="BM133" s="26"/>
-      <c r="BN133" s="26">
+      <c r="BK133" s="27"/>
+      <c r="BL133" s="27"/>
+      <c r="BM133" s="27"/>
+      <c r="BN133" s="27">
         <v>2016</v>
       </c>
-      <c r="BO133" s="26"/>
-      <c r="BP133" s="26"/>
-      <c r="BQ133" s="26"/>
-      <c r="BR133" s="26">
+      <c r="BO133" s="27"/>
+      <c r="BP133" s="27"/>
+      <c r="BQ133" s="27"/>
+      <c r="BR133" s="27">
         <v>2017</v>
       </c>
-      <c r="BS133" s="26"/>
-      <c r="BT133" s="26"/>
-      <c r="BU133" s="26"/>
-      <c r="BV133" s="27">
+      <c r="BS133" s="27"/>
+      <c r="BT133" s="27"/>
+      <c r="BU133" s="27"/>
+      <c r="BV133" s="26">
         <v>2018</v>
       </c>
-      <c r="BW133" s="27"/>
-      <c r="BX133" s="27"/>
-      <c r="BY133" s="27"/>
-      <c r="BZ133" s="27">
+      <c r="BW133" s="26"/>
+      <c r="BX133" s="26"/>
+      <c r="BY133" s="26"/>
+      <c r="BZ133" s="26">
         <v>2019</v>
       </c>
-      <c r="CA133" s="27"/>
-      <c r="CB133" s="27"/>
-      <c r="CC133" s="27"/>
-      <c r="CD133" s="27">
+      <c r="CA133" s="26"/>
+      <c r="CB133" s="26"/>
+      <c r="CC133" s="26"/>
+      <c r="CD133" s="26">
         <v>2020</v>
       </c>
-      <c r="CE133" s="27"/>
-      <c r="CF133" s="27"/>
-      <c r="CG133" s="27"/>
-      <c r="CH133" s="27">
+      <c r="CE133" s="26"/>
+      <c r="CF133" s="26"/>
+      <c r="CG133" s="26"/>
+      <c r="CH133" s="26">
         <v>2021</v>
       </c>
-      <c r="CI133" s="27"/>
-      <c r="CJ133" s="27"/>
-      <c r="CK133" s="27"/>
-      <c r="CL133" s="27">
+      <c r="CI133" s="26"/>
+      <c r="CJ133" s="26"/>
+      <c r="CK133" s="26"/>
+      <c r="CL133" s="26">
         <v>2022</v>
       </c>
-      <c r="CM133" s="27"/>
-      <c r="CN133" s="27"/>
-      <c r="CO133" s="27"/>
+      <c r="CM133" s="26"/>
+      <c r="CN133" s="26"/>
+      <c r="CO133" s="26"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21211,28 +21213,28 @@
         <v>20.405936859688858</v>
       </c>
       <c r="CH136" s="23">
-        <v>20.313989564836827</v>
+        <v>20.384562727367435</v>
       </c>
       <c r="CI136" s="23">
-        <v>22.065729553315787</v>
+        <v>21.95372602289989</v>
       </c>
       <c r="CJ136" s="23">
-        <v>27.09673908013902</v>
+        <v>26.900454320280797</v>
       </c>
       <c r="CK136" s="23">
-        <v>24.346785647136116</v>
+        <v>23.954326102635136</v>
       </c>
       <c r="CL136" s="23">
-        <v>20.096130312189576</v>
+        <v>20.264228281682247</v>
       </c>
       <c r="CM136" s="23">
-        <v>22.091891474060844</v>
+        <v>23.904583016957481</v>
       </c>
       <c r="CN136" s="23">
-        <v>26.322251680209014</v>
+        <v>26.491760473924415</v>
       </c>
       <c r="CO136" s="23">
-        <v>22.218220293602105</v>
+        <v>21.696784243385409</v>
       </c>
       <c r="CP136" s="11"/>
       <c r="CQ136" s="11"/>
@@ -21551,28 +21553,28 @@
         <v>3.4194860022934259</v>
       </c>
       <c r="CH137" s="23">
-        <v>7.9709890678970368</v>
+        <v>8.1409736217812814</v>
       </c>
       <c r="CI137" s="23">
-        <v>11.956481344131291</v>
+        <v>12.007284769399288</v>
       </c>
       <c r="CJ137" s="23">
-        <v>8.1217328634702532</v>
+        <v>8.1091015399032376</v>
       </c>
       <c r="CK137" s="23">
-        <v>4.1957667399458929</v>
+        <v>4.1519894108535498</v>
       </c>
       <c r="CL137" s="23">
-        <v>7.6016251815443301</v>
+        <v>7.6953330349672511</v>
       </c>
       <c r="CM137" s="23">
-        <v>10.697948085460597</v>
+        <v>10.965754006947648</v>
       </c>
       <c r="CN137" s="23">
-        <v>6.464074667261789</v>
+        <v>6.6336448603455374</v>
       </c>
       <c r="CO137" s="23">
-        <v>2.7817949952419485</v>
+        <v>2.842011669161169</v>
       </c>
       <c r="CP137" s="11"/>
       <c r="CQ137" s="11"/>
@@ -21891,28 +21893,28 @@
         <v>34.803067645584385</v>
       </c>
       <c r="CH138" s="23">
-        <v>22.811348224801563</v>
+        <v>22.126826704284877</v>
       </c>
       <c r="CI138" s="23">
-        <v>18.053460735816927</v>
+        <v>17.971943362577289</v>
       </c>
       <c r="CJ138" s="23">
-        <v>25.148614162622852</v>
+        <v>25.143838865315015</v>
       </c>
       <c r="CK138" s="23">
-        <v>31.268923746672911</v>
+        <v>30.852095452708056</v>
       </c>
       <c r="CL138" s="23">
-        <v>28.430034488602875</v>
+        <v>26.55110603732372</v>
       </c>
       <c r="CM138" s="23">
-        <v>26.515208963403296</v>
+        <v>21.371454233621463</v>
       </c>
       <c r="CN138" s="23">
-        <v>29.374019111455084</v>
+        <v>27.405280935121606</v>
       </c>
       <c r="CO138" s="23">
-        <v>39.097231412499752</v>
+        <v>36.539825016102185</v>
       </c>
       <c r="CP138" s="11"/>
       <c r="CQ138" s="11"/>
@@ -22231,28 +22233,28 @@
         <v>1.9634948696709589</v>
       </c>
       <c r="CH139" s="23">
-        <v>2.2087339442712222</v>
+        <v>2.2163826174160306</v>
       </c>
       <c r="CI139" s="23">
-        <v>2.0547311483249668</v>
+        <v>2.0454533545337292</v>
       </c>
       <c r="CJ139" s="23">
-        <v>2.0403698047416321</v>
+        <v>2.0353501688990101</v>
       </c>
       <c r="CK139" s="23">
-        <v>1.6865260838895644</v>
+        <v>1.6640439608727877</v>
       </c>
       <c r="CL139" s="23">
-        <v>1.5809221822990167</v>
+        <v>1.596458742622654</v>
       </c>
       <c r="CM139" s="23">
-        <v>1.4894390249993095</v>
+        <v>1.5140622577948184</v>
       </c>
       <c r="CN139" s="23">
-        <v>1.2879490481788312</v>
+        <v>1.3033363816182217</v>
       </c>
       <c r="CO139" s="23">
-        <v>1.097713580184678</v>
+        <v>1.1111151162488593</v>
       </c>
       <c r="CP139" s="11"/>
       <c r="CQ139" s="11"/>
@@ -22571,28 +22573,28 @@
         <v>7.633489222297615</v>
       </c>
       <c r="CH140" s="23">
-        <v>11.520550168929555</v>
+        <v>11.449590492189456</v>
       </c>
       <c r="CI140" s="23">
-        <v>13.865944009248174</v>
+        <v>13.965520765441017</v>
       </c>
       <c r="CJ140" s="23">
-        <v>8.5907279583469407</v>
+        <v>8.5695933944685088</v>
       </c>
       <c r="CK140" s="23">
-        <v>8.0091091122650262</v>
+        <v>7.5462816560554282</v>
       </c>
       <c r="CL140" s="23">
-        <v>7.5898808972458109</v>
+        <v>8.583913171406051</v>
       </c>
       <c r="CM140" s="23">
-        <v>6.8939532224402162</v>
+        <v>8.6963133579391201</v>
       </c>
       <c r="CN140" s="23">
-        <v>6.5484846931631466</v>
+        <v>7.2591183888188846</v>
       </c>
       <c r="CO140" s="23">
-        <v>6.2144072456723078</v>
+        <v>6.1251653881697887</v>
       </c>
       <c r="CP140" s="11"/>
       <c r="CQ140" s="11"/>
@@ -22911,28 +22913,28 @@
         <v>23.184214571644929</v>
       </c>
       <c r="CH141" s="23">
-        <v>29.060159423570159</v>
+        <v>29.160792486028143</v>
       </c>
       <c r="CI141" s="23">
-        <v>25.755568665981439</v>
+        <v>25.639273716516232</v>
       </c>
       <c r="CJ141" s="23">
-        <v>23.359483097636108</v>
+        <v>23.30201503554779</v>
       </c>
       <c r="CK141" s="23">
-        <v>22.415787460854201</v>
+        <v>23.652946709368248</v>
       </c>
       <c r="CL141" s="23">
-        <v>28.326200374783951</v>
+        <v>28.604576961430535</v>
       </c>
       <c r="CM141" s="23">
-        <v>26.111915019073606</v>
+        <v>26.557478920273287</v>
       </c>
       <c r="CN141" s="23">
-        <v>23.726680243073268</v>
+        <v>24.010146689844749</v>
       </c>
       <c r="CO141" s="23">
-        <v>19.975509891017982</v>
+        <v>20.520169212763324</v>
       </c>
       <c r="CP141" s="11"/>
       <c r="CQ141" s="11"/>
@@ -23251,28 +23253,28 @@
         <v>3.0675193941124248</v>
       </c>
       <c r="CH142" s="23">
-        <v>2.7742364042739931</v>
+        <v>2.783843368271516</v>
       </c>
       <c r="CI142" s="23">
-        <v>3.4988807063006195</v>
+        <v>3.4830820974560215</v>
       </c>
       <c r="CJ142" s="23">
-        <v>3.0658782369445947</v>
+        <v>3.0583356864463869</v>
       </c>
       <c r="CK142" s="23">
-        <v>3.2481312051729128</v>
+        <v>3.2048322096655828</v>
       </c>
       <c r="CL142" s="23">
-        <v>2.3411700039912136</v>
+        <v>2.3641779226618245</v>
       </c>
       <c r="CM142" s="23">
-        <v>2.1602702253977664</v>
+        <v>2.1959835616058063</v>
       </c>
       <c r="CN142" s="23">
-        <v>2.3879619396465097</v>
+        <v>2.4164913031782977</v>
       </c>
       <c r="CO142" s="23">
-        <v>1.943687864790302</v>
+        <v>1.8415631311031573</v>
       </c>
       <c r="CP142" s="11"/>
       <c r="CQ142" s="11"/>
@@ -23591,28 +23593,28 @@
         <v>5.5227914347074103</v>
       </c>
       <c r="CH143" s="23">
-        <v>3.339993201419647</v>
+        <v>3.7370279826612611</v>
       </c>
       <c r="CI143" s="23">
-        <v>2.7492038368807843</v>
+        <v>2.9337159111765301</v>
       </c>
       <c r="CJ143" s="23">
-        <v>2.5764547960985955</v>
+        <v>2.8813109891392505</v>
       </c>
       <c r="CK143" s="23">
-        <v>4.8289700040633745</v>
+        <v>4.9734844978412278</v>
       </c>
       <c r="CL143" s="23">
-        <v>4.0340365593432113</v>
+        <v>4.3402058479057111</v>
       </c>
       <c r="CM143" s="23">
-        <v>4.0393739851643682</v>
+        <v>4.7943706448603765</v>
       </c>
       <c r="CN143" s="23">
-        <v>3.8885786170123469</v>
+        <v>4.4802209671482869</v>
       </c>
       <c r="CO143" s="23">
-        <v>6.6714347169909178</v>
+        <v>9.323366223066099</v>
       </c>
       <c r="CP143" s="11"/>
       <c r="CQ143" s="11"/>
@@ -24585,7 +24587,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -24595,7 +24597,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -24605,144 +24607,144 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="26">
+      <c r="B158" s="27">
         <v>2000</v>
       </c>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26">
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27">
         <v>2001</v>
       </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26">
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27">
         <v>2002</v>
       </c>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-      <c r="N158" s="26">
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27">
         <v>2003</v>
       </c>
-      <c r="O158" s="26"/>
-      <c r="P158" s="26"/>
-      <c r="Q158" s="26"/>
-      <c r="R158" s="26">
+      <c r="O158" s="27"/>
+      <c r="P158" s="27"/>
+      <c r="Q158" s="27"/>
+      <c r="R158" s="27">
         <v>2004</v>
       </c>
-      <c r="S158" s="26"/>
-      <c r="T158" s="26"/>
-      <c r="U158" s="26"/>
-      <c r="V158" s="26">
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="27">
         <v>2005</v>
       </c>
-      <c r="W158" s="26"/>
-      <c r="X158" s="26"/>
-      <c r="Y158" s="26"/>
-      <c r="Z158" s="26">
+      <c r="W158" s="27"/>
+      <c r="X158" s="27"/>
+      <c r="Y158" s="27"/>
+      <c r="Z158" s="27">
         <v>2006</v>
       </c>
-      <c r="AA158" s="26"/>
-      <c r="AB158" s="26"/>
-      <c r="AC158" s="26"/>
-      <c r="AD158" s="26">
+      <c r="AA158" s="27"/>
+      <c r="AB158" s="27"/>
+      <c r="AC158" s="27"/>
+      <c r="AD158" s="27">
         <v>2007</v>
       </c>
-      <c r="AE158" s="26"/>
-      <c r="AF158" s="26"/>
-      <c r="AG158" s="26"/>
-      <c r="AH158" s="26">
+      <c r="AE158" s="27"/>
+      <c r="AF158" s="27"/>
+      <c r="AG158" s="27"/>
+      <c r="AH158" s="27">
         <v>2008</v>
       </c>
-      <c r="AI158" s="26"/>
-      <c r="AJ158" s="26"/>
-      <c r="AK158" s="26"/>
-      <c r="AL158" s="26">
+      <c r="AI158" s="27"/>
+      <c r="AJ158" s="27"/>
+      <c r="AK158" s="27"/>
+      <c r="AL158" s="27">
         <v>2009</v>
       </c>
-      <c r="AM158" s="26"/>
-      <c r="AN158" s="26"/>
-      <c r="AO158" s="26"/>
-      <c r="AP158" s="26">
+      <c r="AM158" s="27"/>
+      <c r="AN158" s="27"/>
+      <c r="AO158" s="27"/>
+      <c r="AP158" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="26"/>
-      <c r="AR158" s="26"/>
-      <c r="AS158" s="26"/>
-      <c r="AT158" s="26">
+      <c r="AQ158" s="27"/>
+      <c r="AR158" s="27"/>
+      <c r="AS158" s="27"/>
+      <c r="AT158" s="27">
         <v>2011</v>
       </c>
-      <c r="AU158" s="26"/>
-      <c r="AV158" s="26"/>
-      <c r="AW158" s="26"/>
-      <c r="AX158" s="26">
+      <c r="AU158" s="27"/>
+      <c r="AV158" s="27"/>
+      <c r="AW158" s="27"/>
+      <c r="AX158" s="27">
         <v>2012</v>
       </c>
-      <c r="AY158" s="26"/>
-      <c r="AZ158" s="26"/>
-      <c r="BA158" s="26"/>
-      <c r="BB158" s="26">
+      <c r="AY158" s="27"/>
+      <c r="AZ158" s="27"/>
+      <c r="BA158" s="27"/>
+      <c r="BB158" s="27">
         <v>2013</v>
       </c>
-      <c r="BC158" s="26"/>
-      <c r="BD158" s="26"/>
-      <c r="BE158" s="26"/>
-      <c r="BF158" s="26">
+      <c r="BC158" s="27"/>
+      <c r="BD158" s="27"/>
+      <c r="BE158" s="27"/>
+      <c r="BF158" s="27">
         <v>2014</v>
       </c>
-      <c r="BG158" s="26"/>
-      <c r="BH158" s="26"/>
-      <c r="BI158" s="26"/>
-      <c r="BJ158" s="26">
+      <c r="BG158" s="27"/>
+      <c r="BH158" s="27"/>
+      <c r="BI158" s="27"/>
+      <c r="BJ158" s="27">
         <v>2015</v>
       </c>
-      <c r="BK158" s="26"/>
-      <c r="BL158" s="26"/>
-      <c r="BM158" s="26"/>
-      <c r="BN158" s="26">
+      <c r="BK158" s="27"/>
+      <c r="BL158" s="27"/>
+      <c r="BM158" s="27"/>
+      <c r="BN158" s="27">
         <v>2016</v>
       </c>
-      <c r="BO158" s="26"/>
-      <c r="BP158" s="26"/>
-      <c r="BQ158" s="26"/>
-      <c r="BR158" s="26">
+      <c r="BO158" s="27"/>
+      <c r="BP158" s="27"/>
+      <c r="BQ158" s="27"/>
+      <c r="BR158" s="27">
         <v>2017</v>
       </c>
-      <c r="BS158" s="26"/>
-      <c r="BT158" s="26"/>
-      <c r="BU158" s="26"/>
-      <c r="BV158" s="27">
+      <c r="BS158" s="27"/>
+      <c r="BT158" s="27"/>
+      <c r="BU158" s="27"/>
+      <c r="BV158" s="26">
         <v>2018</v>
       </c>
-      <c r="BW158" s="27"/>
-      <c r="BX158" s="27"/>
-      <c r="BY158" s="27"/>
-      <c r="BZ158" s="27">
+      <c r="BW158" s="26"/>
+      <c r="BX158" s="26"/>
+      <c r="BY158" s="26"/>
+      <c r="BZ158" s="26">
         <v>2019</v>
       </c>
-      <c r="CA158" s="27"/>
-      <c r="CB158" s="27"/>
-      <c r="CC158" s="27"/>
-      <c r="CD158" s="27">
+      <c r="CA158" s="26"/>
+      <c r="CB158" s="26"/>
+      <c r="CC158" s="26"/>
+      <c r="CD158" s="26">
         <v>2020</v>
       </c>
-      <c r="CE158" s="27"/>
-      <c r="CF158" s="27"/>
-      <c r="CG158" s="27"/>
-      <c r="CH158" s="27">
+      <c r="CE158" s="26"/>
+      <c r="CF158" s="26"/>
+      <c r="CG158" s="26"/>
+      <c r="CH158" s="26">
         <v>2021</v>
       </c>
-      <c r="CI158" s="27"/>
-      <c r="CJ158" s="27"/>
-      <c r="CK158" s="27"/>
-      <c r="CL158" s="27">
+      <c r="CI158" s="26"/>
+      <c r="CJ158" s="26"/>
+      <c r="CK158" s="26"/>
+      <c r="CL158" s="26">
         <v>2022</v>
       </c>
-      <c r="CM158" s="27"/>
-      <c r="CN158" s="27"/>
-      <c r="CO158" s="27"/>
+      <c r="CM158" s="26"/>
+      <c r="CN158" s="26"/>
+      <c r="CO158" s="26"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25283,28 +25285,28 @@
         <v>20.872114450196733</v>
       </c>
       <c r="CH161" s="23">
-        <v>19.351834335018651</v>
+        <v>19.38258820356684</v>
       </c>
       <c r="CI161" s="23">
-        <v>22.972137787276484</v>
+        <v>22.858886791763375</v>
       </c>
       <c r="CJ161" s="23">
-        <v>26.64294083007227</v>
+        <v>26.452362695179044</v>
       </c>
       <c r="CK161" s="23">
-        <v>23.927220243755855</v>
+        <v>23.556216353857899</v>
       </c>
       <c r="CL161" s="23">
-        <v>19.1412493256801</v>
+        <v>19.232580913622932</v>
       </c>
       <c r="CM161" s="23">
-        <v>22.505653904888646</v>
+        <v>25.283884552971685</v>
       </c>
       <c r="CN161" s="23">
-        <v>25.105246238061245</v>
+        <v>26.075796516683408</v>
       </c>
       <c r="CO161" s="23">
-        <v>21.207119266246277</v>
+        <v>21.536780418531425</v>
       </c>
       <c r="CP161" s="11"/>
       <c r="CQ161" s="11"/>
@@ -25623,28 +25625,28 @@
         <v>3.2013591828894432</v>
       </c>
       <c r="CH162" s="23">
-        <v>9.1993649282021845</v>
+        <v>9.3778965568235559</v>
       </c>
       <c r="CI162" s="23">
-        <v>11.259435131507486</v>
+        <v>11.308935797635728</v>
       </c>
       <c r="CJ162" s="23">
-        <v>7.7248323741754197</v>
+        <v>7.713523821928649</v>
       </c>
       <c r="CK162" s="23">
-        <v>3.9810195459415101</v>
+        <v>3.9419414835949165</v>
       </c>
       <c r="CL162" s="23">
-        <v>8.9589373608505625</v>
+        <v>9.0064705901485631</v>
       </c>
       <c r="CM162" s="23">
-        <v>10.092970749932952</v>
+        <v>10.232129086950495</v>
       </c>
       <c r="CN162" s="23">
-        <v>6.2712466787718926</v>
+        <v>6.2629222389067696</v>
       </c>
       <c r="CO162" s="23">
-        <v>2.7045182267262811</v>
+        <v>2.6663984224363912</v>
       </c>
       <c r="CP162" s="11"/>
       <c r="CQ162" s="11"/>
@@ -25963,28 +25965,28 @@
         <v>37.195469493628963</v>
       </c>
       <c r="CH163" s="23">
-        <v>18.572806903324061</v>
+        <v>17.981635106944267</v>
       </c>
       <c r="CI163" s="23">
-        <v>18.545048815496372</v>
+        <v>18.464020412468638</v>
       </c>
       <c r="CJ163" s="23">
-        <v>27.823960371949685</v>
+        <v>27.821221647440741</v>
       </c>
       <c r="CK163" s="23">
-        <v>33.969877337622165</v>
+        <v>33.537962404218177</v>
       </c>
       <c r="CL163" s="23">
-        <v>23.379548547271277</v>
+        <v>21.813785455855719</v>
       </c>
       <c r="CM163" s="23">
-        <v>27.164342214766567</v>
+        <v>21.716800098639215</v>
       </c>
       <c r="CN163" s="23">
-        <v>31.798567251869279</v>
+        <v>30.292151655069166</v>
       </c>
       <c r="CO163" s="23">
-        <v>41.199294251497875</v>
+        <v>39.314169088408931</v>
       </c>
       <c r="CP163" s="11"/>
       <c r="CQ163" s="11"/>
@@ -26303,28 +26305,28 @@
         <v>1.8747388781237373</v>
       </c>
       <c r="CH164" s="23">
-        <v>2.2674512431291332</v>
+        <v>2.2710293337348171</v>
       </c>
       <c r="CI164" s="23">
-        <v>2.0770655313348798</v>
+        <v>2.0679902625306594</v>
       </c>
       <c r="CJ164" s="23">
-        <v>1.981560420172384</v>
+        <v>1.97686627234103</v>
       </c>
       <c r="CK164" s="23">
-        <v>1.6319749119979126</v>
+        <v>1.6112249302294503</v>
       </c>
       <c r="CL164" s="23">
-        <v>1.6573317851426776</v>
+        <v>1.6620107671116384</v>
       </c>
       <c r="CM164" s="23">
-        <v>1.5084233230083508</v>
+        <v>1.516537753719629</v>
       </c>
       <c r="CN164" s="23">
-        <v>1.2758636664483609</v>
+        <v>1.2564331556424357</v>
       </c>
       <c r="CO164" s="23">
-        <v>1.0884068592731904</v>
+        <v>1.0631527938004819</v>
       </c>
       <c r="CP164" s="11"/>
       <c r="CQ164" s="11"/>
@@ -26643,28 +26645,28 @@
         <v>7.0919165370406283</v>
       </c>
       <c r="CH165" s="23">
-        <v>12.320258669632578</v>
+        <v>12.221373511141266</v>
       </c>
       <c r="CI165" s="23">
-        <v>13.529792764170939</v>
+        <v>13.62895484139392</v>
       </c>
       <c r="CJ165" s="23">
-        <v>8.1217254555073968</v>
+        <v>8.1024857797721968</v>
       </c>
       <c r="CK165" s="23">
-        <v>7.5410901087060482</v>
+        <v>7.1097428396551905</v>
       </c>
       <c r="CL165" s="23">
-        <v>8.288691622766601</v>
+        <v>9.3092245123078214</v>
       </c>
       <c r="CM165" s="23">
-        <v>6.7393087084627963</v>
+        <v>8.4079705437476431</v>
       </c>
       <c r="CN165" s="23">
-        <v>6.3148975780072183</v>
+        <v>6.8121884905157772</v>
       </c>
       <c r="CO165" s="23">
-        <v>5.9955833854388327</v>
+        <v>5.7027450032579949</v>
       </c>
       <c r="CP165" s="11"/>
       <c r="CQ165" s="11"/>
@@ -26983,28 +26985,28 @@
         <v>21.8156339135877</v>
       </c>
       <c r="CH166" s="23">
-        <v>31.686181239714088</v>
+        <v>31.736182767979525</v>
       </c>
       <c r="CI166" s="23">
-        <v>25.519727880488535</v>
+        <v>25.408225192281513</v>
       </c>
       <c r="CJ166" s="23">
-        <v>22.389837569707765</v>
+        <v>22.336797951837788</v>
       </c>
       <c r="CK166" s="23">
-        <v>21.37661081359651</v>
+        <v>22.57049405290908</v>
       </c>
       <c r="CL166" s="23">
-        <v>31.540214830193776</v>
+        <v>31.629259219380408</v>
       </c>
       <c r="CM166" s="23">
-        <v>25.920831895109579</v>
+        <v>26.073902667483818</v>
       </c>
       <c r="CN166" s="23">
-        <v>23.197001374219479</v>
+        <v>22.843727276273313</v>
       </c>
       <c r="CO166" s="23">
-        <v>19.51931359659358</v>
+        <v>19.350045967915399</v>
       </c>
       <c r="CP166" s="11"/>
       <c r="CQ166" s="11"/>
@@ -27323,28 +27325,28 @@
         <v>2.8259932030466497</v>
       </c>
       <c r="CH167" s="23">
-        <v>2.9840637477345791</v>
+        <v>2.9887726694787116</v>
       </c>
       <c r="CI167" s="23">
-        <v>3.40511665374409</v>
+        <v>3.3902387654558974</v>
       </c>
       <c r="CJ167" s="23">
-        <v>2.8796969878746288</v>
+        <v>2.8728752310243317</v>
       </c>
       <c r="CK167" s="23">
-        <v>3.0326812095859323</v>
+        <v>2.9941217443969563</v>
       </c>
       <c r="CL167" s="23">
-        <v>2.5715915856902258</v>
+        <v>2.5788517075130506</v>
       </c>
       <c r="CM167" s="23">
-        <v>2.1062807326737425</v>
+        <v>2.1176112847827464</v>
       </c>
       <c r="CN167" s="23">
-        <v>2.2878442010743658</v>
+        <v>2.2530019348979207</v>
       </c>
       <c r="CO167" s="23">
-        <v>1.8595229256681853</v>
+        <v>1.7001843771549014</v>
       </c>
       <c r="CP167" s="11"/>
       <c r="CQ167" s="11"/>
@@ -27663,28 +27665,28 @@
         <v>5.1227743414861555</v>
       </c>
       <c r="CH168" s="23">
-        <v>3.6180389332447285</v>
+        <v>4.0405218503310181</v>
       </c>
       <c r="CI168" s="23">
-        <v>2.6916754359812027</v>
+        <v>2.8727479364702591</v>
       </c>
       <c r="CJ168" s="23">
-        <v>2.435445990540452</v>
+        <v>2.7238666004762146</v>
       </c>
       <c r="CK168" s="23">
-        <v>4.5395258287940514</v>
+        <v>4.6782961911383198</v>
       </c>
       <c r="CL168" s="23">
-        <v>4.4624349424047773</v>
+        <v>4.7678168340598504</v>
       </c>
       <c r="CM168" s="23">
-        <v>3.9621884711573552</v>
+        <v>4.6511640117047799</v>
       </c>
       <c r="CN168" s="23">
-        <v>3.7493330115481478</v>
+        <v>4.2037787320112052</v>
       </c>
       <c r="CO168" s="23">
-        <v>6.4262414885557835</v>
+        <v>8.666523928494458</v>
       </c>
       <c r="CP168" s="11"/>
       <c r="CQ168" s="11"/>
@@ -28658,6 +28660,12 @@
     <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="BJ108:BM108"/>
     <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="F158:I158"/>
     <mergeCell ref="J158:M158"/>
@@ -28667,16 +28675,6 @@
     <mergeCell ref="Z158:AC158"/>
     <mergeCell ref="AD158:AG158"/>
     <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL133:CO133"/>
-    <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="B108:E108"/>
@@ -28694,11 +28692,6 @@
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AL34:AO34"/>
     <mergeCell ref="AX59:BA59"/>
     <mergeCell ref="B133:E133"/>
     <mergeCell ref="F133:I133"/>
@@ -28715,6 +28708,22 @@
     <mergeCell ref="AP133:AS133"/>
     <mergeCell ref="AT133:AW133"/>
     <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="BR84:BU84"/>
@@ -28735,27 +28744,6 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
     <mergeCell ref="R59:U59"/>
     <mergeCell ref="V59:Y59"/>
     <mergeCell ref="Z59:AC59"/>
@@ -28769,6 +28757,17 @@
     <mergeCell ref="BN133:BQ133"/>
     <mergeCell ref="BJ84:BM84"/>
     <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BN84:BQ84"/>
     <mergeCell ref="BV158:BY158"/>
@@ -28781,8 +28780,6 @@
     <mergeCell ref="BV34:BY34"/>
     <mergeCell ref="BV108:BY108"/>
     <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BZ133:CC133"/>
     <mergeCell ref="BZ158:CC158"/>
     <mergeCell ref="BR158:BU158"/>
     <mergeCell ref="BV9:BY9"/>
@@ -28793,6 +28790,7 @@
     <mergeCell ref="BR133:BU133"/>
     <mergeCell ref="BZ108:CC108"/>
     <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ133:CC133"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL34:CO34"/>
     <mergeCell ref="CH59:CK59"/>
@@ -28809,7 +28807,11 @@
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH34:CK34"/>
     <mergeCell ref="CL158:CO158"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL133:CO133"/>
     <mergeCell ref="CL59:CO59"/>
+    <mergeCell ref="CL84:CO84"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB59621-D2E0-415C-8115-74C2B6F7C243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13023B-4A70-4350-BF5E-EFAC5C29A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CO$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CP$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -216,13 +216,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -352,13 +355,18 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,20 +706,21 @@
   </sheetPr>
   <dimension ref="A1:EV174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CC3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CW28" sqref="CW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="93" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="94" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -726,7 +735,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -736,7 +745,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -746,144 +755,147 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="28">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="28"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="28"/>
-      <c r="BV9" s="27">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="27"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1127,41 +1139,44 @@
       <c r="CC10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD10" s="7" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="7" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="7" t="s">
+      <c r="CF10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CG10" s="7" t="s">
+      <c r="CG10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CH10" s="7" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="7" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="7" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK10" s="7" t="s">
+      <c r="CK10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,43 +1426,45 @@
       <c r="CC12" s="10">
         <v>65109.475496706458</v>
       </c>
-      <c r="CD12" s="10">
+      <c r="CD12" s="27">
         <v>59820.030513076053</v>
       </c>
-      <c r="CE12" s="10">
+      <c r="CE12" s="27">
         <v>34539.00214474411</v>
       </c>
-      <c r="CF12" s="10">
+      <c r="CF12" s="27">
         <v>51688.289326632083</v>
       </c>
-      <c r="CG12" s="10">
+      <c r="CG12" s="27">
         <v>52884.47277971021</v>
       </c>
-      <c r="CH12" s="10">
+      <c r="CH12" s="27">
         <v>46430.818762563402</v>
       </c>
-      <c r="CI12" s="10">
+      <c r="CI12" s="27">
         <v>52819.492968022583</v>
       </c>
-      <c r="CJ12" s="10">
+      <c r="CJ12" s="27">
         <v>67552.130080674076</v>
       </c>
-      <c r="CK12" s="10">
+      <c r="CK12" s="27">
         <v>73737.984486977453</v>
       </c>
-      <c r="CL12" s="10">
+      <c r="CL12" s="27">
         <v>64278.199974307077</v>
       </c>
-      <c r="CM12" s="10">
+      <c r="CM12" s="27">
         <v>78301.795476426603</v>
       </c>
-      <c r="CN12" s="10">
+      <c r="CN12" s="27">
         <v>105008.92645285306</v>
       </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="27">
         <v>101193.14807144552</v>
       </c>
-      <c r="CP12" s="11"/>
+      <c r="CP12" s="27">
+        <v>84173.814547489645</v>
+      </c>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
@@ -1751,43 +1768,45 @@
       <c r="CC13" s="10">
         <v>10960.327119215286</v>
       </c>
-      <c r="CD13" s="10">
+      <c r="CD13" s="27">
         <v>16314.752198365353</v>
       </c>
-      <c r="CE13" s="10">
+      <c r="CE13" s="27">
         <v>17733.733957640055</v>
       </c>
-      <c r="CF13" s="10">
+      <c r="CF13" s="27">
         <v>17050.649874945389</v>
       </c>
-      <c r="CG13" s="10">
+      <c r="CG13" s="27">
         <v>8862.0147975722048</v>
       </c>
-      <c r="CH13" s="10">
+      <c r="CH13" s="27">
         <v>18543.055146150382</v>
       </c>
-      <c r="CI13" s="10">
+      <c r="CI13" s="27">
         <v>28888.886231921544</v>
       </c>
-      <c r="CJ13" s="10">
+      <c r="CJ13" s="27">
         <v>20363.488123245195</v>
       </c>
-      <c r="CK13" s="10">
+      <c r="CK13" s="27">
         <v>12780.961963022375</v>
       </c>
-      <c r="CL13" s="10">
+      <c r="CL13" s="27">
         <v>24409.622158552458</v>
       </c>
-      <c r="CM13" s="10">
+      <c r="CM13" s="27">
         <v>35919.397836294309</v>
       </c>
-      <c r="CN13" s="10">
+      <c r="CN13" s="27">
         <v>26294.663427144449</v>
       </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="27">
         <v>13255.056806212147</v>
       </c>
-      <c r="CP13" s="11"/>
+      <c r="CP13" s="27">
+        <v>24475.788996283303</v>
+      </c>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
@@ -2091,43 +2110,45 @@
       <c r="CC14" s="10">
         <v>240825.69504674777</v>
       </c>
-      <c r="CD14" s="10">
+      <c r="CD14" s="27">
         <v>163195.08531113193</v>
       </c>
-      <c r="CE14" s="10">
+      <c r="CE14" s="27">
         <v>91645.706522132052</v>
       </c>
-      <c r="CF14" s="10">
+      <c r="CF14" s="27">
         <v>104610.371337144</v>
       </c>
-      <c r="CG14" s="10">
+      <c r="CG14" s="27">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="10">
+      <c r="CH14" s="27">
         <v>50399.250365964486</v>
       </c>
-      <c r="CI14" s="10">
+      <c r="CI14" s="27">
         <v>43239.536426352897</v>
       </c>
-      <c r="CJ14" s="10">
+      <c r="CJ14" s="27">
         <v>63140.936340124179</v>
       </c>
-      <c r="CK14" s="10">
+      <c r="CK14" s="27">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="10">
+      <c r="CL14" s="27">
         <v>84220.197269927652</v>
       </c>
-      <c r="CM14" s="10">
+      <c r="CM14" s="27">
         <v>70004.28483725246</v>
       </c>
-      <c r="CN14" s="10">
+      <c r="CN14" s="27">
         <v>108629.96941892747</v>
       </c>
-      <c r="CO14" s="10">
+      <c r="CO14" s="27">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="11"/>
+      <c r="CP14" s="27">
+        <v>146576.28062105644</v>
+      </c>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
@@ -2431,43 +2452,45 @@
       <c r="CC15" s="10">
         <v>7109.70388121215</v>
       </c>
-      <c r="CD15" s="10">
+      <c r="CD15" s="27">
         <v>5054.3449397533286</v>
       </c>
-      <c r="CE15" s="10">
+      <c r="CE15" s="27">
         <v>4926.6227747895446</v>
       </c>
-      <c r="CF15" s="10">
+      <c r="CF15" s="27">
         <v>5084.5216930122861</v>
       </c>
-      <c r="CG15" s="10">
+      <c r="CG15" s="27">
         <v>5088.6362974759177</v>
       </c>
-      <c r="CH15" s="10">
+      <c r="CH15" s="27">
         <v>5048.3525692498251</v>
       </c>
-      <c r="CI15" s="10">
+      <c r="CI15" s="27">
         <v>4921.2515890704108</v>
       </c>
-      <c r="CJ15" s="10">
+      <c r="CJ15" s="27">
         <v>5111.1493409064724</v>
       </c>
-      <c r="CK15" s="10">
+      <c r="CK15" s="27">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="10">
+      <c r="CL15" s="27">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="10">
+      <c r="CM15" s="27">
         <v>4959.4587433015095</v>
       </c>
-      <c r="CN15" s="10">
+      <c r="CN15" s="27">
         <v>5166.2083527966124</v>
       </c>
-      <c r="CO15" s="10">
+      <c r="CO15" s="27">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="11"/>
+      <c r="CP15" s="27">
+        <v>5074.9707666881186</v>
+      </c>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
@@ -2771,43 +2794,45 @@
       <c r="CC16" s="10">
         <v>16139.580988612473</v>
       </c>
-      <c r="CD16" s="10">
+      <c r="CD16" s="27">
         <v>18101.550829003507</v>
       </c>
-      <c r="CE16" s="10">
+      <c r="CE16" s="27">
         <v>20074.125553017115</v>
       </c>
-      <c r="CF16" s="10">
+      <c r="CF16" s="27">
         <v>15234.065248296503</v>
       </c>
-      <c r="CG16" s="10">
+      <c r="CG16" s="27">
         <v>19783.117813536392</v>
       </c>
-      <c r="CH16" s="10">
+      <c r="CH16" s="27">
         <v>26079.237909513547</v>
       </c>
-      <c r="CI16" s="10">
+      <c r="CI16" s="27">
         <v>33600.297511936791</v>
       </c>
-      <c r="CJ16" s="10">
+      <c r="CJ16" s="27">
         <v>21519.870290264276</v>
       </c>
-      <c r="CK16" s="10">
+      <c r="CK16" s="27">
         <v>23229.524274839223</v>
       </c>
-      <c r="CL16" s="10">
+      <c r="CL16" s="27">
         <v>27228.201327187286</v>
       </c>
-      <c r="CM16" s="10">
+      <c r="CM16" s="27">
         <v>28485.623424981779</v>
       </c>
-      <c r="CN16" s="10">
+      <c r="CN16" s="27">
         <v>28773.936324629412</v>
       </c>
-      <c r="CO16" s="10">
+      <c r="CO16" s="27">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="11"/>
+      <c r="CP16" s="27">
+        <v>32035.932993538718</v>
+      </c>
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
       <c r="CS16" s="11"/>
@@ -3111,43 +3136,45 @@
       <c r="CC17" s="10">
         <v>87733.866658546089</v>
       </c>
-      <c r="CD17" s="10">
+      <c r="CD17" s="27">
         <v>82785.126496413955</v>
       </c>
-      <c r="CE17" s="10">
+      <c r="CE17" s="27">
         <v>53035.700093530795</v>
       </c>
-      <c r="CF17" s="10">
+      <c r="CF17" s="27">
         <v>53927.210487834433</v>
       </c>
-      <c r="CG17" s="10">
+      <c r="CG17" s="27">
         <v>60084.718131966809</v>
       </c>
-      <c r="CH17" s="10">
+      <c r="CH17" s="27">
         <v>66420.824866344847</v>
       </c>
-      <c r="CI17" s="10">
+      <c r="CI17" s="27">
         <v>61686.723992187755</v>
       </c>
-      <c r="CJ17" s="10">
+      <c r="CJ17" s="27">
         <v>58515.768249921377</v>
       </c>
-      <c r="CK17" s="10">
+      <c r="CK17" s="27">
         <v>72810.256070398711</v>
       </c>
-      <c r="CL17" s="10">
+      <c r="CL17" s="27">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="10">
+      <c r="CM17" s="27">
         <v>86991.615009958172</v>
       </c>
-      <c r="CN17" s="10">
+      <c r="CN17" s="27">
         <v>95172.222712710689</v>
       </c>
-      <c r="CO17" s="10">
+      <c r="CO17" s="27">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="11"/>
+      <c r="CP17" s="27">
+        <v>104416.77670913271</v>
+      </c>
       <c r="CQ17" s="11"/>
       <c r="CR17" s="11"/>
       <c r="CS17" s="11"/>
@@ -3451,43 +3478,45 @@
       <c r="CC18" s="10">
         <v>14180.6903439617</v>
       </c>
-      <c r="CD18" s="10">
+      <c r="CD18" s="27">
         <v>12788.146097403231</v>
       </c>
-      <c r="CE18" s="10">
+      <c r="CE18" s="27">
         <v>6523.9901905191382</v>
       </c>
-      <c r="CF18" s="10">
+      <c r="CF18" s="27">
         <v>5317.4995537317754</v>
       </c>
-      <c r="CG18" s="10">
+      <c r="CG18" s="27">
         <v>7949.8504290503433</v>
       </c>
-      <c r="CH18" s="10">
+      <c r="CH18" s="27">
         <v>6340.8829821031732</v>
       </c>
-      <c r="CI18" s="10">
+      <c r="CI18" s="27">
         <v>8380.1096069851701</v>
       </c>
-      <c r="CJ18" s="10">
+      <c r="CJ18" s="27">
         <v>7680.0595135464391</v>
       </c>
-      <c r="CK18" s="10">
+      <c r="CK18" s="27">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="10">
+      <c r="CL18" s="27">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="10">
+      <c r="CM18" s="27">
         <v>7193.15854990965</v>
       </c>
-      <c r="CN18" s="10">
+      <c r="CN18" s="27">
         <v>9578.5690716619501</v>
       </c>
-      <c r="CO18" s="10">
+      <c r="CO18" s="27">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="11"/>
+      <c r="CP18" s="27">
+        <v>7647.6374557607433</v>
+      </c>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
@@ -3791,43 +3820,45 @@
       <c r="CC19" s="10">
         <v>28611.604796469379</v>
       </c>
-      <c r="CD19" s="10">
+      <c r="CD19" s="27">
         <v>11579.054253904776</v>
       </c>
-      <c r="CE19" s="10">
+      <c r="CE19" s="27">
         <v>10920.554424688349</v>
       </c>
-      <c r="CF19" s="10">
+      <c r="CF19" s="27">
         <v>6912.8630974083126</v>
       </c>
-      <c r="CG19" s="10">
+      <c r="CG19" s="27">
         <v>14312.987210784406</v>
       </c>
-      <c r="CH19" s="10">
+      <c r="CH19" s="27">
         <v>8511.993673556779</v>
       </c>
-      <c r="CI19" s="10">
+      <c r="CI19" s="27">
         <v>7058.3638867921072</v>
       </c>
-      <c r="CJ19" s="10">
+      <c r="CJ19" s="27">
         <v>7235.5170074011821</v>
       </c>
-      <c r="CK19" s="10">
+      <c r="CK19" s="27">
         <v>15309.74911073353</v>
       </c>
-      <c r="CL19" s="10">
+      <c r="CL19" s="27">
         <v>13767.147484887126</v>
       </c>
-      <c r="CM19" s="10">
+      <c r="CM19" s="27">
         <v>15704.429121634676</v>
       </c>
-      <c r="CN19" s="10">
+      <c r="CN19" s="27">
         <v>17758.849756129912</v>
       </c>
-      <c r="CO19" s="10">
+      <c r="CO19" s="27">
         <v>43483.899187625917</v>
       </c>
-      <c r="CP19" s="11"/>
+      <c r="CP19" s="27">
+        <v>20135.102932781792</v>
+      </c>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
@@ -3968,18 +3999,18 @@
       <c r="CA20" s="12"/>
       <c r="CB20" s="12"/>
       <c r="CC20" s="12"/>
-      <c r="CD20" s="12"/>
-      <c r="CE20" s="12"/>
-      <c r="CF20" s="12"/>
-      <c r="CG20" s="12"/>
-      <c r="CH20" s="12"/>
-      <c r="CI20" s="12"/>
-      <c r="CJ20" s="12"/>
-      <c r="CK20" s="12"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="12"/>
-      <c r="CO20" s="12"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
+      <c r="CH20" s="11"/>
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="11"/>
+      <c r="CK20" s="11"/>
+      <c r="CL20" s="11"/>
+      <c r="CM20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="11"/>
       <c r="CP20" s="11"/>
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
@@ -4284,43 +4315,45 @@
       <c r="CC21" s="15">
         <v>470670.94433147134</v>
       </c>
-      <c r="CD21" s="15">
+      <c r="CD21" s="14">
         <v>369638.09063905216</v>
       </c>
-      <c r="CE21" s="15">
+      <c r="CE21" s="14">
         <v>239399.43566106111</v>
       </c>
-      <c r="CF21" s="15">
+      <c r="CF21" s="14">
         <v>259825.47061900483</v>
       </c>
-      <c r="CG21" s="15">
+      <c r="CG21" s="14">
         <v>259162.18962816379</v>
       </c>
-      <c r="CH21" s="15">
+      <c r="CH21" s="14">
         <v>227774.41627544645</v>
       </c>
-      <c r="CI21" s="15">
+      <c r="CI21" s="14">
         <v>240594.66221326927</v>
       </c>
-      <c r="CJ21" s="15">
+      <c r="CJ21" s="14">
         <v>251118.9189460832</v>
       </c>
-      <c r="CK21" s="15">
+      <c r="CK21" s="14">
         <v>307827.42194891378</v>
       </c>
-      <c r="CL21" s="15">
+      <c r="CL21" s="14">
         <v>317200.33489955822</v>
       </c>
-      <c r="CM21" s="15">
+      <c r="CM21" s="14">
         <v>327559.76299975917</v>
       </c>
-      <c r="CN21" s="15">
+      <c r="CN21" s="14">
         <v>396383.34551685356</v>
       </c>
-      <c r="CO21" s="15">
+      <c r="CO21" s="14">
         <v>466396.98738902184</v>
       </c>
-      <c r="CP21" s="11"/>
+      <c r="CP21" s="14">
+        <v>424536.30502273148</v>
+      </c>
       <c r="CQ21" s="11"/>
       <c r="CR21" s="11"/>
       <c r="CS21" s="11"/>
@@ -4462,18 +4495,19 @@
       <c r="CA22" s="17"/>
       <c r="CB22" s="17"/>
       <c r="CC22" s="17"/>
-      <c r="CD22" s="17"/>
-      <c r="CE22" s="17"/>
-      <c r="CF22" s="17"/>
-      <c r="CG22" s="17"/>
-      <c r="CH22" s="17"/>
-      <c r="CI22" s="17"/>
-      <c r="CJ22" s="17"/>
-      <c r="CK22" s="17"/>
-      <c r="CL22" s="17"/>
-      <c r="CM22" s="17"/>
-      <c r="CN22" s="17"/>
-      <c r="CO22" s="17"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+      <c r="CG22" s="16"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4561,18 +4595,18 @@
       <c r="CA24" s="12"/>
       <c r="CB24" s="12"/>
       <c r="CC24" s="12"/>
-      <c r="CD24" s="12"/>
-      <c r="CE24" s="12"/>
-      <c r="CF24" s="12"/>
-      <c r="CG24" s="12"/>
-      <c r="CH24" s="12"/>
-      <c r="CI24" s="12"/>
-      <c r="CJ24" s="12"/>
-      <c r="CK24" s="12"/>
-      <c r="CL24" s="12"/>
-      <c r="CM24" s="12"/>
-      <c r="CN24" s="12"/>
-      <c r="CO24" s="12"/>
+      <c r="CD24" s="11"/>
+      <c r="CE24" s="11"/>
+      <c r="CF24" s="11"/>
+      <c r="CG24" s="11"/>
+      <c r="CH24" s="11"/>
+      <c r="CI24" s="11"/>
+      <c r="CJ24" s="11"/>
+      <c r="CK24" s="11"/>
+      <c r="CL24" s="11"/>
+      <c r="CM24" s="11"/>
+      <c r="CN24" s="11"/>
+      <c r="CO24" s="11"/>
       <c r="CP24" s="11"/>
       <c r="CQ24" s="11"/>
       <c r="CR24" s="11"/>
@@ -4714,18 +4748,18 @@
       <c r="CA25" s="12"/>
       <c r="CB25" s="12"/>
       <c r="CC25" s="12"/>
-      <c r="CD25" s="12"/>
-      <c r="CE25" s="12"/>
-      <c r="CF25" s="12"/>
-      <c r="CG25" s="12"/>
-      <c r="CH25" s="12"/>
-      <c r="CI25" s="12"/>
-      <c r="CJ25" s="12"/>
-      <c r="CK25" s="12"/>
-      <c r="CL25" s="12"/>
-      <c r="CM25" s="12"/>
-      <c r="CN25" s="12"/>
-      <c r="CO25" s="12"/>
+      <c r="CD25" s="11"/>
+      <c r="CE25" s="11"/>
+      <c r="CF25" s="11"/>
+      <c r="CG25" s="11"/>
+      <c r="CH25" s="11"/>
+      <c r="CI25" s="11"/>
+      <c r="CJ25" s="11"/>
+      <c r="CK25" s="11"/>
+      <c r="CL25" s="11"/>
+      <c r="CM25" s="11"/>
+      <c r="CN25" s="11"/>
+      <c r="CO25" s="11"/>
       <c r="CP25" s="11"/>
       <c r="CQ25" s="11"/>
       <c r="CR25" s="11"/>
@@ -4798,7 +4832,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4808,7 +4842,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -4818,144 +4852,147 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="27">
+      <c r="B34" s="31">
         <v>2000</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31">
         <v>2001</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31">
         <v>2002</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27">
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31">
         <v>2003</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27">
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31">
         <v>2004</v>
       </c>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27">
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31">
         <v>2005</v>
       </c>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27">
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31">
         <v>2006</v>
       </c>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27">
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31">
         <v>2007</v>
       </c>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27">
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31">
         <v>2008</v>
       </c>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27">
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31">
         <v>2009</v>
       </c>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27">
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="27"/>
-      <c r="AR34" s="27"/>
-      <c r="AS34" s="27"/>
-      <c r="AT34" s="27">
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31">
         <v>2011</v>
       </c>
-      <c r="AU34" s="27"/>
-      <c r="AV34" s="27"/>
-      <c r="AW34" s="27"/>
-      <c r="AX34" s="27">
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31">
         <v>2012</v>
       </c>
-      <c r="AY34" s="27"/>
-      <c r="AZ34" s="27"/>
-      <c r="BA34" s="27"/>
-      <c r="BB34" s="27">
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31">
         <v>2013</v>
       </c>
-      <c r="BC34" s="27"/>
-      <c r="BD34" s="27"/>
-      <c r="BE34" s="27"/>
-      <c r="BF34" s="27">
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31">
         <v>2014</v>
       </c>
-      <c r="BG34" s="27"/>
-      <c r="BH34" s="27"/>
-      <c r="BI34" s="27"/>
-      <c r="BJ34" s="27">
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31">
         <v>2015</v>
       </c>
-      <c r="BK34" s="27"/>
-      <c r="BL34" s="27"/>
-      <c r="BM34" s="27"/>
-      <c r="BN34" s="27">
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31">
         <v>2016</v>
       </c>
-      <c r="BO34" s="27"/>
-      <c r="BP34" s="27"/>
-      <c r="BQ34" s="27"/>
-      <c r="BR34" s="27">
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31">
         <v>2017</v>
       </c>
-      <c r="BS34" s="27"/>
-      <c r="BT34" s="27"/>
-      <c r="BU34" s="27"/>
-      <c r="BV34" s="26">
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="30">
         <v>2018</v>
       </c>
-      <c r="BW34" s="26"/>
-      <c r="BX34" s="26"/>
-      <c r="BY34" s="26"/>
-      <c r="BZ34" s="26">
+      <c r="BW34" s="30"/>
+      <c r="BX34" s="30"/>
+      <c r="BY34" s="30"/>
+      <c r="BZ34" s="30">
         <v>2019</v>
       </c>
-      <c r="CA34" s="26"/>
-      <c r="CB34" s="26"/>
-      <c r="CC34" s="26"/>
-      <c r="CD34" s="26">
+      <c r="CA34" s="30"/>
+      <c r="CB34" s="30"/>
+      <c r="CC34" s="30"/>
+      <c r="CD34" s="29">
         <v>2020</v>
       </c>
-      <c r="CE34" s="26"/>
-      <c r="CF34" s="26"/>
-      <c r="CG34" s="26"/>
-      <c r="CH34" s="26">
+      <c r="CE34" s="29"/>
+      <c r="CF34" s="29"/>
+      <c r="CG34" s="29"/>
+      <c r="CH34" s="29">
         <v>2021</v>
       </c>
-      <c r="CI34" s="26"/>
-      <c r="CJ34" s="26"/>
-      <c r="CK34" s="26"/>
-      <c r="CL34" s="26">
+      <c r="CI34" s="29"/>
+      <c r="CJ34" s="29"/>
+      <c r="CK34" s="29"/>
+      <c r="CL34" s="29">
         <v>2022</v>
       </c>
-      <c r="CM34" s="26"/>
-      <c r="CN34" s="26"/>
-      <c r="CO34" s="26"/>
+      <c r="CM34" s="29"/>
+      <c r="CN34" s="29"/>
+      <c r="CO34" s="29"/>
+      <c r="CP34" s="26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5199,41 +5236,44 @@
       <c r="CC35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD35" s="19" t="s">
+      <c r="CD35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE35" s="19" t="s">
+      <c r="CE35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF35" s="19" t="s">
+      <c r="CF35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG35" s="19" t="s">
+      <c r="CG35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH35" s="19" t="s">
+      <c r="CH35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI35" s="19" t="s">
+      <c r="CI35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ35" s="19" t="s">
+      <c r="CJ35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK35" s="19" t="s">
+      <c r="CK35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="19" t="s">
+      <c r="CL35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="19" t="s">
+      <c r="CM35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="19" t="s">
+      <c r="CN35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO35" s="19" t="s">
+      <c r="CO35" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CP35" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5483,43 +5523,45 @@
       <c r="CC37" s="10">
         <v>64801.680409936183</v>
       </c>
-      <c r="CD37" s="10">
+      <c r="CD37" s="27">
         <v>61326.934936950114</v>
       </c>
-      <c r="CE37" s="10">
+      <c r="CE37" s="27">
         <v>33914.374794228679</v>
       </c>
-      <c r="CF37" s="10">
+      <c r="CF37" s="27">
         <v>52506.021331477779</v>
       </c>
-      <c r="CG37" s="10">
+      <c r="CG37" s="27">
         <v>55772.422902689606</v>
       </c>
-      <c r="CH37" s="10">
+      <c r="CH37" s="27">
         <v>48469.788038153369</v>
       </c>
-      <c r="CI37" s="10">
+      <c r="CI37" s="27">
         <v>49819.220653380049</v>
       </c>
-      <c r="CJ37" s="10">
+      <c r="CJ37" s="27">
         <v>64961.510733468458</v>
       </c>
-      <c r="CK37" s="10">
+      <c r="CK37" s="27">
         <v>71273.442872178304</v>
       </c>
-      <c r="CL37" s="10">
+      <c r="CL37" s="27">
         <v>65463.132122746989</v>
       </c>
-      <c r="CM37" s="10">
+      <c r="CM37" s="27">
         <v>73741.448231983406</v>
       </c>
-      <c r="CN37" s="10">
+      <c r="CN37" s="27">
         <v>100951.57153183127</v>
       </c>
-      <c r="CO37" s="10">
+      <c r="CO37" s="27">
         <v>97606.909602206899</v>
       </c>
-      <c r="CP37" s="11"/>
+      <c r="CP37" s="27">
+        <v>81173.298823915218</v>
+      </c>
       <c r="CQ37" s="11"/>
       <c r="CR37" s="11"/>
       <c r="CS37" s="11"/>
@@ -5823,43 +5865,45 @@
       <c r="CC38" s="10">
         <v>10150.061184550439</v>
       </c>
-      <c r="CD38" s="10">
+      <c r="CD38" s="27">
         <v>20422.7169796374</v>
       </c>
-      <c r="CE38" s="10">
+      <c r="CE38" s="27">
         <v>14751.641377822627</v>
       </c>
-      <c r="CF38" s="10">
+      <c r="CF38" s="27">
         <v>15767.910770272294</v>
       </c>
-      <c r="CG38" s="10">
+      <c r="CG38" s="27">
         <v>8554.3589097095992</v>
       </c>
-      <c r="CH38" s="10">
+      <c r="CH38" s="27">
         <v>23451.184825219545</v>
       </c>
-      <c r="CI38" s="10">
+      <c r="CI38" s="27">
         <v>24646.973100209358</v>
       </c>
-      <c r="CJ38" s="10">
+      <c r="CJ38" s="27">
         <v>18942.813022989623</v>
       </c>
-      <c r="CK38" s="10">
+      <c r="CK38" s="27">
         <v>11927.031782863498</v>
       </c>
-      <c r="CL38" s="10">
+      <c r="CL38" s="27">
         <v>30655.88424405938</v>
       </c>
-      <c r="CM38" s="10">
+      <c r="CM38" s="27">
         <v>29842.408740141524</v>
       </c>
-      <c r="CN38" s="10">
+      <c r="CN38" s="27">
         <v>24246.693365427058</v>
       </c>
-      <c r="CO38" s="10">
+      <c r="CO38" s="27">
         <v>12084.392593717253</v>
       </c>
-      <c r="CP38" s="11"/>
+      <c r="CP38" s="27">
+        <v>28604.756453851518</v>
+      </c>
       <c r="CQ38" s="11"/>
       <c r="CR38" s="11"/>
       <c r="CS38" s="11"/>
@@ -6163,43 +6207,45 @@
       <c r="CC39" s="10">
         <v>257514.51923617074</v>
       </c>
-      <c r="CD39" s="10">
+      <c r="CD39" s="27">
         <v>142649.00275906862</v>
       </c>
-      <c r="CE39" s="10">
+      <c r="CE39" s="27">
         <v>82937.72756409891</v>
       </c>
-      <c r="CF39" s="10">
+      <c r="CF39" s="27">
         <v>112043.57526183961</v>
       </c>
-      <c r="CG39" s="10">
+      <c r="CG39" s="27">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="10">
+      <c r="CH39" s="27">
         <v>44966.442719585699</v>
       </c>
-      <c r="CI39" s="10">
+      <c r="CI39" s="27">
         <v>40240.940665961825</v>
       </c>
-      <c r="CJ39" s="10">
+      <c r="CJ39" s="27">
         <v>68323.144117398988</v>
       </c>
-      <c r="CK39" s="10">
+      <c r="CK39" s="27">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="10">
+      <c r="CL39" s="27">
         <v>74248.938600978479</v>
       </c>
-      <c r="CM39" s="10">
+      <c r="CM39" s="27">
         <v>63337.90549007689</v>
       </c>
-      <c r="CN39" s="10">
+      <c r="CN39" s="27">
         <v>117275.04901732334</v>
       </c>
-      <c r="CO39" s="10">
+      <c r="CO39" s="27">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="11"/>
+      <c r="CP39" s="27">
+        <v>119833.28214483011</v>
+      </c>
       <c r="CQ39" s="11"/>
       <c r="CR39" s="11"/>
       <c r="CS39" s="11"/>
@@ -6503,43 +6549,45 @@
       <c r="CC40" s="10">
         <v>6714.8157218354836</v>
       </c>
-      <c r="CD40" s="10">
+      <c r="CD40" s="27">
         <v>5627.9059695102651</v>
       </c>
-      <c r="CE40" s="10">
+      <c r="CE40" s="27">
         <v>4399.1771274858929</v>
       </c>
-      <c r="CF40" s="10">
+      <c r="CF40" s="27">
         <v>4801.1070498634544</v>
       </c>
-      <c r="CG40" s="10">
+      <c r="CG40" s="27">
         <v>5009.4938772169016</v>
       </c>
-      <c r="CH40" s="10">
+      <c r="CH40" s="27">
         <v>5679.1337296377524</v>
       </c>
-      <c r="CI40" s="10">
+      <c r="CI40" s="27">
         <v>4507.0288915022302</v>
       </c>
-      <c r="CJ40" s="10">
+      <c r="CJ40" s="27">
         <v>4854.7731274196631</v>
       </c>
-      <c r="CK40" s="10">
+      <c r="CK40" s="27">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="10">
+      <c r="CL40" s="27">
         <v>5657.089442415454</v>
       </c>
-      <c r="CM40" s="10">
+      <c r="CM40" s="27">
         <v>4423.042275148362</v>
       </c>
-      <c r="CN40" s="10">
+      <c r="CN40" s="27">
         <v>4864.2388164691256</v>
       </c>
-      <c r="CO40" s="10">
+      <c r="CO40" s="27">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="11"/>
+      <c r="CP40" s="27">
+        <v>5275.7476829128109</v>
+      </c>
       <c r="CQ40" s="11"/>
       <c r="CR40" s="11"/>
       <c r="CS40" s="11"/>
@@ -6843,43 +6891,45 @@
       <c r="CC41" s="10">
         <v>14832.158078880675</v>
       </c>
-      <c r="CD41" s="10">
+      <c r="CD41" s="27">
         <v>20996.639621719332</v>
       </c>
-      <c r="CE41" s="10">
+      <c r="CE41" s="27">
         <v>17302.357567779261</v>
       </c>
-      <c r="CF41" s="10">
+      <c r="CF41" s="27">
         <v>14003.190699812041</v>
       </c>
-      <c r="CG41" s="10">
+      <c r="CG41" s="27">
         <v>18950.325767817922</v>
       </c>
-      <c r="CH41" s="10">
+      <c r="CH41" s="27">
         <v>30561.830927776209</v>
       </c>
-      <c r="CI41" s="10">
+      <c r="CI41" s="27">
         <v>29703.279722397103</v>
       </c>
-      <c r="CJ41" s="10">
+      <c r="CJ41" s="27">
         <v>19898.02283507834</v>
       </c>
-      <c r="CK41" s="10">
+      <c r="CK41" s="27">
         <v>21511.767531166046</v>
       </c>
-      <c r="CL41" s="10">
+      <c r="CL41" s="27">
         <v>31686.386603363273</v>
       </c>
-      <c r="CM41" s="10">
+      <c r="CM41" s="27">
         <v>24522.178278769905</v>
       </c>
-      <c r="CN41" s="10">
+      <c r="CN41" s="27">
         <v>26373.159234028655</v>
       </c>
-      <c r="CO41" s="10">
+      <c r="CO41" s="27">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="11"/>
+      <c r="CP41" s="27">
+        <v>34692.844020509117</v>
+      </c>
       <c r="CQ41" s="11"/>
       <c r="CR41" s="11"/>
       <c r="CS41" s="11"/>
@@ -7183,43 +7233,45 @@
       <c r="CC42" s="10">
         <v>81660.924186886157</v>
       </c>
-      <c r="CD42" s="10">
+      <c r="CD42" s="27">
         <v>97906.523479371841</v>
       </c>
-      <c r="CE42" s="10">
+      <c r="CE42" s="27">
         <v>46419.466665149135</v>
       </c>
-      <c r="CF42" s="10">
+      <c r="CF42" s="27">
         <v>50256.070026286041</v>
       </c>
-      <c r="CG42" s="10">
+      <c r="CG42" s="27">
         <v>58293.603334826606</v>
       </c>
-      <c r="CH42" s="10">
+      <c r="CH42" s="27">
         <v>79362.262446508073</v>
       </c>
-      <c r="CI42" s="10">
+      <c r="CI42" s="27">
         <v>55375.311527468963</v>
       </c>
-      <c r="CJ42" s="10">
+      <c r="CJ42" s="27">
         <v>54854.538198362068</v>
       </c>
-      <c r="CK42" s="10">
+      <c r="CK42" s="27">
         <v>68290.96805325427</v>
       </c>
-      <c r="CL42" s="10">
+      <c r="CL42" s="27">
         <v>107658.4772746901</v>
       </c>
-      <c r="CM42" s="10">
+      <c r="CM42" s="27">
         <v>76045.567275541456</v>
       </c>
-      <c r="CN42" s="10">
+      <c r="CN42" s="27">
         <v>88438.723883617175</v>
       </c>
-      <c r="CO42" s="10">
+      <c r="CO42" s="27">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="11"/>
+      <c r="CP42" s="27">
+        <v>115291.71842020721</v>
+      </c>
       <c r="CQ42" s="11"/>
       <c r="CR42" s="11"/>
       <c r="CS42" s="11"/>
@@ -7523,43 +7575,45 @@
       <c r="CC43" s="10">
         <v>12922.6844675268</v>
       </c>
-      <c r="CD43" s="10">
+      <c r="CD43" s="27">
         <v>14919.683933816232</v>
       </c>
-      <c r="CE43" s="10">
+      <c r="CE43" s="27">
         <v>5608.4532343837782</v>
       </c>
-      <c r="CF43" s="10">
+      <c r="CF43" s="27">
         <v>4856.1512556218304</v>
       </c>
-      <c r="CG43" s="10">
+      <c r="CG43" s="27">
         <v>7551.3426498558965</v>
       </c>
-      <c r="CH43" s="10">
+      <c r="CH43" s="27">
         <v>7473.9852212926062</v>
       </c>
-      <c r="CI43" s="10">
+      <c r="CI43" s="27">
         <v>7388.7698321664839</v>
       </c>
-      <c r="CJ43" s="10">
+      <c r="CJ43" s="27">
         <v>7055.18510035081</v>
       </c>
-      <c r="CK43" s="10">
+      <c r="CK43" s="27">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="10">
+      <c r="CL43" s="27">
         <v>8777.79798832507</v>
       </c>
-      <c r="CM43" s="10">
+      <c r="CM43" s="27">
         <v>6176.0969761237629</v>
       </c>
-      <c r="CN43" s="10">
+      <c r="CN43" s="27">
         <v>8722.4214166068523</v>
       </c>
-      <c r="CO43" s="10">
+      <c r="CO43" s="27">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="11"/>
+      <c r="CP43" s="27">
+        <v>8330.0544860949358</v>
+      </c>
       <c r="CQ43" s="11"/>
       <c r="CR43" s="11"/>
       <c r="CS43" s="11"/>
@@ -7863,43 +7917,45 @@
       <c r="CC44" s="10">
         <v>26251.877647424528</v>
       </c>
-      <c r="CD44" s="10">
+      <c r="CD44" s="27">
         <v>13604.674185082638</v>
       </c>
-      <c r="CE44" s="10">
+      <c r="CE44" s="27">
         <v>9444.6829102858501</v>
       </c>
-      <c r="CF44" s="10">
+      <c r="CF44" s="27">
         <v>6353.408586677705</v>
       </c>
-      <c r="CG44" s="10">
+      <c r="CG44" s="27">
         <v>13688.576578580429</v>
       </c>
-      <c r="CH44" s="10">
+      <c r="CH44" s="27">
         <v>10104.080816876256</v>
       </c>
-      <c r="CI44" s="10">
+      <c r="CI44" s="27">
         <v>6260.9375789954502</v>
       </c>
-      <c r="CJ44" s="10">
+      <c r="CJ44" s="27">
         <v>6689.2508409322709</v>
       </c>
-      <c r="CK44" s="10">
+      <c r="CK44" s="27">
         <v>14155.001436112121</v>
       </c>
-      <c r="CL44" s="10">
+      <c r="CL44" s="27">
         <v>16228.514766005081</v>
       </c>
-      <c r="CM44" s="10">
+      <c r="CM44" s="27">
         <v>13565.303601549647</v>
       </c>
-      <c r="CN44" s="10">
+      <c r="CN44" s="27">
         <v>16274.78835007403</v>
       </c>
-      <c r="CO44" s="10">
+      <c r="CO44" s="27">
         <v>39277.580084628244</v>
       </c>
-      <c r="CP44" s="11"/>
+      <c r="CP44" s="27">
+        <v>22087.035413683658</v>
+      </c>
       <c r="CQ44" s="11"/>
       <c r="CR44" s="11"/>
       <c r="CS44" s="11"/>
@@ -8040,18 +8096,18 @@
       <c r="CA45" s="12"/>
       <c r="CB45" s="12"/>
       <c r="CC45" s="12"/>
-      <c r="CD45" s="12"/>
-      <c r="CE45" s="12"/>
-      <c r="CF45" s="12"/>
-      <c r="CG45" s="12"/>
-      <c r="CH45" s="12"/>
-      <c r="CI45" s="12"/>
-      <c r="CJ45" s="12"/>
-      <c r="CK45" s="12"/>
-      <c r="CL45" s="12"/>
-      <c r="CM45" s="12"/>
-      <c r="CN45" s="12"/>
-      <c r="CO45" s="12"/>
+      <c r="CD45" s="11"/>
+      <c r="CE45" s="11"/>
+      <c r="CF45" s="11"/>
+      <c r="CG45" s="11"/>
+      <c r="CH45" s="11"/>
+      <c r="CI45" s="11"/>
+      <c r="CJ45" s="11"/>
+      <c r="CK45" s="11"/>
+      <c r="CL45" s="11"/>
+      <c r="CM45" s="11"/>
+      <c r="CN45" s="11"/>
+      <c r="CO45" s="11"/>
       <c r="CP45" s="11"/>
       <c r="CQ45" s="11"/>
       <c r="CR45" s="11"/>
@@ -8356,43 +8412,45 @@
       <c r="CC46" s="15">
         <v>474848.72093321104</v>
       </c>
-      <c r="CD46" s="15">
+      <c r="CD46" s="14">
         <v>377454.08186515648</v>
       </c>
-      <c r="CE46" s="15">
+      <c r="CE46" s="14">
         <v>214777.88124123414</v>
       </c>
-      <c r="CF46" s="15">
+      <c r="CF46" s="14">
         <v>260587.43498185079</v>
       </c>
-      <c r="CG46" s="15">
+      <c r="CG46" s="14">
         <v>267210.21981634409</v>
       </c>
-      <c r="CH46" s="15">
+      <c r="CH46" s="14">
         <v>250068.70872504951</v>
       </c>
-      <c r="CI46" s="15">
+      <c r="CI46" s="14">
         <v>217942.46197208148</v>
       </c>
-      <c r="CJ46" s="15">
+      <c r="CJ46" s="14">
         <v>245579.23797600024</v>
       </c>
-      <c r="CK46" s="15">
+      <c r="CK46" s="14">
         <v>302567.44887005404</v>
       </c>
-      <c r="CL46" s="15">
+      <c r="CL46" s="14">
         <v>340376.22104258387</v>
       </c>
-      <c r="CM46" s="15">
+      <c r="CM46" s="14">
         <v>291653.95086933492</v>
       </c>
-      <c r="CN46" s="15">
+      <c r="CN46" s="14">
         <v>387146.64561537752</v>
       </c>
-      <c r="CO46" s="15">
+      <c r="CO46" s="14">
         <v>453210.31140857324</v>
       </c>
-      <c r="CP46" s="11"/>
+      <c r="CP46" s="14">
+        <v>415288.73744600458</v>
+      </c>
       <c r="CQ46" s="11"/>
       <c r="CR46" s="11"/>
       <c r="CS46" s="11"/>
@@ -8534,18 +8592,19 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
       <c r="CC47" s="17"/>
-      <c r="CD47" s="17"/>
-      <c r="CE47" s="17"/>
-      <c r="CF47" s="17"/>
-      <c r="CG47" s="17"/>
-      <c r="CH47" s="17"/>
-      <c r="CI47" s="17"/>
-      <c r="CJ47" s="17"/>
-      <c r="CK47" s="17"/>
-      <c r="CL47" s="17"/>
-      <c r="CM47" s="17"/>
-      <c r="CN47" s="17"/>
-      <c r="CO47" s="17"/>
+      <c r="CD47" s="16"/>
+      <c r="CE47" s="16"/>
+      <c r="CF47" s="16"/>
+      <c r="CG47" s="16"/>
+      <c r="CH47" s="16"/>
+      <c r="CI47" s="16"/>
+      <c r="CJ47" s="16"/>
+      <c r="CK47" s="16"/>
+      <c r="CL47" s="16"/>
+      <c r="CM47" s="16"/>
+      <c r="CN47" s="16"/>
+      <c r="CO47" s="16"/>
+      <c r="CP47" s="16"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8633,18 +8692,18 @@
       <c r="CA49" s="12"/>
       <c r="CB49" s="12"/>
       <c r="CC49" s="12"/>
-      <c r="CD49" s="12"/>
-      <c r="CE49" s="12"/>
-      <c r="CF49" s="12"/>
-      <c r="CG49" s="12"/>
-      <c r="CH49" s="12"/>
-      <c r="CI49" s="12"/>
-      <c r="CJ49" s="12"/>
-      <c r="CK49" s="12"/>
-      <c r="CL49" s="12"/>
-      <c r="CM49" s="12"/>
-      <c r="CN49" s="12"/>
-      <c r="CO49" s="12"/>
+      <c r="CD49" s="11"/>
+      <c r="CE49" s="11"/>
+      <c r="CF49" s="11"/>
+      <c r="CG49" s="11"/>
+      <c r="CH49" s="11"/>
+      <c r="CI49" s="11"/>
+      <c r="CJ49" s="11"/>
+      <c r="CK49" s="11"/>
+      <c r="CL49" s="11"/>
+      <c r="CM49" s="11"/>
+      <c r="CN49" s="11"/>
+      <c r="CO49" s="11"/>
       <c r="CP49" s="11"/>
       <c r="CQ49" s="11"/>
       <c r="CR49" s="11"/>
@@ -8786,18 +8845,18 @@
       <c r="CA50" s="12"/>
       <c r="CB50" s="12"/>
       <c r="CC50" s="12"/>
-      <c r="CD50" s="12"/>
-      <c r="CE50" s="12"/>
-      <c r="CF50" s="12"/>
-      <c r="CG50" s="12"/>
-      <c r="CH50" s="12"/>
-      <c r="CI50" s="12"/>
-      <c r="CJ50" s="12"/>
-      <c r="CK50" s="12"/>
-      <c r="CL50" s="12"/>
-      <c r="CM50" s="12"/>
-      <c r="CN50" s="12"/>
-      <c r="CO50" s="12"/>
+      <c r="CD50" s="11"/>
+      <c r="CE50" s="11"/>
+      <c r="CF50" s="11"/>
+      <c r="CG50" s="11"/>
+      <c r="CH50" s="11"/>
+      <c r="CI50" s="11"/>
+      <c r="CJ50" s="11"/>
+      <c r="CK50" s="11"/>
+      <c r="CL50" s="11"/>
+      <c r="CM50" s="11"/>
+      <c r="CN50" s="11"/>
+      <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
@@ -8870,7 +8929,7 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
@@ -8880,7 +8939,7 @@
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
@@ -8890,142 +8949,145 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28" t="s">
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28" t="s">
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28" t="s">
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28" t="s">
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28" t="s">
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AH59" s="28" t="s">
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="28"/>
-      <c r="AJ59" s="28"/>
-      <c r="AK59" s="28"/>
-      <c r="AL59" s="28" t="s">
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="28"/>
-      <c r="AN59" s="28"/>
-      <c r="AO59" s="28"/>
-      <c r="AP59" s="28" t="s">
+      <c r="AM59" s="29"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="28"/>
-      <c r="AR59" s="28"/>
-      <c r="AS59" s="28"/>
-      <c r="AT59" s="28" t="s">
+      <c r="AQ59" s="29"/>
+      <c r="AR59" s="29"/>
+      <c r="AS59" s="29"/>
+      <c r="AT59" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="28"/>
-      <c r="AV59" s="28"/>
-      <c r="AW59" s="28"/>
-      <c r="AX59" s="28" t="s">
+      <c r="AU59" s="29"/>
+      <c r="AV59" s="29"/>
+      <c r="AW59" s="29"/>
+      <c r="AX59" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="28"/>
-      <c r="AZ59" s="28"/>
-      <c r="BA59" s="28"/>
-      <c r="BB59" s="28" t="s">
+      <c r="AY59" s="29"/>
+      <c r="AZ59" s="29"/>
+      <c r="BA59" s="29"/>
+      <c r="BB59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="28"/>
-      <c r="BD59" s="28"/>
-      <c r="BE59" s="28"/>
-      <c r="BF59" s="28" t="s">
+      <c r="BC59" s="29"/>
+      <c r="BD59" s="29"/>
+      <c r="BE59" s="29"/>
+      <c r="BF59" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="28"/>
-      <c r="BH59" s="28"/>
-      <c r="BI59" s="28"/>
-      <c r="BJ59" s="28" t="s">
+      <c r="BG59" s="29"/>
+      <c r="BH59" s="29"/>
+      <c r="BI59" s="29"/>
+      <c r="BJ59" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="28"/>
-      <c r="BL59" s="28"/>
-      <c r="BM59" s="28"/>
-      <c r="BN59" s="28" t="s">
+      <c r="BK59" s="29"/>
+      <c r="BL59" s="29"/>
+      <c r="BM59" s="29"/>
+      <c r="BN59" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="28"/>
-      <c r="BP59" s="28"/>
-      <c r="BQ59" s="28"/>
-      <c r="BR59" s="28" t="s">
+      <c r="BO59" s="29"/>
+      <c r="BP59" s="29"/>
+      <c r="BQ59" s="29"/>
+      <c r="BR59" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="28"/>
-      <c r="BT59" s="28"/>
-      <c r="BU59" s="28"/>
-      <c r="BV59" s="27" t="s">
+      <c r="BS59" s="29"/>
+      <c r="BT59" s="29"/>
+      <c r="BU59" s="29"/>
+      <c r="BV59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="27"/>
-      <c r="BX59" s="27"/>
-      <c r="BY59" s="27"/>
-      <c r="BZ59" s="27" t="s">
+      <c r="BW59" s="31"/>
+      <c r="BX59" s="31"/>
+      <c r="BY59" s="31"/>
+      <c r="BZ59" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="27"/>
-      <c r="CB59" s="27"/>
-      <c r="CC59" s="27"/>
-      <c r="CD59" s="27" t="s">
+      <c r="CA59" s="31"/>
+      <c r="CB59" s="31"/>
+      <c r="CC59" s="31"/>
+      <c r="CD59" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="27"/>
-      <c r="CF59" s="27"/>
-      <c r="CG59" s="27"/>
-      <c r="CH59" s="27" t="s">
+      <c r="CE59" s="29"/>
+      <c r="CF59" s="29"/>
+      <c r="CG59" s="29"/>
+      <c r="CH59" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="27"/>
-      <c r="CJ59" s="27"/>
-      <c r="CK59" s="27"/>
-      <c r="CL59" s="27"/>
-      <c r="CM59" s="27"/>
-      <c r="CN59" s="27"/>
-      <c r="CO59" s="27"/>
+      <c r="CI59" s="29"/>
+      <c r="CJ59" s="29"/>
+      <c r="CK59" s="29"/>
+      <c r="CL59" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="CM59" s="26"/>
+      <c r="CN59" s="26"/>
+      <c r="CO59" s="26"/>
+      <c r="CP59" s="26"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9293,10 +9355,13 @@
       <c r="CK60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="7"/>
+      <c r="CL60" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="CM60" s="7"/>
       <c r="CN60" s="7"/>
       <c r="CO60" s="7"/>
+      <c r="CP60" s="7"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -9545,35 +9610,37 @@
       <c r="CC62" s="21">
         <v>-18.776073104159224</v>
       </c>
-      <c r="CD62" s="21">
+      <c r="CD62" s="20">
         <v>-22.382489001883584</v>
       </c>
-      <c r="CE62" s="21">
+      <c r="CE62" s="20">
         <v>52.927096001991089</v>
       </c>
-      <c r="CF62" s="21">
+      <c r="CF62" s="20">
         <v>30.691363480408796</v>
       </c>
-      <c r="CG62" s="21">
+      <c r="CG62" s="20">
         <v>39.432201194729402</v>
       </c>
-      <c r="CH62" s="21">
+      <c r="CH62" s="20">
         <v>38.43865279010285</v>
       </c>
-      <c r="CI62" s="21">
+      <c r="CI62" s="20">
         <v>48.244125561430991</v>
       </c>
-      <c r="CJ62" s="21">
+      <c r="CJ62" s="20">
         <v>55.448727268031718</v>
       </c>
-      <c r="CK62" s="21">
+      <c r="CK62" s="20">
         <v>37.23340660242323</v>
       </c>
-      <c r="CL62" s="21"/>
-      <c r="CM62" s="21"/>
-      <c r="CN62" s="21"/>
-      <c r="CO62" s="21"/>
-      <c r="CP62" s="11"/>
+      <c r="CL62" s="20">
+        <v>30.952351778884804</v>
+      </c>
+      <c r="CM62" s="20"/>
+      <c r="CN62" s="20"/>
+      <c r="CO62" s="20"/>
+      <c r="CP62" s="20"/>
       <c r="CQ62" s="11"/>
       <c r="CR62" s="11"/>
       <c r="CS62" s="11"/>
@@ -9873,35 +9940,37 @@
       <c r="CC63" s="21">
         <v>-19.14461401397763</v>
       </c>
-      <c r="CD63" s="21">
+      <c r="CD63" s="20">
         <v>13.658208967515264</v>
       </c>
-      <c r="CE63" s="21">
+      <c r="CE63" s="20">
         <v>62.903572935781085</v>
       </c>
-      <c r="CF63" s="21">
+      <c r="CF63" s="20">
         <v>19.429395786067744</v>
       </c>
-      <c r="CG63" s="21">
+      <c r="CG63" s="20">
         <v>44.221853099633591</v>
       </c>
-      <c r="CH63" s="21">
+      <c r="CH63" s="20">
         <v>31.637542822170815</v>
       </c>
-      <c r="CI63" s="21">
+      <c r="CI63" s="20">
         <v>24.336388561093841</v>
       </c>
-      <c r="CJ63" s="21">
+      <c r="CJ63" s="20">
         <v>29.126519327151698</v>
       </c>
-      <c r="CK63" s="21">
+      <c r="CK63" s="20">
         <v>3.7093831009075302</v>
       </c>
-      <c r="CL63" s="21"/>
-      <c r="CM63" s="21"/>
-      <c r="CN63" s="21"/>
-      <c r="CO63" s="21"/>
-      <c r="CP63" s="11"/>
+      <c r="CL63" s="20">
+        <v>0.27106866833521792</v>
+      </c>
+      <c r="CM63" s="20"/>
+      <c r="CN63" s="20"/>
+      <c r="CO63" s="20"/>
+      <c r="CP63" s="20"/>
       <c r="CQ63" s="11"/>
       <c r="CR63" s="11"/>
       <c r="CS63" s="11"/>
@@ -10201,35 +10270,37 @@
       <c r="CC64" s="21">
         <v>-62.547023003272514</v>
       </c>
-      <c r="CD64" s="21">
+      <c r="CD64" s="20">
         <v>-69.117176372144939</v>
       </c>
-      <c r="CE64" s="21">
+      <c r="CE64" s="20">
         <v>-52.818808357475284</v>
       </c>
-      <c r="CF64" s="21">
+      <c r="CF64" s="20">
         <v>-39.641800776492673</v>
       </c>
-      <c r="CG64" s="21">
+      <c r="CG64" s="20">
         <v>5.2938014109528524</v>
       </c>
-      <c r="CH64" s="21">
+      <c r="CH64" s="20">
         <v>67.106051495565623</v>
       </c>
-      <c r="CI64" s="21">
+      <c r="CI64" s="20">
         <v>61.898786672901139</v>
       </c>
-      <c r="CJ64" s="21">
+      <c r="CJ64" s="20">
         <v>72.043646666507186</v>
       </c>
-      <c r="CK64" s="21">
+      <c r="CK64" s="20">
         <v>79.444531646878943</v>
       </c>
-      <c r="CL64" s="21"/>
-      <c r="CM64" s="21"/>
-      <c r="CN64" s="21"/>
-      <c r="CO64" s="21"/>
-      <c r="CP64" s="11"/>
+      <c r="CL64" s="20">
+        <v>74.039346109907711</v>
+      </c>
+      <c r="CM64" s="20"/>
+      <c r="CN64" s="20"/>
+      <c r="CO64" s="20"/>
+      <c r="CP64" s="20"/>
       <c r="CQ64" s="11"/>
       <c r="CR64" s="11"/>
       <c r="CS64" s="11"/>
@@ -10529,35 +10600,37 @@
       <c r="CC65" s="21">
         <v>-28.426888341679515</v>
       </c>
-      <c r="CD65" s="21">
+      <c r="CD65" s="20">
         <v>-0.11855879594548924</v>
       </c>
-      <c r="CE65" s="21">
+      <c r="CE65" s="20">
         <v>-0.10902368548732966</v>
       </c>
-      <c r="CF65" s="21">
+      <c r="CF65" s="20">
         <v>0.52370015316840579</v>
       </c>
-      <c r="CG65" s="21">
+      <c r="CG65" s="20">
         <v>0.66319000617347967</v>
       </c>
-      <c r="CH65" s="21">
+      <c r="CH65" s="20">
         <v>0.3094060620419441</v>
       </c>
-      <c r="CI65" s="21">
+      <c r="CI65" s="20">
         <v>0.77637067602786658</v>
       </c>
-      <c r="CJ65" s="21">
+      <c r="CJ65" s="20">
         <v>1.077233479551893</v>
       </c>
-      <c r="CK65" s="21">
+      <c r="CK65" s="20">
         <v>1.1678899539499241</v>
       </c>
-      <c r="CL65" s="21"/>
-      <c r="CM65" s="21"/>
-      <c r="CN65" s="21"/>
-      <c r="CO65" s="21"/>
-      <c r="CP65" s="11"/>
+      <c r="CL65" s="20">
+        <v>0.21718697333521675</v>
+      </c>
+      <c r="CM65" s="20"/>
+      <c r="CN65" s="20"/>
+      <c r="CO65" s="20"/>
+      <c r="CP65" s="20"/>
       <c r="CQ65" s="11"/>
       <c r="CR65" s="11"/>
       <c r="CS65" s="11"/>
@@ -10857,35 +10930,37 @@
       <c r="CC66" s="21">
         <v>22.575163676768753</v>
       </c>
-      <c r="CD66" s="21">
+      <c r="CD66" s="20">
         <v>44.071843102678599</v>
       </c>
-      <c r="CE66" s="21">
+      <c r="CE66" s="20">
         <v>67.381126630876878</v>
       </c>
-      <c r="CF66" s="21">
+      <c r="CF66" s="20">
         <v>41.261507939718598</v>
       </c>
-      <c r="CG66" s="21">
+      <c r="CG66" s="20">
         <v>17.420946959860203</v>
       </c>
-      <c r="CH66" s="21">
+      <c r="CH66" s="20">
         <v>4.4056633160074199</v>
       </c>
-      <c r="CI66" s="21">
+      <c r="CI66" s="20">
         <v>-15.222109521911165</v>
       </c>
-      <c r="CJ66" s="21">
+      <c r="CJ66" s="20">
         <v>33.708688465687089</v>
       </c>
-      <c r="CK66" s="21">
+      <c r="CK66" s="20">
         <v>22.979646526647215</v>
       </c>
-      <c r="CL66" s="21"/>
-      <c r="CM66" s="21"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
-      <c r="CP66" s="11"/>
+      <c r="CL66" s="20">
+        <v>17.657176868128005</v>
+      </c>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="20"/>
+      <c r="CO66" s="20"/>
+      <c r="CP66" s="20"/>
       <c r="CQ66" s="11"/>
       <c r="CR66" s="11"/>
       <c r="CS66" s="11"/>
@@ -11185,35 +11260,37 @@
       <c r="CC67" s="21">
         <v>-31.514795346006792</v>
       </c>
-      <c r="CD67" s="21">
+      <c r="CD67" s="20">
         <v>-19.767200127160493</v>
       </c>
-      <c r="CE67" s="21">
+      <c r="CE67" s="20">
         <v>16.311699258047867</v>
       </c>
-      <c r="CF67" s="21">
+      <c r="CF67" s="20">
         <v>8.5087986576314592</v>
       </c>
-      <c r="CG67" s="21">
+      <c r="CG67" s="20">
         <v>21.179325349387895</v>
       </c>
-      <c r="CH67" s="21">
+      <c r="CH67" s="20">
         <v>36.604467199614646</v>
       </c>
-      <c r="CI67" s="21">
+      <c r="CI67" s="20">
         <v>41.021615965495471</v>
       </c>
-      <c r="CJ67" s="21">
+      <c r="CJ67" s="20">
         <v>62.643720759555379</v>
       </c>
-      <c r="CK67" s="21">
+      <c r="CK67" s="20">
         <v>31.44501362956629</v>
       </c>
-      <c r="CL67" s="21"/>
-      <c r="CM67" s="21"/>
-      <c r="CN67" s="21"/>
-      <c r="CO67" s="21"/>
-      <c r="CP67" s="11"/>
+      <c r="CL67" s="20">
+        <v>15.0803346624445</v>
+      </c>
+      <c r="CM67" s="20"/>
+      <c r="CN67" s="20"/>
+      <c r="CO67" s="20"/>
+      <c r="CP67" s="20"/>
       <c r="CQ67" s="11"/>
       <c r="CR67" s="11"/>
       <c r="CS67" s="11"/>
@@ -11513,35 +11590,37 @@
       <c r="CC68" s="21">
         <v>-43.938903986888903</v>
       </c>
-      <c r="CD68" s="21">
+      <c r="CD68" s="20">
         <v>-50.415932584702347</v>
       </c>
-      <c r="CE68" s="21">
+      <c r="CE68" s="20">
         <v>28.450677610818644</v>
       </c>
-      <c r="CF68" s="21">
+      <c r="CF68" s="20">
         <v>44.42990424242987</v>
       </c>
-      <c r="CG68" s="21">
+      <c r="CG68" s="20">
         <v>24.094817340864665</v>
       </c>
-      <c r="CH68" s="21">
+      <c r="CH68" s="20">
         <v>18.267129506581156</v>
       </c>
-      <c r="CI68" s="21">
+      <c r="CI68" s="20">
         <v>-14.163908501699623</v>
       </c>
-      <c r="CJ68" s="21">
+      <c r="CJ68" s="20">
         <v>24.719984978851173</v>
       </c>
-      <c r="CK68" s="21">
+      <c r="CK68" s="20">
         <v>-12.93777816295983</v>
       </c>
-      <c r="CL68" s="21"/>
-      <c r="CM68" s="21"/>
-      <c r="CN68" s="21"/>
-      <c r="CO68" s="21"/>
-      <c r="CP68" s="11"/>
+      <c r="CL68" s="20">
+        <v>1.9796452645303617</v>
+      </c>
+      <c r="CM68" s="20"/>
+      <c r="CN68" s="20"/>
+      <c r="CO68" s="20"/>
+      <c r="CP68" s="20"/>
       <c r="CQ68" s="11"/>
       <c r="CR68" s="11"/>
       <c r="CS68" s="11"/>
@@ -11841,35 +11920,37 @@
       <c r="CC69" s="21">
         <v>-49.974888467106872</v>
       </c>
-      <c r="CD69" s="21">
+      <c r="CD69" s="20">
         <v>-26.488005955354254</v>
       </c>
-      <c r="CE69" s="21">
+      <c r="CE69" s="20">
         <v>-35.366249621584217</v>
       </c>
-      <c r="CF69" s="21">
+      <c r="CF69" s="20">
         <v>4.6674424973616908</v>
       </c>
-      <c r="CG69" s="21">
+      <c r="CG69" s="20">
         <v>6.9640382211624967</v>
       </c>
-      <c r="CH69" s="21">
+      <c r="CH69" s="20">
         <v>61.738225060668469</v>
       </c>
-      <c r="CI69" s="21">
+      <c r="CI69" s="20">
         <v>122.49390047772164</v>
       </c>
-      <c r="CJ69" s="21">
+      <c r="CJ69" s="20">
         <v>145.43995595566224</v>
       </c>
-      <c r="CK69" s="21">
+      <c r="CK69" s="20">
         <v>184.02751000759213</v>
       </c>
-      <c r="CL69" s="21"/>
-      <c r="CM69" s="21"/>
-      <c r="CN69" s="21"/>
-      <c r="CO69" s="21"/>
-      <c r="CP69" s="11"/>
+      <c r="CL69" s="20">
+        <v>46.254719468103929</v>
+      </c>
+      <c r="CM69" s="20"/>
+      <c r="CN69" s="20"/>
+      <c r="CO69" s="20"/>
+      <c r="CP69" s="20"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
@@ -12006,18 +12087,18 @@
       <c r="CA70" s="12"/>
       <c r="CB70" s="12"/>
       <c r="CC70" s="12"/>
-      <c r="CD70" s="12"/>
-      <c r="CE70" s="12"/>
-      <c r="CF70" s="12"/>
-      <c r="CG70" s="12"/>
-      <c r="CH70" s="12"/>
-      <c r="CI70" s="12"/>
-      <c r="CJ70" s="12"/>
-      <c r="CK70" s="12"/>
-      <c r="CL70" s="12"/>
-      <c r="CM70" s="12"/>
-      <c r="CN70" s="12"/>
-      <c r="CO70" s="12"/>
+      <c r="CD70" s="11"/>
+      <c r="CE70" s="11"/>
+      <c r="CF70" s="11"/>
+      <c r="CG70" s="11"/>
+      <c r="CH70" s="11"/>
+      <c r="CI70" s="11"/>
+      <c r="CJ70" s="11"/>
+      <c r="CK70" s="11"/>
+      <c r="CL70" s="11"/>
+      <c r="CM70" s="11"/>
+      <c r="CN70" s="11"/>
+      <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
@@ -12318,35 +12399,37 @@
       <c r="CC71" s="21">
         <v>-44.937712270242017</v>
       </c>
-      <c r="CD71" s="21">
+      <c r="CD71" s="20">
         <v>-38.379073465708956</v>
       </c>
-      <c r="CE71" s="21">
+      <c r="CE71" s="20">
         <v>0.49926038835795339</v>
       </c>
-      <c r="CF71" s="21">
+      <c r="CF71" s="20">
         <v>-3.350923083937559</v>
       </c>
-      <c r="CG71" s="21">
+      <c r="CG71" s="20">
         <v>18.777905986429985</v>
       </c>
-      <c r="CH71" s="21">
+      <c r="CH71" s="20">
         <v>39.260738798675902</v>
       </c>
-      <c r="CI71" s="21">
+      <c r="CI71" s="20">
         <v>36.145897829354908</v>
       </c>
-      <c r="CJ71" s="21">
+      <c r="CJ71" s="20">
         <v>57.846866807339012</v>
       </c>
-      <c r="CK71" s="21">
+      <c r="CK71" s="20">
         <v>51.512488535353384</v>
       </c>
-      <c r="CL71" s="21"/>
-      <c r="CM71" s="21"/>
-      <c r="CN71" s="21"/>
-      <c r="CO71" s="21"/>
-      <c r="CP71" s="11"/>
+      <c r="CL71" s="20">
+        <v>33.838542496230758</v>
+      </c>
+      <c r="CM71" s="20"/>
+      <c r="CN71" s="20"/>
+      <c r="CO71" s="20"/>
+      <c r="CP71" s="20"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
@@ -12484,18 +12567,19 @@
       <c r="CA72" s="17"/>
       <c r="CB72" s="17"/>
       <c r="CC72" s="17"/>
-      <c r="CD72" s="17"/>
-      <c r="CE72" s="17"/>
-      <c r="CF72" s="17"/>
-      <c r="CG72" s="17"/>
-      <c r="CH72" s="17"/>
-      <c r="CI72" s="17"/>
-      <c r="CJ72" s="17"/>
-      <c r="CK72" s="17"/>
-      <c r="CL72" s="17"/>
-      <c r="CM72" s="17"/>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
+      <c r="CD72" s="16"/>
+      <c r="CE72" s="16"/>
+      <c r="CF72" s="16"/>
+      <c r="CG72" s="16"/>
+      <c r="CH72" s="16"/>
+      <c r="CI72" s="16"/>
+      <c r="CJ72" s="16"/>
+      <c r="CK72" s="16"/>
+      <c r="CL72" s="16"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="16"/>
+      <c r="CO72" s="16"/>
+      <c r="CP72" s="16"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
@@ -12583,18 +12667,18 @@
       <c r="CA74" s="12"/>
       <c r="CB74" s="12"/>
       <c r="CC74" s="12"/>
-      <c r="CD74" s="12"/>
-      <c r="CE74" s="12"/>
-      <c r="CF74" s="12"/>
-      <c r="CG74" s="12"/>
-      <c r="CH74" s="12"/>
-      <c r="CI74" s="12"/>
-      <c r="CJ74" s="12"/>
-      <c r="CK74" s="12"/>
-      <c r="CL74" s="12"/>
-      <c r="CM74" s="12"/>
-      <c r="CN74" s="12"/>
-      <c r="CO74" s="12"/>
+      <c r="CD74" s="11"/>
+      <c r="CE74" s="11"/>
+      <c r="CF74" s="11"/>
+      <c r="CG74" s="11"/>
+      <c r="CH74" s="11"/>
+      <c r="CI74" s="11"/>
+      <c r="CJ74" s="11"/>
+      <c r="CK74" s="11"/>
+      <c r="CL74" s="11"/>
+      <c r="CM74" s="11"/>
+      <c r="CN74" s="11"/>
+      <c r="CO74" s="11"/>
       <c r="CP74" s="11"/>
       <c r="CQ74" s="11"/>
       <c r="CR74" s="11"/>
@@ -12732,18 +12816,18 @@
       <c r="CA75" s="12"/>
       <c r="CB75" s="12"/>
       <c r="CC75" s="12"/>
-      <c r="CD75" s="12"/>
-      <c r="CE75" s="12"/>
-      <c r="CF75" s="12"/>
-      <c r="CG75" s="12"/>
-      <c r="CH75" s="12"/>
-      <c r="CI75" s="12"/>
-      <c r="CJ75" s="12"/>
-      <c r="CK75" s="12"/>
-      <c r="CL75" s="12"/>
-      <c r="CM75" s="12"/>
-      <c r="CN75" s="12"/>
-      <c r="CO75" s="12"/>
+      <c r="CD75" s="11"/>
+      <c r="CE75" s="11"/>
+      <c r="CF75" s="11"/>
+      <c r="CG75" s="11"/>
+      <c r="CH75" s="11"/>
+      <c r="CI75" s="11"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
@@ -12812,7 +12896,7 @@
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
@@ -12822,7 +12906,7 @@
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
@@ -12832,142 +12916,145 @@
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28" t="s">
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28" t="s">
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28" t="s">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28" t="s">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28" t="s">
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="28" t="s">
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="28"/>
-      <c r="AJ84" s="28"/>
-      <c r="AK84" s="28"/>
-      <c r="AL84" s="28" t="s">
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="28"/>
-      <c r="AN84" s="28"/>
-      <c r="AO84" s="28"/>
-      <c r="AP84" s="28" t="s">
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="29"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="28"/>
-      <c r="AR84" s="28"/>
-      <c r="AS84" s="28"/>
-      <c r="AT84" s="28" t="s">
+      <c r="AQ84" s="29"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="28"/>
-      <c r="AV84" s="28"/>
-      <c r="AW84" s="28"/>
-      <c r="AX84" s="28" t="s">
+      <c r="AU84" s="29"/>
+      <c r="AV84" s="29"/>
+      <c r="AW84" s="29"/>
+      <c r="AX84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="28"/>
-      <c r="AZ84" s="28"/>
-      <c r="BA84" s="28"/>
-      <c r="BB84" s="28" t="s">
+      <c r="AY84" s="29"/>
+      <c r="AZ84" s="29"/>
+      <c r="BA84" s="29"/>
+      <c r="BB84" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="28"/>
-      <c r="BD84" s="28"/>
-      <c r="BE84" s="28"/>
-      <c r="BF84" s="28" t="s">
+      <c r="BC84" s="29"/>
+      <c r="BD84" s="29"/>
+      <c r="BE84" s="29"/>
+      <c r="BF84" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="28"/>
-      <c r="BH84" s="28"/>
-      <c r="BI84" s="28"/>
-      <c r="BJ84" s="28" t="s">
+      <c r="BG84" s="29"/>
+      <c r="BH84" s="29"/>
+      <c r="BI84" s="29"/>
+      <c r="BJ84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="28"/>
-      <c r="BL84" s="28"/>
-      <c r="BM84" s="28"/>
-      <c r="BN84" s="28" t="s">
+      <c r="BK84" s="29"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="28"/>
-      <c r="BP84" s="28"/>
-      <c r="BQ84" s="28"/>
-      <c r="BR84" s="28" t="s">
+      <c r="BO84" s="29"/>
+      <c r="BP84" s="29"/>
+      <c r="BQ84" s="29"/>
+      <c r="BR84" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="28"/>
-      <c r="BT84" s="28"/>
-      <c r="BU84" s="28"/>
-      <c r="BV84" s="27" t="s">
+      <c r="BS84" s="29"/>
+      <c r="BT84" s="29"/>
+      <c r="BU84" s="29"/>
+      <c r="BV84" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="27"/>
-      <c r="BX84" s="27"/>
-      <c r="BY84" s="27"/>
-      <c r="BZ84" s="27" t="s">
+      <c r="BW84" s="31"/>
+      <c r="BX84" s="31"/>
+      <c r="BY84" s="31"/>
+      <c r="BZ84" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="27"/>
-      <c r="CB84" s="27"/>
-      <c r="CC84" s="27"/>
-      <c r="CD84" s="27" t="s">
+      <c r="CA84" s="31"/>
+      <c r="CB84" s="31"/>
+      <c r="CC84" s="31"/>
+      <c r="CD84" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="27"/>
-      <c r="CF84" s="27"/>
-      <c r="CG84" s="27"/>
-      <c r="CH84" s="27" t="s">
+      <c r="CE84" s="29"/>
+      <c r="CF84" s="29"/>
+      <c r="CG84" s="29"/>
+      <c r="CH84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="27"/>
-      <c r="CJ84" s="27"/>
-      <c r="CK84" s="27"/>
-      <c r="CL84" s="27"/>
-      <c r="CM84" s="27"/>
-      <c r="CN84" s="27"/>
-      <c r="CO84" s="27"/>
+      <c r="CI84" s="29"/>
+      <c r="CJ84" s="29"/>
+      <c r="CK84" s="29"/>
+      <c r="CL84" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="CM84" s="26"/>
+      <c r="CN84" s="26"/>
+      <c r="CO84" s="26"/>
+      <c r="CP84" s="26"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13211,34 +13298,37 @@
       <c r="CC85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CD85" s="7" t="s">
+      <c r="CD85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="7" t="s">
+      <c r="CE85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="7" t="s">
+      <c r="CF85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CG85" s="7" t="s">
+      <c r="CG85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CH85" s="7" t="s">
+      <c r="CH85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="7" t="s">
+      <c r="CI85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="7" t="s">
+      <c r="CJ85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK85" s="7" t="s">
+      <c r="CK85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="7"/>
-      <c r="CM85" s="7"/>
-      <c r="CN85" s="7"/>
-      <c r="CO85" s="7"/>
+      <c r="CL85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM85" s="6"/>
+      <c r="CN85" s="6"/>
+      <c r="CO85" s="6"/>
+      <c r="CP85" s="6"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
@@ -13487,35 +13577,37 @@
       <c r="CC87" s="21">
         <v>-13.933678031383437</v>
       </c>
-      <c r="CD87" s="21">
+      <c r="CD87" s="20">
         <v>-20.964926605275664</v>
       </c>
-      <c r="CE87" s="21">
+      <c r="CE87" s="20">
         <v>46.897063430041328</v>
       </c>
-      <c r="CF87" s="21">
+      <c r="CF87" s="20">
         <v>23.722020991378216</v>
       </c>
-      <c r="CG87" s="21">
+      <c r="CG87" s="20">
         <v>27.793341516710683</v>
       </c>
-      <c r="CH87" s="21">
+      <c r="CH87" s="20">
         <v>35.059662466890046</v>
       </c>
-      <c r="CI87" s="21">
+      <c r="CI87" s="20">
         <v>48.018068658768385</v>
       </c>
-      <c r="CJ87" s="21">
+      <c r="CJ87" s="20">
         <v>55.402130264529973</v>
       </c>
-      <c r="CK87" s="21">
+      <c r="CK87" s="20">
         <v>36.947095115434507</v>
       </c>
-      <c r="CL87" s="21"/>
-      <c r="CM87" s="21"/>
-      <c r="CN87" s="21"/>
-      <c r="CO87" s="21"/>
-      <c r="CP87" s="11"/>
+      <c r="CL87" s="20">
+        <v>23.998495323613284</v>
+      </c>
+      <c r="CM87" s="20"/>
+      <c r="CN87" s="20"/>
+      <c r="CO87" s="20"/>
+      <c r="CP87" s="20"/>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
@@ -13815,35 +13907,37 @@
       <c r="CC88" s="21">
         <v>-15.721109910841548</v>
       </c>
-      <c r="CD88" s="21">
+      <c r="CD88" s="20">
         <v>14.8289174677478</v>
       </c>
-      <c r="CE88" s="21">
+      <c r="CE88" s="20">
         <v>67.079530127835199</v>
       </c>
-      <c r="CF88" s="21">
+      <c r="CF88" s="20">
         <v>20.135211943887128</v>
       </c>
-      <c r="CG88" s="21">
+      <c r="CG88" s="20">
         <v>39.426366239155072</v>
       </c>
-      <c r="CH88" s="21">
+      <c r="CH88" s="20">
         <v>30.722112646060651</v>
       </c>
-      <c r="CI88" s="21">
+      <c r="CI88" s="20">
         <v>21.079406460211672</v>
       </c>
-      <c r="CJ88" s="21">
+      <c r="CJ88" s="20">
         <v>27.999433537143986</v>
       </c>
-      <c r="CK88" s="21">
+      <c r="CK88" s="20">
         <v>1.3193627192295025</v>
       </c>
-      <c r="CL88" s="21"/>
-      <c r="CM88" s="21"/>
-      <c r="CN88" s="21"/>
-      <c r="CO88" s="21"/>
-      <c r="CP88" s="11"/>
+      <c r="CL88" s="20">
+        <v>-6.690812680131188</v>
+      </c>
+      <c r="CM88" s="20"/>
+      <c r="CN88" s="20"/>
+      <c r="CO88" s="20"/>
+      <c r="CP88" s="20"/>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
@@ -14143,35 +14237,37 @@
       <c r="CC89" s="21">
         <v>-61.40408079107381</v>
       </c>
-      <c r="CD89" s="21">
+      <c r="CD89" s="20">
         <v>-68.477562513680425</v>
       </c>
-      <c r="CE89" s="21">
+      <c r="CE89" s="20">
         <v>-51.480536243458829</v>
       </c>
-      <c r="CF89" s="21">
+      <c r="CF89" s="20">
         <v>-39.020917569140757</v>
       </c>
-      <c r="CG89" s="21">
+      <c r="CG89" s="20">
         <v>2.097655140689497</v>
       </c>
-      <c r="CH89" s="21">
+      <c r="CH89" s="20">
         <v>65.12077476086057</v>
       </c>
-      <c r="CI89" s="21">
+      <c r="CI89" s="20">
         <v>57.396682189519112</v>
       </c>
-      <c r="CJ89" s="21">
+      <c r="CJ89" s="20">
         <v>71.647617410303553</v>
       </c>
-      <c r="CK89" s="21">
+      <c r="CK89" s="20">
         <v>75.586048994618437</v>
       </c>
-      <c r="CL89" s="21"/>
-      <c r="CM89" s="21"/>
-      <c r="CN89" s="21"/>
-      <c r="CO89" s="21"/>
-      <c r="CP89" s="11"/>
+      <c r="CL89" s="20">
+        <v>61.393932900275701</v>
+      </c>
+      <c r="CM89" s="20"/>
+      <c r="CN89" s="20"/>
+      <c r="CO89" s="20"/>
+      <c r="CP89" s="20"/>
       <c r="CQ89" s="11"/>
       <c r="CR89" s="11"/>
       <c r="CS89" s="11"/>
@@ -14471,35 +14567,37 @@
       <c r="CC90" s="21">
         <v>-25.396405728204186</v>
       </c>
-      <c r="CD90" s="21">
+      <c r="CD90" s="20">
         <v>0.91024548748714551</v>
       </c>
-      <c r="CE90" s="21">
+      <c r="CE90" s="20">
         <v>2.4516349510567181</v>
       </c>
-      <c r="CF90" s="21">
+      <c r="CF90" s="20">
         <v>1.1177854815325361</v>
       </c>
-      <c r="CG90" s="21">
+      <c r="CG90" s="20">
         <v>-2.6839380096825636</v>
       </c>
-      <c r="CH90" s="21">
+      <c r="CH90" s="20">
         <v>-0.38816284792265776</v>
       </c>
-      <c r="CI90" s="21">
+      <c r="CI90" s="20">
         <v>-1.8634585749432517</v>
       </c>
-      <c r="CJ90" s="21">
+      <c r="CJ90" s="20">
         <v>0.19497695980889773</v>
       </c>
-      <c r="CK90" s="21">
+      <c r="CK90" s="20">
         <v>-1.1635607955549858</v>
       </c>
-      <c r="CL90" s="21"/>
-      <c r="CM90" s="21"/>
-      <c r="CN90" s="21"/>
-      <c r="CO90" s="21"/>
-      <c r="CP90" s="11"/>
+      <c r="CL90" s="20">
+        <v>-6.7409533362410201</v>
+      </c>
+      <c r="CM90" s="20"/>
+      <c r="CN90" s="20"/>
+      <c r="CO90" s="20"/>
+      <c r="CP90" s="20"/>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
@@ -14799,35 +14897,37 @@
       <c r="CC91" s="21">
         <v>27.765128088818415</v>
       </c>
-      <c r="CD91" s="21">
+      <c r="CD91" s="20">
         <v>45.555819780620766</v>
       </c>
-      <c r="CE91" s="21">
+      <c r="CE91" s="20">
         <v>71.671863825719583</v>
       </c>
-      <c r="CF91" s="21">
+      <c r="CF91" s="20">
         <v>42.096349765096193</v>
       </c>
-      <c r="CG91" s="21">
+      <c r="CG91" s="20">
         <v>13.516610715463528</v>
       </c>
-      <c r="CH91" s="21">
+      <c r="CH91" s="20">
         <v>3.6796083266235513</v>
       </c>
-      <c r="CI91" s="21">
+      <c r="CI91" s="20">
         <v>-17.442859819013535</v>
       </c>
-      <c r="CJ91" s="21">
+      <c r="CJ91" s="20">
         <v>32.541607036128539</v>
       </c>
-      <c r="CK91" s="21">
+      <c r="CK91" s="20">
         <v>20.145535928917965</v>
       </c>
-      <c r="CL91" s="21"/>
-      <c r="CM91" s="21"/>
-      <c r="CN91" s="21"/>
-      <c r="CO91" s="21"/>
-      <c r="CP91" s="11"/>
+      <c r="CL91" s="20">
+        <v>9.4881674416821227</v>
+      </c>
+      <c r="CM91" s="20"/>
+      <c r="CN91" s="20"/>
+      <c r="CO91" s="20"/>
+      <c r="CP91" s="20"/>
       <c r="CQ91" s="11"/>
       <c r="CR91" s="11"/>
       <c r="CS91" s="11"/>
@@ -15127,35 +15227,37 @@
       <c r="CC92" s="21">
         <v>-28.615058039977555</v>
       </c>
-      <c r="CD92" s="21">
+      <c r="CD92" s="20">
         <v>-18.940781853796395</v>
       </c>
-      <c r="CE92" s="21">
+      <c r="CE92" s="20">
         <v>19.293295476493938</v>
       </c>
-      <c r="CF92" s="21">
+      <c r="CF92" s="20">
         <v>9.1500751444966397</v>
       </c>
-      <c r="CG92" s="21">
+      <c r="CG92" s="20">
         <v>17.150020150589825</v>
       </c>
-      <c r="CH92" s="21">
+      <c r="CH92" s="20">
         <v>35.654496174745901</v>
       </c>
-      <c r="CI92" s="21">
+      <c r="CI92" s="20">
         <v>37.327565620680986</v>
       </c>
-      <c r="CJ92" s="21">
+      <c r="CJ92" s="20">
         <v>61.224078787811067</v>
       </c>
-      <c r="CK92" s="21">
+      <c r="CK92" s="20">
         <v>28.415815573890455</v>
       </c>
-      <c r="CL92" s="21"/>
-      <c r="CM92" s="21"/>
-      <c r="CN92" s="21"/>
-      <c r="CO92" s="21"/>
-      <c r="CP92" s="11"/>
+      <c r="CL92" s="20">
+        <v>7.0902369592697596</v>
+      </c>
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
+      <c r="CP92" s="20"/>
       <c r="CQ92" s="11"/>
       <c r="CR92" s="11"/>
       <c r="CS92" s="11"/>
@@ -15455,35 +15557,37 @@
       <c r="CC93" s="21">
         <v>-41.565216818289265</v>
       </c>
-      <c r="CD93" s="21">
+      <c r="CD93" s="20">
         <v>-49.905204061646145</v>
       </c>
-      <c r="CE93" s="21">
+      <c r="CE93" s="20">
         <v>31.743450883536099</v>
       </c>
-      <c r="CF93" s="21">
+      <c r="CF93" s="20">
         <v>45.283470982976894</v>
       </c>
-      <c r="CG93" s="21">
+      <c r="CG93" s="20">
         <v>19.968569804712928</v>
       </c>
-      <c r="CH93" s="21">
+      <c r="CH93" s="20">
         <v>17.444679490642258</v>
       </c>
-      <c r="CI93" s="21">
+      <c r="CI93" s="20">
         <v>-16.412378292844309</v>
       </c>
-      <c r="CJ93" s="21">
+      <c r="CJ93" s="20">
         <v>23.631361793372946</v>
       </c>
-      <c r="CK93" s="21">
+      <c r="CK93" s="20">
         <v>-14.944158670133817</v>
       </c>
-      <c r="CL93" s="21"/>
-      <c r="CM93" s="21"/>
-      <c r="CN93" s="21"/>
-      <c r="CO93" s="21"/>
-      <c r="CP93" s="11"/>
+      <c r="CL93" s="20">
+        <v>-5.100863597290072</v>
+      </c>
+      <c r="CM93" s="20"/>
+      <c r="CN93" s="20"/>
+      <c r="CO93" s="20"/>
+      <c r="CP93" s="20"/>
       <c r="CQ93" s="11"/>
       <c r="CR93" s="11"/>
       <c r="CS93" s="11"/>
@@ -15783,35 +15887,37 @@
       <c r="CC94" s="21">
         <v>-47.856771380604989</v>
       </c>
-      <c r="CD94" s="21">
+      <c r="CD94" s="20">
         <v>-25.730813693757852</v>
       </c>
-      <c r="CE94" s="21">
+      <c r="CE94" s="20">
         <v>-33.709393544838889</v>
       </c>
-      <c r="CF94" s="21">
+      <c r="CF94" s="20">
         <v>5.2860169415010603</v>
       </c>
-      <c r="CG94" s="21">
+      <c r="CG94" s="20">
         <v>3.4074021857140764</v>
       </c>
-      <c r="CH94" s="21">
+      <c r="CH94" s="20">
         <v>60.613469548853374</v>
       </c>
-      <c r="CI94" s="21">
+      <c r="CI94" s="20">
         <v>116.66568992892215</v>
       </c>
-      <c r="CJ94" s="21">
+      <c r="CJ94" s="20">
         <v>143.29762386075862</v>
       </c>
-      <c r="CK94" s="21">
+      <c r="CK94" s="20">
         <v>177.48199293306754</v>
       </c>
-      <c r="CL94" s="21"/>
-      <c r="CM94" s="21"/>
-      <c r="CN94" s="21"/>
-      <c r="CO94" s="21"/>
-      <c r="CP94" s="11"/>
+      <c r="CL94" s="20">
+        <v>36.100165247104428</v>
+      </c>
+      <c r="CM94" s="20"/>
+      <c r="CN94" s="20"/>
+      <c r="CO94" s="20"/>
+      <c r="CP94" s="20"/>
       <c r="CQ94" s="11"/>
       <c r="CR94" s="11"/>
       <c r="CS94" s="11"/>
@@ -15948,18 +16054,18 @@
       <c r="CA95" s="12"/>
       <c r="CB95" s="12"/>
       <c r="CC95" s="12"/>
-      <c r="CD95" s="12"/>
-      <c r="CE95" s="12"/>
-      <c r="CF95" s="12"/>
-      <c r="CG95" s="12"/>
-      <c r="CH95" s="12"/>
-      <c r="CI95" s="12"/>
-      <c r="CJ95" s="12"/>
-      <c r="CK95" s="12"/>
-      <c r="CL95" s="12"/>
-      <c r="CM95" s="12"/>
-      <c r="CN95" s="12"/>
-      <c r="CO95" s="12"/>
+      <c r="CD95" s="11"/>
+      <c r="CE95" s="11"/>
+      <c r="CF95" s="11"/>
+      <c r="CG95" s="11"/>
+      <c r="CH95" s="11"/>
+      <c r="CI95" s="11"/>
+      <c r="CJ95" s="11"/>
+      <c r="CK95" s="11"/>
+      <c r="CL95" s="11"/>
+      <c r="CM95" s="11"/>
+      <c r="CN95" s="11"/>
+      <c r="CO95" s="11"/>
       <c r="CP95" s="11"/>
       <c r="CQ95" s="11"/>
       <c r="CR95" s="11"/>
@@ -16260,35 +16366,37 @@
       <c r="CC96" s="21">
         <v>-43.72729502330742</v>
       </c>
-      <c r="CD96" s="21">
+      <c r="CD96" s="20">
         <v>-33.748574796341643</v>
       </c>
-      <c r="CE96" s="21">
+      <c r="CE96" s="20">
         <v>1.4734202202567417</v>
       </c>
-      <c r="CF96" s="21">
+      <c r="CF96" s="20">
         <v>-5.7593709408497915</v>
       </c>
-      <c r="CG96" s="21">
+      <c r="CG96" s="20">
         <v>13.23198980862756</v>
       </c>
-      <c r="CH96" s="21">
+      <c r="CH96" s="20">
         <v>36.113079792333167</v>
       </c>
-      <c r="CI96" s="21">
+      <c r="CI96" s="20">
         <v>33.821536303786417</v>
       </c>
-      <c r="CJ96" s="21">
+      <c r="CJ96" s="20">
         <v>57.646325807563699</v>
       </c>
-      <c r="CK96" s="21">
+      <c r="CK96" s="20">
         <v>49.788192054729905</v>
       </c>
-      <c r="CL96" s="21"/>
-      <c r="CM96" s="21"/>
-      <c r="CN96" s="21"/>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="11"/>
+      <c r="CL96" s="20">
+        <v>22.008739674575722</v>
+      </c>
+      <c r="CM96" s="20"/>
+      <c r="CN96" s="20"/>
+      <c r="CO96" s="20"/>
+      <c r="CP96" s="20"/>
       <c r="CQ96" s="11"/>
       <c r="CR96" s="11"/>
       <c r="CS96" s="11"/>
@@ -16426,18 +16534,19 @@
       <c r="CA97" s="17"/>
       <c r="CB97" s="17"/>
       <c r="CC97" s="17"/>
-      <c r="CD97" s="17"/>
-      <c r="CE97" s="17"/>
-      <c r="CF97" s="17"/>
-      <c r="CG97" s="17"/>
-      <c r="CH97" s="17"/>
-      <c r="CI97" s="17"/>
-      <c r="CJ97" s="17"/>
-      <c r="CK97" s="17"/>
-      <c r="CL97" s="17"/>
-      <c r="CM97" s="17"/>
-      <c r="CN97" s="17"/>
-      <c r="CO97" s="17"/>
+      <c r="CD97" s="16"/>
+      <c r="CE97" s="16"/>
+      <c r="CF97" s="16"/>
+      <c r="CG97" s="16"/>
+      <c r="CH97" s="16"/>
+      <c r="CI97" s="16"/>
+      <c r="CJ97" s="16"/>
+      <c r="CK97" s="16"/>
+      <c r="CL97" s="16"/>
+      <c r="CM97" s="16"/>
+      <c r="CN97" s="16"/>
+      <c r="CO97" s="16"/>
+      <c r="CP97" s="16"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
@@ -16525,18 +16634,18 @@
       <c r="CA99" s="12"/>
       <c r="CB99" s="12"/>
       <c r="CC99" s="12"/>
-      <c r="CD99" s="12"/>
-      <c r="CE99" s="12"/>
-      <c r="CF99" s="12"/>
-      <c r="CG99" s="12"/>
-      <c r="CH99" s="12"/>
-      <c r="CI99" s="12"/>
-      <c r="CJ99" s="12"/>
-      <c r="CK99" s="12"/>
-      <c r="CL99" s="12"/>
-      <c r="CM99" s="12"/>
-      <c r="CN99" s="12"/>
-      <c r="CO99" s="12"/>
+      <c r="CD99" s="11"/>
+      <c r="CE99" s="11"/>
+      <c r="CF99" s="11"/>
+      <c r="CG99" s="11"/>
+      <c r="CH99" s="11"/>
+      <c r="CI99" s="11"/>
+      <c r="CJ99" s="11"/>
+      <c r="CK99" s="11"/>
+      <c r="CL99" s="11"/>
+      <c r="CM99" s="11"/>
+      <c r="CN99" s="11"/>
+      <c r="CO99" s="11"/>
       <c r="CP99" s="11"/>
       <c r="CQ99" s="11"/>
       <c r="CR99" s="11"/>
@@ -16674,18 +16783,18 @@
       <c r="CA100" s="12"/>
       <c r="CB100" s="12"/>
       <c r="CC100" s="12"/>
-      <c r="CD100" s="12"/>
-      <c r="CE100" s="12"/>
-      <c r="CF100" s="12"/>
-      <c r="CG100" s="12"/>
-      <c r="CH100" s="12"/>
-      <c r="CI100" s="12"/>
-      <c r="CJ100" s="12"/>
-      <c r="CK100" s="12"/>
-      <c r="CL100" s="12"/>
-      <c r="CM100" s="12"/>
-      <c r="CN100" s="12"/>
-      <c r="CO100" s="12"/>
+      <c r="CD100" s="11"/>
+      <c r="CE100" s="11"/>
+      <c r="CF100" s="11"/>
+      <c r="CG100" s="11"/>
+      <c r="CH100" s="11"/>
+      <c r="CI100" s="11"/>
+      <c r="CJ100" s="11"/>
+      <c r="CK100" s="11"/>
+      <c r="CL100" s="11"/>
+      <c r="CM100" s="11"/>
+      <c r="CN100" s="11"/>
+      <c r="CO100" s="11"/>
       <c r="CP100" s="11"/>
       <c r="CQ100" s="11"/>
       <c r="CR100" s="11"/>
@@ -16749,7 +16858,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -16759,7 +16868,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -16769,144 +16878,147 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="27">
+      <c r="B108" s="31">
         <v>2000</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27">
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31">
         <v>2001</v>
       </c>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27">
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31">
         <v>2002</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27">
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31">
         <v>2003</v>
       </c>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27">
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="31">
         <v>2004</v>
       </c>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27">
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="31">
         <v>2005</v>
       </c>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27">
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="31">
         <v>2006</v>
       </c>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27">
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="31">
         <v>2007</v>
       </c>
-      <c r="AE108" s="27"/>
-      <c r="AF108" s="27"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27">
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="31">
         <v>2008</v>
       </c>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27">
+      <c r="AI108" s="31"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="31"/>
+      <c r="AL108" s="31">
         <v>2009</v>
       </c>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27">
+      <c r="AM108" s="31"/>
+      <c r="AN108" s="31"/>
+      <c r="AO108" s="31"/>
+      <c r="AP108" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
-      <c r="AS108" s="27"/>
-      <c r="AT108" s="27">
+      <c r="AQ108" s="31"/>
+      <c r="AR108" s="31"/>
+      <c r="AS108" s="31"/>
+      <c r="AT108" s="31">
         <v>2011</v>
       </c>
-      <c r="AU108" s="27"/>
-      <c r="AV108" s="27"/>
-      <c r="AW108" s="27"/>
-      <c r="AX108" s="27">
+      <c r="AU108" s="31"/>
+      <c r="AV108" s="31"/>
+      <c r="AW108" s="31"/>
+      <c r="AX108" s="31">
         <v>2012</v>
       </c>
-      <c r="AY108" s="27"/>
-      <c r="AZ108" s="27"/>
-      <c r="BA108" s="27"/>
-      <c r="BB108" s="27">
+      <c r="AY108" s="31"/>
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+      <c r="BB108" s="31">
         <v>2013</v>
       </c>
-      <c r="BC108" s="27"/>
-      <c r="BD108" s="27"/>
-      <c r="BE108" s="27"/>
-      <c r="BF108" s="27">
+      <c r="BC108" s="31"/>
+      <c r="BD108" s="31"/>
+      <c r="BE108" s="31"/>
+      <c r="BF108" s="31">
         <v>2014</v>
       </c>
-      <c r="BG108" s="27"/>
-      <c r="BH108" s="27"/>
-      <c r="BI108" s="27"/>
-      <c r="BJ108" s="27">
+      <c r="BG108" s="31"/>
+      <c r="BH108" s="31"/>
+      <c r="BI108" s="31"/>
+      <c r="BJ108" s="31">
         <v>2015</v>
       </c>
-      <c r="BK108" s="27"/>
-      <c r="BL108" s="27"/>
-      <c r="BM108" s="27"/>
-      <c r="BN108" s="27">
+      <c r="BK108" s="31"/>
+      <c r="BL108" s="31"/>
+      <c r="BM108" s="31"/>
+      <c r="BN108" s="31">
         <v>2016</v>
       </c>
-      <c r="BO108" s="27"/>
-      <c r="BP108" s="27"/>
-      <c r="BQ108" s="27"/>
-      <c r="BR108" s="27">
+      <c r="BO108" s="31"/>
+      <c r="BP108" s="31"/>
+      <c r="BQ108" s="31"/>
+      <c r="BR108" s="31">
         <v>2017</v>
       </c>
-      <c r="BS108" s="27"/>
-      <c r="BT108" s="27"/>
-      <c r="BU108" s="27"/>
-      <c r="BV108" s="26">
+      <c r="BS108" s="31"/>
+      <c r="BT108" s="31"/>
+      <c r="BU108" s="31"/>
+      <c r="BV108" s="30">
         <v>2018</v>
       </c>
-      <c r="BW108" s="26"/>
-      <c r="BX108" s="26"/>
-      <c r="BY108" s="26"/>
-      <c r="BZ108" s="26">
+      <c r="BW108" s="30"/>
+      <c r="BX108" s="30"/>
+      <c r="BY108" s="30"/>
+      <c r="BZ108" s="30">
         <v>2019</v>
       </c>
-      <c r="CA108" s="26"/>
-      <c r="CB108" s="26"/>
-      <c r="CC108" s="26"/>
-      <c r="CD108" s="26">
+      <c r="CA108" s="30"/>
+      <c r="CB108" s="30"/>
+      <c r="CC108" s="30"/>
+      <c r="CD108" s="29">
         <v>2020</v>
       </c>
-      <c r="CE108" s="26"/>
-      <c r="CF108" s="26"/>
-      <c r="CG108" s="26"/>
-      <c r="CH108" s="26">
+      <c r="CE108" s="29"/>
+      <c r="CF108" s="29"/>
+      <c r="CG108" s="29"/>
+      <c r="CH108" s="29">
         <v>2021</v>
       </c>
-      <c r="CI108" s="26"/>
-      <c r="CJ108" s="26"/>
-      <c r="CK108" s="26"/>
-      <c r="CL108" s="26">
+      <c r="CI108" s="29"/>
+      <c r="CJ108" s="29"/>
+      <c r="CK108" s="29"/>
+      <c r="CL108" s="29">
         <v>2022</v>
       </c>
-      <c r="CM108" s="26"/>
-      <c r="CN108" s="26"/>
-      <c r="CO108" s="26"/>
+      <c r="CM108" s="29"/>
+      <c r="CN108" s="29"/>
+      <c r="CO108" s="29"/>
+      <c r="CP108" s="26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17150,41 +17262,44 @@
       <c r="CC109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD109" s="19" t="s">
+      <c r="CD109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE109" s="19" t="s">
+      <c r="CE109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF109" s="19" t="s">
+      <c r="CF109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG109" s="19" t="s">
+      <c r="CG109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH109" s="19" t="s">
+      <c r="CH109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI109" s="19" t="s">
+      <c r="CI109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ109" s="19" t="s">
+      <c r="CJ109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK109" s="19" t="s">
+      <c r="CK109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="19" t="s">
+      <c r="CL109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="19" t="s">
+      <c r="CM109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="19" t="s">
+      <c r="CN109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO109" s="19" t="s">
+      <c r="CO109" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CP109" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17434,43 +17549,45 @@
       <c r="CC111" s="21">
         <v>100.47498010055165</v>
       </c>
-      <c r="CD111" s="21">
+      <c r="CD111" s="20">
         <v>97.54283427759222</v>
       </c>
-      <c r="CE111" s="21">
+      <c r="CE111" s="20">
         <v>101.84177757751773</v>
       </c>
-      <c r="CF111" s="21">
+      <c r="CF111" s="20">
         <v>98.442593850935225</v>
       </c>
-      <c r="CG111" s="21">
+      <c r="CG111" s="20">
         <v>94.821903061270575</v>
       </c>
-      <c r="CH111" s="21">
+      <c r="CH111" s="20">
         <v>95.793319182693821</v>
       </c>
-      <c r="CI111" s="21">
+      <c r="CI111" s="20">
         <v>106.02231884660962</v>
       </c>
-      <c r="CJ111" s="21">
+      <c r="CJ111" s="20">
         <v>103.98792964934991</v>
       </c>
-      <c r="CK111" s="21">
+      <c r="CK111" s="20">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="21">
+      <c r="CL111" s="20">
         <v>98.189924450577621</v>
       </c>
-      <c r="CM111" s="21">
+      <c r="CM111" s="20">
         <v>106.184238788065</v>
       </c>
-      <c r="CN111" s="21">
+      <c r="CN111" s="20">
         <v>104.0191102124076</v>
       </c>
-      <c r="CO111" s="21">
+      <c r="CO111" s="20">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="11"/>
+      <c r="CP111" s="20">
+        <v>103.69643191424717</v>
+      </c>
       <c r="CQ111" s="11"/>
       <c r="CR111" s="11"/>
       <c r="CS111" s="11"/>
@@ -17774,43 +17891,45 @@
       <c r="CC112" s="21">
         <v>107.98286749146069</v>
       </c>
-      <c r="CD112" s="21">
+      <c r="CD112" s="20">
         <v>79.88531699593193</v>
       </c>
-      <c r="CE112" s="21">
+      <c r="CE112" s="20">
         <v>120.21532725368891</v>
       </c>
-      <c r="CF112" s="21">
+      <c r="CF112" s="20">
         <v>108.13512407167778</v>
       </c>
-      <c r="CG112" s="21">
+      <c r="CG112" s="20">
         <v>103.59648094158642</v>
       </c>
-      <c r="CH112" s="21">
+      <c r="CH112" s="20">
         <v>79.070866927836704</v>
       </c>
-      <c r="CI112" s="21">
+      <c r="CI112" s="20">
         <v>117.2106859307448</v>
       </c>
-      <c r="CJ112" s="21">
+      <c r="CJ112" s="20">
         <v>107.4998106064363</v>
       </c>
-      <c r="CK112" s="21">
+      <c r="CK112" s="20">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="21">
+      <c r="CL112" s="20">
         <v>79.624590059843584</v>
       </c>
-      <c r="CM112" s="21">
+      <c r="CM112" s="20">
         <v>120.36360117264438</v>
       </c>
-      <c r="CN112" s="21">
+      <c r="CN112" s="20">
         <v>108.44638908428462</v>
       </c>
-      <c r="CO112" s="21">
+      <c r="CO112" s="20">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="11"/>
+      <c r="CP112" s="20">
+        <v>85.565451451301328</v>
+      </c>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
@@ -18114,43 +18233,45 @@
       <c r="CC113" s="21">
         <v>93.519268645929287</v>
       </c>
-      <c r="CD113" s="21">
+      <c r="CD113" s="20">
         <v>114.40324303336718</v>
       </c>
-      <c r="CE113" s="21">
+      <c r="CE113" s="20">
         <v>110.49941831514872</v>
       </c>
-      <c r="CF113" s="21">
+      <c r="CF113" s="20">
         <v>93.365791918613255</v>
       </c>
-      <c r="CG113" s="21">
+      <c r="CG113" s="20">
         <v>90.749879498574458</v>
       </c>
-      <c r="CH113" s="21">
+      <c r="CH113" s="20">
         <v>112.08191557481699</v>
       </c>
-      <c r="CI113" s="21">
+      <c r="CI113" s="20">
         <v>107.45160453698703</v>
       </c>
-      <c r="CJ113" s="21">
+      <c r="CJ113" s="20">
         <v>92.415150320994783</v>
       </c>
-      <c r="CK113" s="21">
+      <c r="CK113" s="20">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="21">
+      <c r="CL113" s="20">
         <v>113.4294965784437</v>
       </c>
-      <c r="CM113" s="21">
+      <c r="CM113" s="20">
         <v>110.52510229947529</v>
       </c>
-      <c r="CN113" s="21">
+      <c r="CN113" s="20">
         <v>92.628372641209594</v>
       </c>
-      <c r="CO113" s="21">
+      <c r="CO113" s="20">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="11"/>
+      <c r="CP113" s="20">
+        <v>122.31683719044332</v>
+      </c>
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
       <c r="CS113" s="11"/>
@@ -18454,43 +18575,45 @@
       <c r="CC114" s="21">
         <v>105.8808487936989</v>
       </c>
-      <c r="CD114" s="21">
+      <c r="CD114" s="20">
         <v>89.808624506801294</v>
       </c>
-      <c r="CE114" s="21">
+      <c r="CE114" s="20">
         <v>111.9896433359819</v>
       </c>
-      <c r="CF114" s="21">
+      <c r="CF114" s="20">
         <v>105.90311026613939</v>
       </c>
-      <c r="CG114" s="21">
+      <c r="CG114" s="20">
         <v>101.57984862740234</v>
       </c>
-      <c r="CH114" s="21">
+      <c r="CH114" s="20">
         <v>88.893003926002606</v>
       </c>
-      <c r="CI114" s="21">
+      <c r="CI114" s="20">
         <v>109.19059334962719</v>
       </c>
-      <c r="CJ114" s="21">
+      <c r="CJ114" s="20">
         <v>105.28091028680211</v>
       </c>
-      <c r="CK114" s="21">
+      <c r="CK114" s="20">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="21">
+      <c r="CL114" s="20">
         <v>89.515510222693749</v>
       </c>
-      <c r="CM114" s="21">
+      <c r="CM114" s="20">
         <v>112.1277716735175</v>
       </c>
-      <c r="CN114" s="21">
+      <c r="CN114" s="20">
         <v>106.20795046709245</v>
       </c>
-      <c r="CO114" s="21">
+      <c r="CO114" s="20">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="11"/>
+      <c r="CP114" s="20">
+        <v>96.194341953179972</v>
+      </c>
       <c r="CQ114" s="11"/>
       <c r="CR114" s="11"/>
       <c r="CS114" s="11"/>
@@ -18794,43 +18917,45 @@
       <c r="CC115" s="21">
         <v>108.81478543296691</v>
       </c>
-      <c r="CD115" s="21">
+      <c r="CD115" s="20">
         <v>86.21165650849629</v>
       </c>
-      <c r="CE115" s="21">
+      <c r="CE115" s="20">
         <v>116.01959718136612</v>
       </c>
-      <c r="CF115" s="21">
+      <c r="CF115" s="20">
         <v>108.7899577665609</v>
       </c>
-      <c r="CG115" s="21">
+      <c r="CG115" s="20">
         <v>104.3946054327612</v>
       </c>
-      <c r="CH115" s="21">
+      <c r="CH115" s="20">
         <v>85.33270788371307</v>
       </c>
-      <c r="CI115" s="21">
+      <c r="CI115" s="20">
         <v>113.11982321804426</v>
       </c>
-      <c r="CJ115" s="21">
+      <c r="CJ115" s="20">
         <v>108.15079703460171</v>
       </c>
-      <c r="CK115" s="21">
+      <c r="CK115" s="20">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="21">
+      <c r="CL115" s="20">
         <v>85.930281884199488</v>
       </c>
-      <c r="CM115" s="21">
+      <c r="CM115" s="20">
         <v>116.162696075182</v>
       </c>
-      <c r="CN115" s="21">
+      <c r="CN115" s="20">
         <v>109.10310770619809</v>
       </c>
-      <c r="CO115" s="21">
+      <c r="CO115" s="20">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="11"/>
+      <c r="CP115" s="20">
+        <v>92.341616543746795</v>
+      </c>
       <c r="CQ115" s="11"/>
       <c r="CR115" s="11"/>
       <c r="CS115" s="11"/>
@@ -19134,43 +19259,45 @@
       <c r="CC116" s="21">
         <v>107.43677901288702</v>
       </c>
-      <c r="CD116" s="21">
+      <c r="CD116" s="20">
         <v>84.55527124692172</v>
       </c>
-      <c r="CE116" s="21">
+      <c r="CE116" s="20">
         <v>114.25314400121923</v>
       </c>
-      <c r="CF116" s="21">
+      <c r="CF116" s="20">
         <v>107.30486975927134</v>
       </c>
-      <c r="CG116" s="21">
+      <c r="CG116" s="20">
         <v>103.07257519637687</v>
       </c>
-      <c r="CH116" s="21">
+      <c r="CH116" s="20">
         <v>83.693209869254872</v>
       </c>
-      <c r="CI116" s="21">
+      <c r="CI116" s="20">
         <v>111.39752046647722</v>
       </c>
-      <c r="CJ116" s="21">
+      <c r="CJ116" s="20">
         <v>106.67443418868967</v>
       </c>
-      <c r="CK116" s="21">
+      <c r="CK116" s="20">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="21">
+      <c r="CL116" s="20">
         <v>84.279302675582741</v>
       </c>
-      <c r="CM116" s="21">
+      <c r="CM116" s="20">
         <v>114.39406414677018</v>
       </c>
-      <c r="CN116" s="21">
+      <c r="CN116" s="20">
         <v>107.61374489975071</v>
       </c>
-      <c r="CO116" s="21">
+      <c r="CO116" s="20">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="11"/>
+      <c r="CP116" s="20">
+        <v>90.56745630988145</v>
+      </c>
       <c r="CQ116" s="11"/>
       <c r="CR116" s="11"/>
       <c r="CS116" s="11"/>
@@ -19474,43 +19601,45 @@
       <c r="CC117" s="21">
         <v>109.73486491600195</v>
       </c>
-      <c r="CD117" s="21">
+      <c r="CD117" s="20">
         <v>85.713250723885906</v>
       </c>
-      <c r="CE117" s="21">
+      <c r="CE117" s="20">
         <v>116.32423268723133</v>
       </c>
-      <c r="CF117" s="21">
+      <c r="CF117" s="20">
         <v>109.50028682850137</v>
       </c>
-      <c r="CG117" s="21">
+      <c r="CG117" s="20">
         <v>105.2773102436565</v>
       </c>
-      <c r="CH117" s="21">
+      <c r="CH117" s="20">
         <v>84.839383466248464</v>
       </c>
-      <c r="CI117" s="21">
+      <c r="CI117" s="20">
         <v>113.41684471619293</v>
       </c>
-      <c r="CJ117" s="21">
+      <c r="CJ117" s="20">
         <v>108.85695278447844</v>
       </c>
-      <c r="CK117" s="21">
+      <c r="CK117" s="20">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="21">
+      <c r="CL117" s="20">
         <v>85.433502779159724</v>
       </c>
-      <c r="CM117" s="21">
+      <c r="CM117" s="20">
         <v>116.46770731932735</v>
       </c>
-      <c r="CN117" s="21">
+      <c r="CN117" s="20">
         <v>109.8154814375863</v>
       </c>
-      <c r="CO117" s="21">
+      <c r="CO117" s="20">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="11"/>
+      <c r="CP117" s="20">
+        <v>91.807772308412538</v>
+      </c>
       <c r="CQ117" s="11"/>
       <c r="CR117" s="11"/>
       <c r="CS117" s="11"/>
@@ -19814,43 +19943,45 @@
       <c r="CC118" s="21">
         <v>108.98879379500823</v>
       </c>
-      <c r="CD118" s="21">
+      <c r="CD118" s="20">
         <v>85.110853052262513</v>
       </c>
-      <c r="CE118" s="21">
+      <c r="CE118" s="20">
         <v>115.62648030030931</v>
       </c>
-      <c r="CF118" s="21">
+      <c r="CF118" s="20">
         <v>108.80558054937177</v>
       </c>
-      <c r="CG118" s="21">
+      <c r="CG118" s="20">
         <v>104.56154537777903</v>
       </c>
-      <c r="CH118" s="21">
+      <c r="CH118" s="20">
         <v>84.243127384132691</v>
       </c>
-      <c r="CI118" s="21">
+      <c r="CI118" s="20">
         <v>112.73653183305817</v>
       </c>
-      <c r="CJ118" s="21">
+      <c r="CJ118" s="20">
         <v>108.16632803073026</v>
       </c>
-      <c r="CK118" s="21">
+      <c r="CK118" s="20">
         <v>108.15787748120907</v>
       </c>
-      <c r="CL118" s="21">
+      <c r="CL118" s="20">
         <v>84.83307119223295</v>
       </c>
-      <c r="CM118" s="21">
+      <c r="CM118" s="20">
         <v>115.76909432267084</v>
       </c>
-      <c r="CN118" s="21">
+      <c r="CN118" s="20">
         <v>109.11877545890869</v>
       </c>
-      <c r="CO118" s="21">
+      <c r="CO118" s="20">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="11"/>
+      <c r="CP118" s="20">
+        <v>91.162541987447625</v>
+      </c>
       <c r="CQ118" s="11"/>
       <c r="CR118" s="11"/>
       <c r="CS118" s="11"/>
@@ -19991,18 +20122,18 @@
       <c r="CA119" s="12"/>
       <c r="CB119" s="12"/>
       <c r="CC119" s="12"/>
-      <c r="CD119" s="12"/>
-      <c r="CE119" s="12"/>
-      <c r="CF119" s="12"/>
-      <c r="CG119" s="12"/>
-      <c r="CH119" s="12"/>
-      <c r="CI119" s="12"/>
-      <c r="CJ119" s="12"/>
-      <c r="CK119" s="12"/>
-      <c r="CL119" s="12"/>
-      <c r="CM119" s="12"/>
-      <c r="CN119" s="12"/>
-      <c r="CO119" s="12"/>
+      <c r="CD119" s="11"/>
+      <c r="CE119" s="11"/>
+      <c r="CF119" s="11"/>
+      <c r="CG119" s="11"/>
+      <c r="CH119" s="11"/>
+      <c r="CI119" s="11"/>
+      <c r="CJ119" s="11"/>
+      <c r="CK119" s="11"/>
+      <c r="CL119" s="11"/>
+      <c r="CM119" s="11"/>
+      <c r="CN119" s="11"/>
+      <c r="CO119" s="11"/>
       <c r="CP119" s="11"/>
       <c r="CQ119" s="11"/>
       <c r="CR119" s="11"/>
@@ -20307,43 +20438,45 @@
       <c r="CC120" s="21">
         <v>99.12018787930414</v>
       </c>
-      <c r="CD120" s="21">
+      <c r="CD120" s="20">
         <v>97.929286871801125</v>
       </c>
-      <c r="CE120" s="21">
+      <c r="CE120" s="20">
         <v>111.46372907560837</v>
       </c>
-      <c r="CF120" s="21">
+      <c r="CF120" s="20">
         <v>99.707597427750486</v>
       </c>
-      <c r="CG120" s="21">
+      <c r="CG120" s="20">
         <v>96.988127851654866</v>
       </c>
-      <c r="CH120" s="21">
+      <c r="CH120" s="20">
         <v>91.084733246607186</v>
       </c>
-      <c r="CI120" s="21">
+      <c r="CI120" s="20">
         <v>110.39366080212932</v>
       </c>
-      <c r="CJ120" s="21">
+      <c r="CJ120" s="20">
         <v>102.25576112041863</v>
       </c>
-      <c r="CK120" s="21">
+      <c r="CK120" s="20">
         <v>101.73844645169308</v>
       </c>
-      <c r="CL120" s="21">
+      <c r="CL120" s="20">
         <v>93.191097171230965</v>
       </c>
-      <c r="CM120" s="21">
+      <c r="CM120" s="20">
         <v>112.31110088630707</v>
       </c>
-      <c r="CN120" s="21">
+      <c r="CN120" s="20">
         <v>102.38584009601688</v>
       </c>
-      <c r="CO120" s="21">
+      <c r="CO120" s="20">
         <v>102.9096151716991</v>
       </c>
-      <c r="CP120" s="11"/>
+      <c r="CP120" s="20">
+        <v>102.22678024778587</v>
+      </c>
       <c r="CQ120" s="11"/>
       <c r="CR120" s="11"/>
       <c r="CS120" s="11"/>
@@ -20485,18 +20618,19 @@
       <c r="CA121" s="17"/>
       <c r="CB121" s="17"/>
       <c r="CC121" s="17"/>
-      <c r="CD121" s="17"/>
-      <c r="CE121" s="17"/>
-      <c r="CF121" s="17"/>
-      <c r="CG121" s="17"/>
-      <c r="CH121" s="17"/>
-      <c r="CI121" s="17"/>
-      <c r="CJ121" s="17"/>
-      <c r="CK121" s="17"/>
-      <c r="CL121" s="17"/>
-      <c r="CM121" s="17"/>
-      <c r="CN121" s="17"/>
-      <c r="CO121" s="17"/>
+      <c r="CD121" s="16"/>
+      <c r="CE121" s="16"/>
+      <c r="CF121" s="16"/>
+      <c r="CG121" s="16"/>
+      <c r="CH121" s="16"/>
+      <c r="CI121" s="16"/>
+      <c r="CJ121" s="16"/>
+      <c r="CK121" s="16"/>
+      <c r="CL121" s="16"/>
+      <c r="CM121" s="16"/>
+      <c r="CN121" s="16"/>
+      <c r="CO121" s="16"/>
+      <c r="CP121" s="16"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -20515,7 +20649,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -20525,7 +20659,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -20535,144 +20669,147 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="27">
+      <c r="B133" s="31">
         <v>2000</v>
       </c>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31">
         <v>2001</v>
       </c>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27">
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31">
         <v>2002</v>
       </c>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27">
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31">
         <v>2003</v>
       </c>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27">
+      <c r="O133" s="31"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="31">
         <v>2004</v>
       </c>
-      <c r="S133" s="27"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27">
+      <c r="S133" s="31"/>
+      <c r="T133" s="31"/>
+      <c r="U133" s="31"/>
+      <c r="V133" s="31">
         <v>2005</v>
       </c>
-      <c r="W133" s="27"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27">
+      <c r="W133" s="31"/>
+      <c r="X133" s="31"/>
+      <c r="Y133" s="31"/>
+      <c r="Z133" s="31">
         <v>2006</v>
       </c>
-      <c r="AA133" s="27"/>
-      <c r="AB133" s="27"/>
-      <c r="AC133" s="27"/>
-      <c r="AD133" s="27">
+      <c r="AA133" s="31"/>
+      <c r="AB133" s="31"/>
+      <c r="AC133" s="31"/>
+      <c r="AD133" s="31">
         <v>2007</v>
       </c>
-      <c r="AE133" s="27"/>
-      <c r="AF133" s="27"/>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="27">
+      <c r="AE133" s="31"/>
+      <c r="AF133" s="31"/>
+      <c r="AG133" s="31"/>
+      <c r="AH133" s="31">
         <v>2008</v>
       </c>
-      <c r="AI133" s="27"/>
-      <c r="AJ133" s="27"/>
-      <c r="AK133" s="27"/>
-      <c r="AL133" s="27">
+      <c r="AI133" s="31"/>
+      <c r="AJ133" s="31"/>
+      <c r="AK133" s="31"/>
+      <c r="AL133" s="31">
         <v>2009</v>
       </c>
-      <c r="AM133" s="27"/>
-      <c r="AN133" s="27"/>
-      <c r="AO133" s="27"/>
-      <c r="AP133" s="27">
+      <c r="AM133" s="31"/>
+      <c r="AN133" s="31"/>
+      <c r="AO133" s="31"/>
+      <c r="AP133" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="27"/>
-      <c r="AR133" s="27"/>
-      <c r="AS133" s="27"/>
-      <c r="AT133" s="27">
+      <c r="AQ133" s="31"/>
+      <c r="AR133" s="31"/>
+      <c r="AS133" s="31"/>
+      <c r="AT133" s="31">
         <v>2011</v>
       </c>
-      <c r="AU133" s="27"/>
-      <c r="AV133" s="27"/>
-      <c r="AW133" s="27"/>
-      <c r="AX133" s="27">
+      <c r="AU133" s="31"/>
+      <c r="AV133" s="31"/>
+      <c r="AW133" s="31"/>
+      <c r="AX133" s="31">
         <v>2012</v>
       </c>
-      <c r="AY133" s="27"/>
-      <c r="AZ133" s="27"/>
-      <c r="BA133" s="27"/>
-      <c r="BB133" s="27">
+      <c r="AY133" s="31"/>
+      <c r="AZ133" s="31"/>
+      <c r="BA133" s="31"/>
+      <c r="BB133" s="31">
         <v>2013</v>
       </c>
-      <c r="BC133" s="27"/>
-      <c r="BD133" s="27"/>
-      <c r="BE133" s="27"/>
-      <c r="BF133" s="27">
+      <c r="BC133" s="31"/>
+      <c r="BD133" s="31"/>
+      <c r="BE133" s="31"/>
+      <c r="BF133" s="31">
         <v>2014</v>
       </c>
-      <c r="BG133" s="27"/>
-      <c r="BH133" s="27"/>
-      <c r="BI133" s="27"/>
-      <c r="BJ133" s="27">
+      <c r="BG133" s="31"/>
+      <c r="BH133" s="31"/>
+      <c r="BI133" s="31"/>
+      <c r="BJ133" s="31">
         <v>2015</v>
       </c>
-      <c r="BK133" s="27"/>
-      <c r="BL133" s="27"/>
-      <c r="BM133" s="27"/>
-      <c r="BN133" s="27">
+      <c r="BK133" s="31"/>
+      <c r="BL133" s="31"/>
+      <c r="BM133" s="31"/>
+      <c r="BN133" s="31">
         <v>2016</v>
       </c>
-      <c r="BO133" s="27"/>
-      <c r="BP133" s="27"/>
-      <c r="BQ133" s="27"/>
-      <c r="BR133" s="27">
+      <c r="BO133" s="31"/>
+      <c r="BP133" s="31"/>
+      <c r="BQ133" s="31"/>
+      <c r="BR133" s="31">
         <v>2017</v>
       </c>
-      <c r="BS133" s="27"/>
-      <c r="BT133" s="27"/>
-      <c r="BU133" s="27"/>
-      <c r="BV133" s="26">
+      <c r="BS133" s="31"/>
+      <c r="BT133" s="31"/>
+      <c r="BU133" s="31"/>
+      <c r="BV133" s="30">
         <v>2018</v>
       </c>
-      <c r="BW133" s="26"/>
-      <c r="BX133" s="26"/>
-      <c r="BY133" s="26"/>
-      <c r="BZ133" s="26">
+      <c r="BW133" s="30"/>
+      <c r="BX133" s="30"/>
+      <c r="BY133" s="30"/>
+      <c r="BZ133" s="30">
         <v>2019</v>
       </c>
-      <c r="CA133" s="26"/>
-      <c r="CB133" s="26"/>
-      <c r="CC133" s="26"/>
-      <c r="CD133" s="26">
+      <c r="CA133" s="30"/>
+      <c r="CB133" s="30"/>
+      <c r="CC133" s="30"/>
+      <c r="CD133" s="29">
         <v>2020</v>
       </c>
-      <c r="CE133" s="26"/>
-      <c r="CF133" s="26"/>
-      <c r="CG133" s="26"/>
-      <c r="CH133" s="26">
+      <c r="CE133" s="29"/>
+      <c r="CF133" s="29"/>
+      <c r="CG133" s="29"/>
+      <c r="CH133" s="29">
         <v>2021</v>
       </c>
-      <c r="CI133" s="26"/>
-      <c r="CJ133" s="26"/>
-      <c r="CK133" s="26"/>
-      <c r="CL133" s="26">
+      <c r="CI133" s="29"/>
+      <c r="CJ133" s="29"/>
+      <c r="CK133" s="29"/>
+      <c r="CL133" s="29">
         <v>2022</v>
       </c>
-      <c r="CM133" s="26"/>
-      <c r="CN133" s="26"/>
-      <c r="CO133" s="26"/>
+      <c r="CM133" s="29"/>
+      <c r="CN133" s="29"/>
+      <c r="CO133" s="29"/>
+      <c r="CP133" s="26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -20916,41 +21053,44 @@
       <c r="CC134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD134" s="19" t="s">
+      <c r="CD134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE134" s="19" t="s">
+      <c r="CE134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF134" s="19" t="s">
+      <c r="CF134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG134" s="19" t="s">
+      <c r="CG134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH134" s="19" t="s">
+      <c r="CH134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI134" s="19" t="s">
+      <c r="CI134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ134" s="19" t="s">
+      <c r="CJ134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK134" s="19" t="s">
+      <c r="CK134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="19" t="s">
+      <c r="CL134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="19" t="s">
+      <c r="CM134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="19" t="s">
+      <c r="CN134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO134" s="19" t="s">
+      <c r="CO134" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CP134" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21200,43 +21340,45 @@
       <c r="CC136" s="23">
         <v>13.833332242164692</v>
       </c>
-      <c r="CD136" s="23">
+      <c r="CD136" s="28">
         <v>16.183405343766292</v>
       </c>
-      <c r="CE136" s="23">
+      <c r="CE136" s="28">
         <v>14.427353201301617</v>
       </c>
-      <c r="CF136" s="23">
+      <c r="CF136" s="28">
         <v>19.893465103128872</v>
       </c>
-      <c r="CG136" s="23">
+      <c r="CG136" s="28">
         <v>20.405936859688858</v>
       </c>
-      <c r="CH136" s="23">
+      <c r="CH136" s="28">
         <v>20.384562727367435</v>
       </c>
-      <c r="CI136" s="23">
+      <c r="CI136" s="28">
         <v>21.95372602289989</v>
       </c>
-      <c r="CJ136" s="23">
+      <c r="CJ136" s="28">
         <v>26.900454320280797</v>
       </c>
-      <c r="CK136" s="23">
+      <c r="CK136" s="28">
         <v>23.954326102635136</v>
       </c>
-      <c r="CL136" s="23">
+      <c r="CL136" s="28">
         <v>20.264228281682247</v>
       </c>
-      <c r="CM136" s="23">
+      <c r="CM136" s="28">
         <v>23.904583016957481</v>
       </c>
-      <c r="CN136" s="23">
+      <c r="CN136" s="28">
         <v>26.491760473924415</v>
       </c>
-      <c r="CO136" s="23">
+      <c r="CO136" s="28">
         <v>21.696784243385409</v>
       </c>
-      <c r="CP136" s="11"/>
+      <c r="CP136" s="28">
+        <v>19.827235869258018</v>
+      </c>
       <c r="CQ136" s="11"/>
       <c r="CR136" s="11"/>
       <c r="CS136" s="11"/>
@@ -21540,43 +21682,45 @@
       <c r="CC137" s="23">
         <v>2.3286602351846994</v>
       </c>
-      <c r="CD137" s="23">
+      <c r="CD137" s="28">
         <v>4.4137096829386406</v>
       </c>
-      <c r="CE137" s="23">
+      <c r="CE137" s="28">
         <v>7.4075922145227056</v>
       </c>
-      <c r="CF137" s="23">
+      <c r="CF137" s="28">
         <v>6.5623473458256978</v>
       </c>
-      <c r="CG137" s="23">
+      <c r="CG137" s="28">
         <v>3.4194860022934259</v>
       </c>
-      <c r="CH137" s="23">
+      <c r="CH137" s="28">
         <v>8.1409736217812814</v>
       </c>
-      <c r="CI137" s="23">
+      <c r="CI137" s="28">
         <v>12.007284769399288</v>
       </c>
-      <c r="CJ137" s="23">
+      <c r="CJ137" s="28">
         <v>8.1091015399032376</v>
       </c>
-      <c r="CK137" s="23">
+      <c r="CK137" s="28">
         <v>4.1519894108535498</v>
       </c>
-      <c r="CL137" s="23">
+      <c r="CL137" s="28">
         <v>7.6953330349672511</v>
       </c>
-      <c r="CM137" s="23">
+      <c r="CM137" s="28">
         <v>10.965754006947648</v>
       </c>
-      <c r="CN137" s="23">
+      <c r="CN137" s="28">
         <v>6.6336448603455374</v>
       </c>
-      <c r="CO137" s="23">
+      <c r="CO137" s="28">
         <v>2.842011669161169</v>
       </c>
-      <c r="CP137" s="11"/>
+      <c r="CP137" s="28">
+        <v>5.7652993882284731</v>
+      </c>
       <c r="CQ137" s="11"/>
       <c r="CR137" s="11"/>
       <c r="CS137" s="11"/>
@@ -21880,43 +22024,45 @@
       <c r="CC138" s="23">
         <v>51.166467347758271</v>
       </c>
-      <c r="CD138" s="23">
+      <c r="CD138" s="28">
         <v>44.149964368929254</v>
       </c>
-      <c r="CE138" s="23">
+      <c r="CE138" s="28">
         <v>38.28150482855898</v>
       </c>
-      <c r="CF138" s="23">
+      <c r="CF138" s="28">
         <v>40.261784607922237</v>
       </c>
-      <c r="CG138" s="23">
+      <c r="CG138" s="28">
         <v>34.803067645584385</v>
       </c>
-      <c r="CH138" s="23">
+      <c r="CH138" s="28">
         <v>22.126826704284877</v>
       </c>
-      <c r="CI138" s="23">
+      <c r="CI138" s="28">
         <v>17.971943362577289</v>
       </c>
-      <c r="CJ138" s="23">
+      <c r="CJ138" s="28">
         <v>25.143838865315015</v>
       </c>
-      <c r="CK138" s="23">
+      <c r="CK138" s="28">
         <v>30.852095452708056</v>
       </c>
-      <c r="CL138" s="23">
+      <c r="CL138" s="28">
         <v>26.55110603732372</v>
       </c>
-      <c r="CM138" s="23">
+      <c r="CM138" s="28">
         <v>21.371454233621463</v>
       </c>
-      <c r="CN138" s="23">
+      <c r="CN138" s="28">
         <v>27.405280935121606</v>
       </c>
-      <c r="CO138" s="23">
+      <c r="CO138" s="28">
         <v>36.539825016102185</v>
       </c>
-      <c r="CP138" s="11"/>
+      <c r="CP138" s="28">
+        <v>34.526206330741992</v>
+      </c>
       <c r="CQ138" s="11"/>
       <c r="CR138" s="11"/>
       <c r="CS138" s="11"/>
@@ -22220,43 +22366,45 @@
       <c r="CC139" s="23">
         <v>1.5105465860678073</v>
       </c>
-      <c r="CD139" s="23">
+      <c r="CD139" s="28">
         <v>1.3673766496886397</v>
       </c>
-      <c r="CE139" s="23">
+      <c r="CE139" s="28">
         <v>2.0579091012414077</v>
       </c>
-      <c r="CF139" s="23">
+      <c r="CF139" s="28">
         <v>1.9568988678819621</v>
       </c>
-      <c r="CG139" s="23">
+      <c r="CG139" s="28">
         <v>1.9634948696709589</v>
       </c>
-      <c r="CH139" s="23">
+      <c r="CH139" s="28">
         <v>2.2163826174160306</v>
       </c>
-      <c r="CI139" s="23">
+      <c r="CI139" s="28">
         <v>2.0454533545337292</v>
       </c>
-      <c r="CJ139" s="23">
+      <c r="CJ139" s="28">
         <v>2.0353501688990101</v>
       </c>
-      <c r="CK139" s="23">
+      <c r="CK139" s="28">
         <v>1.6640439608727877</v>
       </c>
-      <c r="CL139" s="23">
+      <c r="CL139" s="28">
         <v>1.596458742622654</v>
       </c>
-      <c r="CM139" s="23">
+      <c r="CM139" s="28">
         <v>1.5140622577948184</v>
       </c>
-      <c r="CN139" s="23">
+      <c r="CN139" s="28">
         <v>1.3033363816182217</v>
       </c>
-      <c r="CO139" s="23">
+      <c r="CO139" s="28">
         <v>1.1111151162488593</v>
       </c>
-      <c r="CP139" s="11"/>
+      <c r="CP139" s="28">
+        <v>1.1954150226130562</v>
+      </c>
       <c r="CQ139" s="11"/>
       <c r="CR139" s="11"/>
       <c r="CS139" s="11"/>
@@ -22560,43 +22708,45 @@
       <c r="CC140" s="23">
         <v>3.4290582800977258</v>
       </c>
-      <c r="CD140" s="23">
+      <c r="CD140" s="28">
         <v>4.8971010530079511</v>
       </c>
-      <c r="CE140" s="23">
+      <c r="CE140" s="28">
         <v>8.3852017017441192</v>
       </c>
-      <c r="CF140" s="23">
+      <c r="CF140" s="28">
         <v>5.863191630906341</v>
       </c>
-      <c r="CG140" s="23">
+      <c r="CG140" s="28">
         <v>7.633489222297615</v>
       </c>
-      <c r="CH140" s="23">
+      <c r="CH140" s="28">
         <v>11.449590492189456</v>
       </c>
-      <c r="CI140" s="23">
+      <c r="CI140" s="28">
         <v>13.965520765441017</v>
       </c>
-      <c r="CJ140" s="23">
+      <c r="CJ140" s="28">
         <v>8.5695933944685088</v>
       </c>
-      <c r="CK140" s="23">
+      <c r="CK140" s="28">
         <v>7.5462816560554282</v>
       </c>
-      <c r="CL140" s="23">
+      <c r="CL140" s="28">
         <v>8.583913171406051</v>
       </c>
-      <c r="CM140" s="23">
+      <c r="CM140" s="28">
         <v>8.6963133579391201</v>
       </c>
-      <c r="CN140" s="23">
+      <c r="CN140" s="28">
         <v>7.2591183888188846</v>
       </c>
-      <c r="CO140" s="23">
+      <c r="CO140" s="28">
         <v>6.1251653881697887</v>
       </c>
-      <c r="CP140" s="11"/>
+      <c r="CP140" s="28">
+        <v>7.5460997362341908</v>
+      </c>
       <c r="CQ140" s="11"/>
       <c r="CR140" s="11"/>
       <c r="CS140" s="11"/>
@@ -22900,43 +23050,45 @@
       <c r="CC141" s="23">
         <v>18.640170529999672</v>
       </c>
-      <c r="CD141" s="23">
+      <c r="CD141" s="28">
         <v>22.396265047601059</v>
       </c>
-      <c r="CE141" s="23">
+      <c r="CE141" s="28">
         <v>22.153644576095875</v>
       </c>
-      <c r="CF141" s="23">
+      <c r="CF141" s="28">
         <v>20.755167058625528</v>
       </c>
-      <c r="CG141" s="23">
+      <c r="CG141" s="28">
         <v>23.184214571644929</v>
       </c>
-      <c r="CH141" s="23">
+      <c r="CH141" s="28">
         <v>29.160792486028143</v>
       </c>
-      <c r="CI141" s="23">
+      <c r="CI141" s="28">
         <v>25.639273716516232</v>
       </c>
-      <c r="CJ141" s="23">
+      <c r="CJ141" s="28">
         <v>23.30201503554779</v>
       </c>
-      <c r="CK141" s="23">
+      <c r="CK141" s="28">
         <v>23.652946709368248</v>
       </c>
-      <c r="CL141" s="23">
+      <c r="CL141" s="28">
         <v>28.604576961430535</v>
       </c>
-      <c r="CM141" s="23">
+      <c r="CM141" s="28">
         <v>26.557478920273287</v>
       </c>
-      <c r="CN141" s="23">
+      <c r="CN141" s="28">
         <v>24.010146689844749</v>
       </c>
-      <c r="CO141" s="23">
+      <c r="CO141" s="28">
         <v>20.520169212763324</v>
       </c>
-      <c r="CP141" s="11"/>
+      <c r="CP141" s="28">
+        <v>24.595488177045731</v>
+      </c>
       <c r="CQ141" s="11"/>
       <c r="CR141" s="11"/>
       <c r="CS141" s="11"/>
@@ -23240,43 +23392,45 @@
       <c r="CC142" s="23">
         <v>3.0128671664879549</v>
       </c>
-      <c r="CD142" s="23">
+      <c r="CD142" s="28">
         <v>3.4596396911623279</v>
       </c>
-      <c r="CE142" s="23">
+      <c r="CE142" s="28">
         <v>2.7251485253105301</v>
       </c>
-      <c r="CF142" s="23">
+      <c r="CF142" s="28">
         <v>2.0465659279143935</v>
       </c>
-      <c r="CG142" s="23">
+      <c r="CG142" s="28">
         <v>3.0675193941124248</v>
       </c>
-      <c r="CH142" s="23">
+      <c r="CH142" s="28">
         <v>2.783843368271516</v>
       </c>
-      <c r="CI142" s="23">
+      <c r="CI142" s="28">
         <v>3.4830820974560215</v>
       </c>
-      <c r="CJ142" s="23">
+      <c r="CJ142" s="28">
         <v>3.0583356864463869</v>
       </c>
-      <c r="CK142" s="23">
+      <c r="CK142" s="28">
         <v>3.2048322096655828</v>
       </c>
-      <c r="CL142" s="23">
+      <c r="CL142" s="28">
         <v>2.3641779226618245</v>
       </c>
-      <c r="CM142" s="23">
+      <c r="CM142" s="28">
         <v>2.1959835616058063</v>
       </c>
-      <c r="CN142" s="23">
+      <c r="CN142" s="28">
         <v>2.4164913031782977</v>
       </c>
-      <c r="CO142" s="23">
+      <c r="CO142" s="28">
         <v>1.8415631311031573</v>
       </c>
-      <c r="CP142" s="11"/>
+      <c r="CP142" s="28">
+        <v>1.8014095297105994</v>
+      </c>
       <c r="CQ142" s="11"/>
       <c r="CR142" s="11"/>
       <c r="CS142" s="11"/>
@@ -23580,43 +23734,45 @@
       <c r="CC143" s="23">
         <v>6.0788976122391727</v>
       </c>
-      <c r="CD143" s="23">
+      <c r="CD143" s="28">
         <v>3.1325381629058366</v>
       </c>
-      <c r="CE143" s="23">
+      <c r="CE143" s="28">
         <v>4.5616458512247871</v>
       </c>
-      <c r="CF143" s="23">
+      <c r="CF143" s="28">
         <v>2.6605794577949564</v>
       </c>
-      <c r="CG143" s="23">
+      <c r="CG143" s="28">
         <v>5.5227914347074103</v>
       </c>
-      <c r="CH143" s="23">
+      <c r="CH143" s="28">
         <v>3.7370279826612611</v>
       </c>
-      <c r="CI143" s="23">
+      <c r="CI143" s="28">
         <v>2.9337159111765301</v>
       </c>
-      <c r="CJ143" s="23">
+      <c r="CJ143" s="28">
         <v>2.8813109891392505</v>
       </c>
-      <c r="CK143" s="23">
+      <c r="CK143" s="28">
         <v>4.9734844978412278</v>
       </c>
-      <c r="CL143" s="23">
+      <c r="CL143" s="28">
         <v>4.3402058479057111</v>
       </c>
-      <c r="CM143" s="23">
+      <c r="CM143" s="28">
         <v>4.7943706448603765</v>
       </c>
-      <c r="CN143" s="23">
+      <c r="CN143" s="28">
         <v>4.4802209671482869</v>
       </c>
-      <c r="CO143" s="23">
+      <c r="CO143" s="28">
         <v>9.323366223066099</v>
       </c>
-      <c r="CP143" s="11"/>
+      <c r="CP143" s="28">
+        <v>4.7428459461679431</v>
+      </c>
       <c r="CQ143" s="11"/>
       <c r="CR143" s="11"/>
       <c r="CS143" s="11"/>
@@ -23757,18 +23913,18 @@
       <c r="CA144" s="12"/>
       <c r="CB144" s="12"/>
       <c r="CC144" s="12"/>
-      <c r="CD144" s="12"/>
-      <c r="CE144" s="12"/>
-      <c r="CF144" s="12"/>
-      <c r="CG144" s="12"/>
-      <c r="CH144" s="12"/>
-      <c r="CI144" s="12"/>
-      <c r="CJ144" s="12"/>
-      <c r="CK144" s="12"/>
-      <c r="CL144" s="12"/>
-      <c r="CM144" s="12"/>
-      <c r="CN144" s="12"/>
-      <c r="CO144" s="12"/>
+      <c r="CD144" s="11"/>
+      <c r="CE144" s="11"/>
+      <c r="CF144" s="11"/>
+      <c r="CG144" s="11"/>
+      <c r="CH144" s="11"/>
+      <c r="CI144" s="11"/>
+      <c r="CJ144" s="11"/>
+      <c r="CK144" s="11"/>
+      <c r="CL144" s="11"/>
+      <c r="CM144" s="11"/>
+      <c r="CN144" s="11"/>
+      <c r="CO144" s="11"/>
       <c r="CP144" s="11"/>
       <c r="CQ144" s="11"/>
       <c r="CR144" s="11"/>
@@ -24073,43 +24229,45 @@
       <c r="CC145" s="21">
         <v>100</v>
       </c>
-      <c r="CD145" s="21">
+      <c r="CD145" s="20">
         <v>100</v>
       </c>
-      <c r="CE145" s="21">
+      <c r="CE145" s="20">
         <v>100</v>
       </c>
-      <c r="CF145" s="21">
+      <c r="CF145" s="20">
         <v>100</v>
       </c>
-      <c r="CG145" s="21">
+      <c r="CG145" s="20">
         <v>100</v>
       </c>
-      <c r="CH145" s="21">
+      <c r="CH145" s="20">
         <v>100</v>
       </c>
-      <c r="CI145" s="21">
+      <c r="CI145" s="20">
         <v>100</v>
       </c>
-      <c r="CJ145" s="21">
+      <c r="CJ145" s="20">
         <v>100</v>
       </c>
-      <c r="CK145" s="21">
+      <c r="CK145" s="20">
         <v>100</v>
       </c>
-      <c r="CL145" s="21">
+      <c r="CL145" s="20">
         <v>100</v>
       </c>
-      <c r="CM145" s="21">
+      <c r="CM145" s="20">
         <v>100</v>
       </c>
-      <c r="CN145" s="21">
+      <c r="CN145" s="20">
         <v>100</v>
       </c>
-      <c r="CO145" s="21">
+      <c r="CO145" s="20">
         <v>100</v>
       </c>
-      <c r="CP145" s="11"/>
+      <c r="CP145" s="20">
+        <v>100</v>
+      </c>
       <c r="CQ145" s="11"/>
       <c r="CR145" s="11"/>
       <c r="CS145" s="11"/>
@@ -24251,18 +24409,19 @@
       <c r="CA146" s="17"/>
       <c r="CB146" s="17"/>
       <c r="CC146" s="17"/>
-      <c r="CD146" s="17"/>
-      <c r="CE146" s="17"/>
-      <c r="CF146" s="17"/>
-      <c r="CG146" s="17"/>
-      <c r="CH146" s="17"/>
-      <c r="CI146" s="17"/>
-      <c r="CJ146" s="17"/>
-      <c r="CK146" s="17"/>
-      <c r="CL146" s="17"/>
-      <c r="CM146" s="17"/>
-      <c r="CN146" s="17"/>
-      <c r="CO146" s="17"/>
+      <c r="CD146" s="16"/>
+      <c r="CE146" s="16"/>
+      <c r="CF146" s="16"/>
+      <c r="CG146" s="16"/>
+      <c r="CH146" s="16"/>
+      <c r="CI146" s="16"/>
+      <c r="CJ146" s="16"/>
+      <c r="CK146" s="16"/>
+      <c r="CL146" s="16"/>
+      <c r="CM146" s="16"/>
+      <c r="CN146" s="16"/>
+      <c r="CO146" s="16"/>
+      <c r="CP146" s="16"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -24350,18 +24509,18 @@
       <c r="CA148" s="12"/>
       <c r="CB148" s="12"/>
       <c r="CC148" s="12"/>
-      <c r="CD148" s="12"/>
-      <c r="CE148" s="12"/>
-      <c r="CF148" s="12"/>
-      <c r="CG148" s="12"/>
-      <c r="CH148" s="12"/>
-      <c r="CI148" s="12"/>
-      <c r="CJ148" s="12"/>
-      <c r="CK148" s="12"/>
-      <c r="CL148" s="12"/>
-      <c r="CM148" s="12"/>
-      <c r="CN148" s="12"/>
-      <c r="CO148" s="12"/>
+      <c r="CD148" s="11"/>
+      <c r="CE148" s="11"/>
+      <c r="CF148" s="11"/>
+      <c r="CG148" s="11"/>
+      <c r="CH148" s="11"/>
+      <c r="CI148" s="11"/>
+      <c r="CJ148" s="11"/>
+      <c r="CK148" s="11"/>
+      <c r="CL148" s="11"/>
+      <c r="CM148" s="11"/>
+      <c r="CN148" s="11"/>
+      <c r="CO148" s="11"/>
       <c r="CP148" s="11"/>
       <c r="CQ148" s="11"/>
       <c r="CR148" s="11"/>
@@ -24503,18 +24662,18 @@
       <c r="CA149" s="12"/>
       <c r="CB149" s="12"/>
       <c r="CC149" s="12"/>
-      <c r="CD149" s="12"/>
-      <c r="CE149" s="12"/>
-      <c r="CF149" s="12"/>
-      <c r="CG149" s="12"/>
-      <c r="CH149" s="12"/>
-      <c r="CI149" s="12"/>
-      <c r="CJ149" s="12"/>
-      <c r="CK149" s="12"/>
-      <c r="CL149" s="12"/>
-      <c r="CM149" s="12"/>
-      <c r="CN149" s="12"/>
-      <c r="CO149" s="12"/>
+      <c r="CD149" s="11"/>
+      <c r="CE149" s="11"/>
+      <c r="CF149" s="11"/>
+      <c r="CG149" s="11"/>
+      <c r="CH149" s="11"/>
+      <c r="CI149" s="11"/>
+      <c r="CJ149" s="11"/>
+      <c r="CK149" s="11"/>
+      <c r="CL149" s="11"/>
+      <c r="CM149" s="11"/>
+      <c r="CN149" s="11"/>
+      <c r="CO149" s="11"/>
       <c r="CP149" s="11"/>
       <c r="CQ149" s="11"/>
       <c r="CR149" s="11"/>
@@ -24587,7 +24746,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -24597,7 +24756,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -24607,144 +24766,147 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="27">
+      <c r="B158" s="31">
         <v>2000</v>
       </c>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27">
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31">
         <v>2001</v>
       </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27">
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
+      <c r="J158" s="31">
         <v>2002</v>
       </c>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27">
+      <c r="K158" s="31"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="31">
         <v>2003</v>
       </c>
-      <c r="O158" s="27"/>
-      <c r="P158" s="27"/>
-      <c r="Q158" s="27"/>
-      <c r="R158" s="27">
+      <c r="O158" s="31"/>
+      <c r="P158" s="31"/>
+      <c r="Q158" s="31"/>
+      <c r="R158" s="31">
         <v>2004</v>
       </c>
-      <c r="S158" s="27"/>
-      <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="27">
+      <c r="S158" s="31"/>
+      <c r="T158" s="31"/>
+      <c r="U158" s="31"/>
+      <c r="V158" s="31">
         <v>2005</v>
       </c>
-      <c r="W158" s="27"/>
-      <c r="X158" s="27"/>
-      <c r="Y158" s="27"/>
-      <c r="Z158" s="27">
+      <c r="W158" s="31"/>
+      <c r="X158" s="31"/>
+      <c r="Y158" s="31"/>
+      <c r="Z158" s="31">
         <v>2006</v>
       </c>
-      <c r="AA158" s="27"/>
-      <c r="AB158" s="27"/>
-      <c r="AC158" s="27"/>
-      <c r="AD158" s="27">
+      <c r="AA158" s="31"/>
+      <c r="AB158" s="31"/>
+      <c r="AC158" s="31"/>
+      <c r="AD158" s="31">
         <v>2007</v>
       </c>
-      <c r="AE158" s="27"/>
-      <c r="AF158" s="27"/>
-      <c r="AG158" s="27"/>
-      <c r="AH158" s="27">
+      <c r="AE158" s="31"/>
+      <c r="AF158" s="31"/>
+      <c r="AG158" s="31"/>
+      <c r="AH158" s="31">
         <v>2008</v>
       </c>
-      <c r="AI158" s="27"/>
-      <c r="AJ158" s="27"/>
-      <c r="AK158" s="27"/>
-      <c r="AL158" s="27">
+      <c r="AI158" s="31"/>
+      <c r="AJ158" s="31"/>
+      <c r="AK158" s="31"/>
+      <c r="AL158" s="31">
         <v>2009</v>
       </c>
-      <c r="AM158" s="27"/>
-      <c r="AN158" s="27"/>
-      <c r="AO158" s="27"/>
-      <c r="AP158" s="27">
+      <c r="AM158" s="31"/>
+      <c r="AN158" s="31"/>
+      <c r="AO158" s="31"/>
+      <c r="AP158" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="27"/>
-      <c r="AR158" s="27"/>
-      <c r="AS158" s="27"/>
-      <c r="AT158" s="27">
+      <c r="AQ158" s="31"/>
+      <c r="AR158" s="31"/>
+      <c r="AS158" s="31"/>
+      <c r="AT158" s="31">
         <v>2011</v>
       </c>
-      <c r="AU158" s="27"/>
-      <c r="AV158" s="27"/>
-      <c r="AW158" s="27"/>
-      <c r="AX158" s="27">
+      <c r="AU158" s="31"/>
+      <c r="AV158" s="31"/>
+      <c r="AW158" s="31"/>
+      <c r="AX158" s="31">
         <v>2012</v>
       </c>
-      <c r="AY158" s="27"/>
-      <c r="AZ158" s="27"/>
-      <c r="BA158" s="27"/>
-      <c r="BB158" s="27">
+      <c r="AY158" s="31"/>
+      <c r="AZ158" s="31"/>
+      <c r="BA158" s="31"/>
+      <c r="BB158" s="31">
         <v>2013</v>
       </c>
-      <c r="BC158" s="27"/>
-      <c r="BD158" s="27"/>
-      <c r="BE158" s="27"/>
-      <c r="BF158" s="27">
+      <c r="BC158" s="31"/>
+      <c r="BD158" s="31"/>
+      <c r="BE158" s="31"/>
+      <c r="BF158" s="31">
         <v>2014</v>
       </c>
-      <c r="BG158" s="27"/>
-      <c r="BH158" s="27"/>
-      <c r="BI158" s="27"/>
-      <c r="BJ158" s="27">
+      <c r="BG158" s="31"/>
+      <c r="BH158" s="31"/>
+      <c r="BI158" s="31"/>
+      <c r="BJ158" s="31">
         <v>2015</v>
       </c>
-      <c r="BK158" s="27"/>
-      <c r="BL158" s="27"/>
-      <c r="BM158" s="27"/>
-      <c r="BN158" s="27">
+      <c r="BK158" s="31"/>
+      <c r="BL158" s="31"/>
+      <c r="BM158" s="31"/>
+      <c r="BN158" s="31">
         <v>2016</v>
       </c>
-      <c r="BO158" s="27"/>
-      <c r="BP158" s="27"/>
-      <c r="BQ158" s="27"/>
-      <c r="BR158" s="27">
+      <c r="BO158" s="31"/>
+      <c r="BP158" s="31"/>
+      <c r="BQ158" s="31"/>
+      <c r="BR158" s="31">
         <v>2017</v>
       </c>
-      <c r="BS158" s="27"/>
-      <c r="BT158" s="27"/>
-      <c r="BU158" s="27"/>
-      <c r="BV158" s="26">
+      <c r="BS158" s="31"/>
+      <c r="BT158" s="31"/>
+      <c r="BU158" s="31"/>
+      <c r="BV158" s="30">
         <v>2018</v>
       </c>
-      <c r="BW158" s="26"/>
-      <c r="BX158" s="26"/>
-      <c r="BY158" s="26"/>
-      <c r="BZ158" s="26">
+      <c r="BW158" s="30"/>
+      <c r="BX158" s="30"/>
+      <c r="BY158" s="30"/>
+      <c r="BZ158" s="30">
         <v>2019</v>
       </c>
-      <c r="CA158" s="26"/>
-      <c r="CB158" s="26"/>
-      <c r="CC158" s="26"/>
-      <c r="CD158" s="26">
+      <c r="CA158" s="30"/>
+      <c r="CB158" s="30"/>
+      <c r="CC158" s="30"/>
+      <c r="CD158" s="29">
         <v>2020</v>
       </c>
-      <c r="CE158" s="26"/>
-      <c r="CF158" s="26"/>
-      <c r="CG158" s="26"/>
-      <c r="CH158" s="26">
+      <c r="CE158" s="29"/>
+      <c r="CF158" s="29"/>
+      <c r="CG158" s="29"/>
+      <c r="CH158" s="29">
         <v>2021</v>
       </c>
-      <c r="CI158" s="26"/>
-      <c r="CJ158" s="26"/>
-      <c r="CK158" s="26"/>
-      <c r="CL158" s="26">
+      <c r="CI158" s="29"/>
+      <c r="CJ158" s="29"/>
+      <c r="CK158" s="29"/>
+      <c r="CL158" s="29">
         <v>2022</v>
       </c>
-      <c r="CM158" s="26"/>
-      <c r="CN158" s="26"/>
-      <c r="CO158" s="26"/>
+      <c r="CM158" s="29"/>
+      <c r="CN158" s="29"/>
+      <c r="CO158" s="29"/>
+      <c r="CP158" s="26">
+        <v>2023</v>
+      </c>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -24988,41 +25150,44 @@
       <c r="CC159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CD159" s="19" t="s">
+      <c r="CD159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE159" s="19" t="s">
+      <c r="CE159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF159" s="19" t="s">
+      <c r="CF159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CG159" s="19" t="s">
+      <c r="CG159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CH159" s="19" t="s">
+      <c r="CH159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI159" s="19" t="s">
+      <c r="CI159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ159" s="19" t="s">
+      <c r="CJ159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CK159" s="19" t="s">
+      <c r="CK159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="19" t="s">
+      <c r="CL159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="19" t="s">
+      <c r="CM159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="19" t="s">
+      <c r="CN159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO159" s="19" t="s">
+      <c r="CO159" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CP159" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25272,43 +25437,45 @@
       <c r="CC161" s="23">
         <v>13.646805298871332</v>
       </c>
-      <c r="CD161" s="23">
+      <c r="CD161" s="28">
         <v>16.247521985696487</v>
       </c>
-      <c r="CE161" s="23">
+      <c r="CE161" s="28">
         <v>15.790441081843406</v>
       </c>
-      <c r="CF161" s="23">
+      <c r="CF161" s="28">
         <v>20.149099412692205</v>
       </c>
-      <c r="CG161" s="23">
+      <c r="CG161" s="28">
         <v>20.872114450196733</v>
       </c>
-      <c r="CH161" s="23">
+      <c r="CH161" s="28">
         <v>19.38258820356684</v>
       </c>
-      <c r="CI161" s="23">
+      <c r="CI161" s="28">
         <v>22.858886791763375</v>
       </c>
-      <c r="CJ161" s="23">
+      <c r="CJ161" s="28">
         <v>26.452362695179044</v>
       </c>
-      <c r="CK161" s="23">
+      <c r="CK161" s="28">
         <v>23.556216353857899</v>
       </c>
-      <c r="CL161" s="23">
+      <c r="CL161" s="28">
         <v>19.232580913622932</v>
       </c>
-      <c r="CM161" s="23">
+      <c r="CM161" s="28">
         <v>25.283884552971685</v>
       </c>
-      <c r="CN161" s="23">
+      <c r="CN161" s="28">
         <v>26.075796516683408</v>
       </c>
-      <c r="CO161" s="23">
+      <c r="CO161" s="28">
         <v>21.536780418531425</v>
       </c>
-      <c r="CP161" s="11"/>
+      <c r="CP161" s="28">
+        <v>19.546231694874532</v>
+      </c>
       <c r="CQ161" s="11"/>
       <c r="CR161" s="11"/>
       <c r="CS161" s="11"/>
@@ -25612,43 +25779,45 @@
       <c r="CC162" s="23">
         <v>2.1375357534085211</v>
       </c>
-      <c r="CD162" s="23">
+      <c r="CD162" s="28">
         <v>5.4106493904424937</v>
       </c>
-      <c r="CE162" s="23">
+      <c r="CE162" s="28">
         <v>6.8683242858019842</v>
       </c>
-      <c r="CF162" s="23">
+      <c r="CF162" s="28">
         <v>6.0509098496519931</v>
       </c>
-      <c r="CG162" s="23">
+      <c r="CG162" s="28">
         <v>3.2013591828894432</v>
       </c>
-      <c r="CH162" s="23">
+      <c r="CH162" s="28">
         <v>9.3778965568235559</v>
       </c>
-      <c r="CI162" s="23">
+      <c r="CI162" s="28">
         <v>11.308935797635728</v>
       </c>
-      <c r="CJ162" s="23">
+      <c r="CJ162" s="28">
         <v>7.713523821928649</v>
       </c>
-      <c r="CK162" s="23">
+      <c r="CK162" s="28">
         <v>3.9419414835949165</v>
       </c>
-      <c r="CL162" s="23">
+      <c r="CL162" s="28">
         <v>9.0064705901485631</v>
       </c>
-      <c r="CM162" s="23">
+      <c r="CM162" s="28">
         <v>10.232129086950495</v>
       </c>
-      <c r="CN162" s="23">
+      <c r="CN162" s="28">
         <v>6.2629222389067696</v>
       </c>
-      <c r="CO162" s="23">
+      <c r="CO162" s="28">
         <v>2.6663984224363912</v>
       </c>
-      <c r="CP162" s="11"/>
+      <c r="CP162" s="28">
+        <v>6.8879201082525574</v>
+      </c>
       <c r="CQ162" s="11"/>
       <c r="CR162" s="11"/>
       <c r="CS162" s="11"/>
@@ -25952,43 +26121,45 @@
       <c r="CC163" s="23">
         <v>54.230854561444843</v>
       </c>
-      <c r="CD163" s="23">
+      <c r="CD163" s="28">
         <v>37.792412272820314</v>
       </c>
-      <c r="CE163" s="23">
+      <c r="CE163" s="28">
         <v>38.615581401953094</v>
       </c>
-      <c r="CF163" s="23">
+      <c r="CF163" s="28">
         <v>42.99653790661209</v>
       </c>
-      <c r="CG163" s="23">
+      <c r="CG163" s="28">
         <v>37.195469493628963</v>
       </c>
-      <c r="CH163" s="23">
+      <c r="CH163" s="28">
         <v>17.981635106944267</v>
       </c>
-      <c r="CI163" s="23">
+      <c r="CI163" s="28">
         <v>18.464020412468638</v>
       </c>
-      <c r="CJ163" s="23">
+      <c r="CJ163" s="28">
         <v>27.821221647440741</v>
       </c>
-      <c r="CK163" s="23">
+      <c r="CK163" s="28">
         <v>33.537962404218177</v>
       </c>
-      <c r="CL163" s="23">
+      <c r="CL163" s="28">
         <v>21.813785455855719</v>
       </c>
-      <c r="CM163" s="23">
+      <c r="CM163" s="28">
         <v>21.716800098639215</v>
       </c>
-      <c r="CN163" s="23">
+      <c r="CN163" s="28">
         <v>30.292151655069166</v>
       </c>
-      <c r="CO163" s="23">
+      <c r="CO163" s="28">
         <v>39.314169088408931</v>
       </c>
-      <c r="CP163" s="11"/>
+      <c r="CP163" s="28">
+        <v>28.855413436395132</v>
+      </c>
       <c r="CQ163" s="11"/>
       <c r="CR163" s="11"/>
       <c r="CS163" s="11"/>
@@ -26292,43 +26463,45 @@
       <c r="CC164" s="23">
         <v>1.4140957795229996</v>
       </c>
-      <c r="CD164" s="23">
+      <c r="CD164" s="28">
         <v>1.4910173819555634</v>
       </c>
-      <c r="CE164" s="23">
+      <c r="CE164" s="28">
         <v>2.0482449598917625</v>
       </c>
-      <c r="CF164" s="23">
+      <c r="CF164" s="28">
         <v>1.8424169416295297</v>
       </c>
-      <c r="CG164" s="23">
+      <c r="CG164" s="28">
         <v>1.8747388781237373</v>
       </c>
-      <c r="CH164" s="23">
+      <c r="CH164" s="28">
         <v>2.2710293337348171</v>
       </c>
-      <c r="CI164" s="23">
+      <c r="CI164" s="28">
         <v>2.0679902625306594</v>
       </c>
-      <c r="CJ164" s="23">
+      <c r="CJ164" s="28">
         <v>1.97686627234103</v>
       </c>
-      <c r="CK164" s="23">
+      <c r="CK164" s="28">
         <v>1.6112249302294503</v>
       </c>
-      <c r="CL164" s="23">
+      <c r="CL164" s="28">
         <v>1.6620107671116384</v>
       </c>
-      <c r="CM164" s="23">
+      <c r="CM164" s="28">
         <v>1.516537753719629</v>
       </c>
-      <c r="CN164" s="23">
+      <c r="CN164" s="28">
         <v>1.2564331556424357</v>
       </c>
-      <c r="CO164" s="23">
+      <c r="CO164" s="28">
         <v>1.0631527938004819</v>
       </c>
-      <c r="CP164" s="11"/>
+      <c r="CP164" s="28">
+        <v>1.2703806309215786</v>
+      </c>
       <c r="CQ164" s="11"/>
       <c r="CR164" s="11"/>
       <c r="CS164" s="11"/>
@@ -26632,43 +26805,45 @@
       <c r="CC165" s="23">
         <v>3.123554392171747</v>
       </c>
-      <c r="CD165" s="23">
+      <c r="CD165" s="28">
         <v>5.5627003735040477</v>
       </c>
-      <c r="CE165" s="23">
+      <c r="CE165" s="28">
         <v>8.0559308378434036</v>
       </c>
-      <c r="CF165" s="23">
+      <c r="CF165" s="28">
         <v>5.3737014222452153</v>
       </c>
-      <c r="CG165" s="23">
+      <c r="CG165" s="28">
         <v>7.0919165370406283</v>
       </c>
-      <c r="CH165" s="23">
+      <c r="CH165" s="28">
         <v>12.221373511141266</v>
       </c>
-      <c r="CI165" s="23">
+      <c r="CI165" s="28">
         <v>13.62895484139392</v>
       </c>
-      <c r="CJ165" s="23">
+      <c r="CJ165" s="28">
         <v>8.1024857797721968</v>
       </c>
-      <c r="CK165" s="23">
+      <c r="CK165" s="28">
         <v>7.1097428396551905</v>
       </c>
-      <c r="CL165" s="23">
+      <c r="CL165" s="28">
         <v>9.3092245123078214</v>
       </c>
-      <c r="CM165" s="23">
+      <c r="CM165" s="28">
         <v>8.4079705437476431</v>
       </c>
-      <c r="CN165" s="23">
+      <c r="CN165" s="28">
         <v>6.8121884905157772</v>
       </c>
-      <c r="CO165" s="23">
+      <c r="CO165" s="28">
         <v>5.7027450032579949</v>
       </c>
-      <c r="CP165" s="11"/>
+      <c r="CP165" s="28">
+        <v>8.3539091943276809</v>
+      </c>
       <c r="CQ165" s="11"/>
       <c r="CR165" s="11"/>
       <c r="CS165" s="11"/>
@@ -26972,43 +27147,45 @@
       <c r="CC166" s="23">
         <v>17.197250532000911</v>
       </c>
-      <c r="CD166" s="23">
+      <c r="CD166" s="28">
         <v>25.938658020486965</v>
       </c>
-      <c r="CE166" s="23">
+      <c r="CE166" s="28">
         <v>21.612777999710193</v>
       </c>
-      <c r="CF166" s="23">
+      <c r="CF166" s="28">
         <v>19.285684296246377</v>
       </c>
-      <c r="CG166" s="23">
+      <c r="CG166" s="28">
         <v>21.8156339135877</v>
       </c>
-      <c r="CH166" s="23">
+      <c r="CH166" s="28">
         <v>31.736182767979525</v>
       </c>
-      <c r="CI166" s="23">
+      <c r="CI166" s="28">
         <v>25.408225192281513</v>
       </c>
-      <c r="CJ166" s="23">
+      <c r="CJ166" s="28">
         <v>22.336797951837788</v>
       </c>
-      <c r="CK166" s="23">
+      <c r="CK166" s="28">
         <v>22.57049405290908</v>
       </c>
-      <c r="CL166" s="23">
+      <c r="CL166" s="28">
         <v>31.629259219380408</v>
       </c>
-      <c r="CM166" s="23">
+      <c r="CM166" s="28">
         <v>26.073902667483818</v>
       </c>
-      <c r="CN166" s="23">
+      <c r="CN166" s="28">
         <v>22.843727276273313</v>
       </c>
-      <c r="CO166" s="23">
+      <c r="CO166" s="28">
         <v>19.350045967915399</v>
       </c>
-      <c r="CP166" s="11"/>
+      <c r="CP166" s="28">
+        <v>27.761821601337626</v>
+      </c>
       <c r="CQ166" s="11"/>
       <c r="CR166" s="11"/>
       <c r="CS166" s="11"/>
@@ -27312,43 +27489,45 @@
       <c r="CC167" s="23">
         <v>2.7214318787950185</v>
       </c>
-      <c r="CD167" s="23">
+      <c r="CD167" s="28">
         <v>3.9527149527942349</v>
       </c>
-      <c r="CE167" s="23">
+      <c r="CE167" s="28">
         <v>2.6112806411776068</v>
       </c>
-      <c r="CF167" s="23">
+      <c r="CF167" s="28">
         <v>1.8635400651455234</v>
       </c>
-      <c r="CG167" s="23">
+      <c r="CG167" s="28">
         <v>2.8259932030466497</v>
       </c>
-      <c r="CH167" s="23">
+      <c r="CH167" s="28">
         <v>2.9887726694787116</v>
       </c>
-      <c r="CI167" s="23">
+      <c r="CI167" s="28">
         <v>3.3902387654558974</v>
       </c>
-      <c r="CJ167" s="23">
+      <c r="CJ167" s="28">
         <v>2.8728752310243317</v>
       </c>
-      <c r="CK167" s="23">
+      <c r="CK167" s="28">
         <v>2.9941217443969563</v>
       </c>
-      <c r="CL167" s="23">
+      <c r="CL167" s="28">
         <v>2.5788517075130506</v>
       </c>
-      <c r="CM167" s="23">
+      <c r="CM167" s="28">
         <v>2.1176112847827464</v>
       </c>
-      <c r="CN167" s="23">
+      <c r="CN167" s="28">
         <v>2.2530019348979207</v>
       </c>
-      <c r="CO167" s="23">
+      <c r="CO167" s="28">
         <v>1.7001843771549014</v>
       </c>
-      <c r="CP167" s="11"/>
+      <c r="CP167" s="28">
+        <v>2.0058464713789648</v>
+      </c>
       <c r="CQ167" s="11"/>
       <c r="CR167" s="11"/>
       <c r="CS167" s="11"/>
@@ -27652,43 +27831,45 @@
       <c r="CC168" s="23">
         <v>5.5284718037846288</v>
       </c>
-      <c r="CD168" s="23">
+      <c r="CD168" s="28">
         <v>3.6043256222998901</v>
       </c>
-      <c r="CE168" s="23">
+      <c r="CE168" s="28">
         <v>4.3974187917785512</v>
       </c>
-      <c r="CF168" s="23">
+      <c r="CF168" s="28">
         <v>2.4381101057770507</v>
       </c>
-      <c r="CG168" s="23">
+      <c r="CG168" s="28">
         <v>5.1227743414861555</v>
       </c>
-      <c r="CH168" s="23">
+      <c r="CH168" s="28">
         <v>4.0405218503310181</v>
       </c>
-      <c r="CI168" s="23">
+      <c r="CI168" s="28">
         <v>2.8727479364702591</v>
       </c>
-      <c r="CJ168" s="23">
+      <c r="CJ168" s="28">
         <v>2.7238666004762146</v>
       </c>
-      <c r="CK168" s="23">
+      <c r="CK168" s="28">
         <v>4.6782961911383198</v>
       </c>
-      <c r="CL168" s="23">
+      <c r="CL168" s="28">
         <v>4.7678168340598504</v>
       </c>
-      <c r="CM168" s="23">
+      <c r="CM168" s="28">
         <v>4.6511640117047799</v>
       </c>
-      <c r="CN168" s="23">
+      <c r="CN168" s="28">
         <v>4.2037787320112052</v>
       </c>
-      <c r="CO168" s="23">
+      <c r="CO168" s="28">
         <v>8.666523928494458</v>
       </c>
-      <c r="CP168" s="11"/>
+      <c r="CP168" s="28">
+        <v>5.3184768625119272</v>
+      </c>
       <c r="CQ168" s="11"/>
       <c r="CR168" s="11"/>
       <c r="CS168" s="11"/>
@@ -27829,18 +28010,18 @@
       <c r="CA169" s="12"/>
       <c r="CB169" s="12"/>
       <c r="CC169" s="12"/>
-      <c r="CD169" s="12"/>
-      <c r="CE169" s="12"/>
-      <c r="CF169" s="12"/>
-      <c r="CG169" s="12"/>
-      <c r="CH169" s="12"/>
-      <c r="CI169" s="12"/>
-      <c r="CJ169" s="12"/>
-      <c r="CK169" s="12"/>
-      <c r="CL169" s="12"/>
-      <c r="CM169" s="12"/>
-      <c r="CN169" s="12"/>
-      <c r="CO169" s="12"/>
+      <c r="CD169" s="11"/>
+      <c r="CE169" s="11"/>
+      <c r="CF169" s="11"/>
+      <c r="CG169" s="11"/>
+      <c r="CH169" s="11"/>
+      <c r="CI169" s="11"/>
+      <c r="CJ169" s="11"/>
+      <c r="CK169" s="11"/>
+      <c r="CL169" s="11"/>
+      <c r="CM169" s="11"/>
+      <c r="CN169" s="11"/>
+      <c r="CO169" s="11"/>
       <c r="CP169" s="11"/>
       <c r="CQ169" s="11"/>
       <c r="CR169" s="11"/>
@@ -28145,43 +28326,45 @@
       <c r="CC170" s="21">
         <v>100</v>
       </c>
-      <c r="CD170" s="21">
+      <c r="CD170" s="20">
         <v>100</v>
       </c>
-      <c r="CE170" s="21">
+      <c r="CE170" s="20">
         <v>100</v>
       </c>
-      <c r="CF170" s="21">
+      <c r="CF170" s="20">
         <v>100</v>
       </c>
-      <c r="CG170" s="21">
+      <c r="CG170" s="20">
         <v>100</v>
       </c>
-      <c r="CH170" s="21">
+      <c r="CH170" s="20">
         <v>100</v>
       </c>
-      <c r="CI170" s="21">
+      <c r="CI170" s="20">
         <v>100</v>
       </c>
-      <c r="CJ170" s="21">
+      <c r="CJ170" s="20">
         <v>100</v>
       </c>
-      <c r="CK170" s="21">
+      <c r="CK170" s="20">
         <v>100</v>
       </c>
-      <c r="CL170" s="21">
+      <c r="CL170" s="20">
         <v>100</v>
       </c>
-      <c r="CM170" s="21">
+      <c r="CM170" s="20">
         <v>100</v>
       </c>
-      <c r="CN170" s="21">
+      <c r="CN170" s="20">
         <v>100</v>
       </c>
-      <c r="CO170" s="21">
+      <c r="CO170" s="20">
         <v>100</v>
       </c>
-      <c r="CP170" s="11"/>
+      <c r="CP170" s="20">
+        <v>100</v>
+      </c>
       <c r="CQ170" s="11"/>
       <c r="CR170" s="11"/>
       <c r="CS170" s="11"/>
@@ -28323,18 +28506,19 @@
       <c r="CA171" s="17"/>
       <c r="CB171" s="17"/>
       <c r="CC171" s="17"/>
-      <c r="CD171" s="17"/>
-      <c r="CE171" s="17"/>
-      <c r="CF171" s="17"/>
-      <c r="CG171" s="17"/>
-      <c r="CH171" s="17"/>
-      <c r="CI171" s="17"/>
-      <c r="CJ171" s="17"/>
-      <c r="CK171" s="17"/>
-      <c r="CL171" s="17"/>
-      <c r="CM171" s="17"/>
-      <c r="CN171" s="17"/>
-      <c r="CO171" s="17"/>
+      <c r="CD171" s="16"/>
+      <c r="CE171" s="16"/>
+      <c r="CF171" s="16"/>
+      <c r="CG171" s="16"/>
+      <c r="CH171" s="16"/>
+      <c r="CI171" s="16"/>
+      <c r="CJ171" s="16"/>
+      <c r="CK171" s="16"/>
+      <c r="CL171" s="16"/>
+      <c r="CM171" s="16"/>
+      <c r="CN171" s="16"/>
+      <c r="CO171" s="16"/>
+      <c r="CP171" s="16"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -28423,19 +28607,19 @@
       <c r="CA173" s="2"/>
       <c r="CB173" s="2"/>
       <c r="CC173" s="2"/>
-      <c r="CD173" s="2"/>
-      <c r="CE173" s="2"/>
-      <c r="CF173" s="2"/>
-      <c r="CG173" s="2"/>
-      <c r="CH173" s="2"/>
-      <c r="CI173" s="2"/>
-      <c r="CJ173" s="2"/>
-      <c r="CK173" s="2"/>
-      <c r="CL173" s="2"/>
-      <c r="CM173" s="2"/>
-      <c r="CN173" s="2"/>
-      <c r="CO173" s="2"/>
-      <c r="CP173" s="24"/>
+      <c r="CD173" s="1"/>
+      <c r="CE173" s="1"/>
+      <c r="CF173" s="1"/>
+      <c r="CG173" s="1"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+      <c r="CM173" s="1"/>
+      <c r="CN173" s="1"/>
+      <c r="CO173" s="1"/>
+      <c r="CP173" s="1"/>
       <c r="CQ173" s="24"/>
       <c r="CR173" s="24"/>
       <c r="CS173" s="24"/>
@@ -28577,19 +28761,19 @@
       <c r="CA174" s="2"/>
       <c r="CB174" s="2"/>
       <c r="CC174" s="2"/>
-      <c r="CD174" s="2"/>
-      <c r="CE174" s="2"/>
-      <c r="CF174" s="2"/>
-      <c r="CG174" s="2"/>
-      <c r="CH174" s="2"/>
-      <c r="CI174" s="2"/>
-      <c r="CJ174" s="2"/>
-      <c r="CK174" s="2"/>
-      <c r="CL174" s="2"/>
-      <c r="CM174" s="2"/>
-      <c r="CN174" s="2"/>
-      <c r="CO174" s="2"/>
-      <c r="CP174" s="24"/>
+      <c r="CD174" s="1"/>
+      <c r="CE174" s="1"/>
+      <c r="CF174" s="1"/>
+      <c r="CG174" s="1"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+      <c r="CM174" s="1"/>
+      <c r="CN174" s="1"/>
+      <c r="CO174" s="1"/>
+      <c r="CP174" s="1"/>
       <c r="CQ174" s="24"/>
       <c r="CR174" s="24"/>
       <c r="CS174" s="24"/>
@@ -28650,7 +28834,7 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="AL158:AO158"/>
     <mergeCell ref="AP158:AS158"/>
     <mergeCell ref="AT158:AW158"/>
@@ -28666,6 +28850,9 @@
     <mergeCell ref="AT108:AW108"/>
     <mergeCell ref="AX108:BA108"/>
     <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="F158:I158"/>
     <mergeCell ref="J158:M158"/>
@@ -28675,8 +28862,6 @@
     <mergeCell ref="Z158:AC158"/>
     <mergeCell ref="AD158:AG158"/>
     <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="B108:E108"/>
     <mergeCell ref="F108:I108"/>
     <mergeCell ref="J108:M108"/>
@@ -28719,6 +28904,12 @@
     <mergeCell ref="Z34:AC34"/>
     <mergeCell ref="AD34:AG34"/>
     <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
     <mergeCell ref="AL34:AO34"/>
     <mergeCell ref="BJ34:BM34"/>
     <mergeCell ref="AL59:AO59"/>
@@ -28743,10 +28934,6 @@
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
     <mergeCell ref="AT34:AW34"/>
     <mergeCell ref="AX34:BA34"/>
     <mergeCell ref="BB34:BE34"/>
@@ -28764,9 +28951,6 @@
     <mergeCell ref="BB158:BE158"/>
     <mergeCell ref="BF158:BI158"/>
     <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BN84:BQ84"/>
@@ -28810,16 +28994,14 @@
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CL108:CO108"/>
     <mergeCell ref="CL133:CO133"/>
-    <mergeCell ref="CL59:CO59"/>
-    <mergeCell ref="CL84:CO84"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="92" man="1"/>
-    <brk id="100" max="92" man="1"/>
-    <brk id="124" max="92" man="1"/>
+    <brk id="50" max="93" man="1"/>
+    <brk id="100" max="93" man="1"/>
+    <brk id="124" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13023B-4A70-4350-BF5E-EFAC5C29A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEFEB0-72DE-4143-B977-9326F8C0F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CP$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CQ$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -355,18 +355,18 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +711,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CW28" sqref="CW28"/>
+      <selection pane="bottomRight" activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,8 +719,8 @@
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="94" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="82" max="95" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -863,18 +863,18 @@
       <c r="BS9" s="29"/>
       <c r="BT9" s="29"/>
       <c r="BU9" s="29"/>
-      <c r="BV9" s="31">
+      <c r="BV9" s="28">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
       <c r="CD9" s="29">
         <v>2020</v>
       </c>
@@ -893,9 +893,10 @@
       <c r="CM9" s="29"/>
       <c r="CN9" s="29"/>
       <c r="CO9" s="29"/>
-      <c r="CP9" s="26">
+      <c r="CP9" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="31"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1177,6 +1178,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,46 +1430,48 @@
       <c r="CC12" s="10">
         <v>65109.475496706458</v>
       </c>
-      <c r="CD12" s="27">
+      <c r="CD12" s="26">
         <v>59820.030513076053</v>
       </c>
-      <c r="CE12" s="27">
+      <c r="CE12" s="26">
         <v>34539.00214474411</v>
       </c>
-      <c r="CF12" s="27">
+      <c r="CF12" s="26">
         <v>51688.289326632083</v>
       </c>
-      <c r="CG12" s="27">
+      <c r="CG12" s="26">
         <v>52884.47277971021</v>
       </c>
-      <c r="CH12" s="27">
+      <c r="CH12" s="26">
         <v>46430.818762563402</v>
       </c>
-      <c r="CI12" s="27">
+      <c r="CI12" s="26">
         <v>52819.492968022583</v>
       </c>
-      <c r="CJ12" s="27">
+      <c r="CJ12" s="26">
         <v>67552.130080674076</v>
       </c>
-      <c r="CK12" s="27">
+      <c r="CK12" s="26">
         <v>73737.984486977453</v>
       </c>
-      <c r="CL12" s="27">
+      <c r="CL12" s="26">
         <v>64278.199974307077</v>
       </c>
-      <c r="CM12" s="27">
+      <c r="CM12" s="26">
         <v>78301.795476426603</v>
       </c>
-      <c r="CN12" s="27">
+      <c r="CN12" s="26">
         <v>105008.92645285306</v>
       </c>
-      <c r="CO12" s="27">
+      <c r="CO12" s="26">
         <v>101193.14807144552</v>
       </c>
-      <c r="CP12" s="27">
-        <v>84173.814547489645</v>
-      </c>
-      <c r="CQ12" s="11"/>
+      <c r="CP12" s="26">
+        <v>84713.533844019388</v>
+      </c>
+      <c r="CQ12" s="26">
+        <v>108152.15077037815</v>
+      </c>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
@@ -1768,46 +1774,48 @@
       <c r="CC13" s="10">
         <v>10960.327119215286</v>
       </c>
-      <c r="CD13" s="27">
+      <c r="CD13" s="26">
         <v>16314.752198365353</v>
       </c>
-      <c r="CE13" s="27">
+      <c r="CE13" s="26">
         <v>17733.733957640055</v>
       </c>
-      <c r="CF13" s="27">
+      <c r="CF13" s="26">
         <v>17050.649874945389</v>
       </c>
-      <c r="CG13" s="27">
+      <c r="CG13" s="26">
         <v>8862.0147975722048</v>
       </c>
-      <c r="CH13" s="27">
+      <c r="CH13" s="26">
         <v>18543.055146150382</v>
       </c>
-      <c r="CI13" s="27">
+      <c r="CI13" s="26">
         <v>28888.886231921544</v>
       </c>
-      <c r="CJ13" s="27">
+      <c r="CJ13" s="26">
         <v>20363.488123245195</v>
       </c>
-      <c r="CK13" s="27">
+      <c r="CK13" s="26">
         <v>12780.961963022375</v>
       </c>
-      <c r="CL13" s="27">
+      <c r="CL13" s="26">
         <v>24409.622158552458</v>
       </c>
-      <c r="CM13" s="27">
+      <c r="CM13" s="26">
         <v>35919.397836294309</v>
       </c>
-      <c r="CN13" s="27">
+      <c r="CN13" s="26">
         <v>26294.663427144449</v>
       </c>
-      <c r="CO13" s="27">
+      <c r="CO13" s="26">
         <v>13255.056806212147</v>
       </c>
-      <c r="CP13" s="27">
-        <v>24475.788996283303</v>
-      </c>
-      <c r="CQ13" s="11"/>
+      <c r="CP13" s="26">
+        <v>24537.625750492349</v>
+      </c>
+      <c r="CQ13" s="26">
+        <v>38775.703153489951</v>
+      </c>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
@@ -2110,46 +2118,48 @@
       <c r="CC14" s="10">
         <v>240825.69504674777</v>
       </c>
-      <c r="CD14" s="27">
+      <c r="CD14" s="26">
         <v>163195.08531113193</v>
       </c>
-      <c r="CE14" s="27">
+      <c r="CE14" s="26">
         <v>91645.706522132052</v>
       </c>
-      <c r="CF14" s="27">
+      <c r="CF14" s="26">
         <v>104610.371337144</v>
       </c>
-      <c r="CG14" s="27">
+      <c r="CG14" s="26">
         <v>90196.392168067527</v>
       </c>
-      <c r="CH14" s="27">
+      <c r="CH14" s="26">
         <v>50399.250365964486</v>
       </c>
-      <c r="CI14" s="27">
+      <c r="CI14" s="26">
         <v>43239.536426352897</v>
       </c>
-      <c r="CJ14" s="27">
+      <c r="CJ14" s="26">
         <v>63140.936340124179</v>
       </c>
-      <c r="CK14" s="27">
+      <c r="CK14" s="26">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="27">
+      <c r="CL14" s="26">
         <v>84220.197269927652</v>
       </c>
-      <c r="CM14" s="27">
+      <c r="CM14" s="26">
         <v>70004.28483725246</v>
       </c>
-      <c r="CN14" s="27">
+      <c r="CN14" s="26">
         <v>108629.96941892747</v>
       </c>
-      <c r="CO14" s="27">
+      <c r="CO14" s="26">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="27">
-        <v>146576.28062105644</v>
-      </c>
-      <c r="CQ14" s="11"/>
+      <c r="CP14" s="26">
+        <v>150989.87083219792</v>
+      </c>
+      <c r="CQ14" s="26">
+        <v>141024.96779634792</v>
+      </c>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
@@ -2452,46 +2462,48 @@
       <c r="CC15" s="10">
         <v>7109.70388121215</v>
       </c>
-      <c r="CD15" s="27">
+      <c r="CD15" s="26">
         <v>5054.3449397533286</v>
       </c>
-      <c r="CE15" s="27">
+      <c r="CE15" s="26">
         <v>4926.6227747895446</v>
       </c>
-      <c r="CF15" s="27">
+      <c r="CF15" s="26">
         <v>5084.5216930122861</v>
       </c>
-      <c r="CG15" s="27">
+      <c r="CG15" s="26">
         <v>5088.6362974759177</v>
       </c>
-      <c r="CH15" s="27">
+      <c r="CH15" s="26">
         <v>5048.3525692498251</v>
       </c>
-      <c r="CI15" s="27">
+      <c r="CI15" s="26">
         <v>4921.2515890704108</v>
       </c>
-      <c r="CJ15" s="27">
+      <c r="CJ15" s="26">
         <v>5111.1493409064724</v>
       </c>
-      <c r="CK15" s="27">
+      <c r="CK15" s="26">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="27">
+      <c r="CL15" s="26">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="27">
+      <c r="CM15" s="26">
         <v>4959.4587433015095</v>
       </c>
-      <c r="CN15" s="27">
+      <c r="CN15" s="26">
         <v>5166.2083527966124</v>
       </c>
-      <c r="CO15" s="27">
+      <c r="CO15" s="26">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="27">
-        <v>5074.9707666881186</v>
-      </c>
-      <c r="CQ15" s="11"/>
+      <c r="CP15" s="26">
+        <v>5018.0349438614548</v>
+      </c>
+      <c r="CQ15" s="26">
+        <v>5310.704889297348</v>
+      </c>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
@@ -2794,46 +2806,48 @@
       <c r="CC16" s="10">
         <v>16139.580988612473</v>
       </c>
-      <c r="CD16" s="27">
+      <c r="CD16" s="26">
         <v>18101.550829003507</v>
       </c>
-      <c r="CE16" s="27">
+      <c r="CE16" s="26">
         <v>20074.125553017115</v>
       </c>
-      <c r="CF16" s="27">
+      <c r="CF16" s="26">
         <v>15234.065248296503</v>
       </c>
-      <c r="CG16" s="27">
+      <c r="CG16" s="26">
         <v>19783.117813536392</v>
       </c>
-      <c r="CH16" s="27">
+      <c r="CH16" s="26">
         <v>26079.237909513547</v>
       </c>
-      <c r="CI16" s="27">
+      <c r="CI16" s="26">
         <v>33600.297511936791</v>
       </c>
-      <c r="CJ16" s="27">
+      <c r="CJ16" s="26">
         <v>21519.870290264276</v>
       </c>
-      <c r="CK16" s="27">
+      <c r="CK16" s="26">
         <v>23229.524274839223</v>
       </c>
-      <c r="CL16" s="27">
+      <c r="CL16" s="26">
         <v>27228.201327187286</v>
       </c>
-      <c r="CM16" s="27">
+      <c r="CM16" s="26">
         <v>28485.623424981779</v>
       </c>
-      <c r="CN16" s="27">
+      <c r="CN16" s="26">
         <v>28773.936324629412</v>
       </c>
-      <c r="CO16" s="27">
+      <c r="CO16" s="26">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="27">
-        <v>32035.932993538718</v>
-      </c>
-      <c r="CQ16" s="11"/>
+      <c r="CP16" s="26">
+        <v>30633.757370232517</v>
+      </c>
+      <c r="CQ16" s="26">
+        <v>29250.476204187897</v>
+      </c>
       <c r="CR16" s="11"/>
       <c r="CS16" s="11"/>
       <c r="CT16" s="11"/>
@@ -3136,46 +3150,48 @@
       <c r="CC17" s="10">
         <v>87733.866658546089</v>
       </c>
-      <c r="CD17" s="27">
+      <c r="CD17" s="26">
         <v>82785.126496413955</v>
       </c>
-      <c r="CE17" s="27">
+      <c r="CE17" s="26">
         <v>53035.700093530795</v>
       </c>
-      <c r="CF17" s="27">
+      <c r="CF17" s="26">
         <v>53927.210487834433</v>
       </c>
-      <c r="CG17" s="27">
+      <c r="CG17" s="26">
         <v>60084.718131966809</v>
       </c>
-      <c r="CH17" s="27">
+      <c r="CH17" s="26">
         <v>66420.824866344847</v>
       </c>
-      <c r="CI17" s="27">
+      <c r="CI17" s="26">
         <v>61686.723992187755</v>
       </c>
-      <c r="CJ17" s="27">
+      <c r="CJ17" s="26">
         <v>58515.768249921377</v>
       </c>
-      <c r="CK17" s="27">
+      <c r="CK17" s="26">
         <v>72810.256070398711</v>
       </c>
-      <c r="CL17" s="27">
+      <c r="CL17" s="26">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="27">
+      <c r="CM17" s="26">
         <v>86991.615009958172</v>
       </c>
-      <c r="CN17" s="27">
+      <c r="CN17" s="26">
         <v>95172.222712710689</v>
       </c>
-      <c r="CO17" s="27">
+      <c r="CO17" s="26">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="27">
-        <v>104416.77670913271</v>
-      </c>
-      <c r="CQ17" s="11"/>
+      <c r="CP17" s="26">
+        <v>106974.81694615472</v>
+      </c>
+      <c r="CQ17" s="26">
+        <v>116733.46614218912</v>
+      </c>
       <c r="CR17" s="11"/>
       <c r="CS17" s="11"/>
       <c r="CT17" s="11"/>
@@ -3478,46 +3494,48 @@
       <c r="CC18" s="10">
         <v>14180.6903439617</v>
       </c>
-      <c r="CD18" s="27">
+      <c r="CD18" s="26">
         <v>12788.146097403231</v>
       </c>
-      <c r="CE18" s="27">
+      <c r="CE18" s="26">
         <v>6523.9901905191382</v>
       </c>
-      <c r="CF18" s="27">
+      <c r="CF18" s="26">
         <v>5317.4995537317754</v>
       </c>
-      <c r="CG18" s="27">
+      <c r="CG18" s="26">
         <v>7949.8504290503433</v>
       </c>
-      <c r="CH18" s="27">
+      <c r="CH18" s="26">
         <v>6340.8829821031732</v>
       </c>
-      <c r="CI18" s="27">
+      <c r="CI18" s="26">
         <v>8380.1096069851701</v>
       </c>
-      <c r="CJ18" s="27">
+      <c r="CJ18" s="26">
         <v>7680.0595135464391</v>
       </c>
-      <c r="CK18" s="27">
+      <c r="CK18" s="26">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="27">
+      <c r="CL18" s="26">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="27">
+      <c r="CM18" s="26">
         <v>7193.15854990965</v>
       </c>
-      <c r="CN18" s="27">
+      <c r="CN18" s="26">
         <v>9578.5690716619501</v>
       </c>
-      <c r="CO18" s="27">
+      <c r="CO18" s="26">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="27">
-        <v>7647.6374557607433</v>
-      </c>
-      <c r="CQ18" s="11"/>
+      <c r="CP18" s="26">
+        <v>8490.2754181610162</v>
+      </c>
+      <c r="CQ18" s="26">
+        <v>7540.5937471402167</v>
+      </c>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
@@ -3820,46 +3838,48 @@
       <c r="CC19" s="10">
         <v>28611.604796469379</v>
       </c>
-      <c r="CD19" s="27">
+      <c r="CD19" s="26">
         <v>11579.054253904776</v>
       </c>
-      <c r="CE19" s="27">
+      <c r="CE19" s="26">
         <v>10920.554424688349</v>
       </c>
-      <c r="CF19" s="27">
+      <c r="CF19" s="26">
         <v>6912.8630974083126</v>
       </c>
-      <c r="CG19" s="27">
+      <c r="CG19" s="26">
         <v>14312.987210784406</v>
       </c>
-      <c r="CH19" s="27">
+      <c r="CH19" s="26">
         <v>8511.993673556779</v>
       </c>
-      <c r="CI19" s="27">
+      <c r="CI19" s="26">
         <v>7058.3638867921072</v>
       </c>
-      <c r="CJ19" s="27">
+      <c r="CJ19" s="26">
         <v>7235.5170074011821</v>
       </c>
-      <c r="CK19" s="27">
+      <c r="CK19" s="26">
         <v>15309.74911073353</v>
       </c>
-      <c r="CL19" s="27">
+      <c r="CL19" s="26">
         <v>13767.147484887126</v>
       </c>
-      <c r="CM19" s="27">
+      <c r="CM19" s="26">
         <v>15704.429121634676</v>
       </c>
-      <c r="CN19" s="27">
+      <c r="CN19" s="26">
         <v>17758.849756129912</v>
       </c>
-      <c r="CO19" s="27">
+      <c r="CO19" s="26">
         <v>43483.899187625917</v>
       </c>
-      <c r="CP19" s="27">
-        <v>20135.102932781792</v>
-      </c>
-      <c r="CQ19" s="11"/>
+      <c r="CP19" s="26">
+        <v>19307.415689258494</v>
+      </c>
+      <c r="CQ19" s="26">
+        <v>18443.738287681226</v>
+      </c>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
@@ -4352,9 +4372,11 @@
         <v>466396.98738902184</v>
       </c>
       <c r="CP21" s="14">
-        <v>424536.30502273148</v>
-      </c>
-      <c r="CQ21" s="11"/>
+        <v>430665.33079437778</v>
+      </c>
+      <c r="CQ21" s="14">
+        <v>465231.80099071184</v>
+      </c>
       <c r="CR21" s="11"/>
       <c r="CS21" s="11"/>
       <c r="CT21" s="11"/>
@@ -4508,6 +4530,7 @@
       <c r="CN22" s="16"/>
       <c r="CO22" s="16"/>
       <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4852,114 +4875,114 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="31">
+      <c r="B34" s="28">
         <v>2000</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28">
         <v>2001</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31">
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28">
         <v>2002</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28">
         <v>2003</v>
       </c>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31">
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28">
         <v>2004</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31">
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28">
         <v>2005</v>
       </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31">
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28">
         <v>2006</v>
       </c>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31">
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28">
         <v>2007</v>
       </c>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31">
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28">
         <v>2008</v>
       </c>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31">
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28">
         <v>2009</v>
       </c>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31">
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31">
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="28">
         <v>2011</v>
       </c>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31">
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28">
         <v>2012</v>
       </c>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31">
+      <c r="AY34" s="28"/>
+      <c r="AZ34" s="28"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="28">
         <v>2013</v>
       </c>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31">
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BE34" s="28"/>
+      <c r="BF34" s="28">
         <v>2014</v>
       </c>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31">
+      <c r="BG34" s="28"/>
+      <c r="BH34" s="28"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28">
         <v>2015</v>
       </c>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31">
+      <c r="BK34" s="28"/>
+      <c r="BL34" s="28"/>
+      <c r="BM34" s="28"/>
+      <c r="BN34" s="28">
         <v>2016</v>
       </c>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="31"/>
-      <c r="BQ34" s="31"/>
-      <c r="BR34" s="31">
+      <c r="BO34" s="28"/>
+      <c r="BP34" s="28"/>
+      <c r="BQ34" s="28"/>
+      <c r="BR34" s="28">
         <v>2017</v>
       </c>
-      <c r="BS34" s="31"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="31"/>
+      <c r="BS34" s="28"/>
+      <c r="BT34" s="28"/>
+      <c r="BU34" s="28"/>
       <c r="BV34" s="30">
         <v>2018</v>
       </c>
@@ -4990,9 +5013,10 @@
       <c r="CM34" s="29"/>
       <c r="CN34" s="29"/>
       <c r="CO34" s="29"/>
-      <c r="CP34" s="26">
+      <c r="CP34" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ34" s="31"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5274,6 +5298,9 @@
       </c>
       <c r="CP35" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ35" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5523,46 +5550,48 @@
       <c r="CC37" s="10">
         <v>64801.680409936183</v>
       </c>
-      <c r="CD37" s="27">
+      <c r="CD37" s="26">
         <v>61326.934936950114</v>
       </c>
-      <c r="CE37" s="27">
+      <c r="CE37" s="26">
         <v>33914.374794228679</v>
       </c>
-      <c r="CF37" s="27">
+      <c r="CF37" s="26">
         <v>52506.021331477779</v>
       </c>
-      <c r="CG37" s="27">
+      <c r="CG37" s="26">
         <v>55772.422902689606</v>
       </c>
-      <c r="CH37" s="27">
+      <c r="CH37" s="26">
         <v>48469.788038153369</v>
       </c>
-      <c r="CI37" s="27">
+      <c r="CI37" s="26">
         <v>49819.220653380049</v>
       </c>
-      <c r="CJ37" s="27">
+      <c r="CJ37" s="26">
         <v>64961.510733468458</v>
       </c>
-      <c r="CK37" s="27">
+      <c r="CK37" s="26">
         <v>71273.442872178304</v>
       </c>
-      <c r="CL37" s="27">
+      <c r="CL37" s="26">
         <v>65463.132122746989</v>
       </c>
-      <c r="CM37" s="27">
+      <c r="CM37" s="26">
         <v>73741.448231983406</v>
       </c>
-      <c r="CN37" s="27">
+      <c r="CN37" s="26">
         <v>100951.57153183127</v>
       </c>
-      <c r="CO37" s="27">
+      <c r="CO37" s="26">
         <v>97606.909602206899</v>
       </c>
-      <c r="CP37" s="27">
-        <v>81173.298823915218</v>
-      </c>
-      <c r="CQ37" s="11"/>
+      <c r="CP37" s="26">
+        <v>81693.778927778447</v>
+      </c>
+      <c r="CQ37" s="26">
+        <v>96480.674575227138</v>
+      </c>
       <c r="CR37" s="11"/>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
@@ -5865,46 +5894,48 @@
       <c r="CC38" s="10">
         <v>10150.061184550439</v>
       </c>
-      <c r="CD38" s="27">
+      <c r="CD38" s="26">
         <v>20422.7169796374</v>
       </c>
-      <c r="CE38" s="27">
+      <c r="CE38" s="26">
         <v>14751.641377822627</v>
       </c>
-      <c r="CF38" s="27">
+      <c r="CF38" s="26">
         <v>15767.910770272294</v>
       </c>
-      <c r="CG38" s="27">
+      <c r="CG38" s="26">
         <v>8554.3589097095992</v>
       </c>
-      <c r="CH38" s="27">
+      <c r="CH38" s="26">
         <v>23451.184825219545</v>
       </c>
-      <c r="CI38" s="27">
+      <c r="CI38" s="26">
         <v>24646.973100209358</v>
       </c>
-      <c r="CJ38" s="27">
+      <c r="CJ38" s="26">
         <v>18942.813022989623</v>
       </c>
-      <c r="CK38" s="27">
+      <c r="CK38" s="26">
         <v>11927.031782863498</v>
       </c>
-      <c r="CL38" s="27">
+      <c r="CL38" s="26">
         <v>30655.88424405938</v>
       </c>
-      <c r="CM38" s="27">
+      <c r="CM38" s="26">
         <v>29842.408740141524</v>
       </c>
-      <c r="CN38" s="27">
+      <c r="CN38" s="26">
         <v>24246.693365427058</v>
       </c>
-      <c r="CO38" s="27">
+      <c r="CO38" s="26">
         <v>12084.392593717253</v>
       </c>
-      <c r="CP38" s="27">
-        <v>28604.756453851518</v>
-      </c>
-      <c r="CQ38" s="11"/>
+      <c r="CP38" s="26">
+        <v>28677.024820534818</v>
+      </c>
+      <c r="CQ38" s="26">
+        <v>30789.518771654864</v>
+      </c>
       <c r="CR38" s="11"/>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
@@ -6207,46 +6238,48 @@
       <c r="CC39" s="10">
         <v>257514.51923617074</v>
       </c>
-      <c r="CD39" s="27">
+      <c r="CD39" s="26">
         <v>142649.00275906862</v>
       </c>
-      <c r="CE39" s="27">
+      <c r="CE39" s="26">
         <v>82937.72756409891</v>
       </c>
-      <c r="CF39" s="27">
+      <c r="CF39" s="26">
         <v>112043.57526183961</v>
       </c>
-      <c r="CG39" s="27">
+      <c r="CG39" s="26">
         <v>99390.095795647168</v>
       </c>
-      <c r="CH39" s="27">
+      <c r="CH39" s="26">
         <v>44966.442719585699</v>
       </c>
-      <c r="CI39" s="27">
+      <c r="CI39" s="26">
         <v>40240.940665961825</v>
       </c>
-      <c r="CJ39" s="27">
+      <c r="CJ39" s="26">
         <v>68323.144117398988</v>
       </c>
-      <c r="CK39" s="27">
+      <c r="CK39" s="26">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="27">
+      <c r="CL39" s="26">
         <v>74248.938600978479</v>
       </c>
-      <c r="CM39" s="27">
+      <c r="CM39" s="26">
         <v>63337.90549007689</v>
       </c>
-      <c r="CN39" s="27">
+      <c r="CN39" s="26">
         <v>117275.04901732334</v>
       </c>
-      <c r="CO39" s="27">
+      <c r="CO39" s="26">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="27">
-        <v>119833.28214483011</v>
-      </c>
-      <c r="CQ39" s="11"/>
+      <c r="CP39" s="26">
+        <v>123441.60812228297</v>
+      </c>
+      <c r="CQ39" s="26">
+        <v>112711.915886658</v>
+      </c>
       <c r="CR39" s="11"/>
       <c r="CS39" s="11"/>
       <c r="CT39" s="11"/>
@@ -6549,46 +6582,48 @@
       <c r="CC40" s="10">
         <v>6714.8157218354836</v>
       </c>
-      <c r="CD40" s="27">
+      <c r="CD40" s="26">
         <v>5627.9059695102651</v>
       </c>
-      <c r="CE40" s="27">
+      <c r="CE40" s="26">
         <v>4399.1771274858929</v>
       </c>
-      <c r="CF40" s="27">
+      <c r="CF40" s="26">
         <v>4801.1070498634544</v>
       </c>
-      <c r="CG40" s="27">
+      <c r="CG40" s="26">
         <v>5009.4938772169016</v>
       </c>
-      <c r="CH40" s="27">
+      <c r="CH40" s="26">
         <v>5679.1337296377524</v>
       </c>
-      <c r="CI40" s="27">
+      <c r="CI40" s="26">
         <v>4507.0288915022302</v>
       </c>
-      <c r="CJ40" s="27">
+      <c r="CJ40" s="26">
         <v>4854.7731274196631</v>
       </c>
-      <c r="CK40" s="27">
+      <c r="CK40" s="26">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="27">
+      <c r="CL40" s="26">
         <v>5657.089442415454</v>
       </c>
-      <c r="CM40" s="27">
+      <c r="CM40" s="26">
         <v>4423.042275148362</v>
       </c>
-      <c r="CN40" s="27">
+      <c r="CN40" s="26">
         <v>4864.2388164691256</v>
       </c>
-      <c r="CO40" s="27">
+      <c r="CO40" s="26">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="27">
-        <v>5275.7476829128109</v>
-      </c>
-      <c r="CQ40" s="11"/>
+      <c r="CP40" s="26">
+        <v>5216.5593547111621</v>
+      </c>
+      <c r="CQ40" s="26">
+        <v>4526.6547235209382</v>
+      </c>
       <c r="CR40" s="11"/>
       <c r="CS40" s="11"/>
       <c r="CT40" s="11"/>
@@ -6891,46 +6926,48 @@
       <c r="CC41" s="10">
         <v>14832.158078880675</v>
       </c>
-      <c r="CD41" s="27">
+      <c r="CD41" s="26">
         <v>20996.639621719332</v>
       </c>
-      <c r="CE41" s="27">
+      <c r="CE41" s="26">
         <v>17302.357567779261</v>
       </c>
-      <c r="CF41" s="27">
+      <c r="CF41" s="26">
         <v>14003.190699812041</v>
       </c>
-      <c r="CG41" s="27">
+      <c r="CG41" s="26">
         <v>18950.325767817922</v>
       </c>
-      <c r="CH41" s="27">
+      <c r="CH41" s="26">
         <v>30561.830927776209</v>
       </c>
-      <c r="CI41" s="27">
+      <c r="CI41" s="26">
         <v>29703.279722397103</v>
       </c>
-      <c r="CJ41" s="27">
+      <c r="CJ41" s="26">
         <v>19898.02283507834</v>
       </c>
-      <c r="CK41" s="27">
+      <c r="CK41" s="26">
         <v>21511.767531166046</v>
       </c>
-      <c r="CL41" s="27">
+      <c r="CL41" s="26">
         <v>31686.386603363273</v>
       </c>
-      <c r="CM41" s="27">
+      <c r="CM41" s="26">
         <v>24522.178278769905</v>
       </c>
-      <c r="CN41" s="27">
+      <c r="CN41" s="26">
         <v>26373.159234028655</v>
       </c>
-      <c r="CO41" s="27">
+      <c r="CO41" s="26">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="27">
-        <v>34692.844020509117</v>
-      </c>
-      <c r="CQ41" s="11"/>
+      <c r="CP41" s="26">
+        <v>33174.378483746579</v>
+      </c>
+      <c r="CQ41" s="26">
+        <v>24066.040860915964</v>
+      </c>
       <c r="CR41" s="11"/>
       <c r="CS41" s="11"/>
       <c r="CT41" s="11"/>
@@ -7233,46 +7270,48 @@
       <c r="CC42" s="10">
         <v>81660.924186886157</v>
       </c>
-      <c r="CD42" s="27">
+      <c r="CD42" s="26">
         <v>97906.523479371841</v>
       </c>
-      <c r="CE42" s="27">
+      <c r="CE42" s="26">
         <v>46419.466665149135</v>
       </c>
-      <c r="CF42" s="27">
+      <c r="CF42" s="26">
         <v>50256.070026286041</v>
       </c>
-      <c r="CG42" s="27">
+      <c r="CG42" s="26">
         <v>58293.603334826606</v>
       </c>
-      <c r="CH42" s="27">
+      <c r="CH42" s="26">
         <v>79362.262446508073</v>
       </c>
-      <c r="CI42" s="27">
+      <c r="CI42" s="26">
         <v>55375.311527468963</v>
       </c>
-      <c r="CJ42" s="27">
+      <c r="CJ42" s="26">
         <v>54854.538198362068</v>
       </c>
-      <c r="CK42" s="27">
+      <c r="CK42" s="26">
         <v>68290.96805325427</v>
       </c>
-      <c r="CL42" s="27">
+      <c r="CL42" s="26">
         <v>107658.4772746901</v>
       </c>
-      <c r="CM42" s="27">
+      <c r="CM42" s="26">
         <v>76045.567275541456</v>
       </c>
-      <c r="CN42" s="27">
+      <c r="CN42" s="26">
         <v>88438.723883617175</v>
       </c>
-      <c r="CO42" s="27">
+      <c r="CO42" s="26">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="27">
-        <v>115291.71842020721</v>
-      </c>
-      <c r="CQ42" s="11"/>
+      <c r="CP42" s="26">
+        <v>118116.1769412344</v>
+      </c>
+      <c r="CQ42" s="26">
+        <v>97528.216759631192</v>
+      </c>
       <c r="CR42" s="11"/>
       <c r="CS42" s="11"/>
       <c r="CT42" s="11"/>
@@ -7575,46 +7614,48 @@
       <c r="CC43" s="10">
         <v>12922.6844675268</v>
       </c>
-      <c r="CD43" s="27">
+      <c r="CD43" s="26">
         <v>14919.683933816232</v>
       </c>
-      <c r="CE43" s="27">
+      <c r="CE43" s="26">
         <v>5608.4532343837782</v>
       </c>
-      <c r="CF43" s="27">
+      <c r="CF43" s="26">
         <v>4856.1512556218304</v>
       </c>
-      <c r="CG43" s="27">
+      <c r="CG43" s="26">
         <v>7551.3426498558965</v>
       </c>
-      <c r="CH43" s="27">
+      <c r="CH43" s="26">
         <v>7473.9852212926062</v>
       </c>
-      <c r="CI43" s="27">
+      <c r="CI43" s="26">
         <v>7388.7698321664839</v>
       </c>
-      <c r="CJ43" s="27">
+      <c r="CJ43" s="26">
         <v>7055.18510035081</v>
       </c>
-      <c r="CK43" s="27">
+      <c r="CK43" s="26">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="27">
+      <c r="CL43" s="26">
         <v>8777.79798832507</v>
       </c>
-      <c r="CM43" s="27">
+      <c r="CM43" s="26">
         <v>6176.0969761237629</v>
       </c>
-      <c r="CN43" s="27">
+      <c r="CN43" s="26">
         <v>8722.4214166068523</v>
       </c>
-      <c r="CO43" s="27">
+      <c r="CO43" s="26">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="27">
-        <v>8330.0544860949358</v>
-      </c>
-      <c r="CQ43" s="11"/>
+      <c r="CP43" s="26">
+        <v>9247.8830546496483</v>
+      </c>
+      <c r="CQ43" s="26">
+        <v>6187.830506803055</v>
+      </c>
       <c r="CR43" s="11"/>
       <c r="CS43" s="11"/>
       <c r="CT43" s="11"/>
@@ -7917,46 +7958,48 @@
       <c r="CC44" s="10">
         <v>26251.877647424528</v>
       </c>
-      <c r="CD44" s="27">
+      <c r="CD44" s="26">
         <v>13604.674185082638</v>
       </c>
-      <c r="CE44" s="27">
+      <c r="CE44" s="26">
         <v>9444.6829102858501</v>
       </c>
-      <c r="CF44" s="27">
+      <c r="CF44" s="26">
         <v>6353.408586677705</v>
       </c>
-      <c r="CG44" s="27">
+      <c r="CG44" s="26">
         <v>13688.576578580429</v>
       </c>
-      <c r="CH44" s="27">
+      <c r="CH44" s="26">
         <v>10104.080816876256</v>
       </c>
-      <c r="CI44" s="27">
+      <c r="CI44" s="26">
         <v>6260.9375789954502</v>
       </c>
-      <c r="CJ44" s="27">
+      <c r="CJ44" s="26">
         <v>6689.2508409322709</v>
       </c>
-      <c r="CK44" s="27">
+      <c r="CK44" s="26">
         <v>14155.001436112121</v>
       </c>
-      <c r="CL44" s="27">
+      <c r="CL44" s="26">
         <v>16228.514766005081</v>
       </c>
-      <c r="CM44" s="27">
+      <c r="CM44" s="26">
         <v>13565.303601549647</v>
       </c>
-      <c r="CN44" s="27">
+      <c r="CN44" s="26">
         <v>16274.78835007403</v>
       </c>
-      <c r="CO44" s="27">
+      <c r="CO44" s="26">
         <v>39277.580084628244</v>
       </c>
-      <c r="CP44" s="27">
-        <v>22087.035413683658</v>
-      </c>
-      <c r="CQ44" s="11"/>
+      <c r="CP44" s="26">
+        <v>21179.110705268595</v>
+      </c>
+      <c r="CQ44" s="26">
+        <v>15226.311395547053</v>
+      </c>
       <c r="CR44" s="11"/>
       <c r="CS44" s="11"/>
       <c r="CT44" s="11"/>
@@ -8449,9 +8492,11 @@
         <v>453210.31140857324</v>
       </c>
       <c r="CP46" s="14">
-        <v>415288.73744600458</v>
-      </c>
-      <c r="CQ46" s="11"/>
+        <v>420746.52041020658</v>
+      </c>
+      <c r="CQ46" s="14">
+        <v>387517.1634799582</v>
+      </c>
       <c r="CR46" s="11"/>
       <c r="CS46" s="11"/>
       <c r="CT46" s="11"/>
@@ -8605,6 +8650,7 @@
       <c r="CN47" s="16"/>
       <c r="CO47" s="16"/>
       <c r="CP47" s="16"/>
+      <c r="CQ47" s="16"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -9057,18 +9103,18 @@
       <c r="BS59" s="29"/>
       <c r="BT59" s="29"/>
       <c r="BU59" s="29"/>
-      <c r="BV59" s="31" t="s">
+      <c r="BV59" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="31"/>
-      <c r="BX59" s="31"/>
-      <c r="BY59" s="31"/>
-      <c r="BZ59" s="31" t="s">
+      <c r="BW59" s="28"/>
+      <c r="BX59" s="28"/>
+      <c r="BY59" s="28"/>
+      <c r="BZ59" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="31"/>
-      <c r="CB59" s="31"/>
-      <c r="CC59" s="31"/>
+      <c r="CA59" s="28"/>
+      <c r="CB59" s="28"/>
+      <c r="CC59" s="28"/>
       <c r="CD59" s="29" t="s">
         <v>51</v>
       </c>
@@ -9081,13 +9127,16 @@
       <c r="CI59" s="29"/>
       <c r="CJ59" s="29"/>
       <c r="CK59" s="29"/>
-      <c r="CL59" s="26" t="s">
+      <c r="CL59" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="26"/>
-      <c r="CN59" s="26"/>
-      <c r="CO59" s="26"/>
-      <c r="CP59" s="26"/>
+      <c r="CM59" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN59" s="29"/>
+      <c r="CO59" s="29"/>
+      <c r="CP59" s="29"/>
+      <c r="CQ59" s="31"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9358,10 +9407,13 @@
       <c r="CL60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="7"/>
+      <c r="CM60" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="CN60" s="7"/>
       <c r="CO60" s="7"/>
       <c r="CP60" s="7"/>
+      <c r="CQ60" s="7"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -9635,13 +9687,15 @@
         <v>37.23340660242323</v>
       </c>
       <c r="CL62" s="20">
-        <v>30.952351778884804</v>
-      </c>
-      <c r="CM62" s="20"/>
+        <v>31.792013276477263</v>
+      </c>
+      <c r="CM62" s="20">
+        <v>38.122184954160161</v>
+      </c>
       <c r="CN62" s="20"/>
       <c r="CO62" s="20"/>
       <c r="CP62" s="20"/>
-      <c r="CQ62" s="11"/>
+      <c r="CQ62" s="20"/>
       <c r="CR62" s="11"/>
       <c r="CS62" s="11"/>
       <c r="CT62" s="11"/>
@@ -9965,13 +10019,15 @@
         <v>3.7093831009075302</v>
       </c>
       <c r="CL63" s="20">
-        <v>0.27106866833521792</v>
-      </c>
-      <c r="CM63" s="20"/>
+        <v>0.52439808821473832</v>
+      </c>
+      <c r="CM63" s="20">
+        <v>7.9519855266324129</v>
+      </c>
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
       <c r="CP63" s="20"/>
-      <c r="CQ63" s="11"/>
+      <c r="CQ63" s="20"/>
       <c r="CR63" s="11"/>
       <c r="CS63" s="11"/>
       <c r="CT63" s="11"/>
@@ -10295,13 +10351,15 @@
         <v>79.444531646878943</v>
       </c>
       <c r="CL64" s="20">
-        <v>74.039346109907711</v>
-      </c>
-      <c r="CM64" s="20"/>
+        <v>79.279882648899473</v>
+      </c>
+      <c r="CM64" s="20">
+        <v>101.45190844275595</v>
+      </c>
       <c r="CN64" s="20"/>
       <c r="CO64" s="20"/>
       <c r="CP64" s="20"/>
-      <c r="CQ64" s="11"/>
+      <c r="CQ64" s="20"/>
       <c r="CR64" s="11"/>
       <c r="CS64" s="11"/>
       <c r="CT64" s="11"/>
@@ -10625,13 +10683,15 @@
         <v>1.1678899539499241</v>
       </c>
       <c r="CL65" s="20">
-        <v>0.21718697333521675</v>
-      </c>
-      <c r="CM65" s="20"/>
+        <v>-0.90714423250227583</v>
+      </c>
+      <c r="CM65" s="20">
+        <v>7.0823483806624807</v>
+      </c>
       <c r="CN65" s="20"/>
       <c r="CO65" s="20"/>
       <c r="CP65" s="20"/>
-      <c r="CQ65" s="11"/>
+      <c r="CQ65" s="20"/>
       <c r="CR65" s="11"/>
       <c r="CS65" s="11"/>
       <c r="CT65" s="11"/>
@@ -10955,13 +11015,15 @@
         <v>22.979646526647215</v>
       </c>
       <c r="CL66" s="20">
-        <v>17.657176868128005</v>
-      </c>
-      <c r="CM66" s="20"/>
+        <v>12.507458726789977</v>
+      </c>
+      <c r="CM66" s="20">
+        <v>2.6850484112464414</v>
+      </c>
       <c r="CN66" s="20"/>
       <c r="CO66" s="20"/>
       <c r="CP66" s="20"/>
-      <c r="CQ66" s="11"/>
+      <c r="CQ66" s="20"/>
       <c r="CR66" s="11"/>
       <c r="CS66" s="11"/>
       <c r="CT66" s="11"/>
@@ -11285,13 +11347,15 @@
         <v>31.44501362956629</v>
       </c>
       <c r="CL67" s="20">
-        <v>15.0803346624445</v>
-      </c>
-      <c r="CM67" s="20"/>
+        <v>17.899614627162492</v>
+      </c>
+      <c r="CM67" s="20">
+        <v>34.18933092439579</v>
+      </c>
       <c r="CN67" s="20"/>
       <c r="CO67" s="20"/>
       <c r="CP67" s="20"/>
-      <c r="CQ67" s="11"/>
+      <c r="CQ67" s="20"/>
       <c r="CR67" s="11"/>
       <c r="CS67" s="11"/>
       <c r="CT67" s="11"/>
@@ -11615,13 +11679,15 @@
         <v>-12.93777816295983</v>
       </c>
       <c r="CL68" s="20">
-        <v>1.9796452645303617</v>
-      </c>
-      <c r="CM68" s="20"/>
+        <v>13.216046177766174</v>
+      </c>
+      <c r="CM68" s="20">
+        <v>4.8300783976870747</v>
+      </c>
       <c r="CN68" s="20"/>
       <c r="CO68" s="20"/>
       <c r="CP68" s="20"/>
-      <c r="CQ68" s="11"/>
+      <c r="CQ68" s="20"/>
       <c r="CR68" s="11"/>
       <c r="CS68" s="11"/>
       <c r="CT68" s="11"/>
@@ -11945,13 +12011,15 @@
         <v>184.02751000759213</v>
       </c>
       <c r="CL69" s="20">
-        <v>46.254719468103929</v>
-      </c>
-      <c r="CM69" s="20"/>
+        <v>40.242673440182074</v>
+      </c>
+      <c r="CM69" s="20">
+        <v>17.442908270207894</v>
+      </c>
       <c r="CN69" s="20"/>
       <c r="CO69" s="20"/>
       <c r="CP69" s="20"/>
-      <c r="CQ69" s="11"/>
+      <c r="CQ69" s="20"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
@@ -12424,13 +12492,15 @@
         <v>51.512488535353384</v>
       </c>
       <c r="CL71" s="20">
-        <v>33.838542496230758</v>
-      </c>
-      <c r="CM71" s="20"/>
+        <v>35.770768000843475</v>
+      </c>
+      <c r="CM71" s="20">
+        <v>42.029593845766044</v>
+      </c>
       <c r="CN71" s="20"/>
       <c r="CO71" s="20"/>
       <c r="CP71" s="20"/>
-      <c r="CQ71" s="11"/>
+      <c r="CQ71" s="20"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
@@ -12580,6 +12650,7 @@
       <c r="CN72" s="16"/>
       <c r="CO72" s="16"/>
       <c r="CP72" s="16"/>
+      <c r="CQ72" s="16"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
@@ -13024,18 +13095,18 @@
       <c r="BS84" s="29"/>
       <c r="BT84" s="29"/>
       <c r="BU84" s="29"/>
-      <c r="BV84" s="31" t="s">
+      <c r="BV84" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="31" t="s">
+      <c r="BW84" s="28"/>
+      <c r="BX84" s="28"/>
+      <c r="BY84" s="28"/>
+      <c r="BZ84" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
       <c r="CD84" s="29" t="s">
         <v>51</v>
       </c>
@@ -13048,13 +13119,16 @@
       <c r="CI84" s="29"/>
       <c r="CJ84" s="29"/>
       <c r="CK84" s="29"/>
-      <c r="CL84" s="26" t="s">
+      <c r="CL84" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="26"/>
-      <c r="CN84" s="26"/>
-      <c r="CO84" s="26"/>
-      <c r="CP84" s="26"/>
+      <c r="CM84" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN84" s="29"/>
+      <c r="CO84" s="29"/>
+      <c r="CP84" s="29"/>
+      <c r="CQ84" s="31"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13325,10 +13399,13 @@
       <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6"/>
+      <c r="CM85" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN85" s="6"/>
       <c r="CO85" s="6"/>
       <c r="CP85" s="6"/>
+      <c r="CQ85" s="6"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
@@ -13602,13 +13679,15 @@
         <v>36.947095115434507</v>
       </c>
       <c r="CL87" s="20">
-        <v>23.998495323613284</v>
-      </c>
-      <c r="CM87" s="20"/>
+        <v>24.793568958170368</v>
+      </c>
+      <c r="CM87" s="20">
+        <v>30.836424952908914</v>
+      </c>
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
       <c r="CP87" s="20"/>
-      <c r="CQ87" s="11"/>
+      <c r="CQ87" s="20"/>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
@@ -13932,13 +14011,15 @@
         <v>1.3193627192295025</v>
       </c>
       <c r="CL88" s="20">
-        <v>-6.690812680131188</v>
-      </c>
-      <c r="CM88" s="20"/>
+        <v>-6.4550720761154707</v>
+      </c>
+      <c r="CM88" s="20">
+        <v>3.1737050442559109</v>
+      </c>
       <c r="CN88" s="20"/>
       <c r="CO88" s="20"/>
       <c r="CP88" s="20"/>
-      <c r="CQ88" s="11"/>
+      <c r="CQ88" s="20"/>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
@@ -14262,13 +14343,15 @@
         <v>75.586048994618437</v>
       </c>
       <c r="CL89" s="20">
-        <v>61.393932900275701</v>
-      </c>
-      <c r="CM89" s="20"/>
+        <v>66.253700656478088</v>
+      </c>
+      <c r="CM89" s="20">
+        <v>77.95333618083805</v>
+      </c>
       <c r="CN89" s="20"/>
       <c r="CO89" s="20"/>
       <c r="CP89" s="20"/>
-      <c r="CQ89" s="11"/>
+      <c r="CQ89" s="20"/>
       <c r="CR89" s="11"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
@@ -14592,13 +14675,15 @@
         <v>-1.1635607955549858</v>
       </c>
       <c r="CL90" s="20">
-        <v>-6.7409533362410201</v>
-      </c>
-      <c r="CM90" s="20"/>
+        <v>-7.7872215418993846</v>
+      </c>
+      <c r="CM90" s="20">
+        <v>2.3425606613515839</v>
+      </c>
       <c r="CN90" s="20"/>
       <c r="CO90" s="20"/>
       <c r="CP90" s="20"/>
-      <c r="CQ90" s="11"/>
+      <c r="CQ90" s="20"/>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
@@ -14922,13 +15007,15 @@
         <v>20.145535928917965</v>
       </c>
       <c r="CL91" s="20">
-        <v>9.4881674416821227</v>
-      </c>
-      <c r="CM91" s="20"/>
+        <v>4.6959973663433345</v>
+      </c>
+      <c r="CM91" s="20">
+        <v>-1.8601015483556864</v>
+      </c>
       <c r="CN91" s="20"/>
       <c r="CO91" s="20"/>
       <c r="CP91" s="20"/>
-      <c r="CQ91" s="11"/>
+      <c r="CQ91" s="20"/>
       <c r="CR91" s="11"/>
       <c r="CS91" s="11"/>
       <c r="CT91" s="11"/>
@@ -15252,13 +15339,15 @@
         <v>28.415815573890455</v>
       </c>
       <c r="CL92" s="20">
-        <v>7.0902369592697596</v>
-      </c>
-      <c r="CM92" s="20"/>
+        <v>9.7137725994967781</v>
+      </c>
+      <c r="CM92" s="20">
+        <v>28.249706398073243</v>
+      </c>
       <c r="CN92" s="20"/>
       <c r="CO92" s="20"/>
       <c r="CP92" s="20"/>
-      <c r="CQ92" s="11"/>
+      <c r="CQ92" s="20"/>
       <c r="CR92" s="11"/>
       <c r="CS92" s="11"/>
       <c r="CT92" s="11"/>
@@ -15582,13 +15671,15 @@
         <v>-14.944158670133817</v>
       </c>
       <c r="CL93" s="20">
-        <v>-5.100863597290072</v>
-      </c>
-      <c r="CM93" s="20"/>
+        <v>5.3553871591692541</v>
+      </c>
+      <c r="CM93" s="20">
+        <v>0.18998294108160962</v>
+      </c>
       <c r="CN93" s="20"/>
       <c r="CO93" s="20"/>
       <c r="CP93" s="20"/>
-      <c r="CQ93" s="11"/>
+      <c r="CQ93" s="20"/>
       <c r="CR93" s="11"/>
       <c r="CS93" s="11"/>
       <c r="CT93" s="11"/>
@@ -15912,13 +16003,15 @@
         <v>177.48199293306754</v>
       </c>
       <c r="CL94" s="20">
-        <v>36.100165247104428</v>
-      </c>
-      <c r="CM94" s="20"/>
+        <v>30.505539235382429</v>
+      </c>
+      <c r="CM94" s="20">
+        <v>12.244530920838798</v>
+      </c>
       <c r="CN94" s="20"/>
       <c r="CO94" s="20"/>
       <c r="CP94" s="20"/>
-      <c r="CQ94" s="11"/>
+      <c r="CQ94" s="20"/>
       <c r="CR94" s="11"/>
       <c r="CS94" s="11"/>
       <c r="CT94" s="11"/>
@@ -16391,13 +16484,15 @@
         <v>49.788192054729905</v>
       </c>
       <c r="CL96" s="20">
-        <v>22.008739674575722</v>
-      </c>
-      <c r="CM96" s="20"/>
+        <v>23.612195682014956</v>
+      </c>
+      <c r="CM96" s="20">
+        <v>32.868820163376199</v>
+      </c>
       <c r="CN96" s="20"/>
       <c r="CO96" s="20"/>
       <c r="CP96" s="20"/>
-      <c r="CQ96" s="11"/>
+      <c r="CQ96" s="20"/>
       <c r="CR96" s="11"/>
       <c r="CS96" s="11"/>
       <c r="CT96" s="11"/>
@@ -16547,6 +16642,7 @@
       <c r="CN97" s="16"/>
       <c r="CO97" s="16"/>
       <c r="CP97" s="16"/>
+      <c r="CQ97" s="16"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
@@ -16878,114 +16974,114 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="31">
+      <c r="B108" s="28">
         <v>2000</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31">
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28">
         <v>2001</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31">
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28">
         <v>2002</v>
       </c>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31">
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28">
         <v>2003</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31">
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28">
         <v>2004</v>
       </c>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="31">
+      <c r="S108" s="28"/>
+      <c r="T108" s="28"/>
+      <c r="U108" s="28"/>
+      <c r="V108" s="28">
         <v>2005</v>
       </c>
-      <c r="W108" s="31"/>
-      <c r="X108" s="31"/>
-      <c r="Y108" s="31"/>
-      <c r="Z108" s="31">
+      <c r="W108" s="28"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28">
         <v>2006</v>
       </c>
-      <c r="AA108" s="31"/>
-      <c r="AB108" s="31"/>
-      <c r="AC108" s="31"/>
-      <c r="AD108" s="31">
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28">
         <v>2007</v>
       </c>
-      <c r="AE108" s="31"/>
-      <c r="AF108" s="31"/>
-      <c r="AG108" s="31"/>
-      <c r="AH108" s="31">
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="28"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="28">
         <v>2008</v>
       </c>
-      <c r="AI108" s="31"/>
-      <c r="AJ108" s="31"/>
-      <c r="AK108" s="31"/>
-      <c r="AL108" s="31">
+      <c r="AI108" s="28"/>
+      <c r="AJ108" s="28"/>
+      <c r="AK108" s="28"/>
+      <c r="AL108" s="28">
         <v>2009</v>
       </c>
-      <c r="AM108" s="31"/>
-      <c r="AN108" s="31"/>
-      <c r="AO108" s="31"/>
-      <c r="AP108" s="31">
+      <c r="AM108" s="28"/>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="31"/>
-      <c r="AR108" s="31"/>
-      <c r="AS108" s="31"/>
-      <c r="AT108" s="31">
+      <c r="AQ108" s="28"/>
+      <c r="AR108" s="28"/>
+      <c r="AS108" s="28"/>
+      <c r="AT108" s="28">
         <v>2011</v>
       </c>
-      <c r="AU108" s="31"/>
-      <c r="AV108" s="31"/>
-      <c r="AW108" s="31"/>
-      <c r="AX108" s="31">
+      <c r="AU108" s="28"/>
+      <c r="AV108" s="28"/>
+      <c r="AW108" s="28"/>
+      <c r="AX108" s="28">
         <v>2012</v>
       </c>
-      <c r="AY108" s="31"/>
-      <c r="AZ108" s="31"/>
-      <c r="BA108" s="31"/>
-      <c r="BB108" s="31">
+      <c r="AY108" s="28"/>
+      <c r="AZ108" s="28"/>
+      <c r="BA108" s="28"/>
+      <c r="BB108" s="28">
         <v>2013</v>
       </c>
-      <c r="BC108" s="31"/>
-      <c r="BD108" s="31"/>
-      <c r="BE108" s="31"/>
-      <c r="BF108" s="31">
+      <c r="BC108" s="28"/>
+      <c r="BD108" s="28"/>
+      <c r="BE108" s="28"/>
+      <c r="BF108" s="28">
         <v>2014</v>
       </c>
-      <c r="BG108" s="31"/>
-      <c r="BH108" s="31"/>
-      <c r="BI108" s="31"/>
-      <c r="BJ108" s="31">
+      <c r="BG108" s="28"/>
+      <c r="BH108" s="28"/>
+      <c r="BI108" s="28"/>
+      <c r="BJ108" s="28">
         <v>2015</v>
       </c>
-      <c r="BK108" s="31"/>
-      <c r="BL108" s="31"/>
-      <c r="BM108" s="31"/>
-      <c r="BN108" s="31">
+      <c r="BK108" s="28"/>
+      <c r="BL108" s="28"/>
+      <c r="BM108" s="28"/>
+      <c r="BN108" s="28">
         <v>2016</v>
       </c>
-      <c r="BO108" s="31"/>
-      <c r="BP108" s="31"/>
-      <c r="BQ108" s="31"/>
-      <c r="BR108" s="31">
+      <c r="BO108" s="28"/>
+      <c r="BP108" s="28"/>
+      <c r="BQ108" s="28"/>
+      <c r="BR108" s="28">
         <v>2017</v>
       </c>
-      <c r="BS108" s="31"/>
-      <c r="BT108" s="31"/>
-      <c r="BU108" s="31"/>
+      <c r="BS108" s="28"/>
+      <c r="BT108" s="28"/>
+      <c r="BU108" s="28"/>
       <c r="BV108" s="30">
         <v>2018</v>
       </c>
@@ -17016,9 +17112,10 @@
       <c r="CM108" s="29"/>
       <c r="CN108" s="29"/>
       <c r="CO108" s="29"/>
-      <c r="CP108" s="26">
+      <c r="CP108" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ108" s="31"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17300,6 +17397,9 @@
       </c>
       <c r="CP109" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ109" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17588,7 +17688,9 @@
       <c r="CP111" s="20">
         <v>103.69643191424717</v>
       </c>
-      <c r="CQ111" s="11"/>
+      <c r="CQ111" s="20">
+        <v>112.09721661517884</v>
+      </c>
       <c r="CR111" s="11"/>
       <c r="CS111" s="11"/>
       <c r="CT111" s="11"/>
@@ -17930,7 +18032,9 @@
       <c r="CP112" s="20">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="11"/>
+      <c r="CQ112" s="20">
+        <v>125.93799676137598</v>
+      </c>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
@@ -18272,7 +18376,9 @@
       <c r="CP113" s="20">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="11"/>
+      <c r="CQ113" s="20">
+        <v>125.11983909328738</v>
+      </c>
       <c r="CR113" s="11"/>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
@@ -18612,9 +18718,11 @@
         <v>107.55220669258424</v>
       </c>
       <c r="CP114" s="20">
-        <v>96.194341953179972</v>
-      </c>
-      <c r="CQ114" s="11"/>
+        <v>96.19434195318</v>
+      </c>
+      <c r="CQ114" s="20">
+        <v>117.32074155562185</v>
+      </c>
       <c r="CR114" s="11"/>
       <c r="CS114" s="11"/>
       <c r="CT114" s="11"/>
@@ -18954,9 +19062,11 @@
         <v>110.53245631699293</v>
       </c>
       <c r="CP115" s="20">
-        <v>92.341616543746795</v>
-      </c>
-      <c r="CQ115" s="11"/>
+        <v>92.341616543746824</v>
+      </c>
+      <c r="CQ115" s="20">
+        <v>121.54253528128768</v>
+      </c>
       <c r="CR115" s="11"/>
       <c r="CS115" s="11"/>
       <c r="CT115" s="11"/>
@@ -19298,7 +19408,9 @@
       <c r="CP116" s="20">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="11"/>
+      <c r="CQ116" s="20">
+        <v>119.69199275927636</v>
+      </c>
       <c r="CR116" s="11"/>
       <c r="CS116" s="11"/>
       <c r="CT116" s="11"/>
@@ -19638,9 +19750,11 @@
         <v>111.46705950406977</v>
       </c>
       <c r="CP117" s="20">
-        <v>91.807772308412538</v>
-      </c>
-      <c r="CQ117" s="11"/>
+        <v>91.807772308412552</v>
+      </c>
+      <c r="CQ117" s="20">
+        <v>121.86167250137024</v>
+      </c>
       <c r="CR117" s="11"/>
       <c r="CS117" s="11"/>
       <c r="CT117" s="11"/>
@@ -19980,9 +20094,11 @@
         <v>110.70921144819678</v>
       </c>
       <c r="CP118" s="20">
-        <v>91.162541987447625</v>
-      </c>
-      <c r="CQ118" s="11"/>
+        <v>91.162541987447611</v>
+      </c>
+      <c r="CQ118" s="20">
+        <v>121.13070466347557</v>
+      </c>
       <c r="CR118" s="11"/>
       <c r="CS118" s="11"/>
       <c r="CT118" s="11"/>
@@ -20475,9 +20591,11 @@
         <v>102.9096151716991</v>
       </c>
       <c r="CP120" s="20">
-        <v>102.22678024778587</v>
-      </c>
-      <c r="CQ120" s="11"/>
+        <v>102.35743135189826</v>
+      </c>
+      <c r="CQ120" s="20">
+        <v>120.05450205427428</v>
+      </c>
       <c r="CR120" s="11"/>
       <c r="CS120" s="11"/>
       <c r="CT120" s="11"/>
@@ -20631,6 +20749,7 @@
       <c r="CN121" s="16"/>
       <c r="CO121" s="16"/>
       <c r="CP121" s="16"/>
+      <c r="CQ121" s="16"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -20669,114 +20788,114 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="31">
+      <c r="B133" s="28">
         <v>2000</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31">
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28">
         <v>2001</v>
       </c>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31">
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28">
         <v>2002</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="31">
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="28">
         <v>2003</v>
       </c>
-      <c r="O133" s="31"/>
-      <c r="P133" s="31"/>
-      <c r="Q133" s="31"/>
-      <c r="R133" s="31">
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28">
         <v>2004</v>
       </c>
-      <c r="S133" s="31"/>
-      <c r="T133" s="31"/>
-      <c r="U133" s="31"/>
-      <c r="V133" s="31">
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28">
         <v>2005</v>
       </c>
-      <c r="W133" s="31"/>
-      <c r="X133" s="31"/>
-      <c r="Y133" s="31"/>
-      <c r="Z133" s="31">
+      <c r="W133" s="28"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="28"/>
+      <c r="Z133" s="28">
         <v>2006</v>
       </c>
-      <c r="AA133" s="31"/>
-      <c r="AB133" s="31"/>
-      <c r="AC133" s="31"/>
-      <c r="AD133" s="31">
+      <c r="AA133" s="28"/>
+      <c r="AB133" s="28"/>
+      <c r="AC133" s="28"/>
+      <c r="AD133" s="28">
         <v>2007</v>
       </c>
-      <c r="AE133" s="31"/>
-      <c r="AF133" s="31"/>
-      <c r="AG133" s="31"/>
-      <c r="AH133" s="31">
+      <c r="AE133" s="28"/>
+      <c r="AF133" s="28"/>
+      <c r="AG133" s="28"/>
+      <c r="AH133" s="28">
         <v>2008</v>
       </c>
-      <c r="AI133" s="31"/>
-      <c r="AJ133" s="31"/>
-      <c r="AK133" s="31"/>
-      <c r="AL133" s="31">
+      <c r="AI133" s="28"/>
+      <c r="AJ133" s="28"/>
+      <c r="AK133" s="28"/>
+      <c r="AL133" s="28">
         <v>2009</v>
       </c>
-      <c r="AM133" s="31"/>
-      <c r="AN133" s="31"/>
-      <c r="AO133" s="31"/>
-      <c r="AP133" s="31">
+      <c r="AM133" s="28"/>
+      <c r="AN133" s="28"/>
+      <c r="AO133" s="28"/>
+      <c r="AP133" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="31"/>
-      <c r="AR133" s="31"/>
-      <c r="AS133" s="31"/>
-      <c r="AT133" s="31">
+      <c r="AQ133" s="28"/>
+      <c r="AR133" s="28"/>
+      <c r="AS133" s="28"/>
+      <c r="AT133" s="28">
         <v>2011</v>
       </c>
-      <c r="AU133" s="31"/>
-      <c r="AV133" s="31"/>
-      <c r="AW133" s="31"/>
-      <c r="AX133" s="31">
+      <c r="AU133" s="28"/>
+      <c r="AV133" s="28"/>
+      <c r="AW133" s="28"/>
+      <c r="AX133" s="28">
         <v>2012</v>
       </c>
-      <c r="AY133" s="31"/>
-      <c r="AZ133" s="31"/>
-      <c r="BA133" s="31"/>
-      <c r="BB133" s="31">
+      <c r="AY133" s="28"/>
+      <c r="AZ133" s="28"/>
+      <c r="BA133" s="28"/>
+      <c r="BB133" s="28">
         <v>2013</v>
       </c>
-      <c r="BC133" s="31"/>
-      <c r="BD133" s="31"/>
-      <c r="BE133" s="31"/>
-      <c r="BF133" s="31">
+      <c r="BC133" s="28"/>
+      <c r="BD133" s="28"/>
+      <c r="BE133" s="28"/>
+      <c r="BF133" s="28">
         <v>2014</v>
       </c>
-      <c r="BG133" s="31"/>
-      <c r="BH133" s="31"/>
-      <c r="BI133" s="31"/>
-      <c r="BJ133" s="31">
+      <c r="BG133" s="28"/>
+      <c r="BH133" s="28"/>
+      <c r="BI133" s="28"/>
+      <c r="BJ133" s="28">
         <v>2015</v>
       </c>
-      <c r="BK133" s="31"/>
-      <c r="BL133" s="31"/>
-      <c r="BM133" s="31"/>
-      <c r="BN133" s="31">
+      <c r="BK133" s="28"/>
+      <c r="BL133" s="28"/>
+      <c r="BM133" s="28"/>
+      <c r="BN133" s="28">
         <v>2016</v>
       </c>
-      <c r="BO133" s="31"/>
-      <c r="BP133" s="31"/>
-      <c r="BQ133" s="31"/>
-      <c r="BR133" s="31">
+      <c r="BO133" s="28"/>
+      <c r="BP133" s="28"/>
+      <c r="BQ133" s="28"/>
+      <c r="BR133" s="28">
         <v>2017</v>
       </c>
-      <c r="BS133" s="31"/>
-      <c r="BT133" s="31"/>
-      <c r="BU133" s="31"/>
+      <c r="BS133" s="28"/>
+      <c r="BT133" s="28"/>
+      <c r="BU133" s="28"/>
       <c r="BV133" s="30">
         <v>2018</v>
       </c>
@@ -20807,9 +20926,10 @@
       <c r="CM133" s="29"/>
       <c r="CN133" s="29"/>
       <c r="CO133" s="29"/>
-      <c r="CP133" s="26">
+      <c r="CP133" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ133" s="31"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21091,6 +21211,9 @@
       </c>
       <c r="CP134" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ134" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21340,46 +21463,48 @@
       <c r="CC136" s="23">
         <v>13.833332242164692</v>
       </c>
-      <c r="CD136" s="28">
+      <c r="CD136" s="27">
         <v>16.183405343766292</v>
       </c>
-      <c r="CE136" s="28">
+      <c r="CE136" s="27">
         <v>14.427353201301617</v>
       </c>
-      <c r="CF136" s="28">
+      <c r="CF136" s="27">
         <v>19.893465103128872</v>
       </c>
-      <c r="CG136" s="28">
+      <c r="CG136" s="27">
         <v>20.405936859688858</v>
       </c>
-      <c r="CH136" s="28">
+      <c r="CH136" s="27">
         <v>20.384562727367435</v>
       </c>
-      <c r="CI136" s="28">
+      <c r="CI136" s="27">
         <v>21.95372602289989</v>
       </c>
-      <c r="CJ136" s="28">
+      <c r="CJ136" s="27">
         <v>26.900454320280797</v>
       </c>
-      <c r="CK136" s="28">
+      <c r="CK136" s="27">
         <v>23.954326102635136</v>
       </c>
-      <c r="CL136" s="28">
+      <c r="CL136" s="27">
         <v>20.264228281682247</v>
       </c>
-      <c r="CM136" s="28">
+      <c r="CM136" s="27">
         <v>23.904583016957481</v>
       </c>
-      <c r="CN136" s="28">
+      <c r="CN136" s="27">
         <v>26.491760473924415</v>
       </c>
-      <c r="CO136" s="28">
+      <c r="CO136" s="27">
         <v>21.696784243385409</v>
       </c>
-      <c r="CP136" s="28">
-        <v>19.827235869258018</v>
-      </c>
-      <c r="CQ136" s="11"/>
+      <c r="CP136" s="27">
+        <v>19.670386210973195</v>
+      </c>
+      <c r="CQ136" s="27">
+        <v>23.246938523993414</v>
+      </c>
       <c r="CR136" s="11"/>
       <c r="CS136" s="11"/>
       <c r="CT136" s="11"/>
@@ -21682,46 +21807,48 @@
       <c r="CC137" s="23">
         <v>2.3286602351846994</v>
       </c>
-      <c r="CD137" s="28">
+      <c r="CD137" s="27">
         <v>4.4137096829386406</v>
       </c>
-      <c r="CE137" s="28">
+      <c r="CE137" s="27">
         <v>7.4075922145227056</v>
       </c>
-      <c r="CF137" s="28">
+      <c r="CF137" s="27">
         <v>6.5623473458256978</v>
       </c>
-      <c r="CG137" s="28">
+      <c r="CG137" s="27">
         <v>3.4194860022934259</v>
       </c>
-      <c r="CH137" s="28">
+      <c r="CH137" s="27">
         <v>8.1409736217812814</v>
       </c>
-      <c r="CI137" s="28">
+      <c r="CI137" s="27">
         <v>12.007284769399288</v>
       </c>
-      <c r="CJ137" s="28">
+      <c r="CJ137" s="27">
         <v>8.1091015399032376</v>
       </c>
-      <c r="CK137" s="28">
+      <c r="CK137" s="27">
         <v>4.1519894108535498</v>
       </c>
-      <c r="CL137" s="28">
+      <c r="CL137" s="27">
         <v>7.6953330349672511</v>
       </c>
-      <c r="CM137" s="28">
+      <c r="CM137" s="27">
         <v>10.965754006947648</v>
       </c>
-      <c r="CN137" s="28">
+      <c r="CN137" s="27">
         <v>6.6336448603455374</v>
       </c>
-      <c r="CO137" s="28">
+      <c r="CO137" s="27">
         <v>2.842011669161169</v>
       </c>
-      <c r="CP137" s="28">
-        <v>5.7652993882284731</v>
-      </c>
-      <c r="CQ137" s="11"/>
+      <c r="CP137" s="27">
+        <v>5.6976087917808034</v>
+      </c>
+      <c r="CQ137" s="27">
+        <v>8.3347060693007293</v>
+      </c>
       <c r="CR137" s="11"/>
       <c r="CS137" s="11"/>
       <c r="CT137" s="11"/>
@@ -22024,46 +22151,48 @@
       <c r="CC138" s="23">
         <v>51.166467347758271</v>
       </c>
-      <c r="CD138" s="28">
+      <c r="CD138" s="27">
         <v>44.149964368929254</v>
       </c>
-      <c r="CE138" s="28">
+      <c r="CE138" s="27">
         <v>38.28150482855898</v>
       </c>
-      <c r="CF138" s="28">
+      <c r="CF138" s="27">
         <v>40.261784607922237</v>
       </c>
-      <c r="CG138" s="28">
+      <c r="CG138" s="27">
         <v>34.803067645584385</v>
       </c>
-      <c r="CH138" s="28">
+      <c r="CH138" s="27">
         <v>22.126826704284877</v>
       </c>
-      <c r="CI138" s="28">
+      <c r="CI138" s="27">
         <v>17.971943362577289</v>
       </c>
-      <c r="CJ138" s="28">
+      <c r="CJ138" s="27">
         <v>25.143838865315015</v>
       </c>
-      <c r="CK138" s="28">
+      <c r="CK138" s="27">
         <v>30.852095452708056</v>
       </c>
-      <c r="CL138" s="28">
+      <c r="CL138" s="27">
         <v>26.55110603732372</v>
       </c>
-      <c r="CM138" s="28">
+      <c r="CM138" s="27">
         <v>21.371454233621463</v>
       </c>
-      <c r="CN138" s="28">
+      <c r="CN138" s="27">
         <v>27.405280935121606</v>
       </c>
-      <c r="CO138" s="28">
+      <c r="CO138" s="27">
         <v>36.539825016102185</v>
       </c>
-      <c r="CP138" s="28">
-        <v>34.526206330741992</v>
-      </c>
-      <c r="CQ138" s="11"/>
+      <c r="CP138" s="27">
+        <v>35.059676281276609</v>
+      </c>
+      <c r="CQ138" s="27">
+        <v>30.312839211772502</v>
+      </c>
       <c r="CR138" s="11"/>
       <c r="CS138" s="11"/>
       <c r="CT138" s="11"/>
@@ -22366,46 +22495,48 @@
       <c r="CC139" s="23">
         <v>1.5105465860678073</v>
       </c>
-      <c r="CD139" s="28">
+      <c r="CD139" s="27">
         <v>1.3673766496886397</v>
       </c>
-      <c r="CE139" s="28">
+      <c r="CE139" s="27">
         <v>2.0579091012414077</v>
       </c>
-      <c r="CF139" s="28">
+      <c r="CF139" s="27">
         <v>1.9568988678819621</v>
       </c>
-      <c r="CG139" s="28">
+      <c r="CG139" s="27">
         <v>1.9634948696709589</v>
       </c>
-      <c r="CH139" s="28">
+      <c r="CH139" s="27">
         <v>2.2163826174160306</v>
       </c>
-      <c r="CI139" s="28">
+      <c r="CI139" s="27">
         <v>2.0454533545337292</v>
       </c>
-      <c r="CJ139" s="28">
+      <c r="CJ139" s="27">
         <v>2.0353501688990101</v>
       </c>
-      <c r="CK139" s="28">
+      <c r="CK139" s="27">
         <v>1.6640439608727877</v>
       </c>
-      <c r="CL139" s="28">
+      <c r="CL139" s="27">
         <v>1.596458742622654</v>
       </c>
-      <c r="CM139" s="28">
+      <c r="CM139" s="27">
         <v>1.5140622577948184</v>
       </c>
-      <c r="CN139" s="28">
+      <c r="CN139" s="27">
         <v>1.3033363816182217</v>
       </c>
-      <c r="CO139" s="28">
+      <c r="CO139" s="27">
         <v>1.1111151162488593</v>
       </c>
-      <c r="CP139" s="28">
-        <v>1.1954150226130562</v>
-      </c>
-      <c r="CQ139" s="11"/>
+      <c r="CP139" s="27">
+        <v>1.1651820067813463</v>
+      </c>
+      <c r="CQ139" s="27">
+        <v>1.1415180299343668</v>
+      </c>
       <c r="CR139" s="11"/>
       <c r="CS139" s="11"/>
       <c r="CT139" s="11"/>
@@ -22708,46 +22839,48 @@
       <c r="CC140" s="23">
         <v>3.4290582800977258</v>
       </c>
-      <c r="CD140" s="28">
+      <c r="CD140" s="27">
         <v>4.8971010530079511</v>
       </c>
-      <c r="CE140" s="28">
+      <c r="CE140" s="27">
         <v>8.3852017017441192</v>
       </c>
-      <c r="CF140" s="28">
+      <c r="CF140" s="27">
         <v>5.863191630906341</v>
       </c>
-      <c r="CG140" s="28">
+      <c r="CG140" s="27">
         <v>7.633489222297615</v>
       </c>
-      <c r="CH140" s="28">
+      <c r="CH140" s="27">
         <v>11.449590492189456</v>
       </c>
-      <c r="CI140" s="28">
+      <c r="CI140" s="27">
         <v>13.965520765441017</v>
       </c>
-      <c r="CJ140" s="28">
+      <c r="CJ140" s="27">
         <v>8.5695933944685088</v>
       </c>
-      <c r="CK140" s="28">
+      <c r="CK140" s="27">
         <v>7.5462816560554282</v>
       </c>
-      <c r="CL140" s="28">
+      <c r="CL140" s="27">
         <v>8.583913171406051</v>
       </c>
-      <c r="CM140" s="28">
+      <c r="CM140" s="27">
         <v>8.6963133579391201</v>
       </c>
-      <c r="CN140" s="28">
+      <c r="CN140" s="27">
         <v>7.2591183888188846</v>
       </c>
-      <c r="CO140" s="28">
+      <c r="CO140" s="27">
         <v>6.1251653881697887</v>
       </c>
-      <c r="CP140" s="28">
-        <v>7.5460997362341908</v>
-      </c>
-      <c r="CQ140" s="11"/>
+      <c r="CP140" s="27">
+        <v>7.1131236205448545</v>
+      </c>
+      <c r="CQ140" s="27">
+        <v>6.2872907960932505</v>
+      </c>
       <c r="CR140" s="11"/>
       <c r="CS140" s="11"/>
       <c r="CT140" s="11"/>
@@ -23050,46 +23183,48 @@
       <c r="CC141" s="23">
         <v>18.640170529999672</v>
       </c>
-      <c r="CD141" s="28">
+      <c r="CD141" s="27">
         <v>22.396265047601059</v>
       </c>
-      <c r="CE141" s="28">
+      <c r="CE141" s="27">
         <v>22.153644576095875</v>
       </c>
-      <c r="CF141" s="28">
+      <c r="CF141" s="27">
         <v>20.755167058625528</v>
       </c>
-      <c r="CG141" s="28">
+      <c r="CG141" s="27">
         <v>23.184214571644929</v>
       </c>
-      <c r="CH141" s="28">
+      <c r="CH141" s="27">
         <v>29.160792486028143</v>
       </c>
-      <c r="CI141" s="28">
+      <c r="CI141" s="27">
         <v>25.639273716516232</v>
       </c>
-      <c r="CJ141" s="28">
+      <c r="CJ141" s="27">
         <v>23.30201503554779</v>
       </c>
-      <c r="CK141" s="28">
+      <c r="CK141" s="27">
         <v>23.652946709368248</v>
       </c>
-      <c r="CL141" s="28">
+      <c r="CL141" s="27">
         <v>28.604576961430535</v>
       </c>
-      <c r="CM141" s="28">
+      <c r="CM141" s="27">
         <v>26.557478920273287</v>
       </c>
-      <c r="CN141" s="28">
+      <c r="CN141" s="27">
         <v>24.010146689844749</v>
       </c>
-      <c r="CO141" s="28">
+      <c r="CO141" s="27">
         <v>20.520169212763324</v>
       </c>
-      <c r="CP141" s="28">
-        <v>24.595488177045731</v>
-      </c>
-      <c r="CQ141" s="11"/>
+      <c r="CP141" s="27">
+        <v>24.839430828768084</v>
+      </c>
+      <c r="CQ141" s="27">
+        <v>25.091463200409997</v>
+      </c>
       <c r="CR141" s="11"/>
       <c r="CS141" s="11"/>
       <c r="CT141" s="11"/>
@@ -23392,46 +23527,48 @@
       <c r="CC142" s="23">
         <v>3.0128671664879549</v>
       </c>
-      <c r="CD142" s="28">
+      <c r="CD142" s="27">
         <v>3.4596396911623279</v>
       </c>
-      <c r="CE142" s="28">
+      <c r="CE142" s="27">
         <v>2.7251485253105301</v>
       </c>
-      <c r="CF142" s="28">
+      <c r="CF142" s="27">
         <v>2.0465659279143935</v>
       </c>
-      <c r="CG142" s="28">
+      <c r="CG142" s="27">
         <v>3.0675193941124248</v>
       </c>
-      <c r="CH142" s="28">
+      <c r="CH142" s="27">
         <v>2.783843368271516</v>
       </c>
-      <c r="CI142" s="28">
+      <c r="CI142" s="27">
         <v>3.4830820974560215</v>
       </c>
-      <c r="CJ142" s="28">
+      <c r="CJ142" s="27">
         <v>3.0583356864463869</v>
       </c>
-      <c r="CK142" s="28">
+      <c r="CK142" s="27">
         <v>3.2048322096655828</v>
       </c>
-      <c r="CL142" s="28">
+      <c r="CL142" s="27">
         <v>2.3641779226618245</v>
       </c>
-      <c r="CM142" s="28">
+      <c r="CM142" s="27">
         <v>2.1959835616058063</v>
       </c>
-      <c r="CN142" s="28">
+      <c r="CN142" s="27">
         <v>2.4164913031782977</v>
       </c>
-      <c r="CO142" s="28">
+      <c r="CO142" s="27">
         <v>1.8415631311031573</v>
       </c>
-      <c r="CP142" s="28">
-        <v>1.8014095297105994</v>
-      </c>
-      <c r="CQ142" s="11"/>
+      <c r="CP142" s="27">
+        <v>1.9714322958154993</v>
+      </c>
+      <c r="CQ142" s="27">
+        <v>1.6208250878556689</v>
+      </c>
       <c r="CR142" s="11"/>
       <c r="CS142" s="11"/>
       <c r="CT142" s="11"/>
@@ -23734,46 +23871,48 @@
       <c r="CC143" s="23">
         <v>6.0788976122391727</v>
       </c>
-      <c r="CD143" s="28">
+      <c r="CD143" s="27">
         <v>3.1325381629058366</v>
       </c>
-      <c r="CE143" s="28">
+      <c r="CE143" s="27">
         <v>4.5616458512247871</v>
       </c>
-      <c r="CF143" s="28">
+      <c r="CF143" s="27">
         <v>2.6605794577949564</v>
       </c>
-      <c r="CG143" s="28">
+      <c r="CG143" s="27">
         <v>5.5227914347074103</v>
       </c>
-      <c r="CH143" s="28">
+      <c r="CH143" s="27">
         <v>3.7370279826612611</v>
       </c>
-      <c r="CI143" s="28">
+      <c r="CI143" s="27">
         <v>2.9337159111765301</v>
       </c>
-      <c r="CJ143" s="28">
+      <c r="CJ143" s="27">
         <v>2.8813109891392505</v>
       </c>
-      <c r="CK143" s="28">
+      <c r="CK143" s="27">
         <v>4.9734844978412278</v>
       </c>
-      <c r="CL143" s="28">
+      <c r="CL143" s="27">
         <v>4.3402058479057111</v>
       </c>
-      <c r="CM143" s="28">
+      <c r="CM143" s="27">
         <v>4.7943706448603765</v>
       </c>
-      <c r="CN143" s="28">
+      <c r="CN143" s="27">
         <v>4.4802209671482869</v>
       </c>
-      <c r="CO143" s="28">
+      <c r="CO143" s="27">
         <v>9.323366223066099</v>
       </c>
-      <c r="CP143" s="28">
-        <v>4.7428459461679431</v>
-      </c>
-      <c r="CQ143" s="11"/>
+      <c r="CP143" s="27">
+        <v>4.4831599640596256</v>
+      </c>
+      <c r="CQ143" s="27">
+        <v>3.9644190806400719</v>
+      </c>
       <c r="CR143" s="11"/>
       <c r="CS143" s="11"/>
       <c r="CT143" s="11"/>
@@ -24268,7 +24407,9 @@
       <c r="CP145" s="20">
         <v>100</v>
       </c>
-      <c r="CQ145" s="11"/>
+      <c r="CQ145" s="20">
+        <v>100</v>
+      </c>
       <c r="CR145" s="11"/>
       <c r="CS145" s="11"/>
       <c r="CT145" s="11"/>
@@ -24422,6 +24563,7 @@
       <c r="CN146" s="16"/>
       <c r="CO146" s="16"/>
       <c r="CP146" s="16"/>
+      <c r="CQ146" s="16"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -24766,114 +24908,114 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="31">
+      <c r="B158" s="28">
         <v>2000</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31">
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28">
         <v>2001</v>
       </c>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="31">
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28">
         <v>2002</v>
       </c>
-      <c r="K158" s="31"/>
-      <c r="L158" s="31"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="31">
+      <c r="K158" s="28"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28">
         <v>2003</v>
       </c>
-      <c r="O158" s="31"/>
-      <c r="P158" s="31"/>
-      <c r="Q158" s="31"/>
-      <c r="R158" s="31">
+      <c r="O158" s="28"/>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="28"/>
+      <c r="R158" s="28">
         <v>2004</v>
       </c>
-      <c r="S158" s="31"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="31"/>
-      <c r="V158" s="31">
+      <c r="S158" s="28"/>
+      <c r="T158" s="28"/>
+      <c r="U158" s="28"/>
+      <c r="V158" s="28">
         <v>2005</v>
       </c>
-      <c r="W158" s="31"/>
-      <c r="X158" s="31"/>
-      <c r="Y158" s="31"/>
-      <c r="Z158" s="31">
+      <c r="W158" s="28"/>
+      <c r="X158" s="28"/>
+      <c r="Y158" s="28"/>
+      <c r="Z158" s="28">
         <v>2006</v>
       </c>
-      <c r="AA158" s="31"/>
-      <c r="AB158" s="31"/>
-      <c r="AC158" s="31"/>
-      <c r="AD158" s="31">
+      <c r="AA158" s="28"/>
+      <c r="AB158" s="28"/>
+      <c r="AC158" s="28"/>
+      <c r="AD158" s="28">
         <v>2007</v>
       </c>
-      <c r="AE158" s="31"/>
-      <c r="AF158" s="31"/>
-      <c r="AG158" s="31"/>
-      <c r="AH158" s="31">
+      <c r="AE158" s="28"/>
+      <c r="AF158" s="28"/>
+      <c r="AG158" s="28"/>
+      <c r="AH158" s="28">
         <v>2008</v>
       </c>
-      <c r="AI158" s="31"/>
-      <c r="AJ158" s="31"/>
-      <c r="AK158" s="31"/>
-      <c r="AL158" s="31">
+      <c r="AI158" s="28"/>
+      <c r="AJ158" s="28"/>
+      <c r="AK158" s="28"/>
+      <c r="AL158" s="28">
         <v>2009</v>
       </c>
-      <c r="AM158" s="31"/>
-      <c r="AN158" s="31"/>
-      <c r="AO158" s="31"/>
-      <c r="AP158" s="31">
+      <c r="AM158" s="28"/>
+      <c r="AN158" s="28"/>
+      <c r="AO158" s="28"/>
+      <c r="AP158" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="31"/>
-      <c r="AR158" s="31"/>
-      <c r="AS158" s="31"/>
-      <c r="AT158" s="31">
+      <c r="AQ158" s="28"/>
+      <c r="AR158" s="28"/>
+      <c r="AS158" s="28"/>
+      <c r="AT158" s="28">
         <v>2011</v>
       </c>
-      <c r="AU158" s="31"/>
-      <c r="AV158" s="31"/>
-      <c r="AW158" s="31"/>
-      <c r="AX158" s="31">
+      <c r="AU158" s="28"/>
+      <c r="AV158" s="28"/>
+      <c r="AW158" s="28"/>
+      <c r="AX158" s="28">
         <v>2012</v>
       </c>
-      <c r="AY158" s="31"/>
-      <c r="AZ158" s="31"/>
-      <c r="BA158" s="31"/>
-      <c r="BB158" s="31">
+      <c r="AY158" s="28"/>
+      <c r="AZ158" s="28"/>
+      <c r="BA158" s="28"/>
+      <c r="BB158" s="28">
         <v>2013</v>
       </c>
-      <c r="BC158" s="31"/>
-      <c r="BD158" s="31"/>
-      <c r="BE158" s="31"/>
-      <c r="BF158" s="31">
+      <c r="BC158" s="28"/>
+      <c r="BD158" s="28"/>
+      <c r="BE158" s="28"/>
+      <c r="BF158" s="28">
         <v>2014</v>
       </c>
-      <c r="BG158" s="31"/>
-      <c r="BH158" s="31"/>
-      <c r="BI158" s="31"/>
-      <c r="BJ158" s="31">
+      <c r="BG158" s="28"/>
+      <c r="BH158" s="28"/>
+      <c r="BI158" s="28"/>
+      <c r="BJ158" s="28">
         <v>2015</v>
       </c>
-      <c r="BK158" s="31"/>
-      <c r="BL158" s="31"/>
-      <c r="BM158" s="31"/>
-      <c r="BN158" s="31">
+      <c r="BK158" s="28"/>
+      <c r="BL158" s="28"/>
+      <c r="BM158" s="28"/>
+      <c r="BN158" s="28">
         <v>2016</v>
       </c>
-      <c r="BO158" s="31"/>
-      <c r="BP158" s="31"/>
-      <c r="BQ158" s="31"/>
-      <c r="BR158" s="31">
+      <c r="BO158" s="28"/>
+      <c r="BP158" s="28"/>
+      <c r="BQ158" s="28"/>
+      <c r="BR158" s="28">
         <v>2017</v>
       </c>
-      <c r="BS158" s="31"/>
-      <c r="BT158" s="31"/>
-      <c r="BU158" s="31"/>
+      <c r="BS158" s="28"/>
+      <c r="BT158" s="28"/>
+      <c r="BU158" s="28"/>
       <c r="BV158" s="30">
         <v>2018</v>
       </c>
@@ -24904,9 +25046,10 @@
       <c r="CM158" s="29"/>
       <c r="CN158" s="29"/>
       <c r="CO158" s="29"/>
-      <c r="CP158" s="26">
+      <c r="CP158" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ158" s="31"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25188,6 +25331,9 @@
       </c>
       <c r="CP159" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ159" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25437,46 +25583,48 @@
       <c r="CC161" s="23">
         <v>13.646805298871332</v>
       </c>
-      <c r="CD161" s="28">
+      <c r="CD161" s="27">
         <v>16.247521985696487</v>
       </c>
-      <c r="CE161" s="28">
+      <c r="CE161" s="27">
         <v>15.790441081843406</v>
       </c>
-      <c r="CF161" s="28">
+      <c r="CF161" s="27">
         <v>20.149099412692205</v>
       </c>
-      <c r="CG161" s="28">
+      <c r="CG161" s="27">
         <v>20.872114450196733</v>
       </c>
-      <c r="CH161" s="28">
+      <c r="CH161" s="27">
         <v>19.38258820356684</v>
       </c>
-      <c r="CI161" s="28">
+      <c r="CI161" s="27">
         <v>22.858886791763375</v>
       </c>
-      <c r="CJ161" s="28">
+      <c r="CJ161" s="27">
         <v>26.452362695179044</v>
       </c>
-      <c r="CK161" s="28">
+      <c r="CK161" s="27">
         <v>23.556216353857899</v>
       </c>
-      <c r="CL161" s="28">
+      <c r="CL161" s="27">
         <v>19.232580913622932</v>
       </c>
-      <c r="CM161" s="28">
+      <c r="CM161" s="27">
         <v>25.283884552971685</v>
       </c>
-      <c r="CN161" s="28">
+      <c r="CN161" s="27">
         <v>26.075796516683408</v>
       </c>
-      <c r="CO161" s="28">
+      <c r="CO161" s="27">
         <v>21.536780418531425</v>
       </c>
-      <c r="CP161" s="28">
-        <v>19.546231694874532</v>
-      </c>
-      <c r="CQ161" s="11"/>
+      <c r="CP161" s="27">
+        <v>19.416388482103464</v>
+      </c>
+      <c r="CQ161" s="27">
+        <v>24.897135834918181</v>
+      </c>
       <c r="CR161" s="11"/>
       <c r="CS161" s="11"/>
       <c r="CT161" s="11"/>
@@ -25779,46 +25927,48 @@
       <c r="CC162" s="23">
         <v>2.1375357534085211</v>
       </c>
-      <c r="CD162" s="28">
+      <c r="CD162" s="27">
         <v>5.4106493904424937</v>
       </c>
-      <c r="CE162" s="28">
+      <c r="CE162" s="27">
         <v>6.8683242858019842</v>
       </c>
-      <c r="CF162" s="28">
+      <c r="CF162" s="27">
         <v>6.0509098496519931</v>
       </c>
-      <c r="CG162" s="28">
+      <c r="CG162" s="27">
         <v>3.2013591828894432</v>
       </c>
-      <c r="CH162" s="28">
+      <c r="CH162" s="27">
         <v>9.3778965568235559</v>
       </c>
-      <c r="CI162" s="28">
+      <c r="CI162" s="27">
         <v>11.308935797635728</v>
       </c>
-      <c r="CJ162" s="28">
+      <c r="CJ162" s="27">
         <v>7.713523821928649</v>
       </c>
-      <c r="CK162" s="28">
+      <c r="CK162" s="27">
         <v>3.9419414835949165</v>
       </c>
-      <c r="CL162" s="28">
+      <c r="CL162" s="27">
         <v>9.0064705901485631</v>
       </c>
-      <c r="CM162" s="28">
+      <c r="CM162" s="27">
         <v>10.232129086950495</v>
       </c>
-      <c r="CN162" s="28">
+      <c r="CN162" s="27">
         <v>6.2629222389067696</v>
       </c>
-      <c r="CO162" s="28">
+      <c r="CO162" s="27">
         <v>2.6663984224363912</v>
       </c>
-      <c r="CP162" s="28">
-        <v>6.8879201082525574</v>
-      </c>
-      <c r="CQ162" s="11"/>
+      <c r="CP162" s="27">
+        <v>6.8157485396614019</v>
+      </c>
+      <c r="CQ162" s="27">
+        <v>7.9453303423158577</v>
+      </c>
       <c r="CR162" s="11"/>
       <c r="CS162" s="11"/>
       <c r="CT162" s="11"/>
@@ -26121,46 +26271,48 @@
       <c r="CC163" s="23">
         <v>54.230854561444843</v>
       </c>
-      <c r="CD163" s="28">
+      <c r="CD163" s="27">
         <v>37.792412272820314</v>
       </c>
-      <c r="CE163" s="28">
+      <c r="CE163" s="27">
         <v>38.615581401953094</v>
       </c>
-      <c r="CF163" s="28">
+      <c r="CF163" s="27">
         <v>42.99653790661209</v>
       </c>
-      <c r="CG163" s="28">
+      <c r="CG163" s="27">
         <v>37.195469493628963</v>
       </c>
-      <c r="CH163" s="28">
+      <c r="CH163" s="27">
         <v>17.981635106944267</v>
       </c>
-      <c r="CI163" s="28">
+      <c r="CI163" s="27">
         <v>18.464020412468638</v>
       </c>
-      <c r="CJ163" s="28">
+      <c r="CJ163" s="27">
         <v>27.821221647440741</v>
       </c>
-      <c r="CK163" s="28">
+      <c r="CK163" s="27">
         <v>33.537962404218177</v>
       </c>
-      <c r="CL163" s="28">
+      <c r="CL163" s="27">
         <v>21.813785455855719</v>
       </c>
-      <c r="CM163" s="28">
+      <c r="CM163" s="27">
         <v>21.716800098639215</v>
       </c>
-      <c r="CN163" s="28">
+      <c r="CN163" s="27">
         <v>30.292151655069166</v>
       </c>
-      <c r="CO163" s="28">
+      <c r="CO163" s="27">
         <v>39.314169088408931</v>
       </c>
-      <c r="CP163" s="28">
-        <v>28.855413436395132</v>
-      </c>
-      <c r="CQ163" s="11"/>
+      <c r="CP163" s="27">
+        <v>29.338711583861382</v>
+      </c>
+      <c r="CQ163" s="27">
+        <v>29.085657748547</v>
+      </c>
       <c r="CR163" s="11"/>
       <c r="CS163" s="11"/>
       <c r="CT163" s="11"/>
@@ -26463,46 +26615,48 @@
       <c r="CC164" s="23">
         <v>1.4140957795229996</v>
       </c>
-      <c r="CD164" s="28">
+      <c r="CD164" s="27">
         <v>1.4910173819555634</v>
       </c>
-      <c r="CE164" s="28">
+      <c r="CE164" s="27">
         <v>2.0482449598917625</v>
       </c>
-      <c r="CF164" s="28">
+      <c r="CF164" s="27">
         <v>1.8424169416295297</v>
       </c>
-      <c r="CG164" s="28">
+      <c r="CG164" s="27">
         <v>1.8747388781237373</v>
       </c>
-      <c r="CH164" s="28">
+      <c r="CH164" s="27">
         <v>2.2710293337348171</v>
       </c>
-      <c r="CI164" s="28">
+      <c r="CI164" s="27">
         <v>2.0679902625306594</v>
       </c>
-      <c r="CJ164" s="28">
+      <c r="CJ164" s="27">
         <v>1.97686627234103</v>
       </c>
-      <c r="CK164" s="28">
+      <c r="CK164" s="27">
         <v>1.6112249302294503</v>
       </c>
-      <c r="CL164" s="28">
+      <c r="CL164" s="27">
         <v>1.6620107671116384</v>
       </c>
-      <c r="CM164" s="28">
+      <c r="CM164" s="27">
         <v>1.516537753719629</v>
       </c>
-      <c r="CN164" s="28">
+      <c r="CN164" s="27">
         <v>1.2564331556424357</v>
       </c>
-      <c r="CO164" s="28">
+      <c r="CO164" s="27">
         <v>1.0631527938004819</v>
       </c>
-      <c r="CP164" s="28">
-        <v>1.2703806309215786</v>
-      </c>
-      <c r="CQ164" s="11"/>
+      <c r="CP164" s="27">
+        <v>1.2398342236140849</v>
+      </c>
+      <c r="CQ164" s="27">
+        <v>1.1681172216659894</v>
+      </c>
       <c r="CR164" s="11"/>
       <c r="CS164" s="11"/>
       <c r="CT164" s="11"/>
@@ -26805,46 +26959,48 @@
       <c r="CC165" s="23">
         <v>3.123554392171747</v>
       </c>
-      <c r="CD165" s="28">
+      <c r="CD165" s="27">
         <v>5.5627003735040477</v>
       </c>
-      <c r="CE165" s="28">
+      <c r="CE165" s="27">
         <v>8.0559308378434036</v>
       </c>
-      <c r="CF165" s="28">
+      <c r="CF165" s="27">
         <v>5.3737014222452153</v>
       </c>
-      <c r="CG165" s="28">
+      <c r="CG165" s="27">
         <v>7.0919165370406283</v>
       </c>
-      <c r="CH165" s="28">
+      <c r="CH165" s="27">
         <v>12.221373511141266</v>
       </c>
-      <c r="CI165" s="28">
+      <c r="CI165" s="27">
         <v>13.62895484139392</v>
       </c>
-      <c r="CJ165" s="28">
+      <c r="CJ165" s="27">
         <v>8.1024857797721968</v>
       </c>
-      <c r="CK165" s="28">
+      <c r="CK165" s="27">
         <v>7.1097428396551905</v>
       </c>
-      <c r="CL165" s="28">
+      <c r="CL165" s="27">
         <v>9.3092245123078214</v>
       </c>
-      <c r="CM165" s="28">
+      <c r="CM165" s="27">
         <v>8.4079705437476431</v>
       </c>
-      <c r="CN165" s="28">
+      <c r="CN165" s="27">
         <v>6.8121884905157772</v>
       </c>
-      <c r="CO165" s="28">
+      <c r="CO165" s="27">
         <v>5.7027450032579949</v>
       </c>
-      <c r="CP165" s="28">
-        <v>8.3539091943276809</v>
-      </c>
-      <c r="CQ165" s="11"/>
+      <c r="CP165" s="27">
+        <v>7.8846471389479911</v>
+      </c>
+      <c r="CQ165" s="27">
+        <v>6.2103161173042141</v>
+      </c>
       <c r="CR165" s="11"/>
       <c r="CS165" s="11"/>
       <c r="CT165" s="11"/>
@@ -27147,46 +27303,48 @@
       <c r="CC166" s="23">
         <v>17.197250532000911</v>
       </c>
-      <c r="CD166" s="28">
+      <c r="CD166" s="27">
         <v>25.938658020486965</v>
       </c>
-      <c r="CE166" s="28">
+      <c r="CE166" s="27">
         <v>21.612777999710193</v>
       </c>
-      <c r="CF166" s="28">
+      <c r="CF166" s="27">
         <v>19.285684296246377</v>
       </c>
-      <c r="CG166" s="28">
+      <c r="CG166" s="27">
         <v>21.8156339135877</v>
       </c>
-      <c r="CH166" s="28">
+      <c r="CH166" s="27">
         <v>31.736182767979525</v>
       </c>
-      <c r="CI166" s="28">
+      <c r="CI166" s="27">
         <v>25.408225192281513</v>
       </c>
-      <c r="CJ166" s="28">
+      <c r="CJ166" s="27">
         <v>22.336797951837788</v>
       </c>
-      <c r="CK166" s="28">
+      <c r="CK166" s="27">
         <v>22.57049405290908</v>
       </c>
-      <c r="CL166" s="28">
+      <c r="CL166" s="27">
         <v>31.629259219380408</v>
       </c>
-      <c r="CM166" s="28">
+      <c r="CM166" s="27">
         <v>26.073902667483818</v>
       </c>
-      <c r="CN166" s="28">
+      <c r="CN166" s="27">
         <v>22.843727276273313</v>
       </c>
-      <c r="CO166" s="28">
+      <c r="CO166" s="27">
         <v>19.350045967915399</v>
       </c>
-      <c r="CP166" s="28">
-        <v>27.761821601337626</v>
-      </c>
-      <c r="CQ166" s="11"/>
+      <c r="CP166" s="27">
+        <v>28.073001489371109</v>
+      </c>
+      <c r="CQ166" s="27">
+        <v>25.167457328551386</v>
+      </c>
       <c r="CR166" s="11"/>
       <c r="CS166" s="11"/>
       <c r="CT166" s="11"/>
@@ -27489,46 +27647,48 @@
       <c r="CC167" s="23">
         <v>2.7214318787950185</v>
       </c>
-      <c r="CD167" s="28">
+      <c r="CD167" s="27">
         <v>3.9527149527942349</v>
       </c>
-      <c r="CE167" s="28">
+      <c r="CE167" s="27">
         <v>2.6112806411776068</v>
       </c>
-      <c r="CF167" s="28">
+      <c r="CF167" s="27">
         <v>1.8635400651455234</v>
       </c>
-      <c r="CG167" s="28">
+      <c r="CG167" s="27">
         <v>2.8259932030466497</v>
       </c>
-      <c r="CH167" s="28">
+      <c r="CH167" s="27">
         <v>2.9887726694787116</v>
       </c>
-      <c r="CI167" s="28">
+      <c r="CI167" s="27">
         <v>3.3902387654558974</v>
       </c>
-      <c r="CJ167" s="28">
+      <c r="CJ167" s="27">
         <v>2.8728752310243317</v>
       </c>
-      <c r="CK167" s="28">
+      <c r="CK167" s="27">
         <v>2.9941217443969563</v>
       </c>
-      <c r="CL167" s="28">
+      <c r="CL167" s="27">
         <v>2.5788517075130506</v>
       </c>
-      <c r="CM167" s="28">
+      <c r="CM167" s="27">
         <v>2.1176112847827464</v>
       </c>
-      <c r="CN167" s="28">
+      <c r="CN167" s="27">
         <v>2.2530019348979207</v>
       </c>
-      <c r="CO167" s="28">
+      <c r="CO167" s="27">
         <v>1.7001843771549014</v>
       </c>
-      <c r="CP167" s="28">
-        <v>2.0058464713789648</v>
-      </c>
-      <c r="CQ167" s="11"/>
+      <c r="CP167" s="27">
+        <v>2.1979701806288094</v>
+      </c>
+      <c r="CQ167" s="27">
+        <v>1.5967887592991943</v>
+      </c>
       <c r="CR167" s="11"/>
       <c r="CS167" s="11"/>
       <c r="CT167" s="11"/>
@@ -27831,46 +27991,48 @@
       <c r="CC168" s="23">
         <v>5.5284718037846288</v>
       </c>
-      <c r="CD168" s="28">
+      <c r="CD168" s="27">
         <v>3.6043256222998901</v>
       </c>
-      <c r="CE168" s="28">
+      <c r="CE168" s="27">
         <v>4.3974187917785512</v>
       </c>
-      <c r="CF168" s="28">
+      <c r="CF168" s="27">
         <v>2.4381101057770507</v>
       </c>
-      <c r="CG168" s="28">
+      <c r="CG168" s="27">
         <v>5.1227743414861555</v>
       </c>
-      <c r="CH168" s="28">
+      <c r="CH168" s="27">
         <v>4.0405218503310181</v>
       </c>
-      <c r="CI168" s="28">
+      <c r="CI168" s="27">
         <v>2.8727479364702591</v>
       </c>
-      <c r="CJ168" s="28">
+      <c r="CJ168" s="27">
         <v>2.7238666004762146</v>
       </c>
-      <c r="CK168" s="28">
+      <c r="CK168" s="27">
         <v>4.6782961911383198</v>
       </c>
-      <c r="CL168" s="28">
+      <c r="CL168" s="27">
         <v>4.7678168340598504</v>
       </c>
-      <c r="CM168" s="28">
+      <c r="CM168" s="27">
         <v>4.6511640117047799</v>
       </c>
-      <c r="CN168" s="28">
+      <c r="CN168" s="27">
         <v>4.2037787320112052</v>
       </c>
-      <c r="CO168" s="28">
+      <c r="CO168" s="27">
         <v>8.666523928494458</v>
       </c>
-      <c r="CP168" s="28">
-        <v>5.3184768625119272</v>
-      </c>
-      <c r="CQ168" s="11"/>
+      <c r="CP168" s="27">
+        <v>5.0336983618117701</v>
+      </c>
+      <c r="CQ168" s="27">
+        <v>3.9291966473981832</v>
+      </c>
       <c r="CR168" s="11"/>
       <c r="CS168" s="11"/>
       <c r="CT168" s="11"/>
@@ -28365,7 +28527,9 @@
       <c r="CP170" s="20">
         <v>100</v>
       </c>
-      <c r="CQ170" s="11"/>
+      <c r="CQ170" s="20">
+        <v>100</v>
+      </c>
       <c r="CR170" s="11"/>
       <c r="CS170" s="11"/>
       <c r="CT170" s="11"/>
@@ -28519,6 +28683,7 @@
       <c r="CN171" s="16"/>
       <c r="CO171" s="16"/>
       <c r="CP171" s="16"/>
+      <c r="CQ171" s="16"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -28620,7 +28785,7 @@
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
       <c r="CP173" s="1"/>
-      <c r="CQ173" s="24"/>
+      <c r="CQ173" s="1"/>
       <c r="CR173" s="24"/>
       <c r="CS173" s="24"/>
       <c r="CT173" s="24"/>
@@ -28774,7 +28939,7 @@
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
       <c r="CP174" s="1"/>
-      <c r="CQ174" s="24"/>
+      <c r="CQ174" s="1"/>
       <c r="CR174" s="24"/>
       <c r="CS174" s="24"/>
       <c r="CT174" s="24"/>
@@ -28834,43 +28999,115 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP34:CQ34"/>
+    <mergeCell ref="CP108:CQ108"/>
+    <mergeCell ref="CP133:CQ133"/>
+    <mergeCell ref="CP158:CQ158"/>
+    <mergeCell ref="CL59:CO59"/>
+    <mergeCell ref="CP59:CQ59"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL34:CO34"/>
+    <mergeCell ref="CL158:CO158"/>
+    <mergeCell ref="CL108:CO108"/>
+    <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="CH59:CK59"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CH108:CK108"/>
+    <mergeCell ref="CH133:CK133"/>
+    <mergeCell ref="CH158:CK158"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH34:CK34"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ133:CC133"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="BJ34:BM34"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="AT59:AW59"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
@@ -28895,113 +29132,50 @@
     <mergeCell ref="AX133:BA133"/>
     <mergeCell ref="F59:I59"/>
     <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="BJ34:BM34"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="AT59:AW59"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CH59:CK59"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CL158:CO158"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AL84:AO84"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="93" man="1"/>
-    <brk id="100" max="93" man="1"/>
-    <brk id="124" max="93" man="1"/>
+    <brk id="50" max="94" man="1"/>
+    <brk id="100" max="94" man="1"/>
+    <brk id="124" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEFEB0-72DE-4143-B977-9326F8C0F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878A7AA-6518-4BE2-A5AA-EDC69333048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CQ$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CR$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -360,13 +360,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +714,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CQ4" sqref="CQ4"/>
+      <selection pane="bottomRight" activeCell="CS8" sqref="CS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,8 +722,9 @@
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="95" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="82" max="89" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -755,148 +759,149 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="28">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="28">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="32">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29">
+      <c r="CM9" s="32"/>
+      <c r="CN9" s="32"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="32">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="32"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1164,23 +1169,26 @@
       <c r="CK10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,25 +1462,27 @@
       <c r="CK12" s="26">
         <v>73737.984486977453</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="29">
         <v>64278.199974307077</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="29">
         <v>78301.795476426603</v>
       </c>
-      <c r="CN12" s="26">
+      <c r="CN12" s="29">
         <v>105008.92645285306</v>
       </c>
-      <c r="CO12" s="26">
+      <c r="CO12" s="29">
         <v>101193.14807144552</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="29">
         <v>84713.533844019388</v>
       </c>
-      <c r="CQ12" s="26">
-        <v>108152.15077037815</v>
-      </c>
-      <c r="CR12" s="11"/>
+      <c r="CQ12" s="29">
+        <v>101600.63982002228</v>
+      </c>
+      <c r="CR12" s="29">
+        <v>101226.77795367522</v>
+      </c>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
@@ -1798,25 +1808,27 @@
       <c r="CK13" s="26">
         <v>12780.961963022375</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="29">
         <v>24409.622158552458</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="29">
         <v>35919.397836294309</v>
       </c>
-      <c r="CN13" s="26">
+      <c r="CN13" s="29">
         <v>26294.663427144449</v>
       </c>
-      <c r="CO13" s="26">
+      <c r="CO13" s="29">
         <v>13255.056806212147</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="29">
         <v>24537.625750492349</v>
       </c>
-      <c r="CQ13" s="26">
-        <v>38775.703153489951</v>
-      </c>
-      <c r="CR13" s="11"/>
+      <c r="CQ13" s="29">
+        <v>37894.707171723814</v>
+      </c>
+      <c r="CR13" s="29">
+        <v>23819.675323882377</v>
+      </c>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
@@ -2142,25 +2154,27 @@
       <c r="CK14" s="26">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="29">
         <v>84220.197269927652</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="29">
         <v>70004.28483725246</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="29">
         <v>108629.96941892747</v>
       </c>
-      <c r="CO14" s="26">
+      <c r="CO14" s="29">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="29">
         <v>150989.87083219792</v>
       </c>
-      <c r="CQ14" s="26">
-        <v>141024.96779634792</v>
-      </c>
-      <c r="CR14" s="11"/>
+      <c r="CQ14" s="29">
+        <v>141051.15207210169</v>
+      </c>
+      <c r="CR14" s="29">
+        <v>230349.29387293893</v>
+      </c>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
@@ -2486,25 +2500,27 @@
       <c r="CK15" s="26">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="29">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="29">
         <v>4959.4587433015095</v>
       </c>
-      <c r="CN15" s="26">
+      <c r="CN15" s="29">
         <v>5166.2083527966124</v>
       </c>
-      <c r="CO15" s="26">
+      <c r="CO15" s="29">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="29">
         <v>5018.0349438614548</v>
       </c>
-      <c r="CQ15" s="26">
-        <v>5310.704889297348</v>
-      </c>
-      <c r="CR15" s="11"/>
+      <c r="CQ15" s="29">
+        <v>4924.0081288224646</v>
+      </c>
+      <c r="CR15" s="29">
+        <v>4572.9559498631661</v>
+      </c>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
@@ -2830,25 +2846,27 @@
       <c r="CK16" s="26">
         <v>23229.524274839223</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="29">
         <v>27228.201327187286</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="29">
         <v>28485.623424981779</v>
       </c>
-      <c r="CN16" s="26">
+      <c r="CN16" s="29">
         <v>28773.936324629412</v>
       </c>
-      <c r="CO16" s="26">
+      <c r="CO16" s="29">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="29">
         <v>30633.757370232517</v>
       </c>
-      <c r="CQ16" s="26">
-        <v>29250.476204187897</v>
-      </c>
-      <c r="CR16" s="11"/>
+      <c r="CQ16" s="29">
+        <v>28608.292664405577</v>
+      </c>
+      <c r="CR16" s="29">
+        <v>26499.389315245102</v>
+      </c>
       <c r="CS16" s="11"/>
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
@@ -3174,25 +3192,27 @@
       <c r="CK17" s="26">
         <v>72810.256070398711</v>
       </c>
-      <c r="CL17" s="26">
+      <c r="CL17" s="29">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="26">
+      <c r="CM17" s="29">
         <v>86991.615009958172</v>
       </c>
-      <c r="CN17" s="26">
+      <c r="CN17" s="29">
         <v>95172.222712710689</v>
       </c>
-      <c r="CO17" s="26">
+      <c r="CO17" s="29">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="29">
         <v>106974.81694615472</v>
       </c>
-      <c r="CQ17" s="26">
+      <c r="CQ17" s="29">
         <v>116733.46614218912</v>
       </c>
-      <c r="CR17" s="11"/>
+      <c r="CR17" s="29">
+        <v>100020.95243567874</v>
+      </c>
       <c r="CS17" s="11"/>
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
@@ -3518,25 +3538,27 @@
       <c r="CK18" s="26">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="26">
+      <c r="CL18" s="29">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="26">
+      <c r="CM18" s="29">
         <v>7193.15854990965</v>
       </c>
-      <c r="CN18" s="26">
+      <c r="CN18" s="29">
         <v>9578.5690716619501</v>
       </c>
-      <c r="CO18" s="26">
+      <c r="CO18" s="29">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="26">
+      <c r="CP18" s="29">
         <v>8490.2754181610162</v>
       </c>
-      <c r="CQ18" s="26">
-        <v>7540.5937471402167</v>
-      </c>
-      <c r="CR18" s="11"/>
+      <c r="CQ18" s="29">
+        <v>7125.6013985669297</v>
+      </c>
+      <c r="CR18" s="29">
+        <v>7804.651409880893</v>
+      </c>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
@@ -3862,25 +3884,27 @@
       <c r="CK19" s="26">
         <v>15309.74911073353</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="29">
         <v>13767.147484887126</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="29">
         <v>15704.429121634676</v>
       </c>
-      <c r="CN19" s="26">
+      <c r="CN19" s="29">
         <v>17758.849756129912</v>
       </c>
-      <c r="CO19" s="26">
+      <c r="CO19" s="29">
         <v>43483.899187625917</v>
       </c>
-      <c r="CP19" s="26">
+      <c r="CP19" s="29">
         <v>19307.415689258494</v>
       </c>
-      <c r="CQ19" s="26">
-        <v>18443.738287681226</v>
-      </c>
-      <c r="CR19" s="11"/>
+      <c r="CQ19" s="29">
+        <v>22428.64878131307</v>
+      </c>
+      <c r="CR19" s="29">
+        <v>20681.964921157891</v>
+      </c>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
@@ -4027,13 +4051,13 @@
       <c r="CI20" s="11"/>
       <c r="CJ20" s="11"/>
       <c r="CK20" s="11"/>
-      <c r="CL20" s="11"/>
-      <c r="CM20" s="11"/>
-      <c r="CN20" s="11"/>
-      <c r="CO20" s="11"/>
-      <c r="CP20" s="11"/>
-      <c r="CQ20" s="11"/>
-      <c r="CR20" s="11"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
       <c r="CS20" s="11"/>
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
@@ -4359,25 +4383,27 @@
       <c r="CK21" s="14">
         <v>307827.42194891378</v>
       </c>
-      <c r="CL21" s="14">
+      <c r="CL21" s="15">
         <v>317200.33489955822</v>
       </c>
-      <c r="CM21" s="14">
+      <c r="CM21" s="15">
         <v>327559.76299975917</v>
       </c>
-      <c r="CN21" s="14">
+      <c r="CN21" s="15">
         <v>396383.34551685356</v>
       </c>
-      <c r="CO21" s="14">
+      <c r="CO21" s="15">
         <v>466396.98738902184</v>
       </c>
-      <c r="CP21" s="14">
+      <c r="CP21" s="15">
         <v>430665.33079437778</v>
       </c>
-      <c r="CQ21" s="14">
-        <v>465231.80099071184</v>
-      </c>
-      <c r="CR21" s="11"/>
+      <c r="CQ21" s="15">
+        <v>460366.51617914502</v>
+      </c>
+      <c r="CR21" s="15">
+        <v>514975.66118232231</v>
+      </c>
       <c r="CS21" s="11"/>
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
@@ -4525,12 +4551,13 @@
       <c r="CI22" s="16"/>
       <c r="CJ22" s="16"/>
       <c r="CK22" s="16"/>
-      <c r="CL22" s="16"/>
-      <c r="CM22" s="16"/>
-      <c r="CN22" s="16"/>
-      <c r="CO22" s="16"/>
-      <c r="CP22" s="16"/>
-      <c r="CQ22" s="16"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4626,13 +4653,13 @@
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
+      <c r="CL24" s="12"/>
+      <c r="CM24" s="12"/>
+      <c r="CN24" s="12"/>
+      <c r="CO24" s="12"/>
+      <c r="CP24" s="12"/>
+      <c r="CQ24" s="12"/>
+      <c r="CR24" s="12"/>
       <c r="CS24" s="11"/>
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
@@ -4779,13 +4806,13 @@
       <c r="CI25" s="11"/>
       <c r="CJ25" s="11"/>
       <c r="CK25" s="11"/>
-      <c r="CL25" s="11"/>
-      <c r="CM25" s="11"/>
-      <c r="CN25" s="11"/>
-      <c r="CO25" s="11"/>
-      <c r="CP25" s="11"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
+      <c r="CL25" s="12"/>
+      <c r="CM25" s="12"/>
+      <c r="CN25" s="12"/>
+      <c r="CO25" s="12"/>
+      <c r="CP25" s="12"/>
+      <c r="CQ25" s="12"/>
+      <c r="CR25" s="12"/>
       <c r="CS25" s="11"/>
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
@@ -4875,148 +4902,149 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="28">
+      <c r="B34" s="32">
         <v>2000</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
         <v>2001</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32">
         <v>2002</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28">
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32">
         <v>2003</v>
       </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28">
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32">
         <v>2004</v>
       </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28">
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32">
         <v>2005</v>
       </c>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28">
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32">
         <v>2006</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28">
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32">
         <v>2007</v>
       </c>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28">
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32">
         <v>2008</v>
       </c>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28">
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32">
         <v>2009</v>
       </c>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28">
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28">
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32">
         <v>2011</v>
       </c>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="28"/>
-      <c r="AX34" s="28">
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32">
         <v>2012</v>
       </c>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28">
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32">
         <v>2013</v>
       </c>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
-      <c r="BE34" s="28"/>
-      <c r="BF34" s="28">
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="32">
         <v>2014</v>
       </c>
-      <c r="BG34" s="28"/>
-      <c r="BH34" s="28"/>
-      <c r="BI34" s="28"/>
-      <c r="BJ34" s="28">
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32">
         <v>2015</v>
       </c>
-      <c r="BK34" s="28"/>
-      <c r="BL34" s="28"/>
-      <c r="BM34" s="28"/>
-      <c r="BN34" s="28">
+      <c r="BK34" s="32"/>
+      <c r="BL34" s="32"/>
+      <c r="BM34" s="32"/>
+      <c r="BN34" s="32">
         <v>2016</v>
       </c>
-      <c r="BO34" s="28"/>
-      <c r="BP34" s="28"/>
-      <c r="BQ34" s="28"/>
-      <c r="BR34" s="28">
+      <c r="BO34" s="32"/>
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="32"/>
+      <c r="BR34" s="32">
         <v>2017</v>
       </c>
-      <c r="BS34" s="28"/>
-      <c r="BT34" s="28"/>
-      <c r="BU34" s="28"/>
-      <c r="BV34" s="30">
+      <c r="BS34" s="32"/>
+      <c r="BT34" s="32"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="34">
         <v>2018</v>
       </c>
-      <c r="BW34" s="30"/>
-      <c r="BX34" s="30"/>
-      <c r="BY34" s="30"/>
-      <c r="BZ34" s="30">
+      <c r="BW34" s="34"/>
+      <c r="BX34" s="34"/>
+      <c r="BY34" s="34"/>
+      <c r="BZ34" s="34">
         <v>2019</v>
       </c>
-      <c r="CA34" s="30"/>
-      <c r="CB34" s="30"/>
-      <c r="CC34" s="30"/>
-      <c r="CD34" s="29">
+      <c r="CA34" s="34"/>
+      <c r="CB34" s="34"/>
+      <c r="CC34" s="34"/>
+      <c r="CD34" s="33">
         <v>2020</v>
       </c>
-      <c r="CE34" s="29"/>
-      <c r="CF34" s="29"/>
-      <c r="CG34" s="29"/>
-      <c r="CH34" s="29">
+      <c r="CE34" s="33"/>
+      <c r="CF34" s="33"/>
+      <c r="CG34" s="33"/>
+      <c r="CH34" s="33">
         <v>2021</v>
       </c>
-      <c r="CI34" s="29"/>
-      <c r="CJ34" s="29"/>
-      <c r="CK34" s="29"/>
-      <c r="CL34" s="29">
+      <c r="CI34" s="33"/>
+      <c r="CJ34" s="33"/>
+      <c r="CK34" s="33"/>
+      <c r="CL34" s="32">
         <v>2022</v>
       </c>
-      <c r="CM34" s="29"/>
-      <c r="CN34" s="29"/>
-      <c r="CO34" s="29"/>
-      <c r="CP34" s="29">
+      <c r="CM34" s="32"/>
+      <c r="CN34" s="32"/>
+      <c r="CO34" s="32"/>
+      <c r="CP34" s="32">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="31"/>
+      <c r="CQ34" s="32"/>
+      <c r="CR34" s="32"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5284,23 +5312,26 @@
       <c r="CK35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="7" t="s">
+      <c r="CL35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="7" t="s">
+      <c r="CM35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="7" t="s">
+      <c r="CN35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CO35" s="7" t="s">
+      <c r="CO35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="7" t="s">
+      <c r="CP35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="7" t="s">
+      <c r="CQ35" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CR35" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5574,25 +5605,27 @@
       <c r="CK37" s="26">
         <v>71273.442872178304</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="29">
         <v>65463.132122746989</v>
       </c>
-      <c r="CM37" s="26">
+      <c r="CM37" s="29">
         <v>73741.448231983406</v>
       </c>
-      <c r="CN37" s="26">
+      <c r="CN37" s="29">
         <v>100951.57153183127</v>
       </c>
-      <c r="CO37" s="26">
+      <c r="CO37" s="29">
         <v>97606.909602206899</v>
       </c>
-      <c r="CP37" s="26">
+      <c r="CP37" s="29">
         <v>81693.778927778447</v>
       </c>
-      <c r="CQ37" s="26">
-        <v>96480.674575227138</v>
-      </c>
-      <c r="CR37" s="11"/>
+      <c r="CQ37" s="29">
+        <v>90636.184276376342</v>
+      </c>
+      <c r="CR37" s="29">
+        <v>93446.874796662887</v>
+      </c>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
@@ -5918,25 +5951,27 @@
       <c r="CK38" s="26">
         <v>11927.031782863498</v>
       </c>
-      <c r="CL38" s="26">
+      <c r="CL38" s="29">
         <v>30655.88424405938</v>
       </c>
-      <c r="CM38" s="26">
+      <c r="CM38" s="29">
         <v>29842.408740141524</v>
       </c>
-      <c r="CN38" s="26">
+      <c r="CN38" s="29">
         <v>24246.693365427058</v>
       </c>
-      <c r="CO38" s="26">
+      <c r="CO38" s="29">
         <v>12084.392593717253</v>
       </c>
-      <c r="CP38" s="26">
+      <c r="CP38" s="29">
         <v>28677.024820534818</v>
       </c>
-      <c r="CQ38" s="26">
-        <v>30789.518771654864</v>
-      </c>
-      <c r="CR38" s="11"/>
+      <c r="CQ38" s="29">
+        <v>30089.971371805852</v>
+      </c>
+      <c r="CR38" s="29">
+        <v>21079.85854389186</v>
+      </c>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
@@ -6262,25 +6297,27 @@
       <c r="CK39" s="26">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="26">
+      <c r="CL39" s="29">
         <v>74248.938600978479</v>
       </c>
-      <c r="CM39" s="26">
+      <c r="CM39" s="29">
         <v>63337.90549007689</v>
       </c>
-      <c r="CN39" s="26">
+      <c r="CN39" s="29">
         <v>117275.04901732334</v>
       </c>
-      <c r="CO39" s="26">
+      <c r="CO39" s="29">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="26">
+      <c r="CP39" s="29">
         <v>123441.60812228297</v>
       </c>
-      <c r="CQ39" s="26">
-        <v>112711.915886658</v>
-      </c>
-      <c r="CR39" s="11"/>
+      <c r="CQ39" s="29">
+        <v>112732.84324393685</v>
+      </c>
+      <c r="CR39" s="29">
+        <v>238084.56826043266</v>
+      </c>
       <c r="CS39" s="11"/>
       <c r="CT39" s="11"/>
       <c r="CU39" s="11"/>
@@ -6606,25 +6643,27 @@
       <c r="CK40" s="26">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="26">
+      <c r="CL40" s="29">
         <v>5657.089442415454</v>
       </c>
-      <c r="CM40" s="26">
+      <c r="CM40" s="29">
         <v>4423.042275148362</v>
       </c>
-      <c r="CN40" s="26">
+      <c r="CN40" s="29">
         <v>4864.2388164691256</v>
       </c>
-      <c r="CO40" s="26">
+      <c r="CO40" s="29">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="29">
         <v>5216.5593547111621</v>
       </c>
-      <c r="CQ40" s="26">
-        <v>4526.6547235209382</v>
-      </c>
-      <c r="CR40" s="11"/>
+      <c r="CQ40" s="29">
+        <v>4197.0482487003283</v>
+      </c>
+      <c r="CR40" s="29">
+        <v>4132.2533505004021</v>
+      </c>
       <c r="CS40" s="11"/>
       <c r="CT40" s="11"/>
       <c r="CU40" s="11"/>
@@ -6950,25 +6989,27 @@
       <c r="CK41" s="26">
         <v>21511.767531166046</v>
       </c>
-      <c r="CL41" s="26">
+      <c r="CL41" s="29">
         <v>31686.386603363273</v>
       </c>
-      <c r="CM41" s="26">
+      <c r="CM41" s="29">
         <v>24522.178278769905</v>
       </c>
-      <c r="CN41" s="26">
+      <c r="CN41" s="29">
         <v>26373.159234028655</v>
       </c>
-      <c r="CO41" s="26">
+      <c r="CO41" s="29">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="26">
+      <c r="CP41" s="29">
         <v>33174.378483746579</v>
       </c>
-      <c r="CQ41" s="26">
-        <v>24066.040860915964</v>
-      </c>
-      <c r="CR41" s="11"/>
+      <c r="CQ41" s="29">
+        <v>23537.679708751326</v>
+      </c>
+      <c r="CR41" s="29">
+        <v>23310.18364681003</v>
+      </c>
       <c r="CS41" s="11"/>
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
@@ -7294,25 +7335,27 @@
       <c r="CK42" s="26">
         <v>68290.96805325427</v>
       </c>
-      <c r="CL42" s="26">
+      <c r="CL42" s="29">
         <v>107658.4772746901</v>
       </c>
-      <c r="CM42" s="26">
+      <c r="CM42" s="29">
         <v>76045.567275541456</v>
       </c>
-      <c r="CN42" s="26">
+      <c r="CN42" s="29">
         <v>88438.723883617175</v>
       </c>
-      <c r="CO42" s="26">
+      <c r="CO42" s="29">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="26">
+      <c r="CP42" s="29">
         <v>118116.1769412344</v>
       </c>
-      <c r="CQ42" s="26">
+      <c r="CQ42" s="29">
         <v>97528.216759631192</v>
       </c>
-      <c r="CR42" s="11"/>
+      <c r="CR42" s="29">
+        <v>89201.096217502651</v>
+      </c>
       <c r="CS42" s="11"/>
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
@@ -7638,25 +7681,27 @@
       <c r="CK43" s="26">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="26">
+      <c r="CL43" s="29">
         <v>8777.79798832507</v>
       </c>
-      <c r="CM43" s="26">
+      <c r="CM43" s="29">
         <v>6176.0969761237629</v>
       </c>
-      <c r="CN43" s="26">
+      <c r="CN43" s="29">
         <v>8722.4214166068523</v>
       </c>
-      <c r="CO43" s="26">
+      <c r="CO43" s="29">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="26">
+      <c r="CP43" s="29">
         <v>9247.8830546496483</v>
       </c>
-      <c r="CQ43" s="26">
-        <v>6187.830506803055</v>
-      </c>
-      <c r="CR43" s="11"/>
+      <c r="CQ43" s="29">
+        <v>5847.2867246154101</v>
+      </c>
+      <c r="CR43" s="29">
+        <v>6820.8247494168027</v>
+      </c>
       <c r="CS43" s="11"/>
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
@@ -7982,25 +8027,27 @@
       <c r="CK44" s="26">
         <v>14155.001436112121</v>
       </c>
-      <c r="CL44" s="26">
+      <c r="CL44" s="29">
         <v>16228.514766005081</v>
       </c>
-      <c r="CM44" s="26">
+      <c r="CM44" s="29">
         <v>13565.303601549647</v>
       </c>
-      <c r="CN44" s="26">
+      <c r="CN44" s="29">
         <v>16274.78835007403</v>
       </c>
-      <c r="CO44" s="26">
+      <c r="CO44" s="29">
         <v>39277.580084628244</v>
       </c>
-      <c r="CP44" s="26">
+      <c r="CP44" s="29">
         <v>21179.110705268595</v>
       </c>
-      <c r="CQ44" s="26">
-        <v>15226.311395547053</v>
-      </c>
-      <c r="CR44" s="11"/>
+      <c r="CQ44" s="29">
+        <v>18516.072240827933</v>
+      </c>
+      <c r="CR44" s="29">
+        <v>18190.274978159021</v>
+      </c>
       <c r="CS44" s="11"/>
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
@@ -8147,13 +8194,13 @@
       <c r="CI45" s="11"/>
       <c r="CJ45" s="11"/>
       <c r="CK45" s="11"/>
-      <c r="CL45" s="11"/>
-      <c r="CM45" s="11"/>
-      <c r="CN45" s="11"/>
-      <c r="CO45" s="11"/>
-      <c r="CP45" s="11"/>
-      <c r="CQ45" s="11"/>
-      <c r="CR45" s="11"/>
+      <c r="CL45" s="12"/>
+      <c r="CM45" s="12"/>
+      <c r="CN45" s="12"/>
+      <c r="CO45" s="12"/>
+      <c r="CP45" s="12"/>
+      <c r="CQ45" s="12"/>
+      <c r="CR45" s="12"/>
       <c r="CS45" s="11"/>
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
@@ -8479,25 +8526,27 @@
       <c r="CK46" s="14">
         <v>302567.44887005404</v>
       </c>
-      <c r="CL46" s="14">
+      <c r="CL46" s="15">
         <v>340376.22104258387</v>
       </c>
-      <c r="CM46" s="14">
+      <c r="CM46" s="15">
         <v>291653.95086933492</v>
       </c>
-      <c r="CN46" s="14">
+      <c r="CN46" s="15">
         <v>387146.64561537752</v>
       </c>
-      <c r="CO46" s="14">
+      <c r="CO46" s="15">
         <v>453210.31140857324</v>
       </c>
-      <c r="CP46" s="14">
+      <c r="CP46" s="15">
         <v>420746.52041020658</v>
       </c>
-      <c r="CQ46" s="14">
-        <v>387517.1634799582</v>
-      </c>
-      <c r="CR46" s="11"/>
+      <c r="CQ46" s="15">
+        <v>383085.30257464526</v>
+      </c>
+      <c r="CR46" s="15">
+        <v>494265.93454337632</v>
+      </c>
       <c r="CS46" s="11"/>
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
@@ -8645,12 +8694,13 @@
       <c r="CI47" s="16"/>
       <c r="CJ47" s="16"/>
       <c r="CK47" s="16"/>
-      <c r="CL47" s="16"/>
-      <c r="CM47" s="16"/>
-      <c r="CN47" s="16"/>
-      <c r="CO47" s="16"/>
-      <c r="CP47" s="16"/>
-      <c r="CQ47" s="16"/>
+      <c r="CL47" s="17"/>
+      <c r="CM47" s="17"/>
+      <c r="CN47" s="17"/>
+      <c r="CO47" s="17"/>
+      <c r="CP47" s="17"/>
+      <c r="CQ47" s="17"/>
+      <c r="CR47" s="17"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8746,13 +8796,13 @@
       <c r="CI49" s="11"/>
       <c r="CJ49" s="11"/>
       <c r="CK49" s="11"/>
-      <c r="CL49" s="11"/>
-      <c r="CM49" s="11"/>
-      <c r="CN49" s="11"/>
-      <c r="CO49" s="11"/>
-      <c r="CP49" s="11"/>
-      <c r="CQ49" s="11"/>
-      <c r="CR49" s="11"/>
+      <c r="CL49" s="12"/>
+      <c r="CM49" s="12"/>
+      <c r="CN49" s="12"/>
+      <c r="CO49" s="12"/>
+      <c r="CP49" s="12"/>
+      <c r="CQ49" s="12"/>
+      <c r="CR49" s="12"/>
       <c r="CS49" s="11"/>
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
@@ -8899,13 +8949,13 @@
       <c r="CI50" s="11"/>
       <c r="CJ50" s="11"/>
       <c r="CK50" s="11"/>
-      <c r="CL50" s="11"/>
-      <c r="CM50" s="11"/>
-      <c r="CN50" s="11"/>
-      <c r="CO50" s="11"/>
-      <c r="CP50" s="11"/>
-      <c r="CQ50" s="11"/>
-      <c r="CR50" s="11"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
+      <c r="CO50" s="12"/>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
@@ -8995,148 +9045,147 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29" t="s">
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29" t="s">
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29" t="s">
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29" t="s">
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29" t="s">
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29" t="s">
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29" t="s">
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29" t="s">
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="33"/>
+      <c r="AL59" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29" t="s">
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29" t="s">
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33"/>
+      <c r="AT59" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="29"/>
-      <c r="AW59" s="29"/>
-      <c r="AX59" s="29" t="s">
+      <c r="AU59" s="33"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="29"/>
-      <c r="AZ59" s="29"/>
-      <c r="BA59" s="29"/>
-      <c r="BB59" s="29" t="s">
+      <c r="AY59" s="33"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33"/>
+      <c r="BB59" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="29"/>
-      <c r="BD59" s="29"/>
-      <c r="BE59" s="29"/>
-      <c r="BF59" s="29" t="s">
+      <c r="BC59" s="33"/>
+      <c r="BD59" s="33"/>
+      <c r="BE59" s="33"/>
+      <c r="BF59" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="29"/>
-      <c r="BH59" s="29"/>
-      <c r="BI59" s="29"/>
-      <c r="BJ59" s="29" t="s">
+      <c r="BG59" s="33"/>
+      <c r="BH59" s="33"/>
+      <c r="BI59" s="33"/>
+      <c r="BJ59" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="29"/>
-      <c r="BL59" s="29"/>
-      <c r="BM59" s="29"/>
-      <c r="BN59" s="29" t="s">
+      <c r="BK59" s="33"/>
+      <c r="BL59" s="33"/>
+      <c r="BM59" s="33"/>
+      <c r="BN59" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="29"/>
-      <c r="BP59" s="29"/>
-      <c r="BQ59" s="29"/>
-      <c r="BR59" s="29" t="s">
+      <c r="BO59" s="33"/>
+      <c r="BP59" s="33"/>
+      <c r="BQ59" s="33"/>
+      <c r="BR59" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="29"/>
-      <c r="BT59" s="29"/>
-      <c r="BU59" s="29"/>
-      <c r="BV59" s="28" t="s">
+      <c r="BS59" s="33"/>
+      <c r="BT59" s="33"/>
+      <c r="BU59" s="33"/>
+      <c r="BV59" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="28"/>
-      <c r="BX59" s="28"/>
-      <c r="BY59" s="28"/>
-      <c r="BZ59" s="28" t="s">
+      <c r="BW59" s="32"/>
+      <c r="BX59" s="32"/>
+      <c r="BY59" s="32"/>
+      <c r="BZ59" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="28"/>
-      <c r="CB59" s="28"/>
-      <c r="CC59" s="28"/>
-      <c r="CD59" s="29" t="s">
+      <c r="CA59" s="32"/>
+      <c r="CB59" s="32"/>
+      <c r="CC59" s="32"/>
+      <c r="CD59" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="29"/>
-      <c r="CF59" s="29"/>
-      <c r="CG59" s="29"/>
-      <c r="CH59" s="29" t="s">
+      <c r="CE59" s="33"/>
+      <c r="CF59" s="33"/>
+      <c r="CG59" s="33"/>
+      <c r="CH59" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="29"/>
-      <c r="CJ59" s="29"/>
-      <c r="CK59" s="29"/>
-      <c r="CL59" s="29" t="s">
+      <c r="CI59" s="33"/>
+      <c r="CJ59" s="33"/>
+      <c r="CK59" s="33"/>
+      <c r="CL59" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="29">
-        <v>0</v>
-      </c>
-      <c r="CN59" s="29"/>
-      <c r="CO59" s="29"/>
-      <c r="CP59" s="29"/>
-      <c r="CQ59" s="31"/>
+      <c r="CM59" s="32"/>
+      <c r="CN59" s="32"/>
+      <c r="CO59" s="30"/>
+      <c r="CP59" s="28"/>
+      <c r="CQ59" s="28"/>
+      <c r="CR59" s="28"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9404,16 +9453,19 @@
       <c r="CK60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="7" t="s">
+      <c r="CL60" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="7" t="s">
+      <c r="CM60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN60" s="7"/>
-      <c r="CO60" s="7"/>
-      <c r="CP60" s="7"/>
-      <c r="CQ60" s="7"/>
+      <c r="CN60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO60" s="19"/>
+      <c r="CP60" s="19"/>
+      <c r="CQ60" s="19"/>
+      <c r="CR60" s="19"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -9686,17 +9738,19 @@
       <c r="CK62" s="20">
         <v>37.23340660242323</v>
       </c>
-      <c r="CL62" s="20">
+      <c r="CL62" s="21">
         <v>31.792013276477263</v>
       </c>
-      <c r="CM62" s="20">
-        <v>38.122184954160161</v>
-      </c>
-      <c r="CN62" s="20"/>
-      <c r="CO62" s="20"/>
-      <c r="CP62" s="20"/>
-      <c r="CQ62" s="20"/>
-      <c r="CR62" s="11"/>
+      <c r="CM62" s="21">
+        <v>29.755185308119763</v>
+      </c>
+      <c r="CN62" s="21">
+        <v>-3.601739991957686</v>
+      </c>
+      <c r="CO62" s="21"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
       <c r="CS62" s="11"/>
       <c r="CT62" s="11"/>
       <c r="CU62" s="11"/>
@@ -10018,17 +10072,19 @@
       <c r="CK63" s="20">
         <v>3.7093831009075302</v>
       </c>
-      <c r="CL63" s="20">
+      <c r="CL63" s="21">
         <v>0.52439808821473832</v>
       </c>
-      <c r="CM63" s="20">
-        <v>7.9519855266324129</v>
-      </c>
-      <c r="CN63" s="20"/>
-      <c r="CO63" s="20"/>
-      <c r="CP63" s="20"/>
-      <c r="CQ63" s="20"/>
-      <c r="CR63" s="11"/>
+      <c r="CM63" s="21">
+        <v>5.4992829902999603</v>
+      </c>
+      <c r="CN63" s="21">
+        <v>-9.412511059970825</v>
+      </c>
+      <c r="CO63" s="21"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
       <c r="CS63" s="11"/>
       <c r="CT63" s="11"/>
       <c r="CU63" s="11"/>
@@ -10350,17 +10406,19 @@
       <c r="CK64" s="20">
         <v>79.444531646878943</v>
       </c>
-      <c r="CL64" s="20">
+      <c r="CL64" s="21">
         <v>79.279882648899473</v>
       </c>
-      <c r="CM64" s="20">
-        <v>101.45190844275595</v>
-      </c>
-      <c r="CN64" s="20"/>
-      <c r="CO64" s="20"/>
-      <c r="CP64" s="20"/>
-      <c r="CQ64" s="20"/>
-      <c r="CR64" s="11"/>
+      <c r="CM64" s="21">
+        <v>101.48931226141454</v>
+      </c>
+      <c r="CN64" s="21">
+        <v>112.04948791305037</v>
+      </c>
+      <c r="CO64" s="21"/>
+      <c r="CP64" s="21"/>
+      <c r="CQ64" s="21"/>
+      <c r="CR64" s="21"/>
       <c r="CS64" s="11"/>
       <c r="CT64" s="11"/>
       <c r="CU64" s="11"/>
@@ -10682,17 +10740,19 @@
       <c r="CK65" s="20">
         <v>1.1678899539499241</v>
       </c>
-      <c r="CL65" s="20">
+      <c r="CL65" s="21">
         <v>-0.90714423250227583</v>
       </c>
-      <c r="CM65" s="20">
-        <v>7.0823483806624807</v>
-      </c>
-      <c r="CN65" s="20"/>
-      <c r="CO65" s="20"/>
-      <c r="CP65" s="20"/>
-      <c r="CQ65" s="20"/>
-      <c r="CR65" s="11"/>
+      <c r="CM65" s="21">
+        <v>-0.71480813358768103</v>
+      </c>
+      <c r="CN65" s="21">
+        <v>-11.483323211544544</v>
+      </c>
+      <c r="CO65" s="21"/>
+      <c r="CP65" s="21"/>
+      <c r="CQ65" s="21"/>
+      <c r="CR65" s="21"/>
       <c r="CS65" s="11"/>
       <c r="CT65" s="11"/>
       <c r="CU65" s="11"/>
@@ -11014,17 +11074,19 @@
       <c r="CK66" s="20">
         <v>22.979646526647215</v>
       </c>
-      <c r="CL66" s="20">
+      <c r="CL66" s="21">
         <v>12.507458726789977</v>
       </c>
-      <c r="CM66" s="20">
-        <v>2.6850484112464414</v>
-      </c>
-      <c r="CN66" s="20"/>
-      <c r="CO66" s="20"/>
-      <c r="CP66" s="20"/>
-      <c r="CQ66" s="20"/>
-      <c r="CR66" s="11"/>
+      <c r="CM66" s="21">
+        <v>0.43063561430155062</v>
+      </c>
+      <c r="CN66" s="21">
+        <v>-7.9048865046572843</v>
+      </c>
+      <c r="CO66" s="21"/>
+      <c r="CP66" s="21"/>
+      <c r="CQ66" s="21"/>
+      <c r="CR66" s="21"/>
       <c r="CS66" s="11"/>
       <c r="CT66" s="11"/>
       <c r="CU66" s="11"/>
@@ -11346,17 +11408,19 @@
       <c r="CK67" s="20">
         <v>31.44501362956629</v>
       </c>
-      <c r="CL67" s="20">
+      <c r="CL67" s="21">
         <v>17.899614627162492</v>
       </c>
-      <c r="CM67" s="20">
+      <c r="CM67" s="21">
         <v>34.18933092439579</v>
       </c>
-      <c r="CN67" s="20"/>
-      <c r="CO67" s="20"/>
-      <c r="CP67" s="20"/>
-      <c r="CQ67" s="20"/>
-      <c r="CR67" s="11"/>
+      <c r="CN67" s="21">
+        <v>5.0946900101351673</v>
+      </c>
+      <c r="CO67" s="21"/>
+      <c r="CP67" s="21"/>
+      <c r="CQ67" s="21"/>
+      <c r="CR67" s="21"/>
       <c r="CS67" s="11"/>
       <c r="CT67" s="11"/>
       <c r="CU67" s="11"/>
@@ -11678,17 +11742,19 @@
       <c r="CK68" s="20">
         <v>-12.93777816295983</v>
       </c>
-      <c r="CL68" s="20">
+      <c r="CL68" s="21">
         <v>13.216046177766174</v>
       </c>
-      <c r="CM68" s="20">
-        <v>4.8300783976870747</v>
-      </c>
-      <c r="CN68" s="20"/>
-      <c r="CO68" s="20"/>
-      <c r="CP68" s="20"/>
-      <c r="CQ68" s="20"/>
-      <c r="CR68" s="11"/>
+      <c r="CM68" s="21">
+        <v>-0.93918618467779424</v>
+      </c>
+      <c r="CN68" s="21">
+        <v>-18.519652032673278</v>
+      </c>
+      <c r="CO68" s="21"/>
+      <c r="CP68" s="21"/>
+      <c r="CQ68" s="21"/>
+      <c r="CR68" s="21"/>
       <c r="CS68" s="11"/>
       <c r="CT68" s="11"/>
       <c r="CU68" s="11"/>
@@ -12010,17 +12076,19 @@
       <c r="CK69" s="20">
         <v>184.02751000759213</v>
       </c>
-      <c r="CL69" s="20">
+      <c r="CL69" s="21">
         <v>40.242673440182074</v>
       </c>
-      <c r="CM69" s="20">
-        <v>17.442908270207894</v>
-      </c>
-      <c r="CN69" s="20"/>
-      <c r="CO69" s="20"/>
-      <c r="CP69" s="20"/>
-      <c r="CQ69" s="20"/>
-      <c r="CR69" s="11"/>
+      <c r="CM69" s="21">
+        <v>42.817345397261221</v>
+      </c>
+      <c r="CN69" s="21">
+        <v>16.460047836256919</v>
+      </c>
+      <c r="CO69" s="21"/>
+      <c r="CP69" s="21"/>
+      <c r="CQ69" s="21"/>
+      <c r="CR69" s="21"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
@@ -12163,13 +12231,13 @@
       <c r="CI70" s="11"/>
       <c r="CJ70" s="11"/>
       <c r="CK70" s="11"/>
-      <c r="CL70" s="11"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="11"/>
-      <c r="CO70" s="11"/>
-      <c r="CP70" s="11"/>
-      <c r="CQ70" s="11"/>
-      <c r="CR70" s="11"/>
+      <c r="CL70" s="12"/>
+      <c r="CM70" s="12"/>
+      <c r="CN70" s="12"/>
+      <c r="CO70" s="12"/>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="12"/>
+      <c r="CR70" s="12"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
@@ -12491,17 +12559,19 @@
       <c r="CK71" s="20">
         <v>51.512488535353384</v>
       </c>
-      <c r="CL71" s="20">
+      <c r="CL71" s="21">
         <v>35.770768000843475</v>
       </c>
-      <c r="CM71" s="20">
-        <v>42.029593845766044</v>
-      </c>
-      <c r="CN71" s="20"/>
-      <c r="CO71" s="20"/>
-      <c r="CP71" s="20"/>
-      <c r="CQ71" s="20"/>
-      <c r="CR71" s="11"/>
+      <c r="CM71" s="21">
+        <v>40.544281740576139</v>
+      </c>
+      <c r="CN71" s="21">
+        <v>29.918591940545184</v>
+      </c>
+      <c r="CO71" s="21"/>
+      <c r="CP71" s="21"/>
+      <c r="CQ71" s="21"/>
+      <c r="CR71" s="21"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
@@ -12645,12 +12715,13 @@
       <c r="CI72" s="16"/>
       <c r="CJ72" s="16"/>
       <c r="CK72" s="16"/>
-      <c r="CL72" s="16"/>
-      <c r="CM72" s="16"/>
-      <c r="CN72" s="16"/>
-      <c r="CO72" s="16"/>
-      <c r="CP72" s="16"/>
-      <c r="CQ72" s="16"/>
+      <c r="CL72" s="17"/>
+      <c r="CM72" s="17"/>
+      <c r="CN72" s="17"/>
+      <c r="CO72" s="17"/>
+      <c r="CP72" s="17"/>
+      <c r="CQ72" s="17"/>
+      <c r="CR72" s="17"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
@@ -12746,13 +12817,13 @@
       <c r="CI74" s="11"/>
       <c r="CJ74" s="11"/>
       <c r="CK74" s="11"/>
-      <c r="CL74" s="11"/>
-      <c r="CM74" s="11"/>
-      <c r="CN74" s="11"/>
-      <c r="CO74" s="11"/>
-      <c r="CP74" s="11"/>
-      <c r="CQ74" s="11"/>
-      <c r="CR74" s="11"/>
+      <c r="CL74" s="12"/>
+      <c r="CM74" s="12"/>
+      <c r="CN74" s="12"/>
+      <c r="CO74" s="12"/>
+      <c r="CP74" s="12"/>
+      <c r="CQ74" s="12"/>
+      <c r="CR74" s="12"/>
       <c r="CS74" s="11"/>
       <c r="CT74" s="11"/>
       <c r="CU74" s="11"/>
@@ -12895,13 +12966,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
+      <c r="CL75" s="12"/>
+      <c r="CM75" s="12"/>
+      <c r="CN75" s="12"/>
+      <c r="CO75" s="12"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="12"/>
+      <c r="CR75" s="12"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -12987,148 +13058,147 @@
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29" t="s">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29" t="s">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29" t="s">
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29" t="s">
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29" t="s">
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29" t="s">
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="29" t="s">
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="29"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="29"/>
-      <c r="AL84" s="29" t="s">
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="29"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="29" t="s">
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="29"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="29" t="s">
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="29" t="s">
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="29"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="29" t="s">
+      <c r="AY84" s="33"/>
+      <c r="AZ84" s="33"/>
+      <c r="BA84" s="33"/>
+      <c r="BB84" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="29"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="29" t="s">
+      <c r="BC84" s="33"/>
+      <c r="BD84" s="33"/>
+      <c r="BE84" s="33"/>
+      <c r="BF84" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="29" t="s">
+      <c r="BG84" s="33"/>
+      <c r="BH84" s="33"/>
+      <c r="BI84" s="33"/>
+      <c r="BJ84" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="29" t="s">
+      <c r="BK84" s="33"/>
+      <c r="BL84" s="33"/>
+      <c r="BM84" s="33"/>
+      <c r="BN84" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="29" t="s">
+      <c r="BO84" s="33"/>
+      <c r="BP84" s="33"/>
+      <c r="BQ84" s="33"/>
+      <c r="BR84" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="28" t="s">
+      <c r="BS84" s="33"/>
+      <c r="BT84" s="33"/>
+      <c r="BU84" s="33"/>
+      <c r="BV84" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="28"/>
-      <c r="BX84" s="28"/>
-      <c r="BY84" s="28"/>
-      <c r="BZ84" s="28" t="s">
+      <c r="BW84" s="32"/>
+      <c r="BX84" s="32"/>
+      <c r="BY84" s="32"/>
+      <c r="BZ84" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="28"/>
-      <c r="CB84" s="28"/>
-      <c r="CC84" s="28"/>
-      <c r="CD84" s="29" t="s">
+      <c r="CA84" s="32"/>
+      <c r="CB84" s="32"/>
+      <c r="CC84" s="32"/>
+      <c r="CD84" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="29"/>
-      <c r="CF84" s="29"/>
-      <c r="CG84" s="29"/>
-      <c r="CH84" s="29" t="s">
+      <c r="CE84" s="33"/>
+      <c r="CF84" s="33"/>
+      <c r="CG84" s="33"/>
+      <c r="CH84" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="29"/>
-      <c r="CL84" s="29" t="s">
+      <c r="CI84" s="33"/>
+      <c r="CJ84" s="33"/>
+      <c r="CK84" s="33"/>
+      <c r="CL84" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="29">
-        <v>0</v>
-      </c>
-      <c r="CN84" s="29"/>
-      <c r="CO84" s="29"/>
-      <c r="CP84" s="29"/>
-      <c r="CQ84" s="31"/>
+      <c r="CM84" s="32"/>
+      <c r="CN84" s="32"/>
+      <c r="CO84" s="30"/>
+      <c r="CP84" s="28"/>
+      <c r="CQ84" s="28"/>
+      <c r="CR84" s="28"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13396,16 +13466,19 @@
       <c r="CK85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6"/>
-      <c r="CO85" s="6"/>
-      <c r="CP85" s="6"/>
-      <c r="CQ85" s="6"/>
+      <c r="CN85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO85" s="7"/>
+      <c r="CP85" s="7"/>
+      <c r="CQ85" s="7"/>
+      <c r="CR85" s="7"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
@@ -13678,17 +13751,19 @@
       <c r="CK87" s="20">
         <v>36.947095115434507</v>
       </c>
-      <c r="CL87" s="20">
+      <c r="CL87" s="21">
         <v>24.793568958170368</v>
       </c>
-      <c r="CM87" s="20">
-        <v>30.836424952908914</v>
-      </c>
-      <c r="CN87" s="20"/>
-      <c r="CO87" s="20"/>
-      <c r="CP87" s="20"/>
-      <c r="CQ87" s="20"/>
-      <c r="CR87" s="11"/>
+      <c r="CM87" s="21">
+        <v>22.910773316037591</v>
+      </c>
+      <c r="CN87" s="21">
+        <v>-7.433957313682896</v>
+      </c>
+      <c r="CO87" s="21"/>
+      <c r="CP87" s="21"/>
+      <c r="CQ87" s="21"/>
+      <c r="CR87" s="21"/>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
@@ -14010,17 +14085,19 @@
       <c r="CK88" s="20">
         <v>1.3193627192295025</v>
       </c>
-      <c r="CL88" s="20">
+      <c r="CL88" s="21">
         <v>-6.4550720761154707</v>
       </c>
-      <c r="CM88" s="20">
-        <v>3.1737050442559109</v>
-      </c>
-      <c r="CN88" s="20"/>
-      <c r="CO88" s="20"/>
-      <c r="CP88" s="20"/>
-      <c r="CQ88" s="20"/>
-      <c r="CR88" s="11"/>
+      <c r="CM88" s="21">
+        <v>0.82956651998176767</v>
+      </c>
+      <c r="CN88" s="21">
+        <v>-13.060893598179177</v>
+      </c>
+      <c r="CO88" s="21"/>
+      <c r="CP88" s="21"/>
+      <c r="CQ88" s="21"/>
+      <c r="CR88" s="21"/>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
@@ -14342,17 +14419,19 @@
       <c r="CK89" s="20">
         <v>75.586048994618437</v>
       </c>
-      <c r="CL89" s="20">
+      <c r="CL89" s="21">
         <v>66.253700656478088</v>
       </c>
-      <c r="CM89" s="20">
-        <v>77.95333618083805</v>
-      </c>
-      <c r="CN89" s="20"/>
-      <c r="CO89" s="20"/>
-      <c r="CP89" s="20"/>
-      <c r="CQ89" s="20"/>
-      <c r="CR89" s="11"/>
+      <c r="CM89" s="21">
+        <v>77.986376991260983</v>
+      </c>
+      <c r="CN89" s="21">
+        <v>103.0138296725537</v>
+      </c>
+      <c r="CO89" s="21"/>
+      <c r="CP89" s="21"/>
+      <c r="CQ89" s="21"/>
+      <c r="CR89" s="21"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
@@ -14674,17 +14753,19 @@
       <c r="CK90" s="20">
         <v>-1.1635607955549858</v>
       </c>
-      <c r="CL90" s="20">
+      <c r="CL90" s="21">
         <v>-7.7872215418993846</v>
       </c>
-      <c r="CM90" s="20">
-        <v>2.3425606613515839</v>
-      </c>
-      <c r="CN90" s="20"/>
-      <c r="CO90" s="20"/>
-      <c r="CP90" s="20"/>
-      <c r="CQ90" s="20"/>
-      <c r="CR90" s="11"/>
+      <c r="CM90" s="21">
+        <v>-5.1094701879251971</v>
+      </c>
+      <c r="CN90" s="21">
+        <v>-15.048304443655184</v>
+      </c>
+      <c r="CO90" s="21"/>
+      <c r="CP90" s="21"/>
+      <c r="CQ90" s="21"/>
+      <c r="CR90" s="21"/>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
@@ -15006,17 +15087,19 @@
       <c r="CK91" s="20">
         <v>20.145535928917965</v>
       </c>
-      <c r="CL91" s="20">
+      <c r="CL91" s="21">
         <v>4.6959973663433345</v>
       </c>
-      <c r="CM91" s="20">
-        <v>-1.8601015483556864</v>
-      </c>
-      <c r="CN91" s="20"/>
-      <c r="CO91" s="20"/>
-      <c r="CP91" s="20"/>
-      <c r="CQ91" s="20"/>
-      <c r="CR91" s="11"/>
+      <c r="CM91" s="21">
+        <v>-4.0147272351857453</v>
+      </c>
+      <c r="CN91" s="21">
+        <v>-11.613988146200327</v>
+      </c>
+      <c r="CO91" s="21"/>
+      <c r="CP91" s="21"/>
+      <c r="CQ91" s="21"/>
+      <c r="CR91" s="21"/>
       <c r="CS91" s="11"/>
       <c r="CT91" s="11"/>
       <c r="CU91" s="11"/>
@@ -15338,17 +15421,19 @@
       <c r="CK92" s="20">
         <v>28.415815573890455</v>
       </c>
-      <c r="CL92" s="20">
+      <c r="CL92" s="21">
         <v>9.7137725994967781</v>
       </c>
-      <c r="CM92" s="20">
+      <c r="CM92" s="21">
         <v>28.249706398073243</v>
       </c>
-      <c r="CN92" s="20"/>
-      <c r="CO92" s="20"/>
-      <c r="CP92" s="20"/>
-      <c r="CQ92" s="20"/>
-      <c r="CR92" s="11"/>
+      <c r="CN92" s="21">
+        <v>0.86203452560977212</v>
+      </c>
+      <c r="CO92" s="21"/>
+      <c r="CP92" s="21"/>
+      <c r="CQ92" s="21"/>
+      <c r="CR92" s="21"/>
       <c r="CS92" s="11"/>
       <c r="CT92" s="11"/>
       <c r="CU92" s="11"/>
@@ -15670,17 +15755,19 @@
       <c r="CK93" s="20">
         <v>-14.944158670133817</v>
       </c>
-      <c r="CL93" s="20">
+      <c r="CL93" s="21">
         <v>5.3553871591692541</v>
       </c>
-      <c r="CM93" s="20">
-        <v>0.18998294108160962</v>
-      </c>
-      <c r="CN93" s="20"/>
-      <c r="CO93" s="20"/>
-      <c r="CP93" s="20"/>
-      <c r="CQ93" s="20"/>
-      <c r="CR93" s="11"/>
+      <c r="CM93" s="21">
+        <v>-5.3239165897087446</v>
+      </c>
+      <c r="CN93" s="21">
+        <v>-21.801247341358092</v>
+      </c>
+      <c r="CO93" s="21"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
       <c r="CS93" s="11"/>
       <c r="CT93" s="11"/>
       <c r="CU93" s="11"/>
@@ -16002,17 +16089,19 @@
       <c r="CK94" s="20">
         <v>177.48199293306754</v>
       </c>
-      <c r="CL94" s="20">
+      <c r="CL94" s="21">
         <v>30.505539235382429</v>
       </c>
-      <c r="CM94" s="20">
-        <v>12.244530920838798</v>
-      </c>
-      <c r="CN94" s="20"/>
-      <c r="CO94" s="20"/>
-      <c r="CP94" s="20"/>
-      <c r="CQ94" s="20"/>
-      <c r="CR94" s="11"/>
+      <c r="CM94" s="21">
+        <v>36.495818926697126</v>
+      </c>
+      <c r="CN94" s="21">
+        <v>11.769656150866496</v>
+      </c>
+      <c r="CO94" s="21"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
       <c r="CS94" s="11"/>
       <c r="CT94" s="11"/>
       <c r="CU94" s="11"/>
@@ -16155,13 +16244,13 @@
       <c r="CI95" s="11"/>
       <c r="CJ95" s="11"/>
       <c r="CK95" s="11"/>
-      <c r="CL95" s="11"/>
-      <c r="CM95" s="11"/>
-      <c r="CN95" s="11"/>
-      <c r="CO95" s="11"/>
-      <c r="CP95" s="11"/>
-      <c r="CQ95" s="11"/>
-      <c r="CR95" s="11"/>
+      <c r="CL95" s="12"/>
+      <c r="CM95" s="12"/>
+      <c r="CN95" s="12"/>
+      <c r="CO95" s="12"/>
+      <c r="CP95" s="12"/>
+      <c r="CQ95" s="12"/>
+      <c r="CR95" s="12"/>
       <c r="CS95" s="11"/>
       <c r="CT95" s="11"/>
       <c r="CU95" s="11"/>
@@ -16483,17 +16572,19 @@
       <c r="CK96" s="20">
         <v>49.788192054729905</v>
       </c>
-      <c r="CL96" s="20">
+      <c r="CL96" s="21">
         <v>23.612195682014956</v>
       </c>
-      <c r="CM96" s="20">
-        <v>32.868820163376199</v>
-      </c>
-      <c r="CN96" s="20"/>
-      <c r="CO96" s="20"/>
-      <c r="CP96" s="20"/>
-      <c r="CQ96" s="20"/>
-      <c r="CR96" s="11"/>
+      <c r="CM96" s="21">
+        <v>31.349258747491774</v>
+      </c>
+      <c r="CN96" s="21">
+        <v>27.668918261639732</v>
+      </c>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
       <c r="CS96" s="11"/>
       <c r="CT96" s="11"/>
       <c r="CU96" s="11"/>
@@ -16637,12 +16728,13 @@
       <c r="CI97" s="16"/>
       <c r="CJ97" s="16"/>
       <c r="CK97" s="16"/>
-      <c r="CL97" s="16"/>
-      <c r="CM97" s="16"/>
-      <c r="CN97" s="16"/>
-      <c r="CO97" s="16"/>
-      <c r="CP97" s="16"/>
-      <c r="CQ97" s="16"/>
+      <c r="CL97" s="17"/>
+      <c r="CM97" s="17"/>
+      <c r="CN97" s="17"/>
+      <c r="CO97" s="17"/>
+      <c r="CP97" s="17"/>
+      <c r="CQ97" s="17"/>
+      <c r="CR97" s="17"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
@@ -16738,13 +16830,13 @@
       <c r="CI99" s="11"/>
       <c r="CJ99" s="11"/>
       <c r="CK99" s="11"/>
-      <c r="CL99" s="11"/>
-      <c r="CM99" s="11"/>
-      <c r="CN99" s="11"/>
-      <c r="CO99" s="11"/>
-      <c r="CP99" s="11"/>
-      <c r="CQ99" s="11"/>
-      <c r="CR99" s="11"/>
+      <c r="CL99" s="12"/>
+      <c r="CM99" s="12"/>
+      <c r="CN99" s="12"/>
+      <c r="CO99" s="12"/>
+      <c r="CP99" s="12"/>
+      <c r="CQ99" s="12"/>
+      <c r="CR99" s="12"/>
       <c r="CS99" s="11"/>
       <c r="CT99" s="11"/>
       <c r="CU99" s="11"/>
@@ -16887,13 +16979,13 @@
       <c r="CI100" s="11"/>
       <c r="CJ100" s="11"/>
       <c r="CK100" s="11"/>
-      <c r="CL100" s="11"/>
-      <c r="CM100" s="11"/>
-      <c r="CN100" s="11"/>
-      <c r="CO100" s="11"/>
-      <c r="CP100" s="11"/>
-      <c r="CQ100" s="11"/>
-      <c r="CR100" s="11"/>
+      <c r="CL100" s="12"/>
+      <c r="CM100" s="12"/>
+      <c r="CN100" s="12"/>
+      <c r="CO100" s="12"/>
+      <c r="CP100" s="12"/>
+      <c r="CQ100" s="12"/>
+      <c r="CR100" s="12"/>
       <c r="CS100" s="11"/>
       <c r="CT100" s="11"/>
       <c r="CU100" s="11"/>
@@ -16974,148 +17066,149 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="28">
+      <c r="B108" s="32">
         <v>2000</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28">
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32">
         <v>2001</v>
       </c>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28">
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32">
         <v>2002</v>
       </c>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28">
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32">
         <v>2003</v>
       </c>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28">
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32">
         <v>2004</v>
       </c>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
-      <c r="U108" s="28"/>
-      <c r="V108" s="28">
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32">
         <v>2005</v>
       </c>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28">
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32">
         <v>2006</v>
       </c>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28">
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32">
         <v>2007</v>
       </c>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="28"/>
-      <c r="AG108" s="28"/>
-      <c r="AH108" s="28">
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32">
         <v>2008</v>
       </c>
-      <c r="AI108" s="28"/>
-      <c r="AJ108" s="28"/>
-      <c r="AK108" s="28"/>
-      <c r="AL108" s="28">
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="32"/>
+      <c r="AK108" s="32"/>
+      <c r="AL108" s="32">
         <v>2009</v>
       </c>
-      <c r="AM108" s="28"/>
-      <c r="AN108" s="28"/>
-      <c r="AO108" s="28"/>
-      <c r="AP108" s="28">
+      <c r="AM108" s="32"/>
+      <c r="AN108" s="32"/>
+      <c r="AO108" s="32"/>
+      <c r="AP108" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="28"/>
-      <c r="AR108" s="28"/>
-      <c r="AS108" s="28"/>
-      <c r="AT108" s="28">
+      <c r="AQ108" s="32"/>
+      <c r="AR108" s="32"/>
+      <c r="AS108" s="32"/>
+      <c r="AT108" s="32">
         <v>2011</v>
       </c>
-      <c r="AU108" s="28"/>
-      <c r="AV108" s="28"/>
-      <c r="AW108" s="28"/>
-      <c r="AX108" s="28">
+      <c r="AU108" s="32"/>
+      <c r="AV108" s="32"/>
+      <c r="AW108" s="32"/>
+      <c r="AX108" s="32">
         <v>2012</v>
       </c>
-      <c r="AY108" s="28"/>
-      <c r="AZ108" s="28"/>
-      <c r="BA108" s="28"/>
-      <c r="BB108" s="28">
+      <c r="AY108" s="32"/>
+      <c r="AZ108" s="32"/>
+      <c r="BA108" s="32"/>
+      <c r="BB108" s="32">
         <v>2013</v>
       </c>
-      <c r="BC108" s="28"/>
-      <c r="BD108" s="28"/>
-      <c r="BE108" s="28"/>
-      <c r="BF108" s="28">
+      <c r="BC108" s="32"/>
+      <c r="BD108" s="32"/>
+      <c r="BE108" s="32"/>
+      <c r="BF108" s="32">
         <v>2014</v>
       </c>
-      <c r="BG108" s="28"/>
-      <c r="BH108" s="28"/>
-      <c r="BI108" s="28"/>
-      <c r="BJ108" s="28">
+      <c r="BG108" s="32"/>
+      <c r="BH108" s="32"/>
+      <c r="BI108" s="32"/>
+      <c r="BJ108" s="32">
         <v>2015</v>
       </c>
-      <c r="BK108" s="28"/>
-      <c r="BL108" s="28"/>
-      <c r="BM108" s="28"/>
-      <c r="BN108" s="28">
+      <c r="BK108" s="32"/>
+      <c r="BL108" s="32"/>
+      <c r="BM108" s="32"/>
+      <c r="BN108" s="32">
         <v>2016</v>
       </c>
-      <c r="BO108" s="28"/>
-      <c r="BP108" s="28"/>
-      <c r="BQ108" s="28"/>
-      <c r="BR108" s="28">
+      <c r="BO108" s="32"/>
+      <c r="BP108" s="32"/>
+      <c r="BQ108" s="32"/>
+      <c r="BR108" s="32">
         <v>2017</v>
       </c>
-      <c r="BS108" s="28"/>
-      <c r="BT108" s="28"/>
-      <c r="BU108" s="28"/>
-      <c r="BV108" s="30">
+      <c r="BS108" s="32"/>
+      <c r="BT108" s="32"/>
+      <c r="BU108" s="32"/>
+      <c r="BV108" s="34">
         <v>2018</v>
       </c>
-      <c r="BW108" s="30"/>
-      <c r="BX108" s="30"/>
-      <c r="BY108" s="30"/>
-      <c r="BZ108" s="30">
+      <c r="BW108" s="34"/>
+      <c r="BX108" s="34"/>
+      <c r="BY108" s="34"/>
+      <c r="BZ108" s="34">
         <v>2019</v>
       </c>
-      <c r="CA108" s="30"/>
-      <c r="CB108" s="30"/>
-      <c r="CC108" s="30"/>
-      <c r="CD108" s="29">
+      <c r="CA108" s="34"/>
+      <c r="CB108" s="34"/>
+      <c r="CC108" s="34"/>
+      <c r="CD108" s="33">
         <v>2020</v>
       </c>
-      <c r="CE108" s="29"/>
-      <c r="CF108" s="29"/>
-      <c r="CG108" s="29"/>
-      <c r="CH108" s="29">
+      <c r="CE108" s="33"/>
+      <c r="CF108" s="33"/>
+      <c r="CG108" s="33"/>
+      <c r="CH108" s="33">
         <v>2021</v>
       </c>
-      <c r="CI108" s="29"/>
-      <c r="CJ108" s="29"/>
-      <c r="CK108" s="29"/>
-      <c r="CL108" s="29">
+      <c r="CI108" s="33"/>
+      <c r="CJ108" s="33"/>
+      <c r="CK108" s="33"/>
+      <c r="CL108" s="32">
         <v>2022</v>
       </c>
-      <c r="CM108" s="29"/>
-      <c r="CN108" s="29"/>
-      <c r="CO108" s="29"/>
-      <c r="CP108" s="29">
+      <c r="CM108" s="32"/>
+      <c r="CN108" s="32"/>
+      <c r="CO108" s="32"/>
+      <c r="CP108" s="32">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="31"/>
+      <c r="CQ108" s="32"/>
+      <c r="CR108" s="32"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17383,23 +17476,26 @@
       <c r="CK109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="7" t="s">
+      <c r="CL109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="7" t="s">
+      <c r="CM109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="7" t="s">
+      <c r="CN109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CO109" s="7" t="s">
+      <c r="CO109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CR109" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17673,25 +17769,27 @@
       <c r="CK111" s="20">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="20">
+      <c r="CL111" s="21">
         <v>98.189924450577621</v>
       </c>
-      <c r="CM111" s="20">
+      <c r="CM111" s="21">
         <v>106.184238788065</v>
       </c>
-      <c r="CN111" s="20">
+      <c r="CN111" s="21">
         <v>104.0191102124076</v>
       </c>
-      <c r="CO111" s="20">
+      <c r="CO111" s="21">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="20">
+      <c r="CP111" s="21">
         <v>103.69643191424717</v>
       </c>
-      <c r="CQ111" s="20">
-        <v>112.09721661517884</v>
-      </c>
-      <c r="CR111" s="11"/>
+      <c r="CQ111" s="21">
+        <v>112.09721661517887</v>
+      </c>
+      <c r="CR111" s="21">
+        <v>108.32548244544414</v>
+      </c>
       <c r="CS111" s="11"/>
       <c r="CT111" s="11"/>
       <c r="CU111" s="11"/>
@@ -18017,25 +18115,27 @@
       <c r="CK112" s="20">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="20">
+      <c r="CL112" s="21">
         <v>79.624590059843584</v>
       </c>
-      <c r="CM112" s="20">
+      <c r="CM112" s="21">
         <v>120.36360117264438</v>
       </c>
-      <c r="CN112" s="20">
+      <c r="CN112" s="21">
         <v>108.44638908428462</v>
       </c>
-      <c r="CO112" s="20">
+      <c r="CO112" s="21">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="20">
+      <c r="CP112" s="21">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="20">
+      <c r="CQ112" s="21">
         <v>125.93799676137598</v>
       </c>
-      <c r="CR112" s="11"/>
+      <c r="CR112" s="21">
+        <v>112.99732051942262</v>
+      </c>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
@@ -18361,25 +18461,27 @@
       <c r="CK113" s="20">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="20">
+      <c r="CL113" s="21">
         <v>113.4294965784437</v>
       </c>
-      <c r="CM113" s="20">
+      <c r="CM113" s="21">
         <v>110.52510229947529</v>
       </c>
-      <c r="CN113" s="20">
+      <c r="CN113" s="21">
         <v>92.628372641209594</v>
       </c>
-      <c r="CO113" s="20">
+      <c r="CO113" s="21">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="20">
+      <c r="CP113" s="21">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="20">
+      <c r="CQ113" s="21">
         <v>125.11983909328738</v>
       </c>
-      <c r="CR113" s="11"/>
+      <c r="CR113" s="21">
+        <v>96.751039160575758</v>
+      </c>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
@@ -18705,25 +18807,27 @@
       <c r="CK114" s="20">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="20">
+      <c r="CL114" s="21">
         <v>89.515510222693749</v>
       </c>
-      <c r="CM114" s="20">
+      <c r="CM114" s="21">
         <v>112.1277716735175</v>
       </c>
-      <c r="CN114" s="20">
+      <c r="CN114" s="21">
         <v>106.20795046709245</v>
       </c>
-      <c r="CO114" s="20">
+      <c r="CO114" s="21">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="20">
+      <c r="CP114" s="21">
         <v>96.19434195318</v>
       </c>
-      <c r="CQ114" s="20">
+      <c r="CQ114" s="21">
         <v>117.32074155562185</v>
       </c>
-      <c r="CR114" s="11"/>
+      <c r="CR114" s="21">
+        <v>110.66494626495727</v>
+      </c>
       <c r="CS114" s="11"/>
       <c r="CT114" s="11"/>
       <c r="CU114" s="11"/>
@@ -19049,25 +19153,27 @@
       <c r="CK115" s="20">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="20">
+      <c r="CL115" s="21">
         <v>85.930281884199488</v>
       </c>
-      <c r="CM115" s="20">
+      <c r="CM115" s="21">
         <v>116.162696075182</v>
       </c>
-      <c r="CN115" s="20">
+      <c r="CN115" s="21">
         <v>109.10310770619809</v>
       </c>
-      <c r="CO115" s="20">
+      <c r="CO115" s="21">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="20">
+      <c r="CP115" s="21">
         <v>92.341616543746824</v>
       </c>
-      <c r="CQ115" s="20">
-        <v>121.54253528128768</v>
-      </c>
-      <c r="CR115" s="11"/>
+      <c r="CQ115" s="21">
+        <v>121.54253528128771</v>
+      </c>
+      <c r="CR115" s="21">
+        <v>113.68159820942256</v>
+      </c>
       <c r="CS115" s="11"/>
       <c r="CT115" s="11"/>
       <c r="CU115" s="11"/>
@@ -19393,25 +19499,27 @@
       <c r="CK116" s="20">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="20">
+      <c r="CL116" s="21">
         <v>84.279302675582741</v>
       </c>
-      <c r="CM116" s="20">
+      <c r="CM116" s="21">
         <v>114.39406414677018</v>
       </c>
-      <c r="CN116" s="20">
+      <c r="CN116" s="21">
         <v>107.61374489975071</v>
       </c>
-      <c r="CO116" s="20">
+      <c r="CO116" s="21">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="20">
+      <c r="CP116" s="21">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="20">
+      <c r="CQ116" s="21">
         <v>119.69199275927636</v>
       </c>
-      <c r="CR116" s="11"/>
+      <c r="CR116" s="21">
+        <v>112.12973458509255</v>
+      </c>
       <c r="CS116" s="11"/>
       <c r="CT116" s="11"/>
       <c r="CU116" s="11"/>
@@ -19737,25 +19845,27 @@
       <c r="CK117" s="20">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="20">
+      <c r="CL117" s="21">
         <v>85.433502779159724</v>
       </c>
-      <c r="CM117" s="20">
+      <c r="CM117" s="21">
         <v>116.46770731932735</v>
       </c>
-      <c r="CN117" s="20">
+      <c r="CN117" s="21">
         <v>109.8154814375863</v>
       </c>
-      <c r="CO117" s="20">
+      <c r="CO117" s="21">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="20">
+      <c r="CP117" s="21">
         <v>91.807772308412552</v>
       </c>
-      <c r="CQ117" s="20">
+      <c r="CQ117" s="21">
         <v>121.86167250137024</v>
       </c>
-      <c r="CR117" s="11"/>
+      <c r="CR117" s="21">
+        <v>114.42386656464396</v>
+      </c>
       <c r="CS117" s="11"/>
       <c r="CT117" s="11"/>
       <c r="CU117" s="11"/>
@@ -20081,25 +20191,27 @@
       <c r="CK118" s="20">
         <v>108.15787748120907</v>
       </c>
-      <c r="CL118" s="20">
+      <c r="CL118" s="21">
         <v>84.83307119223295</v>
       </c>
-      <c r="CM118" s="20">
+      <c r="CM118" s="21">
         <v>115.76909432267084</v>
       </c>
-      <c r="CN118" s="20">
+      <c r="CN118" s="21">
         <v>109.11877545890869</v>
       </c>
-      <c r="CO118" s="20">
+      <c r="CO118" s="21">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="20">
+      <c r="CP118" s="21">
         <v>91.162541987447611</v>
       </c>
-      <c r="CQ118" s="20">
-        <v>121.13070466347557</v>
-      </c>
-      <c r="CR118" s="11"/>
+      <c r="CQ118" s="21">
+        <v>121.1307046634756</v>
+      </c>
+      <c r="CR118" s="21">
+        <v>113.69792345630086</v>
+      </c>
       <c r="CS118" s="11"/>
       <c r="CT118" s="11"/>
       <c r="CU118" s="11"/>
@@ -20246,13 +20358,13 @@
       <c r="CI119" s="11"/>
       <c r="CJ119" s="11"/>
       <c r="CK119" s="11"/>
-      <c r="CL119" s="11"/>
-      <c r="CM119" s="11"/>
-      <c r="CN119" s="11"/>
-      <c r="CO119" s="11"/>
-      <c r="CP119" s="11"/>
-      <c r="CQ119" s="11"/>
-      <c r="CR119" s="11"/>
+      <c r="CL119" s="12"/>
+      <c r="CM119" s="12"/>
+      <c r="CN119" s="12"/>
+      <c r="CO119" s="12"/>
+      <c r="CP119" s="12"/>
+      <c r="CQ119" s="12"/>
+      <c r="CR119" s="12"/>
       <c r="CS119" s="11"/>
       <c r="CT119" s="11"/>
       <c r="CU119" s="11"/>
@@ -20578,25 +20690,27 @@
       <c r="CK120" s="20">
         <v>101.73844645169308</v>
       </c>
-      <c r="CL120" s="20">
+      <c r="CL120" s="21">
         <v>93.191097171230965</v>
       </c>
-      <c r="CM120" s="20">
+      <c r="CM120" s="21">
         <v>112.31110088630707</v>
       </c>
-      <c r="CN120" s="20">
+      <c r="CN120" s="21">
         <v>102.38584009601688</v>
       </c>
-      <c r="CO120" s="20">
+      <c r="CO120" s="21">
         <v>102.9096151716991</v>
       </c>
-      <c r="CP120" s="20">
+      <c r="CP120" s="21">
         <v>102.35743135189826</v>
       </c>
-      <c r="CQ120" s="20">
-        <v>120.05450205427428</v>
-      </c>
-      <c r="CR120" s="11"/>
+      <c r="CQ120" s="21">
+        <v>120.17336950415667</v>
+      </c>
+      <c r="CR120" s="21">
+        <v>104.1899967591492</v>
+      </c>
       <c r="CS120" s="11"/>
       <c r="CT120" s="11"/>
       <c r="CU120" s="11"/>
@@ -20744,12 +20858,13 @@
       <c r="CI121" s="16"/>
       <c r="CJ121" s="16"/>
       <c r="CK121" s="16"/>
-      <c r="CL121" s="16"/>
-      <c r="CM121" s="16"/>
-      <c r="CN121" s="16"/>
-      <c r="CO121" s="16"/>
-      <c r="CP121" s="16"/>
-      <c r="CQ121" s="16"/>
+      <c r="CL121" s="17"/>
+      <c r="CM121" s="17"/>
+      <c r="CN121" s="17"/>
+      <c r="CO121" s="17"/>
+      <c r="CP121" s="17"/>
+      <c r="CQ121" s="17"/>
+      <c r="CR121" s="17"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -20788,148 +20903,149 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="28">
+      <c r="B133" s="32">
         <v>2000</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28">
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32">
         <v>2001</v>
       </c>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28">
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32">
         <v>2002</v>
       </c>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28">
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="32">
         <v>2003</v>
       </c>
-      <c r="O133" s="28"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="28">
+      <c r="O133" s="32"/>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="32">
         <v>2004</v>
       </c>
-      <c r="S133" s="28"/>
-      <c r="T133" s="28"/>
-      <c r="U133" s="28"/>
-      <c r="V133" s="28">
+      <c r="S133" s="32"/>
+      <c r="T133" s="32"/>
+      <c r="U133" s="32"/>
+      <c r="V133" s="32">
         <v>2005</v>
       </c>
-      <c r="W133" s="28"/>
-      <c r="X133" s="28"/>
-      <c r="Y133" s="28"/>
-      <c r="Z133" s="28">
+      <c r="W133" s="32"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="32"/>
+      <c r="Z133" s="32">
         <v>2006</v>
       </c>
-      <c r="AA133" s="28"/>
-      <c r="AB133" s="28"/>
-      <c r="AC133" s="28"/>
-      <c r="AD133" s="28">
+      <c r="AA133" s="32"/>
+      <c r="AB133" s="32"/>
+      <c r="AC133" s="32"/>
+      <c r="AD133" s="32">
         <v>2007</v>
       </c>
-      <c r="AE133" s="28"/>
-      <c r="AF133" s="28"/>
-      <c r="AG133" s="28"/>
-      <c r="AH133" s="28">
+      <c r="AE133" s="32"/>
+      <c r="AF133" s="32"/>
+      <c r="AG133" s="32"/>
+      <c r="AH133" s="32">
         <v>2008</v>
       </c>
-      <c r="AI133" s="28"/>
-      <c r="AJ133" s="28"/>
-      <c r="AK133" s="28"/>
-      <c r="AL133" s="28">
+      <c r="AI133" s="32"/>
+      <c r="AJ133" s="32"/>
+      <c r="AK133" s="32"/>
+      <c r="AL133" s="32">
         <v>2009</v>
       </c>
-      <c r="AM133" s="28"/>
-      <c r="AN133" s="28"/>
-      <c r="AO133" s="28"/>
-      <c r="AP133" s="28">
+      <c r="AM133" s="32"/>
+      <c r="AN133" s="32"/>
+      <c r="AO133" s="32"/>
+      <c r="AP133" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="28"/>
-      <c r="AR133" s="28"/>
-      <c r="AS133" s="28"/>
-      <c r="AT133" s="28">
+      <c r="AQ133" s="32"/>
+      <c r="AR133" s="32"/>
+      <c r="AS133" s="32"/>
+      <c r="AT133" s="32">
         <v>2011</v>
       </c>
-      <c r="AU133" s="28"/>
-      <c r="AV133" s="28"/>
-      <c r="AW133" s="28"/>
-      <c r="AX133" s="28">
+      <c r="AU133" s="32"/>
+      <c r="AV133" s="32"/>
+      <c r="AW133" s="32"/>
+      <c r="AX133" s="32">
         <v>2012</v>
       </c>
-      <c r="AY133" s="28"/>
-      <c r="AZ133" s="28"/>
-      <c r="BA133" s="28"/>
-      <c r="BB133" s="28">
+      <c r="AY133" s="32"/>
+      <c r="AZ133" s="32"/>
+      <c r="BA133" s="32"/>
+      <c r="BB133" s="32">
         <v>2013</v>
       </c>
-      <c r="BC133" s="28"/>
-      <c r="BD133" s="28"/>
-      <c r="BE133" s="28"/>
-      <c r="BF133" s="28">
+      <c r="BC133" s="32"/>
+      <c r="BD133" s="32"/>
+      <c r="BE133" s="32"/>
+      <c r="BF133" s="32">
         <v>2014</v>
       </c>
-      <c r="BG133" s="28"/>
-      <c r="BH133" s="28"/>
-      <c r="BI133" s="28"/>
-      <c r="BJ133" s="28">
+      <c r="BG133" s="32"/>
+      <c r="BH133" s="32"/>
+      <c r="BI133" s="32"/>
+      <c r="BJ133" s="32">
         <v>2015</v>
       </c>
-      <c r="BK133" s="28"/>
-      <c r="BL133" s="28"/>
-      <c r="BM133" s="28"/>
-      <c r="BN133" s="28">
+      <c r="BK133" s="32"/>
+      <c r="BL133" s="32"/>
+      <c r="BM133" s="32"/>
+      <c r="BN133" s="32">
         <v>2016</v>
       </c>
-      <c r="BO133" s="28"/>
-      <c r="BP133" s="28"/>
-      <c r="BQ133" s="28"/>
-      <c r="BR133" s="28">
+      <c r="BO133" s="32"/>
+      <c r="BP133" s="32"/>
+      <c r="BQ133" s="32"/>
+      <c r="BR133" s="32">
         <v>2017</v>
       </c>
-      <c r="BS133" s="28"/>
-      <c r="BT133" s="28"/>
-      <c r="BU133" s="28"/>
-      <c r="BV133" s="30">
+      <c r="BS133" s="32"/>
+      <c r="BT133" s="32"/>
+      <c r="BU133" s="32"/>
+      <c r="BV133" s="34">
         <v>2018</v>
       </c>
-      <c r="BW133" s="30"/>
-      <c r="BX133" s="30"/>
-      <c r="BY133" s="30"/>
-      <c r="BZ133" s="30">
+      <c r="BW133" s="34"/>
+      <c r="BX133" s="34"/>
+      <c r="BY133" s="34"/>
+      <c r="BZ133" s="34">
         <v>2019</v>
       </c>
-      <c r="CA133" s="30"/>
-      <c r="CB133" s="30"/>
-      <c r="CC133" s="30"/>
-      <c r="CD133" s="29">
+      <c r="CA133" s="34"/>
+      <c r="CB133" s="34"/>
+      <c r="CC133" s="34"/>
+      <c r="CD133" s="33">
         <v>2020</v>
       </c>
-      <c r="CE133" s="29"/>
-      <c r="CF133" s="29"/>
-      <c r="CG133" s="29"/>
-      <c r="CH133" s="29">
+      <c r="CE133" s="33"/>
+      <c r="CF133" s="33"/>
+      <c r="CG133" s="33"/>
+      <c r="CH133" s="33">
         <v>2021</v>
       </c>
-      <c r="CI133" s="29"/>
-      <c r="CJ133" s="29"/>
-      <c r="CK133" s="29"/>
-      <c r="CL133" s="29">
+      <c r="CI133" s="33"/>
+      <c r="CJ133" s="33"/>
+      <c r="CK133" s="33"/>
+      <c r="CL133" s="32">
         <v>2022</v>
       </c>
-      <c r="CM133" s="29"/>
-      <c r="CN133" s="29"/>
-      <c r="CO133" s="29"/>
-      <c r="CP133" s="29">
+      <c r="CM133" s="32"/>
+      <c r="CN133" s="32"/>
+      <c r="CO133" s="32"/>
+      <c r="CP133" s="32">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="31"/>
+      <c r="CQ133" s="32"/>
+      <c r="CR133" s="32"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21197,23 +21313,26 @@
       <c r="CK134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="7" t="s">
+      <c r="CL134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="7" t="s">
+      <c r="CM134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="7" t="s">
+      <c r="CN134" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CO134" s="7" t="s">
+      <c r="CO134" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="7" t="s">
+      <c r="CP134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="7" t="s">
+      <c r="CQ134" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CR134" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21487,25 +21606,27 @@
       <c r="CK136" s="27">
         <v>23.954326102635136</v>
       </c>
-      <c r="CL136" s="27">
+      <c r="CL136" s="31">
         <v>20.264228281682247</v>
       </c>
-      <c r="CM136" s="27">
+      <c r="CM136" s="31">
         <v>23.904583016957481</v>
       </c>
-      <c r="CN136" s="27">
+      <c r="CN136" s="31">
         <v>26.491760473924415</v>
       </c>
-      <c r="CO136" s="27">
+      <c r="CO136" s="31">
         <v>21.696784243385409</v>
       </c>
-      <c r="CP136" s="27">
+      <c r="CP136" s="31">
         <v>19.670386210973195</v>
       </c>
-      <c r="CQ136" s="27">
-        <v>23.246938523993414</v>
-      </c>
-      <c r="CR136" s="11"/>
+      <c r="CQ136" s="31">
+        <v>22.069511193660716</v>
+      </c>
+      <c r="CR136" s="31">
+        <v>19.656614007984512</v>
+      </c>
       <c r="CS136" s="11"/>
       <c r="CT136" s="11"/>
       <c r="CU136" s="11"/>
@@ -21831,25 +21952,27 @@
       <c r="CK137" s="27">
         <v>4.1519894108535498</v>
       </c>
-      <c r="CL137" s="27">
+      <c r="CL137" s="31">
         <v>7.6953330349672511</v>
       </c>
-      <c r="CM137" s="27">
+      <c r="CM137" s="31">
         <v>10.965754006947648</v>
       </c>
-      <c r="CN137" s="27">
+      <c r="CN137" s="31">
         <v>6.6336448603455374</v>
       </c>
-      <c r="CO137" s="27">
+      <c r="CO137" s="31">
         <v>2.842011669161169</v>
       </c>
-      <c r="CP137" s="27">
+      <c r="CP137" s="31">
         <v>5.6976087917808034</v>
       </c>
-      <c r="CQ137" s="27">
-        <v>8.3347060693007293</v>
-      </c>
-      <c r="CR137" s="11"/>
+      <c r="CQ137" s="31">
+        <v>8.2314212350269269</v>
+      </c>
+      <c r="CR137" s="31">
+        <v>4.6253982701231475</v>
+      </c>
       <c r="CS137" s="11"/>
       <c r="CT137" s="11"/>
       <c r="CU137" s="11"/>
@@ -22175,25 +22298,27 @@
       <c r="CK138" s="27">
         <v>30.852095452708056</v>
       </c>
-      <c r="CL138" s="27">
+      <c r="CL138" s="31">
         <v>26.55110603732372</v>
       </c>
-      <c r="CM138" s="27">
+      <c r="CM138" s="31">
         <v>21.371454233621463</v>
       </c>
-      <c r="CN138" s="27">
+      <c r="CN138" s="31">
         <v>27.405280935121606</v>
       </c>
-      <c r="CO138" s="27">
+      <c r="CO138" s="31">
         <v>36.539825016102185</v>
       </c>
-      <c r="CP138" s="27">
+      <c r="CP138" s="31">
         <v>35.059676281276609</v>
       </c>
-      <c r="CQ138" s="27">
-        <v>30.312839211772502</v>
-      </c>
-      <c r="CR138" s="11"/>
+      <c r="CQ138" s="31">
+        <v>30.638881655157924</v>
+      </c>
+      <c r="CR138" s="31">
+        <v>44.730132166651252</v>
+      </c>
       <c r="CS138" s="11"/>
       <c r="CT138" s="11"/>
       <c r="CU138" s="11"/>
@@ -22519,25 +22644,27 @@
       <c r="CK139" s="27">
         <v>1.6640439608727877</v>
       </c>
-      <c r="CL139" s="27">
+      <c r="CL139" s="31">
         <v>1.596458742622654</v>
       </c>
-      <c r="CM139" s="27">
+      <c r="CM139" s="31">
         <v>1.5140622577948184</v>
       </c>
-      <c r="CN139" s="27">
+      <c r="CN139" s="31">
         <v>1.3033363816182217</v>
       </c>
-      <c r="CO139" s="27">
+      <c r="CO139" s="31">
         <v>1.1111151162488593</v>
       </c>
-      <c r="CP139" s="27">
+      <c r="CP139" s="31">
         <v>1.1651820067813463</v>
       </c>
-      <c r="CQ139" s="27">
-        <v>1.1415180299343668</v>
-      </c>
-      <c r="CR139" s="11"/>
+      <c r="CQ139" s="31">
+        <v>1.0695843324335859</v>
+      </c>
+      <c r="CR139" s="31">
+        <v>0.88799457810573179</v>
+      </c>
       <c r="CS139" s="11"/>
       <c r="CT139" s="11"/>
       <c r="CU139" s="11"/>
@@ -22863,25 +22990,27 @@
       <c r="CK140" s="27">
         <v>7.5462816560554282</v>
       </c>
-      <c r="CL140" s="27">
+      <c r="CL140" s="31">
         <v>8.583913171406051</v>
       </c>
-      <c r="CM140" s="27">
+      <c r="CM140" s="31">
         <v>8.6963133579391201</v>
       </c>
-      <c r="CN140" s="27">
+      <c r="CN140" s="31">
         <v>7.2591183888188846</v>
       </c>
-      <c r="CO140" s="27">
+      <c r="CO140" s="31">
         <v>6.1251653881697887</v>
       </c>
-      <c r="CP140" s="27">
+      <c r="CP140" s="31">
         <v>7.1131236205448545</v>
       </c>
-      <c r="CQ140" s="27">
-        <v>6.2872907960932505</v>
-      </c>
-      <c r="CR140" s="11"/>
+      <c r="CQ140" s="31">
+        <v>6.214242708579846</v>
+      </c>
+      <c r="CR140" s="31">
+        <v>5.14575567598781</v>
+      </c>
       <c r="CS140" s="11"/>
       <c r="CT140" s="11"/>
       <c r="CU140" s="11"/>
@@ -23207,25 +23336,27 @@
       <c r="CK141" s="27">
         <v>23.652946709368248</v>
       </c>
-      <c r="CL141" s="27">
+      <c r="CL141" s="31">
         <v>28.604576961430535</v>
       </c>
-      <c r="CM141" s="27">
+      <c r="CM141" s="31">
         <v>26.557478920273287</v>
       </c>
-      <c r="CN141" s="27">
+      <c r="CN141" s="31">
         <v>24.010146689844749</v>
       </c>
-      <c r="CO141" s="27">
+      <c r="CO141" s="31">
         <v>20.520169212763324</v>
       </c>
-      <c r="CP141" s="27">
+      <c r="CP141" s="31">
         <v>24.839430828768084</v>
       </c>
-      <c r="CQ141" s="27">
-        <v>25.091463200409997</v>
-      </c>
-      <c r="CR141" s="11"/>
+      <c r="CQ141" s="31">
+        <v>25.356636948974799</v>
+      </c>
+      <c r="CR141" s="31">
+        <v>19.422462064720232</v>
+      </c>
       <c r="CS141" s="11"/>
       <c r="CT141" s="11"/>
       <c r="CU141" s="11"/>
@@ -23551,25 +23682,27 @@
       <c r="CK142" s="27">
         <v>3.2048322096655828</v>
       </c>
-      <c r="CL142" s="27">
+      <c r="CL142" s="31">
         <v>2.3641779226618245</v>
       </c>
-      <c r="CM142" s="27">
+      <c r="CM142" s="31">
         <v>2.1959835616058063</v>
       </c>
-      <c r="CN142" s="27">
+      <c r="CN142" s="31">
         <v>2.4164913031782977</v>
       </c>
-      <c r="CO142" s="27">
+      <c r="CO142" s="31">
         <v>1.8415631311031573</v>
       </c>
-      <c r="CP142" s="27">
+      <c r="CP142" s="31">
         <v>1.9714322958154993</v>
       </c>
-      <c r="CQ142" s="27">
-        <v>1.6208250878556689</v>
-      </c>
-      <c r="CR142" s="11"/>
+      <c r="CQ142" s="31">
+        <v>1.5478105266444062</v>
+      </c>
+      <c r="CR142" s="31">
+        <v>1.5155379172604682</v>
+      </c>
       <c r="CS142" s="11"/>
       <c r="CT142" s="11"/>
       <c r="CU142" s="11"/>
@@ -23895,25 +24028,27 @@
       <c r="CK143" s="27">
         <v>4.9734844978412278</v>
       </c>
-      <c r="CL143" s="27">
+      <c r="CL143" s="31">
         <v>4.3402058479057111</v>
       </c>
-      <c r="CM143" s="27">
+      <c r="CM143" s="31">
         <v>4.7943706448603765</v>
       </c>
-      <c r="CN143" s="27">
+      <c r="CN143" s="31">
         <v>4.4802209671482869</v>
       </c>
-      <c r="CO143" s="27">
+      <c r="CO143" s="31">
         <v>9.323366223066099</v>
       </c>
-      <c r="CP143" s="27">
+      <c r="CP143" s="31">
         <v>4.4831599640596256</v>
       </c>
-      <c r="CQ143" s="27">
-        <v>3.9644190806400719</v>
-      </c>
-      <c r="CR143" s="11"/>
+      <c r="CQ143" s="31">
+        <v>4.8719113995217853</v>
+      </c>
+      <c r="CR143" s="31">
+        <v>4.0161053191668481</v>
+      </c>
       <c r="CS143" s="11"/>
       <c r="CT143" s="11"/>
       <c r="CU143" s="11"/>
@@ -24060,13 +24195,13 @@
       <c r="CI144" s="11"/>
       <c r="CJ144" s="11"/>
       <c r="CK144" s="11"/>
-      <c r="CL144" s="11"/>
-      <c r="CM144" s="11"/>
-      <c r="CN144" s="11"/>
-      <c r="CO144" s="11"/>
-      <c r="CP144" s="11"/>
-      <c r="CQ144" s="11"/>
-      <c r="CR144" s="11"/>
+      <c r="CL144" s="12"/>
+      <c r="CM144" s="12"/>
+      <c r="CN144" s="12"/>
+      <c r="CO144" s="12"/>
+      <c r="CP144" s="12"/>
+      <c r="CQ144" s="12"/>
+      <c r="CR144" s="12"/>
       <c r="CS144" s="11"/>
       <c r="CT144" s="11"/>
       <c r="CU144" s="11"/>
@@ -24392,25 +24527,27 @@
       <c r="CK145" s="20">
         <v>100</v>
       </c>
-      <c r="CL145" s="20">
+      <c r="CL145" s="21">
         <v>100</v>
       </c>
-      <c r="CM145" s="20">
+      <c r="CM145" s="21">
         <v>100</v>
       </c>
-      <c r="CN145" s="20">
+      <c r="CN145" s="21">
         <v>100</v>
       </c>
-      <c r="CO145" s="20">
+      <c r="CO145" s="21">
         <v>100</v>
       </c>
-      <c r="CP145" s="20">
+      <c r="CP145" s="21">
         <v>100</v>
       </c>
-      <c r="CQ145" s="20">
+      <c r="CQ145" s="21">
         <v>100</v>
       </c>
-      <c r="CR145" s="11"/>
+      <c r="CR145" s="21">
+        <v>100</v>
+      </c>
       <c r="CS145" s="11"/>
       <c r="CT145" s="11"/>
       <c r="CU145" s="11"/>
@@ -24558,12 +24695,13 @@
       <c r="CI146" s="16"/>
       <c r="CJ146" s="16"/>
       <c r="CK146" s="16"/>
-      <c r="CL146" s="16"/>
-      <c r="CM146" s="16"/>
-      <c r="CN146" s="16"/>
-      <c r="CO146" s="16"/>
-      <c r="CP146" s="16"/>
-      <c r="CQ146" s="16"/>
+      <c r="CL146" s="17"/>
+      <c r="CM146" s="17"/>
+      <c r="CN146" s="17"/>
+      <c r="CO146" s="17"/>
+      <c r="CP146" s="17"/>
+      <c r="CQ146" s="17"/>
+      <c r="CR146" s="17"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -24659,13 +24797,13 @@
       <c r="CI148" s="11"/>
       <c r="CJ148" s="11"/>
       <c r="CK148" s="11"/>
-      <c r="CL148" s="11"/>
-      <c r="CM148" s="11"/>
-      <c r="CN148" s="11"/>
-      <c r="CO148" s="11"/>
-      <c r="CP148" s="11"/>
-      <c r="CQ148" s="11"/>
-      <c r="CR148" s="11"/>
+      <c r="CL148" s="12"/>
+      <c r="CM148" s="12"/>
+      <c r="CN148" s="12"/>
+      <c r="CO148" s="12"/>
+      <c r="CP148" s="12"/>
+      <c r="CQ148" s="12"/>
+      <c r="CR148" s="12"/>
       <c r="CS148" s="11"/>
       <c r="CT148" s="11"/>
       <c r="CU148" s="11"/>
@@ -24812,13 +24950,13 @@
       <c r="CI149" s="11"/>
       <c r="CJ149" s="11"/>
       <c r="CK149" s="11"/>
-      <c r="CL149" s="11"/>
-      <c r="CM149" s="11"/>
-      <c r="CN149" s="11"/>
-      <c r="CO149" s="11"/>
-      <c r="CP149" s="11"/>
-      <c r="CQ149" s="11"/>
-      <c r="CR149" s="11"/>
+      <c r="CL149" s="12"/>
+      <c r="CM149" s="12"/>
+      <c r="CN149" s="12"/>
+      <c r="CO149" s="12"/>
+      <c r="CP149" s="12"/>
+      <c r="CQ149" s="12"/>
+      <c r="CR149" s="12"/>
       <c r="CS149" s="11"/>
       <c r="CT149" s="11"/>
       <c r="CU149" s="11"/>
@@ -24908,148 +25046,149 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="28">
+      <c r="B158" s="32">
         <v>2000</v>
       </c>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28">
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32">
         <v>2001</v>
       </c>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28">
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="32">
         <v>2002</v>
       </c>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="28">
+      <c r="K158" s="32"/>
+      <c r="L158" s="32"/>
+      <c r="M158" s="32"/>
+      <c r="N158" s="32">
         <v>2003</v>
       </c>
-      <c r="O158" s="28"/>
-      <c r="P158" s="28"/>
-      <c r="Q158" s="28"/>
-      <c r="R158" s="28">
+      <c r="O158" s="32"/>
+      <c r="P158" s="32"/>
+      <c r="Q158" s="32"/>
+      <c r="R158" s="32">
         <v>2004</v>
       </c>
-      <c r="S158" s="28"/>
-      <c r="T158" s="28"/>
-      <c r="U158" s="28"/>
-      <c r="V158" s="28">
+      <c r="S158" s="32"/>
+      <c r="T158" s="32"/>
+      <c r="U158" s="32"/>
+      <c r="V158" s="32">
         <v>2005</v>
       </c>
-      <c r="W158" s="28"/>
-      <c r="X158" s="28"/>
-      <c r="Y158" s="28"/>
-      <c r="Z158" s="28">
+      <c r="W158" s="32"/>
+      <c r="X158" s="32"/>
+      <c r="Y158" s="32"/>
+      <c r="Z158" s="32">
         <v>2006</v>
       </c>
-      <c r="AA158" s="28"/>
-      <c r="AB158" s="28"/>
-      <c r="AC158" s="28"/>
-      <c r="AD158" s="28">
+      <c r="AA158" s="32"/>
+      <c r="AB158" s="32"/>
+      <c r="AC158" s="32"/>
+      <c r="AD158" s="32">
         <v>2007</v>
       </c>
-      <c r="AE158" s="28"/>
-      <c r="AF158" s="28"/>
-      <c r="AG158" s="28"/>
-      <c r="AH158" s="28">
+      <c r="AE158" s="32"/>
+      <c r="AF158" s="32"/>
+      <c r="AG158" s="32"/>
+      <c r="AH158" s="32">
         <v>2008</v>
       </c>
-      <c r="AI158" s="28"/>
-      <c r="AJ158" s="28"/>
-      <c r="AK158" s="28"/>
-      <c r="AL158" s="28">
+      <c r="AI158" s="32"/>
+      <c r="AJ158" s="32"/>
+      <c r="AK158" s="32"/>
+      <c r="AL158" s="32">
         <v>2009</v>
       </c>
-      <c r="AM158" s="28"/>
-      <c r="AN158" s="28"/>
-      <c r="AO158" s="28"/>
-      <c r="AP158" s="28">
+      <c r="AM158" s="32"/>
+      <c r="AN158" s="32"/>
+      <c r="AO158" s="32"/>
+      <c r="AP158" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="28"/>
-      <c r="AR158" s="28"/>
-      <c r="AS158" s="28"/>
-      <c r="AT158" s="28">
+      <c r="AQ158" s="32"/>
+      <c r="AR158" s="32"/>
+      <c r="AS158" s="32"/>
+      <c r="AT158" s="32">
         <v>2011</v>
       </c>
-      <c r="AU158" s="28"/>
-      <c r="AV158" s="28"/>
-      <c r="AW158" s="28"/>
-      <c r="AX158" s="28">
+      <c r="AU158" s="32"/>
+      <c r="AV158" s="32"/>
+      <c r="AW158" s="32"/>
+      <c r="AX158" s="32">
         <v>2012</v>
       </c>
-      <c r="AY158" s="28"/>
-      <c r="AZ158" s="28"/>
-      <c r="BA158" s="28"/>
-      <c r="BB158" s="28">
+      <c r="AY158" s="32"/>
+      <c r="AZ158" s="32"/>
+      <c r="BA158" s="32"/>
+      <c r="BB158" s="32">
         <v>2013</v>
       </c>
-      <c r="BC158" s="28"/>
-      <c r="BD158" s="28"/>
-      <c r="BE158" s="28"/>
-      <c r="BF158" s="28">
+      <c r="BC158" s="32"/>
+      <c r="BD158" s="32"/>
+      <c r="BE158" s="32"/>
+      <c r="BF158" s="32">
         <v>2014</v>
       </c>
-      <c r="BG158" s="28"/>
-      <c r="BH158" s="28"/>
-      <c r="BI158" s="28"/>
-      <c r="BJ158" s="28">
+      <c r="BG158" s="32"/>
+      <c r="BH158" s="32"/>
+      <c r="BI158" s="32"/>
+      <c r="BJ158" s="32">
         <v>2015</v>
       </c>
-      <c r="BK158" s="28"/>
-      <c r="BL158" s="28"/>
-      <c r="BM158" s="28"/>
-      <c r="BN158" s="28">
+      <c r="BK158" s="32"/>
+      <c r="BL158" s="32"/>
+      <c r="BM158" s="32"/>
+      <c r="BN158" s="32">
         <v>2016</v>
       </c>
-      <c r="BO158" s="28"/>
-      <c r="BP158" s="28"/>
-      <c r="BQ158" s="28"/>
-      <c r="BR158" s="28">
+      <c r="BO158" s="32"/>
+      <c r="BP158" s="32"/>
+      <c r="BQ158" s="32"/>
+      <c r="BR158" s="32">
         <v>2017</v>
       </c>
-      <c r="BS158" s="28"/>
-      <c r="BT158" s="28"/>
-      <c r="BU158" s="28"/>
-      <c r="BV158" s="30">
+      <c r="BS158" s="32"/>
+      <c r="BT158" s="32"/>
+      <c r="BU158" s="32"/>
+      <c r="BV158" s="34">
         <v>2018</v>
       </c>
-      <c r="BW158" s="30"/>
-      <c r="BX158" s="30"/>
-      <c r="BY158" s="30"/>
-      <c r="BZ158" s="30">
+      <c r="BW158" s="34"/>
+      <c r="BX158" s="34"/>
+      <c r="BY158" s="34"/>
+      <c r="BZ158" s="34">
         <v>2019</v>
       </c>
-      <c r="CA158" s="30"/>
-      <c r="CB158" s="30"/>
-      <c r="CC158" s="30"/>
-      <c r="CD158" s="29">
+      <c r="CA158" s="34"/>
+      <c r="CB158" s="34"/>
+      <c r="CC158" s="34"/>
+      <c r="CD158" s="33">
         <v>2020</v>
       </c>
-      <c r="CE158" s="29"/>
-      <c r="CF158" s="29"/>
-      <c r="CG158" s="29"/>
-      <c r="CH158" s="29">
+      <c r="CE158" s="33"/>
+      <c r="CF158" s="33"/>
+      <c r="CG158" s="33"/>
+      <c r="CH158" s="33">
         <v>2021</v>
       </c>
-      <c r="CI158" s="29"/>
-      <c r="CJ158" s="29"/>
-      <c r="CK158" s="29"/>
-      <c r="CL158" s="29">
+      <c r="CI158" s="33"/>
+      <c r="CJ158" s="33"/>
+      <c r="CK158" s="33"/>
+      <c r="CL158" s="32">
         <v>2022</v>
       </c>
-      <c r="CM158" s="29"/>
-      <c r="CN158" s="29"/>
-      <c r="CO158" s="29"/>
-      <c r="CP158" s="29">
+      <c r="CM158" s="32"/>
+      <c r="CN158" s="32"/>
+      <c r="CO158" s="32"/>
+      <c r="CP158" s="32">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="31"/>
+      <c r="CQ158" s="32"/>
+      <c r="CR158" s="32"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25317,23 +25456,26 @@
       <c r="CK159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="7" t="s">
+      <c r="CL159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="7" t="s">
+      <c r="CM159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="7" t="s">
+      <c r="CN159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CO159" s="7" t="s">
+      <c r="CO159" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="7" t="s">
+      <c r="CP159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="7" t="s">
+      <c r="CQ159" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CR159" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25607,25 +25749,27 @@
       <c r="CK161" s="27">
         <v>23.556216353857899</v>
       </c>
-      <c r="CL161" s="27">
+      <c r="CL161" s="31">
         <v>19.232580913622932</v>
       </c>
-      <c r="CM161" s="27">
+      <c r="CM161" s="31">
         <v>25.283884552971685</v>
       </c>
-      <c r="CN161" s="27">
+      <c r="CN161" s="31">
         <v>26.075796516683408</v>
       </c>
-      <c r="CO161" s="27">
+      <c r="CO161" s="31">
         <v>21.536780418531425</v>
       </c>
-      <c r="CP161" s="27">
+      <c r="CP161" s="31">
         <v>19.416388482103464</v>
       </c>
-      <c r="CQ161" s="27">
-        <v>24.897135834918181</v>
-      </c>
-      <c r="CR161" s="11"/>
+      <c r="CQ161" s="31">
+        <v>23.659530571188025</v>
+      </c>
+      <c r="CR161" s="31">
+        <v>18.906193663334911</v>
+      </c>
       <c r="CS161" s="11"/>
       <c r="CT161" s="11"/>
       <c r="CU161" s="11"/>
@@ -25951,25 +26095,27 @@
       <c r="CK162" s="27">
         <v>3.9419414835949165</v>
       </c>
-      <c r="CL162" s="27">
+      <c r="CL162" s="31">
         <v>9.0064705901485631</v>
       </c>
-      <c r="CM162" s="27">
+      <c r="CM162" s="31">
         <v>10.232129086950495</v>
       </c>
-      <c r="CN162" s="27">
+      <c r="CN162" s="31">
         <v>6.2629222389067696</v>
       </c>
-      <c r="CO162" s="27">
+      <c r="CO162" s="31">
         <v>2.6663984224363912</v>
       </c>
-      <c r="CP162" s="27">
+      <c r="CP162" s="31">
         <v>6.8157485396614019</v>
       </c>
-      <c r="CQ162" s="27">
-        <v>7.9453303423158577</v>
-      </c>
-      <c r="CR162" s="11"/>
+      <c r="CQ162" s="31">
+        <v>7.8546399899909334</v>
+      </c>
+      <c r="CR162" s="31">
+        <v>4.2648819331169001</v>
+      </c>
       <c r="CS162" s="11"/>
       <c r="CT162" s="11"/>
       <c r="CU162" s="11"/>
@@ -26295,25 +26441,27 @@
       <c r="CK163" s="27">
         <v>33.537962404218177</v>
       </c>
-      <c r="CL163" s="27">
+      <c r="CL163" s="31">
         <v>21.813785455855719</v>
       </c>
-      <c r="CM163" s="27">
+      <c r="CM163" s="31">
         <v>21.716800098639215</v>
       </c>
-      <c r="CN163" s="27">
+      <c r="CN163" s="31">
         <v>30.292151655069166</v>
       </c>
-      <c r="CO163" s="27">
+      <c r="CO163" s="31">
         <v>39.314169088408931</v>
       </c>
-      <c r="CP163" s="27">
+      <c r="CP163" s="31">
         <v>29.338711583861382</v>
       </c>
-      <c r="CQ163" s="27">
-        <v>29.085657748547</v>
-      </c>
-      <c r="CR163" s="11"/>
+      <c r="CQ163" s="31">
+        <v>29.427608547307955</v>
+      </c>
+      <c r="CR163" s="31">
+        <v>48.169325786205597</v>
+      </c>
       <c r="CS163" s="11"/>
       <c r="CT163" s="11"/>
       <c r="CU163" s="11"/>
@@ -26639,25 +26787,27 @@
       <c r="CK164" s="27">
         <v>1.6112249302294503</v>
       </c>
-      <c r="CL164" s="27">
+      <c r="CL164" s="31">
         <v>1.6620107671116384</v>
       </c>
-      <c r="CM164" s="27">
+      <c r="CM164" s="31">
         <v>1.516537753719629</v>
       </c>
-      <c r="CN164" s="27">
+      <c r="CN164" s="31">
         <v>1.2564331556424357</v>
       </c>
-      <c r="CO164" s="27">
+      <c r="CO164" s="31">
         <v>1.0631527938004819</v>
       </c>
-      <c r="CP164" s="27">
+      <c r="CP164" s="31">
         <v>1.2398342236140849</v>
       </c>
-      <c r="CQ164" s="27">
-        <v>1.1681172216659894</v>
-      </c>
-      <c r="CR164" s="11"/>
+      <c r="CQ164" s="31">
+        <v>1.0955910395133266</v>
+      </c>
+      <c r="CR164" s="31">
+        <v>0.83603846870773157</v>
+      </c>
       <c r="CS164" s="11"/>
       <c r="CT164" s="11"/>
       <c r="CU164" s="11"/>
@@ -26983,25 +27133,27 @@
       <c r="CK165" s="27">
         <v>7.1097428396551905</v>
       </c>
-      <c r="CL165" s="27">
+      <c r="CL165" s="31">
         <v>9.3092245123078214</v>
       </c>
-      <c r="CM165" s="27">
+      <c r="CM165" s="31">
         <v>8.4079705437476431</v>
       </c>
-      <c r="CN165" s="27">
+      <c r="CN165" s="31">
         <v>6.8121884905157772</v>
       </c>
-      <c r="CO165" s="27">
+      <c r="CO165" s="31">
         <v>5.7027450032579949</v>
       </c>
-      <c r="CP165" s="27">
+      <c r="CP165" s="31">
         <v>7.8846471389479911</v>
       </c>
-      <c r="CQ165" s="27">
-        <v>6.2103161173042141</v>
-      </c>
-      <c r="CR165" s="11"/>
+      <c r="CQ165" s="31">
+        <v>6.1442398208855691</v>
+      </c>
+      <c r="CR165" s="31">
+        <v>4.7161218319334424</v>
+      </c>
       <c r="CS165" s="11"/>
       <c r="CT165" s="11"/>
       <c r="CU165" s="11"/>
@@ -27327,25 +27479,27 @@
       <c r="CK166" s="27">
         <v>22.57049405290908</v>
       </c>
-      <c r="CL166" s="27">
+      <c r="CL166" s="31">
         <v>31.629259219380408</v>
       </c>
-      <c r="CM166" s="27">
+      <c r="CM166" s="31">
         <v>26.073902667483818</v>
       </c>
-      <c r="CN166" s="27">
+      <c r="CN166" s="31">
         <v>22.843727276273313</v>
       </c>
-      <c r="CO166" s="27">
+      <c r="CO166" s="31">
         <v>19.350045967915399</v>
       </c>
-      <c r="CP166" s="27">
+      <c r="CP166" s="31">
         <v>28.073001489371109</v>
       </c>
-      <c r="CQ166" s="27">
-        <v>25.167457328551386</v>
-      </c>
-      <c r="CR166" s="11"/>
+      <c r="CQ166" s="31">
+        <v>25.458616163074421</v>
+      </c>
+      <c r="CR166" s="31">
+        <v>18.047186743693025</v>
+      </c>
       <c r="CS166" s="11"/>
       <c r="CT166" s="11"/>
       <c r="CU166" s="11"/>
@@ -27671,25 +27825,27 @@
       <c r="CK167" s="27">
         <v>2.9941217443969563</v>
       </c>
-      <c r="CL167" s="27">
+      <c r="CL167" s="31">
         <v>2.5788517075130506</v>
       </c>
-      <c r="CM167" s="27">
+      <c r="CM167" s="31">
         <v>2.1176112847827464</v>
       </c>
-      <c r="CN167" s="27">
+      <c r="CN167" s="31">
         <v>2.2530019348979207</v>
       </c>
-      <c r="CO167" s="27">
+      <c r="CO167" s="31">
         <v>1.7001843771549014</v>
       </c>
-      <c r="CP167" s="27">
+      <c r="CP167" s="31">
         <v>2.1979701806288094</v>
       </c>
-      <c r="CQ167" s="27">
-        <v>1.5967887592991943</v>
-      </c>
-      <c r="CR167" s="11"/>
+      <c r="CQ167" s="31">
+        <v>1.5263667609581679</v>
+      </c>
+      <c r="CR167" s="31">
+        <v>1.3799908657913413</v>
+      </c>
       <c r="CS167" s="11"/>
       <c r="CT167" s="11"/>
       <c r="CU167" s="11"/>
@@ -28015,25 +28171,27 @@
       <c r="CK168" s="27">
         <v>4.6782961911383198</v>
       </c>
-      <c r="CL168" s="27">
+      <c r="CL168" s="31">
         <v>4.7678168340598504</v>
       </c>
-      <c r="CM168" s="27">
+      <c r="CM168" s="31">
         <v>4.6511640117047799</v>
       </c>
-      <c r="CN168" s="27">
+      <c r="CN168" s="31">
         <v>4.2037787320112052</v>
       </c>
-      <c r="CO168" s="27">
+      <c r="CO168" s="31">
         <v>8.666523928494458</v>
       </c>
-      <c r="CP168" s="27">
+      <c r="CP168" s="31">
         <v>5.0336983618117701</v>
       </c>
-      <c r="CQ168" s="27">
-        <v>3.9291966473981832</v>
-      </c>
-      <c r="CR168" s="11"/>
+      <c r="CQ168" s="31">
+        <v>4.8334071070815945</v>
+      </c>
+      <c r="CR168" s="31">
+        <v>3.6802607072170495</v>
+      </c>
       <c r="CS168" s="11"/>
       <c r="CT168" s="11"/>
       <c r="CU168" s="11"/>
@@ -28180,13 +28338,13 @@
       <c r="CI169" s="11"/>
       <c r="CJ169" s="11"/>
       <c r="CK169" s="11"/>
-      <c r="CL169" s="11"/>
-      <c r="CM169" s="11"/>
-      <c r="CN169" s="11"/>
-      <c r="CO169" s="11"/>
-      <c r="CP169" s="11"/>
-      <c r="CQ169" s="11"/>
-      <c r="CR169" s="11"/>
+      <c r="CL169" s="12"/>
+      <c r="CM169" s="12"/>
+      <c r="CN169" s="12"/>
+      <c r="CO169" s="12"/>
+      <c r="CP169" s="12"/>
+      <c r="CQ169" s="12"/>
+      <c r="CR169" s="12"/>
       <c r="CS169" s="11"/>
       <c r="CT169" s="11"/>
       <c r="CU169" s="11"/>
@@ -28512,25 +28670,27 @@
       <c r="CK170" s="20">
         <v>100</v>
       </c>
-      <c r="CL170" s="20">
+      <c r="CL170" s="21">
         <v>100</v>
       </c>
-      <c r="CM170" s="20">
+      <c r="CM170" s="21">
         <v>100</v>
       </c>
-      <c r="CN170" s="20">
+      <c r="CN170" s="21">
         <v>100</v>
       </c>
-      <c r="CO170" s="20">
+      <c r="CO170" s="21">
         <v>100</v>
       </c>
-      <c r="CP170" s="20">
+      <c r="CP170" s="21">
         <v>100</v>
       </c>
-      <c r="CQ170" s="20">
+      <c r="CQ170" s="21">
         <v>100</v>
       </c>
-      <c r="CR170" s="11"/>
+      <c r="CR170" s="21">
+        <v>100</v>
+      </c>
       <c r="CS170" s="11"/>
       <c r="CT170" s="11"/>
       <c r="CU170" s="11"/>
@@ -28678,12 +28838,13 @@
       <c r="CI171" s="16"/>
       <c r="CJ171" s="16"/>
       <c r="CK171" s="16"/>
-      <c r="CL171" s="16"/>
-      <c r="CM171" s="16"/>
-      <c r="CN171" s="16"/>
-      <c r="CO171" s="16"/>
-      <c r="CP171" s="16"/>
-      <c r="CQ171" s="16"/>
+      <c r="CL171" s="17"/>
+      <c r="CM171" s="17"/>
+      <c r="CN171" s="17"/>
+      <c r="CO171" s="17"/>
+      <c r="CP171" s="17"/>
+      <c r="CQ171" s="17"/>
+      <c r="CR171" s="17"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -28780,13 +28941,13 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
-      <c r="CM173" s="1"/>
-      <c r="CN173" s="1"/>
-      <c r="CO173" s="1"/>
-      <c r="CP173" s="1"/>
-      <c r="CQ173" s="1"/>
-      <c r="CR173" s="24"/>
+      <c r="CL173" s="2"/>
+      <c r="CM173" s="2"/>
+      <c r="CN173" s="2"/>
+      <c r="CO173" s="2"/>
+      <c r="CP173" s="2"/>
+      <c r="CQ173" s="2"/>
+      <c r="CR173" s="2"/>
       <c r="CS173" s="24"/>
       <c r="CT173" s="24"/>
       <c r="CU173" s="24"/>
@@ -28934,13 +29095,13 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-      <c r="CM174" s="1"/>
-      <c r="CN174" s="1"/>
-      <c r="CO174" s="1"/>
-      <c r="CP174" s="1"/>
-      <c r="CQ174" s="1"/>
-      <c r="CR174" s="24"/>
+      <c r="CL174" s="2"/>
+      <c r="CM174" s="2"/>
+      <c r="CN174" s="2"/>
+      <c r="CO174" s="2"/>
+      <c r="CP174" s="2"/>
+      <c r="CQ174" s="2"/>
+      <c r="CR174" s="2"/>
       <c r="CS174" s="24"/>
       <c r="CT174" s="24"/>
       <c r="CU174" s="24"/>
@@ -28999,21 +29160,19 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP34:CQ34"/>
-    <mergeCell ref="CP108:CQ108"/>
-    <mergeCell ref="CP133:CQ133"/>
-    <mergeCell ref="CP158:CQ158"/>
-    <mergeCell ref="CL59:CO59"/>
-    <mergeCell ref="CP59:CQ59"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CP84:CQ84"/>
+  <mergeCells count="166">
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL34:CO34"/>
     <mergeCell ref="CL158:CO158"/>
     <mergeCell ref="CL108:CO108"/>
     <mergeCell ref="CL133:CO133"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP34:CR34"/>
+    <mergeCell ref="CL59:CN59"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="CP108:CR108"/>
+    <mergeCell ref="CP133:CR133"/>
+    <mergeCell ref="CP158:CR158"/>
     <mergeCell ref="CH59:CK59"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD158:CG158"/>
@@ -29173,9 +29332,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="94" man="1"/>
-    <brk id="100" max="94" man="1"/>
-    <brk id="124" max="94" man="1"/>
+    <brk id="50" max="95" man="1"/>
+    <brk id="100" max="95" man="1"/>
+    <brk id="124" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878A7AA-6518-4BE2-A5AA-EDC69333048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1725AB-8302-4C37-A0C1-00B782A89317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CR$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CS$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -357,12 +357,18 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,7 +720,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CS8" sqref="CS8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,9 +728,8 @@
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="82" max="97" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -739,7 +744,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -749,7 +754,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -891,17 +896,18 @@
       <c r="CI9" s="33"/>
       <c r="CJ9" s="33"/>
       <c r="CK9" s="33"/>
-      <c r="CL9" s="32">
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32">
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1169,26 +1175,29 @@
       <c r="CK10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,28 +1471,30 @@
       <c r="CK12" s="26">
         <v>73737.984486977453</v>
       </c>
-      <c r="CL12" s="29">
+      <c r="CL12" s="26">
         <v>64278.199974307077</v>
       </c>
-      <c r="CM12" s="29">
+      <c r="CM12" s="26">
         <v>78301.795476426603</v>
       </c>
-      <c r="CN12" s="29">
+      <c r="CN12" s="26">
         <v>105008.92645285306</v>
       </c>
-      <c r="CO12" s="29">
+      <c r="CO12" s="26">
         <v>101193.14807144552</v>
       </c>
-      <c r="CP12" s="29">
+      <c r="CP12" s="26">
         <v>84713.533844019388</v>
       </c>
-      <c r="CQ12" s="29">
+      <c r="CQ12" s="26">
         <v>101600.63982002228</v>
       </c>
-      <c r="CR12" s="29">
-        <v>101226.77795367522</v>
-      </c>
-      <c r="CS12" s="11"/>
+      <c r="CR12" s="26">
+        <v>99564.762533106477</v>
+      </c>
+      <c r="CS12" s="26">
+        <v>103524.21168131252</v>
+      </c>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
@@ -1808,28 +1819,30 @@
       <c r="CK13" s="26">
         <v>12780.961963022375</v>
       </c>
-      <c r="CL13" s="29">
+      <c r="CL13" s="26">
         <v>24409.622158552458</v>
       </c>
-      <c r="CM13" s="29">
+      <c r="CM13" s="26">
         <v>35919.397836294309</v>
       </c>
-      <c r="CN13" s="29">
+      <c r="CN13" s="26">
         <v>26294.663427144449</v>
       </c>
-      <c r="CO13" s="29">
+      <c r="CO13" s="26">
         <v>13255.056806212147</v>
       </c>
-      <c r="CP13" s="29">
+      <c r="CP13" s="26">
         <v>24537.625750492349</v>
       </c>
-      <c r="CQ13" s="29">
+      <c r="CQ13" s="26">
         <v>37894.707171723814</v>
       </c>
-      <c r="CR13" s="29">
-        <v>23819.675323882377</v>
-      </c>
-      <c r="CS13" s="11"/>
+      <c r="CR13" s="26">
+        <v>23841.908171510218</v>
+      </c>
+      <c r="CS13" s="26">
+        <v>13736.417195213355</v>
+      </c>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
@@ -2154,28 +2167,30 @@
       <c r="CK14" s="26">
         <v>94971.210049289264</v>
       </c>
-      <c r="CL14" s="29">
+      <c r="CL14" s="26">
         <v>84220.197269927652</v>
       </c>
-      <c r="CM14" s="29">
+      <c r="CM14" s="26">
         <v>70004.28483725246</v>
       </c>
-      <c r="CN14" s="29">
+      <c r="CN14" s="26">
         <v>108629.96941892747</v>
       </c>
-      <c r="CO14" s="29">
+      <c r="CO14" s="26">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="29">
+      <c r="CP14" s="26">
         <v>150989.87083219792</v>
       </c>
-      <c r="CQ14" s="29">
+      <c r="CQ14" s="26">
         <v>141051.15207210169</v>
       </c>
-      <c r="CR14" s="29">
-        <v>230349.29387293893</v>
-      </c>
-      <c r="CS14" s="11"/>
+      <c r="CR14" s="26">
+        <v>230364.79165804994</v>
+      </c>
+      <c r="CS14" s="26">
+        <v>278213.3029009279</v>
+      </c>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
@@ -2500,28 +2515,30 @@
       <c r="CK15" s="26">
         <v>5122.3836248512935</v>
       </c>
-      <c r="CL15" s="29">
+      <c r="CL15" s="26">
         <v>5063.9724781323348</v>
       </c>
-      <c r="CM15" s="29">
+      <c r="CM15" s="26">
         <v>4959.4587433015095</v>
       </c>
-      <c r="CN15" s="29">
+      <c r="CN15" s="26">
         <v>5166.2083527966124</v>
       </c>
-      <c r="CO15" s="29">
+      <c r="CO15" s="26">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="29">
+      <c r="CP15" s="26">
         <v>5018.0349438614548</v>
       </c>
-      <c r="CQ15" s="29">
+      <c r="CQ15" s="26">
         <v>4924.0081288224646</v>
       </c>
-      <c r="CR15" s="29">
-        <v>4572.9559498631661</v>
-      </c>
-      <c r="CS15" s="11"/>
+      <c r="CR15" s="26">
+        <v>4848.3900517060219</v>
+      </c>
+      <c r="CS15" s="26">
+        <v>5140.6721164338969</v>
+      </c>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
@@ -2846,28 +2863,30 @@
       <c r="CK16" s="26">
         <v>23229.524274839223</v>
       </c>
-      <c r="CL16" s="29">
+      <c r="CL16" s="26">
         <v>27228.201327187286</v>
       </c>
-      <c r="CM16" s="29">
+      <c r="CM16" s="26">
         <v>28485.623424981779</v>
       </c>
-      <c r="CN16" s="29">
+      <c r="CN16" s="26">
         <v>28773.936324629412</v>
       </c>
-      <c r="CO16" s="29">
+      <c r="CO16" s="26">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="29">
+      <c r="CP16" s="26">
         <v>30633.757370232517</v>
       </c>
-      <c r="CQ16" s="29">
+      <c r="CQ16" s="26">
         <v>28608.292664405577</v>
       </c>
-      <c r="CR16" s="29">
-        <v>26499.389315245102</v>
-      </c>
-      <c r="CS16" s="11"/>
+      <c r="CR16" s="26">
+        <v>27198.614792630226</v>
+      </c>
+      <c r="CS16" s="26">
+        <v>24161.25249237418</v>
+      </c>
       <c r="CT16" s="11"/>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
@@ -3192,28 +3211,30 @@
       <c r="CK17" s="26">
         <v>72810.256070398711</v>
       </c>
-      <c r="CL17" s="29">
+      <c r="CL17" s="26">
         <v>90733.813918259533</v>
       </c>
-      <c r="CM17" s="29">
+      <c r="CM17" s="26">
         <v>86991.615009958172</v>
       </c>
-      <c r="CN17" s="29">
+      <c r="CN17" s="26">
         <v>95172.222712710689</v>
       </c>
-      <c r="CO17" s="29">
+      <c r="CO17" s="26">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="29">
+      <c r="CP17" s="26">
         <v>106974.81694615472</v>
       </c>
-      <c r="CQ17" s="29">
+      <c r="CQ17" s="26">
         <v>116733.46614218912</v>
       </c>
-      <c r="CR17" s="29">
-        <v>100020.95243567874</v>
-      </c>
-      <c r="CS17" s="11"/>
+      <c r="CR17" s="26">
+        <v>104677.89192038904</v>
+      </c>
+      <c r="CS17" s="26">
+        <v>106667.59820828412</v>
+      </c>
       <c r="CT17" s="11"/>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
@@ -3538,28 +3559,30 @@
       <c r="CK18" s="26">
         <v>9865.3523688019704</v>
       </c>
-      <c r="CL18" s="29">
+      <c r="CL18" s="26">
         <v>7499.1802883047249</v>
       </c>
-      <c r="CM18" s="29">
+      <c r="CM18" s="26">
         <v>7193.15854990965</v>
       </c>
-      <c r="CN18" s="29">
+      <c r="CN18" s="26">
         <v>9578.5690716619501</v>
       </c>
-      <c r="CO18" s="29">
+      <c r="CO18" s="26">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="29">
+      <c r="CP18" s="26">
         <v>8490.2754181610162</v>
       </c>
-      <c r="CQ18" s="29">
+      <c r="CQ18" s="26">
         <v>7125.6013985669297</v>
       </c>
-      <c r="CR18" s="29">
-        <v>7804.651409880893</v>
-      </c>
-      <c r="CS18" s="11"/>
+      <c r="CR18" s="26">
+        <v>6764.2878474370236</v>
+      </c>
+      <c r="CS18" s="26">
+        <v>7513.2189748045976</v>
+      </c>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
@@ -3884,28 +3907,30 @@
       <c r="CK19" s="26">
         <v>15309.74911073353</v>
       </c>
-      <c r="CL19" s="29">
+      <c r="CL19" s="26">
         <v>13767.147484887126</v>
       </c>
-      <c r="CM19" s="29">
+      <c r="CM19" s="26">
         <v>15704.429121634676</v>
       </c>
-      <c r="CN19" s="29">
+      <c r="CN19" s="26">
         <v>17758.849756129912</v>
       </c>
-      <c r="CO19" s="29">
+      <c r="CO19" s="26">
         <v>43483.899187625917</v>
       </c>
-      <c r="CP19" s="29">
+      <c r="CP19" s="26">
         <v>19307.415689258494</v>
       </c>
-      <c r="CQ19" s="29">
+      <c r="CQ19" s="26">
         <v>22428.64878131307</v>
       </c>
-      <c r="CR19" s="29">
-        <v>20681.964921157891</v>
-      </c>
-      <c r="CS19" s="11"/>
+      <c r="CR19" s="26">
+        <v>21703.397485804053</v>
+      </c>
+      <c r="CS19" s="26">
+        <v>39123.379125879292</v>
+      </c>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
@@ -4051,13 +4076,13 @@
       <c r="CI20" s="11"/>
       <c r="CJ20" s="11"/>
       <c r="CK20" s="11"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="12"/>
-      <c r="CO20" s="12"/>
-      <c r="CP20" s="12"/>
-      <c r="CQ20" s="12"/>
-      <c r="CR20" s="12"/>
+      <c r="CL20" s="11"/>
+      <c r="CM20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="11"/>
+      <c r="CP20" s="11"/>
+      <c r="CQ20" s="11"/>
+      <c r="CR20" s="11"/>
       <c r="CS20" s="11"/>
       <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
@@ -4383,28 +4408,30 @@
       <c r="CK21" s="14">
         <v>307827.42194891378</v>
       </c>
-      <c r="CL21" s="15">
+      <c r="CL21" s="14">
         <v>317200.33489955822</v>
       </c>
-      <c r="CM21" s="15">
+      <c r="CM21" s="14">
         <v>327559.76299975917</v>
       </c>
-      <c r="CN21" s="15">
+      <c r="CN21" s="14">
         <v>396383.34551685356</v>
       </c>
-      <c r="CO21" s="15">
+      <c r="CO21" s="14">
         <v>466396.98738902184</v>
       </c>
-      <c r="CP21" s="15">
+      <c r="CP21" s="14">
         <v>430665.33079437778</v>
       </c>
-      <c r="CQ21" s="15">
+      <c r="CQ21" s="14">
         <v>460366.51617914502</v>
       </c>
-      <c r="CR21" s="15">
-        <v>514975.66118232231</v>
-      </c>
-      <c r="CS21" s="11"/>
+      <c r="CR21" s="14">
+        <v>518964.04446063295</v>
+      </c>
+      <c r="CS21" s="14">
+        <v>578080.05269522988</v>
+      </c>
       <c r="CT21" s="11"/>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
@@ -4551,13 +4578,14 @@
       <c r="CI22" s="16"/>
       <c r="CJ22" s="16"/>
       <c r="CK22" s="16"/>
-      <c r="CL22" s="17"/>
-      <c r="CM22" s="17"/>
-      <c r="CN22" s="17"/>
-      <c r="CO22" s="17"/>
-      <c r="CP22" s="17"/>
-      <c r="CQ22" s="17"/>
-      <c r="CR22" s="17"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4653,13 +4681,13 @@
       <c r="CI24" s="11"/>
       <c r="CJ24" s="11"/>
       <c r="CK24" s="11"/>
-      <c r="CL24" s="12"/>
-      <c r="CM24" s="12"/>
-      <c r="CN24" s="12"/>
-      <c r="CO24" s="12"/>
-      <c r="CP24" s="12"/>
-      <c r="CQ24" s="12"/>
-      <c r="CR24" s="12"/>
+      <c r="CL24" s="11"/>
+      <c r="CM24" s="11"/>
+      <c r="CN24" s="11"/>
+      <c r="CO24" s="11"/>
+      <c r="CP24" s="11"/>
+      <c r="CQ24" s="11"/>
+      <c r="CR24" s="11"/>
       <c r="CS24" s="11"/>
       <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
@@ -4806,13 +4834,13 @@
       <c r="CI25" s="11"/>
       <c r="CJ25" s="11"/>
       <c r="CK25" s="11"/>
-      <c r="CL25" s="12"/>
-      <c r="CM25" s="12"/>
-      <c r="CN25" s="12"/>
-      <c r="CO25" s="12"/>
-      <c r="CP25" s="12"/>
-      <c r="CQ25" s="12"/>
-      <c r="CR25" s="12"/>
+      <c r="CL25" s="11"/>
+      <c r="CM25" s="11"/>
+      <c r="CN25" s="11"/>
+      <c r="CO25" s="11"/>
+      <c r="CP25" s="11"/>
+      <c r="CQ25" s="11"/>
+      <c r="CR25" s="11"/>
       <c r="CS25" s="11"/>
       <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
@@ -4882,7 +4910,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4892,7 +4920,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -5034,17 +5062,18 @@
       <c r="CI34" s="33"/>
       <c r="CJ34" s="33"/>
       <c r="CK34" s="33"/>
-      <c r="CL34" s="32">
+      <c r="CL34" s="29">
         <v>2022</v>
       </c>
-      <c r="CM34" s="32"/>
-      <c r="CN34" s="32"/>
-      <c r="CO34" s="32"/>
-      <c r="CP34" s="32">
+      <c r="CM34" s="29"/>
+      <c r="CN34" s="29"/>
+      <c r="CO34" s="29"/>
+      <c r="CP34" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="32"/>
-      <c r="CR34" s="32"/>
+      <c r="CQ34" s="29"/>
+      <c r="CR34" s="29"/>
+      <c r="CS34" s="29"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5312,26 +5341,29 @@
       <c r="CK35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL35" s="19" t="s">
+      <c r="CL35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM35" s="19" t="s">
+      <c r="CM35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN35" s="19" t="s">
+      <c r="CN35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO35" s="19" t="s">
+      <c r="CO35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="19" t="s">
+      <c r="CP35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="19" t="s">
+      <c r="CQ35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="19" t="s">
+      <c r="CR35" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS35" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,28 +5637,30 @@
       <c r="CK37" s="26">
         <v>71273.442872178304</v>
       </c>
-      <c r="CL37" s="29">
+      <c r="CL37" s="26">
         <v>65463.132122746989</v>
       </c>
-      <c r="CM37" s="29">
+      <c r="CM37" s="26">
         <v>73741.448231983406</v>
       </c>
-      <c r="CN37" s="29">
+      <c r="CN37" s="26">
         <v>100951.57153183127</v>
       </c>
-      <c r="CO37" s="29">
+      <c r="CO37" s="26">
         <v>97606.909602206899</v>
       </c>
-      <c r="CP37" s="29">
+      <c r="CP37" s="26">
         <v>81693.778927778447</v>
       </c>
-      <c r="CQ37" s="29">
+      <c r="CQ37" s="26">
         <v>90636.184276376342</v>
       </c>
-      <c r="CR37" s="29">
-        <v>93446.874796662887</v>
-      </c>
-      <c r="CS37" s="11"/>
+      <c r="CR37" s="26">
+        <v>91912.595527326805</v>
+      </c>
+      <c r="CS37" s="26">
+        <v>97831.94601019418</v>
+      </c>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
@@ -5951,28 +5985,30 @@
       <c r="CK38" s="26">
         <v>11927.031782863498</v>
       </c>
-      <c r="CL38" s="29">
+      <c r="CL38" s="26">
         <v>30655.88424405938</v>
       </c>
-      <c r="CM38" s="29">
+      <c r="CM38" s="26">
         <v>29842.408740141524</v>
       </c>
-      <c r="CN38" s="29">
+      <c r="CN38" s="26">
         <v>24246.693365427058</v>
       </c>
-      <c r="CO38" s="29">
+      <c r="CO38" s="26">
         <v>12084.392593717253</v>
       </c>
-      <c r="CP38" s="29">
+      <c r="CP38" s="26">
         <v>28677.024820534818</v>
       </c>
-      <c r="CQ38" s="29">
+      <c r="CQ38" s="26">
         <v>30089.971371805852</v>
       </c>
-      <c r="CR38" s="29">
-        <v>21079.85854389186</v>
-      </c>
-      <c r="CS38" s="11"/>
+      <c r="CR38" s="26">
+        <v>21099.534096839168</v>
+      </c>
+      <c r="CS38" s="26">
+        <v>12299.547093164763</v>
+      </c>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
@@ -6297,28 +6333,30 @@
       <c r="CK39" s="26">
         <v>101474.95724944078</v>
       </c>
-      <c r="CL39" s="29">
+      <c r="CL39" s="26">
         <v>74248.938600978479</v>
       </c>
-      <c r="CM39" s="29">
+      <c r="CM39" s="26">
         <v>63337.90549007689</v>
       </c>
-      <c r="CN39" s="29">
+      <c r="CN39" s="26">
         <v>117275.04901732334</v>
       </c>
-      <c r="CO39" s="29">
+      <c r="CO39" s="26">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="29">
+      <c r="CP39" s="26">
         <v>123441.60812228297</v>
       </c>
-      <c r="CQ39" s="29">
+      <c r="CQ39" s="26">
         <v>112732.84324393685</v>
       </c>
-      <c r="CR39" s="29">
-        <v>238084.56826043266</v>
-      </c>
-      <c r="CS39" s="11"/>
+      <c r="CR39" s="26">
+        <v>238100.58647092991</v>
+      </c>
+      <c r="CS39" s="26">
+        <v>274853.43608612457</v>
+      </c>
       <c r="CT39" s="11"/>
       <c r="CU39" s="11"/>
       <c r="CV39" s="11"/>
@@ -6643,28 +6681,30 @@
       <c r="CK40" s="26">
         <v>4875.0421669535563</v>
       </c>
-      <c r="CL40" s="29">
+      <c r="CL40" s="26">
         <v>5657.089442415454</v>
       </c>
-      <c r="CM40" s="29">
+      <c r="CM40" s="26">
         <v>4423.042275148362</v>
       </c>
-      <c r="CN40" s="29">
+      <c r="CN40" s="26">
         <v>4864.2388164691256</v>
       </c>
-      <c r="CO40" s="29">
+      <c r="CO40" s="26">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="29">
+      <c r="CP40" s="26">
         <v>5216.5593547111621</v>
       </c>
-      <c r="CQ40" s="29">
+      <c r="CQ40" s="26">
         <v>4197.0482487003283</v>
       </c>
-      <c r="CR40" s="29">
-        <v>4132.2533505004021</v>
-      </c>
-      <c r="CS40" s="11"/>
+      <c r="CR40" s="26">
+        <v>4381.1434563008452</v>
+      </c>
+      <c r="CS40" s="26">
+        <v>4694.3232692237671</v>
+      </c>
       <c r="CT40" s="11"/>
       <c r="CU40" s="11"/>
       <c r="CV40" s="11"/>
@@ -6989,28 +7029,30 @@
       <c r="CK41" s="26">
         <v>21511.767531166046</v>
       </c>
-      <c r="CL41" s="29">
+      <c r="CL41" s="26">
         <v>31686.386603363273</v>
       </c>
-      <c r="CM41" s="29">
+      <c r="CM41" s="26">
         <v>24522.178278769905</v>
       </c>
-      <c r="CN41" s="29">
+      <c r="CN41" s="26">
         <v>26373.159234028655</v>
       </c>
-      <c r="CO41" s="29">
+      <c r="CO41" s="26">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="29">
+      <c r="CP41" s="26">
         <v>33174.378483746579</v>
       </c>
-      <c r="CQ41" s="29">
+      <c r="CQ41" s="26">
         <v>23537.679708751326</v>
       </c>
-      <c r="CR41" s="29">
-        <v>23310.18364681003</v>
-      </c>
-      <c r="CS41" s="11"/>
+      <c r="CR41" s="26">
+        <v>23925.257228109462</v>
+      </c>
+      <c r="CS41" s="26">
+        <v>21468.516589575105</v>
+      </c>
       <c r="CT41" s="11"/>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
@@ -7335,28 +7377,30 @@
       <c r="CK42" s="26">
         <v>68290.96805325427</v>
       </c>
-      <c r="CL42" s="29">
+      <c r="CL42" s="26">
         <v>107658.4772746901</v>
       </c>
-      <c r="CM42" s="29">
+      <c r="CM42" s="26">
         <v>76045.567275541456</v>
       </c>
-      <c r="CN42" s="29">
+      <c r="CN42" s="26">
         <v>88438.723883617175</v>
       </c>
-      <c r="CO42" s="29">
+      <c r="CO42" s="26">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="29">
+      <c r="CP42" s="26">
         <v>118116.1769412344</v>
       </c>
-      <c r="CQ42" s="29">
+      <c r="CQ42" s="26">
         <v>97528.216759631192</v>
       </c>
-      <c r="CR42" s="29">
-        <v>89201.096217502651</v>
-      </c>
-      <c r="CS42" s="11"/>
+      <c r="CR42" s="26">
+        <v>93354.267097592659</v>
+      </c>
+      <c r="CS42" s="26">
+        <v>95995.315423770633</v>
+      </c>
       <c r="CT42" s="11"/>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
@@ -7681,28 +7725,30 @@
       <c r="CK43" s="26">
         <v>9059.2377780854313</v>
       </c>
-      <c r="CL43" s="29">
+      <c r="CL43" s="26">
         <v>8777.79798832507</v>
       </c>
-      <c r="CM43" s="29">
+      <c r="CM43" s="26">
         <v>6176.0969761237629</v>
       </c>
-      <c r="CN43" s="29">
+      <c r="CN43" s="26">
         <v>8722.4214166068523</v>
       </c>
-      <c r="CO43" s="29">
+      <c r="CO43" s="26">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="29">
+      <c r="CP43" s="26">
         <v>9247.8830546496483</v>
       </c>
-      <c r="CQ43" s="29">
+      <c r="CQ43" s="26">
         <v>5847.2867246154101</v>
       </c>
-      <c r="CR43" s="29">
-        <v>6820.8247494168027</v>
-      </c>
-      <c r="CS43" s="11"/>
+      <c r="CR43" s="26">
+        <v>5911.6057257298917</v>
+      </c>
+      <c r="CS43" s="26">
+        <v>6619.9074296252757</v>
+      </c>
       <c r="CT43" s="11"/>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
@@ -8027,28 +8073,30 @@
       <c r="CK44" s="26">
         <v>14155.001436112121</v>
       </c>
-      <c r="CL44" s="29">
+      <c r="CL44" s="26">
         <v>16228.514766005081</v>
       </c>
-      <c r="CM44" s="29">
+      <c r="CM44" s="26">
         <v>13565.303601549647</v>
       </c>
-      <c r="CN44" s="29">
+      <c r="CN44" s="26">
         <v>16274.78835007403</v>
       </c>
-      <c r="CO44" s="29">
+      <c r="CO44" s="26">
         <v>39277.580084628244</v>
       </c>
-      <c r="CP44" s="29">
+      <c r="CP44" s="26">
         <v>21179.110705268595</v>
       </c>
-      <c r="CQ44" s="29">
+      <c r="CQ44" s="26">
         <v>18516.072240827933</v>
       </c>
-      <c r="CR44" s="29">
-        <v>18190.274978159021</v>
-      </c>
-      <c r="CS44" s="11"/>
+      <c r="CR44" s="26">
+        <v>19088.648962129577</v>
+      </c>
+      <c r="CS44" s="26">
+        <v>34707.634489706164</v>
+      </c>
       <c r="CT44" s="11"/>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
@@ -8194,13 +8242,13 @@
       <c r="CI45" s="11"/>
       <c r="CJ45" s="11"/>
       <c r="CK45" s="11"/>
-      <c r="CL45" s="12"/>
-      <c r="CM45" s="12"/>
-      <c r="CN45" s="12"/>
-      <c r="CO45" s="12"/>
-      <c r="CP45" s="12"/>
-      <c r="CQ45" s="12"/>
-      <c r="CR45" s="12"/>
+      <c r="CL45" s="11"/>
+      <c r="CM45" s="11"/>
+      <c r="CN45" s="11"/>
+      <c r="CO45" s="11"/>
+      <c r="CP45" s="11"/>
+      <c r="CQ45" s="11"/>
+      <c r="CR45" s="11"/>
       <c r="CS45" s="11"/>
       <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
@@ -8526,28 +8574,30 @@
       <c r="CK46" s="14">
         <v>302567.44887005404</v>
       </c>
-      <c r="CL46" s="15">
+      <c r="CL46" s="14">
         <v>340376.22104258387</v>
       </c>
-      <c r="CM46" s="15">
+      <c r="CM46" s="14">
         <v>291653.95086933492</v>
       </c>
-      <c r="CN46" s="15">
+      <c r="CN46" s="14">
         <v>387146.64561537752</v>
       </c>
-      <c r="CO46" s="15">
+      <c r="CO46" s="14">
         <v>453210.31140857324</v>
       </c>
-      <c r="CP46" s="15">
+      <c r="CP46" s="14">
         <v>420746.52041020658</v>
       </c>
-      <c r="CQ46" s="15">
+      <c r="CQ46" s="14">
         <v>383085.30257464526</v>
       </c>
-      <c r="CR46" s="15">
-        <v>494265.93454337632</v>
-      </c>
-      <c r="CS46" s="11"/>
+      <c r="CR46" s="14">
+        <v>497773.63856495824</v>
+      </c>
+      <c r="CS46" s="14">
+        <v>548470.62639138452</v>
+      </c>
       <c r="CT46" s="11"/>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
@@ -8694,13 +8744,14 @@
       <c r="CI47" s="16"/>
       <c r="CJ47" s="16"/>
       <c r="CK47" s="16"/>
-      <c r="CL47" s="17"/>
-      <c r="CM47" s="17"/>
-      <c r="CN47" s="17"/>
-      <c r="CO47" s="17"/>
-      <c r="CP47" s="17"/>
-      <c r="CQ47" s="17"/>
-      <c r="CR47" s="17"/>
+      <c r="CL47" s="16"/>
+      <c r="CM47" s="16"/>
+      <c r="CN47" s="16"/>
+      <c r="CO47" s="16"/>
+      <c r="CP47" s="16"/>
+      <c r="CQ47" s="16"/>
+      <c r="CR47" s="16"/>
+      <c r="CS47" s="16"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8796,13 +8847,13 @@
       <c r="CI49" s="11"/>
       <c r="CJ49" s="11"/>
       <c r="CK49" s="11"/>
-      <c r="CL49" s="12"/>
-      <c r="CM49" s="12"/>
-      <c r="CN49" s="12"/>
-      <c r="CO49" s="12"/>
-      <c r="CP49" s="12"/>
-      <c r="CQ49" s="12"/>
-      <c r="CR49" s="12"/>
+      <c r="CL49" s="11"/>
+      <c r="CM49" s="11"/>
+      <c r="CN49" s="11"/>
+      <c r="CO49" s="11"/>
+      <c r="CP49" s="11"/>
+      <c r="CQ49" s="11"/>
+      <c r="CR49" s="11"/>
       <c r="CS49" s="11"/>
       <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
@@ -8949,13 +9000,13 @@
       <c r="CI50" s="11"/>
       <c r="CJ50" s="11"/>
       <c r="CK50" s="11"/>
-      <c r="CL50" s="12"/>
-      <c r="CM50" s="12"/>
-      <c r="CN50" s="12"/>
-      <c r="CO50" s="12"/>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="12"/>
+      <c r="CL50" s="11"/>
+      <c r="CM50" s="11"/>
+      <c r="CN50" s="11"/>
+      <c r="CO50" s="11"/>
+      <c r="CP50" s="11"/>
+      <c r="CQ50" s="11"/>
+      <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
@@ -9025,23 +9076,47 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CP54" s="8"/>
+      <c r="CQ54" s="8"/>
+      <c r="CR54" s="8"/>
+      <c r="CS54" s="8"/>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP55" s="8"/>
+      <c r="CQ55" s="8"/>
+      <c r="CR55" s="8"/>
+      <c r="CS55" s="8"/>
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CP56" s="8"/>
+      <c r="CQ56" s="8"/>
+      <c r="CR56" s="8"/>
+      <c r="CS56" s="8"/>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CP57" s="8"/>
+      <c r="CQ57" s="8"/>
+      <c r="CR57" s="8"/>
+      <c r="CS57" s="8"/>
+    </row>
+    <row r="58" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CP58" s="8"/>
+      <c r="CQ58" s="8"/>
+      <c r="CR58" s="8"/>
+      <c r="CS58" s="8"/>
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
@@ -9177,15 +9252,16 @@
       <c r="CI59" s="33"/>
       <c r="CJ59" s="33"/>
       <c r="CK59" s="33"/>
-      <c r="CL59" s="32" t="s">
+      <c r="CL59" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="32"/>
-      <c r="CN59" s="32"/>
-      <c r="CO59" s="30"/>
+      <c r="CM59" s="29"/>
+      <c r="CN59" s="29"/>
+      <c r="CO59" s="29"/>
       <c r="CP59" s="28"/>
       <c r="CQ59" s="28"/>
       <c r="CR59" s="28"/>
+      <c r="CS59" s="28"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9453,22 +9529,29 @@
       <c r="CK60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL60" s="19" t="s">
+      <c r="CL60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM60" s="19" t="s">
+      <c r="CM60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN60" s="19" t="s">
+      <c r="CN60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO60" s="19"/>
-      <c r="CP60" s="19"/>
-      <c r="CQ60" s="19"/>
-      <c r="CR60" s="19"/>
+      <c r="CO60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP60" s="7"/>
+      <c r="CQ60" s="7"/>
+      <c r="CR60" s="7"/>
+      <c r="CS60" s="7"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
+      <c r="CP61" s="8"/>
+      <c r="CQ61" s="8"/>
+      <c r="CR61" s="8"/>
+      <c r="CS61" s="8"/>
     </row>
     <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9738,20 +9821,22 @@
       <c r="CK62" s="20">
         <v>37.23340660242323</v>
       </c>
-      <c r="CL62" s="21">
+      <c r="CL62" s="20">
         <v>31.792013276477263</v>
       </c>
-      <c r="CM62" s="21">
+      <c r="CM62" s="20">
         <v>29.755185308119763</v>
       </c>
-      <c r="CN62" s="21">
-        <v>-3.601739991957686</v>
-      </c>
-      <c r="CO62" s="21"/>
-      <c r="CP62" s="21"/>
-      <c r="CQ62" s="21"/>
-      <c r="CR62" s="21"/>
-      <c r="CS62" s="11"/>
+      <c r="CN62" s="20">
+        <v>-5.1844772665025829</v>
+      </c>
+      <c r="CO62" s="20">
+        <v>2.3035785073325172</v>
+      </c>
+      <c r="CP62" s="30"/>
+      <c r="CQ62" s="30"/>
+      <c r="CR62" s="30"/>
+      <c r="CS62" s="30"/>
       <c r="CT62" s="11"/>
       <c r="CU62" s="11"/>
       <c r="CV62" s="11"/>
@@ -10072,20 +10157,22 @@
       <c r="CK63" s="20">
         <v>3.7093831009075302</v>
       </c>
-      <c r="CL63" s="21">
+      <c r="CL63" s="20">
         <v>0.52439808821473832</v>
       </c>
-      <c r="CM63" s="21">
+      <c r="CM63" s="20">
         <v>5.4992829902999603</v>
       </c>
-      <c r="CN63" s="21">
-        <v>-9.412511059970825</v>
-      </c>
-      <c r="CO63" s="21"/>
-      <c r="CP63" s="21"/>
-      <c r="CQ63" s="21"/>
-      <c r="CR63" s="21"/>
-      <c r="CS63" s="11"/>
+      <c r="CN63" s="20">
+        <v>-9.3279583609433274</v>
+      </c>
+      <c r="CO63" s="20">
+        <v>3.6315226410467858</v>
+      </c>
+      <c r="CP63" s="30"/>
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
       <c r="CT63" s="11"/>
       <c r="CU63" s="11"/>
       <c r="CV63" s="11"/>
@@ -10406,20 +10493,22 @@
       <c r="CK64" s="20">
         <v>79.444531646878943</v>
       </c>
-      <c r="CL64" s="21">
+      <c r="CL64" s="20">
         <v>79.279882648899473</v>
       </c>
-      <c r="CM64" s="21">
+      <c r="CM64" s="20">
         <v>101.48931226141454</v>
       </c>
-      <c r="CN64" s="21">
-        <v>112.04948791305037</v>
-      </c>
-      <c r="CO64" s="21"/>
-      <c r="CP64" s="21"/>
-      <c r="CQ64" s="21"/>
-      <c r="CR64" s="21"/>
-      <c r="CS64" s="11"/>
+      <c r="CN64" s="20">
+        <v>112.06375449638267</v>
+      </c>
+      <c r="CO64" s="20">
+        <v>63.250940663839401</v>
+      </c>
+      <c r="CP64" s="30"/>
+      <c r="CQ64" s="30"/>
+      <c r="CR64" s="30"/>
+      <c r="CS64" s="30"/>
       <c r="CT64" s="11"/>
       <c r="CU64" s="11"/>
       <c r="CV64" s="11"/>
@@ -10740,20 +10829,22 @@
       <c r="CK65" s="20">
         <v>1.1678899539499241</v>
       </c>
-      <c r="CL65" s="21">
+      <c r="CL65" s="20">
         <v>-0.90714423250227583</v>
       </c>
-      <c r="CM65" s="21">
+      <c r="CM65" s="20">
         <v>-0.71480813358768103</v>
       </c>
-      <c r="CN65" s="21">
-        <v>-11.483323211544544</v>
-      </c>
-      <c r="CO65" s="21"/>
-      <c r="CP65" s="21"/>
-      <c r="CQ65" s="21"/>
-      <c r="CR65" s="21"/>
-      <c r="CS65" s="11"/>
+      <c r="CN65" s="20">
+        <v>-6.151867663613416</v>
+      </c>
+      <c r="CO65" s="20">
+        <v>-0.80149844920354951</v>
+      </c>
+      <c r="CP65" s="30"/>
+      <c r="CQ65" s="30"/>
+      <c r="CR65" s="30"/>
+      <c r="CS65" s="30"/>
       <c r="CT65" s="11"/>
       <c r="CU65" s="11"/>
       <c r="CV65" s="11"/>
@@ -11074,20 +11165,22 @@
       <c r="CK66" s="20">
         <v>22.979646526647215</v>
       </c>
-      <c r="CL66" s="21">
+      <c r="CL66" s="20">
         <v>12.507458726789977</v>
       </c>
-      <c r="CM66" s="21">
+      <c r="CM66" s="20">
         <v>0.43063561430155062</v>
       </c>
-      <c r="CN66" s="21">
-        <v>-7.9048865046572843</v>
-      </c>
-      <c r="CO66" s="21"/>
-      <c r="CP66" s="21"/>
-      <c r="CQ66" s="21"/>
-      <c r="CR66" s="21"/>
-      <c r="CS66" s="11"/>
+      <c r="CN66" s="20">
+        <v>-5.4748210819204814</v>
+      </c>
+      <c r="CO66" s="20">
+        <v>-15.424244178753838</v>
+      </c>
+      <c r="CP66" s="30"/>
+      <c r="CQ66" s="30"/>
+      <c r="CR66" s="30"/>
+      <c r="CS66" s="30"/>
       <c r="CT66" s="11"/>
       <c r="CU66" s="11"/>
       <c r="CV66" s="11"/>
@@ -11408,20 +11501,22 @@
       <c r="CK67" s="20">
         <v>31.44501362956629</v>
       </c>
-      <c r="CL67" s="21">
+      <c r="CL67" s="20">
         <v>17.899614627162492</v>
       </c>
-      <c r="CM67" s="21">
+      <c r="CM67" s="20">
         <v>34.18933092439579</v>
       </c>
-      <c r="CN67" s="21">
-        <v>5.0946900101351673</v>
-      </c>
-      <c r="CO67" s="21"/>
-      <c r="CP67" s="21"/>
-      <c r="CQ67" s="21"/>
-      <c r="CR67" s="21"/>
-      <c r="CS67" s="11"/>
+      <c r="CN67" s="20">
+        <v>9.9878608870703971</v>
+      </c>
+      <c r="CO67" s="20">
+        <v>11.4540468453107</v>
+      </c>
+      <c r="CP67" s="30"/>
+      <c r="CQ67" s="30"/>
+      <c r="CR67" s="30"/>
+      <c r="CS67" s="30"/>
       <c r="CT67" s="11"/>
       <c r="CU67" s="11"/>
       <c r="CV67" s="11"/>
@@ -11742,20 +11837,22 @@
       <c r="CK68" s="20">
         <v>-12.93777816295983</v>
       </c>
-      <c r="CL68" s="21">
+      <c r="CL68" s="20">
         <v>13.216046177766174</v>
       </c>
-      <c r="CM68" s="21">
+      <c r="CM68" s="20">
         <v>-0.93918618467779424</v>
       </c>
-      <c r="CN68" s="21">
-        <v>-18.519652032673278</v>
-      </c>
-      <c r="CO68" s="21"/>
-      <c r="CP68" s="21"/>
-      <c r="CQ68" s="21"/>
-      <c r="CR68" s="21"/>
-      <c r="CS68" s="11"/>
+      <c r="CN68" s="20">
+        <v>-29.381019264672162</v>
+      </c>
+      <c r="CO68" s="20">
+        <v>-12.525050881912236</v>
+      </c>
+      <c r="CP68" s="30"/>
+      <c r="CQ68" s="30"/>
+      <c r="CR68" s="30"/>
+      <c r="CS68" s="30"/>
       <c r="CT68" s="11"/>
       <c r="CU68" s="11"/>
       <c r="CV68" s="11"/>
@@ -12076,20 +12173,22 @@
       <c r="CK69" s="20">
         <v>184.02751000759213</v>
       </c>
-      <c r="CL69" s="21">
+      <c r="CL69" s="20">
         <v>40.242673440182074</v>
       </c>
-      <c r="CM69" s="21">
+      <c r="CM69" s="20">
         <v>42.817345397261221</v>
       </c>
-      <c r="CN69" s="21">
-        <v>16.460047836256919</v>
-      </c>
-      <c r="CO69" s="21"/>
-      <c r="CP69" s="21"/>
-      <c r="CQ69" s="21"/>
-      <c r="CR69" s="21"/>
-      <c r="CS69" s="11"/>
+      <c r="CN69" s="20">
+        <v>22.211729835219657</v>
+      </c>
+      <c r="CO69" s="20">
+        <v>-10.027895711310748</v>
+      </c>
+      <c r="CP69" s="30"/>
+      <c r="CQ69" s="30"/>
+      <c r="CR69" s="30"/>
+      <c r="CS69" s="30"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
@@ -12231,14 +12330,14 @@
       <c r="CI70" s="11"/>
       <c r="CJ70" s="11"/>
       <c r="CK70" s="11"/>
-      <c r="CL70" s="12"/>
-      <c r="CM70" s="12"/>
-      <c r="CN70" s="12"/>
-      <c r="CO70" s="12"/>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="12"/>
-      <c r="CR70" s="12"/>
-      <c r="CS70" s="11"/>
+      <c r="CL70" s="11"/>
+      <c r="CM70" s="11"/>
+      <c r="CN70" s="11"/>
+      <c r="CO70" s="11"/>
+      <c r="CP70" s="31"/>
+      <c r="CQ70" s="31"/>
+      <c r="CR70" s="31"/>
+      <c r="CS70" s="31"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
@@ -12559,20 +12658,22 @@
       <c r="CK71" s="20">
         <v>51.512488535353384</v>
       </c>
-      <c r="CL71" s="21">
+      <c r="CL71" s="20">
         <v>35.770768000843475</v>
       </c>
-      <c r="CM71" s="21">
+      <c r="CM71" s="20">
         <v>40.544281740576139</v>
       </c>
-      <c r="CN71" s="21">
-        <v>29.918591940545184</v>
-      </c>
-      <c r="CO71" s="21"/>
-      <c r="CP71" s="21"/>
-      <c r="CQ71" s="21"/>
-      <c r="CR71" s="21"/>
-      <c r="CS71" s="11"/>
+      <c r="CN71" s="20">
+        <v>30.92478539529543</v>
+      </c>
+      <c r="CO71" s="20">
+        <v>23.945923392736916</v>
+      </c>
+      <c r="CP71" s="30"/>
+      <c r="CQ71" s="30"/>
+      <c r="CR71" s="30"/>
+      <c r="CS71" s="30"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
@@ -12715,18 +12816,23 @@
       <c r="CI72" s="16"/>
       <c r="CJ72" s="16"/>
       <c r="CK72" s="16"/>
-      <c r="CL72" s="17"/>
-      <c r="CM72" s="17"/>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
-      <c r="CP72" s="17"/>
-      <c r="CQ72" s="17"/>
-      <c r="CR72" s="17"/>
+      <c r="CL72" s="16"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="16"/>
+      <c r="CO72" s="16"/>
+      <c r="CP72" s="6"/>
+      <c r="CQ72" s="6"/>
+      <c r="CR72" s="6"/>
+      <c r="CS72" s="6"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="CP73" s="8"/>
+      <c r="CQ73" s="8"/>
+      <c r="CR73" s="8"/>
+      <c r="CS73" s="8"/>
     </row>
     <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
@@ -12817,14 +12923,14 @@
       <c r="CI74" s="11"/>
       <c r="CJ74" s="11"/>
       <c r="CK74" s="11"/>
-      <c r="CL74" s="12"/>
-      <c r="CM74" s="12"/>
-      <c r="CN74" s="12"/>
-      <c r="CO74" s="12"/>
-      <c r="CP74" s="12"/>
-      <c r="CQ74" s="12"/>
-      <c r="CR74" s="12"/>
-      <c r="CS74" s="11"/>
+      <c r="CL74" s="11"/>
+      <c r="CM74" s="11"/>
+      <c r="CN74" s="11"/>
+      <c r="CO74" s="11"/>
+      <c r="CP74" s="31"/>
+      <c r="CQ74" s="31"/>
+      <c r="CR74" s="31"/>
+      <c r="CS74" s="31"/>
       <c r="CT74" s="11"/>
       <c r="CU74" s="11"/>
       <c r="CV74" s="11"/>
@@ -12966,14 +13072,14 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="12"/>
-      <c r="CM75" s="12"/>
-      <c r="CN75" s="12"/>
-      <c r="CO75" s="12"/>
-      <c r="CP75" s="12"/>
-      <c r="CQ75" s="12"/>
-      <c r="CR75" s="12"/>
-      <c r="CS75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
+      <c r="CP75" s="31"/>
+      <c r="CQ75" s="31"/>
+      <c r="CR75" s="31"/>
+      <c r="CS75" s="31"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
@@ -13030,31 +13136,67 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP76" s="8"/>
+      <c r="CQ76" s="8"/>
+      <c r="CR76" s="8"/>
+      <c r="CS76" s="8"/>
     </row>
     <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP77" s="8"/>
+      <c r="CQ77" s="8"/>
+      <c r="CR77" s="8"/>
+      <c r="CS77" s="8"/>
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="CP78" s="8"/>
+      <c r="CQ78" s="8"/>
+      <c r="CR78" s="8"/>
+      <c r="CS78" s="8"/>
+    </row>
+    <row r="79" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CP79" s="8"/>
+      <c r="CQ79" s="8"/>
+      <c r="CR79" s="8"/>
+      <c r="CS79" s="8"/>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP80" s="8"/>
+      <c r="CQ80" s="8"/>
+      <c r="CR80" s="8"/>
+      <c r="CS80" s="8"/>
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CP81" s="8"/>
+      <c r="CQ81" s="8"/>
+      <c r="CR81" s="8"/>
+      <c r="CS81" s="8"/>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="CP82" s="8"/>
+      <c r="CQ82" s="8"/>
+      <c r="CR82" s="8"/>
+      <c r="CS82" s="8"/>
+    </row>
+    <row r="83" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CP83" s="8"/>
+      <c r="CQ83" s="8"/>
+      <c r="CR83" s="8"/>
+      <c r="CS83" s="8"/>
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
@@ -13190,15 +13332,16 @@
       <c r="CI84" s="33"/>
       <c r="CJ84" s="33"/>
       <c r="CK84" s="33"/>
-      <c r="CL84" s="32" t="s">
+      <c r="CL84" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="32"/>
-      <c r="CN84" s="32"/>
-      <c r="CO84" s="30"/>
+      <c r="CM84" s="29"/>
+      <c r="CN84" s="29"/>
+      <c r="CO84" s="29"/>
       <c r="CP84" s="28"/>
       <c r="CQ84" s="28"/>
       <c r="CR84" s="28"/>
+      <c r="CS84" s="28"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13466,22 +13609,29 @@
       <c r="CK85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CL85" s="7" t="s">
+      <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="7" t="s">
+      <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="7" t="s">
+      <c r="CN85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO85" s="7"/>
-      <c r="CP85" s="7"/>
-      <c r="CQ85" s="7"/>
-      <c r="CR85" s="7"/>
+      <c r="CO85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP85" s="6"/>
+      <c r="CQ85" s="6"/>
+      <c r="CR85" s="6"/>
+      <c r="CS85" s="6"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="CP86" s="8"/>
+      <c r="CQ86" s="8"/>
+      <c r="CR86" s="8"/>
+      <c r="CS86" s="8"/>
     </row>
     <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -13751,20 +13901,22 @@
       <c r="CK87" s="20">
         <v>36.947095115434507</v>
       </c>
-      <c r="CL87" s="21">
+      <c r="CL87" s="20">
         <v>24.793568958170368</v>
       </c>
-      <c r="CM87" s="21">
+      <c r="CM87" s="20">
         <v>22.910773316037591</v>
       </c>
-      <c r="CN87" s="21">
-        <v>-7.433957313682896</v>
-      </c>
-      <c r="CO87" s="21"/>
-      <c r="CP87" s="21"/>
-      <c r="CQ87" s="21"/>
-      <c r="CR87" s="21"/>
-      <c r="CS87" s="11"/>
+      <c r="CN87" s="20">
+        <v>-8.9537744359476079</v>
+      </c>
+      <c r="CO87" s="20">
+        <v>0.23055376807276673</v>
+      </c>
+      <c r="CP87" s="30"/>
+      <c r="CQ87" s="30"/>
+      <c r="CR87" s="30"/>
+      <c r="CS87" s="30"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
@@ -14085,20 +14237,22 @@
       <c r="CK88" s="20">
         <v>1.3193627192295025</v>
       </c>
-      <c r="CL88" s="21">
+      <c r="CL88" s="20">
         <v>-6.4550720761154707</v>
       </c>
-      <c r="CM88" s="21">
+      <c r="CM88" s="20">
         <v>0.82956651998176767</v>
       </c>
-      <c r="CN88" s="21">
-        <v>-13.060893598179177</v>
-      </c>
-      <c r="CO88" s="21"/>
-      <c r="CP88" s="21"/>
-      <c r="CQ88" s="21"/>
-      <c r="CR88" s="21"/>
-      <c r="CS88" s="11"/>
+      <c r="CN88" s="20">
+        <v>-12.979746232430074</v>
+      </c>
+      <c r="CO88" s="20">
+        <v>1.7804328829847123</v>
+      </c>
+      <c r="CP88" s="30"/>
+      <c r="CQ88" s="30"/>
+      <c r="CR88" s="30"/>
+      <c r="CS88" s="30"/>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
@@ -14419,20 +14573,22 @@
       <c r="CK89" s="20">
         <v>75.586048994618437</v>
       </c>
-      <c r="CL89" s="21">
+      <c r="CL89" s="20">
         <v>66.253700656478088</v>
       </c>
-      <c r="CM89" s="21">
+      <c r="CM89" s="20">
         <v>77.986376991260983</v>
       </c>
-      <c r="CN89" s="21">
-        <v>103.0138296725537</v>
-      </c>
-      <c r="CO89" s="21"/>
-      <c r="CP89" s="21"/>
-      <c r="CQ89" s="21"/>
-      <c r="CR89" s="21"/>
-      <c r="CS89" s="11"/>
+      <c r="CN89" s="20">
+        <v>103.02748834132549</v>
+      </c>
+      <c r="CO89" s="20">
+        <v>54.259630630613231</v>
+      </c>
+      <c r="CP89" s="30"/>
+      <c r="CQ89" s="30"/>
+      <c r="CR89" s="30"/>
+      <c r="CS89" s="30"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
@@ -14753,20 +14909,22 @@
       <c r="CK90" s="20">
         <v>-1.1635607955549858</v>
       </c>
-      <c r="CL90" s="21">
+      <c r="CL90" s="20">
         <v>-7.7872215418993846</v>
       </c>
-      <c r="CM90" s="21">
+      <c r="CM90" s="20">
         <v>-5.1094701879251971</v>
       </c>
-      <c r="CN90" s="21">
-        <v>-15.048304443655184</v>
-      </c>
-      <c r="CO90" s="21"/>
-      <c r="CP90" s="21"/>
-      <c r="CQ90" s="21"/>
-      <c r="CR90" s="21"/>
-      <c r="CS90" s="11"/>
+      <c r="CN90" s="20">
+        <v>-9.9315715859311382</v>
+      </c>
+      <c r="CO90" s="20">
+        <v>-2.5734045792699476</v>
+      </c>
+      <c r="CP90" s="30"/>
+      <c r="CQ90" s="30"/>
+      <c r="CR90" s="30"/>
+      <c r="CS90" s="30"/>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
@@ -15087,20 +15245,22 @@
       <c r="CK91" s="20">
         <v>20.145535928917965</v>
       </c>
-      <c r="CL91" s="21">
+      <c r="CL91" s="20">
         <v>4.6959973663433345</v>
       </c>
-      <c r="CM91" s="21">
+      <c r="CM91" s="20">
         <v>-4.0147272351857453</v>
       </c>
-      <c r="CN91" s="21">
-        <v>-11.613988146200327</v>
-      </c>
-      <c r="CO91" s="21"/>
-      <c r="CP91" s="21"/>
-      <c r="CQ91" s="21"/>
-      <c r="CR91" s="21"/>
-      <c r="CS91" s="11"/>
+      <c r="CN91" s="20">
+        <v>-9.2817928417188824</v>
+      </c>
+      <c r="CO91" s="20">
+        <v>-16.934955508580998</v>
+      </c>
+      <c r="CP91" s="30"/>
+      <c r="CQ91" s="30"/>
+      <c r="CR91" s="30"/>
+      <c r="CS91" s="30"/>
       <c r="CT91" s="11"/>
       <c r="CU91" s="11"/>
       <c r="CV91" s="11"/>
@@ -15421,20 +15581,22 @@
       <c r="CK92" s="20">
         <v>28.415815573890455</v>
       </c>
-      <c r="CL92" s="21">
+      <c r="CL92" s="20">
         <v>9.7137725994967781</v>
       </c>
-      <c r="CM92" s="21">
+      <c r="CM92" s="20">
         <v>28.249706398073243</v>
       </c>
-      <c r="CN92" s="21">
-        <v>0.86203452560977212</v>
-      </c>
-      <c r="CO92" s="21"/>
-      <c r="CP92" s="21"/>
-      <c r="CQ92" s="21"/>
-      <c r="CR92" s="21"/>
-      <c r="CS92" s="11"/>
+      <c r="CN92" s="20">
+        <v>5.5581344891907349</v>
+      </c>
+      <c r="CO92" s="20">
+        <v>9.4632293859886545</v>
+      </c>
+      <c r="CP92" s="30"/>
+      <c r="CQ92" s="30"/>
+      <c r="CR92" s="30"/>
+      <c r="CS92" s="30"/>
       <c r="CT92" s="11"/>
       <c r="CU92" s="11"/>
       <c r="CV92" s="11"/>
@@ -15755,20 +15917,22 @@
       <c r="CK93" s="20">
         <v>-14.944158670133817</v>
       </c>
-      <c r="CL93" s="21">
+      <c r="CL93" s="20">
         <v>5.3553871591692541</v>
       </c>
-      <c r="CM93" s="21">
+      <c r="CM93" s="20">
         <v>-5.3239165897087446</v>
       </c>
-      <c r="CN93" s="21">
-        <v>-21.801247341358092</v>
-      </c>
-      <c r="CO93" s="21"/>
-      <c r="CP93" s="21"/>
-      <c r="CQ93" s="21"/>
-      <c r="CR93" s="21"/>
-      <c r="CS93" s="11"/>
+      <c r="CN93" s="20">
+        <v>-32.22517643466955</v>
+      </c>
+      <c r="CO93" s="20">
+        <v>-14.08754825986118</v>
+      </c>
+      <c r="CP93" s="30"/>
+      <c r="CQ93" s="30"/>
+      <c r="CR93" s="30"/>
+      <c r="CS93" s="30"/>
       <c r="CT93" s="11"/>
       <c r="CU93" s="11"/>
       <c r="CV93" s="11"/>
@@ -16089,20 +16253,22 @@
       <c r="CK94" s="20">
         <v>177.48199293306754</v>
       </c>
-      <c r="CL94" s="21">
+      <c r="CL94" s="20">
         <v>30.505539235382429</v>
       </c>
-      <c r="CM94" s="21">
+      <c r="CM94" s="20">
         <v>36.495818926697126</v>
       </c>
-      <c r="CN94" s="21">
-        <v>11.769656150866496</v>
-      </c>
-      <c r="CO94" s="21"/>
-      <c r="CP94" s="21"/>
-      <c r="CQ94" s="21"/>
-      <c r="CR94" s="21"/>
-      <c r="CS94" s="11"/>
+      <c r="CN94" s="20">
+        <v>17.289690971881356</v>
+      </c>
+      <c r="CO94" s="20">
+        <v>-11.634997841199961</v>
+      </c>
+      <c r="CP94" s="30"/>
+      <c r="CQ94" s="30"/>
+      <c r="CR94" s="30"/>
+      <c r="CS94" s="30"/>
       <c r="CT94" s="11"/>
       <c r="CU94" s="11"/>
       <c r="CV94" s="11"/>
@@ -16244,14 +16410,14 @@
       <c r="CI95" s="11"/>
       <c r="CJ95" s="11"/>
       <c r="CK95" s="11"/>
-      <c r="CL95" s="12"/>
-      <c r="CM95" s="12"/>
-      <c r="CN95" s="12"/>
-      <c r="CO95" s="12"/>
-      <c r="CP95" s="12"/>
-      <c r="CQ95" s="12"/>
-      <c r="CR95" s="12"/>
-      <c r="CS95" s="11"/>
+      <c r="CL95" s="11"/>
+      <c r="CM95" s="11"/>
+      <c r="CN95" s="11"/>
+      <c r="CO95" s="11"/>
+      <c r="CP95" s="31"/>
+      <c r="CQ95" s="31"/>
+      <c r="CR95" s="31"/>
+      <c r="CS95" s="31"/>
       <c r="CT95" s="11"/>
       <c r="CU95" s="11"/>
       <c r="CV95" s="11"/>
@@ -16572,20 +16738,22 @@
       <c r="CK96" s="20">
         <v>49.788192054729905</v>
       </c>
-      <c r="CL96" s="21">
+      <c r="CL96" s="20">
         <v>23.612195682014956</v>
       </c>
-      <c r="CM96" s="21">
+      <c r="CM96" s="20">
         <v>31.349258747491774</v>
       </c>
-      <c r="CN96" s="21">
-        <v>27.668918261639732</v>
-      </c>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
-      <c r="CS96" s="11"/>
+      <c r="CN96" s="20">
+        <v>28.574958404647134</v>
+      </c>
+      <c r="CO96" s="20">
+        <v>21.01900874380884</v>
+      </c>
+      <c r="CP96" s="30"/>
+      <c r="CQ96" s="30"/>
+      <c r="CR96" s="30"/>
+      <c r="CS96" s="30"/>
       <c r="CT96" s="11"/>
       <c r="CU96" s="11"/>
       <c r="CV96" s="11"/>
@@ -16728,18 +16896,23 @@
       <c r="CI97" s="16"/>
       <c r="CJ97" s="16"/>
       <c r="CK97" s="16"/>
-      <c r="CL97" s="17"/>
-      <c r="CM97" s="17"/>
-      <c r="CN97" s="17"/>
-      <c r="CO97" s="17"/>
-      <c r="CP97" s="17"/>
-      <c r="CQ97" s="17"/>
-      <c r="CR97" s="17"/>
+      <c r="CL97" s="16"/>
+      <c r="CM97" s="16"/>
+      <c r="CN97" s="16"/>
+      <c r="CO97" s="16"/>
+      <c r="CP97" s="6"/>
+      <c r="CQ97" s="6"/>
+      <c r="CR97" s="6"/>
+      <c r="CS97" s="6"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="CP98" s="8"/>
+      <c r="CQ98" s="8"/>
+      <c r="CR98" s="8"/>
+      <c r="CS98" s="8"/>
     </row>
     <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
@@ -16830,14 +17003,14 @@
       <c r="CI99" s="11"/>
       <c r="CJ99" s="11"/>
       <c r="CK99" s="11"/>
-      <c r="CL99" s="12"/>
-      <c r="CM99" s="12"/>
-      <c r="CN99" s="12"/>
-      <c r="CO99" s="12"/>
-      <c r="CP99" s="12"/>
-      <c r="CQ99" s="12"/>
-      <c r="CR99" s="12"/>
-      <c r="CS99" s="11"/>
+      <c r="CL99" s="11"/>
+      <c r="CM99" s="11"/>
+      <c r="CN99" s="11"/>
+      <c r="CO99" s="11"/>
+      <c r="CP99" s="31"/>
+      <c r="CQ99" s="31"/>
+      <c r="CR99" s="31"/>
+      <c r="CS99" s="31"/>
       <c r="CT99" s="11"/>
       <c r="CU99" s="11"/>
       <c r="CV99" s="11"/>
@@ -16979,13 +17152,13 @@
       <c r="CI100" s="11"/>
       <c r="CJ100" s="11"/>
       <c r="CK100" s="11"/>
-      <c r="CL100" s="12"/>
-      <c r="CM100" s="12"/>
-      <c r="CN100" s="12"/>
-      <c r="CO100" s="12"/>
-      <c r="CP100" s="12"/>
-      <c r="CQ100" s="12"/>
-      <c r="CR100" s="12"/>
+      <c r="CL100" s="11"/>
+      <c r="CM100" s="11"/>
+      <c r="CN100" s="11"/>
+      <c r="CO100" s="11"/>
+      <c r="CP100" s="11"/>
+      <c r="CQ100" s="11"/>
+      <c r="CR100" s="11"/>
       <c r="CS100" s="11"/>
       <c r="CT100" s="11"/>
       <c r="CU100" s="11"/>
@@ -17046,7 +17219,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -17056,7 +17229,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -17198,17 +17371,18 @@
       <c r="CI108" s="33"/>
       <c r="CJ108" s="33"/>
       <c r="CK108" s="33"/>
-      <c r="CL108" s="32">
+      <c r="CL108" s="29">
         <v>2022</v>
       </c>
-      <c r="CM108" s="32"/>
-      <c r="CN108" s="32"/>
-      <c r="CO108" s="32"/>
-      <c r="CP108" s="32">
+      <c r="CM108" s="29"/>
+      <c r="CN108" s="29"/>
+      <c r="CO108" s="29"/>
+      <c r="CP108" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="32"/>
-      <c r="CR108" s="32"/>
+      <c r="CQ108" s="29"/>
+      <c r="CR108" s="29"/>
+      <c r="CS108" s="29"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17476,26 +17650,29 @@
       <c r="CK109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL109" s="19" t="s">
+      <c r="CL109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM109" s="19" t="s">
+      <c r="CM109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN109" s="19" t="s">
+      <c r="CN109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO109" s="19" t="s">
+      <c r="CO109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="19" t="s">
+      <c r="CP109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="19" t="s">
+      <c r="CQ109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="19" t="s">
+      <c r="CR109" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS109" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17769,28 +17946,30 @@
       <c r="CK111" s="20">
         <v>103.45786805783897</v>
       </c>
-      <c r="CL111" s="21">
+      <c r="CL111" s="20">
         <v>98.189924450577621</v>
       </c>
-      <c r="CM111" s="21">
+      <c r="CM111" s="20">
         <v>106.184238788065</v>
       </c>
-      <c r="CN111" s="21">
+      <c r="CN111" s="20">
         <v>104.0191102124076</v>
       </c>
-      <c r="CO111" s="21">
+      <c r="CO111" s="20">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="21">
+      <c r="CP111" s="20">
         <v>103.69643191424717</v>
       </c>
-      <c r="CQ111" s="21">
+      <c r="CQ111" s="20">
         <v>112.09721661517887</v>
       </c>
-      <c r="CR111" s="21">
-        <v>108.32548244544414</v>
-      </c>
-      <c r="CS111" s="11"/>
+      <c r="CR111" s="20">
+        <v>108.32548244544415</v>
+      </c>
+      <c r="CS111" s="20">
+        <v>105.81841198428701</v>
+      </c>
       <c r="CT111" s="11"/>
       <c r="CU111" s="11"/>
       <c r="CV111" s="11"/>
@@ -18115,28 +18294,30 @@
       <c r="CK112" s="20">
         <v>107.15962022827664</v>
       </c>
-      <c r="CL112" s="21">
+      <c r="CL112" s="20">
         <v>79.624590059843584</v>
       </c>
-      <c r="CM112" s="21">
+      <c r="CM112" s="20">
         <v>120.36360117264438</v>
       </c>
-      <c r="CN112" s="21">
+      <c r="CN112" s="20">
         <v>108.44638908428462</v>
       </c>
-      <c r="CO112" s="21">
+      <c r="CO112" s="20">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="21">
+      <c r="CP112" s="20">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="21">
+      <c r="CQ112" s="20">
         <v>125.93799676137598</v>
       </c>
-      <c r="CR112" s="21">
+      <c r="CR112" s="20">
         <v>112.99732051942262</v>
       </c>
-      <c r="CS112" s="11"/>
+      <c r="CS112" s="20">
+        <v>111.68230091047096</v>
+      </c>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
@@ -18461,28 +18642,30 @@
       <c r="CK113" s="20">
         <v>93.590785966862427</v>
       </c>
-      <c r="CL113" s="21">
+      <c r="CL113" s="20">
         <v>113.4294965784437</v>
       </c>
-      <c r="CM113" s="21">
+      <c r="CM113" s="20">
         <v>110.52510229947529</v>
       </c>
-      <c r="CN113" s="21">
+      <c r="CN113" s="20">
         <v>92.628372641209594</v>
       </c>
-      <c r="CO113" s="21">
+      <c r="CO113" s="20">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="21">
+      <c r="CP113" s="20">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="21">
+      <c r="CQ113" s="20">
         <v>125.11983909328738</v>
       </c>
-      <c r="CR113" s="21">
+      <c r="CR113" s="20">
         <v>96.751039160575758</v>
       </c>
-      <c r="CS113" s="11"/>
+      <c r="CS113" s="20">
+        <v>101.22242125208525</v>
+      </c>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
@@ -18807,28 +18990,30 @@
       <c r="CK114" s="20">
         <v>105.07362704623134</v>
       </c>
-      <c r="CL114" s="21">
+      <c r="CL114" s="20">
         <v>89.515510222693749</v>
       </c>
-      <c r="CM114" s="21">
+      <c r="CM114" s="20">
         <v>112.1277716735175</v>
       </c>
-      <c r="CN114" s="21">
+      <c r="CN114" s="20">
         <v>106.20795046709245</v>
       </c>
-      <c r="CO114" s="21">
+      <c r="CO114" s="20">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="21">
+      <c r="CP114" s="20">
         <v>96.19434195318</v>
       </c>
-      <c r="CQ114" s="21">
+      <c r="CQ114" s="20">
         <v>117.32074155562185</v>
       </c>
-      <c r="CR114" s="21">
+      <c r="CR114" s="20">
         <v>110.66494626495727</v>
       </c>
-      <c r="CS114" s="11"/>
+      <c r="CS114" s="20">
+        <v>109.50826821272443</v>
+      </c>
       <c r="CT114" s="11"/>
       <c r="CU114" s="11"/>
       <c r="CV114" s="11"/>
@@ -19153,28 +19338,30 @@
       <c r="CK115" s="20">
         <v>107.98519573616862</v>
       </c>
-      <c r="CL115" s="21">
+      <c r="CL115" s="20">
         <v>85.930281884199488</v>
       </c>
-      <c r="CM115" s="21">
+      <c r="CM115" s="20">
         <v>116.162696075182</v>
       </c>
-      <c r="CN115" s="21">
+      <c r="CN115" s="20">
         <v>109.10310770619809</v>
       </c>
-      <c r="CO115" s="21">
+      <c r="CO115" s="20">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="21">
+      <c r="CP115" s="20">
         <v>92.341616543746824</v>
       </c>
-      <c r="CQ115" s="21">
+      <c r="CQ115" s="20">
         <v>121.54253528128771</v>
       </c>
-      <c r="CR115" s="21">
+      <c r="CR115" s="20">
         <v>113.68159820942256</v>
       </c>
-      <c r="CS115" s="11"/>
+      <c r="CS115" s="20">
+        <v>112.54271990132119</v>
+      </c>
       <c r="CT115" s="11"/>
       <c r="CU115" s="11"/>
       <c r="CV115" s="11"/>
@@ -19499,28 +19686,30 @@
       <c r="CK116" s="20">
         <v>106.6176950568635</v>
       </c>
-      <c r="CL116" s="21">
+      <c r="CL116" s="20">
         <v>84.279302675582741</v>
       </c>
-      <c r="CM116" s="21">
+      <c r="CM116" s="20">
         <v>114.39406414677018</v>
       </c>
-      <c r="CN116" s="21">
+      <c r="CN116" s="20">
         <v>107.61374489975071</v>
       </c>
-      <c r="CO116" s="21">
+      <c r="CO116" s="20">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="21">
+      <c r="CP116" s="20">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="21">
+      <c r="CQ116" s="20">
         <v>119.69199275927636</v>
       </c>
-      <c r="CR116" s="21">
-        <v>112.12973458509255</v>
-      </c>
-      <c r="CS116" s="11"/>
+      <c r="CR116" s="20">
+        <v>112.12973458509256</v>
+      </c>
+      <c r="CS116" s="20">
+        <v>111.11750374213656</v>
+      </c>
       <c r="CT116" s="11"/>
       <c r="CU116" s="11"/>
       <c r="CV116" s="11"/>
@@ -19845,28 +20034,30 @@
       <c r="CK117" s="20">
         <v>108.89826065352379</v>
       </c>
-      <c r="CL117" s="21">
+      <c r="CL117" s="20">
         <v>85.433502779159724</v>
       </c>
-      <c r="CM117" s="21">
+      <c r="CM117" s="20">
         <v>116.46770731932735</v>
       </c>
-      <c r="CN117" s="21">
+      <c r="CN117" s="20">
         <v>109.8154814375863</v>
       </c>
-      <c r="CO117" s="21">
+      <c r="CO117" s="20">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="21">
+      <c r="CP117" s="20">
         <v>91.807772308412552</v>
       </c>
-      <c r="CQ117" s="21">
+      <c r="CQ117" s="20">
         <v>121.86167250137024</v>
       </c>
-      <c r="CR117" s="21">
+      <c r="CR117" s="20">
         <v>114.42386656464396</v>
       </c>
-      <c r="CS117" s="11"/>
+      <c r="CS117" s="20">
+        <v>113.49432079943584</v>
+      </c>
       <c r="CT117" s="11"/>
       <c r="CU117" s="11"/>
       <c r="CV117" s="11"/>
@@ -20191,28 +20382,30 @@
       <c r="CK118" s="20">
         <v>108.15787748120907</v>
       </c>
-      <c r="CL118" s="21">
+      <c r="CL118" s="20">
         <v>84.83307119223295</v>
       </c>
-      <c r="CM118" s="21">
+      <c r="CM118" s="20">
         <v>115.76909432267084</v>
       </c>
-      <c r="CN118" s="21">
+      <c r="CN118" s="20">
         <v>109.11877545890869</v>
       </c>
-      <c r="CO118" s="21">
+      <c r="CO118" s="20">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="21">
+      <c r="CP118" s="20">
         <v>91.162541987447611</v>
       </c>
-      <c r="CQ118" s="21">
+      <c r="CQ118" s="20">
         <v>121.1307046634756</v>
       </c>
-      <c r="CR118" s="21">
+      <c r="CR118" s="20">
         <v>113.69792345630086</v>
       </c>
-      <c r="CS118" s="11"/>
+      <c r="CS118" s="20">
+        <v>112.72268969376978</v>
+      </c>
       <c r="CT118" s="11"/>
       <c r="CU118" s="11"/>
       <c r="CV118" s="11"/>
@@ -20358,13 +20551,13 @@
       <c r="CI119" s="11"/>
       <c r="CJ119" s="11"/>
       <c r="CK119" s="11"/>
-      <c r="CL119" s="12"/>
-      <c r="CM119" s="12"/>
-      <c r="CN119" s="12"/>
-      <c r="CO119" s="12"/>
-      <c r="CP119" s="12"/>
-      <c r="CQ119" s="12"/>
-      <c r="CR119" s="12"/>
+      <c r="CL119" s="11"/>
+      <c r="CM119" s="11"/>
+      <c r="CN119" s="11"/>
+      <c r="CO119" s="11"/>
+      <c r="CP119" s="11"/>
+      <c r="CQ119" s="11"/>
+      <c r="CR119" s="11"/>
       <c r="CS119" s="11"/>
       <c r="CT119" s="11"/>
       <c r="CU119" s="11"/>
@@ -20690,28 +20883,30 @@
       <c r="CK120" s="20">
         <v>101.73844645169308</v>
       </c>
-      <c r="CL120" s="21">
+      <c r="CL120" s="20">
         <v>93.191097171230965</v>
       </c>
-      <c r="CM120" s="21">
+      <c r="CM120" s="20">
         <v>112.31110088630707</v>
       </c>
-      <c r="CN120" s="21">
+      <c r="CN120" s="20">
         <v>102.38584009601688</v>
       </c>
-      <c r="CO120" s="21">
+      <c r="CO120" s="20">
         <v>102.9096151716991</v>
       </c>
-      <c r="CP120" s="21">
+      <c r="CP120" s="20">
         <v>102.35743135189826</v>
       </c>
-      <c r="CQ120" s="21">
+      <c r="CQ120" s="20">
         <v>120.17336950415667</v>
       </c>
-      <c r="CR120" s="21">
-        <v>104.1899967591492</v>
-      </c>
-      <c r="CS120" s="11"/>
+      <c r="CR120" s="20">
+        <v>104.25703658328813</v>
+      </c>
+      <c r="CS120" s="20">
+        <v>105.39854367382591</v>
+      </c>
       <c r="CT120" s="11"/>
       <c r="CU120" s="11"/>
       <c r="CV120" s="11"/>
@@ -20858,13 +21053,14 @@
       <c r="CI121" s="16"/>
       <c r="CJ121" s="16"/>
       <c r="CK121" s="16"/>
-      <c r="CL121" s="17"/>
-      <c r="CM121" s="17"/>
-      <c r="CN121" s="17"/>
-      <c r="CO121" s="17"/>
-      <c r="CP121" s="17"/>
-      <c r="CQ121" s="17"/>
-      <c r="CR121" s="17"/>
+      <c r="CL121" s="16"/>
+      <c r="CM121" s="16"/>
+      <c r="CN121" s="16"/>
+      <c r="CO121" s="16"/>
+      <c r="CP121" s="16"/>
+      <c r="CQ121" s="16"/>
+      <c r="CR121" s="16"/>
+      <c r="CS121" s="16"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -20883,7 +21079,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -20893,7 +21089,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -21035,17 +21231,18 @@
       <c r="CI133" s="33"/>
       <c r="CJ133" s="33"/>
       <c r="CK133" s="33"/>
-      <c r="CL133" s="32">
+      <c r="CL133" s="29">
         <v>2022</v>
       </c>
-      <c r="CM133" s="32"/>
-      <c r="CN133" s="32"/>
-      <c r="CO133" s="32"/>
-      <c r="CP133" s="32">
+      <c r="CM133" s="29"/>
+      <c r="CN133" s="29"/>
+      <c r="CO133" s="29"/>
+      <c r="CP133" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="32"/>
-      <c r="CR133" s="32"/>
+      <c r="CQ133" s="29"/>
+      <c r="CR133" s="29"/>
+      <c r="CS133" s="29"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21313,26 +21510,29 @@
       <c r="CK134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL134" s="19" t="s">
+      <c r="CL134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM134" s="19" t="s">
+      <c r="CM134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN134" s="19" t="s">
+      <c r="CN134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO134" s="19" t="s">
+      <c r="CO134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="19" t="s">
+      <c r="CP134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="19" t="s">
+      <c r="CQ134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="19" t="s">
+      <c r="CR134" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS134" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21606,28 +21806,30 @@
       <c r="CK136" s="27">
         <v>23.954326102635136</v>
       </c>
-      <c r="CL136" s="31">
+      <c r="CL136" s="27">
         <v>20.264228281682247</v>
       </c>
-      <c r="CM136" s="31">
+      <c r="CM136" s="27">
         <v>23.904583016957481</v>
       </c>
-      <c r="CN136" s="31">
+      <c r="CN136" s="27">
         <v>26.491760473924415</v>
       </c>
-      <c r="CO136" s="31">
+      <c r="CO136" s="27">
         <v>21.696784243385409</v>
       </c>
-      <c r="CP136" s="31">
+      <c r="CP136" s="27">
         <v>19.670386210973195</v>
       </c>
-      <c r="CQ136" s="31">
+      <c r="CQ136" s="27">
         <v>22.069511193660716</v>
       </c>
-      <c r="CR136" s="31">
-        <v>19.656614007984512</v>
-      </c>
-      <c r="CS136" s="11"/>
+      <c r="CR136" s="27">
+        <v>19.185291080538271</v>
+      </c>
+      <c r="CS136" s="27">
+        <v>17.908282978913238</v>
+      </c>
       <c r="CT136" s="11"/>
       <c r="CU136" s="11"/>
       <c r="CV136" s="11"/>
@@ -21952,28 +22154,30 @@
       <c r="CK137" s="27">
         <v>4.1519894108535498</v>
       </c>
-      <c r="CL137" s="31">
+      <c r="CL137" s="27">
         <v>7.6953330349672511</v>
       </c>
-      <c r="CM137" s="31">
+      <c r="CM137" s="27">
         <v>10.965754006947648</v>
       </c>
-      <c r="CN137" s="31">
+      <c r="CN137" s="27">
         <v>6.6336448603455374</v>
       </c>
-      <c r="CO137" s="31">
+      <c r="CO137" s="27">
         <v>2.842011669161169</v>
       </c>
-      <c r="CP137" s="31">
+      <c r="CP137" s="27">
         <v>5.6976087917808034</v>
       </c>
-      <c r="CQ137" s="31">
+      <c r="CQ137" s="27">
         <v>8.2314212350269269</v>
       </c>
-      <c r="CR137" s="31">
-        <v>4.6253982701231475</v>
-      </c>
-      <c r="CS137" s="11"/>
+      <c r="CR137" s="27">
+        <v>4.5941348781281119</v>
+      </c>
+      <c r="CS137" s="27">
+        <v>2.3762136629985648</v>
+      </c>
       <c r="CT137" s="11"/>
       <c r="CU137" s="11"/>
       <c r="CV137" s="11"/>
@@ -22298,28 +22502,30 @@
       <c r="CK138" s="27">
         <v>30.852095452708056</v>
       </c>
-      <c r="CL138" s="31">
+      <c r="CL138" s="27">
         <v>26.55110603732372</v>
       </c>
-      <c r="CM138" s="31">
+      <c r="CM138" s="27">
         <v>21.371454233621463</v>
       </c>
-      <c r="CN138" s="31">
+      <c r="CN138" s="27">
         <v>27.405280935121606</v>
       </c>
-      <c r="CO138" s="31">
+      <c r="CO138" s="27">
         <v>36.539825016102185</v>
       </c>
-      <c r="CP138" s="31">
+      <c r="CP138" s="27">
         <v>35.059676281276609</v>
       </c>
-      <c r="CQ138" s="31">
+      <c r="CQ138" s="27">
         <v>30.638881655157924</v>
       </c>
-      <c r="CR138" s="31">
-        <v>44.730132166651252</v>
-      </c>
-      <c r="CS138" s="11"/>
+      <c r="CR138" s="27">
+        <v>44.389354930642931</v>
+      </c>
+      <c r="CS138" s="27">
+        <v>48.127123847949996</v>
+      </c>
       <c r="CT138" s="11"/>
       <c r="CU138" s="11"/>
       <c r="CV138" s="11"/>
@@ -22644,28 +22850,30 @@
       <c r="CK139" s="27">
         <v>1.6640439608727877</v>
       </c>
-      <c r="CL139" s="31">
+      <c r="CL139" s="27">
         <v>1.596458742622654</v>
       </c>
-      <c r="CM139" s="31">
+      <c r="CM139" s="27">
         <v>1.5140622577948184</v>
       </c>
-      <c r="CN139" s="31">
+      <c r="CN139" s="27">
         <v>1.3033363816182217</v>
       </c>
-      <c r="CO139" s="31">
+      <c r="CO139" s="27">
         <v>1.1111151162488593</v>
       </c>
-      <c r="CP139" s="31">
+      <c r="CP139" s="27">
         <v>1.1651820067813463</v>
       </c>
-      <c r="CQ139" s="31">
+      <c r="CQ139" s="27">
         <v>1.0695843324335859</v>
       </c>
-      <c r="CR139" s="31">
-        <v>0.88799457810573179</v>
-      </c>
-      <c r="CS139" s="11"/>
+      <c r="CR139" s="27">
+        <v>0.93424392372790033</v>
+      </c>
+      <c r="CS139" s="27">
+        <v>0.88926647658332458</v>
+      </c>
       <c r="CT139" s="11"/>
       <c r="CU139" s="11"/>
       <c r="CV139" s="11"/>
@@ -22990,28 +23198,30 @@
       <c r="CK140" s="27">
         <v>7.5462816560554282</v>
       </c>
-      <c r="CL140" s="31">
+      <c r="CL140" s="27">
         <v>8.583913171406051</v>
       </c>
-      <c r="CM140" s="31">
+      <c r="CM140" s="27">
         <v>8.6963133579391201</v>
       </c>
-      <c r="CN140" s="31">
+      <c r="CN140" s="27">
         <v>7.2591183888188846</v>
       </c>
-      <c r="CO140" s="31">
+      <c r="CO140" s="27">
         <v>6.1251653881697887</v>
       </c>
-      <c r="CP140" s="31">
+      <c r="CP140" s="27">
         <v>7.1131236205448545</v>
       </c>
-      <c r="CQ140" s="31">
+      <c r="CQ140" s="27">
         <v>6.214242708579846</v>
       </c>
-      <c r="CR140" s="31">
-        <v>5.14575567598781</v>
-      </c>
-      <c r="CS140" s="11"/>
+      <c r="CR140" s="27">
+        <v>5.2409439696151114</v>
+      </c>
+      <c r="CS140" s="27">
+        <v>4.1795686219798105</v>
+      </c>
       <c r="CT140" s="11"/>
       <c r="CU140" s="11"/>
       <c r="CV140" s="11"/>
@@ -23336,28 +23546,30 @@
       <c r="CK141" s="27">
         <v>23.652946709368248</v>
       </c>
-      <c r="CL141" s="31">
+      <c r="CL141" s="27">
         <v>28.604576961430535</v>
       </c>
-      <c r="CM141" s="31">
+      <c r="CM141" s="27">
         <v>26.557478920273287</v>
       </c>
-      <c r="CN141" s="31">
+      <c r="CN141" s="27">
         <v>24.010146689844749</v>
       </c>
-      <c r="CO141" s="31">
+      <c r="CO141" s="27">
         <v>20.520169212763324</v>
       </c>
-      <c r="CP141" s="31">
+      <c r="CP141" s="27">
         <v>24.839430828768084</v>
       </c>
-      <c r="CQ141" s="31">
+      <c r="CQ141" s="27">
         <v>25.356636948974799</v>
       </c>
-      <c r="CR141" s="31">
-        <v>19.422462064720232</v>
-      </c>
-      <c r="CS141" s="11"/>
+      <c r="CR141" s="27">
+        <v>20.170548044264287</v>
+      </c>
+      <c r="CS141" s="27">
+        <v>18.452046167474396</v>
+      </c>
       <c r="CT141" s="11"/>
       <c r="CU141" s="11"/>
       <c r="CV141" s="11"/>
@@ -23682,28 +23894,30 @@
       <c r="CK142" s="27">
         <v>3.2048322096655828</v>
       </c>
-      <c r="CL142" s="31">
+      <c r="CL142" s="27">
         <v>2.3641779226618245</v>
       </c>
-      <c r="CM142" s="31">
+      <c r="CM142" s="27">
         <v>2.1959835616058063</v>
       </c>
-      <c r="CN142" s="31">
+      <c r="CN142" s="27">
         <v>2.4164913031782977</v>
       </c>
-      <c r="CO142" s="31">
+      <c r="CO142" s="27">
         <v>1.8415631311031573</v>
       </c>
-      <c r="CP142" s="31">
+      <c r="CP142" s="27">
         <v>1.9714322958154993</v>
       </c>
-      <c r="CQ142" s="31">
+      <c r="CQ142" s="27">
         <v>1.5478105266444062</v>
       </c>
-      <c r="CR142" s="31">
-        <v>1.5155379172604682</v>
-      </c>
-      <c r="CS142" s="11"/>
+      <c r="CR142" s="27">
+        <v>1.3034212908655836</v>
+      </c>
+      <c r="CS142" s="27">
+        <v>1.2996848688646325</v>
+      </c>
       <c r="CT142" s="11"/>
       <c r="CU142" s="11"/>
       <c r="CV142" s="11"/>
@@ -24028,28 +24242,30 @@
       <c r="CK143" s="27">
         <v>4.9734844978412278</v>
       </c>
-      <c r="CL143" s="31">
+      <c r="CL143" s="27">
         <v>4.3402058479057111</v>
       </c>
-      <c r="CM143" s="31">
+      <c r="CM143" s="27">
         <v>4.7943706448603765</v>
       </c>
-      <c r="CN143" s="31">
+      <c r="CN143" s="27">
         <v>4.4802209671482869</v>
       </c>
-      <c r="CO143" s="31">
+      <c r="CO143" s="27">
         <v>9.323366223066099</v>
       </c>
-      <c r="CP143" s="31">
+      <c r="CP143" s="27">
         <v>4.4831599640596256</v>
       </c>
-      <c r="CQ143" s="31">
+      <c r="CQ143" s="27">
         <v>4.8719113995217853</v>
       </c>
-      <c r="CR143" s="31">
-        <v>4.0161053191668481</v>
-      </c>
-      <c r="CS143" s="11"/>
+      <c r="CR143" s="27">
+        <v>4.1820618822178162</v>
+      </c>
+      <c r="CS143" s="27">
+        <v>6.7678133752360354</v>
+      </c>
       <c r="CT143" s="11"/>
       <c r="CU143" s="11"/>
       <c r="CV143" s="11"/>
@@ -24195,13 +24411,13 @@
       <c r="CI144" s="11"/>
       <c r="CJ144" s="11"/>
       <c r="CK144" s="11"/>
-      <c r="CL144" s="12"/>
-      <c r="CM144" s="12"/>
-      <c r="CN144" s="12"/>
-      <c r="CO144" s="12"/>
-      <c r="CP144" s="12"/>
-      <c r="CQ144" s="12"/>
-      <c r="CR144" s="12"/>
+      <c r="CL144" s="11"/>
+      <c r="CM144" s="11"/>
+      <c r="CN144" s="11"/>
+      <c r="CO144" s="11"/>
+      <c r="CP144" s="11"/>
+      <c r="CQ144" s="11"/>
+      <c r="CR144" s="11"/>
       <c r="CS144" s="11"/>
       <c r="CT144" s="11"/>
       <c r="CU144" s="11"/>
@@ -24527,28 +24743,30 @@
       <c r="CK145" s="20">
         <v>100</v>
       </c>
-      <c r="CL145" s="21">
+      <c r="CL145" s="20">
         <v>100</v>
       </c>
-      <c r="CM145" s="21">
+      <c r="CM145" s="20">
         <v>100</v>
       </c>
-      <c r="CN145" s="21">
+      <c r="CN145" s="20">
         <v>100</v>
       </c>
-      <c r="CO145" s="21">
+      <c r="CO145" s="20">
         <v>100</v>
       </c>
-      <c r="CP145" s="21">
+      <c r="CP145" s="20">
         <v>100</v>
       </c>
-      <c r="CQ145" s="21">
+      <c r="CQ145" s="20">
         <v>100</v>
       </c>
-      <c r="CR145" s="21">
+      <c r="CR145" s="20">
         <v>100</v>
       </c>
-      <c r="CS145" s="11"/>
+      <c r="CS145" s="20">
+        <v>100</v>
+      </c>
       <c r="CT145" s="11"/>
       <c r="CU145" s="11"/>
       <c r="CV145" s="11"/>
@@ -24695,13 +24913,14 @@
       <c r="CI146" s="16"/>
       <c r="CJ146" s="16"/>
       <c r="CK146" s="16"/>
-      <c r="CL146" s="17"/>
-      <c r="CM146" s="17"/>
-      <c r="CN146" s="17"/>
-      <c r="CO146" s="17"/>
-      <c r="CP146" s="17"/>
-      <c r="CQ146" s="17"/>
-      <c r="CR146" s="17"/>
+      <c r="CL146" s="16"/>
+      <c r="CM146" s="16"/>
+      <c r="CN146" s="16"/>
+      <c r="CO146" s="16"/>
+      <c r="CP146" s="16"/>
+      <c r="CQ146" s="16"/>
+      <c r="CR146" s="16"/>
+      <c r="CS146" s="16"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -24797,13 +25016,13 @@
       <c r="CI148" s="11"/>
       <c r="CJ148" s="11"/>
       <c r="CK148" s="11"/>
-      <c r="CL148" s="12"/>
-      <c r="CM148" s="12"/>
-      <c r="CN148" s="12"/>
-      <c r="CO148" s="12"/>
-      <c r="CP148" s="12"/>
-      <c r="CQ148" s="12"/>
-      <c r="CR148" s="12"/>
+      <c r="CL148" s="11"/>
+      <c r="CM148" s="11"/>
+      <c r="CN148" s="11"/>
+      <c r="CO148" s="11"/>
+      <c r="CP148" s="11"/>
+      <c r="CQ148" s="11"/>
+      <c r="CR148" s="11"/>
       <c r="CS148" s="11"/>
       <c r="CT148" s="11"/>
       <c r="CU148" s="11"/>
@@ -24950,13 +25169,13 @@
       <c r="CI149" s="11"/>
       <c r="CJ149" s="11"/>
       <c r="CK149" s="11"/>
-      <c r="CL149" s="12"/>
-      <c r="CM149" s="12"/>
-      <c r="CN149" s="12"/>
-      <c r="CO149" s="12"/>
-      <c r="CP149" s="12"/>
-      <c r="CQ149" s="12"/>
-      <c r="CR149" s="12"/>
+      <c r="CL149" s="11"/>
+      <c r="CM149" s="11"/>
+      <c r="CN149" s="11"/>
+      <c r="CO149" s="11"/>
+      <c r="CP149" s="11"/>
+      <c r="CQ149" s="11"/>
+      <c r="CR149" s="11"/>
       <c r="CS149" s="11"/>
       <c r="CT149" s="11"/>
       <c r="CU149" s="11"/>
@@ -25026,7 +25245,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -25036,7 +25255,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -25178,17 +25397,18 @@
       <c r="CI158" s="33"/>
       <c r="CJ158" s="33"/>
       <c r="CK158" s="33"/>
-      <c r="CL158" s="32">
+      <c r="CL158" s="29">
         <v>2022</v>
       </c>
-      <c r="CM158" s="32"/>
-      <c r="CN158" s="32"/>
-      <c r="CO158" s="32"/>
-      <c r="CP158" s="32">
+      <c r="CM158" s="29"/>
+      <c r="CN158" s="29"/>
+      <c r="CO158" s="29"/>
+      <c r="CP158" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="32"/>
-      <c r="CR158" s="32"/>
+      <c r="CQ158" s="29"/>
+      <c r="CR158" s="29"/>
+      <c r="CS158" s="29"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25456,26 +25676,29 @@
       <c r="CK159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CL159" s="19" t="s">
+      <c r="CL159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM159" s="19" t="s">
+      <c r="CM159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN159" s="19" t="s">
+      <c r="CN159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CO159" s="19" t="s">
+      <c r="CO159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="19" t="s">
+      <c r="CP159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="19" t="s">
+      <c r="CQ159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="19" t="s">
+      <c r="CR159" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CS159" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25749,28 +25972,30 @@
       <c r="CK161" s="27">
         <v>23.556216353857899</v>
       </c>
-      <c r="CL161" s="31">
+      <c r="CL161" s="27">
         <v>19.232580913622932</v>
       </c>
-      <c r="CM161" s="31">
+      <c r="CM161" s="27">
         <v>25.283884552971685</v>
       </c>
-      <c r="CN161" s="31">
+      <c r="CN161" s="27">
         <v>26.075796516683408</v>
       </c>
-      <c r="CO161" s="31">
+      <c r="CO161" s="27">
         <v>21.536780418531425</v>
       </c>
-      <c r="CP161" s="31">
+      <c r="CP161" s="27">
         <v>19.416388482103464</v>
       </c>
-      <c r="CQ161" s="31">
+      <c r="CQ161" s="27">
         <v>23.659530571188025</v>
       </c>
-      <c r="CR161" s="31">
-        <v>18.906193663334911</v>
-      </c>
-      <c r="CS161" s="11"/>
+      <c r="CR161" s="27">
+        <v>18.464737464262569</v>
+      </c>
+      <c r="CS161" s="27">
+        <v>17.837226152633022</v>
+      </c>
       <c r="CT161" s="11"/>
       <c r="CU161" s="11"/>
       <c r="CV161" s="11"/>
@@ -26095,28 +26320,30 @@
       <c r="CK162" s="27">
         <v>3.9419414835949165</v>
       </c>
-      <c r="CL162" s="31">
+      <c r="CL162" s="27">
         <v>9.0064705901485631</v>
       </c>
-      <c r="CM162" s="31">
+      <c r="CM162" s="27">
         <v>10.232129086950495</v>
       </c>
-      <c r="CN162" s="31">
+      <c r="CN162" s="27">
         <v>6.2629222389067696</v>
       </c>
-      <c r="CO162" s="31">
+      <c r="CO162" s="27">
         <v>2.6663984224363912</v>
       </c>
-      <c r="CP162" s="31">
+      <c r="CP162" s="27">
         <v>6.8157485396614019</v>
       </c>
-      <c r="CQ162" s="31">
+      <c r="CQ162" s="27">
         <v>7.8546399899909334</v>
       </c>
-      <c r="CR162" s="31">
-        <v>4.2648819331169001</v>
-      </c>
-      <c r="CS162" s="11"/>
+      <c r="CR162" s="27">
+        <v>4.2387809361836526</v>
+      </c>
+      <c r="CS162" s="27">
+        <v>2.2425170102706464</v>
+      </c>
       <c r="CT162" s="11"/>
       <c r="CU162" s="11"/>
       <c r="CV162" s="11"/>
@@ -26441,28 +26668,30 @@
       <c r="CK163" s="27">
         <v>33.537962404218177</v>
       </c>
-      <c r="CL163" s="31">
+      <c r="CL163" s="27">
         <v>21.813785455855719</v>
       </c>
-      <c r="CM163" s="31">
+      <c r="CM163" s="27">
         <v>21.716800098639215</v>
       </c>
-      <c r="CN163" s="31">
+      <c r="CN163" s="27">
         <v>30.292151655069166</v>
       </c>
-      <c r="CO163" s="31">
+      <c r="CO163" s="27">
         <v>39.314169088408931</v>
       </c>
-      <c r="CP163" s="31">
+      <c r="CP163" s="27">
         <v>29.338711583861382</v>
       </c>
-      <c r="CQ163" s="31">
+      <c r="CQ163" s="27">
         <v>29.427608547307955</v>
       </c>
-      <c r="CR163" s="31">
-        <v>48.169325786205597</v>
-      </c>
-      <c r="CS163" s="11"/>
+      <c r="CR163" s="27">
+        <v>47.833104854117011</v>
+      </c>
+      <c r="CS163" s="27">
+        <v>50.11269936085715</v>
+      </c>
       <c r="CT163" s="11"/>
       <c r="CU163" s="11"/>
       <c r="CV163" s="11"/>
@@ -26787,28 +27016,30 @@
       <c r="CK164" s="27">
         <v>1.6112249302294503</v>
       </c>
-      <c r="CL164" s="31">
+      <c r="CL164" s="27">
         <v>1.6620107671116384</v>
       </c>
-      <c r="CM164" s="31">
+      <c r="CM164" s="27">
         <v>1.516537753719629</v>
       </c>
-      <c r="CN164" s="31">
+      <c r="CN164" s="27">
         <v>1.2564331556424357</v>
       </c>
-      <c r="CO164" s="31">
+      <c r="CO164" s="27">
         <v>1.0631527938004819</v>
       </c>
-      <c r="CP164" s="31">
+      <c r="CP164" s="27">
         <v>1.2398342236140849</v>
       </c>
-      <c r="CQ164" s="31">
+      <c r="CQ164" s="27">
         <v>1.0955910395133266</v>
       </c>
-      <c r="CR164" s="31">
-        <v>0.83603846870773157</v>
-      </c>
-      <c r="CS164" s="11"/>
+      <c r="CR164" s="27">
+        <v>0.88014774525451633</v>
+      </c>
+      <c r="CS164" s="27">
+        <v>0.85589328641164697</v>
+      </c>
       <c r="CT164" s="11"/>
       <c r="CU164" s="11"/>
       <c r="CV164" s="11"/>
@@ -27133,28 +27364,30 @@
       <c r="CK165" s="27">
         <v>7.1097428396551905</v>
       </c>
-      <c r="CL165" s="31">
+      <c r="CL165" s="27">
         <v>9.3092245123078214</v>
       </c>
-      <c r="CM165" s="31">
+      <c r="CM165" s="27">
         <v>8.4079705437476431</v>
       </c>
-      <c r="CN165" s="31">
+      <c r="CN165" s="27">
         <v>6.8121884905157772</v>
       </c>
-      <c r="CO165" s="31">
+      <c r="CO165" s="27">
         <v>5.7027450032579949</v>
       </c>
-      <c r="CP165" s="31">
+      <c r="CP165" s="27">
         <v>7.8846471389479911</v>
       </c>
-      <c r="CQ165" s="31">
+      <c r="CQ165" s="27">
         <v>6.1442398208855691</v>
       </c>
-      <c r="CR165" s="31">
-        <v>4.7161218319334424</v>
-      </c>
-      <c r="CS165" s="11"/>
+      <c r="CR165" s="27">
+        <v>4.8064532499318506</v>
+      </c>
+      <c r="CS165" s="27">
+        <v>3.9142509291382424</v>
+      </c>
       <c r="CT165" s="11"/>
       <c r="CU165" s="11"/>
       <c r="CV165" s="11"/>
@@ -27479,28 +27712,30 @@
       <c r="CK166" s="27">
         <v>22.57049405290908</v>
       </c>
-      <c r="CL166" s="31">
+      <c r="CL166" s="27">
         <v>31.629259219380408</v>
       </c>
-      <c r="CM166" s="31">
+      <c r="CM166" s="27">
         <v>26.073902667483818</v>
       </c>
-      <c r="CN166" s="31">
+      <c r="CN166" s="27">
         <v>22.843727276273313</v>
       </c>
-      <c r="CO166" s="31">
+      <c r="CO166" s="27">
         <v>19.350045967915399</v>
       </c>
-      <c r="CP166" s="31">
+      <c r="CP166" s="27">
         <v>28.073001489371109</v>
       </c>
-      <c r="CQ166" s="31">
+      <c r="CQ166" s="27">
         <v>25.458616163074421</v>
       </c>
-      <c r="CR166" s="31">
-        <v>18.047186743693025</v>
-      </c>
-      <c r="CS166" s="11"/>
+      <c r="CR166" s="27">
+        <v>18.754361393408775</v>
+      </c>
+      <c r="CS166" s="27">
+        <v>17.502362169395212</v>
+      </c>
       <c r="CT166" s="11"/>
       <c r="CU166" s="11"/>
       <c r="CV166" s="11"/>
@@ -27825,28 +28060,30 @@
       <c r="CK167" s="27">
         <v>2.9941217443969563</v>
       </c>
-      <c r="CL167" s="31">
+      <c r="CL167" s="27">
         <v>2.5788517075130506</v>
       </c>
-      <c r="CM167" s="31">
+      <c r="CM167" s="27">
         <v>2.1176112847827464</v>
       </c>
-      <c r="CN167" s="31">
+      <c r="CN167" s="27">
         <v>2.2530019348979207</v>
       </c>
-      <c r="CO167" s="31">
+      <c r="CO167" s="27">
         <v>1.7001843771549014</v>
       </c>
-      <c r="CP167" s="31">
+      <c r="CP167" s="27">
         <v>2.1979701806288094</v>
       </c>
-      <c r="CQ167" s="31">
+      <c r="CQ167" s="27">
         <v>1.5263667609581679</v>
       </c>
-      <c r="CR167" s="31">
-        <v>1.3799908657913413</v>
-      </c>
-      <c r="CS167" s="11"/>
+      <c r="CR167" s="27">
+        <v>1.1876092399695131</v>
+      </c>
+      <c r="CS167" s="27">
+        <v>1.2069757451151739</v>
+      </c>
       <c r="CT167" s="11"/>
       <c r="CU167" s="11"/>
       <c r="CV167" s="11"/>
@@ -28171,28 +28408,30 @@
       <c r="CK168" s="27">
         <v>4.6782961911383198</v>
       </c>
-      <c r="CL168" s="31">
+      <c r="CL168" s="27">
         <v>4.7678168340598504</v>
       </c>
-      <c r="CM168" s="31">
+      <c r="CM168" s="27">
         <v>4.6511640117047799</v>
       </c>
-      <c r="CN168" s="31">
+      <c r="CN168" s="27">
         <v>4.2037787320112052</v>
       </c>
-      <c r="CO168" s="31">
+      <c r="CO168" s="27">
         <v>8.666523928494458</v>
       </c>
-      <c r="CP168" s="31">
+      <c r="CP168" s="27">
         <v>5.0336983618117701</v>
       </c>
-      <c r="CQ168" s="31">
+      <c r="CQ168" s="27">
         <v>4.8334071070815945</v>
       </c>
-      <c r="CR168" s="31">
-        <v>3.6802607072170495</v>
-      </c>
-      <c r="CS168" s="11"/>
+      <c r="CR168" s="27">
+        <v>3.8348051168721256</v>
+      </c>
+      <c r="CS168" s="27">
+        <v>6.3280753461788963</v>
+      </c>
       <c r="CT168" s="11"/>
       <c r="CU168" s="11"/>
       <c r="CV168" s="11"/>
@@ -28338,13 +28577,13 @@
       <c r="CI169" s="11"/>
       <c r="CJ169" s="11"/>
       <c r="CK169" s="11"/>
-      <c r="CL169" s="12"/>
-      <c r="CM169" s="12"/>
-      <c r="CN169" s="12"/>
-      <c r="CO169" s="12"/>
-      <c r="CP169" s="12"/>
-      <c r="CQ169" s="12"/>
-      <c r="CR169" s="12"/>
+      <c r="CL169" s="11"/>
+      <c r="CM169" s="11"/>
+      <c r="CN169" s="11"/>
+      <c r="CO169" s="11"/>
+      <c r="CP169" s="11"/>
+      <c r="CQ169" s="11"/>
+      <c r="CR169" s="11"/>
       <c r="CS169" s="11"/>
       <c r="CT169" s="11"/>
       <c r="CU169" s="11"/>
@@ -28670,28 +28909,30 @@
       <c r="CK170" s="20">
         <v>100</v>
       </c>
-      <c r="CL170" s="21">
+      <c r="CL170" s="20">
         <v>100</v>
       </c>
-      <c r="CM170" s="21">
+      <c r="CM170" s="20">
         <v>100</v>
       </c>
-      <c r="CN170" s="21">
+      <c r="CN170" s="20">
         <v>100</v>
       </c>
-      <c r="CO170" s="21">
+      <c r="CO170" s="20">
         <v>100</v>
       </c>
-      <c r="CP170" s="21">
+      <c r="CP170" s="20">
         <v>100</v>
       </c>
-      <c r="CQ170" s="21">
+      <c r="CQ170" s="20">
         <v>100</v>
       </c>
-      <c r="CR170" s="21">
+      <c r="CR170" s="20">
         <v>100</v>
       </c>
-      <c r="CS170" s="11"/>
+      <c r="CS170" s="20">
+        <v>100</v>
+      </c>
       <c r="CT170" s="11"/>
       <c r="CU170" s="11"/>
       <c r="CV170" s="11"/>
@@ -28838,13 +29079,14 @@
       <c r="CI171" s="16"/>
       <c r="CJ171" s="16"/>
       <c r="CK171" s="16"/>
-      <c r="CL171" s="17"/>
-      <c r="CM171" s="17"/>
-      <c r="CN171" s="17"/>
-      <c r="CO171" s="17"/>
-      <c r="CP171" s="17"/>
-      <c r="CQ171" s="17"/>
-      <c r="CR171" s="17"/>
+      <c r="CL171" s="16"/>
+      <c r="CM171" s="16"/>
+      <c r="CN171" s="16"/>
+      <c r="CO171" s="16"/>
+      <c r="CP171" s="16"/>
+      <c r="CQ171" s="16"/>
+      <c r="CR171" s="16"/>
+      <c r="CS171" s="16"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -28941,14 +29183,14 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="2"/>
-      <c r="CM173" s="2"/>
-      <c r="CN173" s="2"/>
-      <c r="CO173" s="2"/>
-      <c r="CP173" s="2"/>
-      <c r="CQ173" s="2"/>
-      <c r="CR173" s="2"/>
-      <c r="CS173" s="24"/>
+      <c r="CL173" s="1"/>
+      <c r="CM173" s="1"/>
+      <c r="CN173" s="1"/>
+      <c r="CO173" s="1"/>
+      <c r="CP173" s="1"/>
+      <c r="CQ173" s="1"/>
+      <c r="CR173" s="1"/>
+      <c r="CS173" s="1"/>
       <c r="CT173" s="24"/>
       <c r="CU173" s="24"/>
       <c r="CV173" s="24"/>
@@ -29095,14 +29337,14 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="2"/>
-      <c r="CM174" s="2"/>
-      <c r="CN174" s="2"/>
-      <c r="CO174" s="2"/>
-      <c r="CP174" s="2"/>
-      <c r="CQ174" s="2"/>
-      <c r="CR174" s="2"/>
-      <c r="CS174" s="24"/>
+      <c r="CL174" s="1"/>
+      <c r="CM174" s="1"/>
+      <c r="CN174" s="1"/>
+      <c r="CO174" s="1"/>
+      <c r="CP174" s="1"/>
+      <c r="CQ174" s="1"/>
+      <c r="CR174" s="1"/>
+      <c r="CS174" s="1"/>
       <c r="CT174" s="24"/>
       <c r="CU174" s="24"/>
       <c r="CV174" s="24"/>
@@ -29160,19 +29402,7 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL34:CO34"/>
-    <mergeCell ref="CL158:CO158"/>
-    <mergeCell ref="CL108:CO108"/>
-    <mergeCell ref="CL133:CO133"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP34:CR34"/>
-    <mergeCell ref="CL59:CN59"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="CP108:CR108"/>
-    <mergeCell ref="CP133:CR133"/>
-    <mergeCell ref="CP158:CR158"/>
+  <mergeCells count="154">
     <mergeCell ref="CH59:CK59"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD158:CG158"/>
@@ -29332,9 +29562,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="95" man="1"/>
-    <brk id="100" max="95" man="1"/>
-    <brk id="124" max="95" man="1"/>
+    <brk id="50" max="96" man="1"/>
+    <brk id="100" max="96" man="1"/>
+    <brk id="124" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1725AB-8302-4C37-A0C1-00B782A89317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B645A-7A84-45B5-B0CE-72CC0AAE4AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CS$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CT$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -219,13 +219,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -358,17 +361,25 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,7 +731,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CX30" sqref="CX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,8 +739,9 @@
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="97" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="82" max="93" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="2" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -744,7 +756,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -754,7 +766,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -764,150 +776,153 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="36">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="36"/>
+      <c r="BX9" s="36"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="37">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33">
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
+      <c r="CH9" s="28">
         <v>2021</v>
       </c>
-      <c r="CI9" s="33"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="28">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29">
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="29"/>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1187,17 +1202,20 @@
       <c r="CO10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CT10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,30 +1490,32 @@
         <v>73737.984486977453</v>
       </c>
       <c r="CL12" s="26">
-        <v>64278.199974307077</v>
+        <v>64386.386544957895</v>
       </c>
       <c r="CM12" s="26">
-        <v>78301.795476426603</v>
+        <v>78083.534530305755</v>
       </c>
       <c r="CN12" s="26">
-        <v>105008.92645285306</v>
+        <v>104099.89541704931</v>
       </c>
       <c r="CO12" s="26">
-        <v>101193.14807144552</v>
-      </c>
-      <c r="CP12" s="26">
-        <v>84713.533844019388</v>
-      </c>
-      <c r="CQ12" s="26">
-        <v>101600.63982002228</v>
-      </c>
-      <c r="CR12" s="26">
-        <v>99564.762533106477</v>
-      </c>
-      <c r="CS12" s="26">
-        <v>103524.21168131252</v>
-      </c>
-      <c r="CT12" s="11"/>
+        <v>101515.9470382054</v>
+      </c>
+      <c r="CP12" s="31">
+        <v>84885.792716184369</v>
+      </c>
+      <c r="CQ12" s="31">
+        <v>101344.4665342735</v>
+      </c>
+      <c r="CR12" s="31">
+        <v>97962.037742874556</v>
+      </c>
+      <c r="CS12" s="31">
+        <v>102237.0952600827</v>
+      </c>
+      <c r="CT12" s="31">
+        <v>82674.916980893759</v>
+      </c>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
@@ -1820,30 +1840,32 @@
         <v>12780.961963022375</v>
       </c>
       <c r="CL13" s="26">
-        <v>24409.622158552458</v>
+        <v>24352.737846773554</v>
       </c>
       <c r="CM13" s="26">
-        <v>35919.397836294309</v>
+        <v>35955.489724017825</v>
       </c>
       <c r="CN13" s="26">
-        <v>26294.663427144449</v>
+        <v>26315.250355641234</v>
       </c>
       <c r="CO13" s="26">
-        <v>13255.056806212147</v>
-      </c>
-      <c r="CP13" s="26">
-        <v>24537.625750492349</v>
-      </c>
-      <c r="CQ13" s="26">
-        <v>37894.707171723814</v>
-      </c>
-      <c r="CR13" s="26">
-        <v>23841.908171510218</v>
-      </c>
-      <c r="CS13" s="26">
-        <v>13736.417195213355</v>
-      </c>
-      <c r="CT13" s="11"/>
+        <v>13222.013665936622</v>
+      </c>
+      <c r="CP13" s="31">
+        <v>24480.983703543759</v>
+      </c>
+      <c r="CQ13" s="31">
+        <v>37932.78385448979</v>
+      </c>
+      <c r="CR13" s="31">
+        <v>23874.097382332508</v>
+      </c>
+      <c r="CS13" s="31">
+        <v>13716.027882210739</v>
+      </c>
+      <c r="CT13" s="31">
+        <v>23732.272428547574</v>
+      </c>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
@@ -2179,19 +2201,21 @@
       <c r="CO14" s="26">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="31">
         <v>150989.87083219792</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="31">
         <v>141051.15207210169</v>
       </c>
-      <c r="CR14" s="26">
+      <c r="CR14" s="31">
         <v>230364.79165804994</v>
       </c>
-      <c r="CS14" s="26">
-        <v>278213.3029009279</v>
-      </c>
-      <c r="CT14" s="11"/>
+      <c r="CS14" s="31">
+        <v>279927.09415215178</v>
+      </c>
+      <c r="CT14" s="31">
+        <v>225397.36577579528</v>
+      </c>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
@@ -2527,19 +2551,21 @@
       <c r="CO15" s="26">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="31">
         <v>5018.0349438614548</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="31">
         <v>4924.0081288224646</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="31">
         <v>4848.3900517060219</v>
       </c>
-      <c r="CS15" s="26">
+      <c r="CS15" s="31">
         <v>5140.6721164338969</v>
       </c>
-      <c r="CT15" s="11"/>
+      <c r="CT15" s="31">
+        <v>5437.0363134514964</v>
+      </c>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
@@ -2875,19 +2901,21 @@
       <c r="CO16" s="26">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="31">
         <v>30633.757370232517</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="31">
         <v>28608.292664405577</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="31">
         <v>27198.614792630226</v>
       </c>
-      <c r="CS16" s="26">
-        <v>24161.25249237418</v>
-      </c>
-      <c r="CT16" s="11"/>
+      <c r="CS16" s="31">
+        <v>23493.475535282345</v>
+      </c>
+      <c r="CT16" s="31">
+        <v>36312.351606342672</v>
+      </c>
       <c r="CU16" s="11"/>
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
@@ -3223,19 +3251,21 @@
       <c r="CO17" s="26">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="31">
         <v>106974.81694615472</v>
       </c>
-      <c r="CQ17" s="26">
+      <c r="CQ17" s="31">
         <v>116733.46614218912</v>
       </c>
-      <c r="CR17" s="26">
-        <v>104677.89192038904</v>
-      </c>
-      <c r="CS17" s="26">
-        <v>106667.59820828412</v>
-      </c>
-      <c r="CT17" s="11"/>
+      <c r="CR17" s="31">
+        <v>104692.73572560465</v>
+      </c>
+      <c r="CS17" s="31">
+        <v>111429.62348885107</v>
+      </c>
+      <c r="CT17" s="31">
+        <v>134027.90455320055</v>
+      </c>
       <c r="CU17" s="11"/>
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
@@ -3571,19 +3601,21 @@
       <c r="CO18" s="26">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="26">
+      <c r="CP18" s="31">
         <v>8490.2754181610162</v>
       </c>
-      <c r="CQ18" s="26">
+      <c r="CQ18" s="31">
         <v>7125.6013985669297</v>
       </c>
-      <c r="CR18" s="26">
-        <v>6764.2878474370236</v>
-      </c>
-      <c r="CS18" s="26">
-        <v>7513.2189748045976</v>
-      </c>
-      <c r="CT18" s="11"/>
+      <c r="CR18" s="31">
+        <v>6215.3238216358241</v>
+      </c>
+      <c r="CS18" s="31">
+        <v>5782.3129789755912</v>
+      </c>
+      <c r="CT18" s="31">
+        <v>9233.5972959352166</v>
+      </c>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
@@ -3908,30 +3940,32 @@
         <v>15309.74911073353</v>
       </c>
       <c r="CL19" s="26">
-        <v>13767.147484887126</v>
+        <v>13161.628271565041</v>
       </c>
       <c r="CM19" s="26">
-        <v>15704.429121634676</v>
+        <v>15338.048736269415</v>
       </c>
       <c r="CN19" s="26">
-        <v>17758.849756129912</v>
+        <v>16923.173225458355</v>
       </c>
       <c r="CO19" s="26">
-        <v>43483.899187625917</v>
-      </c>
-      <c r="CP19" s="26">
-        <v>19307.415689258494</v>
-      </c>
-      <c r="CQ19" s="26">
-        <v>22428.64878131307</v>
-      </c>
-      <c r="CR19" s="26">
-        <v>21703.397485804053</v>
-      </c>
-      <c r="CS19" s="26">
-        <v>39123.379125879292</v>
-      </c>
-      <c r="CT19" s="11"/>
+        <v>43136.79735686491</v>
+      </c>
+      <c r="CP19" s="31">
+        <v>17501.34913973014</v>
+      </c>
+      <c r="CQ19" s="31">
+        <v>19864.85731173911</v>
+      </c>
+      <c r="CR19" s="31">
+        <v>20638.761701537696</v>
+      </c>
+      <c r="CS19" s="31">
+        <v>41431.092190080744</v>
+      </c>
+      <c r="CT19" s="31">
+        <v>35596.032517435749</v>
+      </c>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
@@ -4080,11 +4114,11 @@
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
-      <c r="CP20" s="11"/>
-      <c r="CQ20" s="11"/>
-      <c r="CR20" s="11"/>
-      <c r="CS20" s="11"/>
-      <c r="CT20" s="11"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
+      <c r="CS20" s="12"/>
+      <c r="CT20" s="12"/>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
@@ -4409,30 +4443,32 @@
         <v>307827.42194891378</v>
       </c>
       <c r="CL21" s="14">
-        <v>317200.33489955822</v>
+        <v>316646.11794510804</v>
       </c>
       <c r="CM21" s="14">
-        <v>327559.76299975917</v>
+        <v>327011.21355599654</v>
       </c>
       <c r="CN21" s="14">
-        <v>396383.34551685356</v>
+        <v>394659.22487887507</v>
       </c>
       <c r="CO21" s="14">
-        <v>466396.98738902184</v>
-      </c>
-      <c r="CP21" s="14">
-        <v>430665.33079437778</v>
-      </c>
-      <c r="CQ21" s="14">
-        <v>460366.51617914502</v>
-      </c>
-      <c r="CR21" s="14">
-        <v>518964.04446063295</v>
-      </c>
-      <c r="CS21" s="14">
-        <v>578080.05269522988</v>
-      </c>
-      <c r="CT21" s="11"/>
+        <v>466339.64138474519</v>
+      </c>
+      <c r="CP21" s="15">
+        <v>428974.88107006589</v>
+      </c>
+      <c r="CQ21" s="15">
+        <v>457584.62810658821</v>
+      </c>
+      <c r="CR21" s="15">
+        <v>515794.75287637138</v>
+      </c>
+      <c r="CS21" s="15">
+        <v>583157.3936040689</v>
+      </c>
+      <c r="CT21" s="15">
+        <v>552411.47747160227</v>
+      </c>
       <c r="CU21" s="11"/>
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
@@ -4582,10 +4618,11 @@
       <c r="CM22" s="16"/>
       <c r="CN22" s="16"/>
       <c r="CO22" s="16"/>
-      <c r="CP22" s="16"/>
-      <c r="CQ22" s="16"/>
-      <c r="CR22" s="16"/>
-      <c r="CS22" s="16"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4685,11 +4722,11 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
+      <c r="CP24" s="12"/>
+      <c r="CQ24" s="12"/>
+      <c r="CR24" s="12"/>
+      <c r="CS24" s="12"/>
+      <c r="CT24" s="12"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
@@ -4838,11 +4875,11 @@
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
-      <c r="CP25" s="11"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
-      <c r="CS25" s="11"/>
-      <c r="CT25" s="11"/>
+      <c r="CP25" s="12"/>
+      <c r="CQ25" s="12"/>
+      <c r="CR25" s="12"/>
+      <c r="CS25" s="12"/>
+      <c r="CT25" s="12"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
@@ -4910,7 +4947,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4920,7 +4957,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -4930,150 +4967,153 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="32">
+      <c r="B34" s="36">
         <v>2000</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
         <v>2001</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32">
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
         <v>2002</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
         <v>2003</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32">
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36">
         <v>2004</v>
       </c>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32">
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36">
         <v>2005</v>
       </c>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32">
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36">
         <v>2006</v>
       </c>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32">
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36">
         <v>2007</v>
       </c>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32">
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36">
         <v>2008</v>
       </c>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32">
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36">
         <v>2009</v>
       </c>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32">
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32">
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36">
         <v>2011</v>
       </c>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="32">
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36">
         <v>2012</v>
       </c>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
-      <c r="BA34" s="32"/>
-      <c r="BB34" s="32">
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36">
         <v>2013</v>
       </c>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32">
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+      <c r="BF34" s="36">
         <v>2014</v>
       </c>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32">
+      <c r="BG34" s="36"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="36">
         <v>2015</v>
       </c>
-      <c r="BK34" s="32"/>
-      <c r="BL34" s="32"/>
-      <c r="BM34" s="32"/>
-      <c r="BN34" s="32">
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="36"/>
+      <c r="BM34" s="36"/>
+      <c r="BN34" s="36">
         <v>2016</v>
       </c>
-      <c r="BO34" s="32"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32">
+      <c r="BO34" s="36"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="36"/>
+      <c r="BR34" s="36">
         <v>2017</v>
       </c>
-      <c r="BS34" s="32"/>
-      <c r="BT34" s="32"/>
-      <c r="BU34" s="32"/>
-      <c r="BV34" s="34">
+      <c r="BS34" s="36"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="36"/>
+      <c r="BV34" s="38">
         <v>2018</v>
       </c>
-      <c r="BW34" s="34"/>
-      <c r="BX34" s="34"/>
-      <c r="BY34" s="34"/>
-      <c r="BZ34" s="34">
+      <c r="BW34" s="38"/>
+      <c r="BX34" s="38"/>
+      <c r="BY34" s="38"/>
+      <c r="BZ34" s="38">
         <v>2019</v>
       </c>
-      <c r="CA34" s="34"/>
-      <c r="CB34" s="34"/>
-      <c r="CC34" s="34"/>
-      <c r="CD34" s="33">
+      <c r="CA34" s="38"/>
+      <c r="CB34" s="38"/>
+      <c r="CC34" s="38"/>
+      <c r="CD34" s="37">
         <v>2020</v>
       </c>
-      <c r="CE34" s="33"/>
-      <c r="CF34" s="33"/>
-      <c r="CG34" s="33"/>
-      <c r="CH34" s="33">
+      <c r="CE34" s="37"/>
+      <c r="CF34" s="37"/>
+      <c r="CG34" s="37"/>
+      <c r="CH34" s="28">
         <v>2021</v>
       </c>
-      <c r="CI34" s="33"/>
-      <c r="CJ34" s="33"/>
-      <c r="CK34" s="33"/>
-      <c r="CL34" s="29">
+      <c r="CI34" s="28"/>
+      <c r="CJ34" s="28"/>
+      <c r="CK34" s="28"/>
+      <c r="CL34" s="28">
         <v>2022</v>
       </c>
-      <c r="CM34" s="29"/>
-      <c r="CN34" s="29"/>
-      <c r="CO34" s="29"/>
-      <c r="CP34" s="29">
+      <c r="CM34" s="28"/>
+      <c r="CN34" s="28"/>
+      <c r="CO34" s="28"/>
+      <c r="CP34" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="29"/>
-      <c r="CR34" s="29"/>
-      <c r="CS34" s="29"/>
+      <c r="CQ34" s="30"/>
+      <c r="CR34" s="30"/>
+      <c r="CS34" s="30"/>
+      <c r="CT34" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5353,17 +5393,20 @@
       <c r="CO35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="7" t="s">
+      <c r="CP35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="7" t="s">
+      <c r="CQ35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="7" t="s">
+      <c r="CR35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="7" t="s">
+      <c r="CS35" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CT35" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5638,30 +5681,32 @@
         <v>71273.442872178304</v>
       </c>
       <c r="CL37" s="26">
-        <v>65463.132122746989</v>
+        <v>65573.313051448349</v>
       </c>
       <c r="CM37" s="26">
-        <v>73741.448231983406</v>
+        <v>73535.898944620261</v>
       </c>
       <c r="CN37" s="26">
-        <v>100951.57153183127</v>
+        <v>100077.66381050245</v>
       </c>
       <c r="CO37" s="26">
-        <v>97606.909602206899</v>
-      </c>
-      <c r="CP37" s="26">
-        <v>81693.778927778447</v>
-      </c>
-      <c r="CQ37" s="26">
-        <v>90636.184276376342</v>
-      </c>
-      <c r="CR37" s="26">
-        <v>91912.595527326805</v>
-      </c>
-      <c r="CS37" s="26">
-        <v>97831.94601019418</v>
-      </c>
-      <c r="CT37" s="11"/>
+        <v>97918.26872254943</v>
+      </c>
+      <c r="CP37" s="31">
+        <v>80839.050828135922</v>
+      </c>
+      <c r="CQ37" s="31">
+        <v>90407.656491758637</v>
+      </c>
+      <c r="CR37" s="31">
+        <v>89201.98190535813</v>
+      </c>
+      <c r="CS37" s="31">
+        <v>95963.087990257947</v>
+      </c>
+      <c r="CT37" s="31">
+        <v>77506.269567383613</v>
+      </c>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
@@ -5986,30 +6031,32 @@
         <v>11927.031782863498</v>
       </c>
       <c r="CL38" s="26">
-        <v>30655.88424405938</v>
+        <v>30584.443610285125</v>
       </c>
       <c r="CM38" s="26">
-        <v>29842.408740141524</v>
+        <v>29872.394456231679</v>
       </c>
       <c r="CN38" s="26">
-        <v>24246.693365427058</v>
+        <v>24265.676873011424</v>
       </c>
       <c r="CO38" s="26">
-        <v>12084.392593717253</v>
-      </c>
-      <c r="CP38" s="26">
-        <v>28677.024820534818</v>
-      </c>
-      <c r="CQ38" s="26">
-        <v>30089.971371805852</v>
-      </c>
-      <c r="CR38" s="26">
-        <v>21099.534096839168</v>
-      </c>
-      <c r="CS38" s="26">
-        <v>12299.547093164763</v>
-      </c>
-      <c r="CT38" s="11"/>
+        <v>12054.267767739022</v>
+      </c>
+      <c r="CP38" s="31">
+        <v>28610.827487396422</v>
+      </c>
+      <c r="CQ38" s="31">
+        <v>30120.20583935747</v>
+      </c>
+      <c r="CR38" s="31">
+        <v>21128.020799598424</v>
+      </c>
+      <c r="CS38" s="31">
+        <v>12281.290562956849</v>
+      </c>
+      <c r="CT38" s="31">
+        <v>27025.452489907741</v>
+      </c>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
@@ -6345,19 +6392,21 @@
       <c r="CO39" s="26">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="26">
+      <c r="CP39" s="31">
         <v>123441.60812228297</v>
       </c>
-      <c r="CQ39" s="26">
+      <c r="CQ39" s="31">
         <v>112732.84324393685</v>
       </c>
-      <c r="CR39" s="26">
+      <c r="CR39" s="31">
         <v>238100.58647092991</v>
       </c>
-      <c r="CS39" s="26">
-        <v>274853.43608612457</v>
-      </c>
-      <c r="CT39" s="11"/>
+      <c r="CS39" s="31">
+        <v>274815.66122827766</v>
+      </c>
+      <c r="CT39" s="31">
+        <v>179544.68723647794</v>
+      </c>
       <c r="CU39" s="11"/>
       <c r="CV39" s="11"/>
       <c r="CW39" s="11"/>
@@ -6693,19 +6742,21 @@
       <c r="CO40" s="26">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="31">
         <v>5216.5593547111621</v>
       </c>
-      <c r="CQ40" s="26">
+      <c r="CQ40" s="31">
         <v>4197.0482487003283</v>
       </c>
-      <c r="CR40" s="26">
+      <c r="CR40" s="31">
         <v>4381.1434563008452</v>
       </c>
-      <c r="CS40" s="26">
+      <c r="CS40" s="31">
         <v>4694.3232692237671</v>
       </c>
-      <c r="CT40" s="11"/>
+      <c r="CT40" s="31">
+        <v>5507.3769258697075</v>
+      </c>
       <c r="CU40" s="11"/>
       <c r="CV40" s="11"/>
       <c r="CW40" s="11"/>
@@ -7041,19 +7092,21 @@
       <c r="CO41" s="26">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="26">
+      <c r="CP41" s="31">
         <v>33174.378483746579</v>
       </c>
-      <c r="CQ41" s="26">
+      <c r="CQ41" s="31">
         <v>23537.679708751326</v>
       </c>
-      <c r="CR41" s="26">
+      <c r="CR41" s="31">
         <v>23925.257228109462</v>
       </c>
-      <c r="CS41" s="26">
-        <v>21468.516589575105</v>
-      </c>
-      <c r="CT41" s="11"/>
+      <c r="CS41" s="31">
+        <v>20684.996710685286</v>
+      </c>
+      <c r="CT41" s="31">
+        <v>38316.779253936889</v>
+      </c>
       <c r="CU41" s="11"/>
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
@@ -7389,19 +7442,21 @@
       <c r="CO42" s="26">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="26">
+      <c r="CP42" s="31">
         <v>118116.1769412344</v>
       </c>
-      <c r="CQ42" s="26">
+      <c r="CQ42" s="31">
         <v>97528.216759631192</v>
       </c>
-      <c r="CR42" s="26">
-        <v>93354.267097592659</v>
-      </c>
-      <c r="CS42" s="26">
-        <v>95995.315423770633</v>
-      </c>
-      <c r="CT42" s="11"/>
+      <c r="CR42" s="31">
+        <v>93367.505160868692</v>
+      </c>
+      <c r="CS42" s="31">
+        <v>99367.366565550969</v>
+      </c>
+      <c r="CT42" s="31">
+        <v>144196.64391523731</v>
+      </c>
       <c r="CU42" s="11"/>
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
@@ -7737,19 +7792,21 @@
       <c r="CO43" s="26">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="26">
+      <c r="CP43" s="31">
         <v>9247.8830546496483</v>
       </c>
-      <c r="CQ43" s="26">
+      <c r="CQ43" s="31">
         <v>5847.2867246154101</v>
       </c>
-      <c r="CR43" s="26">
-        <v>5911.6057257298917</v>
-      </c>
-      <c r="CS43" s="26">
-        <v>6619.9074296252757</v>
-      </c>
-      <c r="CT43" s="11"/>
+      <c r="CR43" s="31">
+        <v>5293.4547678643676</v>
+      </c>
+      <c r="CS43" s="31">
+        <v>5094.8038089006595</v>
+      </c>
+      <c r="CT43" s="31">
+        <v>9799.943580912055</v>
+      </c>
       <c r="CU43" s="11"/>
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
@@ -8074,30 +8131,32 @@
         <v>14155.001436112121</v>
       </c>
       <c r="CL44" s="26">
-        <v>16228.514766005081</v>
+        <v>15514.737456269389</v>
       </c>
       <c r="CM44" s="26">
-        <v>13565.303601549647</v>
+        <v>13248.828477071187</v>
       </c>
       <c r="CN44" s="26">
-        <v>16274.78835007403</v>
+        <v>15508.947158072888</v>
       </c>
       <c r="CO44" s="26">
-        <v>39277.580084628244</v>
-      </c>
-      <c r="CP44" s="26">
-        <v>21179.110705268595</v>
-      </c>
-      <c r="CQ44" s="26">
-        <v>18516.072240827933</v>
-      </c>
-      <c r="CR44" s="26">
-        <v>19088.648962129577</v>
-      </c>
-      <c r="CS44" s="26">
-        <v>34707.634489706164</v>
-      </c>
-      <c r="CT44" s="11"/>
+        <v>38964.054384083065</v>
+      </c>
+      <c r="CP44" s="31">
+        <v>18995.378787497346</v>
+      </c>
+      <c r="CQ44" s="31">
+        <v>16104.981701820538</v>
+      </c>
+      <c r="CR44" s="31">
+        <v>17689.810017622338</v>
+      </c>
+      <c r="CS44" s="31">
+        <v>35902.141499991711</v>
+      </c>
+      <c r="CT44" s="31">
+        <v>37645.244265316549</v>
+      </c>
       <c r="CU44" s="11"/>
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
@@ -8246,11 +8305,11 @@
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
-      <c r="CP45" s="11"/>
-      <c r="CQ45" s="11"/>
-      <c r="CR45" s="11"/>
-      <c r="CS45" s="11"/>
-      <c r="CT45" s="11"/>
+      <c r="CP45" s="12"/>
+      <c r="CQ45" s="12"/>
+      <c r="CR45" s="12"/>
+      <c r="CS45" s="12"/>
+      <c r="CT45" s="12"/>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
@@ -8575,30 +8634,32 @@
         <v>302567.44887005404</v>
       </c>
       <c r="CL46" s="14">
-        <v>340376.22104258387</v>
+        <v>339701.18402777525</v>
       </c>
       <c r="CM46" s="14">
-        <v>291653.95086933492</v>
+        <v>291161.91217358346</v>
       </c>
       <c r="CN46" s="14">
-        <v>387146.64561537752</v>
+        <v>385525.88020963193</v>
       </c>
       <c r="CO46" s="14">
-        <v>453210.31140857324</v>
-      </c>
-      <c r="CP46" s="14">
-        <v>420746.52041020658</v>
-      </c>
-      <c r="CQ46" s="14">
-        <v>383085.30257464526</v>
-      </c>
-      <c r="CR46" s="14">
-        <v>497773.63856495824</v>
-      </c>
-      <c r="CS46" s="14">
-        <v>548470.62639138452</v>
-      </c>
-      <c r="CT46" s="11"/>
+        <v>453178.0200023923</v>
+      </c>
+      <c r="CP46" s="15">
+        <v>417641.86305965437</v>
+      </c>
+      <c r="CQ46" s="15">
+        <v>380475.91871857177</v>
+      </c>
+      <c r="CR46" s="15">
+        <v>493087.7598066522</v>
+      </c>
+      <c r="CS46" s="15">
+        <v>548803.67163584486</v>
+      </c>
+      <c r="CT46" s="15">
+        <v>519542.39723504183</v>
+      </c>
       <c r="CU46" s="11"/>
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
@@ -8748,10 +8809,11 @@
       <c r="CM47" s="16"/>
       <c r="CN47" s="16"/>
       <c r="CO47" s="16"/>
-      <c r="CP47" s="16"/>
-      <c r="CQ47" s="16"/>
-      <c r="CR47" s="16"/>
-      <c r="CS47" s="16"/>
+      <c r="CP47" s="17"/>
+      <c r="CQ47" s="17"/>
+      <c r="CR47" s="17"/>
+      <c r="CS47" s="17"/>
+      <c r="CT47" s="17"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8851,11 +8913,11 @@
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
-      <c r="CP49" s="11"/>
-      <c r="CQ49" s="11"/>
-      <c r="CR49" s="11"/>
-      <c r="CS49" s="11"/>
-      <c r="CT49" s="11"/>
+      <c r="CP49" s="12"/>
+      <c r="CQ49" s="12"/>
+      <c r="CR49" s="12"/>
+      <c r="CS49" s="12"/>
+      <c r="CT49" s="12"/>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
@@ -9004,11 +9066,11 @@
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
-      <c r="CP50" s="11"/>
-      <c r="CQ50" s="11"/>
-      <c r="CR50" s="11"/>
-      <c r="CS50" s="11"/>
-      <c r="CT50" s="11"/>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
@@ -9076,192 +9138,198 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CP54" s="8"/>
-      <c r="CQ54" s="8"/>
-      <c r="CR54" s="8"/>
-      <c r="CS54" s="8"/>
+      <c r="CP54" s="32"/>
+      <c r="CQ54" s="32"/>
+      <c r="CR54" s="32"/>
+      <c r="CS54" s="32"/>
+      <c r="CT54" s="32"/>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="8"/>
-      <c r="CQ55" s="8"/>
-      <c r="CR55" s="8"/>
-      <c r="CS55" s="8"/>
+      <c r="CP55" s="32"/>
+      <c r="CQ55" s="32"/>
+      <c r="CR55" s="32"/>
+      <c r="CS55" s="32"/>
+      <c r="CT55" s="32"/>
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP56" s="8"/>
-      <c r="CQ56" s="8"/>
-      <c r="CR56" s="8"/>
-      <c r="CS56" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="CP56" s="32"/>
+      <c r="CQ56" s="32"/>
+      <c r="CR56" s="32"/>
+      <c r="CS56" s="32"/>
+      <c r="CT56" s="32"/>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CP57" s="8"/>
-      <c r="CQ57" s="8"/>
-      <c r="CR57" s="8"/>
-      <c r="CS57" s="8"/>
+      <c r="CQ57" s="32"/>
+      <c r="CR57" s="32"/>
+      <c r="CS57" s="32"/>
+      <c r="CT57" s="32"/>
     </row>
     <row r="58" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CP58" s="8"/>
-      <c r="CQ58" s="8"/>
-      <c r="CR58" s="8"/>
-      <c r="CS58" s="8"/>
+      <c r="CQ58" s="32"/>
+      <c r="CR58" s="32"/>
+      <c r="CS58" s="32"/>
+      <c r="CT58" s="32"/>
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33" t="s">
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33" t="s">
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33" t="s">
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33" t="s">
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33" t="s">
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33" t="s">
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33" t="s">
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33" t="s">
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33"/>
-      <c r="AK59" s="33"/>
-      <c r="AL59" s="33" t="s">
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="33"/>
-      <c r="AN59" s="33"/>
-      <c r="AO59" s="33"/>
-      <c r="AP59" s="33" t="s">
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="33"/>
-      <c r="AR59" s="33"/>
-      <c r="AS59" s="33"/>
-      <c r="AT59" s="33" t="s">
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="33"/>
-      <c r="AV59" s="33"/>
-      <c r="AW59" s="33"/>
-      <c r="AX59" s="33" t="s">
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="33"/>
-      <c r="AZ59" s="33"/>
-      <c r="BA59" s="33"/>
-      <c r="BB59" s="33" t="s">
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="33"/>
-      <c r="BD59" s="33"/>
-      <c r="BE59" s="33"/>
-      <c r="BF59" s="33" t="s">
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="33"/>
-      <c r="BH59" s="33"/>
-      <c r="BI59" s="33"/>
-      <c r="BJ59" s="33" t="s">
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
+      <c r="BI59" s="37"/>
+      <c r="BJ59" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="33"/>
-      <c r="BL59" s="33"/>
-      <c r="BM59" s="33"/>
-      <c r="BN59" s="33" t="s">
+      <c r="BK59" s="37"/>
+      <c r="BL59" s="37"/>
+      <c r="BM59" s="37"/>
+      <c r="BN59" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="33"/>
-      <c r="BP59" s="33"/>
-      <c r="BQ59" s="33"/>
-      <c r="BR59" s="33" t="s">
+      <c r="BO59" s="37"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="33"/>
-      <c r="BT59" s="33"/>
-      <c r="BU59" s="33"/>
-      <c r="BV59" s="32" t="s">
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="32"/>
-      <c r="BX59" s="32"/>
-      <c r="BY59" s="32"/>
-      <c r="BZ59" s="32" t="s">
+      <c r="BW59" s="36"/>
+      <c r="BX59" s="36"/>
+      <c r="BY59" s="36"/>
+      <c r="BZ59" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="32"/>
-      <c r="CB59" s="32"/>
-      <c r="CC59" s="32"/>
-      <c r="CD59" s="33" t="s">
+      <c r="CA59" s="36"/>
+      <c r="CB59" s="36"/>
+      <c r="CC59" s="36"/>
+      <c r="CD59" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="33"/>
-      <c r="CF59" s="33"/>
-      <c r="CG59" s="33"/>
-      <c r="CH59" s="33" t="s">
+      <c r="CE59" s="37"/>
+      <c r="CF59" s="37"/>
+      <c r="CG59" s="37"/>
+      <c r="CH59" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CI59" s="33"/>
-      <c r="CJ59" s="33"/>
-      <c r="CK59" s="33"/>
-      <c r="CL59" s="29" t="s">
+      <c r="CI59" s="28"/>
+      <c r="CJ59" s="28"/>
+      <c r="CK59" s="28"/>
+      <c r="CL59" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="CM59" s="29"/>
-      <c r="CN59" s="29"/>
-      <c r="CO59" s="29"/>
-      <c r="CP59" s="28"/>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="28"/>
-      <c r="CS59" s="28"/>
+      <c r="CM59" s="28"/>
+      <c r="CN59" s="28"/>
+      <c r="CO59" s="28"/>
+      <c r="CP59" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ59" s="29"/>
+      <c r="CR59" s="29"/>
+      <c r="CS59" s="29"/>
+      <c r="CT59" s="29"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9541,17 +9609,20 @@
       <c r="CO60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="7"/>
-      <c r="CQ60" s="7"/>
-      <c r="CR60" s="7"/>
-      <c r="CS60" s="7"/>
+      <c r="CP60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ60" s="19"/>
+      <c r="CR60" s="19"/>
+      <c r="CS60" s="19"/>
+      <c r="CT60" s="19"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
-      <c r="CP61" s="8"/>
-      <c r="CQ61" s="8"/>
-      <c r="CR61" s="8"/>
-      <c r="CS61" s="8"/>
+      <c r="CQ61" s="32"/>
+      <c r="CR61" s="32"/>
+      <c r="CS61" s="32"/>
+      <c r="CT61" s="32"/>
     </row>
     <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9810,34 +9881,36 @@
         <v>39.432201194729402</v>
       </c>
       <c r="CH62" s="20">
-        <v>38.43865279010285</v>
+        <v>38.671658740749706</v>
       </c>
       <c r="CI62" s="20">
-        <v>48.244125561430991</v>
+        <v>47.830905112205926</v>
       </c>
       <c r="CJ62" s="20">
-        <v>55.448727268031718</v>
+        <v>54.103053882576461</v>
       </c>
       <c r="CK62" s="20">
-        <v>37.23340660242323</v>
+        <v>37.67117143828861</v>
       </c>
       <c r="CL62" s="20">
-        <v>31.792013276477263</v>
+        <v>31.838106269425026</v>
       </c>
       <c r="CM62" s="20">
-        <v>29.755185308119763</v>
+        <v>29.789804142305712</v>
       </c>
       <c r="CN62" s="20">
-        <v>-5.1844772665025829</v>
+        <v>-5.8961228054889148</v>
       </c>
       <c r="CO62" s="20">
-        <v>2.3035785073325172</v>
-      </c>
-      <c r="CP62" s="30"/>
-      <c r="CQ62" s="30"/>
-      <c r="CR62" s="30"/>
-      <c r="CS62" s="30"/>
-      <c r="CT62" s="11"/>
+        <v>0.71037924869665403</v>
+      </c>
+      <c r="CP62" s="21">
+        <v>-2.6045297623392401</v>
+      </c>
+      <c r="CQ62" s="33"/>
+      <c r="CR62" s="33"/>
+      <c r="CS62" s="33"/>
+      <c r="CT62" s="33"/>
       <c r="CU62" s="11"/>
       <c r="CV62" s="11"/>
       <c r="CW62" s="11"/>
@@ -10146,34 +10219,36 @@
         <v>44.221853099633591</v>
       </c>
       <c r="CH63" s="20">
-        <v>31.637542822170815</v>
+        <v>31.330774000471479</v>
       </c>
       <c r="CI63" s="20">
-        <v>24.336388561093841</v>
+        <v>24.461322030088681</v>
       </c>
       <c r="CJ63" s="20">
-        <v>29.126519327151698</v>
+        <v>29.227616586973738</v>
       </c>
       <c r="CK63" s="20">
-        <v>3.7093831009075302</v>
+        <v>3.4508490377350967</v>
       </c>
       <c r="CL63" s="20">
-        <v>0.52439808821473832</v>
+        <v>0.52661781840350841</v>
       </c>
       <c r="CM63" s="20">
         <v>5.4992829902999603</v>
       </c>
       <c r="CN63" s="20">
-        <v>-9.3279583609433274</v>
+        <v>-9.2765713429187002</v>
       </c>
       <c r="CO63" s="20">
-        <v>3.6315226410467858</v>
-      </c>
-      <c r="CP63" s="30"/>
-      <c r="CQ63" s="30"/>
-      <c r="CR63" s="30"/>
-      <c r="CS63" s="30"/>
-      <c r="CT63" s="11"/>
+        <v>3.7363009051097009</v>
+      </c>
+      <c r="CP63" s="21">
+        <v>-3.0583381945056658</v>
+      </c>
+      <c r="CQ63" s="33"/>
+      <c r="CR63" s="33"/>
+      <c r="CS63" s="33"/>
+      <c r="CT63" s="33"/>
       <c r="CU63" s="11"/>
       <c r="CV63" s="11"/>
       <c r="CW63" s="11"/>
@@ -10503,13 +10578,15 @@
         <v>112.06375449638267</v>
       </c>
       <c r="CO64" s="20">
-        <v>63.250940663839401</v>
-      </c>
-      <c r="CP64" s="30"/>
-      <c r="CQ64" s="30"/>
-      <c r="CR64" s="30"/>
-      <c r="CS64" s="30"/>
-      <c r="CT64" s="11"/>
+        <v>64.256564877155284</v>
+      </c>
+      <c r="CP64" s="21">
+        <v>49.279792434745417</v>
+      </c>
+      <c r="CQ64" s="33"/>
+      <c r="CR64" s="33"/>
+      <c r="CS64" s="33"/>
+      <c r="CT64" s="33"/>
       <c r="CU64" s="11"/>
       <c r="CV64" s="11"/>
       <c r="CW64" s="11"/>
@@ -10841,11 +10918,13 @@
       <c r="CO65" s="20">
         <v>-0.80149844920354951</v>
       </c>
-      <c r="CP65" s="30"/>
-      <c r="CQ65" s="30"/>
-      <c r="CR65" s="30"/>
-      <c r="CS65" s="30"/>
-      <c r="CT65" s="11"/>
+      <c r="CP65" s="21">
+        <v>8.3499093624807301</v>
+      </c>
+      <c r="CQ65" s="33"/>
+      <c r="CR65" s="33"/>
+      <c r="CS65" s="33"/>
+      <c r="CT65" s="33"/>
       <c r="CU65" s="11"/>
       <c r="CV65" s="11"/>
       <c r="CW65" s="11"/>
@@ -11175,13 +11254,15 @@
         <v>-5.4748210819204814</v>
       </c>
       <c r="CO66" s="20">
-        <v>-15.424244178753838</v>
-      </c>
-      <c r="CP66" s="30"/>
-      <c r="CQ66" s="30"/>
-      <c r="CR66" s="30"/>
-      <c r="CS66" s="30"/>
-      <c r="CT66" s="11"/>
+        <v>-17.761777834506148</v>
+      </c>
+      <c r="CP66" s="21">
+        <v>18.537047765574343</v>
+      </c>
+      <c r="CQ66" s="33"/>
+      <c r="CR66" s="33"/>
+      <c r="CS66" s="33"/>
+      <c r="CT66" s="33"/>
       <c r="CU66" s="11"/>
       <c r="CV66" s="11"/>
       <c r="CW66" s="11"/>
@@ -11508,16 +11589,18 @@
         <v>34.18933092439579</v>
       </c>
       <c r="CN67" s="20">
-        <v>9.9878608870703971</v>
+        <v>10.003457670241488</v>
       </c>
       <c r="CO67" s="20">
-        <v>11.4540468453107</v>
-      </c>
-      <c r="CP67" s="30"/>
-      <c r="CQ67" s="30"/>
-      <c r="CR67" s="30"/>
-      <c r="CS67" s="30"/>
-      <c r="CT67" s="11"/>
+        <v>16.429756410482526</v>
+      </c>
+      <c r="CP67" s="21">
+        <v>25.28921140445874</v>
+      </c>
+      <c r="CQ67" s="33"/>
+      <c r="CR67" s="33"/>
+      <c r="CS67" s="33"/>
+      <c r="CT67" s="33"/>
       <c r="CU67" s="11"/>
       <c r="CV67" s="11"/>
       <c r="CW67" s="11"/>
@@ -11844,16 +11927,18 @@
         <v>-0.93918618467779424</v>
       </c>
       <c r="CN68" s="20">
-        <v>-29.381019264672162</v>
+        <v>-35.112188729486064</v>
       </c>
       <c r="CO68" s="20">
-        <v>-12.525050881912236</v>
-      </c>
-      <c r="CP68" s="30"/>
-      <c r="CQ68" s="30"/>
-      <c r="CR68" s="30"/>
-      <c r="CS68" s="30"/>
-      <c r="CT68" s="11"/>
+        <v>-32.67765317143531</v>
+      </c>
+      <c r="CP68" s="21">
+        <v>8.7549795638455663</v>
+      </c>
+      <c r="CQ68" s="33"/>
+      <c r="CR68" s="33"/>
+      <c r="CS68" s="33"/>
+      <c r="CT68" s="33"/>
       <c r="CU68" s="11"/>
       <c r="CV68" s="11"/>
       <c r="CW68" s="11"/>
@@ -12162,34 +12247,36 @@
         <v>6.9640382211624967</v>
       </c>
       <c r="CH69" s="20">
-        <v>61.738225060668469</v>
+        <v>54.624507210957404</v>
       </c>
       <c r="CI69" s="20">
-        <v>122.49390047772164</v>
+        <v>117.30317368548518</v>
       </c>
       <c r="CJ69" s="20">
-        <v>145.43995595566224</v>
+        <v>133.89031092246353</v>
       </c>
       <c r="CK69" s="20">
-        <v>184.02751000759213</v>
+        <v>181.7603152400589</v>
       </c>
       <c r="CL69" s="20">
-        <v>40.242673440182074</v>
+        <v>32.972522689619041</v>
       </c>
       <c r="CM69" s="20">
-        <v>42.817345397261221</v>
+        <v>29.513588418618667</v>
       </c>
       <c r="CN69" s="20">
-        <v>22.211729835219657</v>
+        <v>21.955625145346858</v>
       </c>
       <c r="CO69" s="20">
-        <v>-10.027895711310748</v>
-      </c>
-      <c r="CP69" s="30"/>
-      <c r="CQ69" s="30"/>
-      <c r="CR69" s="30"/>
-      <c r="CS69" s="30"/>
-      <c r="CT69" s="11"/>
+        <v>-3.9541766456909073</v>
+      </c>
+      <c r="CP69" s="21">
+        <v>103.39021999526042</v>
+      </c>
+      <c r="CQ69" s="33"/>
+      <c r="CR69" s="33"/>
+      <c r="CS69" s="33"/>
+      <c r="CT69" s="33"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
@@ -12334,11 +12421,11 @@
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
-      <c r="CP70" s="31"/>
-      <c r="CQ70" s="31"/>
-      <c r="CR70" s="31"/>
-      <c r="CS70" s="31"/>
-      <c r="CT70" s="11"/>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="34"/>
+      <c r="CR70" s="34"/>
+      <c r="CS70" s="34"/>
+      <c r="CT70" s="34"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
@@ -12647,34 +12734,36 @@
         <v>18.777905986429985</v>
       </c>
       <c r="CH71" s="20">
-        <v>39.260738798675902</v>
+        <v>39.017420447338338</v>
       </c>
       <c r="CI71" s="20">
-        <v>36.145897829354908</v>
+        <v>35.917900483646406</v>
       </c>
       <c r="CJ71" s="20">
-        <v>57.846866807339012</v>
+        <v>57.160291440889353</v>
       </c>
       <c r="CK71" s="20">
-        <v>51.512488535353384</v>
+        <v>51.493859264473741</v>
       </c>
       <c r="CL71" s="20">
-        <v>35.770768000843475</v>
+        <v>35.474542954741224</v>
       </c>
       <c r="CM71" s="20">
-        <v>40.544281740576139</v>
+        <v>39.929338547967745</v>
       </c>
       <c r="CN71" s="20">
-        <v>30.92478539529543</v>
+        <v>30.693702404821266</v>
       </c>
       <c r="CO71" s="20">
-        <v>23.945923392736916</v>
-      </c>
-      <c r="CP71" s="30"/>
-      <c r="CQ71" s="30"/>
-      <c r="CR71" s="30"/>
-      <c r="CS71" s="30"/>
-      <c r="CT71" s="11"/>
+        <v>25.049929676243266</v>
+      </c>
+      <c r="CP71" s="21">
+        <v>28.774784223642001</v>
+      </c>
+      <c r="CQ71" s="33"/>
+      <c r="CR71" s="33"/>
+      <c r="CS71" s="33"/>
+      <c r="CT71" s="33"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
@@ -12820,19 +12909,20 @@
       <c r="CM72" s="16"/>
       <c r="CN72" s="16"/>
       <c r="CO72" s="16"/>
-      <c r="CP72" s="6"/>
-      <c r="CQ72" s="6"/>
-      <c r="CR72" s="6"/>
-      <c r="CS72" s="6"/>
+      <c r="CP72" s="17"/>
+      <c r="CQ72" s="7"/>
+      <c r="CR72" s="7"/>
+      <c r="CS72" s="7"/>
+      <c r="CT72" s="7"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CP73" s="8"/>
-      <c r="CQ73" s="8"/>
-      <c r="CR73" s="8"/>
-      <c r="CS73" s="8"/>
+      <c r="CQ73" s="32"/>
+      <c r="CR73" s="32"/>
+      <c r="CS73" s="32"/>
+      <c r="CT73" s="32"/>
     </row>
     <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
@@ -12927,11 +13017,11 @@
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
-      <c r="CP74" s="31"/>
-      <c r="CQ74" s="31"/>
-      <c r="CR74" s="31"/>
-      <c r="CS74" s="31"/>
-      <c r="CT74" s="11"/>
+      <c r="CP74" s="12"/>
+      <c r="CQ74" s="34"/>
+      <c r="CR74" s="34"/>
+      <c r="CS74" s="34"/>
+      <c r="CT74" s="34"/>
       <c r="CU74" s="11"/>
       <c r="CV74" s="11"/>
       <c r="CW74" s="11"/>
@@ -13076,11 +13166,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="31"/>
-      <c r="CQ75" s="31"/>
-      <c r="CR75" s="31"/>
-      <c r="CS75" s="31"/>
-      <c r="CT75" s="11"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="34"/>
+      <c r="CR75" s="34"/>
+      <c r="CS75" s="34"/>
+      <c r="CT75" s="34"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -13136,212 +13226,215 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP76" s="8"/>
-      <c r="CQ76" s="8"/>
-      <c r="CR76" s="8"/>
-      <c r="CS76" s="8"/>
+      <c r="CQ76" s="32"/>
+      <c r="CR76" s="32"/>
+      <c r="CS76" s="32"/>
+      <c r="CT76" s="32"/>
     </row>
     <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP77" s="8"/>
-      <c r="CQ77" s="8"/>
-      <c r="CR77" s="8"/>
-      <c r="CS77" s="8"/>
+      <c r="CQ77" s="32"/>
+      <c r="CR77" s="32"/>
+      <c r="CS77" s="32"/>
+      <c r="CT77" s="32"/>
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP78" s="8"/>
-      <c r="CQ78" s="8"/>
-      <c r="CR78" s="8"/>
-      <c r="CS78" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="CQ78" s="32"/>
+      <c r="CR78" s="32"/>
+      <c r="CS78" s="32"/>
+      <c r="CT78" s="32"/>
     </row>
     <row r="79" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CP79" s="8"/>
-      <c r="CQ79" s="8"/>
-      <c r="CR79" s="8"/>
-      <c r="CS79" s="8"/>
+      <c r="CQ79" s="32"/>
+      <c r="CR79" s="32"/>
+      <c r="CS79" s="32"/>
+      <c r="CT79" s="32"/>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CP80" s="8"/>
-      <c r="CQ80" s="8"/>
-      <c r="CR80" s="8"/>
-      <c r="CS80" s="8"/>
+      <c r="CQ80" s="32"/>
+      <c r="CR80" s="32"/>
+      <c r="CS80" s="32"/>
+      <c r="CT80" s="32"/>
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CP81" s="8"/>
-      <c r="CQ81" s="8"/>
-      <c r="CR81" s="8"/>
-      <c r="CS81" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="CQ81" s="32"/>
+      <c r="CR81" s="32"/>
+      <c r="CS81" s="32"/>
+      <c r="CT81" s="32"/>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CP82" s="8"/>
-      <c r="CQ82" s="8"/>
-      <c r="CR82" s="8"/>
-      <c r="CS82" s="8"/>
+      <c r="CQ82" s="32"/>
+      <c r="CR82" s="32"/>
+      <c r="CS82" s="32"/>
+      <c r="CT82" s="32"/>
     </row>
     <row r="83" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CP83" s="8"/>
-      <c r="CQ83" s="8"/>
-      <c r="CR83" s="8"/>
-      <c r="CS83" s="8"/>
+      <c r="CQ83" s="32"/>
+      <c r="CR83" s="32"/>
+      <c r="CS83" s="32"/>
+      <c r="CT83" s="32"/>
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33" t="s">
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33" t="s">
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33" t="s">
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33" t="s">
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33" t="s">
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="33" t="s">
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="33" t="s">
+      <c r="AE84" s="37"/>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="33"/>
-      <c r="AJ84" s="33"/>
-      <c r="AK84" s="33"/>
-      <c r="AL84" s="33" t="s">
+      <c r="AI84" s="37"/>
+      <c r="AJ84" s="37"/>
+      <c r="AK84" s="37"/>
+      <c r="AL84" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="33"/>
-      <c r="AN84" s="33"/>
-      <c r="AO84" s="33"/>
-      <c r="AP84" s="33" t="s">
+      <c r="AM84" s="37"/>
+      <c r="AN84" s="37"/>
+      <c r="AO84" s="37"/>
+      <c r="AP84" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="33"/>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="33" t="s">
+      <c r="AQ84" s="37"/>
+      <c r="AR84" s="37"/>
+      <c r="AS84" s="37"/>
+      <c r="AT84" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="33" t="s">
+      <c r="AU84" s="37"/>
+      <c r="AV84" s="37"/>
+      <c r="AW84" s="37"/>
+      <c r="AX84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="33"/>
-      <c r="AZ84" s="33"/>
-      <c r="BA84" s="33"/>
-      <c r="BB84" s="33" t="s">
+      <c r="AY84" s="37"/>
+      <c r="AZ84" s="37"/>
+      <c r="BA84" s="37"/>
+      <c r="BB84" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="33"/>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="33" t="s">
+      <c r="BC84" s="37"/>
+      <c r="BD84" s="37"/>
+      <c r="BE84" s="37"/>
+      <c r="BF84" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
-      <c r="BI84" s="33"/>
-      <c r="BJ84" s="33" t="s">
+      <c r="BG84" s="37"/>
+      <c r="BH84" s="37"/>
+      <c r="BI84" s="37"/>
+      <c r="BJ84" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
-      <c r="BM84" s="33"/>
-      <c r="BN84" s="33" t="s">
+      <c r="BK84" s="37"/>
+      <c r="BL84" s="37"/>
+      <c r="BM84" s="37"/>
+      <c r="BN84" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="33"/>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="33" t="s">
+      <c r="BO84" s="37"/>
+      <c r="BP84" s="37"/>
+      <c r="BQ84" s="37"/>
+      <c r="BR84" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
-      <c r="BU84" s="33"/>
-      <c r="BV84" s="32" t="s">
+      <c r="BS84" s="37"/>
+      <c r="BT84" s="37"/>
+      <c r="BU84" s="37"/>
+      <c r="BV84" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="32"/>
-      <c r="BX84" s="32"/>
-      <c r="BY84" s="32"/>
-      <c r="BZ84" s="32" t="s">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="32"/>
-      <c r="CB84" s="32"/>
-      <c r="CC84" s="32"/>
-      <c r="CD84" s="33" t="s">
+      <c r="CA84" s="36"/>
+      <c r="CB84" s="36"/>
+      <c r="CC84" s="36"/>
+      <c r="CD84" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="33"/>
-      <c r="CF84" s="33"/>
-      <c r="CG84" s="33"/>
-      <c r="CH84" s="33" t="s">
+      <c r="CE84" s="37"/>
+      <c r="CF84" s="37"/>
+      <c r="CG84" s="37"/>
+      <c r="CH84" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CI84" s="33"/>
-      <c r="CJ84" s="33"/>
-      <c r="CK84" s="33"/>
-      <c r="CL84" s="29" t="s">
+      <c r="CI84" s="28"/>
+      <c r="CJ84" s="28"/>
+      <c r="CK84" s="28"/>
+      <c r="CL84" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="CM84" s="29"/>
-      <c r="CN84" s="29"/>
-      <c r="CO84" s="29"/>
-      <c r="CP84" s="28"/>
-      <c r="CQ84" s="28"/>
-      <c r="CR84" s="28"/>
-      <c r="CS84" s="28"/>
+      <c r="CM84" s="28"/>
+      <c r="CN84" s="28"/>
+      <c r="CO84" s="28"/>
+      <c r="CP84" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="CQ84" s="29"/>
+      <c r="CR84" s="29"/>
+      <c r="CS84" s="29"/>
+      <c r="CT84" s="29"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13621,17 +13714,20 @@
       <c r="CO85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="6"/>
-      <c r="CQ85" s="6"/>
-      <c r="CR85" s="6"/>
-      <c r="CS85" s="6"/>
+      <c r="CP85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ85" s="7"/>
+      <c r="CR85" s="7"/>
+      <c r="CS85" s="7"/>
+      <c r="CT85" s="7"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="CP86" s="8"/>
-      <c r="CQ86" s="8"/>
-      <c r="CR86" s="8"/>
-      <c r="CS86" s="8"/>
+      <c r="CQ86" s="32"/>
+      <c r="CR86" s="32"/>
+      <c r="CS86" s="32"/>
+      <c r="CT86" s="32"/>
     </row>
     <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -13890,34 +13986,36 @@
         <v>27.793341516710683</v>
       </c>
       <c r="CH87" s="20">
-        <v>35.059662466890046</v>
+        <v>35.286981242484103</v>
       </c>
       <c r="CI87" s="20">
-        <v>48.018068658768385</v>
+        <v>47.60547832783314</v>
       </c>
       <c r="CJ87" s="20">
-        <v>55.402130264529973</v>
+        <v>54.056860255471236</v>
       </c>
       <c r="CK87" s="20">
-        <v>36.947095115434507</v>
+        <v>37.383946637958729</v>
       </c>
       <c r="CL87" s="20">
-        <v>24.793568958170368</v>
+        <v>23.280412512801036</v>
       </c>
       <c r="CM87" s="20">
-        <v>22.910773316037591</v>
+        <v>22.943566053152438</v>
       </c>
       <c r="CN87" s="20">
-        <v>-8.9537744359476079</v>
+        <v>-10.867241990917648</v>
       </c>
       <c r="CO87" s="20">
-        <v>0.23055376807276673</v>
-      </c>
-      <c r="CP87" s="30"/>
-      <c r="CQ87" s="30"/>
-      <c r="CR87" s="30"/>
-      <c r="CS87" s="30"/>
-      <c r="CT87" s="11"/>
+        <v>-1.9967476527097006</v>
+      </c>
+      <c r="CP87" s="21">
+        <v>-4.1227367548362395</v>
+      </c>
+      <c r="CQ87" s="33"/>
+      <c r="CR87" s="33"/>
+      <c r="CS87" s="33"/>
+      <c r="CT87" s="33"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
@@ -14226,34 +14324,36 @@
         <v>39.426366239155072</v>
       </c>
       <c r="CH88" s="20">
-        <v>30.722112646060651</v>
+        <v>30.417477147655376</v>
       </c>
       <c r="CI88" s="20">
-        <v>21.079406460211672</v>
+        <v>21.201067306629781</v>
       </c>
       <c r="CJ88" s="20">
-        <v>27.999433537143986</v>
+        <v>28.099648365645578</v>
       </c>
       <c r="CK88" s="20">
-        <v>1.3193627192295025</v>
+        <v>1.0667866673947657</v>
       </c>
       <c r="CL88" s="20">
-        <v>-6.4550720761154707</v>
+        <v>-6.4530064631452149</v>
       </c>
       <c r="CM88" s="20">
-        <v>0.82956651998176767</v>
+        <v>0.82956651998178188</v>
       </c>
       <c r="CN88" s="20">
-        <v>-12.979746232430074</v>
+        <v>-12.930428810344623</v>
       </c>
       <c r="CO88" s="20">
-        <v>1.7804328829847123</v>
-      </c>
-      <c r="CP88" s="30"/>
-      <c r="CQ88" s="30"/>
-      <c r="CR88" s="30"/>
-      <c r="CS88" s="30"/>
-      <c r="CT88" s="11"/>
+        <v>1.8833395739342222</v>
+      </c>
+      <c r="CP88" s="21">
+        <v>-5.541171426052145</v>
+      </c>
+      <c r="CQ88" s="33"/>
+      <c r="CR88" s="33"/>
+      <c r="CS88" s="33"/>
+      <c r="CT88" s="33"/>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
@@ -14583,13 +14683,15 @@
         <v>103.02748834132549</v>
       </c>
       <c r="CO89" s="20">
-        <v>54.259630630613231</v>
-      </c>
-      <c r="CP89" s="30"/>
-      <c r="CQ89" s="30"/>
-      <c r="CR89" s="30"/>
-      <c r="CS89" s="30"/>
-      <c r="CT89" s="11"/>
+        <v>54.238429747329519</v>
+      </c>
+      <c r="CP89" s="21">
+        <v>45.44908314757086</v>
+      </c>
+      <c r="CQ89" s="33"/>
+      <c r="CR89" s="33"/>
+      <c r="CS89" s="33"/>
+      <c r="CT89" s="33"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
@@ -14921,11 +15023,13 @@
       <c r="CO90" s="20">
         <v>-2.5734045792699476</v>
       </c>
-      <c r="CP90" s="30"/>
-      <c r="CQ90" s="30"/>
-      <c r="CR90" s="30"/>
-      <c r="CS90" s="30"/>
-      <c r="CT90" s="11"/>
+      <c r="CP90" s="21">
+        <v>5.5748924028996782</v>
+      </c>
+      <c r="CQ90" s="33"/>
+      <c r="CR90" s="33"/>
+      <c r="CS90" s="33"/>
+      <c r="CT90" s="33"/>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
@@ -15255,13 +15359,15 @@
         <v>-9.2817928417188824</v>
       </c>
       <c r="CO91" s="20">
-        <v>-16.934955508580998</v>
-      </c>
-      <c r="CP91" s="30"/>
-      <c r="CQ91" s="30"/>
-      <c r="CR91" s="30"/>
-      <c r="CS91" s="30"/>
-      <c r="CT91" s="11"/>
+        <v>-19.966516321287429</v>
+      </c>
+      <c r="CP91" s="21">
+        <v>15.501121664448874</v>
+      </c>
+      <c r="CQ91" s="33"/>
+      <c r="CR91" s="33"/>
+      <c r="CS91" s="33"/>
+      <c r="CT91" s="33"/>
       <c r="CU91" s="11"/>
       <c r="CV91" s="11"/>
       <c r="CW91" s="11"/>
@@ -15588,16 +15694,18 @@
         <v>28.249706398073243</v>
       </c>
       <c r="CN92" s="20">
-        <v>5.5581344891907349</v>
+        <v>5.5731031168401444</v>
       </c>
       <c r="CO92" s="20">
-        <v>9.4632293859886545</v>
-      </c>
-      <c r="CP92" s="30"/>
-      <c r="CQ92" s="30"/>
-      <c r="CR92" s="30"/>
-      <c r="CS92" s="30"/>
-      <c r="CT92" s="11"/>
+        <v>13.308371266136959</v>
+      </c>
+      <c r="CP92" s="21">
+        <v>22.080351438210329</v>
+      </c>
+      <c r="CQ92" s="33"/>
+      <c r="CR92" s="33"/>
+      <c r="CS92" s="33"/>
+      <c r="CT92" s="33"/>
       <c r="CU92" s="11"/>
       <c r="CV92" s="11"/>
       <c r="CW92" s="11"/>
@@ -15924,16 +16032,18 @@
         <v>-5.3239165897087446</v>
       </c>
       <c r="CN93" s="20">
-        <v>-32.22517643466955</v>
+        <v>-39.312095632228719</v>
       </c>
       <c r="CO93" s="20">
-        <v>-14.08754825986118</v>
-      </c>
-      <c r="CP93" s="30"/>
-      <c r="CQ93" s="30"/>
-      <c r="CR93" s="30"/>
-      <c r="CS93" s="30"/>
-      <c r="CT93" s="11"/>
+        <v>-33.88018019725844</v>
+      </c>
+      <c r="CP93" s="21">
+        <v>5.9695880992444188</v>
+      </c>
+      <c r="CQ93" s="33"/>
+      <c r="CR93" s="33"/>
+      <c r="CS93" s="33"/>
+      <c r="CT93" s="33"/>
       <c r="CU93" s="11"/>
       <c r="CV93" s="11"/>
       <c r="CW93" s="11"/>
@@ -16242,34 +16352,36 @@
         <v>3.4074021857140764</v>
       </c>
       <c r="CH94" s="20">
-        <v>60.613469548853374</v>
+        <v>53.549221719961196</v>
       </c>
       <c r="CI94" s="20">
-        <v>116.66568992892215</v>
+        <v>111.61093382433825</v>
       </c>
       <c r="CJ94" s="20">
-        <v>143.29762386075862</v>
+        <v>131.84879034841859</v>
       </c>
       <c r="CK94" s="20">
-        <v>177.48199293306754</v>
+        <v>175.2670464919791</v>
       </c>
       <c r="CL94" s="20">
-        <v>30.505539235382429</v>
+        <v>22.434419796265743</v>
       </c>
       <c r="CM94" s="20">
-        <v>36.495818926697126</v>
+        <v>21.557779464745082</v>
       </c>
       <c r="CN94" s="20">
-        <v>17.289690971881356</v>
+        <v>14.061965891825508</v>
       </c>
       <c r="CO94" s="20">
-        <v>-11.634997841199961</v>
-      </c>
-      <c r="CP94" s="30"/>
-      <c r="CQ94" s="30"/>
-      <c r="CR94" s="30"/>
-      <c r="CS94" s="30"/>
-      <c r="CT94" s="11"/>
+        <v>-7.8583015358436512</v>
+      </c>
+      <c r="CP94" s="21">
+        <v>98.181066492311516</v>
+      </c>
+      <c r="CQ94" s="33"/>
+      <c r="CR94" s="33"/>
+      <c r="CS94" s="33"/>
+      <c r="CT94" s="33"/>
       <c r="CU94" s="11"/>
       <c r="CV94" s="11"/>
       <c r="CW94" s="11"/>
@@ -16414,11 +16526,11 @@
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
-      <c r="CP95" s="31"/>
-      <c r="CQ95" s="31"/>
-      <c r="CR95" s="31"/>
-      <c r="CS95" s="31"/>
-      <c r="CT95" s="11"/>
+      <c r="CP95" s="12"/>
+      <c r="CQ95" s="34"/>
+      <c r="CR95" s="34"/>
+      <c r="CS95" s="34"/>
+      <c r="CT95" s="34"/>
       <c r="CU95" s="11"/>
       <c r="CV95" s="11"/>
       <c r="CW95" s="11"/>
@@ -16727,34 +16839,36 @@
         <v>13.23198980862756</v>
       </c>
       <c r="CH96" s="20">
-        <v>36.113079792333167</v>
+        <v>35.843139175512192</v>
       </c>
       <c r="CI96" s="20">
-        <v>33.821536303786417</v>
+        <v>33.5957708924484</v>
       </c>
       <c r="CJ96" s="20">
-        <v>57.646325807563699</v>
+        <v>56.986349248020815</v>
       </c>
       <c r="CK96" s="20">
-        <v>49.788192054729905</v>
+        <v>49.777519589366705</v>
       </c>
       <c r="CL96" s="20">
-        <v>23.612195682014956</v>
+        <v>22.943893838623296</v>
       </c>
       <c r="CM96" s="20">
-        <v>31.349258747491774</v>
+        <v>30.675030905739334</v>
       </c>
       <c r="CN96" s="20">
-        <v>28.574958404647134</v>
+        <v>27.900041247174599</v>
       </c>
       <c r="CO96" s="20">
-        <v>21.01900874380884</v>
-      </c>
-      <c r="CP96" s="30"/>
-      <c r="CQ96" s="30"/>
-      <c r="CR96" s="30"/>
-      <c r="CS96" s="30"/>
-      <c r="CT96" s="11"/>
+        <v>21.10112304938086</v>
+      </c>
+      <c r="CP96" s="21">
+        <v>24.399022987988246</v>
+      </c>
+      <c r="CQ96" s="33"/>
+      <c r="CR96" s="33"/>
+      <c r="CS96" s="33"/>
+      <c r="CT96" s="33"/>
       <c r="CU96" s="11"/>
       <c r="CV96" s="11"/>
       <c r="CW96" s="11"/>
@@ -16900,19 +17014,20 @@
       <c r="CM97" s="16"/>
       <c r="CN97" s="16"/>
       <c r="CO97" s="16"/>
-      <c r="CP97" s="6"/>
-      <c r="CQ97" s="6"/>
-      <c r="CR97" s="6"/>
-      <c r="CS97" s="6"/>
+      <c r="CP97" s="17"/>
+      <c r="CQ97" s="7"/>
+      <c r="CR97" s="7"/>
+      <c r="CS97" s="7"/>
+      <c r="CT97" s="7"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CP98" s="8"/>
-      <c r="CQ98" s="8"/>
-      <c r="CR98" s="8"/>
-      <c r="CS98" s="8"/>
+      <c r="CQ98" s="32"/>
+      <c r="CR98" s="32"/>
+      <c r="CS98" s="32"/>
+      <c r="CT98" s="32"/>
     </row>
     <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
@@ -17007,11 +17122,11 @@
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
-      <c r="CP99" s="31"/>
-      <c r="CQ99" s="31"/>
-      <c r="CR99" s="31"/>
-      <c r="CS99" s="31"/>
-      <c r="CT99" s="11"/>
+      <c r="CP99" s="12"/>
+      <c r="CQ99" s="34"/>
+      <c r="CR99" s="34"/>
+      <c r="CS99" s="34"/>
+      <c r="CT99" s="34"/>
       <c r="CU99" s="11"/>
       <c r="CV99" s="11"/>
       <c r="CW99" s="11"/>
@@ -17156,11 +17271,11 @@
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
-      <c r="CP100" s="11"/>
-      <c r="CQ100" s="11"/>
-      <c r="CR100" s="11"/>
-      <c r="CS100" s="11"/>
-      <c r="CT100" s="11"/>
+      <c r="CP100" s="12"/>
+      <c r="CQ100" s="12"/>
+      <c r="CR100" s="12"/>
+      <c r="CS100" s="12"/>
+      <c r="CT100" s="12"/>
       <c r="CU100" s="11"/>
       <c r="CV100" s="11"/>
       <c r="CW100" s="11"/>
@@ -17219,7 +17334,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -17229,7 +17344,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -17239,150 +17354,153 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="32">
+      <c r="B108" s="36">
         <v>2000</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32">
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36">
         <v>2001</v>
       </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32">
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36">
         <v>2002</v>
       </c>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32">
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36">
         <v>2003</v>
       </c>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32">
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36">
         <v>2004</v>
       </c>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32">
+      <c r="S108" s="36"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36">
         <v>2005</v>
       </c>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32">
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36">
         <v>2006</v>
       </c>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32">
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36">
         <v>2007</v>
       </c>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32">
+      <c r="AE108" s="36"/>
+      <c r="AF108" s="36"/>
+      <c r="AG108" s="36"/>
+      <c r="AH108" s="36">
         <v>2008</v>
       </c>
-      <c r="AI108" s="32"/>
-      <c r="AJ108" s="32"/>
-      <c r="AK108" s="32"/>
-      <c r="AL108" s="32">
+      <c r="AI108" s="36"/>
+      <c r="AJ108" s="36"/>
+      <c r="AK108" s="36"/>
+      <c r="AL108" s="36">
         <v>2009</v>
       </c>
-      <c r="AM108" s="32"/>
-      <c r="AN108" s="32"/>
-      <c r="AO108" s="32"/>
-      <c r="AP108" s="32">
+      <c r="AM108" s="36"/>
+      <c r="AN108" s="36"/>
+      <c r="AO108" s="36"/>
+      <c r="AP108" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="32"/>
-      <c r="AR108" s="32"/>
-      <c r="AS108" s="32"/>
-      <c r="AT108" s="32">
+      <c r="AQ108" s="36"/>
+      <c r="AR108" s="36"/>
+      <c r="AS108" s="36"/>
+      <c r="AT108" s="36">
         <v>2011</v>
       </c>
-      <c r="AU108" s="32"/>
-      <c r="AV108" s="32"/>
-      <c r="AW108" s="32"/>
-      <c r="AX108" s="32">
+      <c r="AU108" s="36"/>
+      <c r="AV108" s="36"/>
+      <c r="AW108" s="36"/>
+      <c r="AX108" s="36">
         <v>2012</v>
       </c>
-      <c r="AY108" s="32"/>
-      <c r="AZ108" s="32"/>
-      <c r="BA108" s="32"/>
-      <c r="BB108" s="32">
+      <c r="AY108" s="36"/>
+      <c r="AZ108" s="36"/>
+      <c r="BA108" s="36"/>
+      <c r="BB108" s="36">
         <v>2013</v>
       </c>
-      <c r="BC108" s="32"/>
-      <c r="BD108" s="32"/>
-      <c r="BE108" s="32"/>
-      <c r="BF108" s="32">
+      <c r="BC108" s="36"/>
+      <c r="BD108" s="36"/>
+      <c r="BE108" s="36"/>
+      <c r="BF108" s="36">
         <v>2014</v>
       </c>
-      <c r="BG108" s="32"/>
-      <c r="BH108" s="32"/>
-      <c r="BI108" s="32"/>
-      <c r="BJ108" s="32">
+      <c r="BG108" s="36"/>
+      <c r="BH108" s="36"/>
+      <c r="BI108" s="36"/>
+      <c r="BJ108" s="36">
         <v>2015</v>
       </c>
-      <c r="BK108" s="32"/>
-      <c r="BL108" s="32"/>
-      <c r="BM108" s="32"/>
-      <c r="BN108" s="32">
+      <c r="BK108" s="36"/>
+      <c r="BL108" s="36"/>
+      <c r="BM108" s="36"/>
+      <c r="BN108" s="36">
         <v>2016</v>
       </c>
-      <c r="BO108" s="32"/>
-      <c r="BP108" s="32"/>
-      <c r="BQ108" s="32"/>
-      <c r="BR108" s="32">
+      <c r="BO108" s="36"/>
+      <c r="BP108" s="36"/>
+      <c r="BQ108" s="36"/>
+      <c r="BR108" s="36">
         <v>2017</v>
       </c>
-      <c r="BS108" s="32"/>
-      <c r="BT108" s="32"/>
-      <c r="BU108" s="32"/>
-      <c r="BV108" s="34">
+      <c r="BS108" s="36"/>
+      <c r="BT108" s="36"/>
+      <c r="BU108" s="36"/>
+      <c r="BV108" s="38">
         <v>2018</v>
       </c>
-      <c r="BW108" s="34"/>
-      <c r="BX108" s="34"/>
-      <c r="BY108" s="34"/>
-      <c r="BZ108" s="34">
+      <c r="BW108" s="38"/>
+      <c r="BX108" s="38"/>
+      <c r="BY108" s="38"/>
+      <c r="BZ108" s="38">
         <v>2019</v>
       </c>
-      <c r="CA108" s="34"/>
-      <c r="CB108" s="34"/>
-      <c r="CC108" s="34"/>
-      <c r="CD108" s="33">
+      <c r="CA108" s="38"/>
+      <c r="CB108" s="38"/>
+      <c r="CC108" s="38"/>
+      <c r="CD108" s="37">
         <v>2020</v>
       </c>
-      <c r="CE108" s="33"/>
-      <c r="CF108" s="33"/>
-      <c r="CG108" s="33"/>
-      <c r="CH108" s="33">
+      <c r="CE108" s="37"/>
+      <c r="CF108" s="37"/>
+      <c r="CG108" s="37"/>
+      <c r="CH108" s="28">
         <v>2021</v>
       </c>
-      <c r="CI108" s="33"/>
-      <c r="CJ108" s="33"/>
-      <c r="CK108" s="33"/>
-      <c r="CL108" s="29">
+      <c r="CI108" s="28"/>
+      <c r="CJ108" s="28"/>
+      <c r="CK108" s="28"/>
+      <c r="CL108" s="28">
         <v>2022</v>
       </c>
-      <c r="CM108" s="29"/>
-      <c r="CN108" s="29"/>
-      <c r="CO108" s="29"/>
-      <c r="CP108" s="29">
+      <c r="CM108" s="28"/>
+      <c r="CN108" s="28"/>
+      <c r="CO108" s="28"/>
+      <c r="CP108" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="29"/>
-      <c r="CR108" s="29"/>
-      <c r="CS108" s="29"/>
+      <c r="CQ108" s="30"/>
+      <c r="CR108" s="30"/>
+      <c r="CS108" s="30"/>
+      <c r="CT108" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17662,17 +17780,20 @@
       <c r="CO109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="7" t="s">
+      <c r="CR109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="7" t="s">
+      <c r="CS109" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CT109" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17953,24 +18074,26 @@
         <v>106.184238788065</v>
       </c>
       <c r="CN111" s="20">
-        <v>104.0191102124076</v>
+        <v>104.01911021240761</v>
       </c>
       <c r="CO111" s="20">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="20">
-        <v>103.69643191424717</v>
-      </c>
-      <c r="CQ111" s="20">
+      <c r="CP111" s="21">
+        <v>105.00592454586315</v>
+      </c>
+      <c r="CQ111" s="21">
         <v>112.09721661517887</v>
       </c>
-      <c r="CR111" s="20">
-        <v>108.32548244544415</v>
-      </c>
-      <c r="CS111" s="20">
-        <v>105.81841198428701</v>
-      </c>
-      <c r="CT111" s="11"/>
+      <c r="CR111" s="21">
+        <v>109.82047220297268</v>
+      </c>
+      <c r="CS111" s="21">
+        <v>106.53793807725495</v>
+      </c>
+      <c r="CT111" s="21">
+        <v>106.66868298830528</v>
+      </c>
       <c r="CU111" s="11"/>
       <c r="CV111" s="11"/>
       <c r="CW111" s="11"/>
@@ -18306,19 +18429,21 @@
       <c r="CO112" s="20">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="20">
+      <c r="CP112" s="21">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="20">
+      <c r="CQ112" s="21">
         <v>125.93799676137598</v>
       </c>
-      <c r="CR112" s="20">
+      <c r="CR112" s="21">
         <v>112.99732051942262</v>
       </c>
-      <c r="CS112" s="20">
+      <c r="CS112" s="21">
         <v>111.68230091047096</v>
       </c>
-      <c r="CT112" s="11"/>
+      <c r="CT112" s="21">
+        <v>87.814523873041693</v>
+      </c>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
@@ -18654,19 +18779,21 @@
       <c r="CO113" s="20">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="20">
+      <c r="CP113" s="21">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="20">
+      <c r="CQ113" s="21">
         <v>125.11983909328738</v>
       </c>
-      <c r="CR113" s="20">
+      <c r="CR113" s="21">
         <v>96.751039160575758</v>
       </c>
-      <c r="CS113" s="20">
-        <v>101.22242125208525</v>
-      </c>
-      <c r="CT113" s="11"/>
+      <c r="CS113" s="21">
+        <v>101.85994964807638</v>
+      </c>
+      <c r="CT113" s="21">
+        <v>125.5383098464645</v>
+      </c>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
@@ -19002,19 +19129,21 @@
       <c r="CO114" s="20">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="20">
+      <c r="CP114" s="21">
         <v>96.19434195318</v>
       </c>
-      <c r="CQ114" s="20">
+      <c r="CQ114" s="21">
         <v>117.32074155562185</v>
       </c>
-      <c r="CR114" s="20">
+      <c r="CR114" s="21">
         <v>110.66494626495727</v>
       </c>
-      <c r="CS114" s="20">
+      <c r="CS114" s="21">
         <v>109.50826821272443</v>
       </c>
-      <c r="CT114" s="11"/>
+      <c r="CT114" s="21">
+        <v>98.722792840130452</v>
+      </c>
       <c r="CU114" s="11"/>
       <c r="CV114" s="11"/>
       <c r="CW114" s="11"/>
@@ -19350,19 +19479,21 @@
       <c r="CO115" s="20">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="20">
+      <c r="CP115" s="21">
         <v>92.341616543746824</v>
       </c>
-      <c r="CQ115" s="20">
+      <c r="CQ115" s="21">
         <v>121.54253528128771</v>
       </c>
-      <c r="CR115" s="20">
+      <c r="CR115" s="21">
         <v>113.68159820942256</v>
       </c>
-      <c r="CS115" s="20">
-        <v>112.54271990132119</v>
-      </c>
-      <c r="CT115" s="11"/>
+      <c r="CS115" s="21">
+        <v>113.57737138602629</v>
+      </c>
+      <c r="CT115" s="21">
+        <v>94.768799239857117</v>
+      </c>
       <c r="CU115" s="11"/>
       <c r="CV115" s="11"/>
       <c r="CW115" s="11"/>
@@ -19698,19 +19829,21 @@
       <c r="CO116" s="20">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="20">
+      <c r="CP116" s="21">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="20">
+      <c r="CQ116" s="21">
         <v>119.69199275927636</v>
       </c>
-      <c r="CR116" s="20">
-        <v>112.12973458509256</v>
-      </c>
-      <c r="CS116" s="20">
-        <v>111.11750374213656</v>
-      </c>
-      <c r="CT116" s="11"/>
+      <c r="CR116" s="21">
+        <v>112.12973458509255</v>
+      </c>
+      <c r="CS116" s="21">
+        <v>112.13905262885559</v>
+      </c>
+      <c r="CT116" s="21">
+        <v>92.948005525000838</v>
+      </c>
       <c r="CU116" s="11"/>
       <c r="CV116" s="11"/>
       <c r="CW116" s="11"/>
@@ -20046,19 +20179,21 @@
       <c r="CO117" s="20">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="20">
+      <c r="CP117" s="21">
         <v>91.807772308412552</v>
       </c>
-      <c r="CQ117" s="20">
+      <c r="CQ117" s="21">
         <v>121.86167250137024</v>
       </c>
-      <c r="CR117" s="20">
-        <v>114.42386656464396</v>
-      </c>
-      <c r="CS117" s="20">
+      <c r="CR117" s="21">
+        <v>117.41526270079726</v>
+      </c>
+      <c r="CS117" s="21">
         <v>113.49432079943584</v>
       </c>
-      <c r="CT117" s="11"/>
+      <c r="CT117" s="21">
+        <v>94.220923005312557</v>
+      </c>
       <c r="CU117" s="11"/>
       <c r="CV117" s="11"/>
       <c r="CW117" s="11"/>
@@ -20386,7 +20521,7 @@
         <v>84.83307119223295</v>
       </c>
       <c r="CM118" s="20">
-        <v>115.76909432267084</v>
+        <v>115.76909432267082</v>
       </c>
       <c r="CN118" s="20">
         <v>109.11877545890869</v>
@@ -20394,19 +20529,21 @@
       <c r="CO118" s="20">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="20">
-        <v>91.162541987447611</v>
-      </c>
-      <c r="CQ118" s="20">
-        <v>121.1307046634756</v>
-      </c>
-      <c r="CR118" s="20">
-        <v>113.69792345630086</v>
-      </c>
-      <c r="CS118" s="20">
-        <v>112.72268969376978</v>
-      </c>
-      <c r="CT118" s="11"/>
+      <c r="CP118" s="21">
+        <v>92.134773070434534</v>
+      </c>
+      <c r="CQ118" s="21">
+        <v>123.34604086817154</v>
+      </c>
+      <c r="CR118" s="21">
+        <v>116.67034117934367</v>
+      </c>
+      <c r="CS118" s="21">
+        <v>115.40005821126383</v>
+      </c>
+      <c r="CT118" s="21">
+        <v>94.556518923244752</v>
+      </c>
       <c r="CU118" s="11"/>
       <c r="CV118" s="11"/>
       <c r="CW118" s="11"/>
@@ -20555,11 +20692,11 @@
       <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
-      <c r="CP119" s="11"/>
-      <c r="CQ119" s="11"/>
-      <c r="CR119" s="11"/>
-      <c r="CS119" s="11"/>
-      <c r="CT119" s="11"/>
+      <c r="CP119" s="12"/>
+      <c r="CQ119" s="12"/>
+      <c r="CR119" s="12"/>
+      <c r="CS119" s="12"/>
+      <c r="CT119" s="12"/>
       <c r="CU119" s="11"/>
       <c r="CV119" s="11"/>
       <c r="CW119" s="11"/>
@@ -20884,30 +21021,32 @@
         <v>101.73844645169308</v>
       </c>
       <c r="CL120" s="20">
-        <v>93.191097171230965</v>
+        <v>93.213133434123634</v>
       </c>
       <c r="CM120" s="20">
-        <v>112.31110088630707</v>
+        <v>112.31249689040392</v>
       </c>
       <c r="CN120" s="20">
-        <v>102.38584009601688</v>
+        <v>102.36906136217803</v>
       </c>
       <c r="CO120" s="20">
-        <v>102.9096151716991</v>
-      </c>
-      <c r="CP120" s="20">
-        <v>102.35743135189826</v>
-      </c>
-      <c r="CQ120" s="20">
-        <v>120.17336950415667</v>
-      </c>
-      <c r="CR120" s="20">
-        <v>104.25703658328813</v>
-      </c>
-      <c r="CS120" s="20">
-        <v>105.39854367382591</v>
-      </c>
-      <c r="CT120" s="11"/>
+        <v>102.90429385394361</v>
+      </c>
+      <c r="CP120" s="21">
+        <v>102.71357328199467</v>
+      </c>
+      <c r="CQ120" s="21">
+        <v>120.26638365122176</v>
+      </c>
+      <c r="CR120" s="21">
+        <v>104.60506119207318</v>
+      </c>
+      <c r="CS120" s="21">
+        <v>106.25974710880199</v>
+      </c>
+      <c r="CT120" s="21">
+        <v>106.32654436124689</v>
+      </c>
       <c r="CU120" s="11"/>
       <c r="CV120" s="11"/>
       <c r="CW120" s="11"/>
@@ -21057,10 +21196,11 @@
       <c r="CM121" s="16"/>
       <c r="CN121" s="16"/>
       <c r="CO121" s="16"/>
-      <c r="CP121" s="16"/>
-      <c r="CQ121" s="16"/>
-      <c r="CR121" s="16"/>
-      <c r="CS121" s="16"/>
+      <c r="CP121" s="17"/>
+      <c r="CQ121" s="17"/>
+      <c r="CR121" s="17"/>
+      <c r="CS121" s="17"/>
+      <c r="CT121" s="17"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -21079,7 +21219,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -21089,7 +21229,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -21099,150 +21239,153 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="32">
+      <c r="B133" s="36">
         <v>2000</v>
       </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32">
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36">
         <v>2001</v>
       </c>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32">
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36">
         <v>2002</v>
       </c>
-      <c r="K133" s="32"/>
-      <c r="L133" s="32"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="32">
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36">
         <v>2003</v>
       </c>
-      <c r="O133" s="32"/>
-      <c r="P133" s="32"/>
-      <c r="Q133" s="32"/>
-      <c r="R133" s="32">
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+      <c r="R133" s="36">
         <v>2004</v>
       </c>
-      <c r="S133" s="32"/>
-      <c r="T133" s="32"/>
-      <c r="U133" s="32"/>
-      <c r="V133" s="32">
+      <c r="S133" s="36"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="36">
         <v>2005</v>
       </c>
-      <c r="W133" s="32"/>
-      <c r="X133" s="32"/>
-      <c r="Y133" s="32"/>
-      <c r="Z133" s="32">
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36">
         <v>2006</v>
       </c>
-      <c r="AA133" s="32"/>
-      <c r="AB133" s="32"/>
-      <c r="AC133" s="32"/>
-      <c r="AD133" s="32">
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36">
         <v>2007</v>
       </c>
-      <c r="AE133" s="32"/>
-      <c r="AF133" s="32"/>
-      <c r="AG133" s="32"/>
-      <c r="AH133" s="32">
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36">
         <v>2008</v>
       </c>
-      <c r="AI133" s="32"/>
-      <c r="AJ133" s="32"/>
-      <c r="AK133" s="32"/>
-      <c r="AL133" s="32">
+      <c r="AI133" s="36"/>
+      <c r="AJ133" s="36"/>
+      <c r="AK133" s="36"/>
+      <c r="AL133" s="36">
         <v>2009</v>
       </c>
-      <c r="AM133" s="32"/>
-      <c r="AN133" s="32"/>
-      <c r="AO133" s="32"/>
-      <c r="AP133" s="32">
+      <c r="AM133" s="36"/>
+      <c r="AN133" s="36"/>
+      <c r="AO133" s="36"/>
+      <c r="AP133" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="32"/>
-      <c r="AR133" s="32"/>
-      <c r="AS133" s="32"/>
-      <c r="AT133" s="32">
+      <c r="AQ133" s="36"/>
+      <c r="AR133" s="36"/>
+      <c r="AS133" s="36"/>
+      <c r="AT133" s="36">
         <v>2011</v>
       </c>
-      <c r="AU133" s="32"/>
-      <c r="AV133" s="32"/>
-      <c r="AW133" s="32"/>
-      <c r="AX133" s="32">
+      <c r="AU133" s="36"/>
+      <c r="AV133" s="36"/>
+      <c r="AW133" s="36"/>
+      <c r="AX133" s="36">
         <v>2012</v>
       </c>
-      <c r="AY133" s="32"/>
-      <c r="AZ133" s="32"/>
-      <c r="BA133" s="32"/>
-      <c r="BB133" s="32">
+      <c r="AY133" s="36"/>
+      <c r="AZ133" s="36"/>
+      <c r="BA133" s="36"/>
+      <c r="BB133" s="36">
         <v>2013</v>
       </c>
-      <c r="BC133" s="32"/>
-      <c r="BD133" s="32"/>
-      <c r="BE133" s="32"/>
-      <c r="BF133" s="32">
+      <c r="BC133" s="36"/>
+      <c r="BD133" s="36"/>
+      <c r="BE133" s="36"/>
+      <c r="BF133" s="36">
         <v>2014</v>
       </c>
-      <c r="BG133" s="32"/>
-      <c r="BH133" s="32"/>
-      <c r="BI133" s="32"/>
-      <c r="BJ133" s="32">
+      <c r="BG133" s="36"/>
+      <c r="BH133" s="36"/>
+      <c r="BI133" s="36"/>
+      <c r="BJ133" s="36">
         <v>2015</v>
       </c>
-      <c r="BK133" s="32"/>
-      <c r="BL133" s="32"/>
-      <c r="BM133" s="32"/>
-      <c r="BN133" s="32">
+      <c r="BK133" s="36"/>
+      <c r="BL133" s="36"/>
+      <c r="BM133" s="36"/>
+      <c r="BN133" s="36">
         <v>2016</v>
       </c>
-      <c r="BO133" s="32"/>
-      <c r="BP133" s="32"/>
-      <c r="BQ133" s="32"/>
-      <c r="BR133" s="32">
+      <c r="BO133" s="36"/>
+      <c r="BP133" s="36"/>
+      <c r="BQ133" s="36"/>
+      <c r="BR133" s="36">
         <v>2017</v>
       </c>
-      <c r="BS133" s="32"/>
-      <c r="BT133" s="32"/>
-      <c r="BU133" s="32"/>
-      <c r="BV133" s="34">
+      <c r="BS133" s="36"/>
+      <c r="BT133" s="36"/>
+      <c r="BU133" s="36"/>
+      <c r="BV133" s="38">
         <v>2018</v>
       </c>
-      <c r="BW133" s="34"/>
-      <c r="BX133" s="34"/>
-      <c r="BY133" s="34"/>
-      <c r="BZ133" s="34">
+      <c r="BW133" s="38"/>
+      <c r="BX133" s="38"/>
+      <c r="BY133" s="38"/>
+      <c r="BZ133" s="38">
         <v>2019</v>
       </c>
-      <c r="CA133" s="34"/>
-      <c r="CB133" s="34"/>
-      <c r="CC133" s="34"/>
-      <c r="CD133" s="33">
+      <c r="CA133" s="38"/>
+      <c r="CB133" s="38"/>
+      <c r="CC133" s="38"/>
+      <c r="CD133" s="37">
         <v>2020</v>
       </c>
-      <c r="CE133" s="33"/>
-      <c r="CF133" s="33"/>
-      <c r="CG133" s="33"/>
-      <c r="CH133" s="33">
+      <c r="CE133" s="37"/>
+      <c r="CF133" s="37"/>
+      <c r="CG133" s="37"/>
+      <c r="CH133" s="28">
         <v>2021</v>
       </c>
-      <c r="CI133" s="33"/>
-      <c r="CJ133" s="33"/>
-      <c r="CK133" s="33"/>
-      <c r="CL133" s="29">
+      <c r="CI133" s="28"/>
+      <c r="CJ133" s="28"/>
+      <c r="CK133" s="28"/>
+      <c r="CL133" s="28">
         <v>2022</v>
       </c>
-      <c r="CM133" s="29"/>
-      <c r="CN133" s="29"/>
-      <c r="CO133" s="29"/>
-      <c r="CP133" s="29">
+      <c r="CM133" s="28"/>
+      <c r="CN133" s="28"/>
+      <c r="CO133" s="28"/>
+      <c r="CP133" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="29"/>
-      <c r="CR133" s="29"/>
-      <c r="CS133" s="29"/>
+      <c r="CQ133" s="30"/>
+      <c r="CR133" s="30"/>
+      <c r="CS133" s="30"/>
+      <c r="CT133" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21522,17 +21665,20 @@
       <c r="CO134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="7" t="s">
+      <c r="CP134" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="7" t="s">
+      <c r="CQ134" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="7" t="s">
+      <c r="CR134" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS134" s="7" t="s">
+      <c r="CS134" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CT134" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21807,30 +21953,32 @@
         <v>23.954326102635136</v>
       </c>
       <c r="CL136" s="27">
-        <v>20.264228281682247</v>
+        <v>20.333862598031143</v>
       </c>
       <c r="CM136" s="27">
-        <v>23.904583016957481</v>
+        <v>23.87793790959249</v>
       </c>
       <c r="CN136" s="27">
-        <v>26.491760473924415</v>
+        <v>26.377160054727877</v>
       </c>
       <c r="CO136" s="27">
-        <v>21.696784243385409</v>
-      </c>
-      <c r="CP136" s="27">
-        <v>19.670386210973195</v>
-      </c>
-      <c r="CQ136" s="27">
-        <v>22.069511193660716</v>
-      </c>
-      <c r="CR136" s="27">
-        <v>19.185291080538271</v>
-      </c>
-      <c r="CS136" s="27">
-        <v>17.908282978913238</v>
-      </c>
-      <c r="CT136" s="11"/>
+        <v>21.76867202126861</v>
+      </c>
+      <c r="CP136" s="35">
+        <v>19.788056704961168</v>
+      </c>
+      <c r="CQ136" s="35">
+        <v>22.147699094180815</v>
+      </c>
+      <c r="CR136" s="35">
+        <v>18.992445579677049</v>
+      </c>
+      <c r="CS136" s="35">
+        <v>17.531646924380066</v>
+      </c>
+      <c r="CT136" s="35">
+        <v>14.966183787364159</v>
+      </c>
       <c r="CU136" s="11"/>
       <c r="CV136" s="11"/>
       <c r="CW136" s="11"/>
@@ -22155,30 +22303,32 @@
         <v>4.1519894108535498</v>
       </c>
       <c r="CL137" s="27">
-        <v>7.6953330349672511</v>
+        <v>7.6908373312175593</v>
       </c>
       <c r="CM137" s="27">
-        <v>10.965754006947648</v>
+        <v>10.995185557409304</v>
       </c>
       <c r="CN137" s="27">
-        <v>6.6336448603455374</v>
+        <v>6.667841189754947</v>
       </c>
       <c r="CO137" s="27">
-        <v>2.842011669161169</v>
-      </c>
-      <c r="CP137" s="27">
-        <v>5.6976087917808034</v>
-      </c>
-      <c r="CQ137" s="27">
-        <v>8.2314212350269269</v>
-      </c>
-      <c r="CR137" s="27">
-        <v>4.5941348781281119</v>
-      </c>
-      <c r="CS137" s="27">
-        <v>2.3762136629985648</v>
-      </c>
-      <c r="CT137" s="11"/>
+        <v>2.835275514360152</v>
+      </c>
+      <c r="CP137" s="35">
+        <v>5.7068571573413873</v>
+      </c>
+      <c r="CQ137" s="35">
+        <v>8.2897854351990716</v>
+      </c>
+      <c r="CR137" s="35">
+        <v>4.6286041587659943</v>
+      </c>
+      <c r="CS137" s="35">
+        <v>2.3520284630950168</v>
+      </c>
+      <c r="CT137" s="35">
+        <v>4.2961222560346926</v>
+      </c>
       <c r="CU137" s="11"/>
       <c r="CV137" s="11"/>
       <c r="CW137" s="11"/>
@@ -22503,30 +22653,32 @@
         <v>30.852095452708056</v>
       </c>
       <c r="CL138" s="27">
-        <v>26.55110603732372</v>
+        <v>26.597577704877335</v>
       </c>
       <c r="CM138" s="27">
-        <v>21.371454233621463</v>
+        <v>21.407304072545241</v>
       </c>
       <c r="CN138" s="27">
-        <v>27.405280935121606</v>
+        <v>27.525004502876406</v>
       </c>
       <c r="CO138" s="27">
-        <v>36.539825016102185</v>
-      </c>
-      <c r="CP138" s="27">
-        <v>35.059676281276609</v>
-      </c>
-      <c r="CQ138" s="27">
-        <v>30.638881655157924</v>
-      </c>
-      <c r="CR138" s="27">
-        <v>44.389354930642931</v>
-      </c>
-      <c r="CS138" s="27">
-        <v>48.127123847949996</v>
-      </c>
-      <c r="CT138" s="11"/>
+        <v>36.544318335510802</v>
+      </c>
+      <c r="CP138" s="35">
+        <v>35.197835000398598</v>
+      </c>
+      <c r="CQ138" s="35">
+        <v>30.825150891923254</v>
+      </c>
+      <c r="CR138" s="35">
+        <v>44.662104523825022</v>
+      </c>
+      <c r="CS138" s="35">
+        <v>48.001979778071124</v>
+      </c>
+      <c r="CT138" s="35">
+        <v>40.80244074714799</v>
+      </c>
       <c r="CU138" s="11"/>
       <c r="CV138" s="11"/>
       <c r="CW138" s="11"/>
@@ -22851,30 +23003,32 @@
         <v>1.6640439608727877</v>
       </c>
       <c r="CL139" s="27">
-        <v>1.596458742622654</v>
+        <v>1.5992529802655582</v>
       </c>
       <c r="CM139" s="27">
-        <v>1.5140622577948184</v>
+        <v>1.5166020422881505</v>
       </c>
       <c r="CN139" s="27">
-        <v>1.3033363816182217</v>
+        <v>1.3090301777139945</v>
       </c>
       <c r="CO139" s="27">
-        <v>1.1111151162488593</v>
-      </c>
-      <c r="CP139" s="27">
-        <v>1.1651820067813463</v>
-      </c>
-      <c r="CQ139" s="27">
-        <v>1.0695843324335859</v>
-      </c>
-      <c r="CR139" s="27">
-        <v>0.93424392372790033</v>
-      </c>
-      <c r="CS139" s="27">
-        <v>0.88926647658332458</v>
-      </c>
-      <c r="CT139" s="11"/>
+        <v>1.1112517505954891</v>
+      </c>
+      <c r="CP139" s="35">
+        <v>1.1697736080360013</v>
+      </c>
+      <c r="CQ139" s="35">
+        <v>1.0760868758195006</v>
+      </c>
+      <c r="CR139" s="35">
+        <v>0.93998436871809576</v>
+      </c>
+      <c r="CS139" s="35">
+        <v>0.881523954393027</v>
+      </c>
+      <c r="CT139" s="35">
+        <v>0.98423666690216405</v>
+      </c>
       <c r="CU139" s="11"/>
       <c r="CV139" s="11"/>
       <c r="CW139" s="11"/>
@@ -23199,30 +23353,32 @@
         <v>7.5462816560554282</v>
       </c>
       <c r="CL140" s="27">
-        <v>8.583913171406051</v>
+        <v>8.598937357541649</v>
       </c>
       <c r="CM140" s="27">
-        <v>8.6963133579391201</v>
+        <v>8.7109011080147489</v>
       </c>
       <c r="CN140" s="27">
-        <v>7.2591183888188846</v>
+        <v>7.2908308005369502</v>
       </c>
       <c r="CO140" s="27">
-        <v>6.1251653881697887</v>
-      </c>
-      <c r="CP140" s="27">
-        <v>7.1131236205448545</v>
-      </c>
-      <c r="CQ140" s="27">
-        <v>6.214242708579846</v>
-      </c>
-      <c r="CR140" s="27">
-        <v>5.2409439696151114</v>
-      </c>
-      <c r="CS140" s="27">
-        <v>4.1795686219798105</v>
-      </c>
-      <c r="CT140" s="11"/>
+        <v>6.1259186026284667</v>
+      </c>
+      <c r="CP140" s="35">
+        <v>7.1411541146226236</v>
+      </c>
+      <c r="CQ140" s="35">
+        <v>6.2520222287147416</v>
+      </c>
+      <c r="CR140" s="35">
+        <v>5.2731468555961332</v>
+      </c>
+      <c r="CS140" s="35">
+        <v>4.028668039358358</v>
+      </c>
+      <c r="CT140" s="35">
+        <v>6.5734245371846702</v>
+      </c>
       <c r="CU140" s="11"/>
       <c r="CV140" s="11"/>
       <c r="CW140" s="11"/>
@@ -23547,30 +23703,32 @@
         <v>23.652946709368248</v>
       </c>
       <c r="CL141" s="27">
-        <v>28.604576961430535</v>
+        <v>28.654642762425603</v>
       </c>
       <c r="CM141" s="27">
-        <v>26.557478920273287</v>
+        <v>26.602028127412197</v>
       </c>
       <c r="CN141" s="27">
-        <v>24.010146689844749</v>
+        <v>24.115038167908025</v>
       </c>
       <c r="CO141" s="27">
-        <v>20.520169212763324</v>
-      </c>
-      <c r="CP141" s="27">
-        <v>24.839430828768084</v>
-      </c>
-      <c r="CQ141" s="27">
-        <v>25.356636948974799</v>
-      </c>
-      <c r="CR141" s="27">
-        <v>20.170548044264287</v>
-      </c>
-      <c r="CS141" s="27">
-        <v>18.452046167474396</v>
-      </c>
-      <c r="CT141" s="11"/>
+        <v>20.522692587589315</v>
+      </c>
+      <c r="CP141" s="35">
+        <v>24.937314902753517</v>
+      </c>
+      <c r="CQ141" s="35">
+        <v>25.510792752198313</v>
+      </c>
+      <c r="CR141" s="35">
+        <v>20.297363465172356</v>
+      </c>
+      <c r="CS141" s="35">
+        <v>19.107984347105013</v>
+      </c>
+      <c r="CT141" s="35">
+        <v>24.262331616759447</v>
+      </c>
       <c r="CU141" s="11"/>
       <c r="CV141" s="11"/>
       <c r="CW141" s="11"/>
@@ -23895,30 +24053,32 @@
         <v>3.2048322096655828</v>
       </c>
       <c r="CL142" s="27">
-        <v>2.3641779226618245</v>
+        <v>2.3683158779810904</v>
       </c>
       <c r="CM142" s="27">
-        <v>2.1959835616058063</v>
+        <v>2.1996672443398988</v>
       </c>
       <c r="CN142" s="27">
-        <v>2.4164913031782977</v>
+        <v>2.4270480626930007</v>
       </c>
       <c r="CO142" s="27">
-        <v>1.8415631311031573</v>
-      </c>
-      <c r="CP142" s="27">
-        <v>1.9714322958154993</v>
-      </c>
-      <c r="CQ142" s="27">
-        <v>1.5478105266444062</v>
-      </c>
-      <c r="CR142" s="27">
-        <v>1.3034212908655836</v>
-      </c>
-      <c r="CS142" s="27">
-        <v>1.2996848688646325</v>
-      </c>
-      <c r="CT142" s="11"/>
+        <v>1.8417895889845386</v>
+      </c>
+      <c r="CP142" s="35">
+        <v>1.9792010658018624</v>
+      </c>
+      <c r="CQ142" s="35">
+        <v>1.5572204486089327</v>
+      </c>
+      <c r="CR142" s="35">
+        <v>1.2049994279654002</v>
+      </c>
+      <c r="CS142" s="35">
+        <v>0.991552716709866</v>
+      </c>
+      <c r="CT142" s="35">
+        <v>1.67150714141523</v>
+      </c>
       <c r="CU142" s="11"/>
       <c r="CV142" s="11"/>
       <c r="CW142" s="11"/>
@@ -24243,30 +24403,32 @@
         <v>4.9734844978412278</v>
       </c>
       <c r="CL143" s="27">
-        <v>4.3402058479057111</v>
+        <v>4.1565733876600586</v>
       </c>
       <c r="CM143" s="27">
-        <v>4.7943706448603765</v>
+        <v>4.6903739383979772</v>
       </c>
       <c r="CN143" s="27">
-        <v>4.4802209671482869</v>
+        <v>4.2880470437887901</v>
       </c>
       <c r="CO143" s="27">
-        <v>9.323366223066099</v>
-      </c>
-      <c r="CP143" s="27">
-        <v>4.4831599640596256</v>
-      </c>
-      <c r="CQ143" s="27">
-        <v>4.8719113995217853</v>
-      </c>
-      <c r="CR143" s="27">
-        <v>4.1820618822178162</v>
-      </c>
-      <c r="CS143" s="27">
-        <v>6.7678133752360354</v>
-      </c>
-      <c r="CT143" s="11"/>
+        <v>9.2500815990626162</v>
+      </c>
+      <c r="CP143" s="35">
+        <v>4.0798074460848408</v>
+      </c>
+      <c r="CQ143" s="35">
+        <v>4.3412422733553582</v>
+      </c>
+      <c r="CR143" s="35">
+        <v>4.0013516202799586</v>
+      </c>
+      <c r="CS143" s="35">
+        <v>7.1046157768875222</v>
+      </c>
+      <c r="CT143" s="35">
+        <v>6.4437532471916512</v>
+      </c>
       <c r="CU143" s="11"/>
       <c r="CV143" s="11"/>
       <c r="CW143" s="11"/>
@@ -24415,11 +24577,11 @@
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
-      <c r="CP144" s="11"/>
-      <c r="CQ144" s="11"/>
-      <c r="CR144" s="11"/>
-      <c r="CS144" s="11"/>
-      <c r="CT144" s="11"/>
+      <c r="CP144" s="12"/>
+      <c r="CQ144" s="12"/>
+      <c r="CR144" s="12"/>
+      <c r="CS144" s="12"/>
+      <c r="CT144" s="12"/>
       <c r="CU144" s="11"/>
       <c r="CV144" s="11"/>
       <c r="CW144" s="11"/>
@@ -24755,19 +24917,21 @@
       <c r="CO145" s="20">
         <v>100</v>
       </c>
-      <c r="CP145" s="20">
+      <c r="CP145" s="21">
         <v>100</v>
       </c>
-      <c r="CQ145" s="20">
+      <c r="CQ145" s="21">
         <v>100</v>
       </c>
-      <c r="CR145" s="20">
+      <c r="CR145" s="21">
         <v>100</v>
       </c>
-      <c r="CS145" s="20">
+      <c r="CS145" s="21">
         <v>100</v>
       </c>
-      <c r="CT145" s="11"/>
+      <c r="CT145" s="21">
+        <v>100</v>
+      </c>
       <c r="CU145" s="11"/>
       <c r="CV145" s="11"/>
       <c r="CW145" s="11"/>
@@ -24917,10 +25081,11 @@
       <c r="CM146" s="16"/>
       <c r="CN146" s="16"/>
       <c r="CO146" s="16"/>
-      <c r="CP146" s="16"/>
-      <c r="CQ146" s="16"/>
-      <c r="CR146" s="16"/>
-      <c r="CS146" s="16"/>
+      <c r="CP146" s="17"/>
+      <c r="CQ146" s="17"/>
+      <c r="CR146" s="17"/>
+      <c r="CS146" s="17"/>
+      <c r="CT146" s="17"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -25020,11 +25185,11 @@
       <c r="CM148" s="11"/>
       <c r="CN148" s="11"/>
       <c r="CO148" s="11"/>
-      <c r="CP148" s="11"/>
-      <c r="CQ148" s="11"/>
-      <c r="CR148" s="11"/>
-      <c r="CS148" s="11"/>
-      <c r="CT148" s="11"/>
+      <c r="CP148" s="12"/>
+      <c r="CQ148" s="12"/>
+      <c r="CR148" s="12"/>
+      <c r="CS148" s="12"/>
+      <c r="CT148" s="12"/>
       <c r="CU148" s="11"/>
       <c r="CV148" s="11"/>
       <c r="CW148" s="11"/>
@@ -25173,11 +25338,11 @@
       <c r="CM149" s="11"/>
       <c r="CN149" s="11"/>
       <c r="CO149" s="11"/>
-      <c r="CP149" s="11"/>
-      <c r="CQ149" s="11"/>
-      <c r="CR149" s="11"/>
-      <c r="CS149" s="11"/>
-      <c r="CT149" s="11"/>
+      <c r="CP149" s="12"/>
+      <c r="CQ149" s="12"/>
+      <c r="CR149" s="12"/>
+      <c r="CS149" s="12"/>
+      <c r="CT149" s="12"/>
       <c r="CU149" s="11"/>
       <c r="CV149" s="11"/>
       <c r="CW149" s="11"/>
@@ -25245,7 +25410,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -25255,7 +25420,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -25265,150 +25430,153 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="32">
+      <c r="B158" s="36">
         <v>2000</v>
       </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32">
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36">
         <v>2001</v>
       </c>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
-      <c r="J158" s="32">
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36">
         <v>2002</v>
       </c>
-      <c r="K158" s="32"/>
-      <c r="L158" s="32"/>
-      <c r="M158" s="32"/>
-      <c r="N158" s="32">
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36">
         <v>2003</v>
       </c>
-      <c r="O158" s="32"/>
-      <c r="P158" s="32"/>
-      <c r="Q158" s="32"/>
-      <c r="R158" s="32">
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36">
         <v>2004</v>
       </c>
-      <c r="S158" s="32"/>
-      <c r="T158" s="32"/>
-      <c r="U158" s="32"/>
-      <c r="V158" s="32">
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36">
         <v>2005</v>
       </c>
-      <c r="W158" s="32"/>
-      <c r="X158" s="32"/>
-      <c r="Y158" s="32"/>
-      <c r="Z158" s="32">
+      <c r="W158" s="36"/>
+      <c r="X158" s="36"/>
+      <c r="Y158" s="36"/>
+      <c r="Z158" s="36">
         <v>2006</v>
       </c>
-      <c r="AA158" s="32"/>
-      <c r="AB158" s="32"/>
-      <c r="AC158" s="32"/>
-      <c r="AD158" s="32">
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36">
         <v>2007</v>
       </c>
-      <c r="AE158" s="32"/>
-      <c r="AF158" s="32"/>
-      <c r="AG158" s="32"/>
-      <c r="AH158" s="32">
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="36"/>
+      <c r="AG158" s="36"/>
+      <c r="AH158" s="36">
         <v>2008</v>
       </c>
-      <c r="AI158" s="32"/>
-      <c r="AJ158" s="32"/>
-      <c r="AK158" s="32"/>
-      <c r="AL158" s="32">
+      <c r="AI158" s="36"/>
+      <c r="AJ158" s="36"/>
+      <c r="AK158" s="36"/>
+      <c r="AL158" s="36">
         <v>2009</v>
       </c>
-      <c r="AM158" s="32"/>
-      <c r="AN158" s="32"/>
-      <c r="AO158" s="32"/>
-      <c r="AP158" s="32">
+      <c r="AM158" s="36"/>
+      <c r="AN158" s="36"/>
+      <c r="AO158" s="36"/>
+      <c r="AP158" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="32"/>
-      <c r="AR158" s="32"/>
-      <c r="AS158" s="32"/>
-      <c r="AT158" s="32">
+      <c r="AQ158" s="36"/>
+      <c r="AR158" s="36"/>
+      <c r="AS158" s="36"/>
+      <c r="AT158" s="36">
         <v>2011</v>
       </c>
-      <c r="AU158" s="32"/>
-      <c r="AV158" s="32"/>
-      <c r="AW158" s="32"/>
-      <c r="AX158" s="32">
+      <c r="AU158" s="36"/>
+      <c r="AV158" s="36"/>
+      <c r="AW158" s="36"/>
+      <c r="AX158" s="36">
         <v>2012</v>
       </c>
-      <c r="AY158" s="32"/>
-      <c r="AZ158" s="32"/>
-      <c r="BA158" s="32"/>
-      <c r="BB158" s="32">
+      <c r="AY158" s="36"/>
+      <c r="AZ158" s="36"/>
+      <c r="BA158" s="36"/>
+      <c r="BB158" s="36">
         <v>2013</v>
       </c>
-      <c r="BC158" s="32"/>
-      <c r="BD158" s="32"/>
-      <c r="BE158" s="32"/>
-      <c r="BF158" s="32">
+      <c r="BC158" s="36"/>
+      <c r="BD158" s="36"/>
+      <c r="BE158" s="36"/>
+      <c r="BF158" s="36">
         <v>2014</v>
       </c>
-      <c r="BG158" s="32"/>
-      <c r="BH158" s="32"/>
-      <c r="BI158" s="32"/>
-      <c r="BJ158" s="32">
+      <c r="BG158" s="36"/>
+      <c r="BH158" s="36"/>
+      <c r="BI158" s="36"/>
+      <c r="BJ158" s="36">
         <v>2015</v>
       </c>
-      <c r="BK158" s="32"/>
-      <c r="BL158" s="32"/>
-      <c r="BM158" s="32"/>
-      <c r="BN158" s="32">
+      <c r="BK158" s="36"/>
+      <c r="BL158" s="36"/>
+      <c r="BM158" s="36"/>
+      <c r="BN158" s="36">
         <v>2016</v>
       </c>
-      <c r="BO158" s="32"/>
-      <c r="BP158" s="32"/>
-      <c r="BQ158" s="32"/>
-      <c r="BR158" s="32">
+      <c r="BO158" s="36"/>
+      <c r="BP158" s="36"/>
+      <c r="BQ158" s="36"/>
+      <c r="BR158" s="36">
         <v>2017</v>
       </c>
-      <c r="BS158" s="32"/>
-      <c r="BT158" s="32"/>
-      <c r="BU158" s="32"/>
-      <c r="BV158" s="34">
+      <c r="BS158" s="36"/>
+      <c r="BT158" s="36"/>
+      <c r="BU158" s="36"/>
+      <c r="BV158" s="38">
         <v>2018</v>
       </c>
-      <c r="BW158" s="34"/>
-      <c r="BX158" s="34"/>
-      <c r="BY158" s="34"/>
-      <c r="BZ158" s="34">
+      <c r="BW158" s="38"/>
+      <c r="BX158" s="38"/>
+      <c r="BY158" s="38"/>
+      <c r="BZ158" s="38">
         <v>2019</v>
       </c>
-      <c r="CA158" s="34"/>
-      <c r="CB158" s="34"/>
-      <c r="CC158" s="34"/>
-      <c r="CD158" s="33">
+      <c r="CA158" s="38"/>
+      <c r="CB158" s="38"/>
+      <c r="CC158" s="38"/>
+      <c r="CD158" s="37">
         <v>2020</v>
       </c>
-      <c r="CE158" s="33"/>
-      <c r="CF158" s="33"/>
-      <c r="CG158" s="33"/>
-      <c r="CH158" s="33">
+      <c r="CE158" s="37"/>
+      <c r="CF158" s="37"/>
+      <c r="CG158" s="37"/>
+      <c r="CH158" s="28">
         <v>2021</v>
       </c>
-      <c r="CI158" s="33"/>
-      <c r="CJ158" s="33"/>
-      <c r="CK158" s="33"/>
-      <c r="CL158" s="29">
+      <c r="CI158" s="28"/>
+      <c r="CJ158" s="28"/>
+      <c r="CK158" s="28"/>
+      <c r="CL158" s="28">
         <v>2022</v>
       </c>
-      <c r="CM158" s="29"/>
-      <c r="CN158" s="29"/>
-      <c r="CO158" s="29"/>
-      <c r="CP158" s="29">
+      <c r="CM158" s="28"/>
+      <c r="CN158" s="28"/>
+      <c r="CO158" s="28"/>
+      <c r="CP158" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="29"/>
-      <c r="CR158" s="29"/>
-      <c r="CS158" s="29"/>
+      <c r="CQ158" s="30"/>
+      <c r="CR158" s="30"/>
+      <c r="CS158" s="30"/>
+      <c r="CT158" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25688,17 +25856,20 @@
       <c r="CO159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="7" t="s">
+      <c r="CP159" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="7" t="s">
+      <c r="CQ159" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="7" t="s">
+      <c r="CR159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS159" s="7" t="s">
+      <c r="CS159" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CT159" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25973,30 +26144,32 @@
         <v>23.556216353857899</v>
       </c>
       <c r="CL161" s="27">
-        <v>19.232580913622932</v>
+        <v>19.303233587224362</v>
       </c>
       <c r="CM161" s="27">
-        <v>25.283884552971685</v>
+        <v>25.256015938231645</v>
       </c>
       <c r="CN161" s="27">
-        <v>26.075796516683408</v>
+        <v>25.958740761083181</v>
       </c>
       <c r="CO161" s="27">
-        <v>21.536780418531425</v>
-      </c>
-      <c r="CP161" s="27">
-        <v>19.416388482103464</v>
-      </c>
-      <c r="CQ161" s="27">
-        <v>23.659530571188025</v>
-      </c>
-      <c r="CR161" s="27">
-        <v>18.464737464262569</v>
-      </c>
-      <c r="CS161" s="27">
-        <v>17.837226152633022</v>
-      </c>
-      <c r="CT161" s="11"/>
+        <v>21.60702072930027</v>
+      </c>
+      <c r="CP161" s="35">
+        <v>19.356069871901031</v>
+      </c>
+      <c r="CQ161" s="35">
+        <v>23.761728941018958</v>
+      </c>
+      <c r="CR161" s="35">
+        <v>18.090487977299556</v>
+      </c>
+      <c r="CS161" s="35">
+        <v>17.485868435285113</v>
+      </c>
+      <c r="CT161" s="35">
+        <v>14.918179917532246</v>
+      </c>
       <c r="CU161" s="11"/>
       <c r="CV161" s="11"/>
       <c r="CW161" s="11"/>
@@ -26321,30 +26494,32 @@
         <v>3.9419414835949165</v>
       </c>
       <c r="CL162" s="27">
-        <v>9.0064705901485631</v>
+        <v>9.0033373589255508</v>
       </c>
       <c r="CM162" s="27">
-        <v>10.232129086950495</v>
+        <v>10.259719148438103</v>
       </c>
       <c r="CN162" s="27">
-        <v>6.2629222389067696</v>
+        <v>6.2941758565772084</v>
       </c>
       <c r="CO162" s="27">
-        <v>2.6663984224363912</v>
-      </c>
-      <c r="CP162" s="27">
-        <v>6.8157485396614019</v>
-      </c>
-      <c r="CQ162" s="27">
-        <v>7.8546399899909334</v>
-      </c>
-      <c r="CR162" s="27">
-        <v>4.2387809361836526</v>
-      </c>
-      <c r="CS162" s="27">
-        <v>2.2425170102706464</v>
-      </c>
-      <c r="CT162" s="11"/>
+        <v>2.6599409582299218</v>
+      </c>
+      <c r="CP162" s="35">
+        <v>6.8505650458009191</v>
+      </c>
+      <c r="CQ162" s="35">
+        <v>7.9164552492050388</v>
+      </c>
+      <c r="CR162" s="35">
+        <v>4.2848398443074451</v>
+      </c>
+      <c r="CS162" s="35">
+        <v>2.2378295185871169</v>
+      </c>
+      <c r="CT162" s="35">
+        <v>5.2017799959608269</v>
+      </c>
       <c r="CU162" s="11"/>
       <c r="CV162" s="11"/>
       <c r="CW162" s="11"/>
@@ -26669,30 +26844,32 @@
         <v>33.537962404218177</v>
       </c>
       <c r="CL163" s="27">
-        <v>21.813785455855719</v>
+        <v>21.857132707228835</v>
       </c>
       <c r="CM163" s="27">
-        <v>21.716800098639215</v>
+        <v>21.75349963092577</v>
       </c>
       <c r="CN163" s="27">
-        <v>30.292151655069166</v>
+        <v>30.419501008221385</v>
       </c>
       <c r="CO163" s="27">
-        <v>39.314169088408931</v>
-      </c>
-      <c r="CP163" s="27">
-        <v>29.338711583861382</v>
-      </c>
-      <c r="CQ163" s="27">
-        <v>29.427608547307955</v>
-      </c>
-      <c r="CR163" s="27">
-        <v>47.833104854117011</v>
-      </c>
-      <c r="CS163" s="27">
-        <v>50.11269936085715</v>
-      </c>
-      <c r="CT163" s="11"/>
+        <v>39.316970437430001</v>
+      </c>
+      <c r="CP163" s="35">
+        <v>29.556809084689633</v>
+      </c>
+      <c r="CQ163" s="35">
+        <v>29.629429274687535</v>
+      </c>
+      <c r="CR163" s="35">
+        <v>48.287669230380622</v>
+      </c>
+      <c r="CS163" s="35">
+        <v>50.075405000320373</v>
+      </c>
+      <c r="CT163" s="35">
+        <v>34.558235899899351</v>
+      </c>
       <c r="CU163" s="11"/>
       <c r="CV163" s="11"/>
       <c r="CW163" s="11"/>
@@ -27017,30 +27194,32 @@
         <v>1.6112249302294503</v>
       </c>
       <c r="CL164" s="27">
-        <v>1.6620107671116384</v>
+        <v>1.6653134308630815</v>
       </c>
       <c r="CM164" s="27">
-        <v>1.516537753719629</v>
+        <v>1.5191005726433939</v>
       </c>
       <c r="CN164" s="27">
-        <v>1.2564331556424357</v>
+        <v>1.261715248227737</v>
       </c>
       <c r="CO164" s="27">
-        <v>1.0631527938004819</v>
-      </c>
-      <c r="CP164" s="27">
-        <v>1.2398342236140849</v>
-      </c>
-      <c r="CQ164" s="27">
-        <v>1.0955910395133266</v>
-      </c>
-      <c r="CR164" s="27">
-        <v>0.88014774525451633</v>
-      </c>
-      <c r="CS164" s="27">
-        <v>0.85589328641164697</v>
-      </c>
-      <c r="CT164" s="11"/>
+        <v>1.0632285492369367</v>
+      </c>
+      <c r="CP164" s="35">
+        <v>1.2490508773460884</v>
+      </c>
+      <c r="CQ164" s="35">
+        <v>1.1031048332403861</v>
+      </c>
+      <c r="CR164" s="35">
+        <v>0.88851190668751601</v>
+      </c>
+      <c r="CS164" s="35">
+        <v>0.85537388174375306</v>
+      </c>
+      <c r="CT164" s="35">
+        <v>1.0600437914556107</v>
+      </c>
       <c r="CU164" s="11"/>
       <c r="CV164" s="11"/>
       <c r="CW164" s="11"/>
@@ -27365,30 +27544,32 @@
         <v>7.1097428396551905</v>
       </c>
       <c r="CL165" s="27">
-        <v>9.3092245123078214</v>
+        <v>9.3277233325075706</v>
       </c>
       <c r="CM165" s="27">
-        <v>8.4079705437476431</v>
+        <v>8.4221792938873108</v>
       </c>
       <c r="CN165" s="27">
-        <v>6.8121884905157772</v>
+        <v>6.840827189004302</v>
       </c>
       <c r="CO165" s="27">
-        <v>5.7027450032579949</v>
-      </c>
-      <c r="CP165" s="27">
-        <v>7.8846471389479911</v>
-      </c>
-      <c r="CQ165" s="27">
-        <v>6.1442398208855691</v>
-      </c>
-      <c r="CR165" s="27">
-        <v>4.8064532499318506</v>
-      </c>
-      <c r="CS165" s="27">
-        <v>3.9142509291382424</v>
-      </c>
-      <c r="CT165" s="11"/>
+        <v>5.7031513549500863</v>
+      </c>
+      <c r="CP165" s="35">
+        <v>7.9432598640160927</v>
+      </c>
+      <c r="CQ165" s="35">
+        <v>6.1863783095722127</v>
+      </c>
+      <c r="CR165" s="35">
+        <v>4.8521296163366427</v>
+      </c>
+      <c r="CS165" s="35">
+        <v>3.7691068372462859</v>
+      </c>
+      <c r="CT165" s="35">
+        <v>7.3751015235436732</v>
+      </c>
       <c r="CU165" s="11"/>
       <c r="CV165" s="11"/>
       <c r="CW165" s="11"/>
@@ -27713,30 +27894,32 @@
         <v>22.57049405290908</v>
       </c>
       <c r="CL166" s="27">
-        <v>31.629259219380408</v>
+        <v>31.692111283865152</v>
       </c>
       <c r="CM166" s="27">
-        <v>26.073902667483818</v>
+        <v>26.117965329958743</v>
       </c>
       <c r="CN166" s="27">
-        <v>22.843727276273313</v>
+        <v>22.939763171159381</v>
       </c>
       <c r="CO166" s="27">
-        <v>19.350045967915399</v>
-      </c>
-      <c r="CP166" s="27">
-        <v>28.073001489371109</v>
-      </c>
-      <c r="CQ166" s="27">
-        <v>25.458616163074421</v>
-      </c>
-      <c r="CR166" s="27">
-        <v>18.754361393408775</v>
-      </c>
-      <c r="CS166" s="27">
-        <v>17.502362169395212</v>
-      </c>
-      <c r="CT166" s="11"/>
+        <v>19.351424764252361</v>
+      </c>
+      <c r="CP166" s="35">
+        <v>28.281689980959392</v>
+      </c>
+      <c r="CQ166" s="35">
+        <v>25.633216706093375</v>
+      </c>
+      <c r="CR166" s="35">
+        <v>18.935271319141979</v>
+      </c>
+      <c r="CS166" s="35">
+        <v>18.106177436707373</v>
+      </c>
+      <c r="CT166" s="35">
+        <v>27.75454797965266</v>
+      </c>
       <c r="CU166" s="11"/>
       <c r="CV166" s="11"/>
       <c r="CW166" s="11"/>
@@ -28061,30 +28244,32 @@
         <v>2.9941217443969563</v>
       </c>
       <c r="CL167" s="27">
-        <v>2.5788517075130506</v>
+        <v>2.5839762712182255</v>
       </c>
       <c r="CM167" s="27">
-        <v>2.1176112847827464</v>
+        <v>2.1211898664965934</v>
       </c>
       <c r="CN167" s="27">
-        <v>2.2530019348979207</v>
+        <v>2.2624736403854357</v>
       </c>
       <c r="CO167" s="27">
-        <v>1.7001843771549014</v>
-      </c>
-      <c r="CP167" s="27">
-        <v>2.1979701806288094</v>
-      </c>
-      <c r="CQ167" s="27">
-        <v>1.5263667609581679</v>
-      </c>
-      <c r="CR167" s="27">
-        <v>1.1876092399695131</v>
-      </c>
-      <c r="CS167" s="27">
-        <v>1.2069757451151739</v>
-      </c>
-      <c r="CT167" s="11"/>
+        <v>1.7003055245669161</v>
+      </c>
+      <c r="CP167" s="35">
+        <v>2.2143094054076462</v>
+      </c>
+      <c r="CQ167" s="35">
+        <v>1.5368349051653114</v>
+      </c>
+      <c r="CR167" s="35">
+        <v>1.0735319753100376</v>
+      </c>
+      <c r="CS167" s="35">
+        <v>0.92834725280068531</v>
+      </c>
+      <c r="CT167" s="35">
+        <v>1.8862644575431144</v>
+      </c>
       <c r="CU167" s="11"/>
       <c r="CV167" s="11"/>
       <c r="CW167" s="11"/>
@@ -28409,30 +28594,32 @@
         <v>4.6782961911383198</v>
       </c>
       <c r="CL168" s="27">
-        <v>4.7678168340598504</v>
+        <v>4.5671720281672155</v>
       </c>
       <c r="CM168" s="27">
-        <v>4.6511640117047799</v>
+        <v>4.5503302194184538</v>
       </c>
       <c r="CN168" s="27">
-        <v>4.2037787320112052</v>
+        <v>4.0228031253413672</v>
       </c>
       <c r="CO168" s="27">
-        <v>8.666523928494458</v>
-      </c>
-      <c r="CP168" s="27">
-        <v>5.0336983618117701</v>
-      </c>
-      <c r="CQ168" s="27">
-        <v>4.8334071070815945</v>
-      </c>
-      <c r="CR168" s="27">
-        <v>3.8348051168721256</v>
-      </c>
-      <c r="CS168" s="27">
-        <v>6.3280753461788963</v>
-      </c>
-      <c r="CT168" s="11"/>
+        <v>8.5979576820335151</v>
+      </c>
+      <c r="CP168" s="35">
+        <v>4.5482458698792172</v>
+      </c>
+      <c r="CQ168" s="35">
+        <v>4.2328517810171791</v>
+      </c>
+      <c r="CR168" s="35">
+        <v>3.5875581305361957</v>
+      </c>
+      <c r="CS168" s="35">
+        <v>6.5418916373092966</v>
+      </c>
+      <c r="CT168" s="35">
+        <v>7.2458464344125089</v>
+      </c>
       <c r="CU168" s="11"/>
       <c r="CV168" s="11"/>
       <c r="CW168" s="11"/>
@@ -28581,11 +28768,11 @@
       <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
       <c r="CO169" s="11"/>
-      <c r="CP169" s="11"/>
-      <c r="CQ169" s="11"/>
-      <c r="CR169" s="11"/>
-      <c r="CS169" s="11"/>
-      <c r="CT169" s="11"/>
+      <c r="CP169" s="12"/>
+      <c r="CQ169" s="12"/>
+      <c r="CR169" s="12"/>
+      <c r="CS169" s="12"/>
+      <c r="CT169" s="12"/>
       <c r="CU169" s="11"/>
       <c r="CV169" s="11"/>
       <c r="CW169" s="11"/>
@@ -28921,19 +29108,21 @@
       <c r="CO170" s="20">
         <v>100</v>
       </c>
-      <c r="CP170" s="20">
+      <c r="CP170" s="21">
         <v>100</v>
       </c>
-      <c r="CQ170" s="20">
+      <c r="CQ170" s="21">
         <v>100</v>
       </c>
-      <c r="CR170" s="20">
+      <c r="CR170" s="21">
         <v>100</v>
       </c>
-      <c r="CS170" s="20">
+      <c r="CS170" s="21">
         <v>100</v>
       </c>
-      <c r="CT170" s="11"/>
+      <c r="CT170" s="21">
+        <v>100</v>
+      </c>
       <c r="CU170" s="11"/>
       <c r="CV170" s="11"/>
       <c r="CW170" s="11"/>
@@ -29083,10 +29272,11 @@
       <c r="CM171" s="16"/>
       <c r="CN171" s="16"/>
       <c r="CO171" s="16"/>
-      <c r="CP171" s="16"/>
-      <c r="CQ171" s="16"/>
-      <c r="CR171" s="16"/>
-      <c r="CS171" s="16"/>
+      <c r="CP171" s="17"/>
+      <c r="CQ171" s="17"/>
+      <c r="CR171" s="17"/>
+      <c r="CS171" s="17"/>
+      <c r="CT171" s="17"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -29187,11 +29377,11 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="1"/>
-      <c r="CQ173" s="1"/>
-      <c r="CR173" s="1"/>
-      <c r="CS173" s="1"/>
-      <c r="CT173" s="24"/>
+      <c r="CP173" s="2"/>
+      <c r="CQ173" s="2"/>
+      <c r="CR173" s="2"/>
+      <c r="CS173" s="2"/>
+      <c r="CT173" s="2"/>
       <c r="CU173" s="24"/>
       <c r="CV173" s="24"/>
       <c r="CW173" s="24"/>
@@ -29341,11 +29531,11 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="1"/>
-      <c r="CQ174" s="1"/>
-      <c r="CR174" s="1"/>
-      <c r="CS174" s="1"/>
-      <c r="CT174" s="24"/>
+      <c r="CP174" s="2"/>
+      <c r="CQ174" s="2"/>
+      <c r="CR174" s="2"/>
+      <c r="CS174" s="2"/>
+      <c r="CT174" s="2"/>
       <c r="CU174" s="24"/>
       <c r="CV174" s="24"/>
       <c r="CW174" s="24"/>
@@ -29402,8 +29592,7 @@
       <c r="EV174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH59:CK59"/>
+  <mergeCells count="147">
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD158:CG158"/>
     <mergeCell ref="CD133:CG133"/>
@@ -29411,12 +29600,6 @@
     <mergeCell ref="CD34:CG34"/>
     <mergeCell ref="CD59:CG59"/>
     <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CH108:CK108"/>
-    <mergeCell ref="CH133:CK133"/>
-    <mergeCell ref="CH158:CK158"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH34:CK34"/>
-    <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="BZ158:CC158"/>
     <mergeCell ref="BR158:BU158"/>
     <mergeCell ref="BV9:BY9"/>
@@ -29562,9 +29745,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="50" max="96" man="1"/>
-    <brk id="100" max="96" man="1"/>
-    <brk id="124" max="96" man="1"/>
+    <brk id="50" max="97" man="1"/>
+    <brk id="100" max="97" man="1"/>
+    <brk id="124" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B645A-7A84-45B5-B0CE-72CC0AAE4AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571EA56-6716-44B9-B84A-3EFE4EBB0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -222,13 +222,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -363,30 +363,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +723,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CX30" sqref="CX30"/>
+      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,8 +732,8 @@
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="2" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="10.88671875" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -756,7 +748,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -766,7 +758,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -776,132 +768,132 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="36">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="36"/>
-      <c r="BX9" s="36"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="37">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
       <c r="CH9" s="28">
         <v>2021</v>
       </c>
@@ -914,15 +906,16 @@
       <c r="CM9" s="28"/>
       <c r="CN9" s="28"/>
       <c r="CO9" s="28"/>
-      <c r="CP9" s="30">
+      <c r="CP9" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30"/>
-      <c r="CT9" s="30">
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="28"/>
+      <c r="CT9" s="28">
         <v>2024</v>
       </c>
+      <c r="CU9" s="28"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1202,20 +1195,23 @@
       <c r="CO10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,22 +1497,24 @@
       <c r="CO12" s="26">
         <v>101515.9470382054</v>
       </c>
-      <c r="CP12" s="31">
+      <c r="CP12" s="26">
         <v>84885.792716184369</v>
       </c>
-      <c r="CQ12" s="31">
+      <c r="CQ12" s="26">
         <v>101344.4665342735</v>
       </c>
-      <c r="CR12" s="31">
+      <c r="CR12" s="26">
         <v>97962.037742874556</v>
       </c>
-      <c r="CS12" s="31">
+      <c r="CS12" s="26">
         <v>102237.0952600827</v>
       </c>
-      <c r="CT12" s="31">
-        <v>82674.916980893759</v>
-      </c>
-      <c r="CU12" s="11"/>
+      <c r="CT12" s="26">
+        <v>83268.972162021208</v>
+      </c>
+      <c r="CU12" s="26">
+        <v>119156.60174652931</v>
+      </c>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
@@ -1851,22 +1849,24 @@
       <c r="CO13" s="26">
         <v>13222.013665936622</v>
       </c>
-      <c r="CP13" s="31">
+      <c r="CP13" s="26">
         <v>24480.983703543759</v>
       </c>
-      <c r="CQ13" s="31">
+      <c r="CQ13" s="26">
         <v>37932.78385448979</v>
       </c>
-      <c r="CR13" s="31">
+      <c r="CR13" s="26">
         <v>23874.097382332508</v>
       </c>
-      <c r="CS13" s="31">
+      <c r="CS13" s="26">
         <v>13716.027882210739</v>
       </c>
-      <c r="CT13" s="31">
-        <v>23732.272428547574</v>
-      </c>
-      <c r="CU13" s="11"/>
+      <c r="CT13" s="26">
+        <v>23775.304940445902</v>
+      </c>
+      <c r="CU13" s="26">
+        <v>39577.473008387307</v>
+      </c>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
@@ -2201,22 +2201,24 @@
       <c r="CO14" s="26">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="31">
+      <c r="CP14" s="26">
         <v>150989.87083219792</v>
       </c>
-      <c r="CQ14" s="31">
+      <c r="CQ14" s="26">
         <v>141051.15207210169</v>
       </c>
-      <c r="CR14" s="31">
+      <c r="CR14" s="26">
         <v>230364.79165804994</v>
       </c>
-      <c r="CS14" s="31">
+      <c r="CS14" s="26">
         <v>279927.09415215178</v>
       </c>
-      <c r="CT14" s="31">
-        <v>225397.36577579528</v>
-      </c>
-      <c r="CU14" s="11"/>
+      <c r="CT14" s="26">
+        <v>224607.76829864515</v>
+      </c>
+      <c r="CU14" s="26">
+        <v>175919.55146568015</v>
+      </c>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
@@ -2551,22 +2553,24 @@
       <c r="CO15" s="26">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="31">
+      <c r="CP15" s="26">
         <v>5018.0349438614548</v>
       </c>
-      <c r="CQ15" s="31">
+      <c r="CQ15" s="26">
         <v>4924.0081288224646</v>
       </c>
-      <c r="CR15" s="31">
+      <c r="CR15" s="26">
         <v>4848.3900517060219</v>
       </c>
-      <c r="CS15" s="31">
+      <c r="CS15" s="26">
         <v>5140.6721164338969</v>
       </c>
-      <c r="CT15" s="31">
-        <v>5437.0363134514964</v>
-      </c>
-      <c r="CU15" s="11"/>
+      <c r="CT15" s="26">
+        <v>5426.0106915642818</v>
+      </c>
+      <c r="CU15" s="26">
+        <v>5377.2053151229338</v>
+      </c>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
@@ -2901,22 +2905,24 @@
       <c r="CO16" s="26">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="31">
+      <c r="CP16" s="26">
         <v>30633.757370232517</v>
       </c>
-      <c r="CQ16" s="31">
+      <c r="CQ16" s="26">
         <v>28608.292664405577</v>
       </c>
-      <c r="CR16" s="31">
+      <c r="CR16" s="26">
         <v>27198.614792630226</v>
       </c>
-      <c r="CS16" s="31">
+      <c r="CS16" s="26">
         <v>23493.475535282345</v>
       </c>
-      <c r="CT16" s="31">
-        <v>36312.351606342672</v>
-      </c>
-      <c r="CU16" s="11"/>
+      <c r="CT16" s="26">
+        <v>36933.703809140272</v>
+      </c>
+      <c r="CU16" s="26">
+        <v>33099.268699162407</v>
+      </c>
       <c r="CV16" s="11"/>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
@@ -3251,22 +3257,24 @@
       <c r="CO17" s="26">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="31">
+      <c r="CP17" s="26">
         <v>106974.81694615472</v>
       </c>
-      <c r="CQ17" s="31">
+      <c r="CQ17" s="26">
         <v>116733.46614218912</v>
       </c>
-      <c r="CR17" s="31">
+      <c r="CR17" s="26">
         <v>104692.73572560465</v>
       </c>
-      <c r="CS17" s="31">
+      <c r="CS17" s="26">
         <v>111429.62348885107</v>
       </c>
-      <c r="CT17" s="31">
-        <v>134027.90455320055</v>
-      </c>
-      <c r="CU17" s="11"/>
+      <c r="CT17" s="26">
+        <v>128599.64051837537</v>
+      </c>
+      <c r="CU17" s="26">
+        <v>122639.20559021382</v>
+      </c>
       <c r="CV17" s="11"/>
       <c r="CW17" s="11"/>
       <c r="CX17" s="11"/>
@@ -3601,22 +3609,24 @@
       <c r="CO18" s="26">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="31">
+      <c r="CP18" s="26">
         <v>8490.2754181610162</v>
       </c>
-      <c r="CQ18" s="31">
+      <c r="CQ18" s="26">
         <v>7125.6013985669297</v>
       </c>
-      <c r="CR18" s="31">
+      <c r="CR18" s="26">
         <v>6215.3238216358241</v>
       </c>
-      <c r="CS18" s="31">
+      <c r="CS18" s="26">
         <v>5782.3129789755912</v>
       </c>
-      <c r="CT18" s="31">
-        <v>9233.5972959352166</v>
-      </c>
-      <c r="CU18" s="11"/>
+      <c r="CT18" s="26">
+        <v>8475.2345509558891</v>
+      </c>
+      <c r="CU18" s="26">
+        <v>8445.3362416398941</v>
+      </c>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
@@ -3951,22 +3961,24 @@
       <c r="CO19" s="26">
         <v>43136.79735686491</v>
       </c>
-      <c r="CP19" s="31">
+      <c r="CP19" s="26">
         <v>17501.34913973014</v>
       </c>
-      <c r="CQ19" s="31">
+      <c r="CQ19" s="26">
         <v>19864.85731173911</v>
       </c>
-      <c r="CR19" s="31">
+      <c r="CR19" s="26">
         <v>20638.761701537696</v>
       </c>
-      <c r="CS19" s="31">
+      <c r="CS19" s="26">
         <v>41431.092190080744</v>
       </c>
-      <c r="CT19" s="31">
-        <v>35596.032517435749</v>
-      </c>
-      <c r="CU19" s="11"/>
+      <c r="CT19" s="26">
+        <v>38306.045776598279</v>
+      </c>
+      <c r="CU19" s="26">
+        <v>41095.044797656577</v>
+      </c>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
@@ -4114,11 +4126,11 @@
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
-      <c r="CP20" s="12"/>
-      <c r="CQ20" s="12"/>
-      <c r="CR20" s="12"/>
-      <c r="CS20" s="12"/>
-      <c r="CT20" s="12"/>
+      <c r="CP20" s="11"/>
+      <c r="CQ20" s="11"/>
+      <c r="CR20" s="11"/>
+      <c r="CS20" s="11"/>
+      <c r="CT20" s="11"/>
       <c r="CU20" s="11"/>
       <c r="CV20" s="11"/>
       <c r="CW20" s="11"/>
@@ -4454,22 +4466,24 @@
       <c r="CO21" s="14">
         <v>466339.64138474519</v>
       </c>
-      <c r="CP21" s="15">
+      <c r="CP21" s="14">
         <v>428974.88107006589</v>
       </c>
-      <c r="CQ21" s="15">
+      <c r="CQ21" s="14">
         <v>457584.62810658821</v>
       </c>
-      <c r="CR21" s="15">
+      <c r="CR21" s="14">
         <v>515794.75287637138</v>
       </c>
-      <c r="CS21" s="15">
+      <c r="CS21" s="14">
         <v>583157.3936040689</v>
       </c>
-      <c r="CT21" s="15">
-        <v>552411.47747160227</v>
-      </c>
-      <c r="CU21" s="11"/>
+      <c r="CT21" s="14">
+        <v>549392.68074774637</v>
+      </c>
+      <c r="CU21" s="14">
+        <v>545309.68686439237</v>
+      </c>
       <c r="CV21" s="11"/>
       <c r="CW21" s="11"/>
       <c r="CX21" s="11"/>
@@ -4618,11 +4632,12 @@
       <c r="CM22" s="16"/>
       <c r="CN22" s="16"/>
       <c r="CO22" s="16"/>
-      <c r="CP22" s="17"/>
-      <c r="CQ22" s="17"/>
-      <c r="CR22" s="17"/>
-      <c r="CS22" s="17"/>
-      <c r="CT22" s="17"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="16"/>
+      <c r="CU22" s="16"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4722,11 +4737,11 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="12"/>
-      <c r="CQ24" s="12"/>
-      <c r="CR24" s="12"/>
-      <c r="CS24" s="12"/>
-      <c r="CT24" s="12"/>
+      <c r="CP24" s="11"/>
+      <c r="CQ24" s="11"/>
+      <c r="CR24" s="11"/>
+      <c r="CS24" s="11"/>
+      <c r="CT24" s="11"/>
       <c r="CU24" s="11"/>
       <c r="CV24" s="11"/>
       <c r="CW24" s="11"/>
@@ -4875,11 +4890,11 @@
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
-      <c r="CP25" s="12"/>
-      <c r="CQ25" s="12"/>
-      <c r="CR25" s="12"/>
-      <c r="CS25" s="12"/>
-      <c r="CT25" s="12"/>
+      <c r="CP25" s="11"/>
+      <c r="CQ25" s="11"/>
+      <c r="CR25" s="11"/>
+      <c r="CS25" s="11"/>
+      <c r="CT25" s="11"/>
       <c r="CU25" s="11"/>
       <c r="CV25" s="11"/>
       <c r="CW25" s="11"/>
@@ -4947,7 +4962,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
@@ -4957,7 +4972,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.2">
@@ -4967,132 +4982,132 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="36">
+      <c r="B34" s="34">
         <v>2000</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34">
         <v>2001</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34">
         <v>2002</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36">
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34">
         <v>2003</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36">
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34">
         <v>2004</v>
       </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36">
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34">
         <v>2005</v>
       </c>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36">
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34">
         <v>2006</v>
       </c>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36">
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34">
         <v>2007</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36">
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34">
         <v>2008</v>
       </c>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36">
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34">
         <v>2009</v>
       </c>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36">
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36">
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34">
         <v>2011</v>
       </c>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36">
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34">
         <v>2012</v>
       </c>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36">
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="34">
         <v>2013</v>
       </c>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36">
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="34"/>
+      <c r="BF34" s="34">
         <v>2014</v>
       </c>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36">
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34">
         <v>2015</v>
       </c>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36">
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34">
         <v>2016</v>
       </c>
-      <c r="BO34" s="36"/>
-      <c r="BP34" s="36"/>
-      <c r="BQ34" s="36"/>
-      <c r="BR34" s="36">
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BQ34" s="34"/>
+      <c r="BR34" s="34">
         <v>2017</v>
       </c>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
-      <c r="BV34" s="38">
+      <c r="BS34" s="34"/>
+      <c r="BT34" s="34"/>
+      <c r="BU34" s="34"/>
+      <c r="BV34" s="33">
         <v>2018</v>
       </c>
-      <c r="BW34" s="38"/>
-      <c r="BX34" s="38"/>
-      <c r="BY34" s="38"/>
-      <c r="BZ34" s="38">
+      <c r="BW34" s="33"/>
+      <c r="BX34" s="33"/>
+      <c r="BY34" s="33"/>
+      <c r="BZ34" s="33">
         <v>2019</v>
       </c>
-      <c r="CA34" s="38"/>
-      <c r="CB34" s="38"/>
-      <c r="CC34" s="38"/>
-      <c r="CD34" s="37">
+      <c r="CA34" s="33"/>
+      <c r="CB34" s="33"/>
+      <c r="CC34" s="33"/>
+      <c r="CD34" s="32">
         <v>2020</v>
       </c>
-      <c r="CE34" s="37"/>
-      <c r="CF34" s="37"/>
-      <c r="CG34" s="37"/>
+      <c r="CE34" s="32"/>
+      <c r="CF34" s="32"/>
+      <c r="CG34" s="32"/>
       <c r="CH34" s="28">
         <v>2021</v>
       </c>
@@ -5105,15 +5120,16 @@
       <c r="CM34" s="28"/>
       <c r="CN34" s="28"/>
       <c r="CO34" s="28"/>
-      <c r="CP34" s="30">
+      <c r="CP34" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="30"/>
-      <c r="CR34" s="30"/>
-      <c r="CS34" s="30"/>
-      <c r="CT34" s="30">
+      <c r="CQ34" s="28"/>
+      <c r="CR34" s="28"/>
+      <c r="CS34" s="28"/>
+      <c r="CT34" s="28">
         <v>2024</v>
       </c>
+      <c r="CU34" s="28"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5393,20 +5409,23 @@
       <c r="CO35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="19" t="s">
+      <c r="CP35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="19" t="s">
+      <c r="CQ35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="19" t="s">
+      <c r="CR35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="19" t="s">
+      <c r="CS35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CT35" s="19" t="s">
+      <c r="CT35" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU35" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5692,22 +5711,24 @@
       <c r="CO37" s="26">
         <v>97918.26872254943</v>
       </c>
-      <c r="CP37" s="31">
+      <c r="CP37" s="26">
         <v>80839.050828135922</v>
       </c>
-      <c r="CQ37" s="31">
+      <c r="CQ37" s="26">
         <v>90407.656491758637</v>
       </c>
-      <c r="CR37" s="31">
+      <c r="CR37" s="26">
         <v>89201.98190535813</v>
       </c>
-      <c r="CS37" s="31">
+      <c r="CS37" s="26">
         <v>95963.087990257947</v>
       </c>
-      <c r="CT37" s="31">
-        <v>77506.269567383613</v>
-      </c>
-      <c r="CU37" s="11"/>
+      <c r="CT37" s="26">
+        <v>78063.185772295023</v>
+      </c>
+      <c r="CU37" s="26">
+        <v>102223.76385025865</v>
+      </c>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
@@ -6042,22 +6063,24 @@
       <c r="CO38" s="26">
         <v>12054.267767739022</v>
       </c>
-      <c r="CP38" s="31">
+      <c r="CP38" s="26">
         <v>28610.827487396422</v>
       </c>
-      <c r="CQ38" s="31">
+      <c r="CQ38" s="26">
         <v>30120.20583935747</v>
       </c>
-      <c r="CR38" s="31">
+      <c r="CR38" s="26">
         <v>21128.020799598424</v>
       </c>
-      <c r="CS38" s="31">
+      <c r="CS38" s="26">
         <v>12281.290562956849</v>
       </c>
-      <c r="CT38" s="31">
-        <v>27025.452489907741</v>
-      </c>
-      <c r="CU38" s="11"/>
+      <c r="CT38" s="26">
+        <v>27074.45635623917</v>
+      </c>
+      <c r="CU38" s="26">
+        <v>30577.942184430864</v>
+      </c>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
@@ -6392,22 +6415,24 @@
       <c r="CO39" s="26">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="31">
+      <c r="CP39" s="26">
         <v>123441.60812228297</v>
       </c>
-      <c r="CQ39" s="31">
+      <c r="CQ39" s="26">
         <v>112732.84324393685</v>
       </c>
-      <c r="CR39" s="31">
+      <c r="CR39" s="26">
         <v>238100.58647092991</v>
       </c>
-      <c r="CS39" s="31">
+      <c r="CS39" s="26">
         <v>274815.66122827766</v>
       </c>
-      <c r="CT39" s="31">
-        <v>179544.68723647794</v>
-      </c>
-      <c r="CU39" s="11"/>
+      <c r="CT39" s="26">
+        <v>178915.71789786263</v>
+      </c>
+      <c r="CU39" s="26">
+        <v>136832.60825197931</v>
+      </c>
       <c r="CV39" s="11"/>
       <c r="CW39" s="11"/>
       <c r="CX39" s="11"/>
@@ -6742,22 +6767,24 @@
       <c r="CO40" s="26">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="31">
+      <c r="CP40" s="26">
         <v>5216.5593547111621</v>
       </c>
-      <c r="CQ40" s="31">
+      <c r="CQ40" s="26">
         <v>4197.0482487003283</v>
       </c>
-      <c r="CR40" s="31">
+      <c r="CR40" s="26">
         <v>4381.1434563008452</v>
       </c>
-      <c r="CS40" s="31">
+      <c r="CS40" s="26">
         <v>4694.3232692237671</v>
       </c>
-      <c r="CT40" s="31">
-        <v>5507.3769258697075</v>
-      </c>
-      <c r="CU40" s="11"/>
+      <c r="CT40" s="26">
+        <v>5496.2086621182261</v>
+      </c>
+      <c r="CU40" s="26">
+        <v>4459.6296533442974</v>
+      </c>
       <c r="CV40" s="11"/>
       <c r="CW40" s="11"/>
       <c r="CX40" s="11"/>
@@ -7092,22 +7119,24 @@
       <c r="CO41" s="26">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="31">
+      <c r="CP41" s="26">
         <v>33174.378483746579</v>
       </c>
-      <c r="CQ41" s="31">
+      <c r="CQ41" s="26">
         <v>23537.679708751326</v>
       </c>
-      <c r="CR41" s="31">
+      <c r="CR41" s="26">
         <v>23925.257228109462</v>
       </c>
-      <c r="CS41" s="31">
+      <c r="CS41" s="26">
         <v>20684.996710685286</v>
       </c>
-      <c r="CT41" s="31">
-        <v>38316.779253936889</v>
-      </c>
-      <c r="CU41" s="11"/>
+      <c r="CT41" s="26">
+        <v>38972.429856014234</v>
+      </c>
+      <c r="CU41" s="26">
+        <v>26497.633082760622</v>
+      </c>
       <c r="CV41" s="11"/>
       <c r="CW41" s="11"/>
       <c r="CX41" s="11"/>
@@ -7442,22 +7471,24 @@
       <c r="CO42" s="26">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="31">
+      <c r="CP42" s="26">
         <v>118116.1769412344</v>
       </c>
-      <c r="CQ42" s="31">
+      <c r="CQ42" s="26">
         <v>97528.216759631192</v>
       </c>
-      <c r="CR42" s="31">
+      <c r="CR42" s="26">
         <v>93367.505160868692</v>
       </c>
-      <c r="CS42" s="31">
+      <c r="CS42" s="26">
         <v>99367.366565550969</v>
       </c>
-      <c r="CT42" s="31">
-        <v>144196.64391523731</v>
-      </c>
-      <c r="CU42" s="11"/>
+      <c r="CT42" s="26">
+        <v>138356.53577718255</v>
+      </c>
+      <c r="CU42" s="26">
+        <v>99696.7969859062</v>
+      </c>
       <c r="CV42" s="11"/>
       <c r="CW42" s="11"/>
       <c r="CX42" s="11"/>
@@ -7792,22 +7823,24 @@
       <c r="CO43" s="26">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="31">
+      <c r="CP43" s="26">
         <v>9247.8830546496483</v>
       </c>
-      <c r="CQ43" s="31">
+      <c r="CQ43" s="26">
         <v>5847.2867246154101</v>
       </c>
-      <c r="CR43" s="31">
+      <c r="CR43" s="26">
         <v>5293.4547678643676</v>
       </c>
-      <c r="CS43" s="31">
+      <c r="CS43" s="26">
         <v>5094.8038089006595</v>
       </c>
-      <c r="CT43" s="31">
-        <v>9799.943580912055</v>
-      </c>
-      <c r="CU43" s="11"/>
+      <c r="CT43" s="26">
+        <v>8995.0663617230985</v>
+      </c>
+      <c r="CU43" s="26">
+        <v>6743.2115631164252</v>
+      </c>
       <c r="CV43" s="11"/>
       <c r="CW43" s="11"/>
       <c r="CX43" s="11"/>
@@ -8142,22 +8175,24 @@
       <c r="CO44" s="26">
         <v>38964.054384083065</v>
       </c>
-      <c r="CP44" s="31">
+      <c r="CP44" s="26">
         <v>18995.378787497346</v>
       </c>
-      <c r="CQ44" s="31">
+      <c r="CQ44" s="26">
         <v>16104.981701820538</v>
       </c>
-      <c r="CR44" s="31">
+      <c r="CR44" s="26">
         <v>17689.810017622338</v>
       </c>
-      <c r="CS44" s="31">
+      <c r="CS44" s="26">
         <v>35902.141499991711</v>
       </c>
-      <c r="CT44" s="31">
-        <v>37645.244265316549</v>
-      </c>
-      <c r="CU44" s="11"/>
+      <c r="CT44" s="26">
+        <v>40511.269040786923</v>
+      </c>
+      <c r="CU44" s="26">
+        <v>32417.626836259962</v>
+      </c>
       <c r="CV44" s="11"/>
       <c r="CW44" s="11"/>
       <c r="CX44" s="11"/>
@@ -8305,11 +8340,11 @@
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
-      <c r="CP45" s="12"/>
-      <c r="CQ45" s="12"/>
-      <c r="CR45" s="12"/>
-      <c r="CS45" s="12"/>
-      <c r="CT45" s="12"/>
+      <c r="CP45" s="11"/>
+      <c r="CQ45" s="11"/>
+      <c r="CR45" s="11"/>
+      <c r="CS45" s="11"/>
+      <c r="CT45" s="11"/>
       <c r="CU45" s="11"/>
       <c r="CV45" s="11"/>
       <c r="CW45" s="11"/>
@@ -8645,22 +8680,24 @@
       <c r="CO46" s="14">
         <v>453178.0200023923</v>
       </c>
-      <c r="CP46" s="15">
+      <c r="CP46" s="14">
         <v>417641.86305965437</v>
       </c>
-      <c r="CQ46" s="15">
+      <c r="CQ46" s="14">
         <v>380475.91871857177</v>
       </c>
-      <c r="CR46" s="15">
+      <c r="CR46" s="14">
         <v>493087.7598066522</v>
       </c>
-      <c r="CS46" s="15">
+      <c r="CS46" s="14">
         <v>548803.67163584486</v>
       </c>
-      <c r="CT46" s="15">
-        <v>519542.39723504183</v>
-      </c>
-      <c r="CU46" s="11"/>
+      <c r="CT46" s="14">
+        <v>516384.86972422188</v>
+      </c>
+      <c r="CU46" s="14">
+        <v>439449.21240805625</v>
+      </c>
       <c r="CV46" s="11"/>
       <c r="CW46" s="11"/>
       <c r="CX46" s="11"/>
@@ -8809,11 +8846,12 @@
       <c r="CM47" s="16"/>
       <c r="CN47" s="16"/>
       <c r="CO47" s="16"/>
-      <c r="CP47" s="17"/>
-      <c r="CQ47" s="17"/>
-      <c r="CR47" s="17"/>
-      <c r="CS47" s="17"/>
-      <c r="CT47" s="17"/>
+      <c r="CP47" s="16"/>
+      <c r="CQ47" s="16"/>
+      <c r="CR47" s="16"/>
+      <c r="CS47" s="16"/>
+      <c r="CT47" s="16"/>
+      <c r="CU47" s="16"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8913,11 +8951,11 @@
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
-      <c r="CP49" s="12"/>
-      <c r="CQ49" s="12"/>
-      <c r="CR49" s="12"/>
-      <c r="CS49" s="12"/>
-      <c r="CT49" s="12"/>
+      <c r="CP49" s="11"/>
+      <c r="CQ49" s="11"/>
+      <c r="CR49" s="11"/>
+      <c r="CS49" s="11"/>
+      <c r="CT49" s="11"/>
       <c r="CU49" s="11"/>
       <c r="CV49" s="11"/>
       <c r="CW49" s="11"/>
@@ -9066,11 +9104,11 @@
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="12"/>
-      <c r="CS50" s="12"/>
-      <c r="CT50" s="12"/>
+      <c r="CP50" s="11"/>
+      <c r="CQ50" s="11"/>
+      <c r="CR50" s="11"/>
+      <c r="CS50" s="11"/>
+      <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
@@ -9138,179 +9176,180 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CP54" s="32"/>
-      <c r="CQ54" s="32"/>
-      <c r="CR54" s="32"/>
-      <c r="CS54" s="32"/>
-      <c r="CT54" s="32"/>
+      <c r="CP54" s="8"/>
+      <c r="CQ54" s="8"/>
+      <c r="CR54" s="8"/>
+      <c r="CS54" s="8"/>
+      <c r="CT54" s="8"/>
+      <c r="CU54" s="8"/>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="32"/>
-      <c r="CQ55" s="32"/>
-      <c r="CR55" s="32"/>
-      <c r="CS55" s="32"/>
-      <c r="CT55" s="32"/>
+      <c r="CP55" s="8"/>
+      <c r="CQ55" s="8"/>
+      <c r="CR55" s="8"/>
+      <c r="CS55" s="8"/>
+      <c r="CT55" s="8"/>
+      <c r="CU55" s="8"/>
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP56" s="32"/>
-      <c r="CQ56" s="32"/>
-      <c r="CR56" s="32"/>
-      <c r="CS56" s="32"/>
-      <c r="CT56" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="CP56" s="8"/>
+      <c r="CQ56" s="8"/>
+      <c r="CR56" s="8"/>
+      <c r="CS56" s="8"/>
+      <c r="CT56" s="8"/>
+      <c r="CU56" s="8"/>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CQ57" s="32"/>
-      <c r="CR57" s="32"/>
-      <c r="CS57" s="32"/>
-      <c r="CT57" s="32"/>
+      <c r="CR57" s="8"/>
+      <c r="CS57" s="8"/>
+      <c r="CU57" s="8"/>
     </row>
     <row r="58" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CQ58" s="32"/>
-      <c r="CR58" s="32"/>
-      <c r="CS58" s="32"/>
-      <c r="CT58" s="32"/>
+      <c r="CR58" s="8"/>
+      <c r="CS58" s="8"/>
+      <c r="CU58" s="8"/>
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37" t="s">
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37" t="s">
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37" t="s">
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37" t="s">
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37" t="s">
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37" t="s">
+      <c r="AE59" s="32"/>
+      <c r="AF59" s="32"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="37" t="s">
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="32"/>
+      <c r="AK59" s="32"/>
+      <c r="AL59" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="37"/>
-      <c r="AO59" s="37"/>
-      <c r="AP59" s="37" t="s">
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="32"/>
+      <c r="AO59" s="32"/>
+      <c r="AP59" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="37"/>
-      <c r="AR59" s="37"/>
-      <c r="AS59" s="37"/>
-      <c r="AT59" s="37" t="s">
+      <c r="AQ59" s="32"/>
+      <c r="AR59" s="32"/>
+      <c r="AS59" s="32"/>
+      <c r="AT59" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="37"/>
-      <c r="AV59" s="37"/>
-      <c r="AW59" s="37"/>
-      <c r="AX59" s="37" t="s">
+      <c r="AU59" s="32"/>
+      <c r="AV59" s="32"/>
+      <c r="AW59" s="32"/>
+      <c r="AX59" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
-      <c r="BB59" s="37" t="s">
+      <c r="AY59" s="32"/>
+      <c r="AZ59" s="32"/>
+      <c r="BA59" s="32"/>
+      <c r="BB59" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="37"/>
-      <c r="BD59" s="37"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="37" t="s">
+      <c r="BC59" s="32"/>
+      <c r="BD59" s="32"/>
+      <c r="BE59" s="32"/>
+      <c r="BF59" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="37"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="37"/>
-      <c r="BJ59" s="37" t="s">
+      <c r="BG59" s="32"/>
+      <c r="BH59" s="32"/>
+      <c r="BI59" s="32"/>
+      <c r="BJ59" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="37"/>
-      <c r="BM59" s="37"/>
-      <c r="BN59" s="37" t="s">
+      <c r="BK59" s="32"/>
+      <c r="BL59" s="32"/>
+      <c r="BM59" s="32"/>
+      <c r="BN59" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="37"/>
-      <c r="BP59" s="37"/>
-      <c r="BQ59" s="37"/>
-      <c r="BR59" s="37" t="s">
+      <c r="BO59" s="32"/>
+      <c r="BP59" s="32"/>
+      <c r="BQ59" s="32"/>
+      <c r="BR59" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="37"/>
-      <c r="BU59" s="37"/>
-      <c r="BV59" s="36" t="s">
+      <c r="BS59" s="32"/>
+      <c r="BT59" s="32"/>
+      <c r="BU59" s="32"/>
+      <c r="BV59" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="36"/>
-      <c r="BX59" s="36"/>
-      <c r="BY59" s="36"/>
-      <c r="BZ59" s="36" t="s">
+      <c r="BW59" s="34"/>
+      <c r="BX59" s="34"/>
+      <c r="BY59" s="34"/>
+      <c r="BZ59" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="36"/>
-      <c r="CB59" s="36"/>
-      <c r="CC59" s="36"/>
-      <c r="CD59" s="37" t="s">
+      <c r="CA59" s="34"/>
+      <c r="CB59" s="34"/>
+      <c r="CC59" s="34"/>
+      <c r="CD59" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="37"/>
-      <c r="CF59" s="37"/>
-      <c r="CG59" s="37"/>
+      <c r="CE59" s="32"/>
+      <c r="CF59" s="32"/>
+      <c r="CG59" s="32"/>
       <c r="CH59" s="28" t="s">
         <v>52</v>
       </c>
@@ -9323,13 +9362,14 @@
       <c r="CM59" s="28"/>
       <c r="CN59" s="28"/>
       <c r="CO59" s="28"/>
-      <c r="CP59" s="30" t="s">
+      <c r="CP59" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="CQ59" s="29"/>
+      <c r="CQ59" s="28"/>
       <c r="CR59" s="29"/>
       <c r="CS59" s="29"/>
-      <c r="CT59" s="29"/>
+      <c r="CT59" s="28"/>
+      <c r="CU59" s="29"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9609,20 +9649,22 @@
       <c r="CO60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="19" t="s">
+      <c r="CP60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ60" s="19"/>
-      <c r="CR60" s="19"/>
-      <c r="CS60" s="19"/>
-      <c r="CT60" s="19"/>
+      <c r="CQ60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR60" s="7"/>
+      <c r="CS60" s="7"/>
+      <c r="CT60" s="7"/>
+      <c r="CU60" s="7"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
-      <c r="CQ61" s="32"/>
-      <c r="CR61" s="32"/>
-      <c r="CS61" s="32"/>
-      <c r="CT61" s="32"/>
+      <c r="CR61" s="8"/>
+      <c r="CS61" s="8"/>
+      <c r="CU61" s="8"/>
     </row>
     <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9904,14 +9946,16 @@
       <c r="CO62" s="20">
         <v>0.71037924869665403</v>
       </c>
-      <c r="CP62" s="21">
-        <v>-2.6045297623392401</v>
-      </c>
-      <c r="CQ62" s="33"/>
-      <c r="CR62" s="33"/>
-      <c r="CS62" s="33"/>
-      <c r="CT62" s="33"/>
-      <c r="CU62" s="11"/>
+      <c r="CP62" s="20">
+        <v>-1.9047010134770233</v>
+      </c>
+      <c r="CQ62" s="20">
+        <v>17.57583400592668</v>
+      </c>
+      <c r="CR62" s="30"/>
+      <c r="CS62" s="30"/>
+      <c r="CT62" s="20"/>
+      <c r="CU62" s="30"/>
       <c r="CV62" s="11"/>
       <c r="CW62" s="11"/>
       <c r="CX62" s="11"/>
@@ -10242,14 +10286,16 @@
       <c r="CO63" s="20">
         <v>3.7363009051097009</v>
       </c>
-      <c r="CP63" s="21">
-        <v>-3.0583381945056658</v>
-      </c>
-      <c r="CQ63" s="33"/>
-      <c r="CR63" s="33"/>
-      <c r="CS63" s="33"/>
-      <c r="CT63" s="33"/>
-      <c r="CU63" s="11"/>
+      <c r="CP63" s="20">
+        <v>-2.8825588532037045</v>
+      </c>
+      <c r="CQ63" s="20">
+        <v>4.3357987122868451</v>
+      </c>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
+      <c r="CT63" s="20"/>
+      <c r="CU63" s="30"/>
       <c r="CV63" s="11"/>
       <c r="CW63" s="11"/>
       <c r="CX63" s="11"/>
@@ -10580,14 +10626,16 @@
       <c r="CO64" s="20">
         <v>64.256564877155284</v>
       </c>
-      <c r="CP64" s="21">
-        <v>49.279792434745417</v>
-      </c>
-      <c r="CQ64" s="33"/>
-      <c r="CR64" s="33"/>
-      <c r="CS64" s="33"/>
-      <c r="CT64" s="33"/>
-      <c r="CU64" s="11"/>
+      <c r="CP64" s="20">
+        <v>48.756845118612119</v>
+      </c>
+      <c r="CQ64" s="20">
+        <v>24.720393191651951</v>
+      </c>
+      <c r="CR64" s="30"/>
+      <c r="CS64" s="30"/>
+      <c r="CT64" s="20"/>
+      <c r="CU64" s="30"/>
       <c r="CV64" s="11"/>
       <c r="CW64" s="11"/>
       <c r="CX64" s="11"/>
@@ -10918,14 +10966,16 @@
       <c r="CO65" s="20">
         <v>-0.80149844920354951</v>
       </c>
-      <c r="CP65" s="21">
-        <v>8.3499093624807301</v>
-      </c>
-      <c r="CQ65" s="33"/>
-      <c r="CR65" s="33"/>
-      <c r="CS65" s="33"/>
-      <c r="CT65" s="33"/>
-      <c r="CU65" s="11"/>
+      <c r="CP65" s="20">
+        <v>8.1301894519866238</v>
+      </c>
+      <c r="CQ65" s="20">
+        <v>9.2038269321226238</v>
+      </c>
+      <c r="CR65" s="30"/>
+      <c r="CS65" s="30"/>
+      <c r="CT65" s="20"/>
+      <c r="CU65" s="30"/>
       <c r="CV65" s="11"/>
       <c r="CW65" s="11"/>
       <c r="CX65" s="11"/>
@@ -11256,14 +11306,16 @@
       <c r="CO66" s="20">
         <v>-17.761777834506148</v>
       </c>
-      <c r="CP66" s="21">
-        <v>18.537047765574343</v>
-      </c>
-      <c r="CQ66" s="33"/>
-      <c r="CR66" s="33"/>
-      <c r="CS66" s="33"/>
-      <c r="CT66" s="33"/>
-      <c r="CU66" s="11"/>
+      <c r="CP66" s="20">
+        <v>20.565372907959215</v>
+      </c>
+      <c r="CQ66" s="20">
+        <v>15.698161674445174</v>
+      </c>
+      <c r="CR66" s="30"/>
+      <c r="CS66" s="30"/>
+      <c r="CT66" s="20"/>
+      <c r="CU66" s="30"/>
       <c r="CV66" s="11"/>
       <c r="CW66" s="11"/>
       <c r="CX66" s="11"/>
@@ -11594,14 +11646,16 @@
       <c r="CO67" s="20">
         <v>16.429756410482526</v>
       </c>
-      <c r="CP67" s="21">
-        <v>25.28921140445874</v>
-      </c>
-      <c r="CQ67" s="33"/>
-      <c r="CR67" s="33"/>
-      <c r="CS67" s="33"/>
-      <c r="CT67" s="33"/>
-      <c r="CU67" s="11"/>
+      <c r="CP67" s="20">
+        <v>20.214873172538745</v>
+      </c>
+      <c r="CQ67" s="20">
+        <v>5.0591656730479571</v>
+      </c>
+      <c r="CR67" s="30"/>
+      <c r="CS67" s="30"/>
+      <c r="CT67" s="20"/>
+      <c r="CU67" s="30"/>
       <c r="CV67" s="11"/>
       <c r="CW67" s="11"/>
       <c r="CX67" s="11"/>
@@ -11932,14 +11986,16 @@
       <c r="CO68" s="20">
         <v>-32.67765317143531</v>
       </c>
-      <c r="CP68" s="21">
-        <v>8.7549795638455663</v>
-      </c>
-      <c r="CQ68" s="33"/>
-      <c r="CR68" s="33"/>
-      <c r="CS68" s="33"/>
-      <c r="CT68" s="33"/>
-      <c r="CU68" s="11"/>
+      <c r="CP68" s="20">
+        <v>-0.17715405524954519</v>
+      </c>
+      <c r="CQ68" s="20">
+        <v>18.521030987481055</v>
+      </c>
+      <c r="CR68" s="30"/>
+      <c r="CS68" s="30"/>
+      <c r="CT68" s="20"/>
+      <c r="CU68" s="30"/>
       <c r="CV68" s="11"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
@@ -12270,14 +12326,16 @@
       <c r="CO69" s="20">
         <v>-3.9541766456909073</v>
       </c>
-      <c r="CP69" s="21">
-        <v>103.39021999526042</v>
-      </c>
-      <c r="CQ69" s="33"/>
-      <c r="CR69" s="33"/>
-      <c r="CS69" s="33"/>
-      <c r="CT69" s="33"/>
-      <c r="CU69" s="11"/>
+      <c r="CP69" s="20">
+        <v>118.87481628281452</v>
+      </c>
+      <c r="CQ69" s="20">
+        <v>106.87309328605909</v>
+      </c>
+      <c r="CR69" s="30"/>
+      <c r="CS69" s="30"/>
+      <c r="CT69" s="20"/>
+      <c r="CU69" s="30"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
@@ -12421,12 +12479,12 @@
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="34"/>
-      <c r="CR70" s="34"/>
-      <c r="CS70" s="34"/>
-      <c r="CT70" s="34"/>
-      <c r="CU70" s="11"/>
+      <c r="CP70" s="11"/>
+      <c r="CQ70" s="11"/>
+      <c r="CR70" s="31"/>
+      <c r="CS70" s="31"/>
+      <c r="CT70" s="11"/>
+      <c r="CU70" s="31"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
@@ -12757,14 +12815,16 @@
       <c r="CO71" s="20">
         <v>25.049929676243266</v>
       </c>
-      <c r="CP71" s="21">
-        <v>28.774784223642001</v>
-      </c>
-      <c r="CQ71" s="33"/>
-      <c r="CR71" s="33"/>
-      <c r="CS71" s="33"/>
-      <c r="CT71" s="33"/>
-      <c r="CU71" s="11"/>
+      <c r="CP71" s="20">
+        <v>28.071060799015015</v>
+      </c>
+      <c r="CQ71" s="20">
+        <v>19.171329928803857</v>
+      </c>
+      <c r="CR71" s="30"/>
+      <c r="CS71" s="30"/>
+      <c r="CT71" s="20"/>
+      <c r="CU71" s="30"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
@@ -12909,20 +12969,20 @@
       <c r="CM72" s="16"/>
       <c r="CN72" s="16"/>
       <c r="CO72" s="16"/>
-      <c r="CP72" s="17"/>
-      <c r="CQ72" s="7"/>
-      <c r="CR72" s="7"/>
-      <c r="CS72" s="7"/>
-      <c r="CT72" s="7"/>
+      <c r="CP72" s="16"/>
+      <c r="CQ72" s="16"/>
+      <c r="CR72" s="6"/>
+      <c r="CS72" s="6"/>
+      <c r="CT72" s="16"/>
+      <c r="CU72" s="6"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CQ73" s="32"/>
-      <c r="CR73" s="32"/>
-      <c r="CS73" s="32"/>
-      <c r="CT73" s="32"/>
+      <c r="CR73" s="8"/>
+      <c r="CS73" s="8"/>
+      <c r="CU73" s="8"/>
     </row>
     <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
@@ -13017,12 +13077,12 @@
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
-      <c r="CP74" s="12"/>
-      <c r="CQ74" s="34"/>
-      <c r="CR74" s="34"/>
-      <c r="CS74" s="34"/>
-      <c r="CT74" s="34"/>
-      <c r="CU74" s="11"/>
+      <c r="CP74" s="11"/>
+      <c r="CQ74" s="11"/>
+      <c r="CR74" s="31"/>
+      <c r="CS74" s="31"/>
+      <c r="CT74" s="11"/>
+      <c r="CU74" s="31"/>
       <c r="CV74" s="11"/>
       <c r="CW74" s="11"/>
       <c r="CX74" s="11"/>
@@ -13166,12 +13226,12 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="12"/>
-      <c r="CQ75" s="34"/>
-      <c r="CR75" s="34"/>
-      <c r="CS75" s="34"/>
-      <c r="CT75" s="34"/>
-      <c r="CU75" s="11"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="31"/>
+      <c r="CS75" s="31"/>
+      <c r="CT75" s="11"/>
+      <c r="CU75" s="31"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
@@ -13226,196 +13286,188 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CQ76" s="32"/>
-      <c r="CR76" s="32"/>
-      <c r="CS76" s="32"/>
-      <c r="CT76" s="32"/>
+      <c r="CR76" s="8"/>
+      <c r="CS76" s="8"/>
+      <c r="CU76" s="8"/>
     </row>
     <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CQ77" s="32"/>
-      <c r="CR77" s="32"/>
-      <c r="CS77" s="32"/>
-      <c r="CT77" s="32"/>
+      <c r="CR77" s="8"/>
+      <c r="CS77" s="8"/>
+      <c r="CU77" s="8"/>
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ78" s="32"/>
-      <c r="CR78" s="32"/>
-      <c r="CS78" s="32"/>
-      <c r="CT78" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="CR78" s="8"/>
+      <c r="CS78" s="8"/>
+      <c r="CU78" s="8"/>
     </row>
     <row r="79" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CQ79" s="32"/>
-      <c r="CR79" s="32"/>
-      <c r="CS79" s="32"/>
-      <c r="CT79" s="32"/>
+      <c r="CR79" s="8"/>
+      <c r="CS79" s="8"/>
+      <c r="CU79" s="8"/>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CQ80" s="32"/>
-      <c r="CR80" s="32"/>
-      <c r="CS80" s="32"/>
-      <c r="CT80" s="32"/>
+      <c r="CR80" s="8"/>
+      <c r="CS80" s="8"/>
+      <c r="CU80" s="8"/>
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CQ81" s="32"/>
-      <c r="CR81" s="32"/>
-      <c r="CS81" s="32"/>
-      <c r="CT81" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="CR81" s="8"/>
+      <c r="CS81" s="8"/>
+      <c r="CU81" s="8"/>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CQ82" s="32"/>
-      <c r="CR82" s="32"/>
-      <c r="CS82" s="32"/>
-      <c r="CT82" s="32"/>
+      <c r="CR82" s="8"/>
+      <c r="CS82" s="8"/>
+      <c r="CU82" s="8"/>
     </row>
     <row r="83" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CQ83" s="32"/>
-      <c r="CR83" s="32"/>
-      <c r="CS83" s="32"/>
-      <c r="CT83" s="32"/>
+      <c r="CR83" s="8"/>
+      <c r="CS83" s="8"/>
+      <c r="CU83" s="8"/>
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37" t="s">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37" t="s">
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37" t="s">
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37" t="s">
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37" t="s">
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37" t="s">
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="37"/>
-      <c r="AB84" s="37"/>
-      <c r="AC84" s="37"/>
-      <c r="AD84" s="37" t="s">
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="37"/>
-      <c r="AF84" s="37"/>
-      <c r="AG84" s="37"/>
-      <c r="AH84" s="37" t="s">
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
+      <c r="AH84" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="37"/>
-      <c r="AJ84" s="37"/>
-      <c r="AK84" s="37"/>
-      <c r="AL84" s="37" t="s">
+      <c r="AI84" s="32"/>
+      <c r="AJ84" s="32"/>
+      <c r="AK84" s="32"/>
+      <c r="AL84" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="37"/>
-      <c r="AN84" s="37"/>
-      <c r="AO84" s="37"/>
-      <c r="AP84" s="37" t="s">
+      <c r="AM84" s="32"/>
+      <c r="AN84" s="32"/>
+      <c r="AO84" s="32"/>
+      <c r="AP84" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="37"/>
-      <c r="AR84" s="37"/>
-      <c r="AS84" s="37"/>
-      <c r="AT84" s="37" t="s">
+      <c r="AQ84" s="32"/>
+      <c r="AR84" s="32"/>
+      <c r="AS84" s="32"/>
+      <c r="AT84" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="37"/>
-      <c r="AV84" s="37"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37" t="s">
+      <c r="AU84" s="32"/>
+      <c r="AV84" s="32"/>
+      <c r="AW84" s="32"/>
+      <c r="AX84" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="37" t="s">
+      <c r="AY84" s="32"/>
+      <c r="AZ84" s="32"/>
+      <c r="BA84" s="32"/>
+      <c r="BB84" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="37"/>
-      <c r="BD84" s="37"/>
-      <c r="BE84" s="37"/>
-      <c r="BF84" s="37" t="s">
+      <c r="BC84" s="32"/>
+      <c r="BD84" s="32"/>
+      <c r="BE84" s="32"/>
+      <c r="BF84" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="37"/>
-      <c r="BH84" s="37"/>
-      <c r="BI84" s="37"/>
-      <c r="BJ84" s="37" t="s">
+      <c r="BG84" s="32"/>
+      <c r="BH84" s="32"/>
+      <c r="BI84" s="32"/>
+      <c r="BJ84" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="37"/>
-      <c r="BL84" s="37"/>
-      <c r="BM84" s="37"/>
-      <c r="BN84" s="37" t="s">
+      <c r="BK84" s="32"/>
+      <c r="BL84" s="32"/>
+      <c r="BM84" s="32"/>
+      <c r="BN84" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="37"/>
-      <c r="BP84" s="37"/>
-      <c r="BQ84" s="37"/>
-      <c r="BR84" s="37" t="s">
+      <c r="BO84" s="32"/>
+      <c r="BP84" s="32"/>
+      <c r="BQ84" s="32"/>
+      <c r="BR84" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="37"/>
-      <c r="BT84" s="37"/>
-      <c r="BU84" s="37"/>
-      <c r="BV84" s="36" t="s">
+      <c r="BS84" s="32"/>
+      <c r="BT84" s="32"/>
+      <c r="BU84" s="32"/>
+      <c r="BV84" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="36"/>
-      <c r="BX84" s="36"/>
-      <c r="BY84" s="36"/>
-      <c r="BZ84" s="36" t="s">
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="36"/>
-      <c r="CB84" s="36"/>
-      <c r="CC84" s="36"/>
-      <c r="CD84" s="37" t="s">
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
+      <c r="CD84" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="37"/>
-      <c r="CF84" s="37"/>
-      <c r="CG84" s="37"/>
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
       <c r="CH84" s="28" t="s">
         <v>52</v>
       </c>
@@ -13428,13 +13480,14 @@
       <c r="CM84" s="28"/>
       <c r="CN84" s="28"/>
       <c r="CO84" s="28"/>
-      <c r="CP84" s="30" t="s">
+      <c r="CP84" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="CQ84" s="29"/>
+      <c r="CQ84" s="28"/>
       <c r="CR84" s="29"/>
       <c r="CS84" s="29"/>
-      <c r="CT84" s="29"/>
+      <c r="CT84" s="28"/>
+      <c r="CU84" s="29"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13714,20 +13767,22 @@
       <c r="CO85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7"/>
-      <c r="CR85" s="7"/>
-      <c r="CS85" s="7"/>
-      <c r="CT85" s="7"/>
+      <c r="CQ85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR85" s="6"/>
+      <c r="CS85" s="6"/>
+      <c r="CT85" s="6"/>
+      <c r="CU85" s="6"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="CQ86" s="32"/>
-      <c r="CR86" s="32"/>
-      <c r="CS86" s="32"/>
-      <c r="CT86" s="32"/>
+      <c r="CR86" s="8"/>
+      <c r="CS86" s="8"/>
+      <c r="CU86" s="8"/>
     </row>
     <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -14009,14 +14064,16 @@
       <c r="CO87" s="20">
         <v>-1.9967476527097006</v>
       </c>
-      <c r="CP87" s="21">
-        <v>-4.1227367548362395</v>
-      </c>
-      <c r="CQ87" s="33"/>
-      <c r="CR87" s="33"/>
-      <c r="CS87" s="33"/>
-      <c r="CT87" s="33"/>
-      <c r="CU87" s="11"/>
+      <c r="CP87" s="20">
+        <v>-3.4338169825155376</v>
+      </c>
+      <c r="CQ87" s="20">
+        <v>13.069808262950772</v>
+      </c>
+      <c r="CR87" s="30"/>
+      <c r="CS87" s="30"/>
+      <c r="CT87" s="20"/>
+      <c r="CU87" s="30"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
@@ -14347,14 +14404,16 @@
       <c r="CO88" s="20">
         <v>1.8833395739342222</v>
       </c>
-      <c r="CP88" s="21">
-        <v>-5.541171426052145</v>
-      </c>
-      <c r="CQ88" s="33"/>
-      <c r="CR88" s="33"/>
-      <c r="CS88" s="33"/>
-      <c r="CT88" s="33"/>
-      <c r="CU88" s="11"/>
+      <c r="CP88" s="20">
+        <v>-5.3698940788554665</v>
+      </c>
+      <c r="CQ88" s="20">
+        <v>1.5196985954036109</v>
+      </c>
+      <c r="CR88" s="30"/>
+      <c r="CS88" s="30"/>
+      <c r="CT88" s="20"/>
+      <c r="CU88" s="30"/>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
@@ -14685,14 +14744,16 @@
       <c r="CO89" s="20">
         <v>54.238429747329519</v>
       </c>
-      <c r="CP89" s="21">
-        <v>45.44908314757086</v>
-      </c>
-      <c r="CQ89" s="33"/>
-      <c r="CR89" s="33"/>
-      <c r="CS89" s="33"/>
-      <c r="CT89" s="33"/>
-      <c r="CU89" s="11"/>
+      <c r="CP89" s="20">
+        <v>44.93955532451119</v>
+      </c>
+      <c r="CQ89" s="20">
+        <v>21.377767396404806</v>
+      </c>
+      <c r="CR89" s="30"/>
+      <c r="CS89" s="30"/>
+      <c r="CT89" s="20"/>
+      <c r="CU89" s="30"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
       <c r="CX89" s="11"/>
@@ -15023,14 +15084,16 @@
       <c r="CO90" s="20">
         <v>-2.5734045792699476</v>
       </c>
-      <c r="CP90" s="21">
-        <v>5.5748924028996782</v>
-      </c>
-      <c r="CQ90" s="33"/>
-      <c r="CR90" s="33"/>
-      <c r="CS90" s="33"/>
-      <c r="CT90" s="33"/>
-      <c r="CU90" s="11"/>
+      <c r="CP90" s="20">
+        <v>5.3607998757746032</v>
+      </c>
+      <c r="CQ90" s="20">
+        <v>6.2563351451887996</v>
+      </c>
+      <c r="CR90" s="30"/>
+      <c r="CS90" s="30"/>
+      <c r="CT90" s="20"/>
+      <c r="CU90" s="30"/>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
@@ -15361,14 +15424,16 @@
       <c r="CO91" s="20">
         <v>-19.966516321287429</v>
       </c>
-      <c r="CP91" s="21">
-        <v>15.501121664448874</v>
-      </c>
-      <c r="CQ91" s="33"/>
-      <c r="CR91" s="33"/>
-      <c r="CS91" s="33"/>
-      <c r="CT91" s="33"/>
-      <c r="CU91" s="11"/>
+      <c r="CP91" s="20">
+        <v>17.477498109296448</v>
+      </c>
+      <c r="CQ91" s="20">
+        <v>12.575383005610291</v>
+      </c>
+      <c r="CR91" s="30"/>
+      <c r="CS91" s="30"/>
+      <c r="CT91" s="20"/>
+      <c r="CU91" s="30"/>
       <c r="CV91" s="11"/>
       <c r="CW91" s="11"/>
       <c r="CX91" s="11"/>
@@ -15699,14 +15764,16 @@
       <c r="CO92" s="20">
         <v>13.308371266136959</v>
       </c>
-      <c r="CP92" s="21">
-        <v>22.080351438210329</v>
-      </c>
-      <c r="CQ92" s="33"/>
-      <c r="CR92" s="33"/>
-      <c r="CS92" s="33"/>
-      <c r="CT92" s="33"/>
-      <c r="CU92" s="11"/>
+      <c r="CP92" s="20">
+        <v>17.135975240731184</v>
+      </c>
+      <c r="CQ92" s="20">
+        <v>2.2235413486741891</v>
+      </c>
+      <c r="CR92" s="30"/>
+      <c r="CS92" s="30"/>
+      <c r="CT92" s="20"/>
+      <c r="CU92" s="30"/>
       <c r="CV92" s="11"/>
       <c r="CW92" s="11"/>
       <c r="CX92" s="11"/>
@@ -16037,14 +16104,16 @@
       <c r="CO93" s="20">
         <v>-33.88018019725844</v>
       </c>
-      <c r="CP93" s="21">
-        <v>5.9695880992444188</v>
-      </c>
-      <c r="CQ93" s="33"/>
-      <c r="CR93" s="33"/>
-      <c r="CS93" s="33"/>
-      <c r="CT93" s="33"/>
-      <c r="CU93" s="11"/>
+      <c r="CP93" s="20">
+        <v>-2.7337790868737102</v>
+      </c>
+      <c r="CQ93" s="20">
+        <v>15.322060995049668</v>
+      </c>
+      <c r="CR93" s="30"/>
+      <c r="CS93" s="30"/>
+      <c r="CT93" s="20"/>
+      <c r="CU93" s="30"/>
       <c r="CV93" s="11"/>
       <c r="CW93" s="11"/>
       <c r="CX93" s="11"/>
@@ -16375,14 +16444,16 @@
       <c r="CO94" s="20">
         <v>-7.8583015358436512</v>
       </c>
-      <c r="CP94" s="21">
-        <v>98.181066492311516</v>
-      </c>
-      <c r="CQ94" s="33"/>
-      <c r="CR94" s="33"/>
-      <c r="CS94" s="33"/>
-      <c r="CT94" s="33"/>
-      <c r="CU94" s="11"/>
+      <c r="CP94" s="20">
+        <v>113.26907714760193</v>
+      </c>
+      <c r="CQ94" s="20">
+        <v>101.28943600473269</v>
+      </c>
+      <c r="CR94" s="30"/>
+      <c r="CS94" s="30"/>
+      <c r="CT94" s="20"/>
+      <c r="CU94" s="30"/>
       <c r="CV94" s="11"/>
       <c r="CW94" s="11"/>
       <c r="CX94" s="11"/>
@@ -16526,12 +16597,12 @@
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
-      <c r="CP95" s="12"/>
-      <c r="CQ95" s="34"/>
-      <c r="CR95" s="34"/>
-      <c r="CS95" s="34"/>
-      <c r="CT95" s="34"/>
-      <c r="CU95" s="11"/>
+      <c r="CP95" s="11"/>
+      <c r="CQ95" s="11"/>
+      <c r="CR95" s="31"/>
+      <c r="CS95" s="31"/>
+      <c r="CT95" s="11"/>
+      <c r="CU95" s="31"/>
       <c r="CV95" s="11"/>
       <c r="CW95" s="11"/>
       <c r="CX95" s="11"/>
@@ -16862,14 +16933,16 @@
       <c r="CO96" s="20">
         <v>21.10112304938086</v>
       </c>
-      <c r="CP96" s="21">
-        <v>24.399022987988246</v>
-      </c>
-      <c r="CQ96" s="33"/>
-      <c r="CR96" s="33"/>
-      <c r="CS96" s="33"/>
-      <c r="CT96" s="33"/>
-      <c r="CU96" s="11"/>
+      <c r="CP96" s="20">
+        <v>23.642985868603759</v>
+      </c>
+      <c r="CQ96" s="20">
+        <v>15.499875494907613</v>
+      </c>
+      <c r="CR96" s="30"/>
+      <c r="CS96" s="30"/>
+      <c r="CT96" s="20"/>
+      <c r="CU96" s="30"/>
       <c r="CV96" s="11"/>
       <c r="CW96" s="11"/>
       <c r="CX96" s="11"/>
@@ -17014,20 +17087,20 @@
       <c r="CM97" s="16"/>
       <c r="CN97" s="16"/>
       <c r="CO97" s="16"/>
-      <c r="CP97" s="17"/>
-      <c r="CQ97" s="7"/>
-      <c r="CR97" s="7"/>
-      <c r="CS97" s="7"/>
-      <c r="CT97" s="7"/>
+      <c r="CP97" s="16"/>
+      <c r="CQ97" s="16"/>
+      <c r="CR97" s="6"/>
+      <c r="CS97" s="6"/>
+      <c r="CT97" s="16"/>
+      <c r="CU97" s="6"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CQ98" s="32"/>
-      <c r="CR98" s="32"/>
-      <c r="CS98" s="32"/>
-      <c r="CT98" s="32"/>
+      <c r="CR98" s="8"/>
+      <c r="CS98" s="8"/>
+      <c r="CU98" s="8"/>
     </row>
     <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
@@ -17122,12 +17195,12 @@
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
-      <c r="CP99" s="12"/>
-      <c r="CQ99" s="34"/>
-      <c r="CR99" s="34"/>
-      <c r="CS99" s="34"/>
-      <c r="CT99" s="34"/>
-      <c r="CU99" s="11"/>
+      <c r="CP99" s="11"/>
+      <c r="CQ99" s="11"/>
+      <c r="CR99" s="31"/>
+      <c r="CS99" s="31"/>
+      <c r="CT99" s="11"/>
+      <c r="CU99" s="31"/>
       <c r="CV99" s="11"/>
       <c r="CW99" s="11"/>
       <c r="CX99" s="11"/>
@@ -17271,11 +17344,11 @@
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
-      <c r="CP100" s="12"/>
-      <c r="CQ100" s="12"/>
-      <c r="CR100" s="12"/>
-      <c r="CS100" s="12"/>
-      <c r="CT100" s="12"/>
+      <c r="CP100" s="11"/>
+      <c r="CQ100" s="11"/>
+      <c r="CR100" s="11"/>
+      <c r="CS100" s="11"/>
+      <c r="CT100" s="11"/>
       <c r="CU100" s="11"/>
       <c r="CV100" s="11"/>
       <c r="CW100" s="11"/>
@@ -17334,7 +17407,7 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:152" x14ac:dyDescent="0.2">
@@ -17344,7 +17417,7 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.2">
@@ -17354,132 +17427,132 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="36">
+      <c r="B108" s="34">
         <v>2000</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36">
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34">
         <v>2001</v>
       </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36">
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34">
         <v>2002</v>
       </c>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36">
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34">
         <v>2003</v>
       </c>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36">
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34">
         <v>2004</v>
       </c>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36">
+      <c r="S108" s="34"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="34"/>
+      <c r="V108" s="34">
         <v>2005</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36">
+      <c r="W108" s="34"/>
+      <c r="X108" s="34"/>
+      <c r="Y108" s="34"/>
+      <c r="Z108" s="34">
         <v>2006</v>
       </c>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36">
+      <c r="AA108" s="34"/>
+      <c r="AB108" s="34"/>
+      <c r="AC108" s="34"/>
+      <c r="AD108" s="34">
         <v>2007</v>
       </c>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36">
+      <c r="AE108" s="34"/>
+      <c r="AF108" s="34"/>
+      <c r="AG108" s="34"/>
+      <c r="AH108" s="34">
         <v>2008</v>
       </c>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="36">
+      <c r="AI108" s="34"/>
+      <c r="AJ108" s="34"/>
+      <c r="AK108" s="34"/>
+      <c r="AL108" s="34">
         <v>2009</v>
       </c>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="36">
+      <c r="AM108" s="34"/>
+      <c r="AN108" s="34"/>
+      <c r="AO108" s="34"/>
+      <c r="AP108" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="36"/>
-      <c r="AT108" s="36">
+      <c r="AQ108" s="34"/>
+      <c r="AR108" s="34"/>
+      <c r="AS108" s="34"/>
+      <c r="AT108" s="34">
         <v>2011</v>
       </c>
-      <c r="AU108" s="36"/>
-      <c r="AV108" s="36"/>
-      <c r="AW108" s="36"/>
-      <c r="AX108" s="36">
+      <c r="AU108" s="34"/>
+      <c r="AV108" s="34"/>
+      <c r="AW108" s="34"/>
+      <c r="AX108" s="34">
         <v>2012</v>
       </c>
-      <c r="AY108" s="36"/>
-      <c r="AZ108" s="36"/>
-      <c r="BA108" s="36"/>
-      <c r="BB108" s="36">
+      <c r="AY108" s="34"/>
+      <c r="AZ108" s="34"/>
+      <c r="BA108" s="34"/>
+      <c r="BB108" s="34">
         <v>2013</v>
       </c>
-      <c r="BC108" s="36"/>
-      <c r="BD108" s="36"/>
-      <c r="BE108" s="36"/>
-      <c r="BF108" s="36">
+      <c r="BC108" s="34"/>
+      <c r="BD108" s="34"/>
+      <c r="BE108" s="34"/>
+      <c r="BF108" s="34">
         <v>2014</v>
       </c>
-      <c r="BG108" s="36"/>
-      <c r="BH108" s="36"/>
-      <c r="BI108" s="36"/>
-      <c r="BJ108" s="36">
+      <c r="BG108" s="34"/>
+      <c r="BH108" s="34"/>
+      <c r="BI108" s="34"/>
+      <c r="BJ108" s="34">
         <v>2015</v>
       </c>
-      <c r="BK108" s="36"/>
-      <c r="BL108" s="36"/>
-      <c r="BM108" s="36"/>
-      <c r="BN108" s="36">
+      <c r="BK108" s="34"/>
+      <c r="BL108" s="34"/>
+      <c r="BM108" s="34"/>
+      <c r="BN108" s="34">
         <v>2016</v>
       </c>
-      <c r="BO108" s="36"/>
-      <c r="BP108" s="36"/>
-      <c r="BQ108" s="36"/>
-      <c r="BR108" s="36">
+      <c r="BO108" s="34"/>
+      <c r="BP108" s="34"/>
+      <c r="BQ108" s="34"/>
+      <c r="BR108" s="34">
         <v>2017</v>
       </c>
-      <c r="BS108" s="36"/>
-      <c r="BT108" s="36"/>
-      <c r="BU108" s="36"/>
-      <c r="BV108" s="38">
+      <c r="BS108" s="34"/>
+      <c r="BT108" s="34"/>
+      <c r="BU108" s="34"/>
+      <c r="BV108" s="33">
         <v>2018</v>
       </c>
-      <c r="BW108" s="38"/>
-      <c r="BX108" s="38"/>
-      <c r="BY108" s="38"/>
-      <c r="BZ108" s="38">
+      <c r="BW108" s="33"/>
+      <c r="BX108" s="33"/>
+      <c r="BY108" s="33"/>
+      <c r="BZ108" s="33">
         <v>2019</v>
       </c>
-      <c r="CA108" s="38"/>
-      <c r="CB108" s="38"/>
-      <c r="CC108" s="38"/>
-      <c r="CD108" s="37">
+      <c r="CA108" s="33"/>
+      <c r="CB108" s="33"/>
+      <c r="CC108" s="33"/>
+      <c r="CD108" s="32">
         <v>2020</v>
       </c>
-      <c r="CE108" s="37"/>
-      <c r="CF108" s="37"/>
-      <c r="CG108" s="37"/>
+      <c r="CE108" s="32"/>
+      <c r="CF108" s="32"/>
+      <c r="CG108" s="32"/>
       <c r="CH108" s="28">
         <v>2021</v>
       </c>
@@ -17492,15 +17565,16 @@
       <c r="CM108" s="28"/>
       <c r="CN108" s="28"/>
       <c r="CO108" s="28"/>
-      <c r="CP108" s="30">
+      <c r="CP108" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="30"/>
-      <c r="CR108" s="30"/>
-      <c r="CS108" s="30"/>
-      <c r="CT108" s="30">
+      <c r="CQ108" s="28"/>
+      <c r="CR108" s="28"/>
+      <c r="CS108" s="28"/>
+      <c r="CT108" s="28">
         <v>2024</v>
       </c>
+      <c r="CU108" s="28"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17780,20 +17854,23 @@
       <c r="CO109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="19" t="s">
+      <c r="CP109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="19" t="s">
+      <c r="CQ109" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="19" t="s">
+      <c r="CR109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="19" t="s">
+      <c r="CS109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CT109" s="19" t="s">
+      <c r="CT109" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU109" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18079,22 +18156,24 @@
       <c r="CO111" s="20">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="21">
+      <c r="CP111" s="20">
         <v>105.00592454586315</v>
       </c>
-      <c r="CQ111" s="21">
+      <c r="CQ111" s="20">
         <v>112.09721661517887</v>
       </c>
-      <c r="CR111" s="21">
+      <c r="CR111" s="20">
         <v>109.82047220297268</v>
       </c>
-      <c r="CS111" s="21">
+      <c r="CS111" s="20">
         <v>106.53793807725495</v>
       </c>
-      <c r="CT111" s="21">
+      <c r="CT111" s="20">
         <v>106.66868298830528</v>
       </c>
-      <c r="CU111" s="11"/>
+      <c r="CU111" s="20">
+        <v>116.56448291326325</v>
+      </c>
       <c r="CV111" s="11"/>
       <c r="CW111" s="11"/>
       <c r="CX111" s="11"/>
@@ -18429,22 +18508,24 @@
       <c r="CO112" s="20">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="21">
+      <c r="CP112" s="20">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="21">
+      <c r="CQ112" s="20">
         <v>125.93799676137598</v>
       </c>
-      <c r="CR112" s="21">
+      <c r="CR112" s="20">
         <v>112.99732051942262</v>
       </c>
-      <c r="CS112" s="21">
+      <c r="CS112" s="20">
         <v>111.68230091047096</v>
       </c>
-      <c r="CT112" s="21">
+      <c r="CT112" s="20">
         <v>87.814523873041693</v>
       </c>
-      <c r="CU112" s="11"/>
+      <c r="CU112" s="20">
+        <v>129.43144692234608</v>
+      </c>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
@@ -18779,22 +18860,24 @@
       <c r="CO113" s="20">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="21">
+      <c r="CP113" s="20">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="21">
+      <c r="CQ113" s="20">
         <v>125.11983909328738</v>
       </c>
-      <c r="CR113" s="21">
+      <c r="CR113" s="20">
         <v>96.751039160575758</v>
       </c>
-      <c r="CS113" s="21">
+      <c r="CS113" s="20">
         <v>101.85994964807638</v>
       </c>
-      <c r="CT113" s="21">
+      <c r="CT113" s="20">
         <v>125.5383098464645</v>
       </c>
-      <c r="CU113" s="11"/>
+      <c r="CU113" s="20">
+        <v>128.56551790763328</v>
+      </c>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
       <c r="CX113" s="11"/>
@@ -19129,22 +19212,24 @@
       <c r="CO114" s="20">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="21">
+      <c r="CP114" s="20">
         <v>96.19434195318</v>
       </c>
-      <c r="CQ114" s="21">
+      <c r="CQ114" s="20">
         <v>117.32074155562185</v>
       </c>
-      <c r="CR114" s="21">
+      <c r="CR114" s="20">
         <v>110.66494626495727</v>
       </c>
-      <c r="CS114" s="21">
+      <c r="CS114" s="20">
         <v>109.50826821272443</v>
       </c>
-      <c r="CT114" s="21">
+      <c r="CT114" s="20">
         <v>98.722792840130452</v>
       </c>
-      <c r="CU114" s="11"/>
+      <c r="CU114" s="20">
+        <v>120.57515383795474</v>
+      </c>
       <c r="CV114" s="11"/>
       <c r="CW114" s="11"/>
       <c r="CX114" s="11"/>
@@ -19479,22 +19564,24 @@
       <c r="CO115" s="20">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="21">
+      <c r="CP115" s="20">
         <v>92.341616543746824</v>
       </c>
-      <c r="CQ115" s="21">
+      <c r="CQ115" s="20">
         <v>121.54253528128771</v>
       </c>
-      <c r="CR115" s="21">
+      <c r="CR115" s="20">
         <v>113.68159820942256</v>
       </c>
-      <c r="CS115" s="21">
+      <c r="CS115" s="20">
         <v>113.57737138602629</v>
       </c>
-      <c r="CT115" s="21">
-        <v>94.768799239857117</v>
-      </c>
-      <c r="CU115" s="11"/>
+      <c r="CT115" s="20">
+        <v>94.768799239857131</v>
+      </c>
+      <c r="CU115" s="20">
+        <v>124.91405777935998</v>
+      </c>
       <c r="CV115" s="11"/>
       <c r="CW115" s="11"/>
       <c r="CX115" s="11"/>
@@ -19829,22 +19916,24 @@
       <c r="CO116" s="20">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="21">
+      <c r="CP116" s="20">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="21">
+      <c r="CQ116" s="20">
         <v>119.69199275927636</v>
       </c>
-      <c r="CR116" s="21">
+      <c r="CR116" s="20">
         <v>112.12973458509255</v>
       </c>
-      <c r="CS116" s="21">
+      <c r="CS116" s="20">
         <v>112.13905262885559</v>
       </c>
-      <c r="CT116" s="21">
-        <v>92.948005525000838</v>
-      </c>
-      <c r="CU116" s="11"/>
+      <c r="CT116" s="20">
+        <v>92.948005525000809</v>
+      </c>
+      <c r="CU116" s="20">
+        <v>123.01218223445123</v>
+      </c>
       <c r="CV116" s="11"/>
       <c r="CW116" s="11"/>
       <c r="CX116" s="11"/>
@@ -20179,22 +20268,24 @@
       <c r="CO117" s="20">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="21">
+      <c r="CP117" s="20">
         <v>91.807772308412552</v>
       </c>
-      <c r="CQ117" s="21">
+      <c r="CQ117" s="20">
         <v>121.86167250137024</v>
       </c>
-      <c r="CR117" s="21">
+      <c r="CR117" s="20">
         <v>117.41526270079726</v>
       </c>
-      <c r="CS117" s="21">
+      <c r="CS117" s="20">
         <v>113.49432079943584</v>
       </c>
-      <c r="CT117" s="21">
-        <v>94.220923005312557</v>
-      </c>
-      <c r="CU117" s="11"/>
+      <c r="CT117" s="20">
+        <v>94.220923005312542</v>
+      </c>
+      <c r="CU117" s="20">
+        <v>125.24204768887333</v>
+      </c>
       <c r="CV117" s="11"/>
       <c r="CW117" s="11"/>
       <c r="CX117" s="11"/>
@@ -20529,22 +20620,24 @@
       <c r="CO118" s="20">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="21">
+      <c r="CP118" s="20">
         <v>92.134773070434534</v>
       </c>
-      <c r="CQ118" s="21">
+      <c r="CQ118" s="20">
         <v>123.34604086817154</v>
       </c>
-      <c r="CR118" s="21">
+      <c r="CR118" s="20">
         <v>116.67034117934367</v>
       </c>
-      <c r="CS118" s="21">
+      <c r="CS118" s="20">
         <v>115.40005821126383</v>
       </c>
-      <c r="CT118" s="21">
+      <c r="CT118" s="20">
         <v>94.556518923244752</v>
       </c>
-      <c r="CU118" s="11"/>
+      <c r="CU118" s="20">
+        <v>126.76759161065638</v>
+      </c>
       <c r="CV118" s="11"/>
       <c r="CW118" s="11"/>
       <c r="CX118" s="11"/>
@@ -20692,11 +20785,11 @@
       <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
-      <c r="CP119" s="12"/>
-      <c r="CQ119" s="12"/>
-      <c r="CR119" s="12"/>
-      <c r="CS119" s="12"/>
-      <c r="CT119" s="12"/>
+      <c r="CP119" s="11"/>
+      <c r="CQ119" s="11"/>
+      <c r="CR119" s="11"/>
+      <c r="CS119" s="11"/>
+      <c r="CT119" s="11"/>
       <c r="CU119" s="11"/>
       <c r="CV119" s="11"/>
       <c r="CW119" s="11"/>
@@ -21032,22 +21125,24 @@
       <c r="CO120" s="20">
         <v>102.90429385394361</v>
       </c>
-      <c r="CP120" s="21">
+      <c r="CP120" s="20">
         <v>102.71357328199467</v>
       </c>
-      <c r="CQ120" s="21">
+      <c r="CQ120" s="20">
         <v>120.26638365122176</v>
       </c>
-      <c r="CR120" s="21">
+      <c r="CR120" s="20">
         <v>104.60506119207318</v>
       </c>
-      <c r="CS120" s="21">
+      <c r="CS120" s="20">
         <v>106.25974710880199</v>
       </c>
-      <c r="CT120" s="21">
-        <v>106.32654436124689</v>
-      </c>
-      <c r="CU120" s="11"/>
+      <c r="CT120" s="20">
+        <v>106.39209491965798</v>
+      </c>
+      <c r="CU120" s="20">
+        <v>124.08935355151758</v>
+      </c>
       <c r="CV120" s="11"/>
       <c r="CW120" s="11"/>
       <c r="CX120" s="11"/>
@@ -21196,11 +21291,12 @@
       <c r="CM121" s="16"/>
       <c r="CN121" s="16"/>
       <c r="CO121" s="16"/>
-      <c r="CP121" s="17"/>
-      <c r="CQ121" s="17"/>
-      <c r="CR121" s="17"/>
-      <c r="CS121" s="17"/>
-      <c r="CT121" s="17"/>
+      <c r="CP121" s="16"/>
+      <c r="CQ121" s="16"/>
+      <c r="CR121" s="16"/>
+      <c r="CS121" s="16"/>
+      <c r="CT121" s="16"/>
+      <c r="CU121" s="16"/>
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
@@ -21219,7 +21315,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.2">
@@ -21229,7 +21325,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
@@ -21239,132 +21335,132 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
-      <c r="B133" s="36">
+      <c r="B133" s="34">
         <v>2000</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36">
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34">
         <v>2001</v>
       </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36">
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34">
         <v>2002</v>
       </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36">
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="34">
         <v>2003</v>
       </c>
-      <c r="O133" s="36"/>
-      <c r="P133" s="36"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="36">
+      <c r="O133" s="34"/>
+      <c r="P133" s="34"/>
+      <c r="Q133" s="34"/>
+      <c r="R133" s="34">
         <v>2004</v>
       </c>
-      <c r="S133" s="36"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="36">
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="U133" s="34"/>
+      <c r="V133" s="34">
         <v>2005</v>
       </c>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36">
+      <c r="W133" s="34"/>
+      <c r="X133" s="34"/>
+      <c r="Y133" s="34"/>
+      <c r="Z133" s="34">
         <v>2006</v>
       </c>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36">
+      <c r="AA133" s="34"/>
+      <c r="AB133" s="34"/>
+      <c r="AC133" s="34"/>
+      <c r="AD133" s="34">
         <v>2007</v>
       </c>
-      <c r="AE133" s="36"/>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36">
+      <c r="AE133" s="34"/>
+      <c r="AF133" s="34"/>
+      <c r="AG133" s="34"/>
+      <c r="AH133" s="34">
         <v>2008</v>
       </c>
-      <c r="AI133" s="36"/>
-      <c r="AJ133" s="36"/>
-      <c r="AK133" s="36"/>
-      <c r="AL133" s="36">
+      <c r="AI133" s="34"/>
+      <c r="AJ133" s="34"/>
+      <c r="AK133" s="34"/>
+      <c r="AL133" s="34">
         <v>2009</v>
       </c>
-      <c r="AM133" s="36"/>
-      <c r="AN133" s="36"/>
-      <c r="AO133" s="36"/>
-      <c r="AP133" s="36">
+      <c r="AM133" s="34"/>
+      <c r="AN133" s="34"/>
+      <c r="AO133" s="34"/>
+      <c r="AP133" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ133" s="36"/>
-      <c r="AR133" s="36"/>
-      <c r="AS133" s="36"/>
-      <c r="AT133" s="36">
+      <c r="AQ133" s="34"/>
+      <c r="AR133" s="34"/>
+      <c r="AS133" s="34"/>
+      <c r="AT133" s="34">
         <v>2011</v>
       </c>
-      <c r="AU133" s="36"/>
-      <c r="AV133" s="36"/>
-      <c r="AW133" s="36"/>
-      <c r="AX133" s="36">
+      <c r="AU133" s="34"/>
+      <c r="AV133" s="34"/>
+      <c r="AW133" s="34"/>
+      <c r="AX133" s="34">
         <v>2012</v>
       </c>
-      <c r="AY133" s="36"/>
-      <c r="AZ133" s="36"/>
-      <c r="BA133" s="36"/>
-      <c r="BB133" s="36">
+      <c r="AY133" s="34"/>
+      <c r="AZ133" s="34"/>
+      <c r="BA133" s="34"/>
+      <c r="BB133" s="34">
         <v>2013</v>
       </c>
-      <c r="BC133" s="36"/>
-      <c r="BD133" s="36"/>
-      <c r="BE133" s="36"/>
-      <c r="BF133" s="36">
+      <c r="BC133" s="34"/>
+      <c r="BD133" s="34"/>
+      <c r="BE133" s="34"/>
+      <c r="BF133" s="34">
         <v>2014</v>
       </c>
-      <c r="BG133" s="36"/>
-      <c r="BH133" s="36"/>
-      <c r="BI133" s="36"/>
-      <c r="BJ133" s="36">
+      <c r="BG133" s="34"/>
+      <c r="BH133" s="34"/>
+      <c r="BI133" s="34"/>
+      <c r="BJ133" s="34">
         <v>2015</v>
       </c>
-      <c r="BK133" s="36"/>
-      <c r="BL133" s="36"/>
-      <c r="BM133" s="36"/>
-      <c r="BN133" s="36">
+      <c r="BK133" s="34"/>
+      <c r="BL133" s="34"/>
+      <c r="BM133" s="34"/>
+      <c r="BN133" s="34">
         <v>2016</v>
       </c>
-      <c r="BO133" s="36"/>
-      <c r="BP133" s="36"/>
-      <c r="BQ133" s="36"/>
-      <c r="BR133" s="36">
+      <c r="BO133" s="34"/>
+      <c r="BP133" s="34"/>
+      <c r="BQ133" s="34"/>
+      <c r="BR133" s="34">
         <v>2017</v>
       </c>
-      <c r="BS133" s="36"/>
-      <c r="BT133" s="36"/>
-      <c r="BU133" s="36"/>
-      <c r="BV133" s="38">
+      <c r="BS133" s="34"/>
+      <c r="BT133" s="34"/>
+      <c r="BU133" s="34"/>
+      <c r="BV133" s="33">
         <v>2018</v>
       </c>
-      <c r="BW133" s="38"/>
-      <c r="BX133" s="38"/>
-      <c r="BY133" s="38"/>
-      <c r="BZ133" s="38">
+      <c r="BW133" s="33"/>
+      <c r="BX133" s="33"/>
+      <c r="BY133" s="33"/>
+      <c r="BZ133" s="33">
         <v>2019</v>
       </c>
-      <c r="CA133" s="38"/>
-      <c r="CB133" s="38"/>
-      <c r="CC133" s="38"/>
-      <c r="CD133" s="37">
+      <c r="CA133" s="33"/>
+      <c r="CB133" s="33"/>
+      <c r="CC133" s="33"/>
+      <c r="CD133" s="32">
         <v>2020</v>
       </c>
-      <c r="CE133" s="37"/>
-      <c r="CF133" s="37"/>
-      <c r="CG133" s="37"/>
+      <c r="CE133" s="32"/>
+      <c r="CF133" s="32"/>
+      <c r="CG133" s="32"/>
       <c r="CH133" s="28">
         <v>2021</v>
       </c>
@@ -21377,15 +21473,16 @@
       <c r="CM133" s="28"/>
       <c r="CN133" s="28"/>
       <c r="CO133" s="28"/>
-      <c r="CP133" s="30">
+      <c r="CP133" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ133" s="30"/>
-      <c r="CR133" s="30"/>
-      <c r="CS133" s="30"/>
-      <c r="CT133" s="30">
+      <c r="CQ133" s="28"/>
+      <c r="CR133" s="28"/>
+      <c r="CS133" s="28"/>
+      <c r="CT133" s="28">
         <v>2024</v>
       </c>
+      <c r="CU133" s="28"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -21665,20 +21762,23 @@
       <c r="CO134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP134" s="19" t="s">
+      <c r="CP134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ134" s="19" t="s">
+      <c r="CQ134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR134" s="19" t="s">
+      <c r="CR134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS134" s="19" t="s">
+      <c r="CS134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CT134" s="19" t="s">
+      <c r="CT134" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU134" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21964,22 +22064,24 @@
       <c r="CO136" s="27">
         <v>21.76867202126861</v>
       </c>
-      <c r="CP136" s="35">
+      <c r="CP136" s="27">
         <v>19.788056704961168</v>
       </c>
-      <c r="CQ136" s="35">
+      <c r="CQ136" s="27">
         <v>22.147699094180815</v>
       </c>
-      <c r="CR136" s="35">
+      <c r="CR136" s="27">
         <v>18.992445579677049</v>
       </c>
-      <c r="CS136" s="35">
+      <c r="CS136" s="27">
         <v>17.531646924380066</v>
       </c>
-      <c r="CT136" s="35">
-        <v>14.966183787364159</v>
-      </c>
-      <c r="CU136" s="11"/>
+      <c r="CT136" s="27">
+        <v>15.156549237002695</v>
+      </c>
+      <c r="CU136" s="27">
+        <v>21.851180093956625</v>
+      </c>
       <c r="CV136" s="11"/>
       <c r="CW136" s="11"/>
       <c r="CX136" s="11"/>
@@ -22314,22 +22416,24 @@
       <c r="CO137" s="27">
         <v>2.835275514360152</v>
       </c>
-      <c r="CP137" s="35">
+      <c r="CP137" s="27">
         <v>5.7068571573413873</v>
       </c>
-      <c r="CQ137" s="35">
+      <c r="CQ137" s="27">
         <v>8.2897854351990716</v>
       </c>
-      <c r="CR137" s="35">
+      <c r="CR137" s="27">
         <v>4.6286041587659943</v>
       </c>
-      <c r="CS137" s="35">
+      <c r="CS137" s="27">
         <v>2.3520284630950168</v>
       </c>
-      <c r="CT137" s="35">
-        <v>4.2961222560346926</v>
-      </c>
-      <c r="CU137" s="11"/>
+      <c r="CT137" s="27">
+        <v>4.3275612824121934</v>
+      </c>
+      <c r="CU137" s="27">
+        <v>7.2577975344548449</v>
+      </c>
       <c r="CV137" s="11"/>
       <c r="CW137" s="11"/>
       <c r="CX137" s="11"/>
@@ -22664,22 +22768,24 @@
       <c r="CO138" s="27">
         <v>36.544318335510802</v>
       </c>
-      <c r="CP138" s="35">
+      <c r="CP138" s="27">
         <v>35.197835000398598</v>
       </c>
-      <c r="CQ138" s="35">
+      <c r="CQ138" s="27">
         <v>30.825150891923254</v>
       </c>
-      <c r="CR138" s="35">
+      <c r="CR138" s="27">
         <v>44.662104523825022</v>
       </c>
-      <c r="CS138" s="35">
+      <c r="CS138" s="27">
         <v>48.001979778071124</v>
       </c>
-      <c r="CT138" s="35">
-        <v>40.80244074714799</v>
-      </c>
-      <c r="CU138" s="11"/>
+      <c r="CT138" s="27">
+        <v>40.88291966193372</v>
+      </c>
+      <c r="CU138" s="27">
+        <v>32.260485317479393</v>
+      </c>
       <c r="CV138" s="11"/>
       <c r="CW138" s="11"/>
       <c r="CX138" s="11"/>
@@ -23014,22 +23120,24 @@
       <c r="CO139" s="27">
         <v>1.1112517505954891</v>
       </c>
-      <c r="CP139" s="35">
+      <c r="CP139" s="27">
         <v>1.1697736080360013</v>
       </c>
-      <c r="CQ139" s="35">
+      <c r="CQ139" s="27">
         <v>1.0760868758195006</v>
       </c>
-      <c r="CR139" s="35">
+      <c r="CR139" s="27">
         <v>0.93998436871809576</v>
       </c>
-      <c r="CS139" s="35">
+      <c r="CS139" s="27">
         <v>0.881523954393027</v>
       </c>
-      <c r="CT139" s="35">
-        <v>0.98423666690216405</v>
-      </c>
-      <c r="CU139" s="11"/>
+      <c r="CT139" s="27">
+        <v>0.98763796492142097</v>
+      </c>
+      <c r="CU139" s="27">
+        <v>0.98608285248747796</v>
+      </c>
       <c r="CV139" s="11"/>
       <c r="CW139" s="11"/>
       <c r="CX139" s="11"/>
@@ -23364,22 +23472,24 @@
       <c r="CO140" s="27">
         <v>6.1259186026284667</v>
       </c>
-      <c r="CP140" s="35">
+      <c r="CP140" s="27">
         <v>7.1411541146226236</v>
       </c>
-      <c r="CQ140" s="35">
+      <c r="CQ140" s="27">
         <v>6.2520222287147416</v>
       </c>
-      <c r="CR140" s="35">
+      <c r="CR140" s="27">
         <v>5.2731468555961332</v>
       </c>
-      <c r="CS140" s="35">
+      <c r="CS140" s="27">
         <v>4.028668039358358</v>
       </c>
-      <c r="CT140" s="35">
-        <v>6.5734245371846702</v>
-      </c>
-      <c r="CU140" s="11"/>
+      <c r="CT140" s="27">
+        <v>6.7226421289180553</v>
+      </c>
+      <c r="CU140" s="27">
+        <v>6.0698112460623745</v>
+      </c>
       <c r="CV140" s="11"/>
       <c r="CW140" s="11"/>
       <c r="CX140" s="11"/>
@@ -23714,22 +23824,24 @@
       <c r="CO141" s="27">
         <v>20.522692587589315</v>
       </c>
-      <c r="CP141" s="35">
+      <c r="CP141" s="27">
         <v>24.937314902753517</v>
       </c>
-      <c r="CQ141" s="35">
+      <c r="CQ141" s="27">
         <v>25.510792752198313</v>
       </c>
-      <c r="CR141" s="35">
+      <c r="CR141" s="27">
         <v>20.297363465172356</v>
       </c>
-      <c r="CS141" s="35">
+      <c r="CS141" s="27">
         <v>19.107984347105013</v>
       </c>
-      <c r="CT141" s="35">
-        <v>24.262331616759447</v>
-      </c>
-      <c r="CU141" s="11"/>
+      <c r="CT141" s="27">
+        <v>23.407599887087301</v>
+      </c>
+      <c r="CU141" s="27">
+        <v>22.489827073384035</v>
+      </c>
       <c r="CV141" s="11"/>
       <c r="CW141" s="11"/>
       <c r="CX141" s="11"/>
@@ -24064,22 +24176,24 @@
       <c r="CO142" s="27">
         <v>1.8417895889845386</v>
       </c>
-      <c r="CP142" s="35">
+      <c r="CP142" s="27">
         <v>1.9792010658018624</v>
       </c>
-      <c r="CQ142" s="35">
+      <c r="CQ142" s="27">
         <v>1.5572204486089327</v>
       </c>
-      <c r="CR142" s="35">
+      <c r="CR142" s="27">
         <v>1.2049994279654002</v>
       </c>
-      <c r="CS142" s="35">
+      <c r="CS142" s="27">
         <v>0.991552716709866</v>
       </c>
-      <c r="CT142" s="35">
-        <v>1.67150714141523</v>
-      </c>
-      <c r="CU142" s="11"/>
+      <c r="CT142" s="27">
+        <v>1.5426551623186426</v>
+      </c>
+      <c r="CU142" s="27">
+        <v>1.5487229449749498</v>
+      </c>
       <c r="CV142" s="11"/>
       <c r="CW142" s="11"/>
       <c r="CX142" s="11"/>
@@ -24414,22 +24528,24 @@
       <c r="CO143" s="27">
         <v>9.2500815990626162</v>
       </c>
-      <c r="CP143" s="35">
+      <c r="CP143" s="27">
         <v>4.0798074460848408</v>
       </c>
-      <c r="CQ143" s="35">
+      <c r="CQ143" s="27">
         <v>4.3412422733553582</v>
       </c>
-      <c r="CR143" s="35">
+      <c r="CR143" s="27">
         <v>4.0013516202799586</v>
       </c>
-      <c r="CS143" s="35">
+      <c r="CS143" s="27">
         <v>7.1046157768875222</v>
       </c>
-      <c r="CT143" s="35">
-        <v>6.4437532471916512</v>
-      </c>
-      <c r="CU143" s="11"/>
+      <c r="CT143" s="27">
+        <v>6.9724346754059683</v>
+      </c>
+      <c r="CU143" s="27">
+        <v>7.5360929372003058</v>
+      </c>
       <c r="CV143" s="11"/>
       <c r="CW143" s="11"/>
       <c r="CX143" s="11"/>
@@ -24577,11 +24693,11 @@
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
-      <c r="CP144" s="12"/>
-      <c r="CQ144" s="12"/>
-      <c r="CR144" s="12"/>
-      <c r="CS144" s="12"/>
-      <c r="CT144" s="12"/>
+      <c r="CP144" s="11"/>
+      <c r="CQ144" s="11"/>
+      <c r="CR144" s="11"/>
+      <c r="CS144" s="11"/>
+      <c r="CT144" s="11"/>
       <c r="CU144" s="11"/>
       <c r="CV144" s="11"/>
       <c r="CW144" s="11"/>
@@ -24917,22 +25033,24 @@
       <c r="CO145" s="20">
         <v>100</v>
       </c>
-      <c r="CP145" s="21">
+      <c r="CP145" s="20">
         <v>100</v>
       </c>
-      <c r="CQ145" s="21">
+      <c r="CQ145" s="20">
         <v>100</v>
       </c>
-      <c r="CR145" s="21">
+      <c r="CR145" s="20">
         <v>100</v>
       </c>
-      <c r="CS145" s="21">
+      <c r="CS145" s="20">
         <v>100</v>
       </c>
-      <c r="CT145" s="21">
+      <c r="CT145" s="20">
         <v>100</v>
       </c>
-      <c r="CU145" s="11"/>
+      <c r="CU145" s="20">
+        <v>100</v>
+      </c>
       <c r="CV145" s="11"/>
       <c r="CW145" s="11"/>
       <c r="CX145" s="11"/>
@@ -25081,11 +25199,12 @@
       <c r="CM146" s="16"/>
       <c r="CN146" s="16"/>
       <c r="CO146" s="16"/>
-      <c r="CP146" s="17"/>
-      <c r="CQ146" s="17"/>
-      <c r="CR146" s="17"/>
-      <c r="CS146" s="17"/>
-      <c r="CT146" s="17"/>
+      <c r="CP146" s="16"/>
+      <c r="CQ146" s="16"/>
+      <c r="CR146" s="16"/>
+      <c r="CS146" s="16"/>
+      <c r="CT146" s="16"/>
+      <c r="CU146" s="16"/>
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
@@ -25185,11 +25304,11 @@
       <c r="CM148" s="11"/>
       <c r="CN148" s="11"/>
       <c r="CO148" s="11"/>
-      <c r="CP148" s="12"/>
-      <c r="CQ148" s="12"/>
-      <c r="CR148" s="12"/>
-      <c r="CS148" s="12"/>
-      <c r="CT148" s="12"/>
+      <c r="CP148" s="11"/>
+      <c r="CQ148" s="11"/>
+      <c r="CR148" s="11"/>
+      <c r="CS148" s="11"/>
+      <c r="CT148" s="11"/>
       <c r="CU148" s="11"/>
       <c r="CV148" s="11"/>
       <c r="CW148" s="11"/>
@@ -25338,11 +25457,11 @@
       <c r="CM149" s="11"/>
       <c r="CN149" s="11"/>
       <c r="CO149" s="11"/>
-      <c r="CP149" s="12"/>
-      <c r="CQ149" s="12"/>
-      <c r="CR149" s="12"/>
-      <c r="CS149" s="12"/>
-      <c r="CT149" s="12"/>
+      <c r="CP149" s="11"/>
+      <c r="CQ149" s="11"/>
+      <c r="CR149" s="11"/>
+      <c r="CS149" s="11"/>
+      <c r="CT149" s="11"/>
       <c r="CU149" s="11"/>
       <c r="CV149" s="11"/>
       <c r="CW149" s="11"/>
@@ -25410,7 +25529,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:152" x14ac:dyDescent="0.2">
@@ -25420,7 +25539,7 @@
     </row>
     <row r="155" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.2">
@@ -25430,132 +25549,132 @@
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
-      <c r="B158" s="36">
+      <c r="B158" s="34">
         <v>2000</v>
       </c>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36">
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="34">
         <v>2001</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36">
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="34"/>
+      <c r="J158" s="34">
         <v>2002</v>
       </c>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36">
+      <c r="K158" s="34"/>
+      <c r="L158" s="34"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="34">
         <v>2003</v>
       </c>
-      <c r="O158" s="36"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="36"/>
-      <c r="R158" s="36">
+      <c r="O158" s="34"/>
+      <c r="P158" s="34"/>
+      <c r="Q158" s="34"/>
+      <c r="R158" s="34">
         <v>2004</v>
       </c>
-      <c r="S158" s="36"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="36">
+      <c r="S158" s="34"/>
+      <c r="T158" s="34"/>
+      <c r="U158" s="34"/>
+      <c r="V158" s="34">
         <v>2005</v>
       </c>
-      <c r="W158" s="36"/>
-      <c r="X158" s="36"/>
-      <c r="Y158" s="36"/>
-      <c r="Z158" s="36">
+      <c r="W158" s="34"/>
+      <c r="X158" s="34"/>
+      <c r="Y158" s="34"/>
+      <c r="Z158" s="34">
         <v>2006</v>
       </c>
-      <c r="AA158" s="36"/>
-      <c r="AB158" s="36"/>
-      <c r="AC158" s="36"/>
-      <c r="AD158" s="36">
+      <c r="AA158" s="34"/>
+      <c r="AB158" s="34"/>
+      <c r="AC158" s="34"/>
+      <c r="AD158" s="34">
         <v>2007</v>
       </c>
-      <c r="AE158" s="36"/>
-      <c r="AF158" s="36"/>
-      <c r="AG158" s="36"/>
-      <c r="AH158" s="36">
+      <c r="AE158" s="34"/>
+      <c r="AF158" s="34"/>
+      <c r="AG158" s="34"/>
+      <c r="AH158" s="34">
         <v>2008</v>
       </c>
-      <c r="AI158" s="36"/>
-      <c r="AJ158" s="36"/>
-      <c r="AK158" s="36"/>
-      <c r="AL158" s="36">
+      <c r="AI158" s="34"/>
+      <c r="AJ158" s="34"/>
+      <c r="AK158" s="34"/>
+      <c r="AL158" s="34">
         <v>2009</v>
       </c>
-      <c r="AM158" s="36"/>
-      <c r="AN158" s="36"/>
-      <c r="AO158" s="36"/>
-      <c r="AP158" s="36">
+      <c r="AM158" s="34"/>
+      <c r="AN158" s="34"/>
+      <c r="AO158" s="34"/>
+      <c r="AP158" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ158" s="36"/>
-      <c r="AR158" s="36"/>
-      <c r="AS158" s="36"/>
-      <c r="AT158" s="36">
+      <c r="AQ158" s="34"/>
+      <c r="AR158" s="34"/>
+      <c r="AS158" s="34"/>
+      <c r="AT158" s="34">
         <v>2011</v>
       </c>
-      <c r="AU158" s="36"/>
-      <c r="AV158" s="36"/>
-      <c r="AW158" s="36"/>
-      <c r="AX158" s="36">
+      <c r="AU158" s="34"/>
+      <c r="AV158" s="34"/>
+      <c r="AW158" s="34"/>
+      <c r="AX158" s="34">
         <v>2012</v>
       </c>
-      <c r="AY158" s="36"/>
-      <c r="AZ158" s="36"/>
-      <c r="BA158" s="36"/>
-      <c r="BB158" s="36">
+      <c r="AY158" s="34"/>
+      <c r="AZ158" s="34"/>
+      <c r="BA158" s="34"/>
+      <c r="BB158" s="34">
         <v>2013</v>
       </c>
-      <c r="BC158" s="36"/>
-      <c r="BD158" s="36"/>
-      <c r="BE158" s="36"/>
-      <c r="BF158" s="36">
+      <c r="BC158" s="34"/>
+      <c r="BD158" s="34"/>
+      <c r="BE158" s="34"/>
+      <c r="BF158" s="34">
         <v>2014</v>
       </c>
-      <c r="BG158" s="36"/>
-      <c r="BH158" s="36"/>
-      <c r="BI158" s="36"/>
-      <c r="BJ158" s="36">
+      <c r="BG158" s="34"/>
+      <c r="BH158" s="34"/>
+      <c r="BI158" s="34"/>
+      <c r="BJ158" s="34">
         <v>2015</v>
       </c>
-      <c r="BK158" s="36"/>
-      <c r="BL158" s="36"/>
-      <c r="BM158" s="36"/>
-      <c r="BN158" s="36">
+      <c r="BK158" s="34"/>
+      <c r="BL158" s="34"/>
+      <c r="BM158" s="34"/>
+      <c r="BN158" s="34">
         <v>2016</v>
       </c>
-      <c r="BO158" s="36"/>
-      <c r="BP158" s="36"/>
-      <c r="BQ158" s="36"/>
-      <c r="BR158" s="36">
+      <c r="BO158" s="34"/>
+      <c r="BP158" s="34"/>
+      <c r="BQ158" s="34"/>
+      <c r="BR158" s="34">
         <v>2017</v>
       </c>
-      <c r="BS158" s="36"/>
-      <c r="BT158" s="36"/>
-      <c r="BU158" s="36"/>
-      <c r="BV158" s="38">
+      <c r="BS158" s="34"/>
+      <c r="BT158" s="34"/>
+      <c r="BU158" s="34"/>
+      <c r="BV158" s="33">
         <v>2018</v>
       </c>
-      <c r="BW158" s="38"/>
-      <c r="BX158" s="38"/>
-      <c r="BY158" s="38"/>
-      <c r="BZ158" s="38">
+      <c r="BW158" s="33"/>
+      <c r="BX158" s="33"/>
+      <c r="BY158" s="33"/>
+      <c r="BZ158" s="33">
         <v>2019</v>
       </c>
-      <c r="CA158" s="38"/>
-      <c r="CB158" s="38"/>
-      <c r="CC158" s="38"/>
-      <c r="CD158" s="37">
+      <c r="CA158" s="33"/>
+      <c r="CB158" s="33"/>
+      <c r="CC158" s="33"/>
+      <c r="CD158" s="32">
         <v>2020</v>
       </c>
-      <c r="CE158" s="37"/>
-      <c r="CF158" s="37"/>
-      <c r="CG158" s="37"/>
+      <c r="CE158" s="32"/>
+      <c r="CF158" s="32"/>
+      <c r="CG158" s="32"/>
       <c r="CH158" s="28">
         <v>2021</v>
       </c>
@@ -25568,15 +25687,16 @@
       <c r="CM158" s="28"/>
       <c r="CN158" s="28"/>
       <c r="CO158" s="28"/>
-      <c r="CP158" s="30">
+      <c r="CP158" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ158" s="30"/>
-      <c r="CR158" s="30"/>
-      <c r="CS158" s="30"/>
-      <c r="CT158" s="30">
+      <c r="CQ158" s="28"/>
+      <c r="CR158" s="28"/>
+      <c r="CS158" s="28"/>
+      <c r="CT158" s="28">
         <v>2024</v>
       </c>
+      <c r="CU158" s="28"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -25856,20 +25976,23 @@
       <c r="CO159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP159" s="19" t="s">
+      <c r="CP159" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ159" s="19" t="s">
+      <c r="CQ159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR159" s="19" t="s">
+      <c r="CR159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS159" s="19" t="s">
+      <c r="CS159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CT159" s="19" t="s">
+      <c r="CT159" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU159" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26155,22 +26278,24 @@
       <c r="CO161" s="27">
         <v>21.60702072930027</v>
       </c>
-      <c r="CP161" s="35">
+      <c r="CP161" s="27">
         <v>19.356069871901031</v>
       </c>
-      <c r="CQ161" s="35">
+      <c r="CQ161" s="27">
         <v>23.761728941018958</v>
       </c>
-      <c r="CR161" s="35">
+      <c r="CR161" s="27">
         <v>18.090487977299556</v>
       </c>
-      <c r="CS161" s="35">
+      <c r="CS161" s="27">
         <v>17.485868435285113</v>
       </c>
-      <c r="CT161" s="35">
-        <v>14.918179917532246</v>
-      </c>
-      <c r="CU161" s="11"/>
+      <c r="CT161" s="27">
+        <v>15.117248848515855</v>
+      </c>
+      <c r="CU161" s="27">
+        <v>23.261792481115531</v>
+      </c>
       <c r="CV161" s="11"/>
       <c r="CW161" s="11"/>
       <c r="CX161" s="11"/>
@@ -26505,22 +26630,24 @@
       <c r="CO162" s="27">
         <v>2.6599409582299218</v>
       </c>
-      <c r="CP162" s="35">
+      <c r="CP162" s="27">
         <v>6.8505650458009191</v>
       </c>
-      <c r="CQ162" s="35">
+      <c r="CQ162" s="27">
         <v>7.9164552492050388</v>
       </c>
-      <c r="CR162" s="35">
+      <c r="CR162" s="27">
         <v>4.2848398443074451</v>
       </c>
-      <c r="CS162" s="35">
+      <c r="CS162" s="27">
         <v>2.2378295185871169</v>
       </c>
-      <c r="CT162" s="35">
-        <v>5.2017799959608269</v>
-      </c>
-      <c r="CU162" s="11"/>
+      <c r="CT162" s="27">
+        <v>5.2430770039212087</v>
+      </c>
+      <c r="CU162" s="27">
+        <v>6.9582425729864132</v>
+      </c>
       <c r="CV162" s="11"/>
       <c r="CW162" s="11"/>
       <c r="CX162" s="11"/>
@@ -26855,22 +26982,24 @@
       <c r="CO163" s="27">
         <v>39.316970437430001</v>
       </c>
-      <c r="CP163" s="35">
+      <c r="CP163" s="27">
         <v>29.556809084689633</v>
       </c>
-      <c r="CQ163" s="35">
+      <c r="CQ163" s="27">
         <v>29.629429274687535</v>
       </c>
-      <c r="CR163" s="35">
+      <c r="CR163" s="27">
         <v>48.287669230380622</v>
       </c>
-      <c r="CS163" s="35">
+      <c r="CS163" s="27">
         <v>50.075405000320373</v>
       </c>
-      <c r="CT163" s="35">
-        <v>34.558235899899351</v>
-      </c>
-      <c r="CU163" s="11"/>
+      <c r="CT163" s="27">
+        <v>34.647745971607094</v>
+      </c>
+      <c r="CU163" s="27">
+        <v>31.137297414228073</v>
+      </c>
       <c r="CV163" s="11"/>
       <c r="CW163" s="11"/>
       <c r="CX163" s="11"/>
@@ -27205,22 +27334,24 @@
       <c r="CO164" s="27">
         <v>1.0632285492369367</v>
       </c>
-      <c r="CP164" s="35">
+      <c r="CP164" s="27">
         <v>1.2490508773460884</v>
       </c>
-      <c r="CQ164" s="35">
+      <c r="CQ164" s="27">
         <v>1.1031048332403861</v>
       </c>
-      <c r="CR164" s="35">
+      <c r="CR164" s="27">
         <v>0.88851190668751601</v>
       </c>
-      <c r="CS164" s="35">
+      <c r="CS164" s="27">
         <v>0.85537388174375306</v>
       </c>
-      <c r="CT164" s="35">
-        <v>1.0600437914556107</v>
-      </c>
-      <c r="CU164" s="11"/>
+      <c r="CT164" s="27">
+        <v>1.064362839494795</v>
+      </c>
+      <c r="CU164" s="27">
+        <v>1.0148225386289349</v>
+      </c>
       <c r="CV164" s="11"/>
       <c r="CW164" s="11"/>
       <c r="CX164" s="11"/>
@@ -27555,22 +27686,24 @@
       <c r="CO165" s="27">
         <v>5.7031513549500863</v>
       </c>
-      <c r="CP165" s="35">
+      <c r="CP165" s="27">
         <v>7.9432598640160927</v>
       </c>
-      <c r="CQ165" s="35">
+      <c r="CQ165" s="27">
         <v>6.1863783095722127</v>
       </c>
-      <c r="CR165" s="35">
+      <c r="CR165" s="27">
         <v>4.8521296163366427</v>
       </c>
-      <c r="CS165" s="35">
+      <c r="CS165" s="27">
         <v>3.7691068372462859</v>
       </c>
-      <c r="CT165" s="35">
-        <v>7.3751015235436732</v>
-      </c>
-      <c r="CU165" s="11"/>
+      <c r="CT165" s="27">
+        <v>7.5471672663119795</v>
+      </c>
+      <c r="CU165" s="27">
+        <v>6.0297373017375904</v>
+      </c>
       <c r="CV165" s="11"/>
       <c r="CW165" s="11"/>
       <c r="CX165" s="11"/>
@@ -27905,22 +28038,24 @@
       <c r="CO166" s="27">
         <v>19.351424764252361</v>
       </c>
-      <c r="CP166" s="35">
+      <c r="CP166" s="27">
         <v>28.281689980959392</v>
       </c>
-      <c r="CQ166" s="35">
+      <c r="CQ166" s="27">
         <v>25.633216706093375</v>
       </c>
-      <c r="CR166" s="35">
+      <c r="CR166" s="27">
         <v>18.935271319141979</v>
       </c>
-      <c r="CS166" s="35">
+      <c r="CS166" s="27">
         <v>18.106177436707373</v>
       </c>
-      <c r="CT166" s="35">
-        <v>27.75454797965266</v>
-      </c>
-      <c r="CU166" s="11"/>
+      <c r="CT166" s="27">
+        <v>26.793297768595082</v>
+      </c>
+      <c r="CU166" s="27">
+        <v>22.686762012746868</v>
+      </c>
       <c r="CV166" s="11"/>
       <c r="CW166" s="11"/>
       <c r="CX166" s="11"/>
@@ -28255,22 +28390,24 @@
       <c r="CO167" s="27">
         <v>1.7003055245669161</v>
       </c>
-      <c r="CP167" s="35">
+      <c r="CP167" s="27">
         <v>2.2143094054076462</v>
       </c>
-      <c r="CQ167" s="35">
+      <c r="CQ167" s="27">
         <v>1.5368349051653114</v>
       </c>
-      <c r="CR167" s="35">
+      <c r="CR167" s="27">
         <v>1.0735319753100376</v>
       </c>
-      <c r="CS167" s="35">
+      <c r="CS167" s="27">
         <v>0.92834725280068531</v>
       </c>
-      <c r="CT167" s="35">
-        <v>1.8862644575431144</v>
-      </c>
-      <c r="CU167" s="11"/>
+      <c r="CT167" s="27">
+        <v>1.7419306585274199</v>
+      </c>
+      <c r="CU167" s="27">
+        <v>1.5344689153419004</v>
+      </c>
       <c r="CV167" s="11"/>
       <c r="CW167" s="11"/>
       <c r="CX167" s="11"/>
@@ -28605,22 +28742,24 @@
       <c r="CO168" s="27">
         <v>8.5979576820335151</v>
       </c>
-      <c r="CP168" s="35">
+      <c r="CP168" s="27">
         <v>4.5482458698792172</v>
       </c>
-      <c r="CQ168" s="35">
+      <c r="CQ168" s="27">
         <v>4.2328517810171791</v>
       </c>
-      <c r="CR168" s="35">
+      <c r="CR168" s="27">
         <v>3.5875581305361957</v>
       </c>
-      <c r="CS168" s="35">
+      <c r="CS168" s="27">
         <v>6.5418916373092966</v>
       </c>
-      <c r="CT168" s="35">
-        <v>7.2458464344125089</v>
-      </c>
-      <c r="CU168" s="11"/>
+      <c r="CT168" s="27">
+        <v>7.8451696430265629</v>
+      </c>
+      <c r="CU168" s="27">
+        <v>7.3768767632147112</v>
+      </c>
       <c r="CV168" s="11"/>
       <c r="CW168" s="11"/>
       <c r="CX168" s="11"/>
@@ -28768,11 +28907,11 @@
       <c r="CM169" s="11"/>
       <c r="CN169" s="11"/>
       <c r="CO169" s="11"/>
-      <c r="CP169" s="12"/>
-      <c r="CQ169" s="12"/>
-      <c r="CR169" s="12"/>
-      <c r="CS169" s="12"/>
-      <c r="CT169" s="12"/>
+      <c r="CP169" s="11"/>
+      <c r="CQ169" s="11"/>
+      <c r="CR169" s="11"/>
+      <c r="CS169" s="11"/>
+      <c r="CT169" s="11"/>
       <c r="CU169" s="11"/>
       <c r="CV169" s="11"/>
       <c r="CW169" s="11"/>
@@ -29108,22 +29247,24 @@
       <c r="CO170" s="20">
         <v>100</v>
       </c>
-      <c r="CP170" s="21">
+      <c r="CP170" s="20">
         <v>100</v>
       </c>
-      <c r="CQ170" s="21">
+      <c r="CQ170" s="20">
         <v>100</v>
       </c>
-      <c r="CR170" s="21">
+      <c r="CR170" s="20">
         <v>100</v>
       </c>
-      <c r="CS170" s="21">
+      <c r="CS170" s="20">
         <v>100</v>
       </c>
-      <c r="CT170" s="21">
+      <c r="CT170" s="20">
         <v>100</v>
       </c>
-      <c r="CU170" s="11"/>
+      <c r="CU170" s="20">
+        <v>100</v>
+      </c>
       <c r="CV170" s="11"/>
       <c r="CW170" s="11"/>
       <c r="CX170" s="11"/>
@@ -29272,11 +29413,12 @@
       <c r="CM171" s="16"/>
       <c r="CN171" s="16"/>
       <c r="CO171" s="16"/>
-      <c r="CP171" s="17"/>
-      <c r="CQ171" s="17"/>
-      <c r="CR171" s="17"/>
-      <c r="CS171" s="17"/>
-      <c r="CT171" s="17"/>
+      <c r="CP171" s="16"/>
+      <c r="CQ171" s="16"/>
+      <c r="CR171" s="16"/>
+      <c r="CS171" s="16"/>
+      <c r="CT171" s="16"/>
+      <c r="CU171" s="16"/>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
@@ -29377,12 +29519,12 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
       <c r="CO173" s="1"/>
-      <c r="CP173" s="2"/>
-      <c r="CQ173" s="2"/>
-      <c r="CR173" s="2"/>
-      <c r="CS173" s="2"/>
-      <c r="CT173" s="2"/>
-      <c r="CU173" s="24"/>
+      <c r="CP173" s="1"/>
+      <c r="CQ173" s="1"/>
+      <c r="CR173" s="1"/>
+      <c r="CS173" s="1"/>
+      <c r="CT173" s="1"/>
+      <c r="CU173" s="1"/>
       <c r="CV173" s="24"/>
       <c r="CW173" s="24"/>
       <c r="CX173" s="24"/>
@@ -29531,12 +29673,12 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="1"/>
-      <c r="CP174" s="2"/>
-      <c r="CQ174" s="2"/>
-      <c r="CR174" s="2"/>
-      <c r="CS174" s="2"/>
-      <c r="CT174" s="2"/>
-      <c r="CU174" s="24"/>
+      <c r="CP174" s="1"/>
+      <c r="CQ174" s="1"/>
+      <c r="CR174" s="1"/>
+      <c r="CS174" s="1"/>
+      <c r="CT174" s="1"/>
+      <c r="CU174" s="1"/>
       <c r="CV174" s="24"/>
       <c r="CW174" s="24"/>
       <c r="CX174" s="24"/>
@@ -29593,54 +29735,81 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD158:CG158"/>
-    <mergeCell ref="CD133:CG133"/>
-    <mergeCell ref="CD108:CG108"/>
-    <mergeCell ref="CD34:CG34"/>
-    <mergeCell ref="CD59:CG59"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BZ158:CC158"/>
-    <mergeCell ref="BR158:BU158"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BZ59:CC59"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR133:BU133"/>
-    <mergeCell ref="BZ108:CC108"/>
-    <mergeCell ref="BZ34:CC34"/>
-    <mergeCell ref="BZ133:CC133"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BV158:BY158"/>
-    <mergeCell ref="BR59:BU59"/>
-    <mergeCell ref="BV59:BY59"/>
-    <mergeCell ref="BV133:BY133"/>
-    <mergeCell ref="BN59:BQ59"/>
-    <mergeCell ref="BR108:BU108"/>
-    <mergeCell ref="BR34:BU34"/>
-    <mergeCell ref="BV34:BY34"/>
-    <mergeCell ref="BV108:BY108"/>
-    <mergeCell ref="BN34:BQ34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BA34"/>
-    <mergeCell ref="BB34:BE34"/>
-    <mergeCell ref="AP34:AS34"/>
-    <mergeCell ref="BN158:BQ158"/>
-    <mergeCell ref="BF133:BI133"/>
-    <mergeCell ref="BJ133:BM133"/>
-    <mergeCell ref="BN133:BQ133"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ59:BM59"/>
-    <mergeCell ref="BF108:BI108"/>
-    <mergeCell ref="BF34:BI34"/>
-    <mergeCell ref="BF59:BI59"/>
-    <mergeCell ref="BB59:BE59"/>
-    <mergeCell ref="BB158:BE158"/>
-    <mergeCell ref="BF158:BI158"/>
-    <mergeCell ref="BJ158:BM158"/>
-    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AL158:AO158"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AT158:AW158"/>
+    <mergeCell ref="AX158:BA158"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BJ108:BM108"/>
+    <mergeCell ref="BN108:BQ108"/>
+    <mergeCell ref="BB133:BE133"/>
+    <mergeCell ref="AL108:AO108"/>
+    <mergeCell ref="AP108:AS108"/>
+    <mergeCell ref="AT108:AW108"/>
+    <mergeCell ref="AX108:BA108"/>
+    <mergeCell ref="BB108:BE108"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="J158:M158"/>
+    <mergeCell ref="N158:Q158"/>
+    <mergeCell ref="R158:U158"/>
+    <mergeCell ref="V158:Y158"/>
+    <mergeCell ref="Z158:AC158"/>
+    <mergeCell ref="AD158:AG158"/>
+    <mergeCell ref="AH158:AK158"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="V108:Y108"/>
+    <mergeCell ref="Z108:AC108"/>
+    <mergeCell ref="AD108:AG108"/>
+    <mergeCell ref="AH108:AK108"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AX59:BA59"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="R133:U133"/>
+    <mergeCell ref="V133:Y133"/>
+    <mergeCell ref="Z133:AC133"/>
+    <mergeCell ref="AD133:AG133"/>
+    <mergeCell ref="AH133:AK133"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="AL133:AO133"/>
+    <mergeCell ref="AP133:AS133"/>
+    <mergeCell ref="AT133:AW133"/>
+    <mergeCell ref="AX133:BA133"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="Z59:AC59"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
     <mergeCell ref="AL34:AO34"/>
     <mergeCell ref="BJ34:BM34"/>
     <mergeCell ref="AL59:AO59"/>
@@ -29665,81 +29834,54 @@
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="Z59:AC59"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AX59:BA59"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="R133:U133"/>
-    <mergeCell ref="V133:Y133"/>
-    <mergeCell ref="Z133:AC133"/>
-    <mergeCell ref="AD133:AG133"/>
-    <mergeCell ref="AH133:AK133"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="AL133:AO133"/>
-    <mergeCell ref="AP133:AS133"/>
-    <mergeCell ref="AT133:AW133"/>
-    <mergeCell ref="AX133:BA133"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="V108:Y108"/>
-    <mergeCell ref="Z108:AC108"/>
-    <mergeCell ref="AD108:AG108"/>
-    <mergeCell ref="AH108:AK108"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="J158:M158"/>
-    <mergeCell ref="N158:Q158"/>
-    <mergeCell ref="R158:U158"/>
-    <mergeCell ref="V158:Y158"/>
-    <mergeCell ref="Z158:AC158"/>
-    <mergeCell ref="AD158:AG158"/>
-    <mergeCell ref="AH158:AK158"/>
-    <mergeCell ref="AL158:AO158"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AT158:AW158"/>
-    <mergeCell ref="AX158:BA158"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="BJ108:BM108"/>
-    <mergeCell ref="BN108:BQ108"/>
-    <mergeCell ref="BB133:BE133"/>
-    <mergeCell ref="AL108:AO108"/>
-    <mergeCell ref="AP108:AS108"/>
-    <mergeCell ref="AT108:AW108"/>
-    <mergeCell ref="AX108:BA108"/>
-    <mergeCell ref="BB108:BE108"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BA34"/>
+    <mergeCell ref="BB34:BE34"/>
+    <mergeCell ref="AP34:AS34"/>
+    <mergeCell ref="BN158:BQ158"/>
+    <mergeCell ref="BF133:BI133"/>
+    <mergeCell ref="BJ133:BM133"/>
+    <mergeCell ref="BN133:BQ133"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ59:BM59"/>
+    <mergeCell ref="BF108:BI108"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="BF59:BI59"/>
+    <mergeCell ref="BB59:BE59"/>
+    <mergeCell ref="BB158:BE158"/>
+    <mergeCell ref="BF158:BI158"/>
+    <mergeCell ref="BJ158:BM158"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BV158:BY158"/>
+    <mergeCell ref="BR59:BU59"/>
+    <mergeCell ref="BV59:BY59"/>
+    <mergeCell ref="BV133:BY133"/>
+    <mergeCell ref="BN59:BQ59"/>
+    <mergeCell ref="BR108:BU108"/>
+    <mergeCell ref="BR34:BU34"/>
+    <mergeCell ref="BV34:BY34"/>
+    <mergeCell ref="BV108:BY108"/>
+    <mergeCell ref="BN34:BQ34"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD158:CG158"/>
+    <mergeCell ref="CD133:CG133"/>
+    <mergeCell ref="CD108:CG108"/>
+    <mergeCell ref="CD34:CG34"/>
+    <mergeCell ref="CD59:CG59"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BZ158:CC158"/>
+    <mergeCell ref="BR158:BU158"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BZ59:CC59"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR133:BU133"/>
+    <mergeCell ref="BZ108:CC108"/>
+    <mergeCell ref="BZ34:CC34"/>
+    <mergeCell ref="BZ133:CC133"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-07IOS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571EA56-6716-44B9-B84A-3EFE4EBB0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00EB4EC-1BCA-43B9-8725-236756F7D8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOS" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CT$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOS!$A$1:$CV$174</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="58">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -222,13 +222,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -363,15 +363,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,7 +731,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,8 +740,8 @@
     <col min="2" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="82" max="93" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="10.88671875" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -768,132 +776,132 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="36">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="36"/>
+      <c r="BL9" s="36"/>
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="36"/>
+      <c r="BQ9" s="36"/>
+      <c r="BR9" s="36">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="34">
+      <c r="BS9" s="36"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="36"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="34"/>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
       <c r="CH9" s="28">
         <v>2021</v>
       </c>
@@ -906,16 +914,17 @@
       <c r="CM9" s="28"/>
       <c r="CN9" s="28"/>
       <c r="CO9" s="28"/>
-      <c r="CP9" s="28">
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="28"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="28"/>
-      <c r="CT9" s="28">
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
         <v>2024</v>
       </c>
-      <c r="CU9" s="28"/>
+      <c r="CU9" s="30"/>
+      <c r="CV9" s="30"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -1195,23 +1204,26 @@
       <c r="CO10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,25 +1509,27 @@
       <c r="CO12" s="26">
         <v>101515.9470382054</v>
       </c>
-      <c r="CP12" s="26">
+      <c r="CP12" s="31">
         <v>84885.792716184369</v>
       </c>
-      <c r="CQ12" s="26">
+      <c r="CQ12" s="31">
         <v>101344.4665342735</v>
       </c>
-      <c r="CR12" s="26">
+      <c r="CR12" s="31">
         <v>97962.037742874556</v>
       </c>
-      <c r="CS12" s="26">
+      <c r="CS12" s="31">
         <v>102237.0952600827</v>
       </c>
-      <c r="CT12" s="26">
+      <c r="CT12" s="31">
         <v>83268.972162021208</v>
       </c>
-      <c r="CU12" s="26">
-        <v>119156.60174652931</v>
-      </c>
-      <c r="CV12" s="11"/>
+      <c r="CU12" s="31">
+        <v>116966.81832756536</v>
+      </c>
+      <c r="CV12" s="31">
+        <v>111643.4853987219</v>
+      </c>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
@@ -1849,25 +1863,27 @@
       <c r="CO13" s="26">
         <v>13222.013665936622</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="31">
         <v>24480.983703543759</v>
       </c>
-      <c r="CQ13" s="26">
+      <c r="CQ13" s="31">
         <v>37932.78385448979</v>
       </c>
-      <c r="CR13" s="26">
+      <c r="CR13" s="31">
         <v>23874.097382332508</v>
       </c>
-      <c r="CS13" s="26">
+      <c r="CS13" s="31">
         <v>13716.027882210739</v>
       </c>
-      <c r="CT13" s="26">
+      <c r="CT13" s="31">
         <v>23775.304940445902</v>
       </c>
-      <c r="CU13" s="26">
-        <v>39577.473008387307</v>
-      </c>
-      <c r="CV13" s="11"/>
+      <c r="CU13" s="31">
+        <v>39643.405043315986</v>
+      </c>
+      <c r="CV13" s="31">
+        <v>27096.291724476923</v>
+      </c>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
@@ -2201,25 +2217,27 @@
       <c r="CO14" s="26">
         <v>170420.64307232076</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="31">
         <v>150989.87083219792</v>
       </c>
-      <c r="CQ14" s="26">
+      <c r="CQ14" s="31">
         <v>141051.15207210169</v>
       </c>
-      <c r="CR14" s="26">
+      <c r="CR14" s="31">
         <v>230364.79165804994</v>
       </c>
-      <c r="CS14" s="26">
+      <c r="CS14" s="31">
         <v>279927.09415215178</v>
       </c>
-      <c r="CT14" s="26">
+      <c r="CT14" s="31">
         <v>224607.76829864515</v>
       </c>
-      <c r="CU14" s="26">
-        <v>175919.55146568015</v>
-      </c>
-      <c r="CV14" s="11"/>
+      <c r="CU14" s="31">
+        <v>177828.32622694282</v>
+      </c>
+      <c r="CV14" s="31">
+        <v>276689.06643049431</v>
+      </c>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
@@ -2553,25 +2571,27 @@
       <c r="CO15" s="26">
         <v>5182.2074286087072</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="31">
         <v>5018.0349438614548</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="31">
         <v>4924.0081288224646</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="31">
         <v>4848.3900517060219</v>
       </c>
-      <c r="CS15" s="26">
+      <c r="CS15" s="31">
         <v>5140.6721164338969</v>
       </c>
-      <c r="CT15" s="26">
+      <c r="CT15" s="31">
         <v>5426.0106915642818</v>
       </c>
-      <c r="CU15" s="26">
-        <v>5377.2053151229338</v>
-      </c>
-      <c r="CV15" s="11"/>
+      <c r="CU15" s="31">
+        <v>5355.8246482664845</v>
+      </c>
+      <c r="CV15" s="31">
+        <v>5117.1576972010853</v>
+      </c>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
@@ -2905,25 +2925,27 @@
       <c r="CO16" s="26">
         <v>28567.586843018984</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="31">
         <v>30633.757370232517</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="31">
         <v>28608.292664405577</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="31">
         <v>27198.614792630226</v>
       </c>
-      <c r="CS16" s="26">
+      <c r="CS16" s="31">
         <v>23493.475535282345</v>
       </c>
-      <c r="CT16" s="26">
+      <c r="CT16" s="31">
         <v>36933.703809140272</v>
       </c>
-      <c r="CU16" s="26">
-        <v>33099.268699162407</v>
-      </c>
-      <c r="CV16" s="11"/>
+      <c r="CU16" s="31">
+        <v>32504.196895584377</v>
+      </c>
+      <c r="CV16" s="31">
+        <v>34855.174959718526</v>
+      </c>
       <c r="CW16" s="11"/>
       <c r="CX16" s="11"/>
       <c r="CY16" s="11"/>
@@ -3257,25 +3279,27 @@
       <c r="CO17" s="26">
         <v>95705.4510154577</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="31">
         <v>106974.81694615472</v>
       </c>
-      <c r="CQ17" s="26">
+      <c r="CQ17" s="31">
         <v>116733.46614218912</v>
       </c>
-      <c r="CR17" s="26">
+      <c r="CR17" s="31">
         <v>104692.73572560465</v>
       </c>
-      <c r="CS17" s="26">
+      <c r="CS17" s="31">
         <v>111429.62348885107</v>
       </c>
-      <c r="CT17" s="26">
+      <c r="CT17" s="31">
         <v>128599.64051837537</v>
       </c>
-      <c r="CU17" s="26">
-        <v>122639.20559021382</v>
-      </c>
-      <c r="CV17" s="11"/>
+      <c r="CU17" s="31">
+        <v>121500.2712097929</v>
+      </c>
+      <c r="CV17" s="31">
+        <v>94968.03237743245</v>
+      </c>
       <c r="CW17" s="11"/>
       <c r="CX17" s="11"/>
       <c r="CY17" s="11"/>
@@ -3609,25 +3633,27 @@
       <c r="CO18" s="26">
         <v>8588.9949643320688</v>
       </c>
-      <c r="CP18" s="26">
+      <c r="CP18" s="31">
         <v>8490.2754181610162</v>
       </c>
-      <c r="CQ18" s="26">
+      <c r="CQ18" s="31">
         <v>7125.6013985669297</v>
       </c>
-      <c r="CR18" s="26">
+      <c r="CR18" s="31">
         <v>6215.3238216358241</v>
       </c>
-      <c r="CS18" s="26">
+      <c r="CS18" s="31">
         <v>5782.3129789755912</v>
       </c>
-      <c r="CT18" s="26">
+      <c r="CT18" s="31">
         <v>8475.2345509558891</v>
       </c>
-      <c r="CU18" s="26">
-        <v>8445.3362416398941</v>
-      </c>
-      <c r="CV18" s="11"/>
+      <c r="CU18" s="31">
+        <v>8204.6223828306684</v>
+      </c>
+      <c r="CV18" s="31">
+        <v>5411.0689663455887</v>
+      </c>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
@@ -3961,25 +3987,27 @@
       <c r="CO19" s="26">
         <v>43136.79735686491</v>
       </c>
-      <c r="CP19" s="26">
+      <c r="CP19" s="31">
         <v>17501.34913973014</v>
       </c>
-      <c r="CQ19" s="26">
+      <c r="CQ19" s="31">
         <v>19864.85731173911</v>
       </c>
-      <c r="CR19" s="26">
+      <c r="CR19" s="31">
         <v>20638.761701537696</v>
       </c>
-      <c r="CS19" s="26">
+      <c r="CS19" s="31">
         <v>41431.092190080744</v>
       </c>
-      <c r="CT19" s="26">
+      <c r="CT19" s="31">
         <v>38306.045776598279</v>
       </c>
-      <c r="CU19" s="26">
-        <v>41095.044797656577</v>
-      </c>
-      <c r="CV19" s="11"/>
+      <c r="CU19" s="31">
+        <v>43802.982250383611</v>
+      </c>
+      <c r="CV19" s="31">
+        <v>24774.245578193899</v>
+      </c>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
@@ -4126,13 +4154,13 @@
       <c r="CM20" s="11"/>
       <c r="CN20" s="11"/>
       <c r="CO20" s="11"/>
-      <c r="CP20" s="11"/>
-      <c r="CQ20" s="11"/>
-      <c r="CR20" s="11"/>
-      <c r="CS20" s="11"/>
-      <c r="CT20" s="11"/>
-      <c r="CU20" s="11"/>
-      <c r="CV20" s="11"/>
+      <c r="CP20" s="12"/>
+      <c r="CQ20" s="12"/>
+      <c r="CR20" s="12"/>
+      <c r="CS20" s="12"/>
+      <c r="CT20" s="12"/>
+      <c r="CU20" s="12"/>
+      <c r="CV20" s="12"/>
       <c r="CW20" s="11"/>
       <c r="CX20" s="11"/>
       <c r="CY20" s="11"/>
@@ -4466,25 +4494,27 @@
       <c r="CO21" s="14">
         <v>466339.64138474519</v>
       </c>
-      <c r="CP21" s="14">
+      <c r="CP21" s="15">
         <v>428974.88107006589</v>
       </c>
-      <c r="CQ21" s="14">
+      <c r="CQ21" s="15">
         <v>457584.62810658821</v>
       </c>
-      <c r="CR21" s="14">
+      <c r="CR21" s="15">
         <v>515794.75287637138</v>
       </c>
-      <c r="CS21" s="14">
+      <c r="CS21" s="15">
         <v>583157.3936040689</v>
       </c>
-      <c r="CT21" s="14">
+      <c r="CT21" s="15">
         <v>549392.68074774637</v>
       </c>
-      <c r="CU21" s="14">
-        <v>545309.68686439237</v>
-      </c>
-      <c r="CV21" s="11"/>
+      <c r="CU21" s="15">
+        <v>545806.44698468223</v>
+      </c>
+      <c r="CV21" s="15">
+        <v>580554.52313258476</v>
+      </c>
       <c r="CW21" s="11"/>
       <c r="CX21" s="11"/>
       <c r="CY21" s="11"/>
@@ -4632,12 +4662,13 @@
       <c r="CM22" s="16"/>
       <c r="CN22" s="16"/>
       <c r="CO22" s="16"/>
-      <c r="CP22" s="16"/>
-      <c r="CQ22" s="16"/>
-      <c r="CR22" s="16"/>
-      <c r="CS22" s="16"/>
-      <c r="CT22" s="16"/>
-      <c r="CU22" s="16"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -4737,13 +4768,13 @@
       <c r="CM24" s="11"/>
       <c r="CN24" s="11"/>
       <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
-      <c r="CU24" s="11"/>
-      <c r="CV24" s="11"/>
+      <c r="CP24" s="12"/>
+      <c r="CQ24" s="12"/>
+      <c r="CR24" s="12"/>
+      <c r="CS24" s="12"/>
+      <c r="CT24" s="12"/>
+      <c r="CU24" s="12"/>
+      <c r="CV24" s="12"/>
       <c r="CW24" s="11"/>
       <c r="CX24" s="11"/>
       <c r="CY24" s="11"/>
@@ -4890,13 +4921,13 @@
       <c r="CM25" s="11"/>
       <c r="CN25" s="11"/>
       <c r="CO25" s="11"/>
-      <c r="CP25" s="11"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
-      <c r="CS25" s="11"/>
-      <c r="CT25" s="11"/>
-      <c r="CU25" s="11"/>
-      <c r="CV25" s="11"/>
+      <c r="CP25" s="12"/>
+      <c r="CQ25" s="12"/>
+      <c r="CR25" s="12"/>
+      <c r="CS25" s="12"/>
+      <c r="CT25" s="12"/>
+      <c r="CU25" s="12"/>
+      <c r="CV25" s="12"/>
       <c r="CW25" s="11"/>
       <c r="CX25" s="11"/>
       <c r="CY25" s="11"/>
@@ -4982,132 +5013,132 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="34">
+      <c r="B34" s="38">
         <v>2000</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38">
         <v>2001</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34">
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38">
         <v>2002</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34">
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38">
         <v>2003</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34">
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38">
         <v>2004</v>
       </c>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34">
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38">
         <v>2005</v>
       </c>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34">
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38">
         <v>2006</v>
       </c>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34">
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38">
         <v>2007</v>
       </c>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34">
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38">
         <v>2008</v>
       </c>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34">
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38">
         <v>2009</v>
       </c>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34">
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34">
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38">
         <v>2011</v>
       </c>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34">
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38">
         <v>2012</v>
       </c>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="34">
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38">
         <v>2013</v>
       </c>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34">
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38">
         <v>2014</v>
       </c>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34">
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38">
         <v>2015</v>
       </c>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="34"/>
-      <c r="BN34" s="34">
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38">
         <v>2016</v>
       </c>
-      <c r="BO34" s="34"/>
-      <c r="BP34" s="34"/>
-      <c r="BQ34" s="34"/>
-      <c r="BR34" s="34">
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38">
         <v>2017</v>
       </c>
-      <c r="BS34" s="34"/>
-      <c r="BT34" s="34"/>
-      <c r="BU34" s="34"/>
-      <c r="BV34" s="33">
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="37">
         <v>2018</v>
       </c>
-      <c r="BW34" s="33"/>
-      <c r="BX34" s="33"/>
-      <c r="BY34" s="33"/>
-      <c r="BZ34" s="33">
+      <c r="BW34" s="37"/>
+      <c r="BX34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="BZ34" s="37">
         <v>2019</v>
       </c>
-      <c r="CA34" s="33"/>
-      <c r="CB34" s="33"/>
-      <c r="CC34" s="33"/>
-      <c r="CD34" s="32">
+      <c r="CA34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37"/>
+      <c r="CD34" s="36">
         <v>2020</v>
       </c>
-      <c r="CE34" s="32"/>
-      <c r="CF34" s="32"/>
-      <c r="CG34" s="32"/>
+      <c r="CE34" s="36"/>
+      <c r="CF34" s="36"/>
+      <c r="CG34" s="36"/>
       <c r="CH34" s="28">
         <v>2021</v>
       </c>
@@ -5120,16 +5151,17 @@
       <c r="CM34" s="28"/>
       <c r="CN34" s="28"/>
       <c r="CO34" s="28"/>
-      <c r="CP34" s="28">
+      <c r="CP34" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ34" s="28"/>
-      <c r="CR34" s="28"/>
-      <c r="CS34" s="28"/>
-      <c r="CT34" s="28">
+      <c r="CQ34" s="30"/>
+      <c r="CR34" s="30"/>
+      <c r="CS34" s="30"/>
+      <c r="CT34" s="30">
         <v>2024</v>
       </c>
-      <c r="CU34" s="28"/>
+      <c r="CU34" s="30"/>
+      <c r="CV34" s="30"/>
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5409,23 +5441,26 @@
       <c r="CO35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP35" s="7" t="s">
+      <c r="CP35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ35" s="7" t="s">
+      <c r="CQ35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR35" s="7" t="s">
+      <c r="CR35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS35" s="7" t="s">
+      <c r="CS35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CT35" s="7" t="s">
+      <c r="CT35" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU35" s="7" t="s">
+      <c r="CU35" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV35" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5711,25 +5746,27 @@
       <c r="CO37" s="26">
         <v>97918.26872254943</v>
       </c>
-      <c r="CP37" s="26">
+      <c r="CP37" s="31">
         <v>80839.050828135922</v>
       </c>
-      <c r="CQ37" s="26">
+      <c r="CQ37" s="31">
         <v>90407.656491758637</v>
       </c>
-      <c r="CR37" s="26">
+      <c r="CR37" s="31">
         <v>89201.98190535813</v>
       </c>
-      <c r="CS37" s="26">
+      <c r="CS37" s="31">
         <v>95963.087990257947</v>
       </c>
-      <c r="CT37" s="26">
+      <c r="CT37" s="31">
         <v>78063.185772295023</v>
       </c>
-      <c r="CU37" s="26">
-        <v>102223.76385025865</v>
-      </c>
-      <c r="CV37" s="11"/>
+      <c r="CU37" s="31">
+        <v>100345.16123972469</v>
+      </c>
+      <c r="CV37" s="31">
+        <v>98104.106515600128</v>
+      </c>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="11"/>
@@ -6063,25 +6100,27 @@
       <c r="CO38" s="26">
         <v>12054.267767739022</v>
       </c>
-      <c r="CP38" s="26">
+      <c r="CP38" s="31">
         <v>28610.827487396422</v>
       </c>
-      <c r="CQ38" s="26">
+      <c r="CQ38" s="31">
         <v>30120.20583935747</v>
       </c>
-      <c r="CR38" s="26">
+      <c r="CR38" s="31">
         <v>21128.020799598424</v>
       </c>
-      <c r="CS38" s="26">
+      <c r="CS38" s="31">
         <v>12281.290562956849</v>
       </c>
-      <c r="CT38" s="26">
+      <c r="CT38" s="31">
         <v>27074.45635623917</v>
       </c>
-      <c r="CU38" s="26">
-        <v>30577.942184430864</v>
-      </c>
-      <c r="CV38" s="11"/>
+      <c r="CU38" s="31">
+        <v>30628.881918549909</v>
+      </c>
+      <c r="CV38" s="31">
+        <v>22843.866879373298</v>
+      </c>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
@@ -6415,25 +6454,27 @@
       <c r="CO39" s="26">
         <v>178175.86815327118</v>
       </c>
-      <c r="CP39" s="26">
+      <c r="CP39" s="31">
         <v>123441.60812228297</v>
       </c>
-      <c r="CQ39" s="26">
+      <c r="CQ39" s="31">
         <v>112732.84324393685</v>
       </c>
-      <c r="CR39" s="26">
+      <c r="CR39" s="31">
         <v>238100.58647092991</v>
       </c>
-      <c r="CS39" s="26">
+      <c r="CS39" s="31">
         <v>274815.66122827766</v>
       </c>
-      <c r="CT39" s="26">
+      <c r="CT39" s="31">
         <v>178915.71789786263</v>
       </c>
-      <c r="CU39" s="26">
-        <v>136832.60825197931</v>
-      </c>
-      <c r="CV39" s="11"/>
+      <c r="CU39" s="31">
+        <v>138317.2790971075</v>
+      </c>
+      <c r="CV39" s="31">
+        <v>274123.8073959793</v>
+      </c>
       <c r="CW39" s="11"/>
       <c r="CX39" s="11"/>
       <c r="CY39" s="11"/>
@@ -6767,25 +6808,27 @@
       <c r="CO40" s="26">
         <v>4818.3180875321104</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="31">
         <v>5216.5593547111621</v>
       </c>
-      <c r="CQ40" s="26">
+      <c r="CQ40" s="31">
         <v>4197.0482487003283</v>
       </c>
-      <c r="CR40" s="26">
+      <c r="CR40" s="31">
         <v>4381.1434563008452</v>
       </c>
-      <c r="CS40" s="26">
+      <c r="CS40" s="31">
         <v>4694.3232692237671</v>
       </c>
-      <c r="CT40" s="26">
+      <c r="CT40" s="31">
         <v>5496.2086621182261</v>
       </c>
-      <c r="CU40" s="26">
-        <v>4459.6296533442974</v>
-      </c>
-      <c r="CV40" s="11"/>
+      <c r="CU40" s="31">
+        <v>4441.8974206446946</v>
+      </c>
+      <c r="CV40" s="31">
+        <v>4405.0072759949253</v>
+      </c>
       <c r="CW40" s="11"/>
       <c r="CX40" s="11"/>
       <c r="CY40" s="11"/>
@@ -7119,25 +7162,27 @@
       <c r="CO41" s="26">
         <v>25845.428388102409</v>
       </c>
-      <c r="CP41" s="26">
+      <c r="CP41" s="31">
         <v>33174.378483746579</v>
       </c>
-      <c r="CQ41" s="26">
+      <c r="CQ41" s="31">
         <v>23537.679708751326</v>
       </c>
-      <c r="CR41" s="26">
+      <c r="CR41" s="31">
         <v>23925.257228109462</v>
       </c>
-      <c r="CS41" s="26">
+      <c r="CS41" s="31">
         <v>20684.996710685286</v>
       </c>
-      <c r="CT41" s="26">
+      <c r="CT41" s="31">
         <v>38972.429856014234</v>
       </c>
-      <c r="CU41" s="26">
-        <v>26497.633082760622</v>
-      </c>
-      <c r="CV41" s="11"/>
+      <c r="CU41" s="31">
+        <v>26021.248107236788</v>
+      </c>
+      <c r="CV41" s="31">
+        <v>29208.21408130394</v>
+      </c>
       <c r="CW41" s="11"/>
       <c r="CX41" s="11"/>
       <c r="CY41" s="11"/>
@@ -7471,25 +7516,27 @@
       <c r="CO42" s="26">
         <v>87696.403588891451</v>
       </c>
-      <c r="CP42" s="26">
+      <c r="CP42" s="31">
         <v>118116.1769412344</v>
       </c>
-      <c r="CQ42" s="26">
+      <c r="CQ42" s="31">
         <v>97528.216759631192</v>
       </c>
-      <c r="CR42" s="26">
+      <c r="CR42" s="31">
         <v>93367.505160868692</v>
       </c>
-      <c r="CS42" s="26">
+      <c r="CS42" s="31">
         <v>99367.366565550969</v>
       </c>
-      <c r="CT42" s="26">
+      <c r="CT42" s="31">
         <v>138356.53577718255</v>
       </c>
-      <c r="CU42" s="26">
-        <v>99696.7969859062</v>
-      </c>
-      <c r="CV42" s="11"/>
+      <c r="CU42" s="31">
+        <v>98770.925775646567</v>
+      </c>
+      <c r="CV42" s="31">
+        <v>80683.467135111598</v>
+      </c>
       <c r="CW42" s="11"/>
       <c r="CX42" s="11"/>
       <c r="CY42" s="11"/>
@@ -7823,25 +7870,27 @@
       <c r="CO43" s="26">
         <v>7705.4109102236398</v>
       </c>
-      <c r="CP43" s="26">
+      <c r="CP43" s="31">
         <v>9247.8830546496483</v>
       </c>
-      <c r="CQ43" s="26">
+      <c r="CQ43" s="31">
         <v>5847.2867246154101</v>
       </c>
-      <c r="CR43" s="26">
+      <c r="CR43" s="31">
         <v>5293.4547678643676</v>
       </c>
-      <c r="CS43" s="26">
+      <c r="CS43" s="31">
         <v>5094.8038089006595</v>
       </c>
-      <c r="CT43" s="26">
+      <c r="CT43" s="31">
         <v>8995.0663617230985</v>
       </c>
-      <c r="CU43" s="26">
-        <v>6743.2115631164252</v>
-      </c>
-      <c r="CV43" s="11"/>
+      <c r="CU43" s="31">
+        <v>6551.0126464976174</v>
+      </c>
+      <c r="CV43" s="31">
+        <v>4390.2213932603399</v>
+      </c>
       <c r="CW43" s="11"/>
       <c r="CX43" s="11"/>
       <c r="CY43" s="11"/>
@@ -8175,25 +8224,27 @@
       <c r="CO44" s="26">
         <v>38964.054384083065</v>
       </c>
-      <c r="CP44" s="26">
+      <c r="CP44" s="31">
         <v>18995.378787497346</v>
       </c>
-      <c r="CQ44" s="26">
+      <c r="CQ44" s="31">
         <v>16104.981701820538</v>
       </c>
-      <c r="CR44" s="26">
+      <c r="CR44" s="31">
         <v>17689.810017622338</v>
       </c>
-      <c r="CS44" s="26">
+      <c r="CS44" s="31">
         <v>35902.141499991711</v>
       </c>
-      <c r="CT44" s="26">
+      <c r="CT44" s="31">
         <v>40511.269040786923</v>
       </c>
-      <c r="CU44" s="26">
-        <v>32417.626836259962</v>
-      </c>
-      <c r="CV44" s="11"/>
+      <c r="CU44" s="31">
+        <v>34553.770166208189</v>
+      </c>
+      <c r="CV44" s="31">
+        <v>20228.695497028424</v>
+      </c>
       <c r="CW44" s="11"/>
       <c r="CX44" s="11"/>
       <c r="CY44" s="11"/>
@@ -8340,13 +8391,13 @@
       <c r="CM45" s="11"/>
       <c r="CN45" s="11"/>
       <c r="CO45" s="11"/>
-      <c r="CP45" s="11"/>
-      <c r="CQ45" s="11"/>
-      <c r="CR45" s="11"/>
-      <c r="CS45" s="11"/>
-      <c r="CT45" s="11"/>
-      <c r="CU45" s="11"/>
-      <c r="CV45" s="11"/>
+      <c r="CP45" s="12"/>
+      <c r="CQ45" s="12"/>
+      <c r="CR45" s="12"/>
+      <c r="CS45" s="12"/>
+      <c r="CT45" s="12"/>
+      <c r="CU45" s="12"/>
+      <c r="CV45" s="12"/>
       <c r="CW45" s="11"/>
       <c r="CX45" s="11"/>
       <c r="CY45" s="11"/>
@@ -8680,25 +8731,27 @@
       <c r="CO46" s="14">
         <v>453178.0200023923</v>
       </c>
-      <c r="CP46" s="14">
+      <c r="CP46" s="15">
         <v>417641.86305965437</v>
       </c>
-      <c r="CQ46" s="14">
+      <c r="CQ46" s="15">
         <v>380475.91871857177</v>
       </c>
-      <c r="CR46" s="14">
+      <c r="CR46" s="15">
         <v>493087.7598066522</v>
       </c>
-      <c r="CS46" s="14">
+      <c r="CS46" s="15">
         <v>548803.67163584486</v>
       </c>
-      <c r="CT46" s="14">
+      <c r="CT46" s="15">
         <v>516384.86972422188</v>
       </c>
-      <c r="CU46" s="14">
-        <v>439449.21240805625</v>
-      </c>
-      <c r="CV46" s="11"/>
+      <c r="CU46" s="15">
+        <v>439630.17637161602</v>
+      </c>
+      <c r="CV46" s="15">
+        <v>533987.38617365202</v>
+      </c>
       <c r="CW46" s="11"/>
       <c r="CX46" s="11"/>
       <c r="CY46" s="11"/>
@@ -8846,12 +8899,13 @@
       <c r="CM47" s="16"/>
       <c r="CN47" s="16"/>
       <c r="CO47" s="16"/>
-      <c r="CP47" s="16"/>
-      <c r="CQ47" s="16"/>
-      <c r="CR47" s="16"/>
-      <c r="CS47" s="16"/>
-      <c r="CT47" s="16"/>
-      <c r="CU47" s="16"/>
+      <c r="CP47" s="17"/>
+      <c r="CQ47" s="17"/>
+      <c r="CR47" s="17"/>
+      <c r="CS47" s="17"/>
+      <c r="CT47" s="17"/>
+      <c r="CU47" s="17"/>
+      <c r="CV47" s="17"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -8951,13 +9005,13 @@
       <c r="CM49" s="11"/>
       <c r="CN49" s="11"/>
       <c r="CO49" s="11"/>
-      <c r="CP49" s="11"/>
-      <c r="CQ49" s="11"/>
-      <c r="CR49" s="11"/>
-      <c r="CS49" s="11"/>
-      <c r="CT49" s="11"/>
-      <c r="CU49" s="11"/>
-      <c r="CV49" s="11"/>
+      <c r="CP49" s="12"/>
+      <c r="CQ49" s="12"/>
+      <c r="CR49" s="12"/>
+      <c r="CS49" s="12"/>
+      <c r="CT49" s="12"/>
+      <c r="CU49" s="12"/>
+      <c r="CV49" s="12"/>
       <c r="CW49" s="11"/>
       <c r="CX49" s="11"/>
       <c r="CY49" s="11"/>
@@ -9104,13 +9158,13 @@
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
-      <c r="CP50" s="11"/>
-      <c r="CQ50" s="11"/>
-      <c r="CR50" s="11"/>
-      <c r="CS50" s="11"/>
-      <c r="CT50" s="11"/>
-      <c r="CU50" s="11"/>
-      <c r="CV50" s="11"/>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
+      <c r="CU50" s="12"/>
+      <c r="CV50" s="12"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
@@ -9180,176 +9234,177 @@
       </c>
     </row>
     <row r="54" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CP54" s="8"/>
-      <c r="CQ54" s="8"/>
-      <c r="CR54" s="8"/>
-      <c r="CS54" s="8"/>
-      <c r="CT54" s="8"/>
-      <c r="CU54" s="8"/>
+      <c r="CP54" s="32"/>
+      <c r="CQ54" s="32"/>
+      <c r="CR54" s="32"/>
+      <c r="CS54" s="32"/>
+      <c r="CT54" s="32"/>
+      <c r="CU54" s="32"/>
+      <c r="CV54" s="32"/>
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP55" s="8"/>
-      <c r="CQ55" s="8"/>
-      <c r="CR55" s="8"/>
-      <c r="CS55" s="8"/>
-      <c r="CT55" s="8"/>
-      <c r="CU55" s="8"/>
+      <c r="CP55" s="32"/>
+      <c r="CQ55" s="32"/>
+      <c r="CR55" s="32"/>
+      <c r="CS55" s="32"/>
+      <c r="CT55" s="32"/>
+      <c r="CU55" s="32"/>
+      <c r="CV55" s="32"/>
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CP56" s="8"/>
-      <c r="CQ56" s="8"/>
-      <c r="CR56" s="8"/>
-      <c r="CS56" s="8"/>
-      <c r="CT56" s="8"/>
-      <c r="CU56" s="8"/>
+      <c r="CP56" s="32"/>
+      <c r="CQ56" s="32"/>
+      <c r="CR56" s="32"/>
+      <c r="CS56" s="32"/>
+      <c r="CT56" s="32"/>
+      <c r="CU56" s="32"/>
+      <c r="CV56" s="32"/>
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CR57" s="8"/>
-      <c r="CS57" s="8"/>
-      <c r="CU57" s="8"/>
+      <c r="CS57" s="32"/>
+      <c r="CV57" s="32"/>
     </row>
     <row r="58" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CR58" s="8"/>
-      <c r="CS58" s="8"/>
-      <c r="CU58" s="8"/>
+      <c r="CS58" s="32"/>
+      <c r="CV58" s="32"/>
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32" t="s">
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32" t="s">
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32" t="s">
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32" t="s">
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32" t="s">
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="32"/>
-      <c r="AC59" s="32"/>
-      <c r="AD59" s="32" t="s">
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="32"/>
-      <c r="AG59" s="32"/>
-      <c r="AH59" s="32" t="s">
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI59" s="32"/>
-      <c r="AJ59" s="32"/>
-      <c r="AK59" s="32"/>
-      <c r="AL59" s="32" t="s">
+      <c r="AI59" s="36"/>
+      <c r="AJ59" s="36"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="32"/>
-      <c r="AO59" s="32"/>
-      <c r="AP59" s="32" t="s">
+      <c r="AM59" s="36"/>
+      <c r="AN59" s="36"/>
+      <c r="AO59" s="36"/>
+      <c r="AP59" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ59" s="32"/>
-      <c r="AR59" s="32"/>
-      <c r="AS59" s="32"/>
-      <c r="AT59" s="32" t="s">
+      <c r="AQ59" s="36"/>
+      <c r="AR59" s="36"/>
+      <c r="AS59" s="36"/>
+      <c r="AT59" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU59" s="32"/>
-      <c r="AV59" s="32"/>
-      <c r="AW59" s="32"/>
-      <c r="AX59" s="32" t="s">
+      <c r="AU59" s="36"/>
+      <c r="AV59" s="36"/>
+      <c r="AW59" s="36"/>
+      <c r="AX59" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY59" s="32"/>
-      <c r="AZ59" s="32"/>
-      <c r="BA59" s="32"/>
-      <c r="BB59" s="32" t="s">
+      <c r="AY59" s="36"/>
+      <c r="AZ59" s="36"/>
+      <c r="BA59" s="36"/>
+      <c r="BB59" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC59" s="32"/>
-      <c r="BD59" s="32"/>
-      <c r="BE59" s="32"/>
-      <c r="BF59" s="32" t="s">
+      <c r="BC59" s="36"/>
+      <c r="BD59" s="36"/>
+      <c r="BE59" s="36"/>
+      <c r="BF59" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG59" s="32"/>
-      <c r="BH59" s="32"/>
-      <c r="BI59" s="32"/>
-      <c r="BJ59" s="32" t="s">
+      <c r="BG59" s="36"/>
+      <c r="BH59" s="36"/>
+      <c r="BI59" s="36"/>
+      <c r="BJ59" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK59" s="32"/>
-      <c r="BL59" s="32"/>
-      <c r="BM59" s="32"/>
-      <c r="BN59" s="32" t="s">
+      <c r="BK59" s="36"/>
+      <c r="BL59" s="36"/>
+      <c r="BM59" s="36"/>
+      <c r="BN59" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO59" s="32"/>
-      <c r="BP59" s="32"/>
-      <c r="BQ59" s="32"/>
-      <c r="BR59" s="32" t="s">
+      <c r="BO59" s="36"/>
+      <c r="BP59" s="36"/>
+      <c r="BQ59" s="36"/>
+      <c r="BR59" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS59" s="32"/>
-      <c r="BT59" s="32"/>
-      <c r="BU59" s="32"/>
-      <c r="BV59" s="34" t="s">
+      <c r="BS59" s="36"/>
+      <c r="BT59" s="36"/>
+      <c r="BU59" s="36"/>
+      <c r="BV59" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="BW59" s="34"/>
-      <c r="BX59" s="34"/>
-      <c r="BY59" s="34"/>
-      <c r="BZ59" s="34" t="s">
+      <c r="BW59" s="38"/>
+      <c r="BX59" s="38"/>
+      <c r="BY59" s="38"/>
+      <c r="BZ59" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="CA59" s="34"/>
-      <c r="CB59" s="34"/>
-      <c r="CC59" s="34"/>
-      <c r="CD59" s="32" t="s">
+      <c r="CA59" s="38"/>
+      <c r="CB59" s="38"/>
+      <c r="CC59" s="38"/>
+      <c r="CD59" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE59" s="32"/>
-      <c r="CF59" s="32"/>
-      <c r="CG59" s="32"/>
+      <c r="CE59" s="36"/>
+      <c r="CF59" s="36"/>
+      <c r="CG59" s="36"/>
       <c r="CH59" s="28" t="s">
         <v>52</v>
       </c>
@@ -9362,14 +9417,15 @@
       <c r="CM59" s="28"/>
       <c r="CN59" s="28"/>
       <c r="CO59" s="28"/>
-      <c r="CP59" s="28" t="s">
+      <c r="CP59" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="29"/>
+      <c r="CQ59" s="30"/>
+      <c r="CR59" s="30"/>
       <c r="CS59" s="29"/>
-      <c r="CT59" s="28"/>
-      <c r="CU59" s="29"/>
+      <c r="CT59" s="30"/>
+      <c r="CU59" s="30"/>
+      <c r="CV59" s="29"/>
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -9649,22 +9705,24 @@
       <c r="CO60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP60" s="7" t="s">
+      <c r="CP60" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ60" s="7" t="s">
+      <c r="CQ60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR60" s="7"/>
-      <c r="CS60" s="7"/>
-      <c r="CT60" s="7"/>
-      <c r="CU60" s="7"/>
+      <c r="CR60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS60" s="19"/>
+      <c r="CT60" s="19"/>
+      <c r="CU60" s="19"/>
+      <c r="CV60" s="19"/>
     </row>
     <row r="61" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
-      <c r="CR61" s="8"/>
-      <c r="CS61" s="8"/>
-      <c r="CU61" s="8"/>
+      <c r="CS61" s="32"/>
+      <c r="CV61" s="32"/>
     </row>
     <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -9946,17 +10004,19 @@
       <c r="CO62" s="20">
         <v>0.71037924869665403</v>
       </c>
-      <c r="CP62" s="20">
+      <c r="CP62" s="21">
         <v>-1.9047010134770233</v>
       </c>
-      <c r="CQ62" s="20">
-        <v>17.57583400592668</v>
-      </c>
-      <c r="CR62" s="30"/>
-      <c r="CS62" s="30"/>
-      <c r="CT62" s="20"/>
-      <c r="CU62" s="30"/>
-      <c r="CV62" s="11"/>
+      <c r="CQ62" s="21">
+        <v>15.415100920195357</v>
+      </c>
+      <c r="CR62" s="21">
+        <v>13.966070909792279</v>
+      </c>
+      <c r="CS62" s="33"/>
+      <c r="CT62" s="21"/>
+      <c r="CU62" s="21"/>
+      <c r="CV62" s="33"/>
       <c r="CW62" s="11"/>
       <c r="CX62" s="11"/>
       <c r="CY62" s="11"/>
@@ -10286,17 +10346,19 @@
       <c r="CO63" s="20">
         <v>3.7363009051097009</v>
       </c>
-      <c r="CP63" s="20">
+      <c r="CP63" s="21">
         <v>-2.8825588532037045</v>
       </c>
-      <c r="CQ63" s="20">
-        <v>4.3357987122868451</v>
-      </c>
-      <c r="CR63" s="30"/>
-      <c r="CS63" s="30"/>
-      <c r="CT63" s="20"/>
-      <c r="CU63" s="30"/>
-      <c r="CV63" s="11"/>
+      <c r="CQ63" s="21">
+        <v>4.5096115154325247</v>
+      </c>
+      <c r="CR63" s="21">
+        <v>13.496612209217716</v>
+      </c>
+      <c r="CS63" s="33"/>
+      <c r="CT63" s="21"/>
+      <c r="CU63" s="21"/>
+      <c r="CV63" s="33"/>
       <c r="CW63" s="11"/>
       <c r="CX63" s="11"/>
       <c r="CY63" s="11"/>
@@ -10626,17 +10688,19 @@
       <c r="CO64" s="20">
         <v>64.256564877155284</v>
       </c>
-      <c r="CP64" s="20">
+      <c r="CP64" s="21">
         <v>48.756845118612119</v>
       </c>
-      <c r="CQ64" s="20">
-        <v>24.720393191651951</v>
-      </c>
-      <c r="CR64" s="30"/>
-      <c r="CS64" s="30"/>
-      <c r="CT64" s="20"/>
-      <c r="CU64" s="30"/>
-      <c r="CV64" s="11"/>
+      <c r="CQ64" s="21">
+        <v>26.073643224155731</v>
+      </c>
+      <c r="CR64" s="21">
+        <v>20.109094987574068</v>
+      </c>
+      <c r="CS64" s="33"/>
+      <c r="CT64" s="21"/>
+      <c r="CU64" s="21"/>
+      <c r="CV64" s="33"/>
       <c r="CW64" s="11"/>
       <c r="CX64" s="11"/>
       <c r="CY64" s="11"/>
@@ -10966,17 +11030,19 @@
       <c r="CO65" s="20">
         <v>-0.80149844920354951</v>
       </c>
-      <c r="CP65" s="20">
+      <c r="CP65" s="21">
         <v>8.1301894519866238</v>
       </c>
-      <c r="CQ65" s="20">
-        <v>9.2038269321226238</v>
-      </c>
-      <c r="CR65" s="30"/>
-      <c r="CS65" s="30"/>
-      <c r="CT65" s="20"/>
-      <c r="CU65" s="30"/>
-      <c r="CV65" s="11"/>
+      <c r="CQ65" s="21">
+        <v>8.7696142684330738</v>
+      </c>
+      <c r="CR65" s="21">
+        <v>5.5434410727843755</v>
+      </c>
+      <c r="CS65" s="33"/>
+      <c r="CT65" s="21"/>
+      <c r="CU65" s="21"/>
+      <c r="CV65" s="33"/>
       <c r="CW65" s="11"/>
       <c r="CX65" s="11"/>
       <c r="CY65" s="11"/>
@@ -11306,17 +11372,19 @@
       <c r="CO66" s="20">
         <v>-17.761777834506148</v>
       </c>
-      <c r="CP66" s="20">
+      <c r="CP66" s="21">
         <v>20.565372907959215</v>
       </c>
-      <c r="CQ66" s="20">
-        <v>15.698161674445174</v>
-      </c>
-      <c r="CR66" s="30"/>
-      <c r="CS66" s="30"/>
-      <c r="CT66" s="20"/>
-      <c r="CU66" s="30"/>
-      <c r="CV66" s="11"/>
+      <c r="CQ66" s="21">
+        <v>13.618094155007299</v>
+      </c>
+      <c r="CR66" s="21">
+        <v>28.150551877233596</v>
+      </c>
+      <c r="CS66" s="33"/>
+      <c r="CT66" s="21"/>
+      <c r="CU66" s="21"/>
+      <c r="CV66" s="33"/>
       <c r="CW66" s="11"/>
       <c r="CX66" s="11"/>
       <c r="CY66" s="11"/>
@@ -11646,17 +11714,19 @@
       <c r="CO67" s="20">
         <v>16.429756410482526</v>
       </c>
-      <c r="CP67" s="20">
+      <c r="CP67" s="21">
         <v>20.214873172538745</v>
       </c>
-      <c r="CQ67" s="20">
-        <v>5.0591656730479571</v>
-      </c>
-      <c r="CR67" s="30"/>
-      <c r="CS67" s="30"/>
-      <c r="CT67" s="20"/>
-      <c r="CU67" s="30"/>
-      <c r="CV67" s="11"/>
+      <c r="CQ67" s="21">
+        <v>4.0834948409717526</v>
+      </c>
+      <c r="CR67" s="21">
+        <v>-9.2888043098427175</v>
+      </c>
+      <c r="CS67" s="33"/>
+      <c r="CT67" s="21"/>
+      <c r="CU67" s="21"/>
+      <c r="CV67" s="33"/>
       <c r="CW67" s="11"/>
       <c r="CX67" s="11"/>
       <c r="CY67" s="11"/>
@@ -11986,17 +12056,19 @@
       <c r="CO68" s="20">
         <v>-32.67765317143531</v>
       </c>
-      <c r="CP68" s="20">
+      <c r="CP68" s="21">
         <v>-0.17715405524954519</v>
       </c>
-      <c r="CQ68" s="20">
-        <v>18.521030987481055</v>
-      </c>
-      <c r="CR68" s="30"/>
-      <c r="CS68" s="30"/>
-      <c r="CT68" s="20"/>
-      <c r="CU68" s="30"/>
-      <c r="CV68" s="11"/>
+      <c r="CQ68" s="21">
+        <v>15.142876003150363</v>
+      </c>
+      <c r="CR68" s="21">
+        <v>-12.939870525982698</v>
+      </c>
+      <c r="CS68" s="33"/>
+      <c r="CT68" s="21"/>
+      <c r="CU68" s="21"/>
+      <c r="CV68" s="33"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
       <c r="CY68" s="11"/>
@@ -12326,17 +12398,19 @@
       <c r="CO69" s="20">
         <v>-3.9541766456909073</v>
       </c>
-      <c r="CP69" s="20">
+      <c r="CP69" s="21">
         <v>118.87481628281452</v>
       </c>
-      <c r="CQ69" s="20">
-        <v>106.87309328605909</v>
-      </c>
-      <c r="CR69" s="30"/>
-      <c r="CS69" s="30"/>
-      <c r="CT69" s="20"/>
-      <c r="CU69" s="30"/>
-      <c r="CV69" s="11"/>
+      <c r="CQ69" s="21">
+        <v>120.50489244892941</v>
+      </c>
+      <c r="CR69" s="21">
+        <v>20.037461241427508</v>
+      </c>
+      <c r="CS69" s="33"/>
+      <c r="CT69" s="21"/>
+      <c r="CU69" s="21"/>
+      <c r="CV69" s="33"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="11"/>
@@ -12479,13 +12553,13 @@
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
-      <c r="CP70" s="11"/>
-      <c r="CQ70" s="11"/>
-      <c r="CR70" s="31"/>
-      <c r="CS70" s="31"/>
-      <c r="CT70" s="11"/>
-      <c r="CU70" s="31"/>
-      <c r="CV70" s="11"/>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="12"/>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="34"/>
+      <c r="CT70" s="12"/>
+      <c r="CU70" s="12"/>
+      <c r="CV70" s="34"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
@@ -12815,17 +12889,19 @@
       <c r="CO71" s="20">
         <v>25.049929676243266</v>
       </c>
-      <c r="CP71" s="20">
+      <c r="CP71" s="21">
         <v>28.071060799015015</v>
       </c>
-      <c r="CQ71" s="20">
-        <v>19.171329928803857</v>
-      </c>
-      <c r="CR71" s="30"/>
-      <c r="CS71" s="30"/>
-      <c r="CT71" s="20"/>
-      <c r="CU71" s="30"/>
-      <c r="CV71" s="11"/>
+      <c r="CQ71" s="21">
+        <v>19.279891294238126</v>
+      </c>
+      <c r="CR71" s="21">
+        <v>12.555337155927873</v>
+      </c>
+      <c r="CS71" s="33"/>
+      <c r="CT71" s="21"/>
+      <c r="CU71" s="21"/>
+      <c r="CV71" s="33"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
@@ -12969,20 +13045,20 @@
       <c r="CM72" s="16"/>
       <c r="CN72" s="16"/>
       <c r="CO72" s="16"/>
-      <c r="CP72" s="16"/>
-      <c r="CQ72" s="16"/>
-      <c r="CR72" s="6"/>
-      <c r="CS72" s="6"/>
-      <c r="CT72" s="16"/>
-      <c r="CU72" s="6"/>
+      <c r="CP72" s="17"/>
+      <c r="CQ72" s="17"/>
+      <c r="CR72" s="17"/>
+      <c r="CS72" s="7"/>
+      <c r="CT72" s="17"/>
+      <c r="CU72" s="17"/>
+      <c r="CV72" s="7"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CR73" s="8"/>
-      <c r="CS73" s="8"/>
-      <c r="CU73" s="8"/>
+      <c r="CS73" s="32"/>
+      <c r="CV73" s="32"/>
     </row>
     <row r="74" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
@@ -13077,13 +13153,13 @@
       <c r="CM74" s="11"/>
       <c r="CN74" s="11"/>
       <c r="CO74" s="11"/>
-      <c r="CP74" s="11"/>
-      <c r="CQ74" s="11"/>
-      <c r="CR74" s="31"/>
-      <c r="CS74" s="31"/>
-      <c r="CT74" s="11"/>
-      <c r="CU74" s="31"/>
-      <c r="CV74" s="11"/>
+      <c r="CP74" s="12"/>
+      <c r="CQ74" s="12"/>
+      <c r="CR74" s="12"/>
+      <c r="CS74" s="34"/>
+      <c r="CT74" s="12"/>
+      <c r="CU74" s="12"/>
+      <c r="CV74" s="34"/>
       <c r="CW74" s="11"/>
       <c r="CX74" s="11"/>
       <c r="CY74" s="11"/>
@@ -13226,13 +13302,13 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="31"/>
-      <c r="CS75" s="31"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="31"/>
-      <c r="CV75" s="11"/>
+      <c r="CP75" s="12"/>
+      <c r="CQ75" s="12"/>
+      <c r="CR75" s="12"/>
+      <c r="CS75" s="34"/>
+      <c r="CT75" s="12"/>
+      <c r="CU75" s="12"/>
+      <c r="CV75" s="34"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
@@ -13286,188 +13362,180 @@
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CR76" s="8"/>
-      <c r="CS76" s="8"/>
-      <c r="CU76" s="8"/>
+      <c r="CS76" s="32"/>
+      <c r="CV76" s="32"/>
     </row>
     <row r="77" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CR77" s="8"/>
-      <c r="CS77" s="8"/>
-      <c r="CU77" s="8"/>
+      <c r="CS77" s="32"/>
+      <c r="CV77" s="32"/>
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CR78" s="8"/>
-      <c r="CS78" s="8"/>
-      <c r="CU78" s="8"/>
+      <c r="CS78" s="32"/>
+      <c r="CV78" s="32"/>
     </row>
     <row r="79" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CR79" s="8"/>
-      <c r="CS79" s="8"/>
-      <c r="CU79" s="8"/>
+      <c r="CS79" s="32"/>
+      <c r="CV79" s="32"/>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CR80" s="8"/>
-      <c r="CS80" s="8"/>
-      <c r="CU80" s="8"/>
+      <c r="CS80" s="32"/>
+      <c r="CV80" s="32"/>
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CR81" s="8"/>
-      <c r="CS81" s="8"/>
-      <c r="CU81" s="8"/>
+      <c r="CS81" s="32"/>
+      <c r="CV81" s="32"/>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="CR82" s="8"/>
-      <c r="CS82" s="8"/>
-      <c r="CU82" s="8"/>
+      <c r="CS82" s="32"/>
+      <c r="CV82" s="32"/>
     </row>
     <row r="83" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CR83" s="8"/>
-      <c r="CS83" s="8"/>
-      <c r="CU83" s="8"/>
+      <c r="CS83" s="32"/>
+      <c r="CV83" s="32"/>
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32" t="s">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32" t="s">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32" t="s">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32" t="s">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32" t="s">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32" t="s">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32" t="s">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="32" t="s">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AI84" s="32"/>
-      <c r="AJ84" s="32"/>
-      <c r="AK84" s="32"/>
-      <c r="AL84" s="32" t="s">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AM84" s="32"/>
-      <c r="AN84" s="32"/>
-      <c r="AO84" s="32"/>
-      <c r="AP84" s="32" t="s">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="32"/>
-      <c r="AS84" s="32"/>
-      <c r="AT84" s="32" t="s">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AU84" s="32"/>
-      <c r="AV84" s="32"/>
-      <c r="AW84" s="32"/>
-      <c r="AX84" s="32" t="s">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY84" s="32"/>
-      <c r="AZ84" s="32"/>
-      <c r="BA84" s="32"/>
-      <c r="BB84" s="32" t="s">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="BC84" s="32"/>
-      <c r="BD84" s="32"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="32" t="s">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="32"/>
-      <c r="BI84" s="32"/>
-      <c r="BJ84" s="32" t="s">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="BK84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="32" t="s">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BO84" s="32"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="32"/>
-      <c r="BR84" s="32" t="s">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BS84" s="32"/>
-      <c r="BT84" s="32"/>
-      <c r="BU84" s="32"/>
-      <c r="BV84" s="34" t="s">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="BW84" s="34"/>
-      <c r="BX84" s="34"/>
-      <c r="BY84" s="34"/>
-      <c r="BZ84" s="34" t="s">
+      <c r="BW84" s="38"/>
+      <c r="BX84" s="38"/>
+      <c r="BY84" s="38"/>
+      <c r="BZ84" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="CA84" s="34"/>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="32" t="s">
+      <c r="CA84" s="38"/>
+      <c r="CB84" s="38"/>
+      <c r="CC84" s="38"/>
+      <c r="CD84" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
       <c r="CH84" s="28" t="s">
         <v>52</v>
       </c>
@@ -13480,14 +13548,15 @@
       <c r="CM84" s="28"/>
       <c r="CN84" s="28"/>
       <c r="CO84" s="28"/>
-      <c r="CP84" s="28" t="s">
+      <c r="CP84" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="CQ84" s="28"/>
-      <c r="CR84" s="29"/>
+      <c r="CQ84" s="30"/>
+      <c r="CR84" s="30"/>
       <c r="CS84" s="29"/>
-      <c r="CT84" s="28"/>
-      <c r="CU84" s="29"/>
+      <c r="CT84" s="30"/>
+      <c r="CU84" s="30"/>
+      <c r="CV84" s="29"/>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -13767,22 +13836,24 @@
       <c r="CO85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6"/>
-      <c r="CS85" s="6"/>
-      <c r="CT85" s="6"/>
-      <c r="CU85" s="6"/>
+      <c r="CR85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS85" s="7"/>
+      <c r="CT85" s="7"/>
+      <c r="CU85" s="7"/>
+      <c r="CV85" s="7"/>
     </row>
     <row r="86" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="CR86" s="8"/>
-      <c r="CS86" s="8"/>
-      <c r="CU86" s="8"/>
+      <c r="CS86" s="32"/>
+      <c r="CV86" s="32"/>
     </row>
     <row r="87" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -14064,17 +14135,19 @@
       <c r="CO87" s="20">
         <v>-1.9967476527097006</v>
       </c>
-      <c r="CP87" s="20">
+      <c r="CP87" s="21">
         <v>-3.4338169825155376</v>
       </c>
-      <c r="CQ87" s="20">
-        <v>13.069808262950772</v>
-      </c>
-      <c r="CR87" s="30"/>
-      <c r="CS87" s="30"/>
-      <c r="CT87" s="20"/>
-      <c r="CU87" s="30"/>
-      <c r="CV87" s="11"/>
+      <c r="CQ87" s="21">
+        <v>10.991884021318413</v>
+      </c>
+      <c r="CR87" s="21">
+        <v>9.979738588865672</v>
+      </c>
+      <c r="CS87" s="33"/>
+      <c r="CT87" s="21"/>
+      <c r="CU87" s="21"/>
+      <c r="CV87" s="33"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
@@ -14404,17 +14477,19 @@
       <c r="CO88" s="20">
         <v>1.8833395739342222</v>
       </c>
-      <c r="CP88" s="20">
+      <c r="CP88" s="21">
         <v>-5.3698940788554665</v>
       </c>
-      <c r="CQ88" s="20">
-        <v>1.5196985954036109</v>
-      </c>
-      <c r="CR88" s="30"/>
-      <c r="CS88" s="30"/>
-      <c r="CT88" s="20"/>
-      <c r="CU88" s="30"/>
-      <c r="CV88" s="11"/>
+      <c r="CQ88" s="21">
+        <v>1.6888200628687713</v>
+      </c>
+      <c r="CR88" s="21">
+        <v>8.1211870058717892</v>
+      </c>
+      <c r="CS88" s="33"/>
+      <c r="CT88" s="21"/>
+      <c r="CU88" s="21"/>
+      <c r="CV88" s="33"/>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
       <c r="CY88" s="11"/>
@@ -14744,17 +14819,19 @@
       <c r="CO89" s="20">
         <v>54.238429747329519</v>
       </c>
-      <c r="CP89" s="20">
+      <c r="CP89" s="21">
         <v>44.93955532451119</v>
       </c>
-      <c r="CQ89" s="20">
-        <v>21.377767396404806</v>
-      </c>
-      <c r="CR89" s="30"/>
-      <c r="CS89" s="30"/>
-      <c r="CT89" s="20"/>
-      <c r="CU89" s="30"/>
-      <c r="CV89" s="11"/>
+      <c r="CQ89" s="21">
+        <v>22.694749034059043</v>
+      </c>
+      <c r="CR89" s="21">
+        <v>15.129412933826416</v>
+      </c>
+      <c r="CS89" s="33"/>
+      <c r="CT89" s="21"/>
+      <c r="CU89" s="21"/>
+      <c r="CV89" s="33"/>
       <c r="CW89" s="11"/>
       <c r="CX89" s="11"/>
       <c r="CY89" s="11"/>
@@ -15084,17 +15161,19 @@
       <c r="CO90" s="20">
         <v>-2.5734045792699476</v>
       </c>
-      <c r="CP90" s="20">
+      <c r="CP90" s="21">
         <v>5.3607998757746032</v>
       </c>
-      <c r="CQ90" s="20">
-        <v>6.2563351451887996</v>
-      </c>
-      <c r="CR90" s="30"/>
-      <c r="CS90" s="30"/>
-      <c r="CT90" s="20"/>
-      <c r="CU90" s="30"/>
-      <c r="CV90" s="11"/>
+      <c r="CQ90" s="21">
+        <v>5.8338422013658402</v>
+      </c>
+      <c r="CR90" s="21">
+        <v>0.54469386661510555</v>
+      </c>
+      <c r="CS90" s="33"/>
+      <c r="CT90" s="21"/>
+      <c r="CU90" s="21"/>
+      <c r="CV90" s="33"/>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
       <c r="CY90" s="11"/>
@@ -15424,17 +15503,19 @@
       <c r="CO91" s="20">
         <v>-19.966516321287429</v>
       </c>
-      <c r="CP91" s="20">
+      <c r="CP91" s="21">
         <v>17.477498109296448</v>
       </c>
-      <c r="CQ91" s="20">
-        <v>12.575383005610291</v>
-      </c>
-      <c r="CR91" s="30"/>
-      <c r="CS91" s="30"/>
-      <c r="CT91" s="20"/>
-      <c r="CU91" s="30"/>
-      <c r="CV91" s="11"/>
+      <c r="CQ91" s="21">
+        <v>10.551458041813987</v>
+      </c>
+      <c r="CR91" s="21">
+        <v>22.081086956873364</v>
+      </c>
+      <c r="CS91" s="33"/>
+      <c r="CT91" s="21"/>
+      <c r="CU91" s="21"/>
+      <c r="CV91" s="33"/>
       <c r="CW91" s="11"/>
       <c r="CX91" s="11"/>
       <c r="CY91" s="11"/>
@@ -15764,17 +15845,19 @@
       <c r="CO92" s="20">
         <v>13.308371266136959</v>
       </c>
-      <c r="CP92" s="20">
+      <c r="CP92" s="21">
         <v>17.135975240731184</v>
       </c>
-      <c r="CQ92" s="20">
-        <v>2.2235413486741891</v>
-      </c>
-      <c r="CR92" s="30"/>
-      <c r="CS92" s="30"/>
-      <c r="CT92" s="20"/>
-      <c r="CU92" s="30"/>
-      <c r="CV92" s="11"/>
+      <c r="CQ92" s="21">
+        <v>1.274204591557492</v>
+      </c>
+      <c r="CR92" s="21">
+        <v>-13.585066885853891</v>
+      </c>
+      <c r="CS92" s="33"/>
+      <c r="CT92" s="21"/>
+      <c r="CU92" s="21"/>
+      <c r="CV92" s="33"/>
       <c r="CW92" s="11"/>
       <c r="CX92" s="11"/>
       <c r="CY92" s="11"/>
@@ -16104,17 +16187,19 @@
       <c r="CO93" s="20">
         <v>-33.88018019725844</v>
       </c>
-      <c r="CP93" s="20">
+      <c r="CP93" s="21">
         <v>-2.7337790868737102</v>
       </c>
-      <c r="CQ93" s="20">
-        <v>15.322060995049668</v>
-      </c>
-      <c r="CR93" s="30"/>
-      <c r="CS93" s="30"/>
-      <c r="CT93" s="20"/>
-      <c r="CU93" s="30"/>
-      <c r="CV93" s="11"/>
+      <c r="CQ93" s="21">
+        <v>12.035084903904618</v>
+      </c>
+      <c r="CR93" s="21">
+        <v>-17.063211347103575</v>
+      </c>
+      <c r="CS93" s="33"/>
+      <c r="CT93" s="21"/>
+      <c r="CU93" s="21"/>
+      <c r="CV93" s="33"/>
       <c r="CW93" s="11"/>
       <c r="CX93" s="11"/>
       <c r="CY93" s="11"/>
@@ -16444,17 +16529,19 @@
       <c r="CO94" s="20">
         <v>-7.8583015358436512</v>
       </c>
-      <c r="CP94" s="20">
+      <c r="CP94" s="21">
         <v>113.26907714760193</v>
       </c>
-      <c r="CQ94" s="20">
-        <v>101.28943600473269</v>
-      </c>
-      <c r="CR94" s="30"/>
-      <c r="CS94" s="30"/>
-      <c r="CT94" s="20"/>
-      <c r="CU94" s="30"/>
-      <c r="CV94" s="11"/>
+      <c r="CQ94" s="21">
+        <v>114.55330285971183</v>
+      </c>
+      <c r="CR94" s="21">
+        <v>14.352248423679413</v>
+      </c>
+      <c r="CS94" s="33"/>
+      <c r="CT94" s="21"/>
+      <c r="CU94" s="21"/>
+      <c r="CV94" s="33"/>
       <c r="CW94" s="11"/>
       <c r="CX94" s="11"/>
       <c r="CY94" s="11"/>
@@ -16597,13 +16684,13 @@
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
-      <c r="CP95" s="11"/>
-      <c r="CQ95" s="11"/>
-      <c r="CR95" s="31"/>
-      <c r="CS95" s="31"/>
-      <c r="CT95" s="11"/>
-      <c r="CU95" s="31"/>
-      <c r="CV95" s="11"/>
+      <c r="CP95" s="12"/>
+      <c r="CQ95" s="12"/>
+      <c r="CR95" s="12"/>
+      <c r="CS95" s="34"/>
+      <c r="CT95" s="12"/>
+      <c r="CU95" s="12"/>
+      <c r="CV95" s="34"/>
       <c r="CW95" s="11"/>
       <c r="CX95" s="11"/>
       <c r="CY95" s="11"/>
@@ -16933,17 +17020,19 @@
       <c r="CO96" s="20">
         <v>21.10112304938086</v>
       </c>
-      <c r="CP96" s="20">
+      <c r="CP96" s="21">
         <v>23.642985868603759</v>
       </c>
-      <c r="CQ96" s="20">
-        <v>15.499875494907613</v>
-      </c>
-      <c r="CR96" s="30"/>
-      <c r="CS96" s="30"/>
-      <c r="CT96" s="20"/>
-      <c r="CU96" s="30"/>
-      <c r="CV96" s="11"/>
+      <c r="CQ96" s="21">
+        <v>15.547438022430839</v>
+      </c>
+      <c r="CR96" s="21">
+        <v>8.2945937216201173</v>
+      </c>
+      <c r="CS96" s="33"/>
+      <c r="CT96" s="21"/>
+      <c r="CU96" s="21"/>
+      <c r="CV96" s="33"/>
       <c r="CW96" s="11"/>
       <c r="CX96" s="11"/>
       <c r="CY96" s="11"/>
@@ -17087,20 +17176,20 @@
       <c r="CM97" s="16"/>
       <c r="CN97" s="16"/>
       <c r="CO97" s="16"/>
-      <c r="CP97" s="16"/>
-      <c r="CQ97" s="16"/>
-      <c r="CR97" s="6"/>
-      <c r="CS97" s="6"/>
-      <c r="CT97" s="16"/>
-      <c r="CU97" s="6"/>
+      <c r="CP97" s="17"/>
+      <c r="CQ97" s="17"/>
+      <c r="CR97" s="17"/>
+      <c r="CS97" s="7"/>
+      <c r="CT97" s="17"/>
+      <c r="CU97" s="17"/>
+      <c r="CV97" s="7"/>
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="CR98" s="8"/>
-      <c r="CS98" s="8"/>
-      <c r="CU98" s="8"/>
+      <c r="CS98" s="32"/>
+      <c r="CV98" s="32"/>
     </row>
     <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
@@ -17195,13 +17284,13 @@
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
-      <c r="CP99" s="11"/>
-      <c r="CQ99" s="11"/>
-      <c r="CR99" s="31"/>
-      <c r="CS99" s="31"/>
-      <c r="CT99" s="11"/>
-      <c r="CU99" s="31"/>
-      <c r="CV99" s="11"/>
+      <c r="CP99" s="12"/>
+      <c r="CQ99" s="12"/>
+      <c r="CR99" s="34"/>
+      <c r="CS99" s="34"/>
+      <c r="CT99" s="12"/>
+      <c r="CU99" s="12"/>
+      <c r="CV99" s="34"/>
       <c r="CW99" s="11"/>
       <c r="CX99" s="11"/>
       <c r="CY99" s="11"/>
@@ -17344,13 +17433,13 @@
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
-      <c r="CP100" s="11"/>
-      <c r="CQ100" s="11"/>
-      <c r="CR100" s="11"/>
-      <c r="CS100" s="11"/>
-      <c r="CT100" s="11"/>
-      <c r="CU100" s="11"/>
-      <c r="CV100" s="11"/>
+      <c r="CP100" s="12"/>
+      <c r="CQ100" s="12"/>
+      <c r="CR100" s="12"/>
+      <c r="CS100" s="12"/>
+      <c r="CT100" s="12"/>
+      <c r="CU100" s="12"/>
+      <c r="CV100" s="12"/>
       <c r="CW100" s="11"/>
       <c r="CX100" s="11"/>
       <c r="CY100" s="11"/>
@@ -17427,132 +17516,132 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="34">
+      <c r="B108" s="38">
         <v>2000</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34">
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38">
         <v>2001</v>
       </c>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34">
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38">
         <v>2002</v>
       </c>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34">
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38">
         <v>2003</v>
       </c>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
-      <c r="Q108" s="34"/>
-      <c r="R108" s="34">
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="38">
         <v>2004</v>
       </c>
-      <c r="S108" s="34"/>
-      <c r="T108" s="34"/>
-      <c r="U108" s="34"/>
-      <c r="V108" s="34">
+      <c r="S108" s="38"/>
+      <c r="T108" s="38"/>
+      <c r="U108" s="38"/>
+      <c r="V108" s="38">
         <v>2005</v>
       </c>
-      <c r="W108" s="34"/>
-      <c r="X108" s="34"/>
-      <c r="Y108" s="34"/>
-      <c r="Z108" s="34">
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38">
         <v>2006</v>
       </c>
-      <c r="AA108" s="34"/>
-      <c r="AB108" s="34"/>
-      <c r="AC108" s="34"/>
-      <c r="AD108" s="34">
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="38"/>
+      <c r="AD108" s="38">
         <v>2007</v>
       </c>
-      <c r="AE108" s="34"/>
-      <c r="AF108" s="34"/>
-      <c r="AG108" s="34"/>
-      <c r="AH108" s="34">
+      <c r="AE108" s="38"/>
+      <c r="AF108" s="38"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="38">
         <v>2008</v>
       </c>
-      <c r="AI108" s="34"/>
-      <c r="AJ108" s="34"/>
-      <c r="AK108" s="34"/>
-      <c r="AL108" s="34">
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="38"/>
+      <c r="AL108" s="38">
         <v>2009</v>
       </c>
-      <c r="AM108" s="34"/>
-      <c r="AN108" s="34"/>
-      <c r="AO108" s="34"/>
-      <c r="AP108" s="34">
+      <c r="AM108" s="38"/>
+      <c r="AN108" s="38"/>
+      <c r="AO108" s="38"/>
+      <c r="AP108" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ108" s="34"/>
-      <c r="AR108" s="34"/>
-      <c r="AS108" s="34"/>
-      <c r="AT108" s="34">
+      <c r="AQ108" s="38"/>
+      <c r="AR108" s="38"/>
+      <c r="AS108" s="38"/>
+      <c r="AT108" s="38">
         <v>2011</v>
       </c>
-      <c r="AU108" s="34"/>
-      <c r="AV108" s="34"/>
-      <c r="AW108" s="34"/>
-      <c r="AX108" s="34">
+      <c r="AU108" s="38"/>
+      <c r="AV108" s="38"/>
+      <c r="AW108" s="38"/>
+      <c r="AX108" s="38">
         <v>2012</v>
       </c>
-      <c r="AY108" s="34"/>
-      <c r="AZ108" s="34"/>
-      <c r="BA108" s="34"/>
-      <c r="BB108" s="34">
+      <c r="AY108" s="38"/>
+      <c r="AZ108" s="38"/>
+      <c r="BA108" s="38"/>
+      <c r="BB108" s="38">
         <v>2013</v>
       </c>
-      <c r="BC108" s="34"/>
-      <c r="BD108" s="34"/>
-      <c r="BE108" s="34"/>
-      <c r="BF108" s="34">
+      <c r="BC108" s="38"/>
+      <c r="BD108" s="38"/>
+      <c r="BE108" s="38"/>
+      <c r="BF108" s="38">
         <v>2014</v>
       </c>
-      <c r="BG108" s="34"/>
-      <c r="BH108" s="34"/>
-      <c r="BI108" s="34"/>
-      <c r="BJ108" s="34">
+      <c r="BG108" s="38"/>
+      <c r="BH108" s="38"/>
+      <c r="BI108" s="38"/>
+      <c r="BJ108" s="38">
         <v>2015</v>
       </c>
-      <c r="BK108" s="34"/>
-      <c r="BL108" s="34"/>
-      <c r="BM108" s="34"/>
-      <c r="BN108" s="34">
+      <c r="BK108" s="38"/>
+      <c r="BL108" s="38"/>
+      <c r="BM108" s="38"/>
+      <c r="BN108" s="38">
         <v>2016</v>
       </c>
-      <c r="BO108" s="34"/>
-      <c r="BP108" s="34"/>
-      <c r="BQ108" s="34"/>
-      <c r="BR108" s="34">
+      <c r="BO108" s="38"/>
+      <c r="BP108" s="38"/>
+      <c r="BQ108" s="38"/>
+      <c r="BR108" s="38">
         <v>2017</v>
       </c>
-      <c r="BS108" s="34"/>
-      <c r="BT108" s="34"/>
-      <c r="BU108" s="34"/>
-      <c r="BV108" s="33">
+      <c r="BS108" s="38"/>
+      <c r="BT108" s="38"/>
+      <c r="BU108" s="38"/>
+      <c r="BV108" s="37">
         <v>2018</v>
       </c>
-      <c r="BW108" s="33"/>
-      <c r="BX108" s="33"/>
-      <c r="BY108" s="33"/>
-      <c r="BZ108" s="33">
+      <c r="BW108" s="37"/>
+      <c r="BX108" s="37"/>
+      <c r="BY108" s="37"/>
+      <c r="BZ108" s="37">
         <v>2019</v>
       </c>
-      <c r="CA108" s="33"/>
-      <c r="CB108" s="33"/>
-      <c r="CC108" s="33"/>
-      <c r="CD108" s="32">
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="36">
         <v>2020</v>
       </c>
-      <c r="CE108" s="32"/>
-      <c r="CF108" s="32"/>
-      <c r="CG108" s="32"/>
+      <c r="CE108" s="36"/>
+      <c r="CF108" s="36"/>
+      <c r="CG108" s="36"/>
       <c r="CH108" s="28">
         <v>2021</v>
       </c>
@@ -17565,16 +17654,17 @@
       <c r="CM108" s="28"/>
       <c r="CN108" s="28"/>
       <c r="CO108" s="28"/>
-      <c r="CP108" s="28">
+      <c r="CP108" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ108" s="28"/>
-      <c r="CR108" s="28"/>
-      <c r="CS108" s="28"/>
-      <c r="CT108" s="28">
+      <c r="CQ108" s="30"/>
+      <c r="CR108" s="30"/>
+      <c r="CS108" s="30"/>
+      <c r="CT108" s="30">
         <v>2024</v>
       </c>
-      <c r="CU108" s="28"/>
+      <c r="CU108" s="30"/>
+      <c r="CV108" s="30"/>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -17854,23 +17944,26 @@
       <c r="CO109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CP109" s="7" t="s">
+      <c r="CP109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ109" s="7" t="s">
+      <c r="CQ109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR109" s="7" t="s">
+      <c r="CR109" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CS109" s="7" t="s">
+      <c r="CS109" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CT109" s="7" t="s">
+      <c r="CT109" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU109" s="7" t="s">
+      <c r="CU109" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV109" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -18156,25 +18249,27 @@
       <c r="CO111" s="20">
         <v>103.67416454824172</v>
       </c>
-      <c r="CP111" s="20">
+      <c r="CP111" s="21">
         <v>105.00592454586315</v>
       </c>
-      <c r="CQ111" s="20">
+      <c r="CQ111" s="21">
         <v>112.09721661517887</v>
       </c>
-      <c r="CR111" s="20">
+      <c r="CR111" s="21">
         <v>109.82047220297268</v>
       </c>
-      <c r="CS111" s="20">
+      <c r="CS111" s="21">
         <v>106.53793807725495</v>
       </c>
-      <c r="CT111" s="20">
+      <c r="CT111" s="21">
         <v>106.66868298830528</v>
       </c>
-      <c r="CU111" s="20">
-        <v>116.56448291326325</v>
-      </c>
-      <c r="CV111" s="11"/>
+      <c r="CU111" s="21">
+        <v>116.56448291326326</v>
+      </c>
+      <c r="CV111" s="21">
+        <v>113.80103174475045</v>
+      </c>
       <c r="CW111" s="11"/>
       <c r="CX111" s="11"/>
       <c r="CY111" s="11"/>
@@ -18508,25 +18603,27 @@
       <c r="CO112" s="20">
         <v>109.68740632527553</v>
       </c>
-      <c r="CP112" s="20">
+      <c r="CP112" s="21">
         <v>85.565451451301328</v>
       </c>
-      <c r="CQ112" s="20">
+      <c r="CQ112" s="21">
         <v>125.93799676137598</v>
       </c>
-      <c r="CR112" s="20">
+      <c r="CR112" s="21">
         <v>112.99732051942262</v>
       </c>
-      <c r="CS112" s="20">
+      <c r="CS112" s="21">
         <v>111.68230091047096</v>
       </c>
-      <c r="CT112" s="20">
+      <c r="CT112" s="21">
         <v>87.814523873041693</v>
       </c>
-      <c r="CU112" s="20">
+      <c r="CU112" s="21">
         <v>129.43144692234608</v>
       </c>
-      <c r="CV112" s="11"/>
+      <c r="CV112" s="21">
+        <v>118.61517083582432</v>
+      </c>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
@@ -18860,25 +18957,27 @@
       <c r="CO113" s="20">
         <v>95.647432415326193</v>
       </c>
-      <c r="CP113" s="20">
+      <c r="CP113" s="21">
         <v>122.31683719044332</v>
       </c>
-      <c r="CQ113" s="20">
+      <c r="CQ113" s="21">
         <v>125.11983909328738</v>
       </c>
-      <c r="CR113" s="20">
+      <c r="CR113" s="21">
         <v>96.751039160575758</v>
       </c>
-      <c r="CS113" s="20">
+      <c r="CS113" s="21">
         <v>101.85994964807638</v>
       </c>
-      <c r="CT113" s="20">
+      <c r="CT113" s="21">
         <v>125.5383098464645</v>
       </c>
-      <c r="CU113" s="20">
-        <v>128.56551790763328</v>
-      </c>
-      <c r="CV113" s="11"/>
+      <c r="CU113" s="21">
+        <v>128.56551790763325</v>
+      </c>
+      <c r="CV113" s="21">
+        <v>100.93580308068952</v>
+      </c>
       <c r="CW113" s="11"/>
       <c r="CX113" s="11"/>
       <c r="CY113" s="11"/>
@@ -19212,25 +19311,27 @@
       <c r="CO114" s="20">
         <v>107.55220669258424</v>
       </c>
-      <c r="CP114" s="20">
+      <c r="CP114" s="21">
         <v>96.19434195318</v>
       </c>
-      <c r="CQ114" s="20">
+      <c r="CQ114" s="21">
         <v>117.32074155562185</v>
       </c>
-      <c r="CR114" s="20">
+      <c r="CR114" s="21">
         <v>110.66494626495727</v>
       </c>
-      <c r="CS114" s="20">
+      <c r="CS114" s="21">
         <v>109.50826821272443</v>
       </c>
-      <c r="CT114" s="20">
+      <c r="CT114" s="21">
         <v>98.722792840130452</v>
       </c>
-      <c r="CU114" s="20">
+      <c r="CU114" s="21">
         <v>120.57515383795474</v>
       </c>
-      <c r="CV114" s="11"/>
+      <c r="CV114" s="21">
+        <v>116.16683870392272</v>
+      </c>
       <c r="CW114" s="11"/>
       <c r="CX114" s="11"/>
       <c r="CY114" s="11"/>
@@ -19564,25 +19665,27 @@
       <c r="CO115" s="20">
         <v>110.53245631699293</v>
       </c>
-      <c r="CP115" s="20">
+      <c r="CP115" s="21">
         <v>92.341616543746824</v>
       </c>
-      <c r="CQ115" s="20">
+      <c r="CQ115" s="21">
         <v>121.54253528128771</v>
       </c>
-      <c r="CR115" s="20">
+      <c r="CR115" s="21">
         <v>113.68159820942256</v>
       </c>
-      <c r="CS115" s="20">
+      <c r="CS115" s="21">
         <v>113.57737138602629</v>
       </c>
-      <c r="CT115" s="20">
+      <c r="CT115" s="21">
         <v>94.768799239857131</v>
       </c>
-      <c r="CU115" s="20">
+      <c r="CU115" s="21">
         <v>124.91405777935998</v>
       </c>
-      <c r="CV115" s="11"/>
+      <c r="CV115" s="21">
+        <v>119.33346853284392</v>
+      </c>
       <c r="CW115" s="11"/>
       <c r="CX115" s="11"/>
       <c r="CY115" s="11"/>
@@ -19916,25 +20019,27 @@
       <c r="CO116" s="20">
         <v>109.13269769204167</v>
       </c>
-      <c r="CP116" s="20">
+      <c r="CP116" s="21">
         <v>90.56745630988145</v>
       </c>
-      <c r="CQ116" s="20">
+      <c r="CQ116" s="21">
         <v>119.69199275927636</v>
       </c>
-      <c r="CR116" s="20">
+      <c r="CR116" s="21">
         <v>112.12973458509255</v>
       </c>
-      <c r="CS116" s="20">
+      <c r="CS116" s="21">
         <v>112.13905262885559</v>
       </c>
-      <c r="CT116" s="20">
+      <c r="CT116" s="21">
         <v>92.948005525000809</v>
       </c>
-      <c r="CU116" s="20">
-        <v>123.01218223445123</v>
-      </c>
-      <c r="CV116" s="11"/>
+      <c r="CU116" s="21">
+        <v>123.0121822344512</v>
+      </c>
+      <c r="CV116" s="21">
+        <v>117.7044514192729</v>
+      </c>
       <c r="CW116" s="11"/>
       <c r="CX116" s="11"/>
       <c r="CY116" s="11"/>
@@ -20268,25 +20373,27 @@
       <c r="CO117" s="20">
         <v>111.46705950406977</v>
       </c>
-      <c r="CP117" s="20">
+      <c r="CP117" s="21">
         <v>91.807772308412552</v>
       </c>
-      <c r="CQ117" s="20">
+      <c r="CQ117" s="21">
         <v>121.86167250137024</v>
       </c>
-      <c r="CR117" s="20">
+      <c r="CR117" s="21">
         <v>117.41526270079726</v>
       </c>
-      <c r="CS117" s="20">
+      <c r="CS117" s="21">
         <v>113.49432079943584</v>
       </c>
-      <c r="CT117" s="20">
+      <c r="CT117" s="21">
         <v>94.220923005312542</v>
       </c>
-      <c r="CU117" s="20">
+      <c r="CU117" s="21">
         <v>125.24204768887333</v>
       </c>
-      <c r="CV117" s="11"/>
+      <c r="CV117" s="21">
+        <v>123.25275838372083</v>
+      </c>
       <c r="CW117" s="11"/>
       <c r="CX117" s="11"/>
       <c r="CY117" s="11"/>
@@ -20620,25 +20727,27 @@
       <c r="CO118" s="20">
         <v>110.70921144819678</v>
       </c>
-      <c r="CP118" s="20">
+      <c r="CP118" s="21">
         <v>92.134773070434534</v>
       </c>
-      <c r="CQ118" s="20">
+      <c r="CQ118" s="21">
         <v>123.34604086817154</v>
       </c>
-      <c r="CR118" s="20">
+      <c r="CR118" s="21">
         <v>116.67034117934367</v>
       </c>
-      <c r="CS118" s="20">
+      <c r="CS118" s="21">
         <v>115.40005821126383</v>
       </c>
-      <c r="CT118" s="20">
+      <c r="CT118" s="21">
         <v>94.556518923244752</v>
       </c>
-      <c r="CU118" s="20">
-        <v>126.76759161065638</v>
-      </c>
-      <c r="CV118" s="11"/>
+      <c r="CU118" s="21">
+        <v>126.76759161065635</v>
+      </c>
+      <c r="CV118" s="21">
+        <v>122.47080184598759</v>
+      </c>
       <c r="CW118" s="11"/>
       <c r="CX118" s="11"/>
       <c r="CY118" s="11"/>
@@ -20785,13 +20894,13 @@
       <c r="CM119" s="11"/>
       <c r="CN119" s="11"/>
       <c r="CO119" s="11"/>
-      <c r="CP119" s="11"/>
-      <c r="CQ119" s="11"/>
-      <c r="CR119" s="11"/>
-      <c r="CS119" s="11"/>
-      <c r="CT119" s="11"/>
-      <c r="CU119" s="11"/>
-      <c r="CV119" s="11"/>
+      <c r="CP119" s="12"/>
+      <c r="CQ119" s="12"/>
+      <c r="CR119" s="12"/>
+      <c r="CS119" s="12"/>
+      <c r="CT119" s="12"/>
+      <c r="CU119" s="12"/>
+      <c r="CV119" s="12"/>
       <c r="CW119" s="11"/>
       <c r="CX119" s="11"/>
       <c r="CY119" s="11"/>
@@ -21125,25 +21234,27 @@
       <c r="CO120" s="20">
         <v>102.90429385394361</v>
       </c>
-      <c r="CP120" s="20">
+      <c r="CP120" s="21">
         <v>102.71357328199467</v>
       </c>
-      <c r="CQ120" s="20">
+      <c r="CQ120" s="21">
         <v>120.26638365122176</v>
       </c>
-      <c r="CR120" s="20">
+      <c r="CR120" s="21">
         <v>104.60506119207318</v>
       </c>
-      <c r="CS120" s="20">
+      <c r="CS120" s="21">
         <v>106.259747